--- a/Data/National Accounts/PSA-02HFCE_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-02HFCE_2018PSNA_Qrt.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2021\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2021\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10788"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9528"/>
   </bookViews>
   <sheets>
     <sheet name="HFCE" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,9 @@
     <definedName name="PCE_Per_Anl">#REF!</definedName>
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HFCE!$A$1:$CI$202</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HFCE!$A$1:$CJ$202</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="60">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -216,13 +216,13 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>As of August 2021</t>
+    <t>As of November 2021</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2021</t>
+    <t>Q1 2000 to Q3 2021</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2021</t>
+    <t>Q1 2001 to Q3 2021</t>
   </si>
 </sst>
 </file>
@@ -353,9 +353,6 @@
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -366,6 +363,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -708,14 +708,14 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:EX202"/>
+  <dimension ref="A1:EW202"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BX2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="BV64" activePane="bottomRight" state="frozen"/>
       <selection activeCell="CA66" sqref="CA66"/>
       <selection pane="topRight" activeCell="CA66" sqref="CA66"/>
       <selection pane="bottomLeft" activeCell="CA66" sqref="CA66"/>
-      <selection pane="bottomRight" activeCell="BY34" sqref="BY34"/>
+      <selection pane="bottomRight" activeCell="BZ90" sqref="BZ90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -739,41 +739,41 @@
     <col min="78" max="78" width="12.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="79" max="80" width="12.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="12.6328125" style="1" customWidth="1"/>
-    <col min="82" max="87" width="12.6328125" style="31" customWidth="1"/>
-    <col min="88" max="16384" width="7.81640625" style="1"/>
+    <col min="82" max="88" width="13.54296875" style="31" customWidth="1"/>
+    <col min="89" max="16384" width="7.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="43">
         <v>2000</v>
@@ -905,8 +905,9 @@
         <v>2021</v>
       </c>
       <c r="CI9" s="41"/>
+      <c r="CJ9" s="41"/>
     </row>
-    <row r="10" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>37</v>
       </c>
@@ -1150,29 +1151,32 @@
       <c r="CC10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CD10" s="33" t="s">
+      <c r="CD10" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="CE10" s="33" t="s">
+      <c r="CE10" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="CF10" s="33" t="s">
+      <c r="CF10" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="CG10" s="33" t="s">
+      <c r="CG10" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="CH10" s="33" t="s">
+      <c r="CH10" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="CI10" s="33" t="s">
+      <c r="CI10" s="32" t="s">
         <v>20</v>
       </c>
+      <c r="CJ10" s="32" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="11" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:153" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
     </row>
-    <row r="12" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1416,25 +1420,27 @@
       <c r="CC12" s="10">
         <v>1423192.3884073743</v>
       </c>
-      <c r="CD12" s="34">
+      <c r="CD12" s="33">
         <v>1142074.0481742721</v>
       </c>
-      <c r="CE12" s="34">
+      <c r="CE12" s="33">
         <v>1302666.7691490611</v>
       </c>
-      <c r="CF12" s="34">
+      <c r="CF12" s="33">
         <v>1196510.9984347573</v>
       </c>
-      <c r="CG12" s="34">
+      <c r="CG12" s="33">
         <v>1546010.1556577059</v>
       </c>
-      <c r="CH12" s="34">
+      <c r="CH12" s="33">
         <v>1237402.6835268156</v>
       </c>
-      <c r="CI12" s="34">
-        <v>1401791.9443142777</v>
-      </c>
-      <c r="CJ12" s="11"/>
+      <c r="CI12" s="33">
+        <v>1400123.2578233925</v>
+      </c>
+      <c r="CJ12" s="33">
+        <v>1305224.6104324281</v>
+      </c>
       <c r="CK12" s="11"/>
       <c r="CL12" s="11"/>
       <c r="CM12" s="11"/>
@@ -1500,9 +1506,8 @@
       <c r="EU12" s="11"/>
       <c r="EV12" s="11"/>
       <c r="EW12" s="11"/>
-      <c r="EX12" s="11"/>
     </row>
-    <row r="13" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1746,25 +1751,27 @@
       <c r="CC13" s="10">
         <v>107342.64081968625</v>
       </c>
-      <c r="CD13" s="34">
+      <c r="CD13" s="33">
         <v>63808.199208049409</v>
       </c>
-      <c r="CE13" s="34">
+      <c r="CE13" s="33">
         <v>60380.118558236449</v>
       </c>
-      <c r="CF13" s="34">
+      <c r="CF13" s="33">
         <v>74174.362641229498</v>
       </c>
-      <c r="CG13" s="34">
+      <c r="CG13" s="33">
         <v>97489.218379200349</v>
       </c>
-      <c r="CH13" s="34">
+      <c r="CH13" s="33">
         <v>63012.872440254498</v>
       </c>
-      <c r="CI13" s="34">
-        <v>65129.28459143325</v>
-      </c>
-      <c r="CJ13" s="11"/>
+      <c r="CI13" s="33">
+        <v>65676.393713361467</v>
+      </c>
+      <c r="CJ13" s="33">
+        <v>77988.513257050436</v>
+      </c>
       <c r="CK13" s="11"/>
       <c r="CL13" s="11"/>
       <c r="CM13" s="11"/>
@@ -1830,9 +1837,8 @@
       <c r="EU13" s="11"/>
       <c r="EV13" s="11"/>
       <c r="EW13" s="11"/>
-      <c r="EX13" s="11"/>
     </row>
-    <row r="14" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -2076,25 +2082,27 @@
       <c r="CC14" s="10">
         <v>78426.215947327102</v>
       </c>
-      <c r="CD14" s="34">
+      <c r="CD14" s="33">
         <v>60578.243922628812</v>
       </c>
-      <c r="CE14" s="34">
+      <c r="CE14" s="33">
         <v>40624.067408556562</v>
       </c>
-      <c r="CF14" s="34">
+      <c r="CF14" s="33">
         <v>53789.956322125661</v>
       </c>
-      <c r="CG14" s="34">
+      <c r="CG14" s="33">
         <v>70121.941341846716</v>
       </c>
-      <c r="CH14" s="34">
+      <c r="CH14" s="33">
         <v>50993.888022064297</v>
       </c>
-      <c r="CI14" s="34">
-        <v>57767.889252656787</v>
-      </c>
-      <c r="CJ14" s="11"/>
+      <c r="CI14" s="33">
+        <v>58753.563010158527</v>
+      </c>
+      <c r="CJ14" s="33">
+        <v>68162.269789121594</v>
+      </c>
       <c r="CK14" s="11"/>
       <c r="CL14" s="11"/>
       <c r="CM14" s="11"/>
@@ -2160,9 +2168,8 @@
       <c r="EU14" s="11"/>
       <c r="EV14" s="11"/>
       <c r="EW14" s="11"/>
-      <c r="EX14" s="11"/>
     </row>
-    <row r="15" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -2406,25 +2413,27 @@
       <c r="CC15" s="10">
         <v>421309.15947287559</v>
       </c>
-      <c r="CD15" s="34">
+      <c r="CD15" s="33">
         <v>397368.01057100273</v>
       </c>
-      <c r="CE15" s="34">
+      <c r="CE15" s="33">
         <v>464058.08512358821</v>
       </c>
-      <c r="CF15" s="34">
+      <c r="CF15" s="33">
         <v>450075.54415801761</v>
       </c>
-      <c r="CG15" s="34">
+      <c r="CG15" s="33">
         <v>451073.94253765931</v>
       </c>
-      <c r="CH15" s="34">
+      <c r="CH15" s="33">
         <v>400006.95837965829</v>
       </c>
-      <c r="CI15" s="34">
-        <v>504671.92265183985</v>
-      </c>
-      <c r="CJ15" s="11"/>
+      <c r="CI15" s="33">
+        <v>504165.56267432391</v>
+      </c>
+      <c r="CJ15" s="33">
+        <v>481079.38748381223</v>
+      </c>
       <c r="CK15" s="11"/>
       <c r="CL15" s="11"/>
       <c r="CM15" s="11"/>
@@ -2490,9 +2499,8 @@
       <c r="EU15" s="11"/>
       <c r="EV15" s="11"/>
       <c r="EW15" s="11"/>
-      <c r="EX15" s="11"/>
     </row>
-    <row r="16" spans="1:154" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:153" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>8</v>
       </c>
@@ -2736,25 +2744,27 @@
       <c r="CC16" s="10">
         <v>116600.96532369894</v>
       </c>
-      <c r="CD16" s="34">
+      <c r="CD16" s="33">
         <v>99938.200680195951</v>
       </c>
-      <c r="CE16" s="34">
+      <c r="CE16" s="33">
         <v>78540.351136274709</v>
       </c>
-      <c r="CF16" s="34">
+      <c r="CF16" s="33">
         <v>99415.203470963083</v>
       </c>
-      <c r="CG16" s="34">
+      <c r="CG16" s="33">
         <v>113803.41339180054</v>
       </c>
-      <c r="CH16" s="34">
+      <c r="CH16" s="33">
         <v>95467.271477366026</v>
       </c>
-      <c r="CI16" s="34">
-        <v>92045.780840791791</v>
-      </c>
-      <c r="CJ16" s="11"/>
+      <c r="CI16" s="33">
+        <v>92731.163094871226</v>
+      </c>
+      <c r="CJ16" s="33">
+        <v>106064.13809344247</v>
+      </c>
       <c r="CK16" s="11"/>
       <c r="CL16" s="11"/>
       <c r="CM16" s="11"/>
@@ -2820,9 +2830,8 @@
       <c r="EU16" s="11"/>
       <c r="EV16" s="11"/>
       <c r="EW16" s="11"/>
-      <c r="EX16" s="11"/>
     </row>
-    <row r="17" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -3066,25 +3075,27 @@
       <c r="CC17" s="10">
         <v>149519.82417767216</v>
       </c>
-      <c r="CD17" s="34">
+      <c r="CD17" s="33">
         <v>143775.6784055263</v>
       </c>
-      <c r="CE17" s="34">
+      <c r="CE17" s="33">
         <v>116465.1610372469</v>
       </c>
-      <c r="CF17" s="34">
+      <c r="CF17" s="33">
         <v>170222.02931540832</v>
       </c>
-      <c r="CG17" s="34">
+      <c r="CG17" s="33">
         <v>148897.2388446377</v>
       </c>
-      <c r="CH17" s="34">
+      <c r="CH17" s="33">
         <v>158339.62356058008</v>
       </c>
-      <c r="CI17" s="34">
-        <v>137184.4357791779</v>
-      </c>
-      <c r="CJ17" s="11"/>
+      <c r="CI17" s="33">
+        <v>138609.24620856263</v>
+      </c>
+      <c r="CJ17" s="33">
+        <v>208468.12793236409</v>
+      </c>
       <c r="CK17" s="11"/>
       <c r="CL17" s="11"/>
       <c r="CM17" s="11"/>
@@ -3150,9 +3161,8 @@
       <c r="EU17" s="11"/>
       <c r="EV17" s="11"/>
       <c r="EW17" s="11"/>
-      <c r="EX17" s="11"/>
     </row>
-    <row r="18" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -3396,25 +3406,27 @@
       <c r="CC18" s="10">
         <v>337206.9525813855</v>
       </c>
-      <c r="CD18" s="34">
+      <c r="CD18" s="33">
         <v>378838.56070661329</v>
       </c>
-      <c r="CE18" s="34">
+      <c r="CE18" s="33">
         <v>150523.48542832228</v>
       </c>
-      <c r="CF18" s="34">
+      <c r="CF18" s="33">
         <v>267335.63204748865</v>
       </c>
-      <c r="CG18" s="34">
+      <c r="CG18" s="33">
         <v>250317.15059597345</v>
       </c>
-      <c r="CH18" s="34">
+      <c r="CH18" s="33">
         <v>302563.4006501984</v>
       </c>
-      <c r="CI18" s="34">
-        <v>207904.32955675645</v>
-      </c>
-      <c r="CJ18" s="11"/>
+      <c r="CI18" s="33">
+        <v>206145.16370168439</v>
+      </c>
+      <c r="CJ18" s="33">
+        <v>322940.49864943034</v>
+      </c>
       <c r="CK18" s="11"/>
       <c r="CL18" s="11"/>
       <c r="CM18" s="11"/>
@@ -3480,9 +3492,8 @@
       <c r="EU18" s="11"/>
       <c r="EV18" s="11"/>
       <c r="EW18" s="11"/>
-      <c r="EX18" s="11"/>
     </row>
-    <row r="19" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -3726,25 +3737,27 @@
       <c r="CC19" s="10">
         <v>105178.04543892559</v>
       </c>
-      <c r="CD19" s="34">
+      <c r="CD19" s="33">
         <v>105358.40177141986</v>
       </c>
-      <c r="CE19" s="34">
+      <c r="CE19" s="33">
         <v>101207.94819604127</v>
       </c>
-      <c r="CF19" s="34">
+      <c r="CF19" s="33">
         <v>83327.265974357346</v>
       </c>
-      <c r="CG19" s="34">
+      <c r="CG19" s="33">
         <v>110301.81518732721</v>
       </c>
-      <c r="CH19" s="34">
+      <c r="CH19" s="33">
         <v>112751.54556165689</v>
       </c>
-      <c r="CI19" s="34">
-        <v>115998.38211001591</v>
-      </c>
-      <c r="CJ19" s="11"/>
+      <c r="CI19" s="33">
+        <v>115034.92346509021</v>
+      </c>
+      <c r="CJ19" s="33">
+        <v>89792.948428916061</v>
+      </c>
       <c r="CK19" s="11"/>
       <c r="CL19" s="11"/>
       <c r="CM19" s="11"/>
@@ -3810,9 +3823,8 @@
       <c r="EU19" s="11"/>
       <c r="EV19" s="11"/>
       <c r="EW19" s="11"/>
-      <c r="EX19" s="11"/>
     </row>
-    <row r="20" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -4056,25 +4068,27 @@
       <c r="CC20" s="10">
         <v>99186.534652824776</v>
       </c>
-      <c r="CD20" s="34">
+      <c r="CD20" s="33">
         <v>73193.512549612424</v>
       </c>
-      <c r="CE20" s="34">
+      <c r="CE20" s="33">
         <v>26388.469600933404</v>
       </c>
-      <c r="CF20" s="34">
+      <c r="CF20" s="33">
         <v>28900.724269269369</v>
       </c>
-      <c r="CG20" s="34">
+      <c r="CG20" s="33">
         <v>49713.059686141794</v>
       </c>
-      <c r="CH20" s="34">
+      <c r="CH20" s="33">
         <v>48363.151687231359</v>
       </c>
-      <c r="CI20" s="34">
-        <v>30360.883329282053</v>
-      </c>
-      <c r="CJ20" s="11"/>
+      <c r="CI20" s="33">
+        <v>30171.603099089683</v>
+      </c>
+      <c r="CJ20" s="33">
+        <v>34839.239441192702</v>
+      </c>
       <c r="CK20" s="11"/>
       <c r="CL20" s="11"/>
       <c r="CM20" s="11"/>
@@ -4140,9 +4154,8 @@
       <c r="EU20" s="11"/>
       <c r="EV20" s="11"/>
       <c r="EW20" s="11"/>
-      <c r="EX20" s="11"/>
     </row>
-    <row r="21" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -4386,25 +4399,27 @@
       <c r="CC21" s="10">
         <v>203208.10149850152</v>
       </c>
-      <c r="CD21" s="34">
+      <c r="CD21" s="33">
         <v>177602.13199916715</v>
       </c>
-      <c r="CE21" s="34">
+      <c r="CE21" s="33">
         <v>152999.93988499459</v>
       </c>
-      <c r="CF21" s="34">
+      <c r="CF21" s="33">
         <v>174015.21272384012</v>
       </c>
-      <c r="CG21" s="34">
+      <c r="CG21" s="33">
         <v>175547.46908930663</v>
       </c>
-      <c r="CH21" s="34">
+      <c r="CH21" s="33">
         <v>182564.30075081182</v>
       </c>
-      <c r="CI21" s="34">
-        <v>170696.38249378075</v>
-      </c>
-      <c r="CJ21" s="11"/>
+      <c r="CI21" s="33">
+        <v>172007.47830100509</v>
+      </c>
+      <c r="CJ21" s="33">
+        <v>201301.99512338772</v>
+      </c>
       <c r="CK21" s="11"/>
       <c r="CL21" s="11"/>
       <c r="CM21" s="11"/>
@@ -4470,9 +4485,8 @@
       <c r="EU21" s="11"/>
       <c r="EV21" s="11"/>
       <c r="EW21" s="11"/>
-      <c r="EX21" s="11"/>
     </row>
-    <row r="22" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -4716,25 +4730,27 @@
       <c r="CC22" s="10">
         <v>381915.78915751365</v>
       </c>
-      <c r="CD22" s="34">
+      <c r="CD22" s="33">
         <v>304056.3807132431</v>
       </c>
-      <c r="CE22" s="34">
+      <c r="CE22" s="33">
         <v>105147.04433439972</v>
       </c>
-      <c r="CF22" s="34">
+      <c r="CF22" s="33">
         <v>169645.54018817673</v>
       </c>
-      <c r="CG22" s="34">
+      <c r="CG22" s="33">
         <v>223928.89781652973</v>
       </c>
-      <c r="CH22" s="34">
+      <c r="CH22" s="33">
         <v>256504.52977942085</v>
       </c>
-      <c r="CI22" s="34">
-        <v>136520.67260818192</v>
-      </c>
-      <c r="CJ22" s="11"/>
+      <c r="CI22" s="33">
+        <v>137304.95677682673</v>
+      </c>
+      <c r="CJ22" s="33">
+        <v>197246.94276199664</v>
+      </c>
       <c r="CK22" s="11"/>
       <c r="CL22" s="11"/>
       <c r="CM22" s="11"/>
@@ -4800,9 +4816,8 @@
       <c r="EU22" s="11"/>
       <c r="EV22" s="11"/>
       <c r="EW22" s="11"/>
-      <c r="EX22" s="11"/>
     </row>
-    <row r="23" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -5046,25 +5061,27 @@
       <c r="CC23" s="10">
         <v>562061.54860075354</v>
       </c>
-      <c r="CD23" s="34">
+      <c r="CD23" s="33">
         <v>475787.96754819271</v>
       </c>
-      <c r="CE23" s="34">
+      <c r="CE23" s="33">
         <v>443944.74895423552</v>
       </c>
-      <c r="CF23" s="34">
+      <c r="CF23" s="33">
         <v>443685.80756709399</v>
       </c>
-      <c r="CG23" s="34">
+      <c r="CG23" s="33">
         <v>564861.20685471199</v>
       </c>
-      <c r="CH23" s="34">
+      <c r="CH23" s="33">
         <v>490014.74795586744</v>
       </c>
-      <c r="CI23" s="34">
-        <v>473601.76238042017</v>
-      </c>
-      <c r="CJ23" s="11"/>
+      <c r="CI23" s="33">
+        <v>474727.9682761578</v>
+      </c>
+      <c r="CJ23" s="33">
+        <v>490310.12559149798</v>
+      </c>
       <c r="CK23" s="11"/>
       <c r="CL23" s="11"/>
       <c r="CM23" s="11"/>
@@ -5130,9 +5147,8 @@
       <c r="EU23" s="11"/>
       <c r="EV23" s="11"/>
       <c r="EW23" s="11"/>
-      <c r="EX23" s="11"/>
     </row>
-    <row r="24" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
@@ -5213,13 +5229,13 @@
       <c r="CA24" s="11"/>
       <c r="CB24" s="11"/>
       <c r="CC24" s="11"/>
-      <c r="CD24" s="35"/>
-      <c r="CE24" s="35"/>
-      <c r="CF24" s="35"/>
-      <c r="CG24" s="35"/>
-      <c r="CH24" s="35"/>
-      <c r="CI24" s="35"/>
-      <c r="CJ24" s="11"/>
+      <c r="CD24" s="34"/>
+      <c r="CE24" s="34"/>
+      <c r="CF24" s="34"/>
+      <c r="CG24" s="34"/>
+      <c r="CH24" s="34"/>
+      <c r="CI24" s="34"/>
+      <c r="CJ24" s="34"/>
       <c r="CK24" s="11"/>
       <c r="CL24" s="11"/>
       <c r="CM24" s="11"/>
@@ -5285,9 +5301,8 @@
       <c r="EU24" s="11"/>
       <c r="EV24" s="11"/>
       <c r="EW24" s="11"/>
-      <c r="EX24" s="11"/>
     </row>
-    <row r="25" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:153" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>18</v>
       </c>
@@ -5531,25 +5546,27 @@
       <c r="CC25" s="15">
         <v>3985148.1660785396</v>
       </c>
-      <c r="CD25" s="36">
+      <c r="CD25" s="35">
         <v>3422379.3362499233</v>
       </c>
-      <c r="CE25" s="36">
+      <c r="CE25" s="35">
         <v>3042946.1888118908</v>
       </c>
-      <c r="CF25" s="36">
+      <c r="CF25" s="35">
         <v>3211098.2771127275</v>
       </c>
-      <c r="CG25" s="36">
+      <c r="CG25" s="35">
         <v>3802065.5093828412</v>
       </c>
-      <c r="CH25" s="36">
+      <c r="CH25" s="35">
         <v>3397984.9737919262</v>
       </c>
-      <c r="CI25" s="36">
-        <v>3393673.6699086153</v>
-      </c>
-      <c r="CJ25" s="11"/>
+      <c r="CI25" s="35">
+        <v>3395451.2801445238</v>
+      </c>
+      <c r="CJ25" s="35">
+        <v>3583418.7969846404</v>
+      </c>
       <c r="CK25" s="11"/>
       <c r="CL25" s="11"/>
       <c r="CM25" s="11"/>
@@ -5615,9 +5632,8 @@
       <c r="EU25" s="11"/>
       <c r="EV25" s="11"/>
       <c r="EW25" s="11"/>
-      <c r="EX25" s="11"/>
     </row>
-    <row r="26" spans="1:154" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:153" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -5699,19 +5715,20 @@
       <c r="CA26" s="16"/>
       <c r="CB26" s="16"/>
       <c r="CC26" s="16"/>
-      <c r="CD26" s="37"/>
-      <c r="CE26" s="37"/>
-      <c r="CF26" s="37"/>
-      <c r="CG26" s="37"/>
-      <c r="CH26" s="37"/>
-      <c r="CI26" s="37"/>
+      <c r="CD26" s="36"/>
+      <c r="CE26" s="36"/>
+      <c r="CF26" s="36"/>
+      <c r="CG26" s="36"/>
+      <c r="CH26" s="36"/>
+      <c r="CI26" s="36"/>
+      <c r="CJ26" s="36"/>
     </row>
-    <row r="27" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
@@ -5792,13 +5809,13 @@
       <c r="CA28" s="22"/>
       <c r="CB28" s="22"/>
       <c r="CC28" s="22"/>
-      <c r="CD28" s="38"/>
-      <c r="CE28" s="38"/>
-      <c r="CF28" s="38"/>
-      <c r="CG28" s="38"/>
-      <c r="CH28" s="38"/>
-      <c r="CI28" s="38"/>
-      <c r="CJ28" s="11"/>
+      <c r="CD28" s="37"/>
+      <c r="CE28" s="37"/>
+      <c r="CF28" s="37"/>
+      <c r="CG28" s="37"/>
+      <c r="CH28" s="37"/>
+      <c r="CI28" s="37"/>
+      <c r="CJ28" s="37"/>
       <c r="CK28" s="11"/>
       <c r="CL28" s="11"/>
       <c r="CM28" s="11"/>
@@ -5864,9 +5881,8 @@
       <c r="EU28" s="11"/>
       <c r="EV28" s="11"/>
       <c r="EW28" s="11"/>
-      <c r="EX28" s="11"/>
     </row>
-    <row r="29" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="23"/>
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
@@ -5947,13 +5963,13 @@
       <c r="CA29" s="25"/>
       <c r="CB29" s="25"/>
       <c r="CC29" s="25"/>
-      <c r="CD29" s="39"/>
-      <c r="CE29" s="39"/>
-      <c r="CF29" s="39"/>
-      <c r="CG29" s="39"/>
-      <c r="CH29" s="39"/>
-      <c r="CI29" s="39"/>
-      <c r="CJ29" s="11"/>
+      <c r="CD29" s="38"/>
+      <c r="CE29" s="38"/>
+      <c r="CF29" s="38"/>
+      <c r="CG29" s="38"/>
+      <c r="CH29" s="38"/>
+      <c r="CI29" s="38"/>
+      <c r="CJ29" s="38"/>
       <c r="CK29" s="11"/>
       <c r="CL29" s="11"/>
       <c r="CM29" s="11"/>
@@ -6019,39 +6035,38 @@
       <c r="EU29" s="11"/>
       <c r="EV29" s="11"/>
       <c r="EW29" s="11"/>
-      <c r="EX29" s="11"/>
     </row>
-    <row r="30" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="43">
         <v>2000</v>
@@ -6182,11 +6197,10 @@
       <c r="CH38" s="41">
         <v>2021</v>
       </c>
-      <c r="CI38" s="41">
-        <v>0</v>
-      </c>
+      <c r="CI38" s="41"/>
+      <c r="CJ38" s="41"/>
     </row>
-    <row r="39" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>37</v>
       </c>
@@ -6430,29 +6444,32 @@
       <c r="CC39" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CD39" s="33" t="s">
+      <c r="CD39" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="CE39" s="33" t="s">
+      <c r="CE39" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="CF39" s="33" t="s">
+      <c r="CF39" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="CG39" s="33" t="s">
+      <c r="CG39" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="CH39" s="33" t="s">
+      <c r="CH39" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="CI39" s="33" t="s">
+      <c r="CI39" s="32" t="s">
         <v>20</v>
       </c>
+      <c r="CJ39" s="32" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="40" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:153" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
     </row>
-    <row r="41" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>12</v>
       </c>
@@ -6696,25 +6713,27 @@
       <c r="CC41" s="10">
         <v>1402836.3942819654</v>
       </c>
-      <c r="CD41" s="34">
+      <c r="CD41" s="33">
         <v>1116359.6480212801</v>
       </c>
-      <c r="CE41" s="34">
+      <c r="CE41" s="33">
         <v>1250582.6352631706</v>
       </c>
-      <c r="CF41" s="34">
+      <c r="CF41" s="33">
         <v>1145741.5370888831</v>
       </c>
-      <c r="CG41" s="34">
+      <c r="CG41" s="33">
         <v>1477792.1961264629</v>
       </c>
-      <c r="CH41" s="34">
+      <c r="CH41" s="33">
         <v>1144005.746802974</v>
       </c>
-      <c r="CI41" s="34">
-        <v>1285705.1400299065</v>
-      </c>
-      <c r="CJ41" s="11"/>
+      <c r="CI41" s="33">
+        <v>1284174.6427209931</v>
+      </c>
+      <c r="CJ41" s="33">
+        <v>1180627.7981894596</v>
+      </c>
       <c r="CK41" s="11"/>
       <c r="CL41" s="11"/>
       <c r="CM41" s="11"/>
@@ -6780,9 +6799,8 @@
       <c r="EU41" s="11"/>
       <c r="EV41" s="11"/>
       <c r="EW41" s="11"/>
-      <c r="EX41" s="11"/>
     </row>
-    <row r="42" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>11</v>
       </c>
@@ -7026,25 +7044,27 @@
       <c r="CC42" s="10">
         <v>90783.59511346645</v>
       </c>
-      <c r="CD42" s="34">
+      <c r="CD42" s="33">
         <v>53646.907706902814</v>
       </c>
-      <c r="CE42" s="34">
+      <c r="CE42" s="33">
         <v>46569.605620781746</v>
       </c>
-      <c r="CF42" s="34">
+      <c r="CF42" s="33">
         <v>53292.551008049755</v>
       </c>
-      <c r="CG42" s="34">
+      <c r="CG42" s="33">
         <v>73657.373518415159</v>
       </c>
-      <c r="CH42" s="34">
+      <c r="CH42" s="33">
         <v>47305.777518442956</v>
       </c>
-      <c r="CI42" s="34">
-        <v>44985.814159916263</v>
-      </c>
-      <c r="CJ42" s="11"/>
+      <c r="CI42" s="33">
+        <v>45363.710976051334</v>
+      </c>
+      <c r="CJ42" s="33">
+        <v>50796.908775187898</v>
+      </c>
       <c r="CK42" s="11"/>
       <c r="CL42" s="11"/>
       <c r="CM42" s="11"/>
@@ -7110,9 +7130,8 @@
       <c r="EU42" s="11"/>
       <c r="EV42" s="11"/>
       <c r="EW42" s="11"/>
-      <c r="EX42" s="11"/>
     </row>
-    <row r="43" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>10</v>
       </c>
@@ -7356,25 +7375,27 @@
       <c r="CC43" s="10">
         <v>77924.108354094104</v>
       </c>
-      <c r="CD43" s="34">
+      <c r="CD43" s="33">
         <v>59284.965063375916</v>
       </c>
-      <c r="CE43" s="34">
+      <c r="CE43" s="33">
         <v>36526.958040328231</v>
       </c>
-      <c r="CF43" s="34">
+      <c r="CF43" s="33">
         <v>52719.960760042144</v>
       </c>
-      <c r="CG43" s="34">
+      <c r="CG43" s="33">
         <v>68525.267764106116</v>
       </c>
-      <c r="CH43" s="34">
+      <c r="CH43" s="33">
         <v>49114.354820029279</v>
       </c>
-      <c r="CI43" s="34">
-        <v>51094.121193809413</v>
-      </c>
-      <c r="CJ43" s="11"/>
+      <c r="CI43" s="33">
+        <v>51965.922727064069</v>
+      </c>
+      <c r="CJ43" s="33">
+        <v>65633.401512125114</v>
+      </c>
       <c r="CK43" s="11"/>
       <c r="CL43" s="11"/>
       <c r="CM43" s="11"/>
@@ -7440,9 +7461,8 @@
       <c r="EU43" s="11"/>
       <c r="EV43" s="11"/>
       <c r="EW43" s="11"/>
-      <c r="EX43" s="11"/>
     </row>
-    <row r="44" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>9</v>
       </c>
@@ -7686,25 +7706,27 @@
       <c r="CC44" s="10">
         <v>406110.88713606092</v>
       </c>
-      <c r="CD44" s="34">
+      <c r="CD44" s="33">
         <v>403695.83942800551</v>
       </c>
-      <c r="CE44" s="34">
+      <c r="CE44" s="33">
         <v>457359.14528301713</v>
       </c>
-      <c r="CF44" s="34">
+      <c r="CF44" s="33">
         <v>420909.14613835013</v>
       </c>
-      <c r="CG44" s="34">
+      <c r="CG44" s="33">
         <v>431632.82750443189</v>
       </c>
-      <c r="CH44" s="34">
+      <c r="CH44" s="33">
         <v>403211.15183426184</v>
       </c>
-      <c r="CI44" s="34">
-        <v>487958.92143465276</v>
-      </c>
-      <c r="CJ44" s="11"/>
+      <c r="CI44" s="33">
+        <v>487469.33036093495</v>
+      </c>
+      <c r="CJ44" s="33">
+        <v>436050.86564871832</v>
+      </c>
       <c r="CK44" s="11"/>
       <c r="CL44" s="11"/>
       <c r="CM44" s="11"/>
@@ -7770,9 +7792,8 @@
       <c r="EU44" s="11"/>
       <c r="EV44" s="11"/>
       <c r="EW44" s="11"/>
-      <c r="EX44" s="11"/>
     </row>
-    <row r="45" spans="1:154" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:153" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>8</v>
       </c>
@@ -8016,25 +8037,27 @@
       <c r="CC45" s="10">
         <v>115299.93158250675</v>
       </c>
-      <c r="CD45" s="34">
+      <c r="CD45" s="33">
         <v>93672.940679949214</v>
       </c>
-      <c r="CE45" s="34">
+      <c r="CE45" s="33">
         <v>73655.588681661829</v>
       </c>
-      <c r="CF45" s="34">
+      <c r="CF45" s="33">
         <v>91756.681309058506</v>
       </c>
-      <c r="CG45" s="34">
+      <c r="CG45" s="33">
         <v>108734.61373652183</v>
       </c>
-      <c r="CH45" s="34">
+      <c r="CH45" s="33">
         <v>87399.66517326422</v>
       </c>
-      <c r="CI45" s="34">
-        <v>84330.946751177151</v>
-      </c>
-      <c r="CJ45" s="11"/>
+      <c r="CI45" s="33">
+        <v>84958.883565282158</v>
+      </c>
+      <c r="CJ45" s="33">
+        <v>95598.435983222924</v>
+      </c>
       <c r="CK45" s="11"/>
       <c r="CL45" s="11"/>
       <c r="CM45" s="11"/>
@@ -8100,9 +8123,8 @@
       <c r="EU45" s="11"/>
       <c r="EV45" s="11"/>
       <c r="EW45" s="11"/>
-      <c r="EX45" s="11"/>
     </row>
-    <row r="46" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>7</v>
       </c>
@@ -8346,25 +8368,27 @@
       <c r="CC46" s="10">
         <v>142259.80860508882</v>
       </c>
-      <c r="CD46" s="34">
+      <c r="CD46" s="33">
         <v>139861.74848943585</v>
       </c>
-      <c r="CE46" s="34">
+      <c r="CE46" s="33">
         <v>112684.99489550739</v>
       </c>
-      <c r="CF46" s="34">
+      <c r="CF46" s="33">
         <v>157079.65705447758</v>
       </c>
-      <c r="CG46" s="34">
+      <c r="CG46" s="33">
         <v>138104.92231133213</v>
       </c>
-      <c r="CH46" s="34">
+      <c r="CH46" s="33">
         <v>149826.57524437734</v>
       </c>
-      <c r="CI46" s="34">
-        <v>128781.63175950618</v>
-      </c>
-      <c r="CJ46" s="11"/>
+      <c r="CI46" s="33">
+        <v>130119.16987745628</v>
+      </c>
+      <c r="CJ46" s="33">
+        <v>186560.10230663864</v>
+      </c>
       <c r="CK46" s="11"/>
       <c r="CL46" s="11"/>
       <c r="CM46" s="11"/>
@@ -8430,9 +8454,8 @@
       <c r="EU46" s="11"/>
       <c r="EV46" s="11"/>
       <c r="EW46" s="11"/>
-      <c r="EX46" s="11"/>
     </row>
-    <row r="47" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>6</v>
       </c>
@@ -8676,25 +8699,27 @@
       <c r="CC47" s="10">
         <v>346494.51477130334</v>
       </c>
-      <c r="CD47" s="34">
+      <c r="CD47" s="33">
         <v>374106.51897692052</v>
       </c>
-      <c r="CE47" s="34">
+      <c r="CE47" s="33">
         <v>158887.26629422681</v>
       </c>
-      <c r="CF47" s="34">
+      <c r="CF47" s="33">
         <v>231892.22846369055</v>
       </c>
-      <c r="CG47" s="34">
+      <c r="CG47" s="33">
         <v>238269.31600243223</v>
       </c>
-      <c r="CH47" s="34">
+      <c r="CH47" s="33">
         <v>269296.59588865866</v>
       </c>
-      <c r="CI47" s="34">
-        <v>191363.57025612189</v>
-      </c>
-      <c r="CJ47" s="11"/>
+      <c r="CI47" s="33">
+        <v>189744.36271284005</v>
+      </c>
+      <c r="CJ47" s="33">
+        <v>263124.30319707381</v>
+      </c>
       <c r="CK47" s="11"/>
       <c r="CL47" s="11"/>
       <c r="CM47" s="11"/>
@@ -8760,9 +8785,8 @@
       <c r="EU47" s="11"/>
       <c r="EV47" s="11"/>
       <c r="EW47" s="11"/>
-      <c r="EX47" s="11"/>
     </row>
-    <row r="48" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>5</v>
       </c>
@@ -9006,25 +9030,27 @@
       <c r="CC48" s="10">
         <v>108849.66910514253</v>
       </c>
-      <c r="CD48" s="34">
+      <c r="CD48" s="33">
         <v>101311.19645705288</v>
       </c>
-      <c r="CE48" s="34">
+      <c r="CE48" s="33">
         <v>100031.65601928461</v>
       </c>
-      <c r="CF48" s="34">
+      <c r="CF48" s="33">
         <v>83725.982379923036</v>
       </c>
-      <c r="CG48" s="34">
+      <c r="CG48" s="33">
         <v>113778.88991076969</v>
       </c>
-      <c r="CH48" s="34">
+      <c r="CH48" s="33">
         <v>108172.2408206899</v>
       </c>
-      <c r="CI48" s="34">
-        <v>114350.44865324673</v>
-      </c>
-      <c r="CJ48" s="11"/>
+      <c r="CI48" s="33">
+        <v>113400.67740383728</v>
+      </c>
+      <c r="CJ48" s="33">
+        <v>89986.957709928116</v>
+      </c>
       <c r="CK48" s="11"/>
       <c r="CL48" s="11"/>
       <c r="CM48" s="11"/>
@@ -9090,9 +9116,8 @@
       <c r="EU48" s="11"/>
       <c r="EV48" s="11"/>
       <c r="EW48" s="11"/>
-      <c r="EX48" s="11"/>
     </row>
-    <row r="49" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>4</v>
       </c>
@@ -9336,25 +9361,27 @@
       <c r="CC49" s="10">
         <v>95792.488762270077</v>
       </c>
-      <c r="CD49" s="34">
+      <c r="CD49" s="33">
         <v>70727.802002639393</v>
       </c>
-      <c r="CE49" s="34">
+      <c r="CE49" s="33">
         <v>25857.841473765006</v>
       </c>
-      <c r="CF49" s="34">
+      <c r="CF49" s="33">
         <v>28617.674235125127</v>
       </c>
-      <c r="CG49" s="34">
+      <c r="CG49" s="33">
         <v>48303.423765911633</v>
       </c>
-      <c r="CH49" s="34">
+      <c r="CH49" s="33">
         <v>47043.768308913903</v>
       </c>
-      <c r="CI49" s="34">
-        <v>29930.007956078411</v>
-      </c>
-      <c r="CJ49" s="11"/>
+      <c r="CI49" s="33">
+        <v>29743.413951742506</v>
+      </c>
+      <c r="CJ49" s="33">
+        <v>34418.836310751125</v>
+      </c>
       <c r="CK49" s="11"/>
       <c r="CL49" s="11"/>
       <c r="CM49" s="11"/>
@@ -9420,9 +9447,8 @@
       <c r="EU49" s="11"/>
       <c r="EV49" s="11"/>
       <c r="EW49" s="11"/>
-      <c r="EX49" s="11"/>
     </row>
-    <row r="50" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>3</v>
       </c>
@@ -9666,25 +9692,27 @@
       <c r="CC50" s="10">
         <v>208784.32726097357</v>
       </c>
-      <c r="CD50" s="34">
+      <c r="CD50" s="33">
         <v>173022.4730745093</v>
       </c>
-      <c r="CE50" s="34">
+      <c r="CE50" s="33">
         <v>145896.59645766765</v>
       </c>
-      <c r="CF50" s="34">
+      <c r="CF50" s="33">
         <v>166308.00566596744</v>
       </c>
-      <c r="CG50" s="34">
+      <c r="CG50" s="33">
         <v>178395.07643070159</v>
       </c>
-      <c r="CH50" s="34">
+      <c r="CH50" s="33">
         <v>175963.04501287561</v>
       </c>
-      <c r="CI50" s="34">
-        <v>161038.41526194636</v>
-      </c>
-      <c r="CJ50" s="11"/>
+      <c r="CI50" s="33">
+        <v>162275.32953023605</v>
+      </c>
+      <c r="CJ50" s="33">
+        <v>190395.31978807683</v>
+      </c>
       <c r="CK50" s="11"/>
       <c r="CL50" s="11"/>
       <c r="CM50" s="11"/>
@@ -9750,9 +9778,8 @@
       <c r="EU50" s="11"/>
       <c r="EV50" s="11"/>
       <c r="EW50" s="11"/>
-      <c r="EX50" s="11"/>
     </row>
-    <row r="51" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>2</v>
       </c>
@@ -9996,25 +10023,27 @@
       <c r="CC51" s="10">
         <v>371009.02894430578</v>
       </c>
-      <c r="CD51" s="34">
+      <c r="CD51" s="33">
         <v>288481.60229170491</v>
       </c>
-      <c r="CE51" s="34">
+      <c r="CE51" s="33">
         <v>103873.99435049927</v>
       </c>
-      <c r="CF51" s="34">
+      <c r="CF51" s="33">
         <v>155871.00109340524</v>
       </c>
-      <c r="CG51" s="34">
+      <c r="CG51" s="33">
         <v>212495.92433970512</v>
       </c>
-      <c r="CH51" s="34">
+      <c r="CH51" s="33">
         <v>236016.88295202359</v>
       </c>
-      <c r="CI51" s="34">
-        <v>129365.91954535483</v>
-      </c>
-      <c r="CJ51" s="11"/>
+      <c r="CI51" s="33">
+        <v>130109.10107766966</v>
+      </c>
+      <c r="CJ51" s="33">
+        <v>173661.89713525001</v>
+      </c>
       <c r="CK51" s="11"/>
       <c r="CL51" s="11"/>
       <c r="CM51" s="11"/>
@@ -10080,9 +10109,8 @@
       <c r="EU51" s="11"/>
       <c r="EV51" s="11"/>
       <c r="EW51" s="11"/>
-      <c r="EX51" s="11"/>
     </row>
-    <row r="52" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>1</v>
       </c>
@@ -10326,25 +10354,27 @@
       <c r="CC52" s="10">
         <v>569613.86381379247</v>
       </c>
-      <c r="CD52" s="34">
+      <c r="CD52" s="33">
         <v>440187.7408678669</v>
       </c>
-      <c r="CE52" s="34">
+      <c r="CE52" s="33">
         <v>406557.42730737804</v>
       </c>
-      <c r="CF52" s="34">
+      <c r="CF52" s="33">
         <v>442912.59738894709</v>
       </c>
-      <c r="CG52" s="34">
+      <c r="CG52" s="33">
         <v>560348.67368917039</v>
       </c>
-      <c r="CH52" s="34">
+      <c r="CH52" s="33">
         <v>439574.53408310656</v>
       </c>
-      <c r="CI52" s="34">
-        <v>420598.97466267407</v>
-      </c>
-      <c r="CJ52" s="11"/>
+      <c r="CI52" s="33">
+        <v>421599.14206624427</v>
+      </c>
+      <c r="CJ52" s="33">
+        <v>479963.51070986682</v>
+      </c>
       <c r="CK52" s="11"/>
       <c r="CL52" s="11"/>
       <c r="CM52" s="11"/>
@@ -10410,9 +10440,8 @@
       <c r="EU52" s="11"/>
       <c r="EV52" s="11"/>
       <c r="EW52" s="11"/>
-      <c r="EX52" s="11"/>
     </row>
-    <row r="53" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
@@ -10493,13 +10522,13 @@
       <c r="CA53" s="11"/>
       <c r="CB53" s="11"/>
       <c r="CC53" s="11"/>
-      <c r="CD53" s="35"/>
-      <c r="CE53" s="35"/>
-      <c r="CF53" s="35"/>
-      <c r="CG53" s="35"/>
-      <c r="CH53" s="35"/>
-      <c r="CI53" s="35"/>
-      <c r="CJ53" s="11"/>
+      <c r="CD53" s="34"/>
+      <c r="CE53" s="34"/>
+      <c r="CF53" s="34"/>
+      <c r="CG53" s="34"/>
+      <c r="CH53" s="34"/>
+      <c r="CI53" s="34"/>
+      <c r="CJ53" s="34"/>
       <c r="CK53" s="11"/>
       <c r="CL53" s="11"/>
       <c r="CM53" s="11"/>
@@ -10565,9 +10594,8 @@
       <c r="EU53" s="11"/>
       <c r="EV53" s="11"/>
       <c r="EW53" s="11"/>
-      <c r="EX53" s="11"/>
     </row>
-    <row r="54" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:153" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>18</v>
       </c>
@@ -10811,25 +10839,27 @@
       <c r="CC54" s="15">
         <v>3935758.6177309696</v>
       </c>
-      <c r="CD54" s="36">
+      <c r="CD54" s="35">
         <v>3314359.3830596441</v>
       </c>
-      <c r="CE54" s="36">
+      <c r="CE54" s="35">
         <v>2918483.7096872884</v>
       </c>
-      <c r="CF54" s="36">
+      <c r="CF54" s="35">
         <v>3030827.0225859196</v>
       </c>
-      <c r="CG54" s="36">
+      <c r="CG54" s="35">
         <v>3650038.5050999606</v>
       </c>
-      <c r="CH54" s="36">
+      <c r="CH54" s="35">
         <v>3156930.3384596184</v>
       </c>
-      <c r="CI54" s="36">
-        <v>3129503.91166439</v>
-      </c>
-      <c r="CJ54" s="11"/>
+      <c r="CI54" s="35">
+        <v>3130923.6869703522</v>
+      </c>
+      <c r="CJ54" s="35">
+        <v>3246818.3372662989</v>
+      </c>
       <c r="CK54" s="11"/>
       <c r="CL54" s="11"/>
       <c r="CM54" s="11"/>
@@ -10895,9 +10925,8 @@
       <c r="EU54" s="11"/>
       <c r="EV54" s="11"/>
       <c r="EW54" s="11"/>
-      <c r="EX54" s="11"/>
     </row>
-    <row r="55" spans="1:154" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:153" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
@@ -10979,19 +11008,20 @@
       <c r="CA55" s="16"/>
       <c r="CB55" s="16"/>
       <c r="CC55" s="16"/>
-      <c r="CD55" s="37"/>
-      <c r="CE55" s="37"/>
-      <c r="CF55" s="37"/>
-      <c r="CG55" s="37"/>
-      <c r="CH55" s="37"/>
-      <c r="CI55" s="37"/>
+      <c r="CD55" s="36"/>
+      <c r="CE55" s="36"/>
+      <c r="CF55" s="36"/>
+      <c r="CG55" s="36"/>
+      <c r="CH55" s="36"/>
+      <c r="CI55" s="36"/>
+      <c r="CJ55" s="36"/>
     </row>
-    <row r="56" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
@@ -11072,13 +11102,13 @@
       <c r="CA57" s="11"/>
       <c r="CB57" s="11"/>
       <c r="CC57" s="11"/>
-      <c r="CD57" s="35"/>
-      <c r="CE57" s="35"/>
-      <c r="CF57" s="35"/>
-      <c r="CG57" s="35"/>
-      <c r="CH57" s="35"/>
-      <c r="CI57" s="35"/>
-      <c r="CJ57" s="11"/>
+      <c r="CD57" s="34"/>
+      <c r="CE57" s="34"/>
+      <c r="CF57" s="34"/>
+      <c r="CG57" s="34"/>
+      <c r="CH57" s="34"/>
+      <c r="CI57" s="34"/>
+      <c r="CJ57" s="34"/>
       <c r="CK57" s="11"/>
       <c r="CL57" s="11"/>
       <c r="CM57" s="11"/>
@@ -11144,9 +11174,8 @@
       <c r="EU57" s="11"/>
       <c r="EV57" s="11"/>
       <c r="EW57" s="11"/>
-      <c r="EX57" s="11"/>
     </row>
-    <row r="58" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="24"/>
       <c r="C58" s="24"/>
       <c r="D58" s="24"/>
@@ -11227,13 +11256,13 @@
       <c r="CA58" s="25"/>
       <c r="CB58" s="25"/>
       <c r="CC58" s="25"/>
-      <c r="CD58" s="39"/>
-      <c r="CE58" s="39"/>
-      <c r="CF58" s="39"/>
-      <c r="CG58" s="39"/>
-      <c r="CH58" s="39"/>
-      <c r="CI58" s="39"/>
-      <c r="CJ58" s="11"/>
+      <c r="CD58" s="38"/>
+      <c r="CE58" s="38"/>
+      <c r="CF58" s="38"/>
+      <c r="CG58" s="38"/>
+      <c r="CH58" s="38"/>
+      <c r="CI58" s="38"/>
+      <c r="CJ58" s="38"/>
       <c r="CK58" s="11"/>
       <c r="CL58" s="11"/>
       <c r="CM58" s="11"/>
@@ -11299,39 +11328,38 @@
       <c r="EU58" s="11"/>
       <c r="EV58" s="11"/>
       <c r="EW58" s="11"/>
-      <c r="EX58" s="11"/>
     </row>
-    <row r="59" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="43" t="s">
         <v>39</v>
@@ -11457,12 +11485,13 @@
         <v>56</v>
       </c>
       <c r="CE67" s="41"/>
-      <c r="CF67" s="32"/>
-      <c r="CG67" s="32"/>
-      <c r="CH67" s="32"/>
-      <c r="CI67" s="32"/>
+      <c r="CF67" s="41"/>
+      <c r="CG67" s="40"/>
+      <c r="CH67" s="40"/>
+      <c r="CI67" s="40"/>
+      <c r="CJ67" s="40"/>
     </row>
-    <row r="68" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>37</v>
       </c>
@@ -11706,21 +11735,24 @@
       <c r="CC68" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CD68" s="33" t="s">
+      <c r="CD68" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="CE68" s="33" t="s">
+      <c r="CE68" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="CF68" s="33"/>
-      <c r="CG68" s="33"/>
-      <c r="CH68" s="33"/>
-      <c r="CI68" s="33"/>
+      <c r="CF68" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="CG68" s="32"/>
+      <c r="CH68" s="32"/>
+      <c r="CI68" s="32"/>
+      <c r="CJ68" s="32"/>
     </row>
-    <row r="69" spans="1:150" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:149" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
     </row>
-    <row r="70" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>12</v>
       </c>
@@ -11964,17 +11996,19 @@
       <c r="CC70" s="27">
         <v>8.6297375007584805</v>
       </c>
-      <c r="CD70" s="40">
+      <c r="CD70" s="39">
         <v>8.3469750061247368</v>
       </c>
-      <c r="CE70" s="40">
-        <v>7.6094038408585476</v>
-      </c>
-      <c r="CF70" s="35"/>
-      <c r="CG70" s="35"/>
-      <c r="CH70" s="35"/>
-      <c r="CI70" s="35"/>
-      <c r="CJ70" s="11"/>
+      <c r="CE70" s="39">
+        <v>7.481306116221333</v>
+      </c>
+      <c r="CF70" s="39">
+        <v>9.0858848886376222</v>
+      </c>
+      <c r="CG70" s="34"/>
+      <c r="CH70" s="34"/>
+      <c r="CI70" s="34"/>
+      <c r="CJ70" s="34"/>
       <c r="CK70" s="11"/>
       <c r="CL70" s="11"/>
       <c r="CM70" s="11"/>
@@ -12036,9 +12070,8 @@
       <c r="EQ70" s="11"/>
       <c r="ER70" s="11"/>
       <c r="ES70" s="11"/>
-      <c r="ET70" s="11"/>
     </row>
-    <row r="71" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>11</v>
       </c>
@@ -12282,17 +12315,19 @@
       <c r="CC71" s="27">
         <v>-9.1794112435128596</v>
       </c>
-      <c r="CD71" s="40">
+      <c r="CD71" s="39">
         <v>-1.2464334954849789</v>
       </c>
-      <c r="CE71" s="40">
-        <v>7.8654466844351134</v>
-      </c>
-      <c r="CF71" s="35"/>
-      <c r="CG71" s="35"/>
-      <c r="CH71" s="35"/>
-      <c r="CI71" s="35"/>
-      <c r="CJ71" s="11"/>
+      <c r="CE71" s="39">
+        <v>8.7715547461483965</v>
+      </c>
+      <c r="CF71" s="39">
+        <v>5.1421414084397554</v>
+      </c>
+      <c r="CG71" s="34"/>
+      <c r="CH71" s="34"/>
+      <c r="CI71" s="34"/>
+      <c r="CJ71" s="34"/>
       <c r="CK71" s="11"/>
       <c r="CL71" s="11"/>
       <c r="CM71" s="11"/>
@@ -12354,9 +12389,8 @@
       <c r="EQ71" s="11"/>
       <c r="ER71" s="11"/>
       <c r="ES71" s="11"/>
-      <c r="ET71" s="11"/>
     </row>
-    <row r="72" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>10</v>
       </c>
@@ -12600,17 +12634,19 @@
       <c r="CC72" s="27">
         <v>-10.588646290237619</v>
       </c>
-      <c r="CD72" s="40">
+      <c r="CD72" s="39">
         <v>-15.821448889812245</v>
       </c>
-      <c r="CE72" s="40">
-        <v>42.201145620611243</v>
-      </c>
-      <c r="CF72" s="35"/>
-      <c r="CG72" s="35"/>
-      <c r="CH72" s="35"/>
-      <c r="CI72" s="35"/>
-      <c r="CJ72" s="11"/>
+      <c r="CE72" s="39">
+        <v>44.627475184287903</v>
+      </c>
+      <c r="CF72" s="39">
+        <v>26.719325408866553</v>
+      </c>
+      <c r="CG72" s="34"/>
+      <c r="CH72" s="34"/>
+      <c r="CI72" s="34"/>
+      <c r="CJ72" s="34"/>
       <c r="CK72" s="11"/>
       <c r="CL72" s="11"/>
       <c r="CM72" s="11"/>
@@ -12672,9 +12708,8 @@
       <c r="EQ72" s="11"/>
       <c r="ER72" s="11"/>
       <c r="ES72" s="11"/>
-      <c r="ET72" s="11"/>
     </row>
-    <row r="73" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>9</v>
       </c>
@@ -12918,17 +12953,19 @@
       <c r="CC73" s="27">
         <v>7.0648317026917198</v>
       </c>
-      <c r="CD73" s="40">
+      <c r="CD73" s="39">
         <v>0.6641067570747623</v>
       </c>
-      <c r="CE73" s="40">
-        <v>8.7518866345007922</v>
-      </c>
-      <c r="CF73" s="35"/>
-      <c r="CG73" s="35"/>
-      <c r="CH73" s="35"/>
-      <c r="CI73" s="35"/>
-      <c r="CJ73" s="11"/>
+      <c r="CE73" s="39">
+        <v>8.6427709884753483</v>
+      </c>
+      <c r="CF73" s="39">
+        <v>6.8885865335774383</v>
+      </c>
+      <c r="CG73" s="34"/>
+      <c r="CH73" s="34"/>
+      <c r="CI73" s="34"/>
+      <c r="CJ73" s="34"/>
       <c r="CK73" s="11"/>
       <c r="CL73" s="11"/>
       <c r="CM73" s="11"/>
@@ -12990,9 +13027,8 @@
       <c r="EQ73" s="11"/>
       <c r="ER73" s="11"/>
       <c r="ES73" s="11"/>
-      <c r="ET73" s="11"/>
     </row>
-    <row r="74" spans="1:150" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:149" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
         <v>8</v>
       </c>
@@ -13236,17 +13272,19 @@
       <c r="CC74" s="27">
         <v>-2.3992528056110416</v>
       </c>
-      <c r="CD74" s="40">
+      <c r="CD74" s="39">
         <v>-4.4736939152396644</v>
       </c>
-      <c r="CE74" s="40">
-        <v>17.195530079925319</v>
-      </c>
-      <c r="CF74" s="35"/>
-      <c r="CG74" s="35"/>
-      <c r="CH74" s="35"/>
-      <c r="CI74" s="35"/>
-      <c r="CJ74" s="11"/>
+      <c r="CE74" s="39">
+        <v>18.068179926995938</v>
+      </c>
+      <c r="CF74" s="39">
+        <v>6.68804608383806</v>
+      </c>
+      <c r="CG74" s="34"/>
+      <c r="CH74" s="34"/>
+      <c r="CI74" s="34"/>
+      <c r="CJ74" s="34"/>
       <c r="CK74" s="11"/>
       <c r="CL74" s="11"/>
       <c r="CM74" s="11"/>
@@ -13308,9 +13346,8 @@
       <c r="EQ74" s="11"/>
       <c r="ER74" s="11"/>
       <c r="ES74" s="11"/>
-      <c r="ET74" s="11"/>
     </row>
-    <row r="75" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>7</v>
       </c>
@@ -13554,17 +13591,19 @@
       <c r="CC75" s="27">
         <v>-0.41638982419792114</v>
       </c>
-      <c r="CD75" s="40">
+      <c r="CD75" s="39">
         <v>10.129630627772428</v>
       </c>
-      <c r="CE75" s="40">
-        <v>17.79010526186859</v>
-      </c>
-      <c r="CF75" s="35"/>
-      <c r="CG75" s="35"/>
-      <c r="CH75" s="35"/>
-      <c r="CI75" s="35"/>
-      <c r="CJ75" s="11"/>
+      <c r="CE75" s="39">
+        <v>19.01348435368908</v>
+      </c>
+      <c r="CF75" s="39">
+        <v>22.468360159241612</v>
+      </c>
+      <c r="CG75" s="34"/>
+      <c r="CH75" s="34"/>
+      <c r="CI75" s="34"/>
+      <c r="CJ75" s="34"/>
       <c r="CK75" s="11"/>
       <c r="CL75" s="11"/>
       <c r="CM75" s="11"/>
@@ -13626,9 +13665,8 @@
       <c r="EQ75" s="11"/>
       <c r="ER75" s="11"/>
       <c r="ES75" s="11"/>
-      <c r="ET75" s="11"/>
     </row>
-    <row r="76" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>6</v>
       </c>
@@ -13872,17 +13910,19 @@
       <c r="CC76" s="27">
         <v>-25.767500142050309</v>
       </c>
-      <c r="CD76" s="40">
+      <c r="CD76" s="39">
         <v>-20.133948327262601</v>
       </c>
-      <c r="CE76" s="40">
-        <v>38.120857994454497</v>
-      </c>
-      <c r="CF76" s="35"/>
-      <c r="CG76" s="35"/>
-      <c r="CH76" s="35"/>
-      <c r="CI76" s="35"/>
-      <c r="CJ76" s="11"/>
+      <c r="CE76" s="39">
+        <v>36.952159402293802</v>
+      </c>
+      <c r="CF76" s="39">
+        <v>20.799646562664066</v>
+      </c>
+      <c r="CG76" s="34"/>
+      <c r="CH76" s="34"/>
+      <c r="CI76" s="34"/>
+      <c r="CJ76" s="34"/>
       <c r="CK76" s="11"/>
       <c r="CL76" s="11"/>
       <c r="CM76" s="11"/>
@@ -13944,9 +13984,8 @@
       <c r="EQ76" s="11"/>
       <c r="ER76" s="11"/>
       <c r="ES76" s="11"/>
-      <c r="ET76" s="11"/>
     </row>
-    <row r="77" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>5</v>
       </c>
@@ -14190,17 +14229,19 @@
       <c r="CC77" s="27">
         <v>4.8715202179497368</v>
       </c>
-      <c r="CD77" s="40">
+      <c r="CD77" s="39">
         <v>7.0171373767389014</v>
       </c>
-      <c r="CE77" s="40">
-        <v>14.613905506043224</v>
-      </c>
-      <c r="CF77" s="35"/>
-      <c r="CG77" s="35"/>
-      <c r="CH77" s="35"/>
-      <c r="CI77" s="35"/>
-      <c r="CJ77" s="11"/>
+      <c r="CE77" s="39">
+        <v>13.661946038334747</v>
+      </c>
+      <c r="CF77" s="39">
+        <v>7.7593838930805958</v>
+      </c>
+      <c r="CG77" s="34"/>
+      <c r="CH77" s="34"/>
+      <c r="CI77" s="34"/>
+      <c r="CJ77" s="34"/>
       <c r="CK77" s="11"/>
       <c r="CL77" s="11"/>
       <c r="CM77" s="11"/>
@@ -14262,9 +14303,8 @@
       <c r="EQ77" s="11"/>
       <c r="ER77" s="11"/>
       <c r="ES77" s="11"/>
-      <c r="ET77" s="11"/>
     </row>
-    <row r="78" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>4</v>
       </c>
@@ -14508,17 +14548,19 @@
       <c r="CC78" s="27">
         <v>-49.87922517895327</v>
       </c>
-      <c r="CD78" s="40">
+      <c r="CD78" s="39">
         <v>-33.924264593191126</v>
       </c>
-      <c r="CE78" s="40">
-        <v>15.053596470058793</v>
-      </c>
-      <c r="CF78" s="35"/>
-      <c r="CG78" s="35"/>
-      <c r="CH78" s="35"/>
-      <c r="CI78" s="35"/>
-      <c r="CJ78" s="11"/>
+      <c r="CE78" s="39">
+        <v>14.336312622019065</v>
+      </c>
+      <c r="CF78" s="39">
+        <v>20.547980447112394</v>
+      </c>
+      <c r="CG78" s="34"/>
+      <c r="CH78" s="34"/>
+      <c r="CI78" s="34"/>
+      <c r="CJ78" s="34"/>
       <c r="CK78" s="11"/>
       <c r="CL78" s="11"/>
       <c r="CM78" s="11"/>
@@ -14580,9 +14622,8 @@
       <c r="EQ78" s="11"/>
       <c r="ER78" s="11"/>
       <c r="ES78" s="11"/>
-      <c r="ET78" s="11"/>
     </row>
-    <row r="79" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>3</v>
       </c>
@@ -14826,17 +14867,19 @@
       <c r="CC79" s="27">
         <v>-13.611973245760993</v>
       </c>
-      <c r="CD79" s="40">
+      <c r="CD79" s="39">
         <v>2.7939803963997036</v>
       </c>
-      <c r="CE79" s="40">
-        <v>11.566306903184426</v>
-      </c>
-      <c r="CF79" s="35"/>
-      <c r="CG79" s="35"/>
-      <c r="CH79" s="35"/>
-      <c r="CI79" s="35"/>
-      <c r="CJ79" s="11"/>
+      <c r="CE79" s="39">
+        <v>12.423232604076759</v>
+      </c>
+      <c r="CF79" s="39">
+        <v>15.680687896437746</v>
+      </c>
+      <c r="CG79" s="34"/>
+      <c r="CH79" s="34"/>
+      <c r="CI79" s="34"/>
+      <c r="CJ79" s="34"/>
       <c r="CK79" s="11"/>
       <c r="CL79" s="11"/>
       <c r="CM79" s="11"/>
@@ -14898,9 +14941,8 @@
       <c r="EQ79" s="11"/>
       <c r="ER79" s="11"/>
       <c r="ES79" s="11"/>
-      <c r="ET79" s="11"/>
     </row>
-    <row r="80" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>2</v>
       </c>
@@ -15144,17 +15186,19 @@
       <c r="CC80" s="27">
         <v>-41.366944186700103</v>
       </c>
-      <c r="CD80" s="40">
+      <c r="CD80" s="39">
         <v>-15.63915574548281</v>
       </c>
-      <c r="CE80" s="40">
-        <v>29.837860371999113</v>
-      </c>
-      <c r="CF80" s="35"/>
-      <c r="CG80" s="35"/>
-      <c r="CH80" s="35"/>
-      <c r="CI80" s="35"/>
-      <c r="CJ80" s="11"/>
+      <c r="CE80" s="39">
+        <v>30.583753110696108</v>
+      </c>
+      <c r="CF80" s="39">
+        <v>16.270043140069276</v>
+      </c>
+      <c r="CG80" s="34"/>
+      <c r="CH80" s="34"/>
+      <c r="CI80" s="34"/>
+      <c r="CJ80" s="34"/>
       <c r="CK80" s="11"/>
       <c r="CL80" s="11"/>
       <c r="CM80" s="11"/>
@@ -15216,9 +15260,8 @@
       <c r="EQ80" s="11"/>
       <c r="ER80" s="11"/>
       <c r="ES80" s="11"/>
-      <c r="ET80" s="11"/>
     </row>
-    <row r="81" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>1</v>
       </c>
@@ -15462,17 +15505,19 @@
       <c r="CC81" s="27">
         <v>0.49810528062775461</v>
       </c>
-      <c r="CD81" s="40">
+      <c r="CD81" s="39">
         <v>2.9901513653208838</v>
       </c>
-      <c r="CE81" s="40">
-        <v>6.6803388250554292</v>
-      </c>
-      <c r="CF81" s="35"/>
-      <c r="CG81" s="35"/>
-      <c r="CH81" s="35"/>
-      <c r="CI81" s="35"/>
-      <c r="CJ81" s="11"/>
+      <c r="CE81" s="39">
+        <v>6.9340203695247737</v>
+      </c>
+      <c r="CF81" s="39">
+        <v>10.508408704813817</v>
+      </c>
+      <c r="CG81" s="34"/>
+      <c r="CH81" s="34"/>
+      <c r="CI81" s="34"/>
+      <c r="CJ81" s="34"/>
       <c r="CK81" s="11"/>
       <c r="CL81" s="11"/>
       <c r="CM81" s="11"/>
@@ -15534,9 +15579,8 @@
       <c r="EQ81" s="11"/>
       <c r="ER81" s="11"/>
       <c r="ES81" s="11"/>
-      <c r="ET81" s="11"/>
     </row>
-    <row r="82" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
       <c r="D82" s="13"/>
@@ -15617,13 +15661,13 @@
       <c r="CA82" s="11"/>
       <c r="CB82" s="11"/>
       <c r="CC82" s="11"/>
-      <c r="CD82" s="35"/>
-      <c r="CE82" s="35"/>
-      <c r="CF82" s="35"/>
-      <c r="CG82" s="35"/>
-      <c r="CH82" s="35"/>
-      <c r="CI82" s="35"/>
-      <c r="CJ82" s="11"/>
+      <c r="CD82" s="34"/>
+      <c r="CE82" s="34"/>
+      <c r="CF82" s="34"/>
+      <c r="CG82" s="34"/>
+      <c r="CH82" s="34"/>
+      <c r="CI82" s="34"/>
+      <c r="CJ82" s="34"/>
       <c r="CK82" s="11"/>
       <c r="CL82" s="11"/>
       <c r="CM82" s="11"/>
@@ -15685,9 +15729,8 @@
       <c r="EQ82" s="11"/>
       <c r="ER82" s="11"/>
       <c r="ES82" s="11"/>
-      <c r="ET82" s="11"/>
     </row>
-    <row r="83" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:149" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
         <v>18</v>
       </c>
@@ -15931,17 +15974,19 @@
       <c r="CC83" s="27">
         <v>-4.5941242098372186</v>
       </c>
-      <c r="CD83" s="40">
+      <c r="CD83" s="39">
         <v>-0.7127895554888255</v>
       </c>
-      <c r="CE83" s="40">
-        <v>11.525917953667957</v>
-      </c>
-      <c r="CF83" s="35"/>
-      <c r="CG83" s="35"/>
-      <c r="CH83" s="35"/>
-      <c r="CI83" s="35"/>
-      <c r="CJ83" s="11"/>
+      <c r="CE83" s="39">
+        <v>11.584335359879219</v>
+      </c>
+      <c r="CF83" s="39">
+        <v>11.594803015704841</v>
+      </c>
+      <c r="CG83" s="34"/>
+      <c r="CH83" s="34"/>
+      <c r="CI83" s="34"/>
+      <c r="CJ83" s="34"/>
       <c r="CK83" s="11"/>
       <c r="CL83" s="11"/>
       <c r="CM83" s="11"/>
@@ -16003,9 +16048,8 @@
       <c r="EQ83" s="11"/>
       <c r="ER83" s="11"/>
       <c r="ES83" s="11"/>
-      <c r="ET83" s="11"/>
     </row>
-    <row r="84" spans="1:150" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:149" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="16"/>
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
@@ -16087,19 +16131,20 @@
       <c r="CA84" s="16"/>
       <c r="CB84" s="16"/>
       <c r="CC84" s="16"/>
-      <c r="CD84" s="37"/>
-      <c r="CE84" s="37"/>
-      <c r="CF84" s="37"/>
-      <c r="CG84" s="37"/>
-      <c r="CH84" s="37"/>
-      <c r="CI84" s="37"/>
+      <c r="CD84" s="36"/>
+      <c r="CE84" s="36"/>
+      <c r="CF84" s="36"/>
+      <c r="CG84" s="36"/>
+      <c r="CH84" s="36"/>
+      <c r="CI84" s="36"/>
+      <c r="CJ84" s="36"/>
     </row>
-    <row r="85" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
@@ -16180,13 +16225,13 @@
       <c r="CA86" s="11"/>
       <c r="CB86" s="11"/>
       <c r="CC86" s="11"/>
-      <c r="CD86" s="35"/>
-      <c r="CE86" s="35"/>
-      <c r="CF86" s="35"/>
-      <c r="CG86" s="35"/>
-      <c r="CH86" s="35"/>
-      <c r="CI86" s="35"/>
-      <c r="CJ86" s="11"/>
+      <c r="CD86" s="34"/>
+      <c r="CE86" s="34"/>
+      <c r="CF86" s="34"/>
+      <c r="CG86" s="34"/>
+      <c r="CH86" s="34"/>
+      <c r="CI86" s="34"/>
+      <c r="CJ86" s="34"/>
       <c r="CK86" s="11"/>
       <c r="CL86" s="11"/>
       <c r="CM86" s="11"/>
@@ -16248,9 +16293,8 @@
       <c r="EQ86" s="11"/>
       <c r="ER86" s="11"/>
       <c r="ES86" s="11"/>
-      <c r="ET86" s="11"/>
     </row>
-    <row r="87" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
       <c r="D87" s="13"/>
@@ -16331,13 +16375,13 @@
       <c r="CA87" s="11"/>
       <c r="CB87" s="11"/>
       <c r="CC87" s="11"/>
-      <c r="CD87" s="35"/>
-      <c r="CE87" s="35"/>
-      <c r="CF87" s="35"/>
-      <c r="CG87" s="35"/>
-      <c r="CH87" s="35"/>
-      <c r="CI87" s="35"/>
-      <c r="CJ87" s="11"/>
+      <c r="CD87" s="34"/>
+      <c r="CE87" s="34"/>
+      <c r="CF87" s="34"/>
+      <c r="CG87" s="34"/>
+      <c r="CH87" s="34"/>
+      <c r="CI87" s="34"/>
+      <c r="CJ87" s="34"/>
       <c r="CK87" s="11"/>
       <c r="CL87" s="11"/>
       <c r="CM87" s="11"/>
@@ -16399,39 +16443,38 @@
       <c r="EQ87" s="11"/>
       <c r="ER87" s="11"/>
       <c r="ES87" s="11"/>
-      <c r="ET87" s="11"/>
     </row>
-    <row r="88" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="92" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="94" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="43" t="s">
         <v>39</v>
@@ -16559,12 +16602,13 @@
       <c r="CE96" s="41">
         <v>0</v>
       </c>
-      <c r="CF96" s="32"/>
-      <c r="CG96" s="32"/>
-      <c r="CH96" s="32"/>
-      <c r="CI96" s="32"/>
+      <c r="CF96" s="40"/>
+      <c r="CG96" s="40"/>
+      <c r="CH96" s="40"/>
+      <c r="CI96" s="40"/>
+      <c r="CJ96" s="40"/>
     </row>
-    <row r="97" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>37</v>
       </c>
@@ -16808,21 +16852,24 @@
       <c r="CC97" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CD97" s="33" t="s">
+      <c r="CD97" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="CE97" s="33" t="s">
+      <c r="CE97" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="CF97" s="33"/>
-      <c r="CG97" s="33"/>
-      <c r="CH97" s="33"/>
-      <c r="CI97" s="33"/>
+      <c r="CF97" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="CG97" s="32"/>
+      <c r="CH97" s="32"/>
+      <c r="CI97" s="32"/>
+      <c r="CJ97" s="32"/>
     </row>
-    <row r="98" spans="1:150" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:149" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
     </row>
-    <row r="99" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>12</v>
       </c>
@@ -17066,17 +17113,19 @@
       <c r="CC99" s="27">
         <v>5.3431606244335654</v>
       </c>
-      <c r="CD99" s="40">
+      <c r="CD99" s="39">
         <v>2.4764509206952994</v>
       </c>
-      <c r="CE99" s="40">
-        <v>2.8084913204751842</v>
-      </c>
-      <c r="CF99" s="35"/>
-      <c r="CG99" s="35"/>
-      <c r="CH99" s="35"/>
-      <c r="CI99" s="35"/>
-      <c r="CJ99" s="11"/>
+      <c r="CE99" s="39">
+        <v>2.6861085793625818</v>
+      </c>
+      <c r="CF99" s="39">
+        <v>3.0448630839740645</v>
+      </c>
+      <c r="CG99" s="34"/>
+      <c r="CH99" s="34"/>
+      <c r="CI99" s="34"/>
+      <c r="CJ99" s="34"/>
       <c r="CK99" s="11"/>
       <c r="CL99" s="11"/>
       <c r="CM99" s="11"/>
@@ -17138,9 +17187,8 @@
       <c r="EQ99" s="11"/>
       <c r="ER99" s="11"/>
       <c r="ES99" s="11"/>
-      <c r="ET99" s="11"/>
     </row>
-    <row r="100" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>11</v>
       </c>
@@ -17384,17 +17432,19 @@
       <c r="CC100" s="27">
         <v>-18.864885857016318</v>
       </c>
-      <c r="CD100" s="40">
+      <c r="CD100" s="39">
         <v>-11.820122462797485</v>
       </c>
-      <c r="CE100" s="40">
-        <v>-3.400912332739864</v>
-      </c>
-      <c r="CF100" s="35"/>
-      <c r="CG100" s="35"/>
-      <c r="CH100" s="35"/>
-      <c r="CI100" s="35"/>
-      <c r="CJ100" s="11"/>
+      <c r="CE100" s="39">
+        <v>-2.5894456881384542</v>
+      </c>
+      <c r="CF100" s="39">
+        <v>-4.6829100608917997</v>
+      </c>
+      <c r="CG100" s="34"/>
+      <c r="CH100" s="34"/>
+      <c r="CI100" s="34"/>
+      <c r="CJ100" s="34"/>
       <c r="CK100" s="11"/>
       <c r="CL100" s="11"/>
       <c r="CM100" s="11"/>
@@ -17456,9 +17506,8 @@
       <c r="EQ100" s="11"/>
       <c r="ER100" s="11"/>
       <c r="ES100" s="11"/>
-      <c r="ET100" s="11"/>
     </row>
-    <row r="101" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>10</v>
       </c>
@@ -17702,17 +17751,19 @@
       <c r="CC101" s="27">
         <v>-12.061531133957686</v>
       </c>
-      <c r="CD101" s="40">
+      <c r="CD101" s="39">
         <v>-17.15546299550688</v>
       </c>
-      <c r="CE101" s="40">
-        <v>39.880581178969379</v>
-      </c>
-      <c r="CF101" s="35"/>
-      <c r="CG101" s="35"/>
-      <c r="CH101" s="35"/>
-      <c r="CI101" s="35"/>
-      <c r="CJ101" s="11"/>
+      <c r="CE101" s="39">
+        <v>42.267315744415896</v>
+      </c>
+      <c r="CF101" s="39">
+        <v>24.494405090434768</v>
+      </c>
+      <c r="CG101" s="34"/>
+      <c r="CH101" s="34"/>
+      <c r="CI101" s="34"/>
+      <c r="CJ101" s="34"/>
       <c r="CK101" s="11"/>
       <c r="CL101" s="11"/>
       <c r="CM101" s="11"/>
@@ -17774,9 +17825,8 @@
       <c r="EQ101" s="11"/>
       <c r="ER101" s="11"/>
       <c r="ES101" s="11"/>
-      <c r="ET101" s="11"/>
     </row>
-    <row r="102" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>9</v>
       </c>
@@ -18020,17 +18070,19 @@
       <c r="CC102" s="27">
         <v>6.2844757864913561</v>
       </c>
-      <c r="CD102" s="40">
+      <c r="CD102" s="39">
         <v>-0.12006256849969077</v>
       </c>
-      <c r="CE102" s="40">
-        <v>6.6905355380398674</v>
-      </c>
-      <c r="CF102" s="35"/>
-      <c r="CG102" s="35"/>
-      <c r="CH102" s="35"/>
-      <c r="CI102" s="35"/>
-      <c r="CJ102" s="11"/>
+      <c r="CE102" s="39">
+        <v>6.5834881380332888</v>
+      </c>
+      <c r="CF102" s="39">
+        <v>3.5973842928543007</v>
+      </c>
+      <c r="CG102" s="34"/>
+      <c r="CH102" s="34"/>
+      <c r="CI102" s="34"/>
+      <c r="CJ102" s="34"/>
       <c r="CK102" s="11"/>
       <c r="CL102" s="11"/>
       <c r="CM102" s="11"/>
@@ -18092,9 +18144,8 @@
       <c r="EQ102" s="11"/>
       <c r="ER102" s="11"/>
       <c r="ES102" s="11"/>
-      <c r="ET102" s="11"/>
     </row>
-    <row r="103" spans="1:150" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:149" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
         <v>8</v>
       </c>
@@ -18338,17 +18389,19 @@
       <c r="CC103" s="27">
         <v>-5.6941211984040763</v>
       </c>
-      <c r="CD103" s="40">
+      <c r="CD103" s="39">
         <v>-6.6969985794710851</v>
       </c>
-      <c r="CE103" s="40">
-        <v>14.493615841771401</v>
-      </c>
-      <c r="CF103" s="35"/>
-      <c r="CG103" s="35"/>
-      <c r="CH103" s="35"/>
-      <c r="CI103" s="35"/>
-      <c r="CJ103" s="11"/>
+      <c r="CE103" s="39">
+        <v>15.346146960379301</v>
+      </c>
+      <c r="CF103" s="39">
+        <v>4.1868936619715527</v>
+      </c>
+      <c r="CG103" s="34"/>
+      <c r="CH103" s="34"/>
+      <c r="CI103" s="34"/>
+      <c r="CJ103" s="34"/>
       <c r="CK103" s="11"/>
       <c r="CL103" s="11"/>
       <c r="CM103" s="11"/>
@@ -18410,9 +18463,8 @@
       <c r="EQ103" s="11"/>
       <c r="ER103" s="11"/>
       <c r="ES103" s="11"/>
-      <c r="ET103" s="11"/>
     </row>
-    <row r="104" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>7</v>
       </c>
@@ -18656,17 +18708,19 @@
       <c r="CC104" s="27">
         <v>-2.9206325627012433</v>
       </c>
-      <c r="CD104" s="40">
+      <c r="CD104" s="39">
         <v>7.1247691828292545</v>
       </c>
-      <c r="CE104" s="40">
-        <v>14.284632021259952</v>
-      </c>
-      <c r="CF104" s="35"/>
-      <c r="CG104" s="35"/>
-      <c r="CH104" s="35"/>
-      <c r="CI104" s="35"/>
-      <c r="CJ104" s="11"/>
+      <c r="CE104" s="39">
+        <v>15.471602938896666</v>
+      </c>
+      <c r="CF104" s="39">
+        <v>18.767831433408858</v>
+      </c>
+      <c r="CG104" s="34"/>
+      <c r="CH104" s="34"/>
+      <c r="CI104" s="34"/>
+      <c r="CJ104" s="34"/>
       <c r="CK104" s="11"/>
       <c r="CL104" s="11"/>
       <c r="CM104" s="11"/>
@@ -18728,9 +18782,8 @@
       <c r="EQ104" s="11"/>
       <c r="ER104" s="11"/>
       <c r="ES104" s="11"/>
-      <c r="ET104" s="11"/>
     </row>
-    <row r="105" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>6</v>
       </c>
@@ -18974,17 +19027,19 @@
       <c r="CC105" s="27">
         <v>-31.234318049826257</v>
       </c>
-      <c r="CD105" s="40">
+      <c r="CD105" s="39">
         <v>-28.016064348434369</v>
       </c>
-      <c r="CE105" s="40">
-        <v>20.439840598525748</v>
-      </c>
-      <c r="CF105" s="35"/>
-      <c r="CG105" s="35"/>
-      <c r="CH105" s="35"/>
-      <c r="CI105" s="35"/>
-      <c r="CJ105" s="11"/>
+      <c r="CE105" s="39">
+        <v>19.420748520823693</v>
+      </c>
+      <c r="CF105" s="39">
+        <v>13.468357667826524</v>
+      </c>
+      <c r="CG105" s="34"/>
+      <c r="CH105" s="34"/>
+      <c r="CI105" s="34"/>
+      <c r="CJ105" s="34"/>
       <c r="CK105" s="11"/>
       <c r="CL105" s="11"/>
       <c r="CM105" s="11"/>
@@ -19046,9 +19101,8 @@
       <c r="EQ105" s="11"/>
       <c r="ER105" s="11"/>
       <c r="ES105" s="11"/>
-      <c r="ET105" s="11"/>
     </row>
-    <row r="106" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>5</v>
       </c>
@@ -19292,17 +19346,19 @@
       <c r="CC106" s="27">
         <v>4.5284665044464418</v>
       </c>
-      <c r="CD106" s="40">
+      <c r="CD106" s="39">
         <v>6.7722469021926059</v>
       </c>
-      <c r="CE106" s="40">
-        <v>14.31426130864179</v>
-      </c>
-      <c r="CF106" s="35"/>
-      <c r="CG106" s="35"/>
-      <c r="CH106" s="35"/>
-      <c r="CI106" s="35"/>
-      <c r="CJ106" s="11"/>
+      <c r="CE106" s="39">
+        <v>13.364790623855455</v>
+      </c>
+      <c r="CF106" s="39">
+        <v>7.4779359429844305</v>
+      </c>
+      <c r="CG106" s="34"/>
+      <c r="CH106" s="34"/>
+      <c r="CI106" s="34"/>
+      <c r="CJ106" s="34"/>
       <c r="CK106" s="11"/>
       <c r="CL106" s="11"/>
       <c r="CM106" s="11"/>
@@ -19364,9 +19420,8 @@
       <c r="EQ106" s="11"/>
       <c r="ER106" s="11"/>
       <c r="ES106" s="11"/>
-      <c r="ET106" s="11"/>
     </row>
-    <row r="107" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>4</v>
       </c>
@@ -19610,17 +19665,19 @@
       <c r="CC107" s="27">
         <v>-49.574935999640743</v>
       </c>
-      <c r="CD107" s="40">
+      <c r="CD107" s="39">
         <v>-33.486172372275419</v>
       </c>
-      <c r="CE107" s="40">
-        <v>15.748284660361023</v>
-      </c>
-      <c r="CF107" s="35"/>
-      <c r="CG107" s="35"/>
-      <c r="CH107" s="35"/>
-      <c r="CI107" s="35"/>
-      <c r="CJ107" s="11"/>
+      <c r="CE107" s="39">
+        <v>15.026669886269303</v>
+      </c>
+      <c r="CF107" s="39">
+        <v>20.27125624522516</v>
+      </c>
+      <c r="CG107" s="34"/>
+      <c r="CH107" s="34"/>
+      <c r="CI107" s="34"/>
+      <c r="CJ107" s="34"/>
       <c r="CK107" s="11"/>
       <c r="CL107" s="11"/>
       <c r="CM107" s="11"/>
@@ -19682,9 +19739,8 @@
       <c r="EQ107" s="11"/>
       <c r="ER107" s="11"/>
       <c r="ES107" s="11"/>
-      <c r="ET107" s="11"/>
     </row>
-    <row r="108" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>3</v>
       </c>
@@ -19928,17 +19984,19 @@
       <c r="CC108" s="27">
         <v>-14.55533144127547</v>
       </c>
-      <c r="CD108" s="40">
+      <c r="CD108" s="39">
         <v>1.6995317926706548</v>
       </c>
-      <c r="CE108" s="40">
-        <v>10.378459245738568</v>
-      </c>
-      <c r="CF108" s="35"/>
-      <c r="CG108" s="35"/>
-      <c r="CH108" s="35"/>
-      <c r="CI108" s="35"/>
-      <c r="CJ108" s="11"/>
+      <c r="CE108" s="39">
+        <v>11.226261249569831</v>
+      </c>
+      <c r="CF108" s="39">
+        <v>14.483556594677211</v>
+      </c>
+      <c r="CG108" s="34"/>
+      <c r="CH108" s="34"/>
+      <c r="CI108" s="34"/>
+      <c r="CJ108" s="34"/>
       <c r="CK108" s="11"/>
       <c r="CL108" s="11"/>
       <c r="CM108" s="11"/>
@@ -20000,9 +20058,8 @@
       <c r="EQ108" s="11"/>
       <c r="ER108" s="11"/>
       <c r="ES108" s="11"/>
-      <c r="ET108" s="11"/>
     </row>
-    <row r="109" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>2</v>
       </c>
@@ -20246,17 +20303,19 @@
       <c r="CC109" s="27">
         <v>-42.724864420589604</v>
       </c>
-      <c r="CD109" s="40">
+      <c r="CD109" s="39">
         <v>-18.186504415844993</v>
       </c>
-      <c r="CE109" s="40">
-        <v>24.541200474912756</v>
-      </c>
-      <c r="CF109" s="35"/>
-      <c r="CG109" s="35"/>
-      <c r="CH109" s="35"/>
-      <c r="CI109" s="35"/>
-      <c r="CJ109" s="11"/>
+      <c r="CE109" s="39">
+        <v>25.256664953738067</v>
+      </c>
+      <c r="CF109" s="39">
+        <v>11.413858842918216</v>
+      </c>
+      <c r="CG109" s="34"/>
+      <c r="CH109" s="34"/>
+      <c r="CI109" s="34"/>
+      <c r="CJ109" s="34"/>
       <c r="CK109" s="11"/>
       <c r="CL109" s="11"/>
       <c r="CM109" s="11"/>
@@ -20318,9 +20377,8 @@
       <c r="EQ109" s="11"/>
       <c r="ER109" s="11"/>
       <c r="ES109" s="11"/>
-      <c r="ET109" s="11"/>
     </row>
-    <row r="110" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>1</v>
       </c>
@@ -20564,17 +20622,19 @@
       <c r="CC110" s="27">
         <v>-1.6265738447073517</v>
       </c>
-      <c r="CD110" s="40">
+      <c r="CD110" s="39">
         <v>-0.13930573885390629</v>
       </c>
-      <c r="CE110" s="40">
-        <v>3.4537672693112427</v>
-      </c>
-      <c r="CF110" s="35"/>
-      <c r="CG110" s="35"/>
-      <c r="CH110" s="35"/>
-      <c r="CI110" s="35"/>
-      <c r="CJ110" s="11"/>
+      <c r="CE110" s="39">
+        <v>3.6997761567135115</v>
+      </c>
+      <c r="CF110" s="39">
+        <v>8.3652877654286186</v>
+      </c>
+      <c r="CG110" s="34"/>
+      <c r="CH110" s="34"/>
+      <c r="CI110" s="34"/>
+      <c r="CJ110" s="34"/>
       <c r="CK110" s="11"/>
       <c r="CL110" s="11"/>
       <c r="CM110" s="11"/>
@@ -20636,9 +20696,8 @@
       <c r="EQ110" s="11"/>
       <c r="ER110" s="11"/>
       <c r="ES110" s="11"/>
-      <c r="ET110" s="11"/>
     </row>
-    <row r="111" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="13"/>
       <c r="C111" s="13"/>
       <c r="D111" s="13"/>
@@ -20719,13 +20778,13 @@
       <c r="CA111" s="11"/>
       <c r="CB111" s="11"/>
       <c r="CC111" s="11"/>
-      <c r="CD111" s="35"/>
-      <c r="CE111" s="35"/>
-      <c r="CF111" s="35"/>
-      <c r="CG111" s="35"/>
-      <c r="CH111" s="35"/>
-      <c r="CI111" s="35"/>
-      <c r="CJ111" s="11"/>
+      <c r="CD111" s="34"/>
+      <c r="CE111" s="34"/>
+      <c r="CF111" s="34"/>
+      <c r="CG111" s="34"/>
+      <c r="CH111" s="34"/>
+      <c r="CI111" s="34"/>
+      <c r="CJ111" s="34"/>
       <c r="CK111" s="11"/>
       <c r="CL111" s="11"/>
       <c r="CM111" s="11"/>
@@ -20787,9 +20846,8 @@
       <c r="EQ111" s="11"/>
       <c r="ER111" s="11"/>
       <c r="ES111" s="11"/>
-      <c r="ET111" s="11"/>
     </row>
-    <row r="112" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:149" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
         <v>18</v>
       </c>
@@ -21033,17 +21091,19 @@
       <c r="CC112" s="27">
         <v>-7.2595944106890187</v>
       </c>
-      <c r="CD112" s="40">
+      <c r="CD112" s="39">
         <v>-4.7499086974296461</v>
       </c>
-      <c r="CE112" s="40">
-        <v>7.230473868216734</v>
-      </c>
-      <c r="CF112" s="35"/>
-      <c r="CG112" s="35"/>
-      <c r="CH112" s="35"/>
-      <c r="CI112" s="35"/>
-      <c r="CJ112" s="11"/>
+      <c r="CE112" s="39">
+        <v>7.279121571859875</v>
+      </c>
+      <c r="CF112" s="39">
+        <v>7.1264810914908168</v>
+      </c>
+      <c r="CG112" s="34"/>
+      <c r="CH112" s="34"/>
+      <c r="CI112" s="34"/>
+      <c r="CJ112" s="34"/>
       <c r="CK112" s="11"/>
       <c r="CL112" s="11"/>
       <c r="CM112" s="11"/>
@@ -21105,9 +21165,8 @@
       <c r="EQ112" s="11"/>
       <c r="ER112" s="11"/>
       <c r="ES112" s="11"/>
-      <c r="ET112" s="11"/>
     </row>
-    <row r="113" spans="1:154" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:153" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="16"/>
       <c r="B113" s="17"/>
       <c r="C113" s="17"/>
@@ -21189,19 +21248,20 @@
       <c r="CA113" s="16"/>
       <c r="CB113" s="16"/>
       <c r="CC113" s="16"/>
-      <c r="CD113" s="37"/>
-      <c r="CE113" s="37"/>
-      <c r="CF113" s="37"/>
-      <c r="CG113" s="37"/>
-      <c r="CH113" s="37"/>
-      <c r="CI113" s="37"/>
+      <c r="CD113" s="36"/>
+      <c r="CE113" s="36"/>
+      <c r="CF113" s="36"/>
+      <c r="CG113" s="36"/>
+      <c r="CH113" s="36"/>
+      <c r="CI113" s="36"/>
+      <c r="CJ113" s="36"/>
     </row>
-    <row r="114" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="13"/>
       <c r="C115" s="13"/>
       <c r="D115" s="13"/>
@@ -21282,13 +21342,13 @@
       <c r="CA115" s="11"/>
       <c r="CB115" s="11"/>
       <c r="CC115" s="11"/>
-      <c r="CD115" s="35"/>
-      <c r="CE115" s="35"/>
-      <c r="CF115" s="35"/>
-      <c r="CG115" s="35"/>
-      <c r="CH115" s="35"/>
-      <c r="CI115" s="35"/>
-      <c r="CJ115" s="11"/>
+      <c r="CD115" s="34"/>
+      <c r="CE115" s="34"/>
+      <c r="CF115" s="34"/>
+      <c r="CG115" s="34"/>
+      <c r="CH115" s="34"/>
+      <c r="CI115" s="34"/>
+      <c r="CJ115" s="34"/>
       <c r="CK115" s="11"/>
       <c r="CL115" s="11"/>
       <c r="CM115" s="11"/>
@@ -21350,9 +21410,8 @@
       <c r="EQ115" s="11"/>
       <c r="ER115" s="11"/>
       <c r="ES115" s="11"/>
-      <c r="ET115" s="11"/>
     </row>
-    <row r="116" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="13"/>
       <c r="C116" s="13"/>
       <c r="D116" s="13"/>
@@ -21433,13 +21492,13 @@
       <c r="CA116" s="11"/>
       <c r="CB116" s="11"/>
       <c r="CC116" s="11"/>
-      <c r="CD116" s="35"/>
-      <c r="CE116" s="35"/>
-      <c r="CF116" s="35"/>
-      <c r="CG116" s="35"/>
-      <c r="CH116" s="35"/>
-      <c r="CI116" s="35"/>
-      <c r="CJ116" s="11"/>
+      <c r="CD116" s="34"/>
+      <c r="CE116" s="34"/>
+      <c r="CF116" s="34"/>
+      <c r="CG116" s="34"/>
+      <c r="CH116" s="34"/>
+      <c r="CI116" s="34"/>
+      <c r="CJ116" s="34"/>
       <c r="CK116" s="11"/>
       <c r="CL116" s="11"/>
       <c r="CM116" s="11"/>
@@ -21501,34 +21560,33 @@
       <c r="EQ116" s="11"/>
       <c r="ER116" s="11"/>
       <c r="ES116" s="11"/>
-      <c r="ET116" s="11"/>
     </row>
-    <row r="117" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="120" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="121" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="122" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="124" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="43">
         <v>2000</v>
@@ -21659,11 +21717,10 @@
       <c r="CH124" s="41">
         <v>2021</v>
       </c>
-      <c r="CI124" s="41">
-        <v>0</v>
-      </c>
+      <c r="CI124" s="41"/>
+      <c r="CJ124" s="41"/>
     </row>
-    <row r="125" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>37</v>
       </c>
@@ -21907,29 +21964,32 @@
       <c r="CC125" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CD125" s="33" t="s">
+      <c r="CD125" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="CE125" s="33" t="s">
+      <c r="CE125" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="CF125" s="33" t="s">
+      <c r="CF125" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="CG125" s="33" t="s">
+      <c r="CG125" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="CH125" s="33" t="s">
+      <c r="CH125" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="CI125" s="33" t="s">
+      <c r="CI125" s="32" t="s">
         <v>20</v>
       </c>
+      <c r="CJ125" s="32" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="126" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:153" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="8"/>
     </row>
-    <row r="127" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>12</v>
       </c>
@@ -22173,25 +22233,27 @@
       <c r="CC127" s="27">
         <v>101.45105973928115</v>
       </c>
-      <c r="CD127" s="40">
+      <c r="CD127" s="39">
         <v>102.30341540905479</v>
       </c>
-      <c r="CE127" s="40">
+      <c r="CE127" s="39">
         <v>104.1647894683049</v>
       </c>
-      <c r="CF127" s="40">
+      <c r="CF127" s="39">
         <v>104.43114434647013</v>
       </c>
-      <c r="CG127" s="40">
+      <c r="CG127" s="39">
         <v>104.61620786129832</v>
       </c>
-      <c r="CH127" s="40">
+      <c r="CH127" s="39">
         <v>108.16402688402988</v>
       </c>
-      <c r="CI127" s="40">
+      <c r="CI127" s="39">
         <v>109.02903789290839</v>
       </c>
-      <c r="CJ127" s="11"/>
+      <c r="CJ127" s="39">
+        <v>110.55343711490131</v>
+      </c>
       <c r="CK127" s="11"/>
       <c r="CL127" s="11"/>
       <c r="CM127" s="11"/>
@@ -22257,9 +22319,8 @@
       <c r="EU127" s="11"/>
       <c r="EV127" s="11"/>
       <c r="EW127" s="11"/>
-      <c r="EX127" s="11"/>
     </row>
-    <row r="128" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>11</v>
       </c>
@@ -22503,25 +22564,27 @@
       <c r="CC128" s="27">
         <v>118.24012993264188</v>
       </c>
-      <c r="CD128" s="40">
+      <c r="CD128" s="39">
         <v>118.94105724911918</v>
       </c>
-      <c r="CE128" s="40">
+      <c r="CE128" s="39">
         <v>129.65563644647173</v>
       </c>
-      <c r="CF128" s="40">
+      <c r="CF128" s="39">
         <v>139.1833590965191</v>
       </c>
-      <c r="CG128" s="40">
+      <c r="CG128" s="39">
         <v>132.35500225218723</v>
       </c>
-      <c r="CH128" s="40">
+      <c r="CH128" s="39">
         <v>133.20333317782985</v>
       </c>
-      <c r="CI128" s="40">
+      <c r="CI128" s="39">
         <v>144.77738328778639</v>
       </c>
-      <c r="CJ128" s="11"/>
+      <c r="CJ128" s="39">
+        <v>153.53003782612942</v>
+      </c>
       <c r="CK128" s="11"/>
       <c r="CL128" s="11"/>
       <c r="CM128" s="11"/>
@@ -22587,9 +22650,8 @@
       <c r="EU128" s="11"/>
       <c r="EV128" s="11"/>
       <c r="EW128" s="11"/>
-      <c r="EX128" s="11"/>
     </row>
-    <row r="129" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>10</v>
       </c>
@@ -22833,25 +22895,27 @@
       <c r="CC129" s="27">
         <v>100.64435462123144</v>
       </c>
-      <c r="CD129" s="40">
+      <c r="CD129" s="39">
         <v>102.1814617886177</v>
       </c>
-      <c r="CE129" s="40">
+      <c r="CE129" s="39">
         <v>111.21667280287848</v>
       </c>
-      <c r="CF129" s="40">
+      <c r="CF129" s="39">
         <v>102.02958338105307</v>
       </c>
-      <c r="CG129" s="40">
+      <c r="CG129" s="39">
         <v>102.33005084086216</v>
       </c>
-      <c r="CH129" s="40">
+      <c r="CH129" s="39">
         <v>103.82685104776847</v>
       </c>
-      <c r="CI129" s="40">
+      <c r="CI129" s="39">
         <v>113.06171415206956</v>
       </c>
-      <c r="CJ129" s="11"/>
+      <c r="CJ129" s="39">
+        <v>103.85302028956902</v>
+      </c>
       <c r="CK129" s="11"/>
       <c r="CL129" s="11"/>
       <c r="CM129" s="11"/>
@@ -22917,9 +22981,8 @@
       <c r="EU129" s="11"/>
       <c r="EV129" s="11"/>
       <c r="EW129" s="11"/>
-      <c r="EX129" s="11"/>
     </row>
-    <row r="130" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>9</v>
       </c>
@@ -23163,25 +23226,27 @@
       <c r="CC130" s="27">
         <v>103.74239470505077</v>
       </c>
-      <c r="CD130" s="40">
+      <c r="CD130" s="39">
         <v>98.432525619791207</v>
       </c>
-      <c r="CE130" s="40">
+      <c r="CE130" s="39">
         <v>101.46470009611936</v>
       </c>
-      <c r="CF130" s="40">
+      <c r="CF130" s="39">
         <v>106.92938090969415</v>
       </c>
-      <c r="CG130" s="40">
+      <c r="CG130" s="39">
         <v>104.50408629613044</v>
       </c>
-      <c r="CH130" s="40">
+      <c r="CH130" s="39">
         <v>99.205331142249591</v>
       </c>
-      <c r="CI130" s="40">
+      <c r="CI130" s="39">
         <v>103.42508364598582</v>
       </c>
-      <c r="CJ130" s="11"/>
+      <c r="CJ130" s="39">
+        <v>110.32643789574972</v>
+      </c>
       <c r="CK130" s="11"/>
       <c r="CL130" s="11"/>
       <c r="CM130" s="11"/>
@@ -23247,9 +23312,8 @@
       <c r="EU130" s="11"/>
       <c r="EV130" s="11"/>
       <c r="EW130" s="11"/>
-      <c r="EX130" s="11"/>
     </row>
-    <row r="131" spans="1:154" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:153" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
         <v>8</v>
       </c>
@@ -23493,25 +23557,27 @@
       <c r="CC131" s="27">
         <v>101.1283907313173</v>
       </c>
-      <c r="CD131" s="40">
+      <c r="CD131" s="39">
         <v>106.68844167244961</v>
       </c>
-      <c r="CE131" s="40">
+      <c r="CE131" s="39">
         <v>106.63189656351094</v>
       </c>
-      <c r="CF131" s="40">
+      <c r="CF131" s="39">
         <v>108.34655531634677</v>
       </c>
-      <c r="CG131" s="40">
+      <c r="CG131" s="39">
         <v>104.66162474036196</v>
       </c>
-      <c r="CH131" s="40">
+      <c r="CH131" s="39">
         <v>109.2307061910458</v>
       </c>
-      <c r="CI131" s="40">
+      <c r="CI131" s="39">
         <v>109.14828350306283</v>
       </c>
-      <c r="CJ131" s="11"/>
+      <c r="CJ131" s="39">
+        <v>110.9475662468539</v>
+      </c>
       <c r="CK131" s="11"/>
       <c r="CL131" s="11"/>
       <c r="CM131" s="11"/>
@@ -23577,9 +23643,8 @@
       <c r="EU131" s="11"/>
       <c r="EV131" s="11"/>
       <c r="EW131" s="11"/>
-      <c r="EX131" s="11"/>
     </row>
-    <row r="132" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>7</v>
       </c>
@@ -23823,25 +23888,27 @@
       <c r="CC132" s="27">
         <v>105.10334974000774</v>
       </c>
-      <c r="CD132" s="40">
+      <c r="CD132" s="39">
         <v>102.79842770333025</v>
       </c>
-      <c r="CE132" s="40">
+      <c r="CE132" s="39">
         <v>103.35463132890483</v>
       </c>
-      <c r="CF132" s="40">
+      <c r="CF132" s="39">
         <v>108.3666927388139</v>
       </c>
-      <c r="CG132" s="40">
+      <c r="CG132" s="39">
         <v>107.81457775196186</v>
       </c>
-      <c r="CH132" s="40">
+      <c r="CH132" s="39">
         <v>105.68193479849444</v>
       </c>
-      <c r="CI132" s="40">
+      <c r="CI132" s="39">
         <v>106.52484667639837</v>
       </c>
-      <c r="CJ132" s="11"/>
+      <c r="CJ132" s="39">
+        <v>111.74314623269044</v>
+      </c>
       <c r="CK132" s="11"/>
       <c r="CL132" s="11"/>
       <c r="CM132" s="11"/>
@@ -23907,9 +23974,8 @@
       <c r="EU132" s="11"/>
       <c r="EV132" s="11"/>
       <c r="EW132" s="11"/>
-      <c r="EX132" s="11"/>
     </row>
-    <row r="133" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>6</v>
       </c>
@@ -24153,25 +24219,27 @@
       <c r="CC133" s="27">
         <v>97.31956443926741</v>
       </c>
-      <c r="CD133" s="40">
+      <c r="CD133" s="39">
         <v>101.26489154549716</v>
       </c>
-      <c r="CE133" s="40">
+      <c r="CE133" s="39">
         <v>94.736028216121156</v>
       </c>
-      <c r="CF133" s="40">
+      <c r="CF133" s="39">
         <v>115.28442924483248</v>
       </c>
-      <c r="CG133" s="40">
+      <c r="CG133" s="39">
         <v>105.05639366229525</v>
       </c>
-      <c r="CH133" s="40">
+      <c r="CH133" s="39">
         <v>112.35322141810289</v>
       </c>
-      <c r="CI133" s="40">
+      <c r="CI133" s="39">
         <v>108.64363017396484</v>
       </c>
-      <c r="CJ133" s="11"/>
+      <c r="CJ133" s="39">
+        <v>122.73305609765572</v>
+      </c>
       <c r="CK133" s="11"/>
       <c r="CL133" s="11"/>
       <c r="CM133" s="11"/>
@@ -24237,9 +24305,8 @@
       <c r="EU133" s="11"/>
       <c r="EV133" s="11"/>
       <c r="EW133" s="11"/>
-      <c r="EX133" s="11"/>
     </row>
-    <row r="134" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>5</v>
       </c>
@@ -24483,25 +24550,27 @@
       <c r="CC134" s="27">
         <v>96.626885780727207</v>
       </c>
-      <c r="CD134" s="40">
+      <c r="CD134" s="39">
         <v>103.99482530648292</v>
       </c>
-      <c r="CE134" s="40">
+      <c r="CE134" s="39">
         <v>101.17591992731769</v>
       </c>
-      <c r="CF134" s="40">
+      <c r="CF134" s="39">
         <v>99.523784141753708</v>
       </c>
-      <c r="CG134" s="40">
+      <c r="CG134" s="39">
         <v>96.944007164976426</v>
       </c>
-      <c r="CH134" s="40">
+      <c r="CH134" s="39">
         <v>104.23334554801154</v>
       </c>
-      <c r="CI134" s="40">
+      <c r="CI134" s="39">
         <v>101.44112548413898</v>
       </c>
-      <c r="CJ134" s="11"/>
+      <c r="CJ134" s="39">
+        <v>99.784402889097052</v>
+      </c>
       <c r="CK134" s="11"/>
       <c r="CL134" s="11"/>
       <c r="CM134" s="11"/>
@@ -24567,9 +24636,8 @@
       <c r="EU134" s="11"/>
       <c r="EV134" s="11"/>
       <c r="EW134" s="11"/>
-      <c r="EX134" s="11"/>
     </row>
-    <row r="135" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>4</v>
       </c>
@@ -24813,25 +24881,27 @@
       <c r="CC135" s="27">
         <v>103.54312319724541</v>
       </c>
-      <c r="CD135" s="40">
+      <c r="CD135" s="39">
         <v>103.48619705003843</v>
       </c>
-      <c r="CE135" s="40">
+      <c r="CE135" s="39">
         <v>102.05209753376656</v>
       </c>
-      <c r="CF135" s="40">
+      <c r="CF135" s="39">
         <v>100.9890742057467</v>
       </c>
-      <c r="CG135" s="40">
+      <c r="CG135" s="39">
         <v>102.91829400553789</v>
       </c>
-      <c r="CH135" s="40">
+      <c r="CH135" s="39">
         <v>102.80458693201126</v>
       </c>
-      <c r="CI135" s="40">
+      <c r="CI135" s="39">
         <v>101.43960995211208</v>
       </c>
-      <c r="CJ135" s="11"/>
+      <c r="CJ135" s="39">
+        <v>101.22143330659399</v>
+      </c>
       <c r="CK135" s="11"/>
       <c r="CL135" s="11"/>
       <c r="CM135" s="11"/>
@@ -24897,9 +24967,8 @@
       <c r="EU135" s="11"/>
       <c r="EV135" s="11"/>
       <c r="EW135" s="11"/>
-      <c r="EX135" s="11"/>
     </row>
-    <row r="136" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>3</v>
       </c>
@@ -25143,25 +25212,27 @@
       <c r="CC136" s="27">
         <v>97.329193318470715</v>
       </c>
-      <c r="CD136" s="40">
+      <c r="CD136" s="39">
         <v>102.64685785798801</v>
       </c>
-      <c r="CE136" s="40">
+      <c r="CE136" s="39">
         <v>104.86875197900041</v>
       </c>
-      <c r="CF136" s="40">
+      <c r="CF136" s="39">
         <v>104.6342970845028</v>
       </c>
-      <c r="CG136" s="40">
+      <c r="CG136" s="39">
         <v>98.403763490355558</v>
       </c>
-      <c r="CH136" s="40">
+      <c r="CH136" s="39">
         <v>103.7515011958637</v>
       </c>
-      <c r="CI136" s="40">
+      <c r="CI136" s="39">
         <v>105.99730642910555</v>
       </c>
-      <c r="CJ136" s="11"/>
+      <c r="CJ136" s="39">
+        <v>105.72843667977278</v>
+      </c>
       <c r="CK136" s="11"/>
       <c r="CL136" s="11"/>
       <c r="CM136" s="11"/>
@@ -25227,9 +25298,8 @@
       <c r="EU136" s="11"/>
       <c r="EV136" s="11"/>
       <c r="EW136" s="11"/>
-      <c r="EX136" s="11"/>
     </row>
-    <row r="137" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>2</v>
       </c>
@@ -25473,25 +25543,27 @@
       <c r="CC137" s="27">
         <v>102.93975600654322</v>
       </c>
-      <c r="CD137" s="40">
+      <c r="CD137" s="39">
         <v>105.39888100239729</v>
       </c>
-      <c r="CE137" s="40">
+      <c r="CE137" s="39">
         <v>101.22557141646524</v>
       </c>
-      <c r="CF137" s="40">
+      <c r="CF137" s="39">
         <v>108.83714032638896</v>
       </c>
-      <c r="CG137" s="40">
+      <c r="CG137" s="39">
         <v>105.38032600500486</v>
       </c>
-      <c r="CH137" s="40">
+      <c r="CH137" s="39">
         <v>108.6805852916725</v>
       </c>
-      <c r="CI137" s="40">
+      <c r="CI137" s="39">
         <v>105.53063209226343</v>
       </c>
-      <c r="CJ137" s="11"/>
+      <c r="CJ137" s="39">
+        <v>113.58101346110385</v>
+      </c>
       <c r="CK137" s="11"/>
       <c r="CL137" s="11"/>
       <c r="CM137" s="11"/>
@@ -25557,9 +25629,8 @@
       <c r="EU137" s="11"/>
       <c r="EV137" s="11"/>
       <c r="EW137" s="11"/>
-      <c r="EX137" s="11"/>
     </row>
-    <row r="138" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>1</v>
       </c>
@@ -25803,25 +25874,27 @@
       <c r="CC138" s="27">
         <v>98.674134234993303</v>
       </c>
-      <c r="CD138" s="40">
+      <c r="CD138" s="39">
         <v>108.087509799827</v>
       </c>
-      <c r="CE138" s="40">
+      <c r="CE138" s="39">
         <v>109.19607394568413</v>
       </c>
-      <c r="CF138" s="40">
+      <c r="CF138" s="39">
         <v>100.17457398653934</v>
       </c>
-      <c r="CG138" s="40">
+      <c r="CG138" s="39">
         <v>100.80530808359596</v>
       </c>
-      <c r="CH138" s="40">
+      <c r="CH138" s="39">
         <v>111.47478071676113</v>
       </c>
-      <c r="CI138" s="40">
+      <c r="CI138" s="39">
         <v>112.60173964053408</v>
       </c>
-      <c r="CJ138" s="11"/>
+      <c r="CJ138" s="39">
+        <v>102.15570864258588</v>
+      </c>
       <c r="CK138" s="11"/>
       <c r="CL138" s="11"/>
       <c r="CM138" s="11"/>
@@ -25887,9 +25960,8 @@
       <c r="EU138" s="11"/>
       <c r="EV138" s="11"/>
       <c r="EW138" s="11"/>
-      <c r="EX138" s="11"/>
     </row>
-    <row r="139" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
       <c r="D139" s="13"/>
@@ -25970,13 +26042,13 @@
       <c r="CA139" s="11"/>
       <c r="CB139" s="11"/>
       <c r="CC139" s="11"/>
-      <c r="CD139" s="35"/>
-      <c r="CE139" s="35"/>
-      <c r="CF139" s="35"/>
-      <c r="CG139" s="35"/>
-      <c r="CH139" s="35"/>
-      <c r="CI139" s="35"/>
-      <c r="CJ139" s="11"/>
+      <c r="CD139" s="34"/>
+      <c r="CE139" s="34"/>
+      <c r="CF139" s="34"/>
+      <c r="CG139" s="34"/>
+      <c r="CH139" s="34"/>
+      <c r="CI139" s="34"/>
+      <c r="CJ139" s="34"/>
       <c r="CK139" s="11"/>
       <c r="CL139" s="11"/>
       <c r="CM139" s="11"/>
@@ -26042,9 +26114,8 @@
       <c r="EU139" s="11"/>
       <c r="EV139" s="11"/>
       <c r="EW139" s="11"/>
-      <c r="EX139" s="11"/>
     </row>
-    <row r="140" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:153" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="12" t="s">
         <v>18</v>
       </c>
@@ -26288,25 +26359,27 @@
       <c r="CC140" s="27">
         <v>101.25489271941287</v>
       </c>
-      <c r="CD140" s="40">
+      <c r="CD140" s="39">
         <v>103.25915028232578</v>
       </c>
-      <c r="CE140" s="40">
+      <c r="CE140" s="39">
         <v>104.26462819413642</v>
       </c>
-      <c r="CF140" s="40">
+      <c r="CF140" s="39">
         <v>105.9479228997041</v>
       </c>
-      <c r="CG140" s="40">
+      <c r="CG140" s="39">
         <v>104.16507946616078</v>
       </c>
-      <c r="CH140" s="40">
+      <c r="CH140" s="39">
         <v>107.63572868224666</v>
       </c>
-      <c r="CI140" s="40">
-        <v>108.44126627417219</v>
-      </c>
-      <c r="CJ140" s="11"/>
+      <c r="CI140" s="39">
+        <v>108.44886747879004</v>
+      </c>
+      <c r="CJ140" s="39">
+        <v>110.36708632124292</v>
+      </c>
       <c r="CK140" s="11"/>
       <c r="CL140" s="11"/>
       <c r="CM140" s="11"/>
@@ -26372,9 +26445,8 @@
       <c r="EU140" s="11"/>
       <c r="EV140" s="11"/>
       <c r="EW140" s="11"/>
-      <c r="EX140" s="11"/>
     </row>
-    <row r="141" spans="1:154" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:153" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="16"/>
       <c r="B141" s="17"/>
       <c r="C141" s="17"/>
@@ -26456,49 +26528,50 @@
       <c r="CA141" s="16"/>
       <c r="CB141" s="16"/>
       <c r="CC141" s="16"/>
-      <c r="CD141" s="37"/>
-      <c r="CE141" s="37"/>
-      <c r="CF141" s="37"/>
-      <c r="CG141" s="37"/>
-      <c r="CH141" s="37"/>
-      <c r="CI141" s="37"/>
+      <c r="CD141" s="36"/>
+      <c r="CE141" s="36"/>
+      <c r="CF141" s="36"/>
+      <c r="CG141" s="36"/>
+      <c r="CH141" s="36"/>
+      <c r="CI141" s="36"/>
+      <c r="CJ141" s="36"/>
     </row>
-    <row r="142" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A142" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="149" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="150" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="153" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="B153" s="43">
         <v>2000</v>
@@ -26629,11 +26702,10 @@
       <c r="CH153" s="41">
         <v>2021</v>
       </c>
-      <c r="CI153" s="41">
-        <v>0</v>
-      </c>
+      <c r="CI153" s="41"/>
+      <c r="CJ153" s="41"/>
     </row>
-    <row r="154" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>37</v>
       </c>
@@ -26877,29 +26949,32 @@
       <c r="CC154" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CD154" s="33" t="s">
+      <c r="CD154" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="CE154" s="33" t="s">
+      <c r="CE154" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="CF154" s="33" t="s">
+      <c r="CF154" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="CG154" s="33" t="s">
+      <c r="CG154" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="CH154" s="33" t="s">
+      <c r="CH154" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="CI154" s="33" t="s">
+      <c r="CI154" s="32" t="s">
         <v>20</v>
       </c>
+      <c r="CJ154" s="32" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="155" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:153" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="8"/>
     </row>
-    <row r="156" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>12</v>
       </c>
@@ -27143,25 +27218,27 @@
       <c r="CC156" s="27">
         <v>35.712408399806684</v>
       </c>
-      <c r="CD156" s="40">
+      <c r="CD156" s="39">
         <v>33.370761565715306</v>
       </c>
-      <c r="CE156" s="40">
+      <c r="CE156" s="39">
         <v>42.809392224503426</v>
       </c>
-      <c r="CF156" s="40">
+      <c r="CF156" s="39">
         <v>37.261737112281885</v>
       </c>
-      <c r="CG156" s="40">
+      <c r="CG156" s="39">
         <v>40.662375538833295</v>
       </c>
-      <c r="CH156" s="40">
+      <c r="CH156" s="39">
         <v>36.415778559078092</v>
       </c>
-      <c r="CI156" s="40">
-        <v>41.306032360855284</v>
-      </c>
-      <c r="CJ156" s="11"/>
+      <c r="CI156" s="39">
+        <v>41.235262776728689</v>
+      </c>
+      <c r="CJ156" s="39">
+        <v>36.424004125075832</v>
+      </c>
       <c r="CK156" s="11"/>
       <c r="CL156" s="11"/>
       <c r="CM156" s="11"/>
@@ -27227,9 +27304,8 @@
       <c r="EU156" s="11"/>
       <c r="EV156" s="11"/>
       <c r="EW156" s="11"/>
-      <c r="EX156" s="11"/>
     </row>
-    <row r="157" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>11</v>
       </c>
@@ -27473,25 +27549,27 @@
       <c r="CC157" s="27">
         <v>2.6935671233853626</v>
       </c>
-      <c r="CD157" s="40">
+      <c r="CD157" s="39">
         <v>1.864439705213021</v>
       </c>
-      <c r="CE157" s="40">
+      <c r="CE157" s="39">
         <v>1.9842650777144266</v>
       </c>
-      <c r="CF157" s="40">
+      <c r="CF157" s="39">
         <v>2.3099374805782551</v>
       </c>
-      <c r="CG157" s="40">
+      <c r="CG157" s="39">
         <v>2.5641120106587798</v>
       </c>
-      <c r="CH157" s="40">
+      <c r="CH157" s="39">
         <v>1.8544188078011514</v>
       </c>
-      <c r="CI157" s="40">
-        <v>1.9191381059684223</v>
-      </c>
-      <c r="CJ157" s="11"/>
+      <c r="CI157" s="39">
+        <v>1.9342463871419771</v>
+      </c>
+      <c r="CJ157" s="39">
+        <v>2.1763717186134053</v>
+      </c>
       <c r="CK157" s="11"/>
       <c r="CL157" s="11"/>
       <c r="CM157" s="11"/>
@@ -27557,9 +27635,8 @@
       <c r="EU157" s="11"/>
       <c r="EV157" s="11"/>
       <c r="EW157" s="11"/>
-      <c r="EX157" s="11"/>
     </row>
-    <row r="158" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>10</v>
       </c>
@@ -27803,25 +27880,27 @@
       <c r="CC158" s="27">
         <v>1.9679623612213135</v>
       </c>
-      <c r="CD158" s="40">
+      <c r="CD158" s="39">
         <v>1.7700622277893807</v>
       </c>
-      <c r="CE158" s="40">
+      <c r="CE158" s="39">
         <v>1.335024180115985</v>
       </c>
-      <c r="CF158" s="40">
+      <c r="CF158" s="39">
         <v>1.6751264421122336</v>
       </c>
-      <c r="CG158" s="40">
+      <c r="CG158" s="39">
         <v>1.8443117607731343</v>
       </c>
-      <c r="CH158" s="40">
+      <c r="CH158" s="39">
         <v>1.5007096386644259</v>
       </c>
-      <c r="CI158" s="40">
-        <v>1.7022228673569655</v>
-      </c>
-      <c r="CJ158" s="11"/>
+      <c r="CI158" s="39">
+        <v>1.7303609494776124</v>
+      </c>
+      <c r="CJ158" s="39">
+        <v>1.9021575107681661</v>
+      </c>
       <c r="CK158" s="11"/>
       <c r="CL158" s="11"/>
       <c r="CM158" s="11"/>
@@ -27887,9 +27966,8 @@
       <c r="EU158" s="11"/>
       <c r="EV158" s="11"/>
       <c r="EW158" s="11"/>
-      <c r="EX158" s="11"/>
     </row>
-    <row r="159" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>9</v>
       </c>
@@ -28133,25 +28211,27 @@
       <c r="CC159" s="27">
         <v>10.571982318224611</v>
       </c>
-      <c r="CD159" s="40">
+      <c r="CD159" s="39">
         <v>11.610869851920601</v>
       </c>
-      <c r="CE159" s="40">
+      <c r="CE159" s="39">
         <v>15.250288908486361</v>
       </c>
-      <c r="CF159" s="40">
+      <c r="CF159" s="39">
         <v>14.016249436087175</v>
       </c>
-      <c r="CG159" s="40">
+      <c r="CG159" s="39">
         <v>11.863918215624816</v>
       </c>
-      <c r="CH159" s="40">
+      <c r="CH159" s="39">
         <v>11.771887205648145</v>
       </c>
-      <c r="CI159" s="40">
-        <v>14.870962023447282</v>
-      </c>
-      <c r="CJ159" s="11"/>
+      <c r="CI159" s="39">
+        <v>14.848263782270044</v>
+      </c>
+      <c r="CJ159" s="39">
+        <v>13.425151084451217</v>
+      </c>
       <c r="CK159" s="11"/>
       <c r="CL159" s="11"/>
       <c r="CM159" s="11"/>
@@ -28217,9 +28297,8 @@
       <c r="EU159" s="11"/>
       <c r="EV159" s="11"/>
       <c r="EW159" s="11"/>
-      <c r="EX159" s="11"/>
     </row>
-    <row r="160" spans="1:154" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:153" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="12" t="s">
         <v>8</v>
       </c>
@@ -28463,25 +28542,27 @@
       <c r="CC160" s="27">
         <v>2.9258878331351093</v>
       </c>
-      <c r="CD160" s="40">
+      <c r="CD160" s="39">
         <v>2.9201380344267553</v>
       </c>
-      <c r="CE160" s="40">
+      <c r="CE160" s="39">
         <v>2.5810627682161069</v>
       </c>
-      <c r="CF160" s="40">
+      <c r="CF160" s="39">
         <v>3.0959875684761875</v>
       </c>
-      <c r="CG160" s="40">
+      <c r="CG160" s="39">
         <v>2.9931996992411984</v>
       </c>
-      <c r="CH160" s="40">
+      <c r="CH160" s="39">
         <v>2.8095260047848556</v>
       </c>
-      <c r="CI160" s="40">
-        <v>2.7122755395415021</v>
-      </c>
-      <c r="CJ160" s="11"/>
+      <c r="CI160" s="39">
+        <v>2.7310408968943949</v>
+      </c>
+      <c r="CJ160" s="39">
+        <v>2.9598588415814766</v>
+      </c>
       <c r="CK160" s="11"/>
       <c r="CL160" s="11"/>
       <c r="CM160" s="11"/>
@@ -28547,9 +28628,8 @@
       <c r="EU160" s="11"/>
       <c r="EV160" s="11"/>
       <c r="EW160" s="11"/>
-      <c r="EX160" s="11"/>
     </row>
-    <row r="161" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>7</v>
       </c>
@@ -28793,25 +28873,27 @@
       <c r="CC161" s="27">
         <v>3.751926351205217</v>
       </c>
-      <c r="CD161" s="40">
+      <c r="CD161" s="39">
         <v>4.2010444862920622</v>
       </c>
-      <c r="CE161" s="40">
+      <c r="CE161" s="39">
         <v>3.827381550993525</v>
       </c>
-      <c r="CF161" s="40">
+      <c r="CF161" s="39">
         <v>5.3010532417732215</v>
       </c>
-      <c r="CG161" s="40">
+      <c r="CG161" s="39">
         <v>3.9162197094496407</v>
       </c>
-      <c r="CH161" s="40">
+      <c r="CH161" s="39">
         <v>4.6598094100423157</v>
       </c>
-      <c r="CI161" s="40">
-        <v>4.0423579024577228</v>
-      </c>
-      <c r="CJ161" s="11"/>
+      <c r="CI161" s="39">
+        <v>4.0822039479436407</v>
+      </c>
+      <c r="CJ161" s="39">
+        <v>5.8175764470450666</v>
+      </c>
       <c r="CK161" s="11"/>
       <c r="CL161" s="11"/>
       <c r="CM161" s="11"/>
@@ -28877,9 +28959,8 @@
       <c r="EU161" s="11"/>
       <c r="EV161" s="11"/>
       <c r="EW161" s="11"/>
-      <c r="EX161" s="11"/>
     </row>
-    <row r="162" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>6</v>
       </c>
@@ -29123,25 +29204,27 @@
       <c r="CC162" s="27">
         <v>8.4615913519020669</v>
       </c>
-      <c r="CD162" s="40">
+      <c r="CD162" s="39">
         <v>11.069449744917117</v>
       </c>
-      <c r="CE162" s="40">
+      <c r="CE162" s="39">
         <v>4.9466364532424976</v>
       </c>
-      <c r="CF162" s="40">
+      <c r="CF162" s="39">
         <v>8.3253643761991807</v>
       </c>
-      <c r="CG162" s="40">
+      <c r="CG162" s="39">
         <v>6.5837148249611674</v>
       </c>
-      <c r="CH162" s="40">
+      <c r="CH162" s="39">
         <v>8.9042006655066999</v>
       </c>
-      <c r="CI162" s="40">
-        <v>6.1262322126085529</v>
-      </c>
-      <c r="CJ162" s="11"/>
+      <c r="CI162" s="39">
+        <v>6.0712154789895862</v>
+      </c>
+      <c r="CJ162" s="39">
+        <v>9.0120780446085984</v>
+      </c>
       <c r="CK162" s="11"/>
       <c r="CL162" s="11"/>
       <c r="CM162" s="11"/>
@@ -29207,9 +29290,8 @@
       <c r="EU162" s="11"/>
       <c r="EV162" s="11"/>
       <c r="EW162" s="11"/>
-      <c r="EX162" s="11"/>
     </row>
-    <row r="163" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>5</v>
       </c>
@@ -29453,25 +29535,27 @@
       <c r="CC163" s="27">
         <v>2.6392505637355699</v>
       </c>
-      <c r="CD163" s="40">
+      <c r="CD163" s="39">
         <v>3.0785132628479013</v>
       </c>
-      <c r="CE163" s="40">
+      <c r="CE163" s="39">
         <v>3.3259854731626919</v>
       </c>
-      <c r="CF163" s="40">
+      <c r="CF163" s="39">
         <v>2.5949771319139261</v>
       </c>
-      <c r="CG163" s="40">
+      <c r="CG163" s="39">
         <v>2.9011024380069568</v>
       </c>
-      <c r="CH163" s="40">
+      <c r="CH163" s="39">
         <v>3.3181884684979535</v>
       </c>
-      <c r="CI163" s="40">
-        <v>3.418077086744157</v>
-      </c>
-      <c r="CJ163" s="11"/>
+      <c r="CI163" s="39">
+        <v>3.387912650603365</v>
+      </c>
+      <c r="CJ163" s="39">
+        <v>2.505789959702021</v>
+      </c>
       <c r="CK163" s="11"/>
       <c r="CL163" s="11"/>
       <c r="CM163" s="11"/>
@@ -29537,9 +29621,8 @@
       <c r="EU163" s="11"/>
       <c r="EV163" s="11"/>
       <c r="EW163" s="11"/>
-      <c r="EX163" s="11"/>
     </row>
-    <row r="164" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>4</v>
       </c>
@@ -29783,25 +29866,27 @@
       <c r="CC164" s="27">
         <v>2.4889045656344111</v>
       </c>
-      <c r="CD164" s="40">
+      <c r="CD164" s="39">
         <v>2.138673284236642</v>
       </c>
-      <c r="CE164" s="40">
+      <c r="CE164" s="39">
         <v>0.86720132278240192</v>
       </c>
-      <c r="CF164" s="40">
+      <c r="CF164" s="39">
         <v>0.90002615227508942</v>
       </c>
-      <c r="CG164" s="40">
+      <c r="CG164" s="39">
         <v>1.307527699442804</v>
       </c>
-      <c r="CH164" s="40">
+      <c r="CH164" s="39">
         <v>1.4232891569635542</v>
       </c>
-      <c r="CI164" s="40">
-        <v>0.8946317849735862</v>
-      </c>
-      <c r="CJ164" s="11"/>
+      <c r="CI164" s="39">
+        <v>0.88858889760908188</v>
+      </c>
+      <c r="CJ164" s="39">
+        <v>0.97223465676155607</v>
+      </c>
       <c r="CK164" s="11"/>
       <c r="CL164" s="11"/>
       <c r="CM164" s="11"/>
@@ -29867,9 +29952,8 @@
       <c r="EU164" s="11"/>
       <c r="EV164" s="11"/>
       <c r="EW164" s="11"/>
-      <c r="EX164" s="11"/>
     </row>
-    <row r="165" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>3</v>
       </c>
@@ -30113,25 +30197,27 @@
       <c r="CC165" s="27">
         <v>5.0991354155462201</v>
       </c>
-      <c r="CD165" s="40">
+      <c r="CD165" s="39">
         <v>5.1894344416471059</v>
       </c>
-      <c r="CE165" s="40">
+      <c r="CE165" s="39">
         <v>5.0280198988577238</v>
       </c>
-      <c r="CF165" s="40">
+      <c r="CF165" s="39">
         <v>5.41918053284581</v>
       </c>
-      <c r="CG165" s="40">
+      <c r="CG165" s="39">
         <v>4.6171605580199966</v>
       </c>
-      <c r="CH165" s="40">
+      <c r="CH165" s="39">
         <v>5.3727224269353417</v>
       </c>
-      <c r="CI165" s="40">
-        <v>5.029840788975366</v>
-      </c>
-      <c r="CJ165" s="11"/>
+      <c r="CI165" s="39">
+        <v>5.0658208323249383</v>
+      </c>
+      <c r="CJ165" s="39">
+        <v>5.6175961149943863</v>
+      </c>
       <c r="CK165" s="11"/>
       <c r="CL165" s="11"/>
       <c r="CM165" s="11"/>
@@ -30197,9 +30283,8 @@
       <c r="EU165" s="11"/>
       <c r="EV165" s="11"/>
       <c r="EW165" s="11"/>
-      <c r="EX165" s="11"/>
     </row>
-    <row r="166" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>2</v>
       </c>
@@ -30443,25 +30528,27 @@
       <c r="CC166" s="27">
         <v>9.5834777840475116</v>
       </c>
-      <c r="CD166" s="40">
+      <c r="CD166" s="39">
         <v>8.8843564911893509</v>
       </c>
-      <c r="CE166" s="40">
+      <c r="CE166" s="39">
         <v>3.4554355486468222</v>
       </c>
-      <c r="CF166" s="40">
+      <c r="CF166" s="39">
         <v>5.2831002214206357</v>
       </c>
-      <c r="CG166" s="40">
+      <c r="CG166" s="39">
         <v>5.8896643749012707</v>
       </c>
-      <c r="CH166" s="40">
+      <c r="CH166" s="39">
         <v>7.5487246635225338</v>
       </c>
-      <c r="CI166" s="40">
-        <v>4.0227990634072412</v>
-      </c>
-      <c r="CJ166" s="11"/>
+      <c r="CI166" s="39">
+        <v>4.0437911031072868</v>
+      </c>
+      <c r="CJ166" s="39">
+        <v>5.5044345619879858</v>
+      </c>
       <c r="CK166" s="11"/>
       <c r="CL166" s="11"/>
       <c r="CM166" s="11"/>
@@ -30527,9 +30614,8 @@
       <c r="EU166" s="11"/>
       <c r="EV166" s="11"/>
       <c r="EW166" s="11"/>
-      <c r="EX166" s="11"/>
     </row>
-    <row r="167" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>1</v>
       </c>
@@ -30773,25 +30859,27 @@
       <c r="CC167" s="27">
         <v>14.103905932155907</v>
       </c>
-      <c r="CD167" s="40">
+      <c r="CD167" s="39">
         <v>13.902256903804766</v>
       </c>
-      <c r="CE167" s="40">
+      <c r="CE167" s="39">
         <v>14.589306593278023</v>
       </c>
-      <c r="CF167" s="40">
+      <c r="CF167" s="39">
         <v>13.817260304036411</v>
       </c>
-      <c r="CG167" s="40">
+      <c r="CG167" s="39">
         <v>14.856693170086945</v>
       </c>
-      <c r="CH167" s="40">
+      <c r="CH167" s="39">
         <v>14.42074499255491</v>
       </c>
-      <c r="CI167" s="40">
-        <v>13.955430263663898</v>
-      </c>
-      <c r="CJ167" s="11"/>
+      <c r="CI167" s="39">
+        <v>13.981292296909398</v>
+      </c>
+      <c r="CJ167" s="39">
+        <v>13.682746934410289</v>
+      </c>
       <c r="CK167" s="11"/>
       <c r="CL167" s="11"/>
       <c r="CM167" s="11"/>
@@ -30857,9 +30945,8 @@
       <c r="EU167" s="11"/>
       <c r="EV167" s="11"/>
       <c r="EW167" s="11"/>
-      <c r="EX167" s="11"/>
     </row>
-    <row r="168" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="13"/>
       <c r="C168" s="13"/>
       <c r="D168" s="13"/>
@@ -30940,13 +31027,13 @@
       <c r="CA168" s="11"/>
       <c r="CB168" s="11"/>
       <c r="CC168" s="11"/>
-      <c r="CD168" s="35"/>
-      <c r="CE168" s="35"/>
-      <c r="CF168" s="35"/>
-      <c r="CG168" s="35"/>
-      <c r="CH168" s="35"/>
-      <c r="CI168" s="35"/>
-      <c r="CJ168" s="11"/>
+      <c r="CD168" s="34"/>
+      <c r="CE168" s="34"/>
+      <c r="CF168" s="34"/>
+      <c r="CG168" s="34"/>
+      <c r="CH168" s="34"/>
+      <c r="CI168" s="34"/>
+      <c r="CJ168" s="34"/>
       <c r="CK168" s="11"/>
       <c r="CL168" s="11"/>
       <c r="CM168" s="11"/>
@@ -31012,9 +31099,8 @@
       <c r="EU168" s="11"/>
       <c r="EV168" s="11"/>
       <c r="EW168" s="11"/>
-      <c r="EX168" s="11"/>
     </row>
-    <row r="169" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:153" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="12" t="s">
         <v>18</v>
       </c>
@@ -31258,25 +31344,27 @@
       <c r="CC169" s="27">
         <v>100</v>
       </c>
-      <c r="CD169" s="40">
+      <c r="CD169" s="39">
         <v>100</v>
       </c>
-      <c r="CE169" s="40">
+      <c r="CE169" s="39">
         <v>100</v>
       </c>
-      <c r="CF169" s="40">
+      <c r="CF169" s="39">
         <v>100</v>
       </c>
-      <c r="CG169" s="40">
+      <c r="CG169" s="39">
         <v>100</v>
       </c>
-      <c r="CH169" s="40">
+      <c r="CH169" s="39">
         <v>100</v>
       </c>
-      <c r="CI169" s="40">
+      <c r="CI169" s="39">
         <v>100</v>
       </c>
-      <c r="CJ169" s="11"/>
+      <c r="CJ169" s="39">
+        <v>100</v>
+      </c>
       <c r="CK169" s="11"/>
       <c r="CL169" s="11"/>
       <c r="CM169" s="11"/>
@@ -31342,9 +31430,8 @@
       <c r="EU169" s="11"/>
       <c r="EV169" s="11"/>
       <c r="EW169" s="11"/>
-      <c r="EX169" s="11"/>
     </row>
-    <row r="170" spans="1:154" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:153" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="16"/>
       <c r="B170" s="17"/>
       <c r="C170" s="17"/>
@@ -31426,19 +31513,20 @@
       <c r="CA170" s="16"/>
       <c r="CB170" s="16"/>
       <c r="CC170" s="16"/>
-      <c r="CD170" s="37"/>
-      <c r="CE170" s="37"/>
-      <c r="CF170" s="37"/>
-      <c r="CG170" s="37"/>
-      <c r="CH170" s="37"/>
-      <c r="CI170" s="37"/>
+      <c r="CD170" s="36"/>
+      <c r="CE170" s="36"/>
+      <c r="CF170" s="36"/>
+      <c r="CG170" s="36"/>
+      <c r="CH170" s="36"/>
+      <c r="CI170" s="36"/>
+      <c r="CJ170" s="36"/>
     </row>
-    <row r="171" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A171" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="13"/>
       <c r="C172" s="13"/>
       <c r="D172" s="13"/>
@@ -31519,13 +31607,13 @@
       <c r="CA172" s="11"/>
       <c r="CB172" s="11"/>
       <c r="CC172" s="11"/>
-      <c r="CD172" s="35"/>
-      <c r="CE172" s="35"/>
-      <c r="CF172" s="35"/>
-      <c r="CG172" s="35"/>
-      <c r="CH172" s="35"/>
-      <c r="CI172" s="35"/>
-      <c r="CJ172" s="11"/>
+      <c r="CD172" s="34"/>
+      <c r="CE172" s="34"/>
+      <c r="CF172" s="34"/>
+      <c r="CG172" s="34"/>
+      <c r="CH172" s="34"/>
+      <c r="CI172" s="34"/>
+      <c r="CJ172" s="34"/>
       <c r="CK172" s="11"/>
       <c r="CL172" s="11"/>
       <c r="CM172" s="11"/>
@@ -31591,9 +31679,8 @@
       <c r="EU172" s="11"/>
       <c r="EV172" s="11"/>
       <c r="EW172" s="11"/>
-      <c r="EX172" s="11"/>
     </row>
-    <row r="173" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="13"/>
       <c r="C173" s="13"/>
       <c r="D173" s="13"/>
@@ -31674,13 +31761,13 @@
       <c r="CA173" s="11"/>
       <c r="CB173" s="11"/>
       <c r="CC173" s="11"/>
-      <c r="CD173" s="35"/>
-      <c r="CE173" s="35"/>
-      <c r="CF173" s="35"/>
-      <c r="CG173" s="35"/>
-      <c r="CH173" s="35"/>
-      <c r="CI173" s="35"/>
-      <c r="CJ173" s="11"/>
+      <c r="CD173" s="34"/>
+      <c r="CE173" s="34"/>
+      <c r="CF173" s="34"/>
+      <c r="CG173" s="34"/>
+      <c r="CH173" s="34"/>
+      <c r="CI173" s="34"/>
+      <c r="CJ173" s="34"/>
       <c r="CK173" s="11"/>
       <c r="CL173" s="11"/>
       <c r="CM173" s="11"/>
@@ -31746,39 +31833,38 @@
       <c r="EU173" s="11"/>
       <c r="EV173" s="11"/>
       <c r="EW173" s="11"/>
-      <c r="EX173" s="11"/>
     </row>
-    <row r="174" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="178" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="179" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="180" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="182" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A182" s="4"/>
       <c r="B182" s="43">
         <v>2000</v>
@@ -31909,11 +31995,10 @@
       <c r="CH182" s="41">
         <v>2021</v>
       </c>
-      <c r="CI182" s="41">
-        <v>0</v>
-      </c>
+      <c r="CI182" s="41"/>
+      <c r="CJ182" s="41"/>
     </row>
-    <row r="183" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
         <v>37</v>
       </c>
@@ -32157,29 +32242,32 @@
       <c r="CC183" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CD183" s="33" t="s">
+      <c r="CD183" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="CE183" s="33" t="s">
+      <c r="CE183" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="CF183" s="33" t="s">
+      <c r="CF183" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="CG183" s="33" t="s">
+      <c r="CG183" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="CH183" s="33" t="s">
+      <c r="CH183" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="CI183" s="33" t="s">
+      <c r="CI183" s="32" t="s">
         <v>20</v>
       </c>
+      <c r="CJ183" s="32" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="184" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:153" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="8"/>
     </row>
-    <row r="185" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>12</v>
       </c>
@@ -32423,25 +32511,27 @@
       <c r="CC185" s="27">
         <v>35.643354446638398</v>
       </c>
-      <c r="CD185" s="40">
+      <c r="CD185" s="39">
         <v>33.682516558922913</v>
       </c>
-      <c r="CE185" s="40">
+      <c r="CE185" s="39">
         <v>42.850423701599787</v>
       </c>
-      <c r="CF185" s="40">
+      <c r="CF185" s="39">
         <v>37.80293393686749</v>
       </c>
-      <c r="CG185" s="40">
+      <c r="CG185" s="39">
         <v>40.487030316574476</v>
       </c>
-      <c r="CH185" s="40">
+      <c r="CH185" s="39">
         <v>36.237915447991043</v>
       </c>
-      <c r="CI185" s="40">
-        <v>41.083353027225307</v>
-      </c>
-      <c r="CJ185" s="11"/>
+      <c r="CI185" s="39">
+        <v>41.015839768475118</v>
+      </c>
+      <c r="CJ185" s="39">
+        <v>36.362607191121896</v>
+      </c>
       <c r="CK185" s="11"/>
       <c r="CL185" s="11"/>
       <c r="CM185" s="11"/>
@@ -32507,9 +32597,8 @@
       <c r="EU185" s="11"/>
       <c r="EV185" s="11"/>
       <c r="EW185" s="11"/>
-      <c r="EX185" s="11"/>
     </row>
-    <row r="186" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>11</v>
       </c>
@@ -32753,25 +32842,27 @@
       <c r="CC186" s="27">
         <v>2.3066352368378911</v>
       </c>
-      <c r="CD186" s="40">
+      <c r="CD186" s="39">
         <v>1.6186207199226168</v>
       </c>
-      <c r="CE186" s="40">
+      <c r="CE186" s="39">
         <v>1.595678107306332</v>
       </c>
-      <c r="CF186" s="40">
+      <c r="CF186" s="39">
         <v>1.7583501338383947</v>
       </c>
-      <c r="CG186" s="40">
+      <c r="CG186" s="39">
         <v>2.0179889449247868</v>
       </c>
-      <c r="CH186" s="40">
+      <c r="CH186" s="39">
         <v>1.4984739112591623</v>
       </c>
-      <c r="CI186" s="40">
-        <v>1.4374742908051228</v>
-      </c>
-      <c r="CJ186" s="11"/>
+      <c r="CI186" s="39">
+        <v>1.448892260288454</v>
+      </c>
+      <c r="CJ186" s="39">
+        <v>1.5645134251014801</v>
+      </c>
       <c r="CK186" s="11"/>
       <c r="CL186" s="11"/>
       <c r="CM186" s="11"/>
@@ -32837,9 +32928,8 @@
       <c r="EU186" s="11"/>
       <c r="EV186" s="11"/>
       <c r="EW186" s="11"/>
-      <c r="EX186" s="11"/>
     </row>
-    <row r="187" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>10</v>
       </c>
@@ -33083,25 +33173,27 @@
       <c r="CC187" s="27">
         <v>1.9799005966229366</v>
       </c>
-      <c r="CD187" s="40">
+      <c r="CD187" s="39">
         <v>1.7887307383258819</v>
       </c>
-      <c r="CE187" s="40">
+      <c r="CE187" s="39">
         <v>1.251573134332898</v>
       </c>
-      <c r="CF187" s="40">
+      <c r="CF187" s="39">
         <v>1.7394579224472257</v>
       </c>
-      <c r="CG187" s="40">
+      <c r="CG187" s="39">
         <v>1.8773847911017989</v>
       </c>
-      <c r="CH187" s="40">
+      <c r="CH187" s="39">
         <v>1.5557630214923897</v>
       </c>
-      <c r="CI187" s="40">
-        <v>1.6326588058691898</v>
-      </c>
-      <c r="CJ187" s="11"/>
+      <c r="CI187" s="39">
+        <v>1.6597633134057335</v>
+      </c>
+      <c r="CJ187" s="39">
+        <v>2.0214682404247482</v>
+      </c>
       <c r="CK187" s="11"/>
       <c r="CL187" s="11"/>
       <c r="CM187" s="11"/>
@@ -33167,9 +33259,8 @@
       <c r="EU187" s="11"/>
       <c r="EV187" s="11"/>
       <c r="EW187" s="11"/>
-      <c r="EX187" s="11"/>
     </row>
-    <row r="188" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>9</v>
       </c>
@@ -33413,25 +33504,27 @@
       <c r="CC188" s="27">
         <v>10.318490704854014</v>
       </c>
-      <c r="CD188" s="40">
+      <c r="CD188" s="39">
         <v>12.180207176426791</v>
       </c>
-      <c r="CE188" s="40">
+      <c r="CE188" s="39">
         <v>15.671122088669206</v>
       </c>
-      <c r="CF188" s="40">
+      <c r="CF188" s="39">
         <v>13.887600414068762</v>
       </c>
-      <c r="CG188" s="40">
+      <c r="CG188" s="39">
         <v>11.825432167396029</v>
       </c>
-      <c r="CH188" s="40">
+      <c r="CH188" s="39">
         <v>12.772253696006587</v>
       </c>
-      <c r="CI188" s="40">
-        <v>15.592213181645697</v>
-      </c>
-      <c r="CJ188" s="11"/>
+      <c r="CI188" s="39">
+        <v>15.569505331272898</v>
+      </c>
+      <c r="CJ188" s="39">
+        <v>13.43009741702571</v>
+      </c>
       <c r="CK188" s="11"/>
       <c r="CL188" s="11"/>
       <c r="CM188" s="11"/>
@@ -33497,9 +33590,8 @@
       <c r="EU188" s="11"/>
       <c r="EV188" s="11"/>
       <c r="EW188" s="11"/>
-      <c r="EX188" s="11"/>
     </row>
-    <row r="189" spans="1:154" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:153" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="12" t="s">
         <v>8</v>
       </c>
@@ -33743,25 +33835,27 @@
       <c r="CC189" s="27">
         <v>2.9295478402326176</v>
       </c>
-      <c r="CD189" s="40">
+      <c r="CD189" s="39">
         <v>2.8262759059482327</v>
       </c>
-      <c r="CE189" s="40">
+      <c r="CE189" s="39">
         <v>2.5237622001170577</v>
       </c>
-      <c r="CF189" s="40">
+      <c r="CF189" s="39">
         <v>3.0274469847761605</v>
       </c>
-      <c r="CG189" s="40">
+      <c r="CG189" s="39">
         <v>2.9789990868478249</v>
       </c>
-      <c r="CH189" s="40">
+      <c r="CH189" s="39">
         <v>2.7685015443169299</v>
       </c>
-      <c r="CI189" s="40">
-        <v>2.694706545560019</v>
-      </c>
-      <c r="CJ189" s="11"/>
+      <c r="CI189" s="39">
+        <v>2.7135405413695306</v>
+      </c>
+      <c r="CJ189" s="39">
+        <v>2.944372799856529</v>
+      </c>
       <c r="CK189" s="11"/>
       <c r="CL189" s="11"/>
       <c r="CM189" s="11"/>
@@ -33827,9 +33921,8 @@
       <c r="EU189" s="11"/>
       <c r="EV189" s="11"/>
       <c r="EW189" s="11"/>
-      <c r="EX189" s="11"/>
     </row>
-    <row r="190" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>7</v>
       </c>
@@ -34073,25 +34166,27 @@
       <c r="CC190" s="27">
         <v>3.6145460741467925</v>
       </c>
-      <c r="CD190" s="40">
+      <c r="CD190" s="39">
         <v>4.2198727514070233</v>
       </c>
-      <c r="CE190" s="40">
+      <c r="CE190" s="39">
         <v>3.8610801397134216</v>
       </c>
-      <c r="CF190" s="40">
+      <c r="CF190" s="39">
         <v>5.182732497892812</v>
       </c>
-      <c r="CG190" s="40">
+      <c r="CG190" s="39">
         <v>3.7836565865912686</v>
       </c>
-      <c r="CH190" s="40">
+      <c r="CH190" s="39">
         <v>4.7459575974515547</v>
       </c>
-      <c r="CI190" s="40">
-        <v>4.115081348181322</v>
-      </c>
-      <c r="CJ190" s="11"/>
+      <c r="CI190" s="39">
+        <v>4.1559355285138393</v>
+      </c>
+      <c r="CJ190" s="39">
+        <v>5.7459359572212882</v>
+      </c>
       <c r="CK190" s="11"/>
       <c r="CL190" s="11"/>
       <c r="CM190" s="11"/>
@@ -34157,9 +34252,8 @@
       <c r="EU190" s="11"/>
       <c r="EV190" s="11"/>
       <c r="EW190" s="11"/>
-      <c r="EX190" s="11"/>
     </row>
-    <row r="191" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>6</v>
       </c>
@@ -34403,25 +34497,27 @@
       <c r="CC191" s="27">
         <v>8.8037542040894579</v>
       </c>
-      <c r="CD191" s="40">
+      <c r="CD191" s="39">
         <v>11.287445799904923</v>
       </c>
-      <c r="CE191" s="40">
+      <c r="CE191" s="39">
         <v>5.4441717720347107</v>
       </c>
-      <c r="CF191" s="40">
+      <c r="CF191" s="39">
         <v>7.651120527024954</v>
       </c>
-      <c r="CG191" s="40">
+      <c r="CG191" s="39">
         <v>6.5278576012147287</v>
       </c>
-      <c r="CH191" s="40">
+      <c r="CH191" s="39">
         <v>8.5303306382128881</v>
       </c>
-      <c r="CI191" s="40">
-        <v>6.1148212514726472</v>
-      </c>
-      <c r="CJ191" s="11"/>
+      <c r="CI191" s="39">
+        <v>6.0603317641525383</v>
+      </c>
+      <c r="CJ191" s="39">
+        <v>8.1040660691418527</v>
+      </c>
       <c r="CK191" s="11"/>
       <c r="CL191" s="11"/>
       <c r="CM191" s="11"/>
@@ -34487,9 +34583,8 @@
       <c r="EU191" s="11"/>
       <c r="EV191" s="11"/>
       <c r="EW191" s="11"/>
-      <c r="EX191" s="11"/>
     </row>
-    <row r="192" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>5</v>
       </c>
@@ -34733,25 +34828,27 @@
       <c r="CC192" s="27">
         <v>2.7656591696138157</v>
       </c>
-      <c r="CD192" s="40">
+      <c r="CD192" s="39">
         <v>3.0567353973402742</v>
       </c>
-      <c r="CE192" s="40">
+      <c r="CE192" s="39">
         <v>3.4275214792959341</v>
       </c>
-      <c r="CF192" s="40">
+      <c r="CF192" s="39">
         <v>2.7624797375762977</v>
       </c>
-      <c r="CG192" s="40">
+      <c r="CG192" s="39">
         <v>3.1171969761906313</v>
       </c>
-      <c r="CH192" s="40">
+      <c r="CH192" s="39">
         <v>3.4265007213770544</v>
       </c>
-      <c r="CI192" s="40">
-        <v>3.6539480978769823</v>
-      </c>
-      <c r="CJ192" s="11"/>
+      <c r="CI192" s="39">
+        <v>3.6219559702386035</v>
+      </c>
+      <c r="CJ192" s="39">
+        <v>2.7715427339151293</v>
+      </c>
       <c r="CK192" s="11"/>
       <c r="CL192" s="11"/>
       <c r="CM192" s="11"/>
@@ -34817,9 +34914,8 @@
       <c r="EU192" s="11"/>
       <c r="EV192" s="11"/>
       <c r="EW192" s="11"/>
-      <c r="EX192" s="11"/>
     </row>
-    <row r="193" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>4</v>
       </c>
@@ -35063,25 +35159,27 @@
       <c r="CC193" s="27">
         <v>2.4339015185208703</v>
       </c>
-      <c r="CD193" s="40">
+      <c r="CD193" s="39">
         <v>2.1339810753216257</v>
       </c>
-      <c r="CE193" s="40">
+      <c r="CE193" s="39">
         <v>0.88600259744247944</v>
       </c>
-      <c r="CF193" s="40">
+      <c r="CF193" s="39">
         <v>0.94421997764518928</v>
       </c>
-      <c r="CG193" s="40">
+      <c r="CG193" s="39">
         <v>1.3233675123815929</v>
       </c>
-      <c r="CH193" s="40">
+      <c r="CH193" s="39">
         <v>1.4901744183518562</v>
       </c>
-      <c r="CI193" s="40">
-        <v>0.95638186757084098</v>
-      </c>
-      <c r="CJ193" s="11"/>
+      <c r="CI193" s="39">
+        <v>0.94998846747759003</v>
+      </c>
+      <c r="CJ193" s="39">
+        <v>1.0600789060385347</v>
+      </c>
       <c r="CK193" s="11"/>
       <c r="CL193" s="11"/>
       <c r="CM193" s="11"/>
@@ -35147,9 +35245,8 @@
       <c r="EU193" s="11"/>
       <c r="EV193" s="11"/>
       <c r="EW193" s="11"/>
-      <c r="EX193" s="11"/>
     </row>
-    <row r="194" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>3</v>
       </c>
@@ -35393,25 +35490,27 @@
       <c r="CC194" s="27">
         <v>5.304805185978128</v>
       </c>
-      <c r="CD194" s="40">
+      <c r="CD194" s="39">
         <v>5.2203896161310048</v>
       </c>
-      <c r="CE194" s="40">
+      <c r="CE194" s="39">
         <v>4.9990546794349005</v>
       </c>
-      <c r="CF194" s="40">
+      <c r="CF194" s="39">
         <v>5.4872153516723126</v>
       </c>
-      <c r="CG194" s="40">
+      <c r="CG194" s="39">
         <v>4.8874847808164708</v>
       </c>
-      <c r="CH194" s="40">
+      <c r="CH194" s="39">
         <v>5.5738653105261236</v>
       </c>
-      <c r="CI194" s="40">
-        <v>5.1458128766581392</v>
-      </c>
-      <c r="CJ194" s="11"/>
+      <c r="CI194" s="39">
+        <v>5.1829857816580089</v>
+      </c>
+      <c r="CJ194" s="39">
+        <v>5.8640582875475147</v>
+      </c>
       <c r="CK194" s="11"/>
       <c r="CL194" s="11"/>
       <c r="CM194" s="11"/>
@@ -35477,9 +35576,8 @@
       <c r="EU194" s="11"/>
       <c r="EV194" s="11"/>
       <c r="EW194" s="11"/>
-      <c r="EX194" s="11"/>
     </row>
-    <row r="195" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>2</v>
       </c>
@@ -35723,25 +35821,27 @@
       <c r="CC195" s="27">
         <v>9.4266205064729984</v>
       </c>
-      <c r="CD195" s="40">
+      <c r="CD195" s="39">
         <v>8.7039928067605548</v>
       </c>
-      <c r="CE195" s="40">
+      <c r="CE195" s="39">
         <v>3.559176774080032</v>
       </c>
-      <c r="CF195" s="40">
+      <c r="CF195" s="39">
         <v>5.1428537469094877</v>
       </c>
-      <c r="CG195" s="40">
+      <c r="CG195" s="39">
         <v>5.8217447307144417</v>
       </c>
-      <c r="CH195" s="40">
+      <c r="CH195" s="39">
         <v>7.476151123030002</v>
       </c>
-      <c r="CI195" s="40">
-        <v>4.1337516487254717</v>
-      </c>
-      <c r="CJ195" s="11"/>
+      <c r="CI195" s="39">
+        <v>4.1556139365239568</v>
+      </c>
+      <c r="CJ195" s="39">
+        <v>5.3486792020974878</v>
+      </c>
       <c r="CK195" s="11"/>
       <c r="CL195" s="11"/>
       <c r="CM195" s="11"/>
@@ -35807,9 +35907,8 @@
       <c r="EU195" s="11"/>
       <c r="EV195" s="11"/>
       <c r="EW195" s="11"/>
-      <c r="EX195" s="11"/>
     </row>
-    <row r="196" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>1</v>
       </c>
@@ -36053,25 +36152,27 @@
       <c r="CC196" s="27">
         <v>14.4727845159921</v>
       </c>
-      <c r="CD196" s="40">
+      <c r="CD196" s="39">
         <v>13.281231453588127</v>
       </c>
-      <c r="CE196" s="40">
+      <c r="CE196" s="39">
         <v>13.930433325973238</v>
       </c>
-      <c r="CF196" s="40">
+      <c r="CF196" s="39">
         <v>14.613588769280916</v>
       </c>
-      <c r="CG196" s="40">
+      <c r="CG196" s="39">
         <v>15.35185650524595</v>
       </c>
-      <c r="CH196" s="40">
+      <c r="CH196" s="39">
         <v>13.924112569984393</v>
       </c>
-      <c r="CI196" s="40">
-        <v>13.439797058409281</v>
-      </c>
-      <c r="CJ196" s="11"/>
+      <c r="CI196" s="39">
+        <v>13.465647336623714</v>
+      </c>
+      <c r="CJ196" s="39">
+        <v>14.782579770507837</v>
+      </c>
       <c r="CK196" s="11"/>
       <c r="CL196" s="11"/>
       <c r="CM196" s="11"/>
@@ -36137,9 +36238,8 @@
       <c r="EU196" s="11"/>
       <c r="EV196" s="11"/>
       <c r="EW196" s="11"/>
-      <c r="EX196" s="11"/>
     </row>
-    <row r="197" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="13"/>
       <c r="C197" s="13"/>
       <c r="D197" s="13"/>
@@ -36220,13 +36320,13 @@
       <c r="CA197" s="11"/>
       <c r="CB197" s="11"/>
       <c r="CC197" s="11"/>
-      <c r="CD197" s="35"/>
-      <c r="CE197" s="35"/>
-      <c r="CF197" s="35"/>
-      <c r="CG197" s="35"/>
-      <c r="CH197" s="35"/>
-      <c r="CI197" s="35"/>
-      <c r="CJ197" s="11"/>
+      <c r="CD197" s="34"/>
+      <c r="CE197" s="34"/>
+      <c r="CF197" s="34"/>
+      <c r="CG197" s="34"/>
+      <c r="CH197" s="34"/>
+      <c r="CI197" s="34"/>
+      <c r="CJ197" s="34"/>
       <c r="CK197" s="11"/>
       <c r="CL197" s="11"/>
       <c r="CM197" s="11"/>
@@ -36292,9 +36392,8 @@
       <c r="EU197" s="11"/>
       <c r="EV197" s="11"/>
       <c r="EW197" s="11"/>
-      <c r="EX197" s="11"/>
     </row>
-    <row r="198" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:153" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="12" t="s">
         <v>18</v>
       </c>
@@ -36538,25 +36637,27 @@
       <c r="CC198" s="27">
         <v>100</v>
       </c>
-      <c r="CD198" s="40">
+      <c r="CD198" s="39">
         <v>100</v>
       </c>
-      <c r="CE198" s="40">
+      <c r="CE198" s="39">
         <v>100</v>
       </c>
-      <c r="CF198" s="40">
+      <c r="CF198" s="39">
         <v>100</v>
       </c>
-      <c r="CG198" s="40">
+      <c r="CG198" s="39">
         <v>100</v>
       </c>
-      <c r="CH198" s="40">
+      <c r="CH198" s="39">
         <v>100</v>
       </c>
-      <c r="CI198" s="40">
+      <c r="CI198" s="39">
         <v>100</v>
       </c>
-      <c r="CJ198" s="11"/>
+      <c r="CJ198" s="39">
+        <v>100</v>
+      </c>
       <c r="CK198" s="11"/>
       <c r="CL198" s="11"/>
       <c r="CM198" s="11"/>
@@ -36622,9 +36723,8 @@
       <c r="EU198" s="11"/>
       <c r="EV198" s="11"/>
       <c r="EW198" s="11"/>
-      <c r="EX198" s="11"/>
     </row>
-    <row r="199" spans="1:154" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:153" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="16"/>
       <c r="B199" s="17"/>
       <c r="C199" s="17"/>
@@ -36706,19 +36806,20 @@
       <c r="CA199" s="16"/>
       <c r="CB199" s="16"/>
       <c r="CC199" s="16"/>
-      <c r="CD199" s="37"/>
-      <c r="CE199" s="37"/>
-      <c r="CF199" s="37"/>
-      <c r="CG199" s="37"/>
-      <c r="CH199" s="37"/>
-      <c r="CI199" s="37"/>
+      <c r="CD199" s="36"/>
+      <c r="CE199" s="36"/>
+      <c r="CF199" s="36"/>
+      <c r="CG199" s="36"/>
+      <c r="CH199" s="36"/>
+      <c r="CI199" s="36"/>
+      <c r="CJ199" s="36"/>
     </row>
-    <row r="200" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A200" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:154" s="30" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:153" s="30" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="28"/>
       <c r="C201" s="28"/>
@@ -36806,7 +36907,7 @@
       <c r="CG201" s="31"/>
       <c r="CH201" s="31"/>
       <c r="CI201" s="31"/>
-      <c r="CJ201" s="29"/>
+      <c r="CJ201" s="31"/>
       <c r="CK201" s="29"/>
       <c r="CL201" s="29"/>
       <c r="CM201" s="29"/>
@@ -36872,9 +36973,8 @@
       <c r="EU201" s="29"/>
       <c r="EV201" s="29"/>
       <c r="EW201" s="29"/>
-      <c r="EX201" s="29"/>
     </row>
-    <row r="202" spans="1:154" s="30" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:153" s="30" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="28"/>
       <c r="C202" s="28"/>
@@ -36962,7 +37062,7 @@
       <c r="CG202" s="31"/>
       <c r="CH202" s="31"/>
       <c r="CI202" s="31"/>
-      <c r="CJ202" s="29"/>
+      <c r="CJ202" s="31"/>
       <c r="CK202" s="29"/>
       <c r="CL202" s="29"/>
       <c r="CM202" s="29"/>
@@ -37028,7 +37128,6 @@
       <c r="EU202" s="29"/>
       <c r="EV202" s="29"/>
       <c r="EW202" s="29"/>
-      <c r="EX202" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="152">
@@ -37042,20 +37141,6 @@
     <mergeCell ref="AP153:AS153"/>
     <mergeCell ref="AT153:AW153"/>
     <mergeCell ref="AX153:BA153"/>
-    <mergeCell ref="AL124:AO124"/>
-    <mergeCell ref="AP124:AS124"/>
-    <mergeCell ref="AT124:AW124"/>
-    <mergeCell ref="AX124:BA124"/>
-    <mergeCell ref="BB124:BE124"/>
-    <mergeCell ref="B182:E182"/>
-    <mergeCell ref="F182:I182"/>
-    <mergeCell ref="J182:M182"/>
-    <mergeCell ref="N182:Q182"/>
-    <mergeCell ref="R182:U182"/>
-    <mergeCell ref="V182:Y182"/>
-    <mergeCell ref="Z182:AC182"/>
-    <mergeCell ref="AD182:AG182"/>
-    <mergeCell ref="AH182:AK182"/>
     <mergeCell ref="AX182:BA182"/>
     <mergeCell ref="BB182:BE182"/>
     <mergeCell ref="F153:I153"/>
@@ -37066,6 +37151,16 @@
     <mergeCell ref="Z153:AC153"/>
     <mergeCell ref="AD153:AG153"/>
     <mergeCell ref="AH153:AK153"/>
+    <mergeCell ref="B182:E182"/>
+    <mergeCell ref="F182:I182"/>
+    <mergeCell ref="J182:M182"/>
+    <mergeCell ref="N182:Q182"/>
+    <mergeCell ref="R182:U182"/>
+    <mergeCell ref="V182:Y182"/>
+    <mergeCell ref="Z182:AC182"/>
+    <mergeCell ref="AD182:AG182"/>
+    <mergeCell ref="AH182:AK182"/>
+    <mergeCell ref="BJ96:BM96"/>
     <mergeCell ref="AL153:AO153"/>
     <mergeCell ref="B96:E96"/>
     <mergeCell ref="F96:I96"/>
@@ -37076,30 +37171,11 @@
     <mergeCell ref="Z96:AC96"/>
     <mergeCell ref="AD96:AG96"/>
     <mergeCell ref="AH96:AK96"/>
-    <mergeCell ref="AL67:AO67"/>
-    <mergeCell ref="AP67:AS67"/>
-    <mergeCell ref="AT67:AW67"/>
-    <mergeCell ref="AX67:BA67"/>
-    <mergeCell ref="AP38:AS38"/>
-    <mergeCell ref="AT38:AW38"/>
-    <mergeCell ref="AX38:BA38"/>
-    <mergeCell ref="BB38:BE38"/>
-    <mergeCell ref="BN96:BQ96"/>
-    <mergeCell ref="BB67:BE67"/>
-    <mergeCell ref="BF67:BI67"/>
-    <mergeCell ref="BJ67:BM67"/>
-    <mergeCell ref="BN67:BQ67"/>
-    <mergeCell ref="AL96:AO96"/>
-    <mergeCell ref="AP96:AS96"/>
-    <mergeCell ref="AT96:AW96"/>
-    <mergeCell ref="AX96:BA96"/>
-    <mergeCell ref="BB96:BE96"/>
-    <mergeCell ref="BF96:BI96"/>
-    <mergeCell ref="BJ96:BM96"/>
-    <mergeCell ref="BR96:BU96"/>
-    <mergeCell ref="BV96:BY96"/>
-    <mergeCell ref="BR38:BU38"/>
-    <mergeCell ref="BV38:BY38"/>
+    <mergeCell ref="AL124:AO124"/>
+    <mergeCell ref="AP124:AS124"/>
+    <mergeCell ref="AT124:AW124"/>
+    <mergeCell ref="AX124:BA124"/>
+    <mergeCell ref="BB124:BE124"/>
     <mergeCell ref="BJ9:BM9"/>
     <mergeCell ref="BN9:BQ9"/>
     <mergeCell ref="B38:E38"/>
@@ -37120,6 +37196,41 @@
     <mergeCell ref="Z9:AC9"/>
     <mergeCell ref="AD9:AG9"/>
     <mergeCell ref="BF38:BI38"/>
+    <mergeCell ref="AP38:AS38"/>
+    <mergeCell ref="AT38:AW38"/>
+    <mergeCell ref="AX38:BA38"/>
+    <mergeCell ref="BB38:BE38"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="N67:Q67"/>
+    <mergeCell ref="R67:U67"/>
+    <mergeCell ref="V67:Y67"/>
+    <mergeCell ref="Z67:AC67"/>
+    <mergeCell ref="AD67:AG67"/>
+    <mergeCell ref="AH67:AK67"/>
+    <mergeCell ref="BR96:BU96"/>
+    <mergeCell ref="BV96:BY96"/>
+    <mergeCell ref="AL67:AO67"/>
+    <mergeCell ref="AP67:AS67"/>
+    <mergeCell ref="AT67:AW67"/>
+    <mergeCell ref="AX67:BA67"/>
+    <mergeCell ref="BN96:BQ96"/>
+    <mergeCell ref="BB67:BE67"/>
+    <mergeCell ref="BF67:BI67"/>
+    <mergeCell ref="BJ67:BM67"/>
+    <mergeCell ref="BN67:BQ67"/>
+    <mergeCell ref="AL96:AO96"/>
+    <mergeCell ref="AP96:AS96"/>
+    <mergeCell ref="AT96:AW96"/>
+    <mergeCell ref="AX96:BA96"/>
+    <mergeCell ref="BB96:BE96"/>
+    <mergeCell ref="BF96:BI96"/>
+    <mergeCell ref="AL182:AO182"/>
+    <mergeCell ref="AP182:AS182"/>
+    <mergeCell ref="AT182:AW182"/>
+    <mergeCell ref="BF124:BI124"/>
+    <mergeCell ref="BJ124:BM124"/>
+    <mergeCell ref="BN124:BQ124"/>
+    <mergeCell ref="B153:E153"/>
     <mergeCell ref="BV9:BY9"/>
     <mergeCell ref="BZ9:CC9"/>
     <mergeCell ref="BR9:BU9"/>
@@ -37137,21 +37248,6 @@
     <mergeCell ref="BN38:BQ38"/>
     <mergeCell ref="B67:E67"/>
     <mergeCell ref="F67:I67"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="N67:Q67"/>
-    <mergeCell ref="R67:U67"/>
-    <mergeCell ref="V67:Y67"/>
-    <mergeCell ref="Z67:AC67"/>
-    <mergeCell ref="AD67:AG67"/>
-    <mergeCell ref="AH67:AK67"/>
-    <mergeCell ref="BR182:BU182"/>
-    <mergeCell ref="BV182:BY182"/>
-    <mergeCell ref="BZ124:CC124"/>
-    <mergeCell ref="BR124:BU124"/>
-    <mergeCell ref="BV124:BY124"/>
-    <mergeCell ref="BR153:BU153"/>
-    <mergeCell ref="BV153:BY153"/>
-    <mergeCell ref="BZ153:CC153"/>
     <mergeCell ref="B124:E124"/>
     <mergeCell ref="F124:I124"/>
     <mergeCell ref="J124:M124"/>
@@ -37161,20 +37257,23 @@
     <mergeCell ref="Z124:AC124"/>
     <mergeCell ref="AD124:AG124"/>
     <mergeCell ref="AH124:AK124"/>
-    <mergeCell ref="AL182:AO182"/>
-    <mergeCell ref="AP182:AS182"/>
-    <mergeCell ref="AT182:AW182"/>
-    <mergeCell ref="BF124:BI124"/>
-    <mergeCell ref="BJ124:BM124"/>
-    <mergeCell ref="BN124:BQ124"/>
-    <mergeCell ref="B153:E153"/>
-    <mergeCell ref="CH9:CI9"/>
-    <mergeCell ref="CH38:CI38"/>
-    <mergeCell ref="CD67:CE67"/>
+    <mergeCell ref="CH9:CJ9"/>
+    <mergeCell ref="CH38:CJ38"/>
+    <mergeCell ref="CD67:CF67"/>
+    <mergeCell ref="CH124:CJ124"/>
+    <mergeCell ref="CH153:CJ153"/>
+    <mergeCell ref="CH182:CJ182"/>
+    <mergeCell ref="BR182:BU182"/>
+    <mergeCell ref="BV182:BY182"/>
+    <mergeCell ref="BZ124:CC124"/>
+    <mergeCell ref="BR124:BU124"/>
+    <mergeCell ref="BV124:BY124"/>
+    <mergeCell ref="BR153:BU153"/>
+    <mergeCell ref="BV153:BY153"/>
+    <mergeCell ref="BZ153:CC153"/>
+    <mergeCell ref="BR38:BU38"/>
+    <mergeCell ref="BV38:BY38"/>
     <mergeCell ref="CD96:CE96"/>
-    <mergeCell ref="CH124:CI124"/>
-    <mergeCell ref="CH153:CI153"/>
-    <mergeCell ref="CH182:CI182"/>
     <mergeCell ref="BZ67:CC67"/>
     <mergeCell ref="BZ96:CC96"/>
     <mergeCell ref="CD9:CG9"/>
@@ -37189,9 +37288,9 @@
   <pageSetup paperSize="9" scale="44" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="58" max="86" man="1"/>
-    <brk id="116" max="86" man="1"/>
-    <brk id="144" max="86" man="1"/>
+    <brk id="58" max="87" man="1"/>
+    <brk id="116" max="87" man="1"/>
+    <brk id="144" max="87" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-02HFCE_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-02HFCE_2018PSNA_Qrt.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2021\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9528"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11424" windowHeight="9204"/>
   </bookViews>
   <sheets>
     <sheet name="HFCE" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="PCE_Per_Anl">#REF!</definedName>
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HFCE!$A$1:$CJ$202</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HFCE!$A$1:$CK$202</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="60">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -216,13 +216,13 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>As of November 2021</t>
+    <t>As of January 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2021</t>
+    <t>Q1 2000 to Q4 2021</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2021</t>
+    <t>Q1 2001 to Q4 2021</t>
   </si>
 </sst>
 </file>
@@ -711,11 +711,11 @@
   <dimension ref="A1:EW202"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BV64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="CA66" sqref="CA66"/>
       <selection pane="topRight" activeCell="CA66" sqref="CA66"/>
       <selection pane="bottomLeft" activeCell="CA66" sqref="CA66"/>
-      <selection pane="bottomRight" activeCell="BZ90" sqref="BZ90"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -739,8 +739,10 @@
     <col min="78" max="78" width="12.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="79" max="80" width="12.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="12.6328125" style="1" customWidth="1"/>
-    <col min="82" max="88" width="13.54296875" style="31" customWidth="1"/>
-    <col min="89" max="16384" width="7.81640625" style="1"/>
+    <col min="82" max="87" width="12.7265625" style="31" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="12.7265625" style="31" customWidth="1"/>
+    <col min="89" max="89" width="12.7265625" style="31" bestFit="1" customWidth="1"/>
+    <col min="90" max="16384" width="7.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:153" x14ac:dyDescent="0.25">
@@ -906,6 +908,7 @@
       </c>
       <c r="CI9" s="41"/>
       <c r="CJ9" s="41"/>
+      <c r="CK9" s="41"/>
     </row>
     <row r="10" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -1171,6 +1174,9 @@
       </c>
       <c r="CJ10" s="32" t="s">
         <v>21</v>
+      </c>
+      <c r="CK10" s="32" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:153" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1439,9 +1445,11 @@
         <v>1400123.2578233925</v>
       </c>
       <c r="CJ12" s="33">
-        <v>1305224.6104324281</v>
-      </c>
-      <c r="CK12" s="11"/>
+        <v>1301537.4046808972</v>
+      </c>
+      <c r="CK12" s="33">
+        <v>1693040.1379995327</v>
+      </c>
       <c r="CL12" s="11"/>
       <c r="CM12" s="11"/>
       <c r="CN12" s="11"/>
@@ -1770,9 +1778,11 @@
         <v>65676.393713361467</v>
       </c>
       <c r="CJ13" s="33">
-        <v>77988.513257050436</v>
-      </c>
-      <c r="CK13" s="11"/>
+        <v>74909.24348409893</v>
+      </c>
+      <c r="CK13" s="33">
+        <v>96383.985286735886</v>
+      </c>
       <c r="CL13" s="11"/>
       <c r="CM13" s="11"/>
       <c r="CN13" s="11"/>
@@ -2101,9 +2111,11 @@
         <v>58753.563010158527</v>
       </c>
       <c r="CJ14" s="33">
-        <v>68162.269789121594</v>
-      </c>
-      <c r="CK14" s="11"/>
+        <v>70001.752689121102</v>
+      </c>
+      <c r="CK14" s="33">
+        <v>77545.571673639541</v>
+      </c>
       <c r="CL14" s="11"/>
       <c r="CM14" s="11"/>
       <c r="CN14" s="11"/>
@@ -2432,9 +2444,11 @@
         <v>504165.56267432391</v>
       </c>
       <c r="CJ15" s="33">
-        <v>481079.38748381223</v>
-      </c>
-      <c r="CK15" s="11"/>
+        <v>479283.8744522747</v>
+      </c>
+      <c r="CK15" s="33">
+        <v>484074.01693273138</v>
+      </c>
       <c r="CL15" s="11"/>
       <c r="CM15" s="11"/>
       <c r="CN15" s="11"/>
@@ -2763,9 +2777,11 @@
         <v>92731.163094871226</v>
       </c>
       <c r="CJ16" s="33">
-        <v>106064.13809344247</v>
-      </c>
-      <c r="CK16" s="11"/>
+        <v>108963.95915831128</v>
+      </c>
+      <c r="CK16" s="33">
+        <v>115595.06863942678</v>
+      </c>
       <c r="CL16" s="11"/>
       <c r="CM16" s="11"/>
       <c r="CN16" s="11"/>
@@ -3094,9 +3110,11 @@
         <v>138609.24620856263</v>
       </c>
       <c r="CJ17" s="33">
-        <v>208468.12793236409</v>
-      </c>
-      <c r="CK17" s="11"/>
+        <v>205639.44837809569</v>
+      </c>
+      <c r="CK17" s="33">
+        <v>180765.03079572134</v>
+      </c>
       <c r="CL17" s="11"/>
       <c r="CM17" s="11"/>
       <c r="CN17" s="11"/>
@@ -3425,9 +3443,11 @@
         <v>206145.16370168439</v>
       </c>
       <c r="CJ18" s="33">
-        <v>322940.49864943034</v>
-      </c>
-      <c r="CK18" s="11"/>
+        <v>333945.31631593843</v>
+      </c>
+      <c r="CK18" s="33">
+        <v>308149.08563745068</v>
+      </c>
       <c r="CL18" s="11"/>
       <c r="CM18" s="11"/>
       <c r="CN18" s="11"/>
@@ -3756,9 +3776,11 @@
         <v>115034.92346509021</v>
       </c>
       <c r="CJ19" s="33">
-        <v>89792.948428916061</v>
-      </c>
-      <c r="CK19" s="11"/>
+        <v>89877.353589534265</v>
+      </c>
+      <c r="CK19" s="33">
+        <v>119446.48599329242</v>
+      </c>
       <c r="CL19" s="11"/>
       <c r="CM19" s="11"/>
       <c r="CN19" s="11"/>
@@ -4087,9 +4109,11 @@
         <v>30171.603099089683</v>
       </c>
       <c r="CJ20" s="33">
-        <v>34839.239441192702</v>
-      </c>
-      <c r="CK20" s="11"/>
+        <v>35260.224684329514</v>
+      </c>
+      <c r="CK20" s="33">
+        <v>71030.901959641502</v>
+      </c>
       <c r="CL20" s="11"/>
       <c r="CM20" s="11"/>
       <c r="CN20" s="11"/>
@@ -4418,9 +4442,11 @@
         <v>172007.47830100509</v>
       </c>
       <c r="CJ21" s="33">
-        <v>201301.99512338772</v>
-      </c>
-      <c r="CK21" s="11"/>
+        <v>201367.51948068949</v>
+      </c>
+      <c r="CK21" s="33">
+        <v>189943.89878535349</v>
+      </c>
       <c r="CL21" s="11"/>
       <c r="CM21" s="11"/>
       <c r="CN21" s="11"/>
@@ -4749,9 +4775,11 @@
         <v>137304.95677682673</v>
       </c>
       <c r="CJ22" s="33">
-        <v>197246.94276199664</v>
-      </c>
-      <c r="CK22" s="11"/>
+        <v>198231.50436617539</v>
+      </c>
+      <c r="CK22" s="33">
+        <v>282978.67017029534</v>
+      </c>
       <c r="CL22" s="11"/>
       <c r="CM22" s="11"/>
       <c r="CN22" s="11"/>
@@ -5080,9 +5108,11 @@
         <v>474727.9682761578</v>
       </c>
       <c r="CJ23" s="33">
-        <v>490310.12559149798</v>
-      </c>
-      <c r="CK23" s="11"/>
+        <v>482716.46618890401</v>
+      </c>
+      <c r="CK23" s="33">
+        <v>615355.51797210018</v>
+      </c>
       <c r="CL23" s="11"/>
       <c r="CM23" s="11"/>
       <c r="CN23" s="11"/>
@@ -5236,7 +5266,7 @@
       <c r="CH24" s="34"/>
       <c r="CI24" s="34"/>
       <c r="CJ24" s="34"/>
-      <c r="CK24" s="11"/>
+      <c r="CK24" s="34"/>
       <c r="CL24" s="11"/>
       <c r="CM24" s="11"/>
       <c r="CN24" s="11"/>
@@ -5565,9 +5595,11 @@
         <v>3395451.2801445238</v>
       </c>
       <c r="CJ25" s="35">
-        <v>3583418.7969846404</v>
-      </c>
-      <c r="CK25" s="11"/>
+        <v>3581734.0674683698</v>
+      </c>
+      <c r="CK25" s="35">
+        <v>4234308.3718459224</v>
+      </c>
       <c r="CL25" s="11"/>
       <c r="CM25" s="11"/>
       <c r="CN25" s="11"/>
@@ -5722,6 +5754,7 @@
       <c r="CH26" s="36"/>
       <c r="CI26" s="36"/>
       <c r="CJ26" s="36"/>
+      <c r="CK26" s="36"/>
     </row>
     <row r="27" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
@@ -5816,7 +5849,7 @@
       <c r="CH28" s="37"/>
       <c r="CI28" s="37"/>
       <c r="CJ28" s="37"/>
-      <c r="CK28" s="11"/>
+      <c r="CK28" s="37"/>
       <c r="CL28" s="11"/>
       <c r="CM28" s="11"/>
       <c r="CN28" s="11"/>
@@ -5970,7 +6003,7 @@
       <c r="CH29" s="38"/>
       <c r="CI29" s="38"/>
       <c r="CJ29" s="38"/>
-      <c r="CK29" s="11"/>
+      <c r="CK29" s="38"/>
       <c r="CL29" s="11"/>
       <c r="CM29" s="11"/>
       <c r="CN29" s="11"/>
@@ -6199,6 +6232,7 @@
       </c>
       <c r="CI38" s="41"/>
       <c r="CJ38" s="41"/>
+      <c r="CK38" s="41"/>
     </row>
     <row r="39" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
@@ -6464,6 +6498,9 @@
       </c>
       <c r="CJ39" s="32" t="s">
         <v>21</v>
+      </c>
+      <c r="CK39" s="32" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:153" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6732,9 +6769,11 @@
         <v>1284174.6427209931</v>
       </c>
       <c r="CJ41" s="33">
-        <v>1180627.7981894596</v>
-      </c>
-      <c r="CK41" s="11"/>
+        <v>1177292.5732993472</v>
+      </c>
+      <c r="CK41" s="33">
+        <v>1554700.9163613268</v>
+      </c>
       <c r="CL41" s="11"/>
       <c r="CM41" s="11"/>
       <c r="CN41" s="11"/>
@@ -7063,9 +7102,11 @@
         <v>45363.710976051334</v>
       </c>
       <c r="CJ42" s="33">
-        <v>50796.908775187898</v>
-      </c>
-      <c r="CK42" s="11"/>
+        <v>48791.262312416402</v>
+      </c>
+      <c r="CK42" s="33">
+        <v>67500.520890264219</v>
+      </c>
       <c r="CL42" s="11"/>
       <c r="CM42" s="11"/>
       <c r="CN42" s="11"/>
@@ -7394,9 +7435,11 @@
         <v>51965.922727064069</v>
       </c>
       <c r="CJ43" s="33">
-        <v>65633.401512125114</v>
-      </c>
-      <c r="CK43" s="11"/>
+        <v>67404.638299337035</v>
+      </c>
+      <c r="CK43" s="33">
+        <v>74413.373188972968</v>
+      </c>
       <c r="CL43" s="11"/>
       <c r="CM43" s="11"/>
       <c r="CN43" s="11"/>
@@ -7725,9 +7768,11 @@
         <v>487469.33036093495</v>
       </c>
       <c r="CJ44" s="33">
-        <v>436050.86564871832</v>
-      </c>
-      <c r="CK44" s="11"/>
+        <v>434423.41073783452</v>
+      </c>
+      <c r="CK44" s="33">
+        <v>442689.4390221542</v>
+      </c>
       <c r="CL44" s="11"/>
       <c r="CM44" s="11"/>
       <c r="CN44" s="11"/>
@@ -8056,9 +8101,11 @@
         <v>84958.883565282158</v>
       </c>
       <c r="CJ45" s="33">
-        <v>95598.435983222924</v>
-      </c>
-      <c r="CK45" s="11"/>
+        <v>98212.122035981243</v>
+      </c>
+      <c r="CK45" s="33">
+        <v>107865.9437580427</v>
+      </c>
       <c r="CL45" s="11"/>
       <c r="CM45" s="11"/>
       <c r="CN45" s="11"/>
@@ -8387,9 +8434,11 @@
         <v>130119.16987745628</v>
       </c>
       <c r="CJ46" s="33">
-        <v>186560.10230663864</v>
-      </c>
-      <c r="CK46" s="11"/>
+        <v>184028.69018013735</v>
+      </c>
+      <c r="CK46" s="33">
+        <v>162574.28317905535</v>
+      </c>
       <c r="CL46" s="11"/>
       <c r="CM46" s="11"/>
       <c r="CN46" s="11"/>
@@ -8718,9 +8767,11 @@
         <v>189744.36271284005</v>
       </c>
       <c r="CJ47" s="33">
-        <v>263124.30319707381</v>
-      </c>
-      <c r="CK47" s="11"/>
+        <v>272090.76913250348</v>
+      </c>
+      <c r="CK47" s="33">
+        <v>273272.02494575613</v>
+      </c>
       <c r="CL47" s="11"/>
       <c r="CM47" s="11"/>
       <c r="CN47" s="11"/>
@@ -9049,9 +9100,11 @@
         <v>113400.67740383728</v>
       </c>
       <c r="CJ48" s="33">
-        <v>89986.957709928116</v>
-      </c>
-      <c r="CK48" s="11"/>
+        <v>90071.545238814782</v>
+      </c>
+      <c r="CK48" s="33">
+        <v>122930.34154236411</v>
+      </c>
       <c r="CL48" s="11"/>
       <c r="CM48" s="11"/>
       <c r="CN48" s="11"/>
@@ -9380,9 +9433,11 @@
         <v>29743.413951742506</v>
       </c>
       <c r="CJ49" s="33">
-        <v>34418.836310751125</v>
-      </c>
-      <c r="CK49" s="11"/>
+        <v>34834.741548786697</v>
+      </c>
+      <c r="CK49" s="33">
+        <v>68384.151713861182</v>
+      </c>
       <c r="CL49" s="11"/>
       <c r="CM49" s="11"/>
       <c r="CN49" s="11"/>
@@ -9711,9 +9766,11 @@
         <v>162275.32953023605</v>
       </c>
       <c r="CJ50" s="33">
-        <v>190395.31978807683</v>
-      </c>
-      <c r="CK50" s="11"/>
+        <v>190457.29399233015</v>
+      </c>
+      <c r="CK50" s="33">
+        <v>191768.56596395167</v>
+      </c>
       <c r="CL50" s="11"/>
       <c r="CM50" s="11"/>
       <c r="CN50" s="11"/>
@@ -10042,9 +10099,11 @@
         <v>130109.10107766966</v>
       </c>
       <c r="CJ51" s="33">
-        <v>173661.89713525001</v>
-      </c>
-      <c r="CK51" s="11"/>
+        <v>174528.73356695336</v>
+      </c>
+      <c r="CK51" s="33">
+        <v>259101.18153199396</v>
+      </c>
       <c r="CL51" s="11"/>
       <c r="CM51" s="11"/>
       <c r="CN51" s="11"/>
@@ -10373,9 +10432,11 @@
         <v>421599.14206624427</v>
       </c>
       <c r="CJ52" s="33">
-        <v>479963.51070986682</v>
-      </c>
-      <c r="CK52" s="11"/>
+        <v>472530.09411132697</v>
+      </c>
+      <c r="CK52" s="33">
+        <v>598737.23545185605</v>
+      </c>
       <c r="CL52" s="11"/>
       <c r="CM52" s="11"/>
       <c r="CN52" s="11"/>
@@ -10529,7 +10590,7 @@
       <c r="CH53" s="34"/>
       <c r="CI53" s="34"/>
       <c r="CJ53" s="34"/>
-      <c r="CK53" s="11"/>
+      <c r="CK53" s="34"/>
       <c r="CL53" s="11"/>
       <c r="CM53" s="11"/>
       <c r="CN53" s="11"/>
@@ -10858,9 +10919,11 @@
         <v>3130923.6869703522</v>
       </c>
       <c r="CJ54" s="35">
-        <v>3246818.3372662989</v>
-      </c>
-      <c r="CK54" s="11"/>
+        <v>3244665.8744557695</v>
+      </c>
+      <c r="CK54" s="35">
+        <v>3923937.9775495995</v>
+      </c>
       <c r="CL54" s="11"/>
       <c r="CM54" s="11"/>
       <c r="CN54" s="11"/>
@@ -11015,6 +11078,7 @@
       <c r="CH55" s="36"/>
       <c r="CI55" s="36"/>
       <c r="CJ55" s="36"/>
+      <c r="CK55" s="36"/>
     </row>
     <row r="56" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
@@ -11109,7 +11173,7 @@
       <c r="CH57" s="34"/>
       <c r="CI57" s="34"/>
       <c r="CJ57" s="34"/>
-      <c r="CK57" s="11"/>
+      <c r="CK57" s="34"/>
       <c r="CL57" s="11"/>
       <c r="CM57" s="11"/>
       <c r="CN57" s="11"/>
@@ -11263,7 +11327,7 @@
       <c r="CH58" s="38"/>
       <c r="CI58" s="38"/>
       <c r="CJ58" s="38"/>
-      <c r="CK58" s="11"/>
+      <c r="CK58" s="38"/>
       <c r="CL58" s="11"/>
       <c r="CM58" s="11"/>
       <c r="CN58" s="11"/>
@@ -11486,10 +11550,11 @@
       </c>
       <c r="CE67" s="41"/>
       <c r="CF67" s="41"/>
-      <c r="CG67" s="40"/>
+      <c r="CG67" s="41"/>
       <c r="CH67" s="40"/>
       <c r="CI67" s="40"/>
       <c r="CJ67" s="40"/>
+      <c r="CK67" s="40"/>
     </row>
     <row r="68" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
@@ -11744,10 +11809,13 @@
       <c r="CF68" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="CG68" s="32"/>
+      <c r="CG68" s="32" t="s">
+        <v>22</v>
+      </c>
       <c r="CH68" s="32"/>
       <c r="CI68" s="32"/>
       <c r="CJ68" s="32"/>
+      <c r="CK68" s="32"/>
     </row>
     <row r="69" spans="1:149" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
@@ -12003,13 +12071,15 @@
         <v>7.481306116221333</v>
       </c>
       <c r="CF70" s="39">
-        <v>9.0858848886376222</v>
-      </c>
-      <c r="CG70" s="34"/>
+        <v>8.7777217579723583</v>
+      </c>
+      <c r="CG70" s="39">
+        <v>9.5102856733355168</v>
+      </c>
       <c r="CH70" s="34"/>
       <c r="CI70" s="34"/>
       <c r="CJ70" s="34"/>
-      <c r="CK70" s="11"/>
+      <c r="CK70" s="34"/>
       <c r="CL70" s="11"/>
       <c r="CM70" s="11"/>
       <c r="CN70" s="11"/>
@@ -12322,13 +12392,15 @@
         <v>8.7715547461483965</v>
       </c>
       <c r="CF71" s="39">
-        <v>5.1421414084397554</v>
-      </c>
-      <c r="CG71" s="34"/>
+        <v>0.99074776877282034</v>
+      </c>
+      <c r="CG71" s="39">
+        <v>-1.1336977676500339</v>
+      </c>
       <c r="CH71" s="34"/>
       <c r="CI71" s="34"/>
       <c r="CJ71" s="34"/>
-      <c r="CK71" s="11"/>
+      <c r="CK71" s="34"/>
       <c r="CL71" s="11"/>
       <c r="CM71" s="11"/>
       <c r="CN71" s="11"/>
@@ -12641,13 +12713,15 @@
         <v>44.627475184287903</v>
       </c>
       <c r="CF72" s="39">
-        <v>26.719325408866553</v>
-      </c>
-      <c r="CG72" s="34"/>
+        <v>30.139077023802997</v>
+      </c>
+      <c r="CG72" s="39">
+        <v>10.586743877501021</v>
+      </c>
       <c r="CH72" s="34"/>
       <c r="CI72" s="34"/>
       <c r="CJ72" s="34"/>
-      <c r="CK72" s="11"/>
+      <c r="CK72" s="34"/>
       <c r="CL72" s="11"/>
       <c r="CM72" s="11"/>
       <c r="CN72" s="11"/>
@@ -12960,13 +13034,15 @@
         <v>8.6427709884753483</v>
       </c>
       <c r="CF73" s="39">
-        <v>6.8885865335774383</v>
-      </c>
-      <c r="CG73" s="34"/>
+        <v>6.4896506094102051</v>
+      </c>
+      <c r="CG73" s="39">
+        <v>7.3158902084699662</v>
+      </c>
       <c r="CH73" s="34"/>
       <c r="CI73" s="34"/>
       <c r="CJ73" s="34"/>
-      <c r="CK73" s="11"/>
+      <c r="CK73" s="34"/>
       <c r="CL73" s="11"/>
       <c r="CM73" s="11"/>
       <c r="CN73" s="11"/>
@@ -13279,13 +13355,15 @@
         <v>18.068179926995938</v>
       </c>
       <c r="CF74" s="39">
-        <v>6.68804608383806</v>
-      </c>
-      <c r="CG74" s="34"/>
+        <v>9.6049249551022342</v>
+      </c>
+      <c r="CG74" s="39">
+        <v>1.5743422751811238</v>
+      </c>
       <c r="CH74" s="34"/>
       <c r="CI74" s="34"/>
       <c r="CJ74" s="34"/>
-      <c r="CK74" s="11"/>
+      <c r="CK74" s="34"/>
       <c r="CL74" s="11"/>
       <c r="CM74" s="11"/>
       <c r="CN74" s="11"/>
@@ -13598,13 +13676,15 @@
         <v>19.01348435368908</v>
       </c>
       <c r="CF75" s="39">
-        <v>22.468360159241612</v>
-      </c>
-      <c r="CG75" s="34"/>
+        <v>20.806601357725341</v>
+      </c>
+      <c r="CG75" s="39">
+        <v>21.402540569832269</v>
+      </c>
       <c r="CH75" s="34"/>
       <c r="CI75" s="34"/>
       <c r="CJ75" s="34"/>
-      <c r="CK75" s="11"/>
+      <c r="CK75" s="34"/>
       <c r="CL75" s="11"/>
       <c r="CM75" s="11"/>
       <c r="CN75" s="11"/>
@@ -13917,13 +13997,15 @@
         <v>36.952159402293802</v>
       </c>
       <c r="CF76" s="39">
-        <v>20.799646562664066</v>
-      </c>
-      <c r="CG76" s="34"/>
+        <v>24.916126502963692</v>
+      </c>
+      <c r="CG76" s="39">
+        <v>23.103464905935027</v>
+      </c>
       <c r="CH76" s="34"/>
       <c r="CI76" s="34"/>
       <c r="CJ76" s="34"/>
-      <c r="CK76" s="11"/>
+      <c r="CK76" s="34"/>
       <c r="CL76" s="11"/>
       <c r="CM76" s="11"/>
       <c r="CN76" s="11"/>
@@ -14236,13 +14318,15 @@
         <v>13.661946038334747</v>
       </c>
       <c r="CF77" s="39">
-        <v>7.7593838930805958</v>
-      </c>
-      <c r="CG77" s="34"/>
+        <v>7.8606774608357028</v>
+      </c>
+      <c r="CG77" s="39">
+        <v>8.290589588607105</v>
+      </c>
       <c r="CH77" s="34"/>
       <c r="CI77" s="34"/>
       <c r="CJ77" s="34"/>
-      <c r="CK77" s="11"/>
+      <c r="CK77" s="34"/>
       <c r="CL77" s="11"/>
       <c r="CM77" s="11"/>
       <c r="CN77" s="11"/>
@@ -14555,13 +14639,15 @@
         <v>14.336312622019065</v>
       </c>
       <c r="CF78" s="39">
-        <v>20.547980447112394</v>
-      </c>
-      <c r="CG78" s="34"/>
+        <v>22.004640284473112</v>
+      </c>
+      <c r="CG78" s="39">
+        <v>42.881774745082424</v>
+      </c>
       <c r="CH78" s="34"/>
       <c r="CI78" s="34"/>
       <c r="CJ78" s="34"/>
-      <c r="CK78" s="11"/>
+      <c r="CK78" s="34"/>
       <c r="CL78" s="11"/>
       <c r="CM78" s="11"/>
       <c r="CN78" s="11"/>
@@ -14874,13 +14960,15 @@
         <v>12.423232604076759</v>
       </c>
       <c r="CF79" s="39">
-        <v>15.680687896437746</v>
-      </c>
-      <c r="CG79" s="34"/>
+        <v>15.718342280945933</v>
+      </c>
+      <c r="CG79" s="39">
+        <v>8.2008756780896306</v>
+      </c>
       <c r="CH79" s="34"/>
       <c r="CI79" s="34"/>
       <c r="CJ79" s="34"/>
-      <c r="CK79" s="11"/>
+      <c r="CK79" s="34"/>
       <c r="CL79" s="11"/>
       <c r="CM79" s="11"/>
       <c r="CN79" s="11"/>
@@ -15193,13 +15281,15 @@
         <v>30.583753110696108</v>
       </c>
       <c r="CF80" s="39">
-        <v>16.270043140069276</v>
-      </c>
-      <c r="CG80" s="34"/>
+        <v>16.850407117269398</v>
+      </c>
+      <c r="CG80" s="39">
+        <v>26.369875853248061</v>
+      </c>
       <c r="CH80" s="34"/>
       <c r="CI80" s="34"/>
       <c r="CJ80" s="34"/>
-      <c r="CK80" s="11"/>
+      <c r="CK80" s="34"/>
       <c r="CL80" s="11"/>
       <c r="CM80" s="11"/>
       <c r="CN80" s="11"/>
@@ -15512,13 +15602,15 @@
         <v>6.9340203695247737</v>
       </c>
       <c r="CF81" s="39">
-        <v>10.508408704813817</v>
-      </c>
-      <c r="CG81" s="34"/>
+        <v>8.7969139323681844</v>
+      </c>
+      <c r="CG81" s="39">
+        <v>8.9392421544671379</v>
+      </c>
       <c r="CH81" s="34"/>
       <c r="CI81" s="34"/>
       <c r="CJ81" s="34"/>
-      <c r="CK81" s="11"/>
+      <c r="CK81" s="34"/>
       <c r="CL81" s="11"/>
       <c r="CM81" s="11"/>
       <c r="CN81" s="11"/>
@@ -15668,7 +15760,7 @@
       <c r="CH82" s="34"/>
       <c r="CI82" s="34"/>
       <c r="CJ82" s="34"/>
-      <c r="CK82" s="11"/>
+      <c r="CK82" s="34"/>
       <c r="CL82" s="11"/>
       <c r="CM82" s="11"/>
       <c r="CN82" s="11"/>
@@ -15981,13 +16073,15 @@
         <v>11.584335359879219</v>
       </c>
       <c r="CF83" s="39">
-        <v>11.594803015704841</v>
-      </c>
-      <c r="CG83" s="34"/>
+        <v>11.54233718093802</v>
+      </c>
+      <c r="CG83" s="39">
+        <v>11.368632691792939</v>
+      </c>
       <c r="CH83" s="34"/>
       <c r="CI83" s="34"/>
       <c r="CJ83" s="34"/>
-      <c r="CK83" s="11"/>
+      <c r="CK83" s="34"/>
       <c r="CL83" s="11"/>
       <c r="CM83" s="11"/>
       <c r="CN83" s="11"/>
@@ -16138,6 +16232,7 @@
       <c r="CH84" s="36"/>
       <c r="CI84" s="36"/>
       <c r="CJ84" s="36"/>
+      <c r="CK84" s="36"/>
     </row>
     <row r="85" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
@@ -16232,7 +16327,7 @@
       <c r="CH86" s="34"/>
       <c r="CI86" s="34"/>
       <c r="CJ86" s="34"/>
-      <c r="CK86" s="11"/>
+      <c r="CK86" s="34"/>
       <c r="CL86" s="11"/>
       <c r="CM86" s="11"/>
       <c r="CN86" s="11"/>
@@ -16382,7 +16477,7 @@
       <c r="CH87" s="34"/>
       <c r="CI87" s="34"/>
       <c r="CJ87" s="34"/>
-      <c r="CK87" s="11"/>
+      <c r="CK87" s="34"/>
       <c r="CL87" s="11"/>
       <c r="CM87" s="11"/>
       <c r="CN87" s="11"/>
@@ -16599,14 +16694,13 @@
       <c r="CD96" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="CE96" s="41">
-        <v>0</v>
-      </c>
-      <c r="CF96" s="40"/>
-      <c r="CG96" s="40"/>
+      <c r="CE96" s="41"/>
+      <c r="CF96" s="41"/>
+      <c r="CG96" s="41"/>
       <c r="CH96" s="40"/>
       <c r="CI96" s="40"/>
       <c r="CJ96" s="40"/>
+      <c r="CK96" s="40"/>
     </row>
     <row r="97" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
@@ -16861,10 +16955,13 @@
       <c r="CF97" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="CG97" s="32"/>
+      <c r="CG97" s="32" t="s">
+        <v>22</v>
+      </c>
       <c r="CH97" s="32"/>
       <c r="CI97" s="32"/>
       <c r="CJ97" s="32"/>
+      <c r="CK97" s="32"/>
     </row>
     <row r="98" spans="1:149" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
@@ -17120,13 +17217,15 @@
         <v>2.6861085793625818</v>
       </c>
       <c r="CF99" s="39">
-        <v>3.0448630839740645</v>
-      </c>
-      <c r="CG99" s="34"/>
+        <v>2.7537655910275731</v>
+      </c>
+      <c r="CG99" s="39">
+        <v>5.2042987123936939</v>
+      </c>
       <c r="CH99" s="34"/>
       <c r="CI99" s="34"/>
       <c r="CJ99" s="34"/>
-      <c r="CK99" s="11"/>
+      <c r="CK99" s="34"/>
       <c r="CL99" s="11"/>
       <c r="CM99" s="11"/>
       <c r="CN99" s="11"/>
@@ -17439,13 +17538,15 @@
         <v>-2.5894456881384542</v>
       </c>
       <c r="CF100" s="39">
-        <v>-4.6829100608917997</v>
-      </c>
-      <c r="CG100" s="34"/>
+        <v>-8.4463749820372556</v>
+      </c>
+      <c r="CG100" s="39">
+        <v>-8.3587729701109339</v>
+      </c>
       <c r="CH100" s="34"/>
       <c r="CI100" s="34"/>
       <c r="CJ100" s="34"/>
-      <c r="CK100" s="11"/>
+      <c r="CK100" s="34"/>
       <c r="CL100" s="11"/>
       <c r="CM100" s="11"/>
       <c r="CN100" s="11"/>
@@ -17758,13 +17859,15 @@
         <v>42.267315744415896</v>
       </c>
       <c r="CF101" s="39">
-        <v>24.494405090434768</v>
-      </c>
-      <c r="CG101" s="34"/>
+        <v>27.85411318140585</v>
+      </c>
+      <c r="CG101" s="39">
+        <v>8.5926047675381341</v>
+      </c>
       <c r="CH101" s="34"/>
       <c r="CI101" s="34"/>
       <c r="CJ101" s="34"/>
-      <c r="CK101" s="11"/>
+      <c r="CK101" s="34"/>
       <c r="CL101" s="11"/>
       <c r="CM101" s="11"/>
       <c r="CN101" s="11"/>
@@ -18077,13 +18180,15 @@
         <v>6.5834881380332888</v>
       </c>
       <c r="CF102" s="39">
-        <v>3.5973842928543007</v>
-      </c>
-      <c r="CG102" s="34"/>
+        <v>3.2107319889509682</v>
+      </c>
+      <c r="CG102" s="39">
+        <v>2.5615779924915074</v>
+      </c>
       <c r="CH102" s="34"/>
       <c r="CI102" s="34"/>
       <c r="CJ102" s="34"/>
-      <c r="CK102" s="11"/>
+      <c r="CK102" s="34"/>
       <c r="CL102" s="11"/>
       <c r="CM102" s="11"/>
       <c r="CN102" s="11"/>
@@ -18396,13 +18501,15 @@
         <v>15.346146960379301</v>
       </c>
       <c r="CF103" s="39">
-        <v>4.1868936619715527</v>
-      </c>
-      <c r="CG103" s="34"/>
+        <v>7.0353903768372703</v>
+      </c>
+      <c r="CG103" s="39">
+        <v>-0.79889002096795991</v>
+      </c>
       <c r="CH103" s="34"/>
       <c r="CI103" s="34"/>
       <c r="CJ103" s="34"/>
-      <c r="CK103" s="11"/>
+      <c r="CK103" s="34"/>
       <c r="CL103" s="11"/>
       <c r="CM103" s="11"/>
       <c r="CN103" s="11"/>
@@ -18715,13 +18822,15 @@
         <v>15.471602938896666</v>
       </c>
       <c r="CF104" s="39">
-        <v>18.767831433408858</v>
-      </c>
-      <c r="CG104" s="34"/>
+        <v>17.156284671740437</v>
+      </c>
+      <c r="CG104" s="39">
+        <v>17.717949844366544</v>
+      </c>
       <c r="CH104" s="34"/>
       <c r="CI104" s="34"/>
       <c r="CJ104" s="34"/>
-      <c r="CK104" s="11"/>
+      <c r="CK104" s="34"/>
       <c r="CL104" s="11"/>
       <c r="CM104" s="11"/>
       <c r="CN104" s="11"/>
@@ -19034,13 +19143,15 @@
         <v>19.420748520823693</v>
       </c>
       <c r="CF105" s="39">
-        <v>13.468357667826524</v>
-      </c>
-      <c r="CG105" s="34"/>
+        <v>17.33500986002521</v>
+      </c>
+      <c r="CG105" s="39">
+        <v>14.690397207069083</v>
+      </c>
       <c r="CH105" s="34"/>
       <c r="CI105" s="34"/>
       <c r="CJ105" s="34"/>
-      <c r="CK105" s="11"/>
+      <c r="CK105" s="34"/>
       <c r="CL105" s="11"/>
       <c r="CM105" s="11"/>
       <c r="CN105" s="11"/>
@@ -19353,13 +19464,15 @@
         <v>13.364790623855455</v>
       </c>
       <c r="CF106" s="39">
-        <v>7.4779359429844305</v>
-      </c>
-      <c r="CG106" s="34"/>
+        <v>7.5789649503275029</v>
+      </c>
+      <c r="CG106" s="39">
+        <v>8.0431894165704989</v>
+      </c>
       <c r="CH106" s="34"/>
       <c r="CI106" s="34"/>
       <c r="CJ106" s="34"/>
-      <c r="CK106" s="11"/>
+      <c r="CK106" s="34"/>
       <c r="CL106" s="11"/>
       <c r="CM106" s="11"/>
       <c r="CN106" s="11"/>
@@ -19672,13 +19785,15 @@
         <v>15.026669886269303</v>
       </c>
       <c r="CF107" s="39">
-        <v>20.27125624522516</v>
-      </c>
-      <c r="CG107" s="34"/>
+        <v>21.724572243647899</v>
+      </c>
+      <c r="CG107" s="39">
+        <v>41.572059250426832</v>
+      </c>
       <c r="CH107" s="34"/>
       <c r="CI107" s="34"/>
       <c r="CJ107" s="34"/>
-      <c r="CK107" s="11"/>
+      <c r="CK107" s="34"/>
       <c r="CL107" s="11"/>
       <c r="CM107" s="11"/>
       <c r="CN107" s="11"/>
@@ -19991,13 +20106,15 @@
         <v>11.226261249569831</v>
       </c>
       <c r="CF108" s="39">
-        <v>14.483556594677211</v>
-      </c>
-      <c r="CG108" s="34"/>
+        <v>14.520821309628928</v>
+      </c>
+      <c r="CG108" s="39">
+        <v>7.4965575288424873</v>
+      </c>
       <c r="CH108" s="34"/>
       <c r="CI108" s="34"/>
       <c r="CJ108" s="34"/>
-      <c r="CK108" s="11"/>
+      <c r="CK108" s="34"/>
       <c r="CL108" s="11"/>
       <c r="CM108" s="11"/>
       <c r="CN108" s="11"/>
@@ -20310,13 +20427,15 @@
         <v>25.256664953738067</v>
       </c>
       <c r="CF109" s="39">
-        <v>11.413858842918216</v>
-      </c>
-      <c r="CG109" s="34"/>
+        <v>11.969983090291137</v>
+      </c>
+      <c r="CG109" s="39">
+        <v>21.932306389925714</v>
+      </c>
       <c r="CH109" s="34"/>
       <c r="CI109" s="34"/>
       <c r="CJ109" s="34"/>
-      <c r="CK109" s="11"/>
+      <c r="CK109" s="34"/>
       <c r="CL109" s="11"/>
       <c r="CM109" s="11"/>
       <c r="CN109" s="11"/>
@@ -20629,13 +20748,15 @@
         <v>3.6997761567135115</v>
       </c>
       <c r="CF110" s="39">
-        <v>8.3652877654286186</v>
-      </c>
-      <c r="CG110" s="34"/>
+        <v>6.6869844969369865</v>
+      </c>
+      <c r="CG110" s="39">
+        <v>6.850834768635508</v>
+      </c>
       <c r="CH110" s="34"/>
       <c r="CI110" s="34"/>
       <c r="CJ110" s="34"/>
-      <c r="CK110" s="11"/>
+      <c r="CK110" s="34"/>
       <c r="CL110" s="11"/>
       <c r="CM110" s="11"/>
       <c r="CN110" s="11"/>
@@ -20785,7 +20906,7 @@
       <c r="CH111" s="34"/>
       <c r="CI111" s="34"/>
       <c r="CJ111" s="34"/>
-      <c r="CK111" s="11"/>
+      <c r="CK111" s="34"/>
       <c r="CL111" s="11"/>
       <c r="CM111" s="11"/>
       <c r="CN111" s="11"/>
@@ -21098,13 +21219,15 @@
         <v>7.279121571859875</v>
       </c>
       <c r="CF112" s="39">
-        <v>7.1264810914908168</v>
-      </c>
-      <c r="CG112" s="34"/>
+        <v>7.0554620991666326</v>
+      </c>
+      <c r="CG112" s="39">
+        <v>7.504015973172244</v>
+      </c>
       <c r="CH112" s="34"/>
       <c r="CI112" s="34"/>
       <c r="CJ112" s="34"/>
-      <c r="CK112" s="11"/>
+      <c r="CK112" s="34"/>
       <c r="CL112" s="11"/>
       <c r="CM112" s="11"/>
       <c r="CN112" s="11"/>
@@ -21255,6 +21378,7 @@
       <c r="CH113" s="36"/>
       <c r="CI113" s="36"/>
       <c r="CJ113" s="36"/>
+      <c r="CK113" s="36"/>
     </row>
     <row r="114" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
@@ -21349,7 +21473,7 @@
       <c r="CH115" s="34"/>
       <c r="CI115" s="34"/>
       <c r="CJ115" s="34"/>
-      <c r="CK115" s="11"/>
+      <c r="CK115" s="34"/>
       <c r="CL115" s="11"/>
       <c r="CM115" s="11"/>
       <c r="CN115" s="11"/>
@@ -21499,7 +21623,7 @@
       <c r="CH116" s="34"/>
       <c r="CI116" s="34"/>
       <c r="CJ116" s="34"/>
-      <c r="CK116" s="11"/>
+      <c r="CK116" s="34"/>
       <c r="CL116" s="11"/>
       <c r="CM116" s="11"/>
       <c r="CN116" s="11"/>
@@ -21719,6 +21843,7 @@
       </c>
       <c r="CI124" s="41"/>
       <c r="CJ124" s="41"/>
+      <c r="CK124" s="41"/>
     </row>
     <row r="125" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
@@ -21984,6 +22109,9 @@
       </c>
       <c r="CJ125" s="32" t="s">
         <v>21</v>
+      </c>
+      <c r="CK125" s="32" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="126" spans="1:153" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22254,7 +22382,9 @@
       <c r="CJ127" s="39">
         <v>110.55343711490131</v>
       </c>
-      <c r="CK127" s="11"/>
+      <c r="CK127" s="39">
+        <v>108.89812440337268</v>
+      </c>
       <c r="CL127" s="11"/>
       <c r="CM127" s="11"/>
       <c r="CN127" s="11"/>
@@ -22585,7 +22715,9 @@
       <c r="CJ128" s="39">
         <v>153.53003782612942</v>
       </c>
-      <c r="CK128" s="11"/>
+      <c r="CK128" s="39">
+        <v>142.78998741865652</v>
+      </c>
       <c r="CL128" s="11"/>
       <c r="CM128" s="11"/>
       <c r="CN128" s="11"/>
@@ -22916,7 +23048,9 @@
       <c r="CJ129" s="39">
         <v>103.85302028956902</v>
       </c>
-      <c r="CK129" s="11"/>
+      <c r="CK129" s="39">
+        <v>104.20918761028659</v>
+      </c>
       <c r="CL129" s="11"/>
       <c r="CM129" s="11"/>
       <c r="CN129" s="11"/>
@@ -23247,7 +23381,9 @@
       <c r="CJ130" s="39">
         <v>110.32643789574972</v>
       </c>
-      <c r="CK130" s="11"/>
+      <c r="CK130" s="39">
+        <v>109.34844481539712</v>
+      </c>
       <c r="CL130" s="11"/>
       <c r="CM130" s="11"/>
       <c r="CN130" s="11"/>
@@ -23578,7 +23714,9 @@
       <c r="CJ131" s="39">
         <v>110.9475662468539</v>
       </c>
-      <c r="CK131" s="11"/>
+      <c r="CK131" s="39">
+        <v>107.16549136094476</v>
+      </c>
       <c r="CL131" s="11"/>
       <c r="CM131" s="11"/>
       <c r="CN131" s="11"/>
@@ -23909,7 +24047,9 @@
       <c r="CJ132" s="39">
         <v>111.74314623269044</v>
       </c>
-      <c r="CK132" s="11"/>
+      <c r="CK132" s="39">
+        <v>111.18919134130898</v>
+      </c>
       <c r="CL132" s="11"/>
       <c r="CM132" s="11"/>
       <c r="CN132" s="11"/>
@@ -24240,7 +24380,9 @@
       <c r="CJ133" s="39">
         <v>122.73305609765572</v>
       </c>
-      <c r="CK133" s="11"/>
+      <c r="CK133" s="39">
+        <v>112.76276292775214</v>
+      </c>
       <c r="CL133" s="11"/>
       <c r="CM133" s="11"/>
       <c r="CN133" s="11"/>
@@ -24571,7 +24713,9 @@
       <c r="CJ134" s="39">
         <v>99.784402889097052</v>
       </c>
-      <c r="CK134" s="11"/>
+      <c r="CK134" s="39">
+        <v>97.165992133950837</v>
+      </c>
       <c r="CL134" s="11"/>
       <c r="CM134" s="11"/>
       <c r="CN134" s="11"/>
@@ -24902,7 +25046,9 @@
       <c r="CJ135" s="39">
         <v>101.22143330659399</v>
       </c>
-      <c r="CK135" s="11"/>
+      <c r="CK135" s="39">
+        <v>103.870414678616</v>
+      </c>
       <c r="CL135" s="11"/>
       <c r="CM135" s="11"/>
       <c r="CN135" s="11"/>
@@ -25233,7 +25379,9 @@
       <c r="CJ136" s="39">
         <v>105.72843667977278</v>
       </c>
-      <c r="CK136" s="11"/>
+      <c r="CK136" s="39">
+        <v>99.048505593486496</v>
+      </c>
       <c r="CL136" s="11"/>
       <c r="CM136" s="11"/>
       <c r="CN136" s="11"/>
@@ -25564,7 +25712,9 @@
       <c r="CJ137" s="39">
         <v>113.58101346110385</v>
       </c>
-      <c r="CK137" s="11"/>
+      <c r="CK137" s="39">
+        <v>109.21550743115888</v>
+      </c>
       <c r="CL137" s="11"/>
       <c r="CM137" s="11"/>
       <c r="CN137" s="11"/>
@@ -25895,7 +26045,9 @@
       <c r="CJ138" s="39">
         <v>102.15570864258588</v>
       </c>
-      <c r="CK138" s="11"/>
+      <c r="CK138" s="39">
+        <v>102.77555520790396</v>
+      </c>
       <c r="CL138" s="11"/>
       <c r="CM138" s="11"/>
       <c r="CN138" s="11"/>
@@ -26049,7 +26201,7 @@
       <c r="CH139" s="34"/>
       <c r="CI139" s="34"/>
       <c r="CJ139" s="34"/>
-      <c r="CK139" s="11"/>
+      <c r="CK139" s="34"/>
       <c r="CL139" s="11"/>
       <c r="CM139" s="11"/>
       <c r="CN139" s="11"/>
@@ -26378,9 +26530,11 @@
         <v>108.44886747879004</v>
       </c>
       <c r="CJ140" s="39">
-        <v>110.36708632124292</v>
-      </c>
-      <c r="CK140" s="11"/>
+        <v>110.38837914455944</v>
+      </c>
+      <c r="CK140" s="39">
+        <v>107.9096661586415</v>
+      </c>
       <c r="CL140" s="11"/>
       <c r="CM140" s="11"/>
       <c r="CN140" s="11"/>
@@ -26535,6 +26689,7 @@
       <c r="CH141" s="36"/>
       <c r="CI141" s="36"/>
       <c r="CJ141" s="36"/>
+      <c r="CK141" s="36"/>
     </row>
     <row r="142" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A142" s="18" t="s">
@@ -26704,6 +26859,7 @@
       </c>
       <c r="CI153" s="41"/>
       <c r="CJ153" s="41"/>
+      <c r="CK153" s="41"/>
     </row>
     <row r="154" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
@@ -26969,6 +27125,9 @@
       </c>
       <c r="CJ154" s="32" t="s">
         <v>21</v>
+      </c>
+      <c r="CK154" s="32" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="155" spans="1:153" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27237,9 +27396,11 @@
         <v>41.235262776728689</v>
       </c>
       <c r="CJ156" s="39">
-        <v>36.424004125075832</v>
-      </c>
-      <c r="CK156" s="11"/>
+        <v>36.338192064628792</v>
+      </c>
+      <c r="CK156" s="39">
+        <v>39.983864879955867</v>
+      </c>
       <c r="CL156" s="11"/>
       <c r="CM156" s="11"/>
       <c r="CN156" s="11"/>
@@ -27568,9 +27729,11 @@
         <v>1.9342463871419771</v>
       </c>
       <c r="CJ157" s="39">
-        <v>2.1763717186134053</v>
-      </c>
-      <c r="CK157" s="11"/>
+        <v>2.0914239324597887</v>
+      </c>
+      <c r="CK157" s="39">
+        <v>2.2762627759375453</v>
+      </c>
       <c r="CL157" s="11"/>
       <c r="CM157" s="11"/>
       <c r="CN157" s="11"/>
@@ -27899,9 +28062,11 @@
         <v>1.7303609494776124</v>
       </c>
       <c r="CJ158" s="39">
-        <v>1.9021575107681661</v>
-      </c>
-      <c r="CK158" s="11"/>
+        <v>1.9544095505281196</v>
+      </c>
+      <c r="CK158" s="39">
+        <v>1.8313633506062761</v>
+      </c>
       <c r="CL158" s="11"/>
       <c r="CM158" s="11"/>
       <c r="CN158" s="11"/>
@@ -28230,9 +28395,11 @@
         <v>14.848263782270044</v>
       </c>
       <c r="CJ159" s="39">
-        <v>13.425151084451217</v>
-      </c>
-      <c r="CK159" s="11"/>
+        <v>13.381336118877208</v>
+      </c>
+      <c r="CK159" s="39">
+        <v>11.432186190107407</v>
+      </c>
       <c r="CL159" s="11"/>
       <c r="CM159" s="11"/>
       <c r="CN159" s="11"/>
@@ -28561,9 +28728,11 @@
         <v>2.7310408968943949</v>
       </c>
       <c r="CJ160" s="39">
-        <v>2.9598588415814766</v>
-      </c>
-      <c r="CK160" s="11"/>
+        <v>3.0422124341388872</v>
+      </c>
+      <c r="CK160" s="39">
+        <v>2.7299633963369976</v>
+      </c>
       <c r="CL160" s="11"/>
       <c r="CM160" s="11"/>
       <c r="CN160" s="11"/>
@@ -28892,9 +29061,11 @@
         <v>4.0822039479436407</v>
       </c>
       <c r="CJ161" s="39">
-        <v>5.8175764470450666</v>
-      </c>
-      <c r="CK161" s="11"/>
+        <v>5.7413377013622098</v>
+      </c>
+      <c r="CK161" s="39">
+        <v>4.2690568310431738</v>
+      </c>
       <c r="CL161" s="11"/>
       <c r="CM161" s="11"/>
       <c r="CN161" s="11"/>
@@ -29223,9 +29394,11 @@
         <v>6.0712154789895862</v>
       </c>
       <c r="CJ162" s="39">
-        <v>9.0120780446085984</v>
-      </c>
-      <c r="CK162" s="11"/>
+        <v>9.3235653464350197</v>
+      </c>
+      <c r="CK162" s="39">
+        <v>7.2774360905395001</v>
+      </c>
       <c r="CL162" s="11"/>
       <c r="CM162" s="11"/>
       <c r="CN162" s="11"/>
@@ -29554,9 +29727,11 @@
         <v>3.387912650603365</v>
       </c>
       <c r="CJ163" s="39">
-        <v>2.505789959702021</v>
-      </c>
-      <c r="CK163" s="11"/>
+        <v>2.5093251452099317</v>
+      </c>
+      <c r="CK163" s="39">
+        <v>2.8209208093462594</v>
+      </c>
       <c r="CL163" s="11"/>
       <c r="CM163" s="11"/>
       <c r="CN163" s="11"/>
@@ -29885,9 +30060,11 @@
         <v>0.88858889760908188</v>
       </c>
       <c r="CJ164" s="39">
-        <v>0.97223465676155607</v>
-      </c>
-      <c r="CK164" s="11"/>
+        <v>0.98444563499523119</v>
+      </c>
+      <c r="CK164" s="39">
+        <v>1.6775089512121668</v>
+      </c>
       <c r="CL164" s="11"/>
       <c r="CM164" s="11"/>
       <c r="CN164" s="11"/>
@@ -30216,9 +30393,11 @@
         <v>5.0658208323249383</v>
       </c>
       <c r="CJ165" s="39">
-        <v>5.6175961149943863</v>
-      </c>
-      <c r="CK165" s="11"/>
+        <v>5.6220678500293984</v>
+      </c>
+      <c r="CK165" s="39">
+        <v>4.48583055613752</v>
+      </c>
       <c r="CL165" s="11"/>
       <c r="CM165" s="11"/>
       <c r="CN165" s="11"/>
@@ -30547,9 +30726,11 @@
         <v>4.0437911031072868</v>
       </c>
       <c r="CJ166" s="39">
-        <v>5.5044345619879858</v>
-      </c>
-      <c r="CK166" s="11"/>
+        <v>5.5345120724244268</v>
+      </c>
+      <c r="CK166" s="39">
+        <v>6.682996261014698</v>
+      </c>
       <c r="CL166" s="11"/>
       <c r="CM166" s="11"/>
       <c r="CN166" s="11"/>
@@ -30878,9 +31059,11 @@
         <v>13.981292296909398</v>
       </c>
       <c r="CJ167" s="39">
-        <v>13.682746934410289</v>
-      </c>
-      <c r="CK167" s="11"/>
+        <v>13.477172148910993</v>
+      </c>
+      <c r="CK167" s="39">
+        <v>14.532609907762561</v>
+      </c>
       <c r="CL167" s="11"/>
       <c r="CM167" s="11"/>
       <c r="CN167" s="11"/>
@@ -31034,7 +31217,7 @@
       <c r="CH168" s="34"/>
       <c r="CI168" s="34"/>
       <c r="CJ168" s="34"/>
-      <c r="CK168" s="11"/>
+      <c r="CK168" s="34"/>
       <c r="CL168" s="11"/>
       <c r="CM168" s="11"/>
       <c r="CN168" s="11"/>
@@ -31365,7 +31548,9 @@
       <c r="CJ169" s="39">
         <v>100</v>
       </c>
-      <c r="CK169" s="11"/>
+      <c r="CK169" s="39">
+        <v>100</v>
+      </c>
       <c r="CL169" s="11"/>
       <c r="CM169" s="11"/>
       <c r="CN169" s="11"/>
@@ -31520,6 +31705,7 @@
       <c r="CH170" s="36"/>
       <c r="CI170" s="36"/>
       <c r="CJ170" s="36"/>
+      <c r="CK170" s="36"/>
     </row>
     <row r="171" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A171" s="18" t="s">
@@ -31614,7 +31800,7 @@
       <c r="CH172" s="34"/>
       <c r="CI172" s="34"/>
       <c r="CJ172" s="34"/>
-      <c r="CK172" s="11"/>
+      <c r="CK172" s="34"/>
       <c r="CL172" s="11"/>
       <c r="CM172" s="11"/>
       <c r="CN172" s="11"/>
@@ -31768,7 +31954,7 @@
       <c r="CH173" s="34"/>
       <c r="CI173" s="34"/>
       <c r="CJ173" s="34"/>
-      <c r="CK173" s="11"/>
+      <c r="CK173" s="34"/>
       <c r="CL173" s="11"/>
       <c r="CM173" s="11"/>
       <c r="CN173" s="11"/>
@@ -31997,6 +32183,7 @@
       </c>
       <c r="CI182" s="41"/>
       <c r="CJ182" s="41"/>
+      <c r="CK182" s="41"/>
     </row>
     <row r="183" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
@@ -32262,6 +32449,9 @@
       </c>
       <c r="CJ183" s="32" t="s">
         <v>21</v>
+      </c>
+      <c r="CK183" s="32" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="184" spans="1:153" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -32530,9 +32720,11 @@
         <v>41.015839768475118</v>
       </c>
       <c r="CJ185" s="39">
-        <v>36.362607191121896</v>
-      </c>
-      <c r="CK185" s="11"/>
+        <v>36.283938588802009</v>
+      </c>
+      <c r="CK185" s="39">
+        <v>39.620935021307304</v>
+      </c>
       <c r="CL185" s="11"/>
       <c r="CM185" s="11"/>
       <c r="CN185" s="11"/>
@@ -32861,9 +33053,11 @@
         <v>1.448892260288454</v>
       </c>
       <c r="CJ186" s="39">
-        <v>1.5645134251014801</v>
-      </c>
-      <c r="CK186" s="11"/>
+        <v>1.5037376481977578</v>
+      </c>
+      <c r="CK186" s="39">
+        <v>1.7202239504411483</v>
+      </c>
       <c r="CL186" s="11"/>
       <c r="CM186" s="11"/>
       <c r="CN186" s="11"/>
@@ -33192,9 +33386,11 @@
         <v>1.6597633134057335</v>
       </c>
       <c r="CJ187" s="39">
-        <v>2.0214682404247482</v>
-      </c>
-      <c r="CK187" s="11"/>
+        <v>2.0773984412383562</v>
+      </c>
+      <c r="CK187" s="39">
+        <v>1.8963952441328404</v>
+      </c>
       <c r="CL187" s="11"/>
       <c r="CM187" s="11"/>
       <c r="CN187" s="11"/>
@@ -33523,9 +33719,11 @@
         <v>15.569505331272898</v>
       </c>
       <c r="CJ188" s="39">
-        <v>13.43009741702571</v>
-      </c>
-      <c r="CK188" s="11"/>
+        <v>13.388848884500341</v>
+      </c>
+      <c r="CK188" s="39">
+        <v>11.281764430400163</v>
+      </c>
       <c r="CL188" s="11"/>
       <c r="CM188" s="11"/>
       <c r="CN188" s="11"/>
@@ -33854,9 +34052,11 @@
         <v>2.7135405413695306</v>
       </c>
       <c r="CJ189" s="39">
-        <v>2.944372799856529</v>
-      </c>
-      <c r="CK189" s="11"/>
+        <v>3.0268793717459257</v>
+      </c>
+      <c r="CK189" s="39">
+        <v>2.7489207111627763</v>
+      </c>
       <c r="CL189" s="11"/>
       <c r="CM189" s="11"/>
       <c r="CN189" s="11"/>
@@ -34185,9 +34385,11 @@
         <v>4.1559355285138393</v>
       </c>
       <c r="CJ190" s="39">
-        <v>5.7459359572212882</v>
-      </c>
-      <c r="CK190" s="11"/>
+        <v>5.671730073316243</v>
+      </c>
+      <c r="CK190" s="39">
+        <v>4.1431410004237348</v>
+      </c>
       <c r="CL190" s="11"/>
       <c r="CM190" s="11"/>
       <c r="CN190" s="11"/>
@@ -34516,9 +34718,11 @@
         <v>6.0603317641525383</v>
       </c>
       <c r="CJ191" s="39">
-        <v>8.1040660691418527</v>
-      </c>
-      <c r="CK191" s="11"/>
+        <v>8.3857870012005939</v>
+      </c>
+      <c r="CK191" s="39">
+        <v>6.9642289584915309</v>
+      </c>
       <c r="CL191" s="11"/>
       <c r="CM191" s="11"/>
       <c r="CN191" s="11"/>
@@ -34847,9 +35051,11 @@
         <v>3.6219559702386035</v>
       </c>
       <c r="CJ192" s="39">
-        <v>2.7715427339151293</v>
-      </c>
-      <c r="CK192" s="11"/>
+        <v>2.775988305850523</v>
+      </c>
+      <c r="CK192" s="39">
+        <v>3.1328309021625014</v>
+      </c>
       <c r="CL192" s="11"/>
       <c r="CM192" s="11"/>
       <c r="CN192" s="11"/>
@@ -35178,9 +35384,11 @@
         <v>0.94998846747759003</v>
       </c>
       <c r="CJ193" s="39">
-        <v>1.0600789060385347</v>
-      </c>
-      <c r="CK193" s="11"/>
+        <v>1.0736002687681843</v>
+      </c>
+      <c r="CK193" s="39">
+        <v>1.7427429308290281</v>
+      </c>
       <c r="CL193" s="11"/>
       <c r="CM193" s="11"/>
       <c r="CN193" s="11"/>
@@ -35509,9 +35717,11 @@
         <v>5.1829857816580089</v>
       </c>
       <c r="CJ194" s="39">
-        <v>5.8640582875475147</v>
-      </c>
-      <c r="CK194" s="11"/>
+        <v>5.8698584495784392</v>
+      </c>
+      <c r="CK194" s="39">
+        <v>4.8871456955011894</v>
+      </c>
       <c r="CL194" s="11"/>
       <c r="CM194" s="11"/>
       <c r="CN194" s="11"/>
@@ -35840,9 +36050,11 @@
         <v>4.1556139365239568</v>
       </c>
       <c r="CJ195" s="39">
-        <v>5.3486792020974878</v>
-      </c>
-      <c r="CK195" s="11"/>
+        <v>5.3789431738091436</v>
+      </c>
+      <c r="CK195" s="39">
+        <v>6.6030906455304406</v>
+      </c>
       <c r="CL195" s="11"/>
       <c r="CM195" s="11"/>
       <c r="CN195" s="11"/>
@@ -36171,9 +36383,11 @@
         <v>13.465647336623714</v>
       </c>
       <c r="CJ196" s="39">
-        <v>14.782579770507837</v>
-      </c>
-      <c r="CK196" s="11"/>
+        <v>14.563289792992471</v>
+      </c>
+      <c r="CK196" s="39">
+        <v>15.258580509617339</v>
+      </c>
       <c r="CL196" s="11"/>
       <c r="CM196" s="11"/>
       <c r="CN196" s="11"/>
@@ -36327,7 +36541,7 @@
       <c r="CH197" s="34"/>
       <c r="CI197" s="34"/>
       <c r="CJ197" s="34"/>
-      <c r="CK197" s="11"/>
+      <c r="CK197" s="34"/>
       <c r="CL197" s="11"/>
       <c r="CM197" s="11"/>
       <c r="CN197" s="11"/>
@@ -36658,7 +36872,9 @@
       <c r="CJ198" s="39">
         <v>100</v>
       </c>
-      <c r="CK198" s="11"/>
+      <c r="CK198" s="39">
+        <v>100</v>
+      </c>
       <c r="CL198" s="11"/>
       <c r="CM198" s="11"/>
       <c r="CN198" s="11"/>
@@ -36813,6 +37029,7 @@
       <c r="CH199" s="36"/>
       <c r="CI199" s="36"/>
       <c r="CJ199" s="36"/>
+      <c r="CK199" s="36"/>
     </row>
     <row r="200" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A200" s="18" t="s">
@@ -36908,7 +37125,7 @@
       <c r="CH201" s="31"/>
       <c r="CI201" s="31"/>
       <c r="CJ201" s="31"/>
-      <c r="CK201" s="29"/>
+      <c r="CK201" s="31"/>
       <c r="CL201" s="29"/>
       <c r="CM201" s="29"/>
       <c r="CN201" s="29"/>
@@ -37063,7 +37280,7 @@
       <c r="CH202" s="31"/>
       <c r="CI202" s="31"/>
       <c r="CJ202" s="31"/>
-      <c r="CK202" s="29"/>
+      <c r="CK202" s="31"/>
       <c r="CL202" s="29"/>
       <c r="CM202" s="29"/>
       <c r="CN202" s="29"/>
@@ -37131,26 +37348,6 @@
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="BF182:BI182"/>
-    <mergeCell ref="BJ182:BM182"/>
-    <mergeCell ref="BN182:BQ182"/>
-    <mergeCell ref="BB153:BE153"/>
-    <mergeCell ref="BF153:BI153"/>
-    <mergeCell ref="BJ153:BM153"/>
-    <mergeCell ref="BN153:BQ153"/>
-    <mergeCell ref="AP153:AS153"/>
-    <mergeCell ref="AT153:AW153"/>
-    <mergeCell ref="AX153:BA153"/>
-    <mergeCell ref="AX182:BA182"/>
-    <mergeCell ref="BB182:BE182"/>
-    <mergeCell ref="F153:I153"/>
-    <mergeCell ref="J153:M153"/>
-    <mergeCell ref="N153:Q153"/>
-    <mergeCell ref="R153:U153"/>
-    <mergeCell ref="V153:Y153"/>
-    <mergeCell ref="Z153:AC153"/>
-    <mergeCell ref="AD153:AG153"/>
-    <mergeCell ref="AH153:AK153"/>
     <mergeCell ref="B182:E182"/>
     <mergeCell ref="F182:I182"/>
     <mergeCell ref="J182:M182"/>
@@ -37160,8 +37357,21 @@
     <mergeCell ref="Z182:AC182"/>
     <mergeCell ref="AD182:AG182"/>
     <mergeCell ref="AH182:AK182"/>
-    <mergeCell ref="BJ96:BM96"/>
-    <mergeCell ref="AL153:AO153"/>
+    <mergeCell ref="B124:E124"/>
+    <mergeCell ref="F124:I124"/>
+    <mergeCell ref="J124:M124"/>
+    <mergeCell ref="N124:Q124"/>
+    <mergeCell ref="R124:U124"/>
+    <mergeCell ref="V124:Y124"/>
+    <mergeCell ref="Z124:AC124"/>
+    <mergeCell ref="AD124:AG124"/>
+    <mergeCell ref="F153:I153"/>
+    <mergeCell ref="J153:M153"/>
+    <mergeCell ref="N153:Q153"/>
+    <mergeCell ref="R153:U153"/>
+    <mergeCell ref="V153:Y153"/>
+    <mergeCell ref="Z153:AC153"/>
+    <mergeCell ref="AD153:AG153"/>
     <mergeCell ref="B96:E96"/>
     <mergeCell ref="F96:I96"/>
     <mergeCell ref="J96:M96"/>
@@ -37171,13 +37381,6 @@
     <mergeCell ref="Z96:AC96"/>
     <mergeCell ref="AD96:AG96"/>
     <mergeCell ref="AH96:AK96"/>
-    <mergeCell ref="AL124:AO124"/>
-    <mergeCell ref="AP124:AS124"/>
-    <mergeCell ref="AT124:AW124"/>
-    <mergeCell ref="AX124:BA124"/>
-    <mergeCell ref="BB124:BE124"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
     <mergeCell ref="B38:E38"/>
     <mergeCell ref="AT9:AW9"/>
     <mergeCell ref="AX9:BA9"/>
@@ -37200,12 +37403,6 @@
     <mergeCell ref="AT38:AW38"/>
     <mergeCell ref="AX38:BA38"/>
     <mergeCell ref="BB38:BE38"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="N67:Q67"/>
-    <mergeCell ref="R67:U67"/>
-    <mergeCell ref="V67:Y67"/>
-    <mergeCell ref="Z67:AC67"/>
-    <mergeCell ref="AD67:AG67"/>
     <mergeCell ref="AH67:AK67"/>
     <mergeCell ref="BR96:BU96"/>
     <mergeCell ref="BV96:BY96"/>
@@ -37224,12 +37421,7 @@
     <mergeCell ref="AX96:BA96"/>
     <mergeCell ref="BB96:BE96"/>
     <mergeCell ref="BF96:BI96"/>
-    <mergeCell ref="AL182:AO182"/>
-    <mergeCell ref="AP182:AS182"/>
-    <mergeCell ref="AT182:AW182"/>
-    <mergeCell ref="BF124:BI124"/>
-    <mergeCell ref="BJ124:BM124"/>
-    <mergeCell ref="BN124:BQ124"/>
+    <mergeCell ref="BJ96:BM96"/>
     <mergeCell ref="B153:E153"/>
     <mergeCell ref="BV9:BY9"/>
     <mergeCell ref="BZ9:CC9"/>
@@ -37248,21 +37440,37 @@
     <mergeCell ref="BN38:BQ38"/>
     <mergeCell ref="B67:E67"/>
     <mergeCell ref="F67:I67"/>
-    <mergeCell ref="B124:E124"/>
-    <mergeCell ref="F124:I124"/>
-    <mergeCell ref="J124:M124"/>
-    <mergeCell ref="N124:Q124"/>
-    <mergeCell ref="R124:U124"/>
-    <mergeCell ref="V124:Y124"/>
-    <mergeCell ref="Z124:AC124"/>
-    <mergeCell ref="AD124:AG124"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="N67:Q67"/>
+    <mergeCell ref="R67:U67"/>
+    <mergeCell ref="V67:Y67"/>
+    <mergeCell ref="Z67:AC67"/>
+    <mergeCell ref="AD67:AG67"/>
+    <mergeCell ref="BR38:BU38"/>
+    <mergeCell ref="BV38:BY38"/>
+    <mergeCell ref="BZ67:CC67"/>
+    <mergeCell ref="BZ96:CC96"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD38:CG38"/>
+    <mergeCell ref="CD124:CG124"/>
+    <mergeCell ref="CD153:CG153"/>
+    <mergeCell ref="AL182:AO182"/>
+    <mergeCell ref="AP182:AS182"/>
+    <mergeCell ref="AT182:AW182"/>
+    <mergeCell ref="BF124:BI124"/>
+    <mergeCell ref="BJ124:BM124"/>
+    <mergeCell ref="BN124:BQ124"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="AL153:AO153"/>
+    <mergeCell ref="AL124:AO124"/>
+    <mergeCell ref="AP124:AS124"/>
+    <mergeCell ref="AT124:AW124"/>
+    <mergeCell ref="AX124:BA124"/>
+    <mergeCell ref="BB124:BE124"/>
+    <mergeCell ref="BF182:BI182"/>
+    <mergeCell ref="BJ182:BM182"/>
     <mergeCell ref="AH124:AK124"/>
-    <mergeCell ref="CH9:CJ9"/>
-    <mergeCell ref="CH38:CJ38"/>
-    <mergeCell ref="CD67:CF67"/>
-    <mergeCell ref="CH124:CJ124"/>
-    <mergeCell ref="CH153:CJ153"/>
-    <mergeCell ref="CH182:CJ182"/>
     <mergeCell ref="BR182:BU182"/>
     <mergeCell ref="BV182:BY182"/>
     <mergeCell ref="BZ124:CC124"/>
@@ -37271,26 +37479,35 @@
     <mergeCell ref="BR153:BU153"/>
     <mergeCell ref="BV153:BY153"/>
     <mergeCell ref="BZ153:CC153"/>
-    <mergeCell ref="BR38:BU38"/>
-    <mergeCell ref="BV38:BY38"/>
-    <mergeCell ref="CD96:CE96"/>
-    <mergeCell ref="BZ67:CC67"/>
-    <mergeCell ref="BZ96:CC96"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD38:CG38"/>
-    <mergeCell ref="CD124:CG124"/>
-    <mergeCell ref="CD153:CG153"/>
+    <mergeCell ref="AH153:AK153"/>
+    <mergeCell ref="BN182:BQ182"/>
+    <mergeCell ref="BB153:BE153"/>
+    <mergeCell ref="BF153:BI153"/>
+    <mergeCell ref="BJ153:BM153"/>
+    <mergeCell ref="BN153:BQ153"/>
+    <mergeCell ref="AP153:AS153"/>
+    <mergeCell ref="AT153:AW153"/>
+    <mergeCell ref="AX153:BA153"/>
+    <mergeCell ref="AX182:BA182"/>
+    <mergeCell ref="BB182:BE182"/>
     <mergeCell ref="CD182:CG182"/>
     <mergeCell ref="BZ182:CC182"/>
     <mergeCell ref="BZ38:CC38"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH38:CK38"/>
+    <mergeCell ref="CD67:CG67"/>
+    <mergeCell ref="CD96:CG96"/>
+    <mergeCell ref="CH124:CK124"/>
+    <mergeCell ref="CH153:CK153"/>
+    <mergeCell ref="CH182:CK182"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="44" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="58" max="87" man="1"/>
-    <brk id="116" max="87" man="1"/>
-    <brk id="144" max="87" man="1"/>
+    <brk id="58" max="88" man="1"/>
+    <brk id="116" max="88" man="1"/>
+    <brk id="144" max="88" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-02HFCE_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-02HFCE_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4CC732-4401-43C7-A9CE-DA833AA5F0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FCD235-A6B5-4813-B08D-DEFC58E4D815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3195" yWindow="3195" windowWidth="21600" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HFCE" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="PCE_Per_Anl">#REF!</definedName>
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HFCE!$A$1:$CM$202</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HFCE!$A$1:$CN$202</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="61">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -220,13 +220,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of August 2022</t>
+    <t>Q1 2000 to Q3 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2022</t>
+    <t>Q1 2001 to Q3 2022</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2022</t>
+    <t>As of November 2022</t>
   </si>
 </sst>
 </file>
@@ -234,10 +234,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -310,11 +310,11 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -332,39 +332,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -702,174 +699,173 @@
   </sheetPr>
   <dimension ref="A1:EW202"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="CA2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="CA66" sqref="CA66"/>
       <selection pane="topRight" activeCell="CA66" sqref="CA66"/>
       <selection pane="bottomLeft" activeCell="CA66" sqref="CA66"/>
-      <selection pane="bottomRight" activeCell="CB31" sqref="CB31"/>
+      <selection pane="bottomRight" activeCell="CH1" sqref="CH1:CN1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.90625" style="1" customWidth="1"/>
-    <col min="2" max="56" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="12.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="58" max="60" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="12.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="62" max="64" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="12.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="72" width="12.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="12.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="12.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="77" width="12.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="12.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="81" width="12.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="12.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="83" max="85" width="12.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="86" max="91" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="92" max="16384" width="7.81640625" style="1"/>
+    <col min="1" max="1" width="38.88671875" style="1" customWidth="1"/>
+    <col min="2" max="56" width="11.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="60" width="11.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="62" max="64" width="11.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="11.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="11.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="72" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="75" max="77" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="79" max="81" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="83" max="92" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="93" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="35">
+      <c r="B9" s="33">
         <v>2000</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35">
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33">
         <v>2001</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35">
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33">
         <v>2002</v>
       </c>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35">
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33">
         <v>2003</v>
       </c>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35">
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33">
         <v>2004</v>
       </c>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35">
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33">
         <v>2005</v>
       </c>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35">
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33">
         <v>2006</v>
       </c>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="35"/>
-      <c r="AC9" s="35"/>
-      <c r="AD9" s="35">
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="33">
         <v>2007</v>
       </c>
-      <c r="AE9" s="35"/>
-      <c r="AF9" s="35"/>
-      <c r="AG9" s="35"/>
-      <c r="AH9" s="35">
+      <c r="AE9" s="33"/>
+      <c r="AF9" s="33"/>
+      <c r="AG9" s="33"/>
+      <c r="AH9" s="33">
         <v>2008</v>
       </c>
-      <c r="AI9" s="35"/>
-      <c r="AJ9" s="35"/>
-      <c r="AK9" s="35"/>
-      <c r="AL9" s="35">
+      <c r="AI9" s="33"/>
+      <c r="AJ9" s="33"/>
+      <c r="AK9" s="33"/>
+      <c r="AL9" s="33">
         <v>2009</v>
       </c>
-      <c r="AM9" s="35"/>
-      <c r="AN9" s="35"/>
-      <c r="AO9" s="35"/>
-      <c r="AP9" s="35">
+      <c r="AM9" s="33"/>
+      <c r="AN9" s="33"/>
+      <c r="AO9" s="33"/>
+      <c r="AP9" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="35"/>
-      <c r="AR9" s="35"/>
-      <c r="AS9" s="35"/>
-      <c r="AT9" s="35">
+      <c r="AQ9" s="33"/>
+      <c r="AR9" s="33"/>
+      <c r="AS9" s="33"/>
+      <c r="AT9" s="33">
         <v>2011</v>
       </c>
-      <c r="AU9" s="35"/>
-      <c r="AV9" s="35"/>
-      <c r="AW9" s="35"/>
-      <c r="AX9" s="35">
+      <c r="AU9" s="33"/>
+      <c r="AV9" s="33"/>
+      <c r="AW9" s="33"/>
+      <c r="AX9" s="33">
         <v>2012</v>
       </c>
-      <c r="AY9" s="35"/>
-      <c r="AZ9" s="35"/>
-      <c r="BA9" s="35"/>
-      <c r="BB9" s="35">
+      <c r="AY9" s="33"/>
+      <c r="AZ9" s="33"/>
+      <c r="BA9" s="33"/>
+      <c r="BB9" s="33">
         <v>2013</v>
       </c>
-      <c r="BC9" s="35"/>
-      <c r="BD9" s="35"/>
-      <c r="BE9" s="35"/>
-      <c r="BF9" s="35">
+      <c r="BC9" s="33"/>
+      <c r="BD9" s="33"/>
+      <c r="BE9" s="33"/>
+      <c r="BF9" s="33">
         <v>2014</v>
       </c>
-      <c r="BG9" s="35"/>
-      <c r="BH9" s="35"/>
-      <c r="BI9" s="35"/>
-      <c r="BJ9" s="35">
+      <c r="BG9" s="33"/>
+      <c r="BH9" s="33"/>
+      <c r="BI9" s="33"/>
+      <c r="BJ9" s="33">
         <v>2015</v>
       </c>
-      <c r="BK9" s="35"/>
-      <c r="BL9" s="35"/>
-      <c r="BM9" s="35"/>
-      <c r="BN9" s="35">
+      <c r="BK9" s="33"/>
+      <c r="BL9" s="33"/>
+      <c r="BM9" s="33"/>
+      <c r="BN9" s="33">
         <v>2016</v>
       </c>
-      <c r="BO9" s="35"/>
-      <c r="BP9" s="35"/>
-      <c r="BQ9" s="35"/>
+      <c r="BO9" s="33"/>
+      <c r="BP9" s="33"/>
+      <c r="BQ9" s="33"/>
       <c r="BR9" s="34">
         <v>2017</v>
       </c>
@@ -904,8 +900,9 @@
         <v>2022</v>
       </c>
       <c r="CM9" s="34"/>
+      <c r="CN9" s="34"/>
     </row>
-    <row r="10" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>37</v>
       </c>
@@ -1179,11 +1176,14 @@
       <c r="CM10" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="CN10" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="11" spans="1:153" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
     </row>
-    <row r="12" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1455,9 +1455,11 @@
         <v>1384611.9383681593</v>
       </c>
       <c r="CM12" s="10">
-        <v>1566848.5961453628</v>
-      </c>
-      <c r="CN12" s="11"/>
+        <v>1566368.7437218034</v>
+      </c>
+      <c r="CN12" s="10">
+        <v>1447422.0423746321</v>
+      </c>
       <c r="CO12" s="11"/>
       <c r="CP12" s="11"/>
       <c r="CQ12" s="11"/>
@@ -1520,7 +1522,7 @@
       <c r="EV12" s="11"/>
       <c r="EW12" s="11"/>
     </row>
-    <row r="13" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1792,9 +1794,11 @@
         <v>70230.878218037135</v>
       </c>
       <c r="CM13" s="10">
-        <v>74442.309405138949</v>
-      </c>
-      <c r="CN13" s="11"/>
+        <v>74860.089917473437</v>
+      </c>
+      <c r="CN13" s="10">
+        <v>74795.7906436333</v>
+      </c>
       <c r="CO13" s="11"/>
       <c r="CP13" s="11"/>
       <c r="CQ13" s="11"/>
@@ -1857,7 +1861,7 @@
       <c r="EV13" s="11"/>
       <c r="EW13" s="11"/>
     </row>
-    <row r="14" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -2131,7 +2135,9 @@
       <c r="CM14" s="10">
         <v>64914.406063883871</v>
       </c>
-      <c r="CN14" s="11"/>
+      <c r="CN14" s="10">
+        <v>67943.680306057722</v>
+      </c>
       <c r="CO14" s="11"/>
       <c r="CP14" s="11"/>
       <c r="CQ14" s="11"/>
@@ -2194,7 +2200,7 @@
       <c r="EV14" s="11"/>
       <c r="EW14" s="11"/>
     </row>
-    <row r="15" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -2466,9 +2472,11 @@
         <v>445782.86298792978</v>
       </c>
       <c r="CM15" s="10">
-        <v>575337.08921437419</v>
-      </c>
-      <c r="CN15" s="11"/>
+        <v>574802.88069589285</v>
+      </c>
+      <c r="CN15" s="10">
+        <v>523179.3209197055</v>
+      </c>
       <c r="CO15" s="11"/>
       <c r="CP15" s="11"/>
       <c r="CQ15" s="11"/>
@@ -2531,7 +2539,7 @@
       <c r="EV15" s="11"/>
       <c r="EW15" s="11"/>
     </row>
-    <row r="16" spans="1:153" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:153" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>8</v>
       </c>
@@ -2803,9 +2811,11 @@
         <v>106137.49800889417</v>
       </c>
       <c r="CM16" s="10">
-        <v>104482.69146951211</v>
-      </c>
-      <c r="CN16" s="11"/>
+        <v>103093.70168045604</v>
+      </c>
+      <c r="CN16" s="10">
+        <v>124232.08946906852</v>
+      </c>
       <c r="CO16" s="11"/>
       <c r="CP16" s="11"/>
       <c r="CQ16" s="11"/>
@@ -2868,7 +2878,7 @@
       <c r="EV16" s="11"/>
       <c r="EW16" s="11"/>
     </row>
-    <row r="17" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -3140,9 +3150,11 @@
         <v>163582.39680684087</v>
       </c>
       <c r="CM17" s="10">
-        <v>138241.59289105353</v>
-      </c>
-      <c r="CN17" s="11"/>
+        <v>138209.36175477973</v>
+      </c>
+      <c r="CN17" s="10">
+        <v>222442.30928271718</v>
+      </c>
       <c r="CO17" s="11"/>
       <c r="CP17" s="11"/>
       <c r="CQ17" s="11"/>
@@ -3205,7 +3217,7 @@
       <c r="EV17" s="11"/>
       <c r="EW17" s="11"/>
     </row>
-    <row r="18" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -3477,9 +3489,11 @@
         <v>381175.32430561678</v>
       </c>
       <c r="CM18" s="10">
-        <v>297267.53453825763</v>
-      </c>
-      <c r="CN18" s="11"/>
+        <v>295969.14642522112</v>
+      </c>
+      <c r="CN18" s="10">
+        <v>465531.09190673259</v>
+      </c>
       <c r="CO18" s="11"/>
       <c r="CP18" s="11"/>
       <c r="CQ18" s="11"/>
@@ -3542,7 +3556,7 @@
       <c r="EV18" s="11"/>
       <c r="EW18" s="11"/>
     </row>
-    <row r="19" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -3814,9 +3828,11 @@
         <v>121612.14168047598</v>
       </c>
       <c r="CM19" s="10">
-        <v>127983.13537798337</v>
-      </c>
-      <c r="CN19" s="11"/>
+        <v>127268.98601639032</v>
+      </c>
+      <c r="CN19" s="10">
+        <v>96958.131594522769</v>
+      </c>
       <c r="CO19" s="11"/>
       <c r="CP19" s="11"/>
       <c r="CQ19" s="11"/>
@@ -3879,7 +3895,7 @@
       <c r="EV19" s="11"/>
       <c r="EW19" s="11"/>
     </row>
-    <row r="20" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -4151,9 +4167,11 @@
         <v>56265.310122822433</v>
       </c>
       <c r="CM20" s="10">
-        <v>41080.396687636669</v>
-      </c>
-      <c r="CN20" s="11"/>
+        <v>41983.761192967853</v>
+      </c>
+      <c r="CN20" s="10">
+        <v>53161.871137265283</v>
+      </c>
       <c r="CO20" s="11"/>
       <c r="CP20" s="11"/>
       <c r="CQ20" s="11"/>
@@ -4216,7 +4234,7 @@
       <c r="EV20" s="11"/>
       <c r="EW20" s="11"/>
     </row>
-    <row r="21" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -4488,9 +4506,11 @@
         <v>205911.95644780132</v>
       </c>
       <c r="CM21" s="10">
-        <v>186679.2048021091</v>
-      </c>
-      <c r="CN21" s="11"/>
+        <v>187158.10532078435</v>
+      </c>
+      <c r="CN21" s="10">
+        <v>219511.8826930408</v>
+      </c>
       <c r="CO21" s="11"/>
       <c r="CP21" s="11"/>
       <c r="CQ21" s="11"/>
@@ -4553,7 +4573,7 @@
       <c r="EV21" s="11"/>
       <c r="EW21" s="11"/>
     </row>
-    <row r="22" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -4825,9 +4845,11 @@
         <v>316266.57631519978</v>
       </c>
       <c r="CM22" s="10">
-        <v>181099.29772127935</v>
-      </c>
-      <c r="CN22" s="11"/>
+        <v>182344.68526335541</v>
+      </c>
+      <c r="CN22" s="10">
+        <v>287705.19347809529</v>
+      </c>
       <c r="CO22" s="11"/>
       <c r="CP22" s="11"/>
       <c r="CQ22" s="11"/>
@@ -4890,7 +4912,7 @@
       <c r="EV22" s="11"/>
       <c r="EW22" s="11"/>
     </row>
-    <row r="23" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -5162,9 +5184,11 @@
         <v>544500.70931277948</v>
       </c>
       <c r="CM23" s="10">
-        <v>522949.58713426144</v>
-      </c>
-      <c r="CN23" s="11"/>
+        <v>521463.04467852885</v>
+      </c>
+      <c r="CN23" s="10">
+        <v>545733.85762884712</v>
+      </c>
       <c r="CO23" s="11"/>
       <c r="CP23" s="11"/>
       <c r="CQ23" s="11"/>
@@ -5227,7 +5251,7 @@
       <c r="EV23" s="11"/>
       <c r="EW23" s="11"/>
     </row>
-    <row r="24" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
@@ -5381,7 +5405,7 @@
       <c r="EV24" s="11"/>
       <c r="EW24" s="11"/>
     </row>
-    <row r="25" spans="1:153" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:153" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>18</v>
       </c>
@@ -5637,25 +5661,27 @@
       <c r="CG25" s="15">
         <v>3801007.5529332561</v>
       </c>
-      <c r="CH25" s="31">
+      <c r="CH25" s="30">
         <v>3397554.7518358915</v>
       </c>
-      <c r="CI25" s="31">
+      <c r="CI25" s="30">
         <v>3396198.6721503939</v>
       </c>
-      <c r="CJ25" s="31">
+      <c r="CJ25" s="30">
         <v>3582435.6457165424</v>
       </c>
-      <c r="CK25" s="31">
+      <c r="CK25" s="30">
         <v>4233960.1057822816</v>
       </c>
-      <c r="CL25" s="31">
+      <c r="CL25" s="30">
         <v>3853894.6766090612</v>
       </c>
-      <c r="CM25" s="31">
-        <v>3881325.8414508533</v>
-      </c>
-      <c r="CN25" s="11"/>
+      <c r="CM25" s="30">
+        <v>3878436.9127315367</v>
+      </c>
+      <c r="CN25" s="30">
+        <v>4128617.261434318</v>
+      </c>
       <c r="CO25" s="11"/>
       <c r="CP25" s="11"/>
       <c r="CQ25" s="11"/>
@@ -5718,7 +5744,7 @@
       <c r="EV25" s="11"/>
       <c r="EW25" s="11"/>
     </row>
-    <row r="26" spans="1:153" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:153" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -5810,13 +5836,14 @@
       <c r="CK26" s="16"/>
       <c r="CL26" s="16"/>
       <c r="CM26" s="16"/>
+      <c r="CN26" s="16"/>
     </row>
-    <row r="27" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
@@ -5901,13 +5928,13 @@
       <c r="CE28" s="21"/>
       <c r="CF28" s="21"/>
       <c r="CG28" s="21"/>
-      <c r="CH28" s="32"/>
-      <c r="CI28" s="32"/>
-      <c r="CJ28" s="32"/>
-      <c r="CK28" s="32"/>
-      <c r="CL28" s="32"/>
-      <c r="CM28" s="32"/>
-      <c r="CN28" s="11"/>
+      <c r="CH28" s="31"/>
+      <c r="CI28" s="31"/>
+      <c r="CJ28" s="31"/>
+      <c r="CK28" s="31"/>
+      <c r="CL28" s="31"/>
+      <c r="CM28" s="31"/>
+      <c r="CN28" s="31"/>
       <c r="CO28" s="11"/>
       <c r="CP28" s="11"/>
       <c r="CQ28" s="11"/>
@@ -5970,7 +5997,7 @@
       <c r="EV28" s="11"/>
       <c r="EW28" s="11"/>
     </row>
-    <row r="29" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="22"/>
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
@@ -6055,13 +6082,13 @@
       <c r="CE29" s="24"/>
       <c r="CF29" s="24"/>
       <c r="CG29" s="24"/>
-      <c r="CH29" s="33"/>
-      <c r="CI29" s="33"/>
-      <c r="CJ29" s="33"/>
-      <c r="CK29" s="33"/>
-      <c r="CL29" s="33"/>
-      <c r="CM29" s="33"/>
-      <c r="CN29" s="11"/>
+      <c r="CH29" s="32"/>
+      <c r="CI29" s="32"/>
+      <c r="CJ29" s="32"/>
+      <c r="CK29" s="32"/>
+      <c r="CL29" s="32"/>
+      <c r="CM29" s="32"/>
+      <c r="CN29" s="32"/>
       <c r="CO29" s="11"/>
       <c r="CP29" s="11"/>
       <c r="CQ29" s="11"/>
@@ -6124,140 +6151,140 @@
       <c r="EV29" s="11"/>
       <c r="EW29" s="11"/>
     </row>
-    <row r="30" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
-      <c r="B38" s="35">
+      <c r="B38" s="33">
         <v>2000</v>
       </c>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35">
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33">
         <v>2001</v>
       </c>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35">
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33">
         <v>2002</v>
       </c>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35">
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33">
         <v>2003</v>
       </c>
-      <c r="O38" s="35"/>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="35"/>
-      <c r="R38" s="35">
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="33">
         <v>2004</v>
       </c>
-      <c r="S38" s="35"/>
-      <c r="T38" s="35"/>
-      <c r="U38" s="35"/>
-      <c r="V38" s="35">
+      <c r="S38" s="33"/>
+      <c r="T38" s="33"/>
+      <c r="U38" s="33"/>
+      <c r="V38" s="33">
         <v>2005</v>
       </c>
-      <c r="W38" s="35"/>
-      <c r="X38" s="35"/>
-      <c r="Y38" s="35"/>
-      <c r="Z38" s="35">
+      <c r="W38" s="33"/>
+      <c r="X38" s="33"/>
+      <c r="Y38" s="33"/>
+      <c r="Z38" s="33">
         <v>2006</v>
       </c>
-      <c r="AA38" s="35"/>
-      <c r="AB38" s="35"/>
-      <c r="AC38" s="35"/>
-      <c r="AD38" s="35">
+      <c r="AA38" s="33"/>
+      <c r="AB38" s="33"/>
+      <c r="AC38" s="33"/>
+      <c r="AD38" s="33">
         <v>2007</v>
       </c>
-      <c r="AE38" s="35"/>
-      <c r="AF38" s="35"/>
-      <c r="AG38" s="35"/>
-      <c r="AH38" s="35">
+      <c r="AE38" s="33"/>
+      <c r="AF38" s="33"/>
+      <c r="AG38" s="33"/>
+      <c r="AH38" s="33">
         <v>2008</v>
       </c>
-      <c r="AI38" s="35"/>
-      <c r="AJ38" s="35"/>
-      <c r="AK38" s="35"/>
-      <c r="AL38" s="35">
+      <c r="AI38" s="33"/>
+      <c r="AJ38" s="33"/>
+      <c r="AK38" s="33"/>
+      <c r="AL38" s="33">
         <v>2009</v>
       </c>
-      <c r="AM38" s="35"/>
-      <c r="AN38" s="35"/>
-      <c r="AO38" s="35"/>
-      <c r="AP38" s="35">
+      <c r="AM38" s="33"/>
+      <c r="AN38" s="33"/>
+      <c r="AO38" s="33"/>
+      <c r="AP38" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ38" s="35"/>
-      <c r="AR38" s="35"/>
-      <c r="AS38" s="35"/>
-      <c r="AT38" s="35">
+      <c r="AQ38" s="33"/>
+      <c r="AR38" s="33"/>
+      <c r="AS38" s="33"/>
+      <c r="AT38" s="33">
         <v>2011</v>
       </c>
-      <c r="AU38" s="35"/>
-      <c r="AV38" s="35"/>
-      <c r="AW38" s="35"/>
-      <c r="AX38" s="35">
+      <c r="AU38" s="33"/>
+      <c r="AV38" s="33"/>
+      <c r="AW38" s="33"/>
+      <c r="AX38" s="33">
         <v>2012</v>
       </c>
-      <c r="AY38" s="35"/>
-      <c r="AZ38" s="35"/>
-      <c r="BA38" s="35"/>
-      <c r="BB38" s="35">
+      <c r="AY38" s="33"/>
+      <c r="AZ38" s="33"/>
+      <c r="BA38" s="33"/>
+      <c r="BB38" s="33">
         <v>2013</v>
       </c>
-      <c r="BC38" s="35"/>
-      <c r="BD38" s="35"/>
-      <c r="BE38" s="35"/>
-      <c r="BF38" s="35">
+      <c r="BC38" s="33"/>
+      <c r="BD38" s="33"/>
+      <c r="BE38" s="33"/>
+      <c r="BF38" s="33">
         <v>2014</v>
       </c>
-      <c r="BG38" s="35"/>
-      <c r="BH38" s="35"/>
-      <c r="BI38" s="35"/>
-      <c r="BJ38" s="35">
+      <c r="BG38" s="33"/>
+      <c r="BH38" s="33"/>
+      <c r="BI38" s="33"/>
+      <c r="BJ38" s="33">
         <v>2015</v>
       </c>
-      <c r="BK38" s="35"/>
-      <c r="BL38" s="35"/>
-      <c r="BM38" s="35"/>
-      <c r="BN38" s="35">
+      <c r="BK38" s="33"/>
+      <c r="BL38" s="33"/>
+      <c r="BM38" s="33"/>
+      <c r="BN38" s="33">
         <v>2016</v>
       </c>
-      <c r="BO38" s="35"/>
-      <c r="BP38" s="35"/>
-      <c r="BQ38" s="35"/>
+      <c r="BO38" s="33"/>
+      <c r="BP38" s="33"/>
+      <c r="BQ38" s="33"/>
       <c r="BR38" s="34">
         <v>2017</v>
       </c>
@@ -6292,8 +6319,9 @@
         <v>2022</v>
       </c>
       <c r="CM38" s="34"/>
+      <c r="CN38" s="34"/>
     </row>
-    <row r="39" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>37</v>
       </c>
@@ -6567,11 +6595,14 @@
       <c r="CM39" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="CN39" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="40" spans="1:153" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
     </row>
-    <row r="41" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>12</v>
       </c>
@@ -6843,9 +6874,11 @@
         <v>1257238.1072275483</v>
       </c>
       <c r="CM41" s="10">
-        <v>1359793.6379108157</v>
-      </c>
-      <c r="CN41" s="11"/>
+        <v>1359377.1967343693</v>
+      </c>
+      <c r="CN41" s="10">
+        <v>1223797.3567871188</v>
+      </c>
       <c r="CO41" s="11"/>
       <c r="CP41" s="11"/>
       <c r="CQ41" s="11"/>
@@ -6908,7 +6941,7 @@
       <c r="EV41" s="11"/>
       <c r="EW41" s="11"/>
     </row>
-    <row r="42" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>11</v>
       </c>
@@ -7180,9 +7213,11 @@
         <v>50198.981533964208</v>
       </c>
       <c r="CM42" s="10">
-        <v>47912.342705809031</v>
-      </c>
-      <c r="CN42" s="11"/>
+        <v>48181.233384278457</v>
+      </c>
+      <c r="CN42" s="10">
+        <v>44607.164360110328</v>
+      </c>
       <c r="CO42" s="11"/>
       <c r="CP42" s="11"/>
       <c r="CQ42" s="11"/>
@@ -7245,7 +7280,7 @@
       <c r="EV42" s="11"/>
       <c r="EW42" s="11"/>
     </row>
-    <row r="43" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>10</v>
       </c>
@@ -7517,9 +7552,11 @@
         <v>54639.266418910112</v>
       </c>
       <c r="CM43" s="10">
-        <v>55970.074684183688</v>
-      </c>
-      <c r="CN43" s="11"/>
+        <v>55970.074684183695</v>
+      </c>
+      <c r="CN43" s="10">
+        <v>63680.949954978059</v>
+      </c>
       <c r="CO43" s="11"/>
       <c r="CP43" s="11"/>
       <c r="CQ43" s="11"/>
@@ -7582,7 +7619,7 @@
       <c r="EV43" s="11"/>
       <c r="EW43" s="11"/>
     </row>
-    <row r="44" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>9</v>
       </c>
@@ -7854,9 +7891,11 @@
         <v>427214.04576726747</v>
       </c>
       <c r="CM44" s="10">
-        <v>521578.42713518749</v>
-      </c>
-      <c r="CN44" s="11"/>
+        <v>521094.13428486529</v>
+      </c>
+      <c r="CN44" s="10">
+        <v>440204.03601303318</v>
+      </c>
       <c r="CO44" s="11"/>
       <c r="CP44" s="11"/>
       <c r="CQ44" s="11"/>
@@ -7919,7 +7958,7 @@
       <c r="EV44" s="11"/>
       <c r="EW44" s="11"/>
     </row>
-    <row r="45" spans="1:153" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:153" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
         <v>8</v>
       </c>
@@ -8191,9 +8230,11 @@
         <v>94846.2622091511</v>
       </c>
       <c r="CM45" s="10">
-        <v>93256.232517505254</v>
-      </c>
-      <c r="CN45" s="11"/>
+        <v>92016.486939449867</v>
+      </c>
+      <c r="CN45" s="10">
+        <v>108355.21511056753</v>
+      </c>
       <c r="CO45" s="11"/>
       <c r="CP45" s="11"/>
       <c r="CQ45" s="11"/>
@@ -8256,7 +8297,7 @@
       <c r="EV45" s="11"/>
       <c r="EW45" s="11"/>
     </row>
-    <row r="46" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>7</v>
       </c>
@@ -8528,9 +8569,11 @@
         <v>150621.16349268309</v>
       </c>
       <c r="CM46" s="10">
-        <v>126639.21500560004</v>
-      </c>
-      <c r="CN46" s="11"/>
+        <v>126609.68897286928</v>
+      </c>
+      <c r="CN46" s="10">
+        <v>194356.15373197355</v>
+      </c>
       <c r="CO46" s="11"/>
       <c r="CP46" s="11"/>
       <c r="CQ46" s="11"/>
@@ -8593,7 +8636,7 @@
       <c r="EV46" s="11"/>
       <c r="EW46" s="11"/>
     </row>
-    <row r="47" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>6</v>
       </c>
@@ -8865,9 +8908,11 @@
         <v>312055.43731491663</v>
       </c>
       <c r="CM47" s="10">
-        <v>238129.69216395734</v>
-      </c>
-      <c r="CN47" s="11"/>
+        <v>237089.60293205726</v>
+      </c>
+      <c r="CN47" s="10">
+        <v>327756.35641066451</v>
+      </c>
       <c r="CO47" s="11"/>
       <c r="CP47" s="11"/>
       <c r="CQ47" s="11"/>
@@ -8930,7 +8975,7 @@
       <c r="EV47" s="11"/>
       <c r="EW47" s="11"/>
     </row>
-    <row r="48" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>5</v>
       </c>
@@ -9202,9 +9247,11 @@
         <v>115909.90445148885</v>
       </c>
       <c r="CM48" s="10">
-        <v>125381.5631915612</v>
-      </c>
-      <c r="CN48" s="11"/>
+        <v>124681.93067322711</v>
+      </c>
+      <c r="CN48" s="10">
+        <v>96723.354802973481</v>
+      </c>
       <c r="CO48" s="11"/>
       <c r="CP48" s="11"/>
       <c r="CQ48" s="11"/>
@@ -9267,7 +9314,7 @@
       <c r="EV48" s="11"/>
       <c r="EW48" s="11"/>
     </row>
-    <row r="49" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>4</v>
       </c>
@@ -9539,9 +9586,11 @@
         <v>53886.224246606071</v>
       </c>
       <c r="CM49" s="10">
-        <v>39799.817325731965</v>
-      </c>
-      <c r="CN49" s="11"/>
+        <v>40675.021685712061</v>
+      </c>
+      <c r="CN49" s="10">
+        <v>51283.064171945523</v>
+      </c>
       <c r="CO49" s="11"/>
       <c r="CP49" s="11"/>
       <c r="CQ49" s="11"/>
@@ -9604,7 +9653,7 @@
       <c r="EV49" s="11"/>
       <c r="EW49" s="11"/>
     </row>
-    <row r="50" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>3</v>
       </c>
@@ -9876,9 +9925,11 @@
         <v>197356.69930389794</v>
       </c>
       <c r="CM50" s="10">
-        <v>175132.12224164006</v>
-      </c>
-      <c r="CN50" s="11"/>
+        <v>175581.40026522669</v>
+      </c>
+      <c r="CN50" s="10">
+        <v>201819.05369660654</v>
+      </c>
       <c r="CO50" s="11"/>
       <c r="CP50" s="11"/>
       <c r="CQ50" s="11"/>
@@ -9941,7 +9992,7 @@
       <c r="EV50" s="11"/>
       <c r="EW50" s="11"/>
     </row>
-    <row r="51" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>2</v>
       </c>
@@ -10213,9 +10264,11 @@
         <v>282708.60999129753</v>
       </c>
       <c r="CM51" s="10">
-        <v>166923.42037536853</v>
-      </c>
-      <c r="CN51" s="11"/>
+        <v>168071.32293949748</v>
+      </c>
+      <c r="CN51" s="10">
+        <v>242385.99179231143</v>
+      </c>
       <c r="CO51" s="11"/>
       <c r="CP51" s="11"/>
       <c r="CQ51" s="11"/>
@@ -10278,7 +10331,7 @@
       <c r="EV51" s="11"/>
       <c r="EW51" s="11"/>
     </row>
-    <row r="52" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>1</v>
       </c>
@@ -10550,9 +10603,11 @@
         <v>476676.3395911071</v>
       </c>
       <c r="CM52" s="10">
-        <v>451000.60114325891</v>
-      </c>
-      <c r="CN52" s="11"/>
+        <v>449718.58169500902</v>
+      </c>
+      <c r="CN52" s="10">
+        <v>509520.5050821944</v>
+      </c>
       <c r="CO52" s="11"/>
       <c r="CP52" s="11"/>
       <c r="CQ52" s="11"/>
@@ -10615,7 +10670,7 @@
       <c r="EV52" s="11"/>
       <c r="EW52" s="11"/>
     </row>
-    <row r="53" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
@@ -10769,7 +10824,7 @@
       <c r="EV53" s="11"/>
       <c r="EW53" s="11"/>
     </row>
-    <row r="54" spans="1:153" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:153" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
         <v>18</v>
       </c>
@@ -11025,25 +11080,27 @@
       <c r="CG54" s="15">
         <v>3648921.6749099772</v>
       </c>
-      <c r="CH54" s="31">
+      <c r="CH54" s="30">
         <v>3156671.4757222617</v>
       </c>
-      <c r="CI54" s="31">
+      <c r="CI54" s="30">
         <v>3131017.1444008318</v>
       </c>
-      <c r="CJ54" s="31">
+      <c r="CJ54" s="30">
         <v>3244927.2295096582</v>
       </c>
-      <c r="CK54" s="31">
+      <c r="CK54" s="30">
         <v>3923915.6638969723</v>
       </c>
-      <c r="CL54" s="31">
+      <c r="CL54" s="30">
         <v>3473351.0415488388</v>
       </c>
-      <c r="CM54" s="31">
-        <v>3401517.1464006188</v>
-      </c>
-      <c r="CN54" s="11"/>
+      <c r="CM54" s="30">
+        <v>3399066.6751907454</v>
+      </c>
+      <c r="CN54" s="30">
+        <v>3504489.2019144772</v>
+      </c>
       <c r="CO54" s="11"/>
       <c r="CP54" s="11"/>
       <c r="CQ54" s="11"/>
@@ -11106,7 +11163,7 @@
       <c r="EV54" s="11"/>
       <c r="EW54" s="11"/>
     </row>
-    <row r="55" spans="1:153" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:153" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="16"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
@@ -11198,13 +11255,14 @@
       <c r="CK55" s="16"/>
       <c r="CL55" s="16"/>
       <c r="CM55" s="16"/>
+      <c r="CN55" s="16"/>
     </row>
-    <row r="56" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A56" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
@@ -11358,7 +11416,7 @@
       <c r="EV57" s="11"/>
       <c r="EW57" s="11"/>
     </row>
-    <row r="58" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="23"/>
       <c r="C58" s="23"/>
       <c r="D58" s="23"/>
@@ -11443,13 +11501,13 @@
       <c r="CE58" s="24"/>
       <c r="CF58" s="24"/>
       <c r="CG58" s="24"/>
-      <c r="CH58" s="33"/>
-      <c r="CI58" s="33"/>
-      <c r="CJ58" s="33"/>
-      <c r="CK58" s="33"/>
-      <c r="CL58" s="33"/>
-      <c r="CM58" s="33"/>
-      <c r="CN58" s="11"/>
+      <c r="CH58" s="32"/>
+      <c r="CI58" s="32"/>
+      <c r="CJ58" s="32"/>
+      <c r="CK58" s="32"/>
+      <c r="CL58" s="32"/>
+      <c r="CM58" s="32"/>
+      <c r="CN58" s="32"/>
       <c r="CO58" s="11"/>
       <c r="CP58" s="11"/>
       <c r="CQ58" s="11"/>
@@ -11512,140 +11570,140 @@
       <c r="EV58" s="11"/>
       <c r="EW58" s="11"/>
     </row>
-    <row r="59" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:149" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:149" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
-      <c r="B67" s="35" t="s">
+      <c r="B67" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C67" s="35"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35" t="s">
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G67" s="35"/>
-      <c r="H67" s="35"/>
-      <c r="I67" s="35"/>
-      <c r="J67" s="35" t="s">
+      <c r="G67" s="33"/>
+      <c r="H67" s="33"/>
+      <c r="I67" s="33"/>
+      <c r="J67" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="K67" s="35"/>
-      <c r="L67" s="35"/>
-      <c r="M67" s="35"/>
-      <c r="N67" s="35" t="s">
+      <c r="K67" s="33"/>
+      <c r="L67" s="33"/>
+      <c r="M67" s="33"/>
+      <c r="N67" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="O67" s="35"/>
-      <c r="P67" s="35"/>
-      <c r="Q67" s="35"/>
-      <c r="R67" s="35" t="s">
+      <c r="O67" s="33"/>
+      <c r="P67" s="33"/>
+      <c r="Q67" s="33"/>
+      <c r="R67" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="S67" s="35"/>
-      <c r="T67" s="35"/>
-      <c r="U67" s="35"/>
-      <c r="V67" s="35" t="s">
+      <c r="S67" s="33"/>
+      <c r="T67" s="33"/>
+      <c r="U67" s="33"/>
+      <c r="V67" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="W67" s="35"/>
-      <c r="X67" s="35"/>
-      <c r="Y67" s="35"/>
-      <c r="Z67" s="35" t="s">
+      <c r="W67" s="33"/>
+      <c r="X67" s="33"/>
+      <c r="Y67" s="33"/>
+      <c r="Z67" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="AA67" s="35"/>
-      <c r="AB67" s="35"/>
-      <c r="AC67" s="35"/>
-      <c r="AD67" s="35" t="s">
+      <c r="AA67" s="33"/>
+      <c r="AB67" s="33"/>
+      <c r="AC67" s="33"/>
+      <c r="AD67" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="AE67" s="35"/>
-      <c r="AF67" s="35"/>
-      <c r="AG67" s="35"/>
-      <c r="AH67" s="35" t="s">
+      <c r="AE67" s="33"/>
+      <c r="AF67" s="33"/>
+      <c r="AG67" s="33"/>
+      <c r="AH67" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="AI67" s="35"/>
-      <c r="AJ67" s="35"/>
-      <c r="AK67" s="35"/>
-      <c r="AL67" s="35" t="s">
+      <c r="AI67" s="33"/>
+      <c r="AJ67" s="33"/>
+      <c r="AK67" s="33"/>
+      <c r="AL67" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="AM67" s="35"/>
-      <c r="AN67" s="35"/>
-      <c r="AO67" s="35"/>
-      <c r="AP67" s="35" t="s">
+      <c r="AM67" s="33"/>
+      <c r="AN67" s="33"/>
+      <c r="AO67" s="33"/>
+      <c r="AP67" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="AQ67" s="35"/>
-      <c r="AR67" s="35"/>
-      <c r="AS67" s="35"/>
-      <c r="AT67" s="35" t="s">
+      <c r="AQ67" s="33"/>
+      <c r="AR67" s="33"/>
+      <c r="AS67" s="33"/>
+      <c r="AT67" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="AU67" s="35"/>
-      <c r="AV67" s="35"/>
-      <c r="AW67" s="35"/>
-      <c r="AX67" s="35" t="s">
+      <c r="AU67" s="33"/>
+      <c r="AV67" s="33"/>
+      <c r="AW67" s="33"/>
+      <c r="AX67" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="AY67" s="35"/>
-      <c r="AZ67" s="35"/>
-      <c r="BA67" s="35"/>
-      <c r="BB67" s="35" t="s">
+      <c r="AY67" s="33"/>
+      <c r="AZ67" s="33"/>
+      <c r="BA67" s="33"/>
+      <c r="BB67" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="BC67" s="35"/>
-      <c r="BD67" s="35"/>
-      <c r="BE67" s="35"/>
-      <c r="BF67" s="35" t="s">
+      <c r="BC67" s="33"/>
+      <c r="BD67" s="33"/>
+      <c r="BE67" s="33"/>
+      <c r="BF67" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="BG67" s="35"/>
-      <c r="BH67" s="35"/>
-      <c r="BI67" s="35"/>
-      <c r="BJ67" s="35" t="s">
+      <c r="BG67" s="33"/>
+      <c r="BH67" s="33"/>
+      <c r="BI67" s="33"/>
+      <c r="BJ67" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="BK67" s="35"/>
-      <c r="BL67" s="35"/>
-      <c r="BM67" s="35"/>
-      <c r="BN67" s="35" t="s">
+      <c r="BK67" s="33"/>
+      <c r="BL67" s="33"/>
+      <c r="BM67" s="33"/>
+      <c r="BN67" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="BO67" s="35"/>
-      <c r="BP67" s="35"/>
-      <c r="BQ67" s="35"/>
+      <c r="BO67" s="33"/>
+      <c r="BP67" s="33"/>
+      <c r="BQ67" s="33"/>
       <c r="BR67" s="34" t="s">
         <v>34</v>
       </c>
@@ -11674,12 +11732,13 @@
         <v>57</v>
       </c>
       <c r="CI67" s="34"/>
-      <c r="CJ67" s="4"/>
+      <c r="CJ67" s="34"/>
       <c r="CK67" s="4"/>
-      <c r="CL67" s="30"/>
-      <c r="CM67" s="4"/>
+      <c r="CL67" s="34"/>
+      <c r="CM67" s="34"/>
+      <c r="CN67" s="4"/>
     </row>
-    <row r="68" spans="1:149" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>37</v>
       </c>
@@ -11941,15 +12000,18 @@
       <c r="CI68" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="CJ68" s="7"/>
+      <c r="CJ68" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="CK68" s="7"/>
       <c r="CL68" s="7"/>
       <c r="CM68" s="7"/>
+      <c r="CN68" s="7"/>
     </row>
-    <row r="69" spans="1:149" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8"/>
     </row>
-    <row r="70" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>12</v>
       </c>
@@ -12209,13 +12271,15 @@
         <v>11.950152669019531</v>
       </c>
       <c r="CI70" s="26">
-        <v>11.774689710196995</v>
-      </c>
-      <c r="CJ70" s="26"/>
+        <v>11.740458351862841</v>
+      </c>
+      <c r="CJ70" s="26">
+        <v>11.151227845362868</v>
+      </c>
       <c r="CK70" s="26"/>
       <c r="CL70" s="26"/>
-      <c r="CM70" s="11"/>
-      <c r="CN70" s="11"/>
+      <c r="CM70" s="26"/>
+      <c r="CN70" s="26"/>
       <c r="CO70" s="11"/>
       <c r="CP70" s="11"/>
       <c r="CQ70" s="11"/>
@@ -12274,7 +12338,7 @@
       <c r="ER70" s="11"/>
       <c r="ES70" s="11"/>
     </row>
-    <row r="71" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>11</v>
       </c>
@@ -12534,13 +12598,15 @@
         <v>11.853475217909363</v>
       </c>
       <c r="CI71" s="26">
-        <v>9.6345039267237524</v>
-      </c>
-      <c r="CJ71" s="26"/>
+        <v>10.249787890722899</v>
+      </c>
+      <c r="CJ71" s="26">
+        <v>-1.7502827870363404</v>
+      </c>
       <c r="CK71" s="26"/>
       <c r="CL71" s="26"/>
-      <c r="CM71" s="11"/>
-      <c r="CN71" s="11"/>
+      <c r="CM71" s="26"/>
+      <c r="CN71" s="26"/>
       <c r="CO71" s="11"/>
       <c r="CP71" s="11"/>
       <c r="CQ71" s="11"/>
@@ -12599,7 +12665,7 @@
       <c r="ER71" s="11"/>
       <c r="ES71" s="11"/>
     </row>
-    <row r="72" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>10</v>
       </c>
@@ -12861,11 +12927,13 @@
       <c r="CI72" s="26">
         <v>7.1613224771094792</v>
       </c>
-      <c r="CJ72" s="26"/>
+      <c r="CJ72" s="26">
+        <v>-2.9400297906872623</v>
+      </c>
       <c r="CK72" s="26"/>
       <c r="CL72" s="26"/>
-      <c r="CM72" s="11"/>
-      <c r="CN72" s="11"/>
+      <c r="CM72" s="26"/>
+      <c r="CN72" s="26"/>
       <c r="CO72" s="11"/>
       <c r="CP72" s="11"/>
       <c r="CQ72" s="11"/>
@@ -12924,7 +12992,7 @@
       <c r="ER72" s="11"/>
       <c r="ES72" s="11"/>
     </row>
-    <row r="73" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>9</v>
       </c>
@@ -13184,13 +13252,15 @@
         <v>11.407602824630359</v>
       </c>
       <c r="CI73" s="26">
-        <v>14.097769382171307</v>
-      </c>
-      <c r="CJ73" s="26"/>
+        <v>13.99182801060617</v>
+      </c>
+      <c r="CJ73" s="26">
+        <v>9.1587849685091527</v>
+      </c>
       <c r="CK73" s="26"/>
       <c r="CL73" s="26"/>
-      <c r="CM73" s="11"/>
-      <c r="CN73" s="11"/>
+      <c r="CM73" s="26"/>
+      <c r="CN73" s="26"/>
       <c r="CO73" s="11"/>
       <c r="CP73" s="11"/>
       <c r="CQ73" s="11"/>
@@ -13249,7 +13319,7 @@
       <c r="ER73" s="11"/>
       <c r="ES73" s="11"/>
     </row>
-    <row r="74" spans="1:149" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:149" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="12" t="s">
         <v>8</v>
       </c>
@@ -13509,13 +13579,15 @@
         <v>11.072394012374389</v>
       </c>
       <c r="CI74" s="26">
-        <v>11.357262448822226</v>
-      </c>
-      <c r="CJ74" s="26"/>
+        <v>9.8768823178817229</v>
+      </c>
+      <c r="CJ74" s="26">
+        <v>13.128951967603626</v>
+      </c>
       <c r="CK74" s="26"/>
       <c r="CL74" s="26"/>
-      <c r="CM74" s="11"/>
-      <c r="CN74" s="11"/>
+      <c r="CM74" s="26"/>
+      <c r="CN74" s="26"/>
       <c r="CO74" s="11"/>
       <c r="CP74" s="11"/>
       <c r="CQ74" s="11"/>
@@ -13574,7 +13646,7 @@
       <c r="ER74" s="11"/>
       <c r="ES74" s="11"/>
     </row>
-    <row r="75" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>7</v>
       </c>
@@ -13834,13 +13906,15 @@
         <v>3.8539330160627827</v>
       </c>
       <c r="CI75" s="26">
-        <v>-3.2490572877989621E-2</v>
-      </c>
-      <c r="CJ75" s="26"/>
+        <v>-5.5798076444133926E-2</v>
+      </c>
+      <c r="CJ75" s="26">
+        <v>9.5001212693810828</v>
+      </c>
       <c r="CK75" s="26"/>
       <c r="CL75" s="26"/>
-      <c r="CM75" s="11"/>
-      <c r="CN75" s="11"/>
+      <c r="CM75" s="26"/>
+      <c r="CN75" s="26"/>
       <c r="CO75" s="11"/>
       <c r="CP75" s="11"/>
       <c r="CQ75" s="11"/>
@@ -13899,7 +13973,7 @@
       <c r="ER75" s="11"/>
       <c r="ES75" s="11"/>
     </row>
-    <row r="76" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>6</v>
       </c>
@@ -14159,13 +14233,15 @@
         <v>26.071426339240304</v>
       </c>
       <c r="CI76" s="26">
-        <v>44.461671434839133</v>
-      </c>
-      <c r="CJ76" s="26"/>
+        <v>43.830700019572674</v>
+      </c>
+      <c r="CJ76" s="26">
+        <v>39.405611281779471</v>
+      </c>
       <c r="CK76" s="26"/>
       <c r="CL76" s="26"/>
-      <c r="CM76" s="11"/>
-      <c r="CN76" s="11"/>
+      <c r="CM76" s="26"/>
+      <c r="CN76" s="26"/>
       <c r="CO76" s="11"/>
       <c r="CP76" s="11"/>
       <c r="CQ76" s="11"/>
@@ -14224,7 +14300,7 @@
       <c r="ER76" s="11"/>
       <c r="ES76" s="11"/>
     </row>
-    <row r="77" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>5</v>
       </c>
@@ -14484,13 +14560,15 @@
         <v>7.7006334235734499</v>
       </c>
       <c r="CI77" s="26">
-        <v>10.939979233635015</v>
-      </c>
-      <c r="CJ77" s="26"/>
+        <v>10.320931144909437</v>
+      </c>
+      <c r="CJ77" s="26">
+        <v>7.780031501783796</v>
+      </c>
       <c r="CK77" s="26"/>
       <c r="CL77" s="26"/>
-      <c r="CM77" s="11"/>
-      <c r="CN77" s="11"/>
+      <c r="CM77" s="26"/>
+      <c r="CN77" s="26"/>
       <c r="CO77" s="11"/>
       <c r="CP77" s="11"/>
       <c r="CQ77" s="11"/>
@@ -14549,7 +14627,7 @@
       <c r="ER77" s="11"/>
       <c r="ES77" s="11"/>
     </row>
-    <row r="78" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>4</v>
       </c>
@@ -14809,13 +14887,15 @@
         <v>18.08872700967035</v>
       </c>
       <c r="CI78" s="26">
-        <v>37.318151602676693</v>
-      </c>
-      <c r="CJ78" s="26"/>
+        <v>40.337799758432624</v>
+      </c>
+      <c r="CJ78" s="26">
+        <v>49.490424187724415</v>
+      </c>
       <c r="CK78" s="26"/>
       <c r="CL78" s="26"/>
-      <c r="CM78" s="11"/>
-      <c r="CN78" s="11"/>
+      <c r="CM78" s="26"/>
+      <c r="CN78" s="26"/>
       <c r="CO78" s="11"/>
       <c r="CP78" s="11"/>
       <c r="CQ78" s="11"/>
@@ -14874,7 +14954,7 @@
       <c r="ER78" s="11"/>
       <c r="ES78" s="11"/>
     </row>
-    <row r="79" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>3</v>
       </c>
@@ -15134,13 +15214,15 @@
         <v>12.108892270262899</v>
       </c>
       <c r="CI79" s="26">
-        <v>7.8475707414959288</v>
-      </c>
-      <c r="CJ79" s="26"/>
+        <v>8.1242392521675839</v>
+      </c>
+      <c r="CJ79" s="26">
+        <v>8.453074846232127</v>
+      </c>
       <c r="CK79" s="26"/>
       <c r="CL79" s="26"/>
-      <c r="CM79" s="11"/>
-      <c r="CN79" s="11"/>
+      <c r="CM79" s="26"/>
+      <c r="CN79" s="26"/>
       <c r="CO79" s="11"/>
       <c r="CP79" s="11"/>
       <c r="CQ79" s="11"/>
@@ -15199,7 +15281,7 @@
       <c r="ER79" s="11"/>
       <c r="ES79" s="11"/>
     </row>
-    <row r="80" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>2</v>
       </c>
@@ -15459,13 +15541,15 @@
         <v>23.295892172965438</v>
       </c>
       <c r="CI80" s="26">
-        <v>36.05248457268965</v>
-      </c>
-      <c r="CJ80" s="26"/>
+        <v>36.98809322212847</v>
+      </c>
+      <c r="CJ80" s="26">
+        <v>44.461553239018315</v>
+      </c>
       <c r="CK80" s="26"/>
       <c r="CL80" s="26"/>
-      <c r="CM80" s="11"/>
-      <c r="CN80" s="11"/>
+      <c r="CM80" s="26"/>
+      <c r="CN80" s="26"/>
       <c r="CO80" s="11"/>
       <c r="CP80" s="11"/>
       <c r="CQ80" s="11"/>
@@ -15524,7 +15608,7 @@
       <c r="ER80" s="11"/>
       <c r="ES80" s="11"/>
     </row>
-    <row r="81" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>1</v>
       </c>
@@ -15784,13 +15868,15 @@
         <v>11.327847732547809</v>
       </c>
       <c r="CI81" s="26">
-        <v>10.722249790118951</v>
-      </c>
-      <c r="CJ81" s="26"/>
+        <v>10.40750946111477</v>
+      </c>
+      <c r="CJ81" s="26">
+        <v>13.497300320640363</v>
+      </c>
       <c r="CK81" s="26"/>
       <c r="CL81" s="26"/>
-      <c r="CM81" s="11"/>
-      <c r="CN81" s="11"/>
+      <c r="CM81" s="26"/>
+      <c r="CN81" s="26"/>
       <c r="CO81" s="11"/>
       <c r="CP81" s="11"/>
       <c r="CQ81" s="11"/>
@@ -15849,7 +15935,7 @@
       <c r="ER81" s="11"/>
       <c r="ES81" s="11"/>
     </row>
-    <row r="82" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
       <c r="D82" s="13"/>
@@ -15999,7 +16085,7 @@
       <c r="ER82" s="11"/>
       <c r="ES82" s="11"/>
     </row>
-    <row r="83" spans="1:149" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:149" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="12" t="s">
         <v>18</v>
       </c>
@@ -16259,13 +16345,15 @@
         <v>13.431422246443077</v>
       </c>
       <c r="CI83" s="26">
-        <v>14.284416670868325</v>
-      </c>
-      <c r="CJ83" s="26"/>
+        <v>14.1993530748247</v>
+      </c>
+      <c r="CJ83" s="26">
+        <v>15.24609706166909</v>
+      </c>
       <c r="CK83" s="26"/>
       <c r="CL83" s="26"/>
-      <c r="CM83" s="11"/>
-      <c r="CN83" s="11"/>
+      <c r="CM83" s="26"/>
+      <c r="CN83" s="26"/>
       <c r="CO83" s="11"/>
       <c r="CP83" s="11"/>
       <c r="CQ83" s="11"/>
@@ -16324,7 +16412,7 @@
       <c r="ER83" s="11"/>
       <c r="ES83" s="11"/>
     </row>
-    <row r="84" spans="1:149" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:149" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="16"/>
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
@@ -16416,13 +16504,14 @@
       <c r="CK84" s="16"/>
       <c r="CL84" s="16"/>
       <c r="CM84" s="16"/>
+      <c r="CN84" s="16"/>
     </row>
-    <row r="85" spans="1:149" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A85" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
@@ -16572,7 +16661,7 @@
       <c r="ER86" s="11"/>
       <c r="ES86" s="11"/>
     </row>
-    <row r="87" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
       <c r="D87" s="13"/>
@@ -16722,140 +16811,140 @@
       <c r="ER87" s="11"/>
       <c r="ES87" s="11"/>
     </row>
-    <row r="88" spans="1:149" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:149" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:149" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="92" spans="1:149" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="1:149" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="94" spans="1:149" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="1:149" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
-      <c r="B96" s="35" t="s">
+      <c r="B96" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C96" s="35"/>
-      <c r="D96" s="35"/>
-      <c r="E96" s="35"/>
-      <c r="F96" s="35" t="s">
+      <c r="C96" s="33"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G96" s="35"/>
-      <c r="H96" s="35"/>
-      <c r="I96" s="35"/>
-      <c r="J96" s="35" t="s">
+      <c r="G96" s="33"/>
+      <c r="H96" s="33"/>
+      <c r="I96" s="33"/>
+      <c r="J96" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="K96" s="35"/>
-      <c r="L96" s="35"/>
-      <c r="M96" s="35"/>
-      <c r="N96" s="35" t="s">
+      <c r="K96" s="33"/>
+      <c r="L96" s="33"/>
+      <c r="M96" s="33"/>
+      <c r="N96" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="O96" s="35"/>
-      <c r="P96" s="35"/>
-      <c r="Q96" s="35"/>
-      <c r="R96" s="35" t="s">
+      <c r="O96" s="33"/>
+      <c r="P96" s="33"/>
+      <c r="Q96" s="33"/>
+      <c r="R96" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="S96" s="35"/>
-      <c r="T96" s="35"/>
-      <c r="U96" s="35"/>
-      <c r="V96" s="35" t="s">
+      <c r="S96" s="33"/>
+      <c r="T96" s="33"/>
+      <c r="U96" s="33"/>
+      <c r="V96" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="W96" s="35"/>
-      <c r="X96" s="35"/>
-      <c r="Y96" s="35"/>
-      <c r="Z96" s="35" t="s">
+      <c r="W96" s="33"/>
+      <c r="X96" s="33"/>
+      <c r="Y96" s="33"/>
+      <c r="Z96" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="AA96" s="35"/>
-      <c r="AB96" s="35"/>
-      <c r="AC96" s="35"/>
-      <c r="AD96" s="35" t="s">
+      <c r="AA96" s="33"/>
+      <c r="AB96" s="33"/>
+      <c r="AC96" s="33"/>
+      <c r="AD96" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="AE96" s="35"/>
-      <c r="AF96" s="35"/>
-      <c r="AG96" s="35"/>
-      <c r="AH96" s="35" t="s">
+      <c r="AE96" s="33"/>
+      <c r="AF96" s="33"/>
+      <c r="AG96" s="33"/>
+      <c r="AH96" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="AI96" s="35"/>
-      <c r="AJ96" s="35"/>
-      <c r="AK96" s="35"/>
-      <c r="AL96" s="35" t="s">
+      <c r="AI96" s="33"/>
+      <c r="AJ96" s="33"/>
+      <c r="AK96" s="33"/>
+      <c r="AL96" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="AM96" s="35"/>
-      <c r="AN96" s="35"/>
-      <c r="AO96" s="35"/>
-      <c r="AP96" s="35" t="s">
+      <c r="AM96" s="33"/>
+      <c r="AN96" s="33"/>
+      <c r="AO96" s="33"/>
+      <c r="AP96" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="AQ96" s="35"/>
-      <c r="AR96" s="35"/>
-      <c r="AS96" s="35"/>
-      <c r="AT96" s="35" t="s">
+      <c r="AQ96" s="33"/>
+      <c r="AR96" s="33"/>
+      <c r="AS96" s="33"/>
+      <c r="AT96" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="AU96" s="35"/>
-      <c r="AV96" s="35"/>
-      <c r="AW96" s="35"/>
-      <c r="AX96" s="35" t="s">
+      <c r="AU96" s="33"/>
+      <c r="AV96" s="33"/>
+      <c r="AW96" s="33"/>
+      <c r="AX96" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="AY96" s="35"/>
-      <c r="AZ96" s="35"/>
-      <c r="BA96" s="35"/>
-      <c r="BB96" s="35" t="s">
+      <c r="AY96" s="33"/>
+      <c r="AZ96" s="33"/>
+      <c r="BA96" s="33"/>
+      <c r="BB96" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="BC96" s="35"/>
-      <c r="BD96" s="35"/>
-      <c r="BE96" s="35"/>
-      <c r="BF96" s="35" t="s">
+      <c r="BC96" s="33"/>
+      <c r="BD96" s="33"/>
+      <c r="BE96" s="33"/>
+      <c r="BF96" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="BG96" s="35"/>
-      <c r="BH96" s="35"/>
-      <c r="BI96" s="35"/>
-      <c r="BJ96" s="35" t="s">
+      <c r="BG96" s="33"/>
+      <c r="BH96" s="33"/>
+      <c r="BI96" s="33"/>
+      <c r="BJ96" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="BK96" s="35"/>
-      <c r="BL96" s="35"/>
-      <c r="BM96" s="35"/>
-      <c r="BN96" s="35" t="s">
+      <c r="BK96" s="33"/>
+      <c r="BL96" s="33"/>
+      <c r="BM96" s="33"/>
+      <c r="BN96" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="BO96" s="35"/>
-      <c r="BP96" s="35"/>
-      <c r="BQ96" s="35"/>
+      <c r="BO96" s="33"/>
+      <c r="BP96" s="33"/>
+      <c r="BQ96" s="33"/>
       <c r="BR96" s="34" t="s">
         <v>34</v>
       </c>
@@ -16884,12 +16973,13 @@
         <v>57</v>
       </c>
       <c r="CI96" s="34"/>
-      <c r="CJ96" s="4"/>
+      <c r="CJ96" s="34"/>
       <c r="CK96" s="4"/>
-      <c r="CL96" s="30"/>
-      <c r="CM96" s="30"/>
+      <c r="CL96" s="34"/>
+      <c r="CM96" s="34"/>
+      <c r="CN96" s="4"/>
     </row>
-    <row r="97" spans="1:149" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>37</v>
       </c>
@@ -17151,15 +17241,18 @@
       <c r="CI97" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="CJ97" s="7"/>
+      <c r="CJ97" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="CK97" s="7"/>
       <c r="CL97" s="7"/>
       <c r="CM97" s="7"/>
+      <c r="CN97" s="7"/>
     </row>
-    <row r="98" spans="1:149" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8"/>
     </row>
-    <row r="99" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>12</v>
       </c>
@@ -17419,13 +17512,15 @@
         <v>9.9504476496265113</v>
       </c>
       <c r="CI99" s="26">
-        <v>5.7624797140016568</v>
-      </c>
-      <c r="CJ99" s="26"/>
+        <v>5.7300896143217699</v>
+      </c>
+      <c r="CJ99" s="26">
+        <v>3.8964820872820098</v>
+      </c>
       <c r="CK99" s="26"/>
       <c r="CL99" s="26"/>
-      <c r="CM99" s="11"/>
-      <c r="CN99" s="11"/>
+      <c r="CM99" s="26"/>
+      <c r="CN99" s="26"/>
       <c r="CO99" s="11"/>
       <c r="CP99" s="11"/>
       <c r="CQ99" s="11"/>
@@ -17484,7 +17579,7 @@
       <c r="ER99" s="11"/>
       <c r="ES99" s="11"/>
     </row>
-    <row r="100" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>11</v>
       </c>
@@ -17744,13 +17839,15 @@
         <v>6.4955304652266221</v>
       </c>
       <c r="CI100" s="26">
-        <v>2.1587446497476321</v>
-      </c>
-      <c r="CJ100" s="26"/>
+        <v>2.7320736211386532</v>
+      </c>
+      <c r="CJ100" s="26">
+        <v>-10.039445224275696</v>
+      </c>
       <c r="CK100" s="26"/>
       <c r="CL100" s="26"/>
-      <c r="CM100" s="11"/>
-      <c r="CN100" s="11"/>
+      <c r="CM100" s="26"/>
+      <c r="CN100" s="26"/>
       <c r="CO100" s="11"/>
       <c r="CP100" s="11"/>
       <c r="CQ100" s="11"/>
@@ -17809,7 +17906,7 @@
       <c r="ER100" s="11"/>
       <c r="ES100" s="11"/>
     </row>
-    <row r="101" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>10</v>
       </c>
@@ -18071,11 +18168,13 @@
       <c r="CI101" s="26">
         <v>4.464427553075339</v>
       </c>
-      <c r="CJ101" s="26"/>
+      <c r="CJ101" s="26">
+        <v>-5.5243799808292948</v>
+      </c>
       <c r="CK101" s="26"/>
       <c r="CL101" s="26"/>
-      <c r="CM101" s="11"/>
-      <c r="CN101" s="11"/>
+      <c r="CM101" s="26"/>
+      <c r="CN101" s="26"/>
       <c r="CO101" s="11"/>
       <c r="CP101" s="11"/>
       <c r="CQ101" s="11"/>
@@ -18134,7 +18233,7 @@
       <c r="ER101" s="11"/>
       <c r="ES101" s="11"/>
     </row>
-    <row r="102" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>9</v>
       </c>
@@ -18394,13 +18493,15 @@
         <v>5.9185421015190087</v>
       </c>
       <c r="CI102" s="26">
-        <v>6.9794309341492777</v>
-      </c>
-      <c r="CJ102" s="26"/>
+        <v>6.8800990391981998</v>
+      </c>
+      <c r="CJ102" s="26">
+        <v>1.3308625699598053</v>
+      </c>
       <c r="CK102" s="26"/>
       <c r="CL102" s="26"/>
-      <c r="CM102" s="11"/>
-      <c r="CN102" s="11"/>
+      <c r="CM102" s="26"/>
+      <c r="CN102" s="26"/>
       <c r="CO102" s="11"/>
       <c r="CP102" s="11"/>
       <c r="CQ102" s="11"/>
@@ -18459,7 +18560,7 @@
       <c r="ER102" s="11"/>
       <c r="ES102" s="11"/>
     </row>
-    <row r="103" spans="1:149" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:149" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="12" t="s">
         <v>8</v>
       </c>
@@ -18719,13 +18820,15 @@
         <v>8.4182139981645747</v>
       </c>
       <c r="CI103" s="26">
-        <v>8.4848195662191159</v>
-      </c>
-      <c r="CJ103" s="26"/>
+        <v>7.042625605422856</v>
+      </c>
+      <c r="CJ103" s="26">
+        <v>9.4731394077255118</v>
+      </c>
       <c r="CK103" s="26"/>
       <c r="CL103" s="26"/>
-      <c r="CM103" s="11"/>
-      <c r="CN103" s="11"/>
+      <c r="CM103" s="26"/>
+      <c r="CN103" s="26"/>
       <c r="CO103" s="11"/>
       <c r="CP103" s="11"/>
       <c r="CQ103" s="11"/>
@@ -18784,7 +18887,7 @@
       <c r="ER103" s="11"/>
       <c r="ES103" s="11"/>
     </row>
-    <row r="104" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>7</v>
       </c>
@@ -19044,13 +19147,15 @@
         <v>1.0585667675321559</v>
       </c>
       <c r="CI104" s="26">
-        <v>-2.4473052650931066</v>
-      </c>
-      <c r="CJ104" s="26"/>
+        <v>-2.4700497527116454</v>
+      </c>
+      <c r="CJ104" s="26">
+        <v>6.9095240552757389</v>
+      </c>
       <c r="CK104" s="26"/>
       <c r="CL104" s="26"/>
-      <c r="CM104" s="11"/>
-      <c r="CN104" s="11"/>
+      <c r="CM104" s="26"/>
+      <c r="CN104" s="26"/>
       <c r="CO104" s="11"/>
       <c r="CP104" s="11"/>
       <c r="CQ104" s="11"/>
@@ -19109,7 +19214,7 @@
       <c r="ER104" s="11"/>
       <c r="ES104" s="11"/>
     </row>
-    <row r="105" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>6</v>
       </c>
@@ -19369,13 +19474,15 @@
         <v>15.960257541421257</v>
       </c>
       <c r="CI105" s="26">
-        <v>25.725384716907243</v>
-      </c>
-      <c r="CJ105" s="26"/>
+        <v>25.17624858175229</v>
+      </c>
+      <c r="CJ105" s="26">
+        <v>20.460381599681469</v>
+      </c>
       <c r="CK105" s="26"/>
       <c r="CL105" s="26"/>
-      <c r="CM105" s="11"/>
-      <c r="CN105" s="11"/>
+      <c r="CM105" s="26"/>
+      <c r="CN105" s="26"/>
       <c r="CO105" s="11"/>
       <c r="CP105" s="11"/>
       <c r="CQ105" s="11"/>
@@ -19434,7 +19541,7 @@
       <c r="ER105" s="11"/>
       <c r="ES105" s="11"/>
     </row>
-    <row r="106" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>5</v>
       </c>
@@ -19694,13 +19801,15 @@
         <v>6.9962473318561536</v>
       </c>
       <c r="CI106" s="26">
-        <v>10.251136225321574</v>
-      </c>
-      <c r="CJ106" s="26"/>
+        <v>9.6359318992384146</v>
+      </c>
+      <c r="CJ106" s="26">
+        <v>7.287242330972262</v>
+      </c>
       <c r="CK106" s="26"/>
       <c r="CL106" s="26"/>
-      <c r="CM106" s="11"/>
-      <c r="CN106" s="11"/>
+      <c r="CM106" s="26"/>
+      <c r="CN106" s="26"/>
       <c r="CO106" s="11"/>
       <c r="CP106" s="11"/>
       <c r="CQ106" s="11"/>
@@ -19759,7 +19868,7 @@
       <c r="ER106" s="11"/>
       <c r="ES106" s="11"/>
     </row>
-    <row r="107" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>4</v>
       </c>
@@ -20019,13 +20128,15 @@
         <v>16.267402608199205</v>
       </c>
       <c r="CI107" s="26">
-        <v>34.952821712871753</v>
-      </c>
-      <c r="CJ107" s="26"/>
+        <v>37.920455885362259</v>
+      </c>
+      <c r="CJ107" s="26">
+        <v>45.96864110084681</v>
+      </c>
       <c r="CK107" s="26"/>
       <c r="CL107" s="26"/>
-      <c r="CM107" s="11"/>
-      <c r="CN107" s="11"/>
+      <c r="CM107" s="26"/>
+      <c r="CN107" s="26"/>
       <c r="CO107" s="11"/>
       <c r="CP107" s="11"/>
       <c r="CQ107" s="11"/>
@@ -20084,7 +20195,7 @@
       <c r="ER107" s="11"/>
       <c r="ES107" s="11"/>
     </row>
-    <row r="108" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>3</v>
       </c>
@@ -20344,13 +20455,15 @@
         <v>11.482001912740486</v>
       </c>
       <c r="CI108" s="26">
-        <v>7.2445088361380812</v>
-      </c>
-      <c r="CJ108" s="26"/>
+        <v>7.5196302721927282</v>
+      </c>
+      <c r="CJ108" s="26">
+        <v>5.4235924203911594</v>
+      </c>
       <c r="CK108" s="26"/>
       <c r="CL108" s="26"/>
-      <c r="CM108" s="11"/>
-      <c r="CN108" s="11"/>
+      <c r="CM108" s="26"/>
+      <c r="CN108" s="26"/>
       <c r="CO108" s="11"/>
       <c r="CP108" s="11"/>
       <c r="CQ108" s="11"/>
@@ -20409,7 +20522,7 @@
       <c r="ER108" s="11"/>
       <c r="ES108" s="11"/>
     </row>
-    <row r="109" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>2</v>
       </c>
@@ -20669,13 +20782,15 @@
         <v>19.780553110410892</v>
       </c>
       <c r="CI109" s="26">
-        <v>32.338292115512388</v>
-      </c>
-      <c r="CJ109" s="26"/>
+        <v>33.248358926450209</v>
+      </c>
+      <c r="CJ109" s="26">
+        <v>38.234942116316432</v>
+      </c>
       <c r="CK109" s="26"/>
       <c r="CL109" s="26"/>
-      <c r="CM109" s="11"/>
-      <c r="CN109" s="11"/>
+      <c r="CM109" s="26"/>
+      <c r="CN109" s="26"/>
       <c r="CO109" s="11"/>
       <c r="CP109" s="11"/>
       <c r="CQ109" s="11"/>
@@ -20734,7 +20849,7 @@
       <c r="ER109" s="11"/>
       <c r="ES109" s="11"/>
     </row>
-    <row r="110" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>1</v>
       </c>
@@ -20994,13 +21109,15 @@
         <v>8.6439596750421401</v>
       </c>
       <c r="CI110" s="26">
-        <v>7.5219911348847006</v>
-      </c>
-      <c r="CJ110" s="26"/>
+        <v>7.216347897602887</v>
+      </c>
+      <c r="CJ110" s="26">
+        <v>8.2502579963249332</v>
+      </c>
       <c r="CK110" s="26"/>
       <c r="CL110" s="26"/>
-      <c r="CM110" s="11"/>
-      <c r="CN110" s="11"/>
+      <c r="CM110" s="26"/>
+      <c r="CN110" s="26"/>
       <c r="CO110" s="11"/>
       <c r="CP110" s="11"/>
       <c r="CQ110" s="11"/>
@@ -21059,7 +21176,7 @@
       <c r="ER110" s="11"/>
       <c r="ES110" s="11"/>
     </row>
-    <row r="111" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="13"/>
       <c r="C111" s="13"/>
       <c r="D111" s="13"/>
@@ -21209,7 +21326,7 @@
       <c r="ER111" s="11"/>
       <c r="ES111" s="11"/>
     </row>
-    <row r="112" spans="1:149" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:149" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="12" t="s">
         <v>18</v>
       </c>
@@ -21469,13 +21586,15 @@
         <v>10.032072335120617</v>
       </c>
       <c r="CI112" s="26">
-        <v>8.6393650856725515</v>
-      </c>
-      <c r="CJ112" s="26"/>
+        <v>8.5611007039442057</v>
+      </c>
+      <c r="CJ112" s="26">
+        <v>7.9990074983604842</v>
+      </c>
       <c r="CK112" s="26"/>
       <c r="CL112" s="26"/>
-      <c r="CM112" s="11"/>
-      <c r="CN112" s="11"/>
+      <c r="CM112" s="26"/>
+      <c r="CN112" s="26"/>
       <c r="CO112" s="11"/>
       <c r="CP112" s="11"/>
       <c r="CQ112" s="11"/>
@@ -21534,7 +21653,7 @@
       <c r="ER112" s="11"/>
       <c r="ES112" s="11"/>
     </row>
-    <row r="113" spans="1:153" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:153" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="16"/>
       <c r="B113" s="17"/>
       <c r="C113" s="17"/>
@@ -21626,13 +21745,14 @@
       <c r="CK113" s="16"/>
       <c r="CL113" s="16"/>
       <c r="CM113" s="16"/>
+      <c r="CN113" s="16"/>
     </row>
-    <row r="114" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A114" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="13"/>
       <c r="C115" s="13"/>
       <c r="D115" s="13"/>
@@ -21782,7 +21902,7 @@
       <c r="ER115" s="11"/>
       <c r="ES115" s="11"/>
     </row>
-    <row r="116" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="13"/>
       <c r="C116" s="13"/>
       <c r="D116" s="13"/>
@@ -21932,135 +22052,135 @@
       <c r="ER116" s="11"/>
       <c r="ES116" s="11"/>
     </row>
-    <row r="117" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="120" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="121" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="122" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="124" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
-      <c r="B124" s="35">
+      <c r="B124" s="33">
         <v>2000</v>
       </c>
-      <c r="C124" s="35"/>
-      <c r="D124" s="35"/>
-      <c r="E124" s="35"/>
-      <c r="F124" s="35">
+      <c r="C124" s="33"/>
+      <c r="D124" s="33"/>
+      <c r="E124" s="33"/>
+      <c r="F124" s="33">
         <v>2001</v>
       </c>
-      <c r="G124" s="35"/>
-      <c r="H124" s="35"/>
-      <c r="I124" s="35"/>
-      <c r="J124" s="35">
+      <c r="G124" s="33"/>
+      <c r="H124" s="33"/>
+      <c r="I124" s="33"/>
+      <c r="J124" s="33">
         <v>2002</v>
       </c>
-      <c r="K124" s="35"/>
-      <c r="L124" s="35"/>
-      <c r="M124" s="35"/>
-      <c r="N124" s="35">
+      <c r="K124" s="33"/>
+      <c r="L124" s="33"/>
+      <c r="M124" s="33"/>
+      <c r="N124" s="33">
         <v>2003</v>
       </c>
-      <c r="O124" s="35"/>
-      <c r="P124" s="35"/>
-      <c r="Q124" s="35"/>
-      <c r="R124" s="35">
+      <c r="O124" s="33"/>
+      <c r="P124" s="33"/>
+      <c r="Q124" s="33"/>
+      <c r="R124" s="33">
         <v>2004</v>
       </c>
-      <c r="S124" s="35"/>
-      <c r="T124" s="35"/>
-      <c r="U124" s="35"/>
-      <c r="V124" s="35">
+      <c r="S124" s="33"/>
+      <c r="T124" s="33"/>
+      <c r="U124" s="33"/>
+      <c r="V124" s="33">
         <v>2005</v>
       </c>
-      <c r="W124" s="35"/>
-      <c r="X124" s="35"/>
-      <c r="Y124" s="35"/>
-      <c r="Z124" s="35">
+      <c r="W124" s="33"/>
+      <c r="X124" s="33"/>
+      <c r="Y124" s="33"/>
+      <c r="Z124" s="33">
         <v>2006</v>
       </c>
-      <c r="AA124" s="35"/>
-      <c r="AB124" s="35"/>
-      <c r="AC124" s="35"/>
-      <c r="AD124" s="35">
+      <c r="AA124" s="33"/>
+      <c r="AB124" s="33"/>
+      <c r="AC124" s="33"/>
+      <c r="AD124" s="33">
         <v>2007</v>
       </c>
-      <c r="AE124" s="35"/>
-      <c r="AF124" s="35"/>
-      <c r="AG124" s="35"/>
-      <c r="AH124" s="35">
+      <c r="AE124" s="33"/>
+      <c r="AF124" s="33"/>
+      <c r="AG124" s="33"/>
+      <c r="AH124" s="33">
         <v>2008</v>
       </c>
-      <c r="AI124" s="35"/>
-      <c r="AJ124" s="35"/>
-      <c r="AK124" s="35"/>
-      <c r="AL124" s="35">
+      <c r="AI124" s="33"/>
+      <c r="AJ124" s="33"/>
+      <c r="AK124" s="33"/>
+      <c r="AL124" s="33">
         <v>2009</v>
       </c>
-      <c r="AM124" s="35"/>
-      <c r="AN124" s="35"/>
-      <c r="AO124" s="35"/>
-      <c r="AP124" s="35">
+      <c r="AM124" s="33"/>
+      <c r="AN124" s="33"/>
+      <c r="AO124" s="33"/>
+      <c r="AP124" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ124" s="35"/>
-      <c r="AR124" s="35"/>
-      <c r="AS124" s="35"/>
-      <c r="AT124" s="35">
+      <c r="AQ124" s="33"/>
+      <c r="AR124" s="33"/>
+      <c r="AS124" s="33"/>
+      <c r="AT124" s="33">
         <v>2011</v>
       </c>
-      <c r="AU124" s="35"/>
-      <c r="AV124" s="35"/>
-      <c r="AW124" s="35"/>
-      <c r="AX124" s="35">
+      <c r="AU124" s="33"/>
+      <c r="AV124" s="33"/>
+      <c r="AW124" s="33"/>
+      <c r="AX124" s="33">
         <v>2012</v>
       </c>
-      <c r="AY124" s="35"/>
-      <c r="AZ124" s="35"/>
-      <c r="BA124" s="35"/>
-      <c r="BB124" s="35">
+      <c r="AY124" s="33"/>
+      <c r="AZ124" s="33"/>
+      <c r="BA124" s="33"/>
+      <c r="BB124" s="33">
         <v>2013</v>
       </c>
-      <c r="BC124" s="35"/>
-      <c r="BD124" s="35"/>
-      <c r="BE124" s="35"/>
-      <c r="BF124" s="35">
+      <c r="BC124" s="33"/>
+      <c r="BD124" s="33"/>
+      <c r="BE124" s="33"/>
+      <c r="BF124" s="33">
         <v>2014</v>
       </c>
-      <c r="BG124" s="35"/>
-      <c r="BH124" s="35"/>
-      <c r="BI124" s="35"/>
-      <c r="BJ124" s="35">
+      <c r="BG124" s="33"/>
+      <c r="BH124" s="33"/>
+      <c r="BI124" s="33"/>
+      <c r="BJ124" s="33">
         <v>2015</v>
       </c>
-      <c r="BK124" s="35"/>
-      <c r="BL124" s="35"/>
-      <c r="BM124" s="35"/>
-      <c r="BN124" s="35">
+      <c r="BK124" s="33"/>
+      <c r="BL124" s="33"/>
+      <c r="BM124" s="33"/>
+      <c r="BN124" s="33">
         <v>2016</v>
       </c>
-      <c r="BO124" s="35"/>
-      <c r="BP124" s="35"/>
-      <c r="BQ124" s="35"/>
+      <c r="BO124" s="33"/>
+      <c r="BP124" s="33"/>
+      <c r="BQ124" s="33"/>
       <c r="BR124" s="34">
         <v>2017</v>
       </c>
@@ -22095,8 +22215,9 @@
         <v>2022</v>
       </c>
       <c r="CM124" s="34"/>
+      <c r="CN124" s="34"/>
     </row>
-    <row r="125" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
         <v>37</v>
       </c>
@@ -22370,11 +22491,14 @@
       <c r="CM125" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="CN125" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="126" spans="1:153" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="8"/>
     </row>
-    <row r="127" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>12</v>
       </c>
@@ -22648,7 +22772,9 @@
       <c r="CM127" s="26">
         <v>115.22693976952753</v>
       </c>
-      <c r="CN127" s="11"/>
+      <c r="CN127" s="26">
+        <v>118.27301589983847</v>
+      </c>
       <c r="CO127" s="11"/>
       <c r="CP127" s="11"/>
       <c r="CQ127" s="11"/>
@@ -22711,7 +22837,7 @@
       <c r="EV127" s="11"/>
       <c r="EW127" s="11"/>
     </row>
-    <row r="128" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>11</v>
       </c>
@@ -22985,7 +23111,9 @@
       <c r="CM128" s="26">
         <v>155.37188373824463</v>
       </c>
-      <c r="CN128" s="11"/>
+      <c r="CN128" s="26">
+        <v>167.67663158279336</v>
+      </c>
       <c r="CO128" s="11"/>
       <c r="CP128" s="11"/>
       <c r="CQ128" s="11"/>
@@ -23048,7 +23176,7 @@
       <c r="EV128" s="11"/>
       <c r="EW128" s="11"/>
     </row>
-    <row r="129" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>10</v>
       </c>
@@ -23322,7 +23450,9 @@
       <c r="CM129" s="26">
         <v>115.98056002277895</v>
       </c>
-      <c r="CN129" s="11"/>
+      <c r="CN129" s="26">
+        <v>106.69388624713258</v>
+      </c>
       <c r="CO129" s="11"/>
       <c r="CP129" s="11"/>
       <c r="CQ129" s="11"/>
@@ -23385,7 +23515,7 @@
       <c r="EV129" s="11"/>
       <c r="EW129" s="11"/>
     </row>
-    <row r="130" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>9</v>
       </c>
@@ -23659,7 +23789,9 @@
       <c r="CM130" s="26">
         <v>110.30691824707179</v>
       </c>
-      <c r="CN130" s="11"/>
+      <c r="CN130" s="26">
+        <v>118.84927854323799</v>
+      </c>
       <c r="CO130" s="11"/>
       <c r="CP130" s="11"/>
       <c r="CQ130" s="11"/>
@@ -23722,7 +23854,7 @@
       <c r="EV130" s="11"/>
       <c r="EW130" s="11"/>
     </row>
-    <row r="131" spans="1:153" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:153" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="12" t="s">
         <v>8</v>
       </c>
@@ -23996,7 +24128,9 @@
       <c r="CM131" s="26">
         <v>112.03829347266363</v>
       </c>
-      <c r="CN131" s="11"/>
+      <c r="CN131" s="26">
+        <v>114.65261671281807</v>
+      </c>
       <c r="CO131" s="11"/>
       <c r="CP131" s="11"/>
       <c r="CQ131" s="11"/>
@@ -24059,7 +24193,7 @@
       <c r="EV131" s="11"/>
       <c r="EW131" s="11"/>
     </row>
-    <row r="132" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>7</v>
       </c>
@@ -24333,7 +24467,9 @@
       <c r="CM132" s="26">
         <v>109.16175758428417</v>
       </c>
-      <c r="CN132" s="11"/>
+      <c r="CN132" s="26">
+        <v>114.45087022532654</v>
+      </c>
       <c r="CO132" s="11"/>
       <c r="CP132" s="11"/>
       <c r="CQ132" s="11"/>
@@ -24396,7 +24532,7 @@
       <c r="EV132" s="11"/>
       <c r="EW132" s="11"/>
     </row>
-    <row r="133" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>6</v>
       </c>
@@ -24670,7 +24806,9 @@
       <c r="CM133" s="26">
         <v>124.83430009794101</v>
       </c>
-      <c r="CN133" s="11"/>
+      <c r="CN133" s="26">
+        <v>142.03571732517136</v>
+      </c>
       <c r="CO133" s="11"/>
       <c r="CP133" s="11"/>
       <c r="CQ133" s="11"/>
@@ -24733,7 +24871,7 @@
       <c r="EV133" s="11"/>
       <c r="EW133" s="11"/>
     </row>
-    <row r="134" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>5</v>
       </c>
@@ -25007,7 +25145,9 @@
       <c r="CM134" s="26">
         <v>102.0749240320504</v>
       </c>
-      <c r="CN134" s="11"/>
+      <c r="CN134" s="26">
+        <v>100.24273019895509</v>
+      </c>
       <c r="CO134" s="11"/>
       <c r="CP134" s="11"/>
       <c r="CQ134" s="11"/>
@@ -25070,7 +25210,7 @@
       <c r="EV134" s="11"/>
       <c r="EW134" s="11"/>
     </row>
-    <row r="135" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>4</v>
       </c>
@@ -25344,7 +25484,9 @@
       <c r="CM135" s="26">
         <v>103.21755085312103</v>
       </c>
-      <c r="CN135" s="11"/>
+      <c r="CN135" s="26">
+        <v>103.66360122129279</v>
+      </c>
       <c r="CO135" s="11"/>
       <c r="CP135" s="11"/>
       <c r="CQ135" s="11"/>
@@ -25407,7 +25549,7 @@
       <c r="EV135" s="11"/>
       <c r="EW135" s="11"/>
     </row>
-    <row r="136" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>3</v>
       </c>
@@ -25681,7 +25823,9 @@
       <c r="CM136" s="26">
         <v>106.59335501258693</v>
       </c>
-      <c r="CN136" s="11"/>
+      <c r="CN136" s="26">
+        <v>108.76667919721386</v>
+      </c>
       <c r="CO136" s="11"/>
       <c r="CP136" s="11"/>
       <c r="CQ136" s="11"/>
@@ -25744,7 +25888,7 @@
       <c r="EV136" s="11"/>
       <c r="EW136" s="11"/>
     </row>
-    <row r="137" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>2</v>
       </c>
@@ -26018,7 +26162,9 @@
       <c r="CM137" s="26">
         <v>108.49244360919089</v>
       </c>
-      <c r="CN137" s="11"/>
+      <c r="CN137" s="26">
+        <v>118.69712079921501</v>
+      </c>
       <c r="CO137" s="11"/>
       <c r="CP137" s="11"/>
       <c r="CQ137" s="11"/>
@@ -26081,7 +26227,7 @@
       <c r="EV137" s="11"/>
       <c r="EW137" s="11"/>
     </row>
-    <row r="138" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>1</v>
       </c>
@@ -26355,7 +26501,9 @@
       <c r="CM138" s="26">
         <v>115.95319070720001</v>
       </c>
-      <c r="CN138" s="11"/>
+      <c r="CN138" s="26">
+        <v>107.10733958406853</v>
+      </c>
       <c r="CO138" s="11"/>
       <c r="CP138" s="11"/>
       <c r="CQ138" s="11"/>
@@ -26418,7 +26566,7 @@
       <c r="EV138" s="11"/>
       <c r="EW138" s="11"/>
     </row>
-    <row r="139" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
       <c r="D139" s="13"/>
@@ -26572,7 +26720,7 @@
       <c r="EV139" s="11"/>
       <c r="EW139" s="11"/>
     </row>
-    <row r="140" spans="1:153" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:153" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="12" t="s">
         <v>18</v>
       </c>
@@ -26844,9 +26992,11 @@
         <v>110.95609486366602</v>
       </c>
       <c r="CM140" s="26">
-        <v>114.10572619214791</v>
-      </c>
-      <c r="CN140" s="11"/>
+        <v>114.10299600886442</v>
+      </c>
+      <c r="CN140" s="26">
+        <v>117.80938743309251</v>
+      </c>
       <c r="CO140" s="11"/>
       <c r="CP140" s="11"/>
       <c r="CQ140" s="11"/>
@@ -26909,7 +27059,7 @@
       <c r="EV140" s="11"/>
       <c r="EW140" s="11"/>
     </row>
-    <row r="141" spans="1:153" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:153" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="16"/>
       <c r="B141" s="17"/>
       <c r="C141" s="17"/>
@@ -27001,146 +27151,147 @@
       <c r="CK141" s="16"/>
       <c r="CL141" s="16"/>
       <c r="CM141" s="16"/>
+      <c r="CN141" s="16"/>
     </row>
-    <row r="142" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A142" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="149" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="150" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="153" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A153" s="4"/>
-      <c r="B153" s="35">
+      <c r="B153" s="33">
         <v>2000</v>
       </c>
-      <c r="C153" s="35"/>
-      <c r="D153" s="35"/>
-      <c r="E153" s="35"/>
-      <c r="F153" s="35">
+      <c r="C153" s="33"/>
+      <c r="D153" s="33"/>
+      <c r="E153" s="33"/>
+      <c r="F153" s="33">
         <v>2001</v>
       </c>
-      <c r="G153" s="35"/>
-      <c r="H153" s="35"/>
-      <c r="I153" s="35"/>
-      <c r="J153" s="35">
+      <c r="G153" s="33"/>
+      <c r="H153" s="33"/>
+      <c r="I153" s="33"/>
+      <c r="J153" s="33">
         <v>2002</v>
       </c>
-      <c r="K153" s="35"/>
-      <c r="L153" s="35"/>
-      <c r="M153" s="35"/>
-      <c r="N153" s="35">
+      <c r="K153" s="33"/>
+      <c r="L153" s="33"/>
+      <c r="M153" s="33"/>
+      <c r="N153" s="33">
         <v>2003</v>
       </c>
-      <c r="O153" s="35"/>
-      <c r="P153" s="35"/>
-      <c r="Q153" s="35"/>
-      <c r="R153" s="35">
+      <c r="O153" s="33"/>
+      <c r="P153" s="33"/>
+      <c r="Q153" s="33"/>
+      <c r="R153" s="33">
         <v>2004</v>
       </c>
-      <c r="S153" s="35"/>
-      <c r="T153" s="35"/>
-      <c r="U153" s="35"/>
-      <c r="V153" s="35">
+      <c r="S153" s="33"/>
+      <c r="T153" s="33"/>
+      <c r="U153" s="33"/>
+      <c r="V153" s="33">
         <v>2005</v>
       </c>
-      <c r="W153" s="35"/>
-      <c r="X153" s="35"/>
-      <c r="Y153" s="35"/>
-      <c r="Z153" s="35">
+      <c r="W153" s="33"/>
+      <c r="X153" s="33"/>
+      <c r="Y153" s="33"/>
+      <c r="Z153" s="33">
         <v>2006</v>
       </c>
-      <c r="AA153" s="35"/>
-      <c r="AB153" s="35"/>
-      <c r="AC153" s="35"/>
-      <c r="AD153" s="35">
+      <c r="AA153" s="33"/>
+      <c r="AB153" s="33"/>
+      <c r="AC153" s="33"/>
+      <c r="AD153" s="33">
         <v>2007</v>
       </c>
-      <c r="AE153" s="35"/>
-      <c r="AF153" s="35"/>
-      <c r="AG153" s="35"/>
-      <c r="AH153" s="35">
+      <c r="AE153" s="33"/>
+      <c r="AF153" s="33"/>
+      <c r="AG153" s="33"/>
+      <c r="AH153" s="33">
         <v>2008</v>
       </c>
-      <c r="AI153" s="35"/>
-      <c r="AJ153" s="35"/>
-      <c r="AK153" s="35"/>
-      <c r="AL153" s="35">
+      <c r="AI153" s="33"/>
+      <c r="AJ153" s="33"/>
+      <c r="AK153" s="33"/>
+      <c r="AL153" s="33">
         <v>2009</v>
       </c>
-      <c r="AM153" s="35"/>
-      <c r="AN153" s="35"/>
-      <c r="AO153" s="35"/>
-      <c r="AP153" s="35">
+      <c r="AM153" s="33"/>
+      <c r="AN153" s="33"/>
+      <c r="AO153" s="33"/>
+      <c r="AP153" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ153" s="35"/>
-      <c r="AR153" s="35"/>
-      <c r="AS153" s="35"/>
-      <c r="AT153" s="35">
+      <c r="AQ153" s="33"/>
+      <c r="AR153" s="33"/>
+      <c r="AS153" s="33"/>
+      <c r="AT153" s="33">
         <v>2011</v>
       </c>
-      <c r="AU153" s="35"/>
-      <c r="AV153" s="35"/>
-      <c r="AW153" s="35"/>
-      <c r="AX153" s="35">
+      <c r="AU153" s="33"/>
+      <c r="AV153" s="33"/>
+      <c r="AW153" s="33"/>
+      <c r="AX153" s="33">
         <v>2012</v>
       </c>
-      <c r="AY153" s="35"/>
-      <c r="AZ153" s="35"/>
-      <c r="BA153" s="35"/>
-      <c r="BB153" s="35">
+      <c r="AY153" s="33"/>
+      <c r="AZ153" s="33"/>
+      <c r="BA153" s="33"/>
+      <c r="BB153" s="33">
         <v>2013</v>
       </c>
-      <c r="BC153" s="35"/>
-      <c r="BD153" s="35"/>
-      <c r="BE153" s="35"/>
-      <c r="BF153" s="35">
+      <c r="BC153" s="33"/>
+      <c r="BD153" s="33"/>
+      <c r="BE153" s="33"/>
+      <c r="BF153" s="33">
         <v>2014</v>
       </c>
-      <c r="BG153" s="35"/>
-      <c r="BH153" s="35"/>
-      <c r="BI153" s="35"/>
-      <c r="BJ153" s="35">
+      <c r="BG153" s="33"/>
+      <c r="BH153" s="33"/>
+      <c r="BI153" s="33"/>
+      <c r="BJ153" s="33">
         <v>2015</v>
       </c>
-      <c r="BK153" s="35"/>
-      <c r="BL153" s="35"/>
-      <c r="BM153" s="35"/>
-      <c r="BN153" s="35">
+      <c r="BK153" s="33"/>
+      <c r="BL153" s="33"/>
+      <c r="BM153" s="33"/>
+      <c r="BN153" s="33">
         <v>2016</v>
       </c>
-      <c r="BO153" s="35"/>
-      <c r="BP153" s="35"/>
-      <c r="BQ153" s="35"/>
+      <c r="BO153" s="33"/>
+      <c r="BP153" s="33"/>
+      <c r="BQ153" s="33"/>
       <c r="BR153" s="34">
         <v>2017</v>
       </c>
@@ -27175,8 +27326,9 @@
         <v>2022</v>
       </c>
       <c r="CM153" s="34"/>
+      <c r="CN153" s="34"/>
     </row>
-    <row r="154" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
         <v>37</v>
       </c>
@@ -27450,11 +27602,14 @@
       <c r="CM154" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="CN154" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="155" spans="1:153" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="8"/>
     </row>
-    <row r="156" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>12</v>
       </c>
@@ -27726,9 +27881,11 @@
         <v>35.927601934011399</v>
       </c>
       <c r="CM156" s="26">
-        <v>40.36890125049819</v>
-      </c>
-      <c r="CN156" s="11"/>
+        <v>40.386598492293864</v>
+      </c>
+      <c r="CN156" s="26">
+        <v>35.058276190798679</v>
+      </c>
       <c r="CO156" s="11"/>
       <c r="CP156" s="11"/>
       <c r="CQ156" s="11"/>
@@ -27791,7 +27948,7 @@
       <c r="EV156" s="11"/>
       <c r="EW156" s="11"/>
     </row>
-    <row r="157" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>11</v>
       </c>
@@ -28063,9 +28220,11 @@
         <v>1.8223351728914243</v>
       </c>
       <c r="CM157" s="26">
-        <v>1.917960832098347</v>
-      </c>
-      <c r="CN157" s="11"/>
+        <v>1.9301613408157867</v>
+      </c>
+      <c r="CN157" s="26">
+        <v>1.811642637410487</v>
+      </c>
       <c r="CO157" s="11"/>
       <c r="CP157" s="11"/>
       <c r="CQ157" s="11"/>
@@ -28128,7 +28287,7 @@
       <c r="EV157" s="11"/>
       <c r="EW157" s="11"/>
     </row>
-    <row r="158" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>10</v>
       </c>
@@ -28400,9 +28559,11 @@
         <v>1.5002248085662859</v>
       </c>
       <c r="CM158" s="26">
-        <v>1.6724801966025775</v>
-      </c>
-      <c r="CN158" s="11"/>
+        <v>1.6737259758123908</v>
+      </c>
+      <c r="CN158" s="26">
+        <v>1.6456764094052518</v>
+      </c>
       <c r="CO158" s="11"/>
       <c r="CP158" s="11"/>
       <c r="CQ158" s="11"/>
@@ -28465,7 +28626,7 @@
       <c r="EV158" s="11"/>
       <c r="EW158" s="11"/>
     </row>
-    <row r="159" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>9</v>
       </c>
@@ -28737,9 +28898,11 @@
         <v>11.567074359701033</v>
       </c>
       <c r="CM159" s="26">
-        <v>14.823210230638898</v>
-      </c>
-      <c r="CN159" s="11"/>
+        <v>14.820477775699233</v>
+      </c>
+      <c r="CN159" s="26">
+        <v>12.672022805474306</v>
+      </c>
       <c r="CO159" s="11"/>
       <c r="CP159" s="11"/>
       <c r="CQ159" s="11"/>
@@ -28802,7 +28965,7 @@
       <c r="EV159" s="11"/>
       <c r="EW159" s="11"/>
     </row>
-    <row r="160" spans="1:153" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:153" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="12" t="s">
         <v>8</v>
       </c>
@@ -29074,9 +29237,11 @@
         <v>2.7540321393080136</v>
       </c>
       <c r="CM160" s="26">
-        <v>2.6919330078831032</v>
-      </c>
-      <c r="CN160" s="11"/>
+        <v>2.658125012734792</v>
+      </c>
+      <c r="CN160" s="26">
+        <v>3.0090483472403351</v>
+      </c>
       <c r="CO160" s="11"/>
       <c r="CP160" s="11"/>
       <c r="CQ160" s="11"/>
@@ -29139,7 +29304,7 @@
       <c r="EV160" s="11"/>
       <c r="EW160" s="11"/>
     </row>
-    <row r="161" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>7</v>
       </c>
@@ -29411,9 +29576,11 @@
         <v>4.2445995683196163</v>
       </c>
       <c r="CM161" s="26">
-        <v>3.5617105736059083</v>
-      </c>
-      <c r="CN161" s="11"/>
+        <v>3.5635325484111213</v>
+      </c>
+      <c r="CN161" s="26">
+        <v>5.387816191163207</v>
+      </c>
       <c r="CO161" s="11"/>
       <c r="CP161" s="11"/>
       <c r="CQ161" s="11"/>
@@ -29476,7 +29643,7 @@
       <c r="EV161" s="11"/>
       <c r="EW161" s="11"/>
     </row>
-    <row r="162" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>6</v>
       </c>
@@ -29748,9 +29915,11 @@
         <v>9.8906523475883557</v>
       </c>
       <c r="CM162" s="26">
-        <v>7.6589172535727625</v>
-      </c>
-      <c r="CN162" s="11"/>
+        <v>7.6311450485028924</v>
+      </c>
+      <c r="CN162" s="26">
+        <v>11.27571442030456</v>
+      </c>
       <c r="CO162" s="11"/>
       <c r="CP162" s="11"/>
       <c r="CQ162" s="11"/>
@@ -29813,7 +29982,7 @@
       <c r="EV162" s="11"/>
       <c r="EW162" s="11"/>
     </row>
-    <row r="163" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>5</v>
       </c>
@@ -30085,9 +30254,11 @@
         <v>3.155564743857485</v>
       </c>
       <c r="CM163" s="26">
-        <v>3.2974076541366295</v>
-      </c>
-      <c r="CN163" s="11"/>
+        <v>3.281450462649302</v>
+      </c>
+      <c r="CN163" s="26">
+        <v>2.3484407842842439</v>
+      </c>
       <c r="CO163" s="11"/>
       <c r="CP163" s="11"/>
       <c r="CQ163" s="11"/>
@@ -30150,7 +30321,7 @@
       <c r="EV163" s="11"/>
       <c r="EW163" s="11"/>
     </row>
-    <row r="164" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>4</v>
       </c>
@@ -30422,9 +30593,11 @@
         <v>1.4599597250106682</v>
       </c>
       <c r="CM164" s="26">
-        <v>1.058411438919044</v>
-      </c>
-      <c r="CN164" s="11"/>
+        <v>1.0824917908333125</v>
+      </c>
+      <c r="CN164" s="26">
+        <v>1.287643483784602</v>
+      </c>
       <c r="CO164" s="11"/>
       <c r="CP164" s="11"/>
       <c r="CQ164" s="11"/>
@@ -30487,7 +30660,7 @@
       <c r="EV164" s="11"/>
       <c r="EW164" s="11"/>
     </row>
-    <row r="165" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>3</v>
       </c>
@@ -30759,9 +30932,11 @@
         <v>5.3429575462341834</v>
       </c>
       <c r="CM165" s="26">
-        <v>4.8096761886996777</v>
-      </c>
-      <c r="CN165" s="11"/>
+        <v>4.8256065402639523</v>
+      </c>
+      <c r="CN165" s="26">
+        <v>5.3168377883684093</v>
+      </c>
       <c r="CO165" s="11"/>
       <c r="CP165" s="11"/>
       <c r="CQ165" s="11"/>
@@ -30824,7 +30999,7 @@
       <c r="EV165" s="11"/>
       <c r="EW165" s="11"/>
     </row>
-    <row r="166" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>2</v>
       </c>
@@ -31096,9 +31271,11 @@
         <v>8.2064146234913267</v>
       </c>
       <c r="CM166" s="26">
-        <v>4.6659132760052886</v>
-      </c>
-      <c r="CN166" s="11"/>
+        <v>4.7014993247610217</v>
+      </c>
+      <c r="CN166" s="26">
+        <v>6.9685605436369258</v>
+      </c>
       <c r="CO166" s="11"/>
       <c r="CP166" s="11"/>
       <c r="CQ166" s="11"/>
@@ -31161,7 +31338,7 @@
       <c r="EV166" s="11"/>
       <c r="EW166" s="11"/>
     </row>
-    <row r="167" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>1</v>
       </c>
@@ -31433,9 +31610,11 @@
         <v>14.128583031020222</v>
       </c>
       <c r="CM167" s="26">
-        <v>13.473478097339569</v>
-      </c>
-      <c r="CN167" s="11"/>
+        <v>13.445185687222347</v>
+      </c>
+      <c r="CN167" s="26">
+        <v>13.218320398128993</v>
+      </c>
       <c r="CO167" s="11"/>
       <c r="CP167" s="11"/>
       <c r="CQ167" s="11"/>
@@ -31498,7 +31677,7 @@
       <c r="EV167" s="11"/>
       <c r="EW167" s="11"/>
     </row>
-    <row r="168" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168" s="13"/>
       <c r="C168" s="13"/>
       <c r="D168" s="13"/>
@@ -31652,7 +31831,7 @@
       <c r="EV168" s="11"/>
       <c r="EW168" s="11"/>
     </row>
-    <row r="169" spans="1:153" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:153" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="12" t="s">
         <v>18</v>
       </c>
@@ -31926,7 +32105,9 @@
       <c r="CM169" s="26">
         <v>100</v>
       </c>
-      <c r="CN169" s="11"/>
+      <c r="CN169" s="26">
+        <v>100</v>
+      </c>
       <c r="CO169" s="11"/>
       <c r="CP169" s="11"/>
       <c r="CQ169" s="11"/>
@@ -31989,7 +32170,7 @@
       <c r="EV169" s="11"/>
       <c r="EW169" s="11"/>
     </row>
-    <row r="170" spans="1:153" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:153" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="16"/>
       <c r="B170" s="17"/>
       <c r="C170" s="17"/>
@@ -32081,13 +32262,14 @@
       <c r="CK170" s="16"/>
       <c r="CL170" s="16"/>
       <c r="CM170" s="16"/>
+      <c r="CN170" s="16"/>
     </row>
-    <row r="171" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A171" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B172" s="13"/>
       <c r="C172" s="13"/>
       <c r="D172" s="13"/>
@@ -32241,7 +32423,7 @@
       <c r="EV172" s="11"/>
       <c r="EW172" s="11"/>
     </row>
-    <row r="173" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B173" s="13"/>
       <c r="C173" s="13"/>
       <c r="D173" s="13"/>
@@ -32395,140 +32577,140 @@
       <c r="EV173" s="11"/>
       <c r="EW173" s="11"/>
     </row>
-    <row r="174" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="178" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="179" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="180" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="182" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A182" s="4"/>
-      <c r="B182" s="35">
+      <c r="B182" s="33">
         <v>2000</v>
       </c>
-      <c r="C182" s="35"/>
-      <c r="D182" s="35"/>
-      <c r="E182" s="35"/>
-      <c r="F182" s="35">
+      <c r="C182" s="33"/>
+      <c r="D182" s="33"/>
+      <c r="E182" s="33"/>
+      <c r="F182" s="33">
         <v>2001</v>
       </c>
-      <c r="G182" s="35"/>
-      <c r="H182" s="35"/>
-      <c r="I182" s="35"/>
-      <c r="J182" s="35">
+      <c r="G182" s="33"/>
+      <c r="H182" s="33"/>
+      <c r="I182" s="33"/>
+      <c r="J182" s="33">
         <v>2002</v>
       </c>
-      <c r="K182" s="35"/>
-      <c r="L182" s="35"/>
-      <c r="M182" s="35"/>
-      <c r="N182" s="35">
+      <c r="K182" s="33"/>
+      <c r="L182" s="33"/>
+      <c r="M182" s="33"/>
+      <c r="N182" s="33">
         <v>2003</v>
       </c>
-      <c r="O182" s="35"/>
-      <c r="P182" s="35"/>
-      <c r="Q182" s="35"/>
-      <c r="R182" s="35">
+      <c r="O182" s="33"/>
+      <c r="P182" s="33"/>
+      <c r="Q182" s="33"/>
+      <c r="R182" s="33">
         <v>2004</v>
       </c>
-      <c r="S182" s="35"/>
-      <c r="T182" s="35"/>
-      <c r="U182" s="35"/>
-      <c r="V182" s="35">
+      <c r="S182" s="33"/>
+      <c r="T182" s="33"/>
+      <c r="U182" s="33"/>
+      <c r="V182" s="33">
         <v>2005</v>
       </c>
-      <c r="W182" s="35"/>
-      <c r="X182" s="35"/>
-      <c r="Y182" s="35"/>
-      <c r="Z182" s="35">
+      <c r="W182" s="33"/>
+      <c r="X182" s="33"/>
+      <c r="Y182" s="33"/>
+      <c r="Z182" s="33">
         <v>2006</v>
       </c>
-      <c r="AA182" s="35"/>
-      <c r="AB182" s="35"/>
-      <c r="AC182" s="35"/>
-      <c r="AD182" s="35">
+      <c r="AA182" s="33"/>
+      <c r="AB182" s="33"/>
+      <c r="AC182" s="33"/>
+      <c r="AD182" s="33">
         <v>2007</v>
       </c>
-      <c r="AE182" s="35"/>
-      <c r="AF182" s="35"/>
-      <c r="AG182" s="35"/>
-      <c r="AH182" s="35">
+      <c r="AE182" s="33"/>
+      <c r="AF182" s="33"/>
+      <c r="AG182" s="33"/>
+      <c r="AH182" s="33">
         <v>2008</v>
       </c>
-      <c r="AI182" s="35"/>
-      <c r="AJ182" s="35"/>
-      <c r="AK182" s="35"/>
-      <c r="AL182" s="35">
+      <c r="AI182" s="33"/>
+      <c r="AJ182" s="33"/>
+      <c r="AK182" s="33"/>
+      <c r="AL182" s="33">
         <v>2009</v>
       </c>
-      <c r="AM182" s="35"/>
-      <c r="AN182" s="35"/>
-      <c r="AO182" s="35"/>
-      <c r="AP182" s="35">
+      <c r="AM182" s="33"/>
+      <c r="AN182" s="33"/>
+      <c r="AO182" s="33"/>
+      <c r="AP182" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ182" s="35"/>
-      <c r="AR182" s="35"/>
-      <c r="AS182" s="35"/>
-      <c r="AT182" s="35">
+      <c r="AQ182" s="33"/>
+      <c r="AR182" s="33"/>
+      <c r="AS182" s="33"/>
+      <c r="AT182" s="33">
         <v>2011</v>
       </c>
-      <c r="AU182" s="35"/>
-      <c r="AV182" s="35"/>
-      <c r="AW182" s="35"/>
-      <c r="AX182" s="35">
+      <c r="AU182" s="33"/>
+      <c r="AV182" s="33"/>
+      <c r="AW182" s="33"/>
+      <c r="AX182" s="33">
         <v>2012</v>
       </c>
-      <c r="AY182" s="35"/>
-      <c r="AZ182" s="35"/>
-      <c r="BA182" s="35"/>
-      <c r="BB182" s="35">
+      <c r="AY182" s="33"/>
+      <c r="AZ182" s="33"/>
+      <c r="BA182" s="33"/>
+      <c r="BB182" s="33">
         <v>2013</v>
       </c>
-      <c r="BC182" s="35"/>
-      <c r="BD182" s="35"/>
-      <c r="BE182" s="35"/>
-      <c r="BF182" s="35">
+      <c r="BC182" s="33"/>
+      <c r="BD182" s="33"/>
+      <c r="BE182" s="33"/>
+      <c r="BF182" s="33">
         <v>2014</v>
       </c>
-      <c r="BG182" s="35"/>
-      <c r="BH182" s="35"/>
-      <c r="BI182" s="35"/>
-      <c r="BJ182" s="35">
+      <c r="BG182" s="33"/>
+      <c r="BH182" s="33"/>
+      <c r="BI182" s="33"/>
+      <c r="BJ182" s="33">
         <v>2015</v>
       </c>
-      <c r="BK182" s="35"/>
-      <c r="BL182" s="35"/>
-      <c r="BM182" s="35"/>
-      <c r="BN182" s="35">
+      <c r="BK182" s="33"/>
+      <c r="BL182" s="33"/>
+      <c r="BM182" s="33"/>
+      <c r="BN182" s="33">
         <v>2016</v>
       </c>
-      <c r="BO182" s="35"/>
-      <c r="BP182" s="35"/>
-      <c r="BQ182" s="35"/>
+      <c r="BO182" s="33"/>
+      <c r="BP182" s="33"/>
+      <c r="BQ182" s="33"/>
       <c r="BR182" s="34">
         <v>2017</v>
       </c>
@@ -32563,8 +32745,9 @@
         <v>2022</v>
       </c>
       <c r="CM182" s="34"/>
+      <c r="CN182" s="34"/>
     </row>
-    <row r="183" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
         <v>37</v>
       </c>
@@ -32838,11 +33021,14 @@
       <c r="CM183" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="CN183" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="184" spans="1:153" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="8"/>
     </row>
-    <row r="185" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>12</v>
       </c>
@@ -33114,9 +33300,11 @@
         <v>36.196689945480429</v>
       </c>
       <c r="CM185" s="26">
-        <v>39.976092413636891</v>
-      </c>
-      <c r="CN185" s="11"/>
+        <v>39.992660534029831</v>
+      </c>
+      <c r="CN185" s="26">
+        <v>34.920848268517055</v>
+      </c>
       <c r="CO185" s="11"/>
       <c r="CP185" s="11"/>
       <c r="CQ185" s="11"/>
@@ -33179,7 +33367,7 @@
       <c r="EV185" s="11"/>
       <c r="EW185" s="11"/>
     </row>
-    <row r="186" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>11</v>
       </c>
@@ -33451,9 +33639,11 @@
         <v>1.4452608139366023</v>
       </c>
       <c r="CM186" s="26">
-        <v>1.4085580240719469</v>
-      </c>
-      <c r="CN186" s="11"/>
+        <v>1.4174842092962083</v>
+      </c>
+      <c r="CN186" s="26">
+        <v>1.272857805803532</v>
+      </c>
       <c r="CO186" s="11"/>
       <c r="CP186" s="11"/>
       <c r="CQ186" s="11"/>
@@ -33516,7 +33706,7 @@
       <c r="EV186" s="11"/>
       <c r="EW186" s="11"/>
     </row>
-    <row r="187" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>10</v>
       </c>
@@ -33788,9 +33978,11 @@
         <v>1.5730994582841051</v>
       </c>
       <c r="CM187" s="26">
-        <v>1.6454444377388928</v>
-      </c>
-      <c r="CN187" s="11"/>
+        <v>1.6466306793185461</v>
+      </c>
+      <c r="CN187" s="26">
+        <v>1.8171250155426251</v>
+      </c>
       <c r="CO187" s="11"/>
       <c r="CP187" s="11"/>
       <c r="CQ187" s="11"/>
@@ -33853,7 +34045,7 @@
       <c r="EV187" s="11"/>
       <c r="EW187" s="11"/>
     </row>
-    <row r="188" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>9</v>
       </c>
@@ -34125,9 +34317,11 @@
         <v>12.299765864632096</v>
       </c>
       <c r="CM188" s="26">
-        <v>15.33369977826235</v>
-      </c>
-      <c r="CN188" s="11"/>
+        <v>15.330506403073811</v>
+      </c>
+      <c r="CN188" s="26">
+        <v>12.561146879053098</v>
+      </c>
       <c r="CO188" s="11"/>
       <c r="CP188" s="11"/>
       <c r="CQ188" s="11"/>
@@ -34190,7 +34384,7 @@
       <c r="EV188" s="11"/>
       <c r="EW188" s="11"/>
     </row>
-    <row r="189" spans="1:153" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:153" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="12" t="s">
         <v>8</v>
       </c>
@@ -34462,9 +34656,11 @@
         <v>2.7306846061507564</v>
       </c>
       <c r="CM189" s="26">
-        <v>2.7416070095717773</v>
-      </c>
-      <c r="CN189" s="11"/>
+        <v>2.7071103844788857</v>
+      </c>
+      <c r="CN189" s="26">
+        <v>3.0918975310688319</v>
+      </c>
       <c r="CO189" s="11"/>
       <c r="CP189" s="11"/>
       <c r="CQ189" s="11"/>
@@ -34527,7 +34723,7 @@
       <c r="EV189" s="11"/>
       <c r="EW189" s="11"/>
     </row>
-    <row r="190" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>7</v>
       </c>
@@ -34799,9 +34995,11 @@
         <v>4.3364797191797235</v>
       </c>
       <c r="CM190" s="26">
-        <v>3.7230215093757728</v>
-      </c>
-      <c r="CN190" s="11"/>
+        <v>3.7248368764571036</v>
+      </c>
+      <c r="CN190" s="26">
+        <v>5.5459196057958513</v>
+      </c>
       <c r="CO190" s="11"/>
       <c r="CP190" s="11"/>
       <c r="CQ190" s="11"/>
@@ -34864,7 +35062,7 @@
       <c r="EV190" s="11"/>
       <c r="EW190" s="11"/>
     </row>
-    <row r="191" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>6</v>
       </c>
@@ -35136,9 +35334,11 @@
         <v>8.9842758069096487</v>
       </c>
       <c r="CM191" s="26">
-        <v>7.0006906305305234</v>
-      </c>
-      <c r="CN191" s="11"/>
+        <v>6.9751383420200934</v>
+      </c>
+      <c r="CN191" s="26">
+        <v>9.3524715736494084</v>
+      </c>
       <c r="CO191" s="11"/>
       <c r="CP191" s="11"/>
       <c r="CQ191" s="11"/>
@@ -35201,7 +35401,7 @@
       <c r="EV191" s="11"/>
       <c r="EW191" s="11"/>
     </row>
-    <row r="192" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>5</v>
       </c>
@@ -35473,9 +35673,11 @@
         <v>3.3371203504901774</v>
       </c>
       <c r="CM192" s="26">
-        <v>3.6860482483304877</v>
-      </c>
-      <c r="CN192" s="11"/>
+        <v>3.6681225344374964</v>
+      </c>
+      <c r="CN192" s="26">
+        <v>2.7599843866014542</v>
+      </c>
       <c r="CO192" s="11"/>
       <c r="CP192" s="11"/>
       <c r="CQ192" s="11"/>
@@ -35538,7 +35740,7 @@
       <c r="EV192" s="11"/>
       <c r="EW192" s="11"/>
     </row>
-    <row r="193" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>4</v>
       </c>
@@ -35810,9 +36012,11 @@
         <v>1.5514188920730885</v>
       </c>
       <c r="CM193" s="26">
-        <v>1.1700607585602474</v>
-      </c>
-      <c r="CN193" s="11"/>
+        <v>1.1966526571129854</v>
+      </c>
+      <c r="CN193" s="26">
+        <v>1.4633534651477869</v>
+      </c>
       <c r="CO193" s="11"/>
       <c r="CP193" s="11"/>
       <c r="CQ193" s="11"/>
@@ -35875,7 +36079,7 @@
       <c r="EV193" s="11"/>
       <c r="EW193" s="11"/>
     </row>
-    <row r="194" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>3</v>
       </c>
@@ -36147,9 +36351,11 @@
         <v>5.6820257135855901</v>
       </c>
       <c r="CM194" s="26">
-        <v>5.1486473448166947</v>
-      </c>
-      <c r="CN194" s="11"/>
+        <v>5.1655768198596341</v>
+      </c>
+      <c r="CN194" s="26">
+        <v>5.7588721798986926</v>
+      </c>
       <c r="CO194" s="11"/>
       <c r="CP194" s="11"/>
       <c r="CQ194" s="11"/>
@@ -36212,7 +36418,7 @@
       <c r="EV194" s="11"/>
       <c r="EW194" s="11"/>
     </row>
-    <row r="195" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>2</v>
       </c>
@@ -36484,9 +36690,11 @@
         <v>8.1393618614844048</v>
       </c>
       <c r="CM195" s="26">
-        <v>4.9073226207900129</v>
-      </c>
-      <c r="CN195" s="11"/>
+        <v>4.9446315415412032</v>
+      </c>
+      <c r="CN195" s="26">
+        <v>6.9164428202517421</v>
+      </c>
       <c r="CO195" s="11"/>
       <c r="CP195" s="11"/>
       <c r="CQ195" s="11"/>
@@ -36549,7 +36757,7 @@
       <c r="EV195" s="11"/>
       <c r="EW195" s="11"/>
     </row>
-    <row r="196" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>1</v>
       </c>
@@ -36821,9 +37029,11 @@
         <v>13.723816967793365</v>
       </c>
       <c r="CM196" s="26">
-        <v>13.25880722431442</v>
-      </c>
-      <c r="CN196" s="11"/>
+        <v>13.230649018374201</v>
+      </c>
+      <c r="CN196" s="26">
+        <v>14.53908046866993</v>
+      </c>
       <c r="CO196" s="11"/>
       <c r="CP196" s="11"/>
       <c r="CQ196" s="11"/>
@@ -36886,7 +37096,7 @@
       <c r="EV196" s="11"/>
       <c r="EW196" s="11"/>
     </row>
-    <row r="197" spans="1:153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B197" s="13"/>
       <c r="C197" s="13"/>
       <c r="D197" s="13"/>
@@ -37040,7 +37250,7 @@
       <c r="EV197" s="11"/>
       <c r="EW197" s="11"/>
     </row>
-    <row r="198" spans="1:153" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:153" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="12" t="s">
         <v>18</v>
       </c>
@@ -37314,7 +37524,9 @@
       <c r="CM198" s="26">
         <v>100</v>
       </c>
-      <c r="CN198" s="11"/>
+      <c r="CN198" s="26">
+        <v>100</v>
+      </c>
       <c r="CO198" s="11"/>
       <c r="CP198" s="11"/>
       <c r="CQ198" s="11"/>
@@ -37377,7 +37589,7 @@
       <c r="EV198" s="11"/>
       <c r="EW198" s="11"/>
     </row>
-    <row r="199" spans="1:153" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:153" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="16"/>
       <c r="B199" s="17"/>
       <c r="C199" s="17"/>
@@ -37469,13 +37681,14 @@
       <c r="CK199" s="16"/>
       <c r="CL199" s="16"/>
       <c r="CM199" s="16"/>
+      <c r="CN199" s="16"/>
     </row>
-    <row r="200" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A200" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:153" s="29" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:153" s="29" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="27"/>
       <c r="C201" s="27"/>
@@ -37567,7 +37780,7 @@
       <c r="CK201" s="1"/>
       <c r="CL201" s="1"/>
       <c r="CM201" s="1"/>
-      <c r="CN201" s="28"/>
+      <c r="CN201" s="1"/>
       <c r="CO201" s="28"/>
       <c r="CP201" s="28"/>
       <c r="CQ201" s="28"/>
@@ -37630,7 +37843,7 @@
       <c r="EV201" s="28"/>
       <c r="EW201" s="28"/>
     </row>
-    <row r="202" spans="1:153" s="29" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:153" s="29" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202" s="27"/>
       <c r="C202" s="27"/>
@@ -37722,7 +37935,7 @@
       <c r="CK202" s="1"/>
       <c r="CL202" s="1"/>
       <c r="CM202" s="1"/>
-      <c r="CN202" s="28"/>
+      <c r="CN202" s="1"/>
       <c r="CO202" s="28"/>
       <c r="CP202" s="28"/>
       <c r="CQ202" s="28"/>
@@ -37786,41 +37999,110 @@
       <c r="EW202" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="159">
-    <mergeCell ref="B182:E182"/>
-    <mergeCell ref="F182:I182"/>
-    <mergeCell ref="J182:M182"/>
-    <mergeCell ref="N182:Q182"/>
-    <mergeCell ref="R182:U182"/>
-    <mergeCell ref="V182:Y182"/>
-    <mergeCell ref="Z182:AC182"/>
-    <mergeCell ref="AD182:AG182"/>
-    <mergeCell ref="AH182:AK182"/>
-    <mergeCell ref="B124:E124"/>
-    <mergeCell ref="F124:I124"/>
-    <mergeCell ref="J124:M124"/>
-    <mergeCell ref="N124:Q124"/>
-    <mergeCell ref="R124:U124"/>
-    <mergeCell ref="V124:Y124"/>
-    <mergeCell ref="Z124:AC124"/>
-    <mergeCell ref="AD124:AG124"/>
-    <mergeCell ref="F153:I153"/>
-    <mergeCell ref="J153:M153"/>
-    <mergeCell ref="N153:Q153"/>
-    <mergeCell ref="R153:U153"/>
-    <mergeCell ref="V153:Y153"/>
-    <mergeCell ref="Z153:AC153"/>
-    <mergeCell ref="AD153:AG153"/>
-    <mergeCell ref="B153:E153"/>
-    <mergeCell ref="B96:E96"/>
-    <mergeCell ref="F96:I96"/>
-    <mergeCell ref="J96:M96"/>
-    <mergeCell ref="N96:Q96"/>
-    <mergeCell ref="R96:U96"/>
-    <mergeCell ref="V96:Y96"/>
-    <mergeCell ref="Z96:AC96"/>
-    <mergeCell ref="AD96:AG96"/>
-    <mergeCell ref="AH96:AK96"/>
+  <mergeCells count="161">
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH38:CK38"/>
+    <mergeCell ref="CL9:CN9"/>
+    <mergeCell ref="CL38:CN38"/>
+    <mergeCell ref="CH67:CJ67"/>
+    <mergeCell ref="CL67:CM67"/>
+    <mergeCell ref="CH96:CJ96"/>
+    <mergeCell ref="CL96:CM96"/>
+    <mergeCell ref="CL124:CN124"/>
+    <mergeCell ref="CL153:CN153"/>
+    <mergeCell ref="CL182:CN182"/>
+    <mergeCell ref="CH124:CK124"/>
+    <mergeCell ref="CH153:CK153"/>
+    <mergeCell ref="CH182:CK182"/>
+    <mergeCell ref="AH124:AK124"/>
+    <mergeCell ref="BR182:BU182"/>
+    <mergeCell ref="BV182:BY182"/>
+    <mergeCell ref="BZ124:CC124"/>
+    <mergeCell ref="BR124:BU124"/>
+    <mergeCell ref="BV124:BY124"/>
+    <mergeCell ref="BR153:BU153"/>
+    <mergeCell ref="BV153:BY153"/>
+    <mergeCell ref="BZ153:CC153"/>
+    <mergeCell ref="AH153:AK153"/>
+    <mergeCell ref="BN182:BQ182"/>
+    <mergeCell ref="BB153:BE153"/>
+    <mergeCell ref="BF153:BI153"/>
+    <mergeCell ref="BJ153:BM153"/>
+    <mergeCell ref="BN153:BQ153"/>
+    <mergeCell ref="AP153:AS153"/>
+    <mergeCell ref="AT153:AW153"/>
+    <mergeCell ref="AX153:BA153"/>
+    <mergeCell ref="AX182:BA182"/>
+    <mergeCell ref="BB182:BE182"/>
+    <mergeCell ref="BZ182:CC182"/>
+    <mergeCell ref="BV38:BY38"/>
+    <mergeCell ref="BZ67:CC67"/>
+    <mergeCell ref="BZ96:CC96"/>
+    <mergeCell ref="BJ96:BM96"/>
+    <mergeCell ref="BB38:BE38"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD38:CG38"/>
+    <mergeCell ref="CD124:CG124"/>
+    <mergeCell ref="CD153:CG153"/>
+    <mergeCell ref="CD182:CG182"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BR67:BU67"/>
+    <mergeCell ref="BV67:BY67"/>
+    <mergeCell ref="BR96:BU96"/>
+    <mergeCell ref="BV96:BY96"/>
+    <mergeCell ref="BZ38:CC38"/>
+    <mergeCell ref="CD67:CG67"/>
+    <mergeCell ref="CD96:CG96"/>
+    <mergeCell ref="AL182:AO182"/>
+    <mergeCell ref="AP182:AS182"/>
+    <mergeCell ref="AT182:AW182"/>
+    <mergeCell ref="BF124:BI124"/>
+    <mergeCell ref="BJ124:BM124"/>
+    <mergeCell ref="BN124:BQ124"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="AL153:AO153"/>
+    <mergeCell ref="AL124:AO124"/>
+    <mergeCell ref="AP124:AS124"/>
+    <mergeCell ref="AT124:AW124"/>
+    <mergeCell ref="AX124:BA124"/>
+    <mergeCell ref="BB124:BE124"/>
+    <mergeCell ref="BF182:BI182"/>
+    <mergeCell ref="BJ182:BM182"/>
+    <mergeCell ref="BN38:BQ38"/>
+    <mergeCell ref="BN96:BQ96"/>
+    <mergeCell ref="AL96:AO96"/>
+    <mergeCell ref="AP96:AS96"/>
+    <mergeCell ref="AT96:AW96"/>
+    <mergeCell ref="AX96:BA96"/>
+    <mergeCell ref="BB96:BE96"/>
+    <mergeCell ref="BF96:BI96"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="BJ38:BM38"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="Z38:AC38"/>
+    <mergeCell ref="AD38:AG38"/>
+    <mergeCell ref="AH38:AK38"/>
+    <mergeCell ref="AL38:AO38"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="BF38:BI38"/>
+    <mergeCell ref="AP38:AS38"/>
+    <mergeCell ref="AT38:AW38"/>
+    <mergeCell ref="AX38:BA38"/>
     <mergeCell ref="B67:E67"/>
     <mergeCell ref="F67:I67"/>
     <mergeCell ref="J67:M67"/>
@@ -37845,115 +38127,48 @@
     <mergeCell ref="N38:Q38"/>
     <mergeCell ref="R38:U38"/>
     <mergeCell ref="V38:Y38"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="BJ38:BM38"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="Z38:AC38"/>
-    <mergeCell ref="AD38:AG38"/>
-    <mergeCell ref="AH38:AK38"/>
-    <mergeCell ref="AL38:AO38"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="BF38:BI38"/>
-    <mergeCell ref="AP38:AS38"/>
-    <mergeCell ref="AT38:AW38"/>
-    <mergeCell ref="AX38:BA38"/>
-    <mergeCell ref="AL182:AO182"/>
-    <mergeCell ref="AP182:AS182"/>
-    <mergeCell ref="AT182:AW182"/>
-    <mergeCell ref="BF124:BI124"/>
-    <mergeCell ref="BJ124:BM124"/>
-    <mergeCell ref="BN124:BQ124"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="AL153:AO153"/>
-    <mergeCell ref="AL124:AO124"/>
-    <mergeCell ref="AP124:AS124"/>
-    <mergeCell ref="AT124:AW124"/>
-    <mergeCell ref="AX124:BA124"/>
-    <mergeCell ref="BB124:BE124"/>
-    <mergeCell ref="BF182:BI182"/>
-    <mergeCell ref="BJ182:BM182"/>
-    <mergeCell ref="BN38:BQ38"/>
-    <mergeCell ref="BN96:BQ96"/>
-    <mergeCell ref="AL96:AO96"/>
-    <mergeCell ref="AP96:AS96"/>
-    <mergeCell ref="AT96:AW96"/>
-    <mergeCell ref="AX96:BA96"/>
-    <mergeCell ref="BB96:BE96"/>
-    <mergeCell ref="BF96:BI96"/>
-    <mergeCell ref="BB182:BE182"/>
-    <mergeCell ref="BZ182:CC182"/>
-    <mergeCell ref="BV38:BY38"/>
-    <mergeCell ref="BZ67:CC67"/>
-    <mergeCell ref="BZ96:CC96"/>
-    <mergeCell ref="BJ96:BM96"/>
-    <mergeCell ref="BB38:BE38"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD38:CG38"/>
-    <mergeCell ref="CD124:CG124"/>
-    <mergeCell ref="CD153:CG153"/>
-    <mergeCell ref="CD182:CG182"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BR67:BU67"/>
-    <mergeCell ref="BV67:BY67"/>
-    <mergeCell ref="BR96:BU96"/>
-    <mergeCell ref="BV96:BY96"/>
-    <mergeCell ref="BZ38:CC38"/>
-    <mergeCell ref="CD67:CG67"/>
-    <mergeCell ref="CD96:CG96"/>
-    <mergeCell ref="CH124:CK124"/>
-    <mergeCell ref="CH153:CK153"/>
-    <mergeCell ref="CH182:CK182"/>
-    <mergeCell ref="AH124:AK124"/>
-    <mergeCell ref="BR182:BU182"/>
-    <mergeCell ref="BV182:BY182"/>
-    <mergeCell ref="BZ124:CC124"/>
-    <mergeCell ref="BR124:BU124"/>
-    <mergeCell ref="BV124:BY124"/>
-    <mergeCell ref="BR153:BU153"/>
-    <mergeCell ref="BV153:BY153"/>
-    <mergeCell ref="BZ153:CC153"/>
-    <mergeCell ref="AH153:AK153"/>
-    <mergeCell ref="BN182:BQ182"/>
-    <mergeCell ref="BB153:BE153"/>
-    <mergeCell ref="BF153:BI153"/>
-    <mergeCell ref="BJ153:BM153"/>
-    <mergeCell ref="BN153:BQ153"/>
-    <mergeCell ref="AP153:AS153"/>
-    <mergeCell ref="AT153:AW153"/>
-    <mergeCell ref="AX153:BA153"/>
-    <mergeCell ref="AX182:BA182"/>
-    <mergeCell ref="CL9:CM9"/>
-    <mergeCell ref="CL38:CM38"/>
-    <mergeCell ref="CH67:CI67"/>
-    <mergeCell ref="CH96:CI96"/>
-    <mergeCell ref="CL124:CM124"/>
-    <mergeCell ref="CL153:CM153"/>
-    <mergeCell ref="CL182:CM182"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH38:CK38"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="F96:I96"/>
+    <mergeCell ref="J96:M96"/>
+    <mergeCell ref="N96:Q96"/>
+    <mergeCell ref="R96:U96"/>
+    <mergeCell ref="V96:Y96"/>
+    <mergeCell ref="Z96:AC96"/>
+    <mergeCell ref="AD96:AG96"/>
+    <mergeCell ref="AH96:AK96"/>
+    <mergeCell ref="B124:E124"/>
+    <mergeCell ref="F124:I124"/>
+    <mergeCell ref="J124:M124"/>
+    <mergeCell ref="N124:Q124"/>
+    <mergeCell ref="R124:U124"/>
+    <mergeCell ref="V124:Y124"/>
+    <mergeCell ref="Z124:AC124"/>
+    <mergeCell ref="AD124:AG124"/>
+    <mergeCell ref="F153:I153"/>
+    <mergeCell ref="J153:M153"/>
+    <mergeCell ref="N153:Q153"/>
+    <mergeCell ref="R153:U153"/>
+    <mergeCell ref="V153:Y153"/>
+    <mergeCell ref="Z153:AC153"/>
+    <mergeCell ref="AD153:AG153"/>
+    <mergeCell ref="B153:E153"/>
+    <mergeCell ref="B182:E182"/>
+    <mergeCell ref="F182:I182"/>
+    <mergeCell ref="J182:M182"/>
+    <mergeCell ref="N182:Q182"/>
+    <mergeCell ref="R182:U182"/>
+    <mergeCell ref="V182:Y182"/>
+    <mergeCell ref="Z182:AC182"/>
+    <mergeCell ref="AD182:AG182"/>
+    <mergeCell ref="AH182:AK182"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="44" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="58" max="90" man="1"/>
-    <brk id="116" max="90" man="1"/>
-    <brk id="144" max="90" man="1"/>
+    <brk id="58" max="91" man="1"/>
+    <brk id="116" max="91" man="1"/>
+    <brk id="144" max="91" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-02HFCE_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-02HFCE_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FCD235-A6B5-4813-B08D-DEFC58E4D815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0E0DAA-4166-49BD-B8E5-A458BC768054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="3195" windowWidth="21600" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13650" yWindow="1395" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HFCE" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="PCE_Per_Anl">#REF!</definedName>
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HFCE!$A$1:$CN$202</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HFCE!$A$1:$CO$202</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="61">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -220,13 +220,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2022</t>
+    <t>As of January 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2022</t>
+    <t>Q1 2000 to Q4 2022</t>
   </si>
   <si>
-    <t>As of November 2022</t>
+    <t>Q1 2001 to Q4 2022</t>
   </si>
 </sst>
 </file>
@@ -314,7 +314,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -355,13 +355,10 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -385,7 +382,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="HFCE"/>
@@ -686,7 +683,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -700,11 +697,11 @@
   <dimension ref="A1:EW202"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="CA2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="CH2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="CA66" sqref="CA66"/>
       <selection pane="topRight" activeCell="CA66" sqref="CA66"/>
       <selection pane="bottomLeft" activeCell="CA66" sqref="CA66"/>
-      <selection pane="bottomRight" activeCell="CH1" sqref="CH1:CN1048576"/>
+      <selection pane="bottomRight" activeCell="CP10" sqref="CP10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -728,8 +725,12 @@
     <col min="78" max="78" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="79" max="81" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="82" max="82" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="83" max="92" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="93" max="16384" width="7.77734375" style="1"/>
+    <col min="83" max="85" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="87" max="89" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="91" max="93" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="94" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:153" x14ac:dyDescent="0.2">
@@ -744,7 +745,7 @@
     </row>
     <row r="3" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:153" x14ac:dyDescent="0.2">
@@ -754,7 +755,7 @@
     </row>
     <row r="6" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:153" x14ac:dyDescent="0.2">
@@ -764,143 +765,144 @@
     </row>
     <row r="9" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="33">
+      <c r="B9" s="31">
         <v>2000</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33">
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31">
         <v>2001</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33">
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31">
         <v>2002</v>
       </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33">
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31">
         <v>2003</v>
       </c>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33">
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31">
         <v>2004</v>
       </c>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33">
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31">
         <v>2005</v>
       </c>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33">
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31">
         <v>2006</v>
       </c>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="33"/>
-      <c r="AD9" s="33">
+      <c r="AA9" s="31"/>
+      <c r="AB9" s="31"/>
+      <c r="AC9" s="31"/>
+      <c r="AD9" s="31">
         <v>2007</v>
       </c>
-      <c r="AE9" s="33"/>
-      <c r="AF9" s="33"/>
-      <c r="AG9" s="33"/>
-      <c r="AH9" s="33">
+      <c r="AE9" s="31"/>
+      <c r="AF9" s="31"/>
+      <c r="AG9" s="31"/>
+      <c r="AH9" s="31">
         <v>2008</v>
       </c>
-      <c r="AI9" s="33"/>
-      <c r="AJ9" s="33"/>
-      <c r="AK9" s="33"/>
-      <c r="AL9" s="33">
+      <c r="AI9" s="31"/>
+      <c r="AJ9" s="31"/>
+      <c r="AK9" s="31"/>
+      <c r="AL9" s="31">
         <v>2009</v>
       </c>
-      <c r="AM9" s="33"/>
-      <c r="AN9" s="33"/>
-      <c r="AO9" s="33"/>
-      <c r="AP9" s="33">
+      <c r="AM9" s="31"/>
+      <c r="AN9" s="31"/>
+      <c r="AO9" s="31"/>
+      <c r="AP9" s="31">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="33"/>
-      <c r="AR9" s="33"/>
-      <c r="AS9" s="33"/>
-      <c r="AT9" s="33">
+      <c r="AQ9" s="31"/>
+      <c r="AR9" s="31"/>
+      <c r="AS9" s="31"/>
+      <c r="AT9" s="31">
         <v>2011</v>
       </c>
-      <c r="AU9" s="33"/>
-      <c r="AV9" s="33"/>
-      <c r="AW9" s="33"/>
-      <c r="AX9" s="33">
+      <c r="AU9" s="31"/>
+      <c r="AV9" s="31"/>
+      <c r="AW9" s="31"/>
+      <c r="AX9" s="31">
         <v>2012</v>
       </c>
-      <c r="AY9" s="33"/>
-      <c r="AZ9" s="33"/>
-      <c r="BA9" s="33"/>
-      <c r="BB9" s="33">
+      <c r="AY9" s="31"/>
+      <c r="AZ9" s="31"/>
+      <c r="BA9" s="31"/>
+      <c r="BB9" s="31">
         <v>2013</v>
       </c>
-      <c r="BC9" s="33"/>
-      <c r="BD9" s="33"/>
-      <c r="BE9" s="33"/>
-      <c r="BF9" s="33">
+      <c r="BC9" s="31"/>
+      <c r="BD9" s="31"/>
+      <c r="BE9" s="31"/>
+      <c r="BF9" s="31">
         <v>2014</v>
       </c>
-      <c r="BG9" s="33"/>
-      <c r="BH9" s="33"/>
-      <c r="BI9" s="33"/>
-      <c r="BJ9" s="33">
+      <c r="BG9" s="31"/>
+      <c r="BH9" s="31"/>
+      <c r="BI9" s="31"/>
+      <c r="BJ9" s="31">
         <v>2015</v>
       </c>
-      <c r="BK9" s="33"/>
-      <c r="BL9" s="33"/>
-      <c r="BM9" s="33"/>
-      <c r="BN9" s="33">
+      <c r="BK9" s="31"/>
+      <c r="BL9" s="31"/>
+      <c r="BM9" s="31"/>
+      <c r="BN9" s="31">
         <v>2016</v>
       </c>
-      <c r="BO9" s="33"/>
-      <c r="BP9" s="33"/>
-      <c r="BQ9" s="33"/>
-      <c r="BR9" s="34">
+      <c r="BO9" s="31"/>
+      <c r="BP9" s="31"/>
+      <c r="BQ9" s="31"/>
+      <c r="BR9" s="30">
         <v>2017</v>
       </c>
-      <c r="BS9" s="34"/>
-      <c r="BT9" s="34"/>
-      <c r="BU9" s="34"/>
-      <c r="BV9" s="34">
+      <c r="BS9" s="30"/>
+      <c r="BT9" s="30"/>
+      <c r="BU9" s="30"/>
+      <c r="BV9" s="30">
         <v>2018</v>
       </c>
-      <c r="BW9" s="34"/>
-      <c r="BX9" s="34"/>
-      <c r="BY9" s="34"/>
-      <c r="BZ9" s="34">
+      <c r="BW9" s="30"/>
+      <c r="BX9" s="30"/>
+      <c r="BY9" s="30"/>
+      <c r="BZ9" s="30">
         <v>2019</v>
       </c>
-      <c r="CA9" s="34"/>
-      <c r="CB9" s="34"/>
-      <c r="CC9" s="34"/>
-      <c r="CD9" s="34">
+      <c r="CA9" s="30"/>
+      <c r="CB9" s="30"/>
+      <c r="CC9" s="30"/>
+      <c r="CD9" s="30">
         <v>2020</v>
       </c>
-      <c r="CE9" s="34"/>
-      <c r="CF9" s="34"/>
-      <c r="CG9" s="34"/>
-      <c r="CH9" s="34">
+      <c r="CE9" s="30"/>
+      <c r="CF9" s="30"/>
+      <c r="CG9" s="30"/>
+      <c r="CH9" s="30">
         <v>2021</v>
       </c>
-      <c r="CI9" s="34"/>
-      <c r="CJ9" s="34"/>
-      <c r="CK9" s="34"/>
-      <c r="CL9" s="34">
+      <c r="CI9" s="30"/>
+      <c r="CJ9" s="30"/>
+      <c r="CK9" s="30"/>
+      <c r="CL9" s="30">
         <v>2022</v>
       </c>
-      <c r="CM9" s="34"/>
-      <c r="CN9" s="34"/>
+      <c r="CM9" s="30"/>
+      <c r="CN9" s="30"/>
+      <c r="CO9" s="30"/>
     </row>
     <row r="10" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -1178,6 +1180,9 @@
       </c>
       <c r="CN10" s="7" t="s">
         <v>21</v>
+      </c>
+      <c r="CO10" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1458,9 +1463,11 @@
         <v>1566368.7437218034</v>
       </c>
       <c r="CN12" s="10">
-        <v>1447422.0423746321</v>
-      </c>
-      <c r="CO12" s="11"/>
+        <v>1451685.7820223121</v>
+      </c>
+      <c r="CO12" s="10">
+        <v>1932064.3672458061</v>
+      </c>
       <c r="CP12" s="11"/>
       <c r="CQ12" s="11"/>
       <c r="CR12" s="11"/>
@@ -1797,9 +1804,11 @@
         <v>74860.089917473437</v>
       </c>
       <c r="CN13" s="10">
-        <v>74795.7906436333</v>
-      </c>
-      <c r="CO13" s="11"/>
+        <v>74289.792089048482</v>
+      </c>
+      <c r="CO13" s="10">
+        <v>109142.10559779602</v>
+      </c>
       <c r="CP13" s="11"/>
       <c r="CQ13" s="11"/>
       <c r="CR13" s="11"/>
@@ -2136,9 +2145,11 @@
         <v>64914.406063883871</v>
       </c>
       <c r="CN14" s="10">
-        <v>67943.680306057722</v>
-      </c>
-      <c r="CO14" s="11"/>
+        <v>69554.021923991808</v>
+      </c>
+      <c r="CO14" s="10">
+        <v>86470.527163922685</v>
+      </c>
       <c r="CP14" s="11"/>
       <c r="CQ14" s="11"/>
       <c r="CR14" s="11"/>
@@ -2475,9 +2486,11 @@
         <v>574802.88069589285</v>
       </c>
       <c r="CN15" s="10">
-        <v>523179.3209197055</v>
-      </c>
-      <c r="CO15" s="11"/>
+        <v>523580.72850303527</v>
+      </c>
+      <c r="CO15" s="10">
+        <v>541263.00036780431</v>
+      </c>
       <c r="CP15" s="11"/>
       <c r="CQ15" s="11"/>
       <c r="CR15" s="11"/>
@@ -2814,9 +2827,11 @@
         <v>103093.70168045604</v>
       </c>
       <c r="CN16" s="10">
-        <v>124232.08946906852</v>
-      </c>
-      <c r="CO16" s="11"/>
+        <v>123408.34211154476</v>
+      </c>
+      <c r="CO16" s="10">
+        <v>131795.65122189542</v>
+      </c>
       <c r="CP16" s="11"/>
       <c r="CQ16" s="11"/>
       <c r="CR16" s="11"/>
@@ -3153,9 +3168,11 @@
         <v>138209.36175477973</v>
       </c>
       <c r="CN17" s="10">
-        <v>222442.30928271718</v>
-      </c>
-      <c r="CO17" s="11"/>
+        <v>219136.25766281766</v>
+      </c>
+      <c r="CO17" s="10">
+        <v>195136.01074342543</v>
+      </c>
       <c r="CP17" s="11"/>
       <c r="CQ17" s="11"/>
       <c r="CR17" s="11"/>
@@ -3492,9 +3509,11 @@
         <v>295969.14642522112</v>
       </c>
       <c r="CN18" s="10">
-        <v>465531.09190673259</v>
-      </c>
-      <c r="CO18" s="11"/>
+        <v>462616.28316767089</v>
+      </c>
+      <c r="CO18" s="10">
+        <v>376555.80258819682</v>
+      </c>
       <c r="CP18" s="11"/>
       <c r="CQ18" s="11"/>
       <c r="CR18" s="11"/>
@@ -3831,9 +3850,11 @@
         <v>127268.98601639032</v>
       </c>
       <c r="CN19" s="10">
-        <v>96958.131594522769</v>
-      </c>
-      <c r="CO19" s="11"/>
+        <v>96871.982373834515</v>
+      </c>
+      <c r="CO19" s="10">
+        <v>126614.50894329554</v>
+      </c>
       <c r="CP19" s="11"/>
       <c r="CQ19" s="11"/>
       <c r="CR19" s="11"/>
@@ -4170,9 +4191,11 @@
         <v>41983.761192967853</v>
       </c>
       <c r="CN20" s="10">
-        <v>53161.871137265283</v>
-      </c>
-      <c r="CO20" s="11"/>
+        <v>53214.762708552298</v>
+      </c>
+      <c r="CO20" s="10">
+        <v>84458.758774137357</v>
+      </c>
       <c r="CP20" s="11"/>
       <c r="CQ20" s="11"/>
       <c r="CR20" s="11"/>
@@ -4509,9 +4532,11 @@
         <v>187158.10532078435</v>
       </c>
       <c r="CN21" s="10">
-        <v>219511.8826930408</v>
-      </c>
-      <c r="CO21" s="11"/>
+        <v>219402.41345024187</v>
+      </c>
+      <c r="CO21" s="10">
+        <v>222839.41359088762</v>
+      </c>
       <c r="CP21" s="11"/>
       <c r="CQ21" s="11"/>
       <c r="CR21" s="11"/>
@@ -4848,9 +4873,11 @@
         <v>182344.68526335541</v>
       </c>
       <c r="CN22" s="10">
-        <v>287705.19347809529</v>
-      </c>
-      <c r="CO22" s="11"/>
+        <v>289764.55945846002</v>
+      </c>
+      <c r="CO22" s="10">
+        <v>372766.13837253017</v>
+      </c>
       <c r="CP22" s="11"/>
       <c r="CQ22" s="11"/>
       <c r="CR22" s="11"/>
@@ -5187,9 +5214,11 @@
         <v>521463.04467852885</v>
       </c>
       <c r="CN23" s="10">
-        <v>545733.85762884712</v>
-      </c>
-      <c r="CO23" s="11"/>
+        <v>546303.19141846139</v>
+      </c>
+      <c r="CO23" s="10">
+        <v>685788.67666286661</v>
+      </c>
       <c r="CP23" s="11"/>
       <c r="CQ23" s="11"/>
       <c r="CR23" s="11"/>
@@ -5661,28 +5690,30 @@
       <c r="CG25" s="15">
         <v>3801007.5529332561</v>
       </c>
-      <c r="CH25" s="30">
+      <c r="CH25" s="15">
         <v>3397554.7518358915</v>
       </c>
-      <c r="CI25" s="30">
+      <c r="CI25" s="15">
         <v>3396198.6721503939</v>
       </c>
-      <c r="CJ25" s="30">
+      <c r="CJ25" s="15">
         <v>3582435.6457165424</v>
       </c>
-      <c r="CK25" s="30">
+      <c r="CK25" s="15">
         <v>4233960.1057822816</v>
       </c>
-      <c r="CL25" s="30">
+      <c r="CL25" s="15">
         <v>3853894.6766090612</v>
       </c>
-      <c r="CM25" s="30">
+      <c r="CM25" s="15">
         <v>3878436.9127315367</v>
       </c>
-      <c r="CN25" s="30">
-        <v>4128617.261434318</v>
-      </c>
-      <c r="CO25" s="11"/>
+      <c r="CN25" s="15">
+        <v>4129828.1168899718</v>
+      </c>
+      <c r="CO25" s="15">
+        <v>4864894.9612725647</v>
+      </c>
       <c r="CP25" s="11"/>
       <c r="CQ25" s="11"/>
       <c r="CR25" s="11"/>
@@ -5837,6 +5868,7 @@
       <c r="CL26" s="16"/>
       <c r="CM26" s="16"/>
       <c r="CN26" s="16"/>
+      <c r="CO26" s="16"/>
     </row>
     <row r="27" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
@@ -5928,14 +5960,14 @@
       <c r="CE28" s="21"/>
       <c r="CF28" s="21"/>
       <c r="CG28" s="21"/>
-      <c r="CH28" s="31"/>
-      <c r="CI28" s="31"/>
-      <c r="CJ28" s="31"/>
-      <c r="CK28" s="31"/>
-      <c r="CL28" s="31"/>
-      <c r="CM28" s="31"/>
-      <c r="CN28" s="31"/>
-      <c r="CO28" s="11"/>
+      <c r="CH28" s="21"/>
+      <c r="CI28" s="21"/>
+      <c r="CJ28" s="21"/>
+      <c r="CK28" s="21"/>
+      <c r="CL28" s="21"/>
+      <c r="CM28" s="21"/>
+      <c r="CN28" s="21"/>
+      <c r="CO28" s="21"/>
       <c r="CP28" s="11"/>
       <c r="CQ28" s="11"/>
       <c r="CR28" s="11"/>
@@ -6082,14 +6114,14 @@
       <c r="CE29" s="24"/>
       <c r="CF29" s="24"/>
       <c r="CG29" s="24"/>
-      <c r="CH29" s="32"/>
-      <c r="CI29" s="32"/>
-      <c r="CJ29" s="32"/>
-      <c r="CK29" s="32"/>
-      <c r="CL29" s="32"/>
-      <c r="CM29" s="32"/>
-      <c r="CN29" s="32"/>
-      <c r="CO29" s="11"/>
+      <c r="CH29" s="24"/>
+      <c r="CI29" s="24"/>
+      <c r="CJ29" s="24"/>
+      <c r="CK29" s="24"/>
+      <c r="CL29" s="24"/>
+      <c r="CM29" s="24"/>
+      <c r="CN29" s="24"/>
+      <c r="CO29" s="24"/>
       <c r="CP29" s="11"/>
       <c r="CQ29" s="11"/>
       <c r="CR29" s="11"/>
@@ -6163,7 +6195,7 @@
     </row>
     <row r="32" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:153" x14ac:dyDescent="0.2">
@@ -6173,7 +6205,7 @@
     </row>
     <row r="35" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:153" x14ac:dyDescent="0.2">
@@ -6183,143 +6215,144 @@
     </row>
     <row r="38" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
-      <c r="B38" s="33">
+      <c r="B38" s="31">
         <v>2000</v>
       </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33">
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31">
         <v>2001</v>
       </c>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33">
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31">
         <v>2002</v>
       </c>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33">
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31">
         <v>2003</v>
       </c>
-      <c r="O38" s="33"/>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="33"/>
-      <c r="R38" s="33">
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31">
         <v>2004</v>
       </c>
-      <c r="S38" s="33"/>
-      <c r="T38" s="33"/>
-      <c r="U38" s="33"/>
-      <c r="V38" s="33">
+      <c r="S38" s="31"/>
+      <c r="T38" s="31"/>
+      <c r="U38" s="31"/>
+      <c r="V38" s="31">
         <v>2005</v>
       </c>
-      <c r="W38" s="33"/>
-      <c r="X38" s="33"/>
-      <c r="Y38" s="33"/>
-      <c r="Z38" s="33">
+      <c r="W38" s="31"/>
+      <c r="X38" s="31"/>
+      <c r="Y38" s="31"/>
+      <c r="Z38" s="31">
         <v>2006</v>
       </c>
-      <c r="AA38" s="33"/>
-      <c r="AB38" s="33"/>
-      <c r="AC38" s="33"/>
-      <c r="AD38" s="33">
+      <c r="AA38" s="31"/>
+      <c r="AB38" s="31"/>
+      <c r="AC38" s="31"/>
+      <c r="AD38" s="31">
         <v>2007</v>
       </c>
-      <c r="AE38" s="33"/>
-      <c r="AF38" s="33"/>
-      <c r="AG38" s="33"/>
-      <c r="AH38" s="33">
+      <c r="AE38" s="31"/>
+      <c r="AF38" s="31"/>
+      <c r="AG38" s="31"/>
+      <c r="AH38" s="31">
         <v>2008</v>
       </c>
-      <c r="AI38" s="33"/>
-      <c r="AJ38" s="33"/>
-      <c r="AK38" s="33"/>
-      <c r="AL38" s="33">
+      <c r="AI38" s="31"/>
+      <c r="AJ38" s="31"/>
+      <c r="AK38" s="31"/>
+      <c r="AL38" s="31">
         <v>2009</v>
       </c>
-      <c r="AM38" s="33"/>
-      <c r="AN38" s="33"/>
-      <c r="AO38" s="33"/>
-      <c r="AP38" s="33">
+      <c r="AM38" s="31"/>
+      <c r="AN38" s="31"/>
+      <c r="AO38" s="31"/>
+      <c r="AP38" s="31">
         <v>2010</v>
       </c>
-      <c r="AQ38" s="33"/>
-      <c r="AR38" s="33"/>
-      <c r="AS38" s="33"/>
-      <c r="AT38" s="33">
+      <c r="AQ38" s="31"/>
+      <c r="AR38" s="31"/>
+      <c r="AS38" s="31"/>
+      <c r="AT38" s="31">
         <v>2011</v>
       </c>
-      <c r="AU38" s="33"/>
-      <c r="AV38" s="33"/>
-      <c r="AW38" s="33"/>
-      <c r="AX38" s="33">
+      <c r="AU38" s="31"/>
+      <c r="AV38" s="31"/>
+      <c r="AW38" s="31"/>
+      <c r="AX38" s="31">
         <v>2012</v>
       </c>
-      <c r="AY38" s="33"/>
-      <c r="AZ38" s="33"/>
-      <c r="BA38" s="33"/>
-      <c r="BB38" s="33">
+      <c r="AY38" s="31"/>
+      <c r="AZ38" s="31"/>
+      <c r="BA38" s="31"/>
+      <c r="BB38" s="31">
         <v>2013</v>
       </c>
-      <c r="BC38" s="33"/>
-      <c r="BD38" s="33"/>
-      <c r="BE38" s="33"/>
-      <c r="BF38" s="33">
+      <c r="BC38" s="31"/>
+      <c r="BD38" s="31"/>
+      <c r="BE38" s="31"/>
+      <c r="BF38" s="31">
         <v>2014</v>
       </c>
-      <c r="BG38" s="33"/>
-      <c r="BH38" s="33"/>
-      <c r="BI38" s="33"/>
-      <c r="BJ38" s="33">
+      <c r="BG38" s="31"/>
+      <c r="BH38" s="31"/>
+      <c r="BI38" s="31"/>
+      <c r="BJ38" s="31">
         <v>2015</v>
       </c>
-      <c r="BK38" s="33"/>
-      <c r="BL38" s="33"/>
-      <c r="BM38" s="33"/>
-      <c r="BN38" s="33">
+      <c r="BK38" s="31"/>
+      <c r="BL38" s="31"/>
+      <c r="BM38" s="31"/>
+      <c r="BN38" s="31">
         <v>2016</v>
       </c>
-      <c r="BO38" s="33"/>
-      <c r="BP38" s="33"/>
-      <c r="BQ38" s="33"/>
-      <c r="BR38" s="34">
+      <c r="BO38" s="31"/>
+      <c r="BP38" s="31"/>
+      <c r="BQ38" s="31"/>
+      <c r="BR38" s="30">
         <v>2017</v>
       </c>
-      <c r="BS38" s="34"/>
-      <c r="BT38" s="34"/>
-      <c r="BU38" s="34"/>
-      <c r="BV38" s="34">
+      <c r="BS38" s="30"/>
+      <c r="BT38" s="30"/>
+      <c r="BU38" s="30"/>
+      <c r="BV38" s="30">
         <v>2018</v>
       </c>
-      <c r="BW38" s="34"/>
-      <c r="BX38" s="34"/>
-      <c r="BY38" s="34"/>
-      <c r="BZ38" s="34">
+      <c r="BW38" s="30"/>
+      <c r="BX38" s="30"/>
+      <c r="BY38" s="30"/>
+      <c r="BZ38" s="30">
         <v>2019</v>
       </c>
-      <c r="CA38" s="34"/>
-      <c r="CB38" s="34"/>
-      <c r="CC38" s="34"/>
-      <c r="CD38" s="34">
+      <c r="CA38" s="30"/>
+      <c r="CB38" s="30"/>
+      <c r="CC38" s="30"/>
+      <c r="CD38" s="30">
         <v>2020</v>
       </c>
-      <c r="CE38" s="34"/>
-      <c r="CF38" s="34"/>
-      <c r="CG38" s="34"/>
-      <c r="CH38" s="34">
+      <c r="CE38" s="30"/>
+      <c r="CF38" s="30"/>
+      <c r="CG38" s="30"/>
+      <c r="CH38" s="30">
         <v>2021</v>
       </c>
-      <c r="CI38" s="34"/>
-      <c r="CJ38" s="34"/>
-      <c r="CK38" s="34"/>
-      <c r="CL38" s="34">
+      <c r="CI38" s="30"/>
+      <c r="CJ38" s="30"/>
+      <c r="CK38" s="30"/>
+      <c r="CL38" s="30">
         <v>2022</v>
       </c>
-      <c r="CM38" s="34"/>
-      <c r="CN38" s="34"/>
+      <c r="CM38" s="30"/>
+      <c r="CN38" s="30"/>
+      <c r="CO38" s="30"/>
     </row>
     <row r="39" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
@@ -6597,6 +6630,9 @@
       </c>
       <c r="CN39" s="7" t="s">
         <v>21</v>
+      </c>
+      <c r="CO39" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -6877,9 +6913,11 @@
         <v>1359377.1967343693</v>
       </c>
       <c r="CN41" s="10">
-        <v>1223797.3567871188</v>
-      </c>
-      <c r="CO41" s="11"/>
+        <v>1227402.3546095223</v>
+      </c>
+      <c r="CO41" s="10">
+        <v>1614965.4573629305</v>
+      </c>
       <c r="CP41" s="11"/>
       <c r="CQ41" s="11"/>
       <c r="CR41" s="11"/>
@@ -7216,9 +7254,11 @@
         <v>48181.233384278457</v>
       </c>
       <c r="CN42" s="10">
-        <v>44607.164360110328</v>
-      </c>
-      <c r="CO42" s="11"/>
+        <v>44305.393892867272</v>
+      </c>
+      <c r="CO42" s="10">
+        <v>69139.808603506113</v>
+      </c>
       <c r="CP42" s="11"/>
       <c r="CQ42" s="11"/>
       <c r="CR42" s="11"/>
@@ -7555,9 +7595,11 @@
         <v>55970.074684183695</v>
       </c>
       <c r="CN43" s="10">
-        <v>63680.949954978059</v>
-      </c>
-      <c r="CO43" s="11"/>
+        <v>65190.260070652439</v>
+      </c>
+      <c r="CO43" s="10">
+        <v>80147.35175470839</v>
+      </c>
       <c r="CP43" s="11"/>
       <c r="CQ43" s="11"/>
       <c r="CR43" s="11"/>
@@ -7894,9 +7936,11 @@
         <v>521094.13428486529</v>
       </c>
       <c r="CN44" s="10">
-        <v>440204.03601303318</v>
-      </c>
-      <c r="CO44" s="11"/>
+        <v>440541.78108666756</v>
+      </c>
+      <c r="CO44" s="10">
+        <v>462151.73480429081</v>
+      </c>
       <c r="CP44" s="11"/>
       <c r="CQ44" s="11"/>
       <c r="CR44" s="11"/>
@@ -8233,9 +8277,11 @@
         <v>92016.486939449867</v>
       </c>
       <c r="CN45" s="10">
-        <v>108355.21511056753</v>
-      </c>
-      <c r="CO45" s="11"/>
+        <v>107636.74275368526</v>
+      </c>
+      <c r="CO45" s="10">
+        <v>117842.51314579241</v>
+      </c>
       <c r="CP45" s="11"/>
       <c r="CQ45" s="11"/>
       <c r="CR45" s="11"/>
@@ -8572,9 +8618,11 @@
         <v>126609.68897286928</v>
       </c>
       <c r="CN46" s="10">
-        <v>194356.15373197355</v>
-      </c>
-      <c r="CO46" s="11"/>
+        <v>191467.53295225321</v>
+      </c>
+      <c r="CO46" s="10">
+        <v>170677.12725855637</v>
+      </c>
       <c r="CP46" s="11"/>
       <c r="CQ46" s="11"/>
       <c r="CR46" s="11"/>
@@ -8911,9 +8959,11 @@
         <v>237089.60293205726</v>
       </c>
       <c r="CN47" s="10">
-        <v>327756.35641066451</v>
-      </c>
-      <c r="CO47" s="11"/>
+        <v>325704.19038232067</v>
+      </c>
+      <c r="CO47" s="10">
+        <v>297786.34651382209</v>
+      </c>
       <c r="CP47" s="11"/>
       <c r="CQ47" s="11"/>
       <c r="CR47" s="11"/>
@@ -9250,9 +9300,11 @@
         <v>124681.93067322711</v>
       </c>
       <c r="CN48" s="10">
-        <v>96723.354802973481</v>
-      </c>
-      <c r="CO48" s="11"/>
+        <v>96637.414186115508</v>
+      </c>
+      <c r="CO48" s="10">
+        <v>129501.23148380035</v>
+      </c>
       <c r="CP48" s="11"/>
       <c r="CQ48" s="11"/>
       <c r="CR48" s="11"/>
@@ -9589,9 +9641,11 @@
         <v>40675.021685712061</v>
       </c>
       <c r="CN49" s="10">
-        <v>51283.064171945523</v>
-      </c>
-      <c r="CO49" s="11"/>
+        <v>51334.086489001733</v>
+      </c>
+      <c r="CO49" s="10">
+        <v>78626.137610299207</v>
+      </c>
       <c r="CP49" s="11"/>
       <c r="CQ49" s="11"/>
       <c r="CR49" s="11"/>
@@ -9928,9 +9982,11 @@
         <v>175581.40026522669</v>
       </c>
       <c r="CN50" s="10">
-        <v>201819.05369660654</v>
-      </c>
-      <c r="CO50" s="11"/>
+        <v>201718.40776017922</v>
+      </c>
+      <c r="CO50" s="10">
+        <v>217284.99806181726</v>
+      </c>
       <c r="CP50" s="11"/>
       <c r="CQ50" s="11"/>
       <c r="CR50" s="11"/>
@@ -10267,9 +10323,11 @@
         <v>168071.32293949748</v>
       </c>
       <c r="CN51" s="10">
-        <v>242385.99179231143</v>
-      </c>
-      <c r="CO51" s="11"/>
+        <v>244120.96730519543</v>
+      </c>
+      <c r="CO51" s="10">
+        <v>320767.81728373282</v>
+      </c>
       <c r="CP51" s="11"/>
       <c r="CQ51" s="11"/>
       <c r="CR51" s="11"/>
@@ -10606,9 +10664,11 @@
         <v>449718.58169500902</v>
       </c>
       <c r="CN52" s="10">
-        <v>509520.5050821944</v>
-      </c>
-      <c r="CO52" s="11"/>
+        <v>510052.05949464196</v>
+      </c>
+      <c r="CO52" s="10">
+        <v>640928.01680368162</v>
+      </c>
       <c r="CP52" s="11"/>
       <c r="CQ52" s="11"/>
       <c r="CR52" s="11"/>
@@ -11080,28 +11140,30 @@
       <c r="CG54" s="15">
         <v>3648921.6749099772</v>
       </c>
-      <c r="CH54" s="30">
+      <c r="CH54" s="15">
         <v>3156671.4757222617</v>
       </c>
-      <c r="CI54" s="30">
+      <c r="CI54" s="15">
         <v>3131017.1444008318</v>
       </c>
-      <c r="CJ54" s="30">
+      <c r="CJ54" s="15">
         <v>3244927.2295096582</v>
       </c>
-      <c r="CK54" s="30">
+      <c r="CK54" s="15">
         <v>3923915.6638969723</v>
       </c>
-      <c r="CL54" s="30">
+      <c r="CL54" s="15">
         <v>3473351.0415488388</v>
       </c>
-      <c r="CM54" s="30">
+      <c r="CM54" s="15">
         <v>3399066.6751907454</v>
       </c>
-      <c r="CN54" s="30">
-        <v>3504489.2019144772</v>
-      </c>
-      <c r="CO54" s="11"/>
+      <c r="CN54" s="15">
+        <v>3506111.1909831027</v>
+      </c>
+      <c r="CO54" s="15">
+        <v>4199818.540686938</v>
+      </c>
       <c r="CP54" s="11"/>
       <c r="CQ54" s="11"/>
       <c r="CR54" s="11"/>
@@ -11256,6 +11318,7 @@
       <c r="CL55" s="16"/>
       <c r="CM55" s="16"/>
       <c r="CN55" s="16"/>
+      <c r="CO55" s="16"/>
     </row>
     <row r="56" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A56" s="18" t="s">
@@ -11501,14 +11564,14 @@
       <c r="CE58" s="24"/>
       <c r="CF58" s="24"/>
       <c r="CG58" s="24"/>
-      <c r="CH58" s="32"/>
-      <c r="CI58" s="32"/>
-      <c r="CJ58" s="32"/>
-      <c r="CK58" s="32"/>
-      <c r="CL58" s="32"/>
-      <c r="CM58" s="32"/>
-      <c r="CN58" s="32"/>
-      <c r="CO58" s="11"/>
+      <c r="CH58" s="24"/>
+      <c r="CI58" s="24"/>
+      <c r="CJ58" s="24"/>
+      <c r="CK58" s="24"/>
+      <c r="CL58" s="24"/>
+      <c r="CM58" s="24"/>
+      <c r="CN58" s="24"/>
+      <c r="CO58" s="24"/>
       <c r="CP58" s="11"/>
       <c r="CQ58" s="11"/>
       <c r="CR58" s="11"/>
@@ -11582,7 +11645,7 @@
     </row>
     <row r="61" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:153" x14ac:dyDescent="0.2">
@@ -11592,7 +11655,7 @@
     </row>
     <row r="64" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:149" x14ac:dyDescent="0.2">
@@ -11602,141 +11665,142 @@
     </row>
     <row r="67" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
-      <c r="B67" s="33" t="s">
+      <c r="B67" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="33" t="s">
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="G67" s="33"/>
-      <c r="H67" s="33"/>
-      <c r="I67" s="33"/>
-      <c r="J67" s="33" t="s">
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="K67" s="33"/>
-      <c r="L67" s="33"/>
-      <c r="M67" s="33"/>
-      <c r="N67" s="33" t="s">
+      <c r="K67" s="31"/>
+      <c r="L67" s="31"/>
+      <c r="M67" s="31"/>
+      <c r="N67" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="O67" s="33"/>
-      <c r="P67" s="33"/>
-      <c r="Q67" s="33"/>
-      <c r="R67" s="33" t="s">
+      <c r="O67" s="31"/>
+      <c r="P67" s="31"/>
+      <c r="Q67" s="31"/>
+      <c r="R67" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="S67" s="33"/>
-      <c r="T67" s="33"/>
-      <c r="U67" s="33"/>
-      <c r="V67" s="33" t="s">
+      <c r="S67" s="31"/>
+      <c r="T67" s="31"/>
+      <c r="U67" s="31"/>
+      <c r="V67" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="W67" s="33"/>
-      <c r="X67" s="33"/>
-      <c r="Y67" s="33"/>
-      <c r="Z67" s="33" t="s">
+      <c r="W67" s="31"/>
+      <c r="X67" s="31"/>
+      <c r="Y67" s="31"/>
+      <c r="Z67" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="AA67" s="33"/>
-      <c r="AB67" s="33"/>
-      <c r="AC67" s="33"/>
-      <c r="AD67" s="33" t="s">
+      <c r="AA67" s="31"/>
+      <c r="AB67" s="31"/>
+      <c r="AC67" s="31"/>
+      <c r="AD67" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="AE67" s="33"/>
-      <c r="AF67" s="33"/>
-      <c r="AG67" s="33"/>
-      <c r="AH67" s="33" t="s">
+      <c r="AE67" s="31"/>
+      <c r="AF67" s="31"/>
+      <c r="AG67" s="31"/>
+      <c r="AH67" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="AI67" s="33"/>
-      <c r="AJ67" s="33"/>
-      <c r="AK67" s="33"/>
-      <c r="AL67" s="33" t="s">
+      <c r="AI67" s="31"/>
+      <c r="AJ67" s="31"/>
+      <c r="AK67" s="31"/>
+      <c r="AL67" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="AM67" s="33"/>
-      <c r="AN67" s="33"/>
-      <c r="AO67" s="33"/>
-      <c r="AP67" s="33" t="s">
+      <c r="AM67" s="31"/>
+      <c r="AN67" s="31"/>
+      <c r="AO67" s="31"/>
+      <c r="AP67" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="AQ67" s="33"/>
-      <c r="AR67" s="33"/>
-      <c r="AS67" s="33"/>
-      <c r="AT67" s="33" t="s">
+      <c r="AQ67" s="31"/>
+      <c r="AR67" s="31"/>
+      <c r="AS67" s="31"/>
+      <c r="AT67" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="AU67" s="33"/>
-      <c r="AV67" s="33"/>
-      <c r="AW67" s="33"/>
-      <c r="AX67" s="33" t="s">
+      <c r="AU67" s="31"/>
+      <c r="AV67" s="31"/>
+      <c r="AW67" s="31"/>
+      <c r="AX67" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="AY67" s="33"/>
-      <c r="AZ67" s="33"/>
-      <c r="BA67" s="33"/>
-      <c r="BB67" s="33" t="s">
+      <c r="AY67" s="31"/>
+      <c r="AZ67" s="31"/>
+      <c r="BA67" s="31"/>
+      <c r="BB67" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="BC67" s="33"/>
-      <c r="BD67" s="33"/>
-      <c r="BE67" s="33"/>
-      <c r="BF67" s="33" t="s">
+      <c r="BC67" s="31"/>
+      <c r="BD67" s="31"/>
+      <c r="BE67" s="31"/>
+      <c r="BF67" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="BG67" s="33"/>
-      <c r="BH67" s="33"/>
-      <c r="BI67" s="33"/>
-      <c r="BJ67" s="33" t="s">
+      <c r="BG67" s="31"/>
+      <c r="BH67" s="31"/>
+      <c r="BI67" s="31"/>
+      <c r="BJ67" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="BK67" s="33"/>
-      <c r="BL67" s="33"/>
-      <c r="BM67" s="33"/>
-      <c r="BN67" s="33" t="s">
+      <c r="BK67" s="31"/>
+      <c r="BL67" s="31"/>
+      <c r="BM67" s="31"/>
+      <c r="BN67" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="BO67" s="33"/>
-      <c r="BP67" s="33"/>
-      <c r="BQ67" s="33"/>
-      <c r="BR67" s="34" t="s">
+      <c r="BO67" s="31"/>
+      <c r="BP67" s="31"/>
+      <c r="BQ67" s="31"/>
+      <c r="BR67" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="BS67" s="34"/>
-      <c r="BT67" s="34"/>
-      <c r="BU67" s="34"/>
-      <c r="BV67" s="34" t="s">
+      <c r="BS67" s="30"/>
+      <c r="BT67" s="30"/>
+      <c r="BU67" s="30"/>
+      <c r="BV67" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="BW67" s="34"/>
-      <c r="BX67" s="34"/>
-      <c r="BY67" s="34"/>
-      <c r="BZ67" s="34" t="s">
+      <c r="BW67" s="30"/>
+      <c r="BX67" s="30"/>
+      <c r="BY67" s="30"/>
+      <c r="BZ67" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="CA67" s="34"/>
-      <c r="CB67" s="34"/>
-      <c r="CC67" s="34"/>
-      <c r="CD67" s="34" t="s">
+      <c r="CA67" s="30"/>
+      <c r="CB67" s="30"/>
+      <c r="CC67" s="30"/>
+      <c r="CD67" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="CE67" s="34"/>
-      <c r="CF67" s="34"/>
-      <c r="CG67" s="34"/>
-      <c r="CH67" s="34" t="s">
+      <c r="CE67" s="30"/>
+      <c r="CF67" s="30"/>
+      <c r="CG67" s="30"/>
+      <c r="CH67" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="CI67" s="34"/>
-      <c r="CJ67" s="34"/>
-      <c r="CK67" s="4"/>
-      <c r="CL67" s="34"/>
-      <c r="CM67" s="34"/>
-      <c r="CN67" s="4"/>
+      <c r="CI67" s="30"/>
+      <c r="CJ67" s="30"/>
+      <c r="CK67" s="30"/>
+      <c r="CL67" s="30"/>
+      <c r="CM67" s="30"/>
+      <c r="CN67" s="30"/>
+      <c r="CO67" s="30"/>
     </row>
     <row r="68" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
@@ -12003,10 +12067,13 @@
       <c r="CJ68" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="CK68" s="7"/>
+      <c r="CK68" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="CL68" s="7"/>
       <c r="CM68" s="7"/>
       <c r="CN68" s="7"/>
+      <c r="CO68" s="7"/>
     </row>
     <row r="69" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8"/>
@@ -12274,13 +12341,15 @@
         <v>11.740458351862841</v>
       </c>
       <c r="CJ70" s="26">
-        <v>11.151227845362868</v>
-      </c>
-      <c r="CK70" s="26"/>
+        <v>11.478651280392967</v>
+      </c>
+      <c r="CK70" s="26">
+        <v>14.084808546536507</v>
+      </c>
       <c r="CL70" s="26"/>
       <c r="CM70" s="26"/>
       <c r="CN70" s="26"/>
-      <c r="CO70" s="11"/>
+      <c r="CO70" s="26"/>
       <c r="CP70" s="11"/>
       <c r="CQ70" s="11"/>
       <c r="CR70" s="11"/>
@@ -12601,13 +12670,15 @@
         <v>10.249787890722899</v>
       </c>
       <c r="CJ71" s="26">
-        <v>-1.7502827870363404</v>
-      </c>
-      <c r="CK71" s="26"/>
+        <v>-2.4149487324100818</v>
+      </c>
+      <c r="CK71" s="26">
+        <v>14.382122600044795</v>
+      </c>
       <c r="CL71" s="26"/>
       <c r="CM71" s="26"/>
       <c r="CN71" s="26"/>
-      <c r="CO71" s="11"/>
+      <c r="CO71" s="26"/>
       <c r="CP71" s="11"/>
       <c r="CQ71" s="11"/>
       <c r="CR71" s="11"/>
@@ -12928,13 +12999,15 @@
         <v>7.1613224771094792</v>
       </c>
       <c r="CJ72" s="26">
-        <v>-2.9400297906872623</v>
-      </c>
-      <c r="CK72" s="26"/>
+        <v>-0.63959936420117458</v>
+      </c>
+      <c r="CK72" s="26">
+        <v>13.655243123508228</v>
+      </c>
       <c r="CL72" s="26"/>
       <c r="CM72" s="26"/>
       <c r="CN72" s="26"/>
-      <c r="CO72" s="11"/>
+      <c r="CO72" s="26"/>
       <c r="CP72" s="11"/>
       <c r="CQ72" s="11"/>
       <c r="CR72" s="11"/>
@@ -13255,13 +13328,15 @@
         <v>13.99182801060617</v>
       </c>
       <c r="CJ73" s="26">
-        <v>9.1587849685091527</v>
-      </c>
-      <c r="CK73" s="26"/>
+        <v>9.2425366810126093</v>
+      </c>
+      <c r="CK73" s="26">
+        <v>11.678280109053674</v>
+      </c>
       <c r="CL73" s="26"/>
       <c r="CM73" s="26"/>
       <c r="CN73" s="26"/>
-      <c r="CO73" s="11"/>
+      <c r="CO73" s="26"/>
       <c r="CP73" s="11"/>
       <c r="CQ73" s="11"/>
       <c r="CR73" s="11"/>
@@ -13582,13 +13657,15 @@
         <v>9.8768823178817229</v>
       </c>
       <c r="CJ74" s="26">
-        <v>13.128951967603626</v>
-      </c>
-      <c r="CK74" s="26"/>
+        <v>12.378826330652544</v>
+      </c>
+      <c r="CK74" s="26">
+        <v>14.599393058568893</v>
+      </c>
       <c r="CL74" s="26"/>
       <c r="CM74" s="26"/>
       <c r="CN74" s="26"/>
-      <c r="CO74" s="11"/>
+      <c r="CO74" s="26"/>
       <c r="CP74" s="11"/>
       <c r="CQ74" s="11"/>
       <c r="CR74" s="11"/>
@@ -13909,13 +13986,15 @@
         <v>-5.5798076444133926E-2</v>
       </c>
       <c r="CJ75" s="26">
-        <v>9.5001212693810828</v>
-      </c>
-      <c r="CK75" s="26"/>
+        <v>7.872674339571887</v>
+      </c>
+      <c r="CK75" s="26">
+        <v>8.5927491333481782</v>
+      </c>
       <c r="CL75" s="26"/>
       <c r="CM75" s="26"/>
       <c r="CN75" s="26"/>
-      <c r="CO75" s="11"/>
+      <c r="CO75" s="26"/>
       <c r="CP75" s="11"/>
       <c r="CQ75" s="11"/>
       <c r="CR75" s="11"/>
@@ -14236,13 +14315,15 @@
         <v>43.830700019572674</v>
       </c>
       <c r="CJ76" s="26">
-        <v>39.405611281779471</v>
-      </c>
-      <c r="CK76" s="26"/>
+        <v>38.532757242376732</v>
+      </c>
+      <c r="CK76" s="26">
+        <v>21.192184051873369</v>
+      </c>
       <c r="CL76" s="26"/>
       <c r="CM76" s="26"/>
       <c r="CN76" s="26"/>
-      <c r="CO76" s="11"/>
+      <c r="CO76" s="26"/>
       <c r="CP76" s="11"/>
       <c r="CQ76" s="11"/>
       <c r="CR76" s="11"/>
@@ -14563,13 +14644,15 @@
         <v>10.320931144909437</v>
       </c>
       <c r="CJ77" s="26">
-        <v>7.780031501783796</v>
-      </c>
-      <c r="CK77" s="26"/>
+        <v>7.6842668086432013</v>
+      </c>
+      <c r="CK77" s="26">
+        <v>6.3247396980613786</v>
+      </c>
       <c r="CL77" s="26"/>
       <c r="CM77" s="26"/>
       <c r="CN77" s="26"/>
-      <c r="CO77" s="11"/>
+      <c r="CO77" s="26"/>
       <c r="CP77" s="11"/>
       <c r="CQ77" s="11"/>
       <c r="CR77" s="11"/>
@@ -14890,13 +14973,15 @@
         <v>40.337799758432624</v>
       </c>
       <c r="CJ78" s="26">
-        <v>49.490424187724415</v>
-      </c>
-      <c r="CK78" s="26"/>
+        <v>49.639154532584485</v>
+      </c>
+      <c r="CK78" s="26">
+        <v>19.169117113990779</v>
+      </c>
       <c r="CL78" s="26"/>
       <c r="CM78" s="26"/>
       <c r="CN78" s="26"/>
-      <c r="CO78" s="11"/>
+      <c r="CO78" s="26"/>
       <c r="CP78" s="11"/>
       <c r="CQ78" s="11"/>
       <c r="CR78" s="11"/>
@@ -15217,13 +15302,15 @@
         <v>8.1242392521675839</v>
       </c>
       <c r="CJ79" s="26">
-        <v>8.453074846232127</v>
-      </c>
-      <c r="CK79" s="26"/>
+        <v>8.3989899564440123</v>
+      </c>
+      <c r="CK79" s="26">
+        <v>15.506097686573156</v>
+      </c>
       <c r="CL79" s="26"/>
       <c r="CM79" s="26"/>
       <c r="CN79" s="26"/>
-      <c r="CO79" s="11"/>
+      <c r="CO79" s="26"/>
       <c r="CP79" s="11"/>
       <c r="CQ79" s="11"/>
       <c r="CR79" s="11"/>
@@ -15544,13 +15631,15 @@
         <v>36.98809322212847</v>
       </c>
       <c r="CJ80" s="26">
-        <v>44.461553239018315</v>
-      </c>
-      <c r="CK80" s="26"/>
+        <v>45.495595080997532</v>
+      </c>
+      <c r="CK80" s="26">
+        <v>32.737421254601742</v>
+      </c>
       <c r="CL80" s="26"/>
       <c r="CM80" s="26"/>
       <c r="CN80" s="26"/>
-      <c r="CO80" s="11"/>
+      <c r="CO80" s="26"/>
       <c r="CP80" s="11"/>
       <c r="CQ80" s="11"/>
       <c r="CR80" s="11"/>
@@ -15871,13 +15960,15 @@
         <v>10.40750946111477</v>
       </c>
       <c r="CJ81" s="26">
-        <v>13.497300320640363</v>
-      </c>
-      <c r="CK81" s="26"/>
+        <v>13.615705743355562</v>
+      </c>
+      <c r="CK81" s="26">
+        <v>11.484379082457494</v>
+      </c>
       <c r="CL81" s="26"/>
       <c r="CM81" s="26"/>
       <c r="CN81" s="26"/>
-      <c r="CO81" s="11"/>
+      <c r="CO81" s="26"/>
       <c r="CP81" s="11"/>
       <c r="CQ81" s="11"/>
       <c r="CR81" s="11"/>
@@ -16348,13 +16439,15 @@
         <v>14.1993530748247</v>
       </c>
       <c r="CJ83" s="26">
-        <v>15.24609706166909</v>
-      </c>
-      <c r="CK83" s="26"/>
+        <v>15.27989684414672</v>
+      </c>
+      <c r="CK83" s="26">
+        <v>14.901766661160096</v>
+      </c>
       <c r="CL83" s="26"/>
       <c r="CM83" s="26"/>
       <c r="CN83" s="26"/>
-      <c r="CO83" s="11"/>
+      <c r="CO83" s="26"/>
       <c r="CP83" s="11"/>
       <c r="CQ83" s="11"/>
       <c r="CR83" s="11"/>
@@ -16505,6 +16598,7 @@
       <c r="CL84" s="16"/>
       <c r="CM84" s="16"/>
       <c r="CN84" s="16"/>
+      <c r="CO84" s="16"/>
     </row>
     <row r="85" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A85" s="18" t="s">
@@ -16823,7 +16917,7 @@
     </row>
     <row r="90" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="92" spans="1:149" x14ac:dyDescent="0.2">
@@ -16833,7 +16927,7 @@
     </row>
     <row r="93" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94" spans="1:149" x14ac:dyDescent="0.2">
@@ -16843,141 +16937,142 @@
     </row>
     <row r="96" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
-      <c r="B96" s="33" t="s">
+      <c r="B96" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C96" s="33"/>
-      <c r="D96" s="33"/>
-      <c r="E96" s="33"/>
-      <c r="F96" s="33" t="s">
+      <c r="C96" s="31"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="G96" s="33"/>
-      <c r="H96" s="33"/>
-      <c r="I96" s="33"/>
-      <c r="J96" s="33" t="s">
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="K96" s="33"/>
-      <c r="L96" s="33"/>
-      <c r="M96" s="33"/>
-      <c r="N96" s="33" t="s">
+      <c r="K96" s="31"/>
+      <c r="L96" s="31"/>
+      <c r="M96" s="31"/>
+      <c r="N96" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="O96" s="33"/>
-      <c r="P96" s="33"/>
-      <c r="Q96" s="33"/>
-      <c r="R96" s="33" t="s">
+      <c r="O96" s="31"/>
+      <c r="P96" s="31"/>
+      <c r="Q96" s="31"/>
+      <c r="R96" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="S96" s="33"/>
-      <c r="T96" s="33"/>
-      <c r="U96" s="33"/>
-      <c r="V96" s="33" t="s">
+      <c r="S96" s="31"/>
+      <c r="T96" s="31"/>
+      <c r="U96" s="31"/>
+      <c r="V96" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="W96" s="33"/>
-      <c r="X96" s="33"/>
-      <c r="Y96" s="33"/>
-      <c r="Z96" s="33" t="s">
+      <c r="W96" s="31"/>
+      <c r="X96" s="31"/>
+      <c r="Y96" s="31"/>
+      <c r="Z96" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="AA96" s="33"/>
-      <c r="AB96" s="33"/>
-      <c r="AC96" s="33"/>
-      <c r="AD96" s="33" t="s">
+      <c r="AA96" s="31"/>
+      <c r="AB96" s="31"/>
+      <c r="AC96" s="31"/>
+      <c r="AD96" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="AE96" s="33"/>
-      <c r="AF96" s="33"/>
-      <c r="AG96" s="33"/>
-      <c r="AH96" s="33" t="s">
+      <c r="AE96" s="31"/>
+      <c r="AF96" s="31"/>
+      <c r="AG96" s="31"/>
+      <c r="AH96" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="AI96" s="33"/>
-      <c r="AJ96" s="33"/>
-      <c r="AK96" s="33"/>
-      <c r="AL96" s="33" t="s">
+      <c r="AI96" s="31"/>
+      <c r="AJ96" s="31"/>
+      <c r="AK96" s="31"/>
+      <c r="AL96" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="AM96" s="33"/>
-      <c r="AN96" s="33"/>
-      <c r="AO96" s="33"/>
-      <c r="AP96" s="33" t="s">
+      <c r="AM96" s="31"/>
+      <c r="AN96" s="31"/>
+      <c r="AO96" s="31"/>
+      <c r="AP96" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="AQ96" s="33"/>
-      <c r="AR96" s="33"/>
-      <c r="AS96" s="33"/>
-      <c r="AT96" s="33" t="s">
+      <c r="AQ96" s="31"/>
+      <c r="AR96" s="31"/>
+      <c r="AS96" s="31"/>
+      <c r="AT96" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="AU96" s="33"/>
-      <c r="AV96" s="33"/>
-      <c r="AW96" s="33"/>
-      <c r="AX96" s="33" t="s">
+      <c r="AU96" s="31"/>
+      <c r="AV96" s="31"/>
+      <c r="AW96" s="31"/>
+      <c r="AX96" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="AY96" s="33"/>
-      <c r="AZ96" s="33"/>
-      <c r="BA96" s="33"/>
-      <c r="BB96" s="33" t="s">
+      <c r="AY96" s="31"/>
+      <c r="AZ96" s="31"/>
+      <c r="BA96" s="31"/>
+      <c r="BB96" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="BC96" s="33"/>
-      <c r="BD96" s="33"/>
-      <c r="BE96" s="33"/>
-      <c r="BF96" s="33" t="s">
+      <c r="BC96" s="31"/>
+      <c r="BD96" s="31"/>
+      <c r="BE96" s="31"/>
+      <c r="BF96" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="BG96" s="33"/>
-      <c r="BH96" s="33"/>
-      <c r="BI96" s="33"/>
-      <c r="BJ96" s="33" t="s">
+      <c r="BG96" s="31"/>
+      <c r="BH96" s="31"/>
+      <c r="BI96" s="31"/>
+      <c r="BJ96" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="BK96" s="33"/>
-      <c r="BL96" s="33"/>
-      <c r="BM96" s="33"/>
-      <c r="BN96" s="33" t="s">
+      <c r="BK96" s="31"/>
+      <c r="BL96" s="31"/>
+      <c r="BM96" s="31"/>
+      <c r="BN96" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="BO96" s="33"/>
-      <c r="BP96" s="33"/>
-      <c r="BQ96" s="33"/>
-      <c r="BR96" s="34" t="s">
+      <c r="BO96" s="31"/>
+      <c r="BP96" s="31"/>
+      <c r="BQ96" s="31"/>
+      <c r="BR96" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="BS96" s="34"/>
-      <c r="BT96" s="34"/>
-      <c r="BU96" s="34"/>
-      <c r="BV96" s="34" t="s">
+      <c r="BS96" s="30"/>
+      <c r="BT96" s="30"/>
+      <c r="BU96" s="30"/>
+      <c r="BV96" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="BW96" s="34"/>
-      <c r="BX96" s="34"/>
-      <c r="BY96" s="34"/>
-      <c r="BZ96" s="34" t="s">
+      <c r="BW96" s="30"/>
+      <c r="BX96" s="30"/>
+      <c r="BY96" s="30"/>
+      <c r="BZ96" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="CA96" s="34"/>
-      <c r="CB96" s="34"/>
-      <c r="CC96" s="34"/>
-      <c r="CD96" s="34" t="s">
+      <c r="CA96" s="30"/>
+      <c r="CB96" s="30"/>
+      <c r="CC96" s="30"/>
+      <c r="CD96" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="CE96" s="34"/>
-      <c r="CF96" s="34"/>
-      <c r="CG96" s="34"/>
-      <c r="CH96" s="34" t="s">
+      <c r="CE96" s="30"/>
+      <c r="CF96" s="30"/>
+      <c r="CG96" s="30"/>
+      <c r="CH96" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="CI96" s="34"/>
-      <c r="CJ96" s="34"/>
-      <c r="CK96" s="4"/>
-      <c r="CL96" s="34"/>
-      <c r="CM96" s="34"/>
-      <c r="CN96" s="4"/>
+      <c r="CI96" s="30"/>
+      <c r="CJ96" s="30"/>
+      <c r="CK96" s="30"/>
+      <c r="CL96" s="30"/>
+      <c r="CM96" s="30"/>
+      <c r="CN96" s="30"/>
+      <c r="CO96" s="30"/>
     </row>
     <row r="97" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
@@ -17244,10 +17339,13 @@
       <c r="CJ97" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="CK97" s="7"/>
+      <c r="CK97" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="CL97" s="7"/>
       <c r="CM97" s="7"/>
       <c r="CN97" s="7"/>
+      <c r="CO97" s="7"/>
     </row>
     <row r="98" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8"/>
@@ -17515,13 +17613,15 @@
         <v>5.7300896143217699</v>
       </c>
       <c r="CJ99" s="26">
-        <v>3.8964820872820098</v>
-      </c>
-      <c r="CK99" s="26"/>
+        <v>4.2025348742101869</v>
+      </c>
+      <c r="CK99" s="26">
+        <v>3.8460218945411242</v>
+      </c>
       <c r="CL99" s="26"/>
       <c r="CM99" s="26"/>
       <c r="CN99" s="26"/>
-      <c r="CO99" s="11"/>
+      <c r="CO99" s="26"/>
       <c r="CP99" s="11"/>
       <c r="CQ99" s="11"/>
       <c r="CR99" s="11"/>
@@ -17842,13 +17942,15 @@
         <v>2.7320736211386532</v>
       </c>
       <c r="CJ100" s="26">
-        <v>-10.039445224275696</v>
-      </c>
-      <c r="CK100" s="26"/>
+        <v>-10.648034428219603</v>
+      </c>
+      <c r="CK100" s="26">
+        <v>3.4645925427717827</v>
+      </c>
       <c r="CL100" s="26"/>
       <c r="CM100" s="26"/>
       <c r="CN100" s="26"/>
-      <c r="CO100" s="11"/>
+      <c r="CO100" s="26"/>
       <c r="CP100" s="11"/>
       <c r="CQ100" s="11"/>
       <c r="CR100" s="11"/>
@@ -18169,13 +18271,15 @@
         <v>4.464427553075339</v>
       </c>
       <c r="CJ101" s="26">
-        <v>-5.5243799808292948</v>
-      </c>
-      <c r="CK101" s="26"/>
+        <v>-3.2852015596475326</v>
+      </c>
+      <c r="CK101" s="26">
+        <v>9.7783138248607173</v>
+      </c>
       <c r="CL101" s="26"/>
       <c r="CM101" s="26"/>
       <c r="CN101" s="26"/>
-      <c r="CO101" s="11"/>
+      <c r="CO101" s="26"/>
       <c r="CP101" s="11"/>
       <c r="CQ101" s="11"/>
       <c r="CR101" s="11"/>
@@ -18496,13 +18600,15 @@
         <v>6.8800990391981998</v>
       </c>
       <c r="CJ102" s="26">
-        <v>1.3308625699598053</v>
-      </c>
-      <c r="CK102" s="26"/>
+        <v>1.4086083351965328</v>
+      </c>
+      <c r="CK102" s="26">
+        <v>4.2695681318162002</v>
+      </c>
       <c r="CL102" s="26"/>
       <c r="CM102" s="26"/>
       <c r="CN102" s="26"/>
-      <c r="CO102" s="11"/>
+      <c r="CO102" s="26"/>
       <c r="CP102" s="11"/>
       <c r="CQ102" s="11"/>
       <c r="CR102" s="11"/>
@@ -18823,13 +18929,15 @@
         <v>7.042625605422856</v>
       </c>
       <c r="CJ103" s="26">
-        <v>9.4731394077255118</v>
-      </c>
-      <c r="CK103" s="26"/>
+        <v>8.7472544154313425</v>
+      </c>
+      <c r="CK103" s="26">
+        <v>9.8090647313618007</v>
+      </c>
       <c r="CL103" s="26"/>
       <c r="CM103" s="26"/>
       <c r="CN103" s="26"/>
-      <c r="CO103" s="11"/>
+      <c r="CO103" s="26"/>
       <c r="CP103" s="11"/>
       <c r="CQ103" s="11"/>
       <c r="CR103" s="11"/>
@@ -19150,13 +19258,15 @@
         <v>-2.4700497527116454</v>
       </c>
       <c r="CJ104" s="26">
-        <v>6.9095240552757389</v>
-      </c>
-      <c r="CK104" s="26"/>
+        <v>5.3205799091492452</v>
+      </c>
+      <c r="CK104" s="26">
+        <v>5.6090903134278847</v>
+      </c>
       <c r="CL104" s="26"/>
       <c r="CM104" s="26"/>
       <c r="CN104" s="26"/>
-      <c r="CO104" s="11"/>
+      <c r="CO104" s="26"/>
       <c r="CP104" s="11"/>
       <c r="CQ104" s="11"/>
       <c r="CR104" s="11"/>
@@ -19477,13 +19587,15 @@
         <v>25.17624858175229</v>
       </c>
       <c r="CJ105" s="26">
-        <v>20.460381599681469</v>
-      </c>
-      <c r="CK105" s="26"/>
+        <v>19.706148468744217</v>
+      </c>
+      <c r="CK105" s="26">
+        <v>8.0726393139359374</v>
+      </c>
       <c r="CL105" s="26"/>
       <c r="CM105" s="26"/>
       <c r="CN105" s="26"/>
-      <c r="CO105" s="11"/>
+      <c r="CO105" s="26"/>
       <c r="CP105" s="11"/>
       <c r="CQ105" s="11"/>
       <c r="CR105" s="11"/>
@@ -19804,13 +19916,15 @@
         <v>9.6359318992384146</v>
       </c>
       <c r="CJ106" s="26">
-        <v>7.287242330972262</v>
-      </c>
-      <c r="CK106" s="26"/>
+        <v>7.1919154907722316</v>
+      </c>
+      <c r="CK106" s="26">
+        <v>5.6669181238955701</v>
+      </c>
       <c r="CL106" s="26"/>
       <c r="CM106" s="26"/>
       <c r="CN106" s="26"/>
-      <c r="CO106" s="11"/>
+      <c r="CO106" s="26"/>
       <c r="CP106" s="11"/>
       <c r="CQ106" s="11"/>
       <c r="CR106" s="11"/>
@@ -20131,13 +20245,15 @@
         <v>37.920455885362259</v>
       </c>
       <c r="CJ107" s="26">
-        <v>45.96864110084681</v>
-      </c>
-      <c r="CK107" s="26"/>
+        <v>46.113867569014559</v>
+      </c>
+      <c r="CK107" s="26">
+        <v>15.233256365271814</v>
+      </c>
       <c r="CL107" s="26"/>
       <c r="CM107" s="26"/>
       <c r="CN107" s="26"/>
-      <c r="CO107" s="11"/>
+      <c r="CO107" s="26"/>
       <c r="CP107" s="11"/>
       <c r="CQ107" s="11"/>
       <c r="CR107" s="11"/>
@@ -20458,13 +20574,15 @@
         <v>7.5196302721927282</v>
       </c>
       <c r="CJ108" s="26">
-        <v>5.4235924203911594</v>
-      </c>
-      <c r="CK108" s="26"/>
+        <v>5.3710183150907227</v>
+      </c>
+      <c r="CK108" s="26">
+        <v>11.555394075331236</v>
+      </c>
       <c r="CL108" s="26"/>
       <c r="CM108" s="26"/>
       <c r="CN108" s="26"/>
-      <c r="CO108" s="11"/>
+      <c r="CO108" s="26"/>
       <c r="CP108" s="11"/>
       <c r="CQ108" s="11"/>
       <c r="CR108" s="11"/>
@@ -20785,13 +20903,15 @@
         <v>33.248358926450209</v>
       </c>
       <c r="CJ109" s="26">
-        <v>38.234942116316432</v>
-      </c>
-      <c r="CK109" s="26"/>
+        <v>39.224414477418264</v>
+      </c>
+      <c r="CK109" s="26">
+        <v>24.747548084250923</v>
+      </c>
       <c r="CL109" s="26"/>
       <c r="CM109" s="26"/>
       <c r="CN109" s="26"/>
-      <c r="CO109" s="11"/>
+      <c r="CO109" s="26"/>
       <c r="CP109" s="11"/>
       <c r="CQ109" s="11"/>
       <c r="CR109" s="11"/>
@@ -21112,13 +21232,15 @@
         <v>7.216347897602887</v>
       </c>
       <c r="CJ110" s="26">
-        <v>8.2502579963249332</v>
-      </c>
-      <c r="CK110" s="26"/>
+        <v>8.3631894715307169</v>
+      </c>
+      <c r="CK110" s="26">
+        <v>7.0835590822963894</v>
+      </c>
       <c r="CL110" s="26"/>
       <c r="CM110" s="26"/>
       <c r="CN110" s="26"/>
-      <c r="CO110" s="11"/>
+      <c r="CO110" s="26"/>
       <c r="CP110" s="11"/>
       <c r="CQ110" s="11"/>
       <c r="CR110" s="11"/>
@@ -21589,13 +21711,15 @@
         <v>8.5611007039442057</v>
       </c>
       <c r="CJ112" s="26">
-        <v>7.9990074983604842</v>
-      </c>
-      <c r="CK112" s="26"/>
+        <v>8.0489928741148447</v>
+      </c>
+      <c r="CK112" s="26">
+        <v>7.0313151561457659</v>
+      </c>
       <c r="CL112" s="26"/>
       <c r="CM112" s="26"/>
       <c r="CN112" s="26"/>
-      <c r="CO112" s="11"/>
+      <c r="CO112" s="26"/>
       <c r="CP112" s="11"/>
       <c r="CQ112" s="11"/>
       <c r="CR112" s="11"/>
@@ -21746,6 +21870,7 @@
       <c r="CL113" s="16"/>
       <c r="CM113" s="16"/>
       <c r="CN113" s="16"/>
+      <c r="CO113" s="16"/>
     </row>
     <row r="114" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A114" s="18" t="s">
@@ -22059,7 +22184,7 @@
     </row>
     <row r="118" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="120" spans="1:153" x14ac:dyDescent="0.2">
@@ -22069,7 +22194,7 @@
     </row>
     <row r="121" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="122" spans="1:153" x14ac:dyDescent="0.2">
@@ -22079,143 +22204,144 @@
     </row>
     <row r="124" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
-      <c r="B124" s="33">
+      <c r="B124" s="31">
         <v>2000</v>
       </c>
-      <c r="C124" s="33"/>
-      <c r="D124" s="33"/>
-      <c r="E124" s="33"/>
-      <c r="F124" s="33">
+      <c r="C124" s="31"/>
+      <c r="D124" s="31"/>
+      <c r="E124" s="31"/>
+      <c r="F124" s="31">
         <v>2001</v>
       </c>
-      <c r="G124" s="33"/>
-      <c r="H124" s="33"/>
-      <c r="I124" s="33"/>
-      <c r="J124" s="33">
+      <c r="G124" s="31"/>
+      <c r="H124" s="31"/>
+      <c r="I124" s="31"/>
+      <c r="J124" s="31">
         <v>2002</v>
       </c>
-      <c r="K124" s="33"/>
-      <c r="L124" s="33"/>
-      <c r="M124" s="33"/>
-      <c r="N124" s="33">
+      <c r="K124" s="31"/>
+      <c r="L124" s="31"/>
+      <c r="M124" s="31"/>
+      <c r="N124" s="31">
         <v>2003</v>
       </c>
-      <c r="O124" s="33"/>
-      <c r="P124" s="33"/>
-      <c r="Q124" s="33"/>
-      <c r="R124" s="33">
+      <c r="O124" s="31"/>
+      <c r="P124" s="31"/>
+      <c r="Q124" s="31"/>
+      <c r="R124" s="31">
         <v>2004</v>
       </c>
-      <c r="S124" s="33"/>
-      <c r="T124" s="33"/>
-      <c r="U124" s="33"/>
-      <c r="V124" s="33">
+      <c r="S124" s="31"/>
+      <c r="T124" s="31"/>
+      <c r="U124" s="31"/>
+      <c r="V124" s="31">
         <v>2005</v>
       </c>
-      <c r="W124" s="33"/>
-      <c r="X124" s="33"/>
-      <c r="Y124" s="33"/>
-      <c r="Z124" s="33">
+      <c r="W124" s="31"/>
+      <c r="X124" s="31"/>
+      <c r="Y124" s="31"/>
+      <c r="Z124" s="31">
         <v>2006</v>
       </c>
-      <c r="AA124" s="33"/>
-      <c r="AB124" s="33"/>
-      <c r="AC124" s="33"/>
-      <c r="AD124" s="33">
+      <c r="AA124" s="31"/>
+      <c r="AB124" s="31"/>
+      <c r="AC124" s="31"/>
+      <c r="AD124" s="31">
         <v>2007</v>
       </c>
-      <c r="AE124" s="33"/>
-      <c r="AF124" s="33"/>
-      <c r="AG124" s="33"/>
-      <c r="AH124" s="33">
+      <c r="AE124" s="31"/>
+      <c r="AF124" s="31"/>
+      <c r="AG124" s="31"/>
+      <c r="AH124" s="31">
         <v>2008</v>
       </c>
-      <c r="AI124" s="33"/>
-      <c r="AJ124" s="33"/>
-      <c r="AK124" s="33"/>
-      <c r="AL124" s="33">
+      <c r="AI124" s="31"/>
+      <c r="AJ124" s="31"/>
+      <c r="AK124" s="31"/>
+      <c r="AL124" s="31">
         <v>2009</v>
       </c>
-      <c r="AM124" s="33"/>
-      <c r="AN124" s="33"/>
-      <c r="AO124" s="33"/>
-      <c r="AP124" s="33">
+      <c r="AM124" s="31"/>
+      <c r="AN124" s="31"/>
+      <c r="AO124" s="31"/>
+      <c r="AP124" s="31">
         <v>2010</v>
       </c>
-      <c r="AQ124" s="33"/>
-      <c r="AR124" s="33"/>
-      <c r="AS124" s="33"/>
-      <c r="AT124" s="33">
+      <c r="AQ124" s="31"/>
+      <c r="AR124" s="31"/>
+      <c r="AS124" s="31"/>
+      <c r="AT124" s="31">
         <v>2011</v>
       </c>
-      <c r="AU124" s="33"/>
-      <c r="AV124" s="33"/>
-      <c r="AW124" s="33"/>
-      <c r="AX124" s="33">
+      <c r="AU124" s="31"/>
+      <c r="AV124" s="31"/>
+      <c r="AW124" s="31"/>
+      <c r="AX124" s="31">
         <v>2012</v>
       </c>
-      <c r="AY124" s="33"/>
-      <c r="AZ124" s="33"/>
-      <c r="BA124" s="33"/>
-      <c r="BB124" s="33">
+      <c r="AY124" s="31"/>
+      <c r="AZ124" s="31"/>
+      <c r="BA124" s="31"/>
+      <c r="BB124" s="31">
         <v>2013</v>
       </c>
-      <c r="BC124" s="33"/>
-      <c r="BD124" s="33"/>
-      <c r="BE124" s="33"/>
-      <c r="BF124" s="33">
+      <c r="BC124" s="31"/>
+      <c r="BD124" s="31"/>
+      <c r="BE124" s="31"/>
+      <c r="BF124" s="31">
         <v>2014</v>
       </c>
-      <c r="BG124" s="33"/>
-      <c r="BH124" s="33"/>
-      <c r="BI124" s="33"/>
-      <c r="BJ124" s="33">
+      <c r="BG124" s="31"/>
+      <c r="BH124" s="31"/>
+      <c r="BI124" s="31"/>
+      <c r="BJ124" s="31">
         <v>2015</v>
       </c>
-      <c r="BK124" s="33"/>
-      <c r="BL124" s="33"/>
-      <c r="BM124" s="33"/>
-      <c r="BN124" s="33">
+      <c r="BK124" s="31"/>
+      <c r="BL124" s="31"/>
+      <c r="BM124" s="31"/>
+      <c r="BN124" s="31">
         <v>2016</v>
       </c>
-      <c r="BO124" s="33"/>
-      <c r="BP124" s="33"/>
-      <c r="BQ124" s="33"/>
-      <c r="BR124" s="34">
+      <c r="BO124" s="31"/>
+      <c r="BP124" s="31"/>
+      <c r="BQ124" s="31"/>
+      <c r="BR124" s="30">
         <v>2017</v>
       </c>
-      <c r="BS124" s="34"/>
-      <c r="BT124" s="34"/>
-      <c r="BU124" s="34"/>
-      <c r="BV124" s="34">
+      <c r="BS124" s="30"/>
+      <c r="BT124" s="30"/>
+      <c r="BU124" s="30"/>
+      <c r="BV124" s="30">
         <v>2018</v>
       </c>
-      <c r="BW124" s="34"/>
-      <c r="BX124" s="34"/>
-      <c r="BY124" s="34"/>
-      <c r="BZ124" s="34">
+      <c r="BW124" s="30"/>
+      <c r="BX124" s="30"/>
+      <c r="BY124" s="30"/>
+      <c r="BZ124" s="30">
         <v>2019</v>
       </c>
-      <c r="CA124" s="34"/>
-      <c r="CB124" s="34"/>
-      <c r="CC124" s="34"/>
-      <c r="CD124" s="34">
+      <c r="CA124" s="30"/>
+      <c r="CB124" s="30"/>
+      <c r="CC124" s="30"/>
+      <c r="CD124" s="30">
         <v>2020</v>
       </c>
-      <c r="CE124" s="34"/>
-      <c r="CF124" s="34"/>
-      <c r="CG124" s="34"/>
-      <c r="CH124" s="34">
+      <c r="CE124" s="30"/>
+      <c r="CF124" s="30"/>
+      <c r="CG124" s="30"/>
+      <c r="CH124" s="30">
         <v>2021</v>
       </c>
-      <c r="CI124" s="34"/>
-      <c r="CJ124" s="34"/>
-      <c r="CK124" s="34"/>
-      <c r="CL124" s="34">
+      <c r="CI124" s="30"/>
+      <c r="CJ124" s="30"/>
+      <c r="CK124" s="30"/>
+      <c r="CL124" s="30">
         <v>2022</v>
       </c>
-      <c r="CM124" s="34"/>
-      <c r="CN124" s="34"/>
+      <c r="CM124" s="30"/>
+      <c r="CN124" s="30"/>
+      <c r="CO124" s="30"/>
     </row>
     <row r="125" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
@@ -22493,6 +22619,9 @@
       </c>
       <c r="CN125" s="7" t="s">
         <v>21</v>
+      </c>
+      <c r="CO125" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="126" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -22775,7 +22904,9 @@
       <c r="CN127" s="26">
         <v>118.27301589983847</v>
       </c>
-      <c r="CO127" s="11"/>
+      <c r="CO127" s="26">
+        <v>119.63502738941952</v>
+      </c>
       <c r="CP127" s="11"/>
       <c r="CQ127" s="11"/>
       <c r="CR127" s="11"/>
@@ -23114,7 +23245,9 @@
       <c r="CN128" s="26">
         <v>167.67663158279336</v>
       </c>
-      <c r="CO128" s="11"/>
+      <c r="CO128" s="26">
+        <v>157.85711271445632</v>
+      </c>
       <c r="CP128" s="11"/>
       <c r="CQ128" s="11"/>
       <c r="CR128" s="11"/>
@@ -23453,7 +23586,9 @@
       <c r="CN129" s="26">
         <v>106.69388624713258</v>
       </c>
-      <c r="CO129" s="11"/>
+      <c r="CO129" s="26">
+        <v>107.88943773035248</v>
+      </c>
       <c r="CP129" s="11"/>
       <c r="CQ129" s="11"/>
       <c r="CR129" s="11"/>
@@ -23792,7 +23927,9 @@
       <c r="CN130" s="26">
         <v>118.84927854323799</v>
       </c>
-      <c r="CO130" s="11"/>
+      <c r="CO130" s="26">
+        <v>117.1180284754346</v>
+      </c>
       <c r="CP130" s="11"/>
       <c r="CQ130" s="11"/>
       <c r="CR130" s="11"/>
@@ -24131,7 +24268,9 @@
       <c r="CN131" s="26">
         <v>114.65261671281807</v>
       </c>
-      <c r="CO131" s="11"/>
+      <c r="CO131" s="26">
+        <v>111.84049601763029</v>
+      </c>
       <c r="CP131" s="11"/>
       <c r="CQ131" s="11"/>
       <c r="CR131" s="11"/>
@@ -24470,7 +24609,9 @@
       <c r="CN132" s="26">
         <v>114.45087022532654</v>
       </c>
-      <c r="CO132" s="11"/>
+      <c r="CO132" s="26">
+        <v>114.33049868938599</v>
+      </c>
       <c r="CP132" s="11"/>
       <c r="CQ132" s="11"/>
       <c r="CR132" s="11"/>
@@ -24809,7 +24950,9 @@
       <c r="CN133" s="26">
         <v>142.03571732517136</v>
       </c>
-      <c r="CO133" s="11"/>
+      <c r="CO133" s="26">
+        <v>126.45166811592503</v>
+      </c>
       <c r="CP133" s="11"/>
       <c r="CQ133" s="11"/>
       <c r="CR133" s="11"/>
@@ -25148,7 +25291,9 @@
       <c r="CN134" s="26">
         <v>100.24273019895509</v>
       </c>
-      <c r="CO134" s="11"/>
+      <c r="CO134" s="26">
+        <v>97.770891822858133</v>
+      </c>
       <c r="CP134" s="11"/>
       <c r="CQ134" s="11"/>
       <c r="CR134" s="11"/>
@@ -25487,7 +25632,9 @@
       <c r="CN135" s="26">
         <v>103.66360122129279</v>
       </c>
-      <c r="CO135" s="11"/>
+      <c r="CO135" s="26">
+        <v>107.41817077769586</v>
+      </c>
       <c r="CP135" s="11"/>
       <c r="CQ135" s="11"/>
       <c r="CR135" s="11"/>
@@ -25826,7 +25973,9 @@
       <c r="CN136" s="26">
         <v>108.76667919721386</v>
       </c>
-      <c r="CO136" s="11"/>
+      <c r="CO136" s="26">
+        <v>102.55628118766403</v>
+      </c>
       <c r="CP136" s="11"/>
       <c r="CQ136" s="11"/>
       <c r="CR136" s="11"/>
@@ -26165,7 +26314,9 @@
       <c r="CN137" s="26">
         <v>118.69712079921501</v>
       </c>
-      <c r="CO137" s="11"/>
+      <c r="CO137" s="26">
+        <v>116.21057920620589</v>
+      </c>
       <c r="CP137" s="11"/>
       <c r="CQ137" s="11"/>
       <c r="CR137" s="11"/>
@@ -26504,7 +26655,9 @@
       <c r="CN138" s="26">
         <v>107.10733958406853</v>
       </c>
-      <c r="CO138" s="11"/>
+      <c r="CO138" s="26">
+        <v>106.99932889233112</v>
+      </c>
       <c r="CP138" s="11"/>
       <c r="CQ138" s="11"/>
       <c r="CR138" s="11"/>
@@ -26995,9 +27148,11 @@
         <v>114.10299600886442</v>
       </c>
       <c r="CN140" s="26">
-        <v>117.80938743309251</v>
-      </c>
-      <c r="CO140" s="11"/>
+        <v>117.7894222953032</v>
+      </c>
+      <c r="CO140" s="26">
+        <v>115.83583705206568</v>
+      </c>
       <c r="CP140" s="11"/>
       <c r="CQ140" s="11"/>
       <c r="CR140" s="11"/>
@@ -27152,6 +27307,7 @@
       <c r="CL141" s="16"/>
       <c r="CM141" s="16"/>
       <c r="CN141" s="16"/>
+      <c r="CO141" s="16"/>
     </row>
     <row r="142" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A142" s="18" t="s">
@@ -27170,7 +27326,7 @@
     </row>
     <row r="147" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="149" spans="1:153" x14ac:dyDescent="0.2">
@@ -27180,7 +27336,7 @@
     </row>
     <row r="150" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="151" spans="1:153" x14ac:dyDescent="0.2">
@@ -27190,143 +27346,144 @@
     </row>
     <row r="153" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A153" s="4"/>
-      <c r="B153" s="33">
+      <c r="B153" s="31">
         <v>2000</v>
       </c>
-      <c r="C153" s="33"/>
-      <c r="D153" s="33"/>
-      <c r="E153" s="33"/>
-      <c r="F153" s="33">
+      <c r="C153" s="31"/>
+      <c r="D153" s="31"/>
+      <c r="E153" s="31"/>
+      <c r="F153" s="31">
         <v>2001</v>
       </c>
-      <c r="G153" s="33"/>
-      <c r="H153" s="33"/>
-      <c r="I153" s="33"/>
-      <c r="J153" s="33">
+      <c r="G153" s="31"/>
+      <c r="H153" s="31"/>
+      <c r="I153" s="31"/>
+      <c r="J153" s="31">
         <v>2002</v>
       </c>
-      <c r="K153" s="33"/>
-      <c r="L153" s="33"/>
-      <c r="M153" s="33"/>
-      <c r="N153" s="33">
+      <c r="K153" s="31"/>
+      <c r="L153" s="31"/>
+      <c r="M153" s="31"/>
+      <c r="N153" s="31">
         <v>2003</v>
       </c>
-      <c r="O153" s="33"/>
-      <c r="P153" s="33"/>
-      <c r="Q153" s="33"/>
-      <c r="R153" s="33">
+      <c r="O153" s="31"/>
+      <c r="P153" s="31"/>
+      <c r="Q153" s="31"/>
+      <c r="R153" s="31">
         <v>2004</v>
       </c>
-      <c r="S153" s="33"/>
-      <c r="T153" s="33"/>
-      <c r="U153" s="33"/>
-      <c r="V153" s="33">
+      <c r="S153" s="31"/>
+      <c r="T153" s="31"/>
+      <c r="U153" s="31"/>
+      <c r="V153" s="31">
         <v>2005</v>
       </c>
-      <c r="W153" s="33"/>
-      <c r="X153" s="33"/>
-      <c r="Y153" s="33"/>
-      <c r="Z153" s="33">
+      <c r="W153" s="31"/>
+      <c r="X153" s="31"/>
+      <c r="Y153" s="31"/>
+      <c r="Z153" s="31">
         <v>2006</v>
       </c>
-      <c r="AA153" s="33"/>
-      <c r="AB153" s="33"/>
-      <c r="AC153" s="33"/>
-      <c r="AD153" s="33">
+      <c r="AA153" s="31"/>
+      <c r="AB153" s="31"/>
+      <c r="AC153" s="31"/>
+      <c r="AD153" s="31">
         <v>2007</v>
       </c>
-      <c r="AE153" s="33"/>
-      <c r="AF153" s="33"/>
-      <c r="AG153" s="33"/>
-      <c r="AH153" s="33">
+      <c r="AE153" s="31"/>
+      <c r="AF153" s="31"/>
+      <c r="AG153" s="31"/>
+      <c r="AH153" s="31">
         <v>2008</v>
       </c>
-      <c r="AI153" s="33"/>
-      <c r="AJ153" s="33"/>
-      <c r="AK153" s="33"/>
-      <c r="AL153" s="33">
+      <c r="AI153" s="31"/>
+      <c r="AJ153" s="31"/>
+      <c r="AK153" s="31"/>
+      <c r="AL153" s="31">
         <v>2009</v>
       </c>
-      <c r="AM153" s="33"/>
-      <c r="AN153" s="33"/>
-      <c r="AO153" s="33"/>
-      <c r="AP153" s="33">
+      <c r="AM153" s="31"/>
+      <c r="AN153" s="31"/>
+      <c r="AO153" s="31"/>
+      <c r="AP153" s="31">
         <v>2010</v>
       </c>
-      <c r="AQ153" s="33"/>
-      <c r="AR153" s="33"/>
-      <c r="AS153" s="33"/>
-      <c r="AT153" s="33">
+      <c r="AQ153" s="31"/>
+      <c r="AR153" s="31"/>
+      <c r="AS153" s="31"/>
+      <c r="AT153" s="31">
         <v>2011</v>
       </c>
-      <c r="AU153" s="33"/>
-      <c r="AV153" s="33"/>
-      <c r="AW153" s="33"/>
-      <c r="AX153" s="33">
+      <c r="AU153" s="31"/>
+      <c r="AV153" s="31"/>
+      <c r="AW153" s="31"/>
+      <c r="AX153" s="31">
         <v>2012</v>
       </c>
-      <c r="AY153" s="33"/>
-      <c r="AZ153" s="33"/>
-      <c r="BA153" s="33"/>
-      <c r="BB153" s="33">
+      <c r="AY153" s="31"/>
+      <c r="AZ153" s="31"/>
+      <c r="BA153" s="31"/>
+      <c r="BB153" s="31">
         <v>2013</v>
       </c>
-      <c r="BC153" s="33"/>
-      <c r="BD153" s="33"/>
-      <c r="BE153" s="33"/>
-      <c r="BF153" s="33">
+      <c r="BC153" s="31"/>
+      <c r="BD153" s="31"/>
+      <c r="BE153" s="31"/>
+      <c r="BF153" s="31">
         <v>2014</v>
       </c>
-      <c r="BG153" s="33"/>
-      <c r="BH153" s="33"/>
-      <c r="BI153" s="33"/>
-      <c r="BJ153" s="33">
+      <c r="BG153" s="31"/>
+      <c r="BH153" s="31"/>
+      <c r="BI153" s="31"/>
+      <c r="BJ153" s="31">
         <v>2015</v>
       </c>
-      <c r="BK153" s="33"/>
-      <c r="BL153" s="33"/>
-      <c r="BM153" s="33"/>
-      <c r="BN153" s="33">
+      <c r="BK153" s="31"/>
+      <c r="BL153" s="31"/>
+      <c r="BM153" s="31"/>
+      <c r="BN153" s="31">
         <v>2016</v>
       </c>
-      <c r="BO153" s="33"/>
-      <c r="BP153" s="33"/>
-      <c r="BQ153" s="33"/>
-      <c r="BR153" s="34">
+      <c r="BO153" s="31"/>
+      <c r="BP153" s="31"/>
+      <c r="BQ153" s="31"/>
+      <c r="BR153" s="30">
         <v>2017</v>
       </c>
-      <c r="BS153" s="34"/>
-      <c r="BT153" s="34"/>
-      <c r="BU153" s="34"/>
-      <c r="BV153" s="34">
+      <c r="BS153" s="30"/>
+      <c r="BT153" s="30"/>
+      <c r="BU153" s="30"/>
+      <c r="BV153" s="30">
         <v>2018</v>
       </c>
-      <c r="BW153" s="34"/>
-      <c r="BX153" s="34"/>
-      <c r="BY153" s="34"/>
-      <c r="BZ153" s="34">
+      <c r="BW153" s="30"/>
+      <c r="BX153" s="30"/>
+      <c r="BY153" s="30"/>
+      <c r="BZ153" s="30">
         <v>2019</v>
       </c>
-      <c r="CA153" s="34"/>
-      <c r="CB153" s="34"/>
-      <c r="CC153" s="34"/>
-      <c r="CD153" s="34">
+      <c r="CA153" s="30"/>
+      <c r="CB153" s="30"/>
+      <c r="CC153" s="30"/>
+      <c r="CD153" s="30">
         <v>2020</v>
       </c>
-      <c r="CE153" s="34"/>
-      <c r="CF153" s="34"/>
-      <c r="CG153" s="34"/>
-      <c r="CH153" s="34">
+      <c r="CE153" s="30"/>
+      <c r="CF153" s="30"/>
+      <c r="CG153" s="30"/>
+      <c r="CH153" s="30">
         <v>2021</v>
       </c>
-      <c r="CI153" s="34"/>
-      <c r="CJ153" s="34"/>
-      <c r="CK153" s="34"/>
-      <c r="CL153" s="34">
+      <c r="CI153" s="30"/>
+      <c r="CJ153" s="30"/>
+      <c r="CK153" s="30"/>
+      <c r="CL153" s="30">
         <v>2022</v>
       </c>
-      <c r="CM153" s="34"/>
-      <c r="CN153" s="34"/>
+      <c r="CM153" s="30"/>
+      <c r="CN153" s="30"/>
+      <c r="CO153" s="30"/>
     </row>
     <row r="154" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
@@ -27604,6 +27761,9 @@
       </c>
       <c r="CN154" s="7" t="s">
         <v>21</v>
+      </c>
+      <c r="CO154" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="155" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27884,9 +28044,11 @@
         <v>40.386598492293864</v>
       </c>
       <c r="CN156" s="26">
-        <v>35.058276190798679</v>
-      </c>
-      <c r="CO156" s="11"/>
+        <v>35.151239735263502</v>
+      </c>
+      <c r="CO156" s="26">
+        <v>39.714410745271564</v>
+      </c>
       <c r="CP156" s="11"/>
       <c r="CQ156" s="11"/>
       <c r="CR156" s="11"/>
@@ -28223,9 +28385,11 @@
         <v>1.9301613408157867</v>
       </c>
       <c r="CN157" s="26">
-        <v>1.811642637410487</v>
-      </c>
-      <c r="CO157" s="11"/>
+        <v>1.7988591773401337</v>
+      </c>
+      <c r="CO157" s="26">
+        <v>2.2434627359199242</v>
+      </c>
       <c r="CP157" s="11"/>
       <c r="CQ157" s="11"/>
       <c r="CR157" s="11"/>
@@ -28562,9 +28726,11 @@
         <v>1.6737259758123908</v>
       </c>
       <c r="CN158" s="26">
-        <v>1.6456764094052518</v>
-      </c>
-      <c r="CO158" s="11"/>
+        <v>1.684186846409736</v>
+      </c>
+      <c r="CO158" s="26">
+        <v>1.7774387289402775</v>
+      </c>
       <c r="CP158" s="11"/>
       <c r="CQ158" s="11"/>
       <c r="CR158" s="11"/>
@@ -28901,9 +29067,11 @@
         <v>14.820477775699233</v>
       </c>
       <c r="CN159" s="26">
-        <v>12.672022805474306</v>
-      </c>
-      <c r="CO159" s="11"/>
+        <v>12.67802711598868</v>
+      </c>
+      <c r="CO159" s="26">
+        <v>11.125892844071194</v>
+      </c>
       <c r="CP159" s="11"/>
       <c r="CQ159" s="11"/>
       <c r="CR159" s="11"/>
@@ -29240,9 +29408,11 @@
         <v>2.658125012734792</v>
       </c>
       <c r="CN160" s="26">
-        <v>3.0090483472403351</v>
-      </c>
-      <c r="CO160" s="11"/>
+        <v>2.9882198149321342</v>
+      </c>
+      <c r="CO160" s="26">
+        <v>2.7091160707695972</v>
+      </c>
       <c r="CP160" s="11"/>
       <c r="CQ160" s="11"/>
       <c r="CR160" s="11"/>
@@ -29579,9 +29749,11 @@
         <v>3.5635325484111213</v>
       </c>
       <c r="CN161" s="26">
-        <v>5.387816191163207</v>
-      </c>
-      <c r="CO161" s="11"/>
+        <v>5.3061834890078057</v>
+      </c>
+      <c r="CO161" s="26">
+        <v>4.0111042950942055</v>
+      </c>
       <c r="CP161" s="11"/>
       <c r="CQ161" s="11"/>
       <c r="CR161" s="11"/>
@@ -29918,9 +30090,11 @@
         <v>7.6311450485028924</v>
       </c>
       <c r="CN162" s="26">
-        <v>11.27571442030456</v>
-      </c>
-      <c r="CO162" s="11"/>
+        <v>11.201828988370851</v>
+      </c>
+      <c r="CO162" s="26">
+        <v>7.7402658348392563</v>
+      </c>
       <c r="CP162" s="11"/>
       <c r="CQ162" s="11"/>
       <c r="CR162" s="11"/>
@@ -30257,9 +30431,11 @@
         <v>3.281450462649302</v>
       </c>
       <c r="CN163" s="26">
-        <v>2.3484407842842439</v>
-      </c>
-      <c r="CO163" s="11"/>
+        <v>2.3456662028536286</v>
+      </c>
+      <c r="CO163" s="26">
+        <v>2.6026154716848313</v>
+      </c>
       <c r="CP163" s="11"/>
       <c r="CQ163" s="11"/>
       <c r="CR163" s="11"/>
@@ -30596,9 +30772,11 @@
         <v>1.0824917908333125</v>
       </c>
       <c r="CN164" s="26">
-        <v>1.287643483784602</v>
-      </c>
-      <c r="CO164" s="11"/>
+        <v>1.2885466707662028</v>
+      </c>
+      <c r="CO164" s="26">
+        <v>1.7360859678673215</v>
+      </c>
       <c r="CP164" s="11"/>
       <c r="CQ164" s="11"/>
       <c r="CR164" s="11"/>
@@ -30935,9 +31113,11 @@
         <v>4.8256065402639523</v>
       </c>
       <c r="CN165" s="26">
-        <v>5.3168377883684093</v>
-      </c>
-      <c r="CO165" s="11"/>
+        <v>5.3126282072839901</v>
+      </c>
+      <c r="CO165" s="26">
+        <v>4.5805596084770768</v>
+      </c>
       <c r="CP165" s="11"/>
       <c r="CQ165" s="11"/>
       <c r="CR165" s="11"/>
@@ -31274,9 +31454,11 @@
         <v>4.7014993247610217</v>
       </c>
       <c r="CN166" s="26">
-        <v>6.9685605436369258</v>
-      </c>
-      <c r="CO166" s="11"/>
+        <v>7.0163830371873086</v>
+      </c>
+      <c r="CO166" s="26">
+        <v>7.6623676634329962</v>
+      </c>
       <c r="CP166" s="11"/>
       <c r="CQ166" s="11"/>
       <c r="CR166" s="11"/>
@@ -31613,9 +31795,11 @@
         <v>13.445185687222347</v>
       </c>
       <c r="CN167" s="26">
-        <v>13.218320398128993</v>
-      </c>
-      <c r="CO167" s="11"/>
+        <v>13.228230714596013</v>
+      </c>
+      <c r="CO167" s="26">
+        <v>14.096680033631747</v>
+      </c>
       <c r="CP167" s="11"/>
       <c r="CQ167" s="11"/>
       <c r="CR167" s="11"/>
@@ -32108,7 +32292,9 @@
       <c r="CN169" s="26">
         <v>100</v>
       </c>
-      <c r="CO169" s="11"/>
+      <c r="CO169" s="26">
+        <v>100</v>
+      </c>
       <c r="CP169" s="11"/>
       <c r="CQ169" s="11"/>
       <c r="CR169" s="11"/>
@@ -32263,6 +32449,7 @@
       <c r="CL170" s="16"/>
       <c r="CM170" s="16"/>
       <c r="CN170" s="16"/>
+      <c r="CO170" s="16"/>
     </row>
     <row r="171" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A171" s="18" t="s">
@@ -32589,7 +32776,7 @@
     </row>
     <row r="176" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="178" spans="1:153" x14ac:dyDescent="0.2">
@@ -32599,7 +32786,7 @@
     </row>
     <row r="179" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="180" spans="1:153" x14ac:dyDescent="0.2">
@@ -32609,143 +32796,144 @@
     </row>
     <row r="182" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A182" s="4"/>
-      <c r="B182" s="33">
+      <c r="B182" s="31">
         <v>2000</v>
       </c>
-      <c r="C182" s="33"/>
-      <c r="D182" s="33"/>
-      <c r="E182" s="33"/>
-      <c r="F182" s="33">
+      <c r="C182" s="31"/>
+      <c r="D182" s="31"/>
+      <c r="E182" s="31"/>
+      <c r="F182" s="31">
         <v>2001</v>
       </c>
-      <c r="G182" s="33"/>
-      <c r="H182" s="33"/>
-      <c r="I182" s="33"/>
-      <c r="J182" s="33">
+      <c r="G182" s="31"/>
+      <c r="H182" s="31"/>
+      <c r="I182" s="31"/>
+      <c r="J182" s="31">
         <v>2002</v>
       </c>
-      <c r="K182" s="33"/>
-      <c r="L182" s="33"/>
-      <c r="M182" s="33"/>
-      <c r="N182" s="33">
+      <c r="K182" s="31"/>
+      <c r="L182" s="31"/>
+      <c r="M182" s="31"/>
+      <c r="N182" s="31">
         <v>2003</v>
       </c>
-      <c r="O182" s="33"/>
-      <c r="P182" s="33"/>
-      <c r="Q182" s="33"/>
-      <c r="R182" s="33">
+      <c r="O182" s="31"/>
+      <c r="P182" s="31"/>
+      <c r="Q182" s="31"/>
+      <c r="R182" s="31">
         <v>2004</v>
       </c>
-      <c r="S182" s="33"/>
-      <c r="T182" s="33"/>
-      <c r="U182" s="33"/>
-      <c r="V182" s="33">
+      <c r="S182" s="31"/>
+      <c r="T182" s="31"/>
+      <c r="U182" s="31"/>
+      <c r="V182" s="31">
         <v>2005</v>
       </c>
-      <c r="W182" s="33"/>
-      <c r="X182" s="33"/>
-      <c r="Y182" s="33"/>
-      <c r="Z182" s="33">
+      <c r="W182" s="31"/>
+      <c r="X182" s="31"/>
+      <c r="Y182" s="31"/>
+      <c r="Z182" s="31">
         <v>2006</v>
       </c>
-      <c r="AA182" s="33"/>
-      <c r="AB182" s="33"/>
-      <c r="AC182" s="33"/>
-      <c r="AD182" s="33">
+      <c r="AA182" s="31"/>
+      <c r="AB182" s="31"/>
+      <c r="AC182" s="31"/>
+      <c r="AD182" s="31">
         <v>2007</v>
       </c>
-      <c r="AE182" s="33"/>
-      <c r="AF182" s="33"/>
-      <c r="AG182" s="33"/>
-      <c r="AH182" s="33">
+      <c r="AE182" s="31"/>
+      <c r="AF182" s="31"/>
+      <c r="AG182" s="31"/>
+      <c r="AH182" s="31">
         <v>2008</v>
       </c>
-      <c r="AI182" s="33"/>
-      <c r="AJ182" s="33"/>
-      <c r="AK182" s="33"/>
-      <c r="AL182" s="33">
+      <c r="AI182" s="31"/>
+      <c r="AJ182" s="31"/>
+      <c r="AK182" s="31"/>
+      <c r="AL182" s="31">
         <v>2009</v>
       </c>
-      <c r="AM182" s="33"/>
-      <c r="AN182" s="33"/>
-      <c r="AO182" s="33"/>
-      <c r="AP182" s="33">
+      <c r="AM182" s="31"/>
+      <c r="AN182" s="31"/>
+      <c r="AO182" s="31"/>
+      <c r="AP182" s="31">
         <v>2010</v>
       </c>
-      <c r="AQ182" s="33"/>
-      <c r="AR182" s="33"/>
-      <c r="AS182" s="33"/>
-      <c r="AT182" s="33">
+      <c r="AQ182" s="31"/>
+      <c r="AR182" s="31"/>
+      <c r="AS182" s="31"/>
+      <c r="AT182" s="31">
         <v>2011</v>
       </c>
-      <c r="AU182" s="33"/>
-      <c r="AV182" s="33"/>
-      <c r="AW182" s="33"/>
-      <c r="AX182" s="33">
+      <c r="AU182" s="31"/>
+      <c r="AV182" s="31"/>
+      <c r="AW182" s="31"/>
+      <c r="AX182" s="31">
         <v>2012</v>
       </c>
-      <c r="AY182" s="33"/>
-      <c r="AZ182" s="33"/>
-      <c r="BA182" s="33"/>
-      <c r="BB182" s="33">
+      <c r="AY182" s="31"/>
+      <c r="AZ182" s="31"/>
+      <c r="BA182" s="31"/>
+      <c r="BB182" s="31">
         <v>2013</v>
       </c>
-      <c r="BC182" s="33"/>
-      <c r="BD182" s="33"/>
-      <c r="BE182" s="33"/>
-      <c r="BF182" s="33">
+      <c r="BC182" s="31"/>
+      <c r="BD182" s="31"/>
+      <c r="BE182" s="31"/>
+      <c r="BF182" s="31">
         <v>2014</v>
       </c>
-      <c r="BG182" s="33"/>
-      <c r="BH182" s="33"/>
-      <c r="BI182" s="33"/>
-      <c r="BJ182" s="33">
+      <c r="BG182" s="31"/>
+      <c r="BH182" s="31"/>
+      <c r="BI182" s="31"/>
+      <c r="BJ182" s="31">
         <v>2015</v>
       </c>
-      <c r="BK182" s="33"/>
-      <c r="BL182" s="33"/>
-      <c r="BM182" s="33"/>
-      <c r="BN182" s="33">
+      <c r="BK182" s="31"/>
+      <c r="BL182" s="31"/>
+      <c r="BM182" s="31"/>
+      <c r="BN182" s="31">
         <v>2016</v>
       </c>
-      <c r="BO182" s="33"/>
-      <c r="BP182" s="33"/>
-      <c r="BQ182" s="33"/>
-      <c r="BR182" s="34">
+      <c r="BO182" s="31"/>
+      <c r="BP182" s="31"/>
+      <c r="BQ182" s="31"/>
+      <c r="BR182" s="30">
         <v>2017</v>
       </c>
-      <c r="BS182" s="34"/>
-      <c r="BT182" s="34"/>
-      <c r="BU182" s="34"/>
-      <c r="BV182" s="34">
+      <c r="BS182" s="30"/>
+      <c r="BT182" s="30"/>
+      <c r="BU182" s="30"/>
+      <c r="BV182" s="30">
         <v>2018</v>
       </c>
-      <c r="BW182" s="34"/>
-      <c r="BX182" s="34"/>
-      <c r="BY182" s="34"/>
-      <c r="BZ182" s="34">
+      <c r="BW182" s="30"/>
+      <c r="BX182" s="30"/>
+      <c r="BY182" s="30"/>
+      <c r="BZ182" s="30">
         <v>2019</v>
       </c>
-      <c r="CA182" s="34"/>
-      <c r="CB182" s="34"/>
-      <c r="CC182" s="34"/>
-      <c r="CD182" s="34">
+      <c r="CA182" s="30"/>
+      <c r="CB182" s="30"/>
+      <c r="CC182" s="30"/>
+      <c r="CD182" s="30">
         <v>2020</v>
       </c>
-      <c r="CE182" s="34"/>
-      <c r="CF182" s="34"/>
-      <c r="CG182" s="34"/>
-      <c r="CH182" s="34">
+      <c r="CE182" s="30"/>
+      <c r="CF182" s="30"/>
+      <c r="CG182" s="30"/>
+      <c r="CH182" s="30">
         <v>2021</v>
       </c>
-      <c r="CI182" s="34"/>
-      <c r="CJ182" s="34"/>
-      <c r="CK182" s="34"/>
-      <c r="CL182" s="34">
+      <c r="CI182" s="30"/>
+      <c r="CJ182" s="30"/>
+      <c r="CK182" s="30"/>
+      <c r="CL182" s="30">
         <v>2022</v>
       </c>
-      <c r="CM182" s="34"/>
-      <c r="CN182" s="34"/>
+      <c r="CM182" s="30"/>
+      <c r="CN182" s="30"/>
+      <c r="CO182" s="30"/>
     </row>
     <row r="183" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
@@ -33023,6 +33211,9 @@
       </c>
       <c r="CN183" s="7" t="s">
         <v>21</v>
+      </c>
+      <c r="CO183" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="184" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -33303,9 +33494,11 @@
         <v>39.992660534029831</v>
       </c>
       <c r="CN185" s="26">
-        <v>34.920848268517055</v>
-      </c>
-      <c r="CO185" s="11"/>
+        <v>35.00751367401336</v>
+      </c>
+      <c r="CO185" s="26">
+        <v>38.453219864560644</v>
+      </c>
       <c r="CP185" s="11"/>
       <c r="CQ185" s="11"/>
       <c r="CR185" s="11"/>
@@ -33642,9 +33835,11 @@
         <v>1.4174842092962083</v>
       </c>
       <c r="CN186" s="26">
-        <v>1.272857805803532</v>
-      </c>
-      <c r="CO186" s="11"/>
+        <v>1.263661974178411</v>
+      </c>
+      <c r="CO186" s="26">
+        <v>1.6462570450055052</v>
+      </c>
       <c r="CP186" s="11"/>
       <c r="CQ186" s="11"/>
       <c r="CR186" s="11"/>
@@ -33981,9 +34176,11 @@
         <v>1.6466306793185461</v>
       </c>
       <c r="CN187" s="26">
-        <v>1.8171250155426251</v>
-      </c>
-      <c r="CO187" s="11"/>
+        <v>1.8593323633975594</v>
+      </c>
+      <c r="CO187" s="26">
+        <v>1.9083527294871931</v>
+      </c>
       <c r="CP187" s="11"/>
       <c r="CQ187" s="11"/>
       <c r="CR187" s="11"/>
@@ -34320,9 +34517,11 @@
         <v>15.330506403073811</v>
       </c>
       <c r="CN188" s="26">
-        <v>12.561146879053098</v>
-      </c>
-      <c r="CO188" s="11"/>
+        <v>12.56496890970366</v>
+      </c>
+      <c r="CO188" s="26">
+        <v>11.004088160644663</v>
+      </c>
       <c r="CP188" s="11"/>
       <c r="CQ188" s="11"/>
       <c r="CR188" s="11"/>
@@ -34659,9 +34858,11 @@
         <v>2.7071103844788857</v>
       </c>
       <c r="CN189" s="26">
-        <v>3.0918975310688319</v>
-      </c>
-      <c r="CO189" s="11"/>
+        <v>3.0699751630952772</v>
+      </c>
+      <c r="CO189" s="26">
+        <v>2.8058953501004749</v>
+      </c>
       <c r="CP189" s="11"/>
       <c r="CQ189" s="11"/>
       <c r="CR189" s="11"/>
@@ -34998,9 +35199,11 @@
         <v>3.7248368764571036</v>
       </c>
       <c r="CN190" s="26">
-        <v>5.5459196057958513</v>
-      </c>
-      <c r="CO190" s="11"/>
+        <v>5.4609657972246541</v>
+      </c>
+      <c r="CO190" s="26">
+        <v>4.0639167050926872</v>
+      </c>
       <c r="CP190" s="11"/>
       <c r="CQ190" s="11"/>
       <c r="CR190" s="11"/>
@@ -35337,9 +35540,11 @@
         <v>6.9751383420200934</v>
       </c>
       <c r="CN191" s="26">
-        <v>9.3524715736494084</v>
-      </c>
-      <c r="CO191" s="11"/>
+        <v>9.2896138382591982</v>
+      </c>
+      <c r="CO191" s="26">
+        <v>7.0904574478380926</v>
+      </c>
       <c r="CP191" s="11"/>
       <c r="CQ191" s="11"/>
       <c r="CR191" s="11"/>
@@ -35676,9 +35881,11 @@
         <v>3.6681225344374964</v>
       </c>
       <c r="CN192" s="26">
-        <v>2.7599843866014542</v>
-      </c>
-      <c r="CO192" s="11"/>
+        <v>2.7562564026675571</v>
+      </c>
+      <c r="CO192" s="26">
+        <v>3.0834958755770114</v>
+      </c>
       <c r="CP192" s="11"/>
       <c r="CQ192" s="11"/>
       <c r="CR192" s="11"/>
@@ -36015,9 +36222,11 @@
         <v>1.1966526571129854</v>
       </c>
       <c r="CN193" s="26">
-        <v>1.4633534651477869</v>
-      </c>
-      <c r="CO193" s="11"/>
+        <v>1.4641317315041515</v>
+      </c>
+      <c r="CO193" s="26">
+        <v>1.872131780184932</v>
+      </c>
       <c r="CP193" s="11"/>
       <c r="CQ193" s="11"/>
       <c r="CR193" s="11"/>
@@ -36354,9 +36563,11 @@
         <v>5.1655768198596341</v>
       </c>
       <c r="CN194" s="26">
-        <v>5.7588721798986926</v>
-      </c>
-      <c r="CO194" s="11"/>
+        <v>5.7533374377558744</v>
+      </c>
+      <c r="CO194" s="26">
+        <v>5.1736758613927476</v>
+      </c>
       <c r="CP194" s="11"/>
       <c r="CQ194" s="11"/>
       <c r="CR194" s="11"/>
@@ -36693,9 +36904,11 @@
         <v>4.9446315415412032</v>
       </c>
       <c r="CN195" s="26">
-        <v>6.9164428202517421</v>
-      </c>
-      <c r="CO195" s="11"/>
+        <v>6.9627274780394144</v>
+      </c>
+      <c r="CO195" s="26">
+        <v>7.6376589649339186</v>
+      </c>
       <c r="CP195" s="11"/>
       <c r="CQ195" s="11"/>
       <c r="CR195" s="11"/>
@@ -37032,9 +37245,11 @@
         <v>13.230649018374201</v>
       </c>
       <c r="CN196" s="26">
-        <v>14.53908046866993</v>
-      </c>
-      <c r="CO196" s="11"/>
+        <v>14.547515230160881</v>
+      </c>
+      <c r="CO196" s="26">
+        <v>15.260850215182131</v>
+      </c>
       <c r="CP196" s="11"/>
       <c r="CQ196" s="11"/>
       <c r="CR196" s="11"/>
@@ -37527,7 +37742,9 @@
       <c r="CN198" s="26">
         <v>100</v>
       </c>
-      <c r="CO198" s="11"/>
+      <c r="CO198" s="26">
+        <v>100</v>
+      </c>
       <c r="CP198" s="11"/>
       <c r="CQ198" s="11"/>
       <c r="CR198" s="11"/>
@@ -37682,6 +37899,7 @@
       <c r="CL199" s="16"/>
       <c r="CM199" s="16"/>
       <c r="CN199" s="16"/>
+      <c r="CO199" s="16"/>
     </row>
     <row r="200" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A200" s="18" t="s">
@@ -37781,7 +37999,7 @@
       <c r="CL201" s="1"/>
       <c r="CM201" s="1"/>
       <c r="CN201" s="1"/>
-      <c r="CO201" s="28"/>
+      <c r="CO201" s="1"/>
       <c r="CP201" s="28"/>
       <c r="CQ201" s="28"/>
       <c r="CR201" s="28"/>
@@ -37936,7 +38154,7 @@
       <c r="CL202" s="1"/>
       <c r="CM202" s="1"/>
       <c r="CN202" s="1"/>
-      <c r="CO202" s="28"/>
+      <c r="CO202" s="1"/>
       <c r="CP202" s="28"/>
       <c r="CQ202" s="28"/>
       <c r="CR202" s="28"/>
@@ -38000,62 +38218,88 @@
     </row>
   </sheetData>
   <mergeCells count="161">
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH38:CK38"/>
-    <mergeCell ref="CL9:CN9"/>
-    <mergeCell ref="CL38:CN38"/>
-    <mergeCell ref="CH67:CJ67"/>
-    <mergeCell ref="CL67:CM67"/>
-    <mergeCell ref="CH96:CJ96"/>
-    <mergeCell ref="CL96:CM96"/>
-    <mergeCell ref="CL124:CN124"/>
-    <mergeCell ref="CL153:CN153"/>
-    <mergeCell ref="CL182:CN182"/>
-    <mergeCell ref="CH124:CK124"/>
-    <mergeCell ref="CH153:CK153"/>
-    <mergeCell ref="CH182:CK182"/>
-    <mergeCell ref="AH124:AK124"/>
-    <mergeCell ref="BR182:BU182"/>
-    <mergeCell ref="BV182:BY182"/>
-    <mergeCell ref="BZ124:CC124"/>
-    <mergeCell ref="BR124:BU124"/>
-    <mergeCell ref="BV124:BY124"/>
-    <mergeCell ref="BR153:BU153"/>
-    <mergeCell ref="BV153:BY153"/>
-    <mergeCell ref="BZ153:CC153"/>
-    <mergeCell ref="AH153:AK153"/>
-    <mergeCell ref="BN182:BQ182"/>
-    <mergeCell ref="BB153:BE153"/>
-    <mergeCell ref="BF153:BI153"/>
-    <mergeCell ref="BJ153:BM153"/>
-    <mergeCell ref="BN153:BQ153"/>
-    <mergeCell ref="AP153:AS153"/>
-    <mergeCell ref="AT153:AW153"/>
-    <mergeCell ref="AX153:BA153"/>
-    <mergeCell ref="AX182:BA182"/>
-    <mergeCell ref="BB182:BE182"/>
-    <mergeCell ref="BZ182:CC182"/>
-    <mergeCell ref="BV38:BY38"/>
-    <mergeCell ref="BZ67:CC67"/>
-    <mergeCell ref="BZ96:CC96"/>
-    <mergeCell ref="BJ96:BM96"/>
-    <mergeCell ref="BB38:BE38"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD38:CG38"/>
-    <mergeCell ref="CD124:CG124"/>
-    <mergeCell ref="CD153:CG153"/>
-    <mergeCell ref="CD182:CG182"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BR67:BU67"/>
-    <mergeCell ref="BV67:BY67"/>
-    <mergeCell ref="BR96:BU96"/>
-    <mergeCell ref="BV96:BY96"/>
-    <mergeCell ref="BZ38:CC38"/>
-    <mergeCell ref="CD67:CG67"/>
-    <mergeCell ref="CD96:CG96"/>
-    <mergeCell ref="AL182:AO182"/>
+    <mergeCell ref="CL182:CO182"/>
+    <mergeCell ref="CL67:CO67"/>
+    <mergeCell ref="CL96:CO96"/>
+    <mergeCell ref="B182:E182"/>
+    <mergeCell ref="F182:I182"/>
+    <mergeCell ref="J182:M182"/>
+    <mergeCell ref="N182:Q182"/>
+    <mergeCell ref="R182:U182"/>
+    <mergeCell ref="V182:Y182"/>
+    <mergeCell ref="Z182:AC182"/>
+    <mergeCell ref="AD182:AG182"/>
+    <mergeCell ref="AH182:AK182"/>
+    <mergeCell ref="B124:E124"/>
+    <mergeCell ref="F124:I124"/>
+    <mergeCell ref="J124:M124"/>
+    <mergeCell ref="N124:Q124"/>
+    <mergeCell ref="R124:U124"/>
+    <mergeCell ref="V124:Y124"/>
+    <mergeCell ref="Z124:AC124"/>
+    <mergeCell ref="AD124:AG124"/>
+    <mergeCell ref="F153:I153"/>
+    <mergeCell ref="J153:M153"/>
+    <mergeCell ref="N153:Q153"/>
+    <mergeCell ref="R153:U153"/>
+    <mergeCell ref="V153:Y153"/>
+    <mergeCell ref="Z153:AC153"/>
+    <mergeCell ref="AD153:AG153"/>
+    <mergeCell ref="B153:E153"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="F96:I96"/>
+    <mergeCell ref="J96:M96"/>
+    <mergeCell ref="N96:Q96"/>
+    <mergeCell ref="R96:U96"/>
+    <mergeCell ref="V96:Y96"/>
+    <mergeCell ref="Z96:AC96"/>
+    <mergeCell ref="AD96:AG96"/>
+    <mergeCell ref="AH96:AK96"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="N67:Q67"/>
+    <mergeCell ref="R67:U67"/>
+    <mergeCell ref="V67:Y67"/>
+    <mergeCell ref="Z67:AC67"/>
+    <mergeCell ref="AD67:AG67"/>
+    <mergeCell ref="AH67:AK67"/>
+    <mergeCell ref="AL67:AO67"/>
+    <mergeCell ref="AP67:AS67"/>
+    <mergeCell ref="AT67:AW67"/>
+    <mergeCell ref="AX67:BA67"/>
+    <mergeCell ref="BB67:BE67"/>
+    <mergeCell ref="BF67:BI67"/>
+    <mergeCell ref="BJ67:BM67"/>
+    <mergeCell ref="BN67:BQ67"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="N38:Q38"/>
+    <mergeCell ref="R38:U38"/>
+    <mergeCell ref="V38:Y38"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="Z38:AC38"/>
+    <mergeCell ref="AD38:AG38"/>
+    <mergeCell ref="AH38:AK38"/>
+    <mergeCell ref="AL38:AO38"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="BF38:BI38"/>
+    <mergeCell ref="AP38:AS38"/>
+    <mergeCell ref="AT38:AW38"/>
+    <mergeCell ref="AX38:BA38"/>
     <mergeCell ref="AP182:AS182"/>
     <mergeCell ref="AT182:AW182"/>
     <mergeCell ref="BF124:BI124"/>
@@ -38079,96 +38323,70 @@
     <mergeCell ref="AX96:BA96"/>
     <mergeCell ref="BB96:BE96"/>
     <mergeCell ref="BF96:BI96"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
     <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="BV38:BY38"/>
+    <mergeCell ref="BZ67:CC67"/>
+    <mergeCell ref="BZ96:CC96"/>
+    <mergeCell ref="BJ96:BM96"/>
+    <mergeCell ref="BB38:BE38"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD38:CG38"/>
+    <mergeCell ref="CD124:CG124"/>
+    <mergeCell ref="CD153:CG153"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BR67:BU67"/>
+    <mergeCell ref="BV67:BY67"/>
+    <mergeCell ref="BR96:BU96"/>
+    <mergeCell ref="BV96:BY96"/>
+    <mergeCell ref="BZ38:CC38"/>
+    <mergeCell ref="CD67:CG67"/>
+    <mergeCell ref="CD96:CG96"/>
     <mergeCell ref="BJ38:BM38"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="Z38:AC38"/>
-    <mergeCell ref="AD38:AG38"/>
-    <mergeCell ref="AH38:AK38"/>
-    <mergeCell ref="AL38:AO38"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="BF38:BI38"/>
-    <mergeCell ref="AP38:AS38"/>
-    <mergeCell ref="AT38:AW38"/>
-    <mergeCell ref="AX38:BA38"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="N67:Q67"/>
-    <mergeCell ref="R67:U67"/>
-    <mergeCell ref="V67:Y67"/>
-    <mergeCell ref="Z67:AC67"/>
-    <mergeCell ref="AD67:AG67"/>
     <mergeCell ref="BR38:BU38"/>
-    <mergeCell ref="AH67:AK67"/>
-    <mergeCell ref="AL67:AO67"/>
-    <mergeCell ref="AP67:AS67"/>
-    <mergeCell ref="AT67:AW67"/>
-    <mergeCell ref="AX67:BA67"/>
-    <mergeCell ref="BB67:BE67"/>
-    <mergeCell ref="BF67:BI67"/>
-    <mergeCell ref="BJ67:BM67"/>
-    <mergeCell ref="BN67:BQ67"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="R38:U38"/>
-    <mergeCell ref="V38:Y38"/>
-    <mergeCell ref="B96:E96"/>
-    <mergeCell ref="F96:I96"/>
-    <mergeCell ref="J96:M96"/>
-    <mergeCell ref="N96:Q96"/>
-    <mergeCell ref="R96:U96"/>
-    <mergeCell ref="V96:Y96"/>
-    <mergeCell ref="Z96:AC96"/>
-    <mergeCell ref="AD96:AG96"/>
-    <mergeCell ref="AH96:AK96"/>
-    <mergeCell ref="B124:E124"/>
-    <mergeCell ref="F124:I124"/>
-    <mergeCell ref="J124:M124"/>
-    <mergeCell ref="N124:Q124"/>
-    <mergeCell ref="R124:U124"/>
-    <mergeCell ref="V124:Y124"/>
-    <mergeCell ref="Z124:AC124"/>
-    <mergeCell ref="AD124:AG124"/>
-    <mergeCell ref="F153:I153"/>
-    <mergeCell ref="J153:M153"/>
-    <mergeCell ref="N153:Q153"/>
-    <mergeCell ref="R153:U153"/>
-    <mergeCell ref="V153:Y153"/>
-    <mergeCell ref="Z153:AC153"/>
-    <mergeCell ref="AD153:AG153"/>
-    <mergeCell ref="B153:E153"/>
-    <mergeCell ref="B182:E182"/>
-    <mergeCell ref="F182:I182"/>
-    <mergeCell ref="J182:M182"/>
-    <mergeCell ref="N182:Q182"/>
-    <mergeCell ref="R182:U182"/>
-    <mergeCell ref="V182:Y182"/>
-    <mergeCell ref="Z182:AC182"/>
-    <mergeCell ref="AD182:AG182"/>
-    <mergeCell ref="AH182:AK182"/>
+    <mergeCell ref="CH182:CK182"/>
+    <mergeCell ref="AH124:AK124"/>
+    <mergeCell ref="BR182:BU182"/>
+    <mergeCell ref="BV182:BY182"/>
+    <mergeCell ref="BZ124:CC124"/>
+    <mergeCell ref="BR124:BU124"/>
+    <mergeCell ref="BV124:BY124"/>
+    <mergeCell ref="BR153:BU153"/>
+    <mergeCell ref="BV153:BY153"/>
+    <mergeCell ref="BZ153:CC153"/>
+    <mergeCell ref="AH153:AK153"/>
+    <mergeCell ref="BN182:BQ182"/>
+    <mergeCell ref="BB153:BE153"/>
+    <mergeCell ref="BF153:BI153"/>
+    <mergeCell ref="BJ153:BM153"/>
+    <mergeCell ref="BN153:BQ153"/>
+    <mergeCell ref="AP153:AS153"/>
+    <mergeCell ref="AT153:AW153"/>
+    <mergeCell ref="AX153:BA153"/>
+    <mergeCell ref="AX182:BA182"/>
+    <mergeCell ref="BB182:BE182"/>
+    <mergeCell ref="BZ182:CC182"/>
+    <mergeCell ref="CD182:CG182"/>
+    <mergeCell ref="AL182:AO182"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH38:CK38"/>
+    <mergeCell ref="CL9:CO9"/>
+    <mergeCell ref="CL38:CO38"/>
+    <mergeCell ref="CH67:CK67"/>
+    <mergeCell ref="CH96:CK96"/>
+    <mergeCell ref="CL124:CO124"/>
+    <mergeCell ref="CH124:CK124"/>
+    <mergeCell ref="CH153:CK153"/>
+    <mergeCell ref="CL153:CO153"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="44" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="58" max="91" man="1"/>
-    <brk id="116" max="91" man="1"/>
-    <brk id="144" max="91" man="1"/>
+    <brk id="58" max="92" man="1"/>
+    <brk id="116" max="92" man="1"/>
+    <brk id="144" max="92" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-02HFCE_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-02HFCE_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0E0DAA-4166-49BD-B8E5-A458BC768054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9AF6D5-451A-4570-AB0A-82A0EF7A76B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13650" yWindow="1395" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HFCE" sheetId="1" r:id="rId1"/>
@@ -220,13 +220,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of January 2023</t>
-  </si>
-  <si>
     <t>Q1 2000 to Q4 2022</t>
   </si>
   <si>
     <t>Q1 2001 to Q4 2022</t>
+  </si>
+  <si>
+    <t>As of April 2023</t>
   </si>
 </sst>
 </file>
@@ -308,10 +308,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="32">
@@ -355,16 +356,17 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Comma 3" xfId="4" xr:uid="{65EA0E87-29E4-4C60-992A-A56EAD964E49}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
@@ -683,7 +685,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -697,11 +699,11 @@
   <dimension ref="A1:EW202"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="CH2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="BX2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="CA66" sqref="CA66"/>
       <selection pane="topRight" activeCell="CA66" sqref="CA66"/>
       <selection pane="bottomLeft" activeCell="CA66" sqref="CA66"/>
-      <selection pane="bottomRight" activeCell="CP10" sqref="CP10"/>
+      <selection pane="bottomRight" activeCell="CD1" sqref="CD1:CO1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -745,7 +747,7 @@
     </row>
     <row r="3" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:153" x14ac:dyDescent="0.2">
@@ -755,7 +757,7 @@
     </row>
     <row r="6" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:153" x14ac:dyDescent="0.2">
@@ -765,144 +767,144 @@
     </row>
     <row r="9" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="31">
+      <c r="B9" s="30">
         <v>2000</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31">
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30">
         <v>2001</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31">
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30">
         <v>2002</v>
       </c>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31">
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30">
         <v>2003</v>
       </c>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31">
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30">
         <v>2004</v>
       </c>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31">
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30">
         <v>2005</v>
       </c>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31">
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30">
         <v>2006</v>
       </c>
-      <c r="AA9" s="31"/>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="31"/>
-      <c r="AD9" s="31">
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30">
         <v>2007</v>
       </c>
-      <c r="AE9" s="31"/>
-      <c r="AF9" s="31"/>
-      <c r="AG9" s="31"/>
-      <c r="AH9" s="31">
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="30">
         <v>2008</v>
       </c>
-      <c r="AI9" s="31"/>
-      <c r="AJ9" s="31"/>
-      <c r="AK9" s="31"/>
-      <c r="AL9" s="31">
+      <c r="AI9" s="30"/>
+      <c r="AJ9" s="30"/>
+      <c r="AK9" s="30"/>
+      <c r="AL9" s="30">
         <v>2009</v>
       </c>
-      <c r="AM9" s="31"/>
-      <c r="AN9" s="31"/>
-      <c r="AO9" s="31"/>
-      <c r="AP9" s="31">
+      <c r="AM9" s="30"/>
+      <c r="AN9" s="30"/>
+      <c r="AO9" s="30"/>
+      <c r="AP9" s="30">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="31"/>
-      <c r="AR9" s="31"/>
-      <c r="AS9" s="31"/>
-      <c r="AT9" s="31">
+      <c r="AQ9" s="30"/>
+      <c r="AR9" s="30"/>
+      <c r="AS9" s="30"/>
+      <c r="AT9" s="30">
         <v>2011</v>
       </c>
-      <c r="AU9" s="31"/>
-      <c r="AV9" s="31"/>
-      <c r="AW9" s="31"/>
-      <c r="AX9" s="31">
+      <c r="AU9" s="30"/>
+      <c r="AV9" s="30"/>
+      <c r="AW9" s="30"/>
+      <c r="AX9" s="30">
         <v>2012</v>
       </c>
-      <c r="AY9" s="31"/>
-      <c r="AZ9" s="31"/>
-      <c r="BA9" s="31"/>
-      <c r="BB9" s="31">
+      <c r="AY9" s="30"/>
+      <c r="AZ9" s="30"/>
+      <c r="BA9" s="30"/>
+      <c r="BB9" s="30">
         <v>2013</v>
       </c>
-      <c r="BC9" s="31"/>
-      <c r="BD9" s="31"/>
-      <c r="BE9" s="31"/>
-      <c r="BF9" s="31">
+      <c r="BC9" s="30"/>
+      <c r="BD9" s="30"/>
+      <c r="BE9" s="30"/>
+      <c r="BF9" s="30">
         <v>2014</v>
       </c>
-      <c r="BG9" s="31"/>
-      <c r="BH9" s="31"/>
-      <c r="BI9" s="31"/>
-      <c r="BJ9" s="31">
+      <c r="BG9" s="30"/>
+      <c r="BH9" s="30"/>
+      <c r="BI9" s="30"/>
+      <c r="BJ9" s="30">
         <v>2015</v>
       </c>
-      <c r="BK9" s="31"/>
-      <c r="BL9" s="31"/>
-      <c r="BM9" s="31"/>
-      <c r="BN9" s="31">
+      <c r="BK9" s="30"/>
+      <c r="BL9" s="30"/>
+      <c r="BM9" s="30"/>
+      <c r="BN9" s="30">
         <v>2016</v>
       </c>
-      <c r="BO9" s="31"/>
-      <c r="BP9" s="31"/>
-      <c r="BQ9" s="31"/>
-      <c r="BR9" s="30">
+      <c r="BO9" s="30"/>
+      <c r="BP9" s="30"/>
+      <c r="BQ9" s="30"/>
+      <c r="BR9" s="31">
         <v>2017</v>
       </c>
-      <c r="BS9" s="30"/>
-      <c r="BT9" s="30"/>
-      <c r="BU9" s="30"/>
-      <c r="BV9" s="30">
+      <c r="BS9" s="31"/>
+      <c r="BT9" s="31"/>
+      <c r="BU9" s="31"/>
+      <c r="BV9" s="31">
         <v>2018</v>
       </c>
-      <c r="BW9" s="30"/>
-      <c r="BX9" s="30"/>
-      <c r="BY9" s="30"/>
-      <c r="BZ9" s="30">
+      <c r="BW9" s="31"/>
+      <c r="BX9" s="31"/>
+      <c r="BY9" s="31"/>
+      <c r="BZ9" s="31">
         <v>2019</v>
       </c>
-      <c r="CA9" s="30"/>
-      <c r="CB9" s="30"/>
-      <c r="CC9" s="30"/>
-      <c r="CD9" s="30">
+      <c r="CA9" s="31"/>
+      <c r="CB9" s="31"/>
+      <c r="CC9" s="31"/>
+      <c r="CD9" s="31">
         <v>2020</v>
       </c>
-      <c r="CE9" s="30"/>
-      <c r="CF9" s="30"/>
-      <c r="CG9" s="30"/>
-      <c r="CH9" s="30">
+      <c r="CE9" s="31"/>
+      <c r="CF9" s="31"/>
+      <c r="CG9" s="31"/>
+      <c r="CH9" s="31">
         <v>2021</v>
       </c>
-      <c r="CI9" s="30"/>
-      <c r="CJ9" s="30"/>
-      <c r="CK9" s="30"/>
-      <c r="CL9" s="30">
+      <c r="CI9" s="31"/>
+      <c r="CJ9" s="31"/>
+      <c r="CK9" s="31"/>
+      <c r="CL9" s="31">
         <v>2022</v>
       </c>
-      <c r="CM9" s="30"/>
-      <c r="CN9" s="30"/>
-      <c r="CO9" s="30"/>
+      <c r="CM9" s="31"/>
+      <c r="CN9" s="31"/>
+      <c r="CO9" s="31"/>
     </row>
     <row r="10" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -1445,28 +1447,28 @@
         <v>1544681.8263330921</v>
       </c>
       <c r="CH12" s="10">
-        <v>1236811.1211619002</v>
+        <v>1236618.1788380479</v>
       </c>
       <c r="CI12" s="10">
         <v>1401791.9443192354</v>
       </c>
       <c r="CJ12" s="10">
-        <v>1302209.674542086</v>
+        <v>1302627.1928170507</v>
       </c>
       <c r="CK12" s="10">
-        <v>1693533.426457647</v>
+        <v>1690880.3451856137</v>
       </c>
       <c r="CL12" s="10">
-        <v>1384611.9383681593</v>
+        <v>1383392.0048945465</v>
       </c>
       <c r="CM12" s="10">
-        <v>1566368.7437218034</v>
+        <v>1564274.8680853865</v>
       </c>
       <c r="CN12" s="10">
-        <v>1451685.7820223121</v>
+        <v>1452966.6181643624</v>
       </c>
       <c r="CO12" s="10">
-        <v>1932064.3672458061</v>
+        <v>1931500.2484176089</v>
       </c>
       <c r="CP12" s="11"/>
       <c r="CQ12" s="11"/>
@@ -1786,28 +1788,28 @@
         <v>97971.245537869429</v>
       </c>
       <c r="CH13" s="10">
-        <v>62788.284477720146</v>
+        <v>62705.665983453422</v>
       </c>
       <c r="CI13" s="10">
-        <v>67900.438948393319</v>
+        <v>67984.409574185876</v>
       </c>
       <c r="CJ13" s="10">
-        <v>76128.250304789981</v>
+        <v>76147.069106228213</v>
       </c>
       <c r="CK13" s="10">
-        <v>95418.849656627441</v>
+        <v>95079.966968849665</v>
       </c>
       <c r="CL13" s="10">
-        <v>70230.878218037135</v>
+        <v>70726.395920509851</v>
       </c>
       <c r="CM13" s="10">
-        <v>74860.089917473437</v>
+        <v>75224.766215338052</v>
       </c>
       <c r="CN13" s="10">
-        <v>74289.792089048482</v>
+        <v>73988.939524007612</v>
       </c>
       <c r="CO13" s="10">
-        <v>109142.10559779602</v>
+        <v>109227.64524527798</v>
       </c>
       <c r="CP13" s="11"/>
       <c r="CQ13" s="11"/>
@@ -2127,28 +2129,28 @@
         <v>68797.959961477987</v>
       </c>
       <c r="CH14" s="10">
-        <v>52559.086574624613</v>
+        <v>52489.646568169454</v>
       </c>
       <c r="CI14" s="10">
-        <v>60576.339077702323</v>
+        <v>60509.628962402814</v>
       </c>
       <c r="CJ14" s="10">
-        <v>70001.752689121102</v>
+        <v>70000.339055162738</v>
       </c>
       <c r="CK14" s="10">
         <v>76081.423775545365</v>
       </c>
       <c r="CL14" s="10">
-        <v>57817.084034504573</v>
+        <v>57846.206084560916</v>
       </c>
       <c r="CM14" s="10">
-        <v>64914.406063883871</v>
+        <v>65091.509933443755</v>
       </c>
       <c r="CN14" s="10">
-        <v>69554.021923991808</v>
+        <v>69580.189789870652</v>
       </c>
       <c r="CO14" s="10">
-        <v>86470.527163922685</v>
+        <v>86797.581272444193</v>
       </c>
       <c r="CP14" s="11"/>
       <c r="CQ14" s="11"/>
@@ -2468,28 +2470,28 @@
         <v>451057.46615079546</v>
       </c>
       <c r="CH15" s="10">
-        <v>400136.84136947844</v>
+        <v>399597.35862438643</v>
       </c>
       <c r="CI15" s="10">
-        <v>504249.19990090112</v>
+        <v>504249.19990033458</v>
       </c>
       <c r="CJ15" s="10">
-        <v>479282.83653087175</v>
+        <v>479421.14696068218</v>
       </c>
       <c r="CK15" s="10">
-        <v>484662.72926057043</v>
+        <v>485121.81906793592</v>
       </c>
       <c r="CL15" s="10">
-        <v>445782.86298792978</v>
+        <v>443892.4360467603</v>
       </c>
       <c r="CM15" s="10">
-        <v>574802.88069589285</v>
+        <v>575919.96011569072</v>
       </c>
       <c r="CN15" s="10">
-        <v>523580.72850303527</v>
+        <v>523413.55395594909</v>
       </c>
       <c r="CO15" s="10">
-        <v>541263.00036780431</v>
+        <v>542954.16776765871</v>
       </c>
       <c r="CP15" s="11"/>
       <c r="CQ15" s="11"/>
@@ -2809,28 +2811,28 @@
         <v>113459.87011925412</v>
       </c>
       <c r="CH16" s="10">
-        <v>95557.045432071594</v>
+        <v>96380.265879923973</v>
       </c>
       <c r="CI16" s="10">
-        <v>93826.56251767186</v>
+        <v>92936.171679231833</v>
       </c>
       <c r="CJ16" s="10">
-        <v>109814.58531026123</v>
+        <v>109635.23357634757</v>
       </c>
       <c r="CK16" s="10">
-        <v>115005.54034744141</v>
+        <v>115232.79383796283</v>
       </c>
       <c r="CL16" s="10">
-        <v>106137.49800889417</v>
+        <v>107318.54362644965</v>
       </c>
       <c r="CM16" s="10">
-        <v>103093.70168045604</v>
+        <v>102654.88177364389</v>
       </c>
       <c r="CN16" s="10">
-        <v>123408.34211154476</v>
+        <v>123790.36496422309</v>
       </c>
       <c r="CO16" s="10">
-        <v>131795.65122189542</v>
+        <v>131512.8002420741</v>
       </c>
       <c r="CP16" s="11"/>
       <c r="CQ16" s="11"/>
@@ -3150,28 +3152,28 @@
         <v>149208.53151115493</v>
       </c>
       <c r="CH17" s="10">
-        <v>157511.99021181033</v>
+        <v>158392.30305216994</v>
       </c>
       <c r="CI17" s="10">
-        <v>138286.52297458102</v>
+        <v>138710.58520698952</v>
       </c>
       <c r="CJ17" s="10">
-        <v>203143.4364675151</v>
+        <v>203287.85802642434</v>
       </c>
       <c r="CK17" s="10">
-        <v>179695.24880874422</v>
+        <v>180198.24192837239</v>
       </c>
       <c r="CL17" s="10">
-        <v>163582.39680684087</v>
+        <v>164585.64785757253</v>
       </c>
       <c r="CM17" s="10">
-        <v>138209.36175477973</v>
+        <v>138406.19593863472</v>
       </c>
       <c r="CN17" s="10">
-        <v>219136.25766281766</v>
+        <v>219169.46898576446</v>
       </c>
       <c r="CO17" s="10">
-        <v>195136.01074342543</v>
+        <v>195015.04490842862</v>
       </c>
       <c r="CP17" s="11"/>
       <c r="CQ17" s="11"/>
@@ -3497,22 +3499,22 @@
         <v>205776.0592035951</v>
       </c>
       <c r="CJ18" s="10">
-        <v>333939.99540359835</v>
+        <v>334005.25608217501</v>
       </c>
       <c r="CK18" s="10">
         <v>310709.64314581646</v>
       </c>
       <c r="CL18" s="10">
-        <v>381175.32430561678</v>
+        <v>381571.43294314115</v>
       </c>
       <c r="CM18" s="10">
-        <v>295969.14642522112</v>
+        <v>296233.49817225453</v>
       </c>
       <c r="CN18" s="10">
-        <v>462616.28316767089</v>
+        <v>462893.07174638822</v>
       </c>
       <c r="CO18" s="10">
-        <v>376555.80258819682</v>
+        <v>375843.52030543314</v>
       </c>
       <c r="CP18" s="11"/>
       <c r="CQ18" s="11"/>
@@ -3832,28 +3834,28 @@
         <v>109826.06260712341</v>
       </c>
       <c r="CH19" s="10">
-        <v>112916.83049085725</v>
+        <v>112916.90321745066</v>
       </c>
       <c r="CI19" s="10">
-        <v>115362.50165367003</v>
+        <v>115362.59992990043</v>
       </c>
       <c r="CJ19" s="10">
-        <v>89959.271901788306</v>
+        <v>89999.2249675083</v>
       </c>
       <c r="CK19" s="10">
-        <v>119082.82992542714</v>
+        <v>118999.06344232164</v>
       </c>
       <c r="CL19" s="10">
-        <v>121612.14168047598</v>
+        <v>121218.66631277048</v>
       </c>
       <c r="CM19" s="10">
-        <v>127268.98601639032</v>
+        <v>127269.09443564281</v>
       </c>
       <c r="CN19" s="10">
-        <v>96871.982373834515</v>
+        <v>96972.841360500504</v>
       </c>
       <c r="CO19" s="10">
-        <v>126614.50894329554</v>
+        <v>126963.0439176754</v>
       </c>
       <c r="CP19" s="11"/>
       <c r="CQ19" s="11"/>
@@ -4173,28 +4175,28 @@
         <v>50375.915807850623</v>
       </c>
       <c r="CH20" s="10">
-        <v>47646.639562991339</v>
+        <v>47646.56163651227</v>
       </c>
       <c r="CI20" s="10">
         <v>29916.217345031539</v>
       </c>
       <c r="CJ20" s="10">
-        <v>35562.057854961073</v>
+        <v>35577.784289549207</v>
       </c>
       <c r="CK20" s="10">
-        <v>70873.025511591768</v>
+        <v>70945.452398385183</v>
       </c>
       <c r="CL20" s="10">
-        <v>56265.310122822433</v>
+        <v>56384.20558903068</v>
       </c>
       <c r="CM20" s="10">
-        <v>41983.761192967853</v>
+        <v>42183.229719704155</v>
       </c>
       <c r="CN20" s="10">
-        <v>53214.762708552298</v>
+        <v>53248.295612308109</v>
       </c>
       <c r="CO20" s="10">
-        <v>84458.758774137357</v>
+        <v>84734.360573593935</v>
       </c>
       <c r="CP20" s="11"/>
       <c r="CQ20" s="11"/>
@@ -4514,28 +4516,28 @@
         <v>176160.8867594871</v>
       </c>
       <c r="CH21" s="10">
-        <v>183671.38616569835</v>
+        <v>183227.16188256675</v>
       </c>
       <c r="CI21" s="10">
-        <v>173095.41932063337</v>
+        <v>172829.6373265991</v>
       </c>
       <c r="CJ21" s="10">
-        <v>202402.63635150137</v>
+        <v>202279.33169673613</v>
       </c>
       <c r="CK21" s="10">
-        <v>192924.37200637179</v>
+        <v>193235.44467712895</v>
       </c>
       <c r="CL21" s="10">
-        <v>205911.95644780132</v>
+        <v>205904.95644780132</v>
       </c>
       <c r="CM21" s="10">
-        <v>187158.10532078435</v>
+        <v>186917.19533356713</v>
       </c>
       <c r="CN21" s="10">
-        <v>219402.41345024187</v>
+        <v>219963.85840075967</v>
       </c>
       <c r="CO21" s="10">
-        <v>222839.41359088762</v>
+        <v>220643.41206795338</v>
       </c>
       <c r="CP21" s="11"/>
       <c r="CQ21" s="11"/>
@@ -4855,7 +4857,7 @@
         <v>222166.26735679019</v>
       </c>
       <c r="CH22" s="10">
-        <v>256510.22977434297</v>
+        <v>256164.39097972153</v>
       </c>
       <c r="CI22" s="10">
         <v>133109.87909560904</v>
@@ -4864,19 +4866,19 @@
         <v>199156.92931950814</v>
       </c>
       <c r="CK22" s="10">
-        <v>280829.7274794369</v>
+        <v>280374.78925942106</v>
       </c>
       <c r="CL22" s="10">
-        <v>316266.57631519978</v>
+        <v>316823.44136322179</v>
       </c>
       <c r="CM22" s="10">
-        <v>182344.68526335541</v>
+        <v>182458.71287707717</v>
       </c>
       <c r="CN22" s="10">
-        <v>289764.55945846002</v>
+        <v>289973.74233885045</v>
       </c>
       <c r="CO22" s="10">
-        <v>372766.13837253017</v>
+        <v>372256.41956097959</v>
       </c>
       <c r="CP22" s="11"/>
       <c r="CQ22" s="11"/>
@@ -5196,28 +5198,28 @@
         <v>565179.83091553545</v>
       </c>
       <c r="CH23" s="10">
-        <v>489096.5920951594</v>
+        <v>489262.36908739887</v>
       </c>
       <c r="CI23" s="10">
-        <v>472307.58779337083</v>
+        <v>472063.62997885264</v>
       </c>
       <c r="CJ23" s="10">
-        <v>480834.21904053981</v>
+        <v>480989.44456488692</v>
       </c>
       <c r="CK23" s="10">
-        <v>615143.28940706106</v>
+        <v>615571.23603674502</v>
       </c>
       <c r="CL23" s="10">
-        <v>544500.70931277948</v>
+        <v>543298.13431890507</v>
       </c>
       <c r="CM23" s="10">
-        <v>521463.04467852885</v>
+        <v>520789.78550921683</v>
       </c>
       <c r="CN23" s="10">
-        <v>546303.19141846139</v>
+        <v>544949.61527437216</v>
       </c>
       <c r="CO23" s="10">
-        <v>685788.67666286661</v>
+        <v>686014.65602713195</v>
       </c>
       <c r="CP23" s="11"/>
       <c r="CQ23" s="11"/>
@@ -5691,28 +5693,28 @@
         <v>3801007.5529332561</v>
       </c>
       <c r="CH25" s="15">
-        <v>3397554.7518358915</v>
+        <v>3397749.5102690379</v>
       </c>
       <c r="CI25" s="15">
-        <v>3396198.6721503939</v>
+        <v>3395239.9625219679</v>
       </c>
       <c r="CJ25" s="15">
-        <v>3582435.6457165424</v>
+        <v>3583126.8104622592</v>
       </c>
       <c r="CK25" s="15">
-        <v>4233960.1057822816</v>
+        <v>4232430.2197240982</v>
       </c>
       <c r="CL25" s="15">
-        <v>3853894.6766090612</v>
+        <v>3852962.0714052701</v>
       </c>
       <c r="CM25" s="15">
-        <v>3878436.9127315367</v>
+        <v>3877423.6981095998</v>
       </c>
       <c r="CN25" s="15">
-        <v>4129828.1168899718</v>
+        <v>4130910.5601173565</v>
       </c>
       <c r="CO25" s="15">
-        <v>4864894.9612725647</v>
+        <v>4863462.9003062602</v>
       </c>
       <c r="CP25" s="11"/>
       <c r="CQ25" s="11"/>
@@ -6195,7 +6197,7 @@
     </row>
     <row r="32" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:153" x14ac:dyDescent="0.2">
@@ -6205,7 +6207,7 @@
     </row>
     <row r="35" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:153" x14ac:dyDescent="0.2">
@@ -6215,144 +6217,144 @@
     </row>
     <row r="38" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
-      <c r="B38" s="31">
+      <c r="B38" s="30">
         <v>2000</v>
       </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31">
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30">
         <v>2001</v>
       </c>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31">
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30">
         <v>2002</v>
       </c>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31">
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30">
         <v>2003</v>
       </c>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31">
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="30">
         <v>2004</v>
       </c>
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31"/>
-      <c r="V38" s="31">
+      <c r="S38" s="30"/>
+      <c r="T38" s="30"/>
+      <c r="U38" s="30"/>
+      <c r="V38" s="30">
         <v>2005</v>
       </c>
-      <c r="W38" s="31"/>
-      <c r="X38" s="31"/>
-      <c r="Y38" s="31"/>
-      <c r="Z38" s="31">
+      <c r="W38" s="30"/>
+      <c r="X38" s="30"/>
+      <c r="Y38" s="30"/>
+      <c r="Z38" s="30">
         <v>2006</v>
       </c>
-      <c r="AA38" s="31"/>
-      <c r="AB38" s="31"/>
-      <c r="AC38" s="31"/>
-      <c r="AD38" s="31">
+      <c r="AA38" s="30"/>
+      <c r="AB38" s="30"/>
+      <c r="AC38" s="30"/>
+      <c r="AD38" s="30">
         <v>2007</v>
       </c>
-      <c r="AE38" s="31"/>
-      <c r="AF38" s="31"/>
-      <c r="AG38" s="31"/>
-      <c r="AH38" s="31">
+      <c r="AE38" s="30"/>
+      <c r="AF38" s="30"/>
+      <c r="AG38" s="30"/>
+      <c r="AH38" s="30">
         <v>2008</v>
       </c>
-      <c r="AI38" s="31"/>
-      <c r="AJ38" s="31"/>
-      <c r="AK38" s="31"/>
-      <c r="AL38" s="31">
+      <c r="AI38" s="30"/>
+      <c r="AJ38" s="30"/>
+      <c r="AK38" s="30"/>
+      <c r="AL38" s="30">
         <v>2009</v>
       </c>
-      <c r="AM38" s="31"/>
-      <c r="AN38" s="31"/>
-      <c r="AO38" s="31"/>
-      <c r="AP38" s="31">
+      <c r="AM38" s="30"/>
+      <c r="AN38" s="30"/>
+      <c r="AO38" s="30"/>
+      <c r="AP38" s="30">
         <v>2010</v>
       </c>
-      <c r="AQ38" s="31"/>
-      <c r="AR38" s="31"/>
-      <c r="AS38" s="31"/>
-      <c r="AT38" s="31">
+      <c r="AQ38" s="30"/>
+      <c r="AR38" s="30"/>
+      <c r="AS38" s="30"/>
+      <c r="AT38" s="30">
         <v>2011</v>
       </c>
-      <c r="AU38" s="31"/>
-      <c r="AV38" s="31"/>
-      <c r="AW38" s="31"/>
-      <c r="AX38" s="31">
+      <c r="AU38" s="30"/>
+      <c r="AV38" s="30"/>
+      <c r="AW38" s="30"/>
+      <c r="AX38" s="30">
         <v>2012</v>
       </c>
-      <c r="AY38" s="31"/>
-      <c r="AZ38" s="31"/>
-      <c r="BA38" s="31"/>
-      <c r="BB38" s="31">
+      <c r="AY38" s="30"/>
+      <c r="AZ38" s="30"/>
+      <c r="BA38" s="30"/>
+      <c r="BB38" s="30">
         <v>2013</v>
       </c>
-      <c r="BC38" s="31"/>
-      <c r="BD38" s="31"/>
-      <c r="BE38" s="31"/>
-      <c r="BF38" s="31">
+      <c r="BC38" s="30"/>
+      <c r="BD38" s="30"/>
+      <c r="BE38" s="30"/>
+      <c r="BF38" s="30">
         <v>2014</v>
       </c>
-      <c r="BG38" s="31"/>
-      <c r="BH38" s="31"/>
-      <c r="BI38" s="31"/>
-      <c r="BJ38" s="31">
+      <c r="BG38" s="30"/>
+      <c r="BH38" s="30"/>
+      <c r="BI38" s="30"/>
+      <c r="BJ38" s="30">
         <v>2015</v>
       </c>
-      <c r="BK38" s="31"/>
-      <c r="BL38" s="31"/>
-      <c r="BM38" s="31"/>
-      <c r="BN38" s="31">
+      <c r="BK38" s="30"/>
+      <c r="BL38" s="30"/>
+      <c r="BM38" s="30"/>
+      <c r="BN38" s="30">
         <v>2016</v>
       </c>
-      <c r="BO38" s="31"/>
-      <c r="BP38" s="31"/>
-      <c r="BQ38" s="31"/>
-      <c r="BR38" s="30">
+      <c r="BO38" s="30"/>
+      <c r="BP38" s="30"/>
+      <c r="BQ38" s="30"/>
+      <c r="BR38" s="31">
         <v>2017</v>
       </c>
-      <c r="BS38" s="30"/>
-      <c r="BT38" s="30"/>
-      <c r="BU38" s="30"/>
-      <c r="BV38" s="30">
+      <c r="BS38" s="31"/>
+      <c r="BT38" s="31"/>
+      <c r="BU38" s="31"/>
+      <c r="BV38" s="31">
         <v>2018</v>
       </c>
-      <c r="BW38" s="30"/>
-      <c r="BX38" s="30"/>
-      <c r="BY38" s="30"/>
-      <c r="BZ38" s="30">
+      <c r="BW38" s="31"/>
+      <c r="BX38" s="31"/>
+      <c r="BY38" s="31"/>
+      <c r="BZ38" s="31">
         <v>2019</v>
       </c>
-      <c r="CA38" s="30"/>
-      <c r="CB38" s="30"/>
-      <c r="CC38" s="30"/>
-      <c r="CD38" s="30">
+      <c r="CA38" s="31"/>
+      <c r="CB38" s="31"/>
+      <c r="CC38" s="31"/>
+      <c r="CD38" s="31">
         <v>2020</v>
       </c>
-      <c r="CE38" s="30"/>
-      <c r="CF38" s="30"/>
-      <c r="CG38" s="30"/>
-      <c r="CH38" s="30">
+      <c r="CE38" s="31"/>
+      <c r="CF38" s="31"/>
+      <c r="CG38" s="31"/>
+      <c r="CH38" s="31">
         <v>2021</v>
       </c>
-      <c r="CI38" s="30"/>
-      <c r="CJ38" s="30"/>
-      <c r="CK38" s="30"/>
-      <c r="CL38" s="30">
+      <c r="CI38" s="31"/>
+      <c r="CJ38" s="31"/>
+      <c r="CK38" s="31"/>
+      <c r="CL38" s="31">
         <v>2022</v>
       </c>
-      <c r="CM38" s="30"/>
-      <c r="CN38" s="30"/>
-      <c r="CO38" s="30"/>
+      <c r="CM38" s="31"/>
+      <c r="CN38" s="31"/>
+      <c r="CO38" s="31"/>
     </row>
     <row r="39" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
@@ -6895,28 +6897,28 @@
         <v>1476522.4795579033</v>
       </c>
       <c r="CH41" s="10">
-        <v>1143458.8345050898</v>
+        <v>1143280.4551220264</v>
       </c>
       <c r="CI41" s="10">
         <v>1285705.1400344537</v>
       </c>
       <c r="CJ41" s="10">
-        <v>1177900.6682430531</v>
+        <v>1178278.3302008</v>
       </c>
       <c r="CK41" s="10">
-        <v>1555153.8979538169</v>
+        <v>1552717.6013816134</v>
       </c>
       <c r="CL41" s="10">
-        <v>1257238.1072275483</v>
+        <v>1256130.3984112311</v>
       </c>
       <c r="CM41" s="10">
-        <v>1359377.1967343693</v>
+        <v>1357560.021305945</v>
       </c>
       <c r="CN41" s="10">
-        <v>1227402.3546095223</v>
+        <v>1226974.6790054482</v>
       </c>
       <c r="CO41" s="10">
-        <v>1614965.4573629305</v>
+        <v>1614493.9242003553</v>
       </c>
       <c r="CP41" s="11"/>
       <c r="CQ41" s="11"/>
@@ -7236,28 +7238,28 @@
         <v>74021.566144660319</v>
       </c>
       <c r="CH42" s="10">
-        <v>47137.172156117289</v>
+        <v>47075.147811609007</v>
       </c>
       <c r="CI42" s="10">
-        <v>46899.893758558821</v>
+        <v>46957.893581380347</v>
       </c>
       <c r="CJ42" s="10">
-        <v>49585.248191630191</v>
+        <v>49597.505598522475</v>
       </c>
       <c r="CK42" s="10">
-        <v>66824.608210701685</v>
+        <v>66587.278763515598</v>
       </c>
       <c r="CL42" s="10">
-        <v>50198.981533964208</v>
+        <v>50553.163122281469</v>
       </c>
       <c r="CM42" s="10">
-        <v>48181.233384278457</v>
+        <v>48415.945282654473</v>
       </c>
       <c r="CN42" s="10">
-        <v>44305.393892867272</v>
+        <v>44125.969627123763</v>
       </c>
       <c r="CO42" s="10">
-        <v>69139.808603506113</v>
+        <v>69193.996625832791</v>
       </c>
       <c r="CP42" s="11"/>
       <c r="CQ42" s="11"/>
@@ -7577,28 +7579,28 @@
         <v>67231.433382622519</v>
       </c>
       <c r="CH43" s="10">
-        <v>50621.863269688612</v>
+        <v>50554.982683641356</v>
       </c>
       <c r="CI43" s="10">
-        <v>53578.11840374746</v>
+        <v>53519.115127704972</v>
       </c>
       <c r="CJ43" s="10">
-        <v>67404.638299337035</v>
+        <v>67403.277112195414</v>
       </c>
       <c r="CK43" s="10">
         <v>73008.364732741946</v>
       </c>
       <c r="CL43" s="10">
-        <v>54639.266418910112</v>
+        <v>54666.787825052692</v>
       </c>
       <c r="CM43" s="10">
-        <v>55970.074684183695</v>
+        <v>56122.776024412691</v>
       </c>
       <c r="CN43" s="10">
-        <v>65190.260070652439</v>
+        <v>65214.786186252197</v>
       </c>
       <c r="CO43" s="10">
-        <v>80147.35175470839</v>
+        <v>80450.489963046188</v>
       </c>
       <c r="CP43" s="11"/>
       <c r="CQ43" s="11"/>
@@ -7918,28 +7920,28 @@
         <v>431617.06124356319</v>
       </c>
       <c r="CH44" s="10">
-        <v>403342.07523154782</v>
+        <v>402798.27104392968</v>
       </c>
       <c r="CI44" s="10">
-        <v>487550.19780974794</v>
+        <v>487550.19780920015</v>
       </c>
       <c r="CJ44" s="10">
-        <v>434422.46996477706</v>
+        <v>434547.83468464698</v>
       </c>
       <c r="CK44" s="10">
-        <v>443227.82100722304</v>
+        <v>443647.66219302185</v>
       </c>
       <c r="CL44" s="10">
-        <v>427214.04576726747</v>
+        <v>425402.36342409416</v>
       </c>
       <c r="CM44" s="10">
-        <v>521094.13428486529</v>
+        <v>522106.83542596304</v>
       </c>
       <c r="CN44" s="10">
-        <v>440541.78108666756</v>
+        <v>440401.12011746754</v>
       </c>
       <c r="CO44" s="10">
-        <v>462151.73480429081</v>
+        <v>463595.72034765157</v>
       </c>
       <c r="CP44" s="11"/>
       <c r="CQ44" s="11"/>
@@ -8259,28 +8261,28 @@
         <v>108406.371868121</v>
       </c>
       <c r="CH45" s="10">
-        <v>87481.852644018611</v>
+        <v>88235.505601651734</v>
       </c>
       <c r="CI45" s="10">
-        <v>85962.471883526217</v>
+        <v>85146.709317351691</v>
       </c>
       <c r="CJ45" s="10">
-        <v>98978.814069637345</v>
+        <v>98817.159569245137</v>
       </c>
       <c r="CK45" s="10">
-        <v>107315.83356445456</v>
+        <v>107527.8920243519</v>
       </c>
       <c r="CL45" s="10">
-        <v>94846.2622091511</v>
+        <v>95901.664535614924</v>
       </c>
       <c r="CM45" s="10">
-        <v>92016.486939449867</v>
+        <v>91624.817365404437</v>
       </c>
       <c r="CN45" s="10">
-        <v>107636.74275368526</v>
+        <v>107969.94304481793</v>
       </c>
       <c r="CO45" s="10">
-        <v>117842.51314579241</v>
+        <v>117589.60745430055</v>
       </c>
       <c r="CP45" s="11"/>
       <c r="CQ45" s="11"/>
@@ -8600,28 +8602,28 @@
         <v>138393.65197387681</v>
       </c>
       <c r="CH46" s="10">
-        <v>149043.43917637499</v>
+        <v>149876.42245023171</v>
       </c>
       <c r="CI46" s="10">
-        <v>129816.21404691471</v>
+        <v>130214.30167213958</v>
       </c>
       <c r="CJ46" s="10">
-        <v>181794.98547901592</v>
+        <v>181924.22970005163</v>
       </c>
       <c r="CK46" s="10">
-        <v>161612.1554991325</v>
+        <v>162064.53141225895</v>
       </c>
       <c r="CL46" s="10">
-        <v>150621.16349268309</v>
+        <v>151544.92328277158</v>
       </c>
       <c r="CM46" s="10">
-        <v>126609.68897286928</v>
+        <v>126790.00320397994</v>
       </c>
       <c r="CN46" s="10">
-        <v>191467.53295225321</v>
+        <v>191496.55092553853</v>
       </c>
       <c r="CO46" s="10">
-        <v>170677.12725855637</v>
+        <v>170571.3236135242</v>
       </c>
       <c r="CP46" s="11"/>
       <c r="CQ46" s="11"/>
@@ -8947,22 +8949,22 @@
         <v>189404.62397482269</v>
       </c>
       <c r="CJ47" s="10">
-        <v>272086.43377859861</v>
+        <v>272139.60664062266</v>
       </c>
       <c r="CK47" s="10">
         <v>275542.77234665689</v>
       </c>
       <c r="CL47" s="10">
-        <v>312055.43731491663</v>
+        <v>312379.71815427073</v>
       </c>
       <c r="CM47" s="10">
-        <v>237089.60293205726</v>
+        <v>237301.36504137018</v>
       </c>
       <c r="CN47" s="10">
-        <v>325704.19038232067</v>
+        <v>325899.06290025474</v>
       </c>
       <c r="CO47" s="10">
-        <v>297786.34651382209</v>
+        <v>297223.06230146147</v>
       </c>
       <c r="CP47" s="11"/>
       <c r="CQ47" s="11"/>
@@ -9282,28 +9284,28 @@
         <v>113288.14004998234</v>
       </c>
       <c r="CH48" s="10">
-        <v>108330.81284803044</v>
+        <v>108330.8826208973</v>
       </c>
       <c r="CI48" s="10">
-        <v>113723.60184598678</v>
+        <v>113723.69872605384</v>
       </c>
       <c r="CJ48" s="10">
-        <v>90153.640546179697</v>
+        <v>90193.679935666645</v>
       </c>
       <c r="CK48" s="10">
-        <v>122556.07884007631</v>
+        <v>122469.86916808529</v>
       </c>
       <c r="CL48" s="10">
-        <v>115909.90445148885</v>
+        <v>115534.87863873252</v>
       </c>
       <c r="CM48" s="10">
-        <v>124681.93067322711</v>
+        <v>124682.03688859146</v>
       </c>
       <c r="CN48" s="10">
-        <v>96637.414186115508</v>
+        <v>96738.028950364052</v>
       </c>
       <c r="CO48" s="10">
-        <v>129501.23148380035</v>
+        <v>129857.71281263117</v>
       </c>
       <c r="CP48" s="11"/>
       <c r="CQ48" s="11"/>
@@ -9623,28 +9625,28 @@
         <v>48947.484307444858</v>
       </c>
       <c r="CH49" s="10">
-        <v>46346.803177665548</v>
+        <v>46346.727377079798</v>
       </c>
       <c r="CI49" s="10">
         <v>29491.652579455382</v>
       </c>
       <c r="CJ49" s="10">
-        <v>35132.932515631954</v>
+        <v>35148.469180224027</v>
       </c>
       <c r="CK49" s="10">
-        <v>68232.158050855011</v>
+        <v>68301.886170279118</v>
       </c>
       <c r="CL49" s="10">
-        <v>53886.224246606071</v>
+        <v>54000.092414043815</v>
       </c>
       <c r="CM49" s="10">
-        <v>40675.021685712061</v>
+        <v>40868.272276418429</v>
       </c>
       <c r="CN49" s="10">
-        <v>51334.086489001733</v>
+        <v>51366.434298030894</v>
       </c>
       <c r="CO49" s="10">
-        <v>78626.137610299207</v>
+        <v>78882.706678140559</v>
       </c>
       <c r="CP49" s="11"/>
       <c r="CQ49" s="11"/>
@@ -9964,28 +9966,28 @@
         <v>179018.44453007373</v>
       </c>
       <c r="CH50" s="10">
-        <v>177030.09985268614</v>
+        <v>176601.93806417091</v>
       </c>
       <c r="CI50" s="10">
-        <v>163301.71506424574</v>
+        <v>163050.9709623548</v>
       </c>
       <c r="CJ50" s="10">
-        <v>191436.32754594923</v>
+        <v>191319.70361899314</v>
       </c>
       <c r="CK50" s="10">
-        <v>194777.67064772217</v>
+        <v>195091.73159078564</v>
       </c>
       <c r="CL50" s="10">
-        <v>197356.69930389794</v>
+        <v>197349.99014082184</v>
       </c>
       <c r="CM50" s="10">
-        <v>175581.40026522669</v>
+        <v>175355.39181733728</v>
       </c>
       <c r="CN50" s="10">
-        <v>201718.40776017922</v>
+        <v>202234.59980967609</v>
       </c>
       <c r="CO50" s="10">
-        <v>217284.99806181726</v>
+        <v>215143.7332874873</v>
       </c>
       <c r="CP50" s="11"/>
       <c r="CQ50" s="11"/>
@@ -10305,7 +10307,7 @@
         <v>210823.28721040281</v>
       </c>
       <c r="CH51" s="10">
-        <v>236022.12767435078</v>
+        <v>235703.91187371509</v>
       </c>
       <c r="CI51" s="10">
         <v>126133.87834087224</v>
@@ -10314,19 +10316,19 @@
         <v>175343.5043857132</v>
       </c>
       <c r="CK51" s="10">
-        <v>257133.56471511201</v>
+        <v>256717.01377768896</v>
       </c>
       <c r="CL51" s="10">
-        <v>282708.60999129753</v>
+        <v>283206.38799083594</v>
       </c>
       <c r="CM51" s="10">
-        <v>168071.32293949748</v>
+        <v>168176.42483408889</v>
       </c>
       <c r="CN51" s="10">
-        <v>244120.96730519543</v>
+        <v>244297.19978579981</v>
       </c>
       <c r="CO51" s="10">
-        <v>320767.81728373282</v>
+        <v>320329.20075240469</v>
       </c>
       <c r="CP51" s="11"/>
       <c r="CQ51" s="11"/>
@@ -10646,28 +10648,28 @@
         <v>560664.75234304368</v>
       </c>
       <c r="CH52" s="10">
-        <v>438750.88961858774</v>
+        <v>438899.60217148409</v>
       </c>
       <c r="CI52" s="10">
-        <v>419449.63665850041</v>
+        <v>419232.98120069219</v>
       </c>
       <c r="CJ52" s="10">
-        <v>470687.56649013486</v>
+        <v>470839.51641678083</v>
       </c>
       <c r="CK52" s="10">
-        <v>598530.738328479</v>
+        <v>598947.12783746119</v>
       </c>
       <c r="CL52" s="10">
-        <v>476676.3395911071</v>
+        <v>475086.18485529569</v>
       </c>
       <c r="CM52" s="10">
-        <v>449718.58169500902</v>
+        <v>447877.62728546589</v>
       </c>
       <c r="CN52" s="10">
-        <v>510052.05949464196</v>
+        <v>508788.30282834289</v>
       </c>
       <c r="CO52" s="10">
-        <v>640928.01680368162</v>
+        <v>638740.87639105879</v>
       </c>
       <c r="CP52" s="11"/>
       <c r="CQ52" s="11"/>
@@ -11141,28 +11143,28 @@
         <v>3648921.6749099772</v>
       </c>
       <c r="CH54" s="15">
-        <v>3156671.4757222617</v>
+        <v>3156809.3523885403</v>
       </c>
       <c r="CI54" s="15">
-        <v>3131017.1444008318</v>
+        <v>3130131.1633264814</v>
       </c>
       <c r="CJ54" s="15">
-        <v>3244927.2295096582</v>
+        <v>3245552.8170434618</v>
       </c>
       <c r="CK54" s="15">
-        <v>3923915.6638969723</v>
+        <v>3922623.7313984605</v>
       </c>
       <c r="CL54" s="15">
-        <v>3473351.0415488388</v>
+        <v>3471756.5527950469</v>
       </c>
       <c r="CM54" s="15">
-        <v>3399066.6751907454</v>
+        <v>3396881.5167516316</v>
       </c>
       <c r="CN54" s="15">
-        <v>3506111.1909831027</v>
+        <v>3505506.6774791162</v>
       </c>
       <c r="CO54" s="15">
-        <v>4199818.540686938</v>
+        <v>4196072.3544278946</v>
       </c>
       <c r="CP54" s="11"/>
       <c r="CQ54" s="11"/>
@@ -11645,7 +11647,7 @@
     </row>
     <row r="61" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:153" x14ac:dyDescent="0.2">
@@ -11655,7 +11657,7 @@
     </row>
     <row r="64" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:149" x14ac:dyDescent="0.2">
@@ -11665,142 +11667,142 @@
     </row>
     <row r="67" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
-      <c r="B67" s="31" t="s">
+      <c r="B67" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="31" t="s">
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="G67" s="31"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="31" t="s">
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="K67" s="31"/>
-      <c r="L67" s="31"/>
-      <c r="M67" s="31"/>
-      <c r="N67" s="31" t="s">
+      <c r="K67" s="30"/>
+      <c r="L67" s="30"/>
+      <c r="M67" s="30"/>
+      <c r="N67" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="O67" s="31"/>
-      <c r="P67" s="31"/>
-      <c r="Q67" s="31"/>
-      <c r="R67" s="31" t="s">
+      <c r="O67" s="30"/>
+      <c r="P67" s="30"/>
+      <c r="Q67" s="30"/>
+      <c r="R67" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="S67" s="31"/>
-      <c r="T67" s="31"/>
-      <c r="U67" s="31"/>
-      <c r="V67" s="31" t="s">
+      <c r="S67" s="30"/>
+      <c r="T67" s="30"/>
+      <c r="U67" s="30"/>
+      <c r="V67" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="W67" s="31"/>
-      <c r="X67" s="31"/>
-      <c r="Y67" s="31"/>
-      <c r="Z67" s="31" t="s">
+      <c r="W67" s="30"/>
+      <c r="X67" s="30"/>
+      <c r="Y67" s="30"/>
+      <c r="Z67" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="AA67" s="31"/>
-      <c r="AB67" s="31"/>
-      <c r="AC67" s="31"/>
-      <c r="AD67" s="31" t="s">
+      <c r="AA67" s="30"/>
+      <c r="AB67" s="30"/>
+      <c r="AC67" s="30"/>
+      <c r="AD67" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="AE67" s="31"/>
-      <c r="AF67" s="31"/>
-      <c r="AG67" s="31"/>
-      <c r="AH67" s="31" t="s">
+      <c r="AE67" s="30"/>
+      <c r="AF67" s="30"/>
+      <c r="AG67" s="30"/>
+      <c r="AH67" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="AI67" s="31"/>
-      <c r="AJ67" s="31"/>
-      <c r="AK67" s="31"/>
-      <c r="AL67" s="31" t="s">
+      <c r="AI67" s="30"/>
+      <c r="AJ67" s="30"/>
+      <c r="AK67" s="30"/>
+      <c r="AL67" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="AM67" s="31"/>
-      <c r="AN67" s="31"/>
-      <c r="AO67" s="31"/>
-      <c r="AP67" s="31" t="s">
+      <c r="AM67" s="30"/>
+      <c r="AN67" s="30"/>
+      <c r="AO67" s="30"/>
+      <c r="AP67" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="AQ67" s="31"/>
-      <c r="AR67" s="31"/>
-      <c r="AS67" s="31"/>
-      <c r="AT67" s="31" t="s">
+      <c r="AQ67" s="30"/>
+      <c r="AR67" s="30"/>
+      <c r="AS67" s="30"/>
+      <c r="AT67" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="AU67" s="31"/>
-      <c r="AV67" s="31"/>
-      <c r="AW67" s="31"/>
-      <c r="AX67" s="31" t="s">
+      <c r="AU67" s="30"/>
+      <c r="AV67" s="30"/>
+      <c r="AW67" s="30"/>
+      <c r="AX67" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="AY67" s="31"/>
-      <c r="AZ67" s="31"/>
-      <c r="BA67" s="31"/>
-      <c r="BB67" s="31" t="s">
+      <c r="AY67" s="30"/>
+      <c r="AZ67" s="30"/>
+      <c r="BA67" s="30"/>
+      <c r="BB67" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="BC67" s="31"/>
-      <c r="BD67" s="31"/>
-      <c r="BE67" s="31"/>
-      <c r="BF67" s="31" t="s">
+      <c r="BC67" s="30"/>
+      <c r="BD67" s="30"/>
+      <c r="BE67" s="30"/>
+      <c r="BF67" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="BG67" s="31"/>
-      <c r="BH67" s="31"/>
-      <c r="BI67" s="31"/>
-      <c r="BJ67" s="31" t="s">
+      <c r="BG67" s="30"/>
+      <c r="BH67" s="30"/>
+      <c r="BI67" s="30"/>
+      <c r="BJ67" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="BK67" s="31"/>
-      <c r="BL67" s="31"/>
-      <c r="BM67" s="31"/>
-      <c r="BN67" s="31" t="s">
+      <c r="BK67" s="30"/>
+      <c r="BL67" s="30"/>
+      <c r="BM67" s="30"/>
+      <c r="BN67" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="BO67" s="31"/>
-      <c r="BP67" s="31"/>
-      <c r="BQ67" s="31"/>
-      <c r="BR67" s="30" t="s">
+      <c r="BO67" s="30"/>
+      <c r="BP67" s="30"/>
+      <c r="BQ67" s="30"/>
+      <c r="BR67" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="BS67" s="30"/>
-      <c r="BT67" s="30"/>
-      <c r="BU67" s="30"/>
-      <c r="BV67" s="30" t="s">
+      <c r="BS67" s="31"/>
+      <c r="BT67" s="31"/>
+      <c r="BU67" s="31"/>
+      <c r="BV67" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="BW67" s="30"/>
-      <c r="BX67" s="30"/>
-      <c r="BY67" s="30"/>
-      <c r="BZ67" s="30" t="s">
+      <c r="BW67" s="31"/>
+      <c r="BX67" s="31"/>
+      <c r="BY67" s="31"/>
+      <c r="BZ67" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="CA67" s="30"/>
-      <c r="CB67" s="30"/>
-      <c r="CC67" s="30"/>
-      <c r="CD67" s="30" t="s">
+      <c r="CA67" s="31"/>
+      <c r="CB67" s="31"/>
+      <c r="CC67" s="31"/>
+      <c r="CD67" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="CE67" s="30"/>
-      <c r="CF67" s="30"/>
-      <c r="CG67" s="30"/>
-      <c r="CH67" s="30" t="s">
+      <c r="CE67" s="31"/>
+      <c r="CF67" s="31"/>
+      <c r="CG67" s="31"/>
+      <c r="CH67" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="CI67" s="30"/>
-      <c r="CJ67" s="30"/>
-      <c r="CK67" s="30"/>
-      <c r="CL67" s="30"/>
-      <c r="CM67" s="30"/>
-      <c r="CN67" s="30"/>
-      <c r="CO67" s="30"/>
+      <c r="CI67" s="31"/>
+      <c r="CJ67" s="31"/>
+      <c r="CK67" s="31"/>
+      <c r="CL67" s="31"/>
+      <c r="CM67" s="31"/>
+      <c r="CN67" s="31"/>
+      <c r="CO67" s="31"/>
     </row>
     <row r="68" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
@@ -12323,28 +12325,28 @@
         <v>8.5364030130649269</v>
       </c>
       <c r="CD70" s="26">
-        <v>8.2951778073475708</v>
+        <v>8.2782837780890617</v>
       </c>
       <c r="CE70" s="26">
         <v>7.6094038408585476</v>
       </c>
       <c r="CF70" s="26">
-        <v>8.9022112110814078</v>
+        <v>8.9371277565913942</v>
       </c>
       <c r="CG70" s="26">
-        <v>9.6363922710162626</v>
+        <v>9.4646364293403451</v>
       </c>
       <c r="CH70" s="26">
-        <v>11.950152669019531</v>
+        <v>11.868968819010121</v>
       </c>
       <c r="CI70" s="26">
-        <v>11.740458351862841</v>
+        <v>11.591086995799444</v>
       </c>
       <c r="CJ70" s="26">
-        <v>11.478651280392967</v>
+        <v>11.541247271384591</v>
       </c>
       <c r="CK70" s="26">
-        <v>14.084808546536507</v>
+        <v>14.230451250859005</v>
       </c>
       <c r="CL70" s="26"/>
       <c r="CM70" s="26"/>
@@ -12652,28 +12654,28 @@
         <v>-8.7303565575201958</v>
       </c>
       <c r="CD71" s="26">
-        <v>-1.5968536401853868</v>
+        <v>-1.7263351167216712</v>
       </c>
       <c r="CE71" s="26">
-        <v>12.459007416958329</v>
+        <v>12.598082412275957</v>
       </c>
       <c r="CF71" s="26">
-        <v>2.6198458716592938</v>
+        <v>2.645213360014111</v>
       </c>
       <c r="CG71" s="26">
-        <v>-2.6052500070088342</v>
+        <v>-2.9511501595661258</v>
       </c>
       <c r="CH71" s="26">
-        <v>11.853475217909363</v>
+        <v>12.79107686883178</v>
       </c>
       <c r="CI71" s="26">
-        <v>10.249787890722899</v>
+        <v>10.65002503736001</v>
       </c>
       <c r="CJ71" s="26">
-        <v>-2.4149487324100818</v>
+        <v>-2.8341597484335495</v>
       </c>
       <c r="CK71" s="26">
-        <v>14.382122600044795</v>
+        <v>14.879767765446744</v>
       </c>
       <c r="CL71" s="26"/>
       <c r="CM71" s="26"/>
@@ -12981,28 +12983,28 @@
         <v>-12.276833542900604</v>
       </c>
       <c r="CD72" s="26">
-        <v>-13.237685394522742</v>
+        <v>-13.352314016877415</v>
       </c>
       <c r="CE72" s="26">
-        <v>49.114411583866314</v>
+        <v>48.950198299586788</v>
       </c>
       <c r="CF72" s="26">
-        <v>30.139077023802997</v>
+        <v>30.136448960768519</v>
       </c>
       <c r="CG72" s="26">
         <v>10.586743877501021</v>
       </c>
       <c r="CH72" s="26">
-        <v>10.003974198475717</v>
+        <v>10.204983014002167</v>
       </c>
       <c r="CI72" s="26">
-        <v>7.1613224771094792</v>
+        <v>7.5721518204777851</v>
       </c>
       <c r="CJ72" s="26">
-        <v>-0.63959936420117458</v>
+        <v>-0.60021032892568371</v>
       </c>
       <c r="CK72" s="26">
-        <v>13.655243123508228</v>
+        <v>14.085116924879742</v>
       </c>
       <c r="CL72" s="26"/>
       <c r="CM72" s="26"/>
@@ -13310,28 +13312,28 @@
         <v>7.0609209434562672</v>
       </c>
       <c r="CD73" s="26">
-        <v>0.69765418605480534</v>
+        <v>0.56188901452325979</v>
       </c>
       <c r="CE73" s="26">
-        <v>8.6625992389644892</v>
+        <v>8.6625992388424038</v>
       </c>
       <c r="CF73" s="26">
-        <v>6.4358964561570815</v>
+        <v>6.4666115026057724</v>
       </c>
       <c r="CG73" s="26">
-        <v>7.4503285349765633</v>
+        <v>7.552109314991867</v>
       </c>
       <c r="CH73" s="26">
-        <v>11.407602824630359</v>
+        <v>11.084927481718012</v>
       </c>
       <c r="CI73" s="26">
-        <v>13.99182801060617</v>
+        <v>14.213361216938367</v>
       </c>
       <c r="CJ73" s="26">
-        <v>9.2425366810126093</v>
+        <v>9.1761507130336781</v>
       </c>
       <c r="CK73" s="26">
-        <v>11.678280109053674</v>
+        <v>11.921201320286116</v>
       </c>
       <c r="CL73" s="26"/>
       <c r="CM73" s="26"/>
@@ -13639,28 +13641,28 @@
         <v>-2.6938843908579457</v>
       </c>
       <c r="CD74" s="26">
-        <v>-4.3838644465334511</v>
+        <v>-3.5601349394486732</v>
       </c>
       <c r="CE74" s="26">
-        <v>19.462876292562242</v>
+        <v>18.329203186243774</v>
       </c>
       <c r="CF74" s="26">
-        <v>10.460554800690588</v>
+        <v>10.280148054386402</v>
       </c>
       <c r="CG74" s="26">
-        <v>1.3623056562312996</v>
+        <v>1.5625998133483137</v>
       </c>
       <c r="CH74" s="26">
-        <v>11.072394012374389</v>
+        <v>11.349084427877813</v>
       </c>
       <c r="CI74" s="26">
-        <v>9.8768823178817229</v>
+        <v>10.457403095918423</v>
       </c>
       <c r="CJ74" s="26">
-        <v>12.378826330652544</v>
+        <v>12.911115273921681</v>
       </c>
       <c r="CK74" s="26">
-        <v>14.599393058568893</v>
+        <v>14.127928224150992</v>
       </c>
       <c r="CL74" s="26"/>
       <c r="CM74" s="26"/>
@@ -13968,28 +13970,28 @@
         <v>-0.20819491209896057</v>
       </c>
       <c r="CD75" s="26">
-        <v>9.8296789218040175</v>
+        <v>10.443501885233175</v>
       </c>
       <c r="CE75" s="26">
-        <v>19.123321556865093</v>
+        <v>19.488618916179007</v>
       </c>
       <c r="CF75" s="26">
-        <v>19.925723509110682</v>
+        <v>20.010982773420082</v>
       </c>
       <c r="CG75" s="26">
-        <v>20.432288280586747</v>
+        <v>20.769395759987532</v>
       </c>
       <c r="CH75" s="26">
-        <v>3.8539330160627827</v>
+        <v>3.9101299028164789</v>
       </c>
       <c r="CI75" s="26">
-        <v>-5.5798076444133926E-2</v>
+        <v>-0.21944198988173014</v>
       </c>
       <c r="CJ75" s="26">
-        <v>7.872674339571887</v>
+        <v>7.8123755710366822</v>
       </c>
       <c r="CK75" s="26">
-        <v>8.5927491333481782</v>
+        <v>8.2225014081690233</v>
       </c>
       <c r="CL75" s="26"/>
       <c r="CM75" s="26"/>
@@ -14303,22 +14305,22 @@
         <v>36.706945509565372</v>
       </c>
       <c r="CF76" s="26">
-        <v>24.914136153866068</v>
+        <v>24.93854766911258</v>
       </c>
       <c r="CG76" s="26">
         <v>23.237966278325146</v>
       </c>
       <c r="CH76" s="26">
-        <v>26.071426339240304</v>
+        <v>26.202436868342545</v>
       </c>
       <c r="CI76" s="26">
-        <v>43.830700019572674</v>
+        <v>43.95916576435198</v>
       </c>
       <c r="CJ76" s="26">
-        <v>38.532757242376732</v>
+        <v>38.588559107136632</v>
       </c>
       <c r="CK76" s="26">
-        <v>21.192184051873369</v>
+        <v>20.962940351693334</v>
       </c>
       <c r="CL76" s="26"/>
       <c r="CM76" s="26"/>
@@ -14626,28 +14628,28 @@
         <v>4.4191895264842316</v>
       </c>
       <c r="CD77" s="26">
-        <v>7.0892981189642796</v>
+        <v>7.0893670922060039</v>
       </c>
       <c r="CE77" s="26">
-        <v>13.985777072396544</v>
+        <v>13.985874175808235</v>
       </c>
       <c r="CF77" s="26">
-        <v>7.790528137675139</v>
+        <v>7.8384004910594456</v>
       </c>
       <c r="CG77" s="26">
-        <v>8.4285706858285607</v>
+        <v>8.352298732599067</v>
       </c>
       <c r="CH77" s="26">
-        <v>7.7006334235734499</v>
+        <v>7.3520995163431309</v>
       </c>
       <c r="CI77" s="26">
         <v>10.320931144909437</v>
       </c>
       <c r="CJ77" s="26">
-        <v>7.6842668086432013</v>
+        <v>7.7485293851250674</v>
       </c>
       <c r="CK77" s="26">
-        <v>6.3247396980613786</v>
+        <v>6.6924732388451673</v>
       </c>
       <c r="CL77" s="26"/>
       <c r="CM77" s="26"/>
@@ -14955,28 +14957,28 @@
         <v>-49.2109327297524</v>
       </c>
       <c r="CD78" s="26">
-        <v>-34.901618293238883</v>
+        <v>-34.901724762188763</v>
       </c>
       <c r="CE78" s="26">
         <v>13.370631125632883</v>
       </c>
       <c r="CF78" s="26">
-        <v>21.882930470022472</v>
+        <v>21.936830161127659</v>
       </c>
       <c r="CG78" s="26">
-        <v>40.688311815359327</v>
+        <v>40.832084659250967</v>
       </c>
       <c r="CH78" s="26">
-        <v>18.08872700967035</v>
+        <v>18.338456443460586</v>
       </c>
       <c r="CI78" s="26">
-        <v>40.337799758432624</v>
+        <v>41.004556937108617</v>
       </c>
       <c r="CJ78" s="26">
-        <v>49.639154532584485</v>
+        <v>49.667261960294496</v>
       </c>
       <c r="CK78" s="26">
-        <v>19.169117113990779</v>
+        <v>19.43592958964993</v>
       </c>
       <c r="CL78" s="26"/>
       <c r="CM78" s="26"/>
@@ -15284,28 +15286,28 @@
         <v>-13.310106506365784</v>
       </c>
       <c r="CD79" s="26">
-        <v>2.8395600035888009</v>
+        <v>2.5908341090776759</v>
       </c>
       <c r="CE79" s="26">
-        <v>12.406355226308264</v>
+        <v>12.233759178698051</v>
       </c>
       <c r="CF79" s="26">
-        <v>15.639508271251557</v>
+        <v>15.569060129361517</v>
       </c>
       <c r="CG79" s="26">
-        <v>9.5160086641547821</v>
+        <v>9.692593078822199</v>
       </c>
       <c r="CH79" s="26">
-        <v>12.108892270262899</v>
+        <v>12.376873784558825</v>
       </c>
       <c r="CI79" s="26">
-        <v>8.1242392521675839</v>
+        <v>8.1511239766976615</v>
       </c>
       <c r="CJ79" s="26">
-        <v>8.3989899564440123</v>
+        <v>8.7426266221487907</v>
       </c>
       <c r="CK79" s="26">
-        <v>15.506097686573156</v>
+        <v>14.183716365607538</v>
       </c>
       <c r="CL79" s="26"/>
       <c r="CM79" s="26"/>
@@ -15613,7 +15615,7 @@
         <v>-41.828467514559321</v>
       </c>
       <c r="CD80" s="26">
-        <v>-15.635344187764815</v>
+        <v>-15.749088465723716</v>
       </c>
       <c r="CE80" s="26">
         <v>26.844267529183497</v>
@@ -15622,19 +15624,19 @@
         <v>17.395752092891698</v>
       </c>
       <c r="CG80" s="26">
-        <v>26.405205804009626</v>
+        <v>26.200432043605559</v>
       </c>
       <c r="CH80" s="26">
-        <v>23.295892172965438</v>
+        <v>23.679735560241141</v>
       </c>
       <c r="CI80" s="26">
-        <v>36.98809322212847</v>
+        <v>37.073757497760397</v>
       </c>
       <c r="CJ80" s="26">
-        <v>45.495595080997532</v>
+        <v>45.600629277450139</v>
       </c>
       <c r="CK80" s="26">
-        <v>32.737421254601742</v>
+        <v>32.771002893752922</v>
       </c>
       <c r="CL80" s="26"/>
       <c r="CM80" s="26"/>
@@ -15942,28 +15944,28 @@
         <v>0.55479374501685186</v>
       </c>
       <c r="CD81" s="26">
-        <v>2.8990394164576117</v>
+        <v>2.9339165624743515</v>
       </c>
       <c r="CE81" s="26">
-        <v>6.6803388250554292</v>
+        <v>6.6252359578044207</v>
       </c>
       <c r="CF81" s="26">
-        <v>8.5805700520770358</v>
+        <v>8.615622623738588</v>
       </c>
       <c r="CG81" s="26">
-        <v>8.8402762728793363</v>
+        <v>8.9159949390940767</v>
       </c>
       <c r="CH81" s="26">
-        <v>11.327847732547809</v>
+        <v>11.044332988923088</v>
       </c>
       <c r="CI81" s="26">
-        <v>10.40750946111477</v>
+        <v>10.321946541941188</v>
       </c>
       <c r="CJ81" s="26">
-        <v>13.615705743355562</v>
+        <v>13.297624601168721</v>
       </c>
       <c r="CK81" s="26">
-        <v>11.484379082457494</v>
+        <v>11.443585383216643</v>
       </c>
       <c r="CL81" s="26"/>
       <c r="CM81" s="26"/>
@@ -16421,28 +16423,28 @@
         <v>-4.6206716907713172</v>
       </c>
       <c r="CD83" s="26">
-        <v>-0.73220830188455466</v>
+        <v>-0.7265179625125171</v>
       </c>
       <c r="CE83" s="26">
-        <v>11.638927618188916</v>
+        <v>11.607413173615242</v>
       </c>
       <c r="CF83" s="26">
-        <v>11.591066239769091</v>
+        <v>11.612595673525732</v>
       </c>
       <c r="CG83" s="26">
-        <v>11.390468101409425</v>
+        <v>11.350218613954382</v>
       </c>
       <c r="CH83" s="26">
-        <v>13.431422246443077</v>
+        <v>13.397472643596615</v>
       </c>
       <c r="CI83" s="26">
-        <v>14.1993530748247</v>
+        <v>14.2017571927219</v>
       </c>
       <c r="CJ83" s="26">
-        <v>15.27989684414672</v>
+        <v>15.287869467964143</v>
       </c>
       <c r="CK83" s="26">
-        <v>14.901766661160096</v>
+        <v>14.90946448783501</v>
       </c>
       <c r="CL83" s="26"/>
       <c r="CM83" s="26"/>
@@ -16917,7 +16919,7 @@
     </row>
     <row r="90" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="92" spans="1:149" x14ac:dyDescent="0.2">
@@ -16927,7 +16929,7 @@
     </row>
     <row r="93" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="94" spans="1:149" x14ac:dyDescent="0.2">
@@ -16937,142 +16939,142 @@
     </row>
     <row r="96" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
-      <c r="B96" s="31" t="s">
+      <c r="B96" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C96" s="31"/>
-      <c r="D96" s="31"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="31" t="s">
+      <c r="C96" s="30"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="31" t="s">
+      <c r="G96" s="30"/>
+      <c r="H96" s="30"/>
+      <c r="I96" s="30"/>
+      <c r="J96" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="K96" s="31"/>
-      <c r="L96" s="31"/>
-      <c r="M96" s="31"/>
-      <c r="N96" s="31" t="s">
+      <c r="K96" s="30"/>
+      <c r="L96" s="30"/>
+      <c r="M96" s="30"/>
+      <c r="N96" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="O96" s="31"/>
-      <c r="P96" s="31"/>
-      <c r="Q96" s="31"/>
-      <c r="R96" s="31" t="s">
+      <c r="O96" s="30"/>
+      <c r="P96" s="30"/>
+      <c r="Q96" s="30"/>
+      <c r="R96" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="S96" s="31"/>
-      <c r="T96" s="31"/>
-      <c r="U96" s="31"/>
-      <c r="V96" s="31" t="s">
+      <c r="S96" s="30"/>
+      <c r="T96" s="30"/>
+      <c r="U96" s="30"/>
+      <c r="V96" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="W96" s="31"/>
-      <c r="X96" s="31"/>
-      <c r="Y96" s="31"/>
-      <c r="Z96" s="31" t="s">
+      <c r="W96" s="30"/>
+      <c r="X96" s="30"/>
+      <c r="Y96" s="30"/>
+      <c r="Z96" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="AA96" s="31"/>
-      <c r="AB96" s="31"/>
-      <c r="AC96" s="31"/>
-      <c r="AD96" s="31" t="s">
+      <c r="AA96" s="30"/>
+      <c r="AB96" s="30"/>
+      <c r="AC96" s="30"/>
+      <c r="AD96" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="AE96" s="31"/>
-      <c r="AF96" s="31"/>
-      <c r="AG96" s="31"/>
-      <c r="AH96" s="31" t="s">
+      <c r="AE96" s="30"/>
+      <c r="AF96" s="30"/>
+      <c r="AG96" s="30"/>
+      <c r="AH96" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="AI96" s="31"/>
-      <c r="AJ96" s="31"/>
-      <c r="AK96" s="31"/>
-      <c r="AL96" s="31" t="s">
+      <c r="AI96" s="30"/>
+      <c r="AJ96" s="30"/>
+      <c r="AK96" s="30"/>
+      <c r="AL96" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="AM96" s="31"/>
-      <c r="AN96" s="31"/>
-      <c r="AO96" s="31"/>
-      <c r="AP96" s="31" t="s">
+      <c r="AM96" s="30"/>
+      <c r="AN96" s="30"/>
+      <c r="AO96" s="30"/>
+      <c r="AP96" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="AQ96" s="31"/>
-      <c r="AR96" s="31"/>
-      <c r="AS96" s="31"/>
-      <c r="AT96" s="31" t="s">
+      <c r="AQ96" s="30"/>
+      <c r="AR96" s="30"/>
+      <c r="AS96" s="30"/>
+      <c r="AT96" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="AU96" s="31"/>
-      <c r="AV96" s="31"/>
-      <c r="AW96" s="31"/>
-      <c r="AX96" s="31" t="s">
+      <c r="AU96" s="30"/>
+      <c r="AV96" s="30"/>
+      <c r="AW96" s="30"/>
+      <c r="AX96" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="AY96" s="31"/>
-      <c r="AZ96" s="31"/>
-      <c r="BA96" s="31"/>
-      <c r="BB96" s="31" t="s">
+      <c r="AY96" s="30"/>
+      <c r="AZ96" s="30"/>
+      <c r="BA96" s="30"/>
+      <c r="BB96" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="BC96" s="31"/>
-      <c r="BD96" s="31"/>
-      <c r="BE96" s="31"/>
-      <c r="BF96" s="31" t="s">
+      <c r="BC96" s="30"/>
+      <c r="BD96" s="30"/>
+      <c r="BE96" s="30"/>
+      <c r="BF96" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="BG96" s="31"/>
-      <c r="BH96" s="31"/>
-      <c r="BI96" s="31"/>
-      <c r="BJ96" s="31" t="s">
+      <c r="BG96" s="30"/>
+      <c r="BH96" s="30"/>
+      <c r="BI96" s="30"/>
+      <c r="BJ96" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="BK96" s="31"/>
-      <c r="BL96" s="31"/>
-      <c r="BM96" s="31"/>
-      <c r="BN96" s="31" t="s">
+      <c r="BK96" s="30"/>
+      <c r="BL96" s="30"/>
+      <c r="BM96" s="30"/>
+      <c r="BN96" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="BO96" s="31"/>
-      <c r="BP96" s="31"/>
-      <c r="BQ96" s="31"/>
-      <c r="BR96" s="30" t="s">
+      <c r="BO96" s="30"/>
+      <c r="BP96" s="30"/>
+      <c r="BQ96" s="30"/>
+      <c r="BR96" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="BS96" s="30"/>
-      <c r="BT96" s="30"/>
-      <c r="BU96" s="30"/>
-      <c r="BV96" s="30" t="s">
+      <c r="BS96" s="31"/>
+      <c r="BT96" s="31"/>
+      <c r="BU96" s="31"/>
+      <c r="BV96" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="BW96" s="30"/>
-      <c r="BX96" s="30"/>
-      <c r="BY96" s="30"/>
-      <c r="BZ96" s="30" t="s">
+      <c r="BW96" s="31"/>
+      <c r="BX96" s="31"/>
+      <c r="BY96" s="31"/>
+      <c r="BZ96" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="CA96" s="30"/>
-      <c r="CB96" s="30"/>
-      <c r="CC96" s="30"/>
-      <c r="CD96" s="30" t="s">
+      <c r="CA96" s="31"/>
+      <c r="CB96" s="31"/>
+      <c r="CC96" s="31"/>
+      <c r="CD96" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="CE96" s="30"/>
-      <c r="CF96" s="30"/>
-      <c r="CG96" s="30"/>
-      <c r="CH96" s="30" t="s">
+      <c r="CE96" s="31"/>
+      <c r="CF96" s="31"/>
+      <c r="CG96" s="31"/>
+      <c r="CH96" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="CI96" s="30"/>
-      <c r="CJ96" s="30"/>
-      <c r="CK96" s="30"/>
-      <c r="CL96" s="30"/>
-      <c r="CM96" s="30"/>
-      <c r="CN96" s="30"/>
-      <c r="CO96" s="30"/>
+      <c r="CI96" s="31"/>
+      <c r="CJ96" s="31"/>
+      <c r="CK96" s="31"/>
+      <c r="CL96" s="31"/>
+      <c r="CM96" s="31"/>
+      <c r="CN96" s="31"/>
+      <c r="CO96" s="31"/>
     </row>
     <row r="97" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
@@ -17595,28 +17597,28 @@
         <v>5.2526499580625341</v>
       </c>
       <c r="CD99" s="26">
-        <v>2.4274602303874531</v>
+        <v>2.4114815640696747</v>
       </c>
       <c r="CE99" s="26">
         <v>2.8084913204751842</v>
       </c>
       <c r="CF99" s="26">
-        <v>2.8713609945402823</v>
+        <v>2.904343911212905</v>
       </c>
       <c r="CG99" s="26">
-        <v>5.3254467496801823</v>
+        <v>5.1604444144002741</v>
       </c>
       <c r="CH99" s="26">
-        <v>9.9504476496265113</v>
+        <v>9.8707139428146746</v>
       </c>
       <c r="CI99" s="26">
-        <v>5.7300896143217699</v>
+        <v>5.5887527422940622</v>
       </c>
       <c r="CJ99" s="26">
-        <v>4.2025348742101869</v>
+        <v>4.1328392075537437</v>
       </c>
       <c r="CK99" s="26">
-        <v>3.8460218945411242</v>
+        <v>3.9785935809430555</v>
       </c>
       <c r="CL99" s="26"/>
       <c r="CM99" s="26"/>
@@ -17924,28 +17926,28 @@
         <v>-18.463720177479203</v>
       </c>
       <c r="CD100" s="26">
-        <v>-12.133022609495853</v>
+        <v>-12.248640314743838</v>
       </c>
       <c r="CE100" s="26">
-        <v>0.71285894013173845</v>
+        <v>0.83740779315148473</v>
       </c>
       <c r="CF100" s="26">
-        <v>-6.9695086341354084</v>
+        <v>-6.9465116213614948</v>
       </c>
       <c r="CG100" s="26">
-        <v>-9.7227852757041404</v>
+        <v>-10.043407304589977</v>
       </c>
       <c r="CH100" s="26">
-        <v>6.4955304652266221</v>
+        <v>7.3882196283083346</v>
       </c>
       <c r="CI100" s="26">
-        <v>2.7320736211386532</v>
+        <v>3.1050193909299821</v>
       </c>
       <c r="CJ100" s="26">
-        <v>-10.648034428219603</v>
+        <v>-11.031877319978989</v>
       </c>
       <c r="CK100" s="26">
-        <v>3.4645925427717827</v>
+        <v>3.9147385367330259</v>
       </c>
       <c r="CL100" s="26"/>
       <c r="CM100" s="26"/>
@@ -18253,28 +18255,28 @@
         <v>-13.72190865872102</v>
       </c>
       <c r="CD101" s="26">
-        <v>-14.612645523913869</v>
+        <v>-14.725457576642185</v>
       </c>
       <c r="CE101" s="26">
-        <v>46.681030335440454</v>
+        <v>46.519496829208293</v>
       </c>
       <c r="CF101" s="26">
-        <v>27.85411318140585</v>
+        <v>27.851531261537161</v>
       </c>
       <c r="CG101" s="26">
         <v>8.5926047675380914</v>
       </c>
       <c r="CH101" s="26">
-        <v>7.9361028807231691</v>
+        <v>8.1333331021826893</v>
       </c>
       <c r="CI101" s="26">
-        <v>4.464427553075339</v>
+        <v>4.8649176850083791</v>
       </c>
       <c r="CJ101" s="26">
-        <v>-3.2852015596475326</v>
+        <v>-3.2468613095775538</v>
       </c>
       <c r="CK101" s="26">
-        <v>9.7783138248607173</v>
+        <v>10.193524067478094</v>
       </c>
       <c r="CL101" s="26"/>
       <c r="CM101" s="26"/>
@@ -18582,28 +18584,28 @@
         <v>6.2805935313319736</v>
       </c>
       <c r="CD102" s="26">
-        <v>-8.6776472636330482E-2</v>
+        <v>-0.22148403896551372</v>
       </c>
       <c r="CE102" s="26">
-        <v>6.6029405514941999</v>
+        <v>6.6029405513744308</v>
       </c>
       <c r="CF102" s="26">
-        <v>3.1586329777047837</v>
+        <v>3.1884022783730046</v>
       </c>
       <c r="CG102" s="26">
-        <v>2.6900604276872713</v>
+        <v>2.7873321121265349</v>
       </c>
       <c r="CH102" s="26">
-        <v>5.9185421015190087</v>
+        <v>5.6117649963048706</v>
       </c>
       <c r="CI102" s="26">
-        <v>6.8800990391981998</v>
+        <v>7.087811218627877</v>
       </c>
       <c r="CJ102" s="26">
-        <v>1.4086083351965328</v>
+        <v>1.3469829937291706</v>
       </c>
       <c r="CK102" s="26">
-        <v>4.2695681318162002</v>
+        <v>4.4963740045475049</v>
       </c>
       <c r="CL102" s="26"/>
       <c r="CM102" s="26"/>
@@ -18911,28 +18913,28 @@
         <v>-5.9788064223202326</v>
       </c>
       <c r="CD103" s="26">
-        <v>-6.6092598257202013</v>
+        <v>-5.8047020183507101</v>
       </c>
       <c r="CE103" s="26">
-        <v>16.708688942877799</v>
+        <v>15.601152392324622</v>
       </c>
       <c r="CF103" s="26">
-        <v>7.8709611742091852</v>
+        <v>7.6947838124236938</v>
       </c>
       <c r="CG103" s="26">
-        <v>-1.0059725133067872</v>
+        <v>-0.8103581262158599</v>
       </c>
       <c r="CH103" s="26">
-        <v>8.4182139981645747</v>
+        <v>8.6882926342291853</v>
       </c>
       <c r="CI103" s="26">
-        <v>7.042625605422856</v>
+        <v>7.6081719422744527</v>
       </c>
       <c r="CJ103" s="26">
-        <v>8.7472544154313425</v>
+        <v>9.2623422039965249</v>
       </c>
       <c r="CK103" s="26">
-        <v>9.8090647313618007</v>
+        <v>9.3573074302153856</v>
       </c>
       <c r="CL103" s="26"/>
       <c r="CM103" s="26"/>
@@ -19240,28 +19242,28 @@
         <v>-2.7176731566850378</v>
       </c>
       <c r="CD104" s="26">
-        <v>6.8330015896329854</v>
+        <v>7.4300765357818221</v>
       </c>
       <c r="CE104" s="26">
-        <v>15.578171349879128</v>
+        <v>15.932597336635126</v>
       </c>
       <c r="CF104" s="26">
-        <v>16.302023606256611</v>
+        <v>16.384706659401687</v>
       </c>
       <c r="CG104" s="26">
-        <v>16.777144900864684</v>
+        <v>17.10402110268052</v>
       </c>
       <c r="CH104" s="26">
-        <v>1.0585667675321559</v>
+        <v>1.1132510405990672</v>
       </c>
       <c r="CI104" s="26">
-        <v>-2.4700497527116454</v>
+        <v>-2.6297406845382625</v>
       </c>
       <c r="CJ104" s="26">
-        <v>5.3205799091492452</v>
+        <v>5.261707712749029</v>
       </c>
       <c r="CK104" s="26">
-        <v>5.6090903134278847</v>
+        <v>5.2490153935198265</v>
       </c>
       <c r="CL104" s="26"/>
       <c r="CM104" s="26"/>
@@ -19575,22 +19577,22 @@
         <v>19.206924753859099</v>
       </c>
       <c r="CF105" s="26">
-        <v>17.333140304528001</v>
+        <v>17.356070293331967</v>
       </c>
       <c r="CG105" s="26">
         <v>14.815706562383383</v>
       </c>
       <c r="CH105" s="26">
-        <v>15.960257541421257</v>
+        <v>16.08076077626572</v>
       </c>
       <c r="CI105" s="26">
-        <v>25.17624858175229</v>
+        <v>25.288052668088156</v>
       </c>
       <c r="CJ105" s="26">
-        <v>19.706148468744217</v>
+        <v>19.754366857237656</v>
       </c>
       <c r="CK105" s="26">
-        <v>8.0726393139359374</v>
+        <v>7.8682121727108552</v>
       </c>
       <c r="CL105" s="26"/>
       <c r="CM105" s="26"/>
@@ -19898,28 +19900,28 @@
         <v>4.0776154684976547</v>
       </c>
       <c r="CD106" s="26">
-        <v>6.8442425168613994</v>
+        <v>6.8443113322696121</v>
       </c>
       <c r="CE106" s="26">
-        <v>13.687775040834737</v>
+        <v>13.687871890381274</v>
       </c>
       <c r="CF106" s="26">
-        <v>7.5089988444654523</v>
+        <v>7.5567461639525675</v>
       </c>
       <c r="CG106" s="26">
-        <v>8.1808552828257319</v>
+        <v>8.1047575801421061</v>
       </c>
       <c r="CH106" s="26">
-        <v>6.9962473318561536</v>
+        <v>6.6499929138817464</v>
       </c>
       <c r="CI106" s="26">
         <v>9.6359318992384146</v>
       </c>
       <c r="CJ106" s="26">
-        <v>7.1919154907722316</v>
+        <v>7.2558842475053211</v>
       </c>
       <c r="CK106" s="26">
-        <v>5.6669181238955701</v>
+        <v>6.0323765304316055</v>
       </c>
       <c r="CL106" s="26"/>
       <c r="CM106" s="26"/>
@@ -20227,28 +20229,28 @@
         <v>-48.902586267573966</v>
       </c>
       <c r="CD107" s="26">
-        <v>-34.470006076676327</v>
+        <v>-34.470113251531615</v>
       </c>
       <c r="CE107" s="26">
         <v>14.055157650543237</v>
       </c>
       <c r="CF107" s="26">
-        <v>21.603141820449935</v>
+        <v>21.656917781991609</v>
       </c>
       <c r="CG107" s="26">
-        <v>39.398702540626743</v>
+        <v>39.541157501102617</v>
       </c>
       <c r="CH107" s="26">
-        <v>16.267402608199205</v>
+        <v>16.5132803761866</v>
       </c>
       <c r="CI107" s="26">
-        <v>37.920455885362259</v>
+        <v>38.575728051564937</v>
       </c>
       <c r="CJ107" s="26">
-        <v>46.113867569014559</v>
+        <v>46.141312825458016</v>
       </c>
       <c r="CK107" s="26">
-        <v>15.233256365271814</v>
+        <v>15.49125668577156</v>
       </c>
       <c r="CL107" s="26"/>
       <c r="CM107" s="26"/>
@@ -20556,28 +20558,28 @@
         <v>-14.256761089970823</v>
       </c>
       <c r="CD108" s="26">
-        <v>1.7446261132967322</v>
+        <v>1.4985484060326542</v>
       </c>
       <c r="CE108" s="26">
-        <v>11.209563565422087</v>
+        <v>11.038805149768422</v>
       </c>
       <c r="CF108" s="26">
-        <v>14.442803120296304</v>
+        <v>14.37308401691169</v>
       </c>
       <c r="CG108" s="26">
-        <v>8.8031298445345527</v>
+        <v>8.9785648081707592</v>
       </c>
       <c r="CH108" s="26">
-        <v>11.482001912740486</v>
+        <v>11.748484928354429</v>
       </c>
       <c r="CI108" s="26">
-        <v>7.5196302721927282</v>
+        <v>7.5463646627552663</v>
       </c>
       <c r="CJ108" s="26">
-        <v>5.3710183150907227</v>
+        <v>5.7050559791894671</v>
       </c>
       <c r="CK108" s="26">
-        <v>11.555394075331236</v>
+        <v>10.278242718539033</v>
       </c>
       <c r="CL108" s="26"/>
       <c r="CM108" s="26"/>
@@ -20885,7 +20887,7 @@
         <v>-43.175699036141069</v>
       </c>
       <c r="CD109" s="26">
-        <v>-18.182807951409558</v>
+        <v>-18.293117622498656</v>
       </c>
       <c r="CE109" s="26">
         <v>21.669729508669306</v>
@@ -20894,19 +20896,19 @@
         <v>12.492550954667706</v>
       </c>
       <c r="CG109" s="26">
-        <v>21.966395703948621</v>
+        <v>21.768812722042412</v>
       </c>
       <c r="CH109" s="26">
-        <v>19.780553110410892</v>
+        <v>20.153452583583615</v>
       </c>
       <c r="CI109" s="26">
-        <v>33.248358926450209</v>
+        <v>33.331684592777037</v>
       </c>
       <c r="CJ109" s="26">
-        <v>39.224414477418264</v>
+        <v>39.324921468664854</v>
       </c>
       <c r="CK109" s="26">
-        <v>24.747548084250923</v>
+        <v>24.779108341374851</v>
       </c>
       <c r="CL109" s="26"/>
       <c r="CM109" s="26"/>
@@ -21214,28 +21216,28 @@
         <v>-1.5710838586039557</v>
       </c>
       <c r="CD110" s="26">
-        <v>-0.22764916148564396</v>
+        <v>-0.19383179187400401</v>
       </c>
       <c r="CE110" s="26">
-        <v>3.4537672693112427</v>
+        <v>3.4003310010424741</v>
       </c>
       <c r="CF110" s="26">
-        <v>6.4748362349285884</v>
+        <v>6.5092090221177301</v>
       </c>
       <c r="CG110" s="26">
-        <v>6.7537661012559767</v>
+        <v>6.8280332113680657</v>
       </c>
       <c r="CH110" s="26">
-        <v>8.6439596750421401</v>
+        <v>8.2448428990994955</v>
       </c>
       <c r="CI110" s="26">
-        <v>7.216347897602887</v>
+        <v>6.8326318227003071</v>
       </c>
       <c r="CJ110" s="26">
-        <v>8.3631894715307169</v>
+        <v>8.0598133946706128</v>
       </c>
       <c r="CK110" s="26">
-        <v>7.0835590822963894</v>
+        <v>6.6439501425235221</v>
       </c>
       <c r="CL110" s="26"/>
       <c r="CM110" s="26"/>
@@ -21693,28 +21695,28 @@
         <v>-7.2879709016900733</v>
       </c>
       <c r="CD112" s="26">
-        <v>-4.7649815423287123</v>
+        <v>-4.7608218801785966</v>
       </c>
       <c r="CE112" s="26">
-        <v>7.3097894395565959</v>
+        <v>7.2794240860145436</v>
       </c>
       <c r="CF112" s="26">
-        <v>7.0902537584561998</v>
+        <v>7.1108996229100683</v>
       </c>
       <c r="CG112" s="26">
-        <v>7.5363083531733821</v>
+        <v>7.5009024822445696</v>
       </c>
       <c r="CH112" s="26">
-        <v>10.032072335120617</v>
+        <v>9.9767570749309726</v>
       </c>
       <c r="CI112" s="26">
-        <v>8.5611007039442057</v>
+        <v>8.5220183917681851</v>
       </c>
       <c r="CJ112" s="26">
-        <v>8.0489928741148447</v>
+        <v>8.0095402875760158</v>
       </c>
       <c r="CK112" s="26">
-        <v>7.0313151561457659</v>
+        <v>6.971064311894807</v>
       </c>
       <c r="CL112" s="26"/>
       <c r="CM112" s="26"/>
@@ -22184,7 +22186,7 @@
     </row>
     <row r="118" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="120" spans="1:153" x14ac:dyDescent="0.2">
@@ -22194,7 +22196,7 @@
     </row>
     <row r="121" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="122" spans="1:153" x14ac:dyDescent="0.2">
@@ -22204,144 +22206,144 @@
     </row>
     <row r="124" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
-      <c r="B124" s="31">
+      <c r="B124" s="30">
         <v>2000</v>
       </c>
-      <c r="C124" s="31"/>
-      <c r="D124" s="31"/>
-      <c r="E124" s="31"/>
-      <c r="F124" s="31">
+      <c r="C124" s="30"/>
+      <c r="D124" s="30"/>
+      <c r="E124" s="30"/>
+      <c r="F124" s="30">
         <v>2001</v>
       </c>
-      <c r="G124" s="31"/>
-      <c r="H124" s="31"/>
-      <c r="I124" s="31"/>
-      <c r="J124" s="31">
+      <c r="G124" s="30"/>
+      <c r="H124" s="30"/>
+      <c r="I124" s="30"/>
+      <c r="J124" s="30">
         <v>2002</v>
       </c>
-      <c r="K124" s="31"/>
-      <c r="L124" s="31"/>
-      <c r="M124" s="31"/>
-      <c r="N124" s="31">
+      <c r="K124" s="30"/>
+      <c r="L124" s="30"/>
+      <c r="M124" s="30"/>
+      <c r="N124" s="30">
         <v>2003</v>
       </c>
-      <c r="O124" s="31"/>
-      <c r="P124" s="31"/>
-      <c r="Q124" s="31"/>
-      <c r="R124" s="31">
+      <c r="O124" s="30"/>
+      <c r="P124" s="30"/>
+      <c r="Q124" s="30"/>
+      <c r="R124" s="30">
         <v>2004</v>
       </c>
-      <c r="S124" s="31"/>
-      <c r="T124" s="31"/>
-      <c r="U124" s="31"/>
-      <c r="V124" s="31">
+      <c r="S124" s="30"/>
+      <c r="T124" s="30"/>
+      <c r="U124" s="30"/>
+      <c r="V124" s="30">
         <v>2005</v>
       </c>
-      <c r="W124" s="31"/>
-      <c r="X124" s="31"/>
-      <c r="Y124" s="31"/>
-      <c r="Z124" s="31">
+      <c r="W124" s="30"/>
+      <c r="X124" s="30"/>
+      <c r="Y124" s="30"/>
+      <c r="Z124" s="30">
         <v>2006</v>
       </c>
-      <c r="AA124" s="31"/>
-      <c r="AB124" s="31"/>
-      <c r="AC124" s="31"/>
-      <c r="AD124" s="31">
+      <c r="AA124" s="30"/>
+      <c r="AB124" s="30"/>
+      <c r="AC124" s="30"/>
+      <c r="AD124" s="30">
         <v>2007</v>
       </c>
-      <c r="AE124" s="31"/>
-      <c r="AF124" s="31"/>
-      <c r="AG124" s="31"/>
-      <c r="AH124" s="31">
+      <c r="AE124" s="30"/>
+      <c r="AF124" s="30"/>
+      <c r="AG124" s="30"/>
+      <c r="AH124" s="30">
         <v>2008</v>
       </c>
-      <c r="AI124" s="31"/>
-      <c r="AJ124" s="31"/>
-      <c r="AK124" s="31"/>
-      <c r="AL124" s="31">
+      <c r="AI124" s="30"/>
+      <c r="AJ124" s="30"/>
+      <c r="AK124" s="30"/>
+      <c r="AL124" s="30">
         <v>2009</v>
       </c>
-      <c r="AM124" s="31"/>
-      <c r="AN124" s="31"/>
-      <c r="AO124" s="31"/>
-      <c r="AP124" s="31">
+      <c r="AM124" s="30"/>
+      <c r="AN124" s="30"/>
+      <c r="AO124" s="30"/>
+      <c r="AP124" s="30">
         <v>2010</v>
       </c>
-      <c r="AQ124" s="31"/>
-      <c r="AR124" s="31"/>
-      <c r="AS124" s="31"/>
-      <c r="AT124" s="31">
+      <c r="AQ124" s="30"/>
+      <c r="AR124" s="30"/>
+      <c r="AS124" s="30"/>
+      <c r="AT124" s="30">
         <v>2011</v>
       </c>
-      <c r="AU124" s="31"/>
-      <c r="AV124" s="31"/>
-      <c r="AW124" s="31"/>
-      <c r="AX124" s="31">
+      <c r="AU124" s="30"/>
+      <c r="AV124" s="30"/>
+      <c r="AW124" s="30"/>
+      <c r="AX124" s="30">
         <v>2012</v>
       </c>
-      <c r="AY124" s="31"/>
-      <c r="AZ124" s="31"/>
-      <c r="BA124" s="31"/>
-      <c r="BB124" s="31">
+      <c r="AY124" s="30"/>
+      <c r="AZ124" s="30"/>
+      <c r="BA124" s="30"/>
+      <c r="BB124" s="30">
         <v>2013</v>
       </c>
-      <c r="BC124" s="31"/>
-      <c r="BD124" s="31"/>
-      <c r="BE124" s="31"/>
-      <c r="BF124" s="31">
+      <c r="BC124" s="30"/>
+      <c r="BD124" s="30"/>
+      <c r="BE124" s="30"/>
+      <c r="BF124" s="30">
         <v>2014</v>
       </c>
-      <c r="BG124" s="31"/>
-      <c r="BH124" s="31"/>
-      <c r="BI124" s="31"/>
-      <c r="BJ124" s="31">
+      <c r="BG124" s="30"/>
+      <c r="BH124" s="30"/>
+      <c r="BI124" s="30"/>
+      <c r="BJ124" s="30">
         <v>2015</v>
       </c>
-      <c r="BK124" s="31"/>
-      <c r="BL124" s="31"/>
-      <c r="BM124" s="31"/>
-      <c r="BN124" s="31">
+      <c r="BK124" s="30"/>
+      <c r="BL124" s="30"/>
+      <c r="BM124" s="30"/>
+      <c r="BN124" s="30">
         <v>2016</v>
       </c>
-      <c r="BO124" s="31"/>
-      <c r="BP124" s="31"/>
-      <c r="BQ124" s="31"/>
-      <c r="BR124" s="30">
+      <c r="BO124" s="30"/>
+      <c r="BP124" s="30"/>
+      <c r="BQ124" s="30"/>
+      <c r="BR124" s="31">
         <v>2017</v>
       </c>
-      <c r="BS124" s="30"/>
-      <c r="BT124" s="30"/>
-      <c r="BU124" s="30"/>
-      <c r="BV124" s="30">
+      <c r="BS124" s="31"/>
+      <c r="BT124" s="31"/>
+      <c r="BU124" s="31"/>
+      <c r="BV124" s="31">
         <v>2018</v>
       </c>
-      <c r="BW124" s="30"/>
-      <c r="BX124" s="30"/>
-      <c r="BY124" s="30"/>
-      <c r="BZ124" s="30">
+      <c r="BW124" s="31"/>
+      <c r="BX124" s="31"/>
+      <c r="BY124" s="31"/>
+      <c r="BZ124" s="31">
         <v>2019</v>
       </c>
-      <c r="CA124" s="30"/>
-      <c r="CB124" s="30"/>
-      <c r="CC124" s="30"/>
-      <c r="CD124" s="30">
+      <c r="CA124" s="31"/>
+      <c r="CB124" s="31"/>
+      <c r="CC124" s="31"/>
+      <c r="CD124" s="31">
         <v>2020</v>
       </c>
-      <c r="CE124" s="30"/>
-      <c r="CF124" s="30"/>
-      <c r="CG124" s="30"/>
-      <c r="CH124" s="30">
+      <c r="CE124" s="31"/>
+      <c r="CF124" s="31"/>
+      <c r="CG124" s="31"/>
+      <c r="CH124" s="31">
         <v>2021</v>
       </c>
-      <c r="CI124" s="30"/>
-      <c r="CJ124" s="30"/>
-      <c r="CK124" s="30"/>
-      <c r="CL124" s="30">
+      <c r="CI124" s="31"/>
+      <c r="CJ124" s="31"/>
+      <c r="CK124" s="31"/>
+      <c r="CL124" s="31">
         <v>2022</v>
       </c>
-      <c r="CM124" s="30"/>
-      <c r="CN124" s="30"/>
-      <c r="CO124" s="30"/>
+      <c r="CM124" s="31"/>
+      <c r="CN124" s="31"/>
+      <c r="CO124" s="31"/>
     </row>
     <row r="125" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
@@ -22902,7 +22904,7 @@
         <v>115.22693976952753</v>
       </c>
       <c r="CN127" s="26">
-        <v>118.27301589983847</v>
+        <v>118.41863104641222</v>
       </c>
       <c r="CO127" s="26">
         <v>119.63502738941952</v>
@@ -23243,7 +23245,7 @@
         <v>155.37188373824463</v>
       </c>
       <c r="CN128" s="26">
-        <v>167.67663158279336</v>
+        <v>167.67663158279339</v>
       </c>
       <c r="CO128" s="26">
         <v>157.85711271445632</v>
@@ -25962,7 +25964,7 @@
         <v>105.72843667977278</v>
       </c>
       <c r="CK136" s="26">
-        <v>99.048505593486496</v>
+        <v>99.048505593486482</v>
       </c>
       <c r="CL136" s="26">
         <v>104.33492107137931</v>
@@ -26647,16 +26649,16 @@
         <v>102.77555520790396</v>
       </c>
       <c r="CL138" s="26">
-        <v>114.22860001397427</v>
+        <v>114.3578053073435</v>
       </c>
       <c r="CM138" s="26">
-        <v>115.95319070720001</v>
+        <v>116.27948211337615</v>
       </c>
       <c r="CN138" s="26">
         <v>107.10733958406853</v>
       </c>
       <c r="CO138" s="26">
-        <v>106.99932889233112</v>
+        <v>107.40108882700197</v>
       </c>
       <c r="CP138" s="11"/>
       <c r="CQ138" s="11"/>
@@ -27130,28 +27132,28 @@
         <v>104.16796773329015</v>
       </c>
       <c r="CH140" s="26">
-        <v>107.63092637185233</v>
+        <v>107.63239495911259</v>
       </c>
       <c r="CI140" s="26">
-        <v>108.46950098065685</v>
+        <v>108.46957476739563</v>
       </c>
       <c r="CJ140" s="26">
-        <v>110.40110894129005</v>
+        <v>110.40112462955727</v>
       </c>
       <c r="CK140" s="26">
-        <v>107.90140432267583</v>
+        <v>107.89794049951327</v>
       </c>
       <c r="CL140" s="26">
-        <v>110.95609486366602</v>
+        <v>110.98019152014913</v>
       </c>
       <c r="CM140" s="26">
-        <v>114.10299600886442</v>
+        <v>114.14656881578551</v>
       </c>
       <c r="CN140" s="26">
-        <v>117.7894222953032</v>
+        <v>117.8406130747405</v>
       </c>
       <c r="CO140" s="26">
-        <v>115.83583705206568</v>
+        <v>115.90512482879622</v>
       </c>
       <c r="CP140" s="11"/>
       <c r="CQ140" s="11"/>
@@ -27326,7 +27328,7 @@
     </row>
     <row r="147" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="149" spans="1:153" x14ac:dyDescent="0.2">
@@ -27336,7 +27338,7 @@
     </row>
     <row r="150" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="151" spans="1:153" x14ac:dyDescent="0.2">
@@ -27346,144 +27348,144 @@
     </row>
     <row r="153" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A153" s="4"/>
-      <c r="B153" s="31">
+      <c r="B153" s="30">
         <v>2000</v>
       </c>
-      <c r="C153" s="31"/>
-      <c r="D153" s="31"/>
-      <c r="E153" s="31"/>
-      <c r="F153" s="31">
+      <c r="C153" s="30"/>
+      <c r="D153" s="30"/>
+      <c r="E153" s="30"/>
+      <c r="F153" s="30">
         <v>2001</v>
       </c>
-      <c r="G153" s="31"/>
-      <c r="H153" s="31"/>
-      <c r="I153" s="31"/>
-      <c r="J153" s="31">
+      <c r="G153" s="30"/>
+      <c r="H153" s="30"/>
+      <c r="I153" s="30"/>
+      <c r="J153" s="30">
         <v>2002</v>
       </c>
-      <c r="K153" s="31"/>
-      <c r="L153" s="31"/>
-      <c r="M153" s="31"/>
-      <c r="N153" s="31">
+      <c r="K153" s="30"/>
+      <c r="L153" s="30"/>
+      <c r="M153" s="30"/>
+      <c r="N153" s="30">
         <v>2003</v>
       </c>
-      <c r="O153" s="31"/>
-      <c r="P153" s="31"/>
-      <c r="Q153" s="31"/>
-      <c r="R153" s="31">
+      <c r="O153" s="30"/>
+      <c r="P153" s="30"/>
+      <c r="Q153" s="30"/>
+      <c r="R153" s="30">
         <v>2004</v>
       </c>
-      <c r="S153" s="31"/>
-      <c r="T153" s="31"/>
-      <c r="U153" s="31"/>
-      <c r="V153" s="31">
+      <c r="S153" s="30"/>
+      <c r="T153" s="30"/>
+      <c r="U153" s="30"/>
+      <c r="V153" s="30">
         <v>2005</v>
       </c>
-      <c r="W153" s="31"/>
-      <c r="X153" s="31"/>
-      <c r="Y153" s="31"/>
-      <c r="Z153" s="31">
+      <c r="W153" s="30"/>
+      <c r="X153" s="30"/>
+      <c r="Y153" s="30"/>
+      <c r="Z153" s="30">
         <v>2006</v>
       </c>
-      <c r="AA153" s="31"/>
-      <c r="AB153" s="31"/>
-      <c r="AC153" s="31"/>
-      <c r="AD153" s="31">
+      <c r="AA153" s="30"/>
+      <c r="AB153" s="30"/>
+      <c r="AC153" s="30"/>
+      <c r="AD153" s="30">
         <v>2007</v>
       </c>
-      <c r="AE153" s="31"/>
-      <c r="AF153" s="31"/>
-      <c r="AG153" s="31"/>
-      <c r="AH153" s="31">
+      <c r="AE153" s="30"/>
+      <c r="AF153" s="30"/>
+      <c r="AG153" s="30"/>
+      <c r="AH153" s="30">
         <v>2008</v>
       </c>
-      <c r="AI153" s="31"/>
-      <c r="AJ153" s="31"/>
-      <c r="AK153" s="31"/>
-      <c r="AL153" s="31">
+      <c r="AI153" s="30"/>
+      <c r="AJ153" s="30"/>
+      <c r="AK153" s="30"/>
+      <c r="AL153" s="30">
         <v>2009</v>
       </c>
-      <c r="AM153" s="31"/>
-      <c r="AN153" s="31"/>
-      <c r="AO153" s="31"/>
-      <c r="AP153" s="31">
+      <c r="AM153" s="30"/>
+      <c r="AN153" s="30"/>
+      <c r="AO153" s="30"/>
+      <c r="AP153" s="30">
         <v>2010</v>
       </c>
-      <c r="AQ153" s="31"/>
-      <c r="AR153" s="31"/>
-      <c r="AS153" s="31"/>
-      <c r="AT153" s="31">
+      <c r="AQ153" s="30"/>
+      <c r="AR153" s="30"/>
+      <c r="AS153" s="30"/>
+      <c r="AT153" s="30">
         <v>2011</v>
       </c>
-      <c r="AU153" s="31"/>
-      <c r="AV153" s="31"/>
-      <c r="AW153" s="31"/>
-      <c r="AX153" s="31">
+      <c r="AU153" s="30"/>
+      <c r="AV153" s="30"/>
+      <c r="AW153" s="30"/>
+      <c r="AX153" s="30">
         <v>2012</v>
       </c>
-      <c r="AY153" s="31"/>
-      <c r="AZ153" s="31"/>
-      <c r="BA153" s="31"/>
-      <c r="BB153" s="31">
+      <c r="AY153" s="30"/>
+      <c r="AZ153" s="30"/>
+      <c r="BA153" s="30"/>
+      <c r="BB153" s="30">
         <v>2013</v>
       </c>
-      <c r="BC153" s="31"/>
-      <c r="BD153" s="31"/>
-      <c r="BE153" s="31"/>
-      <c r="BF153" s="31">
+      <c r="BC153" s="30"/>
+      <c r="BD153" s="30"/>
+      <c r="BE153" s="30"/>
+      <c r="BF153" s="30">
         <v>2014</v>
       </c>
-      <c r="BG153" s="31"/>
-      <c r="BH153" s="31"/>
-      <c r="BI153" s="31"/>
-      <c r="BJ153" s="31">
+      <c r="BG153" s="30"/>
+      <c r="BH153" s="30"/>
+      <c r="BI153" s="30"/>
+      <c r="BJ153" s="30">
         <v>2015</v>
       </c>
-      <c r="BK153" s="31"/>
-      <c r="BL153" s="31"/>
-      <c r="BM153" s="31"/>
-      <c r="BN153" s="31">
+      <c r="BK153" s="30"/>
+      <c r="BL153" s="30"/>
+      <c r="BM153" s="30"/>
+      <c r="BN153" s="30">
         <v>2016</v>
       </c>
-      <c r="BO153" s="31"/>
-      <c r="BP153" s="31"/>
-      <c r="BQ153" s="31"/>
-      <c r="BR153" s="30">
+      <c r="BO153" s="30"/>
+      <c r="BP153" s="30"/>
+      <c r="BQ153" s="30"/>
+      <c r="BR153" s="31">
         <v>2017</v>
       </c>
-      <c r="BS153" s="30"/>
-      <c r="BT153" s="30"/>
-      <c r="BU153" s="30"/>
-      <c r="BV153" s="30">
+      <c r="BS153" s="31"/>
+      <c r="BT153" s="31"/>
+      <c r="BU153" s="31"/>
+      <c r="BV153" s="31">
         <v>2018</v>
       </c>
-      <c r="BW153" s="30"/>
-      <c r="BX153" s="30"/>
-      <c r="BY153" s="30"/>
-      <c r="BZ153" s="30">
+      <c r="BW153" s="31"/>
+      <c r="BX153" s="31"/>
+      <c r="BY153" s="31"/>
+      <c r="BZ153" s="31">
         <v>2019</v>
       </c>
-      <c r="CA153" s="30"/>
-      <c r="CB153" s="30"/>
-      <c r="CC153" s="30"/>
-      <c r="CD153" s="30">
+      <c r="CA153" s="31"/>
+      <c r="CB153" s="31"/>
+      <c r="CC153" s="31"/>
+      <c r="CD153" s="31">
         <v>2020</v>
       </c>
-      <c r="CE153" s="30"/>
-      <c r="CF153" s="30"/>
-      <c r="CG153" s="30"/>
-      <c r="CH153" s="30">
+      <c r="CE153" s="31"/>
+      <c r="CF153" s="31"/>
+      <c r="CG153" s="31"/>
+      <c r="CH153" s="31">
         <v>2021</v>
       </c>
-      <c r="CI153" s="30"/>
-      <c r="CJ153" s="30"/>
-      <c r="CK153" s="30"/>
-      <c r="CL153" s="30">
+      <c r="CI153" s="31"/>
+      <c r="CJ153" s="31"/>
+      <c r="CK153" s="31"/>
+      <c r="CL153" s="31">
         <v>2022</v>
       </c>
-      <c r="CM153" s="30"/>
-      <c r="CN153" s="30"/>
-      <c r="CO153" s="30"/>
+      <c r="CM153" s="31"/>
+      <c r="CN153" s="31"/>
+      <c r="CO153" s="31"/>
     </row>
     <row r="154" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
@@ -28026,28 +28028,28 @@
         <v>40.638746564474822</v>
       </c>
       <c r="CH156" s="26">
-        <v>36.40297836241141</v>
+        <v>36.395213216883988</v>
       </c>
       <c r="CI156" s="26">
-        <v>41.275322195201653</v>
+        <v>41.286977055901261</v>
       </c>
       <c r="CJ156" s="26">
-        <v>36.349841373957851</v>
+        <v>36.354482041036071</v>
       </c>
       <c r="CK156" s="26">
-        <v>39.998804526873158</v>
+        <v>39.950578211679009</v>
       </c>
       <c r="CL156" s="26">
-        <v>35.927601934011399</v>
+        <v>35.904635946493741</v>
       </c>
       <c r="CM156" s="26">
-        <v>40.386598492293864</v>
+        <v>40.343150242983079</v>
       </c>
       <c r="CN156" s="26">
-        <v>35.151239735263502</v>
+        <v>35.173035025069254</v>
       </c>
       <c r="CO156" s="26">
-        <v>39.714410745271564</v>
+        <v>39.714505651846942</v>
       </c>
       <c r="CP156" s="11"/>
       <c r="CQ156" s="11"/>
@@ -28367,28 +28369,28 @@
         <v>2.5775072575760745</v>
       </c>
       <c r="CH157" s="26">
-        <v>1.8480433448141516</v>
+        <v>1.8455058500910009</v>
       </c>
       <c r="CI157" s="26">
-        <v>1.9993070342201256</v>
+        <v>2.0023447628039635</v>
       </c>
       <c r="CJ157" s="26">
-        <v>2.1250416709038511</v>
+        <v>2.1251569685976168</v>
       </c>
       <c r="CK157" s="26">
-        <v>2.2536549063444116</v>
+        <v>2.2464627184106933</v>
       </c>
       <c r="CL157" s="26">
-        <v>1.8223351728914243</v>
+        <v>1.8356369621545274</v>
       </c>
       <c r="CM157" s="26">
-        <v>1.9301613408157867</v>
+        <v>1.9400708323935079</v>
       </c>
       <c r="CN157" s="26">
-        <v>1.7988591773401337</v>
+        <v>1.7911048532095459</v>
       </c>
       <c r="CO157" s="26">
-        <v>2.2434627359199242</v>
+        <v>2.2458821519621286</v>
       </c>
       <c r="CP157" s="11"/>
       <c r="CQ157" s="11"/>
@@ -28708,28 +28710,28 @@
         <v>1.8099927191248613</v>
       </c>
       <c r="CH158" s="26">
-        <v>1.5469680524272333</v>
+        <v>1.5448356745996046</v>
       </c>
       <c r="CI158" s="26">
-        <v>1.783651220832343</v>
+        <v>1.7821900552047152</v>
       </c>
       <c r="CJ158" s="26">
-        <v>1.9540268022070686</v>
+        <v>1.9536104290468019</v>
       </c>
       <c r="CK158" s="26">
-        <v>1.7969329392509306</v>
+        <v>1.7975824721453986</v>
       </c>
       <c r="CL158" s="26">
-        <v>1.5002248085662859</v>
+        <v>1.5013437716884397</v>
       </c>
       <c r="CM158" s="26">
-        <v>1.6737259758123908</v>
+        <v>1.678730904883531</v>
       </c>
       <c r="CN158" s="26">
-        <v>1.684186846409736</v>
+        <v>1.6843789953151131</v>
       </c>
       <c r="CO158" s="26">
-        <v>1.7774387289402775</v>
+        <v>1.784686817842867</v>
       </c>
       <c r="CP158" s="11"/>
       <c r="CQ158" s="11"/>
@@ -29049,28 +29051,28 @@
         <v>11.866786894509383</v>
       </c>
       <c r="CH159" s="26">
-        <v>11.777200680968035</v>
+        <v>11.76064796468018</v>
       </c>
       <c r="CI159" s="26">
-        <v>14.847458837901915</v>
+        <v>14.851651296121664</v>
       </c>
       <c r="CJ159" s="26">
-        <v>13.37868656772501</v>
+        <v>13.379965943734826</v>
       </c>
       <c r="CK159" s="26">
-        <v>11.447031080870858</v>
+        <v>11.462015765957739</v>
       </c>
       <c r="CL159" s="26">
-        <v>11.567074359701033</v>
+        <v>11.520809907294566</v>
       </c>
       <c r="CM159" s="26">
-        <v>14.820477775699233</v>
+        <v>14.853160370285941</v>
       </c>
       <c r="CN159" s="26">
-        <v>12.67802711598868</v>
+        <v>12.670658111297362</v>
       </c>
       <c r="CO159" s="26">
-        <v>11.125892844071194</v>
+        <v>11.163941802320894</v>
       </c>
       <c r="CP159" s="11"/>
       <c r="CQ159" s="11"/>
@@ -29390,28 +29392,28 @@
         <v>2.9849945978585755</v>
       </c>
       <c r="CH160" s="26">
-        <v>2.8125240772186735</v>
+        <v>2.8365912669145663</v>
       </c>
       <c r="CI160" s="26">
-        <v>2.7626935752337203</v>
+        <v>2.7372489928576149</v>
       </c>
       <c r="CJ160" s="26">
-        <v>3.0653610049231355</v>
+        <v>3.0597642610980751</v>
       </c>
       <c r="CK160" s="26">
-        <v>2.7162641469006608</v>
+        <v>2.7226153263189437</v>
       </c>
       <c r="CL160" s="26">
-        <v>2.7540321393080136</v>
+        <v>2.7853516758681183</v>
       </c>
       <c r="CM160" s="26">
-        <v>2.658125012734792</v>
+        <v>2.6475023047827424</v>
       </c>
       <c r="CN160" s="26">
-        <v>2.9882198149321342</v>
+        <v>2.996684705773593</v>
       </c>
       <c r="CO160" s="26">
-        <v>2.7091160707695972</v>
+        <v>2.7040979429244238</v>
       </c>
       <c r="CP160" s="11"/>
       <c r="CQ160" s="11"/>
@@ -29731,28 +29733,28 @@
         <v>3.9254994743698939</v>
       </c>
       <c r="CH161" s="26">
-        <v>4.6360397908730588</v>
+        <v>4.6616827571738284</v>
       </c>
       <c r="CI161" s="26">
-        <v>4.0718031047053325</v>
+        <v>4.0854427592197622</v>
       </c>
       <c r="CJ161" s="26">
-        <v>5.6705397265240558</v>
+        <v>5.673476513107226</v>
       </c>
       <c r="CK161" s="26">
-        <v>4.2441412842633071</v>
+        <v>4.2575596660426234</v>
       </c>
       <c r="CL161" s="26">
-        <v>4.2445995683196163</v>
+        <v>4.2716654046258</v>
       </c>
       <c r="CM161" s="26">
-        <v>3.5635325484111213</v>
+        <v>3.5695401564217319</v>
       </c>
       <c r="CN161" s="26">
-        <v>5.3061834890078057</v>
+        <v>5.305597054116272</v>
       </c>
       <c r="CO161" s="26">
-        <v>4.0111042950942055</v>
+        <v>4.0097981398428715</v>
       </c>
       <c r="CP161" s="11"/>
       <c r="CQ161" s="11"/>
@@ -30072,28 +30074,28 @@
         <v>6.6330225962919283</v>
       </c>
       <c r="CH162" s="26">
-        <v>8.8990090404241613</v>
+        <v>8.8984989507156556</v>
       </c>
       <c r="CI162" s="26">
-        <v>6.0590112377996563</v>
+        <v>6.0607221131653271</v>
       </c>
       <c r="CJ162" s="26">
-        <v>9.3215909070937464</v>
+        <v>9.3216141585311352</v>
       </c>
       <c r="CK162" s="26">
-        <v>7.3385113553971149</v>
+        <v>7.3411639889025952</v>
       </c>
       <c r="CL162" s="26">
-        <v>9.8906523475883557</v>
+        <v>9.9033269954814962</v>
       </c>
       <c r="CM162" s="26">
-        <v>7.6311450485028924</v>
+        <v>7.6399568692139654</v>
       </c>
       <c r="CN162" s="26">
-        <v>11.201828988370851</v>
+        <v>11.205594142257045</v>
       </c>
       <c r="CO162" s="26">
-        <v>7.7402658348392563</v>
+        <v>7.7278994002764083</v>
       </c>
       <c r="CP162" s="11"/>
       <c r="CQ162" s="11"/>
@@ -30413,28 +30415,28 @@
         <v>2.8893934326010511</v>
       </c>
       <c r="CH163" s="26">
-        <v>3.3234734607247129</v>
+        <v>3.3232851002165185</v>
       </c>
       <c r="CI163" s="26">
-        <v>3.3968125186453002</v>
+        <v>3.3977745668441548</v>
       </c>
       <c r="CJ163" s="26">
-        <v>2.5111203884248718</v>
+        <v>2.5117510411499362</v>
       </c>
       <c r="CK163" s="26">
-        <v>2.8125638161492543</v>
+        <v>2.8116013085758307</v>
       </c>
       <c r="CL163" s="26">
-        <v>3.155564743857485</v>
+        <v>3.1461162624048113</v>
       </c>
       <c r="CM163" s="26">
-        <v>3.281450462649302</v>
+        <v>3.2823107388983983</v>
       </c>
       <c r="CN163" s="26">
-        <v>2.3456662028536286</v>
+        <v>2.3474931240763919</v>
       </c>
       <c r="CO163" s="26">
-        <v>2.6026154716848313</v>
+        <v>2.6105482147233063</v>
       </c>
       <c r="CP163" s="11"/>
       <c r="CQ163" s="11"/>
@@ -30754,28 +30756,28 @@
         <v>1.3253305894900231</v>
       </c>
       <c r="CH164" s="26">
-        <v>1.4023803306553089</v>
+        <v>1.402297652976177</v>
       </c>
       <c r="CI164" s="26">
-        <v>0.8808735952449237</v>
+        <v>0.88112232641164823</v>
       </c>
       <c r="CJ164" s="26">
-        <v>0.99267820477060131</v>
+        <v>0.99292562534116158</v>
       </c>
       <c r="CK164" s="26">
-        <v>1.6739181225350022</v>
+        <v>1.6762344259750122</v>
       </c>
       <c r="CL164" s="26">
-        <v>1.4599597250106682</v>
+        <v>1.4633989264385872</v>
       </c>
       <c r="CM164" s="26">
-        <v>1.0824917908333125</v>
+        <v>1.08791901540887</v>
       </c>
       <c r="CN164" s="26">
-        <v>1.2885466707662028</v>
+        <v>1.2890207821588699</v>
       </c>
       <c r="CO164" s="26">
-        <v>1.7360859678673215</v>
+        <v>1.742263944652648</v>
       </c>
       <c r="CP164" s="11"/>
       <c r="CQ164" s="11"/>
@@ -31095,28 +31097,28 @@
         <v>4.6345839703355196</v>
       </c>
       <c r="CH165" s="26">
-        <v>5.4059875287204804</v>
+        <v>5.3926035844843252</v>
       </c>
       <c r="CI165" s="26">
-        <v>5.0967400917989698</v>
+        <v>5.0903511750086166</v>
       </c>
       <c r="CJ165" s="26">
-        <v>5.6498610545456902</v>
+        <v>5.6453299700727051</v>
       </c>
       <c r="CK165" s="26">
-        <v>4.5565939967855789</v>
+        <v>4.5655907987946813</v>
       </c>
       <c r="CL165" s="26">
-        <v>5.3429575462341834</v>
+        <v>5.3440691247890406</v>
       </c>
       <c r="CM165" s="26">
-        <v>4.8256065402639523</v>
+        <v>4.8206543799868138</v>
       </c>
       <c r="CN165" s="26">
-        <v>5.3126282072839901</v>
+        <v>5.3248274248404597</v>
       </c>
       <c r="CO165" s="26">
-        <v>4.5805596084770768</v>
+        <v>4.5367553241551217</v>
       </c>
       <c r="CP165" s="11"/>
       <c r="CQ165" s="11"/>
@@ -31436,28 +31438,28 @@
         <v>5.8449309627218025</v>
       </c>
       <c r="CH166" s="26">
-        <v>7.5498483029813119</v>
+        <v>7.5392370804708939</v>
       </c>
       <c r="CI166" s="26">
-        <v>3.9193784564825522</v>
+        <v>3.9204851664368268</v>
       </c>
       <c r="CJ166" s="26">
-        <v>5.5592604868600137</v>
+        <v>5.5581881371877788</v>
       </c>
       <c r="CK166" s="26">
-        <v>6.6327910623416182</v>
+        <v>6.6244397356584885</v>
       </c>
       <c r="CL166" s="26">
-        <v>8.2064146234913267</v>
+        <v>8.2228538846651169</v>
       </c>
       <c r="CM166" s="26">
-        <v>4.7014993247610217</v>
+        <v>4.7056686883621497</v>
       </c>
       <c r="CN166" s="26">
-        <v>7.0163830371873086</v>
+        <v>7.0196083434595717</v>
       </c>
       <c r="CO166" s="26">
-        <v>7.6623676634329962</v>
+        <v>7.6541432964881455</v>
       </c>
       <c r="CP166" s="11"/>
       <c r="CQ166" s="11"/>
@@ -31777,28 +31779,28 @@
         <v>14.869210940646077</v>
       </c>
       <c r="CH167" s="26">
-        <v>14.395547027781458</v>
+        <v>14.399600900793258</v>
       </c>
       <c r="CI167" s="26">
-        <v>13.90694813193354</v>
+        <v>13.903689730024443</v>
       </c>
       <c r="CJ167" s="26">
-        <v>13.421991812064096</v>
+        <v>13.423734911096671</v>
       </c>
       <c r="CK167" s="26">
-        <v>14.528792762288084</v>
+        <v>14.54415558153898</v>
       </c>
       <c r="CL167" s="26">
-        <v>14.128583031020222</v>
+        <v>14.100791138095758</v>
       </c>
       <c r="CM167" s="26">
-        <v>13.445185687222347</v>
+        <v>13.43133549637928</v>
       </c>
       <c r="CN167" s="26">
-        <v>13.228230714596013</v>
+        <v>13.191997438426517</v>
       </c>
       <c r="CO167" s="26">
-        <v>14.096680033631747</v>
+        <v>14.105477312964235</v>
       </c>
       <c r="CP167" s="11"/>
       <c r="CQ167" s="11"/>
@@ -32776,7 +32778,7 @@
     </row>
     <row r="176" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="178" spans="1:153" x14ac:dyDescent="0.2">
@@ -32786,7 +32788,7 @@
     </row>
     <row r="179" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="180" spans="1:153" x14ac:dyDescent="0.2">
@@ -32796,144 +32798,144 @@
     </row>
     <row r="182" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A182" s="4"/>
-      <c r="B182" s="31">
+      <c r="B182" s="30">
         <v>2000</v>
       </c>
-      <c r="C182" s="31"/>
-      <c r="D182" s="31"/>
-      <c r="E182" s="31"/>
-      <c r="F182" s="31">
+      <c r="C182" s="30"/>
+      <c r="D182" s="30"/>
+      <c r="E182" s="30"/>
+      <c r="F182" s="30">
         <v>2001</v>
       </c>
-      <c r="G182" s="31"/>
-      <c r="H182" s="31"/>
-      <c r="I182" s="31"/>
-      <c r="J182" s="31">
+      <c r="G182" s="30"/>
+      <c r="H182" s="30"/>
+      <c r="I182" s="30"/>
+      <c r="J182" s="30">
         <v>2002</v>
       </c>
-      <c r="K182" s="31"/>
-      <c r="L182" s="31"/>
-      <c r="M182" s="31"/>
-      <c r="N182" s="31">
+      <c r="K182" s="30"/>
+      <c r="L182" s="30"/>
+      <c r="M182" s="30"/>
+      <c r="N182" s="30">
         <v>2003</v>
       </c>
-      <c r="O182" s="31"/>
-      <c r="P182" s="31"/>
-      <c r="Q182" s="31"/>
-      <c r="R182" s="31">
+      <c r="O182" s="30"/>
+      <c r="P182" s="30"/>
+      <c r="Q182" s="30"/>
+      <c r="R182" s="30">
         <v>2004</v>
       </c>
-      <c r="S182" s="31"/>
-      <c r="T182" s="31"/>
-      <c r="U182" s="31"/>
-      <c r="V182" s="31">
+      <c r="S182" s="30"/>
+      <c r="T182" s="30"/>
+      <c r="U182" s="30"/>
+      <c r="V182" s="30">
         <v>2005</v>
       </c>
-      <c r="W182" s="31"/>
-      <c r="X182" s="31"/>
-      <c r="Y182" s="31"/>
-      <c r="Z182" s="31">
+      <c r="W182" s="30"/>
+      <c r="X182" s="30"/>
+      <c r="Y182" s="30"/>
+      <c r="Z182" s="30">
         <v>2006</v>
       </c>
-      <c r="AA182" s="31"/>
-      <c r="AB182" s="31"/>
-      <c r="AC182" s="31"/>
-      <c r="AD182" s="31">
+      <c r="AA182" s="30"/>
+      <c r="AB182" s="30"/>
+      <c r="AC182" s="30"/>
+      <c r="AD182" s="30">
         <v>2007</v>
       </c>
-      <c r="AE182" s="31"/>
-      <c r="AF182" s="31"/>
-      <c r="AG182" s="31"/>
-      <c r="AH182" s="31">
+      <c r="AE182" s="30"/>
+      <c r="AF182" s="30"/>
+      <c r="AG182" s="30"/>
+      <c r="AH182" s="30">
         <v>2008</v>
       </c>
-      <c r="AI182" s="31"/>
-      <c r="AJ182" s="31"/>
-      <c r="AK182" s="31"/>
-      <c r="AL182" s="31">
+      <c r="AI182" s="30"/>
+      <c r="AJ182" s="30"/>
+      <c r="AK182" s="30"/>
+      <c r="AL182" s="30">
         <v>2009</v>
       </c>
-      <c r="AM182" s="31"/>
-      <c r="AN182" s="31"/>
-      <c r="AO182" s="31"/>
-      <c r="AP182" s="31">
+      <c r="AM182" s="30"/>
+      <c r="AN182" s="30"/>
+      <c r="AO182" s="30"/>
+      <c r="AP182" s="30">
         <v>2010</v>
       </c>
-      <c r="AQ182" s="31"/>
-      <c r="AR182" s="31"/>
-      <c r="AS182" s="31"/>
-      <c r="AT182" s="31">
+      <c r="AQ182" s="30"/>
+      <c r="AR182" s="30"/>
+      <c r="AS182" s="30"/>
+      <c r="AT182" s="30">
         <v>2011</v>
       </c>
-      <c r="AU182" s="31"/>
-      <c r="AV182" s="31"/>
-      <c r="AW182" s="31"/>
-      <c r="AX182" s="31">
+      <c r="AU182" s="30"/>
+      <c r="AV182" s="30"/>
+      <c r="AW182" s="30"/>
+      <c r="AX182" s="30">
         <v>2012</v>
       </c>
-      <c r="AY182" s="31"/>
-      <c r="AZ182" s="31"/>
-      <c r="BA182" s="31"/>
-      <c r="BB182" s="31">
+      <c r="AY182" s="30"/>
+      <c r="AZ182" s="30"/>
+      <c r="BA182" s="30"/>
+      <c r="BB182" s="30">
         <v>2013</v>
       </c>
-      <c r="BC182" s="31"/>
-      <c r="BD182" s="31"/>
-      <c r="BE182" s="31"/>
-      <c r="BF182" s="31">
+      <c r="BC182" s="30"/>
+      <c r="BD182" s="30"/>
+      <c r="BE182" s="30"/>
+      <c r="BF182" s="30">
         <v>2014</v>
       </c>
-      <c r="BG182" s="31"/>
-      <c r="BH182" s="31"/>
-      <c r="BI182" s="31"/>
-      <c r="BJ182" s="31">
+      <c r="BG182" s="30"/>
+      <c r="BH182" s="30"/>
+      <c r="BI182" s="30"/>
+      <c r="BJ182" s="30">
         <v>2015</v>
       </c>
-      <c r="BK182" s="31"/>
-      <c r="BL182" s="31"/>
-      <c r="BM182" s="31"/>
-      <c r="BN182" s="31">
+      <c r="BK182" s="30"/>
+      <c r="BL182" s="30"/>
+      <c r="BM182" s="30"/>
+      <c r="BN182" s="30">
         <v>2016</v>
       </c>
-      <c r="BO182" s="31"/>
-      <c r="BP182" s="31"/>
-      <c r="BQ182" s="31"/>
-      <c r="BR182" s="30">
+      <c r="BO182" s="30"/>
+      <c r="BP182" s="30"/>
+      <c r="BQ182" s="30"/>
+      <c r="BR182" s="31">
         <v>2017</v>
       </c>
-      <c r="BS182" s="30"/>
-      <c r="BT182" s="30"/>
-      <c r="BU182" s="30"/>
-      <c r="BV182" s="30">
+      <c r="BS182" s="31"/>
+      <c r="BT182" s="31"/>
+      <c r="BU182" s="31"/>
+      <c r="BV182" s="31">
         <v>2018</v>
       </c>
-      <c r="BW182" s="30"/>
-      <c r="BX182" s="30"/>
-      <c r="BY182" s="30"/>
-      <c r="BZ182" s="30">
+      <c r="BW182" s="31"/>
+      <c r="BX182" s="31"/>
+      <c r="BY182" s="31"/>
+      <c r="BZ182" s="31">
         <v>2019</v>
       </c>
-      <c r="CA182" s="30"/>
-      <c r="CB182" s="30"/>
-      <c r="CC182" s="30"/>
-      <c r="CD182" s="30">
+      <c r="CA182" s="31"/>
+      <c r="CB182" s="31"/>
+      <c r="CC182" s="31"/>
+      <c r="CD182" s="31">
         <v>2020</v>
       </c>
-      <c r="CE182" s="30"/>
-      <c r="CF182" s="30"/>
-      <c r="CG182" s="30"/>
-      <c r="CH182" s="30">
+      <c r="CE182" s="31"/>
+      <c r="CF182" s="31"/>
+      <c r="CG182" s="31"/>
+      <c r="CH182" s="31">
         <v>2021</v>
       </c>
-      <c r="CI182" s="30"/>
-      <c r="CJ182" s="30"/>
-      <c r="CK182" s="30"/>
-      <c r="CL182" s="30">
+      <c r="CI182" s="31"/>
+      <c r="CJ182" s="31"/>
+      <c r="CK182" s="31"/>
+      <c r="CL182" s="31">
         <v>2022</v>
       </c>
-      <c r="CM182" s="30"/>
-      <c r="CN182" s="30"/>
-      <c r="CO182" s="30"/>
+      <c r="CM182" s="31"/>
+      <c r="CN182" s="31"/>
+      <c r="CO182" s="31"/>
     </row>
     <row r="183" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
@@ -33476,28 +33478,28 @@
         <v>40.464625199013916</v>
       </c>
       <c r="CH185" s="26">
-        <v>36.223561536236865</v>
+        <v>36.216328814946799</v>
       </c>
       <c r="CI185" s="26">
-        <v>41.063497283420119</v>
+        <v>41.075120272854555</v>
       </c>
       <c r="CJ185" s="26">
-        <v>36.299756047874332</v>
+        <v>36.304395479662951</v>
       </c>
       <c r="CK185" s="26">
-        <v>39.632704450363782</v>
+        <v>39.58364879488586</v>
       </c>
       <c r="CL185" s="26">
-        <v>36.196689945480429</v>
+        <v>36.181407863980084</v>
       </c>
       <c r="CM185" s="26">
-        <v>39.992660534029831</v>
+        <v>39.964891757665775</v>
       </c>
       <c r="CN185" s="26">
-        <v>35.00751367401336</v>
+        <v>35.001350500572762</v>
       </c>
       <c r="CO185" s="26">
-        <v>38.453219864560644</v>
+        <v>38.476312795146747</v>
       </c>
       <c r="CP185" s="11"/>
       <c r="CQ185" s="11"/>
@@ -33817,28 +33819,28 @@
         <v>2.0285874222412983</v>
       </c>
       <c r="CH186" s="26">
-        <v>1.493255554740047</v>
+        <v>1.4912255558287193</v>
       </c>
       <c r="CI186" s="26">
-        <v>1.4979123906245437</v>
+        <v>1.5001893253405019</v>
       </c>
       <c r="CJ186" s="26">
-        <v>1.528085059680153</v>
+        <v>1.5281681856499056</v>
       </c>
       <c r="CK186" s="26">
-        <v>1.7030082686419392</v>
+        <v>1.6975188884552141</v>
       </c>
       <c r="CL186" s="26">
-        <v>1.4452608139366023</v>
+        <v>1.4561263831008557</v>
       </c>
       <c r="CM186" s="26">
-        <v>1.4174842092962083</v>
+        <v>1.4253056823999459</v>
       </c>
       <c r="CN186" s="26">
-        <v>1.263661974178411</v>
+        <v>1.2587615339776126</v>
       </c>
       <c r="CO186" s="26">
-        <v>1.6462570450055052</v>
+        <v>1.6490181956184811</v>
       </c>
       <c r="CP186" s="11"/>
       <c r="CQ186" s="11"/>
@@ -34158,28 +34160,28 @@
         <v>1.8425014119899188</v>
       </c>
       <c r="CH187" s="26">
-        <v>1.6036468685138066</v>
+        <v>1.6014582143007745</v>
       </c>
       <c r="CI187" s="26">
-        <v>1.7112048875095014</v>
+        <v>1.7098042329583611</v>
       </c>
       <c r="CJ187" s="26">
-        <v>2.0772311220526989</v>
+        <v>2.0767887910570644</v>
       </c>
       <c r="CK187" s="26">
-        <v>1.8605997423562077</v>
+        <v>1.8612125386472798</v>
       </c>
       <c r="CL187" s="26">
-        <v>1.5730994582841051</v>
+        <v>1.5746146653353752</v>
       </c>
       <c r="CM187" s="26">
-        <v>1.6466306793185461</v>
+        <v>1.65218526897817</v>
       </c>
       <c r="CN187" s="26">
-        <v>1.8593323633975594</v>
+        <v>1.8603526447466225</v>
       </c>
       <c r="CO187" s="26">
-        <v>1.9083527294871931</v>
+        <v>1.9172808085196866</v>
       </c>
       <c r="CP187" s="11"/>
       <c r="CQ187" s="11"/>
@@ -34499,28 +34501,28 @@
         <v>11.828619512755413</v>
       </c>
       <c r="CH188" s="26">
-        <v>12.777448598424746</v>
+        <v>12.759664144404539</v>
       </c>
       <c r="CI188" s="26">
-        <v>15.571623383846022</v>
+        <v>15.576030919134595</v>
       </c>
       <c r="CJ188" s="26">
-        <v>13.387741518949955</v>
+        <v>13.389023663478646</v>
       </c>
       <c r="CK188" s="26">
-        <v>11.295549113994937</v>
+        <v>11.309972420802552</v>
       </c>
       <c r="CL188" s="26">
-        <v>12.299765864632096</v>
+        <v>12.253231381722621</v>
       </c>
       <c r="CM188" s="26">
-        <v>15.330506403073811</v>
+        <v>15.370180939523706</v>
       </c>
       <c r="CN188" s="26">
-        <v>12.56496890970366</v>
+        <v>12.563123127015958</v>
       </c>
       <c r="CO188" s="26">
-        <v>11.004088160644663</v>
+        <v>11.048325223907147</v>
       </c>
       <c r="CP188" s="11"/>
       <c r="CQ188" s="11"/>
@@ -34840,28 +34842,28 @@
         <v>2.9709152874813487</v>
       </c>
       <c r="CH189" s="26">
-        <v>2.7713321869835168</v>
+        <v>2.7950850289673022</v>
       </c>
       <c r="CI189" s="26">
-        <v>2.7455126535238588</v>
+        <v>2.7202281589651918</v>
       </c>
       <c r="CJ189" s="26">
-        <v>3.0502629818479492</v>
+        <v>3.0446942366897813</v>
       </c>
       <c r="CK189" s="26">
-        <v>2.7349169237209243</v>
+        <v>2.7412237162501683</v>
       </c>
       <c r="CL189" s="26">
-        <v>2.7306846061507564</v>
+        <v>2.7623384035498191</v>
       </c>
       <c r="CM189" s="26">
-        <v>2.7071103844788857</v>
+        <v>2.6973215554784309</v>
       </c>
       <c r="CN189" s="26">
-        <v>3.0699751630952772</v>
+        <v>3.0800096242424333</v>
       </c>
       <c r="CO189" s="26">
-        <v>2.8058953501004749</v>
+        <v>2.802373208131514</v>
       </c>
       <c r="CP189" s="11"/>
       <c r="CQ189" s="11"/>
@@ -35181,28 +35183,28 @@
         <v>3.7927273946567004</v>
       </c>
       <c r="CH190" s="26">
-        <v>4.7215378705911464</v>
+        <v>4.7477185258853387</v>
       </c>
       <c r="CI190" s="26">
-        <v>4.1461355227346424</v>
+        <v>4.1600270045475369</v>
       </c>
       <c r="CJ190" s="26">
-        <v>5.6024364375803586</v>
+        <v>5.6053387498335523</v>
       </c>
       <c r="CK190" s="26">
-        <v>4.1186449797096314</v>
+        <v>4.1315339555772557</v>
       </c>
       <c r="CL190" s="26">
-        <v>4.3364797191797235</v>
+        <v>4.3650792035163173</v>
       </c>
       <c r="CM190" s="26">
-        <v>3.7248368764571036</v>
+        <v>3.7325412316773012</v>
       </c>
       <c r="CN190" s="26">
-        <v>5.4609657972246541</v>
+        <v>5.4627353060199484</v>
       </c>
       <c r="CO190" s="26">
-        <v>4.0639167050926872</v>
+        <v>4.0650234125140683</v>
       </c>
       <c r="CP190" s="11"/>
       <c r="CQ190" s="11"/>
@@ -35522,28 +35524,28 @@
         <v>6.5769293966608302</v>
       </c>
       <c r="CH191" s="26">
-        <v>8.5249766292683624</v>
+        <v>8.5246042927644634</v>
       </c>
       <c r="CI191" s="26">
-        <v>6.0493001232373702</v>
+        <v>6.0510123727063529</v>
       </c>
       <c r="CJ191" s="26">
-        <v>8.3849779836114742</v>
+        <v>8.3850000903244695</v>
       </c>
       <c r="CK191" s="26">
-        <v>7.0221379853257631</v>
+        <v>7.0244507557808182</v>
       </c>
       <c r="CL191" s="26">
-        <v>8.9842758069096487</v>
+        <v>8.9977425952513741</v>
       </c>
       <c r="CM191" s="26">
-        <v>6.9751383420200934</v>
+        <v>6.9858593498514674</v>
       </c>
       <c r="CN191" s="26">
-        <v>9.2896138382591982</v>
+        <v>9.2967748426773973</v>
       </c>
       <c r="CO191" s="26">
-        <v>7.0904574478380926</v>
+        <v>7.0833636123509072</v>
       </c>
       <c r="CP191" s="11"/>
       <c r="CQ191" s="11"/>
@@ -35863,28 +35865,28 @@
         <v>3.1047018857366204</v>
       </c>
       <c r="CH192" s="26">
-        <v>3.4318051048769282</v>
+        <v>3.4316574277420582</v>
       </c>
       <c r="CI192" s="26">
-        <v>3.6321615820391657</v>
+        <v>3.6331927574944292</v>
       </c>
       <c r="CJ192" s="26">
-        <v>2.7782946787316041</v>
+        <v>2.778992825568269</v>
       </c>
       <c r="CK192" s="26">
-        <v>3.1233107267744322</v>
+        <v>3.1221416468722425</v>
       </c>
       <c r="CL192" s="26">
-        <v>3.3371203504901774</v>
+        <v>3.327850812169348</v>
       </c>
       <c r="CM192" s="26">
-        <v>3.6681225344374964</v>
+        <v>3.6704853046456076</v>
       </c>
       <c r="CN192" s="26">
-        <v>2.7562564026675571</v>
+        <v>2.7596019021116343</v>
       </c>
       <c r="CO192" s="26">
-        <v>3.0834958755770114</v>
+        <v>3.0947443667314065</v>
       </c>
       <c r="CP192" s="11"/>
       <c r="CQ192" s="11"/>
@@ -36204,28 +36206,28 @@
         <v>1.3414232660571548</v>
       </c>
       <c r="CH193" s="26">
-        <v>1.4682175048659813</v>
+        <v>1.4681509778857067</v>
       </c>
       <c r="CI193" s="26">
-        <v>0.94191923005579914</v>
+        <v>0.94218583952609025</v>
       </c>
       <c r="CJ193" s="26">
-        <v>1.0827032482001422</v>
+        <v>1.0829732610003415</v>
       </c>
       <c r="CK193" s="26">
-        <v>1.7388793209457354</v>
+        <v>1.7412296168903436</v>
       </c>
       <c r="CL193" s="26">
-        <v>1.5514188920730885</v>
+        <v>1.5554112620762346</v>
       </c>
       <c r="CM193" s="26">
-        <v>1.1966526571129854</v>
+        <v>1.2031115031500987</v>
       </c>
       <c r="CN193" s="26">
-        <v>1.4641317315041515</v>
+        <v>1.4653069876611839</v>
       </c>
       <c r="CO193" s="26">
-        <v>1.872131780184932</v>
+        <v>1.879917694815243</v>
       </c>
       <c r="CP193" s="11"/>
       <c r="CQ193" s="11"/>
@@ -36545,28 +36547,28 @@
         <v>4.9060643247293134</v>
       </c>
       <c r="CH194" s="26">
-        <v>5.6081255592864885</v>
+        <v>5.5943175006925392</v>
       </c>
       <c r="CI194" s="26">
-        <v>5.215612292518955</v>
+        <v>5.2090779093447255</v>
       </c>
       <c r="CJ194" s="26">
-        <v>5.8995568777324241</v>
+        <v>5.894826379478733</v>
       </c>
       <c r="CK194" s="26">
-        <v>4.9638597597758238</v>
+        <v>4.973501027620439</v>
       </c>
       <c r="CL194" s="26">
-        <v>5.6820257135855901</v>
+        <v>5.6844420724701745</v>
       </c>
       <c r="CM194" s="26">
-        <v>5.1655768198596341</v>
+        <v>5.1622463413156092</v>
       </c>
       <c r="CN194" s="26">
-        <v>5.7533374377558744</v>
+        <v>5.7690547591570205</v>
       </c>
       <c r="CO194" s="26">
-        <v>5.1736758613927476</v>
+        <v>5.1272646206983881</v>
       </c>
       <c r="CP194" s="11"/>
       <c r="CQ194" s="11"/>
@@ -36886,28 +36888,28 @@
         <v>5.7776873825499155</v>
       </c>
       <c r="CH195" s="26">
-        <v>7.4769303517828938</v>
+        <v>7.4665234913655514</v>
       </c>
       <c r="CI195" s="26">
-        <v>4.028527233280605</v>
+        <v>4.0296675046302566</v>
       </c>
       <c r="CJ195" s="26">
-        <v>5.4036190023345885</v>
+        <v>5.4025774427372424</v>
       </c>
       <c r="CK195" s="26">
-        <v>6.5529839767183988</v>
+        <v>6.5445230375477887</v>
       </c>
       <c r="CL195" s="26">
-        <v>8.1393618614844048</v>
+        <v>8.1574379909452954</v>
       </c>
       <c r="CM195" s="26">
-        <v>4.9446315415412032</v>
+        <v>4.9509064123882824</v>
       </c>
       <c r="CN195" s="26">
-        <v>6.9627274780394144</v>
+        <v>6.9689554823920368</v>
       </c>
       <c r="CO195" s="26">
-        <v>7.6376589649339186</v>
+        <v>7.6340247187200703</v>
       </c>
       <c r="CP195" s="11"/>
       <c r="CQ195" s="11"/>
@@ -37227,28 +37229,28 @@
         <v>15.365217516127579</v>
       </c>
       <c r="CH196" s="26">
-        <v>13.899162234429207</v>
+        <v>13.903266025216221</v>
       </c>
       <c r="CI196" s="26">
-        <v>13.396593417209427</v>
+        <v>13.39346370249741</v>
       </c>
       <c r="CJ196" s="26">
-        <v>14.505335041404322</v>
+        <v>14.507220894519051</v>
       </c>
       <c r="CK196" s="26">
-        <v>15.253404751672416</v>
+        <v>15.269043600670045</v>
       </c>
       <c r="CL196" s="26">
-        <v>13.723816967793365</v>
+        <v>13.684317365882483</v>
       </c>
       <c r="CM196" s="26">
-        <v>13.230649018374201</v>
+        <v>13.184964652925608</v>
       </c>
       <c r="CN196" s="26">
-        <v>14.547515230160881</v>
+        <v>14.513973289425405</v>
       </c>
       <c r="CO196" s="26">
-        <v>15.260850215182131</v>
+        <v>15.222351342846343</v>
       </c>
       <c r="CP196" s="11"/>
       <c r="CQ196" s="11"/>
@@ -38219,8 +38221,6 @@
   </sheetData>
   <mergeCells count="161">
     <mergeCell ref="CL182:CO182"/>
-    <mergeCell ref="CL67:CO67"/>
-    <mergeCell ref="CL96:CO96"/>
     <mergeCell ref="B182:E182"/>
     <mergeCell ref="F182:I182"/>
     <mergeCell ref="J182:M182"/>
@@ -38230,6 +38230,18 @@
     <mergeCell ref="Z182:AC182"/>
     <mergeCell ref="AD182:AG182"/>
     <mergeCell ref="AH182:AK182"/>
+    <mergeCell ref="V153:Y153"/>
+    <mergeCell ref="Z153:AC153"/>
+    <mergeCell ref="AD153:AG153"/>
+    <mergeCell ref="B153:E153"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="F96:I96"/>
+    <mergeCell ref="J96:M96"/>
+    <mergeCell ref="N96:Q96"/>
+    <mergeCell ref="R96:U96"/>
+    <mergeCell ref="V96:Y96"/>
+    <mergeCell ref="Z96:AC96"/>
+    <mergeCell ref="AD96:AG96"/>
     <mergeCell ref="B124:E124"/>
     <mergeCell ref="F124:I124"/>
     <mergeCell ref="J124:M124"/>
@@ -38242,18 +38254,6 @@
     <mergeCell ref="J153:M153"/>
     <mergeCell ref="N153:Q153"/>
     <mergeCell ref="R153:U153"/>
-    <mergeCell ref="V153:Y153"/>
-    <mergeCell ref="Z153:AC153"/>
-    <mergeCell ref="AD153:AG153"/>
-    <mergeCell ref="B153:E153"/>
-    <mergeCell ref="B96:E96"/>
-    <mergeCell ref="F96:I96"/>
-    <mergeCell ref="J96:M96"/>
-    <mergeCell ref="N96:Q96"/>
-    <mergeCell ref="R96:U96"/>
-    <mergeCell ref="V96:Y96"/>
-    <mergeCell ref="Z96:AC96"/>
-    <mergeCell ref="AD96:AG96"/>
     <mergeCell ref="AH96:AK96"/>
     <mergeCell ref="B67:E67"/>
     <mergeCell ref="F67:I67"/>
@@ -38264,9 +38264,6 @@
     <mergeCell ref="Z67:AC67"/>
     <mergeCell ref="AD67:AG67"/>
     <mergeCell ref="AH67:AK67"/>
-    <mergeCell ref="AL67:AO67"/>
-    <mergeCell ref="AP67:AS67"/>
-    <mergeCell ref="AT67:AW67"/>
     <mergeCell ref="AX67:BA67"/>
     <mergeCell ref="BB67:BE67"/>
     <mergeCell ref="BF67:BI67"/>
@@ -38278,8 +38275,6 @@
     <mergeCell ref="N38:Q38"/>
     <mergeCell ref="R38:U38"/>
     <mergeCell ref="V38:Y38"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="J9:M9"/>
@@ -38287,6 +38282,9 @@
     <mergeCell ref="R9:U9"/>
     <mergeCell ref="V9:Y9"/>
     <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AL67:AO67"/>
+    <mergeCell ref="AP67:AS67"/>
+    <mergeCell ref="AT67:AW67"/>
     <mergeCell ref="AX9:BA9"/>
     <mergeCell ref="BB9:BE9"/>
     <mergeCell ref="BF9:BI9"/>
@@ -38300,6 +38298,8 @@
     <mergeCell ref="AP38:AS38"/>
     <mergeCell ref="AT38:AW38"/>
     <mergeCell ref="AX38:BA38"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
     <mergeCell ref="AP182:AS182"/>
     <mergeCell ref="AT182:AW182"/>
     <mergeCell ref="BF124:BI124"/>
@@ -38379,6 +38379,8 @@
     <mergeCell ref="CH124:CK124"/>
     <mergeCell ref="CH153:CK153"/>
     <mergeCell ref="CL153:CO153"/>
+    <mergeCell ref="CL67:CO67"/>
+    <mergeCell ref="CL96:CO96"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="44" orientation="landscape" r:id="rId1"/>

--- a/Data/National Accounts/PSA-02HFCE_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-02HFCE_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9AF6D5-451A-4570-AB0A-82A0EF7A76B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B859DD5E-24AD-4784-9ACF-E38A8CF73368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
     <definedName name="PCE_Per_Anl">#REF!</definedName>
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HFCE!$A$1:$CO$202</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HFCE!$A$1:$CP$202</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="62">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -220,13 +220,16 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2022</t>
+    <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2022</t>
+    <t>As of May 2023</t>
   </si>
   <si>
-    <t>As of April 2023</t>
+    <t>Q1 2000 to Q1 2023</t>
+  </si>
+  <si>
+    <t>Q1 2001 to Q1 2023</t>
   </si>
 </sst>
 </file>
@@ -315,7 +318,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -356,10 +359,16 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -699,11 +708,11 @@
   <dimension ref="A1:EW202"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BX2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="BX158" activePane="bottomRight" state="frozen"/>
       <selection activeCell="CA66" sqref="CA66"/>
       <selection pane="topRight" activeCell="CA66" sqref="CA66"/>
       <selection pane="bottomLeft" activeCell="CA66" sqref="CA66"/>
-      <selection pane="bottomRight" activeCell="CD1" sqref="CD1:CO1048576"/>
+      <selection pane="bottomRight" activeCell="CQ4" sqref="CQ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -725,14 +734,8 @@
     <col min="74" max="74" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="75" max="77" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="81" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="83" max="85" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="87" max="89" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="91" max="93" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="94" max="16384" width="7.77734375" style="1"/>
+    <col min="79" max="94" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="95" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:153" x14ac:dyDescent="0.2">
@@ -747,7 +750,7 @@
     </row>
     <row r="3" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:153" x14ac:dyDescent="0.2">
@@ -757,7 +760,7 @@
     </row>
     <row r="6" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:153" x14ac:dyDescent="0.2">
@@ -767,144 +770,147 @@
     </row>
     <row r="9" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="30">
+      <c r="B9" s="35">
         <v>2000</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30">
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35">
         <v>2001</v>
       </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30">
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35">
         <v>2002</v>
       </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30">
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35">
         <v>2003</v>
       </c>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30">
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35">
         <v>2004</v>
       </c>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30">
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35">
         <v>2005</v>
       </c>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30">
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35">
         <v>2006</v>
       </c>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="30"/>
-      <c r="AC9" s="30"/>
-      <c r="AD9" s="30">
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="35">
         <v>2007</v>
       </c>
-      <c r="AE9" s="30"/>
-      <c r="AF9" s="30"/>
-      <c r="AG9" s="30"/>
-      <c r="AH9" s="30">
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="35">
         <v>2008</v>
       </c>
-      <c r="AI9" s="30"/>
-      <c r="AJ9" s="30"/>
-      <c r="AK9" s="30"/>
-      <c r="AL9" s="30">
+      <c r="AI9" s="35"/>
+      <c r="AJ9" s="35"/>
+      <c r="AK9" s="35"/>
+      <c r="AL9" s="35">
         <v>2009</v>
       </c>
-      <c r="AM9" s="30"/>
-      <c r="AN9" s="30"/>
-      <c r="AO9" s="30"/>
-      <c r="AP9" s="30">
+      <c r="AM9" s="35"/>
+      <c r="AN9" s="35"/>
+      <c r="AO9" s="35"/>
+      <c r="AP9" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="30"/>
-      <c r="AR9" s="30"/>
-      <c r="AS9" s="30"/>
-      <c r="AT9" s="30">
+      <c r="AQ9" s="35"/>
+      <c r="AR9" s="35"/>
+      <c r="AS9" s="35"/>
+      <c r="AT9" s="35">
         <v>2011</v>
       </c>
-      <c r="AU9" s="30"/>
-      <c r="AV9" s="30"/>
-      <c r="AW9" s="30"/>
-      <c r="AX9" s="30">
+      <c r="AU9" s="35"/>
+      <c r="AV9" s="35"/>
+      <c r="AW9" s="35"/>
+      <c r="AX9" s="35">
         <v>2012</v>
       </c>
-      <c r="AY9" s="30"/>
-      <c r="AZ9" s="30"/>
-      <c r="BA9" s="30"/>
-      <c r="BB9" s="30">
+      <c r="AY9" s="35"/>
+      <c r="AZ9" s="35"/>
+      <c r="BA9" s="35"/>
+      <c r="BB9" s="35">
         <v>2013</v>
       </c>
-      <c r="BC9" s="30"/>
-      <c r="BD9" s="30"/>
-      <c r="BE9" s="30"/>
-      <c r="BF9" s="30">
+      <c r="BC9" s="35"/>
+      <c r="BD9" s="35"/>
+      <c r="BE9" s="35"/>
+      <c r="BF9" s="35">
         <v>2014</v>
       </c>
-      <c r="BG9" s="30"/>
-      <c r="BH9" s="30"/>
-      <c r="BI9" s="30"/>
-      <c r="BJ9" s="30">
+      <c r="BG9" s="35"/>
+      <c r="BH9" s="35"/>
+      <c r="BI9" s="35"/>
+      <c r="BJ9" s="35">
         <v>2015</v>
       </c>
-      <c r="BK9" s="30"/>
-      <c r="BL9" s="30"/>
-      <c r="BM9" s="30"/>
-      <c r="BN9" s="30">
+      <c r="BK9" s="35"/>
+      <c r="BL9" s="35"/>
+      <c r="BM9" s="35"/>
+      <c r="BN9" s="35">
         <v>2016</v>
       </c>
-      <c r="BO9" s="30"/>
-      <c r="BP9" s="30"/>
-      <c r="BQ9" s="30"/>
-      <c r="BR9" s="31">
+      <c r="BO9" s="35"/>
+      <c r="BP9" s="35"/>
+      <c r="BQ9" s="35"/>
+      <c r="BR9" s="34">
         <v>2017</v>
       </c>
-      <c r="BS9" s="31"/>
-      <c r="BT9" s="31"/>
-      <c r="BU9" s="31"/>
-      <c r="BV9" s="31">
+      <c r="BS9" s="34"/>
+      <c r="BT9" s="34"/>
+      <c r="BU9" s="34"/>
+      <c r="BV9" s="34">
         <v>2018</v>
       </c>
-      <c r="BW9" s="31"/>
-      <c r="BX9" s="31"/>
-      <c r="BY9" s="31"/>
-      <c r="BZ9" s="31">
+      <c r="BW9" s="34"/>
+      <c r="BX9" s="34"/>
+      <c r="BY9" s="34"/>
+      <c r="BZ9" s="34">
         <v>2019</v>
       </c>
-      <c r="CA9" s="31"/>
-      <c r="CB9" s="31"/>
-      <c r="CC9" s="31"/>
-      <c r="CD9" s="31">
+      <c r="CA9" s="34"/>
+      <c r="CB9" s="34"/>
+      <c r="CC9" s="34"/>
+      <c r="CD9" s="34">
         <v>2020</v>
       </c>
-      <c r="CE9" s="31"/>
-      <c r="CF9" s="31"/>
-      <c r="CG9" s="31"/>
-      <c r="CH9" s="31">
+      <c r="CE9" s="34"/>
+      <c r="CF9" s="34"/>
+      <c r="CG9" s="34"/>
+      <c r="CH9" s="34">
         <v>2021</v>
       </c>
-      <c r="CI9" s="31"/>
-      <c r="CJ9" s="31"/>
-      <c r="CK9" s="31"/>
-      <c r="CL9" s="31">
+      <c r="CI9" s="34"/>
+      <c r="CJ9" s="34"/>
+      <c r="CK9" s="34"/>
+      <c r="CL9" s="34">
         <v>2022</v>
       </c>
-      <c r="CM9" s="31"/>
-      <c r="CN9" s="31"/>
-      <c r="CO9" s="31"/>
+      <c r="CM9" s="34"/>
+      <c r="CN9" s="34"/>
+      <c r="CO9" s="34"/>
+      <c r="CP9" s="30">
+        <v>2023</v>
+      </c>
     </row>
     <row r="10" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -1185,6 +1191,9 @@
       </c>
       <c r="CO10" s="7" t="s">
         <v>22</v>
+      </c>
+      <c r="CP10" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1470,7 +1479,9 @@
       <c r="CO12" s="10">
         <v>1931500.2484176089</v>
       </c>
-      <c r="CP12" s="11"/>
+      <c r="CP12" s="10">
+        <v>1536961.5454871436</v>
+      </c>
       <c r="CQ12" s="11"/>
       <c r="CR12" s="11"/>
       <c r="CS12" s="11"/>
@@ -1811,7 +1822,9 @@
       <c r="CO13" s="10">
         <v>109227.64524527798</v>
       </c>
-      <c r="CP13" s="11"/>
+      <c r="CP13" s="10">
+        <v>79054.108896076417</v>
+      </c>
       <c r="CQ13" s="11"/>
       <c r="CR13" s="11"/>
       <c r="CS13" s="11"/>
@@ -2152,7 +2165,9 @@
       <c r="CO14" s="10">
         <v>86797.581272444193</v>
       </c>
-      <c r="CP14" s="11"/>
+      <c r="CP14" s="10">
+        <v>58248.544076025151</v>
+      </c>
       <c r="CQ14" s="11"/>
       <c r="CR14" s="11"/>
       <c r="CS14" s="11"/>
@@ -2493,7 +2508,9 @@
       <c r="CO15" s="10">
         <v>542954.16776765871</v>
       </c>
-      <c r="CP15" s="11"/>
+      <c r="CP15" s="10">
+        <v>498433.61856295553</v>
+      </c>
       <c r="CQ15" s="11"/>
       <c r="CR15" s="11"/>
       <c r="CS15" s="11"/>
@@ -2834,7 +2851,9 @@
       <c r="CO16" s="10">
         <v>131512.8002420741</v>
       </c>
-      <c r="CP16" s="11"/>
+      <c r="CP16" s="10">
+        <v>110059.36652862828</v>
+      </c>
       <c r="CQ16" s="11"/>
       <c r="CR16" s="11"/>
       <c r="CS16" s="11"/>
@@ -3175,7 +3194,9 @@
       <c r="CO17" s="10">
         <v>195015.04490842862</v>
       </c>
-      <c r="CP17" s="11"/>
+      <c r="CP17" s="10">
+        <v>183078.28945161527</v>
+      </c>
       <c r="CQ17" s="11"/>
       <c r="CR17" s="11"/>
       <c r="CS17" s="11"/>
@@ -3516,7 +3537,9 @@
       <c r="CO18" s="10">
         <v>375843.52030543314</v>
       </c>
-      <c r="CP18" s="11"/>
+      <c r="CP18" s="10">
+        <v>473196.04520302895</v>
+      </c>
       <c r="CQ18" s="11"/>
       <c r="CR18" s="11"/>
       <c r="CS18" s="11"/>
@@ -3857,7 +3880,9 @@
       <c r="CO19" s="10">
         <v>126963.0439176754</v>
       </c>
-      <c r="CP19" s="11"/>
+      <c r="CP19" s="10">
+        <v>127762.99898698949</v>
+      </c>
       <c r="CQ19" s="11"/>
       <c r="CR19" s="11"/>
       <c r="CS19" s="11"/>
@@ -4198,7 +4223,9 @@
       <c r="CO20" s="10">
         <v>84734.360573593935</v>
       </c>
-      <c r="CP20" s="11"/>
+      <c r="CP20" s="10">
+        <v>75412.844071492102</v>
+      </c>
       <c r="CQ20" s="11"/>
       <c r="CR20" s="11"/>
       <c r="CS20" s="11"/>
@@ -4539,7 +4566,9 @@
       <c r="CO21" s="10">
         <v>220643.41206795338</v>
       </c>
-      <c r="CP21" s="11"/>
+      <c r="CP21" s="10">
+        <v>226734.34972381941</v>
+      </c>
       <c r="CQ21" s="11"/>
       <c r="CR21" s="11"/>
       <c r="CS21" s="11"/>
@@ -4880,7 +4909,9 @@
       <c r="CO22" s="10">
         <v>372256.41956097959</v>
       </c>
-      <c r="CP22" s="11"/>
+      <c r="CP22" s="10">
+        <v>423772.64912412758</v>
+      </c>
       <c r="CQ22" s="11"/>
       <c r="CR22" s="11"/>
       <c r="CS22" s="11"/>
@@ -5221,7 +5252,9 @@
       <c r="CO23" s="10">
         <v>686014.65602713195</v>
       </c>
-      <c r="CP23" s="11"/>
+      <c r="CP23" s="10">
+        <v>623675.61552757153</v>
+      </c>
       <c r="CQ23" s="11"/>
       <c r="CR23" s="11"/>
       <c r="CS23" s="11"/>
@@ -5680,43 +5713,45 @@
       <c r="CC25" s="15">
         <v>3985148.1660785396</v>
       </c>
-      <c r="CD25" s="15">
+      <c r="CD25" s="31">
         <v>3422615.4261275791</v>
       </c>
-      <c r="CE25" s="15">
+      <c r="CE25" s="31">
         <v>3042127.6382782664</v>
       </c>
-      <c r="CF25" s="15">
+      <c r="CF25" s="31">
         <v>3210324.7745829187</v>
       </c>
-      <c r="CG25" s="15">
+      <c r="CG25" s="31">
         <v>3801007.5529332561</v>
       </c>
-      <c r="CH25" s="15">
+      <c r="CH25" s="31">
         <v>3397749.5102690379</v>
       </c>
-      <c r="CI25" s="15">
+      <c r="CI25" s="31">
         <v>3395239.9625219679</v>
       </c>
-      <c r="CJ25" s="15">
+      <c r="CJ25" s="31">
         <v>3583126.8104622592</v>
       </c>
-      <c r="CK25" s="15">
+      <c r="CK25" s="31">
         <v>4232430.2197240982</v>
       </c>
-      <c r="CL25" s="15">
+      <c r="CL25" s="31">
         <v>3852962.0714052701</v>
       </c>
-      <c r="CM25" s="15">
+      <c r="CM25" s="31">
         <v>3877423.6981095998</v>
       </c>
-      <c r="CN25" s="15">
+      <c r="CN25" s="31">
         <v>4130910.5601173565</v>
       </c>
-      <c r="CO25" s="15">
+      <c r="CO25" s="31">
         <v>4863462.9003062602</v>
       </c>
-      <c r="CP25" s="11"/>
+      <c r="CP25" s="31">
+        <v>4416389.9756394727</v>
+      </c>
       <c r="CQ25" s="11"/>
       <c r="CR25" s="11"/>
       <c r="CS25" s="11"/>
@@ -5871,6 +5906,7 @@
       <c r="CM26" s="16"/>
       <c r="CN26" s="16"/>
       <c r="CO26" s="16"/>
+      <c r="CP26" s="16"/>
     </row>
     <row r="27" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
@@ -5958,19 +5994,19 @@
       <c r="CA28" s="21"/>
       <c r="CB28" s="21"/>
       <c r="CC28" s="21"/>
-      <c r="CD28" s="21"/>
-      <c r="CE28" s="21"/>
-      <c r="CF28" s="21"/>
-      <c r="CG28" s="21"/>
-      <c r="CH28" s="21"/>
-      <c r="CI28" s="21"/>
-      <c r="CJ28" s="21"/>
-      <c r="CK28" s="21"/>
-      <c r="CL28" s="21"/>
-      <c r="CM28" s="21"/>
-      <c r="CN28" s="21"/>
-      <c r="CO28" s="21"/>
-      <c r="CP28" s="11"/>
+      <c r="CD28" s="32"/>
+      <c r="CE28" s="32"/>
+      <c r="CF28" s="32"/>
+      <c r="CG28" s="32"/>
+      <c r="CH28" s="32"/>
+      <c r="CI28" s="32"/>
+      <c r="CJ28" s="32"/>
+      <c r="CK28" s="32"/>
+      <c r="CL28" s="32"/>
+      <c r="CM28" s="32"/>
+      <c r="CN28" s="32"/>
+      <c r="CO28" s="32"/>
+      <c r="CP28" s="32"/>
       <c r="CQ28" s="11"/>
       <c r="CR28" s="11"/>
       <c r="CS28" s="11"/>
@@ -6112,19 +6148,19 @@
       <c r="CA29" s="24"/>
       <c r="CB29" s="24"/>
       <c r="CC29" s="24"/>
-      <c r="CD29" s="24"/>
-      <c r="CE29" s="24"/>
-      <c r="CF29" s="24"/>
-      <c r="CG29" s="24"/>
-      <c r="CH29" s="24"/>
-      <c r="CI29" s="24"/>
-      <c r="CJ29" s="24"/>
-      <c r="CK29" s="24"/>
-      <c r="CL29" s="24"/>
-      <c r="CM29" s="24"/>
-      <c r="CN29" s="24"/>
-      <c r="CO29" s="24"/>
-      <c r="CP29" s="11"/>
+      <c r="CD29" s="33"/>
+      <c r="CE29" s="33"/>
+      <c r="CF29" s="33"/>
+      <c r="CG29" s="33"/>
+      <c r="CH29" s="33"/>
+      <c r="CI29" s="33"/>
+      <c r="CJ29" s="33"/>
+      <c r="CK29" s="33"/>
+      <c r="CL29" s="33"/>
+      <c r="CM29" s="33"/>
+      <c r="CN29" s="33"/>
+      <c r="CO29" s="33"/>
+      <c r="CP29" s="33"/>
       <c r="CQ29" s="11"/>
       <c r="CR29" s="11"/>
       <c r="CS29" s="11"/>
@@ -6197,7 +6233,7 @@
     </row>
     <row r="32" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:153" x14ac:dyDescent="0.2">
@@ -6207,7 +6243,7 @@
     </row>
     <row r="35" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:153" x14ac:dyDescent="0.2">
@@ -6217,144 +6253,147 @@
     </row>
     <row r="38" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
-      <c r="B38" s="30">
+      <c r="B38" s="35">
         <v>2000</v>
       </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30">
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35">
         <v>2001</v>
       </c>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30">
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35">
         <v>2002</v>
       </c>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30">
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35">
         <v>2003</v>
       </c>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30">
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35">
         <v>2004</v>
       </c>
-      <c r="S38" s="30"/>
-      <c r="T38" s="30"/>
-      <c r="U38" s="30"/>
-      <c r="V38" s="30">
+      <c r="S38" s="35"/>
+      <c r="T38" s="35"/>
+      <c r="U38" s="35"/>
+      <c r="V38" s="35">
         <v>2005</v>
       </c>
-      <c r="W38" s="30"/>
-      <c r="X38" s="30"/>
-      <c r="Y38" s="30"/>
-      <c r="Z38" s="30">
+      <c r="W38" s="35"/>
+      <c r="X38" s="35"/>
+      <c r="Y38" s="35"/>
+      <c r="Z38" s="35">
         <v>2006</v>
       </c>
-      <c r="AA38" s="30"/>
-      <c r="AB38" s="30"/>
-      <c r="AC38" s="30"/>
-      <c r="AD38" s="30">
+      <c r="AA38" s="35"/>
+      <c r="AB38" s="35"/>
+      <c r="AC38" s="35"/>
+      <c r="AD38" s="35">
         <v>2007</v>
       </c>
-      <c r="AE38" s="30"/>
-      <c r="AF38" s="30"/>
-      <c r="AG38" s="30"/>
-      <c r="AH38" s="30">
+      <c r="AE38" s="35"/>
+      <c r="AF38" s="35"/>
+      <c r="AG38" s="35"/>
+      <c r="AH38" s="35">
         <v>2008</v>
       </c>
-      <c r="AI38" s="30"/>
-      <c r="AJ38" s="30"/>
-      <c r="AK38" s="30"/>
-      <c r="AL38" s="30">
+      <c r="AI38" s="35"/>
+      <c r="AJ38" s="35"/>
+      <c r="AK38" s="35"/>
+      <c r="AL38" s="35">
         <v>2009</v>
       </c>
-      <c r="AM38" s="30"/>
-      <c r="AN38" s="30"/>
-      <c r="AO38" s="30"/>
-      <c r="AP38" s="30">
+      <c r="AM38" s="35"/>
+      <c r="AN38" s="35"/>
+      <c r="AO38" s="35"/>
+      <c r="AP38" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ38" s="30"/>
-      <c r="AR38" s="30"/>
-      <c r="AS38" s="30"/>
-      <c r="AT38" s="30">
+      <c r="AQ38" s="35"/>
+      <c r="AR38" s="35"/>
+      <c r="AS38" s="35"/>
+      <c r="AT38" s="35">
         <v>2011</v>
       </c>
-      <c r="AU38" s="30"/>
-      <c r="AV38" s="30"/>
-      <c r="AW38" s="30"/>
-      <c r="AX38" s="30">
+      <c r="AU38" s="35"/>
+      <c r="AV38" s="35"/>
+      <c r="AW38" s="35"/>
+      <c r="AX38" s="35">
         <v>2012</v>
       </c>
-      <c r="AY38" s="30"/>
-      <c r="AZ38" s="30"/>
-      <c r="BA38" s="30"/>
-      <c r="BB38" s="30">
+      <c r="AY38" s="35"/>
+      <c r="AZ38" s="35"/>
+      <c r="BA38" s="35"/>
+      <c r="BB38" s="35">
         <v>2013</v>
       </c>
-      <c r="BC38" s="30"/>
-      <c r="BD38" s="30"/>
-      <c r="BE38" s="30"/>
-      <c r="BF38" s="30">
+      <c r="BC38" s="35"/>
+      <c r="BD38" s="35"/>
+      <c r="BE38" s="35"/>
+      <c r="BF38" s="35">
         <v>2014</v>
       </c>
-      <c r="BG38" s="30"/>
-      <c r="BH38" s="30"/>
-      <c r="BI38" s="30"/>
-      <c r="BJ38" s="30">
+      <c r="BG38" s="35"/>
+      <c r="BH38" s="35"/>
+      <c r="BI38" s="35"/>
+      <c r="BJ38" s="35">
         <v>2015</v>
       </c>
-      <c r="BK38" s="30"/>
-      <c r="BL38" s="30"/>
-      <c r="BM38" s="30"/>
-      <c r="BN38" s="30">
+      <c r="BK38" s="35"/>
+      <c r="BL38" s="35"/>
+      <c r="BM38" s="35"/>
+      <c r="BN38" s="35">
         <v>2016</v>
       </c>
-      <c r="BO38" s="30"/>
-      <c r="BP38" s="30"/>
-      <c r="BQ38" s="30"/>
-      <c r="BR38" s="31">
+      <c r="BO38" s="35"/>
+      <c r="BP38" s="35"/>
+      <c r="BQ38" s="35"/>
+      <c r="BR38" s="34">
         <v>2017</v>
       </c>
-      <c r="BS38" s="31"/>
-      <c r="BT38" s="31"/>
-      <c r="BU38" s="31"/>
-      <c r="BV38" s="31">
+      <c r="BS38" s="34"/>
+      <c r="BT38" s="34"/>
+      <c r="BU38" s="34"/>
+      <c r="BV38" s="34">
         <v>2018</v>
       </c>
-      <c r="BW38" s="31"/>
-      <c r="BX38" s="31"/>
-      <c r="BY38" s="31"/>
-      <c r="BZ38" s="31">
+      <c r="BW38" s="34"/>
+      <c r="BX38" s="34"/>
+      <c r="BY38" s="34"/>
+      <c r="BZ38" s="34">
         <v>2019</v>
       </c>
-      <c r="CA38" s="31"/>
-      <c r="CB38" s="31"/>
-      <c r="CC38" s="31"/>
-      <c r="CD38" s="31">
+      <c r="CA38" s="34"/>
+      <c r="CB38" s="34"/>
+      <c r="CC38" s="34"/>
+      <c r="CD38" s="34">
         <v>2020</v>
       </c>
-      <c r="CE38" s="31"/>
-      <c r="CF38" s="31"/>
-      <c r="CG38" s="31"/>
-      <c r="CH38" s="31">
+      <c r="CE38" s="34"/>
+      <c r="CF38" s="34"/>
+      <c r="CG38" s="34"/>
+      <c r="CH38" s="34">
         <v>2021</v>
       </c>
-      <c r="CI38" s="31"/>
-      <c r="CJ38" s="31"/>
-      <c r="CK38" s="31"/>
-      <c r="CL38" s="31">
+      <c r="CI38" s="34"/>
+      <c r="CJ38" s="34"/>
+      <c r="CK38" s="34"/>
+      <c r="CL38" s="34">
         <v>2022</v>
       </c>
-      <c r="CM38" s="31"/>
-      <c r="CN38" s="31"/>
-      <c r="CO38" s="31"/>
+      <c r="CM38" s="34"/>
+      <c r="CN38" s="34"/>
+      <c r="CO38" s="34"/>
+      <c r="CP38" s="30">
+        <v>2023</v>
+      </c>
     </row>
     <row r="39" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
@@ -6635,6 +6674,9 @@
       </c>
       <c r="CO39" s="7" t="s">
         <v>22</v>
+      </c>
+      <c r="CP39" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -6920,7 +6962,9 @@
       <c r="CO41" s="10">
         <v>1614493.9242003553</v>
       </c>
-      <c r="CP41" s="11"/>
+      <c r="CP41" s="10">
+        <v>1265927.2769908078</v>
+      </c>
       <c r="CQ41" s="11"/>
       <c r="CR41" s="11"/>
       <c r="CS41" s="11"/>
@@ -7261,7 +7305,9 @@
       <c r="CO42" s="10">
         <v>69193.996625832791</v>
       </c>
-      <c r="CP42" s="11"/>
+      <c r="CP42" s="10">
+        <v>50720.805813530118</v>
+      </c>
       <c r="CQ42" s="11"/>
       <c r="CR42" s="11"/>
       <c r="CS42" s="11"/>
@@ -7602,7 +7648,9 @@
       <c r="CO43" s="10">
         <v>80450.489963046188</v>
       </c>
-      <c r="CP43" s="11"/>
+      <c r="CP43" s="10">
+        <v>52568.438469482084</v>
+      </c>
       <c r="CQ43" s="11"/>
       <c r="CR43" s="11"/>
       <c r="CS43" s="11"/>
@@ -7943,7 +7991,9 @@
       <c r="CO44" s="10">
         <v>463595.72034765157</v>
       </c>
-      <c r="CP44" s="11"/>
+      <c r="CP44" s="10">
+        <v>441299.36415666755</v>
+      </c>
       <c r="CQ44" s="11"/>
       <c r="CR44" s="11"/>
       <c r="CS44" s="11"/>
@@ -8284,7 +8334,9 @@
       <c r="CO45" s="10">
         <v>117589.60745430055</v>
       </c>
-      <c r="CP45" s="11"/>
+      <c r="CP45" s="10">
+        <v>92926.010044813185</v>
+      </c>
       <c r="CQ45" s="11"/>
       <c r="CR45" s="11"/>
       <c r="CS45" s="11"/>
@@ -8625,7 +8677,9 @@
       <c r="CO46" s="10">
         <v>170571.3236135242</v>
       </c>
-      <c r="CP46" s="11"/>
+      <c r="CP46" s="10">
+        <v>162487.36802897765</v>
+      </c>
       <c r="CQ46" s="11"/>
       <c r="CR46" s="11"/>
       <c r="CS46" s="11"/>
@@ -8966,7 +9020,9 @@
       <c r="CO47" s="10">
         <v>297223.06230146147</v>
       </c>
-      <c r="CP47" s="11"/>
+      <c r="CP47" s="10">
+        <v>357420.88236659684</v>
+      </c>
       <c r="CQ47" s="11"/>
       <c r="CR47" s="11"/>
       <c r="CS47" s="11"/>
@@ -9307,7 +9363,9 @@
       <c r="CO48" s="10">
         <v>129857.71281263117</v>
       </c>
-      <c r="CP48" s="11"/>
+      <c r="CP48" s="10">
+        <v>120902.5534112626</v>
+      </c>
       <c r="CQ48" s="11"/>
       <c r="CR48" s="11"/>
       <c r="CS48" s="11"/>
@@ -9648,7 +9706,9 @@
       <c r="CO49" s="10">
         <v>78882.706678140559</v>
       </c>
-      <c r="CP49" s="11"/>
+      <c r="CP49" s="10">
+        <v>69175.785647688186</v>
+      </c>
       <c r="CQ49" s="11"/>
       <c r="CR49" s="11"/>
       <c r="CS49" s="11"/>
@@ -9989,7 +10049,9 @@
       <c r="CO50" s="10">
         <v>215143.7332874873</v>
       </c>
-      <c r="CP50" s="11"/>
+      <c r="CP50" s="10">
+        <v>209692.33830165802</v>
+      </c>
       <c r="CQ50" s="11"/>
       <c r="CR50" s="11"/>
       <c r="CS50" s="11"/>
@@ -10330,7 +10392,9 @@
       <c r="CO51" s="10">
         <v>320329.20075240469</v>
       </c>
-      <c r="CP51" s="11"/>
+      <c r="CP51" s="10">
+        <v>350704.87869647751</v>
+      </c>
       <c r="CQ51" s="11"/>
       <c r="CR51" s="11"/>
       <c r="CS51" s="11"/>
@@ -10671,7 +10735,9 @@
       <c r="CO52" s="10">
         <v>638740.87639105879</v>
       </c>
-      <c r="CP52" s="11"/>
+      <c r="CP52" s="10">
+        <v>518109.67157395935</v>
+      </c>
       <c r="CQ52" s="11"/>
       <c r="CR52" s="11"/>
       <c r="CS52" s="11"/>
@@ -11130,43 +11196,45 @@
       <c r="CC54" s="15">
         <v>3935758.6177309696</v>
       </c>
-      <c r="CD54" s="15">
+      <c r="CD54" s="31">
         <v>3314612.1320124432</v>
       </c>
-      <c r="CE54" s="15">
+      <c r="CE54" s="31">
         <v>2917736.7328303363</v>
       </c>
-      <c r="CF54" s="15">
+      <c r="CF54" s="31">
         <v>3030086.4136792915</v>
       </c>
-      <c r="CG54" s="15">
+      <c r="CG54" s="31">
         <v>3648921.6749099772</v>
       </c>
-      <c r="CH54" s="15">
+      <c r="CH54" s="31">
         <v>3156809.3523885403</v>
       </c>
-      <c r="CI54" s="15">
+      <c r="CI54" s="31">
         <v>3130131.1633264814</v>
       </c>
-      <c r="CJ54" s="15">
+      <c r="CJ54" s="31">
         <v>3245552.8170434618</v>
       </c>
-      <c r="CK54" s="15">
+      <c r="CK54" s="31">
         <v>3922623.7313984605</v>
       </c>
-      <c r="CL54" s="15">
+      <c r="CL54" s="31">
         <v>3471756.5527950469</v>
       </c>
-      <c r="CM54" s="15">
+      <c r="CM54" s="31">
         <v>3396881.5167516316</v>
       </c>
-      <c r="CN54" s="15">
+      <c r="CN54" s="31">
         <v>3505506.6774791162</v>
       </c>
-      <c r="CO54" s="15">
+      <c r="CO54" s="31">
         <v>4196072.3544278946</v>
       </c>
-      <c r="CP54" s="11"/>
+      <c r="CP54" s="31">
+        <v>3691935.3735019211</v>
+      </c>
       <c r="CQ54" s="11"/>
       <c r="CR54" s="11"/>
       <c r="CS54" s="11"/>
@@ -11321,6 +11389,7 @@
       <c r="CM55" s="16"/>
       <c r="CN55" s="16"/>
       <c r="CO55" s="16"/>
+      <c r="CP55" s="16"/>
     </row>
     <row r="56" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A56" s="18" t="s">
@@ -11562,19 +11631,19 @@
       <c r="CA58" s="24"/>
       <c r="CB58" s="24"/>
       <c r="CC58" s="24"/>
-      <c r="CD58" s="24"/>
-      <c r="CE58" s="24"/>
-      <c r="CF58" s="24"/>
-      <c r="CG58" s="24"/>
-      <c r="CH58" s="24"/>
-      <c r="CI58" s="24"/>
-      <c r="CJ58" s="24"/>
-      <c r="CK58" s="24"/>
-      <c r="CL58" s="24"/>
-      <c r="CM58" s="24"/>
-      <c r="CN58" s="24"/>
-      <c r="CO58" s="24"/>
-      <c r="CP58" s="11"/>
+      <c r="CD58" s="33"/>
+      <c r="CE58" s="33"/>
+      <c r="CF58" s="33"/>
+      <c r="CG58" s="33"/>
+      <c r="CH58" s="33"/>
+      <c r="CI58" s="33"/>
+      <c r="CJ58" s="33"/>
+      <c r="CK58" s="33"/>
+      <c r="CL58" s="33"/>
+      <c r="CM58" s="33"/>
+      <c r="CN58" s="33"/>
+      <c r="CO58" s="33"/>
+      <c r="CP58" s="33"/>
       <c r="CQ58" s="11"/>
       <c r="CR58" s="11"/>
       <c r="CS58" s="11"/>
@@ -11647,7 +11716,7 @@
     </row>
     <row r="61" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:153" x14ac:dyDescent="0.2">
@@ -11657,7 +11726,7 @@
     </row>
     <row r="64" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:149" x14ac:dyDescent="0.2">
@@ -11667,142 +11736,145 @@
     </row>
     <row r="67" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
-      <c r="B67" s="30" t="s">
+      <c r="B67" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30" t="s">
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="G67" s="30"/>
-      <c r="H67" s="30"/>
-      <c r="I67" s="30"/>
-      <c r="J67" s="30" t="s">
+      <c r="G67" s="35"/>
+      <c r="H67" s="35"/>
+      <c r="I67" s="35"/>
+      <c r="J67" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="K67" s="30"/>
-      <c r="L67" s="30"/>
-      <c r="M67" s="30"/>
-      <c r="N67" s="30" t="s">
+      <c r="K67" s="35"/>
+      <c r="L67" s="35"/>
+      <c r="M67" s="35"/>
+      <c r="N67" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="O67" s="30"/>
-      <c r="P67" s="30"/>
-      <c r="Q67" s="30"/>
-      <c r="R67" s="30" t="s">
+      <c r="O67" s="35"/>
+      <c r="P67" s="35"/>
+      <c r="Q67" s="35"/>
+      <c r="R67" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="S67" s="30"/>
-      <c r="T67" s="30"/>
-      <c r="U67" s="30"/>
-      <c r="V67" s="30" t="s">
+      <c r="S67" s="35"/>
+      <c r="T67" s="35"/>
+      <c r="U67" s="35"/>
+      <c r="V67" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="W67" s="30"/>
-      <c r="X67" s="30"/>
-      <c r="Y67" s="30"/>
-      <c r="Z67" s="30" t="s">
+      <c r="W67" s="35"/>
+      <c r="X67" s="35"/>
+      <c r="Y67" s="35"/>
+      <c r="Z67" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="AA67" s="30"/>
-      <c r="AB67" s="30"/>
-      <c r="AC67" s="30"/>
-      <c r="AD67" s="30" t="s">
+      <c r="AA67" s="35"/>
+      <c r="AB67" s="35"/>
+      <c r="AC67" s="35"/>
+      <c r="AD67" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="AE67" s="30"/>
-      <c r="AF67" s="30"/>
-      <c r="AG67" s="30"/>
-      <c r="AH67" s="30" t="s">
+      <c r="AE67" s="35"/>
+      <c r="AF67" s="35"/>
+      <c r="AG67" s="35"/>
+      <c r="AH67" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="AI67" s="30"/>
-      <c r="AJ67" s="30"/>
-      <c r="AK67" s="30"/>
-      <c r="AL67" s="30" t="s">
+      <c r="AI67" s="35"/>
+      <c r="AJ67" s="35"/>
+      <c r="AK67" s="35"/>
+      <c r="AL67" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="AM67" s="30"/>
-      <c r="AN67" s="30"/>
-      <c r="AO67" s="30"/>
-      <c r="AP67" s="30" t="s">
+      <c r="AM67" s="35"/>
+      <c r="AN67" s="35"/>
+      <c r="AO67" s="35"/>
+      <c r="AP67" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="AQ67" s="30"/>
-      <c r="AR67" s="30"/>
-      <c r="AS67" s="30"/>
-      <c r="AT67" s="30" t="s">
+      <c r="AQ67" s="35"/>
+      <c r="AR67" s="35"/>
+      <c r="AS67" s="35"/>
+      <c r="AT67" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="AU67" s="30"/>
-      <c r="AV67" s="30"/>
-      <c r="AW67" s="30"/>
-      <c r="AX67" s="30" t="s">
+      <c r="AU67" s="35"/>
+      <c r="AV67" s="35"/>
+      <c r="AW67" s="35"/>
+      <c r="AX67" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="AY67" s="30"/>
-      <c r="AZ67" s="30"/>
-      <c r="BA67" s="30"/>
-      <c r="BB67" s="30" t="s">
+      <c r="AY67" s="35"/>
+      <c r="AZ67" s="35"/>
+      <c r="BA67" s="35"/>
+      <c r="BB67" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="BC67" s="30"/>
-      <c r="BD67" s="30"/>
-      <c r="BE67" s="30"/>
-      <c r="BF67" s="30" t="s">
+      <c r="BC67" s="35"/>
+      <c r="BD67" s="35"/>
+      <c r="BE67" s="35"/>
+      <c r="BF67" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="BG67" s="30"/>
-      <c r="BH67" s="30"/>
-      <c r="BI67" s="30"/>
-      <c r="BJ67" s="30" t="s">
+      <c r="BG67" s="35"/>
+      <c r="BH67" s="35"/>
+      <c r="BI67" s="35"/>
+      <c r="BJ67" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="BK67" s="30"/>
-      <c r="BL67" s="30"/>
-      <c r="BM67" s="30"/>
-      <c r="BN67" s="30" t="s">
+      <c r="BK67" s="35"/>
+      <c r="BL67" s="35"/>
+      <c r="BM67" s="35"/>
+      <c r="BN67" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="BO67" s="30"/>
-      <c r="BP67" s="30"/>
-      <c r="BQ67" s="30"/>
-      <c r="BR67" s="31" t="s">
+      <c r="BO67" s="35"/>
+      <c r="BP67" s="35"/>
+      <c r="BQ67" s="35"/>
+      <c r="BR67" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="BS67" s="31"/>
-      <c r="BT67" s="31"/>
-      <c r="BU67" s="31"/>
-      <c r="BV67" s="31" t="s">
+      <c r="BS67" s="34"/>
+      <c r="BT67" s="34"/>
+      <c r="BU67" s="34"/>
+      <c r="BV67" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="BW67" s="31"/>
-      <c r="BX67" s="31"/>
-      <c r="BY67" s="31"/>
-      <c r="BZ67" s="31" t="s">
+      <c r="BW67" s="34"/>
+      <c r="BX67" s="34"/>
+      <c r="BY67" s="34"/>
+      <c r="BZ67" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="CA67" s="31"/>
-      <c r="CB67" s="31"/>
-      <c r="CC67" s="31"/>
-      <c r="CD67" s="31" t="s">
+      <c r="CA67" s="34"/>
+      <c r="CB67" s="34"/>
+      <c r="CC67" s="34"/>
+      <c r="CD67" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="CE67" s="31"/>
-      <c r="CF67" s="31"/>
-      <c r="CG67" s="31"/>
-      <c r="CH67" s="31" t="s">
+      <c r="CE67" s="34"/>
+      <c r="CF67" s="34"/>
+      <c r="CG67" s="34"/>
+      <c r="CH67" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="CI67" s="31"/>
-      <c r="CJ67" s="31"/>
-      <c r="CK67" s="31"/>
-      <c r="CL67" s="31"/>
-      <c r="CM67" s="31"/>
-      <c r="CN67" s="31"/>
-      <c r="CO67" s="31"/>
+      <c r="CI67" s="34"/>
+      <c r="CJ67" s="34"/>
+      <c r="CK67" s="34"/>
+      <c r="CL67" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="CM67" s="30"/>
+      <c r="CN67" s="30"/>
+      <c r="CO67" s="30"/>
+      <c r="CP67" s="30"/>
     </row>
     <row r="68" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
@@ -12072,10 +12144,13 @@
       <c r="CK68" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CL68" s="7"/>
+      <c r="CL68" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="CM68" s="7"/>
       <c r="CN68" s="7"/>
       <c r="CO68" s="7"/>
+      <c r="CP68" s="7"/>
     </row>
     <row r="69" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8"/>
@@ -12348,11 +12423,13 @@
       <c r="CK70" s="26">
         <v>14.230451250859005</v>
       </c>
-      <c r="CL70" s="26"/>
+      <c r="CL70" s="26">
+        <v>11.100941746754089</v>
+      </c>
       <c r="CM70" s="26"/>
       <c r="CN70" s="26"/>
       <c r="CO70" s="26"/>
-      <c r="CP70" s="11"/>
+      <c r="CP70" s="26"/>
       <c r="CQ70" s="11"/>
       <c r="CR70" s="11"/>
       <c r="CS70" s="11"/>
@@ -12677,11 +12754,13 @@
       <c r="CK71" s="26">
         <v>14.879767765446744</v>
       </c>
-      <c r="CL71" s="26"/>
+      <c r="CL71" s="26">
+        <v>11.774547348526255</v>
+      </c>
       <c r="CM71" s="26"/>
       <c r="CN71" s="26"/>
       <c r="CO71" s="26"/>
-      <c r="CP71" s="11"/>
+      <c r="CP71" s="26"/>
       <c r="CQ71" s="11"/>
       <c r="CR71" s="11"/>
       <c r="CS71" s="11"/>
@@ -13006,11 +13085,13 @@
       <c r="CK72" s="26">
         <v>14.085116924879742</v>
       </c>
-      <c r="CL72" s="26"/>
+      <c r="CL72" s="26">
+        <v>0.69553047416124514</v>
+      </c>
       <c r="CM72" s="26"/>
       <c r="CN72" s="26"/>
       <c r="CO72" s="26"/>
-      <c r="CP72" s="11"/>
+      <c r="CP72" s="26"/>
       <c r="CQ72" s="11"/>
       <c r="CR72" s="11"/>
       <c r="CS72" s="11"/>
@@ -13335,11 +13416,13 @@
       <c r="CK73" s="26">
         <v>11.921201320286116</v>
       </c>
-      <c r="CL73" s="26"/>
+      <c r="CL73" s="26">
+        <v>12.28702678557238</v>
+      </c>
       <c r="CM73" s="26"/>
       <c r="CN73" s="26"/>
       <c r="CO73" s="26"/>
-      <c r="CP73" s="11"/>
+      <c r="CP73" s="26"/>
       <c r="CQ73" s="11"/>
       <c r="CR73" s="11"/>
       <c r="CS73" s="11"/>
@@ -13664,11 +13747,13 @@
       <c r="CK74" s="26">
         <v>14.127928224150992</v>
       </c>
-      <c r="CL74" s="26"/>
+      <c r="CL74" s="26">
+        <v>2.5539136197363774</v>
+      </c>
       <c r="CM74" s="26"/>
       <c r="CN74" s="26"/>
       <c r="CO74" s="26"/>
-      <c r="CP74" s="11"/>
+      <c r="CP74" s="26"/>
       <c r="CQ74" s="11"/>
       <c r="CR74" s="11"/>
       <c r="CS74" s="11"/>
@@ -13993,11 +14078,13 @@
       <c r="CK75" s="26">
         <v>8.2225014081690233</v>
       </c>
-      <c r="CL75" s="26"/>
+      <c r="CL75" s="26">
+        <v>11.235877389531382</v>
+      </c>
       <c r="CM75" s="26"/>
       <c r="CN75" s="26"/>
       <c r="CO75" s="26"/>
-      <c r="CP75" s="11"/>
+      <c r="CP75" s="26"/>
       <c r="CQ75" s="11"/>
       <c r="CR75" s="11"/>
       <c r="CS75" s="11"/>
@@ -14322,11 +14409,13 @@
       <c r="CK76" s="26">
         <v>20.962940351693334</v>
       </c>
-      <c r="CL76" s="26"/>
+      <c r="CL76" s="26">
+        <v>24.01244022729054</v>
+      </c>
       <c r="CM76" s="26"/>
       <c r="CN76" s="26"/>
       <c r="CO76" s="26"/>
-      <c r="CP76" s="11"/>
+      <c r="CP76" s="26"/>
       <c r="CQ76" s="11"/>
       <c r="CR76" s="11"/>
       <c r="CS76" s="11"/>
@@ -14651,11 +14740,13 @@
       <c r="CK77" s="26">
         <v>6.6924732388451673</v>
       </c>
-      <c r="CL77" s="26"/>
+      <c r="CL77" s="26">
+        <v>5.3987829377145573</v>
+      </c>
       <c r="CM77" s="26"/>
       <c r="CN77" s="26"/>
       <c r="CO77" s="26"/>
-      <c r="CP77" s="11"/>
+      <c r="CP77" s="26"/>
       <c r="CQ77" s="11"/>
       <c r="CR77" s="11"/>
       <c r="CS77" s="11"/>
@@ -14980,11 +15071,13 @@
       <c r="CK78" s="26">
         <v>19.43592958964993</v>
       </c>
-      <c r="CL78" s="26"/>
+      <c r="CL78" s="26">
+        <v>33.748171644300612</v>
+      </c>
       <c r="CM78" s="26"/>
       <c r="CN78" s="26"/>
       <c r="CO78" s="26"/>
-      <c r="CP78" s="11"/>
+      <c r="CP78" s="26"/>
       <c r="CQ78" s="11"/>
       <c r="CR78" s="11"/>
       <c r="CS78" s="11"/>
@@ -15309,11 +15402,13 @@
       <c r="CK79" s="26">
         <v>14.183716365607538</v>
       </c>
-      <c r="CL79" s="26"/>
+      <c r="CL79" s="26">
+        <v>10.116023254301069</v>
+      </c>
       <c r="CM79" s="26"/>
       <c r="CN79" s="26"/>
       <c r="CO79" s="26"/>
-      <c r="CP79" s="11"/>
+      <c r="CP79" s="26"/>
       <c r="CQ79" s="11"/>
       <c r="CR79" s="11"/>
       <c r="CS79" s="11"/>
@@ -15638,11 +15733,13 @@
       <c r="CK80" s="26">
         <v>32.771002893752922</v>
       </c>
-      <c r="CL80" s="26"/>
+      <c r="CL80" s="26">
+        <v>33.75672181980184</v>
+      </c>
       <c r="CM80" s="26"/>
       <c r="CN80" s="26"/>
       <c r="CO80" s="26"/>
-      <c r="CP80" s="11"/>
+      <c r="CP80" s="26"/>
       <c r="CQ80" s="11"/>
       <c r="CR80" s="11"/>
       <c r="CS80" s="11"/>
@@ -15967,11 +16064,13 @@
       <c r="CK81" s="26">
         <v>11.443585383216643</v>
       </c>
-      <c r="CL81" s="26"/>
+      <c r="CL81" s="26">
+        <v>14.794359879300913</v>
+      </c>
       <c r="CM81" s="26"/>
       <c r="CN81" s="26"/>
       <c r="CO81" s="26"/>
-      <c r="CP81" s="11"/>
+      <c r="CP81" s="26"/>
       <c r="CQ81" s="11"/>
       <c r="CR81" s="11"/>
       <c r="CS81" s="11"/>
@@ -16446,11 +16545,13 @@
       <c r="CK83" s="26">
         <v>14.90946448783501</v>
       </c>
-      <c r="CL83" s="26"/>
+      <c r="CL83" s="26">
+        <v>14.623240348397886</v>
+      </c>
       <c r="CM83" s="26"/>
       <c r="CN83" s="26"/>
       <c r="CO83" s="26"/>
-      <c r="CP83" s="11"/>
+      <c r="CP83" s="26"/>
       <c r="CQ83" s="11"/>
       <c r="CR83" s="11"/>
       <c r="CS83" s="11"/>
@@ -16601,6 +16702,7 @@
       <c r="CM84" s="16"/>
       <c r="CN84" s="16"/>
       <c r="CO84" s="16"/>
+      <c r="CP84" s="16"/>
     </row>
     <row r="85" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A85" s="18" t="s">
@@ -16919,7 +17021,7 @@
     </row>
     <row r="90" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="92" spans="1:149" x14ac:dyDescent="0.2">
@@ -16929,7 +17031,7 @@
     </row>
     <row r="93" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="94" spans="1:149" x14ac:dyDescent="0.2">
@@ -16939,142 +17041,145 @@
     </row>
     <row r="96" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
-      <c r="B96" s="30" t="s">
+      <c r="B96" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C96" s="30"/>
-      <c r="D96" s="30"/>
-      <c r="E96" s="30"/>
-      <c r="F96" s="30" t="s">
+      <c r="C96" s="35"/>
+      <c r="D96" s="35"/>
+      <c r="E96" s="35"/>
+      <c r="F96" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="G96" s="30"/>
-      <c r="H96" s="30"/>
-      <c r="I96" s="30"/>
-      <c r="J96" s="30" t="s">
+      <c r="G96" s="35"/>
+      <c r="H96" s="35"/>
+      <c r="I96" s="35"/>
+      <c r="J96" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="K96" s="30"/>
-      <c r="L96" s="30"/>
-      <c r="M96" s="30"/>
-      <c r="N96" s="30" t="s">
+      <c r="K96" s="35"/>
+      <c r="L96" s="35"/>
+      <c r="M96" s="35"/>
+      <c r="N96" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="O96" s="30"/>
-      <c r="P96" s="30"/>
-      <c r="Q96" s="30"/>
-      <c r="R96" s="30" t="s">
+      <c r="O96" s="35"/>
+      <c r="P96" s="35"/>
+      <c r="Q96" s="35"/>
+      <c r="R96" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="S96" s="30"/>
-      <c r="T96" s="30"/>
-      <c r="U96" s="30"/>
-      <c r="V96" s="30" t="s">
+      <c r="S96" s="35"/>
+      <c r="T96" s="35"/>
+      <c r="U96" s="35"/>
+      <c r="V96" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="W96" s="30"/>
-      <c r="X96" s="30"/>
-      <c r="Y96" s="30"/>
-      <c r="Z96" s="30" t="s">
+      <c r="W96" s="35"/>
+      <c r="X96" s="35"/>
+      <c r="Y96" s="35"/>
+      <c r="Z96" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="AA96" s="30"/>
-      <c r="AB96" s="30"/>
-      <c r="AC96" s="30"/>
-      <c r="AD96" s="30" t="s">
+      <c r="AA96" s="35"/>
+      <c r="AB96" s="35"/>
+      <c r="AC96" s="35"/>
+      <c r="AD96" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="AE96" s="30"/>
-      <c r="AF96" s="30"/>
-      <c r="AG96" s="30"/>
-      <c r="AH96" s="30" t="s">
+      <c r="AE96" s="35"/>
+      <c r="AF96" s="35"/>
+      <c r="AG96" s="35"/>
+      <c r="AH96" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="AI96" s="30"/>
-      <c r="AJ96" s="30"/>
-      <c r="AK96" s="30"/>
-      <c r="AL96" s="30" t="s">
+      <c r="AI96" s="35"/>
+      <c r="AJ96" s="35"/>
+      <c r="AK96" s="35"/>
+      <c r="AL96" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="AM96" s="30"/>
-      <c r="AN96" s="30"/>
-      <c r="AO96" s="30"/>
-      <c r="AP96" s="30" t="s">
+      <c r="AM96" s="35"/>
+      <c r="AN96" s="35"/>
+      <c r="AO96" s="35"/>
+      <c r="AP96" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="AQ96" s="30"/>
-      <c r="AR96" s="30"/>
-      <c r="AS96" s="30"/>
-      <c r="AT96" s="30" t="s">
+      <c r="AQ96" s="35"/>
+      <c r="AR96" s="35"/>
+      <c r="AS96" s="35"/>
+      <c r="AT96" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="AU96" s="30"/>
-      <c r="AV96" s="30"/>
-      <c r="AW96" s="30"/>
-      <c r="AX96" s="30" t="s">
+      <c r="AU96" s="35"/>
+      <c r="AV96" s="35"/>
+      <c r="AW96" s="35"/>
+      <c r="AX96" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="AY96" s="30"/>
-      <c r="AZ96" s="30"/>
-      <c r="BA96" s="30"/>
-      <c r="BB96" s="30" t="s">
+      <c r="AY96" s="35"/>
+      <c r="AZ96" s="35"/>
+      <c r="BA96" s="35"/>
+      <c r="BB96" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="BC96" s="30"/>
-      <c r="BD96" s="30"/>
-      <c r="BE96" s="30"/>
-      <c r="BF96" s="30" t="s">
+      <c r="BC96" s="35"/>
+      <c r="BD96" s="35"/>
+      <c r="BE96" s="35"/>
+      <c r="BF96" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="BG96" s="30"/>
-      <c r="BH96" s="30"/>
-      <c r="BI96" s="30"/>
-      <c r="BJ96" s="30" t="s">
+      <c r="BG96" s="35"/>
+      <c r="BH96" s="35"/>
+      <c r="BI96" s="35"/>
+      <c r="BJ96" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="BK96" s="30"/>
-      <c r="BL96" s="30"/>
-      <c r="BM96" s="30"/>
-      <c r="BN96" s="30" t="s">
+      <c r="BK96" s="35"/>
+      <c r="BL96" s="35"/>
+      <c r="BM96" s="35"/>
+      <c r="BN96" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="BO96" s="30"/>
-      <c r="BP96" s="30"/>
-      <c r="BQ96" s="30"/>
-      <c r="BR96" s="31" t="s">
+      <c r="BO96" s="35"/>
+      <c r="BP96" s="35"/>
+      <c r="BQ96" s="35"/>
+      <c r="BR96" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="BS96" s="31"/>
-      <c r="BT96" s="31"/>
-      <c r="BU96" s="31"/>
-      <c r="BV96" s="31" t="s">
+      <c r="BS96" s="34"/>
+      <c r="BT96" s="34"/>
+      <c r="BU96" s="34"/>
+      <c r="BV96" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="BW96" s="31"/>
-      <c r="BX96" s="31"/>
-      <c r="BY96" s="31"/>
-      <c r="BZ96" s="31" t="s">
+      <c r="BW96" s="34"/>
+      <c r="BX96" s="34"/>
+      <c r="BY96" s="34"/>
+      <c r="BZ96" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="CA96" s="31"/>
-      <c r="CB96" s="31"/>
-      <c r="CC96" s="31"/>
-      <c r="CD96" s="31" t="s">
+      <c r="CA96" s="34"/>
+      <c r="CB96" s="34"/>
+      <c r="CC96" s="34"/>
+      <c r="CD96" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="CE96" s="31"/>
-      <c r="CF96" s="31"/>
-      <c r="CG96" s="31"/>
-      <c r="CH96" s="31" t="s">
+      <c r="CE96" s="34"/>
+      <c r="CF96" s="34"/>
+      <c r="CG96" s="34"/>
+      <c r="CH96" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="CI96" s="31"/>
-      <c r="CJ96" s="31"/>
-      <c r="CK96" s="31"/>
-      <c r="CL96" s="31"/>
-      <c r="CM96" s="31"/>
-      <c r="CN96" s="31"/>
-      <c r="CO96" s="31"/>
+      <c r="CI96" s="34"/>
+      <c r="CJ96" s="34"/>
+      <c r="CK96" s="34"/>
+      <c r="CL96" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="CM96" s="30"/>
+      <c r="CN96" s="30"/>
+      <c r="CO96" s="30"/>
+      <c r="CP96" s="30"/>
     </row>
     <row r="97" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
@@ -17344,10 +17449,13 @@
       <c r="CK97" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CL97" s="7"/>
+      <c r="CL97" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="CM97" s="7"/>
       <c r="CN97" s="7"/>
       <c r="CO97" s="7"/>
+      <c r="CP97" s="7"/>
     </row>
     <row r="98" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8"/>
@@ -17620,11 +17728,13 @@
       <c r="CK99" s="26">
         <v>3.9785935809430555</v>
       </c>
-      <c r="CL99" s="26"/>
+      <c r="CL99" s="26">
+        <v>0.77992528418768359</v>
+      </c>
       <c r="CM99" s="26"/>
       <c r="CN99" s="26"/>
       <c r="CO99" s="26"/>
-      <c r="CP99" s="11"/>
+      <c r="CP99" s="26"/>
       <c r="CQ99" s="11"/>
       <c r="CR99" s="11"/>
       <c r="CS99" s="11"/>
@@ -17949,11 +18059,13 @@
       <c r="CK100" s="26">
         <v>3.9147385367330259</v>
       </c>
-      <c r="CL100" s="26"/>
+      <c r="CL100" s="26">
+        <v>0.33161662079015741</v>
+      </c>
       <c r="CM100" s="26"/>
       <c r="CN100" s="26"/>
       <c r="CO100" s="26"/>
-      <c r="CP100" s="11"/>
+      <c r="CP100" s="26"/>
       <c r="CQ100" s="11"/>
       <c r="CR100" s="11"/>
       <c r="CS100" s="11"/>
@@ -18278,11 +18390,13 @@
       <c r="CK101" s="26">
         <v>10.193524067478094</v>
       </c>
-      <c r="CL101" s="26"/>
+      <c r="CL101" s="26">
+        <v>-3.8384354359466784</v>
+      </c>
       <c r="CM101" s="26"/>
       <c r="CN101" s="26"/>
       <c r="CO101" s="26"/>
-      <c r="CP101" s="11"/>
+      <c r="CP101" s="26"/>
       <c r="CQ101" s="11"/>
       <c r="CR101" s="11"/>
       <c r="CS101" s="11"/>
@@ -18607,11 +18721,13 @@
       <c r="CK102" s="26">
         <v>4.4963740045475049</v>
       </c>
-      <c r="CL102" s="26"/>
+      <c r="CL102" s="26">
+        <v>3.7369328662439187</v>
+      </c>
       <c r="CM102" s="26"/>
       <c r="CN102" s="26"/>
       <c r="CO102" s="26"/>
-      <c r="CP102" s="11"/>
+      <c r="CP102" s="26"/>
       <c r="CQ102" s="11"/>
       <c r="CR102" s="11"/>
       <c r="CS102" s="11"/>
@@ -18936,11 +19052,13 @@
       <c r="CK103" s="26">
         <v>9.3573074302153856</v>
       </c>
-      <c r="CL103" s="26"/>
+      <c r="CL103" s="26">
+        <v>-3.1028183975854517</v>
+      </c>
       <c r="CM103" s="26"/>
       <c r="CN103" s="26"/>
       <c r="CO103" s="26"/>
-      <c r="CP103" s="11"/>
+      <c r="CP103" s="26"/>
       <c r="CQ103" s="11"/>
       <c r="CR103" s="11"/>
       <c r="CS103" s="11"/>
@@ -19265,11 +19383,13 @@
       <c r="CK104" s="26">
         <v>5.2490153935198265</v>
       </c>
-      <c r="CL104" s="26"/>
+      <c r="CL104" s="26">
+        <v>7.2205947313644288</v>
+      </c>
       <c r="CM104" s="26"/>
       <c r="CN104" s="26"/>
       <c r="CO104" s="26"/>
-      <c r="CP104" s="11"/>
+      <c r="CP104" s="26"/>
       <c r="CQ104" s="11"/>
       <c r="CR104" s="11"/>
       <c r="CS104" s="11"/>
@@ -19594,11 +19714,13 @@
       <c r="CK105" s="26">
         <v>7.8682121727108552</v>
       </c>
-      <c r="CL105" s="26"/>
+      <c r="CL105" s="26">
+        <v>14.418722341660555</v>
+      </c>
       <c r="CM105" s="26"/>
       <c r="CN105" s="26"/>
       <c r="CO105" s="26"/>
-      <c r="CP105" s="11"/>
+      <c r="CP105" s="26"/>
       <c r="CQ105" s="11"/>
       <c r="CR105" s="11"/>
       <c r="CS105" s="11"/>
@@ -19923,11 +20045,13 @@
       <c r="CK106" s="26">
         <v>6.0323765304316055</v>
       </c>
-      <c r="CL106" s="26"/>
+      <c r="CL106" s="26">
+        <v>4.6459344881594831</v>
+      </c>
       <c r="CM106" s="26"/>
       <c r="CN106" s="26"/>
       <c r="CO106" s="26"/>
-      <c r="CP106" s="11"/>
+      <c r="CP106" s="26"/>
       <c r="CQ106" s="11"/>
       <c r="CR106" s="11"/>
       <c r="CS106" s="11"/>
@@ -20252,11 +20376,13 @@
       <c r="CK107" s="26">
         <v>15.49125668577156</v>
       </c>
-      <c r="CL107" s="26"/>
+      <c r="CL107" s="26">
+        <v>28.103087523045843</v>
+      </c>
       <c r="CM107" s="26"/>
       <c r="CN107" s="26"/>
       <c r="CO107" s="26"/>
-      <c r="CP107" s="11"/>
+      <c r="CP107" s="26"/>
       <c r="CQ107" s="11"/>
       <c r="CR107" s="11"/>
       <c r="CS107" s="11"/>
@@ -20581,11 +20707,13 @@
       <c r="CK108" s="26">
         <v>10.278242718539033</v>
       </c>
-      <c r="CL108" s="26"/>
+      <c r="CL108" s="26">
+        <v>6.254040424339081</v>
+      </c>
       <c r="CM108" s="26"/>
       <c r="CN108" s="26"/>
       <c r="CO108" s="26"/>
-      <c r="CP108" s="11"/>
+      <c r="CP108" s="26"/>
       <c r="CQ108" s="11"/>
       <c r="CR108" s="11"/>
       <c r="CS108" s="11"/>
@@ -20910,11 +21038,13 @@
       <c r="CK109" s="26">
         <v>24.779108341374851</v>
       </c>
-      <c r="CL109" s="26"/>
+      <c r="CL109" s="26">
+        <v>23.833675216332239</v>
+      </c>
       <c r="CM109" s="26"/>
       <c r="CN109" s="26"/>
       <c r="CO109" s="26"/>
-      <c r="CP109" s="11"/>
+      <c r="CP109" s="26"/>
       <c r="CQ109" s="11"/>
       <c r="CR109" s="11"/>
       <c r="CS109" s="11"/>
@@ -21239,11 +21369,13 @@
       <c r="CK110" s="26">
         <v>6.6439501425235221</v>
       </c>
-      <c r="CL110" s="26"/>
+      <c r="CL110" s="26">
+        <v>9.0559330265029558</v>
+      </c>
       <c r="CM110" s="26"/>
       <c r="CN110" s="26"/>
       <c r="CO110" s="26"/>
-      <c r="CP110" s="11"/>
+      <c r="CP110" s="26"/>
       <c r="CQ110" s="11"/>
       <c r="CR110" s="11"/>
       <c r="CS110" s="11"/>
@@ -21718,11 +21850,13 @@
       <c r="CK112" s="26">
         <v>6.971064311894807</v>
       </c>
-      <c r="CL112" s="26"/>
+      <c r="CL112" s="26">
+        <v>6.3420005797817822</v>
+      </c>
       <c r="CM112" s="26"/>
       <c r="CN112" s="26"/>
       <c r="CO112" s="26"/>
-      <c r="CP112" s="11"/>
+      <c r="CP112" s="26"/>
       <c r="CQ112" s="11"/>
       <c r="CR112" s="11"/>
       <c r="CS112" s="11"/>
@@ -21873,6 +22007,7 @@
       <c r="CM113" s="16"/>
       <c r="CN113" s="16"/>
       <c r="CO113" s="16"/>
+      <c r="CP113" s="16"/>
     </row>
     <row r="114" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A114" s="18" t="s">
@@ -22186,7 +22321,7 @@
     </row>
     <row r="118" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="120" spans="1:153" x14ac:dyDescent="0.2">
@@ -22196,7 +22331,7 @@
     </row>
     <row r="121" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="122" spans="1:153" x14ac:dyDescent="0.2">
@@ -22206,144 +22341,147 @@
     </row>
     <row r="124" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
-      <c r="B124" s="30">
+      <c r="B124" s="35">
         <v>2000</v>
       </c>
-      <c r="C124" s="30"/>
-      <c r="D124" s="30"/>
-      <c r="E124" s="30"/>
-      <c r="F124" s="30">
+      <c r="C124" s="35"/>
+      <c r="D124" s="35"/>
+      <c r="E124" s="35"/>
+      <c r="F124" s="35">
         <v>2001</v>
       </c>
-      <c r="G124" s="30"/>
-      <c r="H124" s="30"/>
-      <c r="I124" s="30"/>
-      <c r="J124" s="30">
+      <c r="G124" s="35"/>
+      <c r="H124" s="35"/>
+      <c r="I124" s="35"/>
+      <c r="J124" s="35">
         <v>2002</v>
       </c>
-      <c r="K124" s="30"/>
-      <c r="L124" s="30"/>
-      <c r="M124" s="30"/>
-      <c r="N124" s="30">
+      <c r="K124" s="35"/>
+      <c r="L124" s="35"/>
+      <c r="M124" s="35"/>
+      <c r="N124" s="35">
         <v>2003</v>
       </c>
-      <c r="O124" s="30"/>
-      <c r="P124" s="30"/>
-      <c r="Q124" s="30"/>
-      <c r="R124" s="30">
+      <c r="O124" s="35"/>
+      <c r="P124" s="35"/>
+      <c r="Q124" s="35"/>
+      <c r="R124" s="35">
         <v>2004</v>
       </c>
-      <c r="S124" s="30"/>
-      <c r="T124" s="30"/>
-      <c r="U124" s="30"/>
-      <c r="V124" s="30">
+      <c r="S124" s="35"/>
+      <c r="T124" s="35"/>
+      <c r="U124" s="35"/>
+      <c r="V124" s="35">
         <v>2005</v>
       </c>
-      <c r="W124" s="30"/>
-      <c r="X124" s="30"/>
-      <c r="Y124" s="30"/>
-      <c r="Z124" s="30">
+      <c r="W124" s="35"/>
+      <c r="X124" s="35"/>
+      <c r="Y124" s="35"/>
+      <c r="Z124" s="35">
         <v>2006</v>
       </c>
-      <c r="AA124" s="30"/>
-      <c r="AB124" s="30"/>
-      <c r="AC124" s="30"/>
-      <c r="AD124" s="30">
+      <c r="AA124" s="35"/>
+      <c r="AB124" s="35"/>
+      <c r="AC124" s="35"/>
+      <c r="AD124" s="35">
         <v>2007</v>
       </c>
-      <c r="AE124" s="30"/>
-      <c r="AF124" s="30"/>
-      <c r="AG124" s="30"/>
-      <c r="AH124" s="30">
+      <c r="AE124" s="35"/>
+      <c r="AF124" s="35"/>
+      <c r="AG124" s="35"/>
+      <c r="AH124" s="35">
         <v>2008</v>
       </c>
-      <c r="AI124" s="30"/>
-      <c r="AJ124" s="30"/>
-      <c r="AK124" s="30"/>
-      <c r="AL124" s="30">
+      <c r="AI124" s="35"/>
+      <c r="AJ124" s="35"/>
+      <c r="AK124" s="35"/>
+      <c r="AL124" s="35">
         <v>2009</v>
       </c>
-      <c r="AM124" s="30"/>
-      <c r="AN124" s="30"/>
-      <c r="AO124" s="30"/>
-      <c r="AP124" s="30">
+      <c r="AM124" s="35"/>
+      <c r="AN124" s="35"/>
+      <c r="AO124" s="35"/>
+      <c r="AP124" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ124" s="30"/>
-      <c r="AR124" s="30"/>
-      <c r="AS124" s="30"/>
-      <c r="AT124" s="30">
+      <c r="AQ124" s="35"/>
+      <c r="AR124" s="35"/>
+      <c r="AS124" s="35"/>
+      <c r="AT124" s="35">
         <v>2011</v>
       </c>
-      <c r="AU124" s="30"/>
-      <c r="AV124" s="30"/>
-      <c r="AW124" s="30"/>
-      <c r="AX124" s="30">
+      <c r="AU124" s="35"/>
+      <c r="AV124" s="35"/>
+      <c r="AW124" s="35"/>
+      <c r="AX124" s="35">
         <v>2012</v>
       </c>
-      <c r="AY124" s="30"/>
-      <c r="AZ124" s="30"/>
-      <c r="BA124" s="30"/>
-      <c r="BB124" s="30">
+      <c r="AY124" s="35"/>
+      <c r="AZ124" s="35"/>
+      <c r="BA124" s="35"/>
+      <c r="BB124" s="35">
         <v>2013</v>
       </c>
-      <c r="BC124" s="30"/>
-      <c r="BD124" s="30"/>
-      <c r="BE124" s="30"/>
-      <c r="BF124" s="30">
+      <c r="BC124" s="35"/>
+      <c r="BD124" s="35"/>
+      <c r="BE124" s="35"/>
+      <c r="BF124" s="35">
         <v>2014</v>
       </c>
-      <c r="BG124" s="30"/>
-      <c r="BH124" s="30"/>
-      <c r="BI124" s="30"/>
-      <c r="BJ124" s="30">
+      <c r="BG124" s="35"/>
+      <c r="BH124" s="35"/>
+      <c r="BI124" s="35"/>
+      <c r="BJ124" s="35">
         <v>2015</v>
       </c>
-      <c r="BK124" s="30"/>
-      <c r="BL124" s="30"/>
-      <c r="BM124" s="30"/>
-      <c r="BN124" s="30">
+      <c r="BK124" s="35"/>
+      <c r="BL124" s="35"/>
+      <c r="BM124" s="35"/>
+      <c r="BN124" s="35">
         <v>2016</v>
       </c>
-      <c r="BO124" s="30"/>
-      <c r="BP124" s="30"/>
-      <c r="BQ124" s="30"/>
-      <c r="BR124" s="31">
+      <c r="BO124" s="35"/>
+      <c r="BP124" s="35"/>
+      <c r="BQ124" s="35"/>
+      <c r="BR124" s="34">
         <v>2017</v>
       </c>
-      <c r="BS124" s="31"/>
-      <c r="BT124" s="31"/>
-      <c r="BU124" s="31"/>
-      <c r="BV124" s="31">
+      <c r="BS124" s="34"/>
+      <c r="BT124" s="34"/>
+      <c r="BU124" s="34"/>
+      <c r="BV124" s="34">
         <v>2018</v>
       </c>
-      <c r="BW124" s="31"/>
-      <c r="BX124" s="31"/>
-      <c r="BY124" s="31"/>
-      <c r="BZ124" s="31">
+      <c r="BW124" s="34"/>
+      <c r="BX124" s="34"/>
+      <c r="BY124" s="34"/>
+      <c r="BZ124" s="34">
         <v>2019</v>
       </c>
-      <c r="CA124" s="31"/>
-      <c r="CB124" s="31"/>
-      <c r="CC124" s="31"/>
-      <c r="CD124" s="31">
+      <c r="CA124" s="34"/>
+      <c r="CB124" s="34"/>
+      <c r="CC124" s="34"/>
+      <c r="CD124" s="34">
         <v>2020</v>
       </c>
-      <c r="CE124" s="31"/>
-      <c r="CF124" s="31"/>
-      <c r="CG124" s="31"/>
-      <c r="CH124" s="31">
+      <c r="CE124" s="34"/>
+      <c r="CF124" s="34"/>
+      <c r="CG124" s="34"/>
+      <c r="CH124" s="34">
         <v>2021</v>
       </c>
-      <c r="CI124" s="31"/>
-      <c r="CJ124" s="31"/>
-      <c r="CK124" s="31"/>
-      <c r="CL124" s="31">
+      <c r="CI124" s="34"/>
+      <c r="CJ124" s="34"/>
+      <c r="CK124" s="34"/>
+      <c r="CL124" s="34">
         <v>2022</v>
       </c>
-      <c r="CM124" s="31"/>
-      <c r="CN124" s="31"/>
-      <c r="CO124" s="31"/>
+      <c r="CM124" s="34"/>
+      <c r="CN124" s="34"/>
+      <c r="CO124" s="34"/>
+      <c r="CP124" s="30">
+        <v>2023</v>
+      </c>
     </row>
     <row r="125" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
@@ -22624,6 +22762,9 @@
       </c>
       <c r="CO125" s="7" t="s">
         <v>22</v>
+      </c>
+      <c r="CP125" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="126" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -22909,7 +23050,9 @@
       <c r="CO127" s="26">
         <v>119.63502738941952</v>
       </c>
-      <c r="CP127" s="11"/>
+      <c r="CP127" s="26">
+        <v>121.40993984588135</v>
+      </c>
       <c r="CQ127" s="11"/>
       <c r="CR127" s="11"/>
       <c r="CS127" s="11"/>
@@ -23250,7 +23393,9 @@
       <c r="CO128" s="26">
         <v>157.85711271445632</v>
       </c>
-      <c r="CP128" s="11"/>
+      <c r="CP128" s="26">
+        <v>155.8613031242264</v>
+      </c>
       <c r="CQ128" s="11"/>
       <c r="CR128" s="11"/>
       <c r="CS128" s="11"/>
@@ -23591,7 +23736,9 @@
       <c r="CO129" s="26">
         <v>107.88943773035248</v>
       </c>
-      <c r="CP129" s="11"/>
+      <c r="CP129" s="26">
+        <v>110.80516327271272</v>
+      </c>
       <c r="CQ129" s="11"/>
       <c r="CR129" s="11"/>
       <c r="CS129" s="11"/>
@@ -23932,7 +24079,9 @@
       <c r="CO130" s="26">
         <v>117.1180284754346</v>
       </c>
-      <c r="CP130" s="11"/>
+      <c r="CP130" s="26">
+        <v>112.94682454743001</v>
+      </c>
       <c r="CQ130" s="11"/>
       <c r="CR130" s="11"/>
       <c r="CS130" s="11"/>
@@ -24273,7 +24422,9 @@
       <c r="CO131" s="26">
         <v>111.84049601763029</v>
       </c>
-      <c r="CP131" s="11"/>
+      <c r="CP131" s="26">
+        <v>118.43763277423901</v>
+      </c>
       <c r="CQ131" s="11"/>
       <c r="CR131" s="11"/>
       <c r="CS131" s="11"/>
@@ -24614,7 +24765,9 @@
       <c r="CO132" s="26">
         <v>114.33049868938599</v>
       </c>
-      <c r="CP132" s="11"/>
+      <c r="CP132" s="26">
+        <v>112.67232134559868</v>
+      </c>
       <c r="CQ132" s="11"/>
       <c r="CR132" s="11"/>
       <c r="CS132" s="11"/>
@@ -24955,7 +25108,9 @@
       <c r="CO133" s="26">
         <v>126.45166811592503</v>
       </c>
-      <c r="CP133" s="11"/>
+      <c r="CP133" s="26">
+        <v>132.39182950639261</v>
+      </c>
       <c r="CQ133" s="11"/>
       <c r="CR133" s="11"/>
       <c r="CS133" s="11"/>
@@ -25296,7 +25451,9 @@
       <c r="CO134" s="26">
         <v>97.770891822858133</v>
       </c>
-      <c r="CP134" s="11"/>
+      <c r="CP134" s="26">
+        <v>105.67435954176283</v>
+      </c>
       <c r="CQ134" s="11"/>
       <c r="CR134" s="11"/>
       <c r="CS134" s="11"/>
@@ -25637,7 +25794,9 @@
       <c r="CO135" s="26">
         <v>107.41817077769586</v>
       </c>
-      <c r="CP135" s="11"/>
+      <c r="CP135" s="26">
+        <v>109.01624515776258</v>
+      </c>
       <c r="CQ135" s="11"/>
       <c r="CR135" s="11"/>
       <c r="CS135" s="11"/>
@@ -25978,7 +26137,9 @@
       <c r="CO136" s="26">
         <v>102.55628118766403</v>
       </c>
-      <c r="CP136" s="11"/>
+      <c r="CP136" s="26">
+        <v>108.12715026223094</v>
+      </c>
       <c r="CQ136" s="11"/>
       <c r="CR136" s="11"/>
       <c r="CS136" s="11"/>
@@ -26319,7 +26480,9 @@
       <c r="CO137" s="26">
         <v>116.21057920620589</v>
       </c>
-      <c r="CP137" s="11"/>
+      <c r="CP137" s="26">
+        <v>120.83454632830689</v>
+      </c>
       <c r="CQ137" s="11"/>
       <c r="CR137" s="11"/>
       <c r="CS137" s="11"/>
@@ -26660,7 +26823,9 @@
       <c r="CO138" s="26">
         <v>107.40108882700197</v>
       </c>
-      <c r="CP138" s="11"/>
+      <c r="CP138" s="26">
+        <v>120.37521199573725</v>
+      </c>
       <c r="CQ138" s="11"/>
       <c r="CR138" s="11"/>
       <c r="CS138" s="11"/>
@@ -27155,7 +27320,9 @@
       <c r="CO140" s="26">
         <v>115.90512482879622</v>
       </c>
-      <c r="CP140" s="11"/>
+      <c r="CP140" s="26">
+        <v>119.62262414822237</v>
+      </c>
       <c r="CQ140" s="11"/>
       <c r="CR140" s="11"/>
       <c r="CS140" s="11"/>
@@ -27310,6 +27477,7 @@
       <c r="CM141" s="16"/>
       <c r="CN141" s="16"/>
       <c r="CO141" s="16"/>
+      <c r="CP141" s="16"/>
     </row>
     <row r="142" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A142" s="18" t="s">
@@ -27328,7 +27496,7 @@
     </row>
     <row r="147" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="149" spans="1:153" x14ac:dyDescent="0.2">
@@ -27338,7 +27506,7 @@
     </row>
     <row r="150" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="151" spans="1:153" x14ac:dyDescent="0.2">
@@ -27348,144 +27516,147 @@
     </row>
     <row r="153" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A153" s="4"/>
-      <c r="B153" s="30">
+      <c r="B153" s="35">
         <v>2000</v>
       </c>
-      <c r="C153" s="30"/>
-      <c r="D153" s="30"/>
-      <c r="E153" s="30"/>
-      <c r="F153" s="30">
+      <c r="C153" s="35"/>
+      <c r="D153" s="35"/>
+      <c r="E153" s="35"/>
+      <c r="F153" s="35">
         <v>2001</v>
       </c>
-      <c r="G153" s="30"/>
-      <c r="H153" s="30"/>
-      <c r="I153" s="30"/>
-      <c r="J153" s="30">
+      <c r="G153" s="35"/>
+      <c r="H153" s="35"/>
+      <c r="I153" s="35"/>
+      <c r="J153" s="35">
         <v>2002</v>
       </c>
-      <c r="K153" s="30"/>
-      <c r="L153" s="30"/>
-      <c r="M153" s="30"/>
-      <c r="N153" s="30">
+      <c r="K153" s="35"/>
+      <c r="L153" s="35"/>
+      <c r="M153" s="35"/>
+      <c r="N153" s="35">
         <v>2003</v>
       </c>
-      <c r="O153" s="30"/>
-      <c r="P153" s="30"/>
-      <c r="Q153" s="30"/>
-      <c r="R153" s="30">
+      <c r="O153" s="35"/>
+      <c r="P153" s="35"/>
+      <c r="Q153" s="35"/>
+      <c r="R153" s="35">
         <v>2004</v>
       </c>
-      <c r="S153" s="30"/>
-      <c r="T153" s="30"/>
-      <c r="U153" s="30"/>
-      <c r="V153" s="30">
+      <c r="S153" s="35"/>
+      <c r="T153" s="35"/>
+      <c r="U153" s="35"/>
+      <c r="V153" s="35">
         <v>2005</v>
       </c>
-      <c r="W153" s="30"/>
-      <c r="X153" s="30"/>
-      <c r="Y153" s="30"/>
-      <c r="Z153" s="30">
+      <c r="W153" s="35"/>
+      <c r="X153" s="35"/>
+      <c r="Y153" s="35"/>
+      <c r="Z153" s="35">
         <v>2006</v>
       </c>
-      <c r="AA153" s="30"/>
-      <c r="AB153" s="30"/>
-      <c r="AC153" s="30"/>
-      <c r="AD153" s="30">
+      <c r="AA153" s="35"/>
+      <c r="AB153" s="35"/>
+      <c r="AC153" s="35"/>
+      <c r="AD153" s="35">
         <v>2007</v>
       </c>
-      <c r="AE153" s="30"/>
-      <c r="AF153" s="30"/>
-      <c r="AG153" s="30"/>
-      <c r="AH153" s="30">
+      <c r="AE153" s="35"/>
+      <c r="AF153" s="35"/>
+      <c r="AG153" s="35"/>
+      <c r="AH153" s="35">
         <v>2008</v>
       </c>
-      <c r="AI153" s="30"/>
-      <c r="AJ153" s="30"/>
-      <c r="AK153" s="30"/>
-      <c r="AL153" s="30">
+      <c r="AI153" s="35"/>
+      <c r="AJ153" s="35"/>
+      <c r="AK153" s="35"/>
+      <c r="AL153" s="35">
         <v>2009</v>
       </c>
-      <c r="AM153" s="30"/>
-      <c r="AN153" s="30"/>
-      <c r="AO153" s="30"/>
-      <c r="AP153" s="30">
+      <c r="AM153" s="35"/>
+      <c r="AN153" s="35"/>
+      <c r="AO153" s="35"/>
+      <c r="AP153" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ153" s="30"/>
-      <c r="AR153" s="30"/>
-      <c r="AS153" s="30"/>
-      <c r="AT153" s="30">
+      <c r="AQ153" s="35"/>
+      <c r="AR153" s="35"/>
+      <c r="AS153" s="35"/>
+      <c r="AT153" s="35">
         <v>2011</v>
       </c>
-      <c r="AU153" s="30"/>
-      <c r="AV153" s="30"/>
-      <c r="AW153" s="30"/>
-      <c r="AX153" s="30">
+      <c r="AU153" s="35"/>
+      <c r="AV153" s="35"/>
+      <c r="AW153" s="35"/>
+      <c r="AX153" s="35">
         <v>2012</v>
       </c>
-      <c r="AY153" s="30"/>
-      <c r="AZ153" s="30"/>
-      <c r="BA153" s="30"/>
-      <c r="BB153" s="30">
+      <c r="AY153" s="35"/>
+      <c r="AZ153" s="35"/>
+      <c r="BA153" s="35"/>
+      <c r="BB153" s="35">
         <v>2013</v>
       </c>
-      <c r="BC153" s="30"/>
-      <c r="BD153" s="30"/>
-      <c r="BE153" s="30"/>
-      <c r="BF153" s="30">
+      <c r="BC153" s="35"/>
+      <c r="BD153" s="35"/>
+      <c r="BE153" s="35"/>
+      <c r="BF153" s="35">
         <v>2014</v>
       </c>
-      <c r="BG153" s="30"/>
-      <c r="BH153" s="30"/>
-      <c r="BI153" s="30"/>
-      <c r="BJ153" s="30">
+      <c r="BG153" s="35"/>
+      <c r="BH153" s="35"/>
+      <c r="BI153" s="35"/>
+      <c r="BJ153" s="35">
         <v>2015</v>
       </c>
-      <c r="BK153" s="30"/>
-      <c r="BL153" s="30"/>
-      <c r="BM153" s="30"/>
-      <c r="BN153" s="30">
+      <c r="BK153" s="35"/>
+      <c r="BL153" s="35"/>
+      <c r="BM153" s="35"/>
+      <c r="BN153" s="35">
         <v>2016</v>
       </c>
-      <c r="BO153" s="30"/>
-      <c r="BP153" s="30"/>
-      <c r="BQ153" s="30"/>
-      <c r="BR153" s="31">
+      <c r="BO153" s="35"/>
+      <c r="BP153" s="35"/>
+      <c r="BQ153" s="35"/>
+      <c r="BR153" s="34">
         <v>2017</v>
       </c>
-      <c r="BS153" s="31"/>
-      <c r="BT153" s="31"/>
-      <c r="BU153" s="31"/>
-      <c r="BV153" s="31">
+      <c r="BS153" s="34"/>
+      <c r="BT153" s="34"/>
+      <c r="BU153" s="34"/>
+      <c r="BV153" s="34">
         <v>2018</v>
       </c>
-      <c r="BW153" s="31"/>
-      <c r="BX153" s="31"/>
-      <c r="BY153" s="31"/>
-      <c r="BZ153" s="31">
+      <c r="BW153" s="34"/>
+      <c r="BX153" s="34"/>
+      <c r="BY153" s="34"/>
+      <c r="BZ153" s="34">
         <v>2019</v>
       </c>
-      <c r="CA153" s="31"/>
-      <c r="CB153" s="31"/>
-      <c r="CC153" s="31"/>
-      <c r="CD153" s="31">
+      <c r="CA153" s="34"/>
+      <c r="CB153" s="34"/>
+      <c r="CC153" s="34"/>
+      <c r="CD153" s="34">
         <v>2020</v>
       </c>
-      <c r="CE153" s="31"/>
-      <c r="CF153" s="31"/>
-      <c r="CG153" s="31"/>
-      <c r="CH153" s="31">
+      <c r="CE153" s="34"/>
+      <c r="CF153" s="34"/>
+      <c r="CG153" s="34"/>
+      <c r="CH153" s="34">
         <v>2021</v>
       </c>
-      <c r="CI153" s="31"/>
-      <c r="CJ153" s="31"/>
-      <c r="CK153" s="31"/>
-      <c r="CL153" s="31">
+      <c r="CI153" s="34"/>
+      <c r="CJ153" s="34"/>
+      <c r="CK153" s="34"/>
+      <c r="CL153" s="34">
         <v>2022</v>
       </c>
-      <c r="CM153" s="31"/>
-      <c r="CN153" s="31"/>
-      <c r="CO153" s="31"/>
+      <c r="CM153" s="34"/>
+      <c r="CN153" s="34"/>
+      <c r="CO153" s="34"/>
+      <c r="CP153" s="30">
+        <v>2023</v>
+      </c>
     </row>
     <row r="154" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
@@ -27766,6 +27937,9 @@
       </c>
       <c r="CO154" s="7" t="s">
         <v>22</v>
+      </c>
+      <c r="CP154" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="155" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -28051,7 +28225,9 @@
       <c r="CO156" s="26">
         <v>39.714505651846942</v>
       </c>
-      <c r="CP156" s="11"/>
+      <c r="CP156" s="26">
+        <v>34.801309530293437</v>
+      </c>
       <c r="CQ156" s="11"/>
       <c r="CR156" s="11"/>
       <c r="CS156" s="11"/>
@@ -28392,7 +28568,9 @@
       <c r="CO157" s="26">
         <v>2.2458821519621286</v>
       </c>
-      <c r="CP157" s="11"/>
+      <c r="CP157" s="26">
+        <v>1.7900164915719372</v>
+      </c>
       <c r="CQ157" s="11"/>
       <c r="CR157" s="11"/>
       <c r="CS157" s="11"/>
@@ -28733,7 +28911,9 @@
       <c r="CO158" s="26">
         <v>1.784686817842867</v>
       </c>
-      <c r="CP158" s="11"/>
+      <c r="CP158" s="26">
+        <v>1.3189175864749361</v>
+      </c>
       <c r="CQ158" s="11"/>
       <c r="CR158" s="11"/>
       <c r="CS158" s="11"/>
@@ -29074,7 +29254,9 @@
       <c r="CO159" s="26">
         <v>11.163941802320894</v>
       </c>
-      <c r="CP159" s="11"/>
+      <c r="CP159" s="26">
+        <v>11.285996511002963</v>
+      </c>
       <c r="CQ159" s="11"/>
       <c r="CR159" s="11"/>
       <c r="CS159" s="11"/>
@@ -29415,7 +29597,9 @@
       <c r="CO160" s="26">
         <v>2.7040979429244238</v>
       </c>
-      <c r="CP160" s="11"/>
+      <c r="CP160" s="26">
+        <v>2.4920663060940895</v>
+      </c>
       <c r="CQ160" s="11"/>
       <c r="CR160" s="11"/>
       <c r="CS160" s="11"/>
@@ -29756,7 +29940,9 @@
       <c r="CO161" s="26">
         <v>4.0097981398428715</v>
       </c>
-      <c r="CP161" s="11"/>
+      <c r="CP161" s="26">
+        <v>4.1454285165364357</v>
+      </c>
       <c r="CQ161" s="11"/>
       <c r="CR161" s="11"/>
       <c r="CS161" s="11"/>
@@ -30097,7 +30283,9 @@
       <c r="CO162" s="26">
         <v>7.7278994002764083</v>
       </c>
-      <c r="CP162" s="11"/>
+      <c r="CP162" s="26">
+        <v>10.71454395588135</v>
+      </c>
       <c r="CQ162" s="11"/>
       <c r="CR162" s="11"/>
       <c r="CS162" s="11"/>
@@ -30438,7 +30626,9 @@
       <c r="CO163" s="26">
         <v>2.6105482147233063</v>
       </c>
-      <c r="CP163" s="11"/>
+      <c r="CP163" s="26">
+        <v>2.8929283802318659</v>
+      </c>
       <c r="CQ163" s="11"/>
       <c r="CR163" s="11"/>
       <c r="CS163" s="11"/>
@@ -30779,7 +30969,9 @@
       <c r="CO164" s="26">
         <v>1.742263944652648</v>
       </c>
-      <c r="CP164" s="11"/>
+      <c r="CP164" s="26">
+        <v>1.7075675945164392</v>
+      </c>
       <c r="CQ164" s="11"/>
       <c r="CR164" s="11"/>
       <c r="CS164" s="11"/>
@@ -31120,7 +31312,9 @@
       <c r="CO165" s="26">
         <v>4.5367553241551217</v>
       </c>
-      <c r="CP165" s="11"/>
+      <c r="CP165" s="26">
+        <v>5.1339295436877572</v>
+      </c>
       <c r="CQ165" s="11"/>
       <c r="CR165" s="11"/>
       <c r="CS165" s="11"/>
@@ -31461,7 +31655,9 @@
       <c r="CO166" s="26">
         <v>7.6541432964881455</v>
       </c>
-      <c r="CP166" s="11"/>
+      <c r="CP166" s="26">
+        <v>9.5954535596183916</v>
+      </c>
       <c r="CQ166" s="11"/>
       <c r="CR166" s="11"/>
       <c r="CS166" s="11"/>
@@ -31802,7 +31998,9 @@
       <c r="CO167" s="26">
         <v>14.105477312964235</v>
       </c>
-      <c r="CP167" s="11"/>
+      <c r="CP167" s="26">
+        <v>14.121842024090418</v>
+      </c>
       <c r="CQ167" s="11"/>
       <c r="CR167" s="11"/>
       <c r="CS167" s="11"/>
@@ -32297,7 +32495,9 @@
       <c r="CO169" s="26">
         <v>100</v>
       </c>
-      <c r="CP169" s="11"/>
+      <c r="CP169" s="26">
+        <v>100</v>
+      </c>
       <c r="CQ169" s="11"/>
       <c r="CR169" s="11"/>
       <c r="CS169" s="11"/>
@@ -32452,6 +32652,7 @@
       <c r="CM170" s="16"/>
       <c r="CN170" s="16"/>
       <c r="CO170" s="16"/>
+      <c r="CP170" s="16"/>
     </row>
     <row r="171" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A171" s="18" t="s">
@@ -32778,7 +32979,7 @@
     </row>
     <row r="176" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="178" spans="1:153" x14ac:dyDescent="0.2">
@@ -32788,7 +32989,7 @@
     </row>
     <row r="179" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="180" spans="1:153" x14ac:dyDescent="0.2">
@@ -32798,144 +32999,147 @@
     </row>
     <row r="182" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A182" s="4"/>
-      <c r="B182" s="30">
+      <c r="B182" s="35">
         <v>2000</v>
       </c>
-      <c r="C182" s="30"/>
-      <c r="D182" s="30"/>
-      <c r="E182" s="30"/>
-      <c r="F182" s="30">
+      <c r="C182" s="35"/>
+      <c r="D182" s="35"/>
+      <c r="E182" s="35"/>
+      <c r="F182" s="35">
         <v>2001</v>
       </c>
-      <c r="G182" s="30"/>
-      <c r="H182" s="30"/>
-      <c r="I182" s="30"/>
-      <c r="J182" s="30">
+      <c r="G182" s="35"/>
+      <c r="H182" s="35"/>
+      <c r="I182" s="35"/>
+      <c r="J182" s="35">
         <v>2002</v>
       </c>
-      <c r="K182" s="30"/>
-      <c r="L182" s="30"/>
-      <c r="M182" s="30"/>
-      <c r="N182" s="30">
+      <c r="K182" s="35"/>
+      <c r="L182" s="35"/>
+      <c r="M182" s="35"/>
+      <c r="N182" s="35">
         <v>2003</v>
       </c>
-      <c r="O182" s="30"/>
-      <c r="P182" s="30"/>
-      <c r="Q182" s="30"/>
-      <c r="R182" s="30">
+      <c r="O182" s="35"/>
+      <c r="P182" s="35"/>
+      <c r="Q182" s="35"/>
+      <c r="R182" s="35">
         <v>2004</v>
       </c>
-      <c r="S182" s="30"/>
-      <c r="T182" s="30"/>
-      <c r="U182" s="30"/>
-      <c r="V182" s="30">
+      <c r="S182" s="35"/>
+      <c r="T182" s="35"/>
+      <c r="U182" s="35"/>
+      <c r="V182" s="35">
         <v>2005</v>
       </c>
-      <c r="W182" s="30"/>
-      <c r="X182" s="30"/>
-      <c r="Y182" s="30"/>
-      <c r="Z182" s="30">
+      <c r="W182" s="35"/>
+      <c r="X182" s="35"/>
+      <c r="Y182" s="35"/>
+      <c r="Z182" s="35">
         <v>2006</v>
       </c>
-      <c r="AA182" s="30"/>
-      <c r="AB182" s="30"/>
-      <c r="AC182" s="30"/>
-      <c r="AD182" s="30">
+      <c r="AA182" s="35"/>
+      <c r="AB182" s="35"/>
+      <c r="AC182" s="35"/>
+      <c r="AD182" s="35">
         <v>2007</v>
       </c>
-      <c r="AE182" s="30"/>
-      <c r="AF182" s="30"/>
-      <c r="AG182" s="30"/>
-      <c r="AH182" s="30">
+      <c r="AE182" s="35"/>
+      <c r="AF182" s="35"/>
+      <c r="AG182" s="35"/>
+      <c r="AH182" s="35">
         <v>2008</v>
       </c>
-      <c r="AI182" s="30"/>
-      <c r="AJ182" s="30"/>
-      <c r="AK182" s="30"/>
-      <c r="AL182" s="30">
+      <c r="AI182" s="35"/>
+      <c r="AJ182" s="35"/>
+      <c r="AK182" s="35"/>
+      <c r="AL182" s="35">
         <v>2009</v>
       </c>
-      <c r="AM182" s="30"/>
-      <c r="AN182" s="30"/>
-      <c r="AO182" s="30"/>
-      <c r="AP182" s="30">
+      <c r="AM182" s="35"/>
+      <c r="AN182" s="35"/>
+      <c r="AO182" s="35"/>
+      <c r="AP182" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ182" s="30"/>
-      <c r="AR182" s="30"/>
-      <c r="AS182" s="30"/>
-      <c r="AT182" s="30">
+      <c r="AQ182" s="35"/>
+      <c r="AR182" s="35"/>
+      <c r="AS182" s="35"/>
+      <c r="AT182" s="35">
         <v>2011</v>
       </c>
-      <c r="AU182" s="30"/>
-      <c r="AV182" s="30"/>
-      <c r="AW182" s="30"/>
-      <c r="AX182" s="30">
+      <c r="AU182" s="35"/>
+      <c r="AV182" s="35"/>
+      <c r="AW182" s="35"/>
+      <c r="AX182" s="35">
         <v>2012</v>
       </c>
-      <c r="AY182" s="30"/>
-      <c r="AZ182" s="30"/>
-      <c r="BA182" s="30"/>
-      <c r="BB182" s="30">
+      <c r="AY182" s="35"/>
+      <c r="AZ182" s="35"/>
+      <c r="BA182" s="35"/>
+      <c r="BB182" s="35">
         <v>2013</v>
       </c>
-      <c r="BC182" s="30"/>
-      <c r="BD182" s="30"/>
-      <c r="BE182" s="30"/>
-      <c r="BF182" s="30">
+      <c r="BC182" s="35"/>
+      <c r="BD182" s="35"/>
+      <c r="BE182" s="35"/>
+      <c r="BF182" s="35">
         <v>2014</v>
       </c>
-      <c r="BG182" s="30"/>
-      <c r="BH182" s="30"/>
-      <c r="BI182" s="30"/>
-      <c r="BJ182" s="30">
+      <c r="BG182" s="35"/>
+      <c r="BH182" s="35"/>
+      <c r="BI182" s="35"/>
+      <c r="BJ182" s="35">
         <v>2015</v>
       </c>
-      <c r="BK182" s="30"/>
-      <c r="BL182" s="30"/>
-      <c r="BM182" s="30"/>
-      <c r="BN182" s="30">
+      <c r="BK182" s="35"/>
+      <c r="BL182" s="35"/>
+      <c r="BM182" s="35"/>
+      <c r="BN182" s="35">
         <v>2016</v>
       </c>
-      <c r="BO182" s="30"/>
-      <c r="BP182" s="30"/>
-      <c r="BQ182" s="30"/>
-      <c r="BR182" s="31">
+      <c r="BO182" s="35"/>
+      <c r="BP182" s="35"/>
+      <c r="BQ182" s="35"/>
+      <c r="BR182" s="34">
         <v>2017</v>
       </c>
-      <c r="BS182" s="31"/>
-      <c r="BT182" s="31"/>
-      <c r="BU182" s="31"/>
-      <c r="BV182" s="31">
+      <c r="BS182" s="34"/>
+      <c r="BT182" s="34"/>
+      <c r="BU182" s="34"/>
+      <c r="BV182" s="34">
         <v>2018</v>
       </c>
-      <c r="BW182" s="31"/>
-      <c r="BX182" s="31"/>
-      <c r="BY182" s="31"/>
-      <c r="BZ182" s="31">
+      <c r="BW182" s="34"/>
+      <c r="BX182" s="34"/>
+      <c r="BY182" s="34"/>
+      <c r="BZ182" s="34">
         <v>2019</v>
       </c>
-      <c r="CA182" s="31"/>
-      <c r="CB182" s="31"/>
-      <c r="CC182" s="31"/>
-      <c r="CD182" s="31">
+      <c r="CA182" s="34"/>
+      <c r="CB182" s="34"/>
+      <c r="CC182" s="34"/>
+      <c r="CD182" s="34">
         <v>2020</v>
       </c>
-      <c r="CE182" s="31"/>
-      <c r="CF182" s="31"/>
-      <c r="CG182" s="31"/>
-      <c r="CH182" s="31">
+      <c r="CE182" s="34"/>
+      <c r="CF182" s="34"/>
+      <c r="CG182" s="34"/>
+      <c r="CH182" s="34">
         <v>2021</v>
       </c>
-      <c r="CI182" s="31"/>
-      <c r="CJ182" s="31"/>
-      <c r="CK182" s="31"/>
-      <c r="CL182" s="31">
+      <c r="CI182" s="34"/>
+      <c r="CJ182" s="34"/>
+      <c r="CK182" s="34"/>
+      <c r="CL182" s="34">
         <v>2022</v>
       </c>
-      <c r="CM182" s="31"/>
-      <c r="CN182" s="31"/>
-      <c r="CO182" s="31"/>
+      <c r="CM182" s="34"/>
+      <c r="CN182" s="34"/>
+      <c r="CO182" s="34"/>
+      <c r="CP182" s="30">
+        <v>2023</v>
+      </c>
     </row>
     <row r="183" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
@@ -33216,6 +33420,9 @@
       </c>
       <c r="CO183" s="7" t="s">
         <v>22</v>
+      </c>
+      <c r="CP183" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="184" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -33501,7 +33708,9 @@
       <c r="CO185" s="26">
         <v>38.476312795146747</v>
       </c>
-      <c r="CP185" s="11"/>
+      <c r="CP185" s="26">
+        <v>34.288987994663479</v>
+      </c>
       <c r="CQ185" s="11"/>
       <c r="CR185" s="11"/>
       <c r="CS185" s="11"/>
@@ -33842,7 +34051,9 @@
       <c r="CO186" s="26">
         <v>1.6490181956184811</v>
       </c>
-      <c r="CP186" s="11"/>
+      <c r="CP186" s="26">
+        <v>1.3738270224762841</v>
+      </c>
       <c r="CQ186" s="11"/>
       <c r="CR186" s="11"/>
       <c r="CS186" s="11"/>
@@ -34183,7 +34394,9 @@
       <c r="CO187" s="26">
         <v>1.9172808085196866</v>
       </c>
-      <c r="CP187" s="11"/>
+      <c r="CP187" s="26">
+        <v>1.4238721199396078</v>
+      </c>
       <c r="CQ187" s="11"/>
       <c r="CR187" s="11"/>
       <c r="CS187" s="11"/>
@@ -34524,7 +34737,9 @@
       <c r="CO188" s="26">
         <v>11.048325223907147</v>
       </c>
-      <c r="CP188" s="11"/>
+      <c r="CP188" s="26">
+        <v>11.953063082414705</v>
+      </c>
       <c r="CQ188" s="11"/>
       <c r="CR188" s="11"/>
       <c r="CS188" s="11"/>
@@ -34865,7 +35080,9 @@
       <c r="CO189" s="26">
         <v>2.802373208131514</v>
       </c>
-      <c r="CP189" s="11"/>
+      <c r="CP189" s="26">
+        <v>2.516999910447236</v>
+      </c>
       <c r="CQ189" s="11"/>
       <c r="CR189" s="11"/>
       <c r="CS189" s="11"/>
@@ -35206,7 +35423,9 @@
       <c r="CO190" s="26">
         <v>4.0650234125140683</v>
       </c>
-      <c r="CP190" s="11"/>
+      <c r="CP190" s="26">
+        <v>4.40114334598585</v>
+      </c>
       <c r="CQ190" s="11"/>
       <c r="CR190" s="11"/>
       <c r="CS190" s="11"/>
@@ -35547,7 +35766,9 @@
       <c r="CO191" s="26">
         <v>7.0833636123509072</v>
       </c>
-      <c r="CP191" s="11"/>
+      <c r="CP191" s="26">
+        <v>9.6811251066827708</v>
+      </c>
       <c r="CQ191" s="11"/>
       <c r="CR191" s="11"/>
       <c r="CS191" s="11"/>
@@ -35888,7 +36109,9 @@
       <c r="CO192" s="26">
         <v>3.0947443667314065</v>
       </c>
-      <c r="CP192" s="11"/>
+      <c r="CP192" s="26">
+        <v>3.2747743711608526</v>
+      </c>
       <c r="CQ192" s="11"/>
       <c r="CR192" s="11"/>
       <c r="CS192" s="11"/>
@@ -36229,7 +36452,9 @@
       <c r="CO193" s="26">
         <v>1.879917694815243</v>
       </c>
-      <c r="CP193" s="11"/>
+      <c r="CP193" s="26">
+        <v>1.8736997983275285</v>
+      </c>
       <c r="CQ193" s="11"/>
       <c r="CR193" s="11"/>
       <c r="CS193" s="11"/>
@@ -36570,7 +36795,9 @@
       <c r="CO194" s="26">
         <v>5.1272646206983881</v>
       </c>
-      <c r="CP194" s="11"/>
+      <c r="CP194" s="26">
+        <v>5.6797402199041747</v>
+      </c>
       <c r="CQ194" s="11"/>
       <c r="CR194" s="11"/>
       <c r="CS194" s="11"/>
@@ -36911,7 +37138,9 @@
       <c r="CO195" s="26">
         <v>7.6340247187200703</v>
       </c>
-      <c r="CP195" s="11"/>
+      <c r="CP195" s="26">
+        <v>9.4992149974668294</v>
+      </c>
       <c r="CQ195" s="11"/>
       <c r="CR195" s="11"/>
       <c r="CS195" s="11"/>
@@ -37252,7 +37481,9 @@
       <c r="CO196" s="26">
         <v>15.222351342846343</v>
       </c>
-      <c r="CP196" s="11"/>
+      <c r="CP196" s="26">
+        <v>14.033552030530682</v>
+      </c>
       <c r="CQ196" s="11"/>
       <c r="CR196" s="11"/>
       <c r="CS196" s="11"/>
@@ -37747,7 +37978,9 @@
       <c r="CO198" s="26">
         <v>100</v>
       </c>
-      <c r="CP198" s="11"/>
+      <c r="CP198" s="26">
+        <v>100</v>
+      </c>
       <c r="CQ198" s="11"/>
       <c r="CR198" s="11"/>
       <c r="CS198" s="11"/>
@@ -37902,6 +38135,7 @@
       <c r="CM199" s="16"/>
       <c r="CN199" s="16"/>
       <c r="CO199" s="16"/>
+      <c r="CP199" s="16"/>
     </row>
     <row r="200" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A200" s="18" t="s">
@@ -38002,7 +38236,7 @@
       <c r="CM201" s="1"/>
       <c r="CN201" s="1"/>
       <c r="CO201" s="1"/>
-      <c r="CP201" s="28"/>
+      <c r="CP201" s="1"/>
       <c r="CQ201" s="28"/>
       <c r="CR201" s="28"/>
       <c r="CS201" s="28"/>
@@ -38157,7 +38391,7 @@
       <c r="CM202" s="1"/>
       <c r="CN202" s="1"/>
       <c r="CO202" s="1"/>
-      <c r="CP202" s="28"/>
+      <c r="CP202" s="1"/>
       <c r="CQ202" s="28"/>
       <c r="CR202" s="28"/>
       <c r="CS202" s="28"/>
@@ -38219,7 +38453,7 @@
       <c r="EW202" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="161">
+  <mergeCells count="159">
     <mergeCell ref="CL182:CO182"/>
     <mergeCell ref="B182:E182"/>
     <mergeCell ref="F182:I182"/>
@@ -38230,6 +38464,12 @@
     <mergeCell ref="Z182:AC182"/>
     <mergeCell ref="AD182:AG182"/>
     <mergeCell ref="AH182:AK182"/>
+    <mergeCell ref="AP182:AS182"/>
+    <mergeCell ref="AT182:AW182"/>
+    <mergeCell ref="BF182:BI182"/>
+    <mergeCell ref="BJ182:BM182"/>
+    <mergeCell ref="CH182:CK182"/>
+    <mergeCell ref="CD182:CG182"/>
     <mergeCell ref="V153:Y153"/>
     <mergeCell ref="Z153:AC153"/>
     <mergeCell ref="AD153:AG153"/>
@@ -38254,6 +38494,13 @@
     <mergeCell ref="J153:M153"/>
     <mergeCell ref="N153:Q153"/>
     <mergeCell ref="R153:U153"/>
+    <mergeCell ref="BN67:BQ67"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="N38:Q38"/>
+    <mergeCell ref="R38:U38"/>
+    <mergeCell ref="V38:Y38"/>
     <mergeCell ref="AH96:AK96"/>
     <mergeCell ref="B67:E67"/>
     <mergeCell ref="F67:I67"/>
@@ -38264,17 +38511,6 @@
     <mergeCell ref="Z67:AC67"/>
     <mergeCell ref="AD67:AG67"/>
     <mergeCell ref="AH67:AK67"/>
-    <mergeCell ref="AX67:BA67"/>
-    <mergeCell ref="BB67:BE67"/>
-    <mergeCell ref="BF67:BI67"/>
-    <mergeCell ref="BJ67:BM67"/>
-    <mergeCell ref="BN67:BQ67"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="R38:U38"/>
-    <mergeCell ref="V38:Y38"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="J9:M9"/>
@@ -38285,9 +38521,6 @@
     <mergeCell ref="AL67:AO67"/>
     <mergeCell ref="AP67:AS67"/>
     <mergeCell ref="AT67:AW67"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BF9:BI9"/>
     <mergeCell ref="Z38:AC38"/>
     <mergeCell ref="AD38:AG38"/>
     <mergeCell ref="AH38:AK38"/>
@@ -38300,11 +38533,6 @@
     <mergeCell ref="AX38:BA38"/>
     <mergeCell ref="AH9:AK9"/>
     <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AP182:AS182"/>
-    <mergeCell ref="AT182:AW182"/>
-    <mergeCell ref="BF124:BI124"/>
-    <mergeCell ref="BJ124:BM124"/>
-    <mergeCell ref="BN124:BQ124"/>
     <mergeCell ref="BJ9:BM9"/>
     <mergeCell ref="BN9:BQ9"/>
     <mergeCell ref="AL153:AO153"/>
@@ -38313,8 +38541,6 @@
     <mergeCell ref="AT124:AW124"/>
     <mergeCell ref="AX124:BA124"/>
     <mergeCell ref="BB124:BE124"/>
-    <mergeCell ref="BF182:BI182"/>
-    <mergeCell ref="BJ182:BM182"/>
     <mergeCell ref="BN38:BQ38"/>
     <mergeCell ref="BN96:BQ96"/>
     <mergeCell ref="AL96:AO96"/>
@@ -38324,6 +38550,13 @@
     <mergeCell ref="BB96:BE96"/>
     <mergeCell ref="BF96:BI96"/>
     <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="AX67:BA67"/>
+    <mergeCell ref="BB67:BE67"/>
+    <mergeCell ref="BF67:BI67"/>
+    <mergeCell ref="BJ67:BM67"/>
     <mergeCell ref="BV38:BY38"/>
     <mergeCell ref="BZ67:CC67"/>
     <mergeCell ref="BZ96:CC96"/>
@@ -38345,7 +38578,9 @@
     <mergeCell ref="CD96:CG96"/>
     <mergeCell ref="BJ38:BM38"/>
     <mergeCell ref="BR38:BU38"/>
-    <mergeCell ref="CH182:CK182"/>
+    <mergeCell ref="BF124:BI124"/>
+    <mergeCell ref="BJ124:BM124"/>
+    <mergeCell ref="BN124:BQ124"/>
     <mergeCell ref="AH124:AK124"/>
     <mergeCell ref="BR182:BU182"/>
     <mergeCell ref="BV182:BY182"/>
@@ -38367,7 +38602,6 @@
     <mergeCell ref="AX182:BA182"/>
     <mergeCell ref="BB182:BE182"/>
     <mergeCell ref="BZ182:CC182"/>
-    <mergeCell ref="CD182:CG182"/>
     <mergeCell ref="AL182:AO182"/>
     <mergeCell ref="CH9:CK9"/>
     <mergeCell ref="CH38:CK38"/>
@@ -38379,16 +38613,14 @@
     <mergeCell ref="CH124:CK124"/>
     <mergeCell ref="CH153:CK153"/>
     <mergeCell ref="CL153:CO153"/>
-    <mergeCell ref="CL67:CO67"/>
-    <mergeCell ref="CL96:CO96"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="44" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="58" max="92" man="1"/>
-    <brk id="116" max="92" man="1"/>
-    <brk id="144" max="92" man="1"/>
+    <brk id="58" max="93" man="1"/>
+    <brk id="116" max="93" man="1"/>
+    <brk id="144" max="93" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-02HFCE_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-02HFCE_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B859DD5E-24AD-4784-9ACF-E38A8CF73368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8535EF9B-B114-443D-A2D2-CF5D8FA4E22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="390" windowWidth="28770" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HFCE" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="PCE_Per_Anl">#REF!</definedName>
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HFCE!$A$1:$CP$202</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HFCE!$A$1:$CQ$202</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="62">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -223,13 +223,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of May 2023</t>
+    <t>As of August 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2023</t>
+    <t>Q1 2000 to Q2 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2023</t>
+    <t>Q1 2001 to Q2 2023</t>
   </si>
 </sst>
 </file>
@@ -359,16 +359,16 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -707,8 +707,8 @@
   </sheetPr>
   <dimension ref="A1:EW202"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BX158" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="CD2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="CA66" sqref="CA66"/>
       <selection pane="topRight" activeCell="CA66" sqref="CA66"/>
       <selection pane="bottomLeft" activeCell="CA66" sqref="CA66"/>
@@ -734,8 +734,8 @@
     <col min="74" max="74" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="75" max="77" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="94" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="95" max="16384" width="7.77734375" style="1"/>
+    <col min="79" max="95" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="96" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:153" x14ac:dyDescent="0.2">
@@ -770,108 +770,108 @@
     </row>
     <row r="9" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="35">
+      <c r="B9" s="33">
         <v>2000</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35">
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33">
         <v>2001</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35">
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33">
         <v>2002</v>
       </c>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35">
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33">
         <v>2003</v>
       </c>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35">
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33">
         <v>2004</v>
       </c>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35">
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33">
         <v>2005</v>
       </c>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35">
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33">
         <v>2006</v>
       </c>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="35"/>
-      <c r="AC9" s="35"/>
-      <c r="AD9" s="35">
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="33">
         <v>2007</v>
       </c>
-      <c r="AE9" s="35"/>
-      <c r="AF9" s="35"/>
-      <c r="AG9" s="35"/>
-      <c r="AH9" s="35">
+      <c r="AE9" s="33"/>
+      <c r="AF9" s="33"/>
+      <c r="AG9" s="33"/>
+      <c r="AH9" s="33">
         <v>2008</v>
       </c>
-      <c r="AI9" s="35"/>
-      <c r="AJ9" s="35"/>
-      <c r="AK9" s="35"/>
-      <c r="AL9" s="35">
+      <c r="AI9" s="33"/>
+      <c r="AJ9" s="33"/>
+      <c r="AK9" s="33"/>
+      <c r="AL9" s="33">
         <v>2009</v>
       </c>
-      <c r="AM9" s="35"/>
-      <c r="AN9" s="35"/>
-      <c r="AO9" s="35"/>
-      <c r="AP9" s="35">
+      <c r="AM9" s="33"/>
+      <c r="AN9" s="33"/>
+      <c r="AO9" s="33"/>
+      <c r="AP9" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="35"/>
-      <c r="AR9" s="35"/>
-      <c r="AS9" s="35"/>
-      <c r="AT9" s="35">
+      <c r="AQ9" s="33"/>
+      <c r="AR9" s="33"/>
+      <c r="AS9" s="33"/>
+      <c r="AT9" s="33">
         <v>2011</v>
       </c>
-      <c r="AU9" s="35"/>
-      <c r="AV9" s="35"/>
-      <c r="AW9" s="35"/>
-      <c r="AX9" s="35">
+      <c r="AU9" s="33"/>
+      <c r="AV9" s="33"/>
+      <c r="AW9" s="33"/>
+      <c r="AX9" s="33">
         <v>2012</v>
       </c>
-      <c r="AY9" s="35"/>
-      <c r="AZ9" s="35"/>
-      <c r="BA9" s="35"/>
-      <c r="BB9" s="35">
+      <c r="AY9" s="33"/>
+      <c r="AZ9" s="33"/>
+      <c r="BA9" s="33"/>
+      <c r="BB9" s="33">
         <v>2013</v>
       </c>
-      <c r="BC9" s="35"/>
-      <c r="BD9" s="35"/>
-      <c r="BE9" s="35"/>
-      <c r="BF9" s="35">
+      <c r="BC9" s="33"/>
+      <c r="BD9" s="33"/>
+      <c r="BE9" s="33"/>
+      <c r="BF9" s="33">
         <v>2014</v>
       </c>
-      <c r="BG9" s="35"/>
-      <c r="BH9" s="35"/>
-      <c r="BI9" s="35"/>
-      <c r="BJ9" s="35">
+      <c r="BG9" s="33"/>
+      <c r="BH9" s="33"/>
+      <c r="BI9" s="33"/>
+      <c r="BJ9" s="33">
         <v>2015</v>
       </c>
-      <c r="BK9" s="35"/>
-      <c r="BL9" s="35"/>
-      <c r="BM9" s="35"/>
-      <c r="BN9" s="35">
+      <c r="BK9" s="33"/>
+      <c r="BL9" s="33"/>
+      <c r="BM9" s="33"/>
+      <c r="BN9" s="33">
         <v>2016</v>
       </c>
-      <c r="BO9" s="35"/>
-      <c r="BP9" s="35"/>
-      <c r="BQ9" s="35"/>
+      <c r="BO9" s="33"/>
+      <c r="BP9" s="33"/>
+      <c r="BQ9" s="33"/>
       <c r="BR9" s="34">
         <v>2017</v>
       </c>
@@ -908,9 +908,10 @@
       <c r="CM9" s="34"/>
       <c r="CN9" s="34"/>
       <c r="CO9" s="34"/>
-      <c r="CP9" s="30">
+      <c r="CP9" s="34">
         <v>2023</v>
       </c>
+      <c r="CQ9" s="35"/>
     </row>
     <row r="10" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -1194,6 +1195,9 @@
       </c>
       <c r="CP10" s="7" t="s">
         <v>19</v>
+      </c>
+      <c r="CQ10" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1480,9 +1484,11 @@
         <v>1931500.2484176089</v>
       </c>
       <c r="CP12" s="10">
-        <v>1536961.5454871436</v>
-      </c>
-      <c r="CQ12" s="11"/>
+        <v>1534902.7290848328</v>
+      </c>
+      <c r="CQ12" s="10">
+        <v>1686600.4695069194</v>
+      </c>
       <c r="CR12" s="11"/>
       <c r="CS12" s="11"/>
       <c r="CT12" s="11"/>
@@ -1823,9 +1829,11 @@
         <v>109227.64524527798</v>
       </c>
       <c r="CP13" s="10">
-        <v>79054.108896076417</v>
-      </c>
-      <c r="CQ13" s="11"/>
+        <v>78577.262359796136</v>
+      </c>
+      <c r="CQ13" s="10">
+        <v>76717.762177284254</v>
+      </c>
       <c r="CR13" s="11"/>
       <c r="CS13" s="11"/>
       <c r="CT13" s="11"/>
@@ -2166,9 +2174,11 @@
         <v>86797.581272444193</v>
       </c>
       <c r="CP14" s="10">
-        <v>58248.544076025151</v>
-      </c>
-      <c r="CQ14" s="11"/>
+        <v>59142.699532093626</v>
+      </c>
+      <c r="CQ14" s="10">
+        <v>49734.51545580048</v>
+      </c>
       <c r="CR14" s="11"/>
       <c r="CS14" s="11"/>
       <c r="CT14" s="11"/>
@@ -2509,9 +2519,11 @@
         <v>542954.16776765871</v>
       </c>
       <c r="CP15" s="10">
-        <v>498433.61856295553</v>
-      </c>
-      <c r="CQ15" s="11"/>
+        <v>499104.71244148072</v>
+      </c>
+      <c r="CQ15" s="10">
+        <v>648697.61821689364</v>
+      </c>
       <c r="CR15" s="11"/>
       <c r="CS15" s="11"/>
       <c r="CT15" s="11"/>
@@ -2852,9 +2864,11 @@
         <v>131512.8002420741</v>
       </c>
       <c r="CP16" s="10">
-        <v>110059.36652862828</v>
-      </c>
-      <c r="CQ16" s="11"/>
+        <v>110439.07435267864</v>
+      </c>
+      <c r="CQ16" s="10">
+        <v>105970.07916830956</v>
+      </c>
       <c r="CR16" s="11"/>
       <c r="CS16" s="11"/>
       <c r="CT16" s="11"/>
@@ -3195,9 +3209,11 @@
         <v>195015.04490842862</v>
       </c>
       <c r="CP17" s="10">
-        <v>183078.28945161527</v>
-      </c>
-      <c r="CQ17" s="11"/>
+        <v>184071.27892650483</v>
+      </c>
+      <c r="CQ17" s="10">
+        <v>156483.14364244594</v>
+      </c>
       <c r="CR17" s="11"/>
       <c r="CS17" s="11"/>
       <c r="CT17" s="11"/>
@@ -3538,9 +3554,11 @@
         <v>375843.52030543314</v>
       </c>
       <c r="CP18" s="10">
-        <v>473196.04520302895</v>
-      </c>
-      <c r="CQ18" s="11"/>
+        <v>472851.25966836378</v>
+      </c>
+      <c r="CQ18" s="10">
+        <v>384048.71192407014</v>
+      </c>
       <c r="CR18" s="11"/>
       <c r="CS18" s="11"/>
       <c r="CT18" s="11"/>
@@ -3881,9 +3899,11 @@
         <v>126963.0439176754</v>
       </c>
       <c r="CP19" s="10">
-        <v>127762.99898698949</v>
-      </c>
-      <c r="CQ19" s="11"/>
+        <v>128102.85613251821</v>
+      </c>
+      <c r="CQ19" s="10">
+        <v>134586.0823199171</v>
+      </c>
       <c r="CR19" s="11"/>
       <c r="CS19" s="11"/>
       <c r="CT19" s="11"/>
@@ -4224,9 +4244,11 @@
         <v>84734.360573593935</v>
       </c>
       <c r="CP20" s="10">
-        <v>75412.844071492102</v>
-      </c>
-      <c r="CQ20" s="11"/>
+        <v>76403.305244792777</v>
+      </c>
+      <c r="CQ20" s="10">
+        <v>53071.762457292527</v>
+      </c>
       <c r="CR20" s="11"/>
       <c r="CS20" s="11"/>
       <c r="CT20" s="11"/>
@@ -4567,9 +4589,11 @@
         <v>220643.41206795338</v>
       </c>
       <c r="CP21" s="10">
-        <v>226734.34972381941</v>
-      </c>
-      <c r="CQ21" s="11"/>
+        <v>227528.12153380137</v>
+      </c>
+      <c r="CQ21" s="10">
+        <v>207245.97407203735</v>
+      </c>
       <c r="CR21" s="11"/>
       <c r="CS21" s="11"/>
       <c r="CT21" s="11"/>
@@ -4910,9 +4934,11 @@
         <v>372256.41956097959</v>
       </c>
       <c r="CP22" s="10">
-        <v>423772.64912412758</v>
-      </c>
-      <c r="CQ22" s="11"/>
+        <v>424434.51070063253</v>
+      </c>
+      <c r="CQ22" s="10">
+        <v>243802.91132714995</v>
+      </c>
       <c r="CR22" s="11"/>
       <c r="CS22" s="11"/>
       <c r="CT22" s="11"/>
@@ -5253,9 +5279,11 @@
         <v>686014.65602713195</v>
       </c>
       <c r="CP23" s="10">
-        <v>623675.61552757153</v>
-      </c>
-      <c r="CQ23" s="11"/>
+        <v>623919.99372991757</v>
+      </c>
+      <c r="CQ23" s="10">
+        <v>579210.37901549623</v>
+      </c>
       <c r="CR23" s="11"/>
       <c r="CS23" s="11"/>
       <c r="CT23" s="11"/>
@@ -5713,46 +5741,48 @@
       <c r="CC25" s="15">
         <v>3985148.1660785396</v>
       </c>
-      <c r="CD25" s="31">
+      <c r="CD25" s="30">
         <v>3422615.4261275791</v>
       </c>
-      <c r="CE25" s="31">
+      <c r="CE25" s="30">
         <v>3042127.6382782664</v>
       </c>
-      <c r="CF25" s="31">
+      <c r="CF25" s="30">
         <v>3210324.7745829187</v>
       </c>
-      <c r="CG25" s="31">
+      <c r="CG25" s="30">
         <v>3801007.5529332561</v>
       </c>
-      <c r="CH25" s="31">
+      <c r="CH25" s="30">
         <v>3397749.5102690379</v>
       </c>
-      <c r="CI25" s="31">
+      <c r="CI25" s="30">
         <v>3395239.9625219679</v>
       </c>
-      <c r="CJ25" s="31">
+      <c r="CJ25" s="30">
         <v>3583126.8104622592</v>
       </c>
-      <c r="CK25" s="31">
+      <c r="CK25" s="30">
         <v>4232430.2197240982</v>
       </c>
-      <c r="CL25" s="31">
+      <c r="CL25" s="30">
         <v>3852962.0714052701</v>
       </c>
-      <c r="CM25" s="31">
+      <c r="CM25" s="30">
         <v>3877423.6981095998</v>
       </c>
-      <c r="CN25" s="31">
+      <c r="CN25" s="30">
         <v>4130910.5601173565</v>
       </c>
-      <c r="CO25" s="31">
+      <c r="CO25" s="30">
         <v>4863462.9003062602</v>
       </c>
-      <c r="CP25" s="31">
-        <v>4416389.9756394727</v>
-      </c>
-      <c r="CQ25" s="11"/>
+      <c r="CP25" s="30">
+        <v>4419477.8037074124</v>
+      </c>
+      <c r="CQ25" s="30">
+        <v>4326169.4092836166</v>
+      </c>
       <c r="CR25" s="11"/>
       <c r="CS25" s="11"/>
       <c r="CT25" s="11"/>
@@ -5907,6 +5937,7 @@
       <c r="CN26" s="16"/>
       <c r="CO26" s="16"/>
       <c r="CP26" s="16"/>
+      <c r="CQ26" s="16"/>
     </row>
     <row r="27" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
@@ -5994,20 +6025,20 @@
       <c r="CA28" s="21"/>
       <c r="CB28" s="21"/>
       <c r="CC28" s="21"/>
-      <c r="CD28" s="32"/>
-      <c r="CE28" s="32"/>
-      <c r="CF28" s="32"/>
-      <c r="CG28" s="32"/>
-      <c r="CH28" s="32"/>
-      <c r="CI28" s="32"/>
-      <c r="CJ28" s="32"/>
-      <c r="CK28" s="32"/>
-      <c r="CL28" s="32"/>
-      <c r="CM28" s="32"/>
-      <c r="CN28" s="32"/>
-      <c r="CO28" s="32"/>
-      <c r="CP28" s="32"/>
-      <c r="CQ28" s="11"/>
+      <c r="CD28" s="31"/>
+      <c r="CE28" s="31"/>
+      <c r="CF28" s="31"/>
+      <c r="CG28" s="31"/>
+      <c r="CH28" s="31"/>
+      <c r="CI28" s="31"/>
+      <c r="CJ28" s="31"/>
+      <c r="CK28" s="31"/>
+      <c r="CL28" s="31"/>
+      <c r="CM28" s="31"/>
+      <c r="CN28" s="31"/>
+      <c r="CO28" s="31"/>
+      <c r="CP28" s="31"/>
+      <c r="CQ28" s="31"/>
       <c r="CR28" s="11"/>
       <c r="CS28" s="11"/>
       <c r="CT28" s="11"/>
@@ -6148,20 +6179,20 @@
       <c r="CA29" s="24"/>
       <c r="CB29" s="24"/>
       <c r="CC29" s="24"/>
-      <c r="CD29" s="33"/>
-      <c r="CE29" s="33"/>
-      <c r="CF29" s="33"/>
-      <c r="CG29" s="33"/>
-      <c r="CH29" s="33"/>
-      <c r="CI29" s="33"/>
-      <c r="CJ29" s="33"/>
-      <c r="CK29" s="33"/>
-      <c r="CL29" s="33"/>
-      <c r="CM29" s="33"/>
-      <c r="CN29" s="33"/>
-      <c r="CO29" s="33"/>
-      <c r="CP29" s="33"/>
-      <c r="CQ29" s="11"/>
+      <c r="CD29" s="32"/>
+      <c r="CE29" s="32"/>
+      <c r="CF29" s="32"/>
+      <c r="CG29" s="32"/>
+      <c r="CH29" s="32"/>
+      <c r="CI29" s="32"/>
+      <c r="CJ29" s="32"/>
+      <c r="CK29" s="32"/>
+      <c r="CL29" s="32"/>
+      <c r="CM29" s="32"/>
+      <c r="CN29" s="32"/>
+      <c r="CO29" s="32"/>
+      <c r="CP29" s="32"/>
+      <c r="CQ29" s="32"/>
       <c r="CR29" s="11"/>
       <c r="CS29" s="11"/>
       <c r="CT29" s="11"/>
@@ -6253,108 +6284,108 @@
     </row>
     <row r="38" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
-      <c r="B38" s="35">
+      <c r="B38" s="33">
         <v>2000</v>
       </c>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35">
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33">
         <v>2001</v>
       </c>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35">
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33">
         <v>2002</v>
       </c>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35">
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33">
         <v>2003</v>
       </c>
-      <c r="O38" s="35"/>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="35"/>
-      <c r="R38" s="35">
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="33">
         <v>2004</v>
       </c>
-      <c r="S38" s="35"/>
-      <c r="T38" s="35"/>
-      <c r="U38" s="35"/>
-      <c r="V38" s="35">
+      <c r="S38" s="33"/>
+      <c r="T38" s="33"/>
+      <c r="U38" s="33"/>
+      <c r="V38" s="33">
         <v>2005</v>
       </c>
-      <c r="W38" s="35"/>
-      <c r="X38" s="35"/>
-      <c r="Y38" s="35"/>
-      <c r="Z38" s="35">
+      <c r="W38" s="33"/>
+      <c r="X38" s="33"/>
+      <c r="Y38" s="33"/>
+      <c r="Z38" s="33">
         <v>2006</v>
       </c>
-      <c r="AA38" s="35"/>
-      <c r="AB38" s="35"/>
-      <c r="AC38" s="35"/>
-      <c r="AD38" s="35">
+      <c r="AA38" s="33"/>
+      <c r="AB38" s="33"/>
+      <c r="AC38" s="33"/>
+      <c r="AD38" s="33">
         <v>2007</v>
       </c>
-      <c r="AE38" s="35"/>
-      <c r="AF38" s="35"/>
-      <c r="AG38" s="35"/>
-      <c r="AH38" s="35">
+      <c r="AE38" s="33"/>
+      <c r="AF38" s="33"/>
+      <c r="AG38" s="33"/>
+      <c r="AH38" s="33">
         <v>2008</v>
       </c>
-      <c r="AI38" s="35"/>
-      <c r="AJ38" s="35"/>
-      <c r="AK38" s="35"/>
-      <c r="AL38" s="35">
+      <c r="AI38" s="33"/>
+      <c r="AJ38" s="33"/>
+      <c r="AK38" s="33"/>
+      <c r="AL38" s="33">
         <v>2009</v>
       </c>
-      <c r="AM38" s="35"/>
-      <c r="AN38" s="35"/>
-      <c r="AO38" s="35"/>
-      <c r="AP38" s="35">
+      <c r="AM38" s="33"/>
+      <c r="AN38" s="33"/>
+      <c r="AO38" s="33"/>
+      <c r="AP38" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ38" s="35"/>
-      <c r="AR38" s="35"/>
-      <c r="AS38" s="35"/>
-      <c r="AT38" s="35">
+      <c r="AQ38" s="33"/>
+      <c r="AR38" s="33"/>
+      <c r="AS38" s="33"/>
+      <c r="AT38" s="33">
         <v>2011</v>
       </c>
-      <c r="AU38" s="35"/>
-      <c r="AV38" s="35"/>
-      <c r="AW38" s="35"/>
-      <c r="AX38" s="35">
+      <c r="AU38" s="33"/>
+      <c r="AV38" s="33"/>
+      <c r="AW38" s="33"/>
+      <c r="AX38" s="33">
         <v>2012</v>
       </c>
-      <c r="AY38" s="35"/>
-      <c r="AZ38" s="35"/>
-      <c r="BA38" s="35"/>
-      <c r="BB38" s="35">
+      <c r="AY38" s="33"/>
+      <c r="AZ38" s="33"/>
+      <c r="BA38" s="33"/>
+      <c r="BB38" s="33">
         <v>2013</v>
       </c>
-      <c r="BC38" s="35"/>
-      <c r="BD38" s="35"/>
-      <c r="BE38" s="35"/>
-      <c r="BF38" s="35">
+      <c r="BC38" s="33"/>
+      <c r="BD38" s="33"/>
+      <c r="BE38" s="33"/>
+      <c r="BF38" s="33">
         <v>2014</v>
       </c>
-      <c r="BG38" s="35"/>
-      <c r="BH38" s="35"/>
-      <c r="BI38" s="35"/>
-      <c r="BJ38" s="35">
+      <c r="BG38" s="33"/>
+      <c r="BH38" s="33"/>
+      <c r="BI38" s="33"/>
+      <c r="BJ38" s="33">
         <v>2015</v>
       </c>
-      <c r="BK38" s="35"/>
-      <c r="BL38" s="35"/>
-      <c r="BM38" s="35"/>
-      <c r="BN38" s="35">
+      <c r="BK38" s="33"/>
+      <c r="BL38" s="33"/>
+      <c r="BM38" s="33"/>
+      <c r="BN38" s="33">
         <v>2016</v>
       </c>
-      <c r="BO38" s="35"/>
-      <c r="BP38" s="35"/>
-      <c r="BQ38" s="35"/>
+      <c r="BO38" s="33"/>
+      <c r="BP38" s="33"/>
+      <c r="BQ38" s="33"/>
       <c r="BR38" s="34">
         <v>2017</v>
       </c>
@@ -6391,9 +6422,10 @@
       <c r="CM38" s="34"/>
       <c r="CN38" s="34"/>
       <c r="CO38" s="34"/>
-      <c r="CP38" s="30">
+      <c r="CP38" s="34">
         <v>2023</v>
       </c>
+      <c r="CQ38" s="35"/>
     </row>
     <row r="39" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
@@ -6677,6 +6709,9 @@
       </c>
       <c r="CP39" s="7" t="s">
         <v>19</v>
+      </c>
+      <c r="CQ39" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -6963,9 +6998,11 @@
         <v>1614493.9242003553</v>
       </c>
       <c r="CP41" s="10">
-        <v>1265927.2769908078</v>
-      </c>
-      <c r="CQ41" s="11"/>
+        <v>1264231.5209391005</v>
+      </c>
+      <c r="CQ41" s="10">
+        <v>1363465.7767932732</v>
+      </c>
       <c r="CR41" s="11"/>
       <c r="CS41" s="11"/>
       <c r="CT41" s="11"/>
@@ -7306,9 +7343,11 @@
         <v>69193.996625832791</v>
       </c>
       <c r="CP42" s="10">
-        <v>50720.805813530118</v>
-      </c>
-      <c r="CQ42" s="11"/>
+        <v>50414.862948481554</v>
+      </c>
+      <c r="CQ42" s="10">
+        <v>44004.9556167056</v>
+      </c>
       <c r="CR42" s="11"/>
       <c r="CS42" s="11"/>
       <c r="CT42" s="11"/>
@@ -7649,9 +7688,11 @@
         <v>80450.489963046188</v>
       </c>
       <c r="CP43" s="10">
-        <v>52568.438469482084</v>
-      </c>
-      <c r="CQ43" s="11"/>
+        <v>53375.400374197467</v>
+      </c>
+      <c r="CQ43" s="10">
+        <v>40796.371071060545</v>
+      </c>
       <c r="CR43" s="11"/>
       <c r="CS43" s="11"/>
       <c r="CT43" s="11"/>
@@ -7992,9 +8033,11 @@
         <v>463595.72034765157</v>
       </c>
       <c r="CP44" s="10">
-        <v>441299.36415666755</v>
-      </c>
-      <c r="CQ44" s="11"/>
+        <v>441893.53214785649</v>
+      </c>
+      <c r="CQ44" s="10">
+        <v>553860.6279826106</v>
+      </c>
       <c r="CR44" s="11"/>
       <c r="CS44" s="11"/>
       <c r="CT44" s="11"/>
@@ -8335,9 +8378,11 @@
         <v>117589.60745430055</v>
       </c>
       <c r="CP45" s="10">
-        <v>92926.010044813185</v>
-      </c>
-      <c r="CQ45" s="11"/>
+        <v>93246.607320490031</v>
+      </c>
+      <c r="CQ45" s="10">
+        <v>89130.130115700318</v>
+      </c>
       <c r="CR45" s="11"/>
       <c r="CS45" s="11"/>
       <c r="CT45" s="11"/>
@@ -8678,9 +8723,11 @@
         <v>170571.3236135242</v>
       </c>
       <c r="CP46" s="10">
-        <v>162487.36802897765</v>
-      </c>
-      <c r="CQ46" s="11"/>
+        <v>163368.67540156987</v>
+      </c>
+      <c r="CQ46" s="10">
+        <v>137776.18394928213</v>
+      </c>
       <c r="CR46" s="11"/>
       <c r="CS46" s="11"/>
       <c r="CT46" s="11"/>
@@ -9021,9 +9068,11 @@
         <v>297223.06230146147</v>
       </c>
       <c r="CP47" s="10">
-        <v>357420.88236659684</v>
-      </c>
-      <c r="CQ47" s="11"/>
+        <v>357160.45426015649</v>
+      </c>
+      <c r="CQ47" s="10">
+        <v>308694.02552574786</v>
+      </c>
       <c r="CR47" s="11"/>
       <c r="CS47" s="11"/>
       <c r="CT47" s="11"/>
@@ -9364,9 +9413,11 @@
         <v>129857.71281263117</v>
       </c>
       <c r="CP48" s="10">
-        <v>120902.5534112626</v>
-      </c>
-      <c r="CQ48" s="11"/>
+        <v>121224.16136517162</v>
+      </c>
+      <c r="CQ48" s="10">
+        <v>130951.60152593734</v>
+      </c>
       <c r="CR48" s="11"/>
       <c r="CS48" s="11"/>
       <c r="CT48" s="11"/>
@@ -9707,9 +9758,11 @@
         <v>78882.706678140559</v>
       </c>
       <c r="CP49" s="10">
-        <v>69175.785647688186</v>
-      </c>
-      <c r="CQ49" s="11"/>
+        <v>70084.330215396738</v>
+      </c>
+      <c r="CQ49" s="10">
+        <v>49066.258476514893</v>
+      </c>
       <c r="CR49" s="11"/>
       <c r="CS49" s="11"/>
       <c r="CT49" s="11"/>
@@ -10050,9 +10103,11 @@
         <v>215143.7332874873</v>
       </c>
       <c r="CP50" s="10">
-        <v>209692.33830165802</v>
-      </c>
-      <c r="CQ50" s="11"/>
+        <v>210426.44791987777</v>
+      </c>
+      <c r="CQ50" s="10">
+        <v>187607.80648436726</v>
+      </c>
       <c r="CR50" s="11"/>
       <c r="CS50" s="11"/>
       <c r="CT50" s="11"/>
@@ -10393,9 +10448,11 @@
         <v>320329.20075240469</v>
       </c>
       <c r="CP51" s="10">
-        <v>350704.87869647751</v>
-      </c>
-      <c r="CQ51" s="11"/>
+        <v>351252.62070951628</v>
+      </c>
+      <c r="CQ51" s="10">
+        <v>207366.46693099246</v>
+      </c>
       <c r="CR51" s="11"/>
       <c r="CS51" s="11"/>
       <c r="CT51" s="11"/>
@@ -10736,9 +10793,11 @@
         <v>638740.87639105879</v>
       </c>
       <c r="CP52" s="10">
-        <v>518109.67157395935</v>
-      </c>
-      <c r="CQ52" s="11"/>
+        <v>518312.68529937207</v>
+      </c>
+      <c r="CQ52" s="10">
+        <v>471235.84364824608</v>
+      </c>
       <c r="CR52" s="11"/>
       <c r="CS52" s="11"/>
       <c r="CT52" s="11"/>
@@ -11196,46 +11255,48 @@
       <c r="CC54" s="15">
         <v>3935758.6177309696</v>
       </c>
-      <c r="CD54" s="31">
+      <c r="CD54" s="30">
         <v>3314612.1320124432</v>
       </c>
-      <c r="CE54" s="31">
+      <c r="CE54" s="30">
         <v>2917736.7328303363</v>
       </c>
-      <c r="CF54" s="31">
+      <c r="CF54" s="30">
         <v>3030086.4136792915</v>
       </c>
-      <c r="CG54" s="31">
+      <c r="CG54" s="30">
         <v>3648921.6749099772</v>
       </c>
-      <c r="CH54" s="31">
+      <c r="CH54" s="30">
         <v>3156809.3523885403</v>
       </c>
-      <c r="CI54" s="31">
+      <c r="CI54" s="30">
         <v>3130131.1633264814</v>
       </c>
-      <c r="CJ54" s="31">
+      <c r="CJ54" s="30">
         <v>3245552.8170434618</v>
       </c>
-      <c r="CK54" s="31">
+      <c r="CK54" s="30">
         <v>3922623.7313984605</v>
       </c>
-      <c r="CL54" s="31">
+      <c r="CL54" s="30">
         <v>3471756.5527950469</v>
       </c>
-      <c r="CM54" s="31">
+      <c r="CM54" s="30">
         <v>3396881.5167516316</v>
       </c>
-      <c r="CN54" s="31">
+      <c r="CN54" s="30">
         <v>3505506.6774791162</v>
       </c>
-      <c r="CO54" s="31">
+      <c r="CO54" s="30">
         <v>4196072.3544278946</v>
       </c>
-      <c r="CP54" s="31">
-        <v>3691935.3735019211</v>
-      </c>
-      <c r="CQ54" s="11"/>
+      <c r="CP54" s="30">
+        <v>3694991.2989011863</v>
+      </c>
+      <c r="CQ54" s="30">
+        <v>3583956.0481204381</v>
+      </c>
       <c r="CR54" s="11"/>
       <c r="CS54" s="11"/>
       <c r="CT54" s="11"/>
@@ -11390,6 +11451,7 @@
       <c r="CN55" s="16"/>
       <c r="CO55" s="16"/>
       <c r="CP55" s="16"/>
+      <c r="CQ55" s="16"/>
     </row>
     <row r="56" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A56" s="18" t="s">
@@ -11631,20 +11693,20 @@
       <c r="CA58" s="24"/>
       <c r="CB58" s="24"/>
       <c r="CC58" s="24"/>
-      <c r="CD58" s="33"/>
-      <c r="CE58" s="33"/>
-      <c r="CF58" s="33"/>
-      <c r="CG58" s="33"/>
-      <c r="CH58" s="33"/>
-      <c r="CI58" s="33"/>
-      <c r="CJ58" s="33"/>
-      <c r="CK58" s="33"/>
-      <c r="CL58" s="33"/>
-      <c r="CM58" s="33"/>
-      <c r="CN58" s="33"/>
-      <c r="CO58" s="33"/>
-      <c r="CP58" s="33"/>
-      <c r="CQ58" s="11"/>
+      <c r="CD58" s="32"/>
+      <c r="CE58" s="32"/>
+      <c r="CF58" s="32"/>
+      <c r="CG58" s="32"/>
+      <c r="CH58" s="32"/>
+      <c r="CI58" s="32"/>
+      <c r="CJ58" s="32"/>
+      <c r="CK58" s="32"/>
+      <c r="CL58" s="32"/>
+      <c r="CM58" s="32"/>
+      <c r="CN58" s="32"/>
+      <c r="CO58" s="32"/>
+      <c r="CP58" s="32"/>
+      <c r="CQ58" s="32"/>
       <c r="CR58" s="11"/>
       <c r="CS58" s="11"/>
       <c r="CT58" s="11"/>
@@ -11736,108 +11798,108 @@
     </row>
     <row r="67" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
-      <c r="B67" s="35" t="s">
+      <c r="B67" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C67" s="35"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35" t="s">
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G67" s="35"/>
-      <c r="H67" s="35"/>
-      <c r="I67" s="35"/>
-      <c r="J67" s="35" t="s">
+      <c r="G67" s="33"/>
+      <c r="H67" s="33"/>
+      <c r="I67" s="33"/>
+      <c r="J67" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="K67" s="35"/>
-      <c r="L67" s="35"/>
-      <c r="M67" s="35"/>
-      <c r="N67" s="35" t="s">
+      <c r="K67" s="33"/>
+      <c r="L67" s="33"/>
+      <c r="M67" s="33"/>
+      <c r="N67" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="O67" s="35"/>
-      <c r="P67" s="35"/>
-      <c r="Q67" s="35"/>
-      <c r="R67" s="35" t="s">
+      <c r="O67" s="33"/>
+      <c r="P67" s="33"/>
+      <c r="Q67" s="33"/>
+      <c r="R67" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="S67" s="35"/>
-      <c r="T67" s="35"/>
-      <c r="U67" s="35"/>
-      <c r="V67" s="35" t="s">
+      <c r="S67" s="33"/>
+      <c r="T67" s="33"/>
+      <c r="U67" s="33"/>
+      <c r="V67" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="W67" s="35"/>
-      <c r="X67" s="35"/>
-      <c r="Y67" s="35"/>
-      <c r="Z67" s="35" t="s">
+      <c r="W67" s="33"/>
+      <c r="X67" s="33"/>
+      <c r="Y67" s="33"/>
+      <c r="Z67" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="AA67" s="35"/>
-      <c r="AB67" s="35"/>
-      <c r="AC67" s="35"/>
-      <c r="AD67" s="35" t="s">
+      <c r="AA67" s="33"/>
+      <c r="AB67" s="33"/>
+      <c r="AC67" s="33"/>
+      <c r="AD67" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="AE67" s="35"/>
-      <c r="AF67" s="35"/>
-      <c r="AG67" s="35"/>
-      <c r="AH67" s="35" t="s">
+      <c r="AE67" s="33"/>
+      <c r="AF67" s="33"/>
+      <c r="AG67" s="33"/>
+      <c r="AH67" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="AI67" s="35"/>
-      <c r="AJ67" s="35"/>
-      <c r="AK67" s="35"/>
-      <c r="AL67" s="35" t="s">
+      <c r="AI67" s="33"/>
+      <c r="AJ67" s="33"/>
+      <c r="AK67" s="33"/>
+      <c r="AL67" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="AM67" s="35"/>
-      <c r="AN67" s="35"/>
-      <c r="AO67" s="35"/>
-      <c r="AP67" s="35" t="s">
+      <c r="AM67" s="33"/>
+      <c r="AN67" s="33"/>
+      <c r="AO67" s="33"/>
+      <c r="AP67" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="AQ67" s="35"/>
-      <c r="AR67" s="35"/>
-      <c r="AS67" s="35"/>
-      <c r="AT67" s="35" t="s">
+      <c r="AQ67" s="33"/>
+      <c r="AR67" s="33"/>
+      <c r="AS67" s="33"/>
+      <c r="AT67" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="AU67" s="35"/>
-      <c r="AV67" s="35"/>
-      <c r="AW67" s="35"/>
-      <c r="AX67" s="35" t="s">
+      <c r="AU67" s="33"/>
+      <c r="AV67" s="33"/>
+      <c r="AW67" s="33"/>
+      <c r="AX67" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="AY67" s="35"/>
-      <c r="AZ67" s="35"/>
-      <c r="BA67" s="35"/>
-      <c r="BB67" s="35" t="s">
+      <c r="AY67" s="33"/>
+      <c r="AZ67" s="33"/>
+      <c r="BA67" s="33"/>
+      <c r="BB67" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="BC67" s="35"/>
-      <c r="BD67" s="35"/>
-      <c r="BE67" s="35"/>
-      <c r="BF67" s="35" t="s">
+      <c r="BC67" s="33"/>
+      <c r="BD67" s="33"/>
+      <c r="BE67" s="33"/>
+      <c r="BF67" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="BG67" s="35"/>
-      <c r="BH67" s="35"/>
-      <c r="BI67" s="35"/>
-      <c r="BJ67" s="35" t="s">
+      <c r="BG67" s="33"/>
+      <c r="BH67" s="33"/>
+      <c r="BI67" s="33"/>
+      <c r="BJ67" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="BK67" s="35"/>
-      <c r="BL67" s="35"/>
-      <c r="BM67" s="35"/>
-      <c r="BN67" s="35" t="s">
+      <c r="BK67" s="33"/>
+      <c r="BL67" s="33"/>
+      <c r="BM67" s="33"/>
+      <c r="BN67" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="BO67" s="35"/>
-      <c r="BP67" s="35"/>
-      <c r="BQ67" s="35"/>
+      <c r="BO67" s="33"/>
+      <c r="BP67" s="33"/>
+      <c r="BQ67" s="33"/>
       <c r="BR67" s="34" t="s">
         <v>34</v>
       </c>
@@ -11868,13 +11930,14 @@
       <c r="CI67" s="34"/>
       <c r="CJ67" s="34"/>
       <c r="CK67" s="34"/>
-      <c r="CL67" s="30" t="s">
+      <c r="CL67" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="CM67" s="30"/>
-      <c r="CN67" s="30"/>
-      <c r="CO67" s="30"/>
-      <c r="CP67" s="30"/>
+      <c r="CM67" s="34"/>
+      <c r="CN67" s="34"/>
+      <c r="CO67" s="34"/>
+      <c r="CP67" s="34"/>
+      <c r="CQ67" s="35"/>
     </row>
     <row r="68" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
@@ -12147,10 +12210,13 @@
       <c r="CL68" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="CM68" s="7"/>
+      <c r="CM68" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="CN68" s="7"/>
       <c r="CO68" s="7"/>
       <c r="CP68" s="7"/>
+      <c r="CQ68" s="7"/>
     </row>
     <row r="69" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8"/>
@@ -12424,13 +12490,15 @@
         <v>14.230451250859005</v>
       </c>
       <c r="CL70" s="26">
-        <v>11.100941746754089</v>
-      </c>
-      <c r="CM70" s="26"/>
+        <v>10.952117957471913</v>
+      </c>
+      <c r="CM70" s="26">
+        <v>7.8199556815264089</v>
+      </c>
       <c r="CN70" s="26"/>
       <c r="CO70" s="26"/>
       <c r="CP70" s="26"/>
-      <c r="CQ70" s="11"/>
+      <c r="CQ70" s="26"/>
       <c r="CR70" s="11"/>
       <c r="CS70" s="11"/>
       <c r="CT70" s="11"/>
@@ -12755,13 +12823,15 @@
         <v>14.879767765446744</v>
       </c>
       <c r="CL71" s="26">
-        <v>11.774547348526255</v>
-      </c>
-      <c r="CM71" s="26"/>
+        <v>11.100334376022715</v>
+      </c>
+      <c r="CM71" s="26">
+        <v>1.984713329214415</v>
+      </c>
       <c r="CN71" s="26"/>
       <c r="CO71" s="26"/>
       <c r="CP71" s="26"/>
-      <c r="CQ71" s="11"/>
+      <c r="CQ71" s="26"/>
       <c r="CR71" s="11"/>
       <c r="CS71" s="11"/>
       <c r="CT71" s="11"/>
@@ -13086,13 +13156,15 @@
         <v>14.085116924879742</v>
       </c>
       <c r="CL72" s="26">
-        <v>0.69553047416124514</v>
-      </c>
-      <c r="CM72" s="26"/>
+        <v>2.2412765422117076</v>
+      </c>
+      <c r="CM72" s="26">
+        <v>-23.592930158396769</v>
+      </c>
       <c r="CN72" s="26"/>
       <c r="CO72" s="26"/>
       <c r="CP72" s="26"/>
-      <c r="CQ72" s="11"/>
+      <c r="CQ72" s="26"/>
       <c r="CR72" s="11"/>
       <c r="CS72" s="11"/>
       <c r="CT72" s="11"/>
@@ -13417,13 +13489,15 @@
         <v>11.921201320286116</v>
       </c>
       <c r="CL73" s="26">
-        <v>12.28702678557238</v>
-      </c>
-      <c r="CM73" s="26"/>
+        <v>12.438210681495889</v>
+      </c>
+      <c r="CM73" s="26">
+        <v>12.636766068427875</v>
+      </c>
       <c r="CN73" s="26"/>
       <c r="CO73" s="26"/>
       <c r="CP73" s="26"/>
-      <c r="CQ73" s="11"/>
+      <c r="CQ73" s="26"/>
       <c r="CR73" s="11"/>
       <c r="CS73" s="11"/>
       <c r="CT73" s="11"/>
@@ -13748,13 +13822,15 @@
         <v>14.127928224150992</v>
       </c>
       <c r="CL74" s="26">
-        <v>2.5539136197363774</v>
-      </c>
-      <c r="CM74" s="26"/>
+        <v>2.9077274260176296</v>
+      </c>
+      <c r="CM74" s="26">
+        <v>3.2294590743144056</v>
+      </c>
       <c r="CN74" s="26"/>
       <c r="CO74" s="26"/>
       <c r="CP74" s="26"/>
-      <c r="CQ74" s="11"/>
+      <c r="CQ74" s="26"/>
       <c r="CR74" s="11"/>
       <c r="CS74" s="11"/>
       <c r="CT74" s="11"/>
@@ -14079,13 +14155,15 @@
         <v>8.2225014081690233</v>
       </c>
       <c r="CL75" s="26">
-        <v>11.235877389531382</v>
-      </c>
-      <c r="CM75" s="26"/>
+        <v>11.839204282134361</v>
+      </c>
+      <c r="CM75" s="26">
+        <v>13.06079368861927</v>
+      </c>
       <c r="CN75" s="26"/>
       <c r="CO75" s="26"/>
       <c r="CP75" s="26"/>
-      <c r="CQ75" s="11"/>
+      <c r="CQ75" s="26"/>
       <c r="CR75" s="11"/>
       <c r="CS75" s="11"/>
       <c r="CT75" s="11"/>
@@ -14410,13 +14488,15 @@
         <v>20.962940351693334</v>
       </c>
       <c r="CL76" s="26">
-        <v>24.01244022729054</v>
-      </c>
-      <c r="CM76" s="26"/>
+        <v>23.922080859450617</v>
+      </c>
+      <c r="CM76" s="26">
+        <v>29.643917481861763</v>
+      </c>
       <c r="CN76" s="26"/>
       <c r="CO76" s="26"/>
       <c r="CP76" s="26"/>
-      <c r="CQ76" s="11"/>
+      <c r="CQ76" s="26"/>
       <c r="CR76" s="11"/>
       <c r="CS76" s="11"/>
       <c r="CT76" s="11"/>
@@ -14741,13 +14821,15 @@
         <v>6.6924732388451673</v>
       </c>
       <c r="CL77" s="26">
-        <v>5.3987829377145573</v>
-      </c>
-      <c r="CM77" s="26"/>
+        <v>5.6791499437760109</v>
+      </c>
+      <c r="CM77" s="26">
+        <v>5.7492260133699062</v>
+      </c>
       <c r="CN77" s="26"/>
       <c r="CO77" s="26"/>
       <c r="CP77" s="26"/>
-      <c r="CQ77" s="11"/>
+      <c r="CQ77" s="26"/>
       <c r="CR77" s="11"/>
       <c r="CS77" s="11"/>
       <c r="CT77" s="11"/>
@@ -15072,13 +15154,15 @@
         <v>19.43592958964993</v>
       </c>
       <c r="CL78" s="26">
-        <v>33.748171644300612</v>
-      </c>
-      <c r="CM78" s="26"/>
+        <v>35.504800407539534</v>
+      </c>
+      <c r="CM78" s="26">
+        <v>25.812468153670665</v>
+      </c>
       <c r="CN78" s="26"/>
       <c r="CO78" s="26"/>
       <c r="CP78" s="26"/>
-      <c r="CQ78" s="11"/>
+      <c r="CQ78" s="26"/>
       <c r="CR78" s="11"/>
       <c r="CS78" s="11"/>
       <c r="CT78" s="11"/>
@@ -15403,13 +15487,15 @@
         <v>14.183716365607538</v>
       </c>
       <c r="CL79" s="26">
-        <v>10.116023254301069</v>
-      </c>
-      <c r="CM79" s="26"/>
+        <v>10.501527238117617</v>
+      </c>
+      <c r="CM79" s="26">
+        <v>10.875820548340712</v>
+      </c>
       <c r="CN79" s="26"/>
       <c r="CO79" s="26"/>
       <c r="CP79" s="26"/>
-      <c r="CQ79" s="11"/>
+      <c r="CQ79" s="26"/>
       <c r="CR79" s="11"/>
       <c r="CS79" s="11"/>
       <c r="CT79" s="11"/>
@@ -15734,13 +15820,15 @@
         <v>32.771002893752922</v>
       </c>
       <c r="CL80" s="26">
-        <v>33.75672181980184</v>
-      </c>
-      <c r="CM80" s="26"/>
+        <v>33.965627314186065</v>
+      </c>
+      <c r="CM80" s="26">
+        <v>33.620865500350476</v>
+      </c>
       <c r="CN80" s="26"/>
       <c r="CO80" s="26"/>
       <c r="CP80" s="26"/>
-      <c r="CQ80" s="11"/>
+      <c r="CQ80" s="26"/>
       <c r="CR80" s="11"/>
       <c r="CS80" s="11"/>
       <c r="CT80" s="11"/>
@@ -16065,13 +16153,15 @@
         <v>11.443585383216643</v>
       </c>
       <c r="CL81" s="26">
-        <v>14.794359879300913</v>
-      </c>
-      <c r="CM81" s="26"/>
+        <v>14.839340376547128</v>
+      </c>
+      <c r="CM81" s="26">
+        <v>11.217691884866184</v>
+      </c>
       <c r="CN81" s="26"/>
       <c r="CO81" s="26"/>
       <c r="CP81" s="26"/>
-      <c r="CQ81" s="11"/>
+      <c r="CQ81" s="26"/>
       <c r="CR81" s="11"/>
       <c r="CS81" s="11"/>
       <c r="CT81" s="11"/>
@@ -16546,13 +16636,15 @@
         <v>14.90946448783501</v>
       </c>
       <c r="CL83" s="26">
-        <v>14.623240348397886</v>
-      </c>
-      <c r="CM83" s="26"/>
+        <v>14.703382016307259</v>
+      </c>
+      <c r="CM83" s="26">
+        <v>11.573295727077706</v>
+      </c>
       <c r="CN83" s="26"/>
       <c r="CO83" s="26"/>
       <c r="CP83" s="26"/>
-      <c r="CQ83" s="11"/>
+      <c r="CQ83" s="26"/>
       <c r="CR83" s="11"/>
       <c r="CS83" s="11"/>
       <c r="CT83" s="11"/>
@@ -16703,6 +16795,7 @@
       <c r="CN84" s="16"/>
       <c r="CO84" s="16"/>
       <c r="CP84" s="16"/>
+      <c r="CQ84" s="16"/>
     </row>
     <row r="85" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A85" s="18" t="s">
@@ -17041,108 +17134,108 @@
     </row>
     <row r="96" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
-      <c r="B96" s="35" t="s">
+      <c r="B96" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C96" s="35"/>
-      <c r="D96" s="35"/>
-      <c r="E96" s="35"/>
-      <c r="F96" s="35" t="s">
+      <c r="C96" s="33"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G96" s="35"/>
-      <c r="H96" s="35"/>
-      <c r="I96" s="35"/>
-      <c r="J96" s="35" t="s">
+      <c r="G96" s="33"/>
+      <c r="H96" s="33"/>
+      <c r="I96" s="33"/>
+      <c r="J96" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="K96" s="35"/>
-      <c r="L96" s="35"/>
-      <c r="M96" s="35"/>
-      <c r="N96" s="35" t="s">
+      <c r="K96" s="33"/>
+      <c r="L96" s="33"/>
+      <c r="M96" s="33"/>
+      <c r="N96" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="O96" s="35"/>
-      <c r="P96" s="35"/>
-      <c r="Q96" s="35"/>
-      <c r="R96" s="35" t="s">
+      <c r="O96" s="33"/>
+      <c r="P96" s="33"/>
+      <c r="Q96" s="33"/>
+      <c r="R96" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="S96" s="35"/>
-      <c r="T96" s="35"/>
-      <c r="U96" s="35"/>
-      <c r="V96" s="35" t="s">
+      <c r="S96" s="33"/>
+      <c r="T96" s="33"/>
+      <c r="U96" s="33"/>
+      <c r="V96" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="W96" s="35"/>
-      <c r="X96" s="35"/>
-      <c r="Y96" s="35"/>
-      <c r="Z96" s="35" t="s">
+      <c r="W96" s="33"/>
+      <c r="X96" s="33"/>
+      <c r="Y96" s="33"/>
+      <c r="Z96" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="AA96" s="35"/>
-      <c r="AB96" s="35"/>
-      <c r="AC96" s="35"/>
-      <c r="AD96" s="35" t="s">
+      <c r="AA96" s="33"/>
+      <c r="AB96" s="33"/>
+      <c r="AC96" s="33"/>
+      <c r="AD96" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="AE96" s="35"/>
-      <c r="AF96" s="35"/>
-      <c r="AG96" s="35"/>
-      <c r="AH96" s="35" t="s">
+      <c r="AE96" s="33"/>
+      <c r="AF96" s="33"/>
+      <c r="AG96" s="33"/>
+      <c r="AH96" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="AI96" s="35"/>
-      <c r="AJ96" s="35"/>
-      <c r="AK96" s="35"/>
-      <c r="AL96" s="35" t="s">
+      <c r="AI96" s="33"/>
+      <c r="AJ96" s="33"/>
+      <c r="AK96" s="33"/>
+      <c r="AL96" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="AM96" s="35"/>
-      <c r="AN96" s="35"/>
-      <c r="AO96" s="35"/>
-      <c r="AP96" s="35" t="s">
+      <c r="AM96" s="33"/>
+      <c r="AN96" s="33"/>
+      <c r="AO96" s="33"/>
+      <c r="AP96" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="AQ96" s="35"/>
-      <c r="AR96" s="35"/>
-      <c r="AS96" s="35"/>
-      <c r="AT96" s="35" t="s">
+      <c r="AQ96" s="33"/>
+      <c r="AR96" s="33"/>
+      <c r="AS96" s="33"/>
+      <c r="AT96" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="AU96" s="35"/>
-      <c r="AV96" s="35"/>
-      <c r="AW96" s="35"/>
-      <c r="AX96" s="35" t="s">
+      <c r="AU96" s="33"/>
+      <c r="AV96" s="33"/>
+      <c r="AW96" s="33"/>
+      <c r="AX96" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="AY96" s="35"/>
-      <c r="AZ96" s="35"/>
-      <c r="BA96" s="35"/>
-      <c r="BB96" s="35" t="s">
+      <c r="AY96" s="33"/>
+      <c r="AZ96" s="33"/>
+      <c r="BA96" s="33"/>
+      <c r="BB96" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="BC96" s="35"/>
-      <c r="BD96" s="35"/>
-      <c r="BE96" s="35"/>
-      <c r="BF96" s="35" t="s">
+      <c r="BC96" s="33"/>
+      <c r="BD96" s="33"/>
+      <c r="BE96" s="33"/>
+      <c r="BF96" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="BG96" s="35"/>
-      <c r="BH96" s="35"/>
-      <c r="BI96" s="35"/>
-      <c r="BJ96" s="35" t="s">
+      <c r="BG96" s="33"/>
+      <c r="BH96" s="33"/>
+      <c r="BI96" s="33"/>
+      <c r="BJ96" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="BK96" s="35"/>
-      <c r="BL96" s="35"/>
-      <c r="BM96" s="35"/>
-      <c r="BN96" s="35" t="s">
+      <c r="BK96" s="33"/>
+      <c r="BL96" s="33"/>
+      <c r="BM96" s="33"/>
+      <c r="BN96" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="BO96" s="35"/>
-      <c r="BP96" s="35"/>
-      <c r="BQ96" s="35"/>
+      <c r="BO96" s="33"/>
+      <c r="BP96" s="33"/>
+      <c r="BQ96" s="33"/>
       <c r="BR96" s="34" t="s">
         <v>34</v>
       </c>
@@ -17173,13 +17266,16 @@
       <c r="CI96" s="34"/>
       <c r="CJ96" s="34"/>
       <c r="CK96" s="34"/>
-      <c r="CL96" s="30" t="s">
+      <c r="CL96" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="CM96" s="30"/>
-      <c r="CN96" s="30"/>
-      <c r="CO96" s="30"/>
-      <c r="CP96" s="30"/>
+      <c r="CM96" s="34">
+        <v>0</v>
+      </c>
+      <c r="CN96" s="34"/>
+      <c r="CO96" s="34"/>
+      <c r="CP96" s="34"/>
+      <c r="CQ96" s="35"/>
     </row>
     <row r="97" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
@@ -17452,10 +17548,13 @@
       <c r="CL97" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="CM97" s="7"/>
+      <c r="CM97" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="CN97" s="7"/>
       <c r="CO97" s="7"/>
       <c r="CP97" s="7"/>
+      <c r="CQ97" s="7"/>
     </row>
     <row r="98" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8"/>
@@ -17729,13 +17828,15 @@
         <v>3.9785935809430555</v>
       </c>
       <c r="CL99" s="26">
-        <v>0.77992528418768359</v>
-      </c>
-      <c r="CM99" s="26"/>
+        <v>0.64492687527631176</v>
+      </c>
+      <c r="CM99" s="26">
+        <v>0.43502721018897716</v>
+      </c>
       <c r="CN99" s="26"/>
       <c r="CO99" s="26"/>
       <c r="CP99" s="26"/>
-      <c r="CQ99" s="11"/>
+      <c r="CQ99" s="26"/>
       <c r="CR99" s="11"/>
       <c r="CS99" s="11"/>
       <c r="CT99" s="11"/>
@@ -18060,13 +18161,15 @@
         <v>3.9147385367330259</v>
       </c>
       <c r="CL100" s="26">
-        <v>0.33161662079015741</v>
-      </c>
-      <c r="CM100" s="26"/>
+        <v>-0.27357372963069793</v>
+      </c>
+      <c r="CM100" s="26">
+        <v>-9.110613538984552</v>
+      </c>
       <c r="CN100" s="26"/>
       <c r="CO100" s="26"/>
       <c r="CP100" s="26"/>
-      <c r="CQ100" s="11"/>
+      <c r="CQ100" s="26"/>
       <c r="CR100" s="11"/>
       <c r="CS100" s="11"/>
       <c r="CT100" s="11"/>
@@ -18391,13 +18494,15 @@
         <v>10.193524067478094</v>
       </c>
       <c r="CL101" s="26">
-        <v>-3.8384354359466784</v>
-      </c>
-      <c r="CM101" s="26"/>
+        <v>-2.3622888818490395</v>
+      </c>
+      <c r="CM101" s="26">
+        <v>-27.308707870553945</v>
+      </c>
       <c r="CN101" s="26"/>
       <c r="CO101" s="26"/>
       <c r="CP101" s="26"/>
-      <c r="CQ101" s="11"/>
+      <c r="CQ101" s="26"/>
       <c r="CR101" s="11"/>
       <c r="CS101" s="11"/>
       <c r="CT101" s="11"/>
@@ -18722,13 +18827,15 @@
         <v>4.4963740045475049</v>
       </c>
       <c r="CL102" s="26">
-        <v>3.7369328662439187</v>
-      </c>
-      <c r="CM102" s="26"/>
+        <v>3.8766048667486785</v>
+      </c>
+      <c r="CM102" s="26">
+        <v>6.0818572755786846</v>
+      </c>
       <c r="CN102" s="26"/>
       <c r="CO102" s="26"/>
       <c r="CP102" s="26"/>
-      <c r="CQ102" s="11"/>
+      <c r="CQ102" s="26"/>
       <c r="CR102" s="11"/>
       <c r="CS102" s="11"/>
       <c r="CT102" s="11"/>
@@ -19053,13 +19160,15 @@
         <v>9.3573074302153856</v>
       </c>
       <c r="CL103" s="26">
-        <v>-3.1028183975854517</v>
-      </c>
-      <c r="CM103" s="26"/>
+        <v>-2.768520471444873</v>
+      </c>
+      <c r="CM103" s="26">
+        <v>-2.7227200243741549</v>
+      </c>
       <c r="CN103" s="26"/>
       <c r="CO103" s="26"/>
       <c r="CP103" s="26"/>
-      <c r="CQ103" s="11"/>
+      <c r="CQ103" s="26"/>
       <c r="CR103" s="11"/>
       <c r="CS103" s="11"/>
       <c r="CT103" s="11"/>
@@ -19384,13 +19493,15 @@
         <v>5.2490153935198265</v>
       </c>
       <c r="CL104" s="26">
-        <v>7.2205947313644288</v>
-      </c>
-      <c r="CM104" s="26"/>
+        <v>7.8021433266596745</v>
+      </c>
+      <c r="CM104" s="26">
+        <v>8.6648635284183939</v>
+      </c>
       <c r="CN104" s="26"/>
       <c r="CO104" s="26"/>
       <c r="CP104" s="26"/>
-      <c r="CQ104" s="11"/>
+      <c r="CQ104" s="26"/>
       <c r="CR104" s="11"/>
       <c r="CS104" s="11"/>
       <c r="CT104" s="11"/>
@@ -19715,13 +19826,15 @@
         <v>7.8682121727108552</v>
       </c>
       <c r="CL105" s="26">
-        <v>14.418722341660555</v>
-      </c>
-      <c r="CM105" s="26"/>
+        <v>14.335353258680669</v>
+      </c>
+      <c r="CM105" s="26">
+        <v>30.085229586408559</v>
+      </c>
       <c r="CN105" s="26"/>
       <c r="CO105" s="26"/>
       <c r="CP105" s="26"/>
-      <c r="CQ105" s="11"/>
+      <c r="CQ105" s="26"/>
       <c r="CR105" s="11"/>
       <c r="CS105" s="11"/>
       <c r="CT105" s="11"/>
@@ -20046,13 +20159,15 @@
         <v>6.0323765304316055</v>
       </c>
       <c r="CL106" s="26">
-        <v>4.6459344881594831</v>
-      </c>
-      <c r="CM106" s="26"/>
+        <v>4.9242988727490626</v>
+      </c>
+      <c r="CM106" s="26">
+        <v>5.02844258387276</v>
+      </c>
       <c r="CN106" s="26"/>
       <c r="CO106" s="26"/>
       <c r="CP106" s="26"/>
-      <c r="CQ106" s="11"/>
+      <c r="CQ106" s="26"/>
       <c r="CR106" s="11"/>
       <c r="CS106" s="11"/>
       <c r="CT106" s="11"/>
@@ -20377,13 +20492,15 @@
         <v>15.49125668577156</v>
       </c>
       <c r="CL107" s="26">
-        <v>28.103087523045843</v>
-      </c>
-      <c r="CM107" s="26"/>
+        <v>29.785574583887012</v>
+      </c>
+      <c r="CM107" s="26">
+        <v>20.059537003786716</v>
+      </c>
       <c r="CN107" s="26"/>
       <c r="CO107" s="26"/>
       <c r="CP107" s="26"/>
-      <c r="CQ107" s="11"/>
+      <c r="CQ107" s="26"/>
       <c r="CR107" s="11"/>
       <c r="CS107" s="11"/>
       <c r="CT107" s="11"/>
@@ -20708,13 +20825,15 @@
         <v>10.278242718539033</v>
       </c>
       <c r="CL108" s="26">
-        <v>6.254040424339081</v>
-      </c>
-      <c r="CM108" s="26"/>
+        <v>6.6260240346224748</v>
+      </c>
+      <c r="CM108" s="26">
+        <v>6.9871901514114683</v>
+      </c>
       <c r="CN108" s="26"/>
       <c r="CO108" s="26"/>
       <c r="CP108" s="26"/>
-      <c r="CQ108" s="11"/>
+      <c r="CQ108" s="26"/>
       <c r="CR108" s="11"/>
       <c r="CS108" s="11"/>
       <c r="CT108" s="11"/>
@@ -21039,13 +21158,15 @@
         <v>24.779108341374851</v>
       </c>
       <c r="CL109" s="26">
-        <v>23.833675216332239</v>
-      </c>
-      <c r="CM109" s="26"/>
+        <v>24.027082581513739</v>
+      </c>
+      <c r="CM109" s="26">
+        <v>23.302934484167892</v>
+      </c>
       <c r="CN109" s="26"/>
       <c r="CO109" s="26"/>
       <c r="CP109" s="26"/>
-      <c r="CQ109" s="11"/>
+      <c r="CQ109" s="26"/>
       <c r="CR109" s="11"/>
       <c r="CS109" s="11"/>
       <c r="CT109" s="11"/>
@@ -21370,13 +21491,15 @@
         <v>6.6439501425235221</v>
       </c>
       <c r="CL110" s="26">
-        <v>9.0559330265029558</v>
-      </c>
-      <c r="CM110" s="26"/>
+        <v>9.0986650048017168</v>
+      </c>
+      <c r="CM110" s="26">
+        <v>5.2153121611257234</v>
+      </c>
       <c r="CN110" s="26"/>
       <c r="CO110" s="26"/>
       <c r="CP110" s="26"/>
-      <c r="CQ110" s="11"/>
+      <c r="CQ110" s="26"/>
       <c r="CR110" s="11"/>
       <c r="CS110" s="11"/>
       <c r="CT110" s="11"/>
@@ -21851,13 +21974,15 @@
         <v>6.971064311894807</v>
       </c>
       <c r="CL112" s="26">
-        <v>6.3420005797817822</v>
-      </c>
-      <c r="CM112" s="26"/>
+        <v>6.4300230362182873</v>
+      </c>
+      <c r="CM112" s="26">
+        <v>5.5072433479429037</v>
+      </c>
       <c r="CN112" s="26"/>
       <c r="CO112" s="26"/>
       <c r="CP112" s="26"/>
-      <c r="CQ112" s="11"/>
+      <c r="CQ112" s="26"/>
       <c r="CR112" s="11"/>
       <c r="CS112" s="11"/>
       <c r="CT112" s="11"/>
@@ -22008,6 +22133,7 @@
       <c r="CN113" s="16"/>
       <c r="CO113" s="16"/>
       <c r="CP113" s="16"/>
+      <c r="CQ113" s="16"/>
     </row>
     <row r="114" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A114" s="18" t="s">
@@ -22341,108 +22467,108 @@
     </row>
     <row r="124" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
-      <c r="B124" s="35">
+      <c r="B124" s="33">
         <v>2000</v>
       </c>
-      <c r="C124" s="35"/>
-      <c r="D124" s="35"/>
-      <c r="E124" s="35"/>
-      <c r="F124" s="35">
+      <c r="C124" s="33"/>
+      <c r="D124" s="33"/>
+      <c r="E124" s="33"/>
+      <c r="F124" s="33">
         <v>2001</v>
       </c>
-      <c r="G124" s="35"/>
-      <c r="H124" s="35"/>
-      <c r="I124" s="35"/>
-      <c r="J124" s="35">
+      <c r="G124" s="33"/>
+      <c r="H124" s="33"/>
+      <c r="I124" s="33"/>
+      <c r="J124" s="33">
         <v>2002</v>
       </c>
-      <c r="K124" s="35"/>
-      <c r="L124" s="35"/>
-      <c r="M124" s="35"/>
-      <c r="N124" s="35">
+      <c r="K124" s="33"/>
+      <c r="L124" s="33"/>
+      <c r="M124" s="33"/>
+      <c r="N124" s="33">
         <v>2003</v>
       </c>
-      <c r="O124" s="35"/>
-      <c r="P124" s="35"/>
-      <c r="Q124" s="35"/>
-      <c r="R124" s="35">
+      <c r="O124" s="33"/>
+      <c r="P124" s="33"/>
+      <c r="Q124" s="33"/>
+      <c r="R124" s="33">
         <v>2004</v>
       </c>
-      <c r="S124" s="35"/>
-      <c r="T124" s="35"/>
-      <c r="U124" s="35"/>
-      <c r="V124" s="35">
+      <c r="S124" s="33"/>
+      <c r="T124" s="33"/>
+      <c r="U124" s="33"/>
+      <c r="V124" s="33">
         <v>2005</v>
       </c>
-      <c r="W124" s="35"/>
-      <c r="X124" s="35"/>
-      <c r="Y124" s="35"/>
-      <c r="Z124" s="35">
+      <c r="W124" s="33"/>
+      <c r="X124" s="33"/>
+      <c r="Y124" s="33"/>
+      <c r="Z124" s="33">
         <v>2006</v>
       </c>
-      <c r="AA124" s="35"/>
-      <c r="AB124" s="35"/>
-      <c r="AC124" s="35"/>
-      <c r="AD124" s="35">
+      <c r="AA124" s="33"/>
+      <c r="AB124" s="33"/>
+      <c r="AC124" s="33"/>
+      <c r="AD124" s="33">
         <v>2007</v>
       </c>
-      <c r="AE124" s="35"/>
-      <c r="AF124" s="35"/>
-      <c r="AG124" s="35"/>
-      <c r="AH124" s="35">
+      <c r="AE124" s="33"/>
+      <c r="AF124" s="33"/>
+      <c r="AG124" s="33"/>
+      <c r="AH124" s="33">
         <v>2008</v>
       </c>
-      <c r="AI124" s="35"/>
-      <c r="AJ124" s="35"/>
-      <c r="AK124" s="35"/>
-      <c r="AL124" s="35">
+      <c r="AI124" s="33"/>
+      <c r="AJ124" s="33"/>
+      <c r="AK124" s="33"/>
+      <c r="AL124" s="33">
         <v>2009</v>
       </c>
-      <c r="AM124" s="35"/>
-      <c r="AN124" s="35"/>
-      <c r="AO124" s="35"/>
-      <c r="AP124" s="35">
+      <c r="AM124" s="33"/>
+      <c r="AN124" s="33"/>
+      <c r="AO124" s="33"/>
+      <c r="AP124" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ124" s="35"/>
-      <c r="AR124" s="35"/>
-      <c r="AS124" s="35"/>
-      <c r="AT124" s="35">
+      <c r="AQ124" s="33"/>
+      <c r="AR124" s="33"/>
+      <c r="AS124" s="33"/>
+      <c r="AT124" s="33">
         <v>2011</v>
       </c>
-      <c r="AU124" s="35"/>
-      <c r="AV124" s="35"/>
-      <c r="AW124" s="35"/>
-      <c r="AX124" s="35">
+      <c r="AU124" s="33"/>
+      <c r="AV124" s="33"/>
+      <c r="AW124" s="33"/>
+      <c r="AX124" s="33">
         <v>2012</v>
       </c>
-      <c r="AY124" s="35"/>
-      <c r="AZ124" s="35"/>
-      <c r="BA124" s="35"/>
-      <c r="BB124" s="35">
+      <c r="AY124" s="33"/>
+      <c r="AZ124" s="33"/>
+      <c r="BA124" s="33"/>
+      <c r="BB124" s="33">
         <v>2013</v>
       </c>
-      <c r="BC124" s="35"/>
-      <c r="BD124" s="35"/>
-      <c r="BE124" s="35"/>
-      <c r="BF124" s="35">
+      <c r="BC124" s="33"/>
+      <c r="BD124" s="33"/>
+      <c r="BE124" s="33"/>
+      <c r="BF124" s="33">
         <v>2014</v>
       </c>
-      <c r="BG124" s="35"/>
-      <c r="BH124" s="35"/>
-      <c r="BI124" s="35"/>
-      <c r="BJ124" s="35">
+      <c r="BG124" s="33"/>
+      <c r="BH124" s="33"/>
+      <c r="BI124" s="33"/>
+      <c r="BJ124" s="33">
         <v>2015</v>
       </c>
-      <c r="BK124" s="35"/>
-      <c r="BL124" s="35"/>
-      <c r="BM124" s="35"/>
-      <c r="BN124" s="35">
+      <c r="BK124" s="33"/>
+      <c r="BL124" s="33"/>
+      <c r="BM124" s="33"/>
+      <c r="BN124" s="33">
         <v>2016</v>
       </c>
-      <c r="BO124" s="35"/>
-      <c r="BP124" s="35"/>
-      <c r="BQ124" s="35"/>
+      <c r="BO124" s="33"/>
+      <c r="BP124" s="33"/>
+      <c r="BQ124" s="33"/>
       <c r="BR124" s="34">
         <v>2017</v>
       </c>
@@ -22479,9 +22605,10 @@
       <c r="CM124" s="34"/>
       <c r="CN124" s="34"/>
       <c r="CO124" s="34"/>
-      <c r="CP124" s="30">
+      <c r="CP124" s="34">
         <v>2023</v>
       </c>
+      <c r="CQ124" s="35"/>
     </row>
     <row r="125" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
@@ -22765,6 +22892,9 @@
       </c>
       <c r="CP125" s="7" t="s">
         <v>19</v>
+      </c>
+      <c r="CQ125" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="126" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -23053,7 +23183,9 @@
       <c r="CP127" s="26">
         <v>121.40993984588135</v>
       </c>
-      <c r="CQ127" s="11"/>
+      <c r="CQ127" s="26">
+        <v>123.69950887022809</v>
+      </c>
       <c r="CR127" s="11"/>
       <c r="CS127" s="11"/>
       <c r="CT127" s="11"/>
@@ -23396,7 +23528,9 @@
       <c r="CP128" s="26">
         <v>155.8613031242264</v>
       </c>
-      <c r="CQ128" s="11"/>
+      <c r="CQ128" s="26">
+        <v>174.33891502019807</v>
+      </c>
       <c r="CR128" s="11"/>
       <c r="CS128" s="11"/>
       <c r="CT128" s="11"/>
@@ -23739,7 +23873,9 @@
       <c r="CP129" s="26">
         <v>110.80516327271272</v>
       </c>
-      <c r="CQ129" s="11"/>
+      <c r="CQ129" s="26">
+        <v>121.9091653254432</v>
+      </c>
       <c r="CR129" s="11"/>
       <c r="CS129" s="11"/>
       <c r="CT129" s="11"/>
@@ -24082,7 +24218,9 @@
       <c r="CP130" s="26">
         <v>112.94682454743001</v>
       </c>
-      <c r="CQ130" s="11"/>
+      <c r="CQ130" s="26">
+        <v>117.12289797159234</v>
+      </c>
       <c r="CR130" s="11"/>
       <c r="CS130" s="11"/>
       <c r="CT130" s="11"/>
@@ -24425,7 +24563,9 @@
       <c r="CP131" s="26">
         <v>118.43763277423901</v>
       </c>
-      <c r="CQ131" s="11"/>
+      <c r="CQ131" s="26">
+        <v>118.89366595869345</v>
+      </c>
       <c r="CR131" s="11"/>
       <c r="CS131" s="11"/>
       <c r="CT131" s="11"/>
@@ -24768,7 +24908,9 @@
       <c r="CP132" s="26">
         <v>112.67232134559868</v>
       </c>
-      <c r="CQ132" s="11"/>
+      <c r="CQ132" s="26">
+        <v>113.5777891047194</v>
+      </c>
       <c r="CR132" s="11"/>
       <c r="CS132" s="11"/>
       <c r="CT132" s="11"/>
@@ -25111,7 +25253,9 @@
       <c r="CP133" s="26">
         <v>132.39182950639261</v>
       </c>
-      <c r="CQ133" s="11"/>
+      <c r="CQ133" s="26">
+        <v>124.41080168946679</v>
+      </c>
       <c r="CR133" s="11"/>
       <c r="CS133" s="11"/>
       <c r="CT133" s="11"/>
@@ -25454,7 +25598,9 @@
       <c r="CP134" s="26">
         <v>105.67435954176283</v>
       </c>
-      <c r="CQ134" s="11"/>
+      <c r="CQ134" s="26">
+        <v>102.77543821658408</v>
+      </c>
       <c r="CR134" s="11"/>
       <c r="CS134" s="11"/>
       <c r="CT134" s="11"/>
@@ -25797,7 +25943,9 @@
       <c r="CP135" s="26">
         <v>109.01624515776258</v>
       </c>
-      <c r="CQ135" s="11"/>
+      <c r="CQ135" s="26">
+        <v>108.16345917774601</v>
+      </c>
       <c r="CR135" s="11"/>
       <c r="CS135" s="11"/>
       <c r="CT135" s="11"/>
@@ -26140,7 +26288,9 @@
       <c r="CP136" s="26">
         <v>108.12715026223094</v>
       </c>
-      <c r="CQ136" s="11"/>
+      <c r="CQ136" s="26">
+        <v>110.46767080521592</v>
+      </c>
       <c r="CR136" s="11"/>
       <c r="CS136" s="11"/>
       <c r="CT136" s="11"/>
@@ -26483,7 +26633,9 @@
       <c r="CP137" s="26">
         <v>120.83454632830689</v>
       </c>
-      <c r="CQ137" s="11"/>
+      <c r="CQ137" s="26">
+        <v>117.57103978064248</v>
+      </c>
       <c r="CR137" s="11"/>
       <c r="CS137" s="11"/>
       <c r="CT137" s="11"/>
@@ -26826,7 +26978,9 @@
       <c r="CP138" s="26">
         <v>120.37521199573725</v>
       </c>
-      <c r="CQ138" s="11"/>
+      <c r="CQ138" s="26">
+        <v>122.91305655599656</v>
+      </c>
       <c r="CR138" s="11"/>
       <c r="CS138" s="11"/>
       <c r="CT138" s="11"/>
@@ -27321,9 +27475,11 @@
         <v>115.90512482879622</v>
       </c>
       <c r="CP140" s="26">
-        <v>119.62262414822237</v>
-      </c>
-      <c r="CQ140" s="11"/>
+        <v>119.60725875110107</v>
+      </c>
+      <c r="CQ140" s="26">
+        <v>120.70933212343446</v>
+      </c>
       <c r="CR140" s="11"/>
       <c r="CS140" s="11"/>
       <c r="CT140" s="11"/>
@@ -27478,6 +27634,7 @@
       <c r="CN141" s="16"/>
       <c r="CO141" s="16"/>
       <c r="CP141" s="16"/>
+      <c r="CQ141" s="16"/>
     </row>
     <row r="142" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A142" s="18" t="s">
@@ -27516,108 +27673,108 @@
     </row>
     <row r="153" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A153" s="4"/>
-      <c r="B153" s="35">
+      <c r="B153" s="33">
         <v>2000</v>
       </c>
-      <c r="C153" s="35"/>
-      <c r="D153" s="35"/>
-      <c r="E153" s="35"/>
-      <c r="F153" s="35">
+      <c r="C153" s="33"/>
+      <c r="D153" s="33"/>
+      <c r="E153" s="33"/>
+      <c r="F153" s="33">
         <v>2001</v>
       </c>
-      <c r="G153" s="35"/>
-      <c r="H153" s="35"/>
-      <c r="I153" s="35"/>
-      <c r="J153" s="35">
+      <c r="G153" s="33"/>
+      <c r="H153" s="33"/>
+      <c r="I153" s="33"/>
+      <c r="J153" s="33">
         <v>2002</v>
       </c>
-      <c r="K153" s="35"/>
-      <c r="L153" s="35"/>
-      <c r="M153" s="35"/>
-      <c r="N153" s="35">
+      <c r="K153" s="33"/>
+      <c r="L153" s="33"/>
+      <c r="M153" s="33"/>
+      <c r="N153" s="33">
         <v>2003</v>
       </c>
-      <c r="O153" s="35"/>
-      <c r="P153" s="35"/>
-      <c r="Q153" s="35"/>
-      <c r="R153" s="35">
+      <c r="O153" s="33"/>
+      <c r="P153" s="33"/>
+      <c r="Q153" s="33"/>
+      <c r="R153" s="33">
         <v>2004</v>
       </c>
-      <c r="S153" s="35"/>
-      <c r="T153" s="35"/>
-      <c r="U153" s="35"/>
-      <c r="V153" s="35">
+      <c r="S153" s="33"/>
+      <c r="T153" s="33"/>
+      <c r="U153" s="33"/>
+      <c r="V153" s="33">
         <v>2005</v>
       </c>
-      <c r="W153" s="35"/>
-      <c r="X153" s="35"/>
-      <c r="Y153" s="35"/>
-      <c r="Z153" s="35">
+      <c r="W153" s="33"/>
+      <c r="X153" s="33"/>
+      <c r="Y153" s="33"/>
+      <c r="Z153" s="33">
         <v>2006</v>
       </c>
-      <c r="AA153" s="35"/>
-      <c r="AB153" s="35"/>
-      <c r="AC153" s="35"/>
-      <c r="AD153" s="35">
+      <c r="AA153" s="33"/>
+      <c r="AB153" s="33"/>
+      <c r="AC153" s="33"/>
+      <c r="AD153" s="33">
         <v>2007</v>
       </c>
-      <c r="AE153" s="35"/>
-      <c r="AF153" s="35"/>
-      <c r="AG153" s="35"/>
-      <c r="AH153" s="35">
+      <c r="AE153" s="33"/>
+      <c r="AF153" s="33"/>
+      <c r="AG153" s="33"/>
+      <c r="AH153" s="33">
         <v>2008</v>
       </c>
-      <c r="AI153" s="35"/>
-      <c r="AJ153" s="35"/>
-      <c r="AK153" s="35"/>
-      <c r="AL153" s="35">
+      <c r="AI153" s="33"/>
+      <c r="AJ153" s="33"/>
+      <c r="AK153" s="33"/>
+      <c r="AL153" s="33">
         <v>2009</v>
       </c>
-      <c r="AM153" s="35"/>
-      <c r="AN153" s="35"/>
-      <c r="AO153" s="35"/>
-      <c r="AP153" s="35">
+      <c r="AM153" s="33"/>
+      <c r="AN153" s="33"/>
+      <c r="AO153" s="33"/>
+      <c r="AP153" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ153" s="35"/>
-      <c r="AR153" s="35"/>
-      <c r="AS153" s="35"/>
-      <c r="AT153" s="35">
+      <c r="AQ153" s="33"/>
+      <c r="AR153" s="33"/>
+      <c r="AS153" s="33"/>
+      <c r="AT153" s="33">
         <v>2011</v>
       </c>
-      <c r="AU153" s="35"/>
-      <c r="AV153" s="35"/>
-      <c r="AW153" s="35"/>
-      <c r="AX153" s="35">
+      <c r="AU153" s="33"/>
+      <c r="AV153" s="33"/>
+      <c r="AW153" s="33"/>
+      <c r="AX153" s="33">
         <v>2012</v>
       </c>
-      <c r="AY153" s="35"/>
-      <c r="AZ153" s="35"/>
-      <c r="BA153" s="35"/>
-      <c r="BB153" s="35">
+      <c r="AY153" s="33"/>
+      <c r="AZ153" s="33"/>
+      <c r="BA153" s="33"/>
+      <c r="BB153" s="33">
         <v>2013</v>
       </c>
-      <c r="BC153" s="35"/>
-      <c r="BD153" s="35"/>
-      <c r="BE153" s="35"/>
-      <c r="BF153" s="35">
+      <c r="BC153" s="33"/>
+      <c r="BD153" s="33"/>
+      <c r="BE153" s="33"/>
+      <c r="BF153" s="33">
         <v>2014</v>
       </c>
-      <c r="BG153" s="35"/>
-      <c r="BH153" s="35"/>
-      <c r="BI153" s="35"/>
-      <c r="BJ153" s="35">
+      <c r="BG153" s="33"/>
+      <c r="BH153" s="33"/>
+      <c r="BI153" s="33"/>
+      <c r="BJ153" s="33">
         <v>2015</v>
       </c>
-      <c r="BK153" s="35"/>
-      <c r="BL153" s="35"/>
-      <c r="BM153" s="35"/>
-      <c r="BN153" s="35">
+      <c r="BK153" s="33"/>
+      <c r="BL153" s="33"/>
+      <c r="BM153" s="33"/>
+      <c r="BN153" s="33">
         <v>2016</v>
       </c>
-      <c r="BO153" s="35"/>
-      <c r="BP153" s="35"/>
-      <c r="BQ153" s="35"/>
+      <c r="BO153" s="33"/>
+      <c r="BP153" s="33"/>
+      <c r="BQ153" s="33"/>
       <c r="BR153" s="34">
         <v>2017</v>
       </c>
@@ -27654,9 +27811,10 @@
       <c r="CM153" s="34"/>
       <c r="CN153" s="34"/>
       <c r="CO153" s="34"/>
-      <c r="CP153" s="30">
+      <c r="CP153" s="34">
         <v>2023</v>
       </c>
+      <c r="CQ153" s="35"/>
     </row>
     <row r="154" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
@@ -27940,6 +28098,9 @@
       </c>
       <c r="CP154" s="7" t="s">
         <v>19</v>
+      </c>
+      <c r="CQ154" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="155" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -28226,9 +28387,11 @@
         <v>39.714505651846942</v>
       </c>
       <c r="CP156" s="26">
-        <v>34.801309530293437</v>
-      </c>
-      <c r="CQ156" s="11"/>
+        <v>34.730409275893031</v>
+      </c>
+      <c r="CQ156" s="26">
+        <v>38.986001470206148</v>
+      </c>
       <c r="CR156" s="11"/>
       <c r="CS156" s="11"/>
       <c r="CT156" s="11"/>
@@ -28569,9 +28732,11 @@
         <v>2.2458821519621286</v>
       </c>
       <c r="CP157" s="26">
-        <v>1.7900164915719372</v>
-      </c>
-      <c r="CQ157" s="11"/>
+        <v>1.777976173879168</v>
+      </c>
+      <c r="CQ157" s="26">
+        <v>1.7733416082286104</v>
+      </c>
       <c r="CR157" s="11"/>
       <c r="CS157" s="11"/>
       <c r="CT157" s="11"/>
@@ -28912,9 +29077,11 @@
         <v>1.784686817842867</v>
       </c>
       <c r="CP158" s="26">
-        <v>1.3189175864749361</v>
-      </c>
-      <c r="CQ158" s="11"/>
+        <v>1.3382282287396032</v>
+      </c>
+      <c r="CQ158" s="26">
+        <v>1.1496201547048561</v>
+      </c>
       <c r="CR158" s="11"/>
       <c r="CS158" s="11"/>
       <c r="CT158" s="11"/>
@@ -29255,9 +29422,11 @@
         <v>11.163941802320894</v>
       </c>
       <c r="CP159" s="26">
-        <v>11.285996511002963</v>
-      </c>
-      <c r="CQ159" s="11"/>
+        <v>11.293296054633235</v>
+      </c>
+      <c r="CQ159" s="26">
+        <v>14.994734529462484</v>
+      </c>
       <c r="CR159" s="11"/>
       <c r="CS159" s="11"/>
       <c r="CT159" s="11"/>
@@ -29598,9 +29767,11 @@
         <v>2.7040979429244238</v>
       </c>
       <c r="CP160" s="26">
-        <v>2.4920663060940895</v>
-      </c>
-      <c r="CQ160" s="11"/>
+        <v>2.4989168236128143</v>
+      </c>
+      <c r="CQ160" s="26">
+        <v>2.449512932639812</v>
+      </c>
       <c r="CR160" s="11"/>
       <c r="CS160" s="11"/>
       <c r="CT160" s="11"/>
@@ -29941,9 +30112,11 @@
         <v>4.0097981398428715</v>
       </c>
       <c r="CP161" s="26">
-        <v>4.1454285165364357</v>
-      </c>
-      <c r="CQ161" s="11"/>
+        <v>4.1650006426571728</v>
+      </c>
+      <c r="CQ161" s="26">
+        <v>3.6171293548201215</v>
+      </c>
       <c r="CR161" s="11"/>
       <c r="CS161" s="11"/>
       <c r="CT161" s="11"/>
@@ -30284,9 +30457,11 @@
         <v>7.7278994002764083</v>
       </c>
       <c r="CP162" s="26">
-        <v>10.71454395588135</v>
-      </c>
-      <c r="CQ162" s="11"/>
+        <v>10.699256352678098</v>
+      </c>
+      <c r="CQ162" s="26">
+        <v>8.8773387167856175</v>
+      </c>
       <c r="CR162" s="11"/>
       <c r="CS162" s="11"/>
       <c r="CT162" s="11"/>
@@ -30627,9 +30802,11 @@
         <v>2.6105482147233063</v>
       </c>
       <c r="CP163" s="26">
-        <v>2.8929283802318659</v>
-      </c>
-      <c r="CQ163" s="11"/>
+        <v>2.8985971153663281</v>
+      </c>
+      <c r="CQ163" s="26">
+        <v>3.1109757752691336</v>
+      </c>
       <c r="CR163" s="11"/>
       <c r="CS163" s="11"/>
       <c r="CT163" s="11"/>
@@ -30970,9 +31147,11 @@
         <v>1.742263944652648</v>
       </c>
       <c r="CP164" s="26">
-        <v>1.7075675945164392</v>
-      </c>
-      <c r="CQ164" s="11"/>
+        <v>1.7287858122219679</v>
+      </c>
+      <c r="CQ164" s="26">
+        <v>1.2267610774419684</v>
+      </c>
       <c r="CR164" s="11"/>
       <c r="CS164" s="11"/>
       <c r="CT164" s="11"/>
@@ -31313,9 +31492,11 @@
         <v>4.5367553241551217</v>
       </c>
       <c r="CP165" s="26">
-        <v>5.1339295436877572</v>
-      </c>
-      <c r="CQ165" s="11"/>
+        <v>5.1483032982523982</v>
+      </c>
+      <c r="CQ165" s="26">
+        <v>4.7905191513606455</v>
+      </c>
       <c r="CR165" s="11"/>
       <c r="CS165" s="11"/>
       <c r="CT165" s="11"/>
@@ -31656,9 +31837,11 @@
         <v>7.6541432964881455</v>
       </c>
       <c r="CP166" s="26">
-        <v>9.5954535596183916</v>
-      </c>
-      <c r="CQ166" s="11"/>
+        <v>9.60372536195527</v>
+      </c>
+      <c r="CQ166" s="26">
+        <v>5.6355377763054824</v>
+      </c>
       <c r="CR166" s="11"/>
       <c r="CS166" s="11"/>
       <c r="CT166" s="11"/>
@@ -31999,9 +32182,11 @@
         <v>14.105477312964235</v>
       </c>
       <c r="CP167" s="26">
-        <v>14.121842024090418</v>
-      </c>
-      <c r="CQ167" s="11"/>
+        <v>14.117504860110927</v>
+      </c>
+      <c r="CQ167" s="26">
+        <v>13.38852745277512</v>
+      </c>
       <c r="CR167" s="11"/>
       <c r="CS167" s="11"/>
       <c r="CT167" s="11"/>
@@ -32498,7 +32683,9 @@
       <c r="CP169" s="26">
         <v>100</v>
       </c>
-      <c r="CQ169" s="11"/>
+      <c r="CQ169" s="26">
+        <v>100</v>
+      </c>
       <c r="CR169" s="11"/>
       <c r="CS169" s="11"/>
       <c r="CT169" s="11"/>
@@ -32653,6 +32840,7 @@
       <c r="CN170" s="16"/>
       <c r="CO170" s="16"/>
       <c r="CP170" s="16"/>
+      <c r="CQ170" s="16"/>
     </row>
     <row r="171" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A171" s="18" t="s">
@@ -32999,108 +33187,108 @@
     </row>
     <row r="182" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A182" s="4"/>
-      <c r="B182" s="35">
+      <c r="B182" s="33">
         <v>2000</v>
       </c>
-      <c r="C182" s="35"/>
-      <c r="D182" s="35"/>
-      <c r="E182" s="35"/>
-      <c r="F182" s="35">
+      <c r="C182" s="33"/>
+      <c r="D182" s="33"/>
+      <c r="E182" s="33"/>
+      <c r="F182" s="33">
         <v>2001</v>
       </c>
-      <c r="G182" s="35"/>
-      <c r="H182" s="35"/>
-      <c r="I182" s="35"/>
-      <c r="J182" s="35">
+      <c r="G182" s="33"/>
+      <c r="H182" s="33"/>
+      <c r="I182" s="33"/>
+      <c r="J182" s="33">
         <v>2002</v>
       </c>
-      <c r="K182" s="35"/>
-      <c r="L182" s="35"/>
-      <c r="M182" s="35"/>
-      <c r="N182" s="35">
+      <c r="K182" s="33"/>
+      <c r="L182" s="33"/>
+      <c r="M182" s="33"/>
+      <c r="N182" s="33">
         <v>2003</v>
       </c>
-      <c r="O182" s="35"/>
-      <c r="P182" s="35"/>
-      <c r="Q182" s="35"/>
-      <c r="R182" s="35">
+      <c r="O182" s="33"/>
+      <c r="P182" s="33"/>
+      <c r="Q182" s="33"/>
+      <c r="R182" s="33">
         <v>2004</v>
       </c>
-      <c r="S182" s="35"/>
-      <c r="T182" s="35"/>
-      <c r="U182" s="35"/>
-      <c r="V182" s="35">
+      <c r="S182" s="33"/>
+      <c r="T182" s="33"/>
+      <c r="U182" s="33"/>
+      <c r="V182" s="33">
         <v>2005</v>
       </c>
-      <c r="W182" s="35"/>
-      <c r="X182" s="35"/>
-      <c r="Y182" s="35"/>
-      <c r="Z182" s="35">
+      <c r="W182" s="33"/>
+      <c r="X182" s="33"/>
+      <c r="Y182" s="33"/>
+      <c r="Z182" s="33">
         <v>2006</v>
       </c>
-      <c r="AA182" s="35"/>
-      <c r="AB182" s="35"/>
-      <c r="AC182" s="35"/>
-      <c r="AD182" s="35">
+      <c r="AA182" s="33"/>
+      <c r="AB182" s="33"/>
+      <c r="AC182" s="33"/>
+      <c r="AD182" s="33">
         <v>2007</v>
       </c>
-      <c r="AE182" s="35"/>
-      <c r="AF182" s="35"/>
-      <c r="AG182" s="35"/>
-      <c r="AH182" s="35">
+      <c r="AE182" s="33"/>
+      <c r="AF182" s="33"/>
+      <c r="AG182" s="33"/>
+      <c r="AH182" s="33">
         <v>2008</v>
       </c>
-      <c r="AI182" s="35"/>
-      <c r="AJ182" s="35"/>
-      <c r="AK182" s="35"/>
-      <c r="AL182" s="35">
+      <c r="AI182" s="33"/>
+      <c r="AJ182" s="33"/>
+      <c r="AK182" s="33"/>
+      <c r="AL182" s="33">
         <v>2009</v>
       </c>
-      <c r="AM182" s="35"/>
-      <c r="AN182" s="35"/>
-      <c r="AO182" s="35"/>
-      <c r="AP182" s="35">
+      <c r="AM182" s="33"/>
+      <c r="AN182" s="33"/>
+      <c r="AO182" s="33"/>
+      <c r="AP182" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ182" s="35"/>
-      <c r="AR182" s="35"/>
-      <c r="AS182" s="35"/>
-      <c r="AT182" s="35">
+      <c r="AQ182" s="33"/>
+      <c r="AR182" s="33"/>
+      <c r="AS182" s="33"/>
+      <c r="AT182" s="33">
         <v>2011</v>
       </c>
-      <c r="AU182" s="35"/>
-      <c r="AV182" s="35"/>
-      <c r="AW182" s="35"/>
-      <c r="AX182" s="35">
+      <c r="AU182" s="33"/>
+      <c r="AV182" s="33"/>
+      <c r="AW182" s="33"/>
+      <c r="AX182" s="33">
         <v>2012</v>
       </c>
-      <c r="AY182" s="35"/>
-      <c r="AZ182" s="35"/>
-      <c r="BA182" s="35"/>
-      <c r="BB182" s="35">
+      <c r="AY182" s="33"/>
+      <c r="AZ182" s="33"/>
+      <c r="BA182" s="33"/>
+      <c r="BB182" s="33">
         <v>2013</v>
       </c>
-      <c r="BC182" s="35"/>
-      <c r="BD182" s="35"/>
-      <c r="BE182" s="35"/>
-      <c r="BF182" s="35">
+      <c r="BC182" s="33"/>
+      <c r="BD182" s="33"/>
+      <c r="BE182" s="33"/>
+      <c r="BF182" s="33">
         <v>2014</v>
       </c>
-      <c r="BG182" s="35"/>
-      <c r="BH182" s="35"/>
-      <c r="BI182" s="35"/>
-      <c r="BJ182" s="35">
+      <c r="BG182" s="33"/>
+      <c r="BH182" s="33"/>
+      <c r="BI182" s="33"/>
+      <c r="BJ182" s="33">
         <v>2015</v>
       </c>
-      <c r="BK182" s="35"/>
-      <c r="BL182" s="35"/>
-      <c r="BM182" s="35"/>
-      <c r="BN182" s="35">
+      <c r="BK182" s="33"/>
+      <c r="BL182" s="33"/>
+      <c r="BM182" s="33"/>
+      <c r="BN182" s="33">
         <v>2016</v>
       </c>
-      <c r="BO182" s="35"/>
-      <c r="BP182" s="35"/>
-      <c r="BQ182" s="35"/>
+      <c r="BO182" s="33"/>
+      <c r="BP182" s="33"/>
+      <c r="BQ182" s="33"/>
       <c r="BR182" s="34">
         <v>2017</v>
       </c>
@@ -33137,9 +33325,10 @@
       <c r="CM182" s="34"/>
       <c r="CN182" s="34"/>
       <c r="CO182" s="34"/>
-      <c r="CP182" s="30">
+      <c r="CP182" s="34">
         <v>2023</v>
       </c>
+      <c r="CQ182" s="35"/>
     </row>
     <row r="183" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
@@ -33423,6 +33612,9 @@
       </c>
       <c r="CP183" s="7" t="s">
         <v>19</v>
+      </c>
+      <c r="CQ183" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="184" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -33709,9 +33901,11 @@
         <v>38.476312795146747</v>
       </c>
       <c r="CP185" s="26">
-        <v>34.288987994663479</v>
-      </c>
-      <c r="CQ185" s="11"/>
+        <v>34.21473607569947</v>
+      </c>
+      <c r="CQ185" s="26">
+        <v>38.043596475138862</v>
+      </c>
       <c r="CR185" s="11"/>
       <c r="CS185" s="11"/>
       <c r="CT185" s="11"/>
@@ -34052,9 +34246,11 @@
         <v>1.6490181956184811</v>
       </c>
       <c r="CP186" s="26">
-        <v>1.3738270224762841</v>
-      </c>
-      <c r="CQ186" s="11"/>
+        <v>1.3644108705607478</v>
+      </c>
+      <c r="CQ186" s="26">
+        <v>1.2278318993276567</v>
+      </c>
       <c r="CR186" s="11"/>
       <c r="CS186" s="11"/>
       <c r="CT186" s="11"/>
@@ -34395,9 +34591,11 @@
         <v>1.9172808085196866</v>
       </c>
       <c r="CP187" s="26">
-        <v>1.4238721199396078</v>
-      </c>
-      <c r="CQ187" s="11"/>
+        <v>1.4445338583089546</v>
+      </c>
+      <c r="CQ187" s="26">
+        <v>1.1383055629952745</v>
+      </c>
       <c r="CR187" s="11"/>
       <c r="CS187" s="11"/>
       <c r="CT187" s="11"/>
@@ -34738,9 +34936,11 @@
         <v>11.048325223907147</v>
       </c>
       <c r="CP188" s="26">
-        <v>11.953063082414705</v>
-      </c>
-      <c r="CQ188" s="11"/>
+        <v>11.95925771947735</v>
+      </c>
+      <c r="CQ188" s="26">
+        <v>15.453890074156352</v>
+      </c>
       <c r="CR188" s="11"/>
       <c r="CS188" s="11"/>
       <c r="CT188" s="11"/>
@@ -35081,9 +35281,11 @@
         <v>2.802373208131514</v>
       </c>
       <c r="CP189" s="26">
-        <v>2.516999910447236</v>
-      </c>
-      <c r="CQ189" s="11"/>
+        <v>2.5235947740450602</v>
+      </c>
+      <c r="CQ189" s="26">
+        <v>2.4869202891716133</v>
+      </c>
       <c r="CR189" s="11"/>
       <c r="CS189" s="11"/>
       <c r="CT189" s="11"/>
@@ -35424,9 +35626,11 @@
         <v>4.0650234125140683</v>
       </c>
       <c r="CP190" s="26">
-        <v>4.40114334598585</v>
-      </c>
-      <c r="CQ190" s="11"/>
+        <v>4.4213548067123281</v>
+      </c>
+      <c r="CQ190" s="26">
+        <v>3.8442487044878009</v>
+      </c>
       <c r="CR190" s="11"/>
       <c r="CS190" s="11"/>
       <c r="CT190" s="11"/>
@@ -35767,9 +35971,11 @@
         <v>7.0833636123509072</v>
       </c>
       <c r="CP191" s="26">
-        <v>9.6811251066827708</v>
-      </c>
-      <c r="CQ191" s="11"/>
+        <v>9.6660702385515389</v>
+      </c>
+      <c r="CQ191" s="26">
+        <v>8.613220178513032</v>
+      </c>
       <c r="CR191" s="11"/>
       <c r="CS191" s="11"/>
       <c r="CT191" s="11"/>
@@ -36110,9 +36316,11 @@
         <v>3.0947443667314065</v>
       </c>
       <c r="CP192" s="26">
-        <v>3.2747743711608526</v>
-      </c>
-      <c r="CQ192" s="11"/>
+        <v>3.2807698735642807</v>
+      </c>
+      <c r="CQ192" s="26">
+        <v>3.6538283329287284</v>
+      </c>
       <c r="CR192" s="11"/>
       <c r="CS192" s="11"/>
       <c r="CT192" s="11"/>
@@ -36453,9 +36661,11 @@
         <v>1.879917694815243</v>
       </c>
       <c r="CP193" s="26">
-        <v>1.8736997983275285</v>
-      </c>
-      <c r="CQ193" s="11"/>
+        <v>1.8967387077809454</v>
+      </c>
+      <c r="CQ193" s="26">
+        <v>1.3690530190024817</v>
+      </c>
       <c r="CR193" s="11"/>
       <c r="CS193" s="11"/>
       <c r="CT193" s="11"/>
@@ -36796,9 +37006,11 @@
         <v>5.1272646206983881</v>
       </c>
       <c r="CP194" s="26">
-        <v>5.6797402199041747</v>
-      </c>
-      <c r="CQ194" s="11"/>
+        <v>5.6949105125756105</v>
+      </c>
+      <c r="CQ194" s="26">
+        <v>5.2346570093334677</v>
+      </c>
       <c r="CR194" s="11"/>
       <c r="CS194" s="11"/>
       <c r="CT194" s="11"/>
@@ -37139,9 +37351,11 @@
         <v>7.6340247187200703</v>
       </c>
       <c r="CP195" s="26">
-        <v>9.4992149974668294</v>
-      </c>
-      <c r="CQ195" s="11"/>
+        <v>9.5061826211599332</v>
+      </c>
+      <c r="CQ195" s="26">
+        <v>5.7859656800128247</v>
+      </c>
       <c r="CR195" s="11"/>
       <c r="CS195" s="11"/>
       <c r="CT195" s="11"/>
@@ -37482,9 +37696,11 @@
         <v>15.222351342846343</v>
       </c>
       <c r="CP196" s="26">
-        <v>14.033552030530682</v>
-      </c>
-      <c r="CQ196" s="11"/>
+        <v>14.027439941563799</v>
+      </c>
+      <c r="CQ196" s="26">
+        <v>13.148482774931908</v>
+      </c>
       <c r="CR196" s="11"/>
       <c r="CS196" s="11"/>
       <c r="CT196" s="11"/>
@@ -37981,7 +38197,9 @@
       <c r="CP198" s="26">
         <v>100</v>
       </c>
-      <c r="CQ198" s="11"/>
+      <c r="CQ198" s="26">
+        <v>100</v>
+      </c>
       <c r="CR198" s="11"/>
       <c r="CS198" s="11"/>
       <c r="CT198" s="11"/>
@@ -38136,6 +38354,7 @@
       <c r="CN199" s="16"/>
       <c r="CO199" s="16"/>
       <c r="CP199" s="16"/>
+      <c r="CQ199" s="16"/>
     </row>
     <row r="200" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A200" s="18" t="s">
@@ -38237,7 +38456,7 @@
       <c r="CN201" s="1"/>
       <c r="CO201" s="1"/>
       <c r="CP201" s="1"/>
-      <c r="CQ201" s="28"/>
+      <c r="CQ201" s="1"/>
       <c r="CR201" s="28"/>
       <c r="CS201" s="28"/>
       <c r="CT201" s="28"/>
@@ -38392,7 +38611,7 @@
       <c r="CN202" s="1"/>
       <c r="CO202" s="1"/>
       <c r="CP202" s="1"/>
-      <c r="CQ202" s="28"/>
+      <c r="CQ202" s="1"/>
       <c r="CR202" s="28"/>
       <c r="CS202" s="28"/>
       <c r="CT202" s="28"/>
@@ -38453,23 +38672,138 @@
       <c r="EW202" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="159">
+  <mergeCells count="168">
+    <mergeCell ref="CP9:CQ9"/>
+    <mergeCell ref="CP38:CQ38"/>
+    <mergeCell ref="CP124:CQ124"/>
+    <mergeCell ref="CP153:CQ153"/>
+    <mergeCell ref="CP182:CQ182"/>
+    <mergeCell ref="CL67:CO67"/>
+    <mergeCell ref="CP67:CQ67"/>
+    <mergeCell ref="CL96:CO96"/>
+    <mergeCell ref="CP96:CQ96"/>
     <mergeCell ref="CL182:CO182"/>
-    <mergeCell ref="B182:E182"/>
-    <mergeCell ref="F182:I182"/>
-    <mergeCell ref="J182:M182"/>
-    <mergeCell ref="N182:Q182"/>
-    <mergeCell ref="R182:U182"/>
-    <mergeCell ref="V182:Y182"/>
-    <mergeCell ref="Z182:AC182"/>
-    <mergeCell ref="AD182:AG182"/>
-    <mergeCell ref="AH182:AK182"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH38:CK38"/>
+    <mergeCell ref="CL9:CO9"/>
+    <mergeCell ref="CL38:CO38"/>
+    <mergeCell ref="CH67:CK67"/>
+    <mergeCell ref="CH96:CK96"/>
+    <mergeCell ref="CL124:CO124"/>
+    <mergeCell ref="CH124:CK124"/>
+    <mergeCell ref="CH153:CK153"/>
+    <mergeCell ref="CL153:CO153"/>
+    <mergeCell ref="AH124:AK124"/>
+    <mergeCell ref="BR182:BU182"/>
+    <mergeCell ref="BV182:BY182"/>
+    <mergeCell ref="BZ124:CC124"/>
+    <mergeCell ref="BR124:BU124"/>
+    <mergeCell ref="BV124:BY124"/>
+    <mergeCell ref="BR153:BU153"/>
+    <mergeCell ref="BV153:BY153"/>
+    <mergeCell ref="BZ153:CC153"/>
+    <mergeCell ref="AH153:AK153"/>
+    <mergeCell ref="BN182:BQ182"/>
+    <mergeCell ref="BB153:BE153"/>
+    <mergeCell ref="BF153:BI153"/>
+    <mergeCell ref="BJ153:BM153"/>
+    <mergeCell ref="BN153:BQ153"/>
+    <mergeCell ref="AP153:AS153"/>
+    <mergeCell ref="AT153:AW153"/>
+    <mergeCell ref="AX153:BA153"/>
+    <mergeCell ref="AX182:BA182"/>
+    <mergeCell ref="BB182:BE182"/>
+    <mergeCell ref="BZ182:CC182"/>
+    <mergeCell ref="AL182:AO182"/>
     <mergeCell ref="AP182:AS182"/>
     <mergeCell ref="AT182:AW182"/>
-    <mergeCell ref="BF182:BI182"/>
-    <mergeCell ref="BJ182:BM182"/>
-    <mergeCell ref="CH182:CK182"/>
-    <mergeCell ref="CD182:CG182"/>
+    <mergeCell ref="BV38:BY38"/>
+    <mergeCell ref="BZ67:CC67"/>
+    <mergeCell ref="BZ96:CC96"/>
+    <mergeCell ref="BJ96:BM96"/>
+    <mergeCell ref="BB38:BE38"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD38:CG38"/>
+    <mergeCell ref="CD124:CG124"/>
+    <mergeCell ref="CD153:CG153"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BR67:BU67"/>
+    <mergeCell ref="BV67:BY67"/>
+    <mergeCell ref="BR96:BU96"/>
+    <mergeCell ref="BV96:BY96"/>
+    <mergeCell ref="BZ38:CC38"/>
+    <mergeCell ref="CD67:CG67"/>
+    <mergeCell ref="CD96:CG96"/>
+    <mergeCell ref="BJ38:BM38"/>
+    <mergeCell ref="BR38:BU38"/>
+    <mergeCell ref="BF124:BI124"/>
+    <mergeCell ref="BJ124:BM124"/>
+    <mergeCell ref="BN124:BQ124"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="AL153:AO153"/>
+    <mergeCell ref="AL124:AO124"/>
+    <mergeCell ref="AP124:AS124"/>
+    <mergeCell ref="AT124:AW124"/>
+    <mergeCell ref="AX124:BA124"/>
+    <mergeCell ref="BB124:BE124"/>
+    <mergeCell ref="BN38:BQ38"/>
+    <mergeCell ref="BN96:BQ96"/>
+    <mergeCell ref="AL96:AO96"/>
+    <mergeCell ref="AP96:AS96"/>
+    <mergeCell ref="AT96:AW96"/>
+    <mergeCell ref="AX96:BA96"/>
+    <mergeCell ref="BB96:BE96"/>
+    <mergeCell ref="BF96:BI96"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="AX67:BA67"/>
+    <mergeCell ref="BB67:BE67"/>
+    <mergeCell ref="BF67:BI67"/>
+    <mergeCell ref="BJ67:BM67"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AL67:AO67"/>
+    <mergeCell ref="AP67:AS67"/>
+    <mergeCell ref="AT67:AW67"/>
+    <mergeCell ref="Z38:AC38"/>
+    <mergeCell ref="AD38:AG38"/>
+    <mergeCell ref="AH38:AK38"/>
+    <mergeCell ref="AL38:AO38"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AP38:AS38"/>
+    <mergeCell ref="AT38:AW38"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="BN67:BQ67"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="N38:Q38"/>
+    <mergeCell ref="R38:U38"/>
+    <mergeCell ref="V38:Y38"/>
+    <mergeCell ref="AH96:AK96"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="N67:Q67"/>
+    <mergeCell ref="R67:U67"/>
+    <mergeCell ref="V67:Y67"/>
+    <mergeCell ref="Z67:AC67"/>
+    <mergeCell ref="AD67:AG67"/>
+    <mergeCell ref="AH67:AK67"/>
+    <mergeCell ref="BF38:BI38"/>
+    <mergeCell ref="AX38:BA38"/>
     <mergeCell ref="V153:Y153"/>
     <mergeCell ref="Z153:AC153"/>
     <mergeCell ref="AD153:AG153"/>
@@ -38494,133 +38828,27 @@
     <mergeCell ref="J153:M153"/>
     <mergeCell ref="N153:Q153"/>
     <mergeCell ref="R153:U153"/>
-    <mergeCell ref="BN67:BQ67"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="R38:U38"/>
-    <mergeCell ref="V38:Y38"/>
-    <mergeCell ref="AH96:AK96"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="N67:Q67"/>
-    <mergeCell ref="R67:U67"/>
-    <mergeCell ref="V67:Y67"/>
-    <mergeCell ref="Z67:AC67"/>
-    <mergeCell ref="AD67:AG67"/>
-    <mergeCell ref="AH67:AK67"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AL67:AO67"/>
-    <mergeCell ref="AP67:AS67"/>
-    <mergeCell ref="AT67:AW67"/>
-    <mergeCell ref="Z38:AC38"/>
-    <mergeCell ref="AD38:AG38"/>
-    <mergeCell ref="AH38:AK38"/>
-    <mergeCell ref="AL38:AO38"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="BF38:BI38"/>
-    <mergeCell ref="AP38:AS38"/>
-    <mergeCell ref="AT38:AW38"/>
-    <mergeCell ref="AX38:BA38"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="AL153:AO153"/>
-    <mergeCell ref="AL124:AO124"/>
-    <mergeCell ref="AP124:AS124"/>
-    <mergeCell ref="AT124:AW124"/>
-    <mergeCell ref="AX124:BA124"/>
-    <mergeCell ref="BB124:BE124"/>
-    <mergeCell ref="BN38:BQ38"/>
-    <mergeCell ref="BN96:BQ96"/>
-    <mergeCell ref="AL96:AO96"/>
-    <mergeCell ref="AP96:AS96"/>
-    <mergeCell ref="AT96:AW96"/>
-    <mergeCell ref="AX96:BA96"/>
-    <mergeCell ref="BB96:BE96"/>
-    <mergeCell ref="BF96:BI96"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="AX67:BA67"/>
-    <mergeCell ref="BB67:BE67"/>
-    <mergeCell ref="BF67:BI67"/>
-    <mergeCell ref="BJ67:BM67"/>
-    <mergeCell ref="BV38:BY38"/>
-    <mergeCell ref="BZ67:CC67"/>
-    <mergeCell ref="BZ96:CC96"/>
-    <mergeCell ref="BJ96:BM96"/>
-    <mergeCell ref="BB38:BE38"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD38:CG38"/>
-    <mergeCell ref="CD124:CG124"/>
-    <mergeCell ref="CD153:CG153"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BR67:BU67"/>
-    <mergeCell ref="BV67:BY67"/>
-    <mergeCell ref="BR96:BU96"/>
-    <mergeCell ref="BV96:BY96"/>
-    <mergeCell ref="BZ38:CC38"/>
-    <mergeCell ref="CD67:CG67"/>
-    <mergeCell ref="CD96:CG96"/>
-    <mergeCell ref="BJ38:BM38"/>
-    <mergeCell ref="BR38:BU38"/>
-    <mergeCell ref="BF124:BI124"/>
-    <mergeCell ref="BJ124:BM124"/>
-    <mergeCell ref="BN124:BQ124"/>
-    <mergeCell ref="AH124:AK124"/>
-    <mergeCell ref="BR182:BU182"/>
-    <mergeCell ref="BV182:BY182"/>
-    <mergeCell ref="BZ124:CC124"/>
-    <mergeCell ref="BR124:BU124"/>
-    <mergeCell ref="BV124:BY124"/>
-    <mergeCell ref="BR153:BU153"/>
-    <mergeCell ref="BV153:BY153"/>
-    <mergeCell ref="BZ153:CC153"/>
-    <mergeCell ref="AH153:AK153"/>
-    <mergeCell ref="BN182:BQ182"/>
-    <mergeCell ref="BB153:BE153"/>
-    <mergeCell ref="BF153:BI153"/>
-    <mergeCell ref="BJ153:BM153"/>
-    <mergeCell ref="BN153:BQ153"/>
-    <mergeCell ref="AP153:AS153"/>
-    <mergeCell ref="AT153:AW153"/>
-    <mergeCell ref="AX153:BA153"/>
-    <mergeCell ref="AX182:BA182"/>
-    <mergeCell ref="BB182:BE182"/>
-    <mergeCell ref="BZ182:CC182"/>
-    <mergeCell ref="AL182:AO182"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH38:CK38"/>
-    <mergeCell ref="CL9:CO9"/>
-    <mergeCell ref="CL38:CO38"/>
-    <mergeCell ref="CH67:CK67"/>
-    <mergeCell ref="CH96:CK96"/>
-    <mergeCell ref="CL124:CO124"/>
-    <mergeCell ref="CH124:CK124"/>
-    <mergeCell ref="CH153:CK153"/>
-    <mergeCell ref="CL153:CO153"/>
+    <mergeCell ref="BF182:BI182"/>
+    <mergeCell ref="BJ182:BM182"/>
+    <mergeCell ref="CH182:CK182"/>
+    <mergeCell ref="CD182:CG182"/>
+    <mergeCell ref="B182:E182"/>
+    <mergeCell ref="F182:I182"/>
+    <mergeCell ref="J182:M182"/>
+    <mergeCell ref="N182:Q182"/>
+    <mergeCell ref="R182:U182"/>
+    <mergeCell ref="V182:Y182"/>
+    <mergeCell ref="Z182:AC182"/>
+    <mergeCell ref="AD182:AG182"/>
+    <mergeCell ref="AH182:AK182"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="44" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="58" max="93" man="1"/>
-    <brk id="116" max="93" man="1"/>
-    <brk id="144" max="93" man="1"/>
+    <brk id="58" max="94" man="1"/>
+    <brk id="116" max="94" man="1"/>
+    <brk id="144" max="94" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-02HFCE_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-02HFCE_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8535EF9B-B114-443D-A2D2-CF5D8FA4E22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56C268E-1103-45AA-BCB4-EC6CA71AE781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="390" windowWidth="28770" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HFCE" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="PCE_Per_Anl">#REF!</definedName>
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HFCE!$A$1:$CQ$202</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HFCE!$A$1:$CR$202</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="62">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -223,13 +223,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of August 2023</t>
+    <t>As of November 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2023</t>
+    <t>Q1 2000 to Q3 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2023</t>
+    <t>Q1 2001 to Q3 2023</t>
   </si>
 </sst>
 </file>
@@ -318,7 +318,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -365,10 +365,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -712,7 +716,7 @@
       <selection activeCell="CA66" sqref="CA66"/>
       <selection pane="topRight" activeCell="CA66" sqref="CA66"/>
       <selection pane="bottomLeft" activeCell="CA66" sqref="CA66"/>
-      <selection pane="bottomRight" activeCell="CQ4" sqref="CQ4"/>
+      <selection pane="bottomRight" activeCell="CL1" sqref="CL1:CR1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -734,8 +738,9 @@
     <col min="74" max="74" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="75" max="77" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="95" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="96" max="16384" width="7.77734375" style="1"/>
+    <col min="79" max="89" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="90" max="96" width="13.5546875" style="2" customWidth="1"/>
+    <col min="97" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:153" x14ac:dyDescent="0.2">
@@ -770,148 +775,149 @@
     </row>
     <row r="9" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="33">
+      <c r="B9" s="38">
         <v>2000</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33">
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38">
         <v>2001</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33">
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38">
         <v>2002</v>
       </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33">
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38">
         <v>2003</v>
       </c>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33">
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38">
         <v>2004</v>
       </c>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33">
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38">
         <v>2005</v>
       </c>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33">
+      <c r="W9" s="38"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38">
         <v>2006</v>
       </c>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="33"/>
-      <c r="AD9" s="33">
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="38"/>
+      <c r="AC9" s="38"/>
+      <c r="AD9" s="38">
         <v>2007</v>
       </c>
-      <c r="AE9" s="33"/>
-      <c r="AF9" s="33"/>
-      <c r="AG9" s="33"/>
-      <c r="AH9" s="33">
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="38"/>
+      <c r="AG9" s="38"/>
+      <c r="AH9" s="38">
         <v>2008</v>
       </c>
-      <c r="AI9" s="33"/>
-      <c r="AJ9" s="33"/>
-      <c r="AK9" s="33"/>
-      <c r="AL9" s="33">
+      <c r="AI9" s="38"/>
+      <c r="AJ9" s="38"/>
+      <c r="AK9" s="38"/>
+      <c r="AL9" s="38">
         <v>2009</v>
       </c>
-      <c r="AM9" s="33"/>
-      <c r="AN9" s="33"/>
-      <c r="AO9" s="33"/>
-      <c r="AP9" s="33">
+      <c r="AM9" s="38"/>
+      <c r="AN9" s="38"/>
+      <c r="AO9" s="38"/>
+      <c r="AP9" s="38">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="33"/>
-      <c r="AR9" s="33"/>
-      <c r="AS9" s="33"/>
-      <c r="AT9" s="33">
+      <c r="AQ9" s="38"/>
+      <c r="AR9" s="38"/>
+      <c r="AS9" s="38"/>
+      <c r="AT9" s="38">
         <v>2011</v>
       </c>
-      <c r="AU9" s="33"/>
-      <c r="AV9" s="33"/>
-      <c r="AW9" s="33"/>
-      <c r="AX9" s="33">
+      <c r="AU9" s="38"/>
+      <c r="AV9" s="38"/>
+      <c r="AW9" s="38"/>
+      <c r="AX9" s="38">
         <v>2012</v>
       </c>
-      <c r="AY9" s="33"/>
-      <c r="AZ9" s="33"/>
-      <c r="BA9" s="33"/>
-      <c r="BB9" s="33">
+      <c r="AY9" s="38"/>
+      <c r="AZ9" s="38"/>
+      <c r="BA9" s="38"/>
+      <c r="BB9" s="38">
         <v>2013</v>
       </c>
-      <c r="BC9" s="33"/>
-      <c r="BD9" s="33"/>
-      <c r="BE9" s="33"/>
-      <c r="BF9" s="33">
+      <c r="BC9" s="38"/>
+      <c r="BD9" s="38"/>
+      <c r="BE9" s="38"/>
+      <c r="BF9" s="38">
         <v>2014</v>
       </c>
-      <c r="BG9" s="33"/>
-      <c r="BH9" s="33"/>
-      <c r="BI9" s="33"/>
-      <c r="BJ9" s="33">
+      <c r="BG9" s="38"/>
+      <c r="BH9" s="38"/>
+      <c r="BI9" s="38"/>
+      <c r="BJ9" s="38">
         <v>2015</v>
       </c>
-      <c r="BK9" s="33"/>
-      <c r="BL9" s="33"/>
-      <c r="BM9" s="33"/>
-      <c r="BN9" s="33">
+      <c r="BK9" s="38"/>
+      <c r="BL9" s="38"/>
+      <c r="BM9" s="38"/>
+      <c r="BN9" s="38">
         <v>2016</v>
       </c>
-      <c r="BO9" s="33"/>
-      <c r="BP9" s="33"/>
-      <c r="BQ9" s="33"/>
-      <c r="BR9" s="34">
+      <c r="BO9" s="38"/>
+      <c r="BP9" s="38"/>
+      <c r="BQ9" s="38"/>
+      <c r="BR9" s="39">
         <v>2017</v>
       </c>
-      <c r="BS9" s="34"/>
-      <c r="BT9" s="34"/>
-      <c r="BU9" s="34"/>
-      <c r="BV9" s="34">
+      <c r="BS9" s="39"/>
+      <c r="BT9" s="39"/>
+      <c r="BU9" s="39"/>
+      <c r="BV9" s="39">
         <v>2018</v>
       </c>
-      <c r="BW9" s="34"/>
-      <c r="BX9" s="34"/>
-      <c r="BY9" s="34"/>
-      <c r="BZ9" s="34">
+      <c r="BW9" s="39"/>
+      <c r="BX9" s="39"/>
+      <c r="BY9" s="39"/>
+      <c r="BZ9" s="39">
         <v>2019</v>
       </c>
-      <c r="CA9" s="34"/>
-      <c r="CB9" s="34"/>
-      <c r="CC9" s="34"/>
-      <c r="CD9" s="34">
+      <c r="CA9" s="39"/>
+      <c r="CB9" s="39"/>
+      <c r="CC9" s="39"/>
+      <c r="CD9" s="39">
         <v>2020</v>
       </c>
-      <c r="CE9" s="34"/>
-      <c r="CF9" s="34"/>
-      <c r="CG9" s="34"/>
-      <c r="CH9" s="34">
+      <c r="CE9" s="39"/>
+      <c r="CF9" s="39"/>
+      <c r="CG9" s="39"/>
+      <c r="CH9" s="39">
         <v>2021</v>
       </c>
-      <c r="CI9" s="34"/>
-      <c r="CJ9" s="34"/>
-      <c r="CK9" s="34"/>
-      <c r="CL9" s="34">
+      <c r="CI9" s="39"/>
+      <c r="CJ9" s="39"/>
+      <c r="CK9" s="39"/>
+      <c r="CL9" s="38">
         <v>2022</v>
       </c>
-      <c r="CM9" s="34"/>
-      <c r="CN9" s="34"/>
-      <c r="CO9" s="34"/>
-      <c r="CP9" s="34">
+      <c r="CM9" s="38"/>
+      <c r="CN9" s="38"/>
+      <c r="CO9" s="38"/>
+      <c r="CP9" s="38">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="35"/>
+      <c r="CQ9" s="38"/>
+      <c r="CR9" s="38"/>
     </row>
     <row r="10" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -1181,23 +1187,26 @@
       <c r="CK10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CL10" s="7" t="s">
+      <c r="CL10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="CM10" s="7" t="s">
+      <c r="CM10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="CN10" s="7" t="s">
+      <c r="CN10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="CO10" s="7" t="s">
+      <c r="CO10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="CP10" s="7" t="s">
+      <c r="CP10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="CQ10" s="7" t="s">
+      <c r="CQ10" s="6" t="s">
         <v>20</v>
+      </c>
+      <c r="CR10" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1471,25 +1480,27 @@
       <c r="CK12" s="10">
         <v>1690880.3451856137</v>
       </c>
-      <c r="CL12" s="10">
+      <c r="CL12" s="9">
         <v>1383392.0048945465</v>
       </c>
-      <c r="CM12" s="10">
+      <c r="CM12" s="9">
         <v>1564274.8680853865</v>
       </c>
-      <c r="CN12" s="10">
+      <c r="CN12" s="9">
         <v>1452966.6181643624</v>
       </c>
-      <c r="CO12" s="10">
+      <c r="CO12" s="9">
         <v>1931500.2484176089</v>
       </c>
-      <c r="CP12" s="10">
+      <c r="CP12" s="9">
         <v>1534902.7290848328</v>
       </c>
-      <c r="CQ12" s="10">
-        <v>1686600.4695069194</v>
-      </c>
-      <c r="CR12" s="11"/>
+      <c r="CQ12" s="9">
+        <v>1685996.4564988299</v>
+      </c>
+      <c r="CR12" s="9">
+        <v>1567690.8643476891</v>
+      </c>
       <c r="CS12" s="11"/>
       <c r="CT12" s="11"/>
       <c r="CU12" s="11"/>
@@ -1816,25 +1827,27 @@
       <c r="CK13" s="10">
         <v>95079.966968849665</v>
       </c>
-      <c r="CL13" s="10">
+      <c r="CL13" s="9">
         <v>70726.395920509851</v>
       </c>
-      <c r="CM13" s="10">
+      <c r="CM13" s="9">
         <v>75224.766215338052</v>
       </c>
-      <c r="CN13" s="10">
+      <c r="CN13" s="9">
         <v>73988.939524007612</v>
       </c>
-      <c r="CO13" s="10">
+      <c r="CO13" s="9">
         <v>109227.64524527798</v>
       </c>
-      <c r="CP13" s="10">
+      <c r="CP13" s="9">
         <v>78577.262359796136</v>
       </c>
-      <c r="CQ13" s="10">
-        <v>76717.762177284254</v>
-      </c>
-      <c r="CR13" s="11"/>
+      <c r="CQ13" s="9">
+        <v>77453.403479135828</v>
+      </c>
+      <c r="CR13" s="9">
+        <v>81695.092256804375</v>
+      </c>
       <c r="CS13" s="11"/>
       <c r="CT13" s="11"/>
       <c r="CU13" s="11"/>
@@ -2161,25 +2174,27 @@
       <c r="CK14" s="10">
         <v>76081.423775545365</v>
       </c>
-      <c r="CL14" s="10">
+      <c r="CL14" s="9">
         <v>57846.206084560916</v>
       </c>
-      <c r="CM14" s="10">
+      <c r="CM14" s="9">
         <v>65091.509933443755</v>
       </c>
-      <c r="CN14" s="10">
+      <c r="CN14" s="9">
         <v>69580.189789870652</v>
       </c>
-      <c r="CO14" s="10">
+      <c r="CO14" s="9">
         <v>86797.581272444193</v>
       </c>
-      <c r="CP14" s="10">
+      <c r="CP14" s="9">
         <v>59142.699532093626</v>
       </c>
-      <c r="CQ14" s="10">
-        <v>49734.51545580048</v>
-      </c>
-      <c r="CR14" s="11"/>
+      <c r="CQ14" s="9">
+        <v>50347.697782978546</v>
+      </c>
+      <c r="CR14" s="9">
+        <v>64519.418771353005</v>
+      </c>
       <c r="CS14" s="11"/>
       <c r="CT14" s="11"/>
       <c r="CU14" s="11"/>
@@ -2506,25 +2521,27 @@
       <c r="CK15" s="10">
         <v>485121.81906793592</v>
       </c>
-      <c r="CL15" s="10">
+      <c r="CL15" s="9">
         <v>443892.4360467603</v>
       </c>
-      <c r="CM15" s="10">
+      <c r="CM15" s="9">
         <v>575919.96011569072</v>
       </c>
-      <c r="CN15" s="10">
+      <c r="CN15" s="9">
         <v>523413.55395594909</v>
       </c>
-      <c r="CO15" s="10">
+      <c r="CO15" s="9">
         <v>542954.16776765871</v>
       </c>
-      <c r="CP15" s="10">
+      <c r="CP15" s="9">
         <v>499104.71244148072</v>
       </c>
-      <c r="CQ15" s="10">
-        <v>648697.61821689364</v>
-      </c>
-      <c r="CR15" s="11"/>
+      <c r="CQ15" s="9">
+        <v>648785.47920105793</v>
+      </c>
+      <c r="CR15" s="9">
+        <v>563951.41211503302</v>
+      </c>
       <c r="CS15" s="11"/>
       <c r="CT15" s="11"/>
       <c r="CU15" s="11"/>
@@ -2851,25 +2868,27 @@
       <c r="CK16" s="10">
         <v>115232.79383796283</v>
       </c>
-      <c r="CL16" s="10">
+      <c r="CL16" s="9">
         <v>107318.54362644965</v>
       </c>
-      <c r="CM16" s="10">
+      <c r="CM16" s="9">
         <v>102654.88177364389</v>
       </c>
-      <c r="CN16" s="10">
+      <c r="CN16" s="9">
         <v>123790.36496422309</v>
       </c>
-      <c r="CO16" s="10">
+      <c r="CO16" s="9">
         <v>131512.8002420741</v>
       </c>
-      <c r="CP16" s="10">
+      <c r="CP16" s="9">
         <v>110439.07435267864</v>
       </c>
-      <c r="CQ16" s="10">
-        <v>105970.07916830956</v>
-      </c>
-      <c r="CR16" s="11"/>
+      <c r="CQ16" s="9">
+        <v>105474.47517155809</v>
+      </c>
+      <c r="CR16" s="9">
+        <v>126974.8918277084</v>
+      </c>
       <c r="CS16" s="11"/>
       <c r="CT16" s="11"/>
       <c r="CU16" s="11"/>
@@ -3196,25 +3215,27 @@
       <c r="CK17" s="10">
         <v>180198.24192837239</v>
       </c>
-      <c r="CL17" s="10">
+      <c r="CL17" s="9">
         <v>164585.64785757253</v>
       </c>
-      <c r="CM17" s="10">
+      <c r="CM17" s="9">
         <v>138406.19593863472</v>
       </c>
-      <c r="CN17" s="10">
+      <c r="CN17" s="9">
         <v>219169.46898576446</v>
       </c>
-      <c r="CO17" s="10">
+      <c r="CO17" s="9">
         <v>195015.04490842862</v>
       </c>
-      <c r="CP17" s="10">
+      <c r="CP17" s="9">
         <v>184071.27892650483</v>
       </c>
-      <c r="CQ17" s="10">
-        <v>156483.14364244594</v>
-      </c>
-      <c r="CR17" s="11"/>
+      <c r="CQ17" s="9">
+        <v>156645.83555380092</v>
+      </c>
+      <c r="CR17" s="9">
+        <v>241462.88777833321</v>
+      </c>
       <c r="CS17" s="11"/>
       <c r="CT17" s="11"/>
       <c r="CU17" s="11"/>
@@ -3541,25 +3562,27 @@
       <c r="CK18" s="10">
         <v>310709.64314581646</v>
       </c>
-      <c r="CL18" s="10">
+      <c r="CL18" s="9">
         <v>381571.43294314115</v>
       </c>
-      <c r="CM18" s="10">
+      <c r="CM18" s="9">
         <v>296233.49817225453</v>
       </c>
-      <c r="CN18" s="10">
+      <c r="CN18" s="9">
         <v>462893.07174638822</v>
       </c>
-      <c r="CO18" s="10">
+      <c r="CO18" s="9">
         <v>375843.52030543314</v>
       </c>
-      <c r="CP18" s="10">
+      <c r="CP18" s="9">
         <v>472851.25966836378</v>
       </c>
-      <c r="CQ18" s="10">
-        <v>384048.71192407014</v>
-      </c>
-      <c r="CR18" s="11"/>
+      <c r="CQ18" s="9">
+        <v>384940.24066138553</v>
+      </c>
+      <c r="CR18" s="9">
+        <v>523888.77807939431</v>
+      </c>
       <c r="CS18" s="11"/>
       <c r="CT18" s="11"/>
       <c r="CU18" s="11"/>
@@ -3886,25 +3909,27 @@
       <c r="CK19" s="10">
         <v>118999.06344232164</v>
       </c>
-      <c r="CL19" s="10">
+      <c r="CL19" s="9">
         <v>121218.66631277048</v>
       </c>
-      <c r="CM19" s="10">
+      <c r="CM19" s="9">
         <v>127269.09443564281</v>
       </c>
-      <c r="CN19" s="10">
+      <c r="CN19" s="9">
         <v>96972.841360500504</v>
       </c>
-      <c r="CO19" s="10">
+      <c r="CO19" s="9">
         <v>126963.0439176754</v>
       </c>
-      <c r="CP19" s="10">
+      <c r="CP19" s="9">
         <v>128102.85613251821</v>
       </c>
-      <c r="CQ19" s="10">
-        <v>134586.0823199171</v>
-      </c>
-      <c r="CR19" s="11"/>
+      <c r="CQ19" s="9">
+        <v>134057.12402480459</v>
+      </c>
+      <c r="CR19" s="9">
+        <v>103082.62411318794</v>
+      </c>
       <c r="CS19" s="11"/>
       <c r="CT19" s="11"/>
       <c r="CU19" s="11"/>
@@ -4231,25 +4256,27 @@
       <c r="CK20" s="10">
         <v>70945.452398385183</v>
       </c>
-      <c r="CL20" s="10">
+      <c r="CL20" s="9">
         <v>56384.20558903068</v>
       </c>
-      <c r="CM20" s="10">
+      <c r="CM20" s="9">
         <v>42183.229719704155</v>
       </c>
-      <c r="CN20" s="10">
+      <c r="CN20" s="9">
         <v>53248.295612308109</v>
       </c>
-      <c r="CO20" s="10">
+      <c r="CO20" s="9">
         <v>84734.360573593935</v>
       </c>
-      <c r="CP20" s="10">
+      <c r="CP20" s="9">
         <v>76403.305244792777</v>
       </c>
-      <c r="CQ20" s="10">
-        <v>53071.762457292527</v>
-      </c>
-      <c r="CR20" s="11"/>
+      <c r="CQ20" s="9">
+        <v>52572.579115914756</v>
+      </c>
+      <c r="CR20" s="9">
+        <v>63324.032656810217</v>
+      </c>
       <c r="CS20" s="11"/>
       <c r="CT20" s="11"/>
       <c r="CU20" s="11"/>
@@ -4576,25 +4603,27 @@
       <c r="CK21" s="10">
         <v>193235.44467712895</v>
       </c>
-      <c r="CL21" s="10">
+      <c r="CL21" s="9">
         <v>205904.95644780132</v>
       </c>
-      <c r="CM21" s="10">
+      <c r="CM21" s="9">
         <v>186917.19533356713</v>
       </c>
-      <c r="CN21" s="10">
+      <c r="CN21" s="9">
         <v>219963.85840075967</v>
       </c>
-      <c r="CO21" s="10">
+      <c r="CO21" s="9">
         <v>220643.41206795338</v>
       </c>
-      <c r="CP21" s="10">
+      <c r="CP21" s="9">
         <v>227528.12153380137</v>
       </c>
-      <c r="CQ21" s="10">
-        <v>207245.97407203735</v>
-      </c>
-      <c r="CR21" s="11"/>
+      <c r="CQ21" s="9">
+        <v>207552.76578739766</v>
+      </c>
+      <c r="CR21" s="9">
+        <v>242164.73085516077</v>
+      </c>
       <c r="CS21" s="11"/>
       <c r="CT21" s="11"/>
       <c r="CU21" s="11"/>
@@ -4921,25 +4950,27 @@
       <c r="CK22" s="10">
         <v>280374.78925942106</v>
       </c>
-      <c r="CL22" s="10">
+      <c r="CL22" s="9">
         <v>316823.44136322179</v>
       </c>
-      <c r="CM22" s="10">
+      <c r="CM22" s="9">
         <v>182458.71287707717</v>
       </c>
-      <c r="CN22" s="10">
+      <c r="CN22" s="9">
         <v>289973.74233885045</v>
       </c>
-      <c r="CO22" s="10">
+      <c r="CO22" s="9">
         <v>372256.41956097959</v>
       </c>
-      <c r="CP22" s="10">
+      <c r="CP22" s="9">
         <v>424434.51070063253</v>
       </c>
-      <c r="CQ22" s="10">
-        <v>243802.91132714995</v>
-      </c>
-      <c r="CR22" s="11"/>
+      <c r="CQ22" s="9">
+        <v>242996.95082726027</v>
+      </c>
+      <c r="CR22" s="9">
+        <v>352007.86379281379</v>
+      </c>
       <c r="CS22" s="11"/>
       <c r="CT22" s="11"/>
       <c r="CU22" s="11"/>
@@ -5266,25 +5297,27 @@
       <c r="CK23" s="10">
         <v>615571.23603674502</v>
       </c>
-      <c r="CL23" s="10">
+      <c r="CL23" s="9">
         <v>543298.13431890507</v>
       </c>
-      <c r="CM23" s="10">
+      <c r="CM23" s="9">
         <v>520789.78550921683</v>
       </c>
-      <c r="CN23" s="10">
+      <c r="CN23" s="9">
         <v>544949.61527437216</v>
       </c>
-      <c r="CO23" s="10">
+      <c r="CO23" s="9">
         <v>686014.65602713195</v>
       </c>
-      <c r="CP23" s="10">
+      <c r="CP23" s="9">
         <v>623919.99372991757</v>
       </c>
-      <c r="CQ23" s="10">
-        <v>579210.37901549623</v>
-      </c>
-      <c r="CR23" s="11"/>
+      <c r="CQ23" s="9">
+        <v>580343.77860546042</v>
+      </c>
+      <c r="CR23" s="9">
+        <v>600382.14547598758</v>
+      </c>
       <c r="CS23" s="11"/>
       <c r="CT23" s="11"/>
       <c r="CU23" s="11"/>
@@ -5432,13 +5465,13 @@
       <c r="CI24" s="11"/>
       <c r="CJ24" s="11"/>
       <c r="CK24" s="11"/>
-      <c r="CL24" s="11"/>
-      <c r="CM24" s="11"/>
-      <c r="CN24" s="11"/>
-      <c r="CO24" s="11"/>
-      <c r="CP24" s="11"/>
-      <c r="CQ24" s="11"/>
-      <c r="CR24" s="11"/>
+      <c r="CL24" s="13"/>
+      <c r="CM24" s="13"/>
+      <c r="CN24" s="13"/>
+      <c r="CO24" s="13"/>
+      <c r="CP24" s="13"/>
+      <c r="CQ24" s="13"/>
+      <c r="CR24" s="13"/>
       <c r="CS24" s="11"/>
       <c r="CT24" s="11"/>
       <c r="CU24" s="11"/>
@@ -5765,25 +5798,27 @@
       <c r="CK25" s="30">
         <v>4232430.2197240982</v>
       </c>
-      <c r="CL25" s="30">
+      <c r="CL25" s="34">
         <v>3852962.0714052701</v>
       </c>
-      <c r="CM25" s="30">
+      <c r="CM25" s="34">
         <v>3877423.6981095998</v>
       </c>
-      <c r="CN25" s="30">
+      <c r="CN25" s="34">
         <v>4130910.5601173565</v>
       </c>
-      <c r="CO25" s="30">
+      <c r="CO25" s="34">
         <v>4863462.9003062602</v>
       </c>
-      <c r="CP25" s="30">
+      <c r="CP25" s="34">
         <v>4419477.8037074124</v>
       </c>
-      <c r="CQ25" s="30">
-        <v>4326169.4092836166</v>
-      </c>
-      <c r="CR25" s="11"/>
+      <c r="CQ25" s="34">
+        <v>4327166.7867095843</v>
+      </c>
+      <c r="CR25" s="34">
+        <v>4531144.7420702763</v>
+      </c>
       <c r="CS25" s="11"/>
       <c r="CT25" s="11"/>
       <c r="CU25" s="11"/>
@@ -5932,12 +5967,13 @@
       <c r="CI26" s="16"/>
       <c r="CJ26" s="16"/>
       <c r="CK26" s="16"/>
-      <c r="CL26" s="16"/>
-      <c r="CM26" s="16"/>
-      <c r="CN26" s="16"/>
-      <c r="CO26" s="16"/>
-      <c r="CP26" s="16"/>
-      <c r="CQ26" s="16"/>
+      <c r="CL26" s="17"/>
+      <c r="CM26" s="17"/>
+      <c r="CN26" s="17"/>
+      <c r="CO26" s="17"/>
+      <c r="CP26" s="17"/>
+      <c r="CQ26" s="17"/>
+      <c r="CR26" s="17"/>
     </row>
     <row r="27" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
@@ -6033,13 +6069,13 @@
       <c r="CI28" s="31"/>
       <c r="CJ28" s="31"/>
       <c r="CK28" s="31"/>
-      <c r="CL28" s="31"/>
-      <c r="CM28" s="31"/>
-      <c r="CN28" s="31"/>
-      <c r="CO28" s="31"/>
-      <c r="CP28" s="31"/>
-      <c r="CQ28" s="31"/>
-      <c r="CR28" s="11"/>
+      <c r="CL28" s="35"/>
+      <c r="CM28" s="35"/>
+      <c r="CN28" s="35"/>
+      <c r="CO28" s="35"/>
+      <c r="CP28" s="35"/>
+      <c r="CQ28" s="35"/>
+      <c r="CR28" s="35"/>
       <c r="CS28" s="11"/>
       <c r="CT28" s="11"/>
       <c r="CU28" s="11"/>
@@ -6187,13 +6223,13 @@
       <c r="CI29" s="32"/>
       <c r="CJ29" s="32"/>
       <c r="CK29" s="32"/>
-      <c r="CL29" s="32"/>
-      <c r="CM29" s="32"/>
-      <c r="CN29" s="32"/>
-      <c r="CO29" s="32"/>
-      <c r="CP29" s="32"/>
-      <c r="CQ29" s="32"/>
-      <c r="CR29" s="11"/>
+      <c r="CL29" s="36"/>
+      <c r="CM29" s="36"/>
+      <c r="CN29" s="36"/>
+      <c r="CO29" s="36"/>
+      <c r="CP29" s="36"/>
+      <c r="CQ29" s="36"/>
+      <c r="CR29" s="36"/>
       <c r="CS29" s="11"/>
       <c r="CT29" s="11"/>
       <c r="CU29" s="11"/>
@@ -6284,148 +6320,149 @@
     </row>
     <row r="38" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
-      <c r="B38" s="33">
+      <c r="B38" s="38">
         <v>2000</v>
       </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33">
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38">
         <v>2001</v>
       </c>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33">
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38">
         <v>2002</v>
       </c>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33">
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="38">
         <v>2003</v>
       </c>
-      <c r="O38" s="33"/>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="33"/>
-      <c r="R38" s="33">
+      <c r="O38" s="38"/>
+      <c r="P38" s="38"/>
+      <c r="Q38" s="38"/>
+      <c r="R38" s="38">
         <v>2004</v>
       </c>
-      <c r="S38" s="33"/>
-      <c r="T38" s="33"/>
-      <c r="U38" s="33"/>
-      <c r="V38" s="33">
+      <c r="S38" s="38"/>
+      <c r="T38" s="38"/>
+      <c r="U38" s="38"/>
+      <c r="V38" s="38">
         <v>2005</v>
       </c>
-      <c r="W38" s="33"/>
-      <c r="X38" s="33"/>
-      <c r="Y38" s="33"/>
-      <c r="Z38" s="33">
+      <c r="W38" s="38"/>
+      <c r="X38" s="38"/>
+      <c r="Y38" s="38"/>
+      <c r="Z38" s="38">
         <v>2006</v>
       </c>
-      <c r="AA38" s="33"/>
-      <c r="AB38" s="33"/>
-      <c r="AC38" s="33"/>
-      <c r="AD38" s="33">
+      <c r="AA38" s="38"/>
+      <c r="AB38" s="38"/>
+      <c r="AC38" s="38"/>
+      <c r="AD38" s="38">
         <v>2007</v>
       </c>
-      <c r="AE38" s="33"/>
-      <c r="AF38" s="33"/>
-      <c r="AG38" s="33"/>
-      <c r="AH38" s="33">
+      <c r="AE38" s="38"/>
+      <c r="AF38" s="38"/>
+      <c r="AG38" s="38"/>
+      <c r="AH38" s="38">
         <v>2008</v>
       </c>
-      <c r="AI38" s="33"/>
-      <c r="AJ38" s="33"/>
-      <c r="AK38" s="33"/>
-      <c r="AL38" s="33">
+      <c r="AI38" s="38"/>
+      <c r="AJ38" s="38"/>
+      <c r="AK38" s="38"/>
+      <c r="AL38" s="38">
         <v>2009</v>
       </c>
-      <c r="AM38" s="33"/>
-      <c r="AN38" s="33"/>
-      <c r="AO38" s="33"/>
-      <c r="AP38" s="33">
+      <c r="AM38" s="38"/>
+      <c r="AN38" s="38"/>
+      <c r="AO38" s="38"/>
+      <c r="AP38" s="38">
         <v>2010</v>
       </c>
-      <c r="AQ38" s="33"/>
-      <c r="AR38" s="33"/>
-      <c r="AS38" s="33"/>
-      <c r="AT38" s="33">
+      <c r="AQ38" s="38"/>
+      <c r="AR38" s="38"/>
+      <c r="AS38" s="38"/>
+      <c r="AT38" s="38">
         <v>2011</v>
       </c>
-      <c r="AU38" s="33"/>
-      <c r="AV38" s="33"/>
-      <c r="AW38" s="33"/>
-      <c r="AX38" s="33">
+      <c r="AU38" s="38"/>
+      <c r="AV38" s="38"/>
+      <c r="AW38" s="38"/>
+      <c r="AX38" s="38">
         <v>2012</v>
       </c>
-      <c r="AY38" s="33"/>
-      <c r="AZ38" s="33"/>
-      <c r="BA38" s="33"/>
-      <c r="BB38" s="33">
+      <c r="AY38" s="38"/>
+      <c r="AZ38" s="38"/>
+      <c r="BA38" s="38"/>
+      <c r="BB38" s="38">
         <v>2013</v>
       </c>
-      <c r="BC38" s="33"/>
-      <c r="BD38" s="33"/>
-      <c r="BE38" s="33"/>
-      <c r="BF38" s="33">
+      <c r="BC38" s="38"/>
+      <c r="BD38" s="38"/>
+      <c r="BE38" s="38"/>
+      <c r="BF38" s="38">
         <v>2014</v>
       </c>
-      <c r="BG38" s="33"/>
-      <c r="BH38" s="33"/>
-      <c r="BI38" s="33"/>
-      <c r="BJ38" s="33">
+      <c r="BG38" s="38"/>
+      <c r="BH38" s="38"/>
+      <c r="BI38" s="38"/>
+      <c r="BJ38" s="38">
         <v>2015</v>
       </c>
-      <c r="BK38" s="33"/>
-      <c r="BL38" s="33"/>
-      <c r="BM38" s="33"/>
-      <c r="BN38" s="33">
+      <c r="BK38" s="38"/>
+      <c r="BL38" s="38"/>
+      <c r="BM38" s="38"/>
+      <c r="BN38" s="38">
         <v>2016</v>
       </c>
-      <c r="BO38" s="33"/>
-      <c r="BP38" s="33"/>
-      <c r="BQ38" s="33"/>
-      <c r="BR38" s="34">
+      <c r="BO38" s="38"/>
+      <c r="BP38" s="38"/>
+      <c r="BQ38" s="38"/>
+      <c r="BR38" s="39">
         <v>2017</v>
       </c>
-      <c r="BS38" s="34"/>
-      <c r="BT38" s="34"/>
-      <c r="BU38" s="34"/>
-      <c r="BV38" s="34">
+      <c r="BS38" s="39"/>
+      <c r="BT38" s="39"/>
+      <c r="BU38" s="39"/>
+      <c r="BV38" s="39">
         <v>2018</v>
       </c>
-      <c r="BW38" s="34"/>
-      <c r="BX38" s="34"/>
-      <c r="BY38" s="34"/>
-      <c r="BZ38" s="34">
+      <c r="BW38" s="39"/>
+      <c r="BX38" s="39"/>
+      <c r="BY38" s="39"/>
+      <c r="BZ38" s="39">
         <v>2019</v>
       </c>
-      <c r="CA38" s="34"/>
-      <c r="CB38" s="34"/>
-      <c r="CC38" s="34"/>
-      <c r="CD38" s="34">
+      <c r="CA38" s="39"/>
+      <c r="CB38" s="39"/>
+      <c r="CC38" s="39"/>
+      <c r="CD38" s="39">
         <v>2020</v>
       </c>
-      <c r="CE38" s="34"/>
-      <c r="CF38" s="34"/>
-      <c r="CG38" s="34"/>
-      <c r="CH38" s="34">
+      <c r="CE38" s="39"/>
+      <c r="CF38" s="39"/>
+      <c r="CG38" s="39"/>
+      <c r="CH38" s="39">
         <v>2021</v>
       </c>
-      <c r="CI38" s="34"/>
-      <c r="CJ38" s="34"/>
-      <c r="CK38" s="34"/>
-      <c r="CL38" s="34">
+      <c r="CI38" s="39"/>
+      <c r="CJ38" s="39"/>
+      <c r="CK38" s="39"/>
+      <c r="CL38" s="38">
         <v>2022</v>
       </c>
-      <c r="CM38" s="34"/>
-      <c r="CN38" s="34"/>
-      <c r="CO38" s="34"/>
-      <c r="CP38" s="34">
+      <c r="CM38" s="38"/>
+      <c r="CN38" s="38"/>
+      <c r="CO38" s="38"/>
+      <c r="CP38" s="38">
         <v>2023</v>
       </c>
-      <c r="CQ38" s="35"/>
+      <c r="CQ38" s="38"/>
+      <c r="CR38" s="38"/>
     </row>
     <row r="39" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
@@ -6695,23 +6732,26 @@
       <c r="CK39" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CL39" s="7" t="s">
+      <c r="CL39" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="CM39" s="7" t="s">
+      <c r="CM39" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="CN39" s="7" t="s">
+      <c r="CN39" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="CO39" s="7" t="s">
+      <c r="CO39" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="CP39" s="7" t="s">
+      <c r="CP39" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="CQ39" s="7" t="s">
+      <c r="CQ39" s="6" t="s">
         <v>20</v>
+      </c>
+      <c r="CR39" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -6985,25 +7025,27 @@
       <c r="CK41" s="10">
         <v>1552717.6013816134</v>
       </c>
-      <c r="CL41" s="10">
+      <c r="CL41" s="9">
         <v>1256130.3984112311</v>
       </c>
-      <c r="CM41" s="10">
+      <c r="CM41" s="9">
         <v>1357560.021305945</v>
       </c>
-      <c r="CN41" s="10">
+      <c r="CN41" s="9">
         <v>1226974.6790054482</v>
       </c>
-      <c r="CO41" s="10">
+      <c r="CO41" s="9">
         <v>1614493.9242003553</v>
       </c>
-      <c r="CP41" s="10">
+      <c r="CP41" s="9">
         <v>1264231.5209391005</v>
       </c>
-      <c r="CQ41" s="10">
-        <v>1363465.7767932732</v>
-      </c>
-      <c r="CR41" s="11"/>
+      <c r="CQ41" s="9">
+        <v>1362977.486246604</v>
+      </c>
+      <c r="CR41" s="9">
+        <v>1230318.4729515621</v>
+      </c>
       <c r="CS41" s="11"/>
       <c r="CT41" s="11"/>
       <c r="CU41" s="11"/>
@@ -7330,25 +7372,27 @@
       <c r="CK42" s="10">
         <v>66587.278763515598</v>
       </c>
-      <c r="CL42" s="10">
+      <c r="CL42" s="9">
         <v>50553.163122281469</v>
       </c>
-      <c r="CM42" s="10">
+      <c r="CM42" s="9">
         <v>48415.945282654473</v>
       </c>
-      <c r="CN42" s="10">
+      <c r="CN42" s="9">
         <v>44125.969627123763</v>
       </c>
-      <c r="CO42" s="10">
+      <c r="CO42" s="9">
         <v>69193.996625832791</v>
       </c>
-      <c r="CP42" s="10">
+      <c r="CP42" s="9">
         <v>50414.862948481554</v>
       </c>
-      <c r="CQ42" s="10">
-        <v>44004.9556167056</v>
-      </c>
-      <c r="CR42" s="11"/>
+      <c r="CQ42" s="9">
+        <v>44426.916084778</v>
+      </c>
+      <c r="CR42" s="9">
+        <v>44466.313545983001</v>
+      </c>
       <c r="CS42" s="11"/>
       <c r="CT42" s="11"/>
       <c r="CU42" s="11"/>
@@ -7675,25 +7719,27 @@
       <c r="CK43" s="10">
         <v>73008.364732741946</v>
       </c>
-      <c r="CL43" s="10">
+      <c r="CL43" s="9">
         <v>54666.787825052692</v>
       </c>
-      <c r="CM43" s="10">
+      <c r="CM43" s="9">
         <v>56122.776024412691</v>
       </c>
-      <c r="CN43" s="10">
+      <c r="CN43" s="9">
         <v>65214.786186252197</v>
       </c>
-      <c r="CO43" s="10">
+      <c r="CO43" s="9">
         <v>80450.489963046188</v>
       </c>
-      <c r="CP43" s="10">
+      <c r="CP43" s="9">
         <v>53375.400374197467</v>
       </c>
-      <c r="CQ43" s="10">
-        <v>40796.371071060545</v>
-      </c>
-      <c r="CR43" s="11"/>
+      <c r="CQ43" s="9">
+        <v>41299.354030168775</v>
+      </c>
+      <c r="CR43" s="9">
+        <v>57792.321060169386</v>
+      </c>
       <c r="CS43" s="11"/>
       <c r="CT43" s="11"/>
       <c r="CU43" s="11"/>
@@ -8020,25 +8066,27 @@
       <c r="CK44" s="10">
         <v>443647.66219302185</v>
       </c>
-      <c r="CL44" s="10">
+      <c r="CL44" s="9">
         <v>425402.36342409416</v>
       </c>
-      <c r="CM44" s="10">
+      <c r="CM44" s="9">
         <v>522106.83542596304</v>
       </c>
-      <c r="CN44" s="10">
+      <c r="CN44" s="9">
         <v>440401.12011746754</v>
       </c>
-      <c r="CO44" s="10">
+      <c r="CO44" s="9">
         <v>463595.72034765157</v>
       </c>
-      <c r="CP44" s="10">
+      <c r="CP44" s="9">
         <v>441893.53214785649</v>
       </c>
-      <c r="CQ44" s="10">
-        <v>553860.6279826106</v>
-      </c>
-      <c r="CR44" s="11"/>
+      <c r="CQ44" s="9">
+        <v>553935.64404324943</v>
+      </c>
+      <c r="CR44" s="9">
+        <v>460183.90542270854</v>
+      </c>
       <c r="CS44" s="11"/>
       <c r="CT44" s="11"/>
       <c r="CU44" s="11"/>
@@ -8365,25 +8413,27 @@
       <c r="CK45" s="10">
         <v>107527.8920243519</v>
       </c>
-      <c r="CL45" s="10">
+      <c r="CL45" s="9">
         <v>95901.664535614924</v>
       </c>
-      <c r="CM45" s="10">
+      <c r="CM45" s="9">
         <v>91624.817365404437</v>
       </c>
-      <c r="CN45" s="10">
+      <c r="CN45" s="9">
         <v>107969.94304481793</v>
       </c>
-      <c r="CO45" s="10">
+      <c r="CO45" s="9">
         <v>117589.60745430055</v>
       </c>
-      <c r="CP45" s="10">
+      <c r="CP45" s="9">
         <v>93246.607320490031</v>
       </c>
-      <c r="CQ45" s="10">
-        <v>89130.130115700318</v>
-      </c>
-      <c r="CR45" s="11"/>
+      <c r="CQ45" s="9">
+        <v>88713.283690152588</v>
+      </c>
+      <c r="CR45" s="9">
+        <v>106739.43637363517</v>
+      </c>
       <c r="CS45" s="11"/>
       <c r="CT45" s="11"/>
       <c r="CU45" s="11"/>
@@ -8710,25 +8760,27 @@
       <c r="CK46" s="10">
         <v>162064.53141225895</v>
       </c>
-      <c r="CL46" s="10">
+      <c r="CL46" s="9">
         <v>151544.92328277158</v>
       </c>
-      <c r="CM46" s="10">
+      <c r="CM46" s="9">
         <v>126790.00320397994</v>
       </c>
-      <c r="CN46" s="10">
+      <c r="CN46" s="9">
         <v>191496.55092553853</v>
       </c>
-      <c r="CO46" s="10">
+      <c r="CO46" s="9">
         <v>170571.3236135242</v>
       </c>
-      <c r="CP46" s="10">
+      <c r="CP46" s="9">
         <v>163368.67540156987</v>
       </c>
-      <c r="CQ46" s="10">
-        <v>137776.18394928213</v>
-      </c>
-      <c r="CR46" s="11"/>
+      <c r="CQ46" s="9">
+        <v>137919.42666657519</v>
+      </c>
+      <c r="CR46" s="9">
+        <v>202953.05235185212</v>
+      </c>
       <c r="CS46" s="11"/>
       <c r="CT46" s="11"/>
       <c r="CU46" s="11"/>
@@ -9055,25 +9107,27 @@
       <c r="CK47" s="10">
         <v>275542.77234665689</v>
       </c>
-      <c r="CL47" s="10">
+      <c r="CL47" s="9">
         <v>312379.71815427073</v>
       </c>
-      <c r="CM47" s="10">
+      <c r="CM47" s="9">
         <v>237301.36504137018</v>
       </c>
-      <c r="CN47" s="10">
+      <c r="CN47" s="9">
         <v>325899.06290025474</v>
       </c>
-      <c r="CO47" s="10">
+      <c r="CO47" s="9">
         <v>297223.06230146147</v>
       </c>
-      <c r="CP47" s="10">
+      <c r="CP47" s="9">
         <v>357160.45426015649</v>
       </c>
-      <c r="CQ47" s="10">
-        <v>308694.02552574786</v>
-      </c>
-      <c r="CR47" s="11"/>
+      <c r="CQ47" s="9">
+        <v>309410.62627520744</v>
+      </c>
+      <c r="CR47" s="9">
+        <v>373027.89662554848</v>
+      </c>
       <c r="CS47" s="11"/>
       <c r="CT47" s="11"/>
       <c r="CU47" s="11"/>
@@ -9400,25 +9454,27 @@
       <c r="CK48" s="10">
         <v>122469.86916808529</v>
       </c>
-      <c r="CL48" s="10">
+      <c r="CL48" s="9">
         <v>115534.87863873252</v>
       </c>
-      <c r="CM48" s="10">
+      <c r="CM48" s="9">
         <v>124682.03688859146</v>
       </c>
-      <c r="CN48" s="10">
+      <c r="CN48" s="9">
         <v>96738.028950364052</v>
       </c>
-      <c r="CO48" s="10">
+      <c r="CO48" s="9">
         <v>129857.71281263117</v>
       </c>
-      <c r="CP48" s="10">
+      <c r="CP48" s="9">
         <v>121224.16136517162</v>
       </c>
-      <c r="CQ48" s="10">
-        <v>130951.60152593734</v>
-      </c>
-      <c r="CR48" s="11"/>
+      <c r="CQ48" s="9">
+        <v>130436.92768528895</v>
+      </c>
+      <c r="CR48" s="9">
+        <v>102165.7037803749</v>
+      </c>
       <c r="CS48" s="11"/>
       <c r="CT48" s="11"/>
       <c r="CU48" s="11"/>
@@ -9745,25 +9801,27 @@
       <c r="CK49" s="10">
         <v>68301.886170279118</v>
       </c>
-      <c r="CL49" s="10">
+      <c r="CL49" s="9">
         <v>54000.092414043815</v>
       </c>
-      <c r="CM49" s="10">
+      <c r="CM49" s="9">
         <v>40868.272276418429</v>
       </c>
-      <c r="CN49" s="10">
+      <c r="CN49" s="9">
         <v>51366.434298030894</v>
       </c>
-      <c r="CO49" s="10">
+      <c r="CO49" s="9">
         <v>78882.706678140559</v>
       </c>
-      <c r="CP49" s="10">
+      <c r="CP49" s="9">
         <v>70084.330215396738</v>
       </c>
-      <c r="CQ49" s="10">
-        <v>49066.258476514893</v>
-      </c>
-      <c r="CR49" s="11"/>
+      <c r="CQ49" s="9">
+        <v>48604.750176787289</v>
+      </c>
+      <c r="CR49" s="9">
+        <v>59290.438910592726</v>
+      </c>
       <c r="CS49" s="11"/>
       <c r="CT49" s="11"/>
       <c r="CU49" s="11"/>
@@ -10090,25 +10148,27 @@
       <c r="CK50" s="10">
         <v>195091.73159078564</v>
       </c>
-      <c r="CL50" s="10">
+      <c r="CL50" s="9">
         <v>197349.99014082184</v>
       </c>
-      <c r="CM50" s="10">
+      <c r="CM50" s="9">
         <v>175355.39181733728</v>
       </c>
-      <c r="CN50" s="10">
+      <c r="CN50" s="9">
         <v>202234.59980967609</v>
       </c>
-      <c r="CO50" s="10">
+      <c r="CO50" s="9">
         <v>215143.7332874873</v>
       </c>
-      <c r="CP50" s="10">
+      <c r="CP50" s="9">
         <v>210426.44791987777</v>
       </c>
-      <c r="CQ50" s="10">
-        <v>187607.80648436726</v>
-      </c>
-      <c r="CR50" s="11"/>
+      <c r="CQ50" s="9">
+        <v>187885.52729908534</v>
+      </c>
+      <c r="CR50" s="9">
+        <v>215311.84131905285</v>
+      </c>
       <c r="CS50" s="11"/>
       <c r="CT50" s="11"/>
       <c r="CU50" s="11"/>
@@ -10435,25 +10495,27 @@
       <c r="CK51" s="10">
         <v>256717.01377768896</v>
       </c>
-      <c r="CL51" s="10">
+      <c r="CL51" s="9">
         <v>283206.38799083594</v>
       </c>
-      <c r="CM51" s="10">
+      <c r="CM51" s="9">
         <v>168176.42483408889</v>
       </c>
-      <c r="CN51" s="10">
+      <c r="CN51" s="9">
         <v>244297.19978579981</v>
       </c>
-      <c r="CO51" s="10">
+      <c r="CO51" s="9">
         <v>320329.20075240469</v>
       </c>
-      <c r="CP51" s="10">
+      <c r="CP51" s="9">
         <v>351252.62070951628</v>
       </c>
-      <c r="CQ51" s="10">
-        <v>207366.46693099246</v>
-      </c>
-      <c r="CR51" s="11"/>
+      <c r="CQ51" s="9">
+        <v>206680.95755607035</v>
+      </c>
+      <c r="CR51" s="9">
+        <v>280601.75462560501</v>
+      </c>
       <c r="CS51" s="11"/>
       <c r="CT51" s="11"/>
       <c r="CU51" s="11"/>
@@ -10780,25 +10842,27 @@
       <c r="CK52" s="10">
         <v>598947.12783746119</v>
       </c>
-      <c r="CL52" s="10">
+      <c r="CL52" s="9">
         <v>475086.18485529569</v>
       </c>
-      <c r="CM52" s="10">
+      <c r="CM52" s="9">
         <v>447877.62728546589</v>
       </c>
-      <c r="CN52" s="10">
+      <c r="CN52" s="9">
         <v>508788.30282834289</v>
       </c>
-      <c r="CO52" s="10">
+      <c r="CO52" s="9">
         <v>638740.87639105879</v>
       </c>
-      <c r="CP52" s="10">
+      <c r="CP52" s="9">
         <v>518312.68529937207</v>
       </c>
-      <c r="CQ52" s="10">
-        <v>471235.84364824608</v>
-      </c>
-      <c r="CR52" s="11"/>
+      <c r="CQ52" s="9">
+        <v>472157.9585331264</v>
+      </c>
+      <c r="CR52" s="9">
+        <v>549599.79438744893</v>
+      </c>
       <c r="CS52" s="11"/>
       <c r="CT52" s="11"/>
       <c r="CU52" s="11"/>
@@ -10946,13 +11010,13 @@
       <c r="CI53" s="11"/>
       <c r="CJ53" s="11"/>
       <c r="CK53" s="11"/>
-      <c r="CL53" s="11"/>
-      <c r="CM53" s="11"/>
-      <c r="CN53" s="11"/>
-      <c r="CO53" s="11"/>
-      <c r="CP53" s="11"/>
-      <c r="CQ53" s="11"/>
-      <c r="CR53" s="11"/>
+      <c r="CL53" s="13"/>
+      <c r="CM53" s="13"/>
+      <c r="CN53" s="13"/>
+      <c r="CO53" s="13"/>
+      <c r="CP53" s="13"/>
+      <c r="CQ53" s="13"/>
+      <c r="CR53" s="13"/>
       <c r="CS53" s="11"/>
       <c r="CT53" s="11"/>
       <c r="CU53" s="11"/>
@@ -11279,25 +11343,27 @@
       <c r="CK54" s="30">
         <v>3922623.7313984605</v>
       </c>
-      <c r="CL54" s="30">
+      <c r="CL54" s="34">
         <v>3471756.5527950469</v>
       </c>
-      <c r="CM54" s="30">
+      <c r="CM54" s="34">
         <v>3396881.5167516316</v>
       </c>
-      <c r="CN54" s="30">
+      <c r="CN54" s="34">
         <v>3505506.6774791162</v>
       </c>
-      <c r="CO54" s="30">
+      <c r="CO54" s="34">
         <v>4196072.3544278946</v>
       </c>
-      <c r="CP54" s="30">
+      <c r="CP54" s="34">
         <v>3694991.2989011863</v>
       </c>
-      <c r="CQ54" s="30">
-        <v>3583956.0481204381</v>
-      </c>
-      <c r="CR54" s="11"/>
+      <c r="CQ54" s="34">
+        <v>3584448.8582870937</v>
+      </c>
+      <c r="CR54" s="34">
+        <v>3682450.9313545339</v>
+      </c>
       <c r="CS54" s="11"/>
       <c r="CT54" s="11"/>
       <c r="CU54" s="11"/>
@@ -11446,12 +11512,13 @@
       <c r="CI55" s="16"/>
       <c r="CJ55" s="16"/>
       <c r="CK55" s="16"/>
-      <c r="CL55" s="16"/>
-      <c r="CM55" s="16"/>
-      <c r="CN55" s="16"/>
-      <c r="CO55" s="16"/>
-      <c r="CP55" s="16"/>
-      <c r="CQ55" s="16"/>
+      <c r="CL55" s="17"/>
+      <c r="CM55" s="17"/>
+      <c r="CN55" s="17"/>
+      <c r="CO55" s="17"/>
+      <c r="CP55" s="17"/>
+      <c r="CQ55" s="17"/>
+      <c r="CR55" s="17"/>
     </row>
     <row r="56" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A56" s="18" t="s">
@@ -11547,13 +11614,13 @@
       <c r="CI57" s="11"/>
       <c r="CJ57" s="11"/>
       <c r="CK57" s="11"/>
-      <c r="CL57" s="11"/>
-      <c r="CM57" s="11"/>
-      <c r="CN57" s="11"/>
-      <c r="CO57" s="11"/>
-      <c r="CP57" s="11"/>
-      <c r="CQ57" s="11"/>
-      <c r="CR57" s="11"/>
+      <c r="CL57" s="35"/>
+      <c r="CM57" s="35"/>
+      <c r="CN57" s="35"/>
+      <c r="CO57" s="35"/>
+      <c r="CP57" s="35"/>
+      <c r="CQ57" s="35"/>
+      <c r="CR57" s="35"/>
       <c r="CS57" s="11"/>
       <c r="CT57" s="11"/>
       <c r="CU57" s="11"/>
@@ -11701,13 +11768,13 @@
       <c r="CI58" s="32"/>
       <c r="CJ58" s="32"/>
       <c r="CK58" s="32"/>
-      <c r="CL58" s="32"/>
-      <c r="CM58" s="32"/>
-      <c r="CN58" s="32"/>
-      <c r="CO58" s="32"/>
-      <c r="CP58" s="32"/>
-      <c r="CQ58" s="32"/>
-      <c r="CR58" s="11"/>
+      <c r="CL58" s="36"/>
+      <c r="CM58" s="36"/>
+      <c r="CN58" s="36"/>
+      <c r="CO58" s="36"/>
+      <c r="CP58" s="36"/>
+      <c r="CQ58" s="36"/>
+      <c r="CR58" s="36"/>
       <c r="CS58" s="11"/>
       <c r="CT58" s="11"/>
       <c r="CU58" s="11"/>
@@ -11798,146 +11865,147 @@
     </row>
     <row r="67" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
-      <c r="B67" s="33" t="s">
+      <c r="B67" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="33" t="s">
+      <c r="C67" s="38"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="G67" s="33"/>
-      <c r="H67" s="33"/>
-      <c r="I67" s="33"/>
-      <c r="J67" s="33" t="s">
+      <c r="G67" s="38"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="38"/>
+      <c r="J67" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="K67" s="33"/>
-      <c r="L67" s="33"/>
-      <c r="M67" s="33"/>
-      <c r="N67" s="33" t="s">
+      <c r="K67" s="38"/>
+      <c r="L67" s="38"/>
+      <c r="M67" s="38"/>
+      <c r="N67" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="O67" s="33"/>
-      <c r="P67" s="33"/>
-      <c r="Q67" s="33"/>
-      <c r="R67" s="33" t="s">
+      <c r="O67" s="38"/>
+      <c r="P67" s="38"/>
+      <c r="Q67" s="38"/>
+      <c r="R67" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="S67" s="33"/>
-      <c r="T67" s="33"/>
-      <c r="U67" s="33"/>
-      <c r="V67" s="33" t="s">
+      <c r="S67" s="38"/>
+      <c r="T67" s="38"/>
+      <c r="U67" s="38"/>
+      <c r="V67" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="W67" s="33"/>
-      <c r="X67" s="33"/>
-      <c r="Y67" s="33"/>
-      <c r="Z67" s="33" t="s">
+      <c r="W67" s="38"/>
+      <c r="X67" s="38"/>
+      <c r="Y67" s="38"/>
+      <c r="Z67" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="AA67" s="33"/>
-      <c r="AB67" s="33"/>
-      <c r="AC67" s="33"/>
-      <c r="AD67" s="33" t="s">
+      <c r="AA67" s="38"/>
+      <c r="AB67" s="38"/>
+      <c r="AC67" s="38"/>
+      <c r="AD67" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="AE67" s="33"/>
-      <c r="AF67" s="33"/>
-      <c r="AG67" s="33"/>
-      <c r="AH67" s="33" t="s">
+      <c r="AE67" s="38"/>
+      <c r="AF67" s="38"/>
+      <c r="AG67" s="38"/>
+      <c r="AH67" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="AI67" s="33"/>
-      <c r="AJ67" s="33"/>
-      <c r="AK67" s="33"/>
-      <c r="AL67" s="33" t="s">
+      <c r="AI67" s="38"/>
+      <c r="AJ67" s="38"/>
+      <c r="AK67" s="38"/>
+      <c r="AL67" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="AM67" s="33"/>
-      <c r="AN67" s="33"/>
-      <c r="AO67" s="33"/>
-      <c r="AP67" s="33" t="s">
+      <c r="AM67" s="38"/>
+      <c r="AN67" s="38"/>
+      <c r="AO67" s="38"/>
+      <c r="AP67" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="AQ67" s="33"/>
-      <c r="AR67" s="33"/>
-      <c r="AS67" s="33"/>
-      <c r="AT67" s="33" t="s">
+      <c r="AQ67" s="38"/>
+      <c r="AR67" s="38"/>
+      <c r="AS67" s="38"/>
+      <c r="AT67" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="AU67" s="33"/>
-      <c r="AV67" s="33"/>
-      <c r="AW67" s="33"/>
-      <c r="AX67" s="33" t="s">
+      <c r="AU67" s="38"/>
+      <c r="AV67" s="38"/>
+      <c r="AW67" s="38"/>
+      <c r="AX67" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="AY67" s="33"/>
-      <c r="AZ67" s="33"/>
-      <c r="BA67" s="33"/>
-      <c r="BB67" s="33" t="s">
+      <c r="AY67" s="38"/>
+      <c r="AZ67" s="38"/>
+      <c r="BA67" s="38"/>
+      <c r="BB67" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="BC67" s="33"/>
-      <c r="BD67" s="33"/>
-      <c r="BE67" s="33"/>
-      <c r="BF67" s="33" t="s">
+      <c r="BC67" s="38"/>
+      <c r="BD67" s="38"/>
+      <c r="BE67" s="38"/>
+      <c r="BF67" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="BG67" s="33"/>
-      <c r="BH67" s="33"/>
-      <c r="BI67" s="33"/>
-      <c r="BJ67" s="33" t="s">
+      <c r="BG67" s="38"/>
+      <c r="BH67" s="38"/>
+      <c r="BI67" s="38"/>
+      <c r="BJ67" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="BK67" s="33"/>
-      <c r="BL67" s="33"/>
-      <c r="BM67" s="33"/>
-      <c r="BN67" s="33" t="s">
+      <c r="BK67" s="38"/>
+      <c r="BL67" s="38"/>
+      <c r="BM67" s="38"/>
+      <c r="BN67" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="BO67" s="33"/>
-      <c r="BP67" s="33"/>
-      <c r="BQ67" s="33"/>
-      <c r="BR67" s="34" t="s">
+      <c r="BO67" s="38"/>
+      <c r="BP67" s="38"/>
+      <c r="BQ67" s="38"/>
+      <c r="BR67" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="BS67" s="34"/>
-      <c r="BT67" s="34"/>
-      <c r="BU67" s="34"/>
-      <c r="BV67" s="34" t="s">
+      <c r="BS67" s="39"/>
+      <c r="BT67" s="39"/>
+      <c r="BU67" s="39"/>
+      <c r="BV67" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="BW67" s="34"/>
-      <c r="BX67" s="34"/>
-      <c r="BY67" s="34"/>
-      <c r="BZ67" s="34" t="s">
+      <c r="BW67" s="39"/>
+      <c r="BX67" s="39"/>
+      <c r="BY67" s="39"/>
+      <c r="BZ67" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="CA67" s="34"/>
-      <c r="CB67" s="34"/>
-      <c r="CC67" s="34"/>
-      <c r="CD67" s="34" t="s">
+      <c r="CA67" s="39"/>
+      <c r="CB67" s="39"/>
+      <c r="CC67" s="39"/>
+      <c r="CD67" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="CE67" s="34"/>
-      <c r="CF67" s="34"/>
-      <c r="CG67" s="34"/>
-      <c r="CH67" s="34" t="s">
+      <c r="CE67" s="39"/>
+      <c r="CF67" s="39"/>
+      <c r="CG67" s="39"/>
+      <c r="CH67" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="CI67" s="34"/>
-      <c r="CJ67" s="34"/>
-      <c r="CK67" s="34"/>
-      <c r="CL67" s="34" t="s">
+      <c r="CI67" s="39"/>
+      <c r="CJ67" s="39"/>
+      <c r="CK67" s="39"/>
+      <c r="CL67" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="CM67" s="34"/>
-      <c r="CN67" s="34"/>
-      <c r="CO67" s="34"/>
-      <c r="CP67" s="34"/>
-      <c r="CQ67" s="35"/>
+      <c r="CM67" s="38"/>
+      <c r="CN67" s="38"/>
+      <c r="CO67" s="37"/>
+      <c r="CP67" s="33"/>
+      <c r="CQ67" s="33"/>
+      <c r="CR67" s="33"/>
     </row>
     <row r="68" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
@@ -12207,16 +12275,19 @@
       <c r="CK68" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CL68" s="7" t="s">
+      <c r="CL68" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="CM68" s="7" t="s">
+      <c r="CM68" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="CN68" s="7"/>
-      <c r="CO68" s="7"/>
-      <c r="CP68" s="7"/>
-      <c r="CQ68" s="7"/>
+      <c r="CN68" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="CO68" s="6"/>
+      <c r="CP68" s="6"/>
+      <c r="CQ68" s="6"/>
+      <c r="CR68" s="6"/>
     </row>
     <row r="69" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8"/>
@@ -12489,17 +12560,19 @@
       <c r="CK70" s="26">
         <v>14.230451250859005</v>
       </c>
-      <c r="CL70" s="26">
+      <c r="CL70" s="25">
         <v>10.952117957471913</v>
       </c>
-      <c r="CM70" s="26">
-        <v>7.8199556815264089</v>
-      </c>
-      <c r="CN70" s="26"/>
-      <c r="CO70" s="26"/>
-      <c r="CP70" s="26"/>
-      <c r="CQ70" s="26"/>
-      <c r="CR70" s="11"/>
+      <c r="CM70" s="25">
+        <v>7.7813427100843313</v>
+      </c>
+      <c r="CN70" s="25">
+        <v>7.8958624891373006</v>
+      </c>
+      <c r="CO70" s="25"/>
+      <c r="CP70" s="25"/>
+      <c r="CQ70" s="25"/>
+      <c r="CR70" s="25"/>
       <c r="CS70" s="11"/>
       <c r="CT70" s="11"/>
       <c r="CU70" s="11"/>
@@ -12822,17 +12895,19 @@
       <c r="CK71" s="26">
         <v>14.879767765446744</v>
       </c>
-      <c r="CL71" s="26">
+      <c r="CL71" s="25">
         <v>11.100334376022715</v>
       </c>
-      <c r="CM71" s="26">
-        <v>1.984713329214415</v>
-      </c>
-      <c r="CN71" s="26"/>
-      <c r="CO71" s="26"/>
-      <c r="CP71" s="26"/>
-      <c r="CQ71" s="26"/>
-      <c r="CR71" s="11"/>
+      <c r="CM71" s="25">
+        <v>2.9626376736327558</v>
+      </c>
+      <c r="CN71" s="25">
+        <v>10.415276637795714</v>
+      </c>
+      <c r="CO71" s="25"/>
+      <c r="CP71" s="25"/>
+      <c r="CQ71" s="25"/>
+      <c r="CR71" s="25"/>
       <c r="CS71" s="11"/>
       <c r="CT71" s="11"/>
       <c r="CU71" s="11"/>
@@ -13155,17 +13230,19 @@
       <c r="CK72" s="26">
         <v>14.085116924879742</v>
       </c>
-      <c r="CL72" s="26">
+      <c r="CL72" s="25">
         <v>2.2412765422117076</v>
       </c>
-      <c r="CM72" s="26">
-        <v>-23.592930158396769</v>
-      </c>
-      <c r="CN72" s="26"/>
-      <c r="CO72" s="26"/>
-      <c r="CP72" s="26"/>
-      <c r="CQ72" s="26"/>
-      <c r="CR72" s="11"/>
+      <c r="CM72" s="25">
+        <v>-22.65089896599541</v>
+      </c>
+      <c r="CN72" s="25">
+        <v>-7.273292921161854</v>
+      </c>
+      <c r="CO72" s="25"/>
+      <c r="CP72" s="25"/>
+      <c r="CQ72" s="25"/>
+      <c r="CR72" s="25"/>
       <c r="CS72" s="11"/>
       <c r="CT72" s="11"/>
       <c r="CU72" s="11"/>
@@ -13488,17 +13565,19 @@
       <c r="CK73" s="26">
         <v>11.921201320286116</v>
       </c>
-      <c r="CL73" s="26">
+      <c r="CL73" s="25">
         <v>12.438210681495889</v>
       </c>
-      <c r="CM73" s="26">
-        <v>12.636766068427875</v>
-      </c>
-      <c r="CN73" s="26"/>
-      <c r="CO73" s="26"/>
-      <c r="CP73" s="26"/>
-      <c r="CQ73" s="26"/>
-      <c r="CR73" s="11"/>
+      <c r="CM73" s="25">
+        <v>12.652021831424292</v>
+      </c>
+      <c r="CN73" s="25">
+        <v>7.7449003474785201</v>
+      </c>
+      <c r="CO73" s="25"/>
+      <c r="CP73" s="25"/>
+      <c r="CQ73" s="25"/>
+      <c r="CR73" s="25"/>
       <c r="CS73" s="11"/>
       <c r="CT73" s="11"/>
       <c r="CU73" s="11"/>
@@ -13821,17 +13900,19 @@
       <c r="CK74" s="26">
         <v>14.127928224150992</v>
       </c>
-      <c r="CL74" s="26">
+      <c r="CL74" s="25">
         <v>2.9077274260176296</v>
       </c>
-      <c r="CM74" s="26">
-        <v>3.2294590743144056</v>
-      </c>
-      <c r="CN74" s="26"/>
-      <c r="CO74" s="26"/>
-      <c r="CP74" s="26"/>
-      <c r="CQ74" s="26"/>
-      <c r="CR74" s="11"/>
+      <c r="CM74" s="25">
+        <v>2.7466724905800959</v>
+      </c>
+      <c r="CN74" s="25">
+        <v>2.5725159340193215</v>
+      </c>
+      <c r="CO74" s="25"/>
+      <c r="CP74" s="25"/>
+      <c r="CQ74" s="25"/>
+      <c r="CR74" s="25"/>
       <c r="CS74" s="11"/>
       <c r="CT74" s="11"/>
       <c r="CU74" s="11"/>
@@ -14154,17 +14235,19 @@
       <c r="CK75" s="26">
         <v>8.2225014081690233</v>
       </c>
-      <c r="CL75" s="26">
+      <c r="CL75" s="25">
         <v>11.839204282134361</v>
       </c>
-      <c r="CM75" s="26">
-        <v>13.06079368861927</v>
-      </c>
-      <c r="CN75" s="26"/>
-      <c r="CO75" s="26"/>
-      <c r="CP75" s="26"/>
-      <c r="CQ75" s="26"/>
-      <c r="CR75" s="11"/>
+      <c r="CM75" s="25">
+        <v>13.17834038531997</v>
+      </c>
+      <c r="CN75" s="25">
+        <v>10.171772051889576</v>
+      </c>
+      <c r="CO75" s="25"/>
+      <c r="CP75" s="25"/>
+      <c r="CQ75" s="25"/>
+      <c r="CR75" s="25"/>
       <c r="CS75" s="11"/>
       <c r="CT75" s="11"/>
       <c r="CU75" s="11"/>
@@ -14487,17 +14570,19 @@
       <c r="CK76" s="26">
         <v>20.962940351693334</v>
       </c>
-      <c r="CL76" s="26">
+      <c r="CL76" s="25">
         <v>23.922080859450617</v>
       </c>
-      <c r="CM76" s="26">
-        <v>29.643917481861763</v>
-      </c>
-      <c r="CN76" s="26"/>
-      <c r="CO76" s="26"/>
-      <c r="CP76" s="26"/>
-      <c r="CQ76" s="26"/>
-      <c r="CR76" s="11"/>
+      <c r="CM76" s="25">
+        <v>29.94487221615617</v>
+      </c>
+      <c r="CN76" s="25">
+        <v>13.17706184343686</v>
+      </c>
+      <c r="CO76" s="25"/>
+      <c r="CP76" s="25"/>
+      <c r="CQ76" s="25"/>
+      <c r="CR76" s="25"/>
       <c r="CS76" s="11"/>
       <c r="CT76" s="11"/>
       <c r="CU76" s="11"/>
@@ -14820,17 +14905,19 @@
       <c r="CK77" s="26">
         <v>6.6924732388451673</v>
       </c>
-      <c r="CL77" s="26">
+      <c r="CL77" s="25">
         <v>5.6791499437760109</v>
       </c>
-      <c r="CM77" s="26">
-        <v>5.7492260133699062</v>
-      </c>
-      <c r="CN77" s="26"/>
-      <c r="CO77" s="26"/>
-      <c r="CP77" s="26"/>
-      <c r="CQ77" s="26"/>
-      <c r="CR77" s="11"/>
+      <c r="CM77" s="25">
+        <v>5.3336040609563327</v>
+      </c>
+      <c r="CN77" s="25">
+        <v>6.3005091600585956</v>
+      </c>
+      <c r="CO77" s="25"/>
+      <c r="CP77" s="25"/>
+      <c r="CQ77" s="25"/>
+      <c r="CR77" s="25"/>
       <c r="CS77" s="11"/>
       <c r="CT77" s="11"/>
       <c r="CU77" s="11"/>
@@ -15153,17 +15240,19 @@
       <c r="CK78" s="26">
         <v>19.43592958964993</v>
       </c>
-      <c r="CL78" s="26">
+      <c r="CL78" s="25">
         <v>35.504800407539534</v>
       </c>
-      <c r="CM78" s="26">
-        <v>25.812468153670665</v>
-      </c>
-      <c r="CN78" s="26"/>
-      <c r="CO78" s="26"/>
-      <c r="CP78" s="26"/>
-      <c r="CQ78" s="26"/>
-      <c r="CR78" s="11"/>
+      <c r="CM78" s="25">
+        <v>24.629098969531114</v>
+      </c>
+      <c r="CN78" s="25">
+        <v>18.92217756200472</v>
+      </c>
+      <c r="CO78" s="25"/>
+      <c r="CP78" s="25"/>
+      <c r="CQ78" s="25"/>
+      <c r="CR78" s="25"/>
       <c r="CS78" s="11"/>
       <c r="CT78" s="11"/>
       <c r="CU78" s="11"/>
@@ -15486,17 +15575,19 @@
       <c r="CK79" s="26">
         <v>14.183716365607538</v>
       </c>
-      <c r="CL79" s="26">
+      <c r="CL79" s="25">
         <v>10.501527238117617</v>
       </c>
-      <c r="CM79" s="26">
-        <v>10.875820548340712</v>
-      </c>
-      <c r="CN79" s="26"/>
-      <c r="CO79" s="26"/>
-      <c r="CP79" s="26"/>
-      <c r="CQ79" s="26"/>
-      <c r="CR79" s="11"/>
+      <c r="CM79" s="25">
+        <v>11.039952967946505</v>
+      </c>
+      <c r="CN79" s="25">
+        <v>10.092963733138632</v>
+      </c>
+      <c r="CO79" s="25"/>
+      <c r="CP79" s="25"/>
+      <c r="CQ79" s="25"/>
+      <c r="CR79" s="25"/>
       <c r="CS79" s="11"/>
       <c r="CT79" s="11"/>
       <c r="CU79" s="11"/>
@@ -15819,17 +15910,19 @@
       <c r="CK80" s="26">
         <v>32.771002893752922</v>
       </c>
-      <c r="CL80" s="26">
+      <c r="CL80" s="25">
         <v>33.965627314186065</v>
       </c>
-      <c r="CM80" s="26">
-        <v>33.620865500350476</v>
-      </c>
-      <c r="CN80" s="26"/>
-      <c r="CO80" s="26"/>
-      <c r="CP80" s="26"/>
-      <c r="CQ80" s="26"/>
-      <c r="CR80" s="11"/>
+      <c r="CM80" s="25">
+        <v>33.179143377476237</v>
+      </c>
+      <c r="CN80" s="25">
+        <v>21.393013365145677</v>
+      </c>
+      <c r="CO80" s="25"/>
+      <c r="CP80" s="25"/>
+      <c r="CQ80" s="25"/>
+      <c r="CR80" s="25"/>
       <c r="CS80" s="11"/>
       <c r="CT80" s="11"/>
       <c r="CU80" s="11"/>
@@ -16152,17 +16245,19 @@
       <c r="CK81" s="26">
         <v>11.443585383216643</v>
       </c>
-      <c r="CL81" s="26">
+      <c r="CL81" s="25">
         <v>14.839340376547128</v>
       </c>
-      <c r="CM81" s="26">
-        <v>11.217691884866184</v>
-      </c>
-      <c r="CN81" s="26"/>
-      <c r="CO81" s="26"/>
-      <c r="CP81" s="26"/>
-      <c r="CQ81" s="26"/>
-      <c r="CR81" s="11"/>
+      <c r="CM81" s="25">
+        <v>11.435322802656927</v>
+      </c>
+      <c r="CN81" s="25">
+        <v>10.17204685495669</v>
+      </c>
+      <c r="CO81" s="25"/>
+      <c r="CP81" s="25"/>
+      <c r="CQ81" s="25"/>
+      <c r="CR81" s="25"/>
       <c r="CS81" s="11"/>
       <c r="CT81" s="11"/>
       <c r="CU81" s="11"/>
@@ -16306,13 +16401,13 @@
       <c r="CI82" s="11"/>
       <c r="CJ82" s="11"/>
       <c r="CK82" s="11"/>
-      <c r="CL82" s="11"/>
-      <c r="CM82" s="11"/>
-      <c r="CN82" s="11"/>
-      <c r="CO82" s="11"/>
-      <c r="CP82" s="11"/>
-      <c r="CQ82" s="11"/>
-      <c r="CR82" s="11"/>
+      <c r="CL82" s="13"/>
+      <c r="CM82" s="13"/>
+      <c r="CN82" s="13"/>
+      <c r="CO82" s="13"/>
+      <c r="CP82" s="13"/>
+      <c r="CQ82" s="13"/>
+      <c r="CR82" s="13"/>
       <c r="CS82" s="11"/>
       <c r="CT82" s="11"/>
       <c r="CU82" s="11"/>
@@ -16635,17 +16730,19 @@
       <c r="CK83" s="26">
         <v>14.90946448783501</v>
       </c>
-      <c r="CL83" s="26">
+      <c r="CL83" s="25">
         <v>14.703382016307259</v>
       </c>
-      <c r="CM83" s="26">
-        <v>11.573295727077706</v>
-      </c>
-      <c r="CN83" s="26"/>
-      <c r="CO83" s="26"/>
-      <c r="CP83" s="26"/>
-      <c r="CQ83" s="26"/>
-      <c r="CR83" s="11"/>
+      <c r="CM83" s="25">
+        <v>11.59901841058155</v>
+      </c>
+      <c r="CN83" s="25">
+        <v>9.688764162968198</v>
+      </c>
+      <c r="CO83" s="25"/>
+      <c r="CP83" s="25"/>
+      <c r="CQ83" s="25"/>
+      <c r="CR83" s="25"/>
       <c r="CS83" s="11"/>
       <c r="CT83" s="11"/>
       <c r="CU83" s="11"/>
@@ -16790,12 +16887,13 @@
       <c r="CI84" s="16"/>
       <c r="CJ84" s="16"/>
       <c r="CK84" s="16"/>
-      <c r="CL84" s="16"/>
-      <c r="CM84" s="16"/>
-      <c r="CN84" s="16"/>
-      <c r="CO84" s="16"/>
-      <c r="CP84" s="16"/>
-      <c r="CQ84" s="16"/>
+      <c r="CL84" s="17"/>
+      <c r="CM84" s="17"/>
+      <c r="CN84" s="17"/>
+      <c r="CO84" s="17"/>
+      <c r="CP84" s="17"/>
+      <c r="CQ84" s="17"/>
+      <c r="CR84" s="17"/>
     </row>
     <row r="85" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A85" s="18" t="s">
@@ -16891,13 +16989,13 @@
       <c r="CI86" s="11"/>
       <c r="CJ86" s="11"/>
       <c r="CK86" s="11"/>
-      <c r="CL86" s="11"/>
-      <c r="CM86" s="11"/>
-      <c r="CN86" s="11"/>
-      <c r="CO86" s="11"/>
-      <c r="CP86" s="11"/>
-      <c r="CQ86" s="11"/>
-      <c r="CR86" s="11"/>
+      <c r="CL86" s="35"/>
+      <c r="CM86" s="35"/>
+      <c r="CN86" s="35"/>
+      <c r="CO86" s="35"/>
+      <c r="CP86" s="35"/>
+      <c r="CQ86" s="35"/>
+      <c r="CR86" s="35"/>
       <c r="CS86" s="11"/>
       <c r="CT86" s="11"/>
       <c r="CU86" s="11"/>
@@ -17041,13 +17139,13 @@
       <c r="CI87" s="11"/>
       <c r="CJ87" s="11"/>
       <c r="CK87" s="11"/>
-      <c r="CL87" s="11"/>
-      <c r="CM87" s="11"/>
-      <c r="CN87" s="11"/>
-      <c r="CO87" s="11"/>
-      <c r="CP87" s="11"/>
-      <c r="CQ87" s="11"/>
-      <c r="CR87" s="11"/>
+      <c r="CL87" s="36"/>
+      <c r="CM87" s="36"/>
+      <c r="CN87" s="36"/>
+      <c r="CO87" s="36"/>
+      <c r="CP87" s="36"/>
+      <c r="CQ87" s="36"/>
+      <c r="CR87" s="36"/>
       <c r="CS87" s="11"/>
       <c r="CT87" s="11"/>
       <c r="CU87" s="11"/>
@@ -17134,148 +17232,147 @@
     </row>
     <row r="96" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
-      <c r="B96" s="33" t="s">
+      <c r="B96" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C96" s="33"/>
-      <c r="D96" s="33"/>
-      <c r="E96" s="33"/>
-      <c r="F96" s="33" t="s">
+      <c r="C96" s="38"/>
+      <c r="D96" s="38"/>
+      <c r="E96" s="38"/>
+      <c r="F96" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="G96" s="33"/>
-      <c r="H96" s="33"/>
-      <c r="I96" s="33"/>
-      <c r="J96" s="33" t="s">
+      <c r="G96" s="38"/>
+      <c r="H96" s="38"/>
+      <c r="I96" s="38"/>
+      <c r="J96" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="K96" s="33"/>
-      <c r="L96" s="33"/>
-      <c r="M96" s="33"/>
-      <c r="N96" s="33" t="s">
+      <c r="K96" s="38"/>
+      <c r="L96" s="38"/>
+      <c r="M96" s="38"/>
+      <c r="N96" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="O96" s="33"/>
-      <c r="P96" s="33"/>
-      <c r="Q96" s="33"/>
-      <c r="R96" s="33" t="s">
+      <c r="O96" s="38"/>
+      <c r="P96" s="38"/>
+      <c r="Q96" s="38"/>
+      <c r="R96" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="S96" s="33"/>
-      <c r="T96" s="33"/>
-      <c r="U96" s="33"/>
-      <c r="V96" s="33" t="s">
+      <c r="S96" s="38"/>
+      <c r="T96" s="38"/>
+      <c r="U96" s="38"/>
+      <c r="V96" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="W96" s="33"/>
-      <c r="X96" s="33"/>
-      <c r="Y96" s="33"/>
-      <c r="Z96" s="33" t="s">
+      <c r="W96" s="38"/>
+      <c r="X96" s="38"/>
+      <c r="Y96" s="38"/>
+      <c r="Z96" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="AA96" s="33"/>
-      <c r="AB96" s="33"/>
-      <c r="AC96" s="33"/>
-      <c r="AD96" s="33" t="s">
+      <c r="AA96" s="38"/>
+      <c r="AB96" s="38"/>
+      <c r="AC96" s="38"/>
+      <c r="AD96" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="AE96" s="33"/>
-      <c r="AF96" s="33"/>
-      <c r="AG96" s="33"/>
-      <c r="AH96" s="33" t="s">
+      <c r="AE96" s="38"/>
+      <c r="AF96" s="38"/>
+      <c r="AG96" s="38"/>
+      <c r="AH96" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="AI96" s="33"/>
-      <c r="AJ96" s="33"/>
-      <c r="AK96" s="33"/>
-      <c r="AL96" s="33" t="s">
+      <c r="AI96" s="38"/>
+      <c r="AJ96" s="38"/>
+      <c r="AK96" s="38"/>
+      <c r="AL96" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="AM96" s="33"/>
-      <c r="AN96" s="33"/>
-      <c r="AO96" s="33"/>
-      <c r="AP96" s="33" t="s">
+      <c r="AM96" s="38"/>
+      <c r="AN96" s="38"/>
+      <c r="AO96" s="38"/>
+      <c r="AP96" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="AQ96" s="33"/>
-      <c r="AR96" s="33"/>
-      <c r="AS96" s="33"/>
-      <c r="AT96" s="33" t="s">
+      <c r="AQ96" s="38"/>
+      <c r="AR96" s="38"/>
+      <c r="AS96" s="38"/>
+      <c r="AT96" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="AU96" s="33"/>
-      <c r="AV96" s="33"/>
-      <c r="AW96" s="33"/>
-      <c r="AX96" s="33" t="s">
+      <c r="AU96" s="38"/>
+      <c r="AV96" s="38"/>
+      <c r="AW96" s="38"/>
+      <c r="AX96" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="AY96" s="33"/>
-      <c r="AZ96" s="33"/>
-      <c r="BA96" s="33"/>
-      <c r="BB96" s="33" t="s">
+      <c r="AY96" s="38"/>
+      <c r="AZ96" s="38"/>
+      <c r="BA96" s="38"/>
+      <c r="BB96" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="BC96" s="33"/>
-      <c r="BD96" s="33"/>
-      <c r="BE96" s="33"/>
-      <c r="BF96" s="33" t="s">
+      <c r="BC96" s="38"/>
+      <c r="BD96" s="38"/>
+      <c r="BE96" s="38"/>
+      <c r="BF96" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="BG96" s="33"/>
-      <c r="BH96" s="33"/>
-      <c r="BI96" s="33"/>
-      <c r="BJ96" s="33" t="s">
+      <c r="BG96" s="38"/>
+      <c r="BH96" s="38"/>
+      <c r="BI96" s="38"/>
+      <c r="BJ96" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="BK96" s="33"/>
-      <c r="BL96" s="33"/>
-      <c r="BM96" s="33"/>
-      <c r="BN96" s="33" t="s">
+      <c r="BK96" s="38"/>
+      <c r="BL96" s="38"/>
+      <c r="BM96" s="38"/>
+      <c r="BN96" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="BO96" s="33"/>
-      <c r="BP96" s="33"/>
-      <c r="BQ96" s="33"/>
-      <c r="BR96" s="34" t="s">
+      <c r="BO96" s="38"/>
+      <c r="BP96" s="38"/>
+      <c r="BQ96" s="38"/>
+      <c r="BR96" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="BS96" s="34"/>
-      <c r="BT96" s="34"/>
-      <c r="BU96" s="34"/>
-      <c r="BV96" s="34" t="s">
+      <c r="BS96" s="39"/>
+      <c r="BT96" s="39"/>
+      <c r="BU96" s="39"/>
+      <c r="BV96" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="BW96" s="34"/>
-      <c r="BX96" s="34"/>
-      <c r="BY96" s="34"/>
-      <c r="BZ96" s="34" t="s">
+      <c r="BW96" s="39"/>
+      <c r="BX96" s="39"/>
+      <c r="BY96" s="39"/>
+      <c r="BZ96" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="CA96" s="34"/>
-      <c r="CB96" s="34"/>
-      <c r="CC96" s="34"/>
-      <c r="CD96" s="34" t="s">
+      <c r="CA96" s="39"/>
+      <c r="CB96" s="39"/>
+      <c r="CC96" s="39"/>
+      <c r="CD96" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="CE96" s="34"/>
-      <c r="CF96" s="34"/>
-      <c r="CG96" s="34"/>
-      <c r="CH96" s="34" t="s">
+      <c r="CE96" s="39"/>
+      <c r="CF96" s="39"/>
+      <c r="CG96" s="39"/>
+      <c r="CH96" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="CI96" s="34"/>
-      <c r="CJ96" s="34"/>
-      <c r="CK96" s="34"/>
-      <c r="CL96" s="34" t="s">
+      <c r="CI96" s="39"/>
+      <c r="CJ96" s="39"/>
+      <c r="CK96" s="39"/>
+      <c r="CL96" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="CM96" s="34">
-        <v>0</v>
-      </c>
-      <c r="CN96" s="34"/>
-      <c r="CO96" s="34"/>
-      <c r="CP96" s="34"/>
-      <c r="CQ96" s="35"/>
+      <c r="CM96" s="38"/>
+      <c r="CN96" s="38"/>
+      <c r="CO96" s="37"/>
+      <c r="CP96" s="33"/>
+      <c r="CQ96" s="33"/>
+      <c r="CR96" s="33"/>
     </row>
     <row r="97" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
@@ -17545,16 +17642,19 @@
       <c r="CK97" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CL97" s="7" t="s">
+      <c r="CL97" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="CM97" s="7" t="s">
+      <c r="CM97" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="CN97" s="7"/>
-      <c r="CO97" s="7"/>
-      <c r="CP97" s="7"/>
-      <c r="CQ97" s="7"/>
+      <c r="CN97" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="CO97" s="6"/>
+      <c r="CP97" s="6"/>
+      <c r="CQ97" s="6"/>
+      <c r="CR97" s="6"/>
     </row>
     <row r="98" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8"/>
@@ -17827,17 +17927,19 @@
       <c r="CK99" s="26">
         <v>3.9785935809430555</v>
       </c>
-      <c r="CL99" s="26">
+      <c r="CL99" s="25">
         <v>0.64492687527631176</v>
       </c>
-      <c r="CM99" s="26">
-        <v>0.43502721018897716</v>
-      </c>
-      <c r="CN99" s="26"/>
-      <c r="CO99" s="26"/>
-      <c r="CP99" s="26"/>
-      <c r="CQ99" s="26"/>
-      <c r="CR99" s="11"/>
+      <c r="CM99" s="25">
+        <v>0.39905896281825903</v>
+      </c>
+      <c r="CN99" s="25">
+        <v>0.27252346795161486</v>
+      </c>
+      <c r="CO99" s="25"/>
+      <c r="CP99" s="25"/>
+      <c r="CQ99" s="25"/>
+      <c r="CR99" s="25"/>
       <c r="CS99" s="11"/>
       <c r="CT99" s="11"/>
       <c r="CU99" s="11"/>
@@ -18160,17 +18262,19 @@
       <c r="CK100" s="26">
         <v>3.9147385367330259</v>
       </c>
-      <c r="CL100" s="26">
+      <c r="CL100" s="25">
         <v>-0.27357372963069793</v>
       </c>
-      <c r="CM100" s="26">
-        <v>-9.110613538984552</v>
-      </c>
-      <c r="CN100" s="26"/>
-      <c r="CO100" s="26"/>
-      <c r="CP100" s="26"/>
-      <c r="CQ100" s="26"/>
-      <c r="CR100" s="11"/>
+      <c r="CM100" s="25">
+        <v>-8.2390815145471947</v>
+      </c>
+      <c r="CN100" s="25">
+        <v>0.7713007141491488</v>
+      </c>
+      <c r="CO100" s="25"/>
+      <c r="CP100" s="25"/>
+      <c r="CQ100" s="25"/>
+      <c r="CR100" s="25"/>
       <c r="CS100" s="11"/>
       <c r="CT100" s="11"/>
       <c r="CU100" s="11"/>
@@ -18493,17 +18597,19 @@
       <c r="CK101" s="26">
         <v>10.193524067478094</v>
       </c>
-      <c r="CL101" s="26">
+      <c r="CL101" s="25">
         <v>-2.3622888818490395</v>
       </c>
-      <c r="CM101" s="26">
-        <v>-27.308707870553945</v>
-      </c>
-      <c r="CN101" s="26"/>
-      <c r="CO101" s="26"/>
-      <c r="CP101" s="26"/>
-      <c r="CQ101" s="26"/>
-      <c r="CR101" s="11"/>
+      <c r="CM101" s="25">
+        <v>-26.412488911446431</v>
+      </c>
+      <c r="CN101" s="25">
+        <v>-11.381567831694468</v>
+      </c>
+      <c r="CO101" s="25"/>
+      <c r="CP101" s="25"/>
+      <c r="CQ101" s="25"/>
+      <c r="CR101" s="25"/>
       <c r="CS101" s="11"/>
       <c r="CT101" s="11"/>
       <c r="CU101" s="11"/>
@@ -18826,17 +18932,19 @@
       <c r="CK102" s="26">
         <v>4.4963740045475049</v>
       </c>
-      <c r="CL102" s="26">
+      <c r="CL102" s="25">
         <v>3.8766048667486785</v>
       </c>
-      <c r="CM102" s="26">
-        <v>6.0818572755786846</v>
-      </c>
-      <c r="CN102" s="26"/>
-      <c r="CO102" s="26"/>
-      <c r="CP102" s="26"/>
-      <c r="CQ102" s="26"/>
-      <c r="CR102" s="11"/>
+      <c r="CM102" s="25">
+        <v>6.0962252277962961</v>
+      </c>
+      <c r="CN102" s="25">
+        <v>4.4919925044614644</v>
+      </c>
+      <c r="CO102" s="25"/>
+      <c r="CP102" s="25"/>
+      <c r="CQ102" s="25"/>
+      <c r="CR102" s="25"/>
       <c r="CS102" s="11"/>
       <c r="CT102" s="11"/>
       <c r="CU102" s="11"/>
@@ -19159,17 +19267,19 @@
       <c r="CK103" s="26">
         <v>9.3573074302153856</v>
       </c>
-      <c r="CL103" s="26">
+      <c r="CL103" s="25">
         <v>-2.768520471444873</v>
       </c>
-      <c r="CM103" s="26">
-        <v>-2.7227200243741549</v>
-      </c>
-      <c r="CN103" s="26"/>
-      <c r="CO103" s="26"/>
-      <c r="CP103" s="26"/>
-      <c r="CQ103" s="26"/>
-      <c r="CR103" s="11"/>
+      <c r="CM103" s="25">
+        <v>-3.1776692810644391</v>
+      </c>
+      <c r="CN103" s="25">
+        <v>-1.1396752063414368</v>
+      </c>
+      <c r="CO103" s="25"/>
+      <c r="CP103" s="25"/>
+      <c r="CQ103" s="25"/>
+      <c r="CR103" s="25"/>
       <c r="CS103" s="11"/>
       <c r="CT103" s="11"/>
       <c r="CU103" s="11"/>
@@ -19492,17 +19602,19 @@
       <c r="CK104" s="26">
         <v>5.2490153935198265</v>
       </c>
-      <c r="CL104" s="26">
+      <c r="CL104" s="25">
         <v>7.8021433266596745</v>
       </c>
-      <c r="CM104" s="26">
-        <v>8.6648635284183939</v>
-      </c>
-      <c r="CN104" s="26"/>
-      <c r="CO104" s="26"/>
-      <c r="CP104" s="26"/>
-      <c r="CQ104" s="26"/>
-      <c r="CR104" s="11"/>
+      <c r="CM104" s="25">
+        <v>8.777839878030619</v>
+      </c>
+      <c r="CN104" s="25">
+        <v>5.9826150241047031</v>
+      </c>
+      <c r="CO104" s="25"/>
+      <c r="CP104" s="25"/>
+      <c r="CQ104" s="25"/>
+      <c r="CR104" s="25"/>
       <c r="CS104" s="11"/>
       <c r="CT104" s="11"/>
       <c r="CU104" s="11"/>
@@ -19825,17 +19937,19 @@
       <c r="CK105" s="26">
         <v>7.8682121727108552</v>
       </c>
-      <c r="CL105" s="26">
+      <c r="CL105" s="25">
         <v>14.335353258680669</v>
       </c>
-      <c r="CM105" s="26">
-        <v>30.085229586408559</v>
-      </c>
-      <c r="CN105" s="26"/>
-      <c r="CO105" s="26"/>
-      <c r="CP105" s="26"/>
-      <c r="CQ105" s="26"/>
-      <c r="CR105" s="11"/>
+      <c r="CM105" s="25">
+        <v>30.387208780390296</v>
+      </c>
+      <c r="CN105" s="25">
+        <v>14.461174974203004</v>
+      </c>
+      <c r="CO105" s="25"/>
+      <c r="CP105" s="25"/>
+      <c r="CQ105" s="25"/>
+      <c r="CR105" s="25"/>
       <c r="CS105" s="11"/>
       <c r="CT105" s="11"/>
       <c r="CU105" s="11"/>
@@ -20158,17 +20272,19 @@
       <c r="CK106" s="26">
         <v>6.0323765304316055</v>
       </c>
-      <c r="CL106" s="26">
+      <c r="CL106" s="25">
         <v>4.9242988727490626</v>
       </c>
-      <c r="CM106" s="26">
-        <v>5.02844258387276</v>
-      </c>
-      <c r="CN106" s="26"/>
-      <c r="CO106" s="26"/>
-      <c r="CP106" s="26"/>
-      <c r="CQ106" s="26"/>
-      <c r="CR106" s="11"/>
+      <c r="CM106" s="25">
+        <v>4.615653497736588</v>
+      </c>
+      <c r="CN106" s="25">
+        <v>5.6106940454573078</v>
+      </c>
+      <c r="CO106" s="25"/>
+      <c r="CP106" s="25"/>
+      <c r="CQ106" s="25"/>
+      <c r="CR106" s="25"/>
       <c r="CS106" s="11"/>
       <c r="CT106" s="11"/>
       <c r="CU106" s="11"/>
@@ -20491,17 +20607,19 @@
       <c r="CK107" s="26">
         <v>15.49125668577156</v>
       </c>
-      <c r="CL107" s="26">
+      <c r="CL107" s="25">
         <v>29.785574583887012</v>
       </c>
-      <c r="CM107" s="26">
-        <v>20.059537003786716</v>
-      </c>
-      <c r="CN107" s="26"/>
-      <c r="CO107" s="26"/>
-      <c r="CP107" s="26"/>
-      <c r="CQ107" s="26"/>
-      <c r="CR107" s="11"/>
+      <c r="CM107" s="25">
+        <v>18.930278843309239</v>
+      </c>
+      <c r="CN107" s="25">
+        <v>15.426425292801753</v>
+      </c>
+      <c r="CO107" s="25"/>
+      <c r="CP107" s="25"/>
+      <c r="CQ107" s="25"/>
+      <c r="CR107" s="25"/>
       <c r="CS107" s="11"/>
       <c r="CT107" s="11"/>
       <c r="CU107" s="11"/>
@@ -20824,17 +20942,19 @@
       <c r="CK108" s="26">
         <v>10.278242718539033</v>
       </c>
-      <c r="CL108" s="26">
+      <c r="CL108" s="25">
         <v>6.6260240346224748</v>
       </c>
-      <c r="CM108" s="26">
-        <v>6.9871901514114683</v>
-      </c>
-      <c r="CN108" s="26"/>
-      <c r="CO108" s="26"/>
-      <c r="CP108" s="26"/>
-      <c r="CQ108" s="26"/>
-      <c r="CR108" s="11"/>
+      <c r="CM108" s="25">
+        <v>7.1455661282433596</v>
+      </c>
+      <c r="CN108" s="25">
+        <v>6.4663719866352238</v>
+      </c>
+      <c r="CO108" s="25"/>
+      <c r="CP108" s="25"/>
+      <c r="CQ108" s="25"/>
+      <c r="CR108" s="25"/>
       <c r="CS108" s="11"/>
       <c r="CT108" s="11"/>
       <c r="CU108" s="11"/>
@@ -21157,17 +21277,19 @@
       <c r="CK109" s="26">
         <v>24.779108341374851</v>
       </c>
-      <c r="CL109" s="26">
+      <c r="CL109" s="25">
         <v>24.027082581513739</v>
       </c>
-      <c r="CM109" s="26">
-        <v>23.302934484167892</v>
-      </c>
-      <c r="CN109" s="26"/>
-      <c r="CO109" s="26"/>
-      <c r="CP109" s="26"/>
-      <c r="CQ109" s="26"/>
-      <c r="CR109" s="11"/>
+      <c r="CM109" s="25">
+        <v>22.895321243728034</v>
+      </c>
+      <c r="CN109" s="25">
+        <v>14.860814971124142</v>
+      </c>
+      <c r="CO109" s="25"/>
+      <c r="CP109" s="25"/>
+      <c r="CQ109" s="25"/>
+      <c r="CR109" s="25"/>
       <c r="CS109" s="11"/>
       <c r="CT109" s="11"/>
       <c r="CU109" s="11"/>
@@ -21490,17 +21612,19 @@
       <c r="CK110" s="26">
         <v>6.6439501425235221</v>
       </c>
-      <c r="CL110" s="26">
+      <c r="CL110" s="25">
         <v>9.0986650048017168</v>
       </c>
-      <c r="CM110" s="26">
-        <v>5.2153121611257234</v>
-      </c>
-      <c r="CN110" s="26"/>
-      <c r="CO110" s="26"/>
-      <c r="CP110" s="26"/>
-      <c r="CQ110" s="26"/>
-      <c r="CR110" s="11"/>
+      <c r="CM110" s="25">
+        <v>5.4211976148084773</v>
+      </c>
+      <c r="CN110" s="25">
+        <v>8.0213108933982653</v>
+      </c>
+      <c r="CO110" s="25"/>
+      <c r="CP110" s="25"/>
+      <c r="CQ110" s="25"/>
+      <c r="CR110" s="25"/>
       <c r="CS110" s="11"/>
       <c r="CT110" s="11"/>
       <c r="CU110" s="11"/>
@@ -21644,13 +21768,13 @@
       <c r="CI111" s="11"/>
       <c r="CJ111" s="11"/>
       <c r="CK111" s="11"/>
-      <c r="CL111" s="11"/>
-      <c r="CM111" s="11"/>
-      <c r="CN111" s="11"/>
-      <c r="CO111" s="11"/>
-      <c r="CP111" s="11"/>
-      <c r="CQ111" s="11"/>
-      <c r="CR111" s="11"/>
+      <c r="CL111" s="13"/>
+      <c r="CM111" s="13"/>
+      <c r="CN111" s="13"/>
+      <c r="CO111" s="13"/>
+      <c r="CP111" s="13"/>
+      <c r="CQ111" s="13"/>
+      <c r="CR111" s="13"/>
       <c r="CS111" s="11"/>
       <c r="CT111" s="11"/>
       <c r="CU111" s="11"/>
@@ -21973,17 +22097,19 @@
       <c r="CK112" s="26">
         <v>6.971064311894807</v>
       </c>
-      <c r="CL112" s="26">
+      <c r="CL112" s="25">
         <v>6.4300230362182873</v>
       </c>
-      <c r="CM112" s="26">
-        <v>5.5072433479429037</v>
-      </c>
-      <c r="CN112" s="26"/>
-      <c r="CO112" s="26"/>
-      <c r="CP112" s="26"/>
-      <c r="CQ112" s="26"/>
-      <c r="CR112" s="11"/>
+      <c r="CM112" s="25">
+        <v>5.5217510711067916</v>
+      </c>
+      <c r="CN112" s="25">
+        <v>5.0476085243877549</v>
+      </c>
+      <c r="CO112" s="25"/>
+      <c r="CP112" s="25"/>
+      <c r="CQ112" s="25"/>
+      <c r="CR112" s="25"/>
       <c r="CS112" s="11"/>
       <c r="CT112" s="11"/>
       <c r="CU112" s="11"/>
@@ -22128,12 +22254,13 @@
       <c r="CI113" s="16"/>
       <c r="CJ113" s="16"/>
       <c r="CK113" s="16"/>
-      <c r="CL113" s="16"/>
-      <c r="CM113" s="16"/>
-      <c r="CN113" s="16"/>
-      <c r="CO113" s="16"/>
-      <c r="CP113" s="16"/>
-      <c r="CQ113" s="16"/>
+      <c r="CL113" s="17"/>
+      <c r="CM113" s="17"/>
+      <c r="CN113" s="17"/>
+      <c r="CO113" s="17"/>
+      <c r="CP113" s="17"/>
+      <c r="CQ113" s="17"/>
+      <c r="CR113" s="17"/>
     </row>
     <row r="114" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A114" s="18" t="s">
@@ -22229,13 +22356,13 @@
       <c r="CI115" s="11"/>
       <c r="CJ115" s="11"/>
       <c r="CK115" s="11"/>
-      <c r="CL115" s="11"/>
-      <c r="CM115" s="11"/>
-      <c r="CN115" s="11"/>
-      <c r="CO115" s="11"/>
-      <c r="CP115" s="11"/>
-      <c r="CQ115" s="11"/>
-      <c r="CR115" s="11"/>
+      <c r="CL115" s="35"/>
+      <c r="CM115" s="35"/>
+      <c r="CN115" s="35"/>
+      <c r="CO115" s="35"/>
+      <c r="CP115" s="35"/>
+      <c r="CQ115" s="35"/>
+      <c r="CR115" s="35"/>
       <c r="CS115" s="11"/>
       <c r="CT115" s="11"/>
       <c r="CU115" s="11"/>
@@ -22379,13 +22506,13 @@
       <c r="CI116" s="11"/>
       <c r="CJ116" s="11"/>
       <c r="CK116" s="11"/>
-      <c r="CL116" s="11"/>
-      <c r="CM116" s="11"/>
-      <c r="CN116" s="11"/>
-      <c r="CO116" s="11"/>
-      <c r="CP116" s="11"/>
-      <c r="CQ116" s="11"/>
-      <c r="CR116" s="11"/>
+      <c r="CL116" s="36"/>
+      <c r="CM116" s="36"/>
+      <c r="CN116" s="36"/>
+      <c r="CO116" s="36"/>
+      <c r="CP116" s="36"/>
+      <c r="CQ116" s="36"/>
+      <c r="CR116" s="36"/>
       <c r="CS116" s="11"/>
       <c r="CT116" s="11"/>
       <c r="CU116" s="11"/>
@@ -22467,148 +22594,149 @@
     </row>
     <row r="124" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
-      <c r="B124" s="33">
+      <c r="B124" s="38">
         <v>2000</v>
       </c>
-      <c r="C124" s="33"/>
-      <c r="D124" s="33"/>
-      <c r="E124" s="33"/>
-      <c r="F124" s="33">
+      <c r="C124" s="38"/>
+      <c r="D124" s="38"/>
+      <c r="E124" s="38"/>
+      <c r="F124" s="38">
         <v>2001</v>
       </c>
-      <c r="G124" s="33"/>
-      <c r="H124" s="33"/>
-      <c r="I124" s="33"/>
-      <c r="J124" s="33">
+      <c r="G124" s="38"/>
+      <c r="H124" s="38"/>
+      <c r="I124" s="38"/>
+      <c r="J124" s="38">
         <v>2002</v>
       </c>
-      <c r="K124" s="33"/>
-      <c r="L124" s="33"/>
-      <c r="M124" s="33"/>
-      <c r="N124" s="33">
+      <c r="K124" s="38"/>
+      <c r="L124" s="38"/>
+      <c r="M124" s="38"/>
+      <c r="N124" s="38">
         <v>2003</v>
       </c>
-      <c r="O124" s="33"/>
-      <c r="P124" s="33"/>
-      <c r="Q124" s="33"/>
-      <c r="R124" s="33">
+      <c r="O124" s="38"/>
+      <c r="P124" s="38"/>
+      <c r="Q124" s="38"/>
+      <c r="R124" s="38">
         <v>2004</v>
       </c>
-      <c r="S124" s="33"/>
-      <c r="T124" s="33"/>
-      <c r="U124" s="33"/>
-      <c r="V124" s="33">
+      <c r="S124" s="38"/>
+      <c r="T124" s="38"/>
+      <c r="U124" s="38"/>
+      <c r="V124" s="38">
         <v>2005</v>
       </c>
-      <c r="W124" s="33"/>
-      <c r="X124" s="33"/>
-      <c r="Y124" s="33"/>
-      <c r="Z124" s="33">
+      <c r="W124" s="38"/>
+      <c r="X124" s="38"/>
+      <c r="Y124" s="38"/>
+      <c r="Z124" s="38">
         <v>2006</v>
       </c>
-      <c r="AA124" s="33"/>
-      <c r="AB124" s="33"/>
-      <c r="AC124" s="33"/>
-      <c r="AD124" s="33">
+      <c r="AA124" s="38"/>
+      <c r="AB124" s="38"/>
+      <c r="AC124" s="38"/>
+      <c r="AD124" s="38">
         <v>2007</v>
       </c>
-      <c r="AE124" s="33"/>
-      <c r="AF124" s="33"/>
-      <c r="AG124" s="33"/>
-      <c r="AH124" s="33">
+      <c r="AE124" s="38"/>
+      <c r="AF124" s="38"/>
+      <c r="AG124" s="38"/>
+      <c r="AH124" s="38">
         <v>2008</v>
       </c>
-      <c r="AI124" s="33"/>
-      <c r="AJ124" s="33"/>
-      <c r="AK124" s="33"/>
-      <c r="AL124" s="33">
+      <c r="AI124" s="38"/>
+      <c r="AJ124" s="38"/>
+      <c r="AK124" s="38"/>
+      <c r="AL124" s="38">
         <v>2009</v>
       </c>
-      <c r="AM124" s="33"/>
-      <c r="AN124" s="33"/>
-      <c r="AO124" s="33"/>
-      <c r="AP124" s="33">
+      <c r="AM124" s="38"/>
+      <c r="AN124" s="38"/>
+      <c r="AO124" s="38"/>
+      <c r="AP124" s="38">
         <v>2010</v>
       </c>
-      <c r="AQ124" s="33"/>
-      <c r="AR124" s="33"/>
-      <c r="AS124" s="33"/>
-      <c r="AT124" s="33">
+      <c r="AQ124" s="38"/>
+      <c r="AR124" s="38"/>
+      <c r="AS124" s="38"/>
+      <c r="AT124" s="38">
         <v>2011</v>
       </c>
-      <c r="AU124" s="33"/>
-      <c r="AV124" s="33"/>
-      <c r="AW124" s="33"/>
-      <c r="AX124" s="33">
+      <c r="AU124" s="38"/>
+      <c r="AV124" s="38"/>
+      <c r="AW124" s="38"/>
+      <c r="AX124" s="38">
         <v>2012</v>
       </c>
-      <c r="AY124" s="33"/>
-      <c r="AZ124" s="33"/>
-      <c r="BA124" s="33"/>
-      <c r="BB124" s="33">
+      <c r="AY124" s="38"/>
+      <c r="AZ124" s="38"/>
+      <c r="BA124" s="38"/>
+      <c r="BB124" s="38">
         <v>2013</v>
       </c>
-      <c r="BC124" s="33"/>
-      <c r="BD124" s="33"/>
-      <c r="BE124" s="33"/>
-      <c r="BF124" s="33">
+      <c r="BC124" s="38"/>
+      <c r="BD124" s="38"/>
+      <c r="BE124" s="38"/>
+      <c r="BF124" s="38">
         <v>2014</v>
       </c>
-      <c r="BG124" s="33"/>
-      <c r="BH124" s="33"/>
-      <c r="BI124" s="33"/>
-      <c r="BJ124" s="33">
+      <c r="BG124" s="38"/>
+      <c r="BH124" s="38"/>
+      <c r="BI124" s="38"/>
+      <c r="BJ124" s="38">
         <v>2015</v>
       </c>
-      <c r="BK124" s="33"/>
-      <c r="BL124" s="33"/>
-      <c r="BM124" s="33"/>
-      <c r="BN124" s="33">
+      <c r="BK124" s="38"/>
+      <c r="BL124" s="38"/>
+      <c r="BM124" s="38"/>
+      <c r="BN124" s="38">
         <v>2016</v>
       </c>
-      <c r="BO124" s="33"/>
-      <c r="BP124" s="33"/>
-      <c r="BQ124" s="33"/>
-      <c r="BR124" s="34">
+      <c r="BO124" s="38"/>
+      <c r="BP124" s="38"/>
+      <c r="BQ124" s="38"/>
+      <c r="BR124" s="39">
         <v>2017</v>
       </c>
-      <c r="BS124" s="34"/>
-      <c r="BT124" s="34"/>
-      <c r="BU124" s="34"/>
-      <c r="BV124" s="34">
+      <c r="BS124" s="39"/>
+      <c r="BT124" s="39"/>
+      <c r="BU124" s="39"/>
+      <c r="BV124" s="39">
         <v>2018</v>
       </c>
-      <c r="BW124" s="34"/>
-      <c r="BX124" s="34"/>
-      <c r="BY124" s="34"/>
-      <c r="BZ124" s="34">
+      <c r="BW124" s="39"/>
+      <c r="BX124" s="39"/>
+      <c r="BY124" s="39"/>
+      <c r="BZ124" s="39">
         <v>2019</v>
       </c>
-      <c r="CA124" s="34"/>
-      <c r="CB124" s="34"/>
-      <c r="CC124" s="34"/>
-      <c r="CD124" s="34">
+      <c r="CA124" s="39"/>
+      <c r="CB124" s="39"/>
+      <c r="CC124" s="39"/>
+      <c r="CD124" s="39">
         <v>2020</v>
       </c>
-      <c r="CE124" s="34"/>
-      <c r="CF124" s="34"/>
-      <c r="CG124" s="34"/>
-      <c r="CH124" s="34">
+      <c r="CE124" s="39"/>
+      <c r="CF124" s="39"/>
+      <c r="CG124" s="39"/>
+      <c r="CH124" s="39">
         <v>2021</v>
       </c>
-      <c r="CI124" s="34"/>
-      <c r="CJ124" s="34"/>
-      <c r="CK124" s="34"/>
-      <c r="CL124" s="34">
+      <c r="CI124" s="39"/>
+      <c r="CJ124" s="39"/>
+      <c r="CK124" s="39"/>
+      <c r="CL124" s="38">
         <v>2022</v>
       </c>
-      <c r="CM124" s="34"/>
-      <c r="CN124" s="34"/>
-      <c r="CO124" s="34"/>
-      <c r="CP124" s="34">
+      <c r="CM124" s="38"/>
+      <c r="CN124" s="38"/>
+      <c r="CO124" s="38"/>
+      <c r="CP124" s="38">
         <v>2023</v>
       </c>
-      <c r="CQ124" s="35"/>
+      <c r="CQ124" s="38"/>
+      <c r="CR124" s="38"/>
     </row>
     <row r="125" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
@@ -22878,23 +23006,26 @@
       <c r="CK125" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CL125" s="7" t="s">
+      <c r="CL125" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="CM125" s="7" t="s">
+      <c r="CM125" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="CN125" s="7" t="s">
+      <c r="CN125" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="CO125" s="7" t="s">
+      <c r="CO125" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="CP125" s="7" t="s">
+      <c r="CP125" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="CQ125" s="7" t="s">
+      <c r="CQ125" s="6" t="s">
         <v>20</v>
+      </c>
+      <c r="CR125" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="126" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -23168,25 +23299,27 @@
       <c r="CK127" s="26">
         <v>108.89812440337268</v>
       </c>
-      <c r="CL127" s="26">
+      <c r="CL127" s="25">
         <v>110.13124168034444</v>
       </c>
-      <c r="CM127" s="26">
+      <c r="CM127" s="25">
         <v>115.22693976952753</v>
       </c>
-      <c r="CN127" s="26">
+      <c r="CN127" s="25">
         <v>118.41863104641222</v>
       </c>
-      <c r="CO127" s="26">
+      <c r="CO127" s="25">
         <v>119.63502738941952</v>
       </c>
-      <c r="CP127" s="26">
+      <c r="CP127" s="25">
         <v>121.40993984588135</v>
       </c>
-      <c r="CQ127" s="26">
+      <c r="CQ127" s="25">
         <v>123.69950887022809</v>
       </c>
-      <c r="CR127" s="11"/>
+      <c r="CR127" s="25">
+        <v>127.42154968922502</v>
+      </c>
       <c r="CS127" s="11"/>
       <c r="CT127" s="11"/>
       <c r="CU127" s="11"/>
@@ -23513,25 +23646,27 @@
       <c r="CK128" s="26">
         <v>142.78998741865652</v>
       </c>
-      <c r="CL128" s="26">
+      <c r="CL128" s="25">
         <v>139.90498626056689</v>
       </c>
-      <c r="CM128" s="26">
+      <c r="CM128" s="25">
         <v>155.37188373824463</v>
       </c>
-      <c r="CN128" s="26">
+      <c r="CN128" s="25">
         <v>167.67663158279339</v>
       </c>
-      <c r="CO128" s="26">
+      <c r="CO128" s="25">
         <v>157.85711271445632</v>
       </c>
-      <c r="CP128" s="26">
+      <c r="CP128" s="25">
         <v>155.8613031242264</v>
       </c>
-      <c r="CQ128" s="26">
+      <c r="CQ128" s="25">
         <v>174.33891502019807</v>
       </c>
-      <c r="CR128" s="11"/>
+      <c r="CR128" s="25">
+        <v>183.72355552326766</v>
+      </c>
       <c r="CS128" s="11"/>
       <c r="CT128" s="11"/>
       <c r="CU128" s="11"/>
@@ -23858,25 +23993,27 @@
       <c r="CK129" s="26">
         <v>104.20918761028659</v>
       </c>
-      <c r="CL129" s="26">
+      <c r="CL129" s="25">
         <v>105.81599612123389</v>
       </c>
-      <c r="CM129" s="26">
+      <c r="CM129" s="25">
         <v>115.98056002277895</v>
       </c>
-      <c r="CN129" s="26">
+      <c r="CN129" s="25">
         <v>106.69388624713258</v>
       </c>
-      <c r="CO129" s="26">
+      <c r="CO129" s="25">
         <v>107.88943773035248</v>
       </c>
-      <c r="CP129" s="26">
+      <c r="CP129" s="25">
         <v>110.80516327271272</v>
       </c>
-      <c r="CQ129" s="26">
+      <c r="CQ129" s="25">
         <v>121.9091653254432</v>
       </c>
-      <c r="CR129" s="11"/>
+      <c r="CR129" s="25">
+        <v>111.64012378769115</v>
+      </c>
       <c r="CS129" s="11"/>
       <c r="CT129" s="11"/>
       <c r="CU129" s="11"/>
@@ -24203,25 +24340,27 @@
       <c r="CK130" s="26">
         <v>109.34844481539712</v>
       </c>
-      <c r="CL130" s="26">
+      <c r="CL130" s="25">
         <v>104.34649033772125</v>
       </c>
-      <c r="CM130" s="26">
+      <c r="CM130" s="25">
         <v>110.30691824707179</v>
       </c>
-      <c r="CN130" s="26">
+      <c r="CN130" s="25">
         <v>118.84927854323799</v>
       </c>
-      <c r="CO130" s="26">
+      <c r="CO130" s="25">
         <v>117.1180284754346</v>
       </c>
-      <c r="CP130" s="26">
+      <c r="CP130" s="25">
         <v>112.94682454743001</v>
       </c>
-      <c r="CQ130" s="26">
+      <c r="CQ130" s="25">
         <v>117.12289797159234</v>
       </c>
-      <c r="CR130" s="11"/>
+      <c r="CR130" s="25">
+        <v>122.54913860948859</v>
+      </c>
       <c r="CS130" s="11"/>
       <c r="CT130" s="11"/>
       <c r="CU130" s="11"/>
@@ -24548,25 +24687,27 @@
       <c r="CK131" s="26">
         <v>107.16549136094476</v>
       </c>
-      <c r="CL131" s="26">
+      <c r="CL131" s="25">
         <v>111.90477677954678</v>
       </c>
-      <c r="CM131" s="26">
+      <c r="CM131" s="25">
         <v>112.03829347266363</v>
       </c>
-      <c r="CN131" s="26">
+      <c r="CN131" s="25">
         <v>114.65261671281807</v>
       </c>
-      <c r="CO131" s="26">
+      <c r="CO131" s="25">
         <v>111.84049601763029</v>
       </c>
-      <c r="CP131" s="26">
+      <c r="CP131" s="25">
         <v>118.43763277423901</v>
       </c>
-      <c r="CQ131" s="26">
+      <c r="CQ131" s="25">
         <v>118.89366595869345</v>
       </c>
-      <c r="CR131" s="11"/>
+      <c r="CR131" s="25">
+        <v>118.95780616944631</v>
+      </c>
       <c r="CS131" s="11"/>
       <c r="CT131" s="11"/>
       <c r="CU131" s="11"/>
@@ -24893,25 +25034,27 @@
       <c r="CK132" s="26">
         <v>111.18919134130898</v>
       </c>
-      <c r="CL132" s="26">
+      <c r="CL132" s="25">
         <v>108.60518735455619</v>
       </c>
-      <c r="CM132" s="26">
+      <c r="CM132" s="25">
         <v>109.16175758428417</v>
       </c>
-      <c r="CN132" s="26">
+      <c r="CN132" s="25">
         <v>114.45087022532654</v>
       </c>
-      <c r="CO132" s="26">
+      <c r="CO132" s="25">
         <v>114.33049868938599</v>
       </c>
-      <c r="CP132" s="26">
+      <c r="CP132" s="25">
         <v>112.67232134559868</v>
       </c>
-      <c r="CQ132" s="26">
+      <c r="CQ132" s="25">
         <v>113.5777891047194</v>
       </c>
-      <c r="CR132" s="11"/>
+      <c r="CR132" s="25">
+        <v>118.97475055448687</v>
+      </c>
       <c r="CS132" s="11"/>
       <c r="CT132" s="11"/>
       <c r="CU132" s="11"/>
@@ -25238,25 +25381,27 @@
       <c r="CK133" s="26">
         <v>112.76276292775214</v>
       </c>
-      <c r="CL133" s="26">
+      <c r="CL133" s="25">
         <v>122.14987426126676</v>
       </c>
-      <c r="CM133" s="26">
+      <c r="CM133" s="25">
         <v>124.83430009794101</v>
       </c>
-      <c r="CN133" s="26">
+      <c r="CN133" s="25">
         <v>142.03571732517136</v>
       </c>
-      <c r="CO133" s="26">
+      <c r="CO133" s="25">
         <v>126.45166811592503</v>
       </c>
-      <c r="CP133" s="26">
+      <c r="CP133" s="25">
         <v>132.39182950639261</v>
       </c>
-      <c r="CQ133" s="26">
+      <c r="CQ133" s="25">
         <v>124.41080168946679</v>
       </c>
-      <c r="CR133" s="11"/>
+      <c r="CR133" s="25">
+        <v>140.44225185798436</v>
+      </c>
       <c r="CS133" s="11"/>
       <c r="CT133" s="11"/>
       <c r="CU133" s="11"/>
@@ -25583,25 +25728,27 @@
       <c r="CK134" s="26">
         <v>97.165992133950837</v>
       </c>
-      <c r="CL134" s="26">
+      <c r="CL134" s="25">
         <v>104.91954268789311</v>
       </c>
-      <c r="CM134" s="26">
+      <c r="CM134" s="25">
         <v>102.0749240320504</v>
       </c>
-      <c r="CN134" s="26">
+      <c r="CN134" s="25">
         <v>100.24273019895509</v>
       </c>
-      <c r="CO134" s="26">
+      <c r="CO134" s="25">
         <v>97.770891822858133</v>
       </c>
-      <c r="CP134" s="26">
+      <c r="CP134" s="25">
         <v>105.67435954176283</v>
       </c>
-      <c r="CQ134" s="26">
+      <c r="CQ134" s="25">
         <v>102.77543821658408</v>
       </c>
-      <c r="CR134" s="11"/>
+      <c r="CR134" s="25">
+        <v>100.89748349875232</v>
+      </c>
       <c r="CS134" s="11"/>
       <c r="CT134" s="11"/>
       <c r="CU134" s="11"/>
@@ -25928,25 +26075,27 @@
       <c r="CK135" s="26">
         <v>103.870414678616</v>
       </c>
-      <c r="CL135" s="26">
+      <c r="CL135" s="25">
         <v>104.41501684239122</v>
       </c>
-      <c r="CM135" s="26">
+      <c r="CM135" s="25">
         <v>103.21755085312103</v>
       </c>
-      <c r="CN135" s="26">
+      <c r="CN135" s="25">
         <v>103.66360122129279</v>
       </c>
-      <c r="CO135" s="26">
+      <c r="CO135" s="25">
         <v>107.41817077769586</v>
       </c>
-      <c r="CP135" s="26">
+      <c r="CP135" s="25">
         <v>109.01624515776258</v>
       </c>
-      <c r="CQ135" s="26">
+      <c r="CQ135" s="25">
         <v>108.16345917774601</v>
       </c>
-      <c r="CR135" s="11"/>
+      <c r="CR135" s="25">
+        <v>106.80310994543314</v>
+      </c>
       <c r="CS135" s="11"/>
       <c r="CT135" s="11"/>
       <c r="CU135" s="11"/>
@@ -26273,25 +26422,27 @@
       <c r="CK136" s="26">
         <v>99.048505593486482</v>
       </c>
-      <c r="CL136" s="26">
+      <c r="CL136" s="25">
         <v>104.33492107137931</v>
       </c>
-      <c r="CM136" s="26">
+      <c r="CM136" s="25">
         <v>106.59335501258693</v>
       </c>
-      <c r="CN136" s="26">
+      <c r="CN136" s="25">
         <v>108.76667919721386</v>
       </c>
-      <c r="CO136" s="26">
+      <c r="CO136" s="25">
         <v>102.55628118766403</v>
       </c>
-      <c r="CP136" s="26">
+      <c r="CP136" s="25">
         <v>108.12715026223094</v>
       </c>
-      <c r="CQ136" s="26">
+      <c r="CQ136" s="25">
         <v>110.46767080521592</v>
       </c>
-      <c r="CR136" s="11"/>
+      <c r="CR136" s="25">
+        <v>112.47162690709465</v>
+      </c>
       <c r="CS136" s="11"/>
       <c r="CT136" s="11"/>
       <c r="CU136" s="11"/>
@@ -26618,25 +26769,27 @@
       <c r="CK137" s="26">
         <v>109.21550743115888</v>
       </c>
-      <c r="CL137" s="26">
+      <c r="CL137" s="25">
         <v>111.870160701839</v>
       </c>
-      <c r="CM137" s="26">
+      <c r="CM137" s="25">
         <v>108.49244360919089</v>
       </c>
-      <c r="CN137" s="26">
+      <c r="CN137" s="25">
         <v>118.69712079921501</v>
       </c>
-      <c r="CO137" s="26">
+      <c r="CO137" s="25">
         <v>116.21057920620589</v>
       </c>
-      <c r="CP137" s="26">
+      <c r="CP137" s="25">
         <v>120.83454632830689</v>
       </c>
-      <c r="CQ137" s="26">
+      <c r="CQ137" s="25">
         <v>117.57103978064248</v>
       </c>
-      <c r="CR137" s="11"/>
+      <c r="CR137" s="25">
+        <v>125.44749203813173</v>
+      </c>
       <c r="CS137" s="11"/>
       <c r="CT137" s="11"/>
       <c r="CU137" s="11"/>
@@ -26963,25 +27116,27 @@
       <c r="CK138" s="26">
         <v>102.77555520790396</v>
       </c>
-      <c r="CL138" s="26">
+      <c r="CL138" s="25">
         <v>114.3578053073435</v>
       </c>
-      <c r="CM138" s="26">
+      <c r="CM138" s="25">
         <v>116.27948211337615</v>
       </c>
-      <c r="CN138" s="26">
+      <c r="CN138" s="25">
         <v>107.10733958406853</v>
       </c>
-      <c r="CO138" s="26">
+      <c r="CO138" s="25">
         <v>107.40108882700197</v>
       </c>
-      <c r="CP138" s="26">
+      <c r="CP138" s="25">
         <v>120.37521199573725</v>
       </c>
-      <c r="CQ138" s="26">
+      <c r="CQ138" s="25">
         <v>122.91305655599656</v>
       </c>
-      <c r="CR138" s="11"/>
+      <c r="CR138" s="25">
+        <v>109.23987810896793</v>
+      </c>
       <c r="CS138" s="11"/>
       <c r="CT138" s="11"/>
       <c r="CU138" s="11"/>
@@ -27129,13 +27284,13 @@
       <c r="CI139" s="11"/>
       <c r="CJ139" s="11"/>
       <c r="CK139" s="11"/>
-      <c r="CL139" s="11"/>
-      <c r="CM139" s="11"/>
-      <c r="CN139" s="11"/>
-      <c r="CO139" s="11"/>
-      <c r="CP139" s="11"/>
-      <c r="CQ139" s="11"/>
-      <c r="CR139" s="11"/>
+      <c r="CL139" s="13"/>
+      <c r="CM139" s="13"/>
+      <c r="CN139" s="13"/>
+      <c r="CO139" s="13"/>
+      <c r="CP139" s="13"/>
+      <c r="CQ139" s="13"/>
+      <c r="CR139" s="13"/>
       <c r="CS139" s="11"/>
       <c r="CT139" s="11"/>
       <c r="CU139" s="11"/>
@@ -27462,25 +27617,27 @@
       <c r="CK140" s="26">
         <v>107.89794049951327</v>
       </c>
-      <c r="CL140" s="26">
+      <c r="CL140" s="25">
         <v>110.98019152014913</v>
       </c>
-      <c r="CM140" s="26">
+      <c r="CM140" s="25">
         <v>114.14656881578551</v>
       </c>
-      <c r="CN140" s="26">
+      <c r="CN140" s="25">
         <v>117.8406130747405</v>
       </c>
-      <c r="CO140" s="26">
+      <c r="CO140" s="25">
         <v>115.90512482879622</v>
       </c>
-      <c r="CP140" s="26">
+      <c r="CP140" s="25">
         <v>119.60725875110107</v>
       </c>
-      <c r="CQ140" s="26">
-        <v>120.70933212343446</v>
-      </c>
-      <c r="CR140" s="11"/>
+      <c r="CQ140" s="25">
+        <v>120.72056145271421</v>
+      </c>
+      <c r="CR140" s="25">
+        <v>123.04698220116033</v>
+      </c>
       <c r="CS140" s="11"/>
       <c r="CT140" s="11"/>
       <c r="CU140" s="11"/>
@@ -27629,18 +27786,37 @@
       <c r="CI141" s="16"/>
       <c r="CJ141" s="16"/>
       <c r="CK141" s="16"/>
-      <c r="CL141" s="16"/>
-      <c r="CM141" s="16"/>
-      <c r="CN141" s="16"/>
-      <c r="CO141" s="16"/>
-      <c r="CP141" s="16"/>
-      <c r="CQ141" s="16"/>
+      <c r="CL141" s="17"/>
+      <c r="CM141" s="17"/>
+      <c r="CN141" s="17"/>
+      <c r="CO141" s="17"/>
+      <c r="CP141" s="17"/>
+      <c r="CQ141" s="17"/>
+      <c r="CR141" s="17"/>
     </row>
     <row r="142" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A142" s="18" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="143" spans="1:153" ht="15" x14ac:dyDescent="0.2">
+      <c r="CL143" s="35"/>
+      <c r="CM143" s="35"/>
+      <c r="CN143" s="35"/>
+      <c r="CO143" s="35"/>
+      <c r="CP143" s="35"/>
+      <c r="CQ143" s="35"/>
+      <c r="CR143" s="35"/>
+    </row>
+    <row r="144" spans="1:153" x14ac:dyDescent="0.2">
+      <c r="CL144" s="36"/>
+      <c r="CM144" s="36"/>
+      <c r="CN144" s="36"/>
+      <c r="CO144" s="36"/>
+      <c r="CP144" s="36"/>
+      <c r="CQ144" s="36"/>
+      <c r="CR144" s="36"/>
+    </row>
     <row r="145" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>14</v>
@@ -27673,148 +27849,149 @@
     </row>
     <row r="153" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A153" s="4"/>
-      <c r="B153" s="33">
+      <c r="B153" s="38">
         <v>2000</v>
       </c>
-      <c r="C153" s="33"/>
-      <c r="D153" s="33"/>
-      <c r="E153" s="33"/>
-      <c r="F153" s="33">
+      <c r="C153" s="38"/>
+      <c r="D153" s="38"/>
+      <c r="E153" s="38"/>
+      <c r="F153" s="38">
         <v>2001</v>
       </c>
-      <c r="G153" s="33"/>
-      <c r="H153" s="33"/>
-      <c r="I153" s="33"/>
-      <c r="J153" s="33">
+      <c r="G153" s="38"/>
+      <c r="H153" s="38"/>
+      <c r="I153" s="38"/>
+      <c r="J153" s="38">
         <v>2002</v>
       </c>
-      <c r="K153" s="33"/>
-      <c r="L153" s="33"/>
-      <c r="M153" s="33"/>
-      <c r="N153" s="33">
+      <c r="K153" s="38"/>
+      <c r="L153" s="38"/>
+      <c r="M153" s="38"/>
+      <c r="N153" s="38">
         <v>2003</v>
       </c>
-      <c r="O153" s="33"/>
-      <c r="P153" s="33"/>
-      <c r="Q153" s="33"/>
-      <c r="R153" s="33">
+      <c r="O153" s="38"/>
+      <c r="P153" s="38"/>
+      <c r="Q153" s="38"/>
+      <c r="R153" s="38">
         <v>2004</v>
       </c>
-      <c r="S153" s="33"/>
-      <c r="T153" s="33"/>
-      <c r="U153" s="33"/>
-      <c r="V153" s="33">
+      <c r="S153" s="38"/>
+      <c r="T153" s="38"/>
+      <c r="U153" s="38"/>
+      <c r="V153" s="38">
         <v>2005</v>
       </c>
-      <c r="W153" s="33"/>
-      <c r="X153" s="33"/>
-      <c r="Y153" s="33"/>
-      <c r="Z153" s="33">
+      <c r="W153" s="38"/>
+      <c r="X153" s="38"/>
+      <c r="Y153" s="38"/>
+      <c r="Z153" s="38">
         <v>2006</v>
       </c>
-      <c r="AA153" s="33"/>
-      <c r="AB153" s="33"/>
-      <c r="AC153" s="33"/>
-      <c r="AD153" s="33">
+      <c r="AA153" s="38"/>
+      <c r="AB153" s="38"/>
+      <c r="AC153" s="38"/>
+      <c r="AD153" s="38">
         <v>2007</v>
       </c>
-      <c r="AE153" s="33"/>
-      <c r="AF153" s="33"/>
-      <c r="AG153" s="33"/>
-      <c r="AH153" s="33">
+      <c r="AE153" s="38"/>
+      <c r="AF153" s="38"/>
+      <c r="AG153" s="38"/>
+      <c r="AH153" s="38">
         <v>2008</v>
       </c>
-      <c r="AI153" s="33"/>
-      <c r="AJ153" s="33"/>
-      <c r="AK153" s="33"/>
-      <c r="AL153" s="33">
+      <c r="AI153" s="38"/>
+      <c r="AJ153" s="38"/>
+      <c r="AK153" s="38"/>
+      <c r="AL153" s="38">
         <v>2009</v>
       </c>
-      <c r="AM153" s="33"/>
-      <c r="AN153" s="33"/>
-      <c r="AO153" s="33"/>
-      <c r="AP153" s="33">
+      <c r="AM153" s="38"/>
+      <c r="AN153" s="38"/>
+      <c r="AO153" s="38"/>
+      <c r="AP153" s="38">
         <v>2010</v>
       </c>
-      <c r="AQ153" s="33"/>
-      <c r="AR153" s="33"/>
-      <c r="AS153" s="33"/>
-      <c r="AT153" s="33">
+      <c r="AQ153" s="38"/>
+      <c r="AR153" s="38"/>
+      <c r="AS153" s="38"/>
+      <c r="AT153" s="38">
         <v>2011</v>
       </c>
-      <c r="AU153" s="33"/>
-      <c r="AV153" s="33"/>
-      <c r="AW153" s="33"/>
-      <c r="AX153" s="33">
+      <c r="AU153" s="38"/>
+      <c r="AV153" s="38"/>
+      <c r="AW153" s="38"/>
+      <c r="AX153" s="38">
         <v>2012</v>
       </c>
-      <c r="AY153" s="33"/>
-      <c r="AZ153" s="33"/>
-      <c r="BA153" s="33"/>
-      <c r="BB153" s="33">
+      <c r="AY153" s="38"/>
+      <c r="AZ153" s="38"/>
+      <c r="BA153" s="38"/>
+      <c r="BB153" s="38">
         <v>2013</v>
       </c>
-      <c r="BC153" s="33"/>
-      <c r="BD153" s="33"/>
-      <c r="BE153" s="33"/>
-      <c r="BF153" s="33">
+      <c r="BC153" s="38"/>
+      <c r="BD153" s="38"/>
+      <c r="BE153" s="38"/>
+      <c r="BF153" s="38">
         <v>2014</v>
       </c>
-      <c r="BG153" s="33"/>
-      <c r="BH153" s="33"/>
-      <c r="BI153" s="33"/>
-      <c r="BJ153" s="33">
+      <c r="BG153" s="38"/>
+      <c r="BH153" s="38"/>
+      <c r="BI153" s="38"/>
+      <c r="BJ153" s="38">
         <v>2015</v>
       </c>
-      <c r="BK153" s="33"/>
-      <c r="BL153" s="33"/>
-      <c r="BM153" s="33"/>
-      <c r="BN153" s="33">
+      <c r="BK153" s="38"/>
+      <c r="BL153" s="38"/>
+      <c r="BM153" s="38"/>
+      <c r="BN153" s="38">
         <v>2016</v>
       </c>
-      <c r="BO153" s="33"/>
-      <c r="BP153" s="33"/>
-      <c r="BQ153" s="33"/>
-      <c r="BR153" s="34">
+      <c r="BO153" s="38"/>
+      <c r="BP153" s="38"/>
+      <c r="BQ153" s="38"/>
+      <c r="BR153" s="39">
         <v>2017</v>
       </c>
-      <c r="BS153" s="34"/>
-      <c r="BT153" s="34"/>
-      <c r="BU153" s="34"/>
-      <c r="BV153" s="34">
+      <c r="BS153" s="39"/>
+      <c r="BT153" s="39"/>
+      <c r="BU153" s="39"/>
+      <c r="BV153" s="39">
         <v>2018</v>
       </c>
-      <c r="BW153" s="34"/>
-      <c r="BX153" s="34"/>
-      <c r="BY153" s="34"/>
-      <c r="BZ153" s="34">
+      <c r="BW153" s="39"/>
+      <c r="BX153" s="39"/>
+      <c r="BY153" s="39"/>
+      <c r="BZ153" s="39">
         <v>2019</v>
       </c>
-      <c r="CA153" s="34"/>
-      <c r="CB153" s="34"/>
-      <c r="CC153" s="34"/>
-      <c r="CD153" s="34">
+      <c r="CA153" s="39"/>
+      <c r="CB153" s="39"/>
+      <c r="CC153" s="39"/>
+      <c r="CD153" s="39">
         <v>2020</v>
       </c>
-      <c r="CE153" s="34"/>
-      <c r="CF153" s="34"/>
-      <c r="CG153" s="34"/>
-      <c r="CH153" s="34">
+      <c r="CE153" s="39"/>
+      <c r="CF153" s="39"/>
+      <c r="CG153" s="39"/>
+      <c r="CH153" s="39">
         <v>2021</v>
       </c>
-      <c r="CI153" s="34"/>
-      <c r="CJ153" s="34"/>
-      <c r="CK153" s="34"/>
-      <c r="CL153" s="34">
+      <c r="CI153" s="39"/>
+      <c r="CJ153" s="39"/>
+      <c r="CK153" s="39"/>
+      <c r="CL153" s="38">
         <v>2022</v>
       </c>
-      <c r="CM153" s="34"/>
-      <c r="CN153" s="34"/>
-      <c r="CO153" s="34"/>
-      <c r="CP153" s="34">
+      <c r="CM153" s="38"/>
+      <c r="CN153" s="38"/>
+      <c r="CO153" s="38"/>
+      <c r="CP153" s="38">
         <v>2023</v>
       </c>
-      <c r="CQ153" s="35"/>
+      <c r="CQ153" s="38"/>
+      <c r="CR153" s="38"/>
     </row>
     <row r="154" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
@@ -28084,23 +28261,26 @@
       <c r="CK154" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CL154" s="7" t="s">
+      <c r="CL154" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="CM154" s="7" t="s">
+      <c r="CM154" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="CN154" s="7" t="s">
+      <c r="CN154" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="CO154" s="7" t="s">
+      <c r="CO154" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="CP154" s="7" t="s">
+      <c r="CP154" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="CQ154" s="7" t="s">
+      <c r="CQ154" s="6" t="s">
         <v>20</v>
+      </c>
+      <c r="CR154" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="155" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -28374,25 +28554,27 @@
       <c r="CK156" s="26">
         <v>39.950578211679009</v>
       </c>
-      <c r="CL156" s="26">
+      <c r="CL156" s="25">
         <v>35.904635946493741</v>
       </c>
-      <c r="CM156" s="26">
+      <c r="CM156" s="25">
         <v>40.343150242983079</v>
       </c>
-      <c r="CN156" s="26">
+      <c r="CN156" s="25">
         <v>35.173035025069254</v>
       </c>
-      <c r="CO156" s="26">
+      <c r="CO156" s="25">
         <v>39.714505651846942</v>
       </c>
-      <c r="CP156" s="26">
+      <c r="CP156" s="25">
         <v>34.730409275893031</v>
       </c>
-      <c r="CQ156" s="26">
-        <v>38.986001470206148</v>
-      </c>
-      <c r="CR156" s="11"/>
+      <c r="CQ156" s="25">
+        <v>38.963056882327301</v>
+      </c>
+      <c r="CR156" s="25">
+        <v>34.59811931832953</v>
+      </c>
       <c r="CS156" s="11"/>
       <c r="CT156" s="11"/>
       <c r="CU156" s="11"/>
@@ -28719,25 +28901,27 @@
       <c r="CK157" s="26">
         <v>2.2464627184106933</v>
       </c>
-      <c r="CL157" s="26">
+      <c r="CL157" s="25">
         <v>1.8356369621545274</v>
       </c>
-      <c r="CM157" s="26">
+      <c r="CM157" s="25">
         <v>1.9400708323935079</v>
       </c>
-      <c r="CN157" s="26">
+      <c r="CN157" s="25">
         <v>1.7911048532095459</v>
       </c>
-      <c r="CO157" s="26">
+      <c r="CO157" s="25">
         <v>2.2458821519621286</v>
       </c>
-      <c r="CP157" s="26">
+      <c r="CP157" s="25">
         <v>1.777976173879168</v>
       </c>
-      <c r="CQ157" s="26">
-        <v>1.7733416082286104</v>
-      </c>
-      <c r="CR157" s="11"/>
+      <c r="CQ157" s="25">
+        <v>1.7899333974605605</v>
+      </c>
+      <c r="CR157" s="25">
+        <v>1.8029680556944194</v>
+      </c>
       <c r="CS157" s="11"/>
       <c r="CT157" s="11"/>
       <c r="CU157" s="11"/>
@@ -29064,25 +29248,27 @@
       <c r="CK158" s="26">
         <v>1.7975824721453986</v>
       </c>
-      <c r="CL158" s="26">
+      <c r="CL158" s="25">
         <v>1.5013437716884397</v>
       </c>
-      <c r="CM158" s="26">
+      <c r="CM158" s="25">
         <v>1.678730904883531</v>
       </c>
-      <c r="CN158" s="26">
+      <c r="CN158" s="25">
         <v>1.6843789953151131</v>
       </c>
-      <c r="CO158" s="26">
+      <c r="CO158" s="25">
         <v>1.784686817842867</v>
       </c>
-      <c r="CP158" s="26">
+      <c r="CP158" s="25">
         <v>1.3382282287396032</v>
       </c>
-      <c r="CQ158" s="26">
-        <v>1.1496201547048561</v>
-      </c>
-      <c r="CR158" s="11"/>
+      <c r="CQ158" s="25">
+        <v>1.1635257031833381</v>
+      </c>
+      <c r="CR158" s="25">
+        <v>1.423909904539358</v>
+      </c>
       <c r="CS158" s="11"/>
       <c r="CT158" s="11"/>
       <c r="CU158" s="11"/>
@@ -29409,25 +29595,27 @@
       <c r="CK159" s="26">
         <v>11.462015765957739</v>
       </c>
-      <c r="CL159" s="26">
+      <c r="CL159" s="25">
         <v>11.520809907294566</v>
       </c>
-      <c r="CM159" s="26">
+      <c r="CM159" s="25">
         <v>14.853160370285941</v>
       </c>
-      <c r="CN159" s="26">
+      <c r="CN159" s="25">
         <v>12.670658111297362</v>
       </c>
-      <c r="CO159" s="26">
+      <c r="CO159" s="25">
         <v>11.163941802320894</v>
       </c>
-      <c r="CP159" s="26">
+      <c r="CP159" s="25">
         <v>11.293296054633235</v>
       </c>
-      <c r="CQ159" s="26">
-        <v>14.994734529462484</v>
-      </c>
-      <c r="CR159" s="11"/>
+      <c r="CQ159" s="25">
+        <v>14.993308813372552</v>
+      </c>
+      <c r="CR159" s="25">
+        <v>12.446113382318574</v>
+      </c>
       <c r="CS159" s="11"/>
       <c r="CT159" s="11"/>
       <c r="CU159" s="11"/>
@@ -29754,25 +29942,27 @@
       <c r="CK160" s="26">
         <v>2.7226153263189437</v>
       </c>
-      <c r="CL160" s="26">
+      <c r="CL160" s="25">
         <v>2.7853516758681183</v>
       </c>
-      <c r="CM160" s="26">
+      <c r="CM160" s="25">
         <v>2.6475023047827424</v>
       </c>
-      <c r="CN160" s="26">
+      <c r="CN160" s="25">
         <v>2.996684705773593</v>
       </c>
-      <c r="CO160" s="26">
+      <c r="CO160" s="25">
         <v>2.7040979429244238</v>
       </c>
-      <c r="CP160" s="26">
+      <c r="CP160" s="25">
         <v>2.4989168236128143</v>
       </c>
-      <c r="CQ160" s="26">
-        <v>2.449512932639812</v>
-      </c>
-      <c r="CR160" s="11"/>
+      <c r="CQ160" s="25">
+        <v>2.4374950255097936</v>
+      </c>
+      <c r="CR160" s="25">
+        <v>2.8022696041639508</v>
+      </c>
       <c r="CS160" s="11"/>
       <c r="CT160" s="11"/>
       <c r="CU160" s="11"/>
@@ -30099,25 +30289,27 @@
       <c r="CK161" s="26">
         <v>4.2575596660426234</v>
       </c>
-      <c r="CL161" s="26">
+      <c r="CL161" s="25">
         <v>4.2716654046258</v>
       </c>
-      <c r="CM161" s="26">
+      <c r="CM161" s="25">
         <v>3.5695401564217319</v>
       </c>
-      <c r="CN161" s="26">
+      <c r="CN161" s="25">
         <v>5.305597054116272</v>
       </c>
-      <c r="CO161" s="26">
+      <c r="CO161" s="25">
         <v>4.0097981398428715</v>
       </c>
-      <c r="CP161" s="26">
+      <c r="CP161" s="25">
         <v>4.1650006426571728</v>
       </c>
-      <c r="CQ161" s="26">
-        <v>3.6171293548201215</v>
-      </c>
-      <c r="CR161" s="11"/>
+      <c r="CQ161" s="25">
+        <v>3.6200554144324029</v>
+      </c>
+      <c r="CR161" s="25">
+        <v>5.3289599322755032</v>
+      </c>
       <c r="CS161" s="11"/>
       <c r="CT161" s="11"/>
       <c r="CU161" s="11"/>
@@ -30444,25 +30636,27 @@
       <c r="CK162" s="26">
         <v>7.3411639889025952</v>
       </c>
-      <c r="CL162" s="26">
+      <c r="CL162" s="25">
         <v>9.9033269954814962</v>
       </c>
-      <c r="CM162" s="26">
+      <c r="CM162" s="25">
         <v>7.6399568692139654</v>
       </c>
-      <c r="CN162" s="26">
+      <c r="CN162" s="25">
         <v>11.205594142257045</v>
       </c>
-      <c r="CO162" s="26">
+      <c r="CO162" s="25">
         <v>7.7278994002764083</v>
       </c>
-      <c r="CP162" s="26">
+      <c r="CP162" s="25">
         <v>10.699256352678098</v>
       </c>
-      <c r="CQ162" s="26">
-        <v>8.8773387167856175</v>
-      </c>
-      <c r="CR162" s="11"/>
+      <c r="CQ162" s="25">
+        <v>8.8958956202863959</v>
+      </c>
+      <c r="CR162" s="25">
+        <v>11.561951954773132</v>
+      </c>
       <c r="CS162" s="11"/>
       <c r="CT162" s="11"/>
       <c r="CU162" s="11"/>
@@ -30789,25 +30983,27 @@
       <c r="CK163" s="26">
         <v>2.8116013085758307</v>
       </c>
-      <c r="CL163" s="26">
+      <c r="CL163" s="25">
         <v>3.1461162624048113</v>
       </c>
-      <c r="CM163" s="26">
+      <c r="CM163" s="25">
         <v>3.2823107388983983</v>
       </c>
-      <c r="CN163" s="26">
+      <c r="CN163" s="25">
         <v>2.3474931240763919</v>
       </c>
-      <c r="CO163" s="26">
+      <c r="CO163" s="25">
         <v>2.6105482147233063</v>
       </c>
-      <c r="CP163" s="26">
+      <c r="CP163" s="25">
         <v>2.8985971153663281</v>
       </c>
-      <c r="CQ163" s="26">
-        <v>3.1109757752691336</v>
-      </c>
-      <c r="CR163" s="11"/>
+      <c r="CQ163" s="25">
+        <v>3.0980345947502248</v>
+      </c>
+      <c r="CR163" s="25">
+        <v>2.2749797232495728</v>
+      </c>
       <c r="CS163" s="11"/>
       <c r="CT163" s="11"/>
       <c r="CU163" s="11"/>
@@ -31134,25 +31330,27 @@
       <c r="CK164" s="26">
         <v>1.6762344259750122</v>
       </c>
-      <c r="CL164" s="26">
+      <c r="CL164" s="25">
         <v>1.4633989264385872</v>
       </c>
-      <c r="CM164" s="26">
+      <c r="CM164" s="25">
         <v>1.08791901540887</v>
       </c>
-      <c r="CN164" s="26">
+      <c r="CN164" s="25">
         <v>1.2890207821588699</v>
       </c>
-      <c r="CO164" s="26">
+      <c r="CO164" s="25">
         <v>1.742263944652648</v>
       </c>
-      <c r="CP164" s="26">
+      <c r="CP164" s="25">
         <v>1.7287858122219679</v>
       </c>
-      <c r="CQ164" s="26">
-        <v>1.2267610774419684</v>
-      </c>
-      <c r="CR164" s="11"/>
+      <c r="CQ164" s="25">
+        <v>1.2149422868881699</v>
+      </c>
+      <c r="CR164" s="25">
+        <v>1.397528356771881</v>
+      </c>
       <c r="CS164" s="11"/>
       <c r="CT164" s="11"/>
       <c r="CU164" s="11"/>
@@ -31479,25 +31677,27 @@
       <c r="CK165" s="26">
         <v>4.5655907987946813</v>
       </c>
-      <c r="CL165" s="26">
+      <c r="CL165" s="25">
         <v>5.3440691247890406</v>
       </c>
-      <c r="CM165" s="26">
+      <c r="CM165" s="25">
         <v>4.8206543799868138</v>
       </c>
-      <c r="CN165" s="26">
+      <c r="CN165" s="25">
         <v>5.3248274248404597</v>
       </c>
-      <c r="CO165" s="26">
+      <c r="CO165" s="25">
         <v>4.5367553241551217</v>
       </c>
-      <c r="CP165" s="26">
+      <c r="CP165" s="25">
         <v>5.1483032982523982</v>
       </c>
-      <c r="CQ165" s="26">
-        <v>4.7905191513606455</v>
-      </c>
-      <c r="CR165" s="11"/>
+      <c r="CQ165" s="25">
+        <v>4.7965048730008073</v>
+      </c>
+      <c r="CR165" s="25">
+        <v>5.3444492427429253</v>
+      </c>
       <c r="CS165" s="11"/>
       <c r="CT165" s="11"/>
       <c r="CU165" s="11"/>
@@ -31824,25 +32024,27 @@
       <c r="CK166" s="26">
         <v>6.6244397356584885</v>
       </c>
-      <c r="CL166" s="26">
+      <c r="CL166" s="25">
         <v>8.2228538846651169</v>
       </c>
-      <c r="CM166" s="26">
+      <c r="CM166" s="25">
         <v>4.7056686883621497</v>
       </c>
-      <c r="CN166" s="26">
+      <c r="CN166" s="25">
         <v>7.0196083434595717</v>
       </c>
-      <c r="CO166" s="26">
+      <c r="CO166" s="25">
         <v>7.6541432964881455</v>
       </c>
-      <c r="CP166" s="26">
+      <c r="CP166" s="25">
         <v>9.60372536195527</v>
       </c>
-      <c r="CQ166" s="26">
-        <v>5.6355377763054824</v>
-      </c>
-      <c r="CR166" s="11"/>
+      <c r="CQ166" s="25">
+        <v>5.6156132362080102</v>
+      </c>
+      <c r="CR166" s="25">
+        <v>7.7686298679565393</v>
+      </c>
       <c r="CS166" s="11"/>
       <c r="CT166" s="11"/>
       <c r="CU166" s="11"/>
@@ -32169,25 +32371,27 @@
       <c r="CK167" s="26">
         <v>14.54415558153898</v>
       </c>
-      <c r="CL167" s="26">
+      <c r="CL167" s="25">
         <v>14.100791138095758</v>
       </c>
-      <c r="CM167" s="26">
+      <c r="CM167" s="25">
         <v>13.43133549637928</v>
       </c>
-      <c r="CN167" s="26">
+      <c r="CN167" s="25">
         <v>13.191997438426517</v>
       </c>
-      <c r="CO167" s="26">
+      <c r="CO167" s="25">
         <v>14.105477312964235</v>
       </c>
-      <c r="CP167" s="26">
+      <c r="CP167" s="25">
         <v>14.117504860110927</v>
       </c>
-      <c r="CQ167" s="26">
-        <v>13.38852745277512</v>
-      </c>
-      <c r="CR167" s="11"/>
+      <c r="CQ167" s="25">
+        <v>13.411634152580445</v>
+      </c>
+      <c r="CR167" s="25">
+        <v>13.250120657184599</v>
+      </c>
       <c r="CS167" s="11"/>
       <c r="CT167" s="11"/>
       <c r="CU167" s="11"/>
@@ -32335,13 +32539,13 @@
       <c r="CI168" s="11"/>
       <c r="CJ168" s="11"/>
       <c r="CK168" s="11"/>
-      <c r="CL168" s="11"/>
-      <c r="CM168" s="11"/>
-      <c r="CN168" s="11"/>
-      <c r="CO168" s="11"/>
-      <c r="CP168" s="11"/>
-      <c r="CQ168" s="11"/>
-      <c r="CR168" s="11"/>
+      <c r="CL168" s="13"/>
+      <c r="CM168" s="13"/>
+      <c r="CN168" s="13"/>
+      <c r="CO168" s="13"/>
+      <c r="CP168" s="13"/>
+      <c r="CQ168" s="13"/>
+      <c r="CR168" s="13"/>
       <c r="CS168" s="11"/>
       <c r="CT168" s="11"/>
       <c r="CU168" s="11"/>
@@ -32668,25 +32872,27 @@
       <c r="CK169" s="26">
         <v>100</v>
       </c>
-      <c r="CL169" s="26">
+      <c r="CL169" s="25">
         <v>100</v>
       </c>
-      <c r="CM169" s="26">
+      <c r="CM169" s="25">
         <v>100</v>
       </c>
-      <c r="CN169" s="26">
+      <c r="CN169" s="25">
         <v>100</v>
       </c>
-      <c r="CO169" s="26">
+      <c r="CO169" s="25">
         <v>100</v>
       </c>
-      <c r="CP169" s="26">
+      <c r="CP169" s="25">
         <v>100</v>
       </c>
-      <c r="CQ169" s="26">
+      <c r="CQ169" s="25">
         <v>100</v>
       </c>
-      <c r="CR169" s="11"/>
+      <c r="CR169" s="25">
+        <v>100</v>
+      </c>
       <c r="CS169" s="11"/>
       <c r="CT169" s="11"/>
       <c r="CU169" s="11"/>
@@ -32835,12 +33041,13 @@
       <c r="CI170" s="16"/>
       <c r="CJ170" s="16"/>
       <c r="CK170" s="16"/>
-      <c r="CL170" s="16"/>
-      <c r="CM170" s="16"/>
-      <c r="CN170" s="16"/>
-      <c r="CO170" s="16"/>
-      <c r="CP170" s="16"/>
-      <c r="CQ170" s="16"/>
+      <c r="CL170" s="17"/>
+      <c r="CM170" s="17"/>
+      <c r="CN170" s="17"/>
+      <c r="CO170" s="17"/>
+      <c r="CP170" s="17"/>
+      <c r="CQ170" s="17"/>
+      <c r="CR170" s="17"/>
     </row>
     <row r="171" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A171" s="18" t="s">
@@ -32936,13 +33143,13 @@
       <c r="CI172" s="11"/>
       <c r="CJ172" s="11"/>
       <c r="CK172" s="11"/>
-      <c r="CL172" s="11"/>
-      <c r="CM172" s="11"/>
-      <c r="CN172" s="11"/>
-      <c r="CO172" s="11"/>
-      <c r="CP172" s="11"/>
-      <c r="CQ172" s="11"/>
-      <c r="CR172" s="11"/>
+      <c r="CL172" s="35"/>
+      <c r="CM172" s="35"/>
+      <c r="CN172" s="35"/>
+      <c r="CO172" s="35"/>
+      <c r="CP172" s="35"/>
+      <c r="CQ172" s="35"/>
+      <c r="CR172" s="35"/>
       <c r="CS172" s="11"/>
       <c r="CT172" s="11"/>
       <c r="CU172" s="11"/>
@@ -33090,13 +33297,13 @@
       <c r="CI173" s="11"/>
       <c r="CJ173" s="11"/>
       <c r="CK173" s="11"/>
-      <c r="CL173" s="11"/>
-      <c r="CM173" s="11"/>
-      <c r="CN173" s="11"/>
-      <c r="CO173" s="11"/>
-      <c r="CP173" s="11"/>
-      <c r="CQ173" s="11"/>
-      <c r="CR173" s="11"/>
+      <c r="CL173" s="36"/>
+      <c r="CM173" s="36"/>
+      <c r="CN173" s="36"/>
+      <c r="CO173" s="36"/>
+      <c r="CP173" s="36"/>
+      <c r="CQ173" s="36"/>
+      <c r="CR173" s="36"/>
       <c r="CS173" s="11"/>
       <c r="CT173" s="11"/>
       <c r="CU173" s="11"/>
@@ -33187,148 +33394,149 @@
     </row>
     <row r="182" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A182" s="4"/>
-      <c r="B182" s="33">
+      <c r="B182" s="38">
         <v>2000</v>
       </c>
-      <c r="C182" s="33"/>
-      <c r="D182" s="33"/>
-      <c r="E182" s="33"/>
-      <c r="F182" s="33">
+      <c r="C182" s="38"/>
+      <c r="D182" s="38"/>
+      <c r="E182" s="38"/>
+      <c r="F182" s="38">
         <v>2001</v>
       </c>
-      <c r="G182" s="33"/>
-      <c r="H182" s="33"/>
-      <c r="I182" s="33"/>
-      <c r="J182" s="33">
+      <c r="G182" s="38"/>
+      <c r="H182" s="38"/>
+      <c r="I182" s="38"/>
+      <c r="J182" s="38">
         <v>2002</v>
       </c>
-      <c r="K182" s="33"/>
-      <c r="L182" s="33"/>
-      <c r="M182" s="33"/>
-      <c r="N182" s="33">
+      <c r="K182" s="38"/>
+      <c r="L182" s="38"/>
+      <c r="M182" s="38"/>
+      <c r="N182" s="38">
         <v>2003</v>
       </c>
-      <c r="O182" s="33"/>
-      <c r="P182" s="33"/>
-      <c r="Q182" s="33"/>
-      <c r="R182" s="33">
+      <c r="O182" s="38"/>
+      <c r="P182" s="38"/>
+      <c r="Q182" s="38"/>
+      <c r="R182" s="38">
         <v>2004</v>
       </c>
-      <c r="S182" s="33"/>
-      <c r="T182" s="33"/>
-      <c r="U182" s="33"/>
-      <c r="V182" s="33">
+      <c r="S182" s="38"/>
+      <c r="T182" s="38"/>
+      <c r="U182" s="38"/>
+      <c r="V182" s="38">
         <v>2005</v>
       </c>
-      <c r="W182" s="33"/>
-      <c r="X182" s="33"/>
-      <c r="Y182" s="33"/>
-      <c r="Z182" s="33">
+      <c r="W182" s="38"/>
+      <c r="X182" s="38"/>
+      <c r="Y182" s="38"/>
+      <c r="Z182" s="38">
         <v>2006</v>
       </c>
-      <c r="AA182" s="33"/>
-      <c r="AB182" s="33"/>
-      <c r="AC182" s="33"/>
-      <c r="AD182" s="33">
+      <c r="AA182" s="38"/>
+      <c r="AB182" s="38"/>
+      <c r="AC182" s="38"/>
+      <c r="AD182" s="38">
         <v>2007</v>
       </c>
-      <c r="AE182" s="33"/>
-      <c r="AF182" s="33"/>
-      <c r="AG182" s="33"/>
-      <c r="AH182" s="33">
+      <c r="AE182" s="38"/>
+      <c r="AF182" s="38"/>
+      <c r="AG182" s="38"/>
+      <c r="AH182" s="38">
         <v>2008</v>
       </c>
-      <c r="AI182" s="33"/>
-      <c r="AJ182" s="33"/>
-      <c r="AK182" s="33"/>
-      <c r="AL182" s="33">
+      <c r="AI182" s="38"/>
+      <c r="AJ182" s="38"/>
+      <c r="AK182" s="38"/>
+      <c r="AL182" s="38">
         <v>2009</v>
       </c>
-      <c r="AM182" s="33"/>
-      <c r="AN182" s="33"/>
-      <c r="AO182" s="33"/>
-      <c r="AP182" s="33">
+      <c r="AM182" s="38"/>
+      <c r="AN182" s="38"/>
+      <c r="AO182" s="38"/>
+      <c r="AP182" s="38">
         <v>2010</v>
       </c>
-      <c r="AQ182" s="33"/>
-      <c r="AR182" s="33"/>
-      <c r="AS182" s="33"/>
-      <c r="AT182" s="33">
+      <c r="AQ182" s="38"/>
+      <c r="AR182" s="38"/>
+      <c r="AS182" s="38"/>
+      <c r="AT182" s="38">
         <v>2011</v>
       </c>
-      <c r="AU182" s="33"/>
-      <c r="AV182" s="33"/>
-      <c r="AW182" s="33"/>
-      <c r="AX182" s="33">
+      <c r="AU182" s="38"/>
+      <c r="AV182" s="38"/>
+      <c r="AW182" s="38"/>
+      <c r="AX182" s="38">
         <v>2012</v>
       </c>
-      <c r="AY182" s="33"/>
-      <c r="AZ182" s="33"/>
-      <c r="BA182" s="33"/>
-      <c r="BB182" s="33">
+      <c r="AY182" s="38"/>
+      <c r="AZ182" s="38"/>
+      <c r="BA182" s="38"/>
+      <c r="BB182" s="38">
         <v>2013</v>
       </c>
-      <c r="BC182" s="33"/>
-      <c r="BD182" s="33"/>
-      <c r="BE182" s="33"/>
-      <c r="BF182" s="33">
+      <c r="BC182" s="38"/>
+      <c r="BD182" s="38"/>
+      <c r="BE182" s="38"/>
+      <c r="BF182" s="38">
         <v>2014</v>
       </c>
-      <c r="BG182" s="33"/>
-      <c r="BH182" s="33"/>
-      <c r="BI182" s="33"/>
-      <c r="BJ182" s="33">
+      <c r="BG182" s="38"/>
+      <c r="BH182" s="38"/>
+      <c r="BI182" s="38"/>
+      <c r="BJ182" s="38">
         <v>2015</v>
       </c>
-      <c r="BK182" s="33"/>
-      <c r="BL182" s="33"/>
-      <c r="BM182" s="33"/>
-      <c r="BN182" s="33">
+      <c r="BK182" s="38"/>
+      <c r="BL182" s="38"/>
+      <c r="BM182" s="38"/>
+      <c r="BN182" s="38">
         <v>2016</v>
       </c>
-      <c r="BO182" s="33"/>
-      <c r="BP182" s="33"/>
-      <c r="BQ182" s="33"/>
-      <c r="BR182" s="34">
+      <c r="BO182" s="38"/>
+      <c r="BP182" s="38"/>
+      <c r="BQ182" s="38"/>
+      <c r="BR182" s="39">
         <v>2017</v>
       </c>
-      <c r="BS182" s="34"/>
-      <c r="BT182" s="34"/>
-      <c r="BU182" s="34"/>
-      <c r="BV182" s="34">
+      <c r="BS182" s="39"/>
+      <c r="BT182" s="39"/>
+      <c r="BU182" s="39"/>
+      <c r="BV182" s="39">
         <v>2018</v>
       </c>
-      <c r="BW182" s="34"/>
-      <c r="BX182" s="34"/>
-      <c r="BY182" s="34"/>
-      <c r="BZ182" s="34">
+      <c r="BW182" s="39"/>
+      <c r="BX182" s="39"/>
+      <c r="BY182" s="39"/>
+      <c r="BZ182" s="39">
         <v>2019</v>
       </c>
-      <c r="CA182" s="34"/>
-      <c r="CB182" s="34"/>
-      <c r="CC182" s="34"/>
-      <c r="CD182" s="34">
+      <c r="CA182" s="39"/>
+      <c r="CB182" s="39"/>
+      <c r="CC182" s="39"/>
+      <c r="CD182" s="39">
         <v>2020</v>
       </c>
-      <c r="CE182" s="34"/>
-      <c r="CF182" s="34"/>
-      <c r="CG182" s="34"/>
-      <c r="CH182" s="34">
+      <c r="CE182" s="39"/>
+      <c r="CF182" s="39"/>
+      <c r="CG182" s="39"/>
+      <c r="CH182" s="39">
         <v>2021</v>
       </c>
-      <c r="CI182" s="34"/>
-      <c r="CJ182" s="34"/>
-      <c r="CK182" s="34"/>
-      <c r="CL182" s="34">
+      <c r="CI182" s="39"/>
+      <c r="CJ182" s="39"/>
+      <c r="CK182" s="39"/>
+      <c r="CL182" s="38">
         <v>2022</v>
       </c>
-      <c r="CM182" s="34"/>
-      <c r="CN182" s="34"/>
-      <c r="CO182" s="34"/>
-      <c r="CP182" s="34">
+      <c r="CM182" s="38"/>
+      <c r="CN182" s="38"/>
+      <c r="CO182" s="38"/>
+      <c r="CP182" s="38">
         <v>2023</v>
       </c>
-      <c r="CQ182" s="35"/>
+      <c r="CQ182" s="38"/>
+      <c r="CR182" s="38"/>
     </row>
     <row r="183" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
@@ -33598,23 +33806,26 @@
       <c r="CK183" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CL183" s="7" t="s">
+      <c r="CL183" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="CM183" s="7" t="s">
+      <c r="CM183" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="CN183" s="7" t="s">
+      <c r="CN183" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="CO183" s="7" t="s">
+      <c r="CO183" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="CP183" s="7" t="s">
+      <c r="CP183" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="CQ183" s="7" t="s">
+      <c r="CQ183" s="6" t="s">
         <v>20</v>
+      </c>
+      <c r="CR183" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="184" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -33888,25 +34099,27 @@
       <c r="CK185" s="26">
         <v>39.58364879488586</v>
       </c>
-      <c r="CL185" s="26">
+      <c r="CL185" s="25">
         <v>36.181407863980084</v>
       </c>
-      <c r="CM185" s="26">
+      <c r="CM185" s="25">
         <v>39.964891757665775</v>
       </c>
-      <c r="CN185" s="26">
+      <c r="CN185" s="25">
         <v>35.001350500572762</v>
       </c>
-      <c r="CO185" s="26">
+      <c r="CO185" s="25">
         <v>38.476312795146747</v>
       </c>
-      <c r="CP185" s="26">
+      <c r="CP185" s="25">
         <v>34.21473607569947</v>
       </c>
-      <c r="CQ185" s="26">
-        <v>38.043596475138862</v>
-      </c>
-      <c r="CR185" s="11"/>
+      <c r="CQ185" s="25">
+        <v>38.024743555636398</v>
+      </c>
+      <c r="CR185" s="25">
+        <v>33.410315463429896</v>
+      </c>
       <c r="CS185" s="11"/>
       <c r="CT185" s="11"/>
       <c r="CU185" s="11"/>
@@ -34233,25 +34446,27 @@
       <c r="CK186" s="26">
         <v>1.6975188884552141</v>
       </c>
-      <c r="CL186" s="26">
+      <c r="CL186" s="25">
         <v>1.4561263831008557</v>
       </c>
-      <c r="CM186" s="26">
+      <c r="CM186" s="25">
         <v>1.4253056823999459</v>
       </c>
-      <c r="CN186" s="26">
+      <c r="CN186" s="25">
         <v>1.2587615339776126</v>
       </c>
-      <c r="CO186" s="26">
+      <c r="CO186" s="25">
         <v>1.6490181956184811</v>
       </c>
-      <c r="CP186" s="26">
+      <c r="CP186" s="25">
         <v>1.3644108705607478</v>
       </c>
-      <c r="CQ186" s="26">
-        <v>1.2278318993276567</v>
-      </c>
-      <c r="CR186" s="11"/>
+      <c r="CQ186" s="25">
+        <v>1.239435066344017</v>
+      </c>
+      <c r="CR186" s="25">
+        <v>1.2075195128160674</v>
+      </c>
       <c r="CS186" s="11"/>
       <c r="CT186" s="11"/>
       <c r="CU186" s="11"/>
@@ -34578,25 +34793,27 @@
       <c r="CK187" s="26">
         <v>1.8612125386472798</v>
       </c>
-      <c r="CL187" s="26">
+      <c r="CL187" s="25">
         <v>1.5746146653353752</v>
       </c>
-      <c r="CM187" s="26">
+      <c r="CM187" s="25">
         <v>1.65218526897817</v>
       </c>
-      <c r="CN187" s="26">
+      <c r="CN187" s="25">
         <v>1.8603526447466225</v>
       </c>
-      <c r="CO187" s="26">
+      <c r="CO187" s="25">
         <v>1.9172808085196866</v>
       </c>
-      <c r="CP187" s="26">
+      <c r="CP187" s="25">
         <v>1.4445338583089546</v>
       </c>
-      <c r="CQ187" s="26">
-        <v>1.1383055629952745</v>
-      </c>
-      <c r="CR187" s="11"/>
+      <c r="CQ187" s="25">
+        <v>1.152181427688288</v>
+      </c>
+      <c r="CR187" s="25">
+        <v>1.5693982659237053</v>
+      </c>
       <c r="CS187" s="11"/>
       <c r="CT187" s="11"/>
       <c r="CU187" s="11"/>
@@ -34923,25 +35140,27 @@
       <c r="CK188" s="26">
         <v>11.309972420802552</v>
       </c>
-      <c r="CL188" s="26">
+      <c r="CL188" s="25">
         <v>12.253231381722621</v>
       </c>
-      <c r="CM188" s="26">
+      <c r="CM188" s="25">
         <v>15.370180939523706</v>
       </c>
-      <c r="CN188" s="26">
+      <c r="CN188" s="25">
         <v>12.563123127015958</v>
       </c>
-      <c r="CO188" s="26">
+      <c r="CO188" s="25">
         <v>11.048325223907147</v>
       </c>
-      <c r="CP188" s="26">
+      <c r="CP188" s="25">
         <v>11.95925771947735</v>
       </c>
-      <c r="CQ188" s="26">
-        <v>15.453890074156352</v>
-      </c>
-      <c r="CR188" s="11"/>
+      <c r="CQ188" s="25">
+        <v>15.453858206473603</v>
+      </c>
+      <c r="CR188" s="25">
+        <v>12.496674470376089</v>
+      </c>
       <c r="CS188" s="11"/>
       <c r="CT188" s="11"/>
       <c r="CU188" s="11"/>
@@ -35268,25 +35487,27 @@
       <c r="CK189" s="26">
         <v>2.7412237162501683</v>
       </c>
-      <c r="CL189" s="26">
+      <c r="CL189" s="25">
         <v>2.7623384035498191</v>
       </c>
-      <c r="CM189" s="26">
+      <c r="CM189" s="25">
         <v>2.6973215554784309</v>
       </c>
-      <c r="CN189" s="26">
+      <c r="CN189" s="25">
         <v>3.0800096242424333</v>
       </c>
-      <c r="CO189" s="26">
+      <c r="CO189" s="25">
         <v>2.802373208131514</v>
       </c>
-      <c r="CP189" s="26">
+      <c r="CP189" s="25">
         <v>2.5235947740450602</v>
       </c>
-      <c r="CQ189" s="26">
-        <v>2.4869202891716133</v>
-      </c>
-      <c r="CR189" s="11"/>
+      <c r="CQ189" s="25">
+        <v>2.4749490702050676</v>
+      </c>
+      <c r="CR189" s="25">
+        <v>2.8985976558382185</v>
+      </c>
       <c r="CS189" s="11"/>
       <c r="CT189" s="11"/>
       <c r="CU189" s="11"/>
@@ -35613,25 +35834,27 @@
       <c r="CK190" s="26">
         <v>4.1315339555772557</v>
       </c>
-      <c r="CL190" s="26">
+      <c r="CL190" s="25">
         <v>4.3650792035163173</v>
       </c>
-      <c r="CM190" s="26">
+      <c r="CM190" s="25">
         <v>3.7325412316773012</v>
       </c>
-      <c r="CN190" s="26">
+      <c r="CN190" s="25">
         <v>5.4627353060199484</v>
       </c>
-      <c r="CO190" s="26">
+      <c r="CO190" s="25">
         <v>4.0650234125140683</v>
       </c>
-      <c r="CP190" s="26">
+      <c r="CP190" s="25">
         <v>4.4213548067123281</v>
       </c>
-      <c r="CQ190" s="26">
-        <v>3.8442487044878009</v>
-      </c>
-      <c r="CR190" s="11"/>
+      <c r="CQ190" s="25">
+        <v>3.8477164026963684</v>
+      </c>
+      <c r="CR190" s="25">
+        <v>5.5113579552083518</v>
+      </c>
       <c r="CS190" s="11"/>
       <c r="CT190" s="11"/>
       <c r="CU190" s="11"/>
@@ -35958,25 +36181,27 @@
       <c r="CK191" s="26">
         <v>7.0244507557808182</v>
       </c>
-      <c r="CL191" s="26">
+      <c r="CL191" s="25">
         <v>8.9977425952513741</v>
       </c>
-      <c r="CM191" s="26">
+      <c r="CM191" s="25">
         <v>6.9858593498514674</v>
       </c>
-      <c r="CN191" s="26">
+      <c r="CN191" s="25">
         <v>9.2967748426773973</v>
       </c>
-      <c r="CO191" s="26">
+      <c r="CO191" s="25">
         <v>7.0833636123509072</v>
       </c>
-      <c r="CP191" s="26">
+      <c r="CP191" s="25">
         <v>9.6660702385515389</v>
       </c>
-      <c r="CQ191" s="26">
-        <v>8.613220178513032</v>
-      </c>
-      <c r="CR191" s="11"/>
+      <c r="CQ191" s="25">
+        <v>8.6320279213877811</v>
+      </c>
+      <c r="CR191" s="25">
+        <v>10.129880983596319</v>
+      </c>
       <c r="CS191" s="11"/>
       <c r="CT191" s="11"/>
       <c r="CU191" s="11"/>
@@ -36303,25 +36528,27 @@
       <c r="CK192" s="26">
         <v>3.1221416468722425</v>
       </c>
-      <c r="CL192" s="26">
+      <c r="CL192" s="25">
         <v>3.327850812169348</v>
       </c>
-      <c r="CM192" s="26">
+      <c r="CM192" s="25">
         <v>3.6704853046456076</v>
       </c>
-      <c r="CN192" s="26">
+      <c r="CN192" s="25">
         <v>2.7596019021116343</v>
       </c>
-      <c r="CO192" s="26">
+      <c r="CO192" s="25">
         <v>3.0947443667314065</v>
       </c>
-      <c r="CP192" s="26">
+      <c r="CP192" s="25">
         <v>3.2807698735642807</v>
       </c>
-      <c r="CQ192" s="26">
-        <v>3.6538283329287284</v>
-      </c>
-      <c r="CR192" s="11"/>
+      <c r="CQ192" s="25">
+        <v>3.6389674631212636</v>
+      </c>
+      <c r="CR192" s="25">
+        <v>2.7743941653227893</v>
+      </c>
       <c r="CS192" s="11"/>
       <c r="CT192" s="11"/>
       <c r="CU192" s="11"/>
@@ -36648,25 +36875,27 @@
       <c r="CK193" s="26">
         <v>1.7412296168903436</v>
       </c>
-      <c r="CL193" s="26">
+      <c r="CL193" s="25">
         <v>1.5554112620762346</v>
       </c>
-      <c r="CM193" s="26">
+      <c r="CM193" s="25">
         <v>1.2031115031500987</v>
       </c>
-      <c r="CN193" s="26">
+      <c r="CN193" s="25">
         <v>1.4653069876611839</v>
       </c>
-      <c r="CO193" s="26">
+      <c r="CO193" s="25">
         <v>1.879917694815243</v>
       </c>
-      <c r="CP193" s="26">
+      <c r="CP193" s="25">
         <v>1.8967387077809454</v>
       </c>
-      <c r="CQ193" s="26">
-        <v>1.3690530190024817</v>
-      </c>
-      <c r="CR193" s="11"/>
+      <c r="CQ193" s="25">
+        <v>1.3559895007126457</v>
+      </c>
+      <c r="CR193" s="25">
+        <v>1.6100808949213514</v>
+      </c>
       <c r="CS193" s="11"/>
       <c r="CT193" s="11"/>
       <c r="CU193" s="11"/>
@@ -36993,25 +37222,27 @@
       <c r="CK194" s="26">
         <v>4.973501027620439</v>
       </c>
-      <c r="CL194" s="26">
+      <c r="CL194" s="25">
         <v>5.6844420724701745</v>
       </c>
-      <c r="CM194" s="26">
+      <c r="CM194" s="25">
         <v>5.1622463413156092</v>
       </c>
-      <c r="CN194" s="26">
+      <c r="CN194" s="25">
         <v>5.7690547591570205</v>
       </c>
-      <c r="CO194" s="26">
+      <c r="CO194" s="25">
         <v>5.1272646206983881</v>
       </c>
-      <c r="CP194" s="26">
+      <c r="CP194" s="25">
         <v>5.6949105125756105</v>
       </c>
-      <c r="CQ194" s="26">
-        <v>5.2346570093334677</v>
-      </c>
-      <c r="CR194" s="11"/>
+      <c r="CQ194" s="25">
+        <v>5.2416852555924178</v>
+      </c>
+      <c r="CR194" s="25">
+        <v>5.8469710888952333</v>
+      </c>
       <c r="CS194" s="11"/>
       <c r="CT194" s="11"/>
       <c r="CU194" s="11"/>
@@ -37338,25 +37569,27 @@
       <c r="CK195" s="26">
         <v>6.5445230375477887</v>
       </c>
-      <c r="CL195" s="26">
+      <c r="CL195" s="25">
         <v>8.1574379909452954</v>
       </c>
-      <c r="CM195" s="26">
+      <c r="CM195" s="25">
         <v>4.9509064123882824</v>
       </c>
-      <c r="CN195" s="26">
+      <c r="CN195" s="25">
         <v>6.9689554823920368</v>
       </c>
-      <c r="CO195" s="26">
+      <c r="CO195" s="25">
         <v>7.6340247187200703</v>
       </c>
-      <c r="CP195" s="26">
+      <c r="CP195" s="25">
         <v>9.5061826211599332</v>
       </c>
-      <c r="CQ195" s="26">
-        <v>5.7859656800128247</v>
-      </c>
-      <c r="CR195" s="11"/>
+      <c r="CQ195" s="25">
+        <v>5.7660456524085362</v>
+      </c>
+      <c r="CR195" s="25">
+        <v>7.6199726719071288</v>
+      </c>
       <c r="CS195" s="11"/>
       <c r="CT195" s="11"/>
       <c r="CU195" s="11"/>
@@ -37683,25 +37916,27 @@
       <c r="CK196" s="26">
         <v>15.269043600670045</v>
       </c>
-      <c r="CL196" s="26">
+      <c r="CL196" s="25">
         <v>13.684317365882483</v>
       </c>
-      <c r="CM196" s="26">
+      <c r="CM196" s="25">
         <v>13.184964652925608</v>
       </c>
-      <c r="CN196" s="26">
+      <c r="CN196" s="25">
         <v>14.513973289425405</v>
       </c>
-      <c r="CO196" s="26">
+      <c r="CO196" s="25">
         <v>15.222351342846343</v>
       </c>
-      <c r="CP196" s="26">
+      <c r="CP196" s="25">
         <v>14.027439941563799</v>
       </c>
-      <c r="CQ196" s="26">
-        <v>13.148482774931908</v>
-      </c>
-      <c r="CR196" s="11"/>
+      <c r="CQ196" s="25">
+        <v>13.172400477733619</v>
+      </c>
+      <c r="CR196" s="25">
+        <v>14.924836871764832</v>
+      </c>
       <c r="CS196" s="11"/>
       <c r="CT196" s="11"/>
       <c r="CU196" s="11"/>
@@ -37849,13 +38084,13 @@
       <c r="CI197" s="11"/>
       <c r="CJ197" s="11"/>
       <c r="CK197" s="11"/>
-      <c r="CL197" s="11"/>
-      <c r="CM197" s="11"/>
-      <c r="CN197" s="11"/>
-      <c r="CO197" s="11"/>
-      <c r="CP197" s="11"/>
-      <c r="CQ197" s="11"/>
-      <c r="CR197" s="11"/>
+      <c r="CL197" s="13"/>
+      <c r="CM197" s="13"/>
+      <c r="CN197" s="13"/>
+      <c r="CO197" s="13"/>
+      <c r="CP197" s="13"/>
+      <c r="CQ197" s="13"/>
+      <c r="CR197" s="13"/>
       <c r="CS197" s="11"/>
       <c r="CT197" s="11"/>
       <c r="CU197" s="11"/>
@@ -38182,25 +38417,27 @@
       <c r="CK198" s="26">
         <v>100</v>
       </c>
-      <c r="CL198" s="26">
+      <c r="CL198" s="25">
         <v>100</v>
       </c>
-      <c r="CM198" s="26">
+      <c r="CM198" s="25">
         <v>100</v>
       </c>
-      <c r="CN198" s="26">
+      <c r="CN198" s="25">
         <v>100</v>
       </c>
-      <c r="CO198" s="26">
+      <c r="CO198" s="25">
         <v>100</v>
       </c>
-      <c r="CP198" s="26">
+      <c r="CP198" s="25">
         <v>100</v>
       </c>
-      <c r="CQ198" s="26">
+      <c r="CQ198" s="25">
         <v>100</v>
       </c>
-      <c r="CR198" s="11"/>
+      <c r="CR198" s="25">
+        <v>100</v>
+      </c>
       <c r="CS198" s="11"/>
       <c r="CT198" s="11"/>
       <c r="CU198" s="11"/>
@@ -38349,12 +38586,13 @@
       <c r="CI199" s="16"/>
       <c r="CJ199" s="16"/>
       <c r="CK199" s="16"/>
-      <c r="CL199" s="16"/>
-      <c r="CM199" s="16"/>
-      <c r="CN199" s="16"/>
-      <c r="CO199" s="16"/>
-      <c r="CP199" s="16"/>
-      <c r="CQ199" s="16"/>
+      <c r="CL199" s="17"/>
+      <c r="CM199" s="17"/>
+      <c r="CN199" s="17"/>
+      <c r="CO199" s="17"/>
+      <c r="CP199" s="17"/>
+      <c r="CQ199" s="17"/>
+      <c r="CR199" s="17"/>
     </row>
     <row r="200" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A200" s="18" t="s">
@@ -38451,13 +38689,13 @@
       <c r="CI201" s="1"/>
       <c r="CJ201" s="1"/>
       <c r="CK201" s="1"/>
-      <c r="CL201" s="1"/>
-      <c r="CM201" s="1"/>
-      <c r="CN201" s="1"/>
-      <c r="CO201" s="1"/>
-      <c r="CP201" s="1"/>
-      <c r="CQ201" s="1"/>
-      <c r="CR201" s="28"/>
+      <c r="CL201" s="35"/>
+      <c r="CM201" s="35"/>
+      <c r="CN201" s="35"/>
+      <c r="CO201" s="35"/>
+      <c r="CP201" s="35"/>
+      <c r="CQ201" s="35"/>
+      <c r="CR201" s="35"/>
       <c r="CS201" s="28"/>
       <c r="CT201" s="28"/>
       <c r="CU201" s="28"/>
@@ -38606,13 +38844,13 @@
       <c r="CI202" s="1"/>
       <c r="CJ202" s="1"/>
       <c r="CK202" s="1"/>
-      <c r="CL202" s="1"/>
-      <c r="CM202" s="1"/>
-      <c r="CN202" s="1"/>
-      <c r="CO202" s="1"/>
-      <c r="CP202" s="1"/>
-      <c r="CQ202" s="1"/>
-      <c r="CR202" s="28"/>
+      <c r="CL202" s="36"/>
+      <c r="CM202" s="36"/>
+      <c r="CN202" s="36"/>
+      <c r="CO202" s="36"/>
+      <c r="CP202" s="36"/>
+      <c r="CQ202" s="36"/>
+      <c r="CR202" s="36"/>
       <c r="CS202" s="28"/>
       <c r="CT202" s="28"/>
       <c r="CU202" s="28"/>
@@ -38672,17 +38910,13 @@
       <c r="EW202" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="168">
-    <mergeCell ref="CP9:CQ9"/>
-    <mergeCell ref="CP38:CQ38"/>
-    <mergeCell ref="CP124:CQ124"/>
-    <mergeCell ref="CP153:CQ153"/>
-    <mergeCell ref="CP182:CQ182"/>
-    <mergeCell ref="CL67:CO67"/>
-    <mergeCell ref="CP67:CQ67"/>
-    <mergeCell ref="CL96:CO96"/>
-    <mergeCell ref="CP96:CQ96"/>
+  <mergeCells count="166">
     <mergeCell ref="CL182:CO182"/>
+    <mergeCell ref="CP9:CR9"/>
+    <mergeCell ref="CP38:CR38"/>
+    <mergeCell ref="CP124:CR124"/>
+    <mergeCell ref="CP153:CR153"/>
+    <mergeCell ref="CP182:CR182"/>
     <mergeCell ref="CH9:CK9"/>
     <mergeCell ref="CH38:CK38"/>
     <mergeCell ref="CL9:CO9"/>
@@ -38693,6 +38927,8 @@
     <mergeCell ref="CH124:CK124"/>
     <mergeCell ref="CH153:CK153"/>
     <mergeCell ref="CL153:CO153"/>
+    <mergeCell ref="CL67:CN67"/>
+    <mergeCell ref="CL96:CN96"/>
     <mergeCell ref="AH124:AK124"/>
     <mergeCell ref="BR182:BU182"/>
     <mergeCell ref="BV182:BY182"/>
@@ -38846,9 +39082,9 @@
   <pageSetup paperSize="9" scale="44" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="58" max="94" man="1"/>
-    <brk id="116" max="94" man="1"/>
-    <brk id="144" max="94" man="1"/>
+    <brk id="58" max="95" man="1"/>
+    <brk id="116" max="95" man="1"/>
+    <brk id="144" max="95" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-02HFCE_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-02HFCE_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56C268E-1103-45AA-BCB4-EC6CA71AE781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C2D433-5650-4AAF-BF8E-94937C6EF62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
     <definedName name="PCE_Per_Anl">#REF!</definedName>
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HFCE!$A$1:$CR$202</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HFCE!$A$1:$CS$202</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="62">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -223,13 +223,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of November 2023</t>
+    <t>Q1 2000 to Q4 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2023</t>
+    <t>Q1 2001 to Q4 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2023</t>
+    <t>As of January 2024</t>
   </si>
 </sst>
 </file>
@@ -318,7 +318,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -362,13 +362,18 @@
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -410,9 +415,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -450,7 +455,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -556,7 +561,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -698,7 +703,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -716,7 +721,7 @@
       <selection activeCell="CA66" sqref="CA66"/>
       <selection pane="topRight" activeCell="CA66" sqref="CA66"/>
       <selection pane="bottomLeft" activeCell="CA66" sqref="CA66"/>
-      <selection pane="bottomRight" activeCell="CL1" sqref="CL1:CR1048576"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -738,9 +743,8 @@
     <col min="74" max="74" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="75" max="77" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="89" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="90" max="96" width="13.5546875" style="2" customWidth="1"/>
-    <col min="97" max="16384" width="7.77734375" style="1"/>
+    <col min="79" max="97" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="98" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:153" x14ac:dyDescent="0.2">
@@ -755,7 +759,7 @@
     </row>
     <row r="3" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:153" x14ac:dyDescent="0.2">
@@ -765,7 +769,7 @@
     </row>
     <row r="6" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:153" x14ac:dyDescent="0.2">
@@ -775,149 +779,150 @@
     </row>
     <row r="9" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="38">
+      <c r="B9" s="37">
         <v>2000</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38">
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37">
         <v>2001</v>
       </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38">
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37">
         <v>2002</v>
       </c>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38">
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37">
         <v>2003</v>
       </c>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38">
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37">
         <v>2004</v>
       </c>
-      <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38">
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37">
         <v>2005</v>
       </c>
-      <c r="W9" s="38"/>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="38"/>
-      <c r="Z9" s="38">
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37">
         <v>2006</v>
       </c>
-      <c r="AA9" s="38"/>
-      <c r="AB9" s="38"/>
-      <c r="AC9" s="38"/>
-      <c r="AD9" s="38">
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="37">
         <v>2007</v>
       </c>
-      <c r="AE9" s="38"/>
-      <c r="AF9" s="38"/>
-      <c r="AG9" s="38"/>
-      <c r="AH9" s="38">
+      <c r="AE9" s="37"/>
+      <c r="AF9" s="37"/>
+      <c r="AG9" s="37"/>
+      <c r="AH9" s="37">
         <v>2008</v>
       </c>
-      <c r="AI9" s="38"/>
-      <c r="AJ9" s="38"/>
-      <c r="AK9" s="38"/>
-      <c r="AL9" s="38">
+      <c r="AI9" s="37"/>
+      <c r="AJ9" s="37"/>
+      <c r="AK9" s="37"/>
+      <c r="AL9" s="37">
         <v>2009</v>
       </c>
-      <c r="AM9" s="38"/>
-      <c r="AN9" s="38"/>
-      <c r="AO9" s="38"/>
-      <c r="AP9" s="38">
+      <c r="AM9" s="37"/>
+      <c r="AN9" s="37"/>
+      <c r="AO9" s="37"/>
+      <c r="AP9" s="37">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="38"/>
-      <c r="AR9" s="38"/>
-      <c r="AS9" s="38"/>
-      <c r="AT9" s="38">
+      <c r="AQ9" s="37"/>
+      <c r="AR9" s="37"/>
+      <c r="AS9" s="37"/>
+      <c r="AT9" s="37">
         <v>2011</v>
       </c>
-      <c r="AU9" s="38"/>
-      <c r="AV9" s="38"/>
-      <c r="AW9" s="38"/>
-      <c r="AX9" s="38">
+      <c r="AU9" s="37"/>
+      <c r="AV9" s="37"/>
+      <c r="AW9" s="37"/>
+      <c r="AX9" s="37">
         <v>2012</v>
       </c>
-      <c r="AY9" s="38"/>
-      <c r="AZ9" s="38"/>
-      <c r="BA9" s="38"/>
-      <c r="BB9" s="38">
+      <c r="AY9" s="37"/>
+      <c r="AZ9" s="37"/>
+      <c r="BA9" s="37"/>
+      <c r="BB9" s="37">
         <v>2013</v>
       </c>
-      <c r="BC9" s="38"/>
-      <c r="BD9" s="38"/>
-      <c r="BE9" s="38"/>
-      <c r="BF9" s="38">
+      <c r="BC9" s="37"/>
+      <c r="BD9" s="37"/>
+      <c r="BE9" s="37"/>
+      <c r="BF9" s="37">
         <v>2014</v>
       </c>
-      <c r="BG9" s="38"/>
-      <c r="BH9" s="38"/>
-      <c r="BI9" s="38"/>
-      <c r="BJ9" s="38">
+      <c r="BG9" s="37"/>
+      <c r="BH9" s="37"/>
+      <c r="BI9" s="37"/>
+      <c r="BJ9" s="37">
         <v>2015</v>
       </c>
-      <c r="BK9" s="38"/>
-      <c r="BL9" s="38"/>
-      <c r="BM9" s="38"/>
-      <c r="BN9" s="38">
+      <c r="BK9" s="37"/>
+      <c r="BL9" s="37"/>
+      <c r="BM9" s="37"/>
+      <c r="BN9" s="37">
         <v>2016</v>
       </c>
-      <c r="BO9" s="38"/>
-      <c r="BP9" s="38"/>
-      <c r="BQ9" s="38"/>
-      <c r="BR9" s="39">
+      <c r="BO9" s="37"/>
+      <c r="BP9" s="37"/>
+      <c r="BQ9" s="37"/>
+      <c r="BR9" s="38">
         <v>2017</v>
       </c>
-      <c r="BS9" s="39"/>
-      <c r="BT9" s="39"/>
-      <c r="BU9" s="39"/>
-      <c r="BV9" s="39">
+      <c r="BS9" s="38"/>
+      <c r="BT9" s="38"/>
+      <c r="BU9" s="38"/>
+      <c r="BV9" s="38">
         <v>2018</v>
       </c>
-      <c r="BW9" s="39"/>
-      <c r="BX9" s="39"/>
-      <c r="BY9" s="39"/>
-      <c r="BZ9" s="39">
+      <c r="BW9" s="38"/>
+      <c r="BX9" s="38"/>
+      <c r="BY9" s="38"/>
+      <c r="BZ9" s="38">
         <v>2019</v>
       </c>
-      <c r="CA9" s="39"/>
-      <c r="CB9" s="39"/>
-      <c r="CC9" s="39"/>
-      <c r="CD9" s="39">
+      <c r="CA9" s="38"/>
+      <c r="CB9" s="38"/>
+      <c r="CC9" s="38"/>
+      <c r="CD9" s="38">
         <v>2020</v>
       </c>
-      <c r="CE9" s="39"/>
-      <c r="CF9" s="39"/>
-      <c r="CG9" s="39"/>
-      <c r="CH9" s="39">
+      <c r="CE9" s="38"/>
+      <c r="CF9" s="38"/>
+      <c r="CG9" s="38"/>
+      <c r="CH9" s="38">
         <v>2021</v>
       </c>
-      <c r="CI9" s="39"/>
-      <c r="CJ9" s="39"/>
-      <c r="CK9" s="39"/>
-      <c r="CL9" s="38">
+      <c r="CI9" s="38"/>
+      <c r="CJ9" s="38"/>
+      <c r="CK9" s="38"/>
+      <c r="CL9" s="34">
         <v>2022</v>
       </c>
-      <c r="CM9" s="38"/>
-      <c r="CN9" s="38"/>
-      <c r="CO9" s="38"/>
-      <c r="CP9" s="38">
+      <c r="CM9" s="34"/>
+      <c r="CN9" s="34"/>
+      <c r="CO9" s="34"/>
+      <c r="CP9" s="34">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="38"/>
-      <c r="CR9" s="38"/>
+      <c r="CQ9" s="34"/>
+      <c r="CR9" s="34"/>
+      <c r="CS9" s="34"/>
     </row>
     <row r="10" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -1187,26 +1192,29 @@
       <c r="CK10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CL10" s="6" t="s">
+      <c r="CL10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="CM10" s="6" t="s">
+      <c r="CM10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="CN10" s="6" t="s">
+      <c r="CN10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="CO10" s="6" t="s">
+      <c r="CO10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CP10" s="6" t="s">
+      <c r="CP10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="CQ10" s="6" t="s">
+      <c r="CQ10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="CR10" s="6" t="s">
+      <c r="CR10" s="7" t="s">
         <v>21</v>
+      </c>
+      <c r="CS10" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1480,28 +1488,30 @@
       <c r="CK12" s="10">
         <v>1690880.3451856137</v>
       </c>
-      <c r="CL12" s="9">
+      <c r="CL12" s="10">
         <v>1383392.0048945465</v>
       </c>
-      <c r="CM12" s="9">
+      <c r="CM12" s="10">
         <v>1564274.8680853865</v>
       </c>
-      <c r="CN12" s="9">
+      <c r="CN12" s="10">
         <v>1452966.6181643624</v>
       </c>
-      <c r="CO12" s="9">
+      <c r="CO12" s="10">
         <v>1931500.2484176089</v>
       </c>
-      <c r="CP12" s="9">
+      <c r="CP12" s="10">
         <v>1534902.7290848328</v>
       </c>
-      <c r="CQ12" s="9">
+      <c r="CQ12" s="10">
         <v>1685996.4564988299</v>
       </c>
-      <c r="CR12" s="9">
-        <v>1567690.8643476891</v>
-      </c>
-      <c r="CS12" s="11"/>
+      <c r="CR12" s="10">
+        <v>1567980.0816197318</v>
+      </c>
+      <c r="CS12" s="10">
+        <v>2057368.4474864064</v>
+      </c>
       <c r="CT12" s="11"/>
       <c r="CU12" s="11"/>
       <c r="CV12" s="11"/>
@@ -1827,28 +1837,30 @@
       <c r="CK13" s="10">
         <v>95079.966968849665</v>
       </c>
-      <c r="CL13" s="9">
+      <c r="CL13" s="10">
         <v>70726.395920509851</v>
       </c>
-      <c r="CM13" s="9">
+      <c r="CM13" s="10">
         <v>75224.766215338052</v>
       </c>
-      <c r="CN13" s="9">
+      <c r="CN13" s="10">
         <v>73988.939524007612</v>
       </c>
-      <c r="CO13" s="9">
+      <c r="CO13" s="10">
         <v>109227.64524527798</v>
       </c>
-      <c r="CP13" s="9">
+      <c r="CP13" s="10">
         <v>78577.262359796136</v>
       </c>
-      <c r="CQ13" s="9">
+      <c r="CQ13" s="10">
         <v>77453.403479135828</v>
       </c>
-      <c r="CR13" s="9">
-        <v>81695.092256804375</v>
-      </c>
-      <c r="CS13" s="11"/>
+      <c r="CR13" s="10">
+        <v>81787.017593040655</v>
+      </c>
+      <c r="CS13" s="10">
+        <v>117318.94591180923</v>
+      </c>
       <c r="CT13" s="11"/>
       <c r="CU13" s="11"/>
       <c r="CV13" s="11"/>
@@ -2174,28 +2186,30 @@
       <c r="CK14" s="10">
         <v>76081.423775545365</v>
       </c>
-      <c r="CL14" s="9">
+      <c r="CL14" s="10">
         <v>57846.206084560916</v>
       </c>
-      <c r="CM14" s="9">
+      <c r="CM14" s="10">
         <v>65091.509933443755</v>
       </c>
-      <c r="CN14" s="9">
+      <c r="CN14" s="10">
         <v>69580.189789870652</v>
       </c>
-      <c r="CO14" s="9">
+      <c r="CO14" s="10">
         <v>86797.581272444193</v>
       </c>
-      <c r="CP14" s="9">
+      <c r="CP14" s="10">
         <v>59142.699532093626</v>
       </c>
-      <c r="CQ14" s="9">
+      <c r="CQ14" s="10">
         <v>50347.697782978546</v>
       </c>
-      <c r="CR14" s="9">
-        <v>64519.418771353005</v>
-      </c>
-      <c r="CS14" s="11"/>
+      <c r="CR14" s="10">
+        <v>64963.59407708401</v>
+      </c>
+      <c r="CS14" s="10">
+        <v>89395.964573013727</v>
+      </c>
       <c r="CT14" s="11"/>
       <c r="CU14" s="11"/>
       <c r="CV14" s="11"/>
@@ -2521,28 +2535,30 @@
       <c r="CK15" s="10">
         <v>485121.81906793592</v>
       </c>
-      <c r="CL15" s="9">
+      <c r="CL15" s="10">
         <v>443892.4360467603</v>
       </c>
-      <c r="CM15" s="9">
+      <c r="CM15" s="10">
         <v>575919.96011569072</v>
       </c>
-      <c r="CN15" s="9">
+      <c r="CN15" s="10">
         <v>523413.55395594909</v>
       </c>
-      <c r="CO15" s="9">
+      <c r="CO15" s="10">
         <v>542954.16776765871</v>
       </c>
-      <c r="CP15" s="9">
+      <c r="CP15" s="10">
         <v>499104.71244148072</v>
       </c>
-      <c r="CQ15" s="9">
+      <c r="CQ15" s="10">
         <v>648785.47920105793</v>
       </c>
-      <c r="CR15" s="9">
-        <v>563951.41211503302</v>
-      </c>
-      <c r="CS15" s="11"/>
+      <c r="CR15" s="10">
+        <v>563858.32332936954</v>
+      </c>
+      <c r="CS15" s="10">
+        <v>579305.68188220554</v>
+      </c>
       <c r="CT15" s="11"/>
       <c r="CU15" s="11"/>
       <c r="CV15" s="11"/>
@@ -2868,28 +2884,30 @@
       <c r="CK16" s="10">
         <v>115232.79383796283</v>
       </c>
-      <c r="CL16" s="9">
+      <c r="CL16" s="10">
         <v>107318.54362644965</v>
       </c>
-      <c r="CM16" s="9">
+      <c r="CM16" s="10">
         <v>102654.88177364389</v>
       </c>
-      <c r="CN16" s="9">
+      <c r="CN16" s="10">
         <v>123790.36496422309</v>
       </c>
-      <c r="CO16" s="9">
+      <c r="CO16" s="10">
         <v>131512.8002420741</v>
       </c>
-      <c r="CP16" s="9">
+      <c r="CP16" s="10">
         <v>110439.07435267864</v>
       </c>
-      <c r="CQ16" s="9">
+      <c r="CQ16" s="10">
         <v>105474.47517155809</v>
       </c>
-      <c r="CR16" s="9">
-        <v>126974.8918277084</v>
-      </c>
-      <c r="CS16" s="11"/>
+      <c r="CR16" s="10">
+        <v>127530.37049273586</v>
+      </c>
+      <c r="CS16" s="10">
+        <v>138580.73745255839</v>
+      </c>
       <c r="CT16" s="11"/>
       <c r="CU16" s="11"/>
       <c r="CV16" s="11"/>
@@ -3215,28 +3233,30 @@
       <c r="CK17" s="10">
         <v>180198.24192837239</v>
       </c>
-      <c r="CL17" s="9">
+      <c r="CL17" s="10">
         <v>164585.64785757253</v>
       </c>
-      <c r="CM17" s="9">
+      <c r="CM17" s="10">
         <v>138406.19593863472</v>
       </c>
-      <c r="CN17" s="9">
+      <c r="CN17" s="10">
         <v>219169.46898576446</v>
       </c>
-      <c r="CO17" s="9">
+      <c r="CO17" s="10">
         <v>195015.04490842862</v>
       </c>
-      <c r="CP17" s="9">
+      <c r="CP17" s="10">
         <v>184071.27892650483</v>
       </c>
-      <c r="CQ17" s="9">
+      <c r="CQ17" s="10">
         <v>156645.83555380092</v>
       </c>
-      <c r="CR17" s="9">
-        <v>241462.88777833321</v>
-      </c>
-      <c r="CS17" s="11"/>
+      <c r="CR17" s="10">
+        <v>240981.33455297101</v>
+      </c>
+      <c r="CS17" s="10">
+        <v>216669.94238533088</v>
+      </c>
       <c r="CT17" s="11"/>
       <c r="CU17" s="11"/>
       <c r="CV17" s="11"/>
@@ -3562,28 +3582,30 @@
       <c r="CK18" s="10">
         <v>310709.64314581646</v>
       </c>
-      <c r="CL18" s="9">
+      <c r="CL18" s="10">
         <v>381571.43294314115</v>
       </c>
-      <c r="CM18" s="9">
+      <c r="CM18" s="10">
         <v>296233.49817225453</v>
       </c>
-      <c r="CN18" s="9">
+      <c r="CN18" s="10">
         <v>462893.07174638822</v>
       </c>
-      <c r="CO18" s="9">
+      <c r="CO18" s="10">
         <v>375843.52030543314</v>
       </c>
-      <c r="CP18" s="9">
+      <c r="CP18" s="10">
         <v>472851.25966836378</v>
       </c>
-      <c r="CQ18" s="9">
+      <c r="CQ18" s="10">
         <v>384940.24066138553</v>
       </c>
-      <c r="CR18" s="9">
-        <v>523888.77807939431</v>
-      </c>
-      <c r="CS18" s="11"/>
+      <c r="CR18" s="10">
+        <v>524433.55364961992</v>
+      </c>
+      <c r="CS18" s="10">
+        <v>422639.91913464363</v>
+      </c>
       <c r="CT18" s="11"/>
       <c r="CU18" s="11"/>
       <c r="CV18" s="11"/>
@@ -3909,28 +3931,30 @@
       <c r="CK19" s="10">
         <v>118999.06344232164</v>
       </c>
-      <c r="CL19" s="9">
+      <c r="CL19" s="10">
         <v>121218.66631277048</v>
       </c>
-      <c r="CM19" s="9">
+      <c r="CM19" s="10">
         <v>127269.09443564281</v>
       </c>
-      <c r="CN19" s="9">
+      <c r="CN19" s="10">
         <v>96972.841360500504</v>
       </c>
-      <c r="CO19" s="9">
+      <c r="CO19" s="10">
         <v>126963.0439176754</v>
       </c>
-      <c r="CP19" s="9">
+      <c r="CP19" s="10">
         <v>128102.85613251821</v>
       </c>
-      <c r="CQ19" s="9">
+      <c r="CQ19" s="10">
         <v>134057.12402480459</v>
       </c>
-      <c r="CR19" s="9">
-        <v>103082.62411318794</v>
-      </c>
-      <c r="CS19" s="11"/>
+      <c r="CR19" s="10">
+        <v>102555.40877517591</v>
+      </c>
+      <c r="CS19" s="10">
+        <v>133441.85137320901</v>
+      </c>
       <c r="CT19" s="11"/>
       <c r="CU19" s="11"/>
       <c r="CV19" s="11"/>
@@ -4256,28 +4280,30 @@
       <c r="CK20" s="10">
         <v>70945.452398385183</v>
       </c>
-      <c r="CL20" s="9">
+      <c r="CL20" s="10">
         <v>56384.20558903068</v>
       </c>
-      <c r="CM20" s="9">
+      <c r="CM20" s="10">
         <v>42183.229719704155</v>
       </c>
-      <c r="CN20" s="9">
+      <c r="CN20" s="10">
         <v>53248.295612308109</v>
       </c>
-      <c r="CO20" s="9">
+      <c r="CO20" s="10">
         <v>84734.360573593935</v>
       </c>
-      <c r="CP20" s="9">
+      <c r="CP20" s="10">
         <v>76403.305244792777</v>
       </c>
-      <c r="CQ20" s="9">
+      <c r="CQ20" s="10">
         <v>52572.579115914756</v>
       </c>
-      <c r="CR20" s="9">
-        <v>63324.032656810217</v>
-      </c>
-      <c r="CS20" s="11"/>
+      <c r="CR20" s="10">
+        <v>63102.461638116882</v>
+      </c>
+      <c r="CS20" s="10">
+        <v>95141.120702105167</v>
+      </c>
       <c r="CT20" s="11"/>
       <c r="CU20" s="11"/>
       <c r="CV20" s="11"/>
@@ -4603,28 +4629,30 @@
       <c r="CK21" s="10">
         <v>193235.44467712895</v>
       </c>
-      <c r="CL21" s="9">
+      <c r="CL21" s="10">
         <v>205904.95644780132</v>
       </c>
-      <c r="CM21" s="9">
+      <c r="CM21" s="10">
         <v>186917.19533356713</v>
       </c>
-      <c r="CN21" s="9">
+      <c r="CN21" s="10">
         <v>219963.85840075967</v>
       </c>
-      <c r="CO21" s="9">
+      <c r="CO21" s="10">
         <v>220643.41206795338</v>
       </c>
-      <c r="CP21" s="9">
+      <c r="CP21" s="10">
         <v>227528.12153380137</v>
       </c>
-      <c r="CQ21" s="9">
+      <c r="CQ21" s="10">
         <v>207552.76578739766</v>
       </c>
-      <c r="CR21" s="9">
-        <v>242164.73085516077</v>
-      </c>
-      <c r="CS21" s="11"/>
+      <c r="CR21" s="10">
+        <v>242527.36870971578</v>
+      </c>
+      <c r="CS21" s="10">
+        <v>246369.96096551639</v>
+      </c>
       <c r="CT21" s="11"/>
       <c r="CU21" s="11"/>
       <c r="CV21" s="11"/>
@@ -4950,28 +4978,30 @@
       <c r="CK22" s="10">
         <v>280374.78925942106</v>
       </c>
-      <c r="CL22" s="9">
+      <c r="CL22" s="10">
         <v>316823.44136322179</v>
       </c>
-      <c r="CM22" s="9">
+      <c r="CM22" s="10">
         <v>182458.71287707717</v>
       </c>
-      <c r="CN22" s="9">
+      <c r="CN22" s="10">
         <v>289973.74233885045</v>
       </c>
-      <c r="CO22" s="9">
+      <c r="CO22" s="10">
         <v>372256.41956097959</v>
       </c>
-      <c r="CP22" s="9">
+      <c r="CP22" s="10">
         <v>424434.51070063253</v>
       </c>
-      <c r="CQ22" s="9">
+      <c r="CQ22" s="10">
         <v>242996.95082726027</v>
       </c>
-      <c r="CR22" s="9">
-        <v>352007.86379281379</v>
-      </c>
-      <c r="CS22" s="11"/>
+      <c r="CR22" s="10">
+        <v>353695.93362560862</v>
+      </c>
+      <c r="CS22" s="10">
+        <v>457863.02480673249</v>
+      </c>
       <c r="CT22" s="11"/>
       <c r="CU22" s="11"/>
       <c r="CV22" s="11"/>
@@ -5297,28 +5327,30 @@
       <c r="CK23" s="10">
         <v>615571.23603674502</v>
       </c>
-      <c r="CL23" s="9">
+      <c r="CL23" s="10">
         <v>543298.13431890507</v>
       </c>
-      <c r="CM23" s="9">
+      <c r="CM23" s="10">
         <v>520789.78550921683</v>
       </c>
-      <c r="CN23" s="9">
+      <c r="CN23" s="10">
         <v>544949.61527437216</v>
       </c>
-      <c r="CO23" s="9">
+      <c r="CO23" s="10">
         <v>686014.65602713195</v>
       </c>
-      <c r="CP23" s="9">
+      <c r="CP23" s="10">
         <v>623919.99372991757</v>
       </c>
-      <c r="CQ23" s="9">
+      <c r="CQ23" s="10">
         <v>580343.77860546042</v>
       </c>
-      <c r="CR23" s="9">
-        <v>600382.14547598758</v>
-      </c>
-      <c r="CS23" s="11"/>
+      <c r="CR23" s="10">
+        <v>601592.62694829493</v>
+      </c>
+      <c r="CS23" s="10">
+        <v>776015.12275687535</v>
+      </c>
       <c r="CT23" s="11"/>
       <c r="CU23" s="11"/>
       <c r="CV23" s="11"/>
@@ -5465,13 +5497,13 @@
       <c r="CI24" s="11"/>
       <c r="CJ24" s="11"/>
       <c r="CK24" s="11"/>
-      <c r="CL24" s="13"/>
-      <c r="CM24" s="13"/>
-      <c r="CN24" s="13"/>
-      <c r="CO24" s="13"/>
-      <c r="CP24" s="13"/>
-      <c r="CQ24" s="13"/>
-      <c r="CR24" s="13"/>
+      <c r="CL24" s="11"/>
+      <c r="CM24" s="11"/>
+      <c r="CN24" s="11"/>
+      <c r="CO24" s="11"/>
+      <c r="CP24" s="11"/>
+      <c r="CQ24" s="11"/>
+      <c r="CR24" s="11"/>
       <c r="CS24" s="11"/>
       <c r="CT24" s="11"/>
       <c r="CU24" s="11"/>
@@ -5798,28 +5830,30 @@
       <c r="CK25" s="30">
         <v>4232430.2197240982</v>
       </c>
-      <c r="CL25" s="34">
+      <c r="CL25" s="30">
         <v>3852962.0714052701</v>
       </c>
-      <c r="CM25" s="34">
+      <c r="CM25" s="30">
         <v>3877423.6981095998</v>
       </c>
-      <c r="CN25" s="34">
+      <c r="CN25" s="30">
         <v>4130910.5601173565</v>
       </c>
-      <c r="CO25" s="34">
+      <c r="CO25" s="30">
         <v>4863462.9003062602</v>
       </c>
-      <c r="CP25" s="34">
+      <c r="CP25" s="30">
         <v>4419477.8037074124</v>
       </c>
-      <c r="CQ25" s="34">
+      <c r="CQ25" s="30">
         <v>4327166.7867095843</v>
       </c>
-      <c r="CR25" s="34">
-        <v>4531144.7420702763</v>
-      </c>
-      <c r="CS25" s="11"/>
+      <c r="CR25" s="30">
+        <v>4535008.0750114648</v>
+      </c>
+      <c r="CS25" s="30">
+        <v>5330110.7194304056</v>
+      </c>
       <c r="CT25" s="11"/>
       <c r="CU25" s="11"/>
       <c r="CV25" s="11"/>
@@ -5967,13 +6001,14 @@
       <c r="CI26" s="16"/>
       <c r="CJ26" s="16"/>
       <c r="CK26" s="16"/>
-      <c r="CL26" s="17"/>
-      <c r="CM26" s="17"/>
-      <c r="CN26" s="17"/>
-      <c r="CO26" s="17"/>
-      <c r="CP26" s="17"/>
-      <c r="CQ26" s="17"/>
-      <c r="CR26" s="17"/>
+      <c r="CL26" s="16"/>
+      <c r="CM26" s="16"/>
+      <c r="CN26" s="16"/>
+      <c r="CO26" s="16"/>
+      <c r="CP26" s="16"/>
+      <c r="CQ26" s="16"/>
+      <c r="CR26" s="16"/>
+      <c r="CS26" s="16"/>
     </row>
     <row r="27" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
@@ -6069,14 +6104,14 @@
       <c r="CI28" s="31"/>
       <c r="CJ28" s="31"/>
       <c r="CK28" s="31"/>
-      <c r="CL28" s="35"/>
-      <c r="CM28" s="35"/>
-      <c r="CN28" s="35"/>
-      <c r="CO28" s="35"/>
-      <c r="CP28" s="35"/>
-      <c r="CQ28" s="35"/>
-      <c r="CR28" s="35"/>
-      <c r="CS28" s="11"/>
+      <c r="CL28" s="31"/>
+      <c r="CM28" s="31"/>
+      <c r="CN28" s="31"/>
+      <c r="CO28" s="31"/>
+      <c r="CP28" s="31"/>
+      <c r="CQ28" s="31"/>
+      <c r="CR28" s="31"/>
+      <c r="CS28" s="31"/>
       <c r="CT28" s="11"/>
       <c r="CU28" s="11"/>
       <c r="CV28" s="11"/>
@@ -6223,14 +6258,14 @@
       <c r="CI29" s="32"/>
       <c r="CJ29" s="32"/>
       <c r="CK29" s="32"/>
-      <c r="CL29" s="36"/>
-      <c r="CM29" s="36"/>
-      <c r="CN29" s="36"/>
-      <c r="CO29" s="36"/>
-      <c r="CP29" s="36"/>
-      <c r="CQ29" s="36"/>
-      <c r="CR29" s="36"/>
-      <c r="CS29" s="11"/>
+      <c r="CL29" s="32"/>
+      <c r="CM29" s="32"/>
+      <c r="CN29" s="32"/>
+      <c r="CO29" s="32"/>
+      <c r="CP29" s="32"/>
+      <c r="CQ29" s="32"/>
+      <c r="CR29" s="32"/>
+      <c r="CS29" s="32"/>
       <c r="CT29" s="11"/>
       <c r="CU29" s="11"/>
       <c r="CV29" s="11"/>
@@ -6300,7 +6335,7 @@
     </row>
     <row r="32" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:153" x14ac:dyDescent="0.2">
@@ -6310,7 +6345,7 @@
     </row>
     <row r="35" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:153" x14ac:dyDescent="0.2">
@@ -6320,149 +6355,150 @@
     </row>
     <row r="38" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
-      <c r="B38" s="38">
+      <c r="B38" s="37">
         <v>2000</v>
       </c>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38">
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37">
         <v>2001</v>
       </c>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38">
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37">
         <v>2002</v>
       </c>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="38">
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37">
         <v>2003</v>
       </c>
-      <c r="O38" s="38"/>
-      <c r="P38" s="38"/>
-      <c r="Q38" s="38"/>
-      <c r="R38" s="38">
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37">
         <v>2004</v>
       </c>
-      <c r="S38" s="38"/>
-      <c r="T38" s="38"/>
-      <c r="U38" s="38"/>
-      <c r="V38" s="38">
+      <c r="S38" s="37"/>
+      <c r="T38" s="37"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37">
         <v>2005</v>
       </c>
-      <c r="W38" s="38"/>
-      <c r="X38" s="38"/>
-      <c r="Y38" s="38"/>
-      <c r="Z38" s="38">
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
+      <c r="Y38" s="37"/>
+      <c r="Z38" s="37">
         <v>2006</v>
       </c>
-      <c r="AA38" s="38"/>
-      <c r="AB38" s="38"/>
-      <c r="AC38" s="38"/>
-      <c r="AD38" s="38">
+      <c r="AA38" s="37"/>
+      <c r="AB38" s="37"/>
+      <c r="AC38" s="37"/>
+      <c r="AD38" s="37">
         <v>2007</v>
       </c>
-      <c r="AE38" s="38"/>
-      <c r="AF38" s="38"/>
-      <c r="AG38" s="38"/>
-      <c r="AH38" s="38">
+      <c r="AE38" s="37"/>
+      <c r="AF38" s="37"/>
+      <c r="AG38" s="37"/>
+      <c r="AH38" s="37">
         <v>2008</v>
       </c>
-      <c r="AI38" s="38"/>
-      <c r="AJ38" s="38"/>
-      <c r="AK38" s="38"/>
-      <c r="AL38" s="38">
+      <c r="AI38" s="37"/>
+      <c r="AJ38" s="37"/>
+      <c r="AK38" s="37"/>
+      <c r="AL38" s="37">
         <v>2009</v>
       </c>
-      <c r="AM38" s="38"/>
-      <c r="AN38" s="38"/>
-      <c r="AO38" s="38"/>
-      <c r="AP38" s="38">
+      <c r="AM38" s="37"/>
+      <c r="AN38" s="37"/>
+      <c r="AO38" s="37"/>
+      <c r="AP38" s="37">
         <v>2010</v>
       </c>
-      <c r="AQ38" s="38"/>
-      <c r="AR38" s="38"/>
-      <c r="AS38" s="38"/>
-      <c r="AT38" s="38">
+      <c r="AQ38" s="37"/>
+      <c r="AR38" s="37"/>
+      <c r="AS38" s="37"/>
+      <c r="AT38" s="37">
         <v>2011</v>
       </c>
-      <c r="AU38" s="38"/>
-      <c r="AV38" s="38"/>
-      <c r="AW38" s="38"/>
-      <c r="AX38" s="38">
+      <c r="AU38" s="37"/>
+      <c r="AV38" s="37"/>
+      <c r="AW38" s="37"/>
+      <c r="AX38" s="37">
         <v>2012</v>
       </c>
-      <c r="AY38" s="38"/>
-      <c r="AZ38" s="38"/>
-      <c r="BA38" s="38"/>
-      <c r="BB38" s="38">
+      <c r="AY38" s="37"/>
+      <c r="AZ38" s="37"/>
+      <c r="BA38" s="37"/>
+      <c r="BB38" s="37">
         <v>2013</v>
       </c>
-      <c r="BC38" s="38"/>
-      <c r="BD38" s="38"/>
-      <c r="BE38" s="38"/>
-      <c r="BF38" s="38">
+      <c r="BC38" s="37"/>
+      <c r="BD38" s="37"/>
+      <c r="BE38" s="37"/>
+      <c r="BF38" s="37">
         <v>2014</v>
       </c>
-      <c r="BG38" s="38"/>
-      <c r="BH38" s="38"/>
-      <c r="BI38" s="38"/>
-      <c r="BJ38" s="38">
+      <c r="BG38" s="37"/>
+      <c r="BH38" s="37"/>
+      <c r="BI38" s="37"/>
+      <c r="BJ38" s="37">
         <v>2015</v>
       </c>
-      <c r="BK38" s="38"/>
-      <c r="BL38" s="38"/>
-      <c r="BM38" s="38"/>
-      <c r="BN38" s="38">
+      <c r="BK38" s="37"/>
+      <c r="BL38" s="37"/>
+      <c r="BM38" s="37"/>
+      <c r="BN38" s="37">
         <v>2016</v>
       </c>
-      <c r="BO38" s="38"/>
-      <c r="BP38" s="38"/>
-      <c r="BQ38" s="38"/>
-      <c r="BR38" s="39">
+      <c r="BO38" s="37"/>
+      <c r="BP38" s="37"/>
+      <c r="BQ38" s="37"/>
+      <c r="BR38" s="38">
         <v>2017</v>
       </c>
-      <c r="BS38" s="39"/>
-      <c r="BT38" s="39"/>
-      <c r="BU38" s="39"/>
-      <c r="BV38" s="39">
+      <c r="BS38" s="38"/>
+      <c r="BT38" s="38"/>
+      <c r="BU38" s="38"/>
+      <c r="BV38" s="38">
         <v>2018</v>
       </c>
-      <c r="BW38" s="39"/>
-      <c r="BX38" s="39"/>
-      <c r="BY38" s="39"/>
-      <c r="BZ38" s="39">
+      <c r="BW38" s="38"/>
+      <c r="BX38" s="38"/>
+      <c r="BY38" s="38"/>
+      <c r="BZ38" s="38">
         <v>2019</v>
       </c>
-      <c r="CA38" s="39"/>
-      <c r="CB38" s="39"/>
-      <c r="CC38" s="39"/>
-      <c r="CD38" s="39">
+      <c r="CA38" s="38"/>
+      <c r="CB38" s="38"/>
+      <c r="CC38" s="38"/>
+      <c r="CD38" s="38">
         <v>2020</v>
       </c>
-      <c r="CE38" s="39"/>
-      <c r="CF38" s="39"/>
-      <c r="CG38" s="39"/>
-      <c r="CH38" s="39">
+      <c r="CE38" s="38"/>
+      <c r="CF38" s="38"/>
+      <c r="CG38" s="38"/>
+      <c r="CH38" s="38">
         <v>2021</v>
       </c>
-      <c r="CI38" s="39"/>
-      <c r="CJ38" s="39"/>
-      <c r="CK38" s="39"/>
-      <c r="CL38" s="38">
+      <c r="CI38" s="38"/>
+      <c r="CJ38" s="38"/>
+      <c r="CK38" s="38"/>
+      <c r="CL38" s="34">
         <v>2022</v>
       </c>
-      <c r="CM38" s="38"/>
-      <c r="CN38" s="38"/>
-      <c r="CO38" s="38"/>
-      <c r="CP38" s="38">
+      <c r="CM38" s="34"/>
+      <c r="CN38" s="34"/>
+      <c r="CO38" s="34"/>
+      <c r="CP38" s="34">
         <v>2023</v>
       </c>
-      <c r="CQ38" s="38"/>
-      <c r="CR38" s="38"/>
+      <c r="CQ38" s="34"/>
+      <c r="CR38" s="34"/>
+      <c r="CS38" s="34"/>
     </row>
     <row r="39" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
@@ -6732,26 +6768,29 @@
       <c r="CK39" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CL39" s="6" t="s">
+      <c r="CL39" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="CM39" s="6" t="s">
+      <c r="CM39" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="CN39" s="6" t="s">
+      <c r="CN39" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="CO39" s="6" t="s">
+      <c r="CO39" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CP39" s="6" t="s">
+      <c r="CP39" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="CQ39" s="6" t="s">
+      <c r="CQ39" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="CR39" s="6" t="s">
+      <c r="CR39" s="7" t="s">
         <v>21</v>
+      </c>
+      <c r="CS39" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -7025,28 +7064,30 @@
       <c r="CK41" s="10">
         <v>1552717.6013816134</v>
       </c>
-      <c r="CL41" s="9">
+      <c r="CL41" s="10">
         <v>1256130.3984112311</v>
       </c>
-      <c r="CM41" s="9">
+      <c r="CM41" s="10">
         <v>1357560.021305945</v>
       </c>
-      <c r="CN41" s="9">
+      <c r="CN41" s="10">
         <v>1226974.6790054482</v>
       </c>
-      <c r="CO41" s="9">
+      <c r="CO41" s="10">
         <v>1614493.9242003553</v>
       </c>
-      <c r="CP41" s="9">
+      <c r="CP41" s="10">
         <v>1264231.5209391005</v>
       </c>
-      <c r="CQ41" s="9">
+      <c r="CQ41" s="10">
         <v>1362977.486246604</v>
       </c>
-      <c r="CR41" s="9">
-        <v>1230318.4729515621</v>
-      </c>
-      <c r="CS41" s="11"/>
+      <c r="CR41" s="10">
+        <v>1230545.4496856767</v>
+      </c>
+      <c r="CS41" s="10">
+        <v>1621911.6837021308</v>
+      </c>
       <c r="CT41" s="11"/>
       <c r="CU41" s="11"/>
       <c r="CV41" s="11"/>
@@ -7372,28 +7413,30 @@
       <c r="CK42" s="10">
         <v>66587.278763515598</v>
       </c>
-      <c r="CL42" s="9">
+      <c r="CL42" s="10">
         <v>50553.163122281469</v>
       </c>
-      <c r="CM42" s="9">
+      <c r="CM42" s="10">
         <v>48415.945282654473</v>
       </c>
-      <c r="CN42" s="9">
+      <c r="CN42" s="10">
         <v>44125.969627123763</v>
       </c>
-      <c r="CO42" s="9">
+      <c r="CO42" s="10">
         <v>69193.996625832791</v>
       </c>
-      <c r="CP42" s="9">
+      <c r="CP42" s="10">
         <v>50414.862948481554</v>
       </c>
-      <c r="CQ42" s="9">
+      <c r="CQ42" s="10">
         <v>44426.916084778</v>
       </c>
-      <c r="CR42" s="9">
-        <v>44466.313545983001</v>
-      </c>
-      <c r="CS42" s="11"/>
+      <c r="CR42" s="10">
+        <v>44516.34814060777</v>
+      </c>
+      <c r="CS42" s="10">
+        <v>69777.247477139434</v>
+      </c>
       <c r="CT42" s="11"/>
       <c r="CU42" s="11"/>
       <c r="CV42" s="11"/>
@@ -7719,28 +7762,30 @@
       <c r="CK43" s="10">
         <v>73008.364732741946</v>
       </c>
-      <c r="CL43" s="9">
+      <c r="CL43" s="10">
         <v>54666.787825052692</v>
       </c>
-      <c r="CM43" s="9">
+      <c r="CM43" s="10">
         <v>56122.776024412691</v>
       </c>
-      <c r="CN43" s="9">
+      <c r="CN43" s="10">
         <v>65214.786186252197</v>
       </c>
-      <c r="CO43" s="9">
+      <c r="CO43" s="10">
         <v>80450.489963046188</v>
       </c>
-      <c r="CP43" s="9">
+      <c r="CP43" s="10">
         <v>53375.400374197467</v>
       </c>
-      <c r="CQ43" s="9">
+      <c r="CQ43" s="10">
         <v>41299.354030168775</v>
       </c>
-      <c r="CR43" s="9">
-        <v>57792.321060169386</v>
-      </c>
-      <c r="CS43" s="11"/>
+      <c r="CR43" s="10">
+        <v>58190.184561804075</v>
+      </c>
+      <c r="CS43" s="10">
+        <v>79345.080221588054</v>
+      </c>
       <c r="CT43" s="11"/>
       <c r="CU43" s="11"/>
       <c r="CV43" s="11"/>
@@ -8066,28 +8111,30 @@
       <c r="CK44" s="10">
         <v>443647.66219302185</v>
       </c>
-      <c r="CL44" s="9">
+      <c r="CL44" s="10">
         <v>425402.36342409416</v>
       </c>
-      <c r="CM44" s="9">
+      <c r="CM44" s="10">
         <v>522106.83542596304</v>
       </c>
-      <c r="CN44" s="9">
+      <c r="CN44" s="10">
         <v>440401.12011746754</v>
       </c>
-      <c r="CO44" s="9">
+      <c r="CO44" s="10">
         <v>463595.72034765157</v>
       </c>
-      <c r="CP44" s="9">
+      <c r="CP44" s="10">
         <v>441893.53214785649</v>
       </c>
-      <c r="CQ44" s="9">
+      <c r="CQ44" s="10">
         <v>553935.64404324943</v>
       </c>
-      <c r="CR44" s="9">
-        <v>460183.90542270854</v>
-      </c>
-      <c r="CS44" s="11"/>
+      <c r="CR44" s="10">
+        <v>460107.94504736876</v>
+      </c>
+      <c r="CS44" s="10">
+        <v>484023.8083677268</v>
+      </c>
       <c r="CT44" s="11"/>
       <c r="CU44" s="11"/>
       <c r="CV44" s="11"/>
@@ -8413,28 +8460,30 @@
       <c r="CK45" s="10">
         <v>107527.8920243519</v>
       </c>
-      <c r="CL45" s="9">
+      <c r="CL45" s="10">
         <v>95901.664535614924</v>
       </c>
-      <c r="CM45" s="9">
+      <c r="CM45" s="10">
         <v>91624.817365404437</v>
       </c>
-      <c r="CN45" s="9">
+      <c r="CN45" s="10">
         <v>107969.94304481793</v>
       </c>
-      <c r="CO45" s="9">
+      <c r="CO45" s="10">
         <v>117589.60745430055</v>
       </c>
-      <c r="CP45" s="9">
+      <c r="CP45" s="10">
         <v>93246.607320490031</v>
       </c>
-      <c r="CQ45" s="9">
+      <c r="CQ45" s="10">
         <v>88713.283690152588</v>
       </c>
-      <c r="CR45" s="9">
-        <v>106739.43637363517</v>
-      </c>
-      <c r="CS45" s="11"/>
+      <c r="CR45" s="10">
+        <v>107206.39073578626</v>
+      </c>
+      <c r="CS45" s="10">
+        <v>118174.96465295256</v>
+      </c>
       <c r="CT45" s="11"/>
       <c r="CU45" s="11"/>
       <c r="CV45" s="11"/>
@@ -8760,28 +8809,30 @@
       <c r="CK46" s="10">
         <v>162064.53141225895</v>
       </c>
-      <c r="CL46" s="9">
+      <c r="CL46" s="10">
         <v>151544.92328277158</v>
       </c>
-      <c r="CM46" s="9">
+      <c r="CM46" s="10">
         <v>126790.00320397994</v>
       </c>
-      <c r="CN46" s="9">
+      <c r="CN46" s="10">
         <v>191496.55092553853</v>
       </c>
-      <c r="CO46" s="9">
+      <c r="CO46" s="10">
         <v>170571.3236135242</v>
       </c>
-      <c r="CP46" s="9">
+      <c r="CP46" s="10">
         <v>163368.67540156987</v>
       </c>
-      <c r="CQ46" s="9">
+      <c r="CQ46" s="10">
         <v>137919.42666657519</v>
       </c>
-      <c r="CR46" s="9">
-        <v>202953.05235185212</v>
-      </c>
-      <c r="CS46" s="11"/>
+      <c r="CR46" s="10">
+        <v>202548.29989545452</v>
+      </c>
+      <c r="CS46" s="10">
+        <v>182562.64325206054</v>
+      </c>
       <c r="CT46" s="11"/>
       <c r="CU46" s="11"/>
       <c r="CV46" s="11"/>
@@ -9107,28 +9158,30 @@
       <c r="CK47" s="10">
         <v>275542.77234665689</v>
       </c>
-      <c r="CL47" s="9">
+      <c r="CL47" s="10">
         <v>312379.71815427073</v>
       </c>
-      <c r="CM47" s="9">
+      <c r="CM47" s="10">
         <v>237301.36504137018</v>
       </c>
-      <c r="CN47" s="9">
+      <c r="CN47" s="10">
         <v>325899.06290025474</v>
       </c>
-      <c r="CO47" s="9">
+      <c r="CO47" s="10">
         <v>297223.06230146147</v>
       </c>
-      <c r="CP47" s="9">
+      <c r="CP47" s="10">
         <v>357160.45426015649</v>
       </c>
-      <c r="CQ47" s="9">
+      <c r="CQ47" s="10">
         <v>309410.62627520744</v>
       </c>
-      <c r="CR47" s="9">
-        <v>373027.89662554848</v>
-      </c>
-      <c r="CS47" s="11"/>
+      <c r="CR47" s="10">
+        <v>373415.7966791424</v>
+      </c>
+      <c r="CS47" s="10">
+        <v>333544.27374328859</v>
+      </c>
       <c r="CT47" s="11"/>
       <c r="CU47" s="11"/>
       <c r="CV47" s="11"/>
@@ -9454,28 +9507,30 @@
       <c r="CK48" s="10">
         <v>122469.86916808529</v>
       </c>
-      <c r="CL48" s="9">
+      <c r="CL48" s="10">
         <v>115534.87863873252</v>
       </c>
-      <c r="CM48" s="9">
+      <c r="CM48" s="10">
         <v>124682.03688859146</v>
       </c>
-      <c r="CN48" s="9">
+      <c r="CN48" s="10">
         <v>96738.028950364052</v>
       </c>
-      <c r="CO48" s="9">
+      <c r="CO48" s="10">
         <v>129857.71281263117</v>
       </c>
-      <c r="CP48" s="9">
+      <c r="CP48" s="10">
         <v>121224.16136517162</v>
       </c>
-      <c r="CQ48" s="9">
+      <c r="CQ48" s="10">
         <v>130436.92768528895</v>
       </c>
-      <c r="CR48" s="9">
-        <v>102165.7037803749</v>
-      </c>
-      <c r="CS48" s="11"/>
+      <c r="CR48" s="10">
+        <v>101643.17802479593</v>
+      </c>
+      <c r="CS48" s="10">
+        <v>135645.00912528849</v>
+      </c>
       <c r="CT48" s="11"/>
       <c r="CU48" s="11"/>
       <c r="CV48" s="11"/>
@@ -9801,28 +9856,30 @@
       <c r="CK49" s="10">
         <v>68301.886170279118</v>
       </c>
-      <c r="CL49" s="9">
+      <c r="CL49" s="10">
         <v>54000.092414043815</v>
       </c>
-      <c r="CM49" s="9">
+      <c r="CM49" s="10">
         <v>40868.272276418429</v>
       </c>
-      <c r="CN49" s="9">
+      <c r="CN49" s="10">
         <v>51366.434298030894</v>
       </c>
-      <c r="CO49" s="9">
+      <c r="CO49" s="10">
         <v>78882.706678140559</v>
       </c>
-      <c r="CP49" s="9">
+      <c r="CP49" s="10">
         <v>70084.330215396738</v>
       </c>
-      <c r="CQ49" s="9">
+      <c r="CQ49" s="10">
         <v>48604.750176787289</v>
       </c>
-      <c r="CR49" s="9">
-        <v>59290.438910592726</v>
-      </c>
-      <c r="CS49" s="11"/>
+      <c r="CR49" s="10">
+        <v>59082.98145096768</v>
+      </c>
+      <c r="CS49" s="10">
+        <v>84611.883711519942</v>
+      </c>
       <c r="CT49" s="11"/>
       <c r="CU49" s="11"/>
       <c r="CV49" s="11"/>
@@ -10148,28 +10205,30 @@
       <c r="CK50" s="10">
         <v>195091.73159078564</v>
       </c>
-      <c r="CL50" s="9">
+      <c r="CL50" s="10">
         <v>197349.99014082184</v>
       </c>
-      <c r="CM50" s="9">
+      <c r="CM50" s="10">
         <v>175355.39181733728</v>
       </c>
-      <c r="CN50" s="9">
+      <c r="CN50" s="10">
         <v>202234.59980967609</v>
       </c>
-      <c r="CO50" s="9">
+      <c r="CO50" s="10">
         <v>215143.7332874873</v>
       </c>
-      <c r="CP50" s="9">
+      <c r="CP50" s="10">
         <v>210426.44791987777</v>
       </c>
-      <c r="CQ50" s="9">
+      <c r="CQ50" s="10">
         <v>187885.52729908534</v>
       </c>
-      <c r="CR50" s="9">
-        <v>215311.84131905285</v>
-      </c>
-      <c r="CS50" s="11"/>
+      <c r="CR50" s="10">
+        <v>215634.26739621322</v>
+      </c>
+      <c r="CS50" s="10">
+        <v>231880.49862407261</v>
+      </c>
       <c r="CT50" s="11"/>
       <c r="CU50" s="11"/>
       <c r="CV50" s="11"/>
@@ -10495,28 +10554,30 @@
       <c r="CK51" s="10">
         <v>256717.01377768896</v>
       </c>
-      <c r="CL51" s="9">
+      <c r="CL51" s="10">
         <v>283206.38799083594</v>
       </c>
-      <c r="CM51" s="9">
+      <c r="CM51" s="10">
         <v>168176.42483408889</v>
       </c>
-      <c r="CN51" s="9">
+      <c r="CN51" s="10">
         <v>244297.19978579981</v>
       </c>
-      <c r="CO51" s="9">
+      <c r="CO51" s="10">
         <v>320329.20075240469</v>
       </c>
-      <c r="CP51" s="9">
+      <c r="CP51" s="10">
         <v>351252.62070951628</v>
       </c>
-      <c r="CQ51" s="9">
+      <c r="CQ51" s="10">
         <v>206680.95755607035</v>
       </c>
-      <c r="CR51" s="9">
-        <v>280601.75462560501</v>
-      </c>
-      <c r="CS51" s="11"/>
+      <c r="CR51" s="10">
+        <v>281947.39319148543</v>
+      </c>
+      <c r="CS51" s="10">
+        <v>372223.12869918242</v>
+      </c>
       <c r="CT51" s="11"/>
       <c r="CU51" s="11"/>
       <c r="CV51" s="11"/>
@@ -10842,28 +10903,30 @@
       <c r="CK52" s="10">
         <v>598947.12783746119</v>
       </c>
-      <c r="CL52" s="9">
+      <c r="CL52" s="10">
         <v>475086.18485529569</v>
       </c>
-      <c r="CM52" s="9">
+      <c r="CM52" s="10">
         <v>447877.62728546589</v>
       </c>
-      <c r="CN52" s="9">
+      <c r="CN52" s="10">
         <v>508788.30282834289</v>
       </c>
-      <c r="CO52" s="9">
+      <c r="CO52" s="10">
         <v>638740.87639105879</v>
       </c>
-      <c r="CP52" s="9">
+      <c r="CP52" s="10">
         <v>518312.68529937207</v>
       </c>
-      <c r="CQ52" s="9">
+      <c r="CQ52" s="10">
         <v>472157.9585331264</v>
       </c>
-      <c r="CR52" s="9">
-        <v>549599.79438744893</v>
-      </c>
-      <c r="CS52" s="11"/>
+      <c r="CR52" s="10">
+        <v>550707.88924553711</v>
+      </c>
+      <c r="CS52" s="10">
+        <v>705273.74064753437</v>
+      </c>
       <c r="CT52" s="11"/>
       <c r="CU52" s="11"/>
       <c r="CV52" s="11"/>
@@ -11010,13 +11073,13 @@
       <c r="CI53" s="11"/>
       <c r="CJ53" s="11"/>
       <c r="CK53" s="11"/>
-      <c r="CL53" s="13"/>
-      <c r="CM53" s="13"/>
-      <c r="CN53" s="13"/>
-      <c r="CO53" s="13"/>
-      <c r="CP53" s="13"/>
-      <c r="CQ53" s="13"/>
-      <c r="CR53" s="13"/>
+      <c r="CL53" s="11"/>
+      <c r="CM53" s="11"/>
+      <c r="CN53" s="11"/>
+      <c r="CO53" s="11"/>
+      <c r="CP53" s="11"/>
+      <c r="CQ53" s="11"/>
+      <c r="CR53" s="11"/>
       <c r="CS53" s="11"/>
       <c r="CT53" s="11"/>
       <c r="CU53" s="11"/>
@@ -11343,28 +11406,30 @@
       <c r="CK54" s="30">
         <v>3922623.7313984605</v>
       </c>
-      <c r="CL54" s="34">
+      <c r="CL54" s="30">
         <v>3471756.5527950469</v>
       </c>
-      <c r="CM54" s="34">
+      <c r="CM54" s="30">
         <v>3396881.5167516316</v>
       </c>
-      <c r="CN54" s="34">
+      <c r="CN54" s="30">
         <v>3505506.6774791162</v>
       </c>
-      <c r="CO54" s="34">
+      <c r="CO54" s="30">
         <v>4196072.3544278946</v>
       </c>
-      <c r="CP54" s="34">
+      <c r="CP54" s="30">
         <v>3694991.2989011863</v>
       </c>
-      <c r="CQ54" s="34">
+      <c r="CQ54" s="30">
         <v>3584448.8582870937</v>
       </c>
-      <c r="CR54" s="34">
-        <v>3682450.9313545339</v>
-      </c>
-      <c r="CS54" s="11"/>
+      <c r="CR54" s="30">
+        <v>3685546.1240548398</v>
+      </c>
+      <c r="CS54" s="30">
+        <v>4418973.9622244854</v>
+      </c>
       <c r="CT54" s="11"/>
       <c r="CU54" s="11"/>
       <c r="CV54" s="11"/>
@@ -11512,13 +11577,14 @@
       <c r="CI55" s="16"/>
       <c r="CJ55" s="16"/>
       <c r="CK55" s="16"/>
-      <c r="CL55" s="17"/>
-      <c r="CM55" s="17"/>
-      <c r="CN55" s="17"/>
-      <c r="CO55" s="17"/>
-      <c r="CP55" s="17"/>
-      <c r="CQ55" s="17"/>
-      <c r="CR55" s="17"/>
+      <c r="CL55" s="16"/>
+      <c r="CM55" s="16"/>
+      <c r="CN55" s="16"/>
+      <c r="CO55" s="16"/>
+      <c r="CP55" s="16"/>
+      <c r="CQ55" s="16"/>
+      <c r="CR55" s="16"/>
+      <c r="CS55" s="16"/>
     </row>
     <row r="56" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A56" s="18" t="s">
@@ -11614,13 +11680,13 @@
       <c r="CI57" s="11"/>
       <c r="CJ57" s="11"/>
       <c r="CK57" s="11"/>
-      <c r="CL57" s="35"/>
-      <c r="CM57" s="35"/>
-      <c r="CN57" s="35"/>
-      <c r="CO57" s="35"/>
-      <c r="CP57" s="35"/>
-      <c r="CQ57" s="35"/>
-      <c r="CR57" s="35"/>
+      <c r="CL57" s="11"/>
+      <c r="CM57" s="11"/>
+      <c r="CN57" s="11"/>
+      <c r="CO57" s="11"/>
+      <c r="CP57" s="11"/>
+      <c r="CQ57" s="11"/>
+      <c r="CR57" s="11"/>
       <c r="CS57" s="11"/>
       <c r="CT57" s="11"/>
       <c r="CU57" s="11"/>
@@ -11768,14 +11834,14 @@
       <c r="CI58" s="32"/>
       <c r="CJ58" s="32"/>
       <c r="CK58" s="32"/>
-      <c r="CL58" s="36"/>
-      <c r="CM58" s="36"/>
-      <c r="CN58" s="36"/>
-      <c r="CO58" s="36"/>
-      <c r="CP58" s="36"/>
-      <c r="CQ58" s="36"/>
-      <c r="CR58" s="36"/>
-      <c r="CS58" s="11"/>
+      <c r="CL58" s="32"/>
+      <c r="CM58" s="32"/>
+      <c r="CN58" s="32"/>
+      <c r="CO58" s="32"/>
+      <c r="CP58" s="32"/>
+      <c r="CQ58" s="32"/>
+      <c r="CR58" s="32"/>
+      <c r="CS58" s="32"/>
       <c r="CT58" s="11"/>
       <c r="CU58" s="11"/>
       <c r="CV58" s="11"/>
@@ -11845,7 +11911,7 @@
     </row>
     <row r="61" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:153" x14ac:dyDescent="0.2">
@@ -11855,7 +11921,7 @@
     </row>
     <row r="64" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:149" x14ac:dyDescent="0.2">
@@ -11863,149 +11929,156 @@
         <v>30</v>
       </c>
     </row>
+    <row r="66" spans="1:149" x14ac:dyDescent="0.2">
+      <c r="CP66" s="8"/>
+      <c r="CQ66" s="8"/>
+      <c r="CR66" s="8"/>
+      <c r="CS66" s="8"/>
+    </row>
     <row r="67" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
-      <c r="B67" s="38" t="s">
+      <c r="B67" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C67" s="38"/>
-      <c r="D67" s="38"/>
-      <c r="E67" s="38"/>
-      <c r="F67" s="38" t="s">
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="G67" s="38"/>
-      <c r="H67" s="38"/>
-      <c r="I67" s="38"/>
-      <c r="J67" s="38" t="s">
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="K67" s="38"/>
-      <c r="L67" s="38"/>
-      <c r="M67" s="38"/>
-      <c r="N67" s="38" t="s">
+      <c r="K67" s="37"/>
+      <c r="L67" s="37"/>
+      <c r="M67" s="37"/>
+      <c r="N67" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="O67" s="38"/>
-      <c r="P67" s="38"/>
-      <c r="Q67" s="38"/>
-      <c r="R67" s="38" t="s">
+      <c r="O67" s="37"/>
+      <c r="P67" s="37"/>
+      <c r="Q67" s="37"/>
+      <c r="R67" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="S67" s="38"/>
-      <c r="T67" s="38"/>
-      <c r="U67" s="38"/>
-      <c r="V67" s="38" t="s">
+      <c r="S67" s="37"/>
+      <c r="T67" s="37"/>
+      <c r="U67" s="37"/>
+      <c r="V67" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="W67" s="38"/>
-      <c r="X67" s="38"/>
-      <c r="Y67" s="38"/>
-      <c r="Z67" s="38" t="s">
+      <c r="W67" s="37"/>
+      <c r="X67" s="37"/>
+      <c r="Y67" s="37"/>
+      <c r="Z67" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="AA67" s="38"/>
-      <c r="AB67" s="38"/>
-      <c r="AC67" s="38"/>
-      <c r="AD67" s="38" t="s">
+      <c r="AA67" s="37"/>
+      <c r="AB67" s="37"/>
+      <c r="AC67" s="37"/>
+      <c r="AD67" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="AE67" s="38"/>
-      <c r="AF67" s="38"/>
-      <c r="AG67" s="38"/>
-      <c r="AH67" s="38" t="s">
+      <c r="AE67" s="37"/>
+      <c r="AF67" s="37"/>
+      <c r="AG67" s="37"/>
+      <c r="AH67" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="AI67" s="38"/>
-      <c r="AJ67" s="38"/>
-      <c r="AK67" s="38"/>
-      <c r="AL67" s="38" t="s">
+      <c r="AI67" s="37"/>
+      <c r="AJ67" s="37"/>
+      <c r="AK67" s="37"/>
+      <c r="AL67" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="AM67" s="38"/>
-      <c r="AN67" s="38"/>
-      <c r="AO67" s="38"/>
-      <c r="AP67" s="38" t="s">
+      <c r="AM67" s="37"/>
+      <c r="AN67" s="37"/>
+      <c r="AO67" s="37"/>
+      <c r="AP67" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="AQ67" s="38"/>
-      <c r="AR67" s="38"/>
-      <c r="AS67" s="38"/>
-      <c r="AT67" s="38" t="s">
+      <c r="AQ67" s="37"/>
+      <c r="AR67" s="37"/>
+      <c r="AS67" s="37"/>
+      <c r="AT67" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="AU67" s="38"/>
-      <c r="AV67" s="38"/>
-      <c r="AW67" s="38"/>
-      <c r="AX67" s="38" t="s">
+      <c r="AU67" s="37"/>
+      <c r="AV67" s="37"/>
+      <c r="AW67" s="37"/>
+      <c r="AX67" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="AY67" s="38"/>
-      <c r="AZ67" s="38"/>
-      <c r="BA67" s="38"/>
-      <c r="BB67" s="38" t="s">
+      <c r="AY67" s="37"/>
+      <c r="AZ67" s="37"/>
+      <c r="BA67" s="37"/>
+      <c r="BB67" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="BC67" s="38"/>
-      <c r="BD67" s="38"/>
-      <c r="BE67" s="38"/>
-      <c r="BF67" s="38" t="s">
+      <c r="BC67" s="37"/>
+      <c r="BD67" s="37"/>
+      <c r="BE67" s="37"/>
+      <c r="BF67" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="BG67" s="38"/>
-      <c r="BH67" s="38"/>
-      <c r="BI67" s="38"/>
-      <c r="BJ67" s="38" t="s">
+      <c r="BG67" s="37"/>
+      <c r="BH67" s="37"/>
+      <c r="BI67" s="37"/>
+      <c r="BJ67" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="BK67" s="38"/>
-      <c r="BL67" s="38"/>
-      <c r="BM67" s="38"/>
-      <c r="BN67" s="38" t="s">
+      <c r="BK67" s="37"/>
+      <c r="BL67" s="37"/>
+      <c r="BM67" s="37"/>
+      <c r="BN67" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="BO67" s="38"/>
-      <c r="BP67" s="38"/>
-      <c r="BQ67" s="38"/>
-      <c r="BR67" s="39" t="s">
+      <c r="BO67" s="37"/>
+      <c r="BP67" s="37"/>
+      <c r="BQ67" s="37"/>
+      <c r="BR67" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="BS67" s="39"/>
-      <c r="BT67" s="39"/>
-      <c r="BU67" s="39"/>
-      <c r="BV67" s="39" t="s">
+      <c r="BS67" s="38"/>
+      <c r="BT67" s="38"/>
+      <c r="BU67" s="38"/>
+      <c r="BV67" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="BW67" s="39"/>
-      <c r="BX67" s="39"/>
-      <c r="BY67" s="39"/>
-      <c r="BZ67" s="39" t="s">
+      <c r="BW67" s="38"/>
+      <c r="BX67" s="38"/>
+      <c r="BY67" s="38"/>
+      <c r="BZ67" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="CA67" s="39"/>
-      <c r="CB67" s="39"/>
-      <c r="CC67" s="39"/>
-      <c r="CD67" s="39" t="s">
+      <c r="CA67" s="38"/>
+      <c r="CB67" s="38"/>
+      <c r="CC67" s="38"/>
+      <c r="CD67" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="CE67" s="39"/>
-      <c r="CF67" s="39"/>
-      <c r="CG67" s="39"/>
-      <c r="CH67" s="39" t="s">
+      <c r="CE67" s="38"/>
+      <c r="CF67" s="38"/>
+      <c r="CG67" s="38"/>
+      <c r="CH67" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="CI67" s="39"/>
-      <c r="CJ67" s="39"/>
-      <c r="CK67" s="39"/>
-      <c r="CL67" s="38" t="s">
+      <c r="CI67" s="38"/>
+      <c r="CJ67" s="38"/>
+      <c r="CK67" s="38"/>
+      <c r="CL67" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="CM67" s="38"/>
-      <c r="CN67" s="38"/>
-      <c r="CO67" s="37"/>
+      <c r="CM67" s="34"/>
+      <c r="CN67" s="34"/>
+      <c r="CO67" s="34"/>
       <c r="CP67" s="33"/>
       <c r="CQ67" s="33"/>
       <c r="CR67" s="33"/>
+      <c r="CS67" s="33"/>
     </row>
     <row r="68" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
@@ -12275,22 +12348,29 @@
       <c r="CK68" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CL68" s="6" t="s">
+      <c r="CL68" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="CM68" s="6" t="s">
+      <c r="CM68" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="CN68" s="6" t="s">
+      <c r="CN68" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="CO68" s="6"/>
-      <c r="CP68" s="6"/>
-      <c r="CQ68" s="6"/>
-      <c r="CR68" s="6"/>
+      <c r="CO68" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="CP68" s="7"/>
+      <c r="CQ68" s="7"/>
+      <c r="CR68" s="7"/>
+      <c r="CS68" s="7"/>
     </row>
     <row r="69" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8"/>
+      <c r="CP69" s="8"/>
+      <c r="CQ69" s="8"/>
+      <c r="CR69" s="8"/>
+      <c r="CS69" s="8"/>
     </row>
     <row r="70" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
@@ -12560,20 +12640,22 @@
       <c r="CK70" s="26">
         <v>14.230451250859005</v>
       </c>
-      <c r="CL70" s="25">
+      <c r="CL70" s="26">
         <v>10.952117957471913</v>
       </c>
-      <c r="CM70" s="25">
+      <c r="CM70" s="26">
         <v>7.7813427100843313</v>
       </c>
-      <c r="CN70" s="25">
-        <v>7.8958624891373006</v>
-      </c>
-      <c r="CO70" s="25"/>
-      <c r="CP70" s="25"/>
-      <c r="CQ70" s="25"/>
-      <c r="CR70" s="25"/>
-      <c r="CS70" s="11"/>
+      <c r="CN70" s="26">
+        <v>7.9157677827914767</v>
+      </c>
+      <c r="CO70" s="26">
+        <v>6.5166027895629668</v>
+      </c>
+      <c r="CP70" s="35"/>
+      <c r="CQ70" s="35"/>
+      <c r="CR70" s="35"/>
+      <c r="CS70" s="35"/>
       <c r="CT70" s="11"/>
       <c r="CU70" s="11"/>
       <c r="CV70" s="11"/>
@@ -12895,20 +12977,22 @@
       <c r="CK71" s="26">
         <v>14.879767765446744</v>
       </c>
-      <c r="CL71" s="25">
+      <c r="CL71" s="26">
         <v>11.100334376022715</v>
       </c>
-      <c r="CM71" s="25">
+      <c r="CM71" s="26">
         <v>2.9626376736327558</v>
       </c>
-      <c r="CN71" s="25">
-        <v>10.415276637795714</v>
-      </c>
-      <c r="CO71" s="25"/>
-      <c r="CP71" s="25"/>
-      <c r="CQ71" s="25"/>
-      <c r="CR71" s="25"/>
-      <c r="CS71" s="11"/>
+      <c r="CN71" s="26">
+        <v>10.539518635082956</v>
+      </c>
+      <c r="CO71" s="26">
+        <v>7.407740639617117</v>
+      </c>
+      <c r="CP71" s="35"/>
+      <c r="CQ71" s="35"/>
+      <c r="CR71" s="35"/>
+      <c r="CS71" s="35"/>
       <c r="CT71" s="11"/>
       <c r="CU71" s="11"/>
       <c r="CV71" s="11"/>
@@ -13230,20 +13314,22 @@
       <c r="CK72" s="26">
         <v>14.085116924879742</v>
       </c>
-      <c r="CL72" s="25">
+      <c r="CL72" s="26">
         <v>2.2412765422117076</v>
       </c>
-      <c r="CM72" s="25">
+      <c r="CM72" s="26">
         <v>-22.65089896599541</v>
       </c>
-      <c r="CN72" s="25">
-        <v>-7.273292921161854</v>
-      </c>
-      <c r="CO72" s="25"/>
-      <c r="CP72" s="25"/>
-      <c r="CQ72" s="25"/>
-      <c r="CR72" s="25"/>
-      <c r="CS72" s="11"/>
+      <c r="CN72" s="26">
+        <v>-6.6349283132578023</v>
+      </c>
+      <c r="CO72" s="26">
+        <v>2.9936125667069149</v>
+      </c>
+      <c r="CP72" s="35"/>
+      <c r="CQ72" s="35"/>
+      <c r="CR72" s="35"/>
+      <c r="CS72" s="35"/>
       <c r="CT72" s="11"/>
       <c r="CU72" s="11"/>
       <c r="CV72" s="11"/>
@@ -13565,20 +13651,22 @@
       <c r="CK73" s="26">
         <v>11.921201320286116</v>
       </c>
-      <c r="CL73" s="25">
+      <c r="CL73" s="26">
         <v>12.438210681495889</v>
       </c>
-      <c r="CM73" s="25">
+      <c r="CM73" s="26">
         <v>12.652021831424292</v>
       </c>
-      <c r="CN73" s="25">
-        <v>7.7449003474785201</v>
-      </c>
-      <c r="CO73" s="25"/>
-      <c r="CP73" s="25"/>
-      <c r="CQ73" s="25"/>
-      <c r="CR73" s="25"/>
-      <c r="CS73" s="11"/>
+      <c r="CN73" s="26">
+        <v>7.7271154076426996</v>
+      </c>
+      <c r="CO73" s="26">
+        <v>6.6951349252930612</v>
+      </c>
+      <c r="CP73" s="35"/>
+      <c r="CQ73" s="35"/>
+      <c r="CR73" s="35"/>
+      <c r="CS73" s="35"/>
       <c r="CT73" s="11"/>
       <c r="CU73" s="11"/>
       <c r="CV73" s="11"/>
@@ -13900,20 +13988,22 @@
       <c r="CK74" s="26">
         <v>14.127928224150992</v>
       </c>
-      <c r="CL74" s="25">
+      <c r="CL74" s="26">
         <v>2.9077274260176296</v>
       </c>
-      <c r="CM74" s="25">
+      <c r="CM74" s="26">
         <v>2.7466724905800959</v>
       </c>
-      <c r="CN74" s="25">
-        <v>2.5725159340193215</v>
-      </c>
-      <c r="CO74" s="25"/>
-      <c r="CP74" s="25"/>
-      <c r="CQ74" s="25"/>
-      <c r="CR74" s="25"/>
-      <c r="CS74" s="11"/>
+      <c r="CN74" s="26">
+        <v>3.0212412166275442</v>
+      </c>
+      <c r="CO74" s="26">
+        <v>5.3743340552968419</v>
+      </c>
+      <c r="CP74" s="35"/>
+      <c r="CQ74" s="35"/>
+      <c r="CR74" s="35"/>
+      <c r="CS74" s="35"/>
       <c r="CT74" s="11"/>
       <c r="CU74" s="11"/>
       <c r="CV74" s="11"/>
@@ -14235,20 +14325,22 @@
       <c r="CK75" s="26">
         <v>8.2225014081690233</v>
       </c>
-      <c r="CL75" s="25">
+      <c r="CL75" s="26">
         <v>11.839204282134361</v>
       </c>
-      <c r="CM75" s="25">
+      <c r="CM75" s="26">
         <v>13.17834038531997</v>
       </c>
-      <c r="CN75" s="25">
-        <v>10.171772051889576</v>
-      </c>
-      <c r="CO75" s="25"/>
-      <c r="CP75" s="25"/>
-      <c r="CQ75" s="25"/>
-      <c r="CR75" s="25"/>
-      <c r="CS75" s="11"/>
+      <c r="CN75" s="26">
+        <v>9.9520547584222498</v>
+      </c>
+      <c r="CO75" s="26">
+        <v>11.104218901198394</v>
+      </c>
+      <c r="CP75" s="35"/>
+      <c r="CQ75" s="35"/>
+      <c r="CR75" s="35"/>
+      <c r="CS75" s="35"/>
       <c r="CT75" s="11"/>
       <c r="CU75" s="11"/>
       <c r="CV75" s="11"/>
@@ -14570,20 +14662,22 @@
       <c r="CK76" s="26">
         <v>20.962940351693334</v>
       </c>
-      <c r="CL76" s="25">
+      <c r="CL76" s="26">
         <v>23.922080859450617</v>
       </c>
-      <c r="CM76" s="25">
+      <c r="CM76" s="26">
         <v>29.94487221615617</v>
       </c>
-      <c r="CN76" s="25">
-        <v>13.17706184343686</v>
-      </c>
-      <c r="CO76" s="25"/>
-      <c r="CP76" s="25"/>
-      <c r="CQ76" s="25"/>
-      <c r="CR76" s="25"/>
-      <c r="CS76" s="11"/>
+      <c r="CN76" s="26">
+        <v>13.294751133572547</v>
+      </c>
+      <c r="CO76" s="26">
+        <v>12.451032491176363</v>
+      </c>
+      <c r="CP76" s="35"/>
+      <c r="CQ76" s="35"/>
+      <c r="CR76" s="35"/>
+      <c r="CS76" s="35"/>
       <c r="CT76" s="11"/>
       <c r="CU76" s="11"/>
       <c r="CV76" s="11"/>
@@ -14905,20 +14999,22 @@
       <c r="CK77" s="26">
         <v>6.6924732388451673</v>
       </c>
-      <c r="CL77" s="25">
+      <c r="CL77" s="26">
         <v>5.6791499437760109</v>
       </c>
-      <c r="CM77" s="25">
+      <c r="CM77" s="26">
         <v>5.3336040609563327</v>
       </c>
-      <c r="CN77" s="25">
-        <v>6.3005091600585956</v>
-      </c>
-      <c r="CO77" s="25"/>
-      <c r="CP77" s="25"/>
-      <c r="CQ77" s="25"/>
-      <c r="CR77" s="25"/>
-      <c r="CS77" s="11"/>
+      <c r="CN77" s="26">
+        <v>5.7568359721687159</v>
+      </c>
+      <c r="CO77" s="26">
+        <v>5.1029081027188994</v>
+      </c>
+      <c r="CP77" s="35"/>
+      <c r="CQ77" s="35"/>
+      <c r="CR77" s="35"/>
+      <c r="CS77" s="35"/>
       <c r="CT77" s="11"/>
       <c r="CU77" s="11"/>
       <c r="CV77" s="11"/>
@@ -15240,20 +15336,22 @@
       <c r="CK78" s="26">
         <v>19.43592958964993</v>
       </c>
-      <c r="CL78" s="25">
+      <c r="CL78" s="26">
         <v>35.504800407539534</v>
       </c>
-      <c r="CM78" s="25">
+      <c r="CM78" s="26">
         <v>24.629098969531114</v>
       </c>
-      <c r="CN78" s="25">
-        <v>18.92217756200472</v>
-      </c>
-      <c r="CO78" s="25"/>
-      <c r="CP78" s="25"/>
-      <c r="CQ78" s="25"/>
-      <c r="CR78" s="25"/>
-      <c r="CS78" s="11"/>
+      <c r="CN78" s="26">
+        <v>18.506068433730348</v>
+      </c>
+      <c r="CO78" s="26">
+        <v>12.281629386313369</v>
+      </c>
+      <c r="CP78" s="35"/>
+      <c r="CQ78" s="35"/>
+      <c r="CR78" s="35"/>
+      <c r="CS78" s="35"/>
       <c r="CT78" s="11"/>
       <c r="CU78" s="11"/>
       <c r="CV78" s="11"/>
@@ -15575,20 +15673,22 @@
       <c r="CK79" s="26">
         <v>14.183716365607538</v>
       </c>
-      <c r="CL79" s="25">
+      <c r="CL79" s="26">
         <v>10.501527238117617</v>
       </c>
-      <c r="CM79" s="25">
+      <c r="CM79" s="26">
         <v>11.039952967946505</v>
       </c>
-      <c r="CN79" s="25">
-        <v>10.092963733138632</v>
-      </c>
-      <c r="CO79" s="25"/>
-      <c r="CP79" s="25"/>
-      <c r="CQ79" s="25"/>
-      <c r="CR79" s="25"/>
-      <c r="CS79" s="11"/>
+      <c r="CN79" s="26">
+        <v>10.257826205179072</v>
+      </c>
+      <c r="CO79" s="26">
+        <v>11.659785649815731</v>
+      </c>
+      <c r="CP79" s="35"/>
+      <c r="CQ79" s="35"/>
+      <c r="CR79" s="35"/>
+      <c r="CS79" s="35"/>
       <c r="CT79" s="11"/>
       <c r="CU79" s="11"/>
       <c r="CV79" s="11"/>
@@ -15910,20 +16010,22 @@
       <c r="CK80" s="26">
         <v>32.771002893752922</v>
       </c>
-      <c r="CL80" s="25">
+      <c r="CL80" s="26">
         <v>33.965627314186065</v>
       </c>
-      <c r="CM80" s="25">
+      <c r="CM80" s="26">
         <v>33.179143377476237</v>
       </c>
-      <c r="CN80" s="25">
-        <v>21.393013365145677</v>
-      </c>
-      <c r="CO80" s="25"/>
-      <c r="CP80" s="25"/>
-      <c r="CQ80" s="25"/>
-      <c r="CR80" s="25"/>
-      <c r="CS80" s="11"/>
+      <c r="CN80" s="26">
+        <v>21.975159120543836</v>
+      </c>
+      <c r="CO80" s="26">
+        <v>22.99667668504226</v>
+      </c>
+      <c r="CP80" s="35"/>
+      <c r="CQ80" s="35"/>
+      <c r="CR80" s="35"/>
+      <c r="CS80" s="35"/>
       <c r="CT80" s="11"/>
       <c r="CU80" s="11"/>
       <c r="CV80" s="11"/>
@@ -16245,20 +16347,22 @@
       <c r="CK81" s="26">
         <v>11.443585383216643</v>
       </c>
-      <c r="CL81" s="25">
+      <c r="CL81" s="26">
         <v>14.839340376547128</v>
       </c>
-      <c r="CM81" s="25">
+      <c r="CM81" s="26">
         <v>11.435322802656927</v>
       </c>
-      <c r="CN81" s="25">
-        <v>10.17204685495669</v>
-      </c>
-      <c r="CO81" s="25"/>
-      <c r="CP81" s="25"/>
-      <c r="CQ81" s="25"/>
-      <c r="CR81" s="25"/>
-      <c r="CS81" s="11"/>
+      <c r="CN81" s="26">
+        <v>10.394174082571666</v>
+      </c>
+      <c r="CO81" s="26">
+        <v>13.119321276743094</v>
+      </c>
+      <c r="CP81" s="35"/>
+      <c r="CQ81" s="35"/>
+      <c r="CR81" s="35"/>
+      <c r="CS81" s="35"/>
       <c r="CT81" s="11"/>
       <c r="CU81" s="11"/>
       <c r="CV81" s="11"/>
@@ -16401,14 +16505,14 @@
       <c r="CI82" s="11"/>
       <c r="CJ82" s="11"/>
       <c r="CK82" s="11"/>
-      <c r="CL82" s="13"/>
-      <c r="CM82" s="13"/>
-      <c r="CN82" s="13"/>
-      <c r="CO82" s="13"/>
-      <c r="CP82" s="13"/>
-      <c r="CQ82" s="13"/>
-      <c r="CR82" s="13"/>
-      <c r="CS82" s="11"/>
+      <c r="CL82" s="11"/>
+      <c r="CM82" s="11"/>
+      <c r="CN82" s="11"/>
+      <c r="CO82" s="11"/>
+      <c r="CP82" s="36"/>
+      <c r="CQ82" s="36"/>
+      <c r="CR82" s="36"/>
+      <c r="CS82" s="36"/>
       <c r="CT82" s="11"/>
       <c r="CU82" s="11"/>
       <c r="CV82" s="11"/>
@@ -16730,20 +16834,22 @@
       <c r="CK83" s="26">
         <v>14.90946448783501</v>
       </c>
-      <c r="CL83" s="25">
+      <c r="CL83" s="26">
         <v>14.703382016307259</v>
       </c>
-      <c r="CM83" s="25">
+      <c r="CM83" s="26">
         <v>11.59901841058155</v>
       </c>
-      <c r="CN83" s="25">
-        <v>9.688764162968198</v>
-      </c>
-      <c r="CO83" s="25"/>
-      <c r="CP83" s="25"/>
-      <c r="CQ83" s="25"/>
-      <c r="CR83" s="25"/>
-      <c r="CS83" s="11"/>
+      <c r="CN83" s="26">
+        <v>9.7822867141095458</v>
+      </c>
+      <c r="CO83" s="26">
+        <v>9.5949702648036919</v>
+      </c>
+      <c r="CP83" s="35"/>
+      <c r="CQ83" s="35"/>
+      <c r="CR83" s="35"/>
+      <c r="CS83" s="35"/>
       <c r="CT83" s="11"/>
       <c r="CU83" s="11"/>
       <c r="CV83" s="11"/>
@@ -16887,18 +16993,23 @@
       <c r="CI84" s="16"/>
       <c r="CJ84" s="16"/>
       <c r="CK84" s="16"/>
-      <c r="CL84" s="17"/>
-      <c r="CM84" s="17"/>
-      <c r="CN84" s="17"/>
-      <c r="CO84" s="17"/>
-      <c r="CP84" s="17"/>
-      <c r="CQ84" s="17"/>
-      <c r="CR84" s="17"/>
+      <c r="CL84" s="16"/>
+      <c r="CM84" s="16"/>
+      <c r="CN84" s="16"/>
+      <c r="CO84" s="16"/>
+      <c r="CP84" s="7"/>
+      <c r="CQ84" s="7"/>
+      <c r="CR84" s="7"/>
+      <c r="CS84" s="7"/>
     </row>
     <row r="85" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A85" s="18" t="s">
         <v>0</v>
       </c>
+      <c r="CP85" s="8"/>
+      <c r="CQ85" s="8"/>
+      <c r="CR85" s="8"/>
+      <c r="CS85" s="8"/>
     </row>
     <row r="86" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="13"/>
@@ -16989,14 +17100,14 @@
       <c r="CI86" s="11"/>
       <c r="CJ86" s="11"/>
       <c r="CK86" s="11"/>
-      <c r="CL86" s="35"/>
-      <c r="CM86" s="35"/>
-      <c r="CN86" s="35"/>
-      <c r="CO86" s="35"/>
-      <c r="CP86" s="35"/>
-      <c r="CQ86" s="35"/>
-      <c r="CR86" s="35"/>
-      <c r="CS86" s="11"/>
+      <c r="CL86" s="11"/>
+      <c r="CM86" s="11"/>
+      <c r="CN86" s="11"/>
+      <c r="CO86" s="11"/>
+      <c r="CP86" s="36"/>
+      <c r="CQ86" s="36"/>
+      <c r="CR86" s="36"/>
+      <c r="CS86" s="36"/>
       <c r="CT86" s="11"/>
       <c r="CU86" s="11"/>
       <c r="CV86" s="11"/>
@@ -17139,14 +17250,14 @@
       <c r="CI87" s="11"/>
       <c r="CJ87" s="11"/>
       <c r="CK87" s="11"/>
-      <c r="CL87" s="36"/>
-      <c r="CM87" s="36"/>
-      <c r="CN87" s="36"/>
-      <c r="CO87" s="36"/>
+      <c r="CL87" s="11"/>
+      <c r="CM87" s="11"/>
+      <c r="CN87" s="11"/>
+      <c r="CO87" s="11"/>
       <c r="CP87" s="36"/>
       <c r="CQ87" s="36"/>
       <c r="CR87" s="36"/>
-      <c r="CS87" s="11"/>
+      <c r="CS87" s="36"/>
       <c r="CT87" s="11"/>
       <c r="CU87" s="11"/>
       <c r="CV87" s="11"/>
@@ -17204,175 +17315,212 @@
       <c r="A88" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="CP88" s="8"/>
+      <c r="CQ88" s="8"/>
+      <c r="CR88" s="8"/>
+      <c r="CS88" s="8"/>
     </row>
     <row r="89" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="CP89" s="8"/>
+      <c r="CQ89" s="8"/>
+      <c r="CR89" s="8"/>
+      <c r="CS89" s="8"/>
     </row>
     <row r="90" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="CP90" s="8"/>
+      <c r="CQ90" s="8"/>
+      <c r="CR90" s="8"/>
+      <c r="CS90" s="8"/>
+    </row>
+    <row r="91" spans="1:149" x14ac:dyDescent="0.2">
+      <c r="CP91" s="8"/>
+      <c r="CQ91" s="8"/>
+      <c r="CR91" s="8"/>
+      <c r="CS91" s="8"/>
     </row>
     <row r="92" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="CP92" s="8"/>
+      <c r="CQ92" s="8"/>
+      <c r="CR92" s="8"/>
+      <c r="CS92" s="8"/>
     </row>
     <row r="93" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="CP93" s="8"/>
+      <c r="CQ93" s="8"/>
+      <c r="CR93" s="8"/>
+      <c r="CS93" s="8"/>
     </row>
     <row r="94" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="CP94" s="8"/>
+      <c r="CQ94" s="8"/>
+      <c r="CR94" s="8"/>
+      <c r="CS94" s="8"/>
+    </row>
+    <row r="95" spans="1:149" x14ac:dyDescent="0.2">
+      <c r="CP95" s="8"/>
+      <c r="CQ95" s="8"/>
+      <c r="CR95" s="8"/>
+      <c r="CS95" s="8"/>
     </row>
     <row r="96" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
-      <c r="B96" s="38" t="s">
+      <c r="B96" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C96" s="38"/>
-      <c r="D96" s="38"/>
-      <c r="E96" s="38"/>
-      <c r="F96" s="38" t="s">
+      <c r="C96" s="37"/>
+      <c r="D96" s="37"/>
+      <c r="E96" s="37"/>
+      <c r="F96" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="G96" s="38"/>
-      <c r="H96" s="38"/>
-      <c r="I96" s="38"/>
-      <c r="J96" s="38" t="s">
+      <c r="G96" s="37"/>
+      <c r="H96" s="37"/>
+      <c r="I96" s="37"/>
+      <c r="J96" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="K96" s="38"/>
-      <c r="L96" s="38"/>
-      <c r="M96" s="38"/>
-      <c r="N96" s="38" t="s">
+      <c r="K96" s="37"/>
+      <c r="L96" s="37"/>
+      <c r="M96" s="37"/>
+      <c r="N96" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="O96" s="38"/>
-      <c r="P96" s="38"/>
-      <c r="Q96" s="38"/>
-      <c r="R96" s="38" t="s">
+      <c r="O96" s="37"/>
+      <c r="P96" s="37"/>
+      <c r="Q96" s="37"/>
+      <c r="R96" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="S96" s="38"/>
-      <c r="T96" s="38"/>
-      <c r="U96" s="38"/>
-      <c r="V96" s="38" t="s">
+      <c r="S96" s="37"/>
+      <c r="T96" s="37"/>
+      <c r="U96" s="37"/>
+      <c r="V96" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="W96" s="38"/>
-      <c r="X96" s="38"/>
-      <c r="Y96" s="38"/>
-      <c r="Z96" s="38" t="s">
+      <c r="W96" s="37"/>
+      <c r="X96" s="37"/>
+      <c r="Y96" s="37"/>
+      <c r="Z96" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="AA96" s="38"/>
-      <c r="AB96" s="38"/>
-      <c r="AC96" s="38"/>
-      <c r="AD96" s="38" t="s">
+      <c r="AA96" s="37"/>
+      <c r="AB96" s="37"/>
+      <c r="AC96" s="37"/>
+      <c r="AD96" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="AE96" s="38"/>
-      <c r="AF96" s="38"/>
-      <c r="AG96" s="38"/>
-      <c r="AH96" s="38" t="s">
+      <c r="AE96" s="37"/>
+      <c r="AF96" s="37"/>
+      <c r="AG96" s="37"/>
+      <c r="AH96" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="AI96" s="38"/>
-      <c r="AJ96" s="38"/>
-      <c r="AK96" s="38"/>
-      <c r="AL96" s="38" t="s">
+      <c r="AI96" s="37"/>
+      <c r="AJ96" s="37"/>
+      <c r="AK96" s="37"/>
+      <c r="AL96" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="AM96" s="38"/>
-      <c r="AN96" s="38"/>
-      <c r="AO96" s="38"/>
-      <c r="AP96" s="38" t="s">
+      <c r="AM96" s="37"/>
+      <c r="AN96" s="37"/>
+      <c r="AO96" s="37"/>
+      <c r="AP96" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="AQ96" s="38"/>
-      <c r="AR96" s="38"/>
-      <c r="AS96" s="38"/>
-      <c r="AT96" s="38" t="s">
+      <c r="AQ96" s="37"/>
+      <c r="AR96" s="37"/>
+      <c r="AS96" s="37"/>
+      <c r="AT96" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="AU96" s="38"/>
-      <c r="AV96" s="38"/>
-      <c r="AW96" s="38"/>
-      <c r="AX96" s="38" t="s">
+      <c r="AU96" s="37"/>
+      <c r="AV96" s="37"/>
+      <c r="AW96" s="37"/>
+      <c r="AX96" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="AY96" s="38"/>
-      <c r="AZ96" s="38"/>
-      <c r="BA96" s="38"/>
-      <c r="BB96" s="38" t="s">
+      <c r="AY96" s="37"/>
+      <c r="AZ96" s="37"/>
+      <c r="BA96" s="37"/>
+      <c r="BB96" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="BC96" s="38"/>
-      <c r="BD96" s="38"/>
-      <c r="BE96" s="38"/>
-      <c r="BF96" s="38" t="s">
+      <c r="BC96" s="37"/>
+      <c r="BD96" s="37"/>
+      <c r="BE96" s="37"/>
+      <c r="BF96" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="BG96" s="38"/>
-      <c r="BH96" s="38"/>
-      <c r="BI96" s="38"/>
-      <c r="BJ96" s="38" t="s">
+      <c r="BG96" s="37"/>
+      <c r="BH96" s="37"/>
+      <c r="BI96" s="37"/>
+      <c r="BJ96" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="BK96" s="38"/>
-      <c r="BL96" s="38"/>
-      <c r="BM96" s="38"/>
-      <c r="BN96" s="38" t="s">
+      <c r="BK96" s="37"/>
+      <c r="BL96" s="37"/>
+      <c r="BM96" s="37"/>
+      <c r="BN96" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="BO96" s="38"/>
-      <c r="BP96" s="38"/>
-      <c r="BQ96" s="38"/>
-      <c r="BR96" s="39" t="s">
+      <c r="BO96" s="37"/>
+      <c r="BP96" s="37"/>
+      <c r="BQ96" s="37"/>
+      <c r="BR96" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="BS96" s="39"/>
-      <c r="BT96" s="39"/>
-      <c r="BU96" s="39"/>
-      <c r="BV96" s="39" t="s">
+      <c r="BS96" s="38"/>
+      <c r="BT96" s="38"/>
+      <c r="BU96" s="38"/>
+      <c r="BV96" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="BW96" s="39"/>
-      <c r="BX96" s="39"/>
-      <c r="BY96" s="39"/>
-      <c r="BZ96" s="39" t="s">
+      <c r="BW96" s="38"/>
+      <c r="BX96" s="38"/>
+      <c r="BY96" s="38"/>
+      <c r="BZ96" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="CA96" s="39"/>
-      <c r="CB96" s="39"/>
-      <c r="CC96" s="39"/>
-      <c r="CD96" s="39" t="s">
+      <c r="CA96" s="38"/>
+      <c r="CB96" s="38"/>
+      <c r="CC96" s="38"/>
+      <c r="CD96" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="CE96" s="39"/>
-      <c r="CF96" s="39"/>
-      <c r="CG96" s="39"/>
-      <c r="CH96" s="39" t="s">
+      <c r="CE96" s="38"/>
+      <c r="CF96" s="38"/>
+      <c r="CG96" s="38"/>
+      <c r="CH96" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="CI96" s="39"/>
-      <c r="CJ96" s="39"/>
-      <c r="CK96" s="39"/>
-      <c r="CL96" s="38" t="s">
+      <c r="CI96" s="38"/>
+      <c r="CJ96" s="38"/>
+      <c r="CK96" s="38"/>
+      <c r="CL96" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="CM96" s="38"/>
-      <c r="CN96" s="38"/>
-      <c r="CO96" s="37"/>
+      <c r="CM96" s="34"/>
+      <c r="CN96" s="34"/>
+      <c r="CO96" s="34"/>
       <c r="CP96" s="33"/>
       <c r="CQ96" s="33"/>
       <c r="CR96" s="33"/>
+      <c r="CS96" s="33"/>
     </row>
     <row r="97" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
@@ -17642,22 +17790,29 @@
       <c r="CK97" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CL97" s="6" t="s">
+      <c r="CL97" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="CM97" s="6" t="s">
+      <c r="CM97" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="CN97" s="6" t="s">
+      <c r="CN97" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="CO97" s="6"/>
-      <c r="CP97" s="6"/>
-      <c r="CQ97" s="6"/>
-      <c r="CR97" s="6"/>
+      <c r="CO97" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="CP97" s="7"/>
+      <c r="CQ97" s="7"/>
+      <c r="CR97" s="7"/>
+      <c r="CS97" s="7"/>
     </row>
     <row r="98" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8"/>
+      <c r="CP98" s="8"/>
+      <c r="CQ98" s="8"/>
+      <c r="CR98" s="8"/>
+      <c r="CS98" s="8"/>
     </row>
     <row r="99" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
@@ -17927,20 +18082,22 @@
       <c r="CK99" s="26">
         <v>3.9785935809430555</v>
       </c>
-      <c r="CL99" s="25">
+      <c r="CL99" s="26">
         <v>0.64492687527631176</v>
       </c>
-      <c r="CM99" s="25">
+      <c r="CM99" s="26">
         <v>0.39905896281825903</v>
       </c>
-      <c r="CN99" s="25">
-        <v>0.27252346795161486</v>
-      </c>
-      <c r="CO99" s="25"/>
-      <c r="CP99" s="25"/>
-      <c r="CQ99" s="25"/>
-      <c r="CR99" s="25"/>
-      <c r="CS99" s="11"/>
+      <c r="CN99" s="26">
+        <v>0.29102236104195356</v>
+      </c>
+      <c r="CO99" s="26">
+        <v>0.45944796636192109</v>
+      </c>
+      <c r="CP99" s="35"/>
+      <c r="CQ99" s="35"/>
+      <c r="CR99" s="35"/>
+      <c r="CS99" s="35"/>
       <c r="CT99" s="11"/>
       <c r="CU99" s="11"/>
       <c r="CV99" s="11"/>
@@ -18262,20 +18419,22 @@
       <c r="CK100" s="26">
         <v>3.9147385367330259</v>
       </c>
-      <c r="CL100" s="25">
+      <c r="CL100" s="26">
         <v>-0.27357372963069793</v>
       </c>
-      <c r="CM100" s="25">
+      <c r="CM100" s="26">
         <v>-8.2390815145471947</v>
       </c>
-      <c r="CN100" s="25">
-        <v>0.7713007141491488</v>
-      </c>
-      <c r="CO100" s="25"/>
-      <c r="CP100" s="25"/>
-      <c r="CQ100" s="25"/>
-      <c r="CR100" s="25"/>
-      <c r="CS100" s="11"/>
+      <c r="CN100" s="26">
+        <v>0.88469107145476755</v>
+      </c>
+      <c r="CO100" s="26">
+        <v>0.8429211777729364</v>
+      </c>
+      <c r="CP100" s="35"/>
+      <c r="CQ100" s="35"/>
+      <c r="CR100" s="35"/>
+      <c r="CS100" s="35"/>
       <c r="CT100" s="11"/>
       <c r="CU100" s="11"/>
       <c r="CV100" s="11"/>
@@ -18597,20 +18756,22 @@
       <c r="CK101" s="26">
         <v>10.193524067478094</v>
       </c>
-      <c r="CL101" s="25">
+      <c r="CL101" s="26">
         <v>-2.3622888818490395</v>
       </c>
-      <c r="CM101" s="25">
+      <c r="CM101" s="26">
         <v>-26.412488911446431</v>
       </c>
-      <c r="CN101" s="25">
-        <v>-11.381567831694468</v>
-      </c>
-      <c r="CO101" s="25"/>
-      <c r="CP101" s="25"/>
-      <c r="CQ101" s="25"/>
-      <c r="CR101" s="25"/>
-      <c r="CS101" s="11"/>
+      <c r="CN101" s="26">
+        <v>-10.771486092718291</v>
+      </c>
+      <c r="CO101" s="26">
+        <v>-1.3740248716519829</v>
+      </c>
+      <c r="CP101" s="35"/>
+      <c r="CQ101" s="35"/>
+      <c r="CR101" s="35"/>
+      <c r="CS101" s="35"/>
       <c r="CT101" s="11"/>
       <c r="CU101" s="11"/>
       <c r="CV101" s="11"/>
@@ -18932,20 +19093,22 @@
       <c r="CK102" s="26">
         <v>4.4963740045475049</v>
       </c>
-      <c r="CL102" s="25">
+      <c r="CL102" s="26">
         <v>3.8766048667486785</v>
       </c>
-      <c r="CM102" s="25">
+      <c r="CM102" s="26">
         <v>6.0962252277962961</v>
       </c>
-      <c r="CN102" s="25">
-        <v>4.4919925044614644</v>
-      </c>
-      <c r="CO102" s="25"/>
-      <c r="CP102" s="25"/>
-      <c r="CQ102" s="25"/>
-      <c r="CR102" s="25"/>
-      <c r="CS102" s="11"/>
+      <c r="CN102" s="26">
+        <v>4.4747445066999063</v>
+      </c>
+      <c r="CO102" s="26">
+        <v>4.4064444781233476</v>
+      </c>
+      <c r="CP102" s="35"/>
+      <c r="CQ102" s="35"/>
+      <c r="CR102" s="35"/>
+      <c r="CS102" s="35"/>
       <c r="CT102" s="11"/>
       <c r="CU102" s="11"/>
       <c r="CV102" s="11"/>
@@ -19267,20 +19430,22 @@
       <c r="CK103" s="26">
         <v>9.3573074302153856</v>
       </c>
-      <c r="CL103" s="25">
+      <c r="CL103" s="26">
         <v>-2.768520471444873</v>
       </c>
-      <c r="CM103" s="25">
+      <c r="CM103" s="26">
         <v>-3.1776692810644391</v>
       </c>
-      <c r="CN103" s="25">
-        <v>-1.1396752063414368</v>
-      </c>
-      <c r="CO103" s="25"/>
-      <c r="CP103" s="25"/>
-      <c r="CQ103" s="25"/>
-      <c r="CR103" s="25"/>
-      <c r="CS103" s="11"/>
+      <c r="CN103" s="26">
+        <v>-0.70718969326001968</v>
+      </c>
+      <c r="CO103" s="26">
+        <v>0.49779671122681179</v>
+      </c>
+      <c r="CP103" s="35"/>
+      <c r="CQ103" s="35"/>
+      <c r="CR103" s="35"/>
+      <c r="CS103" s="35"/>
       <c r="CT103" s="11"/>
       <c r="CU103" s="11"/>
       <c r="CV103" s="11"/>
@@ -19602,20 +19767,22 @@
       <c r="CK104" s="26">
         <v>5.2490153935198265</v>
       </c>
-      <c r="CL104" s="25">
+      <c r="CL104" s="26">
         <v>7.8021433266596745</v>
       </c>
-      <c r="CM104" s="25">
+      <c r="CM104" s="26">
         <v>8.777839878030619</v>
       </c>
-      <c r="CN104" s="25">
-        <v>5.9826150241047031</v>
-      </c>
-      <c r="CO104" s="25"/>
-      <c r="CP104" s="25"/>
-      <c r="CQ104" s="25"/>
-      <c r="CR104" s="25"/>
-      <c r="CS104" s="11"/>
+      <c r="CN104" s="26">
+        <v>5.7712522322208173</v>
+      </c>
+      <c r="CO104" s="26">
+        <v>7.0300912160979294</v>
+      </c>
+      <c r="CP104" s="35"/>
+      <c r="CQ104" s="35"/>
+      <c r="CR104" s="35"/>
+      <c r="CS104" s="35"/>
       <c r="CT104" s="11"/>
       <c r="CU104" s="11"/>
       <c r="CV104" s="11"/>
@@ -19937,20 +20104,22 @@
       <c r="CK105" s="26">
         <v>7.8682121727108552</v>
       </c>
-      <c r="CL105" s="25">
+      <c r="CL105" s="26">
         <v>14.335353258680669</v>
       </c>
-      <c r="CM105" s="25">
+      <c r="CM105" s="26">
         <v>30.387208780390296</v>
       </c>
-      <c r="CN105" s="25">
-        <v>14.461174974203004</v>
-      </c>
-      <c r="CO105" s="25"/>
-      <c r="CP105" s="25"/>
-      <c r="CQ105" s="25"/>
-      <c r="CR105" s="25"/>
-      <c r="CS105" s="11"/>
+      <c r="CN105" s="26">
+        <v>14.58019957345833</v>
+      </c>
+      <c r="CO105" s="26">
+        <v>12.220186132456973</v>
+      </c>
+      <c r="CP105" s="35"/>
+      <c r="CQ105" s="35"/>
+      <c r="CR105" s="35"/>
+      <c r="CS105" s="35"/>
       <c r="CT105" s="11"/>
       <c r="CU105" s="11"/>
       <c r="CV105" s="11"/>
@@ -20272,20 +20441,22 @@
       <c r="CK106" s="26">
         <v>6.0323765304316055</v>
       </c>
-      <c r="CL106" s="25">
+      <c r="CL106" s="26">
         <v>4.9242988727490626</v>
       </c>
-      <c r="CM106" s="25">
+      <c r="CM106" s="26">
         <v>4.615653497736588</v>
       </c>
-      <c r="CN106" s="25">
-        <v>5.6106940454573078</v>
-      </c>
-      <c r="CO106" s="25"/>
-      <c r="CP106" s="25"/>
-      <c r="CQ106" s="25"/>
-      <c r="CR106" s="25"/>
-      <c r="CS106" s="11"/>
+      <c r="CN106" s="26">
+        <v>5.0705489119989124</v>
+      </c>
+      <c r="CO106" s="26">
+        <v>4.4566442664885813</v>
+      </c>
+      <c r="CP106" s="35"/>
+      <c r="CQ106" s="35"/>
+      <c r="CR106" s="35"/>
+      <c r="CS106" s="35"/>
       <c r="CT106" s="11"/>
       <c r="CU106" s="11"/>
       <c r="CV106" s="11"/>
@@ -20607,20 +20778,22 @@
       <c r="CK107" s="26">
         <v>15.49125668577156</v>
       </c>
-      <c r="CL107" s="25">
+      <c r="CL107" s="26">
         <v>29.785574583887012</v>
       </c>
-      <c r="CM107" s="25">
+      <c r="CM107" s="26">
         <v>18.930278843309239</v>
       </c>
-      <c r="CN107" s="25">
-        <v>15.426425292801753</v>
-      </c>
-      <c r="CO107" s="25"/>
-      <c r="CP107" s="25"/>
-      <c r="CQ107" s="25"/>
-      <c r="CR107" s="25"/>
-      <c r="CS107" s="11"/>
+      <c r="CN107" s="26">
+        <v>15.022547814327453</v>
+      </c>
+      <c r="CO107" s="26">
+        <v>7.262906249852378</v>
+      </c>
+      <c r="CP107" s="35"/>
+      <c r="CQ107" s="35"/>
+      <c r="CR107" s="35"/>
+      <c r="CS107" s="35"/>
       <c r="CT107" s="11"/>
       <c r="CU107" s="11"/>
       <c r="CV107" s="11"/>
@@ -20942,20 +21115,22 @@
       <c r="CK108" s="26">
         <v>10.278242718539033</v>
       </c>
-      <c r="CL108" s="25">
+      <c r="CL108" s="26">
         <v>6.6260240346224748</v>
       </c>
-      <c r="CM108" s="25">
+      <c r="CM108" s="26">
         <v>7.1455661282433596</v>
       </c>
-      <c r="CN108" s="25">
-        <v>6.4663719866352238</v>
-      </c>
-      <c r="CO108" s="25"/>
-      <c r="CP108" s="25"/>
-      <c r="CQ108" s="25"/>
-      <c r="CR108" s="25"/>
-      <c r="CS108" s="11"/>
+      <c r="CN108" s="26">
+        <v>6.6258036948908057</v>
+      </c>
+      <c r="CO108" s="26">
+        <v>7.7793413179368258</v>
+      </c>
+      <c r="CP108" s="35"/>
+      <c r="CQ108" s="35"/>
+      <c r="CR108" s="35"/>
+      <c r="CS108" s="35"/>
       <c r="CT108" s="11"/>
       <c r="CU108" s="11"/>
       <c r="CV108" s="11"/>
@@ -21277,20 +21452,22 @@
       <c r="CK109" s="26">
         <v>24.779108341374851</v>
       </c>
-      <c r="CL109" s="25">
+      <c r="CL109" s="26">
         <v>24.027082581513739</v>
       </c>
-      <c r="CM109" s="25">
+      <c r="CM109" s="26">
         <v>22.895321243728034</v>
       </c>
-      <c r="CN109" s="25">
-        <v>14.860814971124142</v>
-      </c>
-      <c r="CO109" s="25"/>
-      <c r="CP109" s="25"/>
-      <c r="CQ109" s="25"/>
-      <c r="CR109" s="25"/>
-      <c r="CS109" s="11"/>
+      <c r="CN109" s="26">
+        <v>15.411635269948803</v>
+      </c>
+      <c r="CO109" s="26">
+        <v>16.200186503411729</v>
+      </c>
+      <c r="CP109" s="35"/>
+      <c r="CQ109" s="35"/>
+      <c r="CR109" s="35"/>
+      <c r="CS109" s="35"/>
       <c r="CT109" s="11"/>
       <c r="CU109" s="11"/>
       <c r="CV109" s="11"/>
@@ -21612,20 +21789,22 @@
       <c r="CK110" s="26">
         <v>6.6439501425235221</v>
       </c>
-      <c r="CL110" s="25">
+      <c r="CL110" s="26">
         <v>9.0986650048017168</v>
       </c>
-      <c r="CM110" s="25">
+      <c r="CM110" s="26">
         <v>5.4211976148084773</v>
       </c>
-      <c r="CN110" s="25">
-        <v>8.0213108933982653</v>
-      </c>
-      <c r="CO110" s="25"/>
-      <c r="CP110" s="25"/>
-      <c r="CQ110" s="25"/>
-      <c r="CR110" s="25"/>
-      <c r="CS110" s="11"/>
+      <c r="CN110" s="26">
+        <v>8.2391018394417017</v>
+      </c>
+      <c r="CO110" s="26">
+        <v>10.416252774112735</v>
+      </c>
+      <c r="CP110" s="35"/>
+      <c r="CQ110" s="35"/>
+      <c r="CR110" s="35"/>
+      <c r="CS110" s="35"/>
       <c r="CT110" s="11"/>
       <c r="CU110" s="11"/>
       <c r="CV110" s="11"/>
@@ -21768,14 +21947,14 @@
       <c r="CI111" s="11"/>
       <c r="CJ111" s="11"/>
       <c r="CK111" s="11"/>
-      <c r="CL111" s="13"/>
-      <c r="CM111" s="13"/>
-      <c r="CN111" s="13"/>
-      <c r="CO111" s="13"/>
-      <c r="CP111" s="13"/>
-      <c r="CQ111" s="13"/>
-      <c r="CR111" s="13"/>
-      <c r="CS111" s="11"/>
+      <c r="CL111" s="11"/>
+      <c r="CM111" s="11"/>
+      <c r="CN111" s="11"/>
+      <c r="CO111" s="11"/>
+      <c r="CP111" s="36"/>
+      <c r="CQ111" s="36"/>
+      <c r="CR111" s="36"/>
+      <c r="CS111" s="36"/>
       <c r="CT111" s="11"/>
       <c r="CU111" s="11"/>
       <c r="CV111" s="11"/>
@@ -22097,20 +22276,22 @@
       <c r="CK112" s="26">
         <v>6.971064311894807</v>
       </c>
-      <c r="CL112" s="25">
+      <c r="CL112" s="26">
         <v>6.4300230362182873</v>
       </c>
-      <c r="CM112" s="25">
+      <c r="CM112" s="26">
         <v>5.5217510711067916</v>
       </c>
-      <c r="CN112" s="25">
-        <v>5.0476085243877549</v>
-      </c>
-      <c r="CO112" s="25"/>
-      <c r="CP112" s="25"/>
-      <c r="CQ112" s="25"/>
-      <c r="CR112" s="25"/>
-      <c r="CS112" s="11"/>
+      <c r="CN112" s="26">
+        <v>5.1359036835495004</v>
+      </c>
+      <c r="CO112" s="26">
+        <v>5.3121488136727208</v>
+      </c>
+      <c r="CP112" s="35"/>
+      <c r="CQ112" s="35"/>
+      <c r="CR112" s="35"/>
+      <c r="CS112" s="35"/>
       <c r="CT112" s="11"/>
       <c r="CU112" s="11"/>
       <c r="CV112" s="11"/>
@@ -22254,18 +22435,23 @@
       <c r="CI113" s="16"/>
       <c r="CJ113" s="16"/>
       <c r="CK113" s="16"/>
-      <c r="CL113" s="17"/>
-      <c r="CM113" s="17"/>
-      <c r="CN113" s="17"/>
-      <c r="CO113" s="17"/>
-      <c r="CP113" s="17"/>
-      <c r="CQ113" s="17"/>
-      <c r="CR113" s="17"/>
+      <c r="CL113" s="16"/>
+      <c r="CM113" s="16"/>
+      <c r="CN113" s="16"/>
+      <c r="CO113" s="16"/>
+      <c r="CP113" s="7"/>
+      <c r="CQ113" s="7"/>
+      <c r="CR113" s="7"/>
+      <c r="CS113" s="7"/>
     </row>
     <row r="114" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A114" s="18" t="s">
         <v>0</v>
       </c>
+      <c r="CP114" s="8"/>
+      <c r="CQ114" s="8"/>
+      <c r="CR114" s="8"/>
+      <c r="CS114" s="8"/>
     </row>
     <row r="115" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="13"/>
@@ -22356,14 +22542,14 @@
       <c r="CI115" s="11"/>
       <c r="CJ115" s="11"/>
       <c r="CK115" s="11"/>
-      <c r="CL115" s="35"/>
-      <c r="CM115" s="35"/>
-      <c r="CN115" s="35"/>
-      <c r="CO115" s="35"/>
-      <c r="CP115" s="35"/>
-      <c r="CQ115" s="35"/>
-      <c r="CR115" s="35"/>
-      <c r="CS115" s="11"/>
+      <c r="CL115" s="11"/>
+      <c r="CM115" s="11"/>
+      <c r="CN115" s="11"/>
+      <c r="CO115" s="11"/>
+      <c r="CP115" s="36"/>
+      <c r="CQ115" s="36"/>
+      <c r="CR115" s="36"/>
+      <c r="CS115" s="36"/>
       <c r="CT115" s="11"/>
       <c r="CU115" s="11"/>
       <c r="CV115" s="11"/>
@@ -22506,14 +22692,14 @@
       <c r="CI116" s="11"/>
       <c r="CJ116" s="11"/>
       <c r="CK116" s="11"/>
-      <c r="CL116" s="36"/>
-      <c r="CM116" s="36"/>
-      <c r="CN116" s="36"/>
-      <c r="CO116" s="36"/>
+      <c r="CL116" s="11"/>
+      <c r="CM116" s="11"/>
+      <c r="CN116" s="11"/>
+      <c r="CO116" s="11"/>
       <c r="CP116" s="36"/>
       <c r="CQ116" s="36"/>
       <c r="CR116" s="36"/>
-      <c r="CS116" s="11"/>
+      <c r="CS116" s="36"/>
       <c r="CT116" s="11"/>
       <c r="CU116" s="11"/>
       <c r="CV116" s="11"/>
@@ -22574,7 +22760,7 @@
     </row>
     <row r="118" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="120" spans="1:153" x14ac:dyDescent="0.2">
@@ -22584,7 +22770,7 @@
     </row>
     <row r="121" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="122" spans="1:153" x14ac:dyDescent="0.2">
@@ -22594,149 +22780,150 @@
     </row>
     <row r="124" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
-      <c r="B124" s="38">
+      <c r="B124" s="37">
         <v>2000</v>
       </c>
-      <c r="C124" s="38"/>
-      <c r="D124" s="38"/>
-      <c r="E124" s="38"/>
-      <c r="F124" s="38">
+      <c r="C124" s="37"/>
+      <c r="D124" s="37"/>
+      <c r="E124" s="37"/>
+      <c r="F124" s="37">
         <v>2001</v>
       </c>
-      <c r="G124" s="38"/>
-      <c r="H124" s="38"/>
-      <c r="I124" s="38"/>
-      <c r="J124" s="38">
+      <c r="G124" s="37"/>
+      <c r="H124" s="37"/>
+      <c r="I124" s="37"/>
+      <c r="J124" s="37">
         <v>2002</v>
       </c>
-      <c r="K124" s="38"/>
-      <c r="L124" s="38"/>
-      <c r="M124" s="38"/>
-      <c r="N124" s="38">
+      <c r="K124" s="37"/>
+      <c r="L124" s="37"/>
+      <c r="M124" s="37"/>
+      <c r="N124" s="37">
         <v>2003</v>
       </c>
-      <c r="O124" s="38"/>
-      <c r="P124" s="38"/>
-      <c r="Q124" s="38"/>
-      <c r="R124" s="38">
+      <c r="O124" s="37"/>
+      <c r="P124" s="37"/>
+      <c r="Q124" s="37"/>
+      <c r="R124" s="37">
         <v>2004</v>
       </c>
-      <c r="S124" s="38"/>
-      <c r="T124" s="38"/>
-      <c r="U124" s="38"/>
-      <c r="V124" s="38">
+      <c r="S124" s="37"/>
+      <c r="T124" s="37"/>
+      <c r="U124" s="37"/>
+      <c r="V124" s="37">
         <v>2005</v>
       </c>
-      <c r="W124" s="38"/>
-      <c r="X124" s="38"/>
-      <c r="Y124" s="38"/>
-      <c r="Z124" s="38">
+      <c r="W124" s="37"/>
+      <c r="X124" s="37"/>
+      <c r="Y124" s="37"/>
+      <c r="Z124" s="37">
         <v>2006</v>
       </c>
-      <c r="AA124" s="38"/>
-      <c r="AB124" s="38"/>
-      <c r="AC124" s="38"/>
-      <c r="AD124" s="38">
+      <c r="AA124" s="37"/>
+      <c r="AB124" s="37"/>
+      <c r="AC124" s="37"/>
+      <c r="AD124" s="37">
         <v>2007</v>
       </c>
-      <c r="AE124" s="38"/>
-      <c r="AF124" s="38"/>
-      <c r="AG124" s="38"/>
-      <c r="AH124" s="38">
+      <c r="AE124" s="37"/>
+      <c r="AF124" s="37"/>
+      <c r="AG124" s="37"/>
+      <c r="AH124" s="37">
         <v>2008</v>
       </c>
-      <c r="AI124" s="38"/>
-      <c r="AJ124" s="38"/>
-      <c r="AK124" s="38"/>
-      <c r="AL124" s="38">
+      <c r="AI124" s="37"/>
+      <c r="AJ124" s="37"/>
+      <c r="AK124" s="37"/>
+      <c r="AL124" s="37">
         <v>2009</v>
       </c>
-      <c r="AM124" s="38"/>
-      <c r="AN124" s="38"/>
-      <c r="AO124" s="38"/>
-      <c r="AP124" s="38">
+      <c r="AM124" s="37"/>
+      <c r="AN124" s="37"/>
+      <c r="AO124" s="37"/>
+      <c r="AP124" s="37">
         <v>2010</v>
       </c>
-      <c r="AQ124" s="38"/>
-      <c r="AR124" s="38"/>
-      <c r="AS124" s="38"/>
-      <c r="AT124" s="38">
+      <c r="AQ124" s="37"/>
+      <c r="AR124" s="37"/>
+      <c r="AS124" s="37"/>
+      <c r="AT124" s="37">
         <v>2011</v>
       </c>
-      <c r="AU124" s="38"/>
-      <c r="AV124" s="38"/>
-      <c r="AW124" s="38"/>
-      <c r="AX124" s="38">
+      <c r="AU124" s="37"/>
+      <c r="AV124" s="37"/>
+      <c r="AW124" s="37"/>
+      <c r="AX124" s="37">
         <v>2012</v>
       </c>
-      <c r="AY124" s="38"/>
-      <c r="AZ124" s="38"/>
-      <c r="BA124" s="38"/>
-      <c r="BB124" s="38">
+      <c r="AY124" s="37"/>
+      <c r="AZ124" s="37"/>
+      <c r="BA124" s="37"/>
+      <c r="BB124" s="37">
         <v>2013</v>
       </c>
-      <c r="BC124" s="38"/>
-      <c r="BD124" s="38"/>
-      <c r="BE124" s="38"/>
-      <c r="BF124" s="38">
+      <c r="BC124" s="37"/>
+      <c r="BD124" s="37"/>
+      <c r="BE124" s="37"/>
+      <c r="BF124" s="37">
         <v>2014</v>
       </c>
-      <c r="BG124" s="38"/>
-      <c r="BH124" s="38"/>
-      <c r="BI124" s="38"/>
-      <c r="BJ124" s="38">
+      <c r="BG124" s="37"/>
+      <c r="BH124" s="37"/>
+      <c r="BI124" s="37"/>
+      <c r="BJ124" s="37">
         <v>2015</v>
       </c>
-      <c r="BK124" s="38"/>
-      <c r="BL124" s="38"/>
-      <c r="BM124" s="38"/>
-      <c r="BN124" s="38">
+      <c r="BK124" s="37"/>
+      <c r="BL124" s="37"/>
+      <c r="BM124" s="37"/>
+      <c r="BN124" s="37">
         <v>2016</v>
       </c>
-      <c r="BO124" s="38"/>
-      <c r="BP124" s="38"/>
-      <c r="BQ124" s="38"/>
-      <c r="BR124" s="39">
+      <c r="BO124" s="37"/>
+      <c r="BP124" s="37"/>
+      <c r="BQ124" s="37"/>
+      <c r="BR124" s="38">
         <v>2017</v>
       </c>
-      <c r="BS124" s="39"/>
-      <c r="BT124" s="39"/>
-      <c r="BU124" s="39"/>
-      <c r="BV124" s="39">
+      <c r="BS124" s="38"/>
+      <c r="BT124" s="38"/>
+      <c r="BU124" s="38"/>
+      <c r="BV124" s="38">
         <v>2018</v>
       </c>
-      <c r="BW124" s="39"/>
-      <c r="BX124" s="39"/>
-      <c r="BY124" s="39"/>
-      <c r="BZ124" s="39">
+      <c r="BW124" s="38"/>
+      <c r="BX124" s="38"/>
+      <c r="BY124" s="38"/>
+      <c r="BZ124" s="38">
         <v>2019</v>
       </c>
-      <c r="CA124" s="39"/>
-      <c r="CB124" s="39"/>
-      <c r="CC124" s="39"/>
-      <c r="CD124" s="39">
+      <c r="CA124" s="38"/>
+      <c r="CB124" s="38"/>
+      <c r="CC124" s="38"/>
+      <c r="CD124" s="38">
         <v>2020</v>
       </c>
-      <c r="CE124" s="39"/>
-      <c r="CF124" s="39"/>
-      <c r="CG124" s="39"/>
-      <c r="CH124" s="39">
+      <c r="CE124" s="38"/>
+      <c r="CF124" s="38"/>
+      <c r="CG124" s="38"/>
+      <c r="CH124" s="38">
         <v>2021</v>
       </c>
-      <c r="CI124" s="39"/>
-      <c r="CJ124" s="39"/>
-      <c r="CK124" s="39"/>
-      <c r="CL124" s="38">
+      <c r="CI124" s="38"/>
+      <c r="CJ124" s="38"/>
+      <c r="CK124" s="38"/>
+      <c r="CL124" s="34">
         <v>2022</v>
       </c>
-      <c r="CM124" s="38"/>
-      <c r="CN124" s="38"/>
-      <c r="CO124" s="38"/>
-      <c r="CP124" s="38">
+      <c r="CM124" s="34"/>
+      <c r="CN124" s="34"/>
+      <c r="CO124" s="34"/>
+      <c r="CP124" s="34">
         <v>2023</v>
       </c>
-      <c r="CQ124" s="38"/>
-      <c r="CR124" s="38"/>
+      <c r="CQ124" s="34"/>
+      <c r="CR124" s="34"/>
+      <c r="CS124" s="34"/>
     </row>
     <row r="125" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
@@ -23006,26 +23193,29 @@
       <c r="CK125" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CL125" s="6" t="s">
+      <c r="CL125" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="CM125" s="6" t="s">
+      <c r="CM125" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="CN125" s="6" t="s">
+      <c r="CN125" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="CO125" s="6" t="s">
+      <c r="CO125" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CP125" s="6" t="s">
+      <c r="CP125" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="CQ125" s="6" t="s">
+      <c r="CQ125" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="CR125" s="6" t="s">
+      <c r="CR125" s="7" t="s">
         <v>21</v>
+      </c>
+      <c r="CS125" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="126" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -23299,28 +23489,30 @@
       <c r="CK127" s="26">
         <v>108.89812440337268</v>
       </c>
-      <c r="CL127" s="25">
+      <c r="CL127" s="26">
         <v>110.13124168034444</v>
       </c>
-      <c r="CM127" s="25">
+      <c r="CM127" s="26">
         <v>115.22693976952753</v>
       </c>
-      <c r="CN127" s="25">
+      <c r="CN127" s="26">
         <v>118.41863104641222</v>
       </c>
-      <c r="CO127" s="25">
+      <c r="CO127" s="26">
         <v>119.63502738941952</v>
       </c>
-      <c r="CP127" s="25">
+      <c r="CP127" s="26">
         <v>121.40993984588135</v>
       </c>
-      <c r="CQ127" s="25">
+      <c r="CQ127" s="26">
         <v>123.69950887022809</v>
       </c>
-      <c r="CR127" s="25">
+      <c r="CR127" s="26">
         <v>127.42154968922502</v>
       </c>
-      <c r="CS127" s="11"/>
+      <c r="CS127" s="26">
+        <v>126.84836468964291</v>
+      </c>
       <c r="CT127" s="11"/>
       <c r="CU127" s="11"/>
       <c r="CV127" s="11"/>
@@ -23646,28 +23838,30 @@
       <c r="CK128" s="26">
         <v>142.78998741865652</v>
       </c>
-      <c r="CL128" s="25">
+      <c r="CL128" s="26">
         <v>139.90498626056689</v>
       </c>
-      <c r="CM128" s="25">
+      <c r="CM128" s="26">
         <v>155.37188373824463</v>
       </c>
-      <c r="CN128" s="25">
+      <c r="CN128" s="26">
         <v>167.67663158279339</v>
       </c>
-      <c r="CO128" s="25">
+      <c r="CO128" s="26">
         <v>157.85711271445632</v>
       </c>
-      <c r="CP128" s="25">
+      <c r="CP128" s="26">
         <v>155.8613031242264</v>
       </c>
-      <c r="CQ128" s="25">
+      <c r="CQ128" s="26">
         <v>174.33891502019807</v>
       </c>
-      <c r="CR128" s="25">
+      <c r="CR128" s="26">
         <v>183.72355552326766</v>
       </c>
-      <c r="CS128" s="11"/>
+      <c r="CS128" s="26">
+        <v>168.13352511539742</v>
+      </c>
       <c r="CT128" s="11"/>
       <c r="CU128" s="11"/>
       <c r="CV128" s="11"/>
@@ -23993,28 +24187,30 @@
       <c r="CK129" s="26">
         <v>104.20918761028659</v>
       </c>
-      <c r="CL129" s="25">
+      <c r="CL129" s="26">
         <v>105.81599612123389</v>
       </c>
-      <c r="CM129" s="25">
+      <c r="CM129" s="26">
         <v>115.98056002277895</v>
       </c>
-      <c r="CN129" s="25">
+      <c r="CN129" s="26">
         <v>106.69388624713258</v>
       </c>
-      <c r="CO129" s="25">
+      <c r="CO129" s="26">
         <v>107.88943773035248</v>
       </c>
-      <c r="CP129" s="25">
+      <c r="CP129" s="26">
         <v>110.80516327271272</v>
       </c>
-      <c r="CQ129" s="25">
+      <c r="CQ129" s="26">
         <v>121.9091653254432</v>
       </c>
-      <c r="CR129" s="25">
+      <c r="CR129" s="26">
         <v>111.64012378769115</v>
       </c>
-      <c r="CS129" s="11"/>
+      <c r="CS129" s="26">
+        <v>112.6673063072801</v>
+      </c>
       <c r="CT129" s="11"/>
       <c r="CU129" s="11"/>
       <c r="CV129" s="11"/>
@@ -24340,28 +24536,30 @@
       <c r="CK130" s="26">
         <v>109.34844481539712</v>
       </c>
-      <c r="CL130" s="25">
+      <c r="CL130" s="26">
         <v>104.34649033772125</v>
       </c>
-      <c r="CM130" s="25">
+      <c r="CM130" s="26">
         <v>110.30691824707179</v>
       </c>
-      <c r="CN130" s="25">
+      <c r="CN130" s="26">
         <v>118.84927854323799</v>
       </c>
-      <c r="CO130" s="25">
+      <c r="CO130" s="26">
         <v>117.1180284754346</v>
       </c>
-      <c r="CP130" s="25">
+      <c r="CP130" s="26">
         <v>112.94682454743001</v>
       </c>
-      <c r="CQ130" s="25">
+      <c r="CQ130" s="26">
         <v>117.12289797159234</v>
       </c>
-      <c r="CR130" s="25">
+      <c r="CR130" s="26">
         <v>122.54913860948859</v>
       </c>
-      <c r="CS130" s="11"/>
+      <c r="CS130" s="26">
+        <v>119.68536916309918</v>
+      </c>
       <c r="CT130" s="11"/>
       <c r="CU130" s="11"/>
       <c r="CV130" s="11"/>
@@ -24687,28 +24885,30 @@
       <c r="CK131" s="26">
         <v>107.16549136094476</v>
       </c>
-      <c r="CL131" s="25">
+      <c r="CL131" s="26">
         <v>111.90477677954678</v>
       </c>
-      <c r="CM131" s="25">
+      <c r="CM131" s="26">
         <v>112.03829347266363</v>
       </c>
-      <c r="CN131" s="25">
+      <c r="CN131" s="26">
         <v>114.65261671281807</v>
       </c>
-      <c r="CO131" s="25">
+      <c r="CO131" s="26">
         <v>111.84049601763029</v>
       </c>
-      <c r="CP131" s="25">
+      <c r="CP131" s="26">
         <v>118.43763277423901</v>
       </c>
-      <c r="CQ131" s="25">
+      <c r="CQ131" s="26">
         <v>118.89366595869345</v>
       </c>
-      <c r="CR131" s="25">
+      <c r="CR131" s="26">
         <v>118.95780616944631</v>
       </c>
-      <c r="CS131" s="11"/>
+      <c r="CS131" s="26">
+        <v>117.26742450021625</v>
+      </c>
       <c r="CT131" s="11"/>
       <c r="CU131" s="11"/>
       <c r="CV131" s="11"/>
@@ -25034,28 +25234,30 @@
       <c r="CK132" s="26">
         <v>111.18919134130898</v>
       </c>
-      <c r="CL132" s="25">
+      <c r="CL132" s="26">
         <v>108.60518735455619</v>
       </c>
-      <c r="CM132" s="25">
+      <c r="CM132" s="26">
         <v>109.16175758428417</v>
       </c>
-      <c r="CN132" s="25">
+      <c r="CN132" s="26">
         <v>114.45087022532654</v>
       </c>
-      <c r="CO132" s="25">
+      <c r="CO132" s="26">
         <v>114.33049868938599</v>
       </c>
-      <c r="CP132" s="25">
+      <c r="CP132" s="26">
         <v>112.67232134559868</v>
       </c>
-      <c r="CQ132" s="25">
+      <c r="CQ132" s="26">
         <v>113.5777891047194</v>
       </c>
-      <c r="CR132" s="25">
+      <c r="CR132" s="26">
         <v>118.97475055448687</v>
       </c>
-      <c r="CS132" s="11"/>
+      <c r="CS132" s="26">
+        <v>118.68251824453434</v>
+      </c>
       <c r="CT132" s="11"/>
       <c r="CU132" s="11"/>
       <c r="CV132" s="11"/>
@@ -25381,28 +25583,30 @@
       <c r="CK133" s="26">
         <v>112.76276292775214</v>
       </c>
-      <c r="CL133" s="25">
+      <c r="CL133" s="26">
         <v>122.14987426126676</v>
       </c>
-      <c r="CM133" s="25">
+      <c r="CM133" s="26">
         <v>124.83430009794101</v>
       </c>
-      <c r="CN133" s="25">
+      <c r="CN133" s="26">
         <v>142.03571732517136</v>
       </c>
-      <c r="CO133" s="25">
+      <c r="CO133" s="26">
         <v>126.45166811592503</v>
       </c>
-      <c r="CP133" s="25">
+      <c r="CP133" s="26">
         <v>132.39182950639261</v>
       </c>
-      <c r="CQ133" s="25">
+      <c r="CQ133" s="26">
         <v>124.41080168946679</v>
       </c>
-      <c r="CR133" s="25">
+      <c r="CR133" s="26">
         <v>140.44225185798436</v>
       </c>
-      <c r="CS133" s="11"/>
+      <c r="CS133" s="26">
+        <v>126.71178982971456</v>
+      </c>
       <c r="CT133" s="11"/>
       <c r="CU133" s="11"/>
       <c r="CV133" s="11"/>
@@ -25728,28 +25932,30 @@
       <c r="CK134" s="26">
         <v>97.165992133950837</v>
       </c>
-      <c r="CL134" s="25">
+      <c r="CL134" s="26">
         <v>104.91954268789311</v>
       </c>
-      <c r="CM134" s="25">
+      <c r="CM134" s="26">
         <v>102.0749240320504</v>
       </c>
-      <c r="CN134" s="25">
+      <c r="CN134" s="26">
         <v>100.24273019895509</v>
       </c>
-      <c r="CO134" s="25">
+      <c r="CO134" s="26">
         <v>97.770891822858133</v>
       </c>
-      <c r="CP134" s="25">
+      <c r="CP134" s="26">
         <v>105.67435954176283</v>
       </c>
-      <c r="CQ134" s="25">
+      <c r="CQ134" s="26">
         <v>102.77543821658408</v>
       </c>
-      <c r="CR134" s="25">
+      <c r="CR134" s="26">
         <v>100.89748349875232</v>
       </c>
-      <c r="CS134" s="11"/>
+      <c r="CS134" s="26">
+        <v>98.375791511765442</v>
+      </c>
       <c r="CT134" s="11"/>
       <c r="CU134" s="11"/>
       <c r="CV134" s="11"/>
@@ -26075,28 +26281,30 @@
       <c r="CK135" s="26">
         <v>103.870414678616</v>
       </c>
-      <c r="CL135" s="25">
+      <c r="CL135" s="26">
         <v>104.41501684239122</v>
       </c>
-      <c r="CM135" s="25">
+      <c r="CM135" s="26">
         <v>103.21755085312103</v>
       </c>
-      <c r="CN135" s="25">
+      <c r="CN135" s="26">
         <v>103.66360122129279</v>
       </c>
-      <c r="CO135" s="25">
+      <c r="CO135" s="26">
         <v>107.41817077769586</v>
       </c>
-      <c r="CP135" s="25">
+      <c r="CP135" s="26">
         <v>109.01624515776258</v>
       </c>
-      <c r="CQ135" s="25">
+      <c r="CQ135" s="26">
         <v>108.16345917774601</v>
       </c>
-      <c r="CR135" s="25">
+      <c r="CR135" s="26">
         <v>106.80310994543314</v>
       </c>
-      <c r="CS135" s="11"/>
+      <c r="CS135" s="26">
+        <v>112.4441585847257</v>
+      </c>
       <c r="CT135" s="11"/>
       <c r="CU135" s="11"/>
       <c r="CV135" s="11"/>
@@ -26422,28 +26630,30 @@
       <c r="CK136" s="26">
         <v>99.048505593486482</v>
       </c>
-      <c r="CL136" s="25">
+      <c r="CL136" s="26">
         <v>104.33492107137931</v>
       </c>
-      <c r="CM136" s="25">
+      <c r="CM136" s="26">
         <v>106.59335501258693</v>
       </c>
-      <c r="CN136" s="25">
+      <c r="CN136" s="26">
         <v>108.76667919721386</v>
       </c>
-      <c r="CO136" s="25">
+      <c r="CO136" s="26">
         <v>102.55628118766403</v>
       </c>
-      <c r="CP136" s="25">
+      <c r="CP136" s="26">
         <v>108.12715026223094</v>
       </c>
-      <c r="CQ136" s="25">
+      <c r="CQ136" s="26">
         <v>110.46767080521592</v>
       </c>
-      <c r="CR136" s="25">
+      <c r="CR136" s="26">
         <v>112.47162690709465</v>
       </c>
-      <c r="CS136" s="11"/>
+      <c r="CS136" s="26">
+        <v>106.24867654995613</v>
+      </c>
       <c r="CT136" s="11"/>
       <c r="CU136" s="11"/>
       <c r="CV136" s="11"/>
@@ -26769,28 +26979,30 @@
       <c r="CK137" s="26">
         <v>109.21550743115888</v>
       </c>
-      <c r="CL137" s="25">
+      <c r="CL137" s="26">
         <v>111.870160701839</v>
       </c>
-      <c r="CM137" s="25">
+      <c r="CM137" s="26">
         <v>108.49244360919089</v>
       </c>
-      <c r="CN137" s="25">
+      <c r="CN137" s="26">
         <v>118.69712079921501</v>
       </c>
-      <c r="CO137" s="25">
+      <c r="CO137" s="26">
         <v>116.21057920620589</v>
       </c>
-      <c r="CP137" s="25">
+      <c r="CP137" s="26">
         <v>120.83454632830689</v>
       </c>
-      <c r="CQ137" s="25">
+      <c r="CQ137" s="26">
         <v>117.57103978064248</v>
       </c>
-      <c r="CR137" s="25">
+      <c r="CR137" s="26">
         <v>125.44749203813173</v>
       </c>
-      <c r="CS137" s="11"/>
+      <c r="CS137" s="26">
+        <v>123.00767725177046</v>
+      </c>
       <c r="CT137" s="11"/>
       <c r="CU137" s="11"/>
       <c r="CV137" s="11"/>
@@ -27116,28 +27328,30 @@
       <c r="CK138" s="26">
         <v>102.77555520790396</v>
       </c>
-      <c r="CL138" s="25">
+      <c r="CL138" s="26">
         <v>114.3578053073435</v>
       </c>
-      <c r="CM138" s="25">
+      <c r="CM138" s="26">
         <v>116.27948211337615</v>
       </c>
-      <c r="CN138" s="25">
+      <c r="CN138" s="26">
         <v>107.10733958406853</v>
       </c>
-      <c r="CO138" s="25">
+      <c r="CO138" s="26">
         <v>107.40108882700197</v>
       </c>
-      <c r="CP138" s="25">
+      <c r="CP138" s="26">
         <v>120.37521199573725</v>
       </c>
-      <c r="CQ138" s="25">
+      <c r="CQ138" s="26">
         <v>122.91305655599656</v>
       </c>
-      <c r="CR138" s="25">
+      <c r="CR138" s="26">
         <v>109.23987810896793</v>
       </c>
-      <c r="CS138" s="11"/>
+      <c r="CS138" s="26">
+        <v>110.03034396890929</v>
+      </c>
       <c r="CT138" s="11"/>
       <c r="CU138" s="11"/>
       <c r="CV138" s="11"/>
@@ -27284,13 +27498,13 @@
       <c r="CI139" s="11"/>
       <c r="CJ139" s="11"/>
       <c r="CK139" s="11"/>
-      <c r="CL139" s="13"/>
-      <c r="CM139" s="13"/>
-      <c r="CN139" s="13"/>
-      <c r="CO139" s="13"/>
-      <c r="CP139" s="13"/>
-      <c r="CQ139" s="13"/>
-      <c r="CR139" s="13"/>
+      <c r="CL139" s="11"/>
+      <c r="CM139" s="11"/>
+      <c r="CN139" s="11"/>
+      <c r="CO139" s="11"/>
+      <c r="CP139" s="11"/>
+      <c r="CQ139" s="11"/>
+      <c r="CR139" s="11"/>
       <c r="CS139" s="11"/>
       <c r="CT139" s="11"/>
       <c r="CU139" s="11"/>
@@ -27617,28 +27831,30 @@
       <c r="CK140" s="26">
         <v>107.89794049951327</v>
       </c>
-      <c r="CL140" s="25">
+      <c r="CL140" s="26">
         <v>110.98019152014913</v>
       </c>
-      <c r="CM140" s="25">
+      <c r="CM140" s="26">
         <v>114.14656881578551</v>
       </c>
-      <c r="CN140" s="25">
+      <c r="CN140" s="26">
         <v>117.8406130747405</v>
       </c>
-      <c r="CO140" s="25">
+      <c r="CO140" s="26">
         <v>115.90512482879622</v>
       </c>
-      <c r="CP140" s="25">
+      <c r="CP140" s="26">
         <v>119.60725875110107</v>
       </c>
-      <c r="CQ140" s="25">
+      <c r="CQ140" s="26">
         <v>120.72056145271421</v>
       </c>
-      <c r="CR140" s="25">
-        <v>123.04698220116033</v>
-      </c>
-      <c r="CS140" s="11"/>
+      <c r="CR140" s="26">
+        <v>123.04846886631951</v>
+      </c>
+      <c r="CS140" s="26">
+        <v>120.61874011919409</v>
+      </c>
       <c r="CT140" s="11"/>
       <c r="CU140" s="11"/>
       <c r="CV140" s="11"/>
@@ -27786,37 +28002,20 @@
       <c r="CI141" s="16"/>
       <c r="CJ141" s="16"/>
       <c r="CK141" s="16"/>
-      <c r="CL141" s="17"/>
-      <c r="CM141" s="17"/>
-      <c r="CN141" s="17"/>
-      <c r="CO141" s="17"/>
-      <c r="CP141" s="17"/>
-      <c r="CQ141" s="17"/>
-      <c r="CR141" s="17"/>
+      <c r="CL141" s="16"/>
+      <c r="CM141" s="16"/>
+      <c r="CN141" s="16"/>
+      <c r="CO141" s="16"/>
+      <c r="CP141" s="16"/>
+      <c r="CQ141" s="16"/>
+      <c r="CR141" s="16"/>
+      <c r="CS141" s="16"/>
     </row>
     <row r="142" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A142" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:153" ht="15" x14ac:dyDescent="0.2">
-      <c r="CL143" s="35"/>
-      <c r="CM143" s="35"/>
-      <c r="CN143" s="35"/>
-      <c r="CO143" s="35"/>
-      <c r="CP143" s="35"/>
-      <c r="CQ143" s="35"/>
-      <c r="CR143" s="35"/>
-    </row>
-    <row r="144" spans="1:153" x14ac:dyDescent="0.2">
-      <c r="CL144" s="36"/>
-      <c r="CM144" s="36"/>
-      <c r="CN144" s="36"/>
-      <c r="CO144" s="36"/>
-      <c r="CP144" s="36"/>
-      <c r="CQ144" s="36"/>
-      <c r="CR144" s="36"/>
-    </row>
     <row r="145" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>14</v>
@@ -27829,7 +28028,7 @@
     </row>
     <row r="147" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="149" spans="1:153" x14ac:dyDescent="0.2">
@@ -27839,7 +28038,7 @@
     </row>
     <row r="150" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="151" spans="1:153" x14ac:dyDescent="0.2">
@@ -27849,149 +28048,150 @@
     </row>
     <row r="153" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A153" s="4"/>
-      <c r="B153" s="38">
+      <c r="B153" s="37">
         <v>2000</v>
       </c>
-      <c r="C153" s="38"/>
-      <c r="D153" s="38"/>
-      <c r="E153" s="38"/>
-      <c r="F153" s="38">
+      <c r="C153" s="37"/>
+      <c r="D153" s="37"/>
+      <c r="E153" s="37"/>
+      <c r="F153" s="37">
         <v>2001</v>
       </c>
-      <c r="G153" s="38"/>
-      <c r="H153" s="38"/>
-      <c r="I153" s="38"/>
-      <c r="J153" s="38">
+      <c r="G153" s="37"/>
+      <c r="H153" s="37"/>
+      <c r="I153" s="37"/>
+      <c r="J153" s="37">
         <v>2002</v>
       </c>
-      <c r="K153" s="38"/>
-      <c r="L153" s="38"/>
-      <c r="M153" s="38"/>
-      <c r="N153" s="38">
+      <c r="K153" s="37"/>
+      <c r="L153" s="37"/>
+      <c r="M153" s="37"/>
+      <c r="N153" s="37">
         <v>2003</v>
       </c>
-      <c r="O153" s="38"/>
-      <c r="P153" s="38"/>
-      <c r="Q153" s="38"/>
-      <c r="R153" s="38">
+      <c r="O153" s="37"/>
+      <c r="P153" s="37"/>
+      <c r="Q153" s="37"/>
+      <c r="R153" s="37">
         <v>2004</v>
       </c>
-      <c r="S153" s="38"/>
-      <c r="T153" s="38"/>
-      <c r="U153" s="38"/>
-      <c r="V153" s="38">
+      <c r="S153" s="37"/>
+      <c r="T153" s="37"/>
+      <c r="U153" s="37"/>
+      <c r="V153" s="37">
         <v>2005</v>
       </c>
-      <c r="W153" s="38"/>
-      <c r="X153" s="38"/>
-      <c r="Y153" s="38"/>
-      <c r="Z153" s="38">
+      <c r="W153" s="37"/>
+      <c r="X153" s="37"/>
+      <c r="Y153" s="37"/>
+      <c r="Z153" s="37">
         <v>2006</v>
       </c>
-      <c r="AA153" s="38"/>
-      <c r="AB153" s="38"/>
-      <c r="AC153" s="38"/>
-      <c r="AD153" s="38">
+      <c r="AA153" s="37"/>
+      <c r="AB153" s="37"/>
+      <c r="AC153" s="37"/>
+      <c r="AD153" s="37">
         <v>2007</v>
       </c>
-      <c r="AE153" s="38"/>
-      <c r="AF153" s="38"/>
-      <c r="AG153" s="38"/>
-      <c r="AH153" s="38">
+      <c r="AE153" s="37"/>
+      <c r="AF153" s="37"/>
+      <c r="AG153" s="37"/>
+      <c r="AH153" s="37">
         <v>2008</v>
       </c>
-      <c r="AI153" s="38"/>
-      <c r="AJ153" s="38"/>
-      <c r="AK153" s="38"/>
-      <c r="AL153" s="38">
+      <c r="AI153" s="37"/>
+      <c r="AJ153" s="37"/>
+      <c r="AK153" s="37"/>
+      <c r="AL153" s="37">
         <v>2009</v>
       </c>
-      <c r="AM153" s="38"/>
-      <c r="AN153" s="38"/>
-      <c r="AO153" s="38"/>
-      <c r="AP153" s="38">
+      <c r="AM153" s="37"/>
+      <c r="AN153" s="37"/>
+      <c r="AO153" s="37"/>
+      <c r="AP153" s="37">
         <v>2010</v>
       </c>
-      <c r="AQ153" s="38"/>
-      <c r="AR153" s="38"/>
-      <c r="AS153" s="38"/>
-      <c r="AT153" s="38">
+      <c r="AQ153" s="37"/>
+      <c r="AR153" s="37"/>
+      <c r="AS153" s="37"/>
+      <c r="AT153" s="37">
         <v>2011</v>
       </c>
-      <c r="AU153" s="38"/>
-      <c r="AV153" s="38"/>
-      <c r="AW153" s="38"/>
-      <c r="AX153" s="38">
+      <c r="AU153" s="37"/>
+      <c r="AV153" s="37"/>
+      <c r="AW153" s="37"/>
+      <c r="AX153" s="37">
         <v>2012</v>
       </c>
-      <c r="AY153" s="38"/>
-      <c r="AZ153" s="38"/>
-      <c r="BA153" s="38"/>
-      <c r="BB153" s="38">
+      <c r="AY153" s="37"/>
+      <c r="AZ153" s="37"/>
+      <c r="BA153" s="37"/>
+      <c r="BB153" s="37">
         <v>2013</v>
       </c>
-      <c r="BC153" s="38"/>
-      <c r="BD153" s="38"/>
-      <c r="BE153" s="38"/>
-      <c r="BF153" s="38">
+      <c r="BC153" s="37"/>
+      <c r="BD153" s="37"/>
+      <c r="BE153" s="37"/>
+      <c r="BF153" s="37">
         <v>2014</v>
       </c>
-      <c r="BG153" s="38"/>
-      <c r="BH153" s="38"/>
-      <c r="BI153" s="38"/>
-      <c r="BJ153" s="38">
+      <c r="BG153" s="37"/>
+      <c r="BH153" s="37"/>
+      <c r="BI153" s="37"/>
+      <c r="BJ153" s="37">
         <v>2015</v>
       </c>
-      <c r="BK153" s="38"/>
-      <c r="BL153" s="38"/>
-      <c r="BM153" s="38"/>
-      <c r="BN153" s="38">
+      <c r="BK153" s="37"/>
+      <c r="BL153" s="37"/>
+      <c r="BM153" s="37"/>
+      <c r="BN153" s="37">
         <v>2016</v>
       </c>
-      <c r="BO153" s="38"/>
-      <c r="BP153" s="38"/>
-      <c r="BQ153" s="38"/>
-      <c r="BR153" s="39">
+      <c r="BO153" s="37"/>
+      <c r="BP153" s="37"/>
+      <c r="BQ153" s="37"/>
+      <c r="BR153" s="38">
         <v>2017</v>
       </c>
-      <c r="BS153" s="39"/>
-      <c r="BT153" s="39"/>
-      <c r="BU153" s="39"/>
-      <c r="BV153" s="39">
+      <c r="BS153" s="38"/>
+      <c r="BT153" s="38"/>
+      <c r="BU153" s="38"/>
+      <c r="BV153" s="38">
         <v>2018</v>
       </c>
-      <c r="BW153" s="39"/>
-      <c r="BX153" s="39"/>
-      <c r="BY153" s="39"/>
-      <c r="BZ153" s="39">
+      <c r="BW153" s="38"/>
+      <c r="BX153" s="38"/>
+      <c r="BY153" s="38"/>
+      <c r="BZ153" s="38">
         <v>2019</v>
       </c>
-      <c r="CA153" s="39"/>
-      <c r="CB153" s="39"/>
-      <c r="CC153" s="39"/>
-      <c r="CD153" s="39">
+      <c r="CA153" s="38"/>
+      <c r="CB153" s="38"/>
+      <c r="CC153" s="38"/>
+      <c r="CD153" s="38">
         <v>2020</v>
       </c>
-      <c r="CE153" s="39"/>
-      <c r="CF153" s="39"/>
-      <c r="CG153" s="39"/>
-      <c r="CH153" s="39">
+      <c r="CE153" s="38"/>
+      <c r="CF153" s="38"/>
+      <c r="CG153" s="38"/>
+      <c r="CH153" s="38">
         <v>2021</v>
       </c>
-      <c r="CI153" s="39"/>
-      <c r="CJ153" s="39"/>
-      <c r="CK153" s="39"/>
-      <c r="CL153" s="38">
+      <c r="CI153" s="38"/>
+      <c r="CJ153" s="38"/>
+      <c r="CK153" s="38"/>
+      <c r="CL153" s="34">
         <v>2022</v>
       </c>
-      <c r="CM153" s="38"/>
-      <c r="CN153" s="38"/>
-      <c r="CO153" s="38"/>
-      <c r="CP153" s="38">
+      <c r="CM153" s="34"/>
+      <c r="CN153" s="34"/>
+      <c r="CO153" s="34"/>
+      <c r="CP153" s="34">
         <v>2023</v>
       </c>
-      <c r="CQ153" s="38"/>
-      <c r="CR153" s="38"/>
+      <c r="CQ153" s="34"/>
+      <c r="CR153" s="34"/>
+      <c r="CS153" s="34"/>
     </row>
     <row r="154" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
@@ -28261,26 +28461,29 @@
       <c r="CK154" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CL154" s="6" t="s">
+      <c r="CL154" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="CM154" s="6" t="s">
+      <c r="CM154" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="CN154" s="6" t="s">
+      <c r="CN154" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="CO154" s="6" t="s">
+      <c r="CO154" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CP154" s="6" t="s">
+      <c r="CP154" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="CQ154" s="6" t="s">
+      <c r="CQ154" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="CR154" s="6" t="s">
+      <c r="CR154" s="7" t="s">
         <v>21</v>
+      </c>
+      <c r="CS154" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="155" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -28554,28 +28757,30 @@
       <c r="CK156" s="26">
         <v>39.950578211679009</v>
       </c>
-      <c r="CL156" s="25">
+      <c r="CL156" s="26">
         <v>35.904635946493741</v>
       </c>
-      <c r="CM156" s="25">
+      <c r="CM156" s="26">
         <v>40.343150242983079</v>
       </c>
-      <c r="CN156" s="25">
+      <c r="CN156" s="26">
         <v>35.173035025069254</v>
       </c>
-      <c r="CO156" s="25">
+      <c r="CO156" s="26">
         <v>39.714505651846942</v>
       </c>
-      <c r="CP156" s="25">
+      <c r="CP156" s="26">
         <v>34.730409275893031</v>
       </c>
-      <c r="CQ156" s="25">
+      <c r="CQ156" s="26">
         <v>38.963056882327301</v>
       </c>
-      <c r="CR156" s="25">
-        <v>34.59811931832953</v>
-      </c>
-      <c r="CS156" s="11"/>
+      <c r="CR156" s="26">
+        <v>34.575022925747888</v>
+      </c>
+      <c r="CS156" s="26">
+        <v>38.598981443039591</v>
+      </c>
       <c r="CT156" s="11"/>
       <c r="CU156" s="11"/>
       <c r="CV156" s="11"/>
@@ -28901,28 +29106,30 @@
       <c r="CK157" s="26">
         <v>2.2464627184106933</v>
       </c>
-      <c r="CL157" s="25">
+      <c r="CL157" s="26">
         <v>1.8356369621545274</v>
       </c>
-      <c r="CM157" s="25">
+      <c r="CM157" s="26">
         <v>1.9400708323935079</v>
       </c>
-      <c r="CN157" s="25">
+      <c r="CN157" s="26">
         <v>1.7911048532095459</v>
       </c>
-      <c r="CO157" s="25">
+      <c r="CO157" s="26">
         <v>2.2458821519621286</v>
       </c>
-      <c r="CP157" s="25">
+      <c r="CP157" s="26">
         <v>1.777976173879168</v>
       </c>
-      <c r="CQ157" s="25">
+      <c r="CQ157" s="26">
         <v>1.7899333974605605</v>
       </c>
-      <c r="CR157" s="25">
-        <v>1.8029680556944194</v>
-      </c>
-      <c r="CS157" s="11"/>
+      <c r="CR157" s="26">
+        <v>1.8034591392173849</v>
+      </c>
+      <c r="CS157" s="26">
+        <v>2.2010602046995817</v>
+      </c>
       <c r="CT157" s="11"/>
       <c r="CU157" s="11"/>
       <c r="CV157" s="11"/>
@@ -29248,28 +29455,30 @@
       <c r="CK158" s="26">
         <v>1.7975824721453986</v>
       </c>
-      <c r="CL158" s="25">
+      <c r="CL158" s="26">
         <v>1.5013437716884397</v>
       </c>
-      <c r="CM158" s="25">
+      <c r="CM158" s="26">
         <v>1.678730904883531</v>
       </c>
-      <c r="CN158" s="25">
+      <c r="CN158" s="26">
         <v>1.6843789953151131</v>
       </c>
-      <c r="CO158" s="25">
+      <c r="CO158" s="26">
         <v>1.784686817842867</v>
       </c>
-      <c r="CP158" s="25">
+      <c r="CP158" s="26">
         <v>1.3382282287396032</v>
       </c>
-      <c r="CQ158" s="25">
+      <c r="CQ158" s="26">
         <v>1.1635257031833381</v>
       </c>
-      <c r="CR158" s="25">
-        <v>1.423909904539358</v>
-      </c>
-      <c r="CS158" s="11"/>
+      <c r="CR158" s="26">
+        <v>1.4324912547574631</v>
+      </c>
+      <c r="CS158" s="26">
+        <v>1.6771877598551441</v>
+      </c>
       <c r="CT158" s="11"/>
       <c r="CU158" s="11"/>
       <c r="CV158" s="11"/>
@@ -29595,28 +29804,30 @@
       <c r="CK159" s="26">
         <v>11.462015765957739</v>
       </c>
-      <c r="CL159" s="25">
+      <c r="CL159" s="26">
         <v>11.520809907294566</v>
       </c>
-      <c r="CM159" s="25">
+      <c r="CM159" s="26">
         <v>14.853160370285941</v>
       </c>
-      <c r="CN159" s="25">
+      <c r="CN159" s="26">
         <v>12.670658111297362</v>
       </c>
-      <c r="CO159" s="25">
+      <c r="CO159" s="26">
         <v>11.163941802320894</v>
       </c>
-      <c r="CP159" s="25">
+      <c r="CP159" s="26">
         <v>11.293296054633235</v>
       </c>
-      <c r="CQ159" s="25">
+      <c r="CQ159" s="26">
         <v>14.993308813372552</v>
       </c>
-      <c r="CR159" s="25">
-        <v>12.446113382318574</v>
-      </c>
-      <c r="CS159" s="11"/>
+      <c r="CR159" s="26">
+        <v>12.433457978527283</v>
+      </c>
+      <c r="CS159" s="26">
+        <v>10.868548748347804</v>
+      </c>
       <c r="CT159" s="11"/>
       <c r="CU159" s="11"/>
       <c r="CV159" s="11"/>
@@ -29942,28 +30153,30 @@
       <c r="CK160" s="26">
         <v>2.7226153263189437</v>
       </c>
-      <c r="CL160" s="25">
+      <c r="CL160" s="26">
         <v>2.7853516758681183</v>
       </c>
-      <c r="CM160" s="25">
+      <c r="CM160" s="26">
         <v>2.6475023047827424</v>
       </c>
-      <c r="CN160" s="25">
+      <c r="CN160" s="26">
         <v>2.996684705773593</v>
       </c>
-      <c r="CO160" s="25">
+      <c r="CO160" s="26">
         <v>2.7040979429244238</v>
       </c>
-      <c r="CP160" s="25">
+      <c r="CP160" s="26">
         <v>2.4989168236128143</v>
       </c>
-      <c r="CQ160" s="25">
+      <c r="CQ160" s="26">
         <v>2.4374950255097936</v>
       </c>
-      <c r="CR160" s="25">
-        <v>2.8022696041639508</v>
-      </c>
-      <c r="CS160" s="11"/>
+      <c r="CR160" s="26">
+        <v>2.8121310565122526</v>
+      </c>
+      <c r="CS160" s="26">
+        <v>2.5999598272391538</v>
+      </c>
       <c r="CT160" s="11"/>
       <c r="CU160" s="11"/>
       <c r="CV160" s="11"/>
@@ -30289,28 +30502,30 @@
       <c r="CK161" s="26">
         <v>4.2575596660426234</v>
       </c>
-      <c r="CL161" s="25">
+      <c r="CL161" s="26">
         <v>4.2716654046258</v>
       </c>
-      <c r="CM161" s="25">
+      <c r="CM161" s="26">
         <v>3.5695401564217319</v>
       </c>
-      <c r="CN161" s="25">
+      <c r="CN161" s="26">
         <v>5.305597054116272</v>
       </c>
-      <c r="CO161" s="25">
+      <c r="CO161" s="26">
         <v>4.0097981398428715</v>
       </c>
-      <c r="CP161" s="25">
+      <c r="CP161" s="26">
         <v>4.1650006426571728</v>
       </c>
-      <c r="CQ161" s="25">
+      <c r="CQ161" s="26">
         <v>3.6200554144324029</v>
       </c>
-      <c r="CR161" s="25">
-        <v>5.3289599322755032</v>
-      </c>
-      <c r="CS161" s="11"/>
+      <c r="CR161" s="26">
+        <v>5.3138016640105281</v>
+      </c>
+      <c r="CS161" s="26">
+        <v>4.0650176664338593</v>
+      </c>
       <c r="CT161" s="11"/>
       <c r="CU161" s="11"/>
       <c r="CV161" s="11"/>
@@ -30636,28 +30851,30 @@
       <c r="CK162" s="26">
         <v>7.3411639889025952</v>
       </c>
-      <c r="CL162" s="25">
+      <c r="CL162" s="26">
         <v>9.9033269954814962</v>
       </c>
-      <c r="CM162" s="25">
+      <c r="CM162" s="26">
         <v>7.6399568692139654</v>
       </c>
-      <c r="CN162" s="25">
+      <c r="CN162" s="26">
         <v>11.205594142257045</v>
       </c>
-      <c r="CO162" s="25">
+      <c r="CO162" s="26">
         <v>7.7278994002764083</v>
       </c>
-      <c r="CP162" s="25">
+      <c r="CP162" s="26">
         <v>10.699256352678098</v>
       </c>
-      <c r="CQ162" s="25">
+      <c r="CQ162" s="26">
         <v>8.8958956202863959</v>
       </c>
-      <c r="CR162" s="25">
-        <v>11.561951954773132</v>
-      </c>
-      <c r="CS162" s="11"/>
+      <c r="CR162" s="26">
+        <v>11.564115101345086</v>
+      </c>
+      <c r="CS162" s="26">
+        <v>7.929289678616815</v>
+      </c>
       <c r="CT162" s="11"/>
       <c r="CU162" s="11"/>
       <c r="CV162" s="11"/>
@@ -30983,28 +31200,30 @@
       <c r="CK163" s="26">
         <v>2.8116013085758307</v>
       </c>
-      <c r="CL163" s="25">
+      <c r="CL163" s="26">
         <v>3.1461162624048113</v>
       </c>
-      <c r="CM163" s="25">
+      <c r="CM163" s="26">
         <v>3.2823107388983983</v>
       </c>
-      <c r="CN163" s="25">
+      <c r="CN163" s="26">
         <v>2.3474931240763919</v>
       </c>
-      <c r="CO163" s="25">
+      <c r="CO163" s="26">
         <v>2.6105482147233063</v>
       </c>
-      <c r="CP163" s="25">
+      <c r="CP163" s="26">
         <v>2.8985971153663281</v>
       </c>
-      <c r="CQ163" s="25">
+      <c r="CQ163" s="26">
         <v>3.0980345947502248</v>
       </c>
-      <c r="CR163" s="25">
-        <v>2.2749797232495728</v>
-      </c>
-      <c r="CS163" s="11"/>
+      <c r="CR163" s="26">
+        <v>2.2614162329780778</v>
+      </c>
+      <c r="CS163" s="26">
+        <v>2.5035474570304812</v>
+      </c>
       <c r="CT163" s="11"/>
       <c r="CU163" s="11"/>
       <c r="CV163" s="11"/>
@@ -31330,28 +31549,30 @@
       <c r="CK164" s="26">
         <v>1.6762344259750122</v>
       </c>
-      <c r="CL164" s="25">
+      <c r="CL164" s="26">
         <v>1.4633989264385872</v>
       </c>
-      <c r="CM164" s="25">
+      <c r="CM164" s="26">
         <v>1.08791901540887</v>
       </c>
-      <c r="CN164" s="25">
+      <c r="CN164" s="26">
         <v>1.2890207821588699</v>
       </c>
-      <c r="CO164" s="25">
+      <c r="CO164" s="26">
         <v>1.742263944652648</v>
       </c>
-      <c r="CP164" s="25">
+      <c r="CP164" s="26">
         <v>1.7287858122219679</v>
       </c>
-      <c r="CQ164" s="25">
+      <c r="CQ164" s="26">
         <v>1.2149422868881699</v>
       </c>
-      <c r="CR164" s="25">
-        <v>1.397528356771881</v>
-      </c>
-      <c r="CS164" s="11"/>
+      <c r="CR164" s="26">
+        <v>1.3914520237752246</v>
+      </c>
+      <c r="CS164" s="26">
+        <v>1.7849745663870991</v>
+      </c>
       <c r="CT164" s="11"/>
       <c r="CU164" s="11"/>
       <c r="CV164" s="11"/>
@@ -31677,28 +31898,30 @@
       <c r="CK165" s="26">
         <v>4.5655907987946813</v>
       </c>
-      <c r="CL165" s="25">
+      <c r="CL165" s="26">
         <v>5.3440691247890406</v>
       </c>
-      <c r="CM165" s="25">
+      <c r="CM165" s="26">
         <v>4.8206543799868138</v>
       </c>
-      <c r="CN165" s="25">
+      <c r="CN165" s="26">
         <v>5.3248274248404597</v>
       </c>
-      <c r="CO165" s="25">
+      <c r="CO165" s="26">
         <v>4.5367553241551217</v>
       </c>
-      <c r="CP165" s="25">
+      <c r="CP165" s="26">
         <v>5.1483032982523982</v>
       </c>
-      <c r="CQ165" s="25">
+      <c r="CQ165" s="26">
         <v>4.7965048730008073</v>
       </c>
-      <c r="CR165" s="25">
-        <v>5.3444492427429253</v>
-      </c>
-      <c r="CS165" s="11"/>
+      <c r="CR165" s="26">
+        <v>5.3478927644269447</v>
+      </c>
+      <c r="CS165" s="26">
+        <v>4.6222297046738339</v>
+      </c>
       <c r="CT165" s="11"/>
       <c r="CU165" s="11"/>
       <c r="CV165" s="11"/>
@@ -32024,28 +32247,30 @@
       <c r="CK166" s="26">
         <v>6.6244397356584885</v>
       </c>
-      <c r="CL166" s="25">
+      <c r="CL166" s="26">
         <v>8.2228538846651169</v>
       </c>
-      <c r="CM166" s="25">
+      <c r="CM166" s="26">
         <v>4.7056686883621497</v>
       </c>
-      <c r="CN166" s="25">
+      <c r="CN166" s="26">
         <v>7.0196083434595717</v>
       </c>
-      <c r="CO166" s="25">
+      <c r="CO166" s="26">
         <v>7.6541432964881455</v>
       </c>
-      <c r="CP166" s="25">
+      <c r="CP166" s="26">
         <v>9.60372536195527</v>
       </c>
-      <c r="CQ166" s="25">
+      <c r="CQ166" s="26">
         <v>5.6156132362080102</v>
       </c>
-      <c r="CR166" s="25">
-        <v>7.7686298679565393</v>
-      </c>
-      <c r="CS166" s="11"/>
+      <c r="CR166" s="26">
+        <v>7.7992349247297534</v>
+      </c>
+      <c r="CS166" s="26">
+        <v>8.590122211488719</v>
+      </c>
       <c r="CT166" s="11"/>
       <c r="CU166" s="11"/>
       <c r="CV166" s="11"/>
@@ -32371,28 +32596,30 @@
       <c r="CK167" s="26">
         <v>14.54415558153898</v>
       </c>
-      <c r="CL167" s="25">
+      <c r="CL167" s="26">
         <v>14.100791138095758</v>
       </c>
-      <c r="CM167" s="25">
+      <c r="CM167" s="26">
         <v>13.43133549637928</v>
       </c>
-      <c r="CN167" s="25">
+      <c r="CN167" s="26">
         <v>13.191997438426517</v>
       </c>
-      <c r="CO167" s="25">
+      <c r="CO167" s="26">
         <v>14.105477312964235</v>
       </c>
-      <c r="CP167" s="25">
+      <c r="CP167" s="26">
         <v>14.117504860110927</v>
       </c>
-      <c r="CQ167" s="25">
+      <c r="CQ167" s="26">
         <v>13.411634152580445</v>
       </c>
-      <c r="CR167" s="25">
-        <v>13.250120657184599</v>
-      </c>
-      <c r="CS167" s="11"/>
+      <c r="CR167" s="26">
+        <v>13.26552493397212</v>
+      </c>
+      <c r="CS167" s="26">
+        <v>14.559080732187923</v>
+      </c>
       <c r="CT167" s="11"/>
       <c r="CU167" s="11"/>
       <c r="CV167" s="11"/>
@@ -32539,13 +32766,13 @@
       <c r="CI168" s="11"/>
       <c r="CJ168" s="11"/>
       <c r="CK168" s="11"/>
-      <c r="CL168" s="13"/>
-      <c r="CM168" s="13"/>
-      <c r="CN168" s="13"/>
-      <c r="CO168" s="13"/>
-      <c r="CP168" s="13"/>
-      <c r="CQ168" s="13"/>
-      <c r="CR168" s="13"/>
+      <c r="CL168" s="11"/>
+      <c r="CM168" s="11"/>
+      <c r="CN168" s="11"/>
+      <c r="CO168" s="11"/>
+      <c r="CP168" s="11"/>
+      <c r="CQ168" s="11"/>
+      <c r="CR168" s="11"/>
       <c r="CS168" s="11"/>
       <c r="CT168" s="11"/>
       <c r="CU168" s="11"/>
@@ -32872,28 +33099,30 @@
       <c r="CK169" s="26">
         <v>100</v>
       </c>
-      <c r="CL169" s="25">
+      <c r="CL169" s="26">
         <v>100</v>
       </c>
-      <c r="CM169" s="25">
+      <c r="CM169" s="26">
         <v>100</v>
       </c>
-      <c r="CN169" s="25">
+      <c r="CN169" s="26">
         <v>100</v>
       </c>
-      <c r="CO169" s="25">
+      <c r="CO169" s="26">
         <v>100</v>
       </c>
-      <c r="CP169" s="25">
+      <c r="CP169" s="26">
         <v>100</v>
       </c>
-      <c r="CQ169" s="25">
+      <c r="CQ169" s="26">
         <v>100</v>
       </c>
-      <c r="CR169" s="25">
+      <c r="CR169" s="26">
         <v>100</v>
       </c>
-      <c r="CS169" s="11"/>
+      <c r="CS169" s="26">
+        <v>100</v>
+      </c>
       <c r="CT169" s="11"/>
       <c r="CU169" s="11"/>
       <c r="CV169" s="11"/>
@@ -33041,13 +33270,14 @@
       <c r="CI170" s="16"/>
       <c r="CJ170" s="16"/>
       <c r="CK170" s="16"/>
-      <c r="CL170" s="17"/>
-      <c r="CM170" s="17"/>
-      <c r="CN170" s="17"/>
-      <c r="CO170" s="17"/>
-      <c r="CP170" s="17"/>
-      <c r="CQ170" s="17"/>
-      <c r="CR170" s="17"/>
+      <c r="CL170" s="16"/>
+      <c r="CM170" s="16"/>
+      <c r="CN170" s="16"/>
+      <c r="CO170" s="16"/>
+      <c r="CP170" s="16"/>
+      <c r="CQ170" s="16"/>
+      <c r="CR170" s="16"/>
+      <c r="CS170" s="16"/>
     </row>
     <row r="171" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A171" s="18" t="s">
@@ -33143,13 +33373,13 @@
       <c r="CI172" s="11"/>
       <c r="CJ172" s="11"/>
       <c r="CK172" s="11"/>
-      <c r="CL172" s="35"/>
-      <c r="CM172" s="35"/>
-      <c r="CN172" s="35"/>
-      <c r="CO172" s="35"/>
-      <c r="CP172" s="35"/>
-      <c r="CQ172" s="35"/>
-      <c r="CR172" s="35"/>
+      <c r="CL172" s="11"/>
+      <c r="CM172" s="11"/>
+      <c r="CN172" s="11"/>
+      <c r="CO172" s="11"/>
+      <c r="CP172" s="11"/>
+      <c r="CQ172" s="11"/>
+      <c r="CR172" s="11"/>
       <c r="CS172" s="11"/>
       <c r="CT172" s="11"/>
       <c r="CU172" s="11"/>
@@ -33297,13 +33527,13 @@
       <c r="CI173" s="11"/>
       <c r="CJ173" s="11"/>
       <c r="CK173" s="11"/>
-      <c r="CL173" s="36"/>
-      <c r="CM173" s="36"/>
-      <c r="CN173" s="36"/>
-      <c r="CO173" s="36"/>
-      <c r="CP173" s="36"/>
-      <c r="CQ173" s="36"/>
-      <c r="CR173" s="36"/>
+      <c r="CL173" s="11"/>
+      <c r="CM173" s="11"/>
+      <c r="CN173" s="11"/>
+      <c r="CO173" s="11"/>
+      <c r="CP173" s="11"/>
+      <c r="CQ173" s="11"/>
+      <c r="CR173" s="11"/>
       <c r="CS173" s="11"/>
       <c r="CT173" s="11"/>
       <c r="CU173" s="11"/>
@@ -33374,7 +33604,7 @@
     </row>
     <row r="176" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="178" spans="1:153" x14ac:dyDescent="0.2">
@@ -33384,7 +33614,7 @@
     </row>
     <row r="179" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="180" spans="1:153" x14ac:dyDescent="0.2">
@@ -33394,149 +33624,150 @@
     </row>
     <row r="182" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A182" s="4"/>
-      <c r="B182" s="38">
+      <c r="B182" s="37">
         <v>2000</v>
       </c>
-      <c r="C182" s="38"/>
-      <c r="D182" s="38"/>
-      <c r="E182" s="38"/>
-      <c r="F182" s="38">
+      <c r="C182" s="37"/>
+      <c r="D182" s="37"/>
+      <c r="E182" s="37"/>
+      <c r="F182" s="37">
         <v>2001</v>
       </c>
-      <c r="G182" s="38"/>
-      <c r="H182" s="38"/>
-      <c r="I182" s="38"/>
-      <c r="J182" s="38">
+      <c r="G182" s="37"/>
+      <c r="H182" s="37"/>
+      <c r="I182" s="37"/>
+      <c r="J182" s="37">
         <v>2002</v>
       </c>
-      <c r="K182" s="38"/>
-      <c r="L182" s="38"/>
-      <c r="M182" s="38"/>
-      <c r="N182" s="38">
+      <c r="K182" s="37"/>
+      <c r="L182" s="37"/>
+      <c r="M182" s="37"/>
+      <c r="N182" s="37">
         <v>2003</v>
       </c>
-      <c r="O182" s="38"/>
-      <c r="P182" s="38"/>
-      <c r="Q182" s="38"/>
-      <c r="R182" s="38">
+      <c r="O182" s="37"/>
+      <c r="P182" s="37"/>
+      <c r="Q182" s="37"/>
+      <c r="R182" s="37">
         <v>2004</v>
       </c>
-      <c r="S182" s="38"/>
-      <c r="T182" s="38"/>
-      <c r="U182" s="38"/>
-      <c r="V182" s="38">
+      <c r="S182" s="37"/>
+      <c r="T182" s="37"/>
+      <c r="U182" s="37"/>
+      <c r="V182" s="37">
         <v>2005</v>
       </c>
-      <c r="W182" s="38"/>
-      <c r="X182" s="38"/>
-      <c r="Y182" s="38"/>
-      <c r="Z182" s="38">
+      <c r="W182" s="37"/>
+      <c r="X182" s="37"/>
+      <c r="Y182" s="37"/>
+      <c r="Z182" s="37">
         <v>2006</v>
       </c>
-      <c r="AA182" s="38"/>
-      <c r="AB182" s="38"/>
-      <c r="AC182" s="38"/>
-      <c r="AD182" s="38">
+      <c r="AA182" s="37"/>
+      <c r="AB182" s="37"/>
+      <c r="AC182" s="37"/>
+      <c r="AD182" s="37">
         <v>2007</v>
       </c>
-      <c r="AE182" s="38"/>
-      <c r="AF182" s="38"/>
-      <c r="AG182" s="38"/>
-      <c r="AH182" s="38">
+      <c r="AE182" s="37"/>
+      <c r="AF182" s="37"/>
+      <c r="AG182" s="37"/>
+      <c r="AH182" s="37">
         <v>2008</v>
       </c>
-      <c r="AI182" s="38"/>
-      <c r="AJ182" s="38"/>
-      <c r="AK182" s="38"/>
-      <c r="AL182" s="38">
+      <c r="AI182" s="37"/>
+      <c r="AJ182" s="37"/>
+      <c r="AK182" s="37"/>
+      <c r="AL182" s="37">
         <v>2009</v>
       </c>
-      <c r="AM182" s="38"/>
-      <c r="AN182" s="38"/>
-      <c r="AO182" s="38"/>
-      <c r="AP182" s="38">
+      <c r="AM182" s="37"/>
+      <c r="AN182" s="37"/>
+      <c r="AO182" s="37"/>
+      <c r="AP182" s="37">
         <v>2010</v>
       </c>
-      <c r="AQ182" s="38"/>
-      <c r="AR182" s="38"/>
-      <c r="AS182" s="38"/>
-      <c r="AT182" s="38">
+      <c r="AQ182" s="37"/>
+      <c r="AR182" s="37"/>
+      <c r="AS182" s="37"/>
+      <c r="AT182" s="37">
         <v>2011</v>
       </c>
-      <c r="AU182" s="38"/>
-      <c r="AV182" s="38"/>
-      <c r="AW182" s="38"/>
-      <c r="AX182" s="38">
+      <c r="AU182" s="37"/>
+      <c r="AV182" s="37"/>
+      <c r="AW182" s="37"/>
+      <c r="AX182" s="37">
         <v>2012</v>
       </c>
-      <c r="AY182" s="38"/>
-      <c r="AZ182" s="38"/>
-      <c r="BA182" s="38"/>
-      <c r="BB182" s="38">
+      <c r="AY182" s="37"/>
+      <c r="AZ182" s="37"/>
+      <c r="BA182" s="37"/>
+      <c r="BB182" s="37">
         <v>2013</v>
       </c>
-      <c r="BC182" s="38"/>
-      <c r="BD182" s="38"/>
-      <c r="BE182" s="38"/>
-      <c r="BF182" s="38">
+      <c r="BC182" s="37"/>
+      <c r="BD182" s="37"/>
+      <c r="BE182" s="37"/>
+      <c r="BF182" s="37">
         <v>2014</v>
       </c>
-      <c r="BG182" s="38"/>
-      <c r="BH182" s="38"/>
-      <c r="BI182" s="38"/>
-      <c r="BJ182" s="38">
+      <c r="BG182" s="37"/>
+      <c r="BH182" s="37"/>
+      <c r="BI182" s="37"/>
+      <c r="BJ182" s="37">
         <v>2015</v>
       </c>
-      <c r="BK182" s="38"/>
-      <c r="BL182" s="38"/>
-      <c r="BM182" s="38"/>
-      <c r="BN182" s="38">
+      <c r="BK182" s="37"/>
+      <c r="BL182" s="37"/>
+      <c r="BM182" s="37"/>
+      <c r="BN182" s="37">
         <v>2016</v>
       </c>
-      <c r="BO182" s="38"/>
-      <c r="BP182" s="38"/>
-      <c r="BQ182" s="38"/>
-      <c r="BR182" s="39">
+      <c r="BO182" s="37"/>
+      <c r="BP182" s="37"/>
+      <c r="BQ182" s="37"/>
+      <c r="BR182" s="38">
         <v>2017</v>
       </c>
-      <c r="BS182" s="39"/>
-      <c r="BT182" s="39"/>
-      <c r="BU182" s="39"/>
-      <c r="BV182" s="39">
+      <c r="BS182" s="38"/>
+      <c r="BT182" s="38"/>
+      <c r="BU182" s="38"/>
+      <c r="BV182" s="38">
         <v>2018</v>
       </c>
-      <c r="BW182" s="39"/>
-      <c r="BX182" s="39"/>
-      <c r="BY182" s="39"/>
-      <c r="BZ182" s="39">
+      <c r="BW182" s="38"/>
+      <c r="BX182" s="38"/>
+      <c r="BY182" s="38"/>
+      <c r="BZ182" s="38">
         <v>2019</v>
       </c>
-      <c r="CA182" s="39"/>
-      <c r="CB182" s="39"/>
-      <c r="CC182" s="39"/>
-      <c r="CD182" s="39">
+      <c r="CA182" s="38"/>
+      <c r="CB182" s="38"/>
+      <c r="CC182" s="38"/>
+      <c r="CD182" s="38">
         <v>2020</v>
       </c>
-      <c r="CE182" s="39"/>
-      <c r="CF182" s="39"/>
-      <c r="CG182" s="39"/>
-      <c r="CH182" s="39">
+      <c r="CE182" s="38"/>
+      <c r="CF182" s="38"/>
+      <c r="CG182" s="38"/>
+      <c r="CH182" s="38">
         <v>2021</v>
       </c>
-      <c r="CI182" s="39"/>
-      <c r="CJ182" s="39"/>
-      <c r="CK182" s="39"/>
-      <c r="CL182" s="38">
+      <c r="CI182" s="38"/>
+      <c r="CJ182" s="38"/>
+      <c r="CK182" s="38"/>
+      <c r="CL182" s="34">
         <v>2022</v>
       </c>
-      <c r="CM182" s="38"/>
-      <c r="CN182" s="38"/>
-      <c r="CO182" s="38"/>
-      <c r="CP182" s="38">
+      <c r="CM182" s="34"/>
+      <c r="CN182" s="34"/>
+      <c r="CO182" s="34"/>
+      <c r="CP182" s="34">
         <v>2023</v>
       </c>
-      <c r="CQ182" s="38"/>
-      <c r="CR182" s="38"/>
+      <c r="CQ182" s="34"/>
+      <c r="CR182" s="34"/>
+      <c r="CS182" s="34"/>
     </row>
     <row r="183" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
@@ -33806,26 +34037,29 @@
       <c r="CK183" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CL183" s="6" t="s">
+      <c r="CL183" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="CM183" s="6" t="s">
+      <c r="CM183" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="CN183" s="6" t="s">
+      <c r="CN183" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="CO183" s="6" t="s">
+      <c r="CO183" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CP183" s="6" t="s">
+      <c r="CP183" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="CQ183" s="6" t="s">
+      <c r="CQ183" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="CR183" s="6" t="s">
+      <c r="CR183" s="7" t="s">
         <v>21</v>
+      </c>
+      <c r="CS183" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="184" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -34099,28 +34333,30 @@
       <c r="CK185" s="26">
         <v>39.58364879488586</v>
       </c>
-      <c r="CL185" s="25">
+      <c r="CL185" s="26">
         <v>36.181407863980084</v>
       </c>
-      <c r="CM185" s="25">
+      <c r="CM185" s="26">
         <v>39.964891757665775</v>
       </c>
-      <c r="CN185" s="25">
+      <c r="CN185" s="26">
         <v>35.001350500572762</v>
       </c>
-      <c r="CO185" s="25">
+      <c r="CO185" s="26">
         <v>38.476312795146747</v>
       </c>
-      <c r="CP185" s="25">
+      <c r="CP185" s="26">
         <v>34.21473607569947</v>
       </c>
-      <c r="CQ185" s="25">
+      <c r="CQ185" s="26">
         <v>38.024743555636398</v>
       </c>
-      <c r="CR185" s="25">
-        <v>33.410315463429896</v>
-      </c>
-      <c r="CS185" s="11"/>
+      <c r="CR185" s="26">
+        <v>33.388415400750162</v>
+      </c>
+      <c r="CS185" s="26">
+        <v>36.703354615053449</v>
+      </c>
       <c r="CT185" s="11"/>
       <c r="CU185" s="11"/>
       <c r="CV185" s="11"/>
@@ -34446,28 +34682,30 @@
       <c r="CK186" s="26">
         <v>1.6975188884552141</v>
       </c>
-      <c r="CL186" s="25">
+      <c r="CL186" s="26">
         <v>1.4561263831008557</v>
       </c>
-      <c r="CM186" s="25">
+      <c r="CM186" s="26">
         <v>1.4253056823999459</v>
       </c>
-      <c r="CN186" s="25">
+      <c r="CN186" s="26">
         <v>1.2587615339776126</v>
       </c>
-      <c r="CO186" s="25">
+      <c r="CO186" s="26">
         <v>1.6490181956184811</v>
       </c>
-      <c r="CP186" s="25">
+      <c r="CP186" s="26">
         <v>1.3644108705607478</v>
       </c>
-      <c r="CQ186" s="25">
+      <c r="CQ186" s="26">
         <v>1.239435066344017</v>
       </c>
-      <c r="CR186" s="25">
-        <v>1.2075195128160674</v>
-      </c>
-      <c r="CS186" s="11"/>
+      <c r="CR186" s="26">
+        <v>1.2078630043471241</v>
+      </c>
+      <c r="CS186" s="26">
+        <v>1.5790373076109727</v>
+      </c>
       <c r="CT186" s="11"/>
       <c r="CU186" s="11"/>
       <c r="CV186" s="11"/>
@@ -34793,28 +35031,30 @@
       <c r="CK187" s="26">
         <v>1.8612125386472798</v>
       </c>
-      <c r="CL187" s="25">
+      <c r="CL187" s="26">
         <v>1.5746146653353752</v>
       </c>
-      <c r="CM187" s="25">
+      <c r="CM187" s="26">
         <v>1.65218526897817</v>
       </c>
-      <c r="CN187" s="25">
+      <c r="CN187" s="26">
         <v>1.8603526447466225</v>
       </c>
-      <c r="CO187" s="25">
+      <c r="CO187" s="26">
         <v>1.9172808085196866</v>
       </c>
-      <c r="CP187" s="25">
+      <c r="CP187" s="26">
         <v>1.4445338583089546</v>
       </c>
-      <c r="CQ187" s="25">
+      <c r="CQ187" s="26">
         <v>1.152181427688288</v>
       </c>
-      <c r="CR187" s="25">
-        <v>1.5693982659237053</v>
-      </c>
-      <c r="CS187" s="11"/>
+      <c r="CR187" s="26">
+        <v>1.5788754937024962</v>
+      </c>
+      <c r="CS187" s="26">
+        <v>1.7955543730256831</v>
+      </c>
       <c r="CT187" s="11"/>
       <c r="CU187" s="11"/>
       <c r="CV187" s="11"/>
@@ -35140,28 +35380,30 @@
       <c r="CK188" s="26">
         <v>11.309972420802552</v>
       </c>
-      <c r="CL188" s="25">
+      <c r="CL188" s="26">
         <v>12.253231381722621</v>
       </c>
-      <c r="CM188" s="25">
+      <c r="CM188" s="26">
         <v>15.370180939523706</v>
       </c>
-      <c r="CN188" s="25">
+      <c r="CN188" s="26">
         <v>12.563123127015958</v>
       </c>
-      <c r="CO188" s="25">
+      <c r="CO188" s="26">
         <v>11.048325223907147</v>
       </c>
-      <c r="CP188" s="25">
+      <c r="CP188" s="26">
         <v>11.95925771947735</v>
       </c>
-      <c r="CQ188" s="25">
+      <c r="CQ188" s="26">
         <v>15.453858206473603</v>
       </c>
-      <c r="CR188" s="25">
-        <v>12.496674470376089</v>
-      </c>
-      <c r="CS188" s="11"/>
+      <c r="CR188" s="26">
+        <v>12.484118487741453</v>
+      </c>
+      <c r="CS188" s="26">
+        <v>10.953307543909403</v>
+      </c>
       <c r="CT188" s="11"/>
       <c r="CU188" s="11"/>
       <c r="CV188" s="11"/>
@@ -35487,28 +35729,30 @@
       <c r="CK189" s="26">
         <v>2.7412237162501683</v>
       </c>
-      <c r="CL189" s="25">
+      <c r="CL189" s="26">
         <v>2.7623384035498191</v>
       </c>
-      <c r="CM189" s="25">
+      <c r="CM189" s="26">
         <v>2.6973215554784309</v>
       </c>
-      <c r="CN189" s="25">
+      <c r="CN189" s="26">
         <v>3.0800096242424333</v>
       </c>
-      <c r="CO189" s="25">
+      <c r="CO189" s="26">
         <v>2.802373208131514</v>
       </c>
-      <c r="CP189" s="25">
+      <c r="CP189" s="26">
         <v>2.5235947740450602</v>
       </c>
-      <c r="CQ189" s="25">
+      <c r="CQ189" s="26">
         <v>2.4749490702050676</v>
       </c>
-      <c r="CR189" s="25">
-        <v>2.8985976558382185</v>
-      </c>
-      <c r="CS189" s="11"/>
+      <c r="CR189" s="26">
+        <v>2.9088332401016794</v>
+      </c>
+      <c r="CS189" s="26">
+        <v>2.6742625248116192</v>
+      </c>
       <c r="CT189" s="11"/>
       <c r="CU189" s="11"/>
       <c r="CV189" s="11"/>
@@ -35834,28 +36078,30 @@
       <c r="CK190" s="26">
         <v>4.1315339555772557</v>
       </c>
-      <c r="CL190" s="25">
+      <c r="CL190" s="26">
         <v>4.3650792035163173</v>
       </c>
-      <c r="CM190" s="25">
+      <c r="CM190" s="26">
         <v>3.7325412316773012</v>
       </c>
-      <c r="CN190" s="25">
+      <c r="CN190" s="26">
         <v>5.4627353060199484</v>
       </c>
-      <c r="CO190" s="25">
+      <c r="CO190" s="26">
         <v>4.0650234125140683</v>
       </c>
-      <c r="CP190" s="25">
+      <c r="CP190" s="26">
         <v>4.4213548067123281</v>
       </c>
-      <c r="CQ190" s="25">
+      <c r="CQ190" s="26">
         <v>3.8477164026963684</v>
       </c>
-      <c r="CR190" s="25">
-        <v>5.5113579552083518</v>
-      </c>
-      <c r="CS190" s="11"/>
+      <c r="CR190" s="26">
+        <v>5.4957472536691734</v>
+      </c>
+      <c r="CS190" s="26">
+        <v>4.1313355727527208</v>
+      </c>
       <c r="CT190" s="11"/>
       <c r="CU190" s="11"/>
       <c r="CV190" s="11"/>
@@ -36181,28 +36427,30 @@
       <c r="CK191" s="26">
         <v>7.0244507557808182</v>
       </c>
-      <c r="CL191" s="25">
+      <c r="CL191" s="26">
         <v>8.9977425952513741</v>
       </c>
-      <c r="CM191" s="25">
+      <c r="CM191" s="26">
         <v>6.9858593498514674</v>
       </c>
-      <c r="CN191" s="25">
+      <c r="CN191" s="26">
         <v>9.2967748426773973</v>
       </c>
-      <c r="CO191" s="25">
+      <c r="CO191" s="26">
         <v>7.0833636123509072</v>
       </c>
-      <c r="CP191" s="25">
+      <c r="CP191" s="26">
         <v>9.6660702385515389</v>
       </c>
-      <c r="CQ191" s="25">
+      <c r="CQ191" s="26">
         <v>8.6320279213877811</v>
       </c>
-      <c r="CR191" s="25">
-        <v>10.129880983596319</v>
-      </c>
-      <c r="CS191" s="11"/>
+      <c r="CR191" s="26">
+        <v>10.131898614480237</v>
+      </c>
+      <c r="CS191" s="26">
+        <v>7.5480026946206396</v>
+      </c>
       <c r="CT191" s="11"/>
       <c r="CU191" s="11"/>
       <c r="CV191" s="11"/>
@@ -36528,28 +36776,30 @@
       <c r="CK192" s="26">
         <v>3.1221416468722425</v>
       </c>
-      <c r="CL192" s="25">
+      <c r="CL192" s="26">
         <v>3.327850812169348</v>
       </c>
-      <c r="CM192" s="25">
+      <c r="CM192" s="26">
         <v>3.6704853046456076</v>
       </c>
-      <c r="CN192" s="25">
+      <c r="CN192" s="26">
         <v>2.7596019021116343</v>
       </c>
-      <c r="CO192" s="25">
+      <c r="CO192" s="26">
         <v>3.0947443667314065</v>
       </c>
-      <c r="CP192" s="25">
+      <c r="CP192" s="26">
         <v>3.2807698735642807</v>
       </c>
-      <c r="CQ192" s="25">
+      <c r="CQ192" s="26">
         <v>3.6389674631212636</v>
       </c>
-      <c r="CR192" s="25">
-        <v>2.7743941653227893</v>
-      </c>
-      <c r="CS192" s="11"/>
+      <c r="CR192" s="26">
+        <v>2.7578864733611868</v>
+      </c>
+      <c r="CS192" s="26">
+        <v>3.069604172480926</v>
+      </c>
       <c r="CT192" s="11"/>
       <c r="CU192" s="11"/>
       <c r="CV192" s="11"/>
@@ -36875,28 +37125,30 @@
       <c r="CK193" s="26">
         <v>1.7412296168903436</v>
       </c>
-      <c r="CL193" s="25">
+      <c r="CL193" s="26">
         <v>1.5554112620762346</v>
       </c>
-      <c r="CM193" s="25">
+      <c r="CM193" s="26">
         <v>1.2031115031500987</v>
       </c>
-      <c r="CN193" s="25">
+      <c r="CN193" s="26">
         <v>1.4653069876611839</v>
       </c>
-      <c r="CO193" s="25">
+      <c r="CO193" s="26">
         <v>1.879917694815243</v>
       </c>
-      <c r="CP193" s="25">
+      <c r="CP193" s="26">
         <v>1.8967387077809454</v>
       </c>
-      <c r="CQ193" s="25">
+      <c r="CQ193" s="26">
         <v>1.3559895007126457</v>
       </c>
-      <c r="CR193" s="25">
-        <v>1.6100808949213514</v>
-      </c>
-      <c r="CS193" s="11"/>
+      <c r="CR193" s="26">
+        <v>1.6030997703527463</v>
+      </c>
+      <c r="CS193" s="26">
+        <v>1.9147404903224825</v>
+      </c>
       <c r="CT193" s="11"/>
       <c r="CU193" s="11"/>
       <c r="CV193" s="11"/>
@@ -37222,28 +37474,30 @@
       <c r="CK194" s="26">
         <v>4.973501027620439</v>
       </c>
-      <c r="CL194" s="25">
+      <c r="CL194" s="26">
         <v>5.6844420724701745</v>
       </c>
-      <c r="CM194" s="25">
+      <c r="CM194" s="26">
         <v>5.1622463413156092</v>
       </c>
-      <c r="CN194" s="25">
+      <c r="CN194" s="26">
         <v>5.7690547591570205</v>
       </c>
-      <c r="CO194" s="25">
+      <c r="CO194" s="26">
         <v>5.1272646206983881</v>
       </c>
-      <c r="CP194" s="25">
+      <c r="CP194" s="26">
         <v>5.6949105125756105</v>
       </c>
-      <c r="CQ194" s="25">
+      <c r="CQ194" s="26">
         <v>5.2416852555924178</v>
       </c>
-      <c r="CR194" s="25">
-        <v>5.8469710888952333</v>
-      </c>
-      <c r="CS194" s="11"/>
+      <c r="CR194" s="26">
+        <v>5.8508090833217485</v>
+      </c>
+      <c r="CS194" s="26">
+        <v>5.2473832298243579</v>
+      </c>
       <c r="CT194" s="11"/>
       <c r="CU194" s="11"/>
       <c r="CV194" s="11"/>
@@ -37569,28 +37823,30 @@
       <c r="CK195" s="26">
         <v>6.5445230375477887</v>
       </c>
-      <c r="CL195" s="25">
+      <c r="CL195" s="26">
         <v>8.1574379909452954</v>
       </c>
-      <c r="CM195" s="25">
+      <c r="CM195" s="26">
         <v>4.9509064123882824</v>
       </c>
-      <c r="CN195" s="25">
+      <c r="CN195" s="26">
         <v>6.9689554823920368</v>
       </c>
-      <c r="CO195" s="25">
+      <c r="CO195" s="26">
         <v>7.6340247187200703</v>
       </c>
-      <c r="CP195" s="25">
+      <c r="CP195" s="26">
         <v>9.5061826211599332</v>
       </c>
-      <c r="CQ195" s="25">
+      <c r="CQ195" s="26">
         <v>5.7660456524085362</v>
       </c>
-      <c r="CR195" s="25">
-        <v>7.6199726719071288</v>
-      </c>
-      <c r="CS195" s="11"/>
+      <c r="CR195" s="26">
+        <v>7.6500845112551934</v>
+      </c>
+      <c r="CS195" s="26">
+        <v>8.4232930965677717</v>
+      </c>
       <c r="CT195" s="11"/>
       <c r="CU195" s="11"/>
       <c r="CV195" s="11"/>
@@ -37916,28 +38172,30 @@
       <c r="CK196" s="26">
         <v>15.269043600670045</v>
       </c>
-      <c r="CL196" s="25">
+      <c r="CL196" s="26">
         <v>13.684317365882483</v>
       </c>
-      <c r="CM196" s="25">
+      <c r="CM196" s="26">
         <v>13.184964652925608</v>
       </c>
-      <c r="CN196" s="25">
+      <c r="CN196" s="26">
         <v>14.513973289425405</v>
       </c>
-      <c r="CO196" s="25">
+      <c r="CO196" s="26">
         <v>15.222351342846343</v>
       </c>
-      <c r="CP196" s="25">
+      <c r="CP196" s="26">
         <v>14.027439941563799</v>
       </c>
-      <c r="CQ196" s="25">
+      <c r="CQ196" s="26">
         <v>13.172400477733619</v>
       </c>
-      <c r="CR196" s="25">
-        <v>14.924836871764832</v>
-      </c>
-      <c r="CS196" s="11"/>
+      <c r="CR196" s="26">
+        <v>14.942368666916803</v>
+      </c>
+      <c r="CS196" s="26">
+        <v>15.960124379019961</v>
+      </c>
       <c r="CT196" s="11"/>
       <c r="CU196" s="11"/>
       <c r="CV196" s="11"/>
@@ -38084,13 +38342,13 @@
       <c r="CI197" s="11"/>
       <c r="CJ197" s="11"/>
       <c r="CK197" s="11"/>
-      <c r="CL197" s="13"/>
-      <c r="CM197" s="13"/>
-      <c r="CN197" s="13"/>
-      <c r="CO197" s="13"/>
-      <c r="CP197" s="13"/>
-      <c r="CQ197" s="13"/>
-      <c r="CR197" s="13"/>
+      <c r="CL197" s="11"/>
+      <c r="CM197" s="11"/>
+      <c r="CN197" s="11"/>
+      <c r="CO197" s="11"/>
+      <c r="CP197" s="11"/>
+      <c r="CQ197" s="11"/>
+      <c r="CR197" s="11"/>
       <c r="CS197" s="11"/>
       <c r="CT197" s="11"/>
       <c r="CU197" s="11"/>
@@ -38417,28 +38675,30 @@
       <c r="CK198" s="26">
         <v>100</v>
       </c>
-      <c r="CL198" s="25">
+      <c r="CL198" s="26">
         <v>100</v>
       </c>
-      <c r="CM198" s="25">
+      <c r="CM198" s="26">
         <v>100</v>
       </c>
-      <c r="CN198" s="25">
+      <c r="CN198" s="26">
         <v>100</v>
       </c>
-      <c r="CO198" s="25">
+      <c r="CO198" s="26">
         <v>100</v>
       </c>
-      <c r="CP198" s="25">
+      <c r="CP198" s="26">
         <v>100</v>
       </c>
-      <c r="CQ198" s="25">
+      <c r="CQ198" s="26">
         <v>100</v>
       </c>
-      <c r="CR198" s="25">
+      <c r="CR198" s="26">
         <v>100</v>
       </c>
-      <c r="CS198" s="11"/>
+      <c r="CS198" s="26">
+        <v>100</v>
+      </c>
       <c r="CT198" s="11"/>
       <c r="CU198" s="11"/>
       <c r="CV198" s="11"/>
@@ -38586,13 +38846,14 @@
       <c r="CI199" s="16"/>
       <c r="CJ199" s="16"/>
       <c r="CK199" s="16"/>
-      <c r="CL199" s="17"/>
-      <c r="CM199" s="17"/>
-      <c r="CN199" s="17"/>
-      <c r="CO199" s="17"/>
-      <c r="CP199" s="17"/>
-      <c r="CQ199" s="17"/>
-      <c r="CR199" s="17"/>
+      <c r="CL199" s="16"/>
+      <c r="CM199" s="16"/>
+      <c r="CN199" s="16"/>
+      <c r="CO199" s="16"/>
+      <c r="CP199" s="16"/>
+      <c r="CQ199" s="16"/>
+      <c r="CR199" s="16"/>
+      <c r="CS199" s="16"/>
     </row>
     <row r="200" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A200" s="18" t="s">
@@ -38689,14 +38950,14 @@
       <c r="CI201" s="1"/>
       <c r="CJ201" s="1"/>
       <c r="CK201" s="1"/>
-      <c r="CL201" s="35"/>
-      <c r="CM201" s="35"/>
-      <c r="CN201" s="35"/>
-      <c r="CO201" s="35"/>
-      <c r="CP201" s="35"/>
-      <c r="CQ201" s="35"/>
-      <c r="CR201" s="35"/>
-      <c r="CS201" s="28"/>
+      <c r="CL201" s="1"/>
+      <c r="CM201" s="1"/>
+      <c r="CN201" s="1"/>
+      <c r="CO201" s="1"/>
+      <c r="CP201" s="1"/>
+      <c r="CQ201" s="1"/>
+      <c r="CR201" s="1"/>
+      <c r="CS201" s="1"/>
       <c r="CT201" s="28"/>
       <c r="CU201" s="28"/>
       <c r="CV201" s="28"/>
@@ -38844,14 +39105,14 @@
       <c r="CI202" s="1"/>
       <c r="CJ202" s="1"/>
       <c r="CK202" s="1"/>
-      <c r="CL202" s="36"/>
-      <c r="CM202" s="36"/>
-      <c r="CN202" s="36"/>
-      <c r="CO202" s="36"/>
-      <c r="CP202" s="36"/>
-      <c r="CQ202" s="36"/>
-      <c r="CR202" s="36"/>
-      <c r="CS202" s="28"/>
+      <c r="CL202" s="1"/>
+      <c r="CM202" s="1"/>
+      <c r="CN202" s="1"/>
+      <c r="CO202" s="1"/>
+      <c r="CP202" s="1"/>
+      <c r="CQ202" s="1"/>
+      <c r="CR202" s="1"/>
+      <c r="CS202" s="1"/>
       <c r="CT202" s="28"/>
       <c r="CU202" s="28"/>
       <c r="CV202" s="28"/>
@@ -38910,25 +39171,13 @@
       <c r="EW202" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="166">
-    <mergeCell ref="CL182:CO182"/>
-    <mergeCell ref="CP9:CR9"/>
-    <mergeCell ref="CP38:CR38"/>
-    <mergeCell ref="CP124:CR124"/>
-    <mergeCell ref="CP153:CR153"/>
-    <mergeCell ref="CP182:CR182"/>
+  <mergeCells count="154">
     <mergeCell ref="CH9:CK9"/>
     <mergeCell ref="CH38:CK38"/>
-    <mergeCell ref="CL9:CO9"/>
-    <mergeCell ref="CL38:CO38"/>
     <mergeCell ref="CH67:CK67"/>
     <mergeCell ref="CH96:CK96"/>
-    <mergeCell ref="CL124:CO124"/>
     <mergeCell ref="CH124:CK124"/>
     <mergeCell ref="CH153:CK153"/>
-    <mergeCell ref="CL153:CO153"/>
-    <mergeCell ref="CL67:CN67"/>
-    <mergeCell ref="CL96:CN96"/>
     <mergeCell ref="AH124:AK124"/>
     <mergeCell ref="BR182:BU182"/>
     <mergeCell ref="BV182:BY182"/>
@@ -39082,9 +39331,9 @@
   <pageSetup paperSize="9" scale="44" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="58" max="95" man="1"/>
-    <brk id="116" max="95" man="1"/>
-    <brk id="144" max="95" man="1"/>
+    <brk id="58" max="96" man="1"/>
+    <brk id="116" max="96" man="1"/>
+    <brk id="144" max="96" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-02HFCE_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-02HFCE_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C2D433-5650-4AAF-BF8E-94937C6EF62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904E02E2-1299-43E0-9DE1-9249F569E037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HFCE" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="PCE_Per_Anl">#REF!</definedName>
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HFCE!$A$1:$CS$202</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HFCE!$A$1:$CT$202</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="63">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -223,13 +223,16 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2023</t>
+    <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2023</t>
+    <t>Q1 2000 to Q1 2024</t>
   </si>
   <si>
-    <t>As of January 2024</t>
+    <t>Q1 2001 to Q1 2024</t>
+  </si>
+  <si>
+    <t>As of May 2024</t>
   </si>
 </sst>
 </file>
@@ -318,7 +321,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -363,21 +366,30 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -716,35 +728,21 @@
   </sheetPr>
   <dimension ref="A1:EW202"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="CD2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="CM2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="CA66" sqref="CA66"/>
       <selection pane="topRight" activeCell="CA66" sqref="CA66"/>
       <selection pane="bottomLeft" activeCell="CA66" sqref="CA66"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="DG12" sqref="DG12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.88671875" style="1" customWidth="1"/>
-    <col min="2" max="56" width="11.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="58" max="60" width="11.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="62" max="64" width="11.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="11.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="11.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="72" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="77" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="97" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="98" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="69" width="11.109375" style="2" customWidth="1"/>
+    <col min="70" max="93" width="11.109375" style="1" customWidth="1"/>
+    <col min="94" max="98" width="11.109375" style="2" customWidth="1"/>
+    <col min="99" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:153" x14ac:dyDescent="0.2">
@@ -759,7 +757,7 @@
     </row>
     <row r="3" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:153" x14ac:dyDescent="0.2">
@@ -769,7 +767,7 @@
     </row>
     <row r="6" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:153" x14ac:dyDescent="0.2">
@@ -779,150 +777,153 @@
     </row>
     <row r="9" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="37">
+      <c r="B9" s="43">
         <v>2000</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37">
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43">
         <v>2001</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37">
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43">
         <v>2002</v>
       </c>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37">
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43">
         <v>2003</v>
       </c>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37">
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43">
         <v>2004</v>
       </c>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37">
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43">
         <v>2005</v>
       </c>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37">
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="43">
         <v>2006</v>
       </c>
-      <c r="AA9" s="37"/>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="37"/>
-      <c r="AD9" s="37">
+      <c r="AA9" s="43"/>
+      <c r="AB9" s="43"/>
+      <c r="AC9" s="43"/>
+      <c r="AD9" s="43">
         <v>2007</v>
       </c>
-      <c r="AE9" s="37"/>
-      <c r="AF9" s="37"/>
-      <c r="AG9" s="37"/>
-      <c r="AH9" s="37">
+      <c r="AE9" s="43"/>
+      <c r="AF9" s="43"/>
+      <c r="AG9" s="43"/>
+      <c r="AH9" s="43">
         <v>2008</v>
       </c>
-      <c r="AI9" s="37"/>
-      <c r="AJ9" s="37"/>
-      <c r="AK9" s="37"/>
-      <c r="AL9" s="37">
+      <c r="AI9" s="43"/>
+      <c r="AJ9" s="43"/>
+      <c r="AK9" s="43"/>
+      <c r="AL9" s="43">
         <v>2009</v>
       </c>
-      <c r="AM9" s="37"/>
-      <c r="AN9" s="37"/>
-      <c r="AO9" s="37"/>
-      <c r="AP9" s="37">
+      <c r="AM9" s="43"/>
+      <c r="AN9" s="43"/>
+      <c r="AO9" s="43"/>
+      <c r="AP9" s="43">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="37"/>
-      <c r="AR9" s="37"/>
-      <c r="AS9" s="37"/>
-      <c r="AT9" s="37">
+      <c r="AQ9" s="43"/>
+      <c r="AR9" s="43"/>
+      <c r="AS9" s="43"/>
+      <c r="AT9" s="43">
         <v>2011</v>
       </c>
-      <c r="AU9" s="37"/>
-      <c r="AV9" s="37"/>
-      <c r="AW9" s="37"/>
-      <c r="AX9" s="37">
+      <c r="AU9" s="43"/>
+      <c r="AV9" s="43"/>
+      <c r="AW9" s="43"/>
+      <c r="AX9" s="43">
         <v>2012</v>
       </c>
-      <c r="AY9" s="37"/>
-      <c r="AZ9" s="37"/>
-      <c r="BA9" s="37"/>
-      <c r="BB9" s="37">
+      <c r="AY9" s="43"/>
+      <c r="AZ9" s="43"/>
+      <c r="BA9" s="43"/>
+      <c r="BB9" s="43">
         <v>2013</v>
       </c>
-      <c r="BC9" s="37"/>
-      <c r="BD9" s="37"/>
-      <c r="BE9" s="37"/>
-      <c r="BF9" s="37">
+      <c r="BC9" s="43"/>
+      <c r="BD9" s="43"/>
+      <c r="BE9" s="43"/>
+      <c r="BF9" s="43">
         <v>2014</v>
       </c>
-      <c r="BG9" s="37"/>
-      <c r="BH9" s="37"/>
-      <c r="BI9" s="37"/>
-      <c r="BJ9" s="37">
+      <c r="BG9" s="43"/>
+      <c r="BH9" s="43"/>
+      <c r="BI9" s="43"/>
+      <c r="BJ9" s="43">
         <v>2015</v>
       </c>
-      <c r="BK9" s="37"/>
-      <c r="BL9" s="37"/>
-      <c r="BM9" s="37"/>
-      <c r="BN9" s="37">
+      <c r="BK9" s="43"/>
+      <c r="BL9" s="43"/>
+      <c r="BM9" s="43"/>
+      <c r="BN9" s="43">
         <v>2016</v>
       </c>
-      <c r="BO9" s="37"/>
-      <c r="BP9" s="37"/>
-      <c r="BQ9" s="37"/>
-      <c r="BR9" s="38">
+      <c r="BO9" s="43"/>
+      <c r="BP9" s="43"/>
+      <c r="BQ9" s="43"/>
+      <c r="BR9" s="42">
         <v>2017</v>
       </c>
-      <c r="BS9" s="38"/>
-      <c r="BT9" s="38"/>
-      <c r="BU9" s="38"/>
-      <c r="BV9" s="38">
+      <c r="BS9" s="42"/>
+      <c r="BT9" s="42"/>
+      <c r="BU9" s="42"/>
+      <c r="BV9" s="42">
         <v>2018</v>
       </c>
-      <c r="BW9" s="38"/>
-      <c r="BX9" s="38"/>
-      <c r="BY9" s="38"/>
-      <c r="BZ9" s="38">
+      <c r="BW9" s="42"/>
+      <c r="BX9" s="42"/>
+      <c r="BY9" s="42"/>
+      <c r="BZ9" s="42">
         <v>2019</v>
       </c>
-      <c r="CA9" s="38"/>
-      <c r="CB9" s="38"/>
-      <c r="CC9" s="38"/>
-      <c r="CD9" s="38">
+      <c r="CA9" s="42"/>
+      <c r="CB9" s="42"/>
+      <c r="CC9" s="42"/>
+      <c r="CD9" s="42">
         <v>2020</v>
       </c>
-      <c r="CE9" s="38"/>
-      <c r="CF9" s="38"/>
-      <c r="CG9" s="38"/>
-      <c r="CH9" s="38">
+      <c r="CE9" s="42"/>
+      <c r="CF9" s="42"/>
+      <c r="CG9" s="42"/>
+      <c r="CH9" s="33">
         <v>2021</v>
       </c>
-      <c r="CI9" s="38"/>
-      <c r="CJ9" s="38"/>
-      <c r="CK9" s="38"/>
-      <c r="CL9" s="34">
+      <c r="CI9" s="33"/>
+      <c r="CJ9" s="33"/>
+      <c r="CK9" s="33"/>
+      <c r="CL9" s="33">
         <v>2022</v>
       </c>
-      <c r="CM9" s="34"/>
-      <c r="CN9" s="34"/>
-      <c r="CO9" s="34"/>
-      <c r="CP9" s="34">
+      <c r="CM9" s="33"/>
+      <c r="CN9" s="33"/>
+      <c r="CO9" s="33"/>
+      <c r="CP9" s="35">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="34"/>
-      <c r="CR9" s="34"/>
-      <c r="CS9" s="34"/>
+      <c r="CQ9" s="35"/>
+      <c r="CR9" s="35"/>
+      <c r="CS9" s="35"/>
+      <c r="CT9" s="35">
+        <v>2024</v>
+      </c>
     </row>
     <row r="10" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -1204,17 +1205,20 @@
       <c r="CO10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CP10" s="7" t="s">
+      <c r="CP10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="CQ10" s="7" t="s">
+      <c r="CQ10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="CR10" s="7" t="s">
+      <c r="CR10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="CS10" s="7" t="s">
+      <c r="CS10" s="6" t="s">
         <v>22</v>
+      </c>
+      <c r="CT10" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1492,27 +1496,29 @@
         <v>1383392.0048945465</v>
       </c>
       <c r="CM12" s="10">
-        <v>1564274.8680853865</v>
+        <v>1564758.8938338954</v>
       </c>
       <c r="CN12" s="10">
-        <v>1452966.6181643624</v>
+        <v>1453600.2873056903</v>
       </c>
       <c r="CO12" s="10">
-        <v>1931500.2484176089</v>
-      </c>
-      <c r="CP12" s="10">
-        <v>1534902.7290848328</v>
-      </c>
-      <c r="CQ12" s="10">
-        <v>1685996.4564988299</v>
-      </c>
-      <c r="CR12" s="10">
-        <v>1567980.0816197318</v>
-      </c>
-      <c r="CS12" s="10">
-        <v>2057368.4474864064</v>
-      </c>
-      <c r="CT12" s="11"/>
+        <v>1930715.3590808352</v>
+      </c>
+      <c r="CP12" s="9">
+        <v>1536533.1573482729</v>
+      </c>
+      <c r="CQ12" s="9">
+        <v>1685146.0249135478</v>
+      </c>
+      <c r="CR12" s="9">
+        <v>1568298.0214561208</v>
+      </c>
+      <c r="CS12" s="9">
+        <v>2058930.0163327174</v>
+      </c>
+      <c r="CT12" s="9">
+        <v>1615076.612128017</v>
+      </c>
       <c r="CU12" s="11"/>
       <c r="CV12" s="11"/>
       <c r="CW12" s="11"/>
@@ -1838,30 +1844,32 @@
         <v>95079.966968849665</v>
       </c>
       <c r="CL13" s="10">
-        <v>70726.395920509851</v>
+        <v>70727.397229675451</v>
       </c>
       <c r="CM13" s="10">
-        <v>75224.766215338052</v>
+        <v>75224.770213510827</v>
       </c>
       <c r="CN13" s="10">
-        <v>73988.939524007612</v>
+        <v>73555.025462956371</v>
       </c>
       <c r="CO13" s="10">
-        <v>109227.64524527798</v>
-      </c>
-      <c r="CP13" s="10">
-        <v>78577.262359796136</v>
-      </c>
-      <c r="CQ13" s="10">
-        <v>77453.403479135828</v>
-      </c>
-      <c r="CR13" s="10">
-        <v>81787.017593040655</v>
-      </c>
-      <c r="CS13" s="10">
-        <v>117318.94591180923</v>
-      </c>
-      <c r="CT13" s="11"/>
+        <v>108866.13288724447</v>
+      </c>
+      <c r="CP13" s="9">
+        <v>78368.525494277594</v>
+      </c>
+      <c r="CQ13" s="9">
+        <v>77478.686901585825</v>
+      </c>
+      <c r="CR13" s="9">
+        <v>81690.837862780638</v>
+      </c>
+      <c r="CS13" s="9">
+        <v>116688.25715508721</v>
+      </c>
+      <c r="CT13" s="9">
+        <v>82237.348715419343</v>
+      </c>
       <c r="CU13" s="11"/>
       <c r="CV13" s="11"/>
       <c r="CW13" s="11"/>
@@ -2187,30 +2195,32 @@
         <v>76081.423775545365</v>
       </c>
       <c r="CL14" s="10">
-        <v>57846.206084560916</v>
+        <v>57953.001461360305</v>
       </c>
       <c r="CM14" s="10">
-        <v>65091.509933443755</v>
+        <v>65340.089698302145</v>
       </c>
       <c r="CN14" s="10">
-        <v>69580.189789870652</v>
+        <v>69879.858725410639</v>
       </c>
       <c r="CO14" s="10">
-        <v>86797.581272444193</v>
-      </c>
-      <c r="CP14" s="10">
-        <v>59142.699532093626</v>
-      </c>
-      <c r="CQ14" s="10">
-        <v>50347.697782978546</v>
-      </c>
-      <c r="CR14" s="10">
-        <v>64963.59407708401</v>
-      </c>
-      <c r="CS14" s="10">
-        <v>89395.964573013727</v>
-      </c>
-      <c r="CT14" s="11"/>
+        <v>86822.934730998546</v>
+      </c>
+      <c r="CP14" s="9">
+        <v>58896.188493212794</v>
+      </c>
+      <c r="CQ14" s="9">
+        <v>50174.921717145211</v>
+      </c>
+      <c r="CR14" s="9">
+        <v>65374.014368846489</v>
+      </c>
+      <c r="CS14" s="9">
+        <v>88897.129481566808</v>
+      </c>
+      <c r="CT14" s="9">
+        <v>61455.014535217168</v>
+      </c>
       <c r="CU14" s="11"/>
       <c r="CV14" s="11"/>
       <c r="CW14" s="11"/>
@@ -2536,30 +2546,32 @@
         <v>485121.81906793592</v>
       </c>
       <c r="CL15" s="10">
-        <v>443892.4360467603</v>
+        <v>443879.56640330941</v>
       </c>
       <c r="CM15" s="10">
-        <v>575919.96011569072</v>
+        <v>576324.20146415534</v>
       </c>
       <c r="CN15" s="10">
-        <v>523413.55395594909</v>
+        <v>523357.35788584198</v>
       </c>
       <c r="CO15" s="10">
-        <v>542954.16776765871</v>
-      </c>
-      <c r="CP15" s="10">
-        <v>499104.71244148072</v>
-      </c>
-      <c r="CQ15" s="10">
-        <v>648785.47920105793</v>
-      </c>
-      <c r="CR15" s="10">
-        <v>563858.32332936954</v>
-      </c>
-      <c r="CS15" s="10">
-        <v>579305.68188220554</v>
-      </c>
-      <c r="CT15" s="11"/>
+        <v>542221.68455263809</v>
+      </c>
+      <c r="CP15" s="9">
+        <v>498031.71244148072</v>
+      </c>
+      <c r="CQ15" s="9">
+        <v>648513.97920105793</v>
+      </c>
+      <c r="CR15" s="9">
+        <v>563329.32332936954</v>
+      </c>
+      <c r="CS15" s="9">
+        <v>578683.21603506792</v>
+      </c>
+      <c r="CT15" s="9">
+        <v>538003.59721020551</v>
+      </c>
       <c r="CU15" s="11"/>
       <c r="CV15" s="11"/>
       <c r="CW15" s="11"/>
@@ -2885,30 +2897,32 @@
         <v>115232.79383796283</v>
       </c>
       <c r="CL16" s="10">
-        <v>107318.54362644965</v>
+        <v>107424.34184207172</v>
       </c>
       <c r="CM16" s="10">
-        <v>102654.88177364389</v>
+        <v>102654.61314200748</v>
       </c>
       <c r="CN16" s="10">
-        <v>123790.36496422309</v>
+        <v>123736.23779455178</v>
       </c>
       <c r="CO16" s="10">
-        <v>131512.8002420741</v>
-      </c>
-      <c r="CP16" s="10">
-        <v>110439.07435267864</v>
-      </c>
-      <c r="CQ16" s="10">
-        <v>105474.47517155809</v>
-      </c>
-      <c r="CR16" s="10">
-        <v>127530.37049273586</v>
-      </c>
-      <c r="CS16" s="10">
-        <v>138580.73745255839</v>
-      </c>
-      <c r="CT16" s="11"/>
+        <v>130719.22633313532</v>
+      </c>
+      <c r="CP16" s="9">
+        <v>110871.54479007726</v>
+      </c>
+      <c r="CQ16" s="9">
+        <v>106253.23714514532</v>
+      </c>
+      <c r="CR16" s="9">
+        <v>127867.77678114366</v>
+      </c>
+      <c r="CS16" s="9">
+        <v>137855.96716717028</v>
+      </c>
+      <c r="CT16" s="9">
+        <v>116236.40671280884</v>
+      </c>
       <c r="CU16" s="11"/>
       <c r="CV16" s="11"/>
       <c r="CW16" s="11"/>
@@ -3234,30 +3248,32 @@
         <v>180198.24192837239</v>
       </c>
       <c r="CL17" s="10">
-        <v>164585.64785757253</v>
+        <v>164645.19463290108</v>
       </c>
       <c r="CM17" s="10">
-        <v>138406.19593863472</v>
+        <v>137830.121088741</v>
       </c>
       <c r="CN17" s="10">
-        <v>219169.46898576446</v>
+        <v>219423.0202436221</v>
       </c>
       <c r="CO17" s="10">
-        <v>195015.04490842862</v>
-      </c>
-      <c r="CP17" s="10">
-        <v>184071.27892650483</v>
-      </c>
-      <c r="CQ17" s="10">
-        <v>156645.83555380092</v>
-      </c>
-      <c r="CR17" s="10">
-        <v>240981.33455297101</v>
-      </c>
-      <c r="CS17" s="10">
-        <v>216669.94238533088</v>
-      </c>
-      <c r="CT17" s="11"/>
+        <v>195414.68022995957</v>
+      </c>
+      <c r="CP17" s="9">
+        <v>184043.48918585389</v>
+      </c>
+      <c r="CQ17" s="9">
+        <v>156766.68111373292</v>
+      </c>
+      <c r="CR17" s="9">
+        <v>241006.38767839814</v>
+      </c>
+      <c r="CS17" s="9">
+        <v>216650.81936884264</v>
+      </c>
+      <c r="CT17" s="9">
+        <v>203680.44353822488</v>
+      </c>
       <c r="CU17" s="11"/>
       <c r="CV17" s="11"/>
       <c r="CW17" s="11"/>
@@ -3583,30 +3599,32 @@
         <v>310709.64314581646</v>
       </c>
       <c r="CL18" s="10">
-        <v>381571.43294314115</v>
+        <v>381571.37901575054</v>
       </c>
       <c r="CM18" s="10">
-        <v>296233.49817225453</v>
+        <v>297182.27929109044</v>
       </c>
       <c r="CN18" s="10">
-        <v>462893.07174638822</v>
+        <v>462866.76992221997</v>
       </c>
       <c r="CO18" s="10">
-        <v>375843.52030543314</v>
-      </c>
-      <c r="CP18" s="10">
-        <v>472851.25966836378</v>
-      </c>
-      <c r="CQ18" s="10">
-        <v>384940.24066138553</v>
-      </c>
-      <c r="CR18" s="10">
-        <v>524433.55364961992</v>
-      </c>
-      <c r="CS18" s="10">
-        <v>422639.91913464363</v>
-      </c>
-      <c r="CT18" s="11"/>
+        <v>376386.64812021976</v>
+      </c>
+      <c r="CP18" s="9">
+        <v>473256.29873259738</v>
+      </c>
+      <c r="CQ18" s="9">
+        <v>384272.81226293766</v>
+      </c>
+      <c r="CR18" s="9">
+        <v>523724.33665674197</v>
+      </c>
+      <c r="CS18" s="9">
+        <v>422352.63781876036</v>
+      </c>
+      <c r="CT18" s="9">
+        <v>513675.7245535574</v>
+      </c>
       <c r="CU18" s="11"/>
       <c r="CV18" s="11"/>
       <c r="CW18" s="11"/>
@@ -3932,30 +3950,32 @@
         <v>118999.06344232164</v>
       </c>
       <c r="CL19" s="10">
-        <v>121218.66631277048</v>
+        <v>121318.83547741323</v>
       </c>
       <c r="CM19" s="10">
-        <v>127269.09443564281</v>
+        <v>126594.6938945959</v>
       </c>
       <c r="CN19" s="10">
-        <v>96972.841360500504</v>
+        <v>96655.934150088491</v>
       </c>
       <c r="CO19" s="10">
-        <v>126963.0439176754</v>
-      </c>
-      <c r="CP19" s="10">
-        <v>128102.85613251821</v>
-      </c>
-      <c r="CQ19" s="10">
-        <v>134057.12402480459</v>
-      </c>
-      <c r="CR19" s="10">
-        <v>102555.40877517591</v>
-      </c>
-      <c r="CS19" s="10">
-        <v>133441.85137320901</v>
-      </c>
-      <c r="CT19" s="11"/>
+        <v>127345.19202086599</v>
+      </c>
+      <c r="CP19" s="9">
+        <v>127819.65997448107</v>
+      </c>
+      <c r="CQ19" s="9">
+        <v>133713.65125885664</v>
+      </c>
+      <c r="CR19" s="9">
+        <v>102066.60385361208</v>
+      </c>
+      <c r="CS19" s="9">
+        <v>134255.5713900777</v>
+      </c>
+      <c r="CT19" s="9">
+        <v>134459.22084477913</v>
+      </c>
       <c r="CU19" s="11"/>
       <c r="CV19" s="11"/>
       <c r="CW19" s="11"/>
@@ -4281,30 +4301,32 @@
         <v>70945.452398385183</v>
       </c>
       <c r="CL20" s="10">
-        <v>56384.20558903068</v>
+        <v>56383.852475695981</v>
       </c>
       <c r="CM20" s="10">
-        <v>42183.229719704155</v>
+        <v>41539.852499758985</v>
       </c>
       <c r="CN20" s="10">
-        <v>53248.295612308109</v>
+        <v>53223.216597073624</v>
       </c>
       <c r="CO20" s="10">
-        <v>84734.360573593935</v>
-      </c>
-      <c r="CP20" s="10">
-        <v>76403.305244792777</v>
-      </c>
-      <c r="CQ20" s="10">
-        <v>52572.579115914756</v>
-      </c>
-      <c r="CR20" s="10">
-        <v>63102.461638116882</v>
-      </c>
-      <c r="CS20" s="10">
-        <v>95141.120702105167</v>
-      </c>
-      <c r="CT20" s="11"/>
+        <v>84952.946652067651</v>
+      </c>
+      <c r="CP20" s="9">
+        <v>75296.922283388674</v>
+      </c>
+      <c r="CQ20" s="9">
+        <v>52530.738124887961</v>
+      </c>
+      <c r="CR20" s="9">
+        <v>63150.053354876218</v>
+      </c>
+      <c r="CS20" s="9">
+        <v>96006.310526762885</v>
+      </c>
+      <c r="CT20" s="9">
+        <v>84788.997055162516</v>
+      </c>
       <c r="CU20" s="11"/>
       <c r="CV20" s="11"/>
       <c r="CW20" s="11"/>
@@ -4630,30 +4652,32 @@
         <v>193235.44467712895</v>
       </c>
       <c r="CL21" s="10">
-        <v>205904.95644780132</v>
+        <v>205496.48304643904</v>
       </c>
       <c r="CM21" s="10">
-        <v>186917.19533356713</v>
+        <v>186716.43424018819</v>
       </c>
       <c r="CN21" s="10">
-        <v>219963.85840075967</v>
+        <v>219408.5717308883</v>
       </c>
       <c r="CO21" s="10">
-        <v>220643.41206795338</v>
-      </c>
-      <c r="CP21" s="10">
-        <v>227528.12153380137</v>
-      </c>
-      <c r="CQ21" s="10">
-        <v>207552.76578739766</v>
-      </c>
-      <c r="CR21" s="10">
-        <v>242527.36870971578</v>
-      </c>
-      <c r="CS21" s="10">
-        <v>246369.96096551639</v>
-      </c>
-      <c r="CT21" s="11"/>
+        <v>219841.02216222681</v>
+      </c>
+      <c r="CP21" s="9">
+        <v>227675.85348703075</v>
+      </c>
+      <c r="CQ21" s="9">
+        <v>207378.85842708446</v>
+      </c>
+      <c r="CR21" s="9">
+        <v>242002.10894328996</v>
+      </c>
+      <c r="CS21" s="9">
+        <v>246553.40202491323</v>
+      </c>
+      <c r="CT21" s="9">
+        <v>245352.54122398526</v>
+      </c>
       <c r="CU21" s="11"/>
       <c r="CV21" s="11"/>
       <c r="CW21" s="11"/>
@@ -4979,30 +5003,32 @@
         <v>280374.78925942106</v>
       </c>
       <c r="CL22" s="10">
-        <v>316823.44136322179</v>
+        <v>317048.23831029242</v>
       </c>
       <c r="CM22" s="10">
-        <v>182458.71287707717</v>
+        <v>182815.97813932429</v>
       </c>
       <c r="CN22" s="10">
-        <v>289973.74233885045</v>
+        <v>290523.11893644114</v>
       </c>
       <c r="CO22" s="10">
-        <v>372256.41956097959</v>
-      </c>
-      <c r="CP22" s="10">
-        <v>424434.51070063253</v>
-      </c>
-      <c r="CQ22" s="10">
-        <v>242996.95082726027</v>
-      </c>
-      <c r="CR22" s="10">
-        <v>353695.93362560862</v>
-      </c>
-      <c r="CS22" s="10">
-        <v>457863.02480673249</v>
-      </c>
-      <c r="CT22" s="11"/>
+        <v>372932.26815940789</v>
+      </c>
+      <c r="CP22" s="9">
+        <v>424979.12949899468</v>
+      </c>
+      <c r="CQ22" s="9">
+        <v>243540.02810056467</v>
+      </c>
+      <c r="CR22" s="9">
+        <v>353961.58977707929</v>
+      </c>
+      <c r="CS22" s="9">
+        <v>456518.77217155957</v>
+      </c>
+      <c r="CT22" s="9">
+        <v>501702.33305909531</v>
+      </c>
       <c r="CU22" s="11"/>
       <c r="CV22" s="11"/>
       <c r="CW22" s="11"/>
@@ -5328,30 +5354,32 @@
         <v>615571.23603674502</v>
       </c>
       <c r="CL23" s="10">
-        <v>543298.13431890507</v>
+        <v>543504.45803658396</v>
       </c>
       <c r="CM23" s="10">
-        <v>520789.78550921683</v>
+        <v>521029.52051819692</v>
       </c>
       <c r="CN23" s="10">
-        <v>544949.61527437216</v>
+        <v>544953.5758471319</v>
       </c>
       <c r="CO23" s="10">
-        <v>686014.65602713195</v>
-      </c>
-      <c r="CP23" s="10">
-        <v>623919.99372991757</v>
-      </c>
-      <c r="CQ23" s="10">
-        <v>580343.77860546042</v>
-      </c>
-      <c r="CR23" s="10">
-        <v>601592.62694829493</v>
-      </c>
-      <c r="CS23" s="10">
-        <v>776015.12275687535</v>
-      </c>
-      <c r="CT23" s="11"/>
+        <v>686287.45334351971</v>
+      </c>
+      <c r="CP23" s="9">
+        <v>622425.13085141755</v>
+      </c>
+      <c r="CQ23" s="9">
+        <v>580246.98628394247</v>
+      </c>
+      <c r="CR23" s="9">
+        <v>602031.33345531474</v>
+      </c>
+      <c r="CS23" s="9">
+        <v>776220.4753611621</v>
+      </c>
+      <c r="CT23" s="9">
+        <v>684576.93088843219</v>
+      </c>
       <c r="CU23" s="11"/>
       <c r="CV23" s="11"/>
       <c r="CW23" s="11"/>
@@ -5501,11 +5529,11 @@
       <c r="CM24" s="11"/>
       <c r="CN24" s="11"/>
       <c r="CO24" s="11"/>
-      <c r="CP24" s="11"/>
-      <c r="CQ24" s="11"/>
-      <c r="CR24" s="11"/>
-      <c r="CS24" s="11"/>
-      <c r="CT24" s="11"/>
+      <c r="CP24" s="13"/>
+      <c r="CQ24" s="13"/>
+      <c r="CR24" s="13"/>
+      <c r="CS24" s="13"/>
+      <c r="CT24" s="13"/>
       <c r="CU24" s="11"/>
       <c r="CV24" s="11"/>
       <c r="CW24" s="11"/>
@@ -5831,30 +5859,32 @@
         <v>4232430.2197240982</v>
       </c>
       <c r="CL25" s="30">
-        <v>3852962.0714052701</v>
+        <v>3853344.7528260392</v>
       </c>
       <c r="CM25" s="30">
-        <v>3877423.6981095998</v>
+        <v>3878011.4480237663</v>
       </c>
       <c r="CN25" s="30">
-        <v>4130910.5601173565</v>
+        <v>4131182.9746019179</v>
       </c>
       <c r="CO25" s="30">
-        <v>4863462.9003062602</v>
-      </c>
-      <c r="CP25" s="30">
-        <v>4419477.8037074124</v>
-      </c>
-      <c r="CQ25" s="30">
-        <v>4327166.7867095843</v>
-      </c>
-      <c r="CR25" s="30">
-        <v>4535008.0750114648</v>
-      </c>
-      <c r="CS25" s="30">
-        <v>5330110.7194304056</v>
-      </c>
-      <c r="CT25" s="11"/>
+        <v>4862505.5482731201</v>
+      </c>
+      <c r="CP25" s="36">
+        <v>4418197.6125810854</v>
+      </c>
+      <c r="CQ25" s="36">
+        <v>4326016.6054504886</v>
+      </c>
+      <c r="CR25" s="36">
+        <v>4534502.3875175733</v>
+      </c>
+      <c r="CS25" s="36">
+        <v>5329612.5748336874</v>
+      </c>
+      <c r="CT25" s="36">
+        <v>4781245.170464905</v>
+      </c>
       <c r="CU25" s="11"/>
       <c r="CV25" s="11"/>
       <c r="CW25" s="11"/>
@@ -6005,10 +6035,11 @@
       <c r="CM26" s="16"/>
       <c r="CN26" s="16"/>
       <c r="CO26" s="16"/>
-      <c r="CP26" s="16"/>
-      <c r="CQ26" s="16"/>
-      <c r="CR26" s="16"/>
-      <c r="CS26" s="16"/>
+      <c r="CP26" s="17"/>
+      <c r="CQ26" s="17"/>
+      <c r="CR26" s="17"/>
+      <c r="CS26" s="17"/>
+      <c r="CT26" s="17"/>
     </row>
     <row r="27" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
@@ -6108,11 +6139,11 @@
       <c r="CM28" s="31"/>
       <c r="CN28" s="31"/>
       <c r="CO28" s="31"/>
-      <c r="CP28" s="31"/>
-      <c r="CQ28" s="31"/>
-      <c r="CR28" s="31"/>
-      <c r="CS28" s="31"/>
-      <c r="CT28" s="11"/>
+      <c r="CP28" s="37"/>
+      <c r="CQ28" s="37"/>
+      <c r="CR28" s="37"/>
+      <c r="CS28" s="37"/>
+      <c r="CT28" s="37"/>
       <c r="CU28" s="11"/>
       <c r="CV28" s="11"/>
       <c r="CW28" s="11"/>
@@ -6262,11 +6293,11 @@
       <c r="CM29" s="32"/>
       <c r="CN29" s="32"/>
       <c r="CO29" s="32"/>
-      <c r="CP29" s="32"/>
-      <c r="CQ29" s="32"/>
-      <c r="CR29" s="32"/>
-      <c r="CS29" s="32"/>
-      <c r="CT29" s="11"/>
+      <c r="CP29" s="38"/>
+      <c r="CQ29" s="38"/>
+      <c r="CR29" s="38"/>
+      <c r="CS29" s="38"/>
+      <c r="CT29" s="38"/>
       <c r="CU29" s="11"/>
       <c r="CV29" s="11"/>
       <c r="CW29" s="11"/>
@@ -6335,7 +6366,7 @@
     </row>
     <row r="32" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:153" x14ac:dyDescent="0.2">
@@ -6345,7 +6376,7 @@
     </row>
     <row r="35" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:153" x14ac:dyDescent="0.2">
@@ -6355,150 +6386,153 @@
     </row>
     <row r="38" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
-      <c r="B38" s="37">
+      <c r="B38" s="43">
         <v>2000</v>
       </c>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37">
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43">
         <v>2001</v>
       </c>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37">
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43">
         <v>2002</v>
       </c>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37">
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43">
         <v>2003</v>
       </c>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="37">
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="43"/>
+      <c r="R38" s="43">
         <v>2004</v>
       </c>
-      <c r="S38" s="37"/>
-      <c r="T38" s="37"/>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37">
+      <c r="S38" s="43"/>
+      <c r="T38" s="43"/>
+      <c r="U38" s="43"/>
+      <c r="V38" s="43">
         <v>2005</v>
       </c>
-      <c r="W38" s="37"/>
-      <c r="X38" s="37"/>
-      <c r="Y38" s="37"/>
-      <c r="Z38" s="37">
+      <c r="W38" s="43"/>
+      <c r="X38" s="43"/>
+      <c r="Y38" s="43"/>
+      <c r="Z38" s="43">
         <v>2006</v>
       </c>
-      <c r="AA38" s="37"/>
-      <c r="AB38" s="37"/>
-      <c r="AC38" s="37"/>
-      <c r="AD38" s="37">
+      <c r="AA38" s="43"/>
+      <c r="AB38" s="43"/>
+      <c r="AC38" s="43"/>
+      <c r="AD38" s="43">
         <v>2007</v>
       </c>
-      <c r="AE38" s="37"/>
-      <c r="AF38" s="37"/>
-      <c r="AG38" s="37"/>
-      <c r="AH38" s="37">
+      <c r="AE38" s="43"/>
+      <c r="AF38" s="43"/>
+      <c r="AG38" s="43"/>
+      <c r="AH38" s="43">
         <v>2008</v>
       </c>
-      <c r="AI38" s="37"/>
-      <c r="AJ38" s="37"/>
-      <c r="AK38" s="37"/>
-      <c r="AL38" s="37">
+      <c r="AI38" s="43"/>
+      <c r="AJ38" s="43"/>
+      <c r="AK38" s="43"/>
+      <c r="AL38" s="43">
         <v>2009</v>
       </c>
-      <c r="AM38" s="37"/>
-      <c r="AN38" s="37"/>
-      <c r="AO38" s="37"/>
-      <c r="AP38" s="37">
+      <c r="AM38" s="43"/>
+      <c r="AN38" s="43"/>
+      <c r="AO38" s="43"/>
+      <c r="AP38" s="43">
         <v>2010</v>
       </c>
-      <c r="AQ38" s="37"/>
-      <c r="AR38" s="37"/>
-      <c r="AS38" s="37"/>
-      <c r="AT38" s="37">
+      <c r="AQ38" s="43"/>
+      <c r="AR38" s="43"/>
+      <c r="AS38" s="43"/>
+      <c r="AT38" s="43">
         <v>2011</v>
       </c>
-      <c r="AU38" s="37"/>
-      <c r="AV38" s="37"/>
-      <c r="AW38" s="37"/>
-      <c r="AX38" s="37">
+      <c r="AU38" s="43"/>
+      <c r="AV38" s="43"/>
+      <c r="AW38" s="43"/>
+      <c r="AX38" s="43">
         <v>2012</v>
       </c>
-      <c r="AY38" s="37"/>
-      <c r="AZ38" s="37"/>
-      <c r="BA38" s="37"/>
-      <c r="BB38" s="37">
+      <c r="AY38" s="43"/>
+      <c r="AZ38" s="43"/>
+      <c r="BA38" s="43"/>
+      <c r="BB38" s="43">
         <v>2013</v>
       </c>
-      <c r="BC38" s="37"/>
-      <c r="BD38" s="37"/>
-      <c r="BE38" s="37"/>
-      <c r="BF38" s="37">
+      <c r="BC38" s="43"/>
+      <c r="BD38" s="43"/>
+      <c r="BE38" s="43"/>
+      <c r="BF38" s="43">
         <v>2014</v>
       </c>
-      <c r="BG38" s="37"/>
-      <c r="BH38" s="37"/>
-      <c r="BI38" s="37"/>
-      <c r="BJ38" s="37">
+      <c r="BG38" s="43"/>
+      <c r="BH38" s="43"/>
+      <c r="BI38" s="43"/>
+      <c r="BJ38" s="43">
         <v>2015</v>
       </c>
-      <c r="BK38" s="37"/>
-      <c r="BL38" s="37"/>
-      <c r="BM38" s="37"/>
-      <c r="BN38" s="37">
+      <c r="BK38" s="43"/>
+      <c r="BL38" s="43"/>
+      <c r="BM38" s="43"/>
+      <c r="BN38" s="43">
         <v>2016</v>
       </c>
-      <c r="BO38" s="37"/>
-      <c r="BP38" s="37"/>
-      <c r="BQ38" s="37"/>
-      <c r="BR38" s="38">
+      <c r="BO38" s="43"/>
+      <c r="BP38" s="43"/>
+      <c r="BQ38" s="43"/>
+      <c r="BR38" s="42">
         <v>2017</v>
       </c>
-      <c r="BS38" s="38"/>
-      <c r="BT38" s="38"/>
-      <c r="BU38" s="38"/>
-      <c r="BV38" s="38">
+      <c r="BS38" s="42"/>
+      <c r="BT38" s="42"/>
+      <c r="BU38" s="42"/>
+      <c r="BV38" s="42">
         <v>2018</v>
       </c>
-      <c r="BW38" s="38"/>
-      <c r="BX38" s="38"/>
-      <c r="BY38" s="38"/>
-      <c r="BZ38" s="38">
+      <c r="BW38" s="42"/>
+      <c r="BX38" s="42"/>
+      <c r="BY38" s="42"/>
+      <c r="BZ38" s="42">
         <v>2019</v>
       </c>
-      <c r="CA38" s="38"/>
-      <c r="CB38" s="38"/>
-      <c r="CC38" s="38"/>
-      <c r="CD38" s="38">
+      <c r="CA38" s="42"/>
+      <c r="CB38" s="42"/>
+      <c r="CC38" s="42"/>
+      <c r="CD38" s="42">
         <v>2020</v>
       </c>
-      <c r="CE38" s="38"/>
-      <c r="CF38" s="38"/>
-      <c r="CG38" s="38"/>
-      <c r="CH38" s="38">
+      <c r="CE38" s="42"/>
+      <c r="CF38" s="42"/>
+      <c r="CG38" s="42"/>
+      <c r="CH38" s="33">
         <v>2021</v>
       </c>
-      <c r="CI38" s="38"/>
-      <c r="CJ38" s="38"/>
-      <c r="CK38" s="38"/>
-      <c r="CL38" s="34">
+      <c r="CI38" s="33"/>
+      <c r="CJ38" s="33"/>
+      <c r="CK38" s="33"/>
+      <c r="CL38" s="33">
         <v>2022</v>
       </c>
-      <c r="CM38" s="34"/>
-      <c r="CN38" s="34"/>
-      <c r="CO38" s="34"/>
-      <c r="CP38" s="34">
+      <c r="CM38" s="33"/>
+      <c r="CN38" s="33"/>
+      <c r="CO38" s="33"/>
+      <c r="CP38" s="35">
         <v>2023</v>
       </c>
-      <c r="CQ38" s="34"/>
-      <c r="CR38" s="34"/>
-      <c r="CS38" s="34"/>
+      <c r="CQ38" s="35"/>
+      <c r="CR38" s="35"/>
+      <c r="CS38" s="35"/>
+      <c r="CT38" s="35">
+        <v>2024</v>
+      </c>
     </row>
     <row r="39" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
@@ -6780,17 +6814,20 @@
       <c r="CO39" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CP39" s="7" t="s">
+      <c r="CP39" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="CQ39" s="7" t="s">
+      <c r="CQ39" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="CR39" s="7" t="s">
+      <c r="CR39" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="CS39" s="7" t="s">
+      <c r="CS39" s="6" t="s">
         <v>22</v>
+      </c>
+      <c r="CT39" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -7068,27 +7105,29 @@
         <v>1256130.3984112311</v>
       </c>
       <c r="CM41" s="10">
-        <v>1357560.021305945</v>
+        <v>1357980.084313326</v>
       </c>
       <c r="CN41" s="10">
-        <v>1226974.6790054482</v>
+        <v>1227509.7883338779</v>
       </c>
       <c r="CO41" s="10">
-        <v>1614493.9242003553</v>
-      </c>
-      <c r="CP41" s="10">
-        <v>1264231.5209391005</v>
-      </c>
-      <c r="CQ41" s="10">
-        <v>1362977.486246604</v>
-      </c>
-      <c r="CR41" s="10">
-        <v>1230545.4496856767</v>
-      </c>
-      <c r="CS41" s="10">
-        <v>1621911.6837021308</v>
-      </c>
-      <c r="CT41" s="11"/>
+        <v>1613837.8543570151</v>
+      </c>
+      <c r="CP41" s="9">
+        <v>1265574.4326195689</v>
+      </c>
+      <c r="CQ41" s="9">
+        <v>1362289.9882985125</v>
+      </c>
+      <c r="CR41" s="9">
+        <v>1230794.9677908672</v>
+      </c>
+      <c r="CS41" s="9">
+        <v>1623142.7353204403</v>
+      </c>
+      <c r="CT41" s="9">
+        <v>1272534.0884258575</v>
+      </c>
       <c r="CU41" s="11"/>
       <c r="CV41" s="11"/>
       <c r="CW41" s="11"/>
@@ -7414,30 +7453,32 @@
         <v>66587.278763515598</v>
       </c>
       <c r="CL42" s="10">
-        <v>50553.163122281469</v>
+        <v>50553.878828842302</v>
       </c>
       <c r="CM42" s="10">
-        <v>48415.945282654473</v>
+        <v>48415.947855946812</v>
       </c>
       <c r="CN42" s="10">
-        <v>44125.969627123763</v>
+        <v>43867.189344531434</v>
       </c>
       <c r="CO42" s="10">
-        <v>69193.996625832791</v>
-      </c>
-      <c r="CP42" s="10">
-        <v>50414.862948481554</v>
-      </c>
-      <c r="CQ42" s="10">
-        <v>44426.916084778</v>
-      </c>
-      <c r="CR42" s="10">
-        <v>44516.34814060777</v>
-      </c>
-      <c r="CS42" s="10">
-        <v>69777.247477139434</v>
-      </c>
-      <c r="CT42" s="11"/>
+        <v>68964.984228597677</v>
+      </c>
+      <c r="CP42" s="9">
+        <v>50280.938195297516</v>
+      </c>
+      <c r="CQ42" s="9">
+        <v>44441.418539635582</v>
+      </c>
+      <c r="CR42" s="9">
+        <v>44463.997896249566</v>
+      </c>
+      <c r="CS42" s="9">
+        <v>69402.135638920881</v>
+      </c>
+      <c r="CT42" s="9">
+        <v>48907.814261847801</v>
+      </c>
       <c r="CU42" s="11"/>
       <c r="CV42" s="11"/>
       <c r="CW42" s="11"/>
@@ -7763,30 +7804,32 @@
         <v>73008.364732741946</v>
       </c>
       <c r="CL43" s="10">
-        <v>54666.787825052692</v>
+        <v>54767.713375738836</v>
       </c>
       <c r="CM43" s="10">
-        <v>56122.776024412691</v>
+        <v>56337.104843664441</v>
       </c>
       <c r="CN43" s="10">
-        <v>65214.786186252197</v>
+        <v>65495.654140434563</v>
       </c>
       <c r="CO43" s="10">
-        <v>80450.489963046188</v>
-      </c>
-      <c r="CP43" s="10">
-        <v>53375.400374197467</v>
-      </c>
-      <c r="CQ43" s="10">
-        <v>41299.354030168775</v>
-      </c>
-      <c r="CR43" s="10">
-        <v>58190.184561804075</v>
-      </c>
-      <c r="CS43" s="10">
-        <v>79345.080221588054</v>
-      </c>
-      <c r="CT43" s="11"/>
+        <v>80473.989444633728</v>
+      </c>
+      <c r="CP43" s="9">
+        <v>53152.927854325702</v>
+      </c>
+      <c r="CQ43" s="9">
+        <v>41157.628783037362</v>
+      </c>
+      <c r="CR43" s="9">
+        <v>58557.81250580652</v>
+      </c>
+      <c r="CS43" s="9">
+        <v>78902.32969546254</v>
+      </c>
+      <c r="CT43" s="9">
+        <v>53494.367762992842</v>
+      </c>
       <c r="CU43" s="11"/>
       <c r="CV43" s="11"/>
       <c r="CW43" s="11"/>
@@ -8112,30 +8155,32 @@
         <v>443647.66219302185</v>
       </c>
       <c r="CL44" s="10">
-        <v>425402.36342409416</v>
+        <v>425390.02985790599</v>
       </c>
       <c r="CM44" s="10">
-        <v>522106.83542596304</v>
+        <v>522473.30504988926</v>
       </c>
       <c r="CN44" s="10">
-        <v>440401.12011746754</v>
+        <v>440353.83664145833</v>
       </c>
       <c r="CO44" s="10">
-        <v>463595.72034765157</v>
-      </c>
-      <c r="CP44" s="10">
-        <v>441893.53214785649</v>
-      </c>
-      <c r="CQ44" s="10">
-        <v>553935.64404324943</v>
-      </c>
-      <c r="CR44" s="10">
-        <v>460107.94504736876</v>
-      </c>
-      <c r="CS44" s="10">
-        <v>484023.8083677268</v>
-      </c>
-      <c r="CT44" s="11"/>
+        <v>462970.29723854054</v>
+      </c>
+      <c r="CP44" s="9">
+        <v>440943.52757331496</v>
+      </c>
+      <c r="CQ44" s="9">
+        <v>553703.83625442069</v>
+      </c>
+      <c r="CR44" s="9">
+        <v>459676.28146653716</v>
+      </c>
+      <c r="CS44" s="9">
+        <v>483503.72320486169</v>
+      </c>
+      <c r="CT44" s="9">
+        <v>473010.89170075598</v>
+      </c>
       <c r="CU44" s="11"/>
       <c r="CV44" s="11"/>
       <c r="CW44" s="11"/>
@@ -8461,30 +8506,32 @@
         <v>107527.8920243519</v>
       </c>
       <c r="CL45" s="10">
-        <v>95901.664535614924</v>
+        <v>95996.207609348479</v>
       </c>
       <c r="CM45" s="10">
-        <v>91624.817365404437</v>
+        <v>91624.577597707088</v>
       </c>
       <c r="CN45" s="10">
-        <v>107969.94304481793</v>
+        <v>107922.73333323596</v>
       </c>
       <c r="CO45" s="10">
-        <v>117589.60745430055</v>
-      </c>
-      <c r="CP45" s="10">
-        <v>93246.607320490031</v>
-      </c>
-      <c r="CQ45" s="10">
-        <v>88713.283690152588</v>
-      </c>
-      <c r="CR45" s="10">
-        <v>107206.39073578626</v>
-      </c>
-      <c r="CS45" s="10">
-        <v>118174.96465295256</v>
-      </c>
-      <c r="CT45" s="11"/>
+        <v>116880.04880855413</v>
+      </c>
+      <c r="CP45" s="9">
+        <v>93611.753454593345</v>
+      </c>
+      <c r="CQ45" s="9">
+        <v>89368.290807064768</v>
+      </c>
+      <c r="CR45" s="9">
+        <v>107490.02600048439</v>
+      </c>
+      <c r="CS45" s="9">
+        <v>117556.91553276678</v>
+      </c>
+      <c r="CT45" s="9">
+        <v>94861.028562041145</v>
+      </c>
       <c r="CU45" s="11"/>
       <c r="CV45" s="11"/>
       <c r="CW45" s="11"/>
@@ -8810,30 +8857,32 @@
         <v>162064.53141225895</v>
       </c>
       <c r="CL46" s="10">
-        <v>151544.92328277158</v>
+        <v>151599.75194867514</v>
       </c>
       <c r="CM46" s="10">
-        <v>126790.00320397994</v>
+        <v>126262.27732026199</v>
       </c>
       <c r="CN46" s="10">
-        <v>191496.55092553853</v>
+        <v>191718.08812954446</v>
       </c>
       <c r="CO46" s="10">
-        <v>170571.3236135242</v>
-      </c>
-      <c r="CP46" s="10">
-        <v>163368.67540156987</v>
-      </c>
-      <c r="CQ46" s="10">
-        <v>137919.42666657519</v>
-      </c>
-      <c r="CR46" s="10">
-        <v>202548.29989545452</v>
-      </c>
-      <c r="CS46" s="10">
-        <v>182562.64325206054</v>
-      </c>
-      <c r="CT46" s="11"/>
+        <v>170920.86754634365</v>
+      </c>
+      <c r="CP46" s="9">
+        <v>163344.01118917143</v>
+      </c>
+      <c r="CQ46" s="9">
+        <v>138025.82560327274</v>
+      </c>
+      <c r="CR46" s="9">
+        <v>202569.3574100199</v>
+      </c>
+      <c r="CS46" s="9">
+        <v>182546.53050287801</v>
+      </c>
+      <c r="CT46" s="9">
+        <v>175189.63661627885</v>
+      </c>
       <c r="CU46" s="11"/>
       <c r="CV46" s="11"/>
       <c r="CW46" s="11"/>
@@ -9159,30 +9208,32 @@
         <v>275542.77234665689</v>
       </c>
       <c r="CL47" s="10">
-        <v>312379.71815427073</v>
+        <v>312379.67400572699</v>
       </c>
       <c r="CM47" s="10">
-        <v>237301.36504137018</v>
+        <v>238061.3974347841</v>
       </c>
       <c r="CN47" s="10">
-        <v>325899.06290025474</v>
+        <v>325880.54514664772</v>
       </c>
       <c r="CO47" s="10">
-        <v>297223.06230146147</v>
-      </c>
-      <c r="CP47" s="10">
-        <v>357160.45426015649</v>
-      </c>
-      <c r="CQ47" s="10">
-        <v>309410.62627520744</v>
-      </c>
-      <c r="CR47" s="10">
-        <v>373415.7966791424</v>
-      </c>
-      <c r="CS47" s="10">
-        <v>333544.27374328859</v>
-      </c>
-      <c r="CT47" s="11"/>
+        <v>297652.57645724842</v>
+      </c>
+      <c r="CP47" s="9">
+        <v>357466.39388327656</v>
+      </c>
+      <c r="CQ47" s="9">
+        <v>308874.15485199948</v>
+      </c>
+      <c r="CR47" s="9">
+        <v>372910.80834159057</v>
+      </c>
+      <c r="CS47" s="9">
+        <v>333317.55347024265</v>
+      </c>
+      <c r="CT47" s="9">
+        <v>384120.55507882754</v>
+      </c>
       <c r="CU47" s="11"/>
       <c r="CV47" s="11"/>
       <c r="CW47" s="11"/>
@@ -9508,30 +9559,32 @@
         <v>122469.86916808529</v>
       </c>
       <c r="CL48" s="10">
-        <v>115534.87863873252</v>
+        <v>115630.35099981661</v>
       </c>
       <c r="CM48" s="10">
-        <v>124682.03688859146</v>
+        <v>124021.34519820612</v>
       </c>
       <c r="CN48" s="10">
-        <v>96738.028950364052</v>
+        <v>96421.889106823248</v>
       </c>
       <c r="CO48" s="10">
-        <v>129857.71281263117</v>
-      </c>
-      <c r="CP48" s="10">
-        <v>121224.16136517162</v>
-      </c>
-      <c r="CQ48" s="10">
-        <v>130436.92768528895</v>
-      </c>
-      <c r="CR48" s="10">
-        <v>101643.17802479593</v>
-      </c>
-      <c r="CS48" s="10">
-        <v>135645.00912528849</v>
-      </c>
-      <c r="CT48" s="11"/>
+        <v>130248.57362617776</v>
+      </c>
+      <c r="CP48" s="9">
+        <v>120956.17189330241</v>
+      </c>
+      <c r="CQ48" s="9">
+        <v>130102.73035963597</v>
+      </c>
+      <c r="CR48" s="9">
+        <v>101158.72102486502</v>
+      </c>
+      <c r="CS48" s="9">
+        <v>136472.16385956208</v>
+      </c>
+      <c r="CT48" s="9">
+        <v>126704.41917987543</v>
+      </c>
       <c r="CU48" s="11"/>
       <c r="CV48" s="11"/>
       <c r="CW48" s="11"/>
@@ -9857,30 +9910,32 @@
         <v>68301.886170279118</v>
       </c>
       <c r="CL49" s="10">
-        <v>54000.092414043815</v>
+        <v>53999.754231524312</v>
       </c>
       <c r="CM49" s="10">
-        <v>40868.272276418429</v>
+        <v>40244.950743764843</v>
       </c>
       <c r="CN49" s="10">
-        <v>51366.434298030894</v>
+        <v>51342.241606537427</v>
       </c>
       <c r="CO49" s="10">
-        <v>78882.706678140559</v>
-      </c>
-      <c r="CP49" s="10">
-        <v>70084.330215396738</v>
-      </c>
-      <c r="CQ49" s="10">
-        <v>48604.750176787289</v>
-      </c>
-      <c r="CR49" s="10">
-        <v>59082.98145096768</v>
-      </c>
-      <c r="CS49" s="10">
-        <v>84611.883711519942</v>
-      </c>
-      <c r="CT49" s="11"/>
+        <v>79086.197462698881</v>
+      </c>
+      <c r="CP49" s="9">
+        <v>69069.451231257248</v>
+      </c>
+      <c r="CQ49" s="9">
+        <v>48566.06706573956</v>
+      </c>
+      <c r="CR49" s="9">
+        <v>59127.541685949276</v>
+      </c>
+      <c r="CS49" s="9">
+        <v>85381.323258711534</v>
+      </c>
+      <c r="CT49" s="9">
+        <v>74864.939333942952</v>
+      </c>
       <c r="CU49" s="11"/>
       <c r="CV49" s="11"/>
       <c r="CW49" s="11"/>
@@ -10206,30 +10261,32 @@
         <v>195091.73159078564</v>
       </c>
       <c r="CL50" s="10">
-        <v>197349.99014082184</v>
+        <v>196958.48804625196</v>
       </c>
       <c r="CM50" s="10">
-        <v>175355.39181733728</v>
+        <v>175167.04884478028</v>
       </c>
       <c r="CN50" s="10">
-        <v>202234.59980967609</v>
+        <v>201724.0696786012</v>
       </c>
       <c r="CO50" s="10">
-        <v>215143.7332874873</v>
-      </c>
-      <c r="CP50" s="10">
-        <v>210426.44791987777</v>
-      </c>
-      <c r="CQ50" s="10">
-        <v>187885.52729908534</v>
-      </c>
-      <c r="CR50" s="10">
-        <v>215634.26739621322</v>
-      </c>
-      <c r="CS50" s="10">
-        <v>231880.49862407261</v>
-      </c>
-      <c r="CT50" s="11"/>
+        <v>214361.34346559201</v>
+      </c>
+      <c r="CP50" s="9">
+        <v>210563.07591097074</v>
+      </c>
+      <c r="CQ50" s="9">
+        <v>187728.09901346514</v>
+      </c>
+      <c r="CR50" s="9">
+        <v>215167.25204232341</v>
+      </c>
+      <c r="CS50" s="9">
+        <v>232053.15118347705</v>
+      </c>
+      <c r="CT50" s="9">
+        <v>218652.66842691661</v>
+      </c>
       <c r="CU50" s="11"/>
       <c r="CV50" s="11"/>
       <c r="CW50" s="11"/>
@@ -10555,30 +10612,32 @@
         <v>256717.01377768896</v>
       </c>
       <c r="CL51" s="10">
-        <v>283206.38799083594</v>
+        <v>283407.33250156185</v>
       </c>
       <c r="CM51" s="10">
-        <v>168176.42483408889</v>
+        <v>168505.72450728461</v>
       </c>
       <c r="CN51" s="10">
-        <v>244297.19978579981</v>
+        <v>244760.03881162588</v>
       </c>
       <c r="CO51" s="10">
-        <v>320329.20075240469</v>
-      </c>
-      <c r="CP51" s="10">
-        <v>351252.62070951628</v>
-      </c>
-      <c r="CQ51" s="10">
-        <v>206680.95755607035</v>
-      </c>
-      <c r="CR51" s="10">
-        <v>281947.39319148543</v>
-      </c>
-      <c r="CS51" s="10">
-        <v>372223.12869918242</v>
-      </c>
-      <c r="CT51" s="11"/>
+        <v>320910.77310411725</v>
+      </c>
+      <c r="CP51" s="9">
+        <v>351703.33519052441</v>
+      </c>
+      <c r="CQ51" s="9">
+        <v>207142.87170968985</v>
+      </c>
+      <c r="CR51" s="9">
+        <v>282159.16000097245</v>
+      </c>
+      <c r="CS51" s="9">
+        <v>371130.30858810793</v>
+      </c>
+      <c r="CT51" s="9">
+        <v>393650.35520553094</v>
+      </c>
       <c r="CU51" s="11"/>
       <c r="CV51" s="11"/>
       <c r="CW51" s="11"/>
@@ -10904,30 +10963,32 @@
         <v>598947.12783746119</v>
       </c>
       <c r="CL52" s="10">
-        <v>475086.18485529569</v>
+        <v>475266.60430032125</v>
       </c>
       <c r="CM52" s="10">
-        <v>447877.62728546589</v>
+        <v>448083.79866206896</v>
       </c>
       <c r="CN52" s="10">
-        <v>508788.30282834289</v>
+        <v>508792.00058871589</v>
       </c>
       <c r="CO52" s="10">
-        <v>638740.87639105879</v>
-      </c>
-      <c r="CP52" s="10">
-        <v>518312.68529937207</v>
-      </c>
-      <c r="CQ52" s="10">
-        <v>472157.9585331264</v>
-      </c>
-      <c r="CR52" s="10">
-        <v>550707.88924553711</v>
-      </c>
-      <c r="CS52" s="10">
-        <v>705273.74064753437</v>
-      </c>
-      <c r="CT52" s="11"/>
+        <v>638994.87504169368</v>
+      </c>
+      <c r="CP52" s="9">
+        <v>517070.84916573938</v>
+      </c>
+      <c r="CQ52" s="9">
+        <v>472079.20992477669</v>
+      </c>
+      <c r="CR52" s="9">
+        <v>551109.48847341456</v>
+      </c>
+      <c r="CS52" s="9">
+        <v>705460.37334982317</v>
+      </c>
+      <c r="CT52" s="9">
+        <v>547993.32800364518</v>
+      </c>
       <c r="CU52" s="11"/>
       <c r="CV52" s="11"/>
       <c r="CW52" s="11"/>
@@ -11077,11 +11138,11 @@
       <c r="CM53" s="11"/>
       <c r="CN53" s="11"/>
       <c r="CO53" s="11"/>
-      <c r="CP53" s="11"/>
-      <c r="CQ53" s="11"/>
-      <c r="CR53" s="11"/>
-      <c r="CS53" s="11"/>
-      <c r="CT53" s="11"/>
+      <c r="CP53" s="13"/>
+      <c r="CQ53" s="13"/>
+      <c r="CR53" s="13"/>
+      <c r="CS53" s="13"/>
+      <c r="CT53" s="13"/>
       <c r="CU53" s="11"/>
       <c r="CV53" s="11"/>
       <c r="CW53" s="11"/>
@@ -11407,30 +11468,32 @@
         <v>3922623.7313984605</v>
       </c>
       <c r="CL54" s="30">
-        <v>3471756.5527950469</v>
+        <v>3472080.1841169447</v>
       </c>
       <c r="CM54" s="30">
-        <v>3396881.5167516316</v>
+        <v>3397177.5623716842</v>
       </c>
       <c r="CN54" s="30">
-        <v>3505506.6774791162</v>
+        <v>3505788.0748620336</v>
       </c>
       <c r="CO54" s="30">
-        <v>4196072.3544278946</v>
-      </c>
-      <c r="CP54" s="30">
-        <v>3694991.2989011863</v>
-      </c>
-      <c r="CQ54" s="30">
-        <v>3584448.8582870937</v>
-      </c>
-      <c r="CR54" s="30">
-        <v>3685546.1240548398</v>
-      </c>
-      <c r="CS54" s="30">
-        <v>4418973.9622244854</v>
-      </c>
-      <c r="CT54" s="11"/>
+        <v>4195302.3807812128</v>
+      </c>
+      <c r="CP54" s="36">
+        <v>3693736.8681613421</v>
+      </c>
+      <c r="CQ54" s="36">
+        <v>3583480.1212112503</v>
+      </c>
+      <c r="CR54" s="36">
+        <v>3685185.4146390795</v>
+      </c>
+      <c r="CS54" s="36">
+        <v>4418869.2436052551</v>
+      </c>
+      <c r="CT54" s="36">
+        <v>3863984.0925585125</v>
+      </c>
       <c r="CU54" s="11"/>
       <c r="CV54" s="11"/>
       <c r="CW54" s="11"/>
@@ -11581,10 +11644,11 @@
       <c r="CM55" s="16"/>
       <c r="CN55" s="16"/>
       <c r="CO55" s="16"/>
-      <c r="CP55" s="16"/>
-      <c r="CQ55" s="16"/>
-      <c r="CR55" s="16"/>
-      <c r="CS55" s="16"/>
+      <c r="CP55" s="17"/>
+      <c r="CQ55" s="17"/>
+      <c r="CR55" s="17"/>
+      <c r="CS55" s="17"/>
+      <c r="CT55" s="17"/>
     </row>
     <row r="56" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A56" s="18" t="s">
@@ -11684,11 +11748,11 @@
       <c r="CM57" s="11"/>
       <c r="CN57" s="11"/>
       <c r="CO57" s="11"/>
-      <c r="CP57" s="11"/>
-      <c r="CQ57" s="11"/>
-      <c r="CR57" s="11"/>
-      <c r="CS57" s="11"/>
-      <c r="CT57" s="11"/>
+      <c r="CP57" s="13"/>
+      <c r="CQ57" s="13"/>
+      <c r="CR57" s="13"/>
+      <c r="CS57" s="13"/>
+      <c r="CT57" s="13"/>
       <c r="CU57" s="11"/>
       <c r="CV57" s="11"/>
       <c r="CW57" s="11"/>
@@ -11838,11 +11902,11 @@
       <c r="CM58" s="32"/>
       <c r="CN58" s="32"/>
       <c r="CO58" s="32"/>
-      <c r="CP58" s="32"/>
-      <c r="CQ58" s="32"/>
-      <c r="CR58" s="32"/>
-      <c r="CS58" s="32"/>
-      <c r="CT58" s="11"/>
+      <c r="CP58" s="38"/>
+      <c r="CQ58" s="38"/>
+      <c r="CR58" s="38"/>
+      <c r="CS58" s="38"/>
+      <c r="CT58" s="38"/>
       <c r="CU58" s="11"/>
       <c r="CV58" s="11"/>
       <c r="CW58" s="11"/>
@@ -11911,7 +11975,7 @@
     </row>
     <row r="61" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:153" x14ac:dyDescent="0.2">
@@ -11921,7 +11985,7 @@
     </row>
     <row r="64" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:149" x14ac:dyDescent="0.2">
@@ -11930,155 +11994,158 @@
       </c>
     </row>
     <row r="66" spans="1:149" x14ac:dyDescent="0.2">
-      <c r="CP66" s="8"/>
-      <c r="CQ66" s="8"/>
-      <c r="CR66" s="8"/>
-      <c r="CS66" s="8"/>
+      <c r="CQ66" s="39"/>
+      <c r="CR66" s="39"/>
+      <c r="CS66" s="39"/>
+      <c r="CT66" s="39"/>
     </row>
     <row r="67" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
-      <c r="B67" s="37" t="s">
+      <c r="B67" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C67" s="37"/>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37" t="s">
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="37" t="s">
+      <c r="G67" s="43"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="K67" s="37"/>
-      <c r="L67" s="37"/>
-      <c r="M67" s="37"/>
-      <c r="N67" s="37" t="s">
+      <c r="K67" s="43"/>
+      <c r="L67" s="43"/>
+      <c r="M67" s="43"/>
+      <c r="N67" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="O67" s="37"/>
-      <c r="P67" s="37"/>
-      <c r="Q67" s="37"/>
-      <c r="R67" s="37" t="s">
+      <c r="O67" s="43"/>
+      <c r="P67" s="43"/>
+      <c r="Q67" s="43"/>
+      <c r="R67" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="S67" s="37"/>
-      <c r="T67" s="37"/>
-      <c r="U67" s="37"/>
-      <c r="V67" s="37" t="s">
+      <c r="S67" s="43"/>
+      <c r="T67" s="43"/>
+      <c r="U67" s="43"/>
+      <c r="V67" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="W67" s="37"/>
-      <c r="X67" s="37"/>
-      <c r="Y67" s="37"/>
-      <c r="Z67" s="37" t="s">
+      <c r="W67" s="43"/>
+      <c r="X67" s="43"/>
+      <c r="Y67" s="43"/>
+      <c r="Z67" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="AA67" s="37"/>
-      <c r="AB67" s="37"/>
-      <c r="AC67" s="37"/>
-      <c r="AD67" s="37" t="s">
+      <c r="AA67" s="43"/>
+      <c r="AB67" s="43"/>
+      <c r="AC67" s="43"/>
+      <c r="AD67" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="AE67" s="37"/>
-      <c r="AF67" s="37"/>
-      <c r="AG67" s="37"/>
-      <c r="AH67" s="37" t="s">
+      <c r="AE67" s="43"/>
+      <c r="AF67" s="43"/>
+      <c r="AG67" s="43"/>
+      <c r="AH67" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="AI67" s="37"/>
-      <c r="AJ67" s="37"/>
-      <c r="AK67" s="37"/>
-      <c r="AL67" s="37" t="s">
+      <c r="AI67" s="43"/>
+      <c r="AJ67" s="43"/>
+      <c r="AK67" s="43"/>
+      <c r="AL67" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="AM67" s="37"/>
-      <c r="AN67" s="37"/>
-      <c r="AO67" s="37"/>
-      <c r="AP67" s="37" t="s">
+      <c r="AM67" s="43"/>
+      <c r="AN67" s="43"/>
+      <c r="AO67" s="43"/>
+      <c r="AP67" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="AQ67" s="37"/>
-      <c r="AR67" s="37"/>
-      <c r="AS67" s="37"/>
-      <c r="AT67" s="37" t="s">
+      <c r="AQ67" s="43"/>
+      <c r="AR67" s="43"/>
+      <c r="AS67" s="43"/>
+      <c r="AT67" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="AU67" s="37"/>
-      <c r="AV67" s="37"/>
-      <c r="AW67" s="37"/>
-      <c r="AX67" s="37" t="s">
+      <c r="AU67" s="43"/>
+      <c r="AV67" s="43"/>
+      <c r="AW67" s="43"/>
+      <c r="AX67" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="AY67" s="37"/>
-      <c r="AZ67" s="37"/>
-      <c r="BA67" s="37"/>
-      <c r="BB67" s="37" t="s">
+      <c r="AY67" s="43"/>
+      <c r="AZ67" s="43"/>
+      <c r="BA67" s="43"/>
+      <c r="BB67" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="BC67" s="37"/>
-      <c r="BD67" s="37"/>
-      <c r="BE67" s="37"/>
-      <c r="BF67" s="37" t="s">
+      <c r="BC67" s="43"/>
+      <c r="BD67" s="43"/>
+      <c r="BE67" s="43"/>
+      <c r="BF67" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="BG67" s="37"/>
-      <c r="BH67" s="37"/>
-      <c r="BI67" s="37"/>
-      <c r="BJ67" s="37" t="s">
+      <c r="BG67" s="43"/>
+      <c r="BH67" s="43"/>
+      <c r="BI67" s="43"/>
+      <c r="BJ67" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="BK67" s="37"/>
-      <c r="BL67" s="37"/>
-      <c r="BM67" s="37"/>
-      <c r="BN67" s="37" t="s">
+      <c r="BK67" s="43"/>
+      <c r="BL67" s="43"/>
+      <c r="BM67" s="43"/>
+      <c r="BN67" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="BO67" s="37"/>
-      <c r="BP67" s="37"/>
-      <c r="BQ67" s="37"/>
-      <c r="BR67" s="38" t="s">
+      <c r="BO67" s="43"/>
+      <c r="BP67" s="43"/>
+      <c r="BQ67" s="43"/>
+      <c r="BR67" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="BS67" s="38"/>
-      <c r="BT67" s="38"/>
-      <c r="BU67" s="38"/>
-      <c r="BV67" s="38" t="s">
+      <c r="BS67" s="42"/>
+      <c r="BT67" s="42"/>
+      <c r="BU67" s="42"/>
+      <c r="BV67" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="BW67" s="38"/>
-      <c r="BX67" s="38"/>
-      <c r="BY67" s="38"/>
-      <c r="BZ67" s="38" t="s">
+      <c r="BW67" s="42"/>
+      <c r="BX67" s="42"/>
+      <c r="BY67" s="42"/>
+      <c r="BZ67" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="CA67" s="38"/>
-      <c r="CB67" s="38"/>
-      <c r="CC67" s="38"/>
-      <c r="CD67" s="38" t="s">
+      <c r="CA67" s="42"/>
+      <c r="CB67" s="42"/>
+      <c r="CC67" s="42"/>
+      <c r="CD67" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="CE67" s="38"/>
-      <c r="CF67" s="38"/>
-      <c r="CG67" s="38"/>
-      <c r="CH67" s="38" t="s">
+      <c r="CE67" s="42"/>
+      <c r="CF67" s="42"/>
+      <c r="CG67" s="42"/>
+      <c r="CH67" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="CI67" s="38"/>
-      <c r="CJ67" s="38"/>
-      <c r="CK67" s="38"/>
-      <c r="CL67" s="34" t="s">
+      <c r="CI67" s="33"/>
+      <c r="CJ67" s="33"/>
+      <c r="CK67" s="33"/>
+      <c r="CL67" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="CM67" s="34"/>
-      <c r="CN67" s="34"/>
-      <c r="CO67" s="34"/>
-      <c r="CP67" s="33"/>
-      <c r="CQ67" s="33"/>
-      <c r="CR67" s="33"/>
-      <c r="CS67" s="33"/>
+      <c r="CM67" s="33"/>
+      <c r="CN67" s="33"/>
+      <c r="CO67" s="33"/>
+      <c r="CP67" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="CQ67" s="34"/>
+      <c r="CR67" s="34"/>
+      <c r="CS67" s="34"/>
+      <c r="CT67" s="34"/>
     </row>
     <row r="68" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
@@ -12360,17 +12427,20 @@
       <c r="CO68" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CP68" s="7"/>
-      <c r="CQ68" s="7"/>
-      <c r="CR68" s="7"/>
-      <c r="CS68" s="7"/>
+      <c r="CP68" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CQ68" s="6"/>
+      <c r="CR68" s="6"/>
+      <c r="CS68" s="6"/>
+      <c r="CT68" s="6"/>
     </row>
     <row r="69" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8"/>
-      <c r="CP69" s="8"/>
-      <c r="CQ69" s="8"/>
-      <c r="CR69" s="8"/>
-      <c r="CS69" s="8"/>
+      <c r="CQ69" s="39"/>
+      <c r="CR69" s="39"/>
+      <c r="CS69" s="39"/>
+      <c r="CT69" s="39"/>
     </row>
     <row r="70" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
@@ -12632,31 +12702,33 @@
         <v>11.868968819010121</v>
       </c>
       <c r="CI70" s="26">
-        <v>11.591086995799444</v>
+        <v>11.625616067711334</v>
       </c>
       <c r="CJ70" s="26">
-        <v>11.541247271384591</v>
+        <v>11.589892742999353</v>
       </c>
       <c r="CK70" s="26">
-        <v>14.230451250859005</v>
+        <v>14.18403227514564</v>
       </c>
       <c r="CL70" s="26">
-        <v>10.952117957471913</v>
+        <v>11.069975242874136</v>
       </c>
       <c r="CM70" s="26">
-        <v>7.7813427100843313</v>
+        <v>7.6936537350291445</v>
       </c>
       <c r="CN70" s="26">
-        <v>7.9157677827914767</v>
+        <v>7.8905965520292796</v>
       </c>
       <c r="CO70" s="26">
-        <v>6.5166027895629668</v>
-      </c>
-      <c r="CP70" s="35"/>
-      <c r="CQ70" s="35"/>
-      <c r="CR70" s="35"/>
-      <c r="CS70" s="35"/>
-      <c r="CT70" s="11"/>
+        <v>6.6407850669879025</v>
+      </c>
+      <c r="CP70" s="25">
+        <v>5.1117318493336938</v>
+      </c>
+      <c r="CQ70" s="40"/>
+      <c r="CR70" s="40"/>
+      <c r="CS70" s="40"/>
+      <c r="CT70" s="40"/>
       <c r="CU70" s="11"/>
       <c r="CV70" s="11"/>
       <c r="CW70" s="11"/>
@@ -12966,34 +13038,36 @@
         <v>-2.9511501595661258</v>
       </c>
       <c r="CH71" s="26">
-        <v>12.79107686883178</v>
+        <v>12.792673708845982</v>
       </c>
       <c r="CI71" s="26">
-        <v>10.65002503736001</v>
+        <v>10.650030918374199</v>
       </c>
       <c r="CJ71" s="26">
-        <v>-2.8341597484335495</v>
+        <v>-3.4039965998636603</v>
       </c>
       <c r="CK71" s="26">
-        <v>14.879767765446744</v>
+        <v>14.499548493650053</v>
       </c>
       <c r="CL71" s="26">
-        <v>11.100334376022715</v>
+        <v>10.80363277018219</v>
       </c>
       <c r="CM71" s="26">
-        <v>2.9626376736327558</v>
+        <v>2.9962427026067218</v>
       </c>
       <c r="CN71" s="26">
-        <v>10.539518635082956</v>
+        <v>11.060851856983732</v>
       </c>
       <c r="CO71" s="26">
-        <v>7.407740639617117</v>
-      </c>
-      <c r="CP71" s="35"/>
-      <c r="CQ71" s="35"/>
-      <c r="CR71" s="35"/>
-      <c r="CS71" s="35"/>
-      <c r="CT71" s="11"/>
+        <v>7.1850850768662156</v>
+      </c>
+      <c r="CP71" s="25">
+        <v>4.9367053887268071</v>
+      </c>
+      <c r="CQ71" s="40"/>
+      <c r="CR71" s="40"/>
+      <c r="CS71" s="40"/>
+      <c r="CT71" s="40"/>
       <c r="CU71" s="11"/>
       <c r="CV71" s="11"/>
       <c r="CW71" s="11"/>
@@ -13303,34 +13377,36 @@
         <v>10.586743877501021</v>
       </c>
       <c r="CH72" s="26">
-        <v>10.204983014002167</v>
+        <v>10.408442903298038</v>
       </c>
       <c r="CI72" s="26">
-        <v>7.5721518204777851</v>
+        <v>7.9829620817881732</v>
       </c>
       <c r="CJ72" s="26">
-        <v>-0.60021032892568371</v>
+        <v>-0.17211392312994178</v>
       </c>
       <c r="CK72" s="26">
-        <v>14.085116924879742</v>
+        <v>14.118441036464674</v>
       </c>
       <c r="CL72" s="26">
-        <v>2.2412765422117076</v>
+        <v>1.6275033355802151</v>
       </c>
       <c r="CM72" s="26">
-        <v>-22.65089896599541</v>
+        <v>-23.209591616999262</v>
       </c>
       <c r="CN72" s="26">
-        <v>-6.6349283132578023</v>
+        <v>-6.4479872151282365</v>
       </c>
       <c r="CO72" s="26">
-        <v>2.9936125667069149</v>
-      </c>
-      <c r="CP72" s="35"/>
-      <c r="CQ72" s="35"/>
-      <c r="CR72" s="35"/>
-      <c r="CS72" s="35"/>
-      <c r="CT72" s="11"/>
+        <v>2.38899405669099</v>
+      </c>
+      <c r="CP72" s="25">
+        <v>4.344637755801898</v>
+      </c>
+      <c r="CQ72" s="40"/>
+      <c r="CR72" s="40"/>
+      <c r="CS72" s="40"/>
+      <c r="CT72" s="40"/>
       <c r="CU72" s="11"/>
       <c r="CV72" s="11"/>
       <c r="CW72" s="11"/>
@@ -13640,34 +13716,36 @@
         <v>7.552109314991867</v>
       </c>
       <c r="CH73" s="26">
-        <v>11.084927481718012</v>
+        <v>11.081706828935125</v>
       </c>
       <c r="CI73" s="26">
-        <v>14.213361216938367</v>
+        <v>14.29352819559584</v>
       </c>
       <c r="CJ73" s="26">
-        <v>9.1761507130336781</v>
+        <v>9.1644290627762075</v>
       </c>
       <c r="CK73" s="26">
-        <v>11.921201320286116</v>
+        <v>11.770211777818631</v>
       </c>
       <c r="CL73" s="26">
-        <v>12.438210681495889</v>
+        <v>12.199738428366544</v>
       </c>
       <c r="CM73" s="26">
-        <v>12.652021831424292</v>
+        <v>12.525897325412316</v>
       </c>
       <c r="CN73" s="26">
-        <v>7.7271154076426996</v>
+        <v>7.637604562396632</v>
       </c>
       <c r="CO73" s="26">
-        <v>6.6951349252930612</v>
-      </c>
-      <c r="CP73" s="35"/>
-      <c r="CQ73" s="35"/>
-      <c r="CR73" s="35"/>
-      <c r="CS73" s="35"/>
-      <c r="CT73" s="11"/>
+        <v>6.7244694414080044</v>
+      </c>
+      <c r="CP73" s="25">
+        <v>8.0259717946016451</v>
+      </c>
+      <c r="CQ73" s="40"/>
+      <c r="CR73" s="40"/>
+      <c r="CS73" s="40"/>
+      <c r="CT73" s="40"/>
       <c r="CU73" s="11"/>
       <c r="CV73" s="11"/>
       <c r="CW73" s="11"/>
@@ -13977,34 +14055,36 @@
         <v>1.5625998133483137</v>
       </c>
       <c r="CH74" s="26">
-        <v>11.349084427877813</v>
+        <v>11.458856085650453</v>
       </c>
       <c r="CI74" s="26">
-        <v>10.457403095918423</v>
+        <v>10.457114046314217</v>
       </c>
       <c r="CJ74" s="26">
-        <v>12.911115273921681</v>
+        <v>12.861745041464772</v>
       </c>
       <c r="CK74" s="26">
-        <v>14.127928224150992</v>
+        <v>13.439258026624842</v>
       </c>
       <c r="CL74" s="26">
-        <v>2.9077274260176296</v>
+        <v>3.2089588717922055</v>
       </c>
       <c r="CM74" s="26">
-        <v>2.7466724905800959</v>
+        <v>3.5055648187575201</v>
       </c>
       <c r="CN74" s="26">
-        <v>3.0212412166275442</v>
+        <v>3.3389886909700408</v>
       </c>
       <c r="CO74" s="26">
-        <v>5.3743340552968419</v>
-      </c>
-      <c r="CP74" s="35"/>
-      <c r="CQ74" s="35"/>
-      <c r="CR74" s="35"/>
-      <c r="CS74" s="35"/>
-      <c r="CT74" s="11"/>
+        <v>5.4595953741702203</v>
+      </c>
+      <c r="CP74" s="25">
+        <v>4.8388086707814324</v>
+      </c>
+      <c r="CQ74" s="40"/>
+      <c r="CR74" s="40"/>
+      <c r="CS74" s="40"/>
+      <c r="CT74" s="40"/>
       <c r="CU74" s="11"/>
       <c r="CV74" s="11"/>
       <c r="CW74" s="11"/>
@@ -14314,34 +14394,36 @@
         <v>20.769395759987532</v>
       </c>
       <c r="CH75" s="26">
-        <v>3.9101299028164789</v>
+        <v>3.9477243907941784</v>
       </c>
       <c r="CI75" s="26">
-        <v>-0.21944198988173014</v>
+        <v>-0.63474904740301952</v>
       </c>
       <c r="CJ75" s="26">
-        <v>7.8123755710366822</v>
+        <v>7.9371008056469634</v>
       </c>
       <c r="CK75" s="26">
-        <v>8.2225014081690233</v>
+        <v>8.444276780256061</v>
       </c>
       <c r="CL75" s="26">
-        <v>11.839204282134361</v>
+        <v>11.781877142666659</v>
       </c>
       <c r="CM75" s="26">
-        <v>13.17834038531997</v>
+        <v>13.739057816541973</v>
       </c>
       <c r="CN75" s="26">
-        <v>9.9520547584222498</v>
+        <v>9.8364189002650591</v>
       </c>
       <c r="CO75" s="26">
-        <v>11.104218901198394</v>
-      </c>
-      <c r="CP75" s="35"/>
-      <c r="CQ75" s="35"/>
-      <c r="CR75" s="35"/>
-      <c r="CS75" s="35"/>
-      <c r="CT75" s="11"/>
+        <v>10.867217915201081</v>
+      </c>
+      <c r="CP75" s="25">
+        <v>10.669735962537018</v>
+      </c>
+      <c r="CQ75" s="40"/>
+      <c r="CR75" s="40"/>
+      <c r="CS75" s="40"/>
+      <c r="CT75" s="40"/>
       <c r="CU75" s="11"/>
       <c r="CV75" s="11"/>
       <c r="CW75" s="11"/>
@@ -14651,34 +14733,36 @@
         <v>23.237966278325146</v>
       </c>
       <c r="CH76" s="26">
-        <v>26.202436868342545</v>
+        <v>26.202419032185205</v>
       </c>
       <c r="CI76" s="26">
-        <v>43.95916576435198</v>
+        <v>44.420240353158817</v>
       </c>
       <c r="CJ76" s="26">
-        <v>38.588559107136632</v>
+        <v>38.580684433403434</v>
       </c>
       <c r="CK76" s="26">
-        <v>20.962940351693334</v>
+        <v>21.137742720003374</v>
       </c>
       <c r="CL76" s="26">
-        <v>23.922080859450617</v>
+        <v>24.028248647302846</v>
       </c>
       <c r="CM76" s="26">
-        <v>29.94487221615617</v>
+        <v>29.305426009786373</v>
       </c>
       <c r="CN76" s="26">
-        <v>13.294751133572547</v>
+        <v>13.147966259221519</v>
       </c>
       <c r="CO76" s="26">
-        <v>12.451032491176363</v>
-      </c>
-      <c r="CP76" s="35"/>
-      <c r="CQ76" s="35"/>
-      <c r="CR76" s="35"/>
-      <c r="CS76" s="35"/>
-      <c r="CT76" s="11"/>
+        <v>12.212438971495814</v>
+      </c>
+      <c r="CP76" s="25">
+        <v>8.5407053068718142</v>
+      </c>
+      <c r="CQ76" s="40"/>
+      <c r="CR76" s="40"/>
+      <c r="CS76" s="40"/>
+      <c r="CT76" s="40"/>
       <c r="CU76" s="11"/>
       <c r="CV76" s="11"/>
       <c r="CW76" s="11"/>
@@ -14988,34 +15072,36 @@
         <v>8.352298732599067</v>
       </c>
       <c r="CH77" s="26">
-        <v>7.3520995163431309</v>
+        <v>7.4408100298167739</v>
       </c>
       <c r="CI77" s="26">
-        <v>10.320931144909437</v>
+        <v>9.736339135491562</v>
       </c>
       <c r="CJ77" s="26">
-        <v>7.7485293851250674</v>
+        <v>7.3964072301549351</v>
       </c>
       <c r="CK77" s="26">
-        <v>6.6924732388451673</v>
+        <v>7.0136086260793888</v>
       </c>
       <c r="CL77" s="26">
-        <v>5.6791499437760109</v>
+        <v>5.3584626587337709</v>
       </c>
       <c r="CM77" s="26">
-        <v>5.3336040609563327</v>
+        <v>5.6234247623269766</v>
       </c>
       <c r="CN77" s="26">
-        <v>5.7568359721687159</v>
+        <v>5.5978660297481895</v>
       </c>
       <c r="CO77" s="26">
-        <v>5.1029081027188994</v>
-      </c>
-      <c r="CP77" s="35"/>
-      <c r="CQ77" s="35"/>
-      <c r="CR77" s="35"/>
-      <c r="CS77" s="35"/>
-      <c r="CT77" s="11"/>
+        <v>5.4264941294991615</v>
+      </c>
+      <c r="CP77" s="25">
+        <v>5.1944754598968927</v>
+      </c>
+      <c r="CQ77" s="40"/>
+      <c r="CR77" s="40"/>
+      <c r="CS77" s="40"/>
+      <c r="CT77" s="40"/>
       <c r="CU77" s="11"/>
       <c r="CV77" s="11"/>
       <c r="CW77" s="11"/>
@@ -15325,34 +15411,36 @@
         <v>40.832084659250967</v>
       </c>
       <c r="CH78" s="26">
-        <v>18.338456443460586</v>
+        <v>18.337715333666793</v>
       </c>
       <c r="CI78" s="26">
-        <v>41.004556937108617</v>
+        <v>38.85396011356994</v>
       </c>
       <c r="CJ78" s="26">
-        <v>49.667261960294496</v>
+        <v>49.596771299520412</v>
       </c>
       <c r="CK78" s="26">
-        <v>19.43592958964993</v>
+        <v>19.744034015070014</v>
       </c>
       <c r="CL78" s="26">
-        <v>35.504800407539534</v>
+        <v>33.54341531708053</v>
       </c>
       <c r="CM78" s="26">
-        <v>24.629098969531114</v>
+        <v>26.458653470646638</v>
       </c>
       <c r="CN78" s="26">
-        <v>18.506068433730348</v>
+        <v>18.651328109222916</v>
       </c>
       <c r="CO78" s="26">
-        <v>12.281629386313369</v>
-      </c>
-      <c r="CP78" s="35"/>
-      <c r="CQ78" s="35"/>
-      <c r="CR78" s="35"/>
-      <c r="CS78" s="35"/>
-      <c r="CT78" s="11"/>
+        <v>13.011160071898715</v>
+      </c>
+      <c r="CP78" s="25">
+        <v>12.606192237246191</v>
+      </c>
+      <c r="CQ78" s="40"/>
+      <c r="CR78" s="40"/>
+      <c r="CS78" s="40"/>
+      <c r="CT78" s="40"/>
       <c r="CU78" s="11"/>
       <c r="CV78" s="11"/>
       <c r="CW78" s="11"/>
@@ -15662,34 +15750,36 @@
         <v>9.692593078822199</v>
       </c>
       <c r="CH79" s="26">
-        <v>12.376873784558825</v>
+        <v>12.153941006926175</v>
       </c>
       <c r="CI79" s="26">
-        <v>8.1511239766976615</v>
+        <v>8.0349627114862017</v>
       </c>
       <c r="CJ79" s="26">
-        <v>8.7426266221487907</v>
+        <v>8.4681118384516481</v>
       </c>
       <c r="CK79" s="26">
-        <v>14.183716365607538</v>
+        <v>13.768476859694289</v>
       </c>
       <c r="CL79" s="26">
-        <v>10.501527238117617</v>
+        <v>10.793065706910184</v>
       </c>
       <c r="CM79" s="26">
-        <v>11.039952967946505</v>
+        <v>11.066205431235133</v>
       </c>
       <c r="CN79" s="26">
-        <v>10.257826205179072</v>
+        <v>10.297472443379903</v>
       </c>
       <c r="CO79" s="26">
-        <v>11.659785649815731</v>
-      </c>
-      <c r="CP79" s="35"/>
-      <c r="CQ79" s="35"/>
-      <c r="CR79" s="35"/>
-      <c r="CS79" s="35"/>
-      <c r="CT79" s="11"/>
+        <v>12.150771316453685</v>
+      </c>
+      <c r="CP79" s="25">
+        <v>7.7639712188281891</v>
+      </c>
+      <c r="CQ79" s="40"/>
+      <c r="CR79" s="40"/>
+      <c r="CS79" s="40"/>
+      <c r="CT79" s="40"/>
       <c r="CU79" s="11"/>
       <c r="CV79" s="11"/>
       <c r="CW79" s="11"/>
@@ -15999,34 +16089,36 @@
         <v>26.200432043605559</v>
       </c>
       <c r="CH80" s="26">
-        <v>23.679735560241141</v>
+        <v>23.767490515647268</v>
       </c>
       <c r="CI80" s="26">
-        <v>37.073757497760397</v>
+        <v>37.342156255744754</v>
       </c>
       <c r="CJ80" s="26">
-        <v>45.600629277450139</v>
+        <v>45.876480386155123</v>
       </c>
       <c r="CK80" s="26">
-        <v>32.771002893752922</v>
+        <v>33.01205473732756</v>
       </c>
       <c r="CL80" s="26">
-        <v>33.965627314186065</v>
+        <v>34.042419463965359</v>
       </c>
       <c r="CM80" s="26">
-        <v>33.179143377476237</v>
+        <v>33.215942380573807</v>
       </c>
       <c r="CN80" s="26">
-        <v>21.975159120543836</v>
+        <v>21.835945818314315</v>
       </c>
       <c r="CO80" s="26">
-        <v>22.99667668504226</v>
-      </c>
-      <c r="CP80" s="35"/>
-      <c r="CQ80" s="35"/>
-      <c r="CR80" s="35"/>
-      <c r="CS80" s="35"/>
-      <c r="CT80" s="11"/>
+        <v>22.413320366373625</v>
+      </c>
+      <c r="CP80" s="25">
+        <v>18.053405034395254</v>
+      </c>
+      <c r="CQ80" s="40"/>
+      <c r="CR80" s="40"/>
+      <c r="CS80" s="40"/>
+      <c r="CT80" s="40"/>
       <c r="CU80" s="11"/>
       <c r="CV80" s="11"/>
       <c r="CW80" s="11"/>
@@ -16336,34 +16428,36 @@
         <v>8.9159949390940767</v>
       </c>
       <c r="CH81" s="26">
-        <v>11.044332988923088</v>
+        <v>11.08650335204824</v>
       </c>
       <c r="CI81" s="26">
-        <v>10.321946541941188</v>
+        <v>10.372731011185479</v>
       </c>
       <c r="CJ81" s="26">
-        <v>13.297624601168721</v>
+        <v>13.29844802313869</v>
       </c>
       <c r="CK81" s="26">
-        <v>11.443585383216643</v>
+        <v>11.487901507885496</v>
       </c>
       <c r="CL81" s="26">
-        <v>14.839340376547128</v>
+        <v>14.520703859529576</v>
       </c>
       <c r="CM81" s="26">
-        <v>11.435322802656927</v>
+        <v>11.365472287798582</v>
       </c>
       <c r="CN81" s="26">
-        <v>10.394174082571666</v>
+        <v>10.473875232299434</v>
       </c>
       <c r="CO81" s="26">
-        <v>13.119321276743094</v>
-      </c>
-      <c r="CP81" s="35"/>
-      <c r="CQ81" s="35"/>
-      <c r="CR81" s="35"/>
-      <c r="CS81" s="35"/>
-      <c r="CT81" s="11"/>
+        <v>13.104278911044958</v>
+      </c>
+      <c r="CP81" s="25">
+        <v>9.9854258699350709</v>
+      </c>
+      <c r="CQ81" s="40"/>
+      <c r="CR81" s="40"/>
+      <c r="CS81" s="40"/>
+      <c r="CT81" s="40"/>
       <c r="CU81" s="11"/>
       <c r="CV81" s="11"/>
       <c r="CW81" s="11"/>
@@ -16509,11 +16603,11 @@
       <c r="CM82" s="11"/>
       <c r="CN82" s="11"/>
       <c r="CO82" s="11"/>
-      <c r="CP82" s="36"/>
-      <c r="CQ82" s="36"/>
-      <c r="CR82" s="36"/>
-      <c r="CS82" s="36"/>
-      <c r="CT82" s="11"/>
+      <c r="CP82" s="13"/>
+      <c r="CQ82" s="41"/>
+      <c r="CR82" s="41"/>
+      <c r="CS82" s="41"/>
+      <c r="CT82" s="41"/>
       <c r="CU82" s="11"/>
       <c r="CV82" s="11"/>
       <c r="CW82" s="11"/>
@@ -16823,34 +16917,36 @@
         <v>11.350218613954382</v>
       </c>
       <c r="CH83" s="26">
-        <v>13.397472643596615</v>
+        <v>13.408735434441326</v>
       </c>
       <c r="CI83" s="26">
-        <v>14.2017571927219</v>
+        <v>14.219068190490972</v>
       </c>
       <c r="CJ83" s="26">
-        <v>15.287869467964143</v>
+        <v>15.29547217082596</v>
       </c>
       <c r="CK83" s="26">
-        <v>14.90946448783501</v>
+        <v>14.88684504738498</v>
       </c>
       <c r="CL83" s="26">
-        <v>14.703382016307259</v>
+        <v>14.658767797529237</v>
       </c>
       <c r="CM83" s="26">
-        <v>11.59901841058155</v>
+        <v>11.552445459000026</v>
       </c>
       <c r="CN83" s="26">
-        <v>9.7822867141095458</v>
+        <v>9.7628068133321904</v>
       </c>
       <c r="CO83" s="26">
-        <v>9.5949702648036919</v>
-      </c>
-      <c r="CP83" s="35"/>
-      <c r="CQ83" s="35"/>
-      <c r="CR83" s="35"/>
-      <c r="CS83" s="35"/>
-      <c r="CT83" s="11"/>
+        <v>9.6063032098021353</v>
+      </c>
+      <c r="CP83" s="25">
+        <v>8.2170964207218873</v>
+      </c>
+      <c r="CQ83" s="40"/>
+      <c r="CR83" s="40"/>
+      <c r="CS83" s="40"/>
+      <c r="CT83" s="40"/>
       <c r="CU83" s="11"/>
       <c r="CV83" s="11"/>
       <c r="CW83" s="11"/>
@@ -16997,19 +17093,20 @@
       <c r="CM84" s="16"/>
       <c r="CN84" s="16"/>
       <c r="CO84" s="16"/>
-      <c r="CP84" s="7"/>
-      <c r="CQ84" s="7"/>
-      <c r="CR84" s="7"/>
-      <c r="CS84" s="7"/>
+      <c r="CP84" s="17"/>
+      <c r="CQ84" s="6"/>
+      <c r="CR84" s="6"/>
+      <c r="CS84" s="6"/>
+      <c r="CT84" s="6"/>
     </row>
     <row r="85" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A85" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="CP85" s="8"/>
-      <c r="CQ85" s="8"/>
-      <c r="CR85" s="8"/>
-      <c r="CS85" s="8"/>
+      <c r="CQ85" s="39"/>
+      <c r="CR85" s="39"/>
+      <c r="CS85" s="39"/>
+      <c r="CT85" s="39"/>
     </row>
     <row r="86" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="13"/>
@@ -17104,11 +17201,11 @@
       <c r="CM86" s="11"/>
       <c r="CN86" s="11"/>
       <c r="CO86" s="11"/>
-      <c r="CP86" s="36"/>
-      <c r="CQ86" s="36"/>
-      <c r="CR86" s="36"/>
-      <c r="CS86" s="36"/>
-      <c r="CT86" s="11"/>
+      <c r="CP86" s="13"/>
+      <c r="CQ86" s="41"/>
+      <c r="CR86" s="41"/>
+      <c r="CS86" s="41"/>
+      <c r="CT86" s="41"/>
       <c r="CU86" s="11"/>
       <c r="CV86" s="11"/>
       <c r="CW86" s="11"/>
@@ -17254,11 +17351,11 @@
       <c r="CM87" s="11"/>
       <c r="CN87" s="11"/>
       <c r="CO87" s="11"/>
-      <c r="CP87" s="36"/>
-      <c r="CQ87" s="36"/>
-      <c r="CR87" s="36"/>
-      <c r="CS87" s="36"/>
-      <c r="CT87" s="11"/>
+      <c r="CP87" s="13"/>
+      <c r="CQ87" s="41"/>
+      <c r="CR87" s="41"/>
+      <c r="CS87" s="41"/>
+      <c r="CT87" s="41"/>
       <c r="CU87" s="11"/>
       <c r="CV87" s="11"/>
       <c r="CW87" s="11"/>
@@ -17315,212 +17412,215 @@
       <c r="A88" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="CP88" s="8"/>
-      <c r="CQ88" s="8"/>
-      <c r="CR88" s="8"/>
-      <c r="CS88" s="8"/>
+      <c r="CQ88" s="39"/>
+      <c r="CR88" s="39"/>
+      <c r="CS88" s="39"/>
+      <c r="CT88" s="39"/>
     </row>
     <row r="89" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="CP89" s="8"/>
-      <c r="CQ89" s="8"/>
-      <c r="CR89" s="8"/>
-      <c r="CS89" s="8"/>
+      <c r="CQ89" s="39"/>
+      <c r="CR89" s="39"/>
+      <c r="CS89" s="39"/>
+      <c r="CT89" s="39"/>
     </row>
     <row r="90" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="CP90" s="8"/>
-      <c r="CQ90" s="8"/>
-      <c r="CR90" s="8"/>
-      <c r="CS90" s="8"/>
+        <v>62</v>
+      </c>
+      <c r="CQ90" s="39"/>
+      <c r="CR90" s="39"/>
+      <c r="CS90" s="39"/>
+      <c r="CT90" s="39"/>
     </row>
     <row r="91" spans="1:149" x14ac:dyDescent="0.2">
-      <c r="CP91" s="8"/>
-      <c r="CQ91" s="8"/>
-      <c r="CR91" s="8"/>
-      <c r="CS91" s="8"/>
+      <c r="CQ91" s="39"/>
+      <c r="CR91" s="39"/>
+      <c r="CS91" s="39"/>
+      <c r="CT91" s="39"/>
     </row>
     <row r="92" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="CP92" s="8"/>
-      <c r="CQ92" s="8"/>
-      <c r="CR92" s="8"/>
-      <c r="CS92" s="8"/>
+      <c r="CQ92" s="39"/>
+      <c r="CR92" s="39"/>
+      <c r="CS92" s="39"/>
+      <c r="CT92" s="39"/>
     </row>
     <row r="93" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="CP93" s="8"/>
-      <c r="CQ93" s="8"/>
-      <c r="CR93" s="8"/>
-      <c r="CS93" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="CQ93" s="39"/>
+      <c r="CR93" s="39"/>
+      <c r="CS93" s="39"/>
+      <c r="CT93" s="39"/>
     </row>
     <row r="94" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="CP94" s="8"/>
-      <c r="CQ94" s="8"/>
-      <c r="CR94" s="8"/>
-      <c r="CS94" s="8"/>
+      <c r="CQ94" s="39"/>
+      <c r="CR94" s="39"/>
+      <c r="CS94" s="39"/>
+      <c r="CT94" s="39"/>
     </row>
     <row r="95" spans="1:149" x14ac:dyDescent="0.2">
-      <c r="CP95" s="8"/>
-      <c r="CQ95" s="8"/>
-      <c r="CR95" s="8"/>
-      <c r="CS95" s="8"/>
+      <c r="CQ95" s="39"/>
+      <c r="CR95" s="39"/>
+      <c r="CS95" s="39"/>
+      <c r="CT95" s="39"/>
     </row>
     <row r="96" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
-      <c r="B96" s="37" t="s">
+      <c r="B96" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C96" s="37"/>
-      <c r="D96" s="37"/>
-      <c r="E96" s="37"/>
-      <c r="F96" s="37" t="s">
+      <c r="C96" s="43"/>
+      <c r="D96" s="43"/>
+      <c r="E96" s="43"/>
+      <c r="F96" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="G96" s="37"/>
-      <c r="H96" s="37"/>
-      <c r="I96" s="37"/>
-      <c r="J96" s="37" t="s">
+      <c r="G96" s="43"/>
+      <c r="H96" s="43"/>
+      <c r="I96" s="43"/>
+      <c r="J96" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="K96" s="37"/>
-      <c r="L96" s="37"/>
-      <c r="M96" s="37"/>
-      <c r="N96" s="37" t="s">
+      <c r="K96" s="43"/>
+      <c r="L96" s="43"/>
+      <c r="M96" s="43"/>
+      <c r="N96" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="O96" s="37"/>
-      <c r="P96" s="37"/>
-      <c r="Q96" s="37"/>
-      <c r="R96" s="37" t="s">
+      <c r="O96" s="43"/>
+      <c r="P96" s="43"/>
+      <c r="Q96" s="43"/>
+      <c r="R96" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="S96" s="37"/>
-      <c r="T96" s="37"/>
-      <c r="U96" s="37"/>
-      <c r="V96" s="37" t="s">
+      <c r="S96" s="43"/>
+      <c r="T96" s="43"/>
+      <c r="U96" s="43"/>
+      <c r="V96" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="W96" s="37"/>
-      <c r="X96" s="37"/>
-      <c r="Y96" s="37"/>
-      <c r="Z96" s="37" t="s">
+      <c r="W96" s="43"/>
+      <c r="X96" s="43"/>
+      <c r="Y96" s="43"/>
+      <c r="Z96" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="AA96" s="37"/>
-      <c r="AB96" s="37"/>
-      <c r="AC96" s="37"/>
-      <c r="AD96" s="37" t="s">
+      <c r="AA96" s="43"/>
+      <c r="AB96" s="43"/>
+      <c r="AC96" s="43"/>
+      <c r="AD96" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="AE96" s="37"/>
-      <c r="AF96" s="37"/>
-      <c r="AG96" s="37"/>
-      <c r="AH96" s="37" t="s">
+      <c r="AE96" s="43"/>
+      <c r="AF96" s="43"/>
+      <c r="AG96" s="43"/>
+      <c r="AH96" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="AI96" s="37"/>
-      <c r="AJ96" s="37"/>
-      <c r="AK96" s="37"/>
-      <c r="AL96" s="37" t="s">
+      <c r="AI96" s="43"/>
+      <c r="AJ96" s="43"/>
+      <c r="AK96" s="43"/>
+      <c r="AL96" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="AM96" s="37"/>
-      <c r="AN96" s="37"/>
-      <c r="AO96" s="37"/>
-      <c r="AP96" s="37" t="s">
+      <c r="AM96" s="43"/>
+      <c r="AN96" s="43"/>
+      <c r="AO96" s="43"/>
+      <c r="AP96" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="AQ96" s="37"/>
-      <c r="AR96" s="37"/>
-      <c r="AS96" s="37"/>
-      <c r="AT96" s="37" t="s">
+      <c r="AQ96" s="43"/>
+      <c r="AR96" s="43"/>
+      <c r="AS96" s="43"/>
+      <c r="AT96" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="AU96" s="37"/>
-      <c r="AV96" s="37"/>
-      <c r="AW96" s="37"/>
-      <c r="AX96" s="37" t="s">
+      <c r="AU96" s="43"/>
+      <c r="AV96" s="43"/>
+      <c r="AW96" s="43"/>
+      <c r="AX96" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="AY96" s="37"/>
-      <c r="AZ96" s="37"/>
-      <c r="BA96" s="37"/>
-      <c r="BB96" s="37" t="s">
+      <c r="AY96" s="43"/>
+      <c r="AZ96" s="43"/>
+      <c r="BA96" s="43"/>
+      <c r="BB96" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="BC96" s="37"/>
-      <c r="BD96" s="37"/>
-      <c r="BE96" s="37"/>
-      <c r="BF96" s="37" t="s">
+      <c r="BC96" s="43"/>
+      <c r="BD96" s="43"/>
+      <c r="BE96" s="43"/>
+      <c r="BF96" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="BG96" s="37"/>
-      <c r="BH96" s="37"/>
-      <c r="BI96" s="37"/>
-      <c r="BJ96" s="37" t="s">
+      <c r="BG96" s="43"/>
+      <c r="BH96" s="43"/>
+      <c r="BI96" s="43"/>
+      <c r="BJ96" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="BK96" s="37"/>
-      <c r="BL96" s="37"/>
-      <c r="BM96" s="37"/>
-      <c r="BN96" s="37" t="s">
+      <c r="BK96" s="43"/>
+      <c r="BL96" s="43"/>
+      <c r="BM96" s="43"/>
+      <c r="BN96" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="BO96" s="37"/>
-      <c r="BP96" s="37"/>
-      <c r="BQ96" s="37"/>
-      <c r="BR96" s="38" t="s">
+      <c r="BO96" s="43"/>
+      <c r="BP96" s="43"/>
+      <c r="BQ96" s="43"/>
+      <c r="BR96" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="BS96" s="38"/>
-      <c r="BT96" s="38"/>
-      <c r="BU96" s="38"/>
-      <c r="BV96" s="38" t="s">
+      <c r="BS96" s="42"/>
+      <c r="BT96" s="42"/>
+      <c r="BU96" s="42"/>
+      <c r="BV96" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="BW96" s="38"/>
-      <c r="BX96" s="38"/>
-      <c r="BY96" s="38"/>
-      <c r="BZ96" s="38" t="s">
+      <c r="BW96" s="42"/>
+      <c r="BX96" s="42"/>
+      <c r="BY96" s="42"/>
+      <c r="BZ96" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="CA96" s="38"/>
-      <c r="CB96" s="38"/>
-      <c r="CC96" s="38"/>
-      <c r="CD96" s="38" t="s">
+      <c r="CA96" s="42"/>
+      <c r="CB96" s="42"/>
+      <c r="CC96" s="42"/>
+      <c r="CD96" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="CE96" s="38"/>
-      <c r="CF96" s="38"/>
-      <c r="CG96" s="38"/>
-      <c r="CH96" s="38" t="s">
+      <c r="CE96" s="42"/>
+      <c r="CF96" s="42"/>
+      <c r="CG96" s="42"/>
+      <c r="CH96" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="CI96" s="38"/>
-      <c r="CJ96" s="38"/>
-      <c r="CK96" s="38"/>
-      <c r="CL96" s="34" t="s">
+      <c r="CI96" s="33"/>
+      <c r="CJ96" s="33"/>
+      <c r="CK96" s="33"/>
+      <c r="CL96" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="CM96" s="34"/>
-      <c r="CN96" s="34"/>
-      <c r="CO96" s="34"/>
-      <c r="CP96" s="33"/>
-      <c r="CQ96" s="33"/>
-      <c r="CR96" s="33"/>
-      <c r="CS96" s="33"/>
+      <c r="CM96" s="33"/>
+      <c r="CN96" s="33"/>
+      <c r="CO96" s="33"/>
+      <c r="CP96" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="CQ96" s="34"/>
+      <c r="CR96" s="34"/>
+      <c r="CS96" s="34"/>
+      <c r="CT96" s="34"/>
     </row>
     <row r="97" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
@@ -17802,17 +17902,20 @@
       <c r="CO97" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CP97" s="7"/>
-      <c r="CQ97" s="7"/>
-      <c r="CR97" s="7"/>
-      <c r="CS97" s="7"/>
+      <c r="CP97" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CQ97" s="6"/>
+      <c r="CR97" s="6"/>
+      <c r="CS97" s="6"/>
+      <c r="CT97" s="6"/>
     </row>
     <row r="98" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8"/>
-      <c r="CP98" s="8"/>
-      <c r="CQ98" s="8"/>
-      <c r="CR98" s="8"/>
-      <c r="CS98" s="8"/>
+      <c r="CQ98" s="39"/>
+      <c r="CR98" s="39"/>
+      <c r="CS98" s="39"/>
+      <c r="CT98" s="39"/>
     </row>
     <row r="99" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
@@ -18074,31 +18177,33 @@
         <v>9.8707139428146746</v>
       </c>
       <c r="CI99" s="26">
-        <v>5.5887527422940622</v>
+        <v>5.6214245419393478</v>
       </c>
       <c r="CJ99" s="26">
-        <v>4.1328392075537437</v>
+        <v>4.1782537174122467</v>
       </c>
       <c r="CK99" s="26">
-        <v>3.9785935809430555</v>
+        <v>3.9363405760981038</v>
       </c>
       <c r="CL99" s="26">
-        <v>0.64492687527631176</v>
+        <v>0.75183549576402697</v>
       </c>
       <c r="CM99" s="26">
-        <v>0.39905896281825903</v>
+        <v>0.31737608194495692</v>
       </c>
       <c r="CN99" s="26">
-        <v>0.29102236104195356</v>
+        <v>0.26762959352433313</v>
       </c>
       <c r="CO99" s="26">
-        <v>0.45944796636192109</v>
-      </c>
-      <c r="CP99" s="35"/>
-      <c r="CQ99" s="35"/>
-      <c r="CR99" s="35"/>
-      <c r="CS99" s="35"/>
-      <c r="CT99" s="11"/>
+        <v>0.57656851574672885</v>
+      </c>
+      <c r="CP99" s="25">
+        <v>0.54992070216550815</v>
+      </c>
+      <c r="CQ99" s="40"/>
+      <c r="CR99" s="40"/>
+      <c r="CS99" s="40"/>
+      <c r="CT99" s="40"/>
       <c r="CU99" s="11"/>
       <c r="CV99" s="11"/>
       <c r="CW99" s="11"/>
@@ -18408,34 +18513,36 @@
         <v>-10.043407304589977</v>
       </c>
       <c r="CH100" s="26">
-        <v>7.3882196283083346</v>
+        <v>7.3897399773547221</v>
       </c>
       <c r="CI100" s="26">
-        <v>3.1050193909299821</v>
+        <v>3.1050248709294976</v>
       </c>
       <c r="CJ100" s="26">
-        <v>-11.031877319978989</v>
+        <v>-11.553638000217788</v>
       </c>
       <c r="CK100" s="26">
-        <v>3.9147385367330259</v>
+        <v>3.5708103848581771</v>
       </c>
       <c r="CL100" s="26">
-        <v>-0.27357372963069793</v>
+        <v>-0.53990047819844733</v>
       </c>
       <c r="CM100" s="26">
-        <v>-8.2390815145471947</v>
+        <v>-8.2091325117433342</v>
       </c>
       <c r="CN100" s="26">
-        <v>0.88469107145476755</v>
+        <v>1.3604896065504022</v>
       </c>
       <c r="CO100" s="26">
-        <v>0.8429211777729364</v>
-      </c>
-      <c r="CP100" s="35"/>
-      <c r="CQ100" s="35"/>
-      <c r="CR100" s="35"/>
-      <c r="CS100" s="35"/>
-      <c r="CT100" s="11"/>
+        <v>0.63387444398476589</v>
+      </c>
+      <c r="CP100" s="25">
+        <v>-2.7309035645204744</v>
+      </c>
+      <c r="CQ100" s="40"/>
+      <c r="CR100" s="40"/>
+      <c r="CS100" s="40"/>
+      <c r="CT100" s="40"/>
       <c r="CU100" s="11"/>
       <c r="CV100" s="11"/>
       <c r="CW100" s="11"/>
@@ -18745,34 +18852,36 @@
         <v>8.5926047675380914</v>
       </c>
       <c r="CH101" s="26">
-        <v>8.1333331021826893</v>
+        <v>8.3329683217568231</v>
       </c>
       <c r="CI101" s="26">
-        <v>4.8649176850083791</v>
+        <v>5.2653892151155901</v>
       </c>
       <c r="CJ101" s="26">
-        <v>-3.2468613095775538</v>
+        <v>-2.8301635372795459</v>
       </c>
       <c r="CK101" s="26">
-        <v>10.193524067478094</v>
+        <v>10.225711449942509</v>
       </c>
       <c r="CL101" s="26">
-        <v>-2.3622888818490395</v>
+        <v>-2.9484260376816422</v>
       </c>
       <c r="CM101" s="26">
-        <v>-26.412488911446431</v>
+        <v>-26.944011593691499</v>
       </c>
       <c r="CN101" s="26">
-        <v>-10.771486092718291</v>
+        <v>-10.59282745653941</v>
       </c>
       <c r="CO101" s="26">
-        <v>-1.3740248716519829</v>
-      </c>
-      <c r="CP101" s="35"/>
-      <c r="CQ101" s="35"/>
-      <c r="CR101" s="35"/>
-      <c r="CS101" s="35"/>
-      <c r="CT101" s="11"/>
+        <v>-1.9530033990081961</v>
+      </c>
+      <c r="CP101" s="25">
+        <v>0.64237272046972294</v>
+      </c>
+      <c r="CQ101" s="40"/>
+      <c r="CR101" s="40"/>
+      <c r="CS101" s="40"/>
+      <c r="CT101" s="40"/>
       <c r="CU101" s="11"/>
       <c r="CV101" s="11"/>
       <c r="CW101" s="11"/>
@@ -19082,34 +19191,36 @@
         <v>2.7873321121265349</v>
       </c>
       <c r="CH102" s="26">
-        <v>5.6117649963048706</v>
+        <v>5.6087030253196986</v>
       </c>
       <c r="CI102" s="26">
-        <v>7.087811218627877</v>
+        <v>7.162976735034789</v>
       </c>
       <c r="CJ102" s="26">
-        <v>1.3469829937291706</v>
+        <v>1.3361019186816918</v>
       </c>
       <c r="CK102" s="26">
-        <v>4.4963740045475049</v>
+        <v>4.3554010743579283</v>
       </c>
       <c r="CL102" s="26">
-        <v>3.8766048667486785</v>
+        <v>3.6562910796485539</v>
       </c>
       <c r="CM102" s="26">
-        <v>6.0962252277962961</v>
+        <v>5.9774405510630402</v>
       </c>
       <c r="CN102" s="26">
-        <v>4.4747445066999063</v>
+        <v>4.3879360680605117</v>
       </c>
       <c r="CO102" s="26">
-        <v>4.4064444781233476</v>
-      </c>
-      <c r="CP102" s="35"/>
-      <c r="CQ102" s="35"/>
-      <c r="CR102" s="35"/>
-      <c r="CS102" s="35"/>
-      <c r="CT102" s="11"/>
+        <v>4.43514974692674</v>
+      </c>
+      <c r="CP102" s="25">
+        <v>7.2724424154540372</v>
+      </c>
+      <c r="CQ102" s="40"/>
+      <c r="CR102" s="40"/>
+      <c r="CS102" s="40"/>
+      <c r="CT102" s="40"/>
       <c r="CU102" s="11"/>
       <c r="CV102" s="11"/>
       <c r="CW102" s="11"/>
@@ -19419,34 +19530,36 @@
         <v>-0.8103581262158599</v>
       </c>
       <c r="CH103" s="26">
-        <v>8.6882926342291853</v>
+        <v>8.7954411943115502</v>
       </c>
       <c r="CI103" s="26">
-        <v>7.6081719422744527</v>
+        <v>7.6078903486588274</v>
       </c>
       <c r="CJ103" s="26">
-        <v>9.2623422039965249</v>
+        <v>9.214567392630002</v>
       </c>
       <c r="CK103" s="26">
-        <v>9.3573074302153856</v>
+        <v>8.6974240898205721</v>
       </c>
       <c r="CL103" s="26">
-        <v>-2.768520471444873</v>
+        <v>-2.4839045355401339</v>
       </c>
       <c r="CM103" s="26">
-        <v>-3.1776692810644391</v>
+        <v>-2.4625344528723758</v>
       </c>
       <c r="CN103" s="26">
-        <v>-0.70718969326001968</v>
+        <v>-0.4009417843555525</v>
       </c>
       <c r="CO103" s="26">
-        <v>0.49779671122681179</v>
-      </c>
-      <c r="CP103" s="35"/>
-      <c r="CQ103" s="35"/>
-      <c r="CR103" s="35"/>
-      <c r="CS103" s="35"/>
-      <c r="CT103" s="11"/>
+        <v>0.57911228743697052</v>
+      </c>
+      <c r="CP103" s="25">
+        <v>1.3345280494652627</v>
+      </c>
+      <c r="CQ103" s="40"/>
+      <c r="CR103" s="40"/>
+      <c r="CS103" s="40"/>
+      <c r="CT103" s="40"/>
       <c r="CU103" s="11"/>
       <c r="CV103" s="11"/>
       <c r="CW103" s="11"/>
@@ -19756,34 +19869,36 @@
         <v>17.10402110268052</v>
       </c>
       <c r="CH104" s="26">
-        <v>1.1132510405990672</v>
+        <v>1.1498336231075257</v>
       </c>
       <c r="CI104" s="26">
-        <v>-2.6297406845382625</v>
+        <v>-3.0350155867119923</v>
       </c>
       <c r="CJ104" s="26">
-        <v>5.261707712749029</v>
+        <v>5.383482148387003</v>
       </c>
       <c r="CK104" s="26">
-        <v>5.2490153935198265</v>
+        <v>5.4646973380967552</v>
       </c>
       <c r="CL104" s="26">
-        <v>7.8021433266596745</v>
+        <v>7.7468855255596907</v>
       </c>
       <c r="CM104" s="26">
-        <v>8.777839878030619</v>
+        <v>9.3167559881505326</v>
       </c>
       <c r="CN104" s="26">
-        <v>5.7712522322208173</v>
+        <v>5.6600132967856496</v>
       </c>
       <c r="CO104" s="26">
-        <v>7.0300912160979294</v>
-      </c>
-      <c r="CP104" s="35"/>
-      <c r="CQ104" s="35"/>
-      <c r="CR104" s="35"/>
-      <c r="CS104" s="35"/>
-      <c r="CT104" s="11"/>
+        <v>6.8017809196891506</v>
+      </c>
+      <c r="CP104" s="25">
+        <v>7.2519496373753185</v>
+      </c>
+      <c r="CQ104" s="40"/>
+      <c r="CR104" s="40"/>
+      <c r="CS104" s="40"/>
+      <c r="CT104" s="40"/>
       <c r="CU104" s="11"/>
       <c r="CV104" s="11"/>
       <c r="CW104" s="11"/>
@@ -20093,34 +20208,36 @@
         <v>14.815706562383383</v>
       </c>
       <c r="CH105" s="26">
-        <v>16.08076077626572</v>
+        <v>16.080744370602204</v>
       </c>
       <c r="CI105" s="26">
-        <v>25.288052668088156</v>
+        <v>25.689327134077416</v>
       </c>
       <c r="CJ105" s="26">
-        <v>19.754366857237656</v>
+        <v>19.747562352066367</v>
       </c>
       <c r="CK105" s="26">
-        <v>7.8682121727108552</v>
+        <v>8.0240914767219778</v>
       </c>
       <c r="CL105" s="26">
-        <v>14.335353258680669</v>
+        <v>14.43330780757617</v>
       </c>
       <c r="CM105" s="26">
-        <v>30.387208780390296</v>
+        <v>29.745585878371656</v>
       </c>
       <c r="CN105" s="26">
-        <v>14.58019957345833</v>
+        <v>14.431749269898589</v>
       </c>
       <c r="CO105" s="26">
-        <v>12.220186132456973</v>
-      </c>
-      <c r="CP105" s="35"/>
-      <c r="CQ105" s="35"/>
-      <c r="CR105" s="35"/>
-      <c r="CS105" s="35"/>
-      <c r="CT105" s="11"/>
+        <v>11.982082412149637</v>
+      </c>
+      <c r="CP105" s="25">
+        <v>7.4564103511935542</v>
+      </c>
+      <c r="CQ105" s="40"/>
+      <c r="CR105" s="40"/>
+      <c r="CS105" s="40"/>
+      <c r="CT105" s="40"/>
       <c r="CU105" s="11"/>
       <c r="CV105" s="11"/>
       <c r="CW105" s="11"/>
@@ -20430,34 +20547,36 @@
         <v>8.1047575801421061</v>
       </c>
       <c r="CH106" s="26">
-        <v>6.6499929138817464</v>
+        <v>6.7381232408709479</v>
       </c>
       <c r="CI106" s="26">
-        <v>9.6359318992384146</v>
+        <v>9.0549697094868691</v>
       </c>
       <c r="CJ106" s="26">
-        <v>7.2558842475053211</v>
+        <v>6.9053720566663515</v>
       </c>
       <c r="CK106" s="26">
-        <v>6.0323765304316055</v>
+        <v>6.351525081990971</v>
       </c>
       <c r="CL106" s="26">
-        <v>4.9242988727490626</v>
+        <v>4.605902211171383</v>
       </c>
       <c r="CM106" s="26">
-        <v>4.615653497736588</v>
+        <v>4.9034987902371228</v>
       </c>
       <c r="CN106" s="26">
-        <v>5.0705489119989124</v>
+        <v>4.9126105720600037</v>
       </c>
       <c r="CO106" s="26">
-        <v>4.4566442664885813</v>
-      </c>
-      <c r="CP106" s="35"/>
-      <c r="CQ106" s="35"/>
-      <c r="CR106" s="35"/>
-      <c r="CS106" s="35"/>
-      <c r="CT106" s="11"/>
+        <v>4.7782406057255145</v>
+      </c>
+      <c r="CP106" s="25">
+        <v>4.7523389642685174</v>
+      </c>
+      <c r="CQ106" s="40"/>
+      <c r="CR106" s="40"/>
+      <c r="CS106" s="40"/>
+      <c r="CT106" s="40"/>
       <c r="CU106" s="11"/>
       <c r="CV106" s="11"/>
       <c r="CW106" s="11"/>
@@ -20767,34 +20886,36 @@
         <v>39.541157501102617</v>
       </c>
       <c r="CH107" s="26">
-        <v>16.5132803761866</v>
+        <v>16.512550696792516</v>
       </c>
       <c r="CI107" s="26">
-        <v>38.575728051564937</v>
+        <v>36.4621756455943</v>
       </c>
       <c r="CJ107" s="26">
-        <v>46.141312825458016</v>
+        <v>46.072482825012145</v>
       </c>
       <c r="CK107" s="26">
-        <v>15.49125668577156</v>
+        <v>15.789185185214478</v>
       </c>
       <c r="CL107" s="26">
-        <v>29.785574583887012</v>
+        <v>27.906973307918221</v>
       </c>
       <c r="CM107" s="26">
-        <v>18.930278843309239</v>
+        <v>20.676174695688758</v>
       </c>
       <c r="CN107" s="26">
-        <v>15.022547814327453</v>
+        <v>15.163537539078817</v>
       </c>
       <c r="CO107" s="26">
-        <v>7.262906249852378</v>
-      </c>
-      <c r="CP107" s="35"/>
-      <c r="CQ107" s="35"/>
-      <c r="CR107" s="35"/>
-      <c r="CS107" s="35"/>
-      <c r="CT107" s="11"/>
+        <v>7.9598286401135283</v>
+      </c>
+      <c r="CP107" s="25">
+        <v>8.390812434981342</v>
+      </c>
+      <c r="CQ107" s="40"/>
+      <c r="CR107" s="40"/>
+      <c r="CS107" s="40"/>
+      <c r="CT107" s="40"/>
       <c r="CU107" s="11"/>
       <c r="CV107" s="11"/>
       <c r="CW107" s="11"/>
@@ -21104,34 +21225,36 @@
         <v>8.9785648081707592</v>
       </c>
       <c r="CH108" s="26">
-        <v>11.748484928354429</v>
+        <v>11.526798745936873</v>
       </c>
       <c r="CI108" s="26">
-        <v>7.5463646627552663</v>
+        <v>7.4308529479550458</v>
       </c>
       <c r="CJ108" s="26">
-        <v>5.7050559791894671</v>
+        <v>5.4382093756155854</v>
       </c>
       <c r="CK108" s="26">
-        <v>10.278242718539033</v>
+        <v>9.877205823989172</v>
       </c>
       <c r="CL108" s="26">
-        <v>6.6260240346224748</v>
+        <v>6.907337683016749</v>
       </c>
       <c r="CM108" s="26">
-        <v>7.1455661282433596</v>
+        <v>7.1708978666504208</v>
       </c>
       <c r="CN108" s="26">
-        <v>6.6258036948908057</v>
+        <v>6.6641439393626598</v>
       </c>
       <c r="CO108" s="26">
-        <v>7.7793413179368258</v>
-      </c>
-      <c r="CP108" s="35"/>
-      <c r="CQ108" s="35"/>
-      <c r="CR108" s="35"/>
-      <c r="CS108" s="35"/>
-      <c r="CT108" s="11"/>
+        <v>8.2532640595830173</v>
+      </c>
+      <c r="CP108" s="25">
+        <v>3.8418856112105289</v>
+      </c>
+      <c r="CQ108" s="40"/>
+      <c r="CR108" s="40"/>
+      <c r="CS108" s="40"/>
+      <c r="CT108" s="40"/>
       <c r="CU108" s="11"/>
       <c r="CV108" s="11"/>
       <c r="CW108" s="11"/>
@@ -21441,34 +21564,36 @@
         <v>21.768812722042412</v>
       </c>
       <c r="CH109" s="26">
-        <v>20.153452583583615</v>
+        <v>20.238705521953833</v>
       </c>
       <c r="CI109" s="26">
-        <v>33.331684592777037</v>
+        <v>33.592756144311977</v>
       </c>
       <c r="CJ109" s="26">
-        <v>39.324921468664854</v>
+        <v>39.588882787019656</v>
       </c>
       <c r="CK109" s="26">
-        <v>24.779108341374851</v>
+        <v>25.005650533944987</v>
       </c>
       <c r="CL109" s="26">
-        <v>24.027082581513739</v>
+        <v>24.098177731017657</v>
       </c>
       <c r="CM109" s="26">
-        <v>22.895321243728034</v>
+        <v>22.929278702774837</v>
       </c>
       <c r="CN109" s="26">
-        <v>15.411635269948803</v>
+        <v>15.279913081779654</v>
       </c>
       <c r="CO109" s="26">
-        <v>16.200186503411729</v>
-      </c>
-      <c r="CP109" s="35"/>
-      <c r="CQ109" s="35"/>
-      <c r="CR109" s="35"/>
-      <c r="CS109" s="35"/>
-      <c r="CT109" s="11"/>
+        <v>15.6490650027811</v>
+      </c>
+      <c r="CP109" s="25">
+        <v>11.926818945940056</v>
+      </c>
+      <c r="CQ109" s="40"/>
+      <c r="CR109" s="40"/>
+      <c r="CS109" s="40"/>
+      <c r="CT109" s="40"/>
       <c r="CU109" s="11"/>
       <c r="CV109" s="11"/>
       <c r="CW109" s="11"/>
@@ -21778,34 +21903,36 @@
         <v>6.8280332113680657</v>
       </c>
       <c r="CH110" s="26">
-        <v>8.2448428990994955</v>
+        <v>8.2859501236522135</v>
       </c>
       <c r="CI110" s="26">
-        <v>6.8326318227003071</v>
+        <v>6.8818100567248734</v>
       </c>
       <c r="CJ110" s="26">
-        <v>8.0598133946706128</v>
+        <v>8.060598749392156</v>
       </c>
       <c r="CK110" s="26">
-        <v>6.6439501425235221</v>
+        <v>6.6863576671329241</v>
       </c>
       <c r="CL110" s="26">
-        <v>9.0986650048017168</v>
+        <v>8.7959567297941135</v>
       </c>
       <c r="CM110" s="26">
-        <v>5.4211976148084773</v>
+        <v>5.3551169076756509</v>
       </c>
       <c r="CN110" s="26">
-        <v>8.2391018394417017</v>
+        <v>8.3172470942415941</v>
       </c>
       <c r="CO110" s="26">
-        <v>10.416252774112735</v>
-      </c>
-      <c r="CP110" s="35"/>
-      <c r="CQ110" s="35"/>
-      <c r="CR110" s="35"/>
-      <c r="CS110" s="35"/>
-      <c r="CT110" s="11"/>
+        <v>10.401569856689804</v>
+      </c>
+      <c r="CP110" s="25">
+        <v>5.9803175692068464</v>
+      </c>
+      <c r="CQ110" s="40"/>
+      <c r="CR110" s="40"/>
+      <c r="CS110" s="40"/>
+      <c r="CT110" s="40"/>
       <c r="CU110" s="11"/>
       <c r="CV110" s="11"/>
       <c r="CW110" s="11"/>
@@ -21951,11 +22078,11 @@
       <c r="CM111" s="11"/>
       <c r="CN111" s="11"/>
       <c r="CO111" s="11"/>
-      <c r="CP111" s="36"/>
-      <c r="CQ111" s="36"/>
-      <c r="CR111" s="36"/>
-      <c r="CS111" s="36"/>
-      <c r="CT111" s="11"/>
+      <c r="CP111" s="13"/>
+      <c r="CQ111" s="41"/>
+      <c r="CR111" s="41"/>
+      <c r="CS111" s="41"/>
+      <c r="CT111" s="41"/>
       <c r="CU111" s="11"/>
       <c r="CV111" s="11"/>
       <c r="CW111" s="11"/>
@@ -22265,34 +22392,36 @@
         <v>7.5009024822445696</v>
       </c>
       <c r="CH112" s="26">
-        <v>9.9767570749309726</v>
+        <v>9.9870089237368944</v>
       </c>
       <c r="CI112" s="26">
-        <v>8.5220183917681851</v>
+        <v>8.5314763219508336</v>
       </c>
       <c r="CJ112" s="26">
-        <v>8.0095402875760158</v>
+        <v>8.0182105326399551</v>
       </c>
       <c r="CK112" s="26">
-        <v>6.971064311894807</v>
+        <v>6.951435265129021</v>
       </c>
       <c r="CL112" s="26">
-        <v>6.4300230362182873</v>
+        <v>6.3839736495247905</v>
       </c>
       <c r="CM112" s="26">
-        <v>5.5217510711067916</v>
+        <v>5.4840394833381083</v>
       </c>
       <c r="CN112" s="26">
-        <v>5.1359036835495004</v>
+        <v>5.1171758231308928</v>
       </c>
       <c r="CO112" s="26">
-        <v>5.3121488136727208</v>
-      </c>
-      <c r="CP112" s="35"/>
-      <c r="CQ112" s="35"/>
-      <c r="CR112" s="35"/>
-      <c r="CS112" s="35"/>
-      <c r="CT112" s="11"/>
+        <v>5.3289809060774331</v>
+      </c>
+      <c r="CP112" s="25">
+        <v>4.6090782985826309</v>
+      </c>
+      <c r="CQ112" s="40"/>
+      <c r="CR112" s="40"/>
+      <c r="CS112" s="40"/>
+      <c r="CT112" s="40"/>
       <c r="CU112" s="11"/>
       <c r="CV112" s="11"/>
       <c r="CW112" s="11"/>
@@ -22439,19 +22568,20 @@
       <c r="CM113" s="16"/>
       <c r="CN113" s="16"/>
       <c r="CO113" s="16"/>
-      <c r="CP113" s="7"/>
-      <c r="CQ113" s="7"/>
-      <c r="CR113" s="7"/>
-      <c r="CS113" s="7"/>
+      <c r="CP113" s="17"/>
+      <c r="CQ113" s="6"/>
+      <c r="CR113" s="6"/>
+      <c r="CS113" s="6"/>
+      <c r="CT113" s="6"/>
     </row>
     <row r="114" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A114" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="CP114" s="8"/>
-      <c r="CQ114" s="8"/>
-      <c r="CR114" s="8"/>
-      <c r="CS114" s="8"/>
+      <c r="CQ114" s="39"/>
+      <c r="CR114" s="39"/>
+      <c r="CS114" s="39"/>
+      <c r="CT114" s="39"/>
     </row>
     <row r="115" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="13"/>
@@ -22546,11 +22676,11 @@
       <c r="CM115" s="11"/>
       <c r="CN115" s="11"/>
       <c r="CO115" s="11"/>
-      <c r="CP115" s="36"/>
-      <c r="CQ115" s="36"/>
-      <c r="CR115" s="36"/>
-      <c r="CS115" s="36"/>
-      <c r="CT115" s="11"/>
+      <c r="CP115" s="13"/>
+      <c r="CQ115" s="41"/>
+      <c r="CR115" s="41"/>
+      <c r="CS115" s="41"/>
+      <c r="CT115" s="41"/>
       <c r="CU115" s="11"/>
       <c r="CV115" s="11"/>
       <c r="CW115" s="11"/>
@@ -22696,11 +22826,11 @@
       <c r="CM116" s="11"/>
       <c r="CN116" s="11"/>
       <c r="CO116" s="11"/>
-      <c r="CP116" s="36"/>
-      <c r="CQ116" s="36"/>
-      <c r="CR116" s="36"/>
-      <c r="CS116" s="36"/>
-      <c r="CT116" s="11"/>
+      <c r="CP116" s="13"/>
+      <c r="CQ116" s="41"/>
+      <c r="CR116" s="41"/>
+      <c r="CS116" s="41"/>
+      <c r="CT116" s="41"/>
       <c r="CU116" s="11"/>
       <c r="CV116" s="11"/>
       <c r="CW116" s="11"/>
@@ -22760,7 +22890,7 @@
     </row>
     <row r="118" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="120" spans="1:153" x14ac:dyDescent="0.2">
@@ -22770,7 +22900,7 @@
     </row>
     <row r="121" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="122" spans="1:153" x14ac:dyDescent="0.2">
@@ -22780,150 +22910,153 @@
     </row>
     <row r="124" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
-      <c r="B124" s="37">
+      <c r="B124" s="43">
         <v>2000</v>
       </c>
-      <c r="C124" s="37"/>
-      <c r="D124" s="37"/>
-      <c r="E124" s="37"/>
-      <c r="F124" s="37">
+      <c r="C124" s="43"/>
+      <c r="D124" s="43"/>
+      <c r="E124" s="43"/>
+      <c r="F124" s="43">
         <v>2001</v>
       </c>
-      <c r="G124" s="37"/>
-      <c r="H124" s="37"/>
-      <c r="I124" s="37"/>
-      <c r="J124" s="37">
+      <c r="G124" s="43"/>
+      <c r="H124" s="43"/>
+      <c r="I124" s="43"/>
+      <c r="J124" s="43">
         <v>2002</v>
       </c>
-      <c r="K124" s="37"/>
-      <c r="L124" s="37"/>
-      <c r="M124" s="37"/>
-      <c r="N124" s="37">
+      <c r="K124" s="43"/>
+      <c r="L124" s="43"/>
+      <c r="M124" s="43"/>
+      <c r="N124" s="43">
         <v>2003</v>
       </c>
-      <c r="O124" s="37"/>
-      <c r="P124" s="37"/>
-      <c r="Q124" s="37"/>
-      <c r="R124" s="37">
+      <c r="O124" s="43"/>
+      <c r="P124" s="43"/>
+      <c r="Q124" s="43"/>
+      <c r="R124" s="43">
         <v>2004</v>
       </c>
-      <c r="S124" s="37"/>
-      <c r="T124" s="37"/>
-      <c r="U124" s="37"/>
-      <c r="V124" s="37">
+      <c r="S124" s="43"/>
+      <c r="T124" s="43"/>
+      <c r="U124" s="43"/>
+      <c r="V124" s="43">
         <v>2005</v>
       </c>
-      <c r="W124" s="37"/>
-      <c r="X124" s="37"/>
-      <c r="Y124" s="37"/>
-      <c r="Z124" s="37">
+      <c r="W124" s="43"/>
+      <c r="X124" s="43"/>
+      <c r="Y124" s="43"/>
+      <c r="Z124" s="43">
         <v>2006</v>
       </c>
-      <c r="AA124" s="37"/>
-      <c r="AB124" s="37"/>
-      <c r="AC124" s="37"/>
-      <c r="AD124" s="37">
+      <c r="AA124" s="43"/>
+      <c r="AB124" s="43"/>
+      <c r="AC124" s="43"/>
+      <c r="AD124" s="43">
         <v>2007</v>
       </c>
-      <c r="AE124" s="37"/>
-      <c r="AF124" s="37"/>
-      <c r="AG124" s="37"/>
-      <c r="AH124" s="37">
+      <c r="AE124" s="43"/>
+      <c r="AF124" s="43"/>
+      <c r="AG124" s="43"/>
+      <c r="AH124" s="43">
         <v>2008</v>
       </c>
-      <c r="AI124" s="37"/>
-      <c r="AJ124" s="37"/>
-      <c r="AK124" s="37"/>
-      <c r="AL124" s="37">
+      <c r="AI124" s="43"/>
+      <c r="AJ124" s="43"/>
+      <c r="AK124" s="43"/>
+      <c r="AL124" s="43">
         <v>2009</v>
       </c>
-      <c r="AM124" s="37"/>
-      <c r="AN124" s="37"/>
-      <c r="AO124" s="37"/>
-      <c r="AP124" s="37">
+      <c r="AM124" s="43"/>
+      <c r="AN124" s="43"/>
+      <c r="AO124" s="43"/>
+      <c r="AP124" s="43">
         <v>2010</v>
       </c>
-      <c r="AQ124" s="37"/>
-      <c r="AR124" s="37"/>
-      <c r="AS124" s="37"/>
-      <c r="AT124" s="37">
+      <c r="AQ124" s="43"/>
+      <c r="AR124" s="43"/>
+      <c r="AS124" s="43"/>
+      <c r="AT124" s="43">
         <v>2011</v>
       </c>
-      <c r="AU124" s="37"/>
-      <c r="AV124" s="37"/>
-      <c r="AW124" s="37"/>
-      <c r="AX124" s="37">
+      <c r="AU124" s="43"/>
+      <c r="AV124" s="43"/>
+      <c r="AW124" s="43"/>
+      <c r="AX124" s="43">
         <v>2012</v>
       </c>
-      <c r="AY124" s="37"/>
-      <c r="AZ124" s="37"/>
-      <c r="BA124" s="37"/>
-      <c r="BB124" s="37">
+      <c r="AY124" s="43"/>
+      <c r="AZ124" s="43"/>
+      <c r="BA124" s="43"/>
+      <c r="BB124" s="43">
         <v>2013</v>
       </c>
-      <c r="BC124" s="37"/>
-      <c r="BD124" s="37"/>
-      <c r="BE124" s="37"/>
-      <c r="BF124" s="37">
+      <c r="BC124" s="43"/>
+      <c r="BD124" s="43"/>
+      <c r="BE124" s="43"/>
+      <c r="BF124" s="43">
         <v>2014</v>
       </c>
-      <c r="BG124" s="37"/>
-      <c r="BH124" s="37"/>
-      <c r="BI124" s="37"/>
-      <c r="BJ124" s="37">
+      <c r="BG124" s="43"/>
+      <c r="BH124" s="43"/>
+      <c r="BI124" s="43"/>
+      <c r="BJ124" s="43">
         <v>2015</v>
       </c>
-      <c r="BK124" s="37"/>
-      <c r="BL124" s="37"/>
-      <c r="BM124" s="37"/>
-      <c r="BN124" s="37">
+      <c r="BK124" s="43"/>
+      <c r="BL124" s="43"/>
+      <c r="BM124" s="43"/>
+      <c r="BN124" s="43">
         <v>2016</v>
       </c>
-      <c r="BO124" s="37"/>
-      <c r="BP124" s="37"/>
-      <c r="BQ124" s="37"/>
-      <c r="BR124" s="38">
+      <c r="BO124" s="43"/>
+      <c r="BP124" s="43"/>
+      <c r="BQ124" s="43"/>
+      <c r="BR124" s="42">
         <v>2017</v>
       </c>
-      <c r="BS124" s="38"/>
-      <c r="BT124" s="38"/>
-      <c r="BU124" s="38"/>
-      <c r="BV124" s="38">
+      <c r="BS124" s="42"/>
+      <c r="BT124" s="42"/>
+      <c r="BU124" s="42"/>
+      <c r="BV124" s="42">
         <v>2018</v>
       </c>
-      <c r="BW124" s="38"/>
-      <c r="BX124" s="38"/>
-      <c r="BY124" s="38"/>
-      <c r="BZ124" s="38">
+      <c r="BW124" s="42"/>
+      <c r="BX124" s="42"/>
+      <c r="BY124" s="42"/>
+      <c r="BZ124" s="42">
         <v>2019</v>
       </c>
-      <c r="CA124" s="38"/>
-      <c r="CB124" s="38"/>
-      <c r="CC124" s="38"/>
-      <c r="CD124" s="38">
+      <c r="CA124" s="42"/>
+      <c r="CB124" s="42"/>
+      <c r="CC124" s="42"/>
+      <c r="CD124" s="42">
         <v>2020</v>
       </c>
-      <c r="CE124" s="38"/>
-      <c r="CF124" s="38"/>
-      <c r="CG124" s="38"/>
-      <c r="CH124" s="38">
+      <c r="CE124" s="42"/>
+      <c r="CF124" s="42"/>
+      <c r="CG124" s="42"/>
+      <c r="CH124" s="33">
         <v>2021</v>
       </c>
-      <c r="CI124" s="38"/>
-      <c r="CJ124" s="38"/>
-      <c r="CK124" s="38"/>
-      <c r="CL124" s="34">
+      <c r="CI124" s="33"/>
+      <c r="CJ124" s="33"/>
+      <c r="CK124" s="33"/>
+      <c r="CL124" s="33">
         <v>2022</v>
       </c>
-      <c r="CM124" s="34"/>
-      <c r="CN124" s="34"/>
-      <c r="CO124" s="34"/>
-      <c r="CP124" s="34">
+      <c r="CM124" s="33"/>
+      <c r="CN124" s="33"/>
+      <c r="CO124" s="33"/>
+      <c r="CP124" s="35">
         <v>2023</v>
       </c>
-      <c r="CQ124" s="34"/>
-      <c r="CR124" s="34"/>
-      <c r="CS124" s="34"/>
+      <c r="CQ124" s="35"/>
+      <c r="CR124" s="35"/>
+      <c r="CS124" s="35"/>
+      <c r="CT124" s="35">
+        <v>2024</v>
+      </c>
     </row>
     <row r="125" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
@@ -23205,17 +23338,20 @@
       <c r="CO125" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CP125" s="7" t="s">
+      <c r="CP125" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="CQ125" s="7" t="s">
+      <c r="CQ125" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="CR125" s="7" t="s">
+      <c r="CR125" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="CS125" s="7" t="s">
+      <c r="CS125" s="6" t="s">
         <v>22</v>
+      </c>
+      <c r="CT125" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="126" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -23501,19 +23637,21 @@
       <c r="CO127" s="26">
         <v>119.63502738941952</v>
       </c>
-      <c r="CP127" s="26">
+      <c r="CP127" s="25">
         <v>121.40993984588135</v>
       </c>
-      <c r="CQ127" s="26">
+      <c r="CQ127" s="25">
         <v>123.69950887022809</v>
       </c>
-      <c r="CR127" s="26">
+      <c r="CR127" s="25">
         <v>127.42154968922502</v>
       </c>
-      <c r="CS127" s="26">
+      <c r="CS127" s="25">
         <v>126.84836468964291</v>
       </c>
-      <c r="CT127" s="11"/>
+      <c r="CT127" s="25">
+        <v>126.91814127556216</v>
+      </c>
       <c r="CU127" s="11"/>
       <c r="CV127" s="11"/>
       <c r="CW127" s="11"/>
@@ -23850,19 +23988,21 @@
       <c r="CO128" s="26">
         <v>157.85711271445632</v>
       </c>
-      <c r="CP128" s="26">
+      <c r="CP128" s="25">
         <v>155.8613031242264</v>
       </c>
-      <c r="CQ128" s="26">
+      <c r="CQ128" s="25">
         <v>174.33891502019807</v>
       </c>
-      <c r="CR128" s="26">
+      <c r="CR128" s="25">
         <v>183.72355552326766</v>
       </c>
-      <c r="CS128" s="26">
+      <c r="CS128" s="25">
         <v>168.13352511539742</v>
       </c>
-      <c r="CT128" s="11"/>
+      <c r="CT128" s="25">
+        <v>168.14766710924428</v>
+      </c>
       <c r="CU128" s="11"/>
       <c r="CV128" s="11"/>
       <c r="CW128" s="11"/>
@@ -24199,19 +24339,21 @@
       <c r="CO129" s="26">
         <v>107.88943773035248</v>
       </c>
-      <c r="CP129" s="26">
+      <c r="CP129" s="25">
         <v>110.80516327271272</v>
       </c>
-      <c r="CQ129" s="26">
+      <c r="CQ129" s="25">
         <v>121.9091653254432</v>
       </c>
-      <c r="CR129" s="26">
+      <c r="CR129" s="25">
         <v>111.64012378769115</v>
       </c>
-      <c r="CS129" s="26">
+      <c r="CS129" s="25">
         <v>112.6673063072801</v>
       </c>
-      <c r="CT129" s="11"/>
+      <c r="CT129" s="25">
+        <v>114.8812802265353</v>
+      </c>
       <c r="CU129" s="11"/>
       <c r="CV129" s="11"/>
       <c r="CW129" s="11"/>
@@ -24548,19 +24690,21 @@
       <c r="CO130" s="26">
         <v>117.1180284754346</v>
       </c>
-      <c r="CP130" s="26">
+      <c r="CP130" s="25">
         <v>112.94682454743001</v>
       </c>
-      <c r="CQ130" s="26">
+      <c r="CQ130" s="25">
         <v>117.12289797159234</v>
       </c>
-      <c r="CR130" s="26">
+      <c r="CR130" s="25">
         <v>122.54913860948859</v>
       </c>
-      <c r="CS130" s="26">
+      <c r="CS130" s="25">
         <v>119.68536916309918</v>
       </c>
-      <c r="CT130" s="11"/>
+      <c r="CT130" s="25">
+        <v>113.74021331216329</v>
+      </c>
       <c r="CU130" s="11"/>
       <c r="CV130" s="11"/>
       <c r="CW130" s="11"/>
@@ -24897,19 +25041,21 @@
       <c r="CO131" s="26">
         <v>111.84049601763029</v>
       </c>
-      <c r="CP131" s="26">
+      <c r="CP131" s="25">
         <v>118.43763277423901</v>
       </c>
-      <c r="CQ131" s="26">
+      <c r="CQ131" s="25">
         <v>118.89366595869345</v>
       </c>
-      <c r="CR131" s="26">
+      <c r="CR131" s="25">
         <v>118.95780616944631</v>
       </c>
-      <c r="CS131" s="26">
+      <c r="CS131" s="25">
         <v>117.26742450021625</v>
       </c>
-      <c r="CT131" s="11"/>
+      <c r="CT131" s="25">
+        <v>122.53336114396834</v>
+      </c>
       <c r="CU131" s="11"/>
       <c r="CV131" s="11"/>
       <c r="CW131" s="11"/>
@@ -25246,19 +25392,21 @@
       <c r="CO132" s="26">
         <v>114.33049868938599</v>
       </c>
-      <c r="CP132" s="26">
+      <c r="CP132" s="25">
         <v>112.67232134559868</v>
       </c>
-      <c r="CQ132" s="26">
+      <c r="CQ132" s="25">
         <v>113.5777891047194</v>
       </c>
-      <c r="CR132" s="26">
+      <c r="CR132" s="25">
         <v>118.97475055448687</v>
       </c>
-      <c r="CS132" s="26">
+      <c r="CS132" s="25">
         <v>118.68251824453434</v>
       </c>
-      <c r="CT132" s="11"/>
+      <c r="CT132" s="25">
+        <v>116.26283807206586</v>
+      </c>
       <c r="CU132" s="11"/>
       <c r="CV132" s="11"/>
       <c r="CW132" s="11"/>
@@ -25595,19 +25743,21 @@
       <c r="CO133" s="26">
         <v>126.45166811592503</v>
       </c>
-      <c r="CP133" s="26">
+      <c r="CP133" s="25">
         <v>132.39182950639261</v>
       </c>
-      <c r="CQ133" s="26">
+      <c r="CQ133" s="25">
         <v>124.41080168946679</v>
       </c>
-      <c r="CR133" s="26">
+      <c r="CR133" s="25">
         <v>140.44225185798436</v>
       </c>
-      <c r="CS133" s="26">
+      <c r="CS133" s="25">
         <v>126.71178982971456</v>
       </c>
-      <c r="CT133" s="11"/>
+      <c r="CT133" s="25">
+        <v>133.72773671227856</v>
+      </c>
       <c r="CU133" s="11"/>
       <c r="CV133" s="11"/>
       <c r="CW133" s="11"/>
@@ -25944,19 +26094,21 @@
       <c r="CO134" s="26">
         <v>97.770891822858133</v>
       </c>
-      <c r="CP134" s="26">
+      <c r="CP134" s="25">
         <v>105.67435954176283</v>
       </c>
-      <c r="CQ134" s="26">
+      <c r="CQ134" s="25">
         <v>102.77543821658408</v>
       </c>
-      <c r="CR134" s="26">
+      <c r="CR134" s="25">
         <v>100.89748349875232</v>
       </c>
-      <c r="CS134" s="26">
-        <v>98.375791511765442</v>
-      </c>
-      <c r="CT134" s="11"/>
+      <c r="CS134" s="25">
+        <v>98.375791511765456</v>
+      </c>
+      <c r="CT134" s="25">
+        <v>106.12038768268582</v>
+      </c>
       <c r="CU134" s="11"/>
       <c r="CV134" s="11"/>
       <c r="CW134" s="11"/>
@@ -26293,19 +26445,21 @@
       <c r="CO135" s="26">
         <v>107.41817077769586</v>
       </c>
-      <c r="CP135" s="26">
+      <c r="CP135" s="25">
         <v>109.01624515776258</v>
       </c>
-      <c r="CQ135" s="26">
+      <c r="CQ135" s="25">
         <v>108.16345917774601</v>
       </c>
-      <c r="CR135" s="26">
+      <c r="CR135" s="25">
         <v>106.80310994543314</v>
       </c>
-      <c r="CS135" s="26">
+      <c r="CS135" s="25">
         <v>112.4441585847257</v>
       </c>
-      <c r="CT135" s="11"/>
+      <c r="CT135" s="25">
+        <v>113.25594839121189</v>
+      </c>
       <c r="CU135" s="11"/>
       <c r="CV135" s="11"/>
       <c r="CW135" s="11"/>
@@ -26642,19 +26796,21 @@
       <c r="CO136" s="26">
         <v>102.55628118766403</v>
       </c>
-      <c r="CP136" s="26">
+      <c r="CP136" s="25">
         <v>108.12715026223094</v>
       </c>
-      <c r="CQ136" s="26">
+      <c r="CQ136" s="25">
         <v>110.46767080521592</v>
       </c>
-      <c r="CR136" s="26">
+      <c r="CR136" s="25">
         <v>112.47162690709465</v>
       </c>
-      <c r="CS136" s="26">
+      <c r="CS136" s="25">
         <v>106.24867654995613</v>
       </c>
-      <c r="CT136" s="11"/>
+      <c r="CT136" s="25">
+        <v>112.21108939084039</v>
+      </c>
       <c r="CU136" s="11"/>
       <c r="CV136" s="11"/>
       <c r="CW136" s="11"/>
@@ -26991,19 +27147,21 @@
       <c r="CO137" s="26">
         <v>116.21057920620589</v>
       </c>
-      <c r="CP137" s="26">
+      <c r="CP137" s="25">
         <v>120.83454632830689</v>
       </c>
-      <c r="CQ137" s="26">
+      <c r="CQ137" s="25">
         <v>117.57103978064248</v>
       </c>
-      <c r="CR137" s="26">
+      <c r="CR137" s="25">
         <v>125.44749203813173</v>
       </c>
-      <c r="CS137" s="26">
+      <c r="CS137" s="25">
         <v>123.00767725177046</v>
       </c>
-      <c r="CT137" s="11"/>
+      <c r="CT137" s="25">
+        <v>127.44871849465214</v>
+      </c>
       <c r="CU137" s="11"/>
       <c r="CV137" s="11"/>
       <c r="CW137" s="11"/>
@@ -27340,19 +27498,21 @@
       <c r="CO138" s="26">
         <v>107.40108882700197</v>
       </c>
-      <c r="CP138" s="26">
+      <c r="CP138" s="25">
         <v>120.37521199573725</v>
       </c>
-      <c r="CQ138" s="26">
+      <c r="CQ138" s="25">
         <v>122.91305655599656</v>
       </c>
-      <c r="CR138" s="26">
+      <c r="CR138" s="25">
         <v>109.23987810896793</v>
       </c>
-      <c r="CS138" s="26">
+      <c r="CS138" s="25">
         <v>110.03034396890929</v>
       </c>
-      <c r="CT138" s="11"/>
+      <c r="CT138" s="25">
+        <v>124.92431858292233</v>
+      </c>
       <c r="CU138" s="11"/>
       <c r="CV138" s="11"/>
       <c r="CW138" s="11"/>
@@ -27502,11 +27662,11 @@
       <c r="CM139" s="11"/>
       <c r="CN139" s="11"/>
       <c r="CO139" s="11"/>
-      <c r="CP139" s="11"/>
-      <c r="CQ139" s="11"/>
-      <c r="CR139" s="11"/>
-      <c r="CS139" s="11"/>
-      <c r="CT139" s="11"/>
+      <c r="CP139" s="13"/>
+      <c r="CQ139" s="13"/>
+      <c r="CR139" s="13"/>
+      <c r="CS139" s="13"/>
+      <c r="CT139" s="13"/>
       <c r="CU139" s="11"/>
       <c r="CV139" s="11"/>
       <c r="CW139" s="11"/>
@@ -27832,30 +27992,32 @@
         <v>107.89794049951327</v>
       </c>
       <c r="CL140" s="26">
-        <v>110.98019152014913</v>
+        <v>110.98086877293882</v>
       </c>
       <c r="CM140" s="26">
-        <v>114.14656881578551</v>
+        <v>114.15392268505376</v>
       </c>
       <c r="CN140" s="26">
-        <v>117.8406130747405</v>
+        <v>117.83892484044394</v>
       </c>
       <c r="CO140" s="26">
-        <v>115.90512482879622</v>
-      </c>
-      <c r="CP140" s="26">
-        <v>119.60725875110107</v>
-      </c>
-      <c r="CQ140" s="26">
-        <v>120.72056145271421</v>
-      </c>
-      <c r="CR140" s="26">
-        <v>123.04846886631951</v>
-      </c>
-      <c r="CS140" s="26">
-        <v>120.61874011919409</v>
-      </c>
-      <c r="CT140" s="11"/>
+        <v>115.90357754779208</v>
+      </c>
+      <c r="CP140" s="25">
+        <v>119.6132201691011</v>
+      </c>
+      <c r="CQ140" s="25">
+        <v>120.72109957702943</v>
+      </c>
+      <c r="CR140" s="25">
+        <v>123.04679079388126</v>
+      </c>
+      <c r="CS140" s="25">
+        <v>120.61032542536555</v>
+      </c>
+      <c r="CT140" s="25">
+        <v>123.73873846098145</v>
+      </c>
       <c r="CU140" s="11"/>
       <c r="CV140" s="11"/>
       <c r="CW140" s="11"/>
@@ -28006,10 +28168,11 @@
       <c r="CM141" s="16"/>
       <c r="CN141" s="16"/>
       <c r="CO141" s="16"/>
-      <c r="CP141" s="16"/>
-      <c r="CQ141" s="16"/>
-      <c r="CR141" s="16"/>
-      <c r="CS141" s="16"/>
+      <c r="CP141" s="17"/>
+      <c r="CQ141" s="17"/>
+      <c r="CR141" s="17"/>
+      <c r="CS141" s="17"/>
+      <c r="CT141" s="17"/>
     </row>
     <row r="142" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A142" s="18" t="s">
@@ -28028,7 +28191,7 @@
     </row>
     <row r="147" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="149" spans="1:153" x14ac:dyDescent="0.2">
@@ -28038,7 +28201,7 @@
     </row>
     <row r="150" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="151" spans="1:153" x14ac:dyDescent="0.2">
@@ -28048,150 +28211,153 @@
     </row>
     <row r="153" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A153" s="4"/>
-      <c r="B153" s="37">
+      <c r="B153" s="43">
         <v>2000</v>
       </c>
-      <c r="C153" s="37"/>
-      <c r="D153" s="37"/>
-      <c r="E153" s="37"/>
-      <c r="F153" s="37">
+      <c r="C153" s="43"/>
+      <c r="D153" s="43"/>
+      <c r="E153" s="43"/>
+      <c r="F153" s="43">
         <v>2001</v>
       </c>
-      <c r="G153" s="37"/>
-      <c r="H153" s="37"/>
-      <c r="I153" s="37"/>
-      <c r="J153" s="37">
+      <c r="G153" s="43"/>
+      <c r="H153" s="43"/>
+      <c r="I153" s="43"/>
+      <c r="J153" s="43">
         <v>2002</v>
       </c>
-      <c r="K153" s="37"/>
-      <c r="L153" s="37"/>
-      <c r="M153" s="37"/>
-      <c r="N153" s="37">
+      <c r="K153" s="43"/>
+      <c r="L153" s="43"/>
+      <c r="M153" s="43"/>
+      <c r="N153" s="43">
         <v>2003</v>
       </c>
-      <c r="O153" s="37"/>
-      <c r="P153" s="37"/>
-      <c r="Q153" s="37"/>
-      <c r="R153" s="37">
+      <c r="O153" s="43"/>
+      <c r="P153" s="43"/>
+      <c r="Q153" s="43"/>
+      <c r="R153" s="43">
         <v>2004</v>
       </c>
-      <c r="S153" s="37"/>
-      <c r="T153" s="37"/>
-      <c r="U153" s="37"/>
-      <c r="V153" s="37">
+      <c r="S153" s="43"/>
+      <c r="T153" s="43"/>
+      <c r="U153" s="43"/>
+      <c r="V153" s="43">
         <v>2005</v>
       </c>
-      <c r="W153" s="37"/>
-      <c r="X153" s="37"/>
-      <c r="Y153" s="37"/>
-      <c r="Z153" s="37">
+      <c r="W153" s="43"/>
+      <c r="X153" s="43"/>
+      <c r="Y153" s="43"/>
+      <c r="Z153" s="43">
         <v>2006</v>
       </c>
-      <c r="AA153" s="37"/>
-      <c r="AB153" s="37"/>
-      <c r="AC153" s="37"/>
-      <c r="AD153" s="37">
+      <c r="AA153" s="43"/>
+      <c r="AB153" s="43"/>
+      <c r="AC153" s="43"/>
+      <c r="AD153" s="43">
         <v>2007</v>
       </c>
-      <c r="AE153" s="37"/>
-      <c r="AF153" s="37"/>
-      <c r="AG153" s="37"/>
-      <c r="AH153" s="37">
+      <c r="AE153" s="43"/>
+      <c r="AF153" s="43"/>
+      <c r="AG153" s="43"/>
+      <c r="AH153" s="43">
         <v>2008</v>
       </c>
-      <c r="AI153" s="37"/>
-      <c r="AJ153" s="37"/>
-      <c r="AK153" s="37"/>
-      <c r="AL153" s="37">
+      <c r="AI153" s="43"/>
+      <c r="AJ153" s="43"/>
+      <c r="AK153" s="43"/>
+      <c r="AL153" s="43">
         <v>2009</v>
       </c>
-      <c r="AM153" s="37"/>
-      <c r="AN153" s="37"/>
-      <c r="AO153" s="37"/>
-      <c r="AP153" s="37">
+      <c r="AM153" s="43"/>
+      <c r="AN153" s="43"/>
+      <c r="AO153" s="43"/>
+      <c r="AP153" s="43">
         <v>2010</v>
       </c>
-      <c r="AQ153" s="37"/>
-      <c r="AR153" s="37"/>
-      <c r="AS153" s="37"/>
-      <c r="AT153" s="37">
+      <c r="AQ153" s="43"/>
+      <c r="AR153" s="43"/>
+      <c r="AS153" s="43"/>
+      <c r="AT153" s="43">
         <v>2011</v>
       </c>
-      <c r="AU153" s="37"/>
-      <c r="AV153" s="37"/>
-      <c r="AW153" s="37"/>
-      <c r="AX153" s="37">
+      <c r="AU153" s="43"/>
+      <c r="AV153" s="43"/>
+      <c r="AW153" s="43"/>
+      <c r="AX153" s="43">
         <v>2012</v>
       </c>
-      <c r="AY153" s="37"/>
-      <c r="AZ153" s="37"/>
-      <c r="BA153" s="37"/>
-      <c r="BB153" s="37">
+      <c r="AY153" s="43"/>
+      <c r="AZ153" s="43"/>
+      <c r="BA153" s="43"/>
+      <c r="BB153" s="43">
         <v>2013</v>
       </c>
-      <c r="BC153" s="37"/>
-      <c r="BD153" s="37"/>
-      <c r="BE153" s="37"/>
-      <c r="BF153" s="37">
+      <c r="BC153" s="43"/>
+      <c r="BD153" s="43"/>
+      <c r="BE153" s="43"/>
+      <c r="BF153" s="43">
         <v>2014</v>
       </c>
-      <c r="BG153" s="37"/>
-      <c r="BH153" s="37"/>
-      <c r="BI153" s="37"/>
-      <c r="BJ153" s="37">
+      <c r="BG153" s="43"/>
+      <c r="BH153" s="43"/>
+      <c r="BI153" s="43"/>
+      <c r="BJ153" s="43">
         <v>2015</v>
       </c>
-      <c r="BK153" s="37"/>
-      <c r="BL153" s="37"/>
-      <c r="BM153" s="37"/>
-      <c r="BN153" s="37">
+      <c r="BK153" s="43"/>
+      <c r="BL153" s="43"/>
+      <c r="BM153" s="43"/>
+      <c r="BN153" s="43">
         <v>2016</v>
       </c>
-      <c r="BO153" s="37"/>
-      <c r="BP153" s="37"/>
-      <c r="BQ153" s="37"/>
-      <c r="BR153" s="38">
+      <c r="BO153" s="43"/>
+      <c r="BP153" s="43"/>
+      <c r="BQ153" s="43"/>
+      <c r="BR153" s="42">
         <v>2017</v>
       </c>
-      <c r="BS153" s="38"/>
-      <c r="BT153" s="38"/>
-      <c r="BU153" s="38"/>
-      <c r="BV153" s="38">
+      <c r="BS153" s="42"/>
+      <c r="BT153" s="42"/>
+      <c r="BU153" s="42"/>
+      <c r="BV153" s="42">
         <v>2018</v>
       </c>
-      <c r="BW153" s="38"/>
-      <c r="BX153" s="38"/>
-      <c r="BY153" s="38"/>
-      <c r="BZ153" s="38">
+      <c r="BW153" s="42"/>
+      <c r="BX153" s="42"/>
+      <c r="BY153" s="42"/>
+      <c r="BZ153" s="42">
         <v>2019</v>
       </c>
-      <c r="CA153" s="38"/>
-      <c r="CB153" s="38"/>
-      <c r="CC153" s="38"/>
-      <c r="CD153" s="38">
+      <c r="CA153" s="42"/>
+      <c r="CB153" s="42"/>
+      <c r="CC153" s="42"/>
+      <c r="CD153" s="42">
         <v>2020</v>
       </c>
-      <c r="CE153" s="38"/>
-      <c r="CF153" s="38"/>
-      <c r="CG153" s="38"/>
-      <c r="CH153" s="38">
+      <c r="CE153" s="42"/>
+      <c r="CF153" s="42"/>
+      <c r="CG153" s="42"/>
+      <c r="CH153" s="33">
         <v>2021</v>
       </c>
-      <c r="CI153" s="38"/>
-      <c r="CJ153" s="38"/>
-      <c r="CK153" s="38"/>
-      <c r="CL153" s="34">
+      <c r="CI153" s="33"/>
+      <c r="CJ153" s="33"/>
+      <c r="CK153" s="33"/>
+      <c r="CL153" s="33">
         <v>2022</v>
       </c>
-      <c r="CM153" s="34"/>
-      <c r="CN153" s="34"/>
-      <c r="CO153" s="34"/>
-      <c r="CP153" s="34">
+      <c r="CM153" s="33"/>
+      <c r="CN153" s="33"/>
+      <c r="CO153" s="33"/>
+      <c r="CP153" s="35">
         <v>2023</v>
       </c>
-      <c r="CQ153" s="34"/>
-      <c r="CR153" s="34"/>
-      <c r="CS153" s="34"/>
+      <c r="CQ153" s="35"/>
+      <c r="CR153" s="35"/>
+      <c r="CS153" s="35"/>
+      <c r="CT153" s="35">
+        <v>2024</v>
+      </c>
     </row>
     <row r="154" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
@@ -28473,17 +28639,20 @@
       <c r="CO154" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CP154" s="7" t="s">
+      <c r="CP154" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="CQ154" s="7" t="s">
+      <c r="CQ154" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="CR154" s="7" t="s">
+      <c r="CR154" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="CS154" s="7" t="s">
+      <c r="CS154" s="6" t="s">
         <v>22</v>
+      </c>
+      <c r="CT154" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="155" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -28758,30 +28927,32 @@
         <v>39.950578211679009</v>
       </c>
       <c r="CL156" s="26">
-        <v>35.904635946493741</v>
+        <v>35.901070203489269</v>
       </c>
       <c r="CM156" s="26">
-        <v>40.343150242983079</v>
+        <v>40.349517137998554</v>
       </c>
       <c r="CN156" s="26">
-        <v>35.173035025069254</v>
+        <v>35.186054363659835</v>
       </c>
       <c r="CO156" s="26">
-        <v>39.714505651846942</v>
-      </c>
-      <c r="CP156" s="26">
-        <v>34.730409275893031</v>
-      </c>
-      <c r="CQ156" s="26">
-        <v>38.963056882327301</v>
-      </c>
-      <c r="CR156" s="26">
-        <v>34.575022925747888</v>
-      </c>
-      <c r="CS156" s="26">
-        <v>38.598981443039591</v>
-      </c>
-      <c r="CT156" s="11"/>
+        <v>39.706183158320783</v>
+      </c>
+      <c r="CP156" s="25">
+        <v>34.777375121766887</v>
+      </c>
+      <c r="CQ156" s="25">
+        <v>38.953757662196161</v>
+      </c>
+      <c r="CR156" s="25">
+        <v>34.585890301288167</v>
+      </c>
+      <c r="CS156" s="25">
+        <v>38.631889043022369</v>
+      </c>
+      <c r="CT156" s="25">
+        <v>33.77941424348618</v>
+      </c>
       <c r="CU156" s="11"/>
       <c r="CV156" s="11"/>
       <c r="CW156" s="11"/>
@@ -29107,30 +29278,32 @@
         <v>2.2464627184106933</v>
       </c>
       <c r="CL157" s="26">
-        <v>1.8356369621545274</v>
+        <v>1.8354806477620267</v>
       </c>
       <c r="CM157" s="26">
-        <v>1.9400708323935079</v>
+        <v>1.9397768991075401</v>
       </c>
       <c r="CN157" s="26">
-        <v>1.7911048532095459</v>
+        <v>1.78048336070237</v>
       </c>
       <c r="CO157" s="26">
-        <v>2.2458821519621286</v>
-      </c>
-      <c r="CP157" s="26">
-        <v>1.777976173879168</v>
-      </c>
-      <c r="CQ157" s="26">
-        <v>1.7899333974605605</v>
-      </c>
-      <c r="CR157" s="26">
-        <v>1.8034591392173849</v>
-      </c>
-      <c r="CS157" s="26">
-        <v>2.2010602046995817</v>
-      </c>
-      <c r="CT157" s="11"/>
+        <v>2.2388896384068375</v>
+      </c>
+      <c r="CP157" s="25">
+        <v>1.7737668698004467</v>
+      </c>
+      <c r="CQ157" s="25">
+        <v>1.7909937470875148</v>
+      </c>
+      <c r="CR157" s="25">
+        <v>1.8015391961785365</v>
+      </c>
+      <c r="CS157" s="25">
+        <v>2.1894322620388316</v>
+      </c>
+      <c r="CT157" s="25">
+        <v>1.719998573246621</v>
+      </c>
       <c r="CU157" s="11"/>
       <c r="CV157" s="11"/>
       <c r="CW157" s="11"/>
@@ -29456,30 +29629,32 @@
         <v>1.7975824721453986</v>
       </c>
       <c r="CL158" s="26">
-        <v>1.5013437716884397</v>
+        <v>1.5039661691017299</v>
       </c>
       <c r="CM158" s="26">
-        <v>1.678730904883531</v>
+        <v>1.6848864572485838</v>
       </c>
       <c r="CN158" s="26">
-        <v>1.6843789953151131</v>
+        <v>1.6915217543019692</v>
       </c>
       <c r="CO158" s="26">
-        <v>1.784686817842867</v>
-      </c>
-      <c r="CP158" s="26">
-        <v>1.3382282287396032</v>
-      </c>
-      <c r="CQ158" s="26">
-        <v>1.1635257031833381</v>
-      </c>
-      <c r="CR158" s="26">
-        <v>1.4324912547574631</v>
-      </c>
-      <c r="CS158" s="26">
-        <v>1.6771877598551441</v>
-      </c>
-      <c r="CT158" s="11"/>
+        <v>1.7855596023295648</v>
+      </c>
+      <c r="CP158" s="25">
+        <v>1.3330365379199502</v>
+      </c>
+      <c r="CQ158" s="25">
+        <v>1.1598411724524635</v>
+      </c>
+      <c r="CR158" s="25">
+        <v>1.4417020608216216</v>
+      </c>
+      <c r="CS158" s="25">
+        <v>1.667984834419993</v>
+      </c>
+      <c r="CT158" s="25">
+        <v>1.2853349356532073</v>
+      </c>
       <c r="CU158" s="11"/>
       <c r="CV158" s="11"/>
       <c r="CW158" s="11"/>
@@ -29805,30 +29980,32 @@
         <v>11.462015765957739</v>
       </c>
       <c r="CL159" s="26">
-        <v>11.520809907294566</v>
+        <v>11.519331772164133</v>
       </c>
       <c r="CM159" s="26">
-        <v>14.853160370285941</v>
+        <v>14.861333164909816</v>
       </c>
       <c r="CN159" s="26">
-        <v>12.670658111297362</v>
+        <v>12.668462304947237</v>
       </c>
       <c r="CO159" s="26">
-        <v>11.163941802320894</v>
-      </c>
-      <c r="CP159" s="26">
-        <v>11.293296054633235</v>
-      </c>
-      <c r="CQ159" s="26">
-        <v>14.993308813372552</v>
-      </c>
-      <c r="CR159" s="26">
-        <v>12.433457978527283</v>
-      </c>
-      <c r="CS159" s="26">
-        <v>10.868548748347804</v>
-      </c>
-      <c r="CT159" s="11"/>
+        <v>11.151075904585934</v>
+      </c>
+      <c r="CP159" s="25">
+        <v>11.272282412703888</v>
+      </c>
+      <c r="CQ159" s="25">
+        <v>14.991019183420937</v>
+      </c>
+      <c r="CR159" s="25">
+        <v>12.423178447983259</v>
+      </c>
+      <c r="CS159" s="25">
+        <v>10.857885219792472</v>
+      </c>
+      <c r="CT159" s="25">
+        <v>11.2523741834785</v>
+      </c>
       <c r="CU159" s="11"/>
       <c r="CV159" s="11"/>
       <c r="CW159" s="11"/>
@@ -30154,30 +30331,32 @@
         <v>2.7226153263189437</v>
       </c>
       <c r="CL160" s="26">
-        <v>2.7853516758681183</v>
+        <v>2.7878206787307782</v>
       </c>
       <c r="CM160" s="26">
-        <v>2.6475023047827424</v>
+        <v>2.647094123312097</v>
       </c>
       <c r="CN160" s="26">
-        <v>2.996684705773593</v>
+        <v>2.9951768913473278</v>
       </c>
       <c r="CO160" s="26">
-        <v>2.7040979429244238</v>
-      </c>
-      <c r="CP160" s="26">
-        <v>2.4989168236128143</v>
-      </c>
-      <c r="CQ160" s="26">
-        <v>2.4374950255097936</v>
-      </c>
-      <c r="CR160" s="26">
-        <v>2.8121310565122526</v>
-      </c>
-      <c r="CS160" s="26">
-        <v>2.5999598272391538</v>
-      </c>
-      <c r="CT160" s="11"/>
+        <v>2.6883100705059184</v>
+      </c>
+      <c r="CP160" s="25">
+        <v>2.509429285697041</v>
+      </c>
+      <c r="CQ160" s="25">
+        <v>2.4561449212024158</v>
+      </c>
+      <c r="CR160" s="25">
+        <v>2.819885532161893</v>
+      </c>
+      <c r="CS160" s="25">
+        <v>2.5866039084740065</v>
+      </c>
+      <c r="CT160" s="25">
+        <v>2.4310907006156848</v>
+      </c>
       <c r="CU160" s="11"/>
       <c r="CV160" s="11"/>
       <c r="CW160" s="11"/>
@@ -30503,30 +30682,32 @@
         <v>4.2575596660426234</v>
       </c>
       <c r="CL161" s="26">
-        <v>4.2716654046258</v>
+        <v>4.2727865061165486</v>
       </c>
       <c r="CM161" s="26">
-        <v>3.5695401564217319</v>
+        <v>3.5541442550144922</v>
       </c>
       <c r="CN161" s="26">
-        <v>5.305597054116272</v>
+        <v>5.3113846951977663</v>
       </c>
       <c r="CO161" s="26">
-        <v>4.0097981398428715</v>
-      </c>
-      <c r="CP161" s="26">
-        <v>4.1650006426571728</v>
-      </c>
-      <c r="CQ161" s="26">
-        <v>3.6200554144324029</v>
-      </c>
-      <c r="CR161" s="26">
-        <v>5.3138016640105281</v>
-      </c>
-      <c r="CS161" s="26">
-        <v>4.0650176664338593</v>
-      </c>
-      <c r="CT161" s="11"/>
+        <v>4.0188063188814152</v>
+      </c>
+      <c r="CP161" s="25">
+        <v>4.1655784852578552</v>
+      </c>
+      <c r="CQ161" s="25">
+        <v>3.6238113583803049</v>
+      </c>
+      <c r="CR161" s="25">
+        <v>5.3149467589174169</v>
+      </c>
+      <c r="CS161" s="25">
+        <v>4.0650388058573528</v>
+      </c>
+      <c r="CT161" s="25">
+        <v>4.2599874358339997</v>
+      </c>
       <c r="CU161" s="11"/>
       <c r="CV161" s="11"/>
       <c r="CW161" s="11"/>
@@ -30852,30 +31033,32 @@
         <v>7.3411639889025952</v>
       </c>
       <c r="CL162" s="26">
-        <v>9.9033269954814962</v>
+        <v>9.9023420817954708</v>
       </c>
       <c r="CM162" s="26">
-        <v>7.6399568692139654</v>
+        <v>7.6632646209060171</v>
       </c>
       <c r="CN162" s="26">
-        <v>11.205594142257045</v>
+        <v>11.204218568092399</v>
       </c>
       <c r="CO162" s="26">
-        <v>7.7278994002764083</v>
-      </c>
-      <c r="CP162" s="26">
-        <v>10.699256352678098</v>
-      </c>
-      <c r="CQ162" s="26">
-        <v>8.8958956202863959</v>
-      </c>
-      <c r="CR162" s="26">
-        <v>11.564115101345086</v>
-      </c>
-      <c r="CS162" s="26">
-        <v>7.929289678616815</v>
-      </c>
-      <c r="CT162" s="11"/>
+        <v>7.7405906149328807</v>
+      </c>
+      <c r="CP162" s="25">
+        <v>10.711524024750984</v>
+      </c>
+      <c r="CQ162" s="25">
+        <v>8.8828325757876172</v>
+      </c>
+      <c r="CR162" s="25">
+        <v>11.549764271784989</v>
+      </c>
+      <c r="CS162" s="25">
+        <v>7.9246405228984216</v>
+      </c>
+      <c r="CT162" s="25">
+        <v>10.743555417878939</v>
+      </c>
       <c r="CU162" s="11"/>
       <c r="CV162" s="11"/>
       <c r="CW162" s="11"/>
@@ -31201,30 +31384,32 @@
         <v>2.8116013085758307</v>
       </c>
       <c r="CL163" s="26">
-        <v>3.1461162624048113</v>
+        <v>3.1484033549927792</v>
       </c>
       <c r="CM163" s="26">
-        <v>3.2823107388983983</v>
+        <v>3.2644229031120715</v>
       </c>
       <c r="CN163" s="26">
-        <v>2.3474931240763919</v>
+        <v>2.3396672271433898</v>
       </c>
       <c r="CO163" s="26">
-        <v>2.6105482147233063</v>
-      </c>
-      <c r="CP163" s="26">
-        <v>2.8985971153663281</v>
-      </c>
-      <c r="CQ163" s="26">
-        <v>3.0980345947502248</v>
-      </c>
-      <c r="CR163" s="26">
-        <v>2.2614162329780778</v>
-      </c>
-      <c r="CS163" s="26">
-        <v>2.5035474570304812</v>
-      </c>
-      <c r="CT163" s="11"/>
+        <v>2.6189212692228518</v>
+      </c>
+      <c r="CP163" s="25">
+        <v>2.8930272292598871</v>
+      </c>
+      <c r="CQ163" s="25">
+        <v>3.0909185852496841</v>
+      </c>
+      <c r="CR163" s="25">
+        <v>2.2508887443653709</v>
+      </c>
+      <c r="CS163" s="25">
+        <v>2.5190493587475671</v>
+      </c>
+      <c r="CT163" s="25">
+        <v>2.8122218386827669</v>
+      </c>
       <c r="CU163" s="11"/>
       <c r="CV163" s="11"/>
       <c r="CW163" s="11"/>
@@ -31550,30 +31735,32 @@
         <v>1.6762344259750122</v>
       </c>
       <c r="CL164" s="26">
-        <v>1.4633989264385872</v>
+        <v>1.4632444302925172</v>
       </c>
       <c r="CM164" s="26">
-        <v>1.08791901540887</v>
+        <v>1.0711637409148878</v>
       </c>
       <c r="CN164" s="26">
-        <v>1.2890207821588699</v>
+        <v>1.288328716599686</v>
       </c>
       <c r="CO164" s="26">
-        <v>1.742263944652648</v>
-      </c>
-      <c r="CP164" s="26">
-        <v>1.7287858122219679</v>
-      </c>
-      <c r="CQ164" s="26">
-        <v>1.2149422868881699</v>
-      </c>
-      <c r="CR164" s="26">
-        <v>1.3914520237752246</v>
-      </c>
-      <c r="CS164" s="26">
-        <v>1.7849745663870991</v>
-      </c>
-      <c r="CT164" s="11"/>
+        <v>1.7471023078264252</v>
+      </c>
+      <c r="CP164" s="25">
+        <v>1.7042452349568096</v>
+      </c>
+      <c r="CQ164" s="25">
+        <v>1.2142981157007762</v>
+      </c>
+      <c r="CR164" s="25">
+        <v>1.3926567450645428</v>
+      </c>
+      <c r="CS164" s="25">
+        <v>1.8013750376547548</v>
+      </c>
+      <c r="CT164" s="25">
+        <v>1.7733664355663661</v>
+      </c>
       <c r="CU164" s="11"/>
       <c r="CV164" s="11"/>
       <c r="CW164" s="11"/>
@@ -31899,30 +32086,32 @@
         <v>4.5655907987946813</v>
       </c>
       <c r="CL165" s="26">
-        <v>5.3440691247890406</v>
+        <v>5.3329379079234505</v>
       </c>
       <c r="CM165" s="26">
-        <v>4.8206543799868138</v>
+        <v>4.814746855255903</v>
       </c>
       <c r="CN165" s="26">
-        <v>5.3248274248404597</v>
+        <v>5.311034952452828</v>
       </c>
       <c r="CO165" s="26">
-        <v>4.5367553241551217</v>
-      </c>
-      <c r="CP165" s="26">
-        <v>5.1483032982523982</v>
-      </c>
-      <c r="CQ165" s="26">
-        <v>4.7965048730008073</v>
-      </c>
-      <c r="CR165" s="26">
-        <v>5.3478927644269447</v>
-      </c>
-      <c r="CS165" s="26">
-        <v>4.6222297046738339</v>
-      </c>
-      <c r="CT165" s="11"/>
+        <v>4.5211469679515659</v>
+      </c>
+      <c r="CP165" s="25">
+        <v>5.153138755919608</v>
+      </c>
+      <c r="CQ165" s="25">
+        <v>4.7937601109945138</v>
+      </c>
+      <c r="CR165" s="25">
+        <v>5.3369055358635444</v>
+      </c>
+      <c r="CS165" s="25">
+        <v>4.6261036531835904</v>
+      </c>
+      <c r="CT165" s="25">
+        <v>5.1315616011409926</v>
+      </c>
       <c r="CU165" s="11"/>
       <c r="CV165" s="11"/>
       <c r="CW165" s="11"/>
@@ -32248,30 +32437,32 @@
         <v>6.6244397356584885</v>
       </c>
       <c r="CL166" s="26">
-        <v>8.2228538846651169</v>
+        <v>8.2278710742860355</v>
       </c>
       <c r="CM166" s="26">
-        <v>4.7056686883621497</v>
+        <v>4.7141680881960069</v>
       </c>
       <c r="CN166" s="26">
-        <v>7.0196083434595717</v>
+        <v>7.0324437509194579</v>
       </c>
       <c r="CO166" s="26">
-        <v>7.6541432964881455</v>
-      </c>
-      <c r="CP166" s="26">
-        <v>9.60372536195527</v>
-      </c>
-      <c r="CQ166" s="26">
-        <v>5.6156132362080102</v>
-      </c>
-      <c r="CR166" s="26">
-        <v>7.7992349247297534</v>
-      </c>
-      <c r="CS166" s="26">
-        <v>8.590122211488719</v>
-      </c>
-      <c r="CT166" s="11"/>
+        <v>7.6695494628659464</v>
+      </c>
+      <c r="CP166" s="25">
+        <v>9.6188348001646844</v>
+      </c>
+      <c r="CQ166" s="25">
+        <v>5.6296600386073568</v>
+      </c>
+      <c r="CR166" s="25">
+        <v>7.8059632464072122</v>
+      </c>
+      <c r="CS166" s="25">
+        <v>8.5657027741046523</v>
+      </c>
+      <c r="CT166" s="25">
+        <v>10.493131290531839</v>
+      </c>
       <c r="CU166" s="11"/>
       <c r="CV166" s="11"/>
       <c r="CW166" s="11"/>
@@ -32597,30 +32788,32 @@
         <v>14.54415558153898</v>
       </c>
       <c r="CL167" s="26">
-        <v>14.100791138095758</v>
+        <v>14.10474517334527</v>
       </c>
       <c r="CM167" s="26">
-        <v>13.43133549637928</v>
+        <v>13.435481754024048</v>
       </c>
       <c r="CN167" s="26">
-        <v>13.191997438426517</v>
+        <v>13.191223414635703</v>
       </c>
       <c r="CO167" s="26">
-        <v>14.105477312964235</v>
-      </c>
-      <c r="CP167" s="26">
-        <v>14.117504860110927</v>
-      </c>
-      <c r="CQ167" s="26">
-        <v>13.411634152580445</v>
-      </c>
-      <c r="CR167" s="26">
-        <v>13.26552493397212</v>
-      </c>
-      <c r="CS167" s="26">
-        <v>14.559080732187923</v>
-      </c>
-      <c r="CT167" s="11"/>
+        <v>14.113864684169855</v>
+      </c>
+      <c r="CP167" s="25">
+        <v>14.087761241801958</v>
+      </c>
+      <c r="CQ167" s="25">
+        <v>13.412962528920266</v>
+      </c>
+      <c r="CR167" s="25">
+        <v>13.276679159163452</v>
+      </c>
+      <c r="CS167" s="25">
+        <v>14.564294579806006</v>
+      </c>
+      <c r="CT167" s="25">
+        <v>14.317963343884902</v>
+      </c>
       <c r="CU167" s="11"/>
       <c r="CV167" s="11"/>
       <c r="CW167" s="11"/>
@@ -32770,11 +32963,11 @@
       <c r="CM168" s="11"/>
       <c r="CN168" s="11"/>
       <c r="CO168" s="11"/>
-      <c r="CP168" s="11"/>
-      <c r="CQ168" s="11"/>
-      <c r="CR168" s="11"/>
-      <c r="CS168" s="11"/>
-      <c r="CT168" s="11"/>
+      <c r="CP168" s="13"/>
+      <c r="CQ168" s="13"/>
+      <c r="CR168" s="13"/>
+      <c r="CS168" s="13"/>
+      <c r="CT168" s="13"/>
       <c r="CU168" s="11"/>
       <c r="CV168" s="11"/>
       <c r="CW168" s="11"/>
@@ -33111,19 +33304,21 @@
       <c r="CO169" s="26">
         <v>100</v>
       </c>
-      <c r="CP169" s="26">
+      <c r="CP169" s="25">
         <v>100</v>
       </c>
-      <c r="CQ169" s="26">
+      <c r="CQ169" s="25">
         <v>100</v>
       </c>
-      <c r="CR169" s="26">
+      <c r="CR169" s="25">
         <v>100</v>
       </c>
-      <c r="CS169" s="26">
+      <c r="CS169" s="25">
         <v>100</v>
       </c>
-      <c r="CT169" s="11"/>
+      <c r="CT169" s="25">
+        <v>100</v>
+      </c>
       <c r="CU169" s="11"/>
       <c r="CV169" s="11"/>
       <c r="CW169" s="11"/>
@@ -33274,10 +33469,11 @@
       <c r="CM170" s="16"/>
       <c r="CN170" s="16"/>
       <c r="CO170" s="16"/>
-      <c r="CP170" s="16"/>
-      <c r="CQ170" s="16"/>
-      <c r="CR170" s="16"/>
-      <c r="CS170" s="16"/>
+      <c r="CP170" s="17"/>
+      <c r="CQ170" s="17"/>
+      <c r="CR170" s="17"/>
+      <c r="CS170" s="17"/>
+      <c r="CT170" s="17"/>
     </row>
     <row r="171" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A171" s="18" t="s">
@@ -33377,11 +33573,11 @@
       <c r="CM172" s="11"/>
       <c r="CN172" s="11"/>
       <c r="CO172" s="11"/>
-      <c r="CP172" s="11"/>
-      <c r="CQ172" s="11"/>
-      <c r="CR172" s="11"/>
-      <c r="CS172" s="11"/>
-      <c r="CT172" s="11"/>
+      <c r="CP172" s="13"/>
+      <c r="CQ172" s="13"/>
+      <c r="CR172" s="13"/>
+      <c r="CS172" s="13"/>
+      <c r="CT172" s="13"/>
       <c r="CU172" s="11"/>
       <c r="CV172" s="11"/>
       <c r="CW172" s="11"/>
@@ -33531,11 +33727,11 @@
       <c r="CM173" s="11"/>
       <c r="CN173" s="11"/>
       <c r="CO173" s="11"/>
-      <c r="CP173" s="11"/>
-      <c r="CQ173" s="11"/>
-      <c r="CR173" s="11"/>
-      <c r="CS173" s="11"/>
-      <c r="CT173" s="11"/>
+      <c r="CP173" s="13"/>
+      <c r="CQ173" s="13"/>
+      <c r="CR173" s="13"/>
+      <c r="CS173" s="13"/>
+      <c r="CT173" s="13"/>
       <c r="CU173" s="11"/>
       <c r="CV173" s="11"/>
       <c r="CW173" s="11"/>
@@ -33604,7 +33800,7 @@
     </row>
     <row r="176" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="178" spans="1:153" x14ac:dyDescent="0.2">
@@ -33614,7 +33810,7 @@
     </row>
     <row r="179" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="180" spans="1:153" x14ac:dyDescent="0.2">
@@ -33624,150 +33820,153 @@
     </row>
     <row r="182" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A182" s="4"/>
-      <c r="B182" s="37">
+      <c r="B182" s="43">
         <v>2000</v>
       </c>
-      <c r="C182" s="37"/>
-      <c r="D182" s="37"/>
-      <c r="E182" s="37"/>
-      <c r="F182" s="37">
+      <c r="C182" s="43"/>
+      <c r="D182" s="43"/>
+      <c r="E182" s="43"/>
+      <c r="F182" s="43">
         <v>2001</v>
       </c>
-      <c r="G182" s="37"/>
-      <c r="H182" s="37"/>
-      <c r="I182" s="37"/>
-      <c r="J182" s="37">
+      <c r="G182" s="43"/>
+      <c r="H182" s="43"/>
+      <c r="I182" s="43"/>
+      <c r="J182" s="43">
         <v>2002</v>
       </c>
-      <c r="K182" s="37"/>
-      <c r="L182" s="37"/>
-      <c r="M182" s="37"/>
-      <c r="N182" s="37">
+      <c r="K182" s="43"/>
+      <c r="L182" s="43"/>
+      <c r="M182" s="43"/>
+      <c r="N182" s="43">
         <v>2003</v>
       </c>
-      <c r="O182" s="37"/>
-      <c r="P182" s="37"/>
-      <c r="Q182" s="37"/>
-      <c r="R182" s="37">
+      <c r="O182" s="43"/>
+      <c r="P182" s="43"/>
+      <c r="Q182" s="43"/>
+      <c r="R182" s="43">
         <v>2004</v>
       </c>
-      <c r="S182" s="37"/>
-      <c r="T182" s="37"/>
-      <c r="U182" s="37"/>
-      <c r="V182" s="37">
+      <c r="S182" s="43"/>
+      <c r="T182" s="43"/>
+      <c r="U182" s="43"/>
+      <c r="V182" s="43">
         <v>2005</v>
       </c>
-      <c r="W182" s="37"/>
-      <c r="X182" s="37"/>
-      <c r="Y182" s="37"/>
-      <c r="Z182" s="37">
+      <c r="W182" s="43"/>
+      <c r="X182" s="43"/>
+      <c r="Y182" s="43"/>
+      <c r="Z182" s="43">
         <v>2006</v>
       </c>
-      <c r="AA182" s="37"/>
-      <c r="AB182" s="37"/>
-      <c r="AC182" s="37"/>
-      <c r="AD182" s="37">
+      <c r="AA182" s="43"/>
+      <c r="AB182" s="43"/>
+      <c r="AC182" s="43"/>
+      <c r="AD182" s="43">
         <v>2007</v>
       </c>
-      <c r="AE182" s="37"/>
-      <c r="AF182" s="37"/>
-      <c r="AG182" s="37"/>
-      <c r="AH182" s="37">
+      <c r="AE182" s="43"/>
+      <c r="AF182" s="43"/>
+      <c r="AG182" s="43"/>
+      <c r="AH182" s="43">
         <v>2008</v>
       </c>
-      <c r="AI182" s="37"/>
-      <c r="AJ182" s="37"/>
-      <c r="AK182" s="37"/>
-      <c r="AL182" s="37">
+      <c r="AI182" s="43"/>
+      <c r="AJ182" s="43"/>
+      <c r="AK182" s="43"/>
+      <c r="AL182" s="43">
         <v>2009</v>
       </c>
-      <c r="AM182" s="37"/>
-      <c r="AN182" s="37"/>
-      <c r="AO182" s="37"/>
-      <c r="AP182" s="37">
+      <c r="AM182" s="43"/>
+      <c r="AN182" s="43"/>
+      <c r="AO182" s="43"/>
+      <c r="AP182" s="43">
         <v>2010</v>
       </c>
-      <c r="AQ182" s="37"/>
-      <c r="AR182" s="37"/>
-      <c r="AS182" s="37"/>
-      <c r="AT182" s="37">
+      <c r="AQ182" s="43"/>
+      <c r="AR182" s="43"/>
+      <c r="AS182" s="43"/>
+      <c r="AT182" s="43">
         <v>2011</v>
       </c>
-      <c r="AU182" s="37"/>
-      <c r="AV182" s="37"/>
-      <c r="AW182" s="37"/>
-      <c r="AX182" s="37">
+      <c r="AU182" s="43"/>
+      <c r="AV182" s="43"/>
+      <c r="AW182" s="43"/>
+      <c r="AX182" s="43">
         <v>2012</v>
       </c>
-      <c r="AY182" s="37"/>
-      <c r="AZ182" s="37"/>
-      <c r="BA182" s="37"/>
-      <c r="BB182" s="37">
+      <c r="AY182" s="43"/>
+      <c r="AZ182" s="43"/>
+      <c r="BA182" s="43"/>
+      <c r="BB182" s="43">
         <v>2013</v>
       </c>
-      <c r="BC182" s="37"/>
-      <c r="BD182" s="37"/>
-      <c r="BE182" s="37"/>
-      <c r="BF182" s="37">
+      <c r="BC182" s="43"/>
+      <c r="BD182" s="43"/>
+      <c r="BE182" s="43"/>
+      <c r="BF182" s="43">
         <v>2014</v>
       </c>
-      <c r="BG182" s="37"/>
-      <c r="BH182" s="37"/>
-      <c r="BI182" s="37"/>
-      <c r="BJ182" s="37">
+      <c r="BG182" s="43"/>
+      <c r="BH182" s="43"/>
+      <c r="BI182" s="43"/>
+      <c r="BJ182" s="43">
         <v>2015</v>
       </c>
-      <c r="BK182" s="37"/>
-      <c r="BL182" s="37"/>
-      <c r="BM182" s="37"/>
-      <c r="BN182" s="37">
+      <c r="BK182" s="43"/>
+      <c r="BL182" s="43"/>
+      <c r="BM182" s="43"/>
+      <c r="BN182" s="43">
         <v>2016</v>
       </c>
-      <c r="BO182" s="37"/>
-      <c r="BP182" s="37"/>
-      <c r="BQ182" s="37"/>
-      <c r="BR182" s="38">
+      <c r="BO182" s="43"/>
+      <c r="BP182" s="43"/>
+      <c r="BQ182" s="43"/>
+      <c r="BR182" s="42">
         <v>2017</v>
       </c>
-      <c r="BS182" s="38"/>
-      <c r="BT182" s="38"/>
-      <c r="BU182" s="38"/>
-      <c r="BV182" s="38">
+      <c r="BS182" s="42"/>
+      <c r="BT182" s="42"/>
+      <c r="BU182" s="42"/>
+      <c r="BV182" s="42">
         <v>2018</v>
       </c>
-      <c r="BW182" s="38"/>
-      <c r="BX182" s="38"/>
-      <c r="BY182" s="38"/>
-      <c r="BZ182" s="38">
+      <c r="BW182" s="42"/>
+      <c r="BX182" s="42"/>
+      <c r="BY182" s="42"/>
+      <c r="BZ182" s="42">
         <v>2019</v>
       </c>
-      <c r="CA182" s="38"/>
-      <c r="CB182" s="38"/>
-      <c r="CC182" s="38"/>
-      <c r="CD182" s="38">
+      <c r="CA182" s="42"/>
+      <c r="CB182" s="42"/>
+      <c r="CC182" s="42"/>
+      <c r="CD182" s="42">
         <v>2020</v>
       </c>
-      <c r="CE182" s="38"/>
-      <c r="CF182" s="38"/>
-      <c r="CG182" s="38"/>
-      <c r="CH182" s="38">
+      <c r="CE182" s="42"/>
+      <c r="CF182" s="42"/>
+      <c r="CG182" s="42"/>
+      <c r="CH182" s="33">
         <v>2021</v>
       </c>
-      <c r="CI182" s="38"/>
-      <c r="CJ182" s="38"/>
-      <c r="CK182" s="38"/>
-      <c r="CL182" s="34">
+      <c r="CI182" s="33"/>
+      <c r="CJ182" s="33"/>
+      <c r="CK182" s="33"/>
+      <c r="CL182" s="33">
         <v>2022</v>
       </c>
-      <c r="CM182" s="34"/>
-      <c r="CN182" s="34"/>
-      <c r="CO182" s="34"/>
-      <c r="CP182" s="34">
+      <c r="CM182" s="33"/>
+      <c r="CN182" s="33"/>
+      <c r="CO182" s="33"/>
+      <c r="CP182" s="35">
         <v>2023</v>
       </c>
-      <c r="CQ182" s="34"/>
-      <c r="CR182" s="34"/>
-      <c r="CS182" s="34"/>
+      <c r="CQ182" s="35"/>
+      <c r="CR182" s="35"/>
+      <c r="CS182" s="35"/>
+      <c r="CT182" s="35">
+        <v>2024</v>
+      </c>
     </row>
     <row r="183" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
@@ -34049,17 +34248,20 @@
       <c r="CO183" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CP183" s="7" t="s">
+      <c r="CP183" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="CQ183" s="7" t="s">
+      <c r="CQ183" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="CR183" s="7" t="s">
+      <c r="CR183" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="CS183" s="7" t="s">
+      <c r="CS183" s="6" t="s">
         <v>22</v>
+      </c>
+      <c r="CT183" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="184" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -34334,30 +34536,32 @@
         <v>39.58364879488586</v>
       </c>
       <c r="CL185" s="26">
-        <v>36.181407863980084</v>
+        <v>36.178035408208849</v>
       </c>
       <c r="CM185" s="26">
-        <v>39.964891757665775</v>
+        <v>39.973774092787615</v>
       </c>
       <c r="CN185" s="26">
-        <v>35.001350500572762</v>
+        <v>35.013804660231358</v>
       </c>
       <c r="CO185" s="26">
-        <v>38.476312795146747</v>
-      </c>
-      <c r="CP185" s="26">
-        <v>34.21473607569947</v>
-      </c>
-      <c r="CQ185" s="26">
-        <v>38.024743555636398</v>
-      </c>
-      <c r="CR185" s="26">
-        <v>33.388415400750162</v>
-      </c>
-      <c r="CS185" s="26">
-        <v>36.703354615053449</v>
-      </c>
-      <c r="CT185" s="11"/>
+        <v>38.467736241135981</v>
+      </c>
+      <c r="CP185" s="25">
+        <v>34.262712201520273</v>
+      </c>
+      <c r="CQ185" s="25">
+        <v>38.015837739265748</v>
+      </c>
+      <c r="CR185" s="25">
+        <v>33.398454332898446</v>
+      </c>
+      <c r="CS185" s="25">
+        <v>36.732083386928984</v>
+      </c>
+      <c r="CT185" s="25">
+        <v>32.933212403140537</v>
+      </c>
       <c r="CU185" s="11"/>
       <c r="CV185" s="11"/>
       <c r="CW185" s="11"/>
@@ -34683,30 +34887,32 @@
         <v>1.6975188884552141</v>
       </c>
       <c r="CL186" s="26">
-        <v>1.4561263831008557</v>
+        <v>1.4560112712863422</v>
       </c>
       <c r="CM186" s="26">
-        <v>1.4253056823999459</v>
+        <v>1.4251815504793928</v>
       </c>
       <c r="CN186" s="26">
-        <v>1.2587615339776126</v>
+        <v>1.2512789822943813</v>
       </c>
       <c r="CO186" s="26">
-        <v>1.6490181956184811</v>
-      </c>
-      <c r="CP186" s="26">
-        <v>1.3644108705607478</v>
-      </c>
-      <c r="CQ186" s="26">
-        <v>1.239435066344017</v>
-      </c>
-      <c r="CR186" s="26">
-        <v>1.2078630043471241</v>
-      </c>
-      <c r="CS186" s="26">
-        <v>1.5790373076109727</v>
-      </c>
-      <c r="CT186" s="11"/>
+        <v>1.6438620621132822</v>
+      </c>
+      <c r="CP186" s="25">
+        <v>1.3612485130898406</v>
+      </c>
+      <c r="CQ186" s="25">
+        <v>1.2401748310693561</v>
+      </c>
+      <c r="CR186" s="25">
+        <v>1.2065606718082675</v>
+      </c>
+      <c r="CS186" s="25">
+        <v>1.5705858628733096</v>
+      </c>
+      <c r="CT186" s="25">
+        <v>1.2657353935808726</v>
+      </c>
       <c r="CU186" s="11"/>
       <c r="CV186" s="11"/>
       <c r="CW186" s="11"/>
@@ -35032,30 +35238,32 @@
         <v>1.8612125386472798</v>
       </c>
       <c r="CL187" s="26">
-        <v>1.5746146653353752</v>
+        <v>1.5773746708464316</v>
       </c>
       <c r="CM187" s="26">
-        <v>1.65218526897817</v>
+        <v>1.6583503160880884</v>
       </c>
       <c r="CN187" s="26">
-        <v>1.8603526447466225</v>
+        <v>1.8682148704328647</v>
       </c>
       <c r="CO187" s="26">
-        <v>1.9172808085196866</v>
-      </c>
-      <c r="CP187" s="26">
-        <v>1.4445338583089546</v>
-      </c>
-      <c r="CQ187" s="26">
-        <v>1.152181427688288</v>
-      </c>
-      <c r="CR187" s="26">
-        <v>1.5788754937024962</v>
-      </c>
-      <c r="CS187" s="26">
-        <v>1.7955543730256831</v>
-      </c>
-      <c r="CT187" s="11"/>
+        <v>1.9181928295153912</v>
+      </c>
+      <c r="CP187" s="25">
+        <v>1.4390014706376206</v>
+      </c>
+      <c r="CQ187" s="25">
+        <v>1.1485379405181599</v>
+      </c>
+      <c r="CR187" s="25">
+        <v>1.5890058685565911</v>
+      </c>
+      <c r="CS187" s="25">
+        <v>1.7855773806759649</v>
+      </c>
+      <c r="CT187" s="25">
+        <v>1.3844355070202137</v>
+      </c>
       <c r="CU187" s="11"/>
       <c r="CV187" s="11"/>
       <c r="CW187" s="11"/>
@@ -35381,30 +35589,32 @@
         <v>11.309972420802552</v>
       </c>
       <c r="CL188" s="26">
-        <v>12.253231381722621</v>
+        <v>12.251734041277494</v>
       </c>
       <c r="CM188" s="26">
-        <v>15.370180939523706</v>
+        <v>15.379628984866278</v>
       </c>
       <c r="CN188" s="26">
-        <v>12.563123127015958</v>
+        <v>12.560766002913281</v>
       </c>
       <c r="CO188" s="26">
-        <v>11.048325223907147</v>
-      </c>
-      <c r="CP188" s="26">
-        <v>11.95925771947735</v>
-      </c>
-      <c r="CQ188" s="26">
-        <v>15.453858206473603</v>
-      </c>
-      <c r="CR188" s="26">
-        <v>12.484118487741453</v>
-      </c>
-      <c r="CS188" s="26">
-        <v>10.953307543909403</v>
-      </c>
-      <c r="CT188" s="11"/>
+        <v>11.035445248462167</v>
+      </c>
+      <c r="CP188" s="25">
+        <v>11.937599870041813</v>
+      </c>
+      <c r="CQ188" s="25">
+        <v>15.451567122612181</v>
+      </c>
+      <c r="CR188" s="25">
+        <v>12.473626961631645</v>
+      </c>
+      <c r="CS188" s="25">
+        <v>10.941797472386442</v>
+      </c>
+      <c r="CT188" s="25">
+        <v>12.24153310081447</v>
+      </c>
       <c r="CU188" s="11"/>
       <c r="CV188" s="11"/>
       <c r="CW188" s="11"/>
@@ -35730,30 +35940,32 @@
         <v>2.7412237162501683</v>
       </c>
       <c r="CL189" s="26">
-        <v>2.7623384035498191</v>
+        <v>2.7648038789105103</v>
       </c>
       <c r="CM189" s="26">
-        <v>2.6973215554784309</v>
+        <v>2.6970794406678253</v>
       </c>
       <c r="CN189" s="26">
-        <v>3.0800096242424333</v>
+        <v>3.0784157806653254</v>
       </c>
       <c r="CO189" s="26">
-        <v>2.802373208131514</v>
-      </c>
-      <c r="CP189" s="26">
-        <v>2.5235947740450602</v>
-      </c>
-      <c r="CQ189" s="26">
-        <v>2.4749490702050676</v>
-      </c>
-      <c r="CR189" s="26">
-        <v>2.9088332401016794</v>
-      </c>
-      <c r="CS189" s="26">
-        <v>2.6742625248116192</v>
-      </c>
-      <c r="CT189" s="11"/>
+        <v>2.7859743637070027</v>
+      </c>
+      <c r="CP189" s="25">
+        <v>2.5343373606683341</v>
+      </c>
+      <c r="CQ189" s="25">
+        <v>2.4938966530908906</v>
+      </c>
+      <c r="CR189" s="25">
+        <v>2.9168145942803743</v>
+      </c>
+      <c r="CS189" s="25">
+        <v>2.6603393097202117</v>
+      </c>
+      <c r="CT189" s="25">
+        <v>2.4550056700474023</v>
+      </c>
       <c r="CU189" s="11"/>
       <c r="CV189" s="11"/>
       <c r="CW189" s="11"/>
@@ -36079,30 +36291,32 @@
         <v>4.1315339555772557</v>
       </c>
       <c r="CL190" s="26">
-        <v>4.3650792035163173</v>
+        <v>4.3662514662584488</v>
       </c>
       <c r="CM190" s="26">
-        <v>3.7325412316773012</v>
+        <v>3.7166817159864327</v>
       </c>
       <c r="CN190" s="26">
-        <v>5.4627353060199484</v>
+        <v>5.4686160154472345</v>
       </c>
       <c r="CO190" s="26">
-        <v>4.0650234125140683</v>
-      </c>
-      <c r="CP190" s="26">
-        <v>4.4213548067123281</v>
-      </c>
-      <c r="CQ190" s="26">
-        <v>3.8477164026963684</v>
-      </c>
-      <c r="CR190" s="26">
-        <v>5.4957472536691734</v>
-      </c>
-      <c r="CS190" s="26">
-        <v>4.1313355727527208</v>
-      </c>
-      <c r="CT190" s="11"/>
+        <v>4.0741012692991214</v>
+      </c>
+      <c r="CP190" s="25">
+        <v>4.4221886133020725</v>
+      </c>
+      <c r="CQ190" s="25">
+        <v>3.8517257228880259</v>
+      </c>
+      <c r="CR190" s="25">
+        <v>5.4968565924886903</v>
+      </c>
+      <c r="CS190" s="25">
+        <v>4.1310688422620627</v>
+      </c>
+      <c r="CT190" s="25">
+        <v>4.5339119525276859</v>
+      </c>
       <c r="CU190" s="11"/>
       <c r="CV190" s="11"/>
       <c r="CW190" s="11"/>
@@ -36428,30 +36642,32 @@
         <v>7.0244507557808182</v>
       </c>
       <c r="CL191" s="26">
-        <v>8.9977425952513741</v>
+        <v>8.9969026474304954</v>
       </c>
       <c r="CM191" s="26">
-        <v>6.9858593498514674</v>
+        <v>7.0076230360059668</v>
       </c>
       <c r="CN191" s="26">
-        <v>9.2967748426773973</v>
+        <v>9.295500417818964</v>
       </c>
       <c r="CO191" s="26">
-        <v>7.0833636123509072</v>
-      </c>
-      <c r="CP191" s="26">
-        <v>9.6660702385515389</v>
-      </c>
-      <c r="CQ191" s="26">
-        <v>8.6320279213877811</v>
-      </c>
-      <c r="CR191" s="26">
-        <v>10.131898614480237</v>
-      </c>
-      <c r="CS191" s="26">
-        <v>7.5480026946206396</v>
-      </c>
-      <c r="CT191" s="11"/>
+        <v>7.0949016171230577</v>
+      </c>
+      <c r="CP191" s="25">
+        <v>9.677635593496273</v>
+      </c>
+      <c r="CQ191" s="25">
+        <v>8.619390771103177</v>
+      </c>
+      <c r="CR191" s="25">
+        <v>10.119187133983401</v>
+      </c>
+      <c r="CS191" s="25">
+        <v>7.5430508371027623</v>
+      </c>
+      <c r="CT191" s="25">
+        <v>9.9410490798497211</v>
+      </c>
       <c r="CU191" s="11"/>
       <c r="CV191" s="11"/>
       <c r="CW191" s="11"/>
@@ -36777,30 +36993,32 @@
         <v>3.1221416468722425</v>
       </c>
       <c r="CL192" s="26">
-        <v>3.327850812169348</v>
+        <v>3.3302903408961715</v>
       </c>
       <c r="CM192" s="26">
-        <v>3.6704853046456076</v>
+        <v>3.6507171886424041</v>
       </c>
       <c r="CN192" s="26">
-        <v>2.7596019021116343</v>
+        <v>2.7503627443486534</v>
       </c>
       <c r="CO192" s="26">
-        <v>3.0947443667314065</v>
-      </c>
-      <c r="CP192" s="26">
-        <v>3.2807698735642807</v>
-      </c>
-      <c r="CQ192" s="26">
-        <v>3.6389674631212636</v>
-      </c>
-      <c r="CR192" s="26">
-        <v>2.7578864733611868</v>
-      </c>
-      <c r="CS192" s="26">
-        <v>3.069604172480926</v>
-      </c>
-      <c r="CT192" s="11"/>
+        <v>3.1046289827128981</v>
+      </c>
+      <c r="CP192" s="25">
+        <v>3.2746288165759792</v>
+      </c>
+      <c r="CQ192" s="25">
+        <v>3.6306251453589762</v>
+      </c>
+      <c r="CR192" s="25">
+        <v>2.7450103493577496</v>
+      </c>
+      <c r="CS192" s="25">
+        <v>3.0883956129061092</v>
+      </c>
+      <c r="CT192" s="25">
+        <v>3.2791133748166881</v>
+      </c>
       <c r="CU192" s="11"/>
       <c r="CV192" s="11"/>
       <c r="CW192" s="11"/>
@@ -37126,30 +37344,32 @@
         <v>1.7412296168903436</v>
       </c>
       <c r="CL193" s="26">
-        <v>1.5554112620762346</v>
+        <v>1.5552565427073535</v>
       </c>
       <c r="CM193" s="26">
-        <v>1.2031115031500987</v>
+        <v>1.1846584408637295</v>
       </c>
       <c r="CN193" s="26">
-        <v>1.4653069876611839</v>
+        <v>1.464499294029858</v>
       </c>
       <c r="CO193" s="26">
-        <v>1.879917694815243</v>
-      </c>
-      <c r="CP193" s="26">
-        <v>1.8967387077809454</v>
-      </c>
-      <c r="CQ193" s="26">
-        <v>1.3559895007126457</v>
-      </c>
-      <c r="CR193" s="26">
-        <v>1.6030997703527463</v>
-      </c>
-      <c r="CS193" s="26">
-        <v>1.9147404903224825</v>
-      </c>
-      <c r="CT193" s="11"/>
+        <v>1.8851131643095567</v>
+      </c>
+      <c r="CP193" s="25">
+        <v>1.8699071887499783</v>
+      </c>
+      <c r="CQ193" s="25">
+        <v>1.3552765865301848</v>
+      </c>
+      <c r="CR193" s="25">
+        <v>1.6044658553968614</v>
+      </c>
+      <c r="CS193" s="25">
+        <v>1.9321984551199538</v>
+      </c>
+      <c r="CT193" s="25">
+        <v>1.9375064063571652</v>
+      </c>
       <c r="CU193" s="11"/>
       <c r="CV193" s="11"/>
       <c r="CW193" s="11"/>
@@ -37475,30 +37695,32 @@
         <v>4.973501027620439</v>
       </c>
       <c r="CL194" s="26">
-        <v>5.6844420724701745</v>
+        <v>5.6726365061279393</v>
       </c>
       <c r="CM194" s="26">
-        <v>5.1622463413156092</v>
+        <v>5.1562523780031757</v>
       </c>
       <c r="CN194" s="26">
-        <v>5.7690547591570205</v>
+        <v>5.7540292045901786</v>
       </c>
       <c r="CO194" s="26">
-        <v>5.1272646206983881</v>
-      </c>
-      <c r="CP194" s="26">
-        <v>5.6949105125756105</v>
-      </c>
-      <c r="CQ194" s="26">
-        <v>5.2416852555924178</v>
-      </c>
-      <c r="CR194" s="26">
-        <v>5.8508090833217485</v>
-      </c>
-      <c r="CS194" s="26">
-        <v>5.2473832298243579</v>
-      </c>
-      <c r="CT194" s="11"/>
+        <v>5.1095564517014749</v>
+      </c>
+      <c r="CP194" s="25">
+        <v>5.7005434720038473</v>
+      </c>
+      <c r="CQ194" s="25">
+        <v>5.2387090946108348</v>
+      </c>
+      <c r="CR194" s="25">
+        <v>5.8387089883616214</v>
+      </c>
+      <c r="CS194" s="25">
+        <v>5.2514147486778802</v>
+      </c>
+      <c r="CT194" s="25">
+        <v>5.6587362470774858</v>
+      </c>
       <c r="CU194" s="11"/>
       <c r="CV194" s="11"/>
       <c r="CW194" s="11"/>
@@ -37824,30 +38046,32 @@
         <v>6.5445230375477887</v>
       </c>
       <c r="CL195" s="26">
-        <v>8.1574379909452954</v>
+        <v>8.1624650777943071</v>
       </c>
       <c r="CM195" s="26">
-        <v>4.9509064123882824</v>
+        <v>4.9601682989347511</v>
       </c>
       <c r="CN195" s="26">
-        <v>6.9689554823920368</v>
+        <v>6.9815982479562209</v>
       </c>
       <c r="CO195" s="26">
-        <v>7.6340247187200703</v>
-      </c>
-      <c r="CP195" s="26">
-        <v>9.5061826211599332</v>
-      </c>
-      <c r="CQ195" s="26">
-        <v>5.7660456524085362</v>
-      </c>
-      <c r="CR195" s="26">
-        <v>7.6500845112551934</v>
-      </c>
-      <c r="CS195" s="26">
-        <v>8.4232930965677717</v>
-      </c>
-      <c r="CT195" s="11"/>
+        <v>7.6492882747669801</v>
+      </c>
+      <c r="CP195" s="25">
+        <v>9.5216131452697201</v>
+      </c>
+      <c r="CQ195" s="25">
+        <v>5.7804945110082988</v>
+      </c>
+      <c r="CR195" s="25">
+        <v>7.6565797444036239</v>
+      </c>
+      <c r="CS195" s="25">
+        <v>8.3987619485502396</v>
+      </c>
+      <c r="CT195" s="25">
+        <v>10.187680533251829</v>
+      </c>
       <c r="CU195" s="11"/>
       <c r="CV195" s="11"/>
       <c r="CW195" s="11"/>
@@ -38173,30 +38397,32 @@
         <v>15.269043600670045</v>
       </c>
       <c r="CL196" s="26">
-        <v>13.684317365882483</v>
+        <v>13.688238148255669</v>
       </c>
       <c r="CM196" s="26">
-        <v>13.184964652925608</v>
+        <v>13.189884556674352</v>
       </c>
       <c r="CN196" s="26">
-        <v>14.513973289425405</v>
+        <v>14.512913779271694</v>
       </c>
       <c r="CO196" s="26">
-        <v>15.222351342846343</v>
-      </c>
-      <c r="CP196" s="26">
-        <v>14.027439941563799</v>
-      </c>
-      <c r="CQ196" s="26">
-        <v>13.172400477733619</v>
-      </c>
-      <c r="CR196" s="26">
-        <v>14.942368666916803</v>
-      </c>
-      <c r="CS196" s="26">
-        <v>15.960124379019961</v>
-      </c>
-      <c r="CT196" s="11"/>
+        <v>15.231199495153092</v>
+      </c>
+      <c r="CP196" s="25">
+        <v>13.998583754644262</v>
+      </c>
+      <c r="CQ196" s="25">
+        <v>13.173763881944165</v>
+      </c>
+      <c r="CR196" s="25">
+        <v>14.954728906832745</v>
+      </c>
+      <c r="CS196" s="25">
+        <v>15.964726142796071</v>
+      </c>
+      <c r="CT196" s="25">
+        <v>14.18208033151593</v>
+      </c>
       <c r="CU196" s="11"/>
       <c r="CV196" s="11"/>
       <c r="CW196" s="11"/>
@@ -38346,11 +38572,11 @@
       <c r="CM197" s="11"/>
       <c r="CN197" s="11"/>
       <c r="CO197" s="11"/>
-      <c r="CP197" s="11"/>
-      <c r="CQ197" s="11"/>
-      <c r="CR197" s="11"/>
-      <c r="CS197" s="11"/>
-      <c r="CT197" s="11"/>
+      <c r="CP197" s="13"/>
+      <c r="CQ197" s="13"/>
+      <c r="CR197" s="13"/>
+      <c r="CS197" s="13"/>
+      <c r="CT197" s="13"/>
       <c r="CU197" s="11"/>
       <c r="CV197" s="11"/>
       <c r="CW197" s="11"/>
@@ -38687,19 +38913,21 @@
       <c r="CO198" s="26">
         <v>100</v>
       </c>
-      <c r="CP198" s="26">
+      <c r="CP198" s="25">
         <v>100</v>
       </c>
-      <c r="CQ198" s="26">
+      <c r="CQ198" s="25">
         <v>100</v>
       </c>
-      <c r="CR198" s="26">
+      <c r="CR198" s="25">
         <v>100</v>
       </c>
-      <c r="CS198" s="26">
+      <c r="CS198" s="25">
         <v>100</v>
       </c>
-      <c r="CT198" s="11"/>
+      <c r="CT198" s="25">
+        <v>100</v>
+      </c>
       <c r="CU198" s="11"/>
       <c r="CV198" s="11"/>
       <c r="CW198" s="11"/>
@@ -38850,10 +39078,11 @@
       <c r="CM199" s="16"/>
       <c r="CN199" s="16"/>
       <c r="CO199" s="16"/>
-      <c r="CP199" s="16"/>
-      <c r="CQ199" s="16"/>
-      <c r="CR199" s="16"/>
-      <c r="CS199" s="16"/>
+      <c r="CP199" s="17"/>
+      <c r="CQ199" s="17"/>
+      <c r="CR199" s="17"/>
+      <c r="CS199" s="17"/>
+      <c r="CT199" s="17"/>
     </row>
     <row r="200" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A200" s="18" t="s">
@@ -38954,11 +39183,11 @@
       <c r="CM201" s="1"/>
       <c r="CN201" s="1"/>
       <c r="CO201" s="1"/>
-      <c r="CP201" s="1"/>
-      <c r="CQ201" s="1"/>
-      <c r="CR201" s="1"/>
-      <c r="CS201" s="1"/>
-      <c r="CT201" s="28"/>
+      <c r="CP201" s="2"/>
+      <c r="CQ201" s="2"/>
+      <c r="CR201" s="2"/>
+      <c r="CS201" s="2"/>
+      <c r="CT201" s="2"/>
       <c r="CU201" s="28"/>
       <c r="CV201" s="28"/>
       <c r="CW201" s="28"/>
@@ -39109,11 +39338,11 @@
       <c r="CM202" s="1"/>
       <c r="CN202" s="1"/>
       <c r="CO202" s="1"/>
-      <c r="CP202" s="1"/>
-      <c r="CQ202" s="1"/>
-      <c r="CR202" s="1"/>
-      <c r="CS202" s="1"/>
-      <c r="CT202" s="28"/>
+      <c r="CP202" s="2"/>
+      <c r="CQ202" s="2"/>
+      <c r="CR202" s="2"/>
+      <c r="CS202" s="2"/>
+      <c r="CT202" s="2"/>
       <c r="CU202" s="28"/>
       <c r="CV202" s="28"/>
       <c r="CW202" s="28"/>
@@ -39171,13 +39400,7 @@
       <c r="EW202" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="154">
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH38:CK38"/>
-    <mergeCell ref="CH67:CK67"/>
-    <mergeCell ref="CH96:CK96"/>
-    <mergeCell ref="CH124:CK124"/>
-    <mergeCell ref="CH153:CK153"/>
+  <mergeCells count="147">
     <mergeCell ref="AH124:AK124"/>
     <mergeCell ref="BR182:BU182"/>
     <mergeCell ref="BV182:BY182"/>
@@ -39196,17 +39419,15 @@
     <mergeCell ref="AP153:AS153"/>
     <mergeCell ref="AT153:AW153"/>
     <mergeCell ref="AX153:BA153"/>
-    <mergeCell ref="AX182:BA182"/>
-    <mergeCell ref="BB182:BE182"/>
-    <mergeCell ref="BZ182:CC182"/>
-    <mergeCell ref="AL182:AO182"/>
-    <mergeCell ref="AP182:AS182"/>
-    <mergeCell ref="AT182:AW182"/>
-    <mergeCell ref="BV38:BY38"/>
-    <mergeCell ref="BZ67:CC67"/>
-    <mergeCell ref="BZ96:CC96"/>
     <mergeCell ref="BJ96:BM96"/>
     <mergeCell ref="BB38:BE38"/>
+    <mergeCell ref="BJ38:BM38"/>
+    <mergeCell ref="BF124:BI124"/>
+    <mergeCell ref="BJ124:BM124"/>
+    <mergeCell ref="BN124:BQ124"/>
+    <mergeCell ref="BN67:BQ67"/>
+    <mergeCell ref="BF38:BI38"/>
+    <mergeCell ref="AX38:BA38"/>
     <mergeCell ref="CD9:CG9"/>
     <mergeCell ref="CD38:CG38"/>
     <mergeCell ref="CD124:CG124"/>
@@ -39221,11 +39442,10 @@
     <mergeCell ref="BZ38:CC38"/>
     <mergeCell ref="CD67:CG67"/>
     <mergeCell ref="CD96:CG96"/>
-    <mergeCell ref="BJ38:BM38"/>
     <mergeCell ref="BR38:BU38"/>
-    <mergeCell ref="BF124:BI124"/>
-    <mergeCell ref="BJ124:BM124"/>
-    <mergeCell ref="BN124:BQ124"/>
+    <mergeCell ref="BV38:BY38"/>
+    <mergeCell ref="BZ67:CC67"/>
+    <mergeCell ref="BZ96:CC96"/>
     <mergeCell ref="BJ9:BM9"/>
     <mergeCell ref="BN9:BQ9"/>
     <mergeCell ref="AL153:AO153"/>
@@ -39270,7 +39490,6 @@
     <mergeCell ref="AT38:AW38"/>
     <mergeCell ref="AH9:AK9"/>
     <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="BN67:BQ67"/>
     <mergeCell ref="B38:E38"/>
     <mergeCell ref="F38:I38"/>
     <mergeCell ref="J38:M38"/>
@@ -39287,8 +39506,6 @@
     <mergeCell ref="Z67:AC67"/>
     <mergeCell ref="AD67:AG67"/>
     <mergeCell ref="AH67:AK67"/>
-    <mergeCell ref="BF38:BI38"/>
-    <mergeCell ref="AX38:BA38"/>
     <mergeCell ref="V153:Y153"/>
     <mergeCell ref="Z153:AC153"/>
     <mergeCell ref="AD153:AG153"/>
@@ -39313,9 +39530,6 @@
     <mergeCell ref="J153:M153"/>
     <mergeCell ref="N153:Q153"/>
     <mergeCell ref="R153:U153"/>
-    <mergeCell ref="BF182:BI182"/>
-    <mergeCell ref="BJ182:BM182"/>
-    <mergeCell ref="CH182:CK182"/>
     <mergeCell ref="CD182:CG182"/>
     <mergeCell ref="B182:E182"/>
     <mergeCell ref="F182:I182"/>
@@ -39326,14 +39540,22 @@
     <mergeCell ref="Z182:AC182"/>
     <mergeCell ref="AD182:AG182"/>
     <mergeCell ref="AH182:AK182"/>
+    <mergeCell ref="AX182:BA182"/>
+    <mergeCell ref="BB182:BE182"/>
+    <mergeCell ref="BZ182:CC182"/>
+    <mergeCell ref="AL182:AO182"/>
+    <mergeCell ref="AP182:AS182"/>
+    <mergeCell ref="AT182:AW182"/>
+    <mergeCell ref="BF182:BI182"/>
+    <mergeCell ref="BJ182:BM182"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="44" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="58" max="96" man="1"/>
-    <brk id="116" max="96" man="1"/>
-    <brk id="144" max="96" man="1"/>
+    <brk id="58" max="97" man="1"/>
+    <brk id="116" max="97" man="1"/>
+    <brk id="144" max="97" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-02HFCE_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-02HFCE_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904E02E2-1299-43E0-9DE1-9249F569E037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A48069B-F62D-4248-8CE8-6EAEE1CFC16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HFCE" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="PCE_Per_Anl">#REF!</definedName>
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HFCE!$A$1:$CT$202</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HFCE!$A$1:$CU$202</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="63">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -226,13 +226,13 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2024</t>
+    <t>As of August 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2024</t>
+    <t>Q1 2000 to Q2 2024</t>
   </si>
   <si>
-    <t>As of May 2024</t>
+    <t>Q1 2001 to Q2 2024</t>
   </si>
 </sst>
 </file>
@@ -321,7 +321,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -368,28 +368,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -733,16 +724,16 @@
       <selection activeCell="CA66" sqref="CA66"/>
       <selection pane="topRight" activeCell="CA66" sqref="CA66"/>
       <selection pane="bottomLeft" activeCell="CA66" sqref="CA66"/>
-      <selection pane="bottomRight" activeCell="DG12" sqref="DG12"/>
+      <selection pane="bottomRight" activeCell="CT3" sqref="CT3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.88671875" style="1" customWidth="1"/>
     <col min="2" max="69" width="11.109375" style="2" customWidth="1"/>
-    <col min="70" max="93" width="11.109375" style="1" customWidth="1"/>
-    <col min="94" max="98" width="11.109375" style="2" customWidth="1"/>
-    <col min="99" max="16384" width="7.77734375" style="1"/>
+    <col min="70" max="92" width="11.109375" style="1" customWidth="1"/>
+    <col min="93" max="99" width="11.21875" style="1" customWidth="1"/>
+    <col min="100" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:153" x14ac:dyDescent="0.2">
@@ -757,7 +748,7 @@
     </row>
     <row r="3" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:153" x14ac:dyDescent="0.2">
@@ -767,7 +758,7 @@
     </row>
     <row r="6" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:153" x14ac:dyDescent="0.2">
@@ -777,132 +768,132 @@
     </row>
     <row r="9" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="43">
+      <c r="B9" s="37">
         <v>2000</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43">
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37">
         <v>2001</v>
       </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43">
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37">
         <v>2002</v>
       </c>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43">
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37">
         <v>2003</v>
       </c>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43">
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37">
         <v>2004</v>
       </c>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43">
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37">
         <v>2005</v>
       </c>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="43">
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37">
         <v>2006</v>
       </c>
-      <c r="AA9" s="43"/>
-      <c r="AB9" s="43"/>
-      <c r="AC9" s="43"/>
-      <c r="AD9" s="43">
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="37">
         <v>2007</v>
       </c>
-      <c r="AE9" s="43"/>
-      <c r="AF9" s="43"/>
-      <c r="AG9" s="43"/>
-      <c r="AH9" s="43">
+      <c r="AE9" s="37"/>
+      <c r="AF9" s="37"/>
+      <c r="AG9" s="37"/>
+      <c r="AH9" s="37">
         <v>2008</v>
       </c>
-      <c r="AI9" s="43"/>
-      <c r="AJ9" s="43"/>
-      <c r="AK9" s="43"/>
-      <c r="AL9" s="43">
+      <c r="AI9" s="37"/>
+      <c r="AJ9" s="37"/>
+      <c r="AK9" s="37"/>
+      <c r="AL9" s="37">
         <v>2009</v>
       </c>
-      <c r="AM9" s="43"/>
-      <c r="AN9" s="43"/>
-      <c r="AO9" s="43"/>
-      <c r="AP9" s="43">
+      <c r="AM9" s="37"/>
+      <c r="AN9" s="37"/>
+      <c r="AO9" s="37"/>
+      <c r="AP9" s="37">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="43"/>
-      <c r="AR9" s="43"/>
-      <c r="AS9" s="43"/>
-      <c r="AT9" s="43">
+      <c r="AQ9" s="37"/>
+      <c r="AR9" s="37"/>
+      <c r="AS9" s="37"/>
+      <c r="AT9" s="37">
         <v>2011</v>
       </c>
-      <c r="AU9" s="43"/>
-      <c r="AV9" s="43"/>
-      <c r="AW9" s="43"/>
-      <c r="AX9" s="43">
+      <c r="AU9" s="37"/>
+      <c r="AV9" s="37"/>
+      <c r="AW9" s="37"/>
+      <c r="AX9" s="37">
         <v>2012</v>
       </c>
-      <c r="AY9" s="43"/>
-      <c r="AZ9" s="43"/>
-      <c r="BA9" s="43"/>
-      <c r="BB9" s="43">
+      <c r="AY9" s="37"/>
+      <c r="AZ9" s="37"/>
+      <c r="BA9" s="37"/>
+      <c r="BB9" s="37">
         <v>2013</v>
       </c>
-      <c r="BC9" s="43"/>
-      <c r="BD9" s="43"/>
-      <c r="BE9" s="43"/>
-      <c r="BF9" s="43">
+      <c r="BC9" s="37"/>
+      <c r="BD9" s="37"/>
+      <c r="BE9" s="37"/>
+      <c r="BF9" s="37">
         <v>2014</v>
       </c>
-      <c r="BG9" s="43"/>
-      <c r="BH9" s="43"/>
-      <c r="BI9" s="43"/>
-      <c r="BJ9" s="43">
+      <c r="BG9" s="37"/>
+      <c r="BH9" s="37"/>
+      <c r="BI9" s="37"/>
+      <c r="BJ9" s="37">
         <v>2015</v>
       </c>
-      <c r="BK9" s="43"/>
-      <c r="BL9" s="43"/>
-      <c r="BM9" s="43"/>
-      <c r="BN9" s="43">
+      <c r="BK9" s="37"/>
+      <c r="BL9" s="37"/>
+      <c r="BM9" s="37"/>
+      <c r="BN9" s="37">
         <v>2016</v>
       </c>
-      <c r="BO9" s="43"/>
-      <c r="BP9" s="43"/>
-      <c r="BQ9" s="43"/>
-      <c r="BR9" s="42">
+      <c r="BO9" s="37"/>
+      <c r="BP9" s="37"/>
+      <c r="BQ9" s="37"/>
+      <c r="BR9" s="38">
         <v>2017</v>
       </c>
-      <c r="BS9" s="42"/>
-      <c r="BT9" s="42"/>
-      <c r="BU9" s="42"/>
-      <c r="BV9" s="42">
+      <c r="BS9" s="38"/>
+      <c r="BT9" s="38"/>
+      <c r="BU9" s="38"/>
+      <c r="BV9" s="38">
         <v>2018</v>
       </c>
-      <c r="BW9" s="42"/>
-      <c r="BX9" s="42"/>
-      <c r="BY9" s="42"/>
-      <c r="BZ9" s="42">
+      <c r="BW9" s="38"/>
+      <c r="BX9" s="38"/>
+      <c r="BY9" s="38"/>
+      <c r="BZ9" s="38">
         <v>2019</v>
       </c>
-      <c r="CA9" s="42"/>
-      <c r="CB9" s="42"/>
-      <c r="CC9" s="42"/>
-      <c r="CD9" s="42">
+      <c r="CA9" s="38"/>
+      <c r="CB9" s="38"/>
+      <c r="CC9" s="38"/>
+      <c r="CD9" s="38">
         <v>2020</v>
       </c>
-      <c r="CE9" s="42"/>
-      <c r="CF9" s="42"/>
-      <c r="CG9" s="42"/>
+      <c r="CE9" s="38"/>
+      <c r="CF9" s="38"/>
+      <c r="CG9" s="38"/>
       <c r="CH9" s="33">
         <v>2021</v>
       </c>
@@ -915,15 +906,16 @@
       <c r="CM9" s="33"/>
       <c r="CN9" s="33"/>
       <c r="CO9" s="33"/>
-      <c r="CP9" s="35">
+      <c r="CP9" s="33">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="35"/>
-      <c r="CR9" s="35"/>
-      <c r="CS9" s="35"/>
-      <c r="CT9" s="35">
+      <c r="CQ9" s="33"/>
+      <c r="CR9" s="33"/>
+      <c r="CS9" s="33"/>
+      <c r="CT9" s="33">
         <v>2024</v>
       </c>
+      <c r="CU9" s="33"/>
     </row>
     <row r="10" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -1205,20 +1197,23 @@
       <c r="CO10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CP10" s="6" t="s">
+      <c r="CP10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="CQ10" s="6" t="s">
+      <c r="CQ10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="CR10" s="6" t="s">
+      <c r="CR10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="CS10" s="6" t="s">
+      <c r="CS10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CT10" s="6" t="s">
+      <c r="CT10" s="7" t="s">
         <v>19</v>
+      </c>
+      <c r="CU10" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1504,22 +1499,24 @@
       <c r="CO12" s="10">
         <v>1930715.3590808352</v>
       </c>
-      <c r="CP12" s="9">
+      <c r="CP12" s="10">
         <v>1536533.1573482729</v>
       </c>
-      <c r="CQ12" s="9">
+      <c r="CQ12" s="10">
         <v>1685146.0249135478</v>
       </c>
-      <c r="CR12" s="9">
+      <c r="CR12" s="10">
         <v>1568298.0214561208</v>
       </c>
-      <c r="CS12" s="9">
+      <c r="CS12" s="10">
         <v>2058930.0163327174</v>
       </c>
-      <c r="CT12" s="9">
-        <v>1615076.612128017</v>
-      </c>
-      <c r="CU12" s="11"/>
+      <c r="CT12" s="10">
+        <v>1612897.539554372</v>
+      </c>
+      <c r="CU12" s="10">
+        <v>1794758.710224268</v>
+      </c>
       <c r="CV12" s="11"/>
       <c r="CW12" s="11"/>
       <c r="CX12" s="11"/>
@@ -1855,22 +1852,24 @@
       <c r="CO13" s="10">
         <v>108866.13288724447</v>
       </c>
-      <c r="CP13" s="9">
+      <c r="CP13" s="10">
         <v>78368.525494277594</v>
       </c>
-      <c r="CQ13" s="9">
+      <c r="CQ13" s="10">
         <v>77478.686901585825</v>
       </c>
-      <c r="CR13" s="9">
+      <c r="CR13" s="10">
         <v>81690.837862780638</v>
       </c>
-      <c r="CS13" s="9">
+      <c r="CS13" s="10">
         <v>116688.25715508721</v>
       </c>
-      <c r="CT13" s="9">
-        <v>82237.348715419343</v>
-      </c>
-      <c r="CU13" s="11"/>
+      <c r="CT13" s="10">
+        <v>82936.316278325103</v>
+      </c>
+      <c r="CU13" s="10">
+        <v>83499.291566832529</v>
+      </c>
       <c r="CV13" s="11"/>
       <c r="CW13" s="11"/>
       <c r="CX13" s="11"/>
@@ -2206,22 +2205,24 @@
       <c r="CO14" s="10">
         <v>86822.934730998546</v>
       </c>
-      <c r="CP14" s="9">
+      <c r="CP14" s="10">
         <v>58896.188493212794</v>
       </c>
-      <c r="CQ14" s="9">
+      <c r="CQ14" s="10">
         <v>50174.921717145211</v>
       </c>
-      <c r="CR14" s="9">
+      <c r="CR14" s="10">
         <v>65374.014368846489</v>
       </c>
-      <c r="CS14" s="9">
+      <c r="CS14" s="10">
         <v>88897.129481566808</v>
       </c>
-      <c r="CT14" s="9">
-        <v>61455.014535217168</v>
-      </c>
-      <c r="CU14" s="11"/>
+      <c r="CT14" s="10">
+        <v>61942.569929810452</v>
+      </c>
+      <c r="CU14" s="10">
+        <v>49414.992526632202</v>
+      </c>
       <c r="CV14" s="11"/>
       <c r="CW14" s="11"/>
       <c r="CX14" s="11"/>
@@ -2557,22 +2558,24 @@
       <c r="CO15" s="10">
         <v>542221.68455263809</v>
       </c>
-      <c r="CP15" s="9">
+      <c r="CP15" s="10">
         <v>498031.71244148072</v>
       </c>
-      <c r="CQ15" s="9">
+      <c r="CQ15" s="10">
         <v>648513.97920105793</v>
       </c>
-      <c r="CR15" s="9">
+      <c r="CR15" s="10">
         <v>563329.32332936954</v>
       </c>
-      <c r="CS15" s="9">
+      <c r="CS15" s="10">
         <v>578683.21603506792</v>
       </c>
-      <c r="CT15" s="9">
-        <v>538003.59721020551</v>
-      </c>
-      <c r="CU15" s="11"/>
+      <c r="CT15" s="10">
+        <v>538883.41267359734</v>
+      </c>
+      <c r="CU15" s="10">
+        <v>690542.73668984591</v>
+      </c>
       <c r="CV15" s="11"/>
       <c r="CW15" s="11"/>
       <c r="CX15" s="11"/>
@@ -2908,22 +2911,24 @@
       <c r="CO16" s="10">
         <v>130719.22633313532</v>
       </c>
-      <c r="CP16" s="9">
+      <c r="CP16" s="10">
         <v>110871.54479007726</v>
       </c>
-      <c r="CQ16" s="9">
+      <c r="CQ16" s="10">
         <v>106253.23714514532</v>
       </c>
-      <c r="CR16" s="9">
+      <c r="CR16" s="10">
         <v>127867.77678114366</v>
       </c>
-      <c r="CS16" s="9">
+      <c r="CS16" s="10">
         <v>137855.96716717028</v>
       </c>
-      <c r="CT16" s="9">
-        <v>116236.40671280884</v>
-      </c>
-      <c r="CU16" s="11"/>
+      <c r="CT16" s="10">
+        <v>117847.24378391397</v>
+      </c>
+      <c r="CU16" s="10">
+        <v>111507.16037207234</v>
+      </c>
       <c r="CV16" s="11"/>
       <c r="CW16" s="11"/>
       <c r="CX16" s="11"/>
@@ -3259,22 +3264,24 @@
       <c r="CO17" s="10">
         <v>195414.68022995957</v>
       </c>
-      <c r="CP17" s="9">
+      <c r="CP17" s="10">
         <v>184043.48918585389</v>
       </c>
-      <c r="CQ17" s="9">
+      <c r="CQ17" s="10">
         <v>156766.68111373292</v>
       </c>
-      <c r="CR17" s="9">
+      <c r="CR17" s="10">
         <v>241006.38767839814</v>
       </c>
-      <c r="CS17" s="9">
+      <c r="CS17" s="10">
         <v>216650.81936884264</v>
       </c>
-      <c r="CT17" s="9">
-        <v>203680.44353822488</v>
-      </c>
-      <c r="CU17" s="11"/>
+      <c r="CT17" s="10">
+        <v>203438.47707703302</v>
+      </c>
+      <c r="CU17" s="10">
+        <v>176812.09821165074</v>
+      </c>
       <c r="CV17" s="11"/>
       <c r="CW17" s="11"/>
       <c r="CX17" s="11"/>
@@ -3610,22 +3617,24 @@
       <c r="CO18" s="10">
         <v>376386.64812021976</v>
       </c>
-      <c r="CP18" s="9">
+      <c r="CP18" s="10">
         <v>473256.29873259738</v>
       </c>
-      <c r="CQ18" s="9">
+      <c r="CQ18" s="10">
         <v>384272.81226293766</v>
       </c>
-      <c r="CR18" s="9">
+      <c r="CR18" s="10">
         <v>523724.33665674197</v>
       </c>
-      <c r="CS18" s="9">
+      <c r="CS18" s="10">
         <v>422352.63781876036</v>
       </c>
-      <c r="CT18" s="9">
-        <v>513675.7245535574</v>
-      </c>
-      <c r="CU18" s="11"/>
+      <c r="CT18" s="10">
+        <v>514272.9384144044</v>
+      </c>
+      <c r="CU18" s="10">
+        <v>442679.99990414898</v>
+      </c>
       <c r="CV18" s="11"/>
       <c r="CW18" s="11"/>
       <c r="CX18" s="11"/>
@@ -3961,22 +3970,24 @@
       <c r="CO19" s="10">
         <v>127345.19202086599</v>
       </c>
-      <c r="CP19" s="9">
+      <c r="CP19" s="10">
         <v>127819.65997448107</v>
       </c>
-      <c r="CQ19" s="9">
+      <c r="CQ19" s="10">
         <v>133713.65125885664</v>
       </c>
-      <c r="CR19" s="9">
+      <c r="CR19" s="10">
         <v>102066.60385361208</v>
       </c>
-      <c r="CS19" s="9">
+      <c r="CS19" s="10">
         <v>134255.5713900777</v>
       </c>
-      <c r="CT19" s="9">
-        <v>134459.22084477913</v>
-      </c>
-      <c r="CU19" s="11"/>
+      <c r="CT19" s="10">
+        <v>134446.7656140386</v>
+      </c>
+      <c r="CU19" s="10">
+        <v>143960.42129203904</v>
+      </c>
       <c r="CV19" s="11"/>
       <c r="CW19" s="11"/>
       <c r="CX19" s="11"/>
@@ -4312,22 +4323,24 @@
       <c r="CO20" s="10">
         <v>84952.946652067651</v>
       </c>
-      <c r="CP20" s="9">
+      <c r="CP20" s="10">
         <v>75296.922283388674</v>
       </c>
-      <c r="CQ20" s="9">
+      <c r="CQ20" s="10">
         <v>52530.738124887961</v>
       </c>
-      <c r="CR20" s="9">
+      <c r="CR20" s="10">
         <v>63150.053354876218</v>
       </c>
-      <c r="CS20" s="9">
+      <c r="CS20" s="10">
         <v>96006.310526762885</v>
       </c>
-      <c r="CT20" s="9">
-        <v>84788.997055162516</v>
-      </c>
-      <c r="CU20" s="11"/>
+      <c r="CT20" s="10">
+        <v>85554.535361773858</v>
+      </c>
+      <c r="CU20" s="10">
+        <v>64589.170358400341</v>
+      </c>
       <c r="CV20" s="11"/>
       <c r="CW20" s="11"/>
       <c r="CX20" s="11"/>
@@ -4663,22 +4676,24 @@
       <c r="CO21" s="10">
         <v>219841.02216222681</v>
       </c>
-      <c r="CP21" s="9">
+      <c r="CP21" s="10">
         <v>227675.85348703075</v>
       </c>
-      <c r="CQ21" s="9">
+      <c r="CQ21" s="10">
         <v>207378.85842708446</v>
       </c>
-      <c r="CR21" s="9">
+      <c r="CR21" s="10">
         <v>242002.10894328996</v>
       </c>
-      <c r="CS21" s="9">
+      <c r="CS21" s="10">
         <v>246553.40202491323</v>
       </c>
-      <c r="CT21" s="9">
-        <v>245352.54122398526</v>
-      </c>
-      <c r="CU21" s="11"/>
+      <c r="CT21" s="10">
+        <v>245340.87667876223</v>
+      </c>
+      <c r="CU21" s="10">
+        <v>216126.72970709516</v>
+      </c>
       <c r="CV21" s="11"/>
       <c r="CW21" s="11"/>
       <c r="CX21" s="11"/>
@@ -5014,22 +5029,24 @@
       <c r="CO22" s="10">
         <v>372932.26815940789</v>
       </c>
-      <c r="CP22" s="9">
+      <c r="CP22" s="10">
         <v>424979.12949899468</v>
       </c>
-      <c r="CQ22" s="9">
+      <c r="CQ22" s="10">
         <v>243540.02810056467</v>
       </c>
-      <c r="CR22" s="9">
+      <c r="CR22" s="10">
         <v>353961.58977707929</v>
       </c>
-      <c r="CS22" s="9">
+      <c r="CS22" s="10">
         <v>456518.77217155957</v>
       </c>
-      <c r="CT22" s="9">
-        <v>501702.33305909531</v>
-      </c>
-      <c r="CU22" s="11"/>
+      <c r="CT22" s="10">
+        <v>501441.96541300381</v>
+      </c>
+      <c r="CU22" s="10">
+        <v>280896.14984389144</v>
+      </c>
       <c r="CV22" s="11"/>
       <c r="CW22" s="11"/>
       <c r="CX22" s="11"/>
@@ -5365,22 +5382,24 @@
       <c r="CO23" s="10">
         <v>686287.45334351971</v>
       </c>
-      <c r="CP23" s="9">
+      <c r="CP23" s="10">
         <v>622425.13085141755</v>
       </c>
-      <c r="CQ23" s="9">
+      <c r="CQ23" s="10">
         <v>580246.98628394247</v>
       </c>
-      <c r="CR23" s="9">
+      <c r="CR23" s="10">
         <v>602031.33345531474</v>
       </c>
-      <c r="CS23" s="9">
+      <c r="CS23" s="10">
         <v>776220.4753611621</v>
       </c>
-      <c r="CT23" s="9">
-        <v>684576.93088843219</v>
-      </c>
-      <c r="CU23" s="11"/>
+      <c r="CT23" s="10">
+        <v>681002.97137572069</v>
+      </c>
+      <c r="CU23" s="10">
+        <v>646501.75937911437</v>
+      </c>
       <c r="CV23" s="11"/>
       <c r="CW23" s="11"/>
       <c r="CX23" s="11"/>
@@ -5529,11 +5548,11 @@
       <c r="CM24" s="11"/>
       <c r="CN24" s="11"/>
       <c r="CO24" s="11"/>
-      <c r="CP24" s="13"/>
-      <c r="CQ24" s="13"/>
-      <c r="CR24" s="13"/>
-      <c r="CS24" s="13"/>
-      <c r="CT24" s="13"/>
+      <c r="CP24" s="11"/>
+      <c r="CQ24" s="11"/>
+      <c r="CR24" s="11"/>
+      <c r="CS24" s="11"/>
+      <c r="CT24" s="11"/>
       <c r="CU24" s="11"/>
       <c r="CV24" s="11"/>
       <c r="CW24" s="11"/>
@@ -5870,22 +5889,24 @@
       <c r="CO25" s="30">
         <v>4862505.5482731201</v>
       </c>
-      <c r="CP25" s="36">
+      <c r="CP25" s="30">
         <v>4418197.6125810854</v>
       </c>
-      <c r="CQ25" s="36">
+      <c r="CQ25" s="30">
         <v>4326016.6054504886</v>
       </c>
-      <c r="CR25" s="36">
+      <c r="CR25" s="30">
         <v>4534502.3875175733</v>
       </c>
-      <c r="CS25" s="36">
+      <c r="CS25" s="30">
         <v>5329612.5748336874</v>
       </c>
-      <c r="CT25" s="36">
-        <v>4781245.170464905</v>
-      </c>
-      <c r="CU25" s="11"/>
+      <c r="CT25" s="30">
+        <v>4780005.6121547557</v>
+      </c>
+      <c r="CU25" s="30">
+        <v>4701289.220075991</v>
+      </c>
       <c r="CV25" s="11"/>
       <c r="CW25" s="11"/>
       <c r="CX25" s="11"/>
@@ -6035,11 +6056,12 @@
       <c r="CM26" s="16"/>
       <c r="CN26" s="16"/>
       <c r="CO26" s="16"/>
-      <c r="CP26" s="17"/>
-      <c r="CQ26" s="17"/>
-      <c r="CR26" s="17"/>
-      <c r="CS26" s="17"/>
-      <c r="CT26" s="17"/>
+      <c r="CP26" s="16"/>
+      <c r="CQ26" s="16"/>
+      <c r="CR26" s="16"/>
+      <c r="CS26" s="16"/>
+      <c r="CT26" s="16"/>
+      <c r="CU26" s="16"/>
     </row>
     <row r="27" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
@@ -6139,12 +6161,12 @@
       <c r="CM28" s="31"/>
       <c r="CN28" s="31"/>
       <c r="CO28" s="31"/>
-      <c r="CP28" s="37"/>
-      <c r="CQ28" s="37"/>
-      <c r="CR28" s="37"/>
-      <c r="CS28" s="37"/>
-      <c r="CT28" s="37"/>
-      <c r="CU28" s="11"/>
+      <c r="CP28" s="31"/>
+      <c r="CQ28" s="31"/>
+      <c r="CR28" s="31"/>
+      <c r="CS28" s="31"/>
+      <c r="CT28" s="31"/>
+      <c r="CU28" s="31"/>
       <c r="CV28" s="11"/>
       <c r="CW28" s="11"/>
       <c r="CX28" s="11"/>
@@ -6293,12 +6315,12 @@
       <c r="CM29" s="32"/>
       <c r="CN29" s="32"/>
       <c r="CO29" s="32"/>
-      <c r="CP29" s="38"/>
-      <c r="CQ29" s="38"/>
-      <c r="CR29" s="38"/>
-      <c r="CS29" s="38"/>
-      <c r="CT29" s="38"/>
-      <c r="CU29" s="11"/>
+      <c r="CP29" s="32"/>
+      <c r="CQ29" s="32"/>
+      <c r="CR29" s="32"/>
+      <c r="CS29" s="32"/>
+      <c r="CT29" s="32"/>
+      <c r="CU29" s="32"/>
       <c r="CV29" s="11"/>
       <c r="CW29" s="11"/>
       <c r="CX29" s="11"/>
@@ -6366,7 +6388,7 @@
     </row>
     <row r="32" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:153" x14ac:dyDescent="0.2">
@@ -6376,7 +6398,7 @@
     </row>
     <row r="35" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:153" x14ac:dyDescent="0.2">
@@ -6386,132 +6408,132 @@
     </row>
     <row r="38" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
-      <c r="B38" s="43">
+      <c r="B38" s="37">
         <v>2000</v>
       </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43">
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37">
         <v>2001</v>
       </c>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43">
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37">
         <v>2002</v>
       </c>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43">
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37">
         <v>2003</v>
       </c>
-      <c r="O38" s="43"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="43"/>
-      <c r="R38" s="43">
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37">
         <v>2004</v>
       </c>
-      <c r="S38" s="43"/>
-      <c r="T38" s="43"/>
-      <c r="U38" s="43"/>
-      <c r="V38" s="43">
+      <c r="S38" s="37"/>
+      <c r="T38" s="37"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37">
         <v>2005</v>
       </c>
-      <c r="W38" s="43"/>
-      <c r="X38" s="43"/>
-      <c r="Y38" s="43"/>
-      <c r="Z38" s="43">
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
+      <c r="Y38" s="37"/>
+      <c r="Z38" s="37">
         <v>2006</v>
       </c>
-      <c r="AA38" s="43"/>
-      <c r="AB38" s="43"/>
-      <c r="AC38" s="43"/>
-      <c r="AD38" s="43">
+      <c r="AA38" s="37"/>
+      <c r="AB38" s="37"/>
+      <c r="AC38" s="37"/>
+      <c r="AD38" s="37">
         <v>2007</v>
       </c>
-      <c r="AE38" s="43"/>
-      <c r="AF38" s="43"/>
-      <c r="AG38" s="43"/>
-      <c r="AH38" s="43">
+      <c r="AE38" s="37"/>
+      <c r="AF38" s="37"/>
+      <c r="AG38" s="37"/>
+      <c r="AH38" s="37">
         <v>2008</v>
       </c>
-      <c r="AI38" s="43"/>
-      <c r="AJ38" s="43"/>
-      <c r="AK38" s="43"/>
-      <c r="AL38" s="43">
+      <c r="AI38" s="37"/>
+      <c r="AJ38" s="37"/>
+      <c r="AK38" s="37"/>
+      <c r="AL38" s="37">
         <v>2009</v>
       </c>
-      <c r="AM38" s="43"/>
-      <c r="AN38" s="43"/>
-      <c r="AO38" s="43"/>
-      <c r="AP38" s="43">
+      <c r="AM38" s="37"/>
+      <c r="AN38" s="37"/>
+      <c r="AO38" s="37"/>
+      <c r="AP38" s="37">
         <v>2010</v>
       </c>
-      <c r="AQ38" s="43"/>
-      <c r="AR38" s="43"/>
-      <c r="AS38" s="43"/>
-      <c r="AT38" s="43">
+      <c r="AQ38" s="37"/>
+      <c r="AR38" s="37"/>
+      <c r="AS38" s="37"/>
+      <c r="AT38" s="37">
         <v>2011</v>
       </c>
-      <c r="AU38" s="43"/>
-      <c r="AV38" s="43"/>
-      <c r="AW38" s="43"/>
-      <c r="AX38" s="43">
+      <c r="AU38" s="37"/>
+      <c r="AV38" s="37"/>
+      <c r="AW38" s="37"/>
+      <c r="AX38" s="37">
         <v>2012</v>
       </c>
-      <c r="AY38" s="43"/>
-      <c r="AZ38" s="43"/>
-      <c r="BA38" s="43"/>
-      <c r="BB38" s="43">
+      <c r="AY38" s="37"/>
+      <c r="AZ38" s="37"/>
+      <c r="BA38" s="37"/>
+      <c r="BB38" s="37">
         <v>2013</v>
       </c>
-      <c r="BC38" s="43"/>
-      <c r="BD38" s="43"/>
-      <c r="BE38" s="43"/>
-      <c r="BF38" s="43">
+      <c r="BC38" s="37"/>
+      <c r="BD38" s="37"/>
+      <c r="BE38" s="37"/>
+      <c r="BF38" s="37">
         <v>2014</v>
       </c>
-      <c r="BG38" s="43"/>
-      <c r="BH38" s="43"/>
-      <c r="BI38" s="43"/>
-      <c r="BJ38" s="43">
+      <c r="BG38" s="37"/>
+      <c r="BH38" s="37"/>
+      <c r="BI38" s="37"/>
+      <c r="BJ38" s="37">
         <v>2015</v>
       </c>
-      <c r="BK38" s="43"/>
-      <c r="BL38" s="43"/>
-      <c r="BM38" s="43"/>
-      <c r="BN38" s="43">
+      <c r="BK38" s="37"/>
+      <c r="BL38" s="37"/>
+      <c r="BM38" s="37"/>
+      <c r="BN38" s="37">
         <v>2016</v>
       </c>
-      <c r="BO38" s="43"/>
-      <c r="BP38" s="43"/>
-      <c r="BQ38" s="43"/>
-      <c r="BR38" s="42">
+      <c r="BO38" s="37"/>
+      <c r="BP38" s="37"/>
+      <c r="BQ38" s="37"/>
+      <c r="BR38" s="38">
         <v>2017</v>
       </c>
-      <c r="BS38" s="42"/>
-      <c r="BT38" s="42"/>
-      <c r="BU38" s="42"/>
-      <c r="BV38" s="42">
+      <c r="BS38" s="38"/>
+      <c r="BT38" s="38"/>
+      <c r="BU38" s="38"/>
+      <c r="BV38" s="38">
         <v>2018</v>
       </c>
-      <c r="BW38" s="42"/>
-      <c r="BX38" s="42"/>
-      <c r="BY38" s="42"/>
-      <c r="BZ38" s="42">
+      <c r="BW38" s="38"/>
+      <c r="BX38" s="38"/>
+      <c r="BY38" s="38"/>
+      <c r="BZ38" s="38">
         <v>2019</v>
       </c>
-      <c r="CA38" s="42"/>
-      <c r="CB38" s="42"/>
-      <c r="CC38" s="42"/>
-      <c r="CD38" s="42">
+      <c r="CA38" s="38"/>
+      <c r="CB38" s="38"/>
+      <c r="CC38" s="38"/>
+      <c r="CD38" s="38">
         <v>2020</v>
       </c>
-      <c r="CE38" s="42"/>
-      <c r="CF38" s="42"/>
-      <c r="CG38" s="42"/>
+      <c r="CE38" s="38"/>
+      <c r="CF38" s="38"/>
+      <c r="CG38" s="38"/>
       <c r="CH38" s="33">
         <v>2021</v>
       </c>
@@ -6524,15 +6546,16 @@
       <c r="CM38" s="33"/>
       <c r="CN38" s="33"/>
       <c r="CO38" s="33"/>
-      <c r="CP38" s="35">
+      <c r="CP38" s="33">
         <v>2023</v>
       </c>
-      <c r="CQ38" s="35"/>
-      <c r="CR38" s="35"/>
-      <c r="CS38" s="35"/>
-      <c r="CT38" s="35">
+      <c r="CQ38" s="33"/>
+      <c r="CR38" s="33"/>
+      <c r="CS38" s="33"/>
+      <c r="CT38" s="33">
         <v>2024</v>
       </c>
+      <c r="CU38" s="33"/>
     </row>
     <row r="39" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
@@ -6814,20 +6837,23 @@
       <c r="CO39" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CP39" s="6" t="s">
+      <c r="CP39" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="CQ39" s="6" t="s">
+      <c r="CQ39" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="CR39" s="6" t="s">
+      <c r="CR39" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="CS39" s="6" t="s">
+      <c r="CS39" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CT39" s="6" t="s">
+      <c r="CT39" s="7" t="s">
         <v>19</v>
+      </c>
+      <c r="CU39" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -7113,22 +7139,24 @@
       <c r="CO41" s="10">
         <v>1613837.8543570151</v>
       </c>
-      <c r="CP41" s="9">
+      <c r="CP41" s="10">
         <v>1265574.4326195689</v>
       </c>
-      <c r="CQ41" s="9">
+      <c r="CQ41" s="10">
         <v>1362289.9882985125</v>
       </c>
-      <c r="CR41" s="9">
+      <c r="CR41" s="10">
         <v>1230794.9677908672</v>
       </c>
-      <c r="CS41" s="9">
+      <c r="CS41" s="10">
         <v>1623142.7353204403</v>
       </c>
-      <c r="CT41" s="9">
-        <v>1272534.0884258575</v>
-      </c>
-      <c r="CU41" s="11"/>
+      <c r="CT41" s="10">
+        <v>1270817.1766024218</v>
+      </c>
+      <c r="CU41" s="10">
+        <v>1368775.5190099278</v>
+      </c>
       <c r="CV41" s="11"/>
       <c r="CW41" s="11"/>
       <c r="CX41" s="11"/>
@@ -7464,22 +7492,24 @@
       <c r="CO42" s="10">
         <v>68964.984228597677</v>
       </c>
-      <c r="CP42" s="9">
+      <c r="CP42" s="10">
         <v>50280.938195297516</v>
       </c>
-      <c r="CQ42" s="9">
+      <c r="CQ42" s="10">
         <v>44441.418539635582</v>
       </c>
-      <c r="CR42" s="9">
+      <c r="CR42" s="10">
         <v>44463.997896249566</v>
       </c>
-      <c r="CS42" s="9">
+      <c r="CS42" s="10">
         <v>69402.135638920881</v>
       </c>
-      <c r="CT42" s="9">
-        <v>48907.814261847801</v>
-      </c>
-      <c r="CU42" s="11"/>
+      <c r="CT42" s="10">
+        <v>49323.501006078186</v>
+      </c>
+      <c r="CU42" s="10">
+        <v>45907.84794662823</v>
+      </c>
       <c r="CV42" s="11"/>
       <c r="CW42" s="11"/>
       <c r="CX42" s="11"/>
@@ -7815,22 +7845,24 @@
       <c r="CO43" s="10">
         <v>80473.989444633728</v>
       </c>
-      <c r="CP43" s="9">
+      <c r="CP43" s="10">
         <v>53152.927854325702</v>
       </c>
-      <c r="CQ43" s="9">
+      <c r="CQ43" s="10">
         <v>41157.628783037362</v>
       </c>
-      <c r="CR43" s="9">
+      <c r="CR43" s="10">
         <v>58557.81250580652</v>
       </c>
-      <c r="CS43" s="9">
+      <c r="CS43" s="10">
         <v>78902.32969546254</v>
       </c>
-      <c r="CT43" s="9">
-        <v>53494.367762992842</v>
-      </c>
-      <c r="CU43" s="11"/>
+      <c r="CT43" s="10">
+        <v>53918.767102582256</v>
+      </c>
+      <c r="CU43" s="10">
+        <v>39198.729838236264</v>
+      </c>
       <c r="CV43" s="11"/>
       <c r="CW43" s="11"/>
       <c r="CX43" s="11"/>
@@ -8166,22 +8198,24 @@
       <c r="CO44" s="10">
         <v>462970.29723854054</v>
       </c>
-      <c r="CP44" s="9">
+      <c r="CP44" s="10">
         <v>440943.52757331496</v>
       </c>
-      <c r="CQ44" s="9">
+      <c r="CQ44" s="10">
         <v>553703.83625442069</v>
       </c>
-      <c r="CR44" s="9">
+      <c r="CR44" s="10">
         <v>459676.28146653716</v>
       </c>
-      <c r="CS44" s="9">
+      <c r="CS44" s="10">
         <v>483503.72320486169</v>
       </c>
-      <c r="CT44" s="9">
-        <v>473010.89170075598</v>
-      </c>
-      <c r="CU44" s="11"/>
+      <c r="CT44" s="10">
+        <v>473784.42239651538</v>
+      </c>
+      <c r="CU44" s="10">
+        <v>586783.73750213627</v>
+      </c>
       <c r="CV44" s="11"/>
       <c r="CW44" s="11"/>
       <c r="CX44" s="11"/>
@@ -8517,22 +8551,24 @@
       <c r="CO45" s="10">
         <v>116880.04880855413</v>
       </c>
-      <c r="CP45" s="9">
+      <c r="CP45" s="10">
         <v>93611.753454593345</v>
       </c>
-      <c r="CQ45" s="9">
+      <c r="CQ45" s="10">
         <v>89368.290807064768</v>
       </c>
-      <c r="CR45" s="9">
+      <c r="CR45" s="10">
         <v>107490.02600048439</v>
       </c>
-      <c r="CS45" s="9">
+      <c r="CS45" s="10">
         <v>117556.91553276678</v>
       </c>
-      <c r="CT45" s="9">
-        <v>94861.028562041145</v>
-      </c>
-      <c r="CU45" s="11"/>
+      <c r="CT45" s="10">
+        <v>96175.639583942786</v>
+      </c>
+      <c r="CU45" s="10">
+        <v>91084.125985765815</v>
+      </c>
       <c r="CV45" s="11"/>
       <c r="CW45" s="11"/>
       <c r="CX45" s="11"/>
@@ -8868,22 +8904,24 @@
       <c r="CO46" s="10">
         <v>170920.86754634365</v>
       </c>
-      <c r="CP46" s="9">
+      <c r="CP46" s="10">
         <v>163344.01118917143</v>
       </c>
-      <c r="CQ46" s="9">
+      <c r="CQ46" s="10">
         <v>138025.82560327274</v>
       </c>
-      <c r="CR46" s="9">
+      <c r="CR46" s="10">
         <v>202569.3574100199</v>
       </c>
-      <c r="CS46" s="9">
+      <c r="CS46" s="10">
         <v>182546.53050287801</v>
       </c>
-      <c r="CT46" s="9">
-        <v>175189.63661627885</v>
-      </c>
-      <c r="CU46" s="11"/>
+      <c r="CT46" s="10">
+        <v>174981.51640761693</v>
+      </c>
+      <c r="CU46" s="10">
+        <v>151191.99446324538</v>
+      </c>
       <c r="CV46" s="11"/>
       <c r="CW46" s="11"/>
       <c r="CX46" s="11"/>
@@ -9219,22 +9257,24 @@
       <c r="CO47" s="10">
         <v>297652.57645724842</v>
       </c>
-      <c r="CP47" s="9">
+      <c r="CP47" s="10">
         <v>357466.39388327656</v>
       </c>
-      <c r="CQ47" s="9">
+      <c r="CQ47" s="10">
         <v>308874.15485199948</v>
       </c>
-      <c r="CR47" s="9">
+      <c r="CR47" s="10">
         <v>372910.80834159057</v>
       </c>
-      <c r="CS47" s="9">
+      <c r="CS47" s="10">
         <v>333317.55347024265</v>
       </c>
-      <c r="CT47" s="9">
-        <v>384120.55507882754</v>
-      </c>
-      <c r="CU47" s="11"/>
+      <c r="CT47" s="10">
+        <v>384567.14445178007</v>
+      </c>
+      <c r="CU47" s="10">
+        <v>345331.92871154571</v>
+      </c>
       <c r="CV47" s="11"/>
       <c r="CW47" s="11"/>
       <c r="CX47" s="11"/>
@@ -9570,22 +9610,24 @@
       <c r="CO48" s="10">
         <v>130248.57362617776</v>
       </c>
-      <c r="CP48" s="9">
+      <c r="CP48" s="10">
         <v>120956.17189330241</v>
       </c>
-      <c r="CQ48" s="9">
+      <c r="CQ48" s="10">
         <v>130102.73035963597</v>
       </c>
-      <c r="CR48" s="9">
+      <c r="CR48" s="10">
         <v>101158.72102486502</v>
       </c>
-      <c r="CS48" s="9">
+      <c r="CS48" s="10">
         <v>136472.16385956208</v>
       </c>
-      <c r="CT48" s="9">
-        <v>126704.41917987543</v>
-      </c>
-      <c r="CU48" s="11"/>
+      <c r="CT48" s="10">
+        <v>126692.68229216468</v>
+      </c>
+      <c r="CU48" s="10">
+        <v>139394.14038676719</v>
+      </c>
       <c r="CV48" s="11"/>
       <c r="CW48" s="11"/>
       <c r="CX48" s="11"/>
@@ -9921,22 +9963,24 @@
       <c r="CO49" s="10">
         <v>79086.197462698881</v>
       </c>
-      <c r="CP49" s="9">
+      <c r="CP49" s="10">
         <v>69069.451231257248</v>
       </c>
-      <c r="CQ49" s="9">
+      <c r="CQ49" s="10">
         <v>48566.06706573956</v>
       </c>
-      <c r="CR49" s="9">
+      <c r="CR49" s="10">
         <v>59127.541685949276</v>
       </c>
-      <c r="CS49" s="9">
+      <c r="CS49" s="10">
         <v>85381.323258711534</v>
       </c>
-      <c r="CT49" s="9">
-        <v>74864.939333942952</v>
-      </c>
-      <c r="CU49" s="11"/>
+      <c r="CT49" s="10">
+        <v>75540.875845433722</v>
+      </c>
+      <c r="CU49" s="10">
+        <v>57646.974142899307</v>
+      </c>
       <c r="CV49" s="11"/>
       <c r="CW49" s="11"/>
       <c r="CX49" s="11"/>
@@ -10272,22 +10316,24 @@
       <c r="CO50" s="10">
         <v>214361.34346559201</v>
       </c>
-      <c r="CP50" s="9">
+      <c r="CP50" s="10">
         <v>210563.07591097074</v>
       </c>
-      <c r="CQ50" s="9">
+      <c r="CQ50" s="10">
         <v>187728.09901346514</v>
       </c>
-      <c r="CR50" s="9">
+      <c r="CR50" s="10">
         <v>215167.25204232341</v>
       </c>
-      <c r="CS50" s="9">
+      <c r="CS50" s="10">
         <v>232053.15118347705</v>
       </c>
-      <c r="CT50" s="9">
-        <v>218652.66842691661</v>
-      </c>
-      <c r="CU50" s="11"/>
+      <c r="CT50" s="10">
+        <v>218642.27324647026</v>
+      </c>
+      <c r="CU50" s="10">
+        <v>188526.43857060993</v>
+      </c>
       <c r="CV50" s="11"/>
       <c r="CW50" s="11"/>
       <c r="CX50" s="11"/>
@@ -10623,22 +10669,24 @@
       <c r="CO51" s="10">
         <v>320910.77310411725</v>
       </c>
-      <c r="CP51" s="9">
+      <c r="CP51" s="10">
         <v>351703.33519052441</v>
       </c>
-      <c r="CQ51" s="9">
+      <c r="CQ51" s="10">
         <v>207142.87170968985</v>
       </c>
-      <c r="CR51" s="9">
+      <c r="CR51" s="10">
         <v>282159.16000097245</v>
       </c>
-      <c r="CS51" s="9">
+      <c r="CS51" s="10">
         <v>371130.30858810793</v>
       </c>
-      <c r="CT51" s="9">
-        <v>393650.35520553094</v>
-      </c>
-      <c r="CU51" s="11"/>
+      <c r="CT51" s="10">
+        <v>393446.06311913976</v>
+      </c>
+      <c r="CU51" s="10">
+        <v>226982.7311501808</v>
+      </c>
       <c r="CV51" s="11"/>
       <c r="CW51" s="11"/>
       <c r="CX51" s="11"/>
@@ -10974,22 +11022,24 @@
       <c r="CO52" s="10">
         <v>638994.87504169368</v>
       </c>
-      <c r="CP52" s="9">
+      <c r="CP52" s="10">
         <v>517070.84916573938</v>
       </c>
-      <c r="CQ52" s="9">
+      <c r="CQ52" s="10">
         <v>472079.20992477669</v>
       </c>
-      <c r="CR52" s="9">
+      <c r="CR52" s="10">
         <v>551109.48847341456</v>
       </c>
-      <c r="CS52" s="9">
+      <c r="CS52" s="10">
         <v>705460.37334982317</v>
       </c>
-      <c r="CT52" s="9">
-        <v>547993.32800364518</v>
-      </c>
-      <c r="CU52" s="11"/>
+      <c r="CT52" s="10">
+        <v>545132.42825790099</v>
+      </c>
+      <c r="CU52" s="10">
+        <v>509008.18846069416</v>
+      </c>
       <c r="CV52" s="11"/>
       <c r="CW52" s="11"/>
       <c r="CX52" s="11"/>
@@ -11138,11 +11188,11 @@
       <c r="CM53" s="11"/>
       <c r="CN53" s="11"/>
       <c r="CO53" s="11"/>
-      <c r="CP53" s="13"/>
-      <c r="CQ53" s="13"/>
-      <c r="CR53" s="13"/>
-      <c r="CS53" s="13"/>
-      <c r="CT53" s="13"/>
+      <c r="CP53" s="11"/>
+      <c r="CQ53" s="11"/>
+      <c r="CR53" s="11"/>
+      <c r="CS53" s="11"/>
+      <c r="CT53" s="11"/>
       <c r="CU53" s="11"/>
       <c r="CV53" s="11"/>
       <c r="CW53" s="11"/>
@@ -11479,22 +11529,24 @@
       <c r="CO54" s="30">
         <v>4195302.3807812128</v>
       </c>
-      <c r="CP54" s="36">
+      <c r="CP54" s="30">
         <v>3693736.8681613421</v>
       </c>
-      <c r="CQ54" s="36">
+      <c r="CQ54" s="30">
         <v>3583480.1212112503</v>
       </c>
-      <c r="CR54" s="36">
+      <c r="CR54" s="30">
         <v>3685185.4146390795</v>
       </c>
-      <c r="CS54" s="36">
+      <c r="CS54" s="30">
         <v>4418869.2436052551</v>
       </c>
-      <c r="CT54" s="36">
-        <v>3863984.0925585125</v>
-      </c>
-      <c r="CU54" s="11"/>
+      <c r="CT54" s="30">
+        <v>3863022.4903120473</v>
+      </c>
+      <c r="CU54" s="30">
+        <v>3749832.3561686366</v>
+      </c>
       <c r="CV54" s="11"/>
       <c r="CW54" s="11"/>
       <c r="CX54" s="11"/>
@@ -11644,11 +11696,12 @@
       <c r="CM55" s="16"/>
       <c r="CN55" s="16"/>
       <c r="CO55" s="16"/>
-      <c r="CP55" s="17"/>
-      <c r="CQ55" s="17"/>
-      <c r="CR55" s="17"/>
-      <c r="CS55" s="17"/>
-      <c r="CT55" s="17"/>
+      <c r="CP55" s="16"/>
+      <c r="CQ55" s="16"/>
+      <c r="CR55" s="16"/>
+      <c r="CS55" s="16"/>
+      <c r="CT55" s="16"/>
+      <c r="CU55" s="16"/>
     </row>
     <row r="56" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A56" s="18" t="s">
@@ -11748,11 +11801,11 @@
       <c r="CM57" s="11"/>
       <c r="CN57" s="11"/>
       <c r="CO57" s="11"/>
-      <c r="CP57" s="13"/>
-      <c r="CQ57" s="13"/>
-      <c r="CR57" s="13"/>
-      <c r="CS57" s="13"/>
-      <c r="CT57" s="13"/>
+      <c r="CP57" s="11"/>
+      <c r="CQ57" s="11"/>
+      <c r="CR57" s="11"/>
+      <c r="CS57" s="11"/>
+      <c r="CT57" s="11"/>
       <c r="CU57" s="11"/>
       <c r="CV57" s="11"/>
       <c r="CW57" s="11"/>
@@ -11902,12 +11955,12 @@
       <c r="CM58" s="32"/>
       <c r="CN58" s="32"/>
       <c r="CO58" s="32"/>
-      <c r="CP58" s="38"/>
-      <c r="CQ58" s="38"/>
-      <c r="CR58" s="38"/>
-      <c r="CS58" s="38"/>
-      <c r="CT58" s="38"/>
-      <c r="CU58" s="11"/>
+      <c r="CP58" s="32"/>
+      <c r="CQ58" s="32"/>
+      <c r="CR58" s="32"/>
+      <c r="CS58" s="32"/>
+      <c r="CT58" s="32"/>
+      <c r="CU58" s="32"/>
       <c r="CV58" s="11"/>
       <c r="CW58" s="11"/>
       <c r="CX58" s="11"/>
@@ -11975,7 +12028,7 @@
     </row>
     <row r="61" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:153" x14ac:dyDescent="0.2">
@@ -11985,7 +12038,7 @@
     </row>
     <row r="64" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:149" x14ac:dyDescent="0.2">
@@ -11994,139 +12047,138 @@
       </c>
     </row>
     <row r="66" spans="1:149" x14ac:dyDescent="0.2">
-      <c r="CQ66" s="39"/>
-      <c r="CR66" s="39"/>
-      <c r="CS66" s="39"/>
-      <c r="CT66" s="39"/>
+      <c r="CR66" s="8"/>
+      <c r="CS66" s="8"/>
+      <c r="CU66" s="8"/>
     </row>
     <row r="67" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
-      <c r="B67" s="43" t="s">
+      <c r="B67" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C67" s="43"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="43" t="s">
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="G67" s="43"/>
-      <c r="H67" s="43"/>
-      <c r="I67" s="43"/>
-      <c r="J67" s="43" t="s">
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="K67" s="43"/>
-      <c r="L67" s="43"/>
-      <c r="M67" s="43"/>
-      <c r="N67" s="43" t="s">
+      <c r="K67" s="37"/>
+      <c r="L67" s="37"/>
+      <c r="M67" s="37"/>
+      <c r="N67" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="O67" s="43"/>
-      <c r="P67" s="43"/>
-      <c r="Q67" s="43"/>
-      <c r="R67" s="43" t="s">
+      <c r="O67" s="37"/>
+      <c r="P67" s="37"/>
+      <c r="Q67" s="37"/>
+      <c r="R67" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="S67" s="43"/>
-      <c r="T67" s="43"/>
-      <c r="U67" s="43"/>
-      <c r="V67" s="43" t="s">
+      <c r="S67" s="37"/>
+      <c r="T67" s="37"/>
+      <c r="U67" s="37"/>
+      <c r="V67" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="W67" s="43"/>
-      <c r="X67" s="43"/>
-      <c r="Y67" s="43"/>
-      <c r="Z67" s="43" t="s">
+      <c r="W67" s="37"/>
+      <c r="X67" s="37"/>
+      <c r="Y67" s="37"/>
+      <c r="Z67" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="AA67" s="43"/>
-      <c r="AB67" s="43"/>
-      <c r="AC67" s="43"/>
-      <c r="AD67" s="43" t="s">
+      <c r="AA67" s="37"/>
+      <c r="AB67" s="37"/>
+      <c r="AC67" s="37"/>
+      <c r="AD67" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="AE67" s="43"/>
-      <c r="AF67" s="43"/>
-      <c r="AG67" s="43"/>
-      <c r="AH67" s="43" t="s">
+      <c r="AE67" s="37"/>
+      <c r="AF67" s="37"/>
+      <c r="AG67" s="37"/>
+      <c r="AH67" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="AI67" s="43"/>
-      <c r="AJ67" s="43"/>
-      <c r="AK67" s="43"/>
-      <c r="AL67" s="43" t="s">
+      <c r="AI67" s="37"/>
+      <c r="AJ67" s="37"/>
+      <c r="AK67" s="37"/>
+      <c r="AL67" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="AM67" s="43"/>
-      <c r="AN67" s="43"/>
-      <c r="AO67" s="43"/>
-      <c r="AP67" s="43" t="s">
+      <c r="AM67" s="37"/>
+      <c r="AN67" s="37"/>
+      <c r="AO67" s="37"/>
+      <c r="AP67" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="AQ67" s="43"/>
-      <c r="AR67" s="43"/>
-      <c r="AS67" s="43"/>
-      <c r="AT67" s="43" t="s">
+      <c r="AQ67" s="37"/>
+      <c r="AR67" s="37"/>
+      <c r="AS67" s="37"/>
+      <c r="AT67" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="AU67" s="43"/>
-      <c r="AV67" s="43"/>
-      <c r="AW67" s="43"/>
-      <c r="AX67" s="43" t="s">
+      <c r="AU67" s="37"/>
+      <c r="AV67" s="37"/>
+      <c r="AW67" s="37"/>
+      <c r="AX67" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="AY67" s="43"/>
-      <c r="AZ67" s="43"/>
-      <c r="BA67" s="43"/>
-      <c r="BB67" s="43" t="s">
+      <c r="AY67" s="37"/>
+      <c r="AZ67" s="37"/>
+      <c r="BA67" s="37"/>
+      <c r="BB67" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="BC67" s="43"/>
-      <c r="BD67" s="43"/>
-      <c r="BE67" s="43"/>
-      <c r="BF67" s="43" t="s">
+      <c r="BC67" s="37"/>
+      <c r="BD67" s="37"/>
+      <c r="BE67" s="37"/>
+      <c r="BF67" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="BG67" s="43"/>
-      <c r="BH67" s="43"/>
-      <c r="BI67" s="43"/>
-      <c r="BJ67" s="43" t="s">
+      <c r="BG67" s="37"/>
+      <c r="BH67" s="37"/>
+      <c r="BI67" s="37"/>
+      <c r="BJ67" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="BK67" s="43"/>
-      <c r="BL67" s="43"/>
-      <c r="BM67" s="43"/>
-      <c r="BN67" s="43" t="s">
+      <c r="BK67" s="37"/>
+      <c r="BL67" s="37"/>
+      <c r="BM67" s="37"/>
+      <c r="BN67" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="BO67" s="43"/>
-      <c r="BP67" s="43"/>
-      <c r="BQ67" s="43"/>
-      <c r="BR67" s="42" t="s">
+      <c r="BO67" s="37"/>
+      <c r="BP67" s="37"/>
+      <c r="BQ67" s="37"/>
+      <c r="BR67" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="BS67" s="42"/>
-      <c r="BT67" s="42"/>
-      <c r="BU67" s="42"/>
-      <c r="BV67" s="42" t="s">
+      <c r="BS67" s="38"/>
+      <c r="BT67" s="38"/>
+      <c r="BU67" s="38"/>
+      <c r="BV67" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="BW67" s="42"/>
-      <c r="BX67" s="42"/>
-      <c r="BY67" s="42"/>
-      <c r="BZ67" s="42" t="s">
+      <c r="BW67" s="38"/>
+      <c r="BX67" s="38"/>
+      <c r="BY67" s="38"/>
+      <c r="BZ67" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="CA67" s="42"/>
-      <c r="CB67" s="42"/>
-      <c r="CC67" s="42"/>
-      <c r="CD67" s="42" t="s">
+      <c r="CA67" s="38"/>
+      <c r="CB67" s="38"/>
+      <c r="CC67" s="38"/>
+      <c r="CD67" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="CE67" s="42"/>
-      <c r="CF67" s="42"/>
-      <c r="CG67" s="42"/>
+      <c r="CE67" s="38"/>
+      <c r="CF67" s="38"/>
+      <c r="CG67" s="38"/>
       <c r="CH67" s="33" t="s">
         <v>57</v>
       </c>
@@ -12139,13 +12191,14 @@
       <c r="CM67" s="33"/>
       <c r="CN67" s="33"/>
       <c r="CO67" s="33"/>
-      <c r="CP67" s="35" t="s">
+      <c r="CP67" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="CQ67" s="34"/>
+      <c r="CQ67" s="33"/>
       <c r="CR67" s="34"/>
       <c r="CS67" s="34"/>
-      <c r="CT67" s="34"/>
+      <c r="CT67" s="33"/>
+      <c r="CU67" s="34"/>
     </row>
     <row r="68" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
@@ -12427,20 +12480,22 @@
       <c r="CO68" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CP68" s="6" t="s">
+      <c r="CP68" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="CQ68" s="6"/>
-      <c r="CR68" s="6"/>
-      <c r="CS68" s="6"/>
-      <c r="CT68" s="6"/>
+      <c r="CQ68" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="CR68" s="7"/>
+      <c r="CS68" s="7"/>
+      <c r="CT68" s="7"/>
+      <c r="CU68" s="7"/>
     </row>
     <row r="69" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8"/>
-      <c r="CQ69" s="39"/>
-      <c r="CR69" s="39"/>
-      <c r="CS69" s="39"/>
-      <c r="CT69" s="39"/>
+      <c r="CR69" s="8"/>
+      <c r="CS69" s="8"/>
+      <c r="CU69" s="8"/>
     </row>
     <row r="70" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
@@ -12722,14 +12777,16 @@
       <c r="CO70" s="26">
         <v>6.6407850669879025</v>
       </c>
-      <c r="CP70" s="25">
-        <v>5.1117318493336938</v>
-      </c>
-      <c r="CQ70" s="40"/>
-      <c r="CR70" s="40"/>
-      <c r="CS70" s="40"/>
-      <c r="CT70" s="40"/>
-      <c r="CU70" s="11"/>
+      <c r="CP70" s="26">
+        <v>4.96991437125169</v>
+      </c>
+      <c r="CQ70" s="26">
+        <v>6.5046401730285481</v>
+      </c>
+      <c r="CR70" s="35"/>
+      <c r="CS70" s="35"/>
+      <c r="CT70" s="26"/>
+      <c r="CU70" s="35"/>
       <c r="CV70" s="11"/>
       <c r="CW70" s="11"/>
       <c r="CX70" s="11"/>
@@ -13061,14 +13118,16 @@
       <c r="CO71" s="26">
         <v>7.1850850768662156</v>
       </c>
-      <c r="CP71" s="25">
-        <v>4.9367053887268071</v>
-      </c>
-      <c r="CQ71" s="40"/>
-      <c r="CR71" s="40"/>
-      <c r="CS71" s="40"/>
-      <c r="CT71" s="40"/>
-      <c r="CU71" s="11"/>
+      <c r="CP71" s="26">
+        <v>5.8286037095096788</v>
+      </c>
+      <c r="CQ71" s="26">
+        <v>7.7706591399698652</v>
+      </c>
+      <c r="CR71" s="35"/>
+      <c r="CS71" s="35"/>
+      <c r="CT71" s="26"/>
+      <c r="CU71" s="35"/>
       <c r="CV71" s="11"/>
       <c r="CW71" s="11"/>
       <c r="CX71" s="11"/>
@@ -13400,14 +13459,16 @@
       <c r="CO72" s="26">
         <v>2.38899405669099</v>
       </c>
-      <c r="CP72" s="25">
-        <v>4.344637755801898</v>
-      </c>
-      <c r="CQ72" s="40"/>
-      <c r="CR72" s="40"/>
-      <c r="CS72" s="40"/>
-      <c r="CT72" s="40"/>
-      <c r="CU72" s="11"/>
+      <c r="CP72" s="26">
+        <v>5.1724593976887263</v>
+      </c>
+      <c r="CQ72" s="26">
+        <v>-1.5145597930316939</v>
+      </c>
+      <c r="CR72" s="35"/>
+      <c r="CS72" s="35"/>
+      <c r="CT72" s="26"/>
+      <c r="CU72" s="35"/>
       <c r="CV72" s="11"/>
       <c r="CW72" s="11"/>
       <c r="CX72" s="11"/>
@@ -13739,14 +13800,16 @@
       <c r="CO73" s="26">
         <v>6.7244694414080044</v>
       </c>
-      <c r="CP73" s="25">
-        <v>8.0259717946016451</v>
-      </c>
-      <c r="CQ73" s="40"/>
-      <c r="CR73" s="40"/>
-      <c r="CS73" s="40"/>
-      <c r="CT73" s="40"/>
-      <c r="CU73" s="11"/>
+      <c r="CP73" s="26">
+        <v>8.2026303168228054</v>
+      </c>
+      <c r="CQ73" s="26">
+        <v>6.4807789556927702</v>
+      </c>
+      <c r="CR73" s="35"/>
+      <c r="CS73" s="35"/>
+      <c r="CT73" s="26"/>
+      <c r="CU73" s="35"/>
       <c r="CV73" s="11"/>
       <c r="CW73" s="11"/>
       <c r="CX73" s="11"/>
@@ -14078,14 +14141,16 @@
       <c r="CO74" s="26">
         <v>5.4595953741702203</v>
       </c>
-      <c r="CP74" s="25">
-        <v>4.8388086707814324</v>
-      </c>
-      <c r="CQ74" s="40"/>
-      <c r="CR74" s="40"/>
-      <c r="CS74" s="40"/>
-      <c r="CT74" s="40"/>
-      <c r="CU74" s="11"/>
+      <c r="CP74" s="26">
+        <v>6.2916945976033958</v>
+      </c>
+      <c r="CQ74" s="26">
+        <v>4.9447182675008747</v>
+      </c>
+      <c r="CR74" s="35"/>
+      <c r="CS74" s="35"/>
+      <c r="CT74" s="26"/>
+      <c r="CU74" s="35"/>
       <c r="CV74" s="11"/>
       <c r="CW74" s="11"/>
       <c r="CX74" s="11"/>
@@ -14417,14 +14482,16 @@
       <c r="CO75" s="26">
         <v>10.867217915201081</v>
       </c>
-      <c r="CP75" s="25">
-        <v>10.669735962537018</v>
-      </c>
-      <c r="CQ75" s="40"/>
-      <c r="CR75" s="40"/>
-      <c r="CS75" s="40"/>
-      <c r="CT75" s="40"/>
-      <c r="CU75" s="11"/>
+      <c r="CP75" s="26">
+        <v>10.538263525091821</v>
+      </c>
+      <c r="CQ75" s="26">
+        <v>12.786784127537317</v>
+      </c>
+      <c r="CR75" s="35"/>
+      <c r="CS75" s="35"/>
+      <c r="CT75" s="26"/>
+      <c r="CU75" s="35"/>
       <c r="CV75" s="11"/>
       <c r="CW75" s="11"/>
       <c r="CX75" s="11"/>
@@ -14756,14 +14823,16 @@
       <c r="CO76" s="26">
         <v>12.212438971495814</v>
       </c>
-      <c r="CP76" s="25">
-        <v>8.5407053068718142</v>
-      </c>
-      <c r="CQ76" s="40"/>
-      <c r="CR76" s="40"/>
-      <c r="CS76" s="40"/>
-      <c r="CT76" s="40"/>
-      <c r="CU76" s="11"/>
+      <c r="CP76" s="26">
+        <v>8.6668977870239701</v>
+      </c>
+      <c r="CQ76" s="26">
+        <v>15.199406717654114</v>
+      </c>
+      <c r="CR76" s="35"/>
+      <c r="CS76" s="35"/>
+      <c r="CT76" s="26"/>
+      <c r="CU76" s="35"/>
       <c r="CV76" s="11"/>
       <c r="CW76" s="11"/>
       <c r="CX76" s="11"/>
@@ -15095,14 +15164,16 @@
       <c r="CO77" s="26">
         <v>5.4264941294991615</v>
       </c>
-      <c r="CP77" s="25">
-        <v>5.1944754598968927</v>
-      </c>
-      <c r="CQ77" s="40"/>
-      <c r="CR77" s="40"/>
-      <c r="CS77" s="40"/>
-      <c r="CT77" s="40"/>
-      <c r="CU77" s="11"/>
+      <c r="CP77" s="26">
+        <v>5.1847310819639318</v>
+      </c>
+      <c r="CQ77" s="26">
+        <v>7.6632190780174341</v>
+      </c>
+      <c r="CR77" s="35"/>
+      <c r="CS77" s="35"/>
+      <c r="CT77" s="26"/>
+      <c r="CU77" s="35"/>
       <c r="CV77" s="11"/>
       <c r="CW77" s="11"/>
       <c r="CX77" s="11"/>
@@ -15434,14 +15505,16 @@
       <c r="CO78" s="26">
         <v>13.011160071898715</v>
       </c>
-      <c r="CP78" s="25">
-        <v>12.606192237246191</v>
-      </c>
-      <c r="CQ78" s="40"/>
-      <c r="CR78" s="40"/>
-      <c r="CS78" s="40"/>
-      <c r="CT78" s="40"/>
-      <c r="CU78" s="11"/>
+      <c r="CP78" s="26">
+        <v>13.622884929850755</v>
+      </c>
+      <c r="CQ78" s="26">
+        <v>22.955002468924661</v>
+      </c>
+      <c r="CR78" s="35"/>
+      <c r="CS78" s="35"/>
+      <c r="CT78" s="26"/>
+      <c r="CU78" s="35"/>
       <c r="CV78" s="11"/>
       <c r="CW78" s="11"/>
       <c r="CX78" s="11"/>
@@ -15773,14 +15846,16 @@
       <c r="CO79" s="26">
         <v>12.150771316453685</v>
       </c>
-      <c r="CP79" s="25">
-        <v>7.7639712188281891</v>
-      </c>
-      <c r="CQ79" s="40"/>
-      <c r="CR79" s="40"/>
-      <c r="CS79" s="40"/>
-      <c r="CT79" s="40"/>
-      <c r="CU79" s="11"/>
+      <c r="CP79" s="26">
+        <v>7.7588479064327913</v>
+      </c>
+      <c r="CQ79" s="26">
+        <v>4.2183042892419422</v>
+      </c>
+      <c r="CR79" s="35"/>
+      <c r="CS79" s="35"/>
+      <c r="CT79" s="26"/>
+      <c r="CU79" s="35"/>
       <c r="CV79" s="11"/>
       <c r="CW79" s="11"/>
       <c r="CX79" s="11"/>
@@ -16112,14 +16187,16 @@
       <c r="CO80" s="26">
         <v>22.413320366373625</v>
       </c>
-      <c r="CP80" s="25">
-        <v>18.053405034395254</v>
-      </c>
-      <c r="CQ80" s="40"/>
-      <c r="CR80" s="40"/>
-      <c r="CS80" s="40"/>
-      <c r="CT80" s="40"/>
-      <c r="CU80" s="11"/>
+      <c r="CP80" s="26">
+        <v>17.992139050251879</v>
+      </c>
+      <c r="CQ80" s="26">
+        <v>15.33880160673273</v>
+      </c>
+      <c r="CR80" s="35"/>
+      <c r="CS80" s="35"/>
+      <c r="CT80" s="26"/>
+      <c r="CU80" s="35"/>
       <c r="CV80" s="11"/>
       <c r="CW80" s="11"/>
       <c r="CX80" s="11"/>
@@ -16451,14 +16528,16 @@
       <c r="CO81" s="26">
         <v>13.104278911044958</v>
       </c>
-      <c r="CP81" s="25">
-        <v>9.9854258699350709</v>
-      </c>
-      <c r="CQ81" s="40"/>
-      <c r="CR81" s="40"/>
-      <c r="CS81" s="40"/>
-      <c r="CT81" s="40"/>
-      <c r="CU81" s="11"/>
+      <c r="CP81" s="26">
+        <v>9.4112267678161174</v>
+      </c>
+      <c r="CQ81" s="26">
+        <v>11.418374358044531</v>
+      </c>
+      <c r="CR81" s="35"/>
+      <c r="CS81" s="35"/>
+      <c r="CT81" s="26"/>
+      <c r="CU81" s="35"/>
       <c r="CV81" s="11"/>
       <c r="CW81" s="11"/>
       <c r="CX81" s="11"/>
@@ -16603,12 +16682,12 @@
       <c r="CM82" s="11"/>
       <c r="CN82" s="11"/>
       <c r="CO82" s="11"/>
-      <c r="CP82" s="13"/>
-      <c r="CQ82" s="41"/>
-      <c r="CR82" s="41"/>
-      <c r="CS82" s="41"/>
-      <c r="CT82" s="41"/>
-      <c r="CU82" s="11"/>
+      <c r="CP82" s="11"/>
+      <c r="CQ82" s="11"/>
+      <c r="CR82" s="36"/>
+      <c r="CS82" s="36"/>
+      <c r="CT82" s="11"/>
+      <c r="CU82" s="36"/>
       <c r="CV82" s="11"/>
       <c r="CW82" s="11"/>
       <c r="CX82" s="11"/>
@@ -16940,14 +17019,16 @@
       <c r="CO83" s="26">
         <v>9.6063032098021353</v>
       </c>
-      <c r="CP83" s="25">
-        <v>8.2170964207218873</v>
-      </c>
-      <c r="CQ83" s="40"/>
-      <c r="CR83" s="40"/>
-      <c r="CS83" s="40"/>
-      <c r="CT83" s="40"/>
-      <c r="CU83" s="11"/>
+      <c r="CP83" s="26">
+        <v>8.1890406744913378</v>
+      </c>
+      <c r="CQ83" s="26">
+        <v>8.6747844229882105</v>
+      </c>
+      <c r="CR83" s="35"/>
+      <c r="CS83" s="35"/>
+      <c r="CT83" s="26"/>
+      <c r="CU83" s="35"/>
       <c r="CV83" s="11"/>
       <c r="CW83" s="11"/>
       <c r="CX83" s="11"/>
@@ -17093,20 +17174,20 @@
       <c r="CM84" s="16"/>
       <c r="CN84" s="16"/>
       <c r="CO84" s="16"/>
-      <c r="CP84" s="17"/>
-      <c r="CQ84" s="6"/>
-      <c r="CR84" s="6"/>
-      <c r="CS84" s="6"/>
-      <c r="CT84" s="6"/>
+      <c r="CP84" s="16"/>
+      <c r="CQ84" s="16"/>
+      <c r="CR84" s="7"/>
+      <c r="CS84" s="7"/>
+      <c r="CT84" s="16"/>
+      <c r="CU84" s="7"/>
     </row>
     <row r="85" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A85" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="CQ85" s="39"/>
-      <c r="CR85" s="39"/>
-      <c r="CS85" s="39"/>
-      <c r="CT85" s="39"/>
+      <c r="CR85" s="8"/>
+      <c r="CS85" s="8"/>
+      <c r="CU85" s="8"/>
     </row>
     <row r="86" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="13"/>
@@ -17201,12 +17282,12 @@
       <c r="CM86" s="11"/>
       <c r="CN86" s="11"/>
       <c r="CO86" s="11"/>
-      <c r="CP86" s="13"/>
-      <c r="CQ86" s="41"/>
-      <c r="CR86" s="41"/>
-      <c r="CS86" s="41"/>
-      <c r="CT86" s="41"/>
-      <c r="CU86" s="11"/>
+      <c r="CP86" s="11"/>
+      <c r="CQ86" s="11"/>
+      <c r="CR86" s="36"/>
+      <c r="CS86" s="36"/>
+      <c r="CT86" s="11"/>
+      <c r="CU86" s="36"/>
       <c r="CV86" s="11"/>
       <c r="CW86" s="11"/>
       <c r="CX86" s="11"/>
@@ -17351,12 +17432,12 @@
       <c r="CM87" s="11"/>
       <c r="CN87" s="11"/>
       <c r="CO87" s="11"/>
-      <c r="CP87" s="13"/>
-      <c r="CQ87" s="41"/>
-      <c r="CR87" s="41"/>
-      <c r="CS87" s="41"/>
-      <c r="CT87" s="41"/>
-      <c r="CU87" s="11"/>
+      <c r="CP87" s="11"/>
+      <c r="CQ87" s="11"/>
+      <c r="CR87" s="36"/>
+      <c r="CS87" s="36"/>
+      <c r="CT87" s="11"/>
+      <c r="CU87" s="36"/>
       <c r="CV87" s="11"/>
       <c r="CW87" s="11"/>
       <c r="CX87" s="11"/>
@@ -17412,196 +17493,188 @@
       <c r="A88" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="CQ88" s="39"/>
-      <c r="CR88" s="39"/>
-      <c r="CS88" s="39"/>
-      <c r="CT88" s="39"/>
+      <c r="CR88" s="8"/>
+      <c r="CS88" s="8"/>
+      <c r="CU88" s="8"/>
     </row>
     <row r="89" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="CQ89" s="39"/>
-      <c r="CR89" s="39"/>
-      <c r="CS89" s="39"/>
-      <c r="CT89" s="39"/>
+      <c r="CR89" s="8"/>
+      <c r="CS89" s="8"/>
+      <c r="CU89" s="8"/>
     </row>
     <row r="90" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="CQ90" s="39"/>
-      <c r="CR90" s="39"/>
-      <c r="CS90" s="39"/>
-      <c r="CT90" s="39"/>
+        <v>60</v>
+      </c>
+      <c r="CR90" s="8"/>
+      <c r="CS90" s="8"/>
+      <c r="CU90" s="8"/>
     </row>
     <row r="91" spans="1:149" x14ac:dyDescent="0.2">
-      <c r="CQ91" s="39"/>
-      <c r="CR91" s="39"/>
-      <c r="CS91" s="39"/>
-      <c r="CT91" s="39"/>
+      <c r="CR91" s="8"/>
+      <c r="CS91" s="8"/>
+      <c r="CU91" s="8"/>
     </row>
     <row r="92" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="CQ92" s="39"/>
-      <c r="CR92" s="39"/>
-      <c r="CS92" s="39"/>
-      <c r="CT92" s="39"/>
+      <c r="CR92" s="8"/>
+      <c r="CS92" s="8"/>
+      <c r="CU92" s="8"/>
     </row>
     <row r="93" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="CQ93" s="39"/>
-      <c r="CR93" s="39"/>
-      <c r="CS93" s="39"/>
-      <c r="CT93" s="39"/>
+        <v>62</v>
+      </c>
+      <c r="CR93" s="8"/>
+      <c r="CS93" s="8"/>
+      <c r="CU93" s="8"/>
     </row>
     <row r="94" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="CQ94" s="39"/>
-      <c r="CR94" s="39"/>
-      <c r="CS94" s="39"/>
-      <c r="CT94" s="39"/>
+      <c r="CR94" s="8"/>
+      <c r="CS94" s="8"/>
+      <c r="CU94" s="8"/>
     </row>
     <row r="95" spans="1:149" x14ac:dyDescent="0.2">
-      <c r="CQ95" s="39"/>
-      <c r="CR95" s="39"/>
-      <c r="CS95" s="39"/>
-      <c r="CT95" s="39"/>
+      <c r="CR95" s="8"/>
+      <c r="CS95" s="8"/>
+      <c r="CU95" s="8"/>
     </row>
     <row r="96" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
-      <c r="B96" s="43" t="s">
+      <c r="B96" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C96" s="43"/>
-      <c r="D96" s="43"/>
-      <c r="E96" s="43"/>
-      <c r="F96" s="43" t="s">
+      <c r="C96" s="37"/>
+      <c r="D96" s="37"/>
+      <c r="E96" s="37"/>
+      <c r="F96" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="G96" s="43"/>
-      <c r="H96" s="43"/>
-      <c r="I96" s="43"/>
-      <c r="J96" s="43" t="s">
+      <c r="G96" s="37"/>
+      <c r="H96" s="37"/>
+      <c r="I96" s="37"/>
+      <c r="J96" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="K96" s="43"/>
-      <c r="L96" s="43"/>
-      <c r="M96" s="43"/>
-      <c r="N96" s="43" t="s">
+      <c r="K96" s="37"/>
+      <c r="L96" s="37"/>
+      <c r="M96" s="37"/>
+      <c r="N96" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="O96" s="43"/>
-      <c r="P96" s="43"/>
-      <c r="Q96" s="43"/>
-      <c r="R96" s="43" t="s">
+      <c r="O96" s="37"/>
+      <c r="P96" s="37"/>
+      <c r="Q96" s="37"/>
+      <c r="R96" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="S96" s="43"/>
-      <c r="T96" s="43"/>
-      <c r="U96" s="43"/>
-      <c r="V96" s="43" t="s">
+      <c r="S96" s="37"/>
+      <c r="T96" s="37"/>
+      <c r="U96" s="37"/>
+      <c r="V96" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="W96" s="43"/>
-      <c r="X96" s="43"/>
-      <c r="Y96" s="43"/>
-      <c r="Z96" s="43" t="s">
+      <c r="W96" s="37"/>
+      <c r="X96" s="37"/>
+      <c r="Y96" s="37"/>
+      <c r="Z96" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="AA96" s="43"/>
-      <c r="AB96" s="43"/>
-      <c r="AC96" s="43"/>
-      <c r="AD96" s="43" t="s">
+      <c r="AA96" s="37"/>
+      <c r="AB96" s="37"/>
+      <c r="AC96" s="37"/>
+      <c r="AD96" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="AE96" s="43"/>
-      <c r="AF96" s="43"/>
-      <c r="AG96" s="43"/>
-      <c r="AH96" s="43" t="s">
+      <c r="AE96" s="37"/>
+      <c r="AF96" s="37"/>
+      <c r="AG96" s="37"/>
+      <c r="AH96" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="AI96" s="43"/>
-      <c r="AJ96" s="43"/>
-      <c r="AK96" s="43"/>
-      <c r="AL96" s="43" t="s">
+      <c r="AI96" s="37"/>
+      <c r="AJ96" s="37"/>
+      <c r="AK96" s="37"/>
+      <c r="AL96" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="AM96" s="43"/>
-      <c r="AN96" s="43"/>
-      <c r="AO96" s="43"/>
-      <c r="AP96" s="43" t="s">
+      <c r="AM96" s="37"/>
+      <c r="AN96" s="37"/>
+      <c r="AO96" s="37"/>
+      <c r="AP96" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="AQ96" s="43"/>
-      <c r="AR96" s="43"/>
-      <c r="AS96" s="43"/>
-      <c r="AT96" s="43" t="s">
+      <c r="AQ96" s="37"/>
+      <c r="AR96" s="37"/>
+      <c r="AS96" s="37"/>
+      <c r="AT96" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="AU96" s="43"/>
-      <c r="AV96" s="43"/>
-      <c r="AW96" s="43"/>
-      <c r="AX96" s="43" t="s">
+      <c r="AU96" s="37"/>
+      <c r="AV96" s="37"/>
+      <c r="AW96" s="37"/>
+      <c r="AX96" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="AY96" s="43"/>
-      <c r="AZ96" s="43"/>
-      <c r="BA96" s="43"/>
-      <c r="BB96" s="43" t="s">
+      <c r="AY96" s="37"/>
+      <c r="AZ96" s="37"/>
+      <c r="BA96" s="37"/>
+      <c r="BB96" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="BC96" s="43"/>
-      <c r="BD96" s="43"/>
-      <c r="BE96" s="43"/>
-      <c r="BF96" s="43" t="s">
+      <c r="BC96" s="37"/>
+      <c r="BD96" s="37"/>
+      <c r="BE96" s="37"/>
+      <c r="BF96" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="BG96" s="43"/>
-      <c r="BH96" s="43"/>
-      <c r="BI96" s="43"/>
-      <c r="BJ96" s="43" t="s">
+      <c r="BG96" s="37"/>
+      <c r="BH96" s="37"/>
+      <c r="BI96" s="37"/>
+      <c r="BJ96" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="BK96" s="43"/>
-      <c r="BL96" s="43"/>
-      <c r="BM96" s="43"/>
-      <c r="BN96" s="43" t="s">
+      <c r="BK96" s="37"/>
+      <c r="BL96" s="37"/>
+      <c r="BM96" s="37"/>
+      <c r="BN96" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="BO96" s="43"/>
-      <c r="BP96" s="43"/>
-      <c r="BQ96" s="43"/>
-      <c r="BR96" s="42" t="s">
+      <c r="BO96" s="37"/>
+      <c r="BP96" s="37"/>
+      <c r="BQ96" s="37"/>
+      <c r="BR96" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="BS96" s="42"/>
-      <c r="BT96" s="42"/>
-      <c r="BU96" s="42"/>
-      <c r="BV96" s="42" t="s">
+      <c r="BS96" s="38"/>
+      <c r="BT96" s="38"/>
+      <c r="BU96" s="38"/>
+      <c r="BV96" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="BW96" s="42"/>
-      <c r="BX96" s="42"/>
-      <c r="BY96" s="42"/>
-      <c r="BZ96" s="42" t="s">
+      <c r="BW96" s="38"/>
+      <c r="BX96" s="38"/>
+      <c r="BY96" s="38"/>
+      <c r="BZ96" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="CA96" s="42"/>
-      <c r="CB96" s="42"/>
-      <c r="CC96" s="42"/>
-      <c r="CD96" s="42" t="s">
+      <c r="CA96" s="38"/>
+      <c r="CB96" s="38"/>
+      <c r="CC96" s="38"/>
+      <c r="CD96" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="CE96" s="42"/>
-      <c r="CF96" s="42"/>
-      <c r="CG96" s="42"/>
+      <c r="CE96" s="38"/>
+      <c r="CF96" s="38"/>
+      <c r="CG96" s="38"/>
       <c r="CH96" s="33" t="s">
         <v>57</v>
       </c>
@@ -17614,13 +17687,14 @@
       <c r="CM96" s="33"/>
       <c r="CN96" s="33"/>
       <c r="CO96" s="33"/>
-      <c r="CP96" s="35" t="s">
+      <c r="CP96" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="CQ96" s="34"/>
+      <c r="CQ96" s="33"/>
       <c r="CR96" s="34"/>
       <c r="CS96" s="34"/>
-      <c r="CT96" s="34"/>
+      <c r="CT96" s="33"/>
+      <c r="CU96" s="34"/>
     </row>
     <row r="97" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
@@ -17902,20 +17976,22 @@
       <c r="CO97" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CP97" s="6" t="s">
+      <c r="CP97" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="CQ97" s="6"/>
-      <c r="CR97" s="6"/>
-      <c r="CS97" s="6"/>
-      <c r="CT97" s="6"/>
+      <c r="CQ97" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="CR97" s="7"/>
+      <c r="CS97" s="7"/>
+      <c r="CT97" s="7"/>
+      <c r="CU97" s="7"/>
     </row>
     <row r="98" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8"/>
-      <c r="CQ98" s="39"/>
-      <c r="CR98" s="39"/>
-      <c r="CS98" s="39"/>
-      <c r="CT98" s="39"/>
+      <c r="CR98" s="8"/>
+      <c r="CS98" s="8"/>
+      <c r="CU98" s="8"/>
     </row>
     <row r="99" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
@@ -18197,14 +18273,16 @@
       <c r="CO99" s="26">
         <v>0.57656851574672885</v>
       </c>
-      <c r="CP99" s="25">
-        <v>0.54992070216550815</v>
-      </c>
-      <c r="CQ99" s="40"/>
-      <c r="CR99" s="40"/>
-      <c r="CS99" s="40"/>
-      <c r="CT99" s="40"/>
-      <c r="CU99" s="11"/>
+      <c r="CP99" s="26">
+        <v>0.41425805134203131</v>
+      </c>
+      <c r="CQ99" s="26">
+        <v>0.47607563493259875</v>
+      </c>
+      <c r="CR99" s="35"/>
+      <c r="CS99" s="35"/>
+      <c r="CT99" s="26"/>
+      <c r="CU99" s="35"/>
       <c r="CV99" s="11"/>
       <c r="CW99" s="11"/>
       <c r="CX99" s="11"/>
@@ -18536,14 +18614,16 @@
       <c r="CO100" s="26">
         <v>0.63387444398476589</v>
       </c>
-      <c r="CP100" s="25">
-        <v>-2.7309035645204744</v>
-      </c>
-      <c r="CQ100" s="40"/>
-      <c r="CR100" s="40"/>
-      <c r="CS100" s="40"/>
-      <c r="CT100" s="40"/>
-      <c r="CU100" s="11"/>
+      <c r="CP100" s="26">
+        <v>-1.9041752671768393</v>
+      </c>
+      <c r="CQ100" s="26">
+        <v>3.299690818115522</v>
+      </c>
+      <c r="CR100" s="35"/>
+      <c r="CS100" s="35"/>
+      <c r="CT100" s="26"/>
+      <c r="CU100" s="35"/>
       <c r="CV100" s="11"/>
       <c r="CW100" s="11"/>
       <c r="CX100" s="11"/>
@@ -18875,14 +18955,16 @@
       <c r="CO101" s="26">
         <v>-1.9530033990081961</v>
       </c>
-      <c r="CP101" s="25">
-        <v>0.64237272046972294</v>
-      </c>
-      <c r="CQ101" s="40"/>
-      <c r="CR101" s="40"/>
-      <c r="CS101" s="40"/>
-      <c r="CT101" s="40"/>
-      <c r="CU101" s="11"/>
+      <c r="CP101" s="26">
+        <v>1.4408223199961157</v>
+      </c>
+      <c r="CQ101" s="26">
+        <v>-4.7595038944722603</v>
+      </c>
+      <c r="CR101" s="35"/>
+      <c r="CS101" s="35"/>
+      <c r="CT101" s="26"/>
+      <c r="CU101" s="35"/>
       <c r="CV101" s="11"/>
       <c r="CW101" s="11"/>
       <c r="CX101" s="11"/>
@@ -19214,14 +19296,16 @@
       <c r="CO102" s="26">
         <v>4.43514974692674</v>
       </c>
-      <c r="CP102" s="25">
-        <v>7.2724424154540372</v>
-      </c>
-      <c r="CQ102" s="40"/>
-      <c r="CR102" s="40"/>
-      <c r="CS102" s="40"/>
-      <c r="CT102" s="40"/>
-      <c r="CU102" s="11"/>
+      <c r="CP102" s="26">
+        <v>7.4478686656172783</v>
+      </c>
+      <c r="CQ102" s="26">
+        <v>5.9742951162281059</v>
+      </c>
+      <c r="CR102" s="35"/>
+      <c r="CS102" s="35"/>
+      <c r="CT102" s="26"/>
+      <c r="CU102" s="35"/>
       <c r="CV102" s="11"/>
       <c r="CW102" s="11"/>
       <c r="CX102" s="11"/>
@@ -19553,14 +19637,16 @@
       <c r="CO103" s="26">
         <v>0.57911228743697052</v>
       </c>
-      <c r="CP103" s="25">
-        <v>1.3345280494652627</v>
-      </c>
-      <c r="CQ103" s="40"/>
-      <c r="CR103" s="40"/>
-      <c r="CS103" s="40"/>
-      <c r="CT103" s="40"/>
-      <c r="CU103" s="11"/>
+      <c r="CP103" s="26">
+        <v>2.7388506621586401</v>
+      </c>
+      <c r="CQ103" s="26">
+        <v>1.9199597118907832</v>
+      </c>
+      <c r="CR103" s="35"/>
+      <c r="CS103" s="35"/>
+      <c r="CT103" s="26"/>
+      <c r="CU103" s="35"/>
       <c r="CV103" s="11"/>
       <c r="CW103" s="11"/>
       <c r="CX103" s="11"/>
@@ -19892,14 +19978,16 @@
       <c r="CO104" s="26">
         <v>6.8017809196891506</v>
       </c>
-      <c r="CP104" s="25">
-        <v>7.2519496373753185</v>
-      </c>
-      <c r="CQ104" s="40"/>
-      <c r="CR104" s="40"/>
-      <c r="CS104" s="40"/>
-      <c r="CT104" s="40"/>
-      <c r="CU104" s="11"/>
+      <c r="CP104" s="26">
+        <v>7.1245374309853986</v>
+      </c>
+      <c r="CQ104" s="26">
+        <v>9.5389169399472564</v>
+      </c>
+      <c r="CR104" s="35"/>
+      <c r="CS104" s="35"/>
+      <c r="CT104" s="26"/>
+      <c r="CU104" s="35"/>
       <c r="CV104" s="11"/>
       <c r="CW104" s="11"/>
       <c r="CX104" s="11"/>
@@ -20231,14 +20319,16 @@
       <c r="CO105" s="26">
         <v>11.982082412149637</v>
       </c>
-      <c r="CP105" s="25">
-        <v>7.4564103511935542</v>
-      </c>
-      <c r="CQ105" s="40"/>
-      <c r="CR105" s="40"/>
-      <c r="CS105" s="40"/>
-      <c r="CT105" s="40"/>
-      <c r="CU105" s="11"/>
+      <c r="CP105" s="26">
+        <v>7.5813421994999288</v>
+      </c>
+      <c r="CQ105" s="26">
+        <v>11.803439454821145</v>
+      </c>
+      <c r="CR105" s="35"/>
+      <c r="CS105" s="35"/>
+      <c r="CT105" s="26"/>
+      <c r="CU105" s="35"/>
       <c r="CV105" s="11"/>
       <c r="CW105" s="11"/>
       <c r="CX105" s="11"/>
@@ -20570,14 +20660,16 @@
       <c r="CO106" s="26">
         <v>4.7782406057255145</v>
       </c>
-      <c r="CP106" s="25">
-        <v>4.7523389642685174</v>
-      </c>
-      <c r="CQ106" s="40"/>
-      <c r="CR106" s="40"/>
-      <c r="CS106" s="40"/>
-      <c r="CT106" s="40"/>
-      <c r="CU106" s="11"/>
+      <c r="CP106" s="26">
+        <v>4.7426355423372257</v>
+      </c>
+      <c r="CQ106" s="26">
+        <v>7.1415949545774282</v>
+      </c>
+      <c r="CR106" s="35"/>
+      <c r="CS106" s="35"/>
+      <c r="CT106" s="26"/>
+      <c r="CU106" s="35"/>
       <c r="CV106" s="11"/>
       <c r="CW106" s="11"/>
       <c r="CX106" s="11"/>
@@ -20909,14 +21001,16 @@
       <c r="CO107" s="26">
         <v>7.9598286401135283</v>
       </c>
-      <c r="CP107" s="25">
-        <v>8.390812434981342</v>
-      </c>
-      <c r="CQ107" s="40"/>
-      <c r="CR107" s="40"/>
-      <c r="CS107" s="40"/>
-      <c r="CT107" s="40"/>
-      <c r="CU107" s="11"/>
+      <c r="CP107" s="26">
+        <v>9.3694455346242052</v>
+      </c>
+      <c r="CQ107" s="26">
+        <v>18.698049123203091</v>
+      </c>
+      <c r="CR107" s="35"/>
+      <c r="CS107" s="35"/>
+      <c r="CT107" s="26"/>
+      <c r="CU107" s="35"/>
       <c r="CV107" s="11"/>
       <c r="CW107" s="11"/>
       <c r="CX107" s="11"/>
@@ -21248,14 +21342,16 @@
       <c r="CO108" s="26">
         <v>8.2532640595830173</v>
       </c>
-      <c r="CP108" s="25">
-        <v>3.8418856112105289</v>
-      </c>
-      <c r="CQ108" s="40"/>
-      <c r="CR108" s="40"/>
-      <c r="CS108" s="40"/>
-      <c r="CT108" s="40"/>
-      <c r="CU108" s="11"/>
+      <c r="CP108" s="26">
+        <v>3.8369487625245</v>
+      </c>
+      <c r="CQ108" s="26">
+        <v>0.42526375185182985</v>
+      </c>
+      <c r="CR108" s="35"/>
+      <c r="CS108" s="35"/>
+      <c r="CT108" s="26"/>
+      <c r="CU108" s="35"/>
       <c r="CV108" s="11"/>
       <c r="CW108" s="11"/>
       <c r="CX108" s="11"/>
@@ -21587,14 +21683,16 @@
       <c r="CO109" s="26">
         <v>15.6490650027811</v>
       </c>
-      <c r="CP109" s="25">
-        <v>11.926818945940056</v>
-      </c>
-      <c r="CQ109" s="40"/>
-      <c r="CR109" s="40"/>
-      <c r="CS109" s="40"/>
-      <c r="CT109" s="40"/>
-      <c r="CU109" s="11"/>
+      <c r="CP109" s="26">
+        <v>11.868732466242477</v>
+      </c>
+      <c r="CQ109" s="26">
+        <v>9.5778625046274612</v>
+      </c>
+      <c r="CR109" s="35"/>
+      <c r="CS109" s="35"/>
+      <c r="CT109" s="26"/>
+      <c r="CU109" s="35"/>
       <c r="CV109" s="11"/>
       <c r="CW109" s="11"/>
       <c r="CX109" s="11"/>
@@ -21926,14 +22024,16 @@
       <c r="CO110" s="26">
         <v>10.401569856689804</v>
       </c>
-      <c r="CP110" s="25">
-        <v>5.9803175692068464</v>
-      </c>
-      <c r="CQ110" s="40"/>
-      <c r="CR110" s="40"/>
-      <c r="CS110" s="40"/>
-      <c r="CT110" s="40"/>
-      <c r="CU110" s="11"/>
+      <c r="CP110" s="26">
+        <v>5.4270278700563352</v>
+      </c>
+      <c r="CQ110" s="26">
+        <v>7.8226233563223389</v>
+      </c>
+      <c r="CR110" s="35"/>
+      <c r="CS110" s="35"/>
+      <c r="CT110" s="26"/>
+      <c r="CU110" s="35"/>
       <c r="CV110" s="11"/>
       <c r="CW110" s="11"/>
       <c r="CX110" s="11"/>
@@ -22078,12 +22178,12 @@
       <c r="CM111" s="11"/>
       <c r="CN111" s="11"/>
       <c r="CO111" s="11"/>
-      <c r="CP111" s="13"/>
-      <c r="CQ111" s="41"/>
-      <c r="CR111" s="41"/>
-      <c r="CS111" s="41"/>
-      <c r="CT111" s="41"/>
-      <c r="CU111" s="11"/>
+      <c r="CP111" s="11"/>
+      <c r="CQ111" s="11"/>
+      <c r="CR111" s="36"/>
+      <c r="CS111" s="36"/>
+      <c r="CT111" s="11"/>
+      <c r="CU111" s="36"/>
       <c r="CV111" s="11"/>
       <c r="CW111" s="11"/>
       <c r="CX111" s="11"/>
@@ -22415,14 +22515,16 @@
       <c r="CO112" s="26">
         <v>5.3289809060774331</v>
       </c>
-      <c r="CP112" s="25">
-        <v>4.6090782985826309</v>
-      </c>
-      <c r="CQ112" s="40"/>
-      <c r="CR112" s="40"/>
-      <c r="CS112" s="40"/>
-      <c r="CT112" s="40"/>
-      <c r="CU112" s="11"/>
+      <c r="CP112" s="26">
+        <v>4.5830449810836598</v>
+      </c>
+      <c r="CQ112" s="26">
+        <v>4.6421977890352508</v>
+      </c>
+      <c r="CR112" s="35"/>
+      <c r="CS112" s="35"/>
+      <c r="CT112" s="26"/>
+      <c r="CU112" s="35"/>
       <c r="CV112" s="11"/>
       <c r="CW112" s="11"/>
       <c r="CX112" s="11"/>
@@ -22568,20 +22670,20 @@
       <c r="CM113" s="16"/>
       <c r="CN113" s="16"/>
       <c r="CO113" s="16"/>
-      <c r="CP113" s="17"/>
-      <c r="CQ113" s="6"/>
-      <c r="CR113" s="6"/>
-      <c r="CS113" s="6"/>
-      <c r="CT113" s="6"/>
+      <c r="CP113" s="16"/>
+      <c r="CQ113" s="16"/>
+      <c r="CR113" s="7"/>
+      <c r="CS113" s="7"/>
+      <c r="CT113" s="16"/>
+      <c r="CU113" s="7"/>
     </row>
     <row r="114" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A114" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="CQ114" s="39"/>
-      <c r="CR114" s="39"/>
-      <c r="CS114" s="39"/>
-      <c r="CT114" s="39"/>
+      <c r="CR114" s="8"/>
+      <c r="CS114" s="8"/>
+      <c r="CU114" s="8"/>
     </row>
     <row r="115" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="13"/>
@@ -22676,12 +22778,12 @@
       <c r="CM115" s="11"/>
       <c r="CN115" s="11"/>
       <c r="CO115" s="11"/>
-      <c r="CP115" s="13"/>
-      <c r="CQ115" s="41"/>
-      <c r="CR115" s="41"/>
-      <c r="CS115" s="41"/>
-      <c r="CT115" s="41"/>
-      <c r="CU115" s="11"/>
+      <c r="CP115" s="11"/>
+      <c r="CQ115" s="11"/>
+      <c r="CR115" s="36"/>
+      <c r="CS115" s="36"/>
+      <c r="CT115" s="11"/>
+      <c r="CU115" s="36"/>
       <c r="CV115" s="11"/>
       <c r="CW115" s="11"/>
       <c r="CX115" s="11"/>
@@ -22826,12 +22928,12 @@
       <c r="CM116" s="11"/>
       <c r="CN116" s="11"/>
       <c r="CO116" s="11"/>
-      <c r="CP116" s="13"/>
-      <c r="CQ116" s="41"/>
-      <c r="CR116" s="41"/>
-      <c r="CS116" s="41"/>
-      <c r="CT116" s="41"/>
-      <c r="CU116" s="11"/>
+      <c r="CP116" s="11"/>
+      <c r="CQ116" s="11"/>
+      <c r="CR116" s="36"/>
+      <c r="CS116" s="36"/>
+      <c r="CT116" s="11"/>
+      <c r="CU116" s="36"/>
       <c r="CV116" s="11"/>
       <c r="CW116" s="11"/>
       <c r="CX116" s="11"/>
@@ -22890,7 +22992,7 @@
     </row>
     <row r="118" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="120" spans="1:153" x14ac:dyDescent="0.2">
@@ -22900,7 +23002,7 @@
     </row>
     <row r="121" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="122" spans="1:153" x14ac:dyDescent="0.2">
@@ -22910,132 +23012,132 @@
     </row>
     <row r="124" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
-      <c r="B124" s="43">
+      <c r="B124" s="37">
         <v>2000</v>
       </c>
-      <c r="C124" s="43"/>
-      <c r="D124" s="43"/>
-      <c r="E124" s="43"/>
-      <c r="F124" s="43">
+      <c r="C124" s="37"/>
+      <c r="D124" s="37"/>
+      <c r="E124" s="37"/>
+      <c r="F124" s="37">
         <v>2001</v>
       </c>
-      <c r="G124" s="43"/>
-      <c r="H124" s="43"/>
-      <c r="I124" s="43"/>
-      <c r="J124" s="43">
+      <c r="G124" s="37"/>
+      <c r="H124" s="37"/>
+      <c r="I124" s="37"/>
+      <c r="J124" s="37">
         <v>2002</v>
       </c>
-      <c r="K124" s="43"/>
-      <c r="L124" s="43"/>
-      <c r="M124" s="43"/>
-      <c r="N124" s="43">
+      <c r="K124" s="37"/>
+      <c r="L124" s="37"/>
+      <c r="M124" s="37"/>
+      <c r="N124" s="37">
         <v>2003</v>
       </c>
-      <c r="O124" s="43"/>
-      <c r="P124" s="43"/>
-      <c r="Q124" s="43"/>
-      <c r="R124" s="43">
+      <c r="O124" s="37"/>
+      <c r="P124" s="37"/>
+      <c r="Q124" s="37"/>
+      <c r="R124" s="37">
         <v>2004</v>
       </c>
-      <c r="S124" s="43"/>
-      <c r="T124" s="43"/>
-      <c r="U124" s="43"/>
-      <c r="V124" s="43">
+      <c r="S124" s="37"/>
+      <c r="T124" s="37"/>
+      <c r="U124" s="37"/>
+      <c r="V124" s="37">
         <v>2005</v>
       </c>
-      <c r="W124" s="43"/>
-      <c r="X124" s="43"/>
-      <c r="Y124" s="43"/>
-      <c r="Z124" s="43">
+      <c r="W124" s="37"/>
+      <c r="X124" s="37"/>
+      <c r="Y124" s="37"/>
+      <c r="Z124" s="37">
         <v>2006</v>
       </c>
-      <c r="AA124" s="43"/>
-      <c r="AB124" s="43"/>
-      <c r="AC124" s="43"/>
-      <c r="AD124" s="43">
+      <c r="AA124" s="37"/>
+      <c r="AB124" s="37"/>
+      <c r="AC124" s="37"/>
+      <c r="AD124" s="37">
         <v>2007</v>
       </c>
-      <c r="AE124" s="43"/>
-      <c r="AF124" s="43"/>
-      <c r="AG124" s="43"/>
-      <c r="AH124" s="43">
+      <c r="AE124" s="37"/>
+      <c r="AF124" s="37"/>
+      <c r="AG124" s="37"/>
+      <c r="AH124" s="37">
         <v>2008</v>
       </c>
-      <c r="AI124" s="43"/>
-      <c r="AJ124" s="43"/>
-      <c r="AK124" s="43"/>
-      <c r="AL124" s="43">
+      <c r="AI124" s="37"/>
+      <c r="AJ124" s="37"/>
+      <c r="AK124" s="37"/>
+      <c r="AL124" s="37">
         <v>2009</v>
       </c>
-      <c r="AM124" s="43"/>
-      <c r="AN124" s="43"/>
-      <c r="AO124" s="43"/>
-      <c r="AP124" s="43">
+      <c r="AM124" s="37"/>
+      <c r="AN124" s="37"/>
+      <c r="AO124" s="37"/>
+      <c r="AP124" s="37">
         <v>2010</v>
       </c>
-      <c r="AQ124" s="43"/>
-      <c r="AR124" s="43"/>
-      <c r="AS124" s="43"/>
-      <c r="AT124" s="43">
+      <c r="AQ124" s="37"/>
+      <c r="AR124" s="37"/>
+      <c r="AS124" s="37"/>
+      <c r="AT124" s="37">
         <v>2011</v>
       </c>
-      <c r="AU124" s="43"/>
-      <c r="AV124" s="43"/>
-      <c r="AW124" s="43"/>
-      <c r="AX124" s="43">
+      <c r="AU124" s="37"/>
+      <c r="AV124" s="37"/>
+      <c r="AW124" s="37"/>
+      <c r="AX124" s="37">
         <v>2012</v>
       </c>
-      <c r="AY124" s="43"/>
-      <c r="AZ124" s="43"/>
-      <c r="BA124" s="43"/>
-      <c r="BB124" s="43">
+      <c r="AY124" s="37"/>
+      <c r="AZ124" s="37"/>
+      <c r="BA124" s="37"/>
+      <c r="BB124" s="37">
         <v>2013</v>
       </c>
-      <c r="BC124" s="43"/>
-      <c r="BD124" s="43"/>
-      <c r="BE124" s="43"/>
-      <c r="BF124" s="43">
+      <c r="BC124" s="37"/>
+      <c r="BD124" s="37"/>
+      <c r="BE124" s="37"/>
+      <c r="BF124" s="37">
         <v>2014</v>
       </c>
-      <c r="BG124" s="43"/>
-      <c r="BH124" s="43"/>
-      <c r="BI124" s="43"/>
-      <c r="BJ124" s="43">
+      <c r="BG124" s="37"/>
+      <c r="BH124" s="37"/>
+      <c r="BI124" s="37"/>
+      <c r="BJ124" s="37">
         <v>2015</v>
       </c>
-      <c r="BK124" s="43"/>
-      <c r="BL124" s="43"/>
-      <c r="BM124" s="43"/>
-      <c r="BN124" s="43">
+      <c r="BK124" s="37"/>
+      <c r="BL124" s="37"/>
+      <c r="BM124" s="37"/>
+      <c r="BN124" s="37">
         <v>2016</v>
       </c>
-      <c r="BO124" s="43"/>
-      <c r="BP124" s="43"/>
-      <c r="BQ124" s="43"/>
-      <c r="BR124" s="42">
+      <c r="BO124" s="37"/>
+      <c r="BP124" s="37"/>
+      <c r="BQ124" s="37"/>
+      <c r="BR124" s="38">
         <v>2017</v>
       </c>
-      <c r="BS124" s="42"/>
-      <c r="BT124" s="42"/>
-      <c r="BU124" s="42"/>
-      <c r="BV124" s="42">
+      <c r="BS124" s="38"/>
+      <c r="BT124" s="38"/>
+      <c r="BU124" s="38"/>
+      <c r="BV124" s="38">
         <v>2018</v>
       </c>
-      <c r="BW124" s="42"/>
-      <c r="BX124" s="42"/>
-      <c r="BY124" s="42"/>
-      <c r="BZ124" s="42">
+      <c r="BW124" s="38"/>
+      <c r="BX124" s="38"/>
+      <c r="BY124" s="38"/>
+      <c r="BZ124" s="38">
         <v>2019</v>
       </c>
-      <c r="CA124" s="42"/>
-      <c r="CB124" s="42"/>
-      <c r="CC124" s="42"/>
-      <c r="CD124" s="42">
+      <c r="CA124" s="38"/>
+      <c r="CB124" s="38"/>
+      <c r="CC124" s="38"/>
+      <c r="CD124" s="38">
         <v>2020</v>
       </c>
-      <c r="CE124" s="42"/>
-      <c r="CF124" s="42"/>
-      <c r="CG124" s="42"/>
+      <c r="CE124" s="38"/>
+      <c r="CF124" s="38"/>
+      <c r="CG124" s="38"/>
       <c r="CH124" s="33">
         <v>2021</v>
       </c>
@@ -23048,15 +23150,16 @@
       <c r="CM124" s="33"/>
       <c r="CN124" s="33"/>
       <c r="CO124" s="33"/>
-      <c r="CP124" s="35">
+      <c r="CP124" s="33">
         <v>2023</v>
       </c>
-      <c r="CQ124" s="35"/>
-      <c r="CR124" s="35"/>
-      <c r="CS124" s="35"/>
-      <c r="CT124" s="35">
+      <c r="CQ124" s="33"/>
+      <c r="CR124" s="33"/>
+      <c r="CS124" s="33"/>
+      <c r="CT124" s="33">
         <v>2024</v>
       </c>
+      <c r="CU124" s="33"/>
     </row>
     <row r="125" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
@@ -23338,20 +23441,23 @@
       <c r="CO125" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CP125" s="6" t="s">
+      <c r="CP125" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="CQ125" s="6" t="s">
+      <c r="CQ125" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="CR125" s="6" t="s">
+      <c r="CR125" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="CS125" s="6" t="s">
+      <c r="CS125" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CT125" s="6" t="s">
+      <c r="CT125" s="7" t="s">
         <v>19</v>
+      </c>
+      <c r="CU125" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="126" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -23637,22 +23743,24 @@
       <c r="CO127" s="26">
         <v>119.63502738941952</v>
       </c>
-      <c r="CP127" s="25">
+      <c r="CP127" s="26">
         <v>121.40993984588135</v>
       </c>
-      <c r="CQ127" s="25">
+      <c r="CQ127" s="26">
         <v>123.69950887022809</v>
       </c>
-      <c r="CR127" s="25">
+      <c r="CR127" s="26">
         <v>127.42154968922502</v>
       </c>
-      <c r="CS127" s="25">
+      <c r="CS127" s="26">
         <v>126.84836468964291</v>
       </c>
-      <c r="CT127" s="25">
+      <c r="CT127" s="26">
         <v>126.91814127556216</v>
       </c>
-      <c r="CU127" s="11"/>
+      <c r="CU127" s="26">
+        <v>131.12147940244179</v>
+      </c>
       <c r="CV127" s="11"/>
       <c r="CW127" s="11"/>
       <c r="CX127" s="11"/>
@@ -23988,22 +24096,24 @@
       <c r="CO128" s="26">
         <v>157.85711271445632</v>
       </c>
-      <c r="CP128" s="25">
+      <c r="CP128" s="26">
         <v>155.8613031242264</v>
       </c>
-      <c r="CQ128" s="25">
+      <c r="CQ128" s="26">
         <v>174.33891502019807</v>
       </c>
-      <c r="CR128" s="25">
+      <c r="CR128" s="26">
         <v>183.72355552326766</v>
       </c>
-      <c r="CS128" s="25">
+      <c r="CS128" s="26">
         <v>168.13352511539742</v>
       </c>
-      <c r="CT128" s="25">
+      <c r="CT128" s="26">
         <v>168.14766710924428</v>
       </c>
-      <c r="CU128" s="11"/>
+      <c r="CU128" s="26">
+        <v>181.88456941808195</v>
+      </c>
       <c r="CV128" s="11"/>
       <c r="CW128" s="11"/>
       <c r="CX128" s="11"/>
@@ -24339,22 +24449,24 @@
       <c r="CO129" s="26">
         <v>107.88943773035248</v>
       </c>
-      <c r="CP129" s="25">
+      <c r="CP129" s="26">
         <v>110.80516327271272</v>
       </c>
-      <c r="CQ129" s="25">
+      <c r="CQ129" s="26">
         <v>121.9091653254432</v>
       </c>
-      <c r="CR129" s="25">
+      <c r="CR129" s="26">
         <v>111.64012378769115</v>
       </c>
-      <c r="CS129" s="25">
+      <c r="CS129" s="26">
         <v>112.6673063072801</v>
       </c>
-      <c r="CT129" s="25">
+      <c r="CT129" s="26">
         <v>114.8812802265353</v>
       </c>
-      <c r="CU129" s="11"/>
+      <c r="CU129" s="26">
+        <v>126.0627391003637</v>
+      </c>
       <c r="CV129" s="11"/>
       <c r="CW129" s="11"/>
       <c r="CX129" s="11"/>
@@ -24690,22 +24802,24 @@
       <c r="CO130" s="26">
         <v>117.1180284754346</v>
       </c>
-      <c r="CP130" s="25">
+      <c r="CP130" s="26">
         <v>112.94682454743001</v>
       </c>
-      <c r="CQ130" s="25">
+      <c r="CQ130" s="26">
         <v>117.12289797159234</v>
       </c>
-      <c r="CR130" s="25">
+      <c r="CR130" s="26">
         <v>122.54913860948859</v>
       </c>
-      <c r="CS130" s="25">
+      <c r="CS130" s="26">
         <v>119.68536916309918</v>
       </c>
-      <c r="CT130" s="25">
+      <c r="CT130" s="26">
         <v>113.74021331216329</v>
       </c>
-      <c r="CU130" s="11"/>
+      <c r="CU130" s="26">
+        <v>117.68266442239836</v>
+      </c>
       <c r="CV130" s="11"/>
       <c r="CW130" s="11"/>
       <c r="CX130" s="11"/>
@@ -25041,22 +25155,24 @@
       <c r="CO131" s="26">
         <v>111.84049601763029</v>
       </c>
-      <c r="CP131" s="25">
+      <c r="CP131" s="26">
         <v>118.43763277423901</v>
       </c>
-      <c r="CQ131" s="25">
+      <c r="CQ131" s="26">
         <v>118.89366595869345</v>
       </c>
-      <c r="CR131" s="25">
+      <c r="CR131" s="26">
         <v>118.95780616944631</v>
       </c>
-      <c r="CS131" s="25">
+      <c r="CS131" s="26">
         <v>117.26742450021625</v>
       </c>
-      <c r="CT131" s="25">
+      <c r="CT131" s="26">
         <v>122.53336114396834</v>
       </c>
-      <c r="CU131" s="11"/>
+      <c r="CU131" s="26">
+        <v>122.42216650297347</v>
+      </c>
       <c r="CV131" s="11"/>
       <c r="CW131" s="11"/>
       <c r="CX131" s="11"/>
@@ -25392,22 +25508,24 @@
       <c r="CO132" s="26">
         <v>114.33049868938599</v>
       </c>
-      <c r="CP132" s="25">
+      <c r="CP132" s="26">
         <v>112.67232134559868</v>
       </c>
-      <c r="CQ132" s="25">
+      <c r="CQ132" s="26">
         <v>113.5777891047194</v>
       </c>
-      <c r="CR132" s="25">
+      <c r="CR132" s="26">
         <v>118.97475055448687</v>
       </c>
-      <c r="CS132" s="25">
+      <c r="CS132" s="26">
         <v>118.68251824453434</v>
       </c>
-      <c r="CT132" s="25">
+      <c r="CT132" s="26">
         <v>116.26283807206586</v>
       </c>
-      <c r="CU132" s="11"/>
+      <c r="CU132" s="26">
+        <v>116.94541026418801</v>
+      </c>
       <c r="CV132" s="11"/>
       <c r="CW132" s="11"/>
       <c r="CX132" s="11"/>
@@ -25743,22 +25861,24 @@
       <c r="CO133" s="26">
         <v>126.45166811592503</v>
       </c>
-      <c r="CP133" s="25">
+      <c r="CP133" s="26">
         <v>132.39182950639261</v>
       </c>
-      <c r="CQ133" s="25">
+      <c r="CQ133" s="26">
         <v>124.41080168946679</v>
       </c>
-      <c r="CR133" s="25">
+      <c r="CR133" s="26">
         <v>140.44225185798436</v>
       </c>
-      <c r="CS133" s="25">
+      <c r="CS133" s="26">
         <v>126.71178982971456</v>
       </c>
-      <c r="CT133" s="25">
+      <c r="CT133" s="26">
         <v>133.72773671227856</v>
       </c>
-      <c r="CU133" s="11"/>
+      <c r="CU133" s="26">
+        <v>128.18971056508292</v>
+      </c>
       <c r="CV133" s="11"/>
       <c r="CW133" s="11"/>
       <c r="CX133" s="11"/>
@@ -26094,22 +26214,24 @@
       <c r="CO134" s="26">
         <v>97.770891822858133</v>
       </c>
-      <c r="CP134" s="25">
+      <c r="CP134" s="26">
         <v>105.67435954176283</v>
       </c>
-      <c r="CQ134" s="25">
+      <c r="CQ134" s="26">
         <v>102.77543821658408</v>
       </c>
-      <c r="CR134" s="25">
+      <c r="CR134" s="26">
         <v>100.89748349875232</v>
       </c>
-      <c r="CS134" s="25">
+      <c r="CS134" s="26">
         <v>98.375791511765456</v>
       </c>
-      <c r="CT134" s="25">
+      <c r="CT134" s="26">
         <v>106.12038768268582</v>
       </c>
-      <c r="CU134" s="11"/>
+      <c r="CU134" s="26">
+        <v>103.27580549125099</v>
+      </c>
       <c r="CV134" s="11"/>
       <c r="CW134" s="11"/>
       <c r="CX134" s="11"/>
@@ -26445,22 +26567,24 @@
       <c r="CO135" s="26">
         <v>107.41817077769586</v>
       </c>
-      <c r="CP135" s="25">
+      <c r="CP135" s="26">
         <v>109.01624515776258</v>
       </c>
-      <c r="CQ135" s="25">
+      <c r="CQ135" s="26">
         <v>108.16345917774601</v>
       </c>
-      <c r="CR135" s="25">
+      <c r="CR135" s="26">
         <v>106.80310994543314</v>
       </c>
-      <c r="CS135" s="25">
+      <c r="CS135" s="26">
         <v>112.4441585847257</v>
       </c>
-      <c r="CT135" s="25">
+      <c r="CT135" s="26">
         <v>113.25594839121189</v>
       </c>
-      <c r="CU135" s="11"/>
+      <c r="CU135" s="26">
+        <v>112.04260296176558</v>
+      </c>
       <c r="CV135" s="11"/>
       <c r="CW135" s="11"/>
       <c r="CX135" s="11"/>
@@ -26796,22 +26920,24 @@
       <c r="CO136" s="26">
         <v>102.55628118766403</v>
       </c>
-      <c r="CP136" s="25">
+      <c r="CP136" s="26">
         <v>108.12715026223094</v>
       </c>
-      <c r="CQ136" s="25">
+      <c r="CQ136" s="26">
         <v>110.46767080521592</v>
       </c>
-      <c r="CR136" s="25">
+      <c r="CR136" s="26">
         <v>112.47162690709465</v>
       </c>
-      <c r="CS136" s="25">
+      <c r="CS136" s="26">
         <v>106.24867654995613</v>
       </c>
-      <c r="CT136" s="25">
+      <c r="CT136" s="26">
         <v>112.21108939084039</v>
       </c>
-      <c r="CU136" s="11"/>
+      <c r="CU136" s="26">
+        <v>114.64001088958562</v>
+      </c>
       <c r="CV136" s="11"/>
       <c r="CW136" s="11"/>
       <c r="CX136" s="11"/>
@@ -27147,22 +27273,24 @@
       <c r="CO137" s="26">
         <v>116.21057920620589</v>
       </c>
-      <c r="CP137" s="25">
+      <c r="CP137" s="26">
         <v>120.83454632830689</v>
       </c>
-      <c r="CQ137" s="25">
+      <c r="CQ137" s="26">
         <v>117.57103978064248</v>
       </c>
-      <c r="CR137" s="25">
+      <c r="CR137" s="26">
         <v>125.44749203813173</v>
       </c>
-      <c r="CS137" s="25">
+      <c r="CS137" s="26">
         <v>123.00767725177046</v>
       </c>
-      <c r="CT137" s="25">
+      <c r="CT137" s="26">
         <v>127.44871849465214</v>
       </c>
-      <c r="CU137" s="11"/>
+      <c r="CU137" s="26">
+        <v>123.75221164205632</v>
+      </c>
       <c r="CV137" s="11"/>
       <c r="CW137" s="11"/>
       <c r="CX137" s="11"/>
@@ -27498,22 +27626,24 @@
       <c r="CO138" s="26">
         <v>107.40108882700197</v>
       </c>
-      <c r="CP138" s="25">
+      <c r="CP138" s="26">
         <v>120.37521199573725</v>
       </c>
-      <c r="CQ138" s="25">
+      <c r="CQ138" s="26">
         <v>122.91305655599656</v>
       </c>
-      <c r="CR138" s="25">
+      <c r="CR138" s="26">
         <v>109.23987810896793</v>
       </c>
-      <c r="CS138" s="25">
+      <c r="CS138" s="26">
         <v>110.03034396890929</v>
       </c>
-      <c r="CT138" s="25">
+      <c r="CT138" s="26">
         <v>124.92431858292233</v>
       </c>
-      <c r="CU138" s="11"/>
+      <c r="CU138" s="26">
+        <v>127.01205482257924</v>
+      </c>
       <c r="CV138" s="11"/>
       <c r="CW138" s="11"/>
       <c r="CX138" s="11"/>
@@ -27662,11 +27792,11 @@
       <c r="CM139" s="11"/>
       <c r="CN139" s="11"/>
       <c r="CO139" s="11"/>
-      <c r="CP139" s="13"/>
-      <c r="CQ139" s="13"/>
-      <c r="CR139" s="13"/>
-      <c r="CS139" s="13"/>
-      <c r="CT139" s="13"/>
+      <c r="CP139" s="11"/>
+      <c r="CQ139" s="11"/>
+      <c r="CR139" s="11"/>
+      <c r="CS139" s="11"/>
+      <c r="CT139" s="11"/>
       <c r="CU139" s="11"/>
       <c r="CV139" s="11"/>
       <c r="CW139" s="11"/>
@@ -28003,22 +28133,24 @@
       <c r="CO140" s="26">
         <v>115.90357754779208</v>
       </c>
-      <c r="CP140" s="25">
+      <c r="CP140" s="26">
         <v>119.6132201691011</v>
       </c>
-      <c r="CQ140" s="25">
+      <c r="CQ140" s="26">
         <v>120.72109957702943</v>
       </c>
-      <c r="CR140" s="25">
+      <c r="CR140" s="26">
         <v>123.04679079388126</v>
       </c>
-      <c r="CS140" s="25">
+      <c r="CS140" s="26">
         <v>120.61032542536555</v>
       </c>
-      <c r="CT140" s="25">
-        <v>123.73873846098145</v>
-      </c>
-      <c r="CU140" s="11"/>
+      <c r="CT140" s="26">
+        <v>123.73745232243358</v>
+      </c>
+      <c r="CU140" s="26">
+        <v>125.37331735223221</v>
+      </c>
       <c r="CV140" s="11"/>
       <c r="CW140" s="11"/>
       <c r="CX140" s="11"/>
@@ -28168,11 +28300,12 @@
       <c r="CM141" s="16"/>
       <c r="CN141" s="16"/>
       <c r="CO141" s="16"/>
-      <c r="CP141" s="17"/>
-      <c r="CQ141" s="17"/>
-      <c r="CR141" s="17"/>
-      <c r="CS141" s="17"/>
-      <c r="CT141" s="17"/>
+      <c r="CP141" s="16"/>
+      <c r="CQ141" s="16"/>
+      <c r="CR141" s="16"/>
+      <c r="CS141" s="16"/>
+      <c r="CT141" s="16"/>
+      <c r="CU141" s="16"/>
     </row>
     <row r="142" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A142" s="18" t="s">
@@ -28191,7 +28324,7 @@
     </row>
     <row r="147" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="149" spans="1:153" x14ac:dyDescent="0.2">
@@ -28201,7 +28334,7 @@
     </row>
     <row r="150" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="151" spans="1:153" x14ac:dyDescent="0.2">
@@ -28211,132 +28344,132 @@
     </row>
     <row r="153" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A153" s="4"/>
-      <c r="B153" s="43">
+      <c r="B153" s="37">
         <v>2000</v>
       </c>
-      <c r="C153" s="43"/>
-      <c r="D153" s="43"/>
-      <c r="E153" s="43"/>
-      <c r="F153" s="43">
+      <c r="C153" s="37"/>
+      <c r="D153" s="37"/>
+      <c r="E153" s="37"/>
+      <c r="F153" s="37">
         <v>2001</v>
       </c>
-      <c r="G153" s="43"/>
-      <c r="H153" s="43"/>
-      <c r="I153" s="43"/>
-      <c r="J153" s="43">
+      <c r="G153" s="37"/>
+      <c r="H153" s="37"/>
+      <c r="I153" s="37"/>
+      <c r="J153" s="37">
         <v>2002</v>
       </c>
-      <c r="K153" s="43"/>
-      <c r="L153" s="43"/>
-      <c r="M153" s="43"/>
-      <c r="N153" s="43">
+      <c r="K153" s="37"/>
+      <c r="L153" s="37"/>
+      <c r="M153" s="37"/>
+      <c r="N153" s="37">
         <v>2003</v>
       </c>
-      <c r="O153" s="43"/>
-      <c r="P153" s="43"/>
-      <c r="Q153" s="43"/>
-      <c r="R153" s="43">
+      <c r="O153" s="37"/>
+      <c r="P153" s="37"/>
+      <c r="Q153" s="37"/>
+      <c r="R153" s="37">
         <v>2004</v>
       </c>
-      <c r="S153" s="43"/>
-      <c r="T153" s="43"/>
-      <c r="U153" s="43"/>
-      <c r="V153" s="43">
+      <c r="S153" s="37"/>
+      <c r="T153" s="37"/>
+      <c r="U153" s="37"/>
+      <c r="V153" s="37">
         <v>2005</v>
       </c>
-      <c r="W153" s="43"/>
-      <c r="X153" s="43"/>
-      <c r="Y153" s="43"/>
-      <c r="Z153" s="43">
+      <c r="W153" s="37"/>
+      <c r="X153" s="37"/>
+      <c r="Y153" s="37"/>
+      <c r="Z153" s="37">
         <v>2006</v>
       </c>
-      <c r="AA153" s="43"/>
-      <c r="AB153" s="43"/>
-      <c r="AC153" s="43"/>
-      <c r="AD153" s="43">
+      <c r="AA153" s="37"/>
+      <c r="AB153" s="37"/>
+      <c r="AC153" s="37"/>
+      <c r="AD153" s="37">
         <v>2007</v>
       </c>
-      <c r="AE153" s="43"/>
-      <c r="AF153" s="43"/>
-      <c r="AG153" s="43"/>
-      <c r="AH153" s="43">
+      <c r="AE153" s="37"/>
+      <c r="AF153" s="37"/>
+      <c r="AG153" s="37"/>
+      <c r="AH153" s="37">
         <v>2008</v>
       </c>
-      <c r="AI153" s="43"/>
-      <c r="AJ153" s="43"/>
-      <c r="AK153" s="43"/>
-      <c r="AL153" s="43">
+      <c r="AI153" s="37"/>
+      <c r="AJ153" s="37"/>
+      <c r="AK153" s="37"/>
+      <c r="AL153" s="37">
         <v>2009</v>
       </c>
-      <c r="AM153" s="43"/>
-      <c r="AN153" s="43"/>
-      <c r="AO153" s="43"/>
-      <c r="AP153" s="43">
+      <c r="AM153" s="37"/>
+      <c r="AN153" s="37"/>
+      <c r="AO153" s="37"/>
+      <c r="AP153" s="37">
         <v>2010</v>
       </c>
-      <c r="AQ153" s="43"/>
-      <c r="AR153" s="43"/>
-      <c r="AS153" s="43"/>
-      <c r="AT153" s="43">
+      <c r="AQ153" s="37"/>
+      <c r="AR153" s="37"/>
+      <c r="AS153" s="37"/>
+      <c r="AT153" s="37">
         <v>2011</v>
       </c>
-      <c r="AU153" s="43"/>
-      <c r="AV153" s="43"/>
-      <c r="AW153" s="43"/>
-      <c r="AX153" s="43">
+      <c r="AU153" s="37"/>
+      <c r="AV153" s="37"/>
+      <c r="AW153" s="37"/>
+      <c r="AX153" s="37">
         <v>2012</v>
       </c>
-      <c r="AY153" s="43"/>
-      <c r="AZ153" s="43"/>
-      <c r="BA153" s="43"/>
-      <c r="BB153" s="43">
+      <c r="AY153" s="37"/>
+      <c r="AZ153" s="37"/>
+      <c r="BA153" s="37"/>
+      <c r="BB153" s="37">
         <v>2013</v>
       </c>
-      <c r="BC153" s="43"/>
-      <c r="BD153" s="43"/>
-      <c r="BE153" s="43"/>
-      <c r="BF153" s="43">
+      <c r="BC153" s="37"/>
+      <c r="BD153" s="37"/>
+      <c r="BE153" s="37"/>
+      <c r="BF153" s="37">
         <v>2014</v>
       </c>
-      <c r="BG153" s="43"/>
-      <c r="BH153" s="43"/>
-      <c r="BI153" s="43"/>
-      <c r="BJ153" s="43">
+      <c r="BG153" s="37"/>
+      <c r="BH153" s="37"/>
+      <c r="BI153" s="37"/>
+      <c r="BJ153" s="37">
         <v>2015</v>
       </c>
-      <c r="BK153" s="43"/>
-      <c r="BL153" s="43"/>
-      <c r="BM153" s="43"/>
-      <c r="BN153" s="43">
+      <c r="BK153" s="37"/>
+      <c r="BL153" s="37"/>
+      <c r="BM153" s="37"/>
+      <c r="BN153" s="37">
         <v>2016</v>
       </c>
-      <c r="BO153" s="43"/>
-      <c r="BP153" s="43"/>
-      <c r="BQ153" s="43"/>
-      <c r="BR153" s="42">
+      <c r="BO153" s="37"/>
+      <c r="BP153" s="37"/>
+      <c r="BQ153" s="37"/>
+      <c r="BR153" s="38">
         <v>2017</v>
       </c>
-      <c r="BS153" s="42"/>
-      <c r="BT153" s="42"/>
-      <c r="BU153" s="42"/>
-      <c r="BV153" s="42">
+      <c r="BS153" s="38"/>
+      <c r="BT153" s="38"/>
+      <c r="BU153" s="38"/>
+      <c r="BV153" s="38">
         <v>2018</v>
       </c>
-      <c r="BW153" s="42"/>
-      <c r="BX153" s="42"/>
-      <c r="BY153" s="42"/>
-      <c r="BZ153" s="42">
+      <c r="BW153" s="38"/>
+      <c r="BX153" s="38"/>
+      <c r="BY153" s="38"/>
+      <c r="BZ153" s="38">
         <v>2019</v>
       </c>
-      <c r="CA153" s="42"/>
-      <c r="CB153" s="42"/>
-      <c r="CC153" s="42"/>
-      <c r="CD153" s="42">
+      <c r="CA153" s="38"/>
+      <c r="CB153" s="38"/>
+      <c r="CC153" s="38"/>
+      <c r="CD153" s="38">
         <v>2020</v>
       </c>
-      <c r="CE153" s="42"/>
-      <c r="CF153" s="42"/>
-      <c r="CG153" s="42"/>
+      <c r="CE153" s="38"/>
+      <c r="CF153" s="38"/>
+      <c r="CG153" s="38"/>
       <c r="CH153" s="33">
         <v>2021</v>
       </c>
@@ -28349,15 +28482,16 @@
       <c r="CM153" s="33"/>
       <c r="CN153" s="33"/>
       <c r="CO153" s="33"/>
-      <c r="CP153" s="35">
+      <c r="CP153" s="33">
         <v>2023</v>
       </c>
-      <c r="CQ153" s="35"/>
-      <c r="CR153" s="35"/>
-      <c r="CS153" s="35"/>
-      <c r="CT153" s="35">
+      <c r="CQ153" s="33"/>
+      <c r="CR153" s="33"/>
+      <c r="CS153" s="33"/>
+      <c r="CT153" s="33">
         <v>2024</v>
       </c>
+      <c r="CU153" s="33"/>
     </row>
     <row r="154" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
@@ -28639,20 +28773,23 @@
       <c r="CO154" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CP154" s="6" t="s">
+      <c r="CP154" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="CQ154" s="6" t="s">
+      <c r="CQ154" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="CR154" s="6" t="s">
+      <c r="CR154" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="CS154" s="6" t="s">
+      <c r="CS154" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CT154" s="6" t="s">
+      <c r="CT154" s="7" t="s">
         <v>19</v>
+      </c>
+      <c r="CU154" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="155" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -28938,22 +29075,24 @@
       <c r="CO156" s="26">
         <v>39.706183158320783</v>
       </c>
-      <c r="CP156" s="25">
+      <c r="CP156" s="26">
         <v>34.777375121766887</v>
       </c>
-      <c r="CQ156" s="25">
+      <c r="CQ156" s="26">
         <v>38.953757662196161</v>
       </c>
-      <c r="CR156" s="25">
+      <c r="CR156" s="26">
         <v>34.585890301288167</v>
       </c>
-      <c r="CS156" s="25">
+      <c r="CS156" s="26">
         <v>38.631889043022369</v>
       </c>
-      <c r="CT156" s="25">
-        <v>33.77941424348618</v>
-      </c>
-      <c r="CU156" s="11"/>
+      <c r="CT156" s="26">
+        <v>33.74258673364406</v>
+      </c>
+      <c r="CU156" s="26">
+        <v>38.175883809914964</v>
+      </c>
       <c r="CV156" s="11"/>
       <c r="CW156" s="11"/>
       <c r="CX156" s="11"/>
@@ -29289,22 +29428,24 @@
       <c r="CO157" s="26">
         <v>2.2388896384068375</v>
       </c>
-      <c r="CP157" s="25">
+      <c r="CP157" s="26">
         <v>1.7737668698004467</v>
       </c>
-      <c r="CQ157" s="25">
+      <c r="CQ157" s="26">
         <v>1.7909937470875148</v>
       </c>
-      <c r="CR157" s="25">
+      <c r="CR157" s="26">
         <v>1.8015391961785365</v>
       </c>
-      <c r="CS157" s="25">
+      <c r="CS157" s="26">
         <v>2.1894322620388316</v>
       </c>
-      <c r="CT157" s="25">
-        <v>1.719998573246621</v>
-      </c>
-      <c r="CU157" s="11"/>
+      <c r="CT157" s="26">
+        <v>1.73506734108077</v>
+      </c>
+      <c r="CU157" s="26">
+        <v>1.7760934853840549</v>
+      </c>
       <c r="CV157" s="11"/>
       <c r="CW157" s="11"/>
       <c r="CX157" s="11"/>
@@ -29640,22 +29781,24 @@
       <c r="CO158" s="26">
         <v>1.7855596023295648</v>
       </c>
-      <c r="CP158" s="25">
+      <c r="CP158" s="26">
         <v>1.3330365379199502</v>
       </c>
-      <c r="CQ158" s="25">
+      <c r="CQ158" s="26">
         <v>1.1598411724524635</v>
       </c>
-      <c r="CR158" s="25">
+      <c r="CR158" s="26">
         <v>1.4417020608216216</v>
       </c>
-      <c r="CS158" s="25">
+      <c r="CS158" s="26">
         <v>1.667984834419993</v>
       </c>
-      <c r="CT158" s="25">
-        <v>1.2853349356532073</v>
-      </c>
-      <c r="CU158" s="11"/>
+      <c r="CT158" s="26">
+        <v>1.2958681423365037</v>
+      </c>
+      <c r="CU158" s="26">
+        <v>1.0510945022402485</v>
+      </c>
       <c r="CV158" s="11"/>
       <c r="CW158" s="11"/>
       <c r="CX158" s="11"/>
@@ -29991,22 +30134,24 @@
       <c r="CO159" s="26">
         <v>11.151075904585934</v>
       </c>
-      <c r="CP159" s="25">
+      <c r="CP159" s="26">
         <v>11.272282412703888</v>
       </c>
-      <c r="CQ159" s="25">
+      <c r="CQ159" s="26">
         <v>14.991019183420937</v>
       </c>
-      <c r="CR159" s="25">
+      <c r="CR159" s="26">
         <v>12.423178447983259</v>
       </c>
-      <c r="CS159" s="25">
+      <c r="CS159" s="26">
         <v>10.857885219792472</v>
       </c>
-      <c r="CT159" s="25">
-        <v>11.2523741834785</v>
-      </c>
-      <c r="CU159" s="11"/>
+      <c r="CT159" s="26">
+        <v>11.273698325861938</v>
+      </c>
+      <c r="CU159" s="26">
+        <v>14.688369601704363</v>
+      </c>
       <c r="CV159" s="11"/>
       <c r="CW159" s="11"/>
       <c r="CX159" s="11"/>
@@ -30342,22 +30487,24 @@
       <c r="CO160" s="26">
         <v>2.6883100705059184</v>
       </c>
-      <c r="CP160" s="25">
+      <c r="CP160" s="26">
         <v>2.509429285697041</v>
       </c>
-      <c r="CQ160" s="25">
+      <c r="CQ160" s="26">
         <v>2.4561449212024158</v>
       </c>
-      <c r="CR160" s="25">
+      <c r="CR160" s="26">
         <v>2.819885532161893</v>
       </c>
-      <c r="CS160" s="25">
+      <c r="CS160" s="26">
         <v>2.5866039084740065</v>
       </c>
-      <c r="CT160" s="25">
-        <v>2.4310907006156848</v>
-      </c>
-      <c r="CU160" s="11"/>
+      <c r="CT160" s="26">
+        <v>2.4654206154956828</v>
+      </c>
+      <c r="CU160" s="26">
+        <v>2.3718421724811463</v>
+      </c>
       <c r="CV160" s="11"/>
       <c r="CW160" s="11"/>
       <c r="CX160" s="11"/>
@@ -30693,22 +30840,24 @@
       <c r="CO161" s="26">
         <v>4.0188063188814152</v>
       </c>
-      <c r="CP161" s="25">
+      <c r="CP161" s="26">
         <v>4.1655784852578552</v>
       </c>
-      <c r="CQ161" s="25">
+      <c r="CQ161" s="26">
         <v>3.6238113583803049</v>
       </c>
-      <c r="CR161" s="25">
+      <c r="CR161" s="26">
         <v>5.3149467589174169</v>
       </c>
-      <c r="CS161" s="25">
+      <c r="CS161" s="26">
         <v>4.0650388058573528</v>
       </c>
-      <c r="CT161" s="25">
-        <v>4.2599874358339997</v>
-      </c>
-      <c r="CU161" s="11"/>
+      <c r="CT161" s="26">
+        <v>4.2560300883271545</v>
+      </c>
+      <c r="CU161" s="26">
+        <v>3.7609279058307492</v>
+      </c>
       <c r="CV161" s="11"/>
       <c r="CW161" s="11"/>
       <c r="CX161" s="11"/>
@@ -31044,22 +31193,24 @@
       <c r="CO162" s="26">
         <v>7.7405906149328807</v>
       </c>
-      <c r="CP162" s="25">
+      <c r="CP162" s="26">
         <v>10.711524024750984</v>
       </c>
-      <c r="CQ162" s="25">
+      <c r="CQ162" s="26">
         <v>8.8828325757876172</v>
       </c>
-      <c r="CR162" s="25">
+      <c r="CR162" s="26">
         <v>11.549764271784989</v>
       </c>
-      <c r="CS162" s="25">
+      <c r="CS162" s="26">
         <v>7.9246405228984216</v>
       </c>
-      <c r="CT162" s="25">
-        <v>10.743555417878939</v>
-      </c>
-      <c r="CU162" s="11"/>
+      <c r="CT162" s="26">
+        <v>10.758835452131986</v>
+      </c>
+      <c r="CU162" s="26">
+        <v>9.4161405346806877</v>
+      </c>
       <c r="CV162" s="11"/>
       <c r="CW162" s="11"/>
       <c r="CX162" s="11"/>
@@ -31395,22 +31546,24 @@
       <c r="CO163" s="26">
         <v>2.6189212692228518</v>
       </c>
-      <c r="CP163" s="25">
+      <c r="CP163" s="26">
         <v>2.8930272292598871</v>
       </c>
-      <c r="CQ163" s="25">
+      <c r="CQ163" s="26">
         <v>3.0909185852496841</v>
       </c>
-      <c r="CR163" s="25">
+      <c r="CR163" s="26">
         <v>2.2508887443653709</v>
       </c>
-      <c r="CS163" s="25">
+      <c r="CS163" s="26">
         <v>2.5190493587475671</v>
       </c>
-      <c r="CT163" s="25">
-        <v>2.8122218386827669</v>
-      </c>
-      <c r="CU163" s="11"/>
+      <c r="CT163" s="26">
+        <v>2.8126905389433627</v>
+      </c>
+      <c r="CU163" s="26">
+        <v>3.0621477333766776</v>
+      </c>
       <c r="CV163" s="11"/>
       <c r="CW163" s="11"/>
       <c r="CX163" s="11"/>
@@ -31746,22 +31899,24 @@
       <c r="CO164" s="26">
         <v>1.7471023078264252</v>
       </c>
-      <c r="CP164" s="25">
+      <c r="CP164" s="26">
         <v>1.7042452349568096</v>
       </c>
-      <c r="CQ164" s="25">
+      <c r="CQ164" s="26">
         <v>1.2142981157007762</v>
       </c>
-      <c r="CR164" s="25">
+      <c r="CR164" s="26">
         <v>1.3926567450645428</v>
       </c>
-      <c r="CS164" s="25">
+      <c r="CS164" s="26">
         <v>1.8013750376547548</v>
       </c>
-      <c r="CT164" s="25">
-        <v>1.7733664355663661</v>
-      </c>
-      <c r="CU164" s="11"/>
+      <c r="CT164" s="26">
+        <v>1.7898417345833855</v>
+      </c>
+      <c r="CU164" s="26">
+        <v>1.3738608142333419</v>
+      </c>
       <c r="CV164" s="11"/>
       <c r="CW164" s="11"/>
       <c r="CX164" s="11"/>
@@ -32097,22 +32252,24 @@
       <c r="CO165" s="26">
         <v>4.5211469679515659</v>
       </c>
-      <c r="CP165" s="25">
+      <c r="CP165" s="26">
         <v>5.153138755919608</v>
       </c>
-      <c r="CQ165" s="25">
+      <c r="CQ165" s="26">
         <v>4.7937601109945138</v>
       </c>
-      <c r="CR165" s="25">
+      <c r="CR165" s="26">
         <v>5.3369055358635444</v>
       </c>
-      <c r="CS165" s="25">
+      <c r="CS165" s="26">
         <v>4.6261036531835904</v>
       </c>
-      <c r="CT165" s="25">
-        <v>5.1315616011409926</v>
-      </c>
-      <c r="CU165" s="11"/>
+      <c r="CT165" s="26">
+        <v>5.1326482976275463</v>
+      </c>
+      <c r="CU165" s="26">
+        <v>4.5971800412568893</v>
+      </c>
       <c r="CV165" s="11"/>
       <c r="CW165" s="11"/>
       <c r="CX165" s="11"/>
@@ -32448,22 +32605,24 @@
       <c r="CO166" s="26">
         <v>7.6695494628659464</v>
       </c>
-      <c r="CP166" s="25">
+      <c r="CP166" s="26">
         <v>9.6188348001646844</v>
       </c>
-      <c r="CQ166" s="25">
+      <c r="CQ166" s="26">
         <v>5.6296600386073568</v>
       </c>
-      <c r="CR166" s="25">
+      <c r="CR166" s="26">
         <v>7.8059632464072122</v>
       </c>
-      <c r="CS166" s="25">
+      <c r="CS166" s="26">
         <v>8.5657027741046523</v>
       </c>
-      <c r="CT166" s="25">
-        <v>10.493131290531839</v>
-      </c>
-      <c r="CU166" s="11"/>
+      <c r="CT166" s="26">
+        <v>10.490405369774477</v>
+      </c>
+      <c r="CU166" s="26">
+        <v>5.9748749054701022</v>
+      </c>
       <c r="CV166" s="11"/>
       <c r="CW166" s="11"/>
       <c r="CX166" s="11"/>
@@ -32799,22 +32958,24 @@
       <c r="CO167" s="26">
         <v>14.113864684169855</v>
       </c>
-      <c r="CP167" s="25">
+      <c r="CP167" s="26">
         <v>14.087761241801958</v>
       </c>
-      <c r="CQ167" s="25">
+      <c r="CQ167" s="26">
         <v>13.412962528920266</v>
       </c>
-      <c r="CR167" s="25">
+      <c r="CR167" s="26">
         <v>13.276679159163452</v>
       </c>
-      <c r="CS167" s="25">
+      <c r="CS167" s="26">
         <v>14.564294579806006</v>
       </c>
-      <c r="CT167" s="25">
-        <v>14.317963343884902</v>
-      </c>
-      <c r="CU167" s="11"/>
+      <c r="CT167" s="26">
+        <v>14.246907360193131</v>
+      </c>
+      <c r="CU167" s="26">
+        <v>13.751584493426773</v>
+      </c>
       <c r="CV167" s="11"/>
       <c r="CW167" s="11"/>
       <c r="CX167" s="11"/>
@@ -32963,11 +33124,11 @@
       <c r="CM168" s="11"/>
       <c r="CN168" s="11"/>
       <c r="CO168" s="11"/>
-      <c r="CP168" s="13"/>
-      <c r="CQ168" s="13"/>
-      <c r="CR168" s="13"/>
-      <c r="CS168" s="13"/>
-      <c r="CT168" s="13"/>
+      <c r="CP168" s="11"/>
+      <c r="CQ168" s="11"/>
+      <c r="CR168" s="11"/>
+      <c r="CS168" s="11"/>
+      <c r="CT168" s="11"/>
       <c r="CU168" s="11"/>
       <c r="CV168" s="11"/>
       <c r="CW168" s="11"/>
@@ -33304,22 +33465,24 @@
       <c r="CO169" s="26">
         <v>100</v>
       </c>
-      <c r="CP169" s="25">
+      <c r="CP169" s="26">
         <v>100</v>
       </c>
-      <c r="CQ169" s="25">
+      <c r="CQ169" s="26">
         <v>100</v>
       </c>
-      <c r="CR169" s="25">
+      <c r="CR169" s="26">
         <v>100</v>
       </c>
-      <c r="CS169" s="25">
+      <c r="CS169" s="26">
         <v>100</v>
       </c>
-      <c r="CT169" s="25">
+      <c r="CT169" s="26">
         <v>100</v>
       </c>
-      <c r="CU169" s="11"/>
+      <c r="CU169" s="26">
+        <v>100</v>
+      </c>
       <c r="CV169" s="11"/>
       <c r="CW169" s="11"/>
       <c r="CX169" s="11"/>
@@ -33469,11 +33632,12 @@
       <c r="CM170" s="16"/>
       <c r="CN170" s="16"/>
       <c r="CO170" s="16"/>
-      <c r="CP170" s="17"/>
-      <c r="CQ170" s="17"/>
-      <c r="CR170" s="17"/>
-      <c r="CS170" s="17"/>
-      <c r="CT170" s="17"/>
+      <c r="CP170" s="16"/>
+      <c r="CQ170" s="16"/>
+      <c r="CR170" s="16"/>
+      <c r="CS170" s="16"/>
+      <c r="CT170" s="16"/>
+      <c r="CU170" s="16"/>
     </row>
     <row r="171" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A171" s="18" t="s">
@@ -33573,11 +33737,11 @@
       <c r="CM172" s="11"/>
       <c r="CN172" s="11"/>
       <c r="CO172" s="11"/>
-      <c r="CP172" s="13"/>
-      <c r="CQ172" s="13"/>
-      <c r="CR172" s="13"/>
-      <c r="CS172" s="13"/>
-      <c r="CT172" s="13"/>
+      <c r="CP172" s="11"/>
+      <c r="CQ172" s="11"/>
+      <c r="CR172" s="11"/>
+      <c r="CS172" s="11"/>
+      <c r="CT172" s="11"/>
       <c r="CU172" s="11"/>
       <c r="CV172" s="11"/>
       <c r="CW172" s="11"/>
@@ -33727,11 +33891,11 @@
       <c r="CM173" s="11"/>
       <c r="CN173" s="11"/>
       <c r="CO173" s="11"/>
-      <c r="CP173" s="13"/>
-      <c r="CQ173" s="13"/>
-      <c r="CR173" s="13"/>
-      <c r="CS173" s="13"/>
-      <c r="CT173" s="13"/>
+      <c r="CP173" s="11"/>
+      <c r="CQ173" s="11"/>
+      <c r="CR173" s="11"/>
+      <c r="CS173" s="11"/>
+      <c r="CT173" s="11"/>
       <c r="CU173" s="11"/>
       <c r="CV173" s="11"/>
       <c r="CW173" s="11"/>
@@ -33800,7 +33964,7 @@
     </row>
     <row r="176" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="178" spans="1:153" x14ac:dyDescent="0.2">
@@ -33810,7 +33974,7 @@
     </row>
     <row r="179" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="180" spans="1:153" x14ac:dyDescent="0.2">
@@ -33820,132 +33984,132 @@
     </row>
     <row r="182" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A182" s="4"/>
-      <c r="B182" s="43">
+      <c r="B182" s="37">
         <v>2000</v>
       </c>
-      <c r="C182" s="43"/>
-      <c r="D182" s="43"/>
-      <c r="E182" s="43"/>
-      <c r="F182" s="43">
+      <c r="C182" s="37"/>
+      <c r="D182" s="37"/>
+      <c r="E182" s="37"/>
+      <c r="F182" s="37">
         <v>2001</v>
       </c>
-      <c r="G182" s="43"/>
-      <c r="H182" s="43"/>
-      <c r="I182" s="43"/>
-      <c r="J182" s="43">
+      <c r="G182" s="37"/>
+      <c r="H182" s="37"/>
+      <c r="I182" s="37"/>
+      <c r="J182" s="37">
         <v>2002</v>
       </c>
-      <c r="K182" s="43"/>
-      <c r="L182" s="43"/>
-      <c r="M182" s="43"/>
-      <c r="N182" s="43">
+      <c r="K182" s="37"/>
+      <c r="L182" s="37"/>
+      <c r="M182" s="37"/>
+      <c r="N182" s="37">
         <v>2003</v>
       </c>
-      <c r="O182" s="43"/>
-      <c r="P182" s="43"/>
-      <c r="Q182" s="43"/>
-      <c r="R182" s="43">
+      <c r="O182" s="37"/>
+      <c r="P182" s="37"/>
+      <c r="Q182" s="37"/>
+      <c r="R182" s="37">
         <v>2004</v>
       </c>
-      <c r="S182" s="43"/>
-      <c r="T182" s="43"/>
-      <c r="U182" s="43"/>
-      <c r="V182" s="43">
+      <c r="S182" s="37"/>
+      <c r="T182" s="37"/>
+      <c r="U182" s="37"/>
+      <c r="V182" s="37">
         <v>2005</v>
       </c>
-      <c r="W182" s="43"/>
-      <c r="X182" s="43"/>
-      <c r="Y182" s="43"/>
-      <c r="Z182" s="43">
+      <c r="W182" s="37"/>
+      <c r="X182" s="37"/>
+      <c r="Y182" s="37"/>
+      <c r="Z182" s="37">
         <v>2006</v>
       </c>
-      <c r="AA182" s="43"/>
-      <c r="AB182" s="43"/>
-      <c r="AC182" s="43"/>
-      <c r="AD182" s="43">
+      <c r="AA182" s="37"/>
+      <c r="AB182" s="37"/>
+      <c r="AC182" s="37"/>
+      <c r="AD182" s="37">
         <v>2007</v>
       </c>
-      <c r="AE182" s="43"/>
-      <c r="AF182" s="43"/>
-      <c r="AG182" s="43"/>
-      <c r="AH182" s="43">
+      <c r="AE182" s="37"/>
+      <c r="AF182" s="37"/>
+      <c r="AG182" s="37"/>
+      <c r="AH182" s="37">
         <v>2008</v>
       </c>
-      <c r="AI182" s="43"/>
-      <c r="AJ182" s="43"/>
-      <c r="AK182" s="43"/>
-      <c r="AL182" s="43">
+      <c r="AI182" s="37"/>
+      <c r="AJ182" s="37"/>
+      <c r="AK182" s="37"/>
+      <c r="AL182" s="37">
         <v>2009</v>
       </c>
-      <c r="AM182" s="43"/>
-      <c r="AN182" s="43"/>
-      <c r="AO182" s="43"/>
-      <c r="AP182" s="43">
+      <c r="AM182" s="37"/>
+      <c r="AN182" s="37"/>
+      <c r="AO182" s="37"/>
+      <c r="AP182" s="37">
         <v>2010</v>
       </c>
-      <c r="AQ182" s="43"/>
-      <c r="AR182" s="43"/>
-      <c r="AS182" s="43"/>
-      <c r="AT182" s="43">
+      <c r="AQ182" s="37"/>
+      <c r="AR182" s="37"/>
+      <c r="AS182" s="37"/>
+      <c r="AT182" s="37">
         <v>2011</v>
       </c>
-      <c r="AU182" s="43"/>
-      <c r="AV182" s="43"/>
-      <c r="AW182" s="43"/>
-      <c r="AX182" s="43">
+      <c r="AU182" s="37"/>
+      <c r="AV182" s="37"/>
+      <c r="AW182" s="37"/>
+      <c r="AX182" s="37">
         <v>2012</v>
       </c>
-      <c r="AY182" s="43"/>
-      <c r="AZ182" s="43"/>
-      <c r="BA182" s="43"/>
-      <c r="BB182" s="43">
+      <c r="AY182" s="37"/>
+      <c r="AZ182" s="37"/>
+      <c r="BA182" s="37"/>
+      <c r="BB182" s="37">
         <v>2013</v>
       </c>
-      <c r="BC182" s="43"/>
-      <c r="BD182" s="43"/>
-      <c r="BE182" s="43"/>
-      <c r="BF182" s="43">
+      <c r="BC182" s="37"/>
+      <c r="BD182" s="37"/>
+      <c r="BE182" s="37"/>
+      <c r="BF182" s="37">
         <v>2014</v>
       </c>
-      <c r="BG182" s="43"/>
-      <c r="BH182" s="43"/>
-      <c r="BI182" s="43"/>
-      <c r="BJ182" s="43">
+      <c r="BG182" s="37"/>
+      <c r="BH182" s="37"/>
+      <c r="BI182" s="37"/>
+      <c r="BJ182" s="37">
         <v>2015</v>
       </c>
-      <c r="BK182" s="43"/>
-      <c r="BL182" s="43"/>
-      <c r="BM182" s="43"/>
-      <c r="BN182" s="43">
+      <c r="BK182" s="37"/>
+      <c r="BL182" s="37"/>
+      <c r="BM182" s="37"/>
+      <c r="BN182" s="37">
         <v>2016</v>
       </c>
-      <c r="BO182" s="43"/>
-      <c r="BP182" s="43"/>
-      <c r="BQ182" s="43"/>
-      <c r="BR182" s="42">
+      <c r="BO182" s="37"/>
+      <c r="BP182" s="37"/>
+      <c r="BQ182" s="37"/>
+      <c r="BR182" s="38">
         <v>2017</v>
       </c>
-      <c r="BS182" s="42"/>
-      <c r="BT182" s="42"/>
-      <c r="BU182" s="42"/>
-      <c r="BV182" s="42">
+      <c r="BS182" s="38"/>
+      <c r="BT182" s="38"/>
+      <c r="BU182" s="38"/>
+      <c r="BV182" s="38">
         <v>2018</v>
       </c>
-      <c r="BW182" s="42"/>
-      <c r="BX182" s="42"/>
-      <c r="BY182" s="42"/>
-      <c r="BZ182" s="42">
+      <c r="BW182" s="38"/>
+      <c r="BX182" s="38"/>
+      <c r="BY182" s="38"/>
+      <c r="BZ182" s="38">
         <v>2019</v>
       </c>
-      <c r="CA182" s="42"/>
-      <c r="CB182" s="42"/>
-      <c r="CC182" s="42"/>
-      <c r="CD182" s="42">
+      <c r="CA182" s="38"/>
+      <c r="CB182" s="38"/>
+      <c r="CC182" s="38"/>
+      <c r="CD182" s="38">
         <v>2020</v>
       </c>
-      <c r="CE182" s="42"/>
-      <c r="CF182" s="42"/>
-      <c r="CG182" s="42"/>
+      <c r="CE182" s="38"/>
+      <c r="CF182" s="38"/>
+      <c r="CG182" s="38"/>
       <c r="CH182" s="33">
         <v>2021</v>
       </c>
@@ -33958,15 +34122,16 @@
       <c r="CM182" s="33"/>
       <c r="CN182" s="33"/>
       <c r="CO182" s="33"/>
-      <c r="CP182" s="35">
+      <c r="CP182" s="33">
         <v>2023</v>
       </c>
-      <c r="CQ182" s="35"/>
-      <c r="CR182" s="35"/>
-      <c r="CS182" s="35"/>
-      <c r="CT182" s="35">
+      <c r="CQ182" s="33"/>
+      <c r="CR182" s="33"/>
+      <c r="CS182" s="33"/>
+      <c r="CT182" s="33">
         <v>2024</v>
       </c>
+      <c r="CU182" s="33"/>
     </row>
     <row r="183" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
@@ -34248,20 +34413,23 @@
       <c r="CO183" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CP183" s="6" t="s">
+      <c r="CP183" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="CQ183" s="6" t="s">
+      <c r="CQ183" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="CR183" s="6" t="s">
+      <c r="CR183" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="CS183" s="6" t="s">
+      <c r="CS183" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CT183" s="6" t="s">
+      <c r="CT183" s="7" t="s">
         <v>19</v>
+      </c>
+      <c r="CU183" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="184" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -34547,22 +34715,24 @@
       <c r="CO185" s="26">
         <v>38.467736241135981</v>
       </c>
-      <c r="CP185" s="25">
+      <c r="CP185" s="26">
         <v>34.262712201520273</v>
       </c>
-      <c r="CQ185" s="25">
+      <c r="CQ185" s="26">
         <v>38.015837739265748</v>
       </c>
-      <c r="CR185" s="25">
+      <c r="CR185" s="26">
         <v>33.398454332898446</v>
       </c>
-      <c r="CS185" s="25">
+      <c r="CS185" s="26">
         <v>36.732083386928984</v>
       </c>
-      <c r="CT185" s="25">
-        <v>32.933212403140537</v>
-      </c>
-      <c r="CU185" s="11"/>
+      <c r="CT185" s="26">
+        <v>32.896965518307603</v>
+      </c>
+      <c r="CU185" s="26">
+        <v>36.502312343596714</v>
+      </c>
       <c r="CV185" s="11"/>
       <c r="CW185" s="11"/>
       <c r="CX185" s="11"/>
@@ -34898,22 +35068,24 @@
       <c r="CO186" s="26">
         <v>1.6438620621132822</v>
       </c>
-      <c r="CP186" s="25">
+      <c r="CP186" s="26">
         <v>1.3612485130898406</v>
       </c>
-      <c r="CQ186" s="25">
+      <c r="CQ186" s="26">
         <v>1.2401748310693561</v>
       </c>
-      <c r="CR186" s="25">
+      <c r="CR186" s="26">
         <v>1.2065606718082675</v>
       </c>
-      <c r="CS186" s="25">
+      <c r="CS186" s="26">
         <v>1.5705858628733096</v>
       </c>
-      <c r="CT186" s="25">
-        <v>1.2657353935808726</v>
-      </c>
-      <c r="CU186" s="11"/>
+      <c r="CT186" s="26">
+        <v>1.2768111272915197</v>
+      </c>
+      <c r="CU186" s="26">
+        <v>1.2242640093258526</v>
+      </c>
       <c r="CV186" s="11"/>
       <c r="CW186" s="11"/>
       <c r="CX186" s="11"/>
@@ -35249,22 +35421,24 @@
       <c r="CO187" s="26">
         <v>1.9181928295153912</v>
       </c>
-      <c r="CP187" s="25">
+      <c r="CP187" s="26">
         <v>1.4390014706376206</v>
       </c>
-      <c r="CQ187" s="25">
+      <c r="CQ187" s="26">
         <v>1.1485379405181599</v>
       </c>
-      <c r="CR187" s="25">
+      <c r="CR187" s="26">
         <v>1.5890058685565911</v>
       </c>
-      <c r="CS187" s="25">
+      <c r="CS187" s="26">
         <v>1.7855773806759649</v>
       </c>
-      <c r="CT187" s="25">
-        <v>1.3844355070202137</v>
-      </c>
-      <c r="CU187" s="11"/>
+      <c r="CT187" s="26">
+        <v>1.3957663264400721</v>
+      </c>
+      <c r="CU187" s="26">
+        <v>1.0453461945772764</v>
+      </c>
       <c r="CV187" s="11"/>
       <c r="CW187" s="11"/>
       <c r="CX187" s="11"/>
@@ -35600,22 +35774,24 @@
       <c r="CO188" s="26">
         <v>11.035445248462167</v>
       </c>
-      <c r="CP188" s="25">
+      <c r="CP188" s="26">
         <v>11.937599870041813</v>
       </c>
-      <c r="CQ188" s="25">
+      <c r="CQ188" s="26">
         <v>15.451567122612181</v>
       </c>
-      <c r="CR188" s="25">
+      <c r="CR188" s="26">
         <v>12.473626961631645</v>
       </c>
-      <c r="CS188" s="25">
+      <c r="CS188" s="26">
         <v>10.941797472386442</v>
       </c>
-      <c r="CT188" s="25">
-        <v>12.24153310081447</v>
-      </c>
-      <c r="CU188" s="11"/>
+      <c r="CT188" s="26">
+        <v>12.264604298440004</v>
+      </c>
+      <c r="CU188" s="26">
+        <v>15.648265889456409</v>
+      </c>
       <c r="CV188" s="11"/>
       <c r="CW188" s="11"/>
       <c r="CX188" s="11"/>
@@ -35951,22 +36127,24 @@
       <c r="CO189" s="26">
         <v>2.7859743637070027</v>
       </c>
-      <c r="CP189" s="25">
+      <c r="CP189" s="26">
         <v>2.5343373606683341</v>
       </c>
-      <c r="CQ189" s="25">
+      <c r="CQ189" s="26">
         <v>2.4938966530908906</v>
       </c>
-      <c r="CR189" s="25">
+      <c r="CR189" s="26">
         <v>2.9168145942803743</v>
       </c>
-      <c r="CS189" s="25">
+      <c r="CS189" s="26">
         <v>2.6603393097202117</v>
       </c>
-      <c r="CT189" s="25">
-        <v>2.4550056700474023</v>
-      </c>
-      <c r="CU189" s="11"/>
+      <c r="CT189" s="26">
+        <v>2.4896474153370489</v>
+      </c>
+      <c r="CU189" s="26">
+        <v>2.4290186156170015</v>
+      </c>
       <c r="CV189" s="11"/>
       <c r="CW189" s="11"/>
       <c r="CX189" s="11"/>
@@ -36302,22 +36480,24 @@
       <c r="CO190" s="26">
         <v>4.0741012692991214</v>
       </c>
-      <c r="CP190" s="25">
+      <c r="CP190" s="26">
         <v>4.4221886133020725</v>
       </c>
-      <c r="CQ190" s="25">
+      <c r="CQ190" s="26">
         <v>3.8517257228880259</v>
       </c>
-      <c r="CR190" s="25">
+      <c r="CR190" s="26">
         <v>5.4968565924886903</v>
       </c>
-      <c r="CS190" s="25">
+      <c r="CS190" s="26">
         <v>4.1310688422620627</v>
       </c>
-      <c r="CT190" s="25">
-        <v>4.5339119525276859</v>
-      </c>
-      <c r="CU190" s="11"/>
+      <c r="CT190" s="26">
+        <v>4.5296530591382158</v>
+      </c>
+      <c r="CU190" s="26">
+        <v>4.0319667681817295</v>
+      </c>
       <c r="CV190" s="11"/>
       <c r="CW190" s="11"/>
       <c r="CX190" s="11"/>
@@ -36653,22 +36833,24 @@
       <c r="CO191" s="26">
         <v>7.0949016171230577</v>
       </c>
-      <c r="CP191" s="25">
+      <c r="CP191" s="26">
         <v>9.677635593496273</v>
       </c>
-      <c r="CQ191" s="25">
+      <c r="CQ191" s="26">
         <v>8.619390771103177</v>
       </c>
-      <c r="CR191" s="25">
+      <c r="CR191" s="26">
         <v>10.119187133983401</v>
       </c>
-      <c r="CS191" s="25">
+      <c r="CS191" s="26">
         <v>7.5430508371027623</v>
       </c>
-      <c r="CT191" s="25">
-        <v>9.9410490798497211</v>
-      </c>
-      <c r="CU191" s="11"/>
+      <c r="CT191" s="26">
+        <v>9.9550842744566967</v>
+      </c>
+      <c r="CU191" s="26">
+        <v>9.2092631326160408</v>
+      </c>
       <c r="CV191" s="11"/>
       <c r="CW191" s="11"/>
       <c r="CX191" s="11"/>
@@ -37004,22 +37186,24 @@
       <c r="CO192" s="26">
         <v>3.1046289827128981</v>
       </c>
-      <c r="CP192" s="25">
+      <c r="CP192" s="26">
         <v>3.2746288165759792</v>
       </c>
-      <c r="CQ192" s="25">
+      <c r="CQ192" s="26">
         <v>3.6306251453589762</v>
       </c>
-      <c r="CR192" s="25">
+      <c r="CR192" s="26">
         <v>2.7450103493577496</v>
       </c>
-      <c r="CS192" s="25">
+      <c r="CS192" s="26">
         <v>3.0883956129061092</v>
       </c>
-      <c r="CT192" s="25">
-        <v>3.2791133748166881</v>
-      </c>
-      <c r="CU192" s="11"/>
+      <c r="CT192" s="26">
+        <v>3.2796258010377435</v>
+      </c>
+      <c r="CU192" s="26">
+        <v>3.7173432608915915</v>
+      </c>
       <c r="CV192" s="11"/>
       <c r="CW192" s="11"/>
       <c r="CX192" s="11"/>
@@ -37355,22 +37539,24 @@
       <c r="CO193" s="26">
         <v>1.8851131643095567</v>
       </c>
-      <c r="CP193" s="25">
+      <c r="CP193" s="26">
         <v>1.8699071887499783</v>
       </c>
-      <c r="CQ193" s="25">
+      <c r="CQ193" s="26">
         <v>1.3552765865301848</v>
       </c>
-      <c r="CR193" s="25">
+      <c r="CR193" s="26">
         <v>1.6044658553968614</v>
       </c>
-      <c r="CS193" s="25">
+      <c r="CS193" s="26">
         <v>1.9321984551199538</v>
       </c>
-      <c r="CT193" s="25">
-        <v>1.9375064063571652</v>
-      </c>
-      <c r="CU193" s="11"/>
+      <c r="CT193" s="26">
+        <v>1.9554863072860775</v>
+      </c>
+      <c r="CU193" s="26">
+        <v>1.5373213697958401</v>
+      </c>
       <c r="CV193" s="11"/>
       <c r="CW193" s="11"/>
       <c r="CX193" s="11"/>
@@ -37706,22 +37892,24 @@
       <c r="CO194" s="26">
         <v>5.1095564517014749</v>
       </c>
-      <c r="CP194" s="25">
+      <c r="CP194" s="26">
         <v>5.7005434720038473</v>
       </c>
-      <c r="CQ194" s="25">
+      <c r="CQ194" s="26">
         <v>5.2387090946108348</v>
       </c>
-      <c r="CR194" s="25">
+      <c r="CR194" s="26">
         <v>5.8387089883616214</v>
       </c>
-      <c r="CS194" s="25">
+      <c r="CS194" s="26">
         <v>5.2514147486778802</v>
       </c>
-      <c r="CT194" s="25">
-        <v>5.6587362470774858</v>
-      </c>
-      <c r="CU194" s="11"/>
+      <c r="CT194" s="26">
+        <v>5.6598757525951848</v>
+      </c>
+      <c r="CU194" s="26">
+        <v>5.0275964540248257</v>
+      </c>
       <c r="CV194" s="11"/>
       <c r="CW194" s="11"/>
       <c r="CX194" s="11"/>
@@ -38057,22 +38245,24 @@
       <c r="CO195" s="26">
         <v>7.6492882747669801</v>
       </c>
-      <c r="CP195" s="25">
+      <c r="CP195" s="26">
         <v>9.5216131452697201</v>
       </c>
-      <c r="CQ195" s="25">
+      <c r="CQ195" s="26">
         <v>5.7804945110082988</v>
       </c>
-      <c r="CR195" s="25">
+      <c r="CR195" s="26">
         <v>7.6565797444036239</v>
       </c>
-      <c r="CS195" s="25">
+      <c r="CS195" s="26">
         <v>8.3987619485502396</v>
       </c>
-      <c r="CT195" s="25">
-        <v>10.187680533251829</v>
-      </c>
-      <c r="CU195" s="11"/>
+      <c r="CT195" s="26">
+        <v>10.184928099845413</v>
+      </c>
+      <c r="CU195" s="26">
+        <v>6.0531434365801555</v>
+      </c>
       <c r="CV195" s="11"/>
       <c r="CW195" s="11"/>
       <c r="CX195" s="11"/>
@@ -38408,22 +38598,24 @@
       <c r="CO196" s="26">
         <v>15.231199495153092</v>
       </c>
-      <c r="CP196" s="25">
+      <c r="CP196" s="26">
         <v>13.998583754644262</v>
       </c>
-      <c r="CQ196" s="25">
+      <c r="CQ196" s="26">
         <v>13.173763881944165</v>
       </c>
-      <c r="CR196" s="25">
+      <c r="CR196" s="26">
         <v>14.954728906832745</v>
       </c>
-      <c r="CS196" s="25">
+      <c r="CS196" s="26">
         <v>15.964726142796071</v>
       </c>
-      <c r="CT196" s="25">
-        <v>14.18208033151593</v>
-      </c>
-      <c r="CU196" s="11"/>
+      <c r="CT196" s="26">
+        <v>14.11155201982441</v>
+      </c>
+      <c r="CU196" s="26">
+        <v>13.57415852533657</v>
+      </c>
       <c r="CV196" s="11"/>
       <c r="CW196" s="11"/>
       <c r="CX196" s="11"/>
@@ -38572,11 +38764,11 @@
       <c r="CM197" s="11"/>
       <c r="CN197" s="11"/>
       <c r="CO197" s="11"/>
-      <c r="CP197" s="13"/>
-      <c r="CQ197" s="13"/>
-      <c r="CR197" s="13"/>
-      <c r="CS197" s="13"/>
-      <c r="CT197" s="13"/>
+      <c r="CP197" s="11"/>
+      <c r="CQ197" s="11"/>
+      <c r="CR197" s="11"/>
+      <c r="CS197" s="11"/>
+      <c r="CT197" s="11"/>
       <c r="CU197" s="11"/>
       <c r="CV197" s="11"/>
       <c r="CW197" s="11"/>
@@ -38913,22 +39105,24 @@
       <c r="CO198" s="26">
         <v>100</v>
       </c>
-      <c r="CP198" s="25">
+      <c r="CP198" s="26">
         <v>100</v>
       </c>
-      <c r="CQ198" s="25">
+      <c r="CQ198" s="26">
         <v>100</v>
       </c>
-      <c r="CR198" s="25">
+      <c r="CR198" s="26">
         <v>100</v>
       </c>
-      <c r="CS198" s="25">
+      <c r="CS198" s="26">
         <v>100</v>
       </c>
-      <c r="CT198" s="25">
+      <c r="CT198" s="26">
         <v>100</v>
       </c>
-      <c r="CU198" s="11"/>
+      <c r="CU198" s="26">
+        <v>100</v>
+      </c>
       <c r="CV198" s="11"/>
       <c r="CW198" s="11"/>
       <c r="CX198" s="11"/>
@@ -39078,11 +39272,12 @@
       <c r="CM199" s="16"/>
       <c r="CN199" s="16"/>
       <c r="CO199" s="16"/>
-      <c r="CP199" s="17"/>
-      <c r="CQ199" s="17"/>
-      <c r="CR199" s="17"/>
-      <c r="CS199" s="17"/>
-      <c r="CT199" s="17"/>
+      <c r="CP199" s="16"/>
+      <c r="CQ199" s="16"/>
+      <c r="CR199" s="16"/>
+      <c r="CS199" s="16"/>
+      <c r="CT199" s="16"/>
+      <c r="CU199" s="16"/>
     </row>
     <row r="200" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A200" s="18" t="s">
@@ -39183,12 +39378,12 @@
       <c r="CM201" s="1"/>
       <c r="CN201" s="1"/>
       <c r="CO201" s="1"/>
-      <c r="CP201" s="2"/>
-      <c r="CQ201" s="2"/>
-      <c r="CR201" s="2"/>
-      <c r="CS201" s="2"/>
-      <c r="CT201" s="2"/>
-      <c r="CU201" s="28"/>
+      <c r="CP201" s="1"/>
+      <c r="CQ201" s="1"/>
+      <c r="CR201" s="1"/>
+      <c r="CS201" s="1"/>
+      <c r="CT201" s="1"/>
+      <c r="CU201" s="1"/>
       <c r="CV201" s="28"/>
       <c r="CW201" s="28"/>
       <c r="CX201" s="28"/>
@@ -39338,12 +39533,12 @@
       <c r="CM202" s="1"/>
       <c r="CN202" s="1"/>
       <c r="CO202" s="1"/>
-      <c r="CP202" s="2"/>
-      <c r="CQ202" s="2"/>
-      <c r="CR202" s="2"/>
-      <c r="CS202" s="2"/>
-      <c r="CT202" s="2"/>
-      <c r="CU202" s="28"/>
+      <c r="CP202" s="1"/>
+      <c r="CQ202" s="1"/>
+      <c r="CR202" s="1"/>
+      <c r="CS202" s="1"/>
+      <c r="CT202" s="1"/>
+      <c r="CU202" s="1"/>
       <c r="CV202" s="28"/>
       <c r="CW202" s="28"/>
       <c r="CX202" s="28"/>
@@ -39401,51 +39596,84 @@
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="AH124:AK124"/>
-    <mergeCell ref="BR182:BU182"/>
-    <mergeCell ref="BV182:BY182"/>
-    <mergeCell ref="BZ124:CC124"/>
-    <mergeCell ref="BR124:BU124"/>
-    <mergeCell ref="BV124:BY124"/>
-    <mergeCell ref="BR153:BU153"/>
-    <mergeCell ref="BV153:BY153"/>
-    <mergeCell ref="BZ153:CC153"/>
-    <mergeCell ref="AH153:AK153"/>
-    <mergeCell ref="BN182:BQ182"/>
-    <mergeCell ref="BB153:BE153"/>
-    <mergeCell ref="BF153:BI153"/>
-    <mergeCell ref="BJ153:BM153"/>
-    <mergeCell ref="BN153:BQ153"/>
-    <mergeCell ref="AP153:AS153"/>
-    <mergeCell ref="AT153:AW153"/>
-    <mergeCell ref="AX153:BA153"/>
-    <mergeCell ref="BJ96:BM96"/>
-    <mergeCell ref="BB38:BE38"/>
-    <mergeCell ref="BJ38:BM38"/>
-    <mergeCell ref="BF124:BI124"/>
-    <mergeCell ref="BJ124:BM124"/>
-    <mergeCell ref="BN124:BQ124"/>
-    <mergeCell ref="BN67:BQ67"/>
-    <mergeCell ref="BF38:BI38"/>
-    <mergeCell ref="AX38:BA38"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD38:CG38"/>
-    <mergeCell ref="CD124:CG124"/>
-    <mergeCell ref="CD153:CG153"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BR67:BU67"/>
-    <mergeCell ref="BV67:BY67"/>
-    <mergeCell ref="BR96:BU96"/>
-    <mergeCell ref="BV96:BY96"/>
-    <mergeCell ref="BZ38:CC38"/>
-    <mergeCell ref="CD67:CG67"/>
-    <mergeCell ref="CD96:CG96"/>
-    <mergeCell ref="BR38:BU38"/>
-    <mergeCell ref="BV38:BY38"/>
-    <mergeCell ref="BZ67:CC67"/>
-    <mergeCell ref="BZ96:CC96"/>
+    <mergeCell ref="CD182:CG182"/>
+    <mergeCell ref="B182:E182"/>
+    <mergeCell ref="F182:I182"/>
+    <mergeCell ref="J182:M182"/>
+    <mergeCell ref="N182:Q182"/>
+    <mergeCell ref="R182:U182"/>
+    <mergeCell ref="V182:Y182"/>
+    <mergeCell ref="Z182:AC182"/>
+    <mergeCell ref="AD182:AG182"/>
+    <mergeCell ref="AH182:AK182"/>
+    <mergeCell ref="AX182:BA182"/>
+    <mergeCell ref="BB182:BE182"/>
+    <mergeCell ref="BZ182:CC182"/>
+    <mergeCell ref="AL182:AO182"/>
+    <mergeCell ref="AP182:AS182"/>
+    <mergeCell ref="AT182:AW182"/>
+    <mergeCell ref="BF182:BI182"/>
+    <mergeCell ref="BJ182:BM182"/>
+    <mergeCell ref="V153:Y153"/>
+    <mergeCell ref="Z153:AC153"/>
+    <mergeCell ref="AD153:AG153"/>
+    <mergeCell ref="B153:E153"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="F96:I96"/>
+    <mergeCell ref="J96:M96"/>
+    <mergeCell ref="N96:Q96"/>
+    <mergeCell ref="R96:U96"/>
+    <mergeCell ref="V96:Y96"/>
+    <mergeCell ref="Z96:AC96"/>
+    <mergeCell ref="AD96:AG96"/>
+    <mergeCell ref="B124:E124"/>
+    <mergeCell ref="F124:I124"/>
+    <mergeCell ref="J124:M124"/>
+    <mergeCell ref="N124:Q124"/>
+    <mergeCell ref="R124:U124"/>
+    <mergeCell ref="V124:Y124"/>
+    <mergeCell ref="Z124:AC124"/>
+    <mergeCell ref="AD124:AG124"/>
+    <mergeCell ref="F153:I153"/>
+    <mergeCell ref="J153:M153"/>
+    <mergeCell ref="N153:Q153"/>
+    <mergeCell ref="R153:U153"/>
+    <mergeCell ref="R38:U38"/>
+    <mergeCell ref="V38:Y38"/>
+    <mergeCell ref="AH96:AK96"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="N67:Q67"/>
+    <mergeCell ref="R67:U67"/>
+    <mergeCell ref="V67:Y67"/>
+    <mergeCell ref="Z67:AC67"/>
+    <mergeCell ref="AD67:AG67"/>
+    <mergeCell ref="AH67:AK67"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AL67:AO67"/>
+    <mergeCell ref="AP67:AS67"/>
+    <mergeCell ref="AT67:AW67"/>
+    <mergeCell ref="Z38:AC38"/>
+    <mergeCell ref="AD38:AG38"/>
+    <mergeCell ref="AH38:AK38"/>
+    <mergeCell ref="AL38:AO38"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AP38:AS38"/>
+    <mergeCell ref="AT38:AW38"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="N38:Q38"/>
     <mergeCell ref="BJ9:BM9"/>
     <mergeCell ref="BN9:BQ9"/>
     <mergeCell ref="AL153:AO153"/>
@@ -39470,92 +39698,59 @@
     <mergeCell ref="BB67:BE67"/>
     <mergeCell ref="BF67:BI67"/>
     <mergeCell ref="BJ67:BM67"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AL67:AO67"/>
-    <mergeCell ref="AP67:AS67"/>
-    <mergeCell ref="AT67:AW67"/>
-    <mergeCell ref="Z38:AC38"/>
-    <mergeCell ref="AD38:AG38"/>
-    <mergeCell ref="AH38:AK38"/>
-    <mergeCell ref="AL38:AO38"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AP38:AS38"/>
-    <mergeCell ref="AT38:AW38"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="R38:U38"/>
-    <mergeCell ref="V38:Y38"/>
-    <mergeCell ref="AH96:AK96"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="N67:Q67"/>
-    <mergeCell ref="R67:U67"/>
-    <mergeCell ref="V67:Y67"/>
-    <mergeCell ref="Z67:AC67"/>
-    <mergeCell ref="AD67:AG67"/>
-    <mergeCell ref="AH67:AK67"/>
-    <mergeCell ref="V153:Y153"/>
-    <mergeCell ref="Z153:AC153"/>
-    <mergeCell ref="AD153:AG153"/>
-    <mergeCell ref="B153:E153"/>
-    <mergeCell ref="B96:E96"/>
-    <mergeCell ref="F96:I96"/>
-    <mergeCell ref="J96:M96"/>
-    <mergeCell ref="N96:Q96"/>
-    <mergeCell ref="R96:U96"/>
-    <mergeCell ref="V96:Y96"/>
-    <mergeCell ref="Z96:AC96"/>
-    <mergeCell ref="AD96:AG96"/>
-    <mergeCell ref="B124:E124"/>
-    <mergeCell ref="F124:I124"/>
-    <mergeCell ref="J124:M124"/>
-    <mergeCell ref="N124:Q124"/>
-    <mergeCell ref="R124:U124"/>
-    <mergeCell ref="V124:Y124"/>
-    <mergeCell ref="Z124:AC124"/>
-    <mergeCell ref="AD124:AG124"/>
-    <mergeCell ref="F153:I153"/>
-    <mergeCell ref="J153:M153"/>
-    <mergeCell ref="N153:Q153"/>
-    <mergeCell ref="R153:U153"/>
-    <mergeCell ref="CD182:CG182"/>
-    <mergeCell ref="B182:E182"/>
-    <mergeCell ref="F182:I182"/>
-    <mergeCell ref="J182:M182"/>
-    <mergeCell ref="N182:Q182"/>
-    <mergeCell ref="R182:U182"/>
-    <mergeCell ref="V182:Y182"/>
-    <mergeCell ref="Z182:AC182"/>
-    <mergeCell ref="AD182:AG182"/>
-    <mergeCell ref="AH182:AK182"/>
-    <mergeCell ref="AX182:BA182"/>
-    <mergeCell ref="BB182:BE182"/>
-    <mergeCell ref="BZ182:CC182"/>
-    <mergeCell ref="AL182:AO182"/>
-    <mergeCell ref="AP182:AS182"/>
-    <mergeCell ref="AT182:AW182"/>
-    <mergeCell ref="BF182:BI182"/>
-    <mergeCell ref="BJ182:BM182"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD38:CG38"/>
+    <mergeCell ref="CD124:CG124"/>
+    <mergeCell ref="CD153:CG153"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BR67:BU67"/>
+    <mergeCell ref="BV67:BY67"/>
+    <mergeCell ref="BR96:BU96"/>
+    <mergeCell ref="BV96:BY96"/>
+    <mergeCell ref="BZ38:CC38"/>
+    <mergeCell ref="CD67:CG67"/>
+    <mergeCell ref="CD96:CG96"/>
+    <mergeCell ref="BR38:BU38"/>
+    <mergeCell ref="BV38:BY38"/>
+    <mergeCell ref="BZ67:CC67"/>
+    <mergeCell ref="BZ96:CC96"/>
+    <mergeCell ref="BJ96:BM96"/>
+    <mergeCell ref="BB38:BE38"/>
+    <mergeCell ref="BJ38:BM38"/>
+    <mergeCell ref="BF124:BI124"/>
+    <mergeCell ref="BJ124:BM124"/>
+    <mergeCell ref="BN124:BQ124"/>
+    <mergeCell ref="BN67:BQ67"/>
+    <mergeCell ref="BF38:BI38"/>
+    <mergeCell ref="AX38:BA38"/>
+    <mergeCell ref="AH124:AK124"/>
+    <mergeCell ref="BR182:BU182"/>
+    <mergeCell ref="BV182:BY182"/>
+    <mergeCell ref="BZ124:CC124"/>
+    <mergeCell ref="BR124:BU124"/>
+    <mergeCell ref="BV124:BY124"/>
+    <mergeCell ref="BR153:BU153"/>
+    <mergeCell ref="BV153:BY153"/>
+    <mergeCell ref="BZ153:CC153"/>
+    <mergeCell ref="AH153:AK153"/>
+    <mergeCell ref="BN182:BQ182"/>
+    <mergeCell ref="BB153:BE153"/>
+    <mergeCell ref="BF153:BI153"/>
+    <mergeCell ref="BJ153:BM153"/>
+    <mergeCell ref="BN153:BQ153"/>
+    <mergeCell ref="AP153:AS153"/>
+    <mergeCell ref="AT153:AW153"/>
+    <mergeCell ref="AX153:BA153"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="44" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="58" max="97" man="1"/>
-    <brk id="116" max="97" man="1"/>
-    <brk id="144" max="97" man="1"/>
+    <brk id="58" max="98" man="1"/>
+    <brk id="116" max="98" man="1"/>
+    <brk id="144" max="98" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-02HFCE_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-02HFCE_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A48069B-F62D-4248-8CE8-6EAEE1CFC16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB27989D-4937-4110-B9AD-2E3770CC3E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="975" windowWidth="12660" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HFCE" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="63">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -226,13 +226,13 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>As of August 2024</t>
+    <t>As of November 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2024</t>
+    <t>Q1 2000 to Q3 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2024</t>
+    <t>Q1 2001 to Q3 2024</t>
   </si>
 </sst>
 </file>
@@ -321,7 +321,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -368,13 +368,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -724,7 +733,7 @@
       <selection activeCell="CA66" sqref="CA66"/>
       <selection pane="topRight" activeCell="CA66" sqref="CA66"/>
       <selection pane="bottomLeft" activeCell="CA66" sqref="CA66"/>
-      <selection pane="bottomRight" activeCell="CT3" sqref="CT3"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -732,8 +741,9 @@
     <col min="1" max="1" width="38.88671875" style="1" customWidth="1"/>
     <col min="2" max="69" width="11.109375" style="2" customWidth="1"/>
     <col min="70" max="92" width="11.109375" style="1" customWidth="1"/>
-    <col min="93" max="99" width="11.21875" style="1" customWidth="1"/>
-    <col min="100" max="16384" width="7.77734375" style="1"/>
+    <col min="93" max="93" width="11.21875" style="1" customWidth="1"/>
+    <col min="94" max="100" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="101" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:153" x14ac:dyDescent="0.2">
@@ -768,132 +778,132 @@
     </row>
     <row r="9" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="37">
+      <c r="B9" s="42">
         <v>2000</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37">
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42">
         <v>2001</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37">
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42">
         <v>2002</v>
       </c>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37">
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42">
         <v>2003</v>
       </c>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37">
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42">
         <v>2004</v>
       </c>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37">
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42">
         <v>2005</v>
       </c>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37">
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42">
         <v>2006</v>
       </c>
-      <c r="AA9" s="37"/>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="37"/>
-      <c r="AD9" s="37">
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="42">
         <v>2007</v>
       </c>
-      <c r="AE9" s="37"/>
-      <c r="AF9" s="37"/>
-      <c r="AG9" s="37"/>
-      <c r="AH9" s="37">
+      <c r="AE9" s="42"/>
+      <c r="AF9" s="42"/>
+      <c r="AG9" s="42"/>
+      <c r="AH9" s="42">
         <v>2008</v>
       </c>
-      <c r="AI9" s="37"/>
-      <c r="AJ9" s="37"/>
-      <c r="AK9" s="37"/>
-      <c r="AL9" s="37">
+      <c r="AI9" s="42"/>
+      <c r="AJ9" s="42"/>
+      <c r="AK9" s="42"/>
+      <c r="AL9" s="42">
         <v>2009</v>
       </c>
-      <c r="AM9" s="37"/>
-      <c r="AN9" s="37"/>
-      <c r="AO9" s="37"/>
-      <c r="AP9" s="37">
+      <c r="AM9" s="42"/>
+      <c r="AN9" s="42"/>
+      <c r="AO9" s="42"/>
+      <c r="AP9" s="42">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="37"/>
-      <c r="AR9" s="37"/>
-      <c r="AS9" s="37"/>
-      <c r="AT9" s="37">
+      <c r="AQ9" s="42"/>
+      <c r="AR9" s="42"/>
+      <c r="AS9" s="42"/>
+      <c r="AT9" s="42">
         <v>2011</v>
       </c>
-      <c r="AU9" s="37"/>
-      <c r="AV9" s="37"/>
-      <c r="AW9" s="37"/>
-      <c r="AX9" s="37">
+      <c r="AU9" s="42"/>
+      <c r="AV9" s="42"/>
+      <c r="AW9" s="42"/>
+      <c r="AX9" s="42">
         <v>2012</v>
       </c>
-      <c r="AY9" s="37"/>
-      <c r="AZ9" s="37"/>
-      <c r="BA9" s="37"/>
-      <c r="BB9" s="37">
+      <c r="AY9" s="42"/>
+      <c r="AZ9" s="42"/>
+      <c r="BA9" s="42"/>
+      <c r="BB9" s="42">
         <v>2013</v>
       </c>
-      <c r="BC9" s="37"/>
-      <c r="BD9" s="37"/>
-      <c r="BE9" s="37"/>
-      <c r="BF9" s="37">
+      <c r="BC9" s="42"/>
+      <c r="BD9" s="42"/>
+      <c r="BE9" s="42"/>
+      <c r="BF9" s="42">
         <v>2014</v>
       </c>
-      <c r="BG9" s="37"/>
-      <c r="BH9" s="37"/>
-      <c r="BI9" s="37"/>
-      <c r="BJ9" s="37">
+      <c r="BG9" s="42"/>
+      <c r="BH9" s="42"/>
+      <c r="BI9" s="42"/>
+      <c r="BJ9" s="42">
         <v>2015</v>
       </c>
-      <c r="BK9" s="37"/>
-      <c r="BL9" s="37"/>
-      <c r="BM9" s="37"/>
-      <c r="BN9" s="37">
+      <c r="BK9" s="42"/>
+      <c r="BL9" s="42"/>
+      <c r="BM9" s="42"/>
+      <c r="BN9" s="42">
         <v>2016</v>
       </c>
-      <c r="BO9" s="37"/>
-      <c r="BP9" s="37"/>
-      <c r="BQ9" s="37"/>
-      <c r="BR9" s="38">
+      <c r="BO9" s="42"/>
+      <c r="BP9" s="42"/>
+      <c r="BQ9" s="42"/>
+      <c r="BR9" s="43">
         <v>2017</v>
       </c>
-      <c r="BS9" s="38"/>
-      <c r="BT9" s="38"/>
-      <c r="BU9" s="38"/>
-      <c r="BV9" s="38">
+      <c r="BS9" s="43"/>
+      <c r="BT9" s="43"/>
+      <c r="BU9" s="43"/>
+      <c r="BV9" s="43">
         <v>2018</v>
       </c>
-      <c r="BW9" s="38"/>
-      <c r="BX9" s="38"/>
-      <c r="BY9" s="38"/>
-      <c r="BZ9" s="38">
+      <c r="BW9" s="43"/>
+      <c r="BX9" s="43"/>
+      <c r="BY9" s="43"/>
+      <c r="BZ9" s="43">
         <v>2019</v>
       </c>
-      <c r="CA9" s="38"/>
-      <c r="CB9" s="38"/>
-      <c r="CC9" s="38"/>
-      <c r="CD9" s="38">
+      <c r="CA9" s="43"/>
+      <c r="CB9" s="43"/>
+      <c r="CC9" s="43"/>
+      <c r="CD9" s="43">
         <v>2020</v>
       </c>
-      <c r="CE9" s="38"/>
-      <c r="CF9" s="38"/>
-      <c r="CG9" s="38"/>
+      <c r="CE9" s="43"/>
+      <c r="CF9" s="43"/>
+      <c r="CG9" s="43"/>
       <c r="CH9" s="33">
         <v>2021</v>
       </c>
@@ -906,16 +916,17 @@
       <c r="CM9" s="33"/>
       <c r="CN9" s="33"/>
       <c r="CO9" s="33"/>
-      <c r="CP9" s="33">
+      <c r="CP9" s="35">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="33"/>
-      <c r="CR9" s="33"/>
-      <c r="CS9" s="33"/>
-      <c r="CT9" s="33">
+      <c r="CQ9" s="35"/>
+      <c r="CR9" s="35"/>
+      <c r="CS9" s="35"/>
+      <c r="CT9" s="35">
         <v>2024</v>
       </c>
-      <c r="CU9" s="33"/>
+      <c r="CU9" s="35"/>
+      <c r="CV9" s="35"/>
     </row>
     <row r="10" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -1197,23 +1208,26 @@
       <c r="CO10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CP10" s="7" t="s">
+      <c r="CP10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="CQ10" s="7" t="s">
+      <c r="CQ10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="CR10" s="7" t="s">
+      <c r="CR10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="CS10" s="7" t="s">
+      <c r="CS10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="CT10" s="7" t="s">
+      <c r="CT10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="CU10" s="7" t="s">
+      <c r="CU10" s="6" t="s">
         <v>20</v>
+      </c>
+      <c r="CV10" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1499,25 +1513,27 @@
       <c r="CO12" s="10">
         <v>1930715.3590808352</v>
       </c>
-      <c r="CP12" s="10">
+      <c r="CP12" s="9">
         <v>1536533.1573482729</v>
       </c>
-      <c r="CQ12" s="10">
+      <c r="CQ12" s="9">
         <v>1685146.0249135478</v>
       </c>
-      <c r="CR12" s="10">
+      <c r="CR12" s="9">
         <v>1568298.0214561208</v>
       </c>
-      <c r="CS12" s="10">
+      <c r="CS12" s="9">
         <v>2058930.0163327174</v>
       </c>
-      <c r="CT12" s="10">
+      <c r="CT12" s="9">
         <v>1612897.539554372</v>
       </c>
-      <c r="CU12" s="10">
-        <v>1794758.710224268</v>
-      </c>
-      <c r="CV12" s="11"/>
+      <c r="CU12" s="9">
+        <v>1796226.0839838278</v>
+      </c>
+      <c r="CV12" s="9">
+        <v>1680445.6064987108</v>
+      </c>
       <c r="CW12" s="11"/>
       <c r="CX12" s="11"/>
       <c r="CY12" s="11"/>
@@ -1852,25 +1868,27 @@
       <c r="CO13" s="10">
         <v>108866.13288724447</v>
       </c>
-      <c r="CP13" s="10">
+      <c r="CP13" s="9">
         <v>78368.525494277594</v>
       </c>
-      <c r="CQ13" s="10">
+      <c r="CQ13" s="9">
         <v>77478.686901585825</v>
       </c>
-      <c r="CR13" s="10">
+      <c r="CR13" s="9">
         <v>81690.837862780638</v>
       </c>
-      <c r="CS13" s="10">
+      <c r="CS13" s="9">
         <v>116688.25715508721</v>
       </c>
-      <c r="CT13" s="10">
+      <c r="CT13" s="9">
         <v>82936.316278325103</v>
       </c>
-      <c r="CU13" s="10">
-        <v>83499.291566832529</v>
-      </c>
-      <c r="CV13" s="11"/>
+      <c r="CU13" s="9">
+        <v>84434.709529288972</v>
+      </c>
+      <c r="CV13" s="9">
+        <v>85401.639660235538</v>
+      </c>
       <c r="CW13" s="11"/>
       <c r="CX13" s="11"/>
       <c r="CY13" s="11"/>
@@ -2205,25 +2223,27 @@
       <c r="CO14" s="10">
         <v>86822.934730998546</v>
       </c>
-      <c r="CP14" s="10">
+      <c r="CP14" s="9">
         <v>58896.188493212794</v>
       </c>
-      <c r="CQ14" s="10">
+      <c r="CQ14" s="9">
         <v>50174.921717145211</v>
       </c>
-      <c r="CR14" s="10">
+      <c r="CR14" s="9">
         <v>65374.014368846489</v>
       </c>
-      <c r="CS14" s="10">
+      <c r="CS14" s="9">
         <v>88897.129481566808</v>
       </c>
-      <c r="CT14" s="10">
+      <c r="CT14" s="9">
         <v>61942.569929810452</v>
       </c>
-      <c r="CU14" s="10">
-        <v>49414.992526632202</v>
-      </c>
-      <c r="CV14" s="11"/>
+      <c r="CU14" s="9">
+        <v>49012.333254597201</v>
+      </c>
+      <c r="CV14" s="9">
+        <v>70772.197587287068</v>
+      </c>
       <c r="CW14" s="11"/>
       <c r="CX14" s="11"/>
       <c r="CY14" s="11"/>
@@ -2558,25 +2578,27 @@
       <c r="CO15" s="10">
         <v>542221.68455263809</v>
       </c>
-      <c r="CP15" s="10">
+      <c r="CP15" s="9">
         <v>498031.71244148072</v>
       </c>
-      <c r="CQ15" s="10">
+      <c r="CQ15" s="9">
         <v>648513.97920105793</v>
       </c>
-      <c r="CR15" s="10">
+      <c r="CR15" s="9">
         <v>563329.32332936954</v>
       </c>
-      <c r="CS15" s="10">
+      <c r="CS15" s="9">
         <v>578683.21603506792</v>
       </c>
-      <c r="CT15" s="10">
+      <c r="CT15" s="9">
         <v>538883.41267359734</v>
       </c>
-      <c r="CU15" s="10">
-        <v>690542.73668984591</v>
-      </c>
-      <c r="CV15" s="11"/>
+      <c r="CU15" s="9">
+        <v>690650.73668984591</v>
+      </c>
+      <c r="CV15" s="9">
+        <v>603810.98352544068</v>
+      </c>
       <c r="CW15" s="11"/>
       <c r="CX15" s="11"/>
       <c r="CY15" s="11"/>
@@ -2911,25 +2933,27 @@
       <c r="CO16" s="10">
         <v>130719.22633313532</v>
       </c>
-      <c r="CP16" s="10">
+      <c r="CP16" s="9">
         <v>110871.54479007726</v>
       </c>
-      <c r="CQ16" s="10">
+      <c r="CQ16" s="9">
         <v>106253.23714514532</v>
       </c>
-      <c r="CR16" s="10">
+      <c r="CR16" s="9">
         <v>127867.77678114366</v>
       </c>
-      <c r="CS16" s="10">
+      <c r="CS16" s="9">
         <v>137855.96716717028</v>
       </c>
-      <c r="CT16" s="10">
+      <c r="CT16" s="9">
         <v>117847.24378391397</v>
       </c>
-      <c r="CU16" s="10">
-        <v>111507.16037207234</v>
-      </c>
-      <c r="CV16" s="11"/>
+      <c r="CU16" s="9">
+        <v>112050.43969227333</v>
+      </c>
+      <c r="CV16" s="9">
+        <v>135117.28821205019</v>
+      </c>
       <c r="CW16" s="11"/>
       <c r="CX16" s="11"/>
       <c r="CY16" s="11"/>
@@ -3264,25 +3288,27 @@
       <c r="CO17" s="10">
         <v>195414.68022995957</v>
       </c>
-      <c r="CP17" s="10">
+      <c r="CP17" s="9">
         <v>184043.48918585389</v>
       </c>
-      <c r="CQ17" s="10">
+      <c r="CQ17" s="9">
         <v>156766.68111373292</v>
       </c>
-      <c r="CR17" s="10">
+      <c r="CR17" s="9">
         <v>241006.38767839814</v>
       </c>
-      <c r="CS17" s="10">
+      <c r="CS17" s="9">
         <v>216650.81936884264</v>
       </c>
-      <c r="CT17" s="10">
+      <c r="CT17" s="9">
         <v>203438.47707703302</v>
       </c>
-      <c r="CU17" s="10">
-        <v>176812.09821165074</v>
-      </c>
-      <c r="CV17" s="11"/>
+      <c r="CU17" s="9">
+        <v>176551.22730459602</v>
+      </c>
+      <c r="CV17" s="9">
+        <v>274133.1744301357</v>
+      </c>
       <c r="CW17" s="11"/>
       <c r="CX17" s="11"/>
       <c r="CY17" s="11"/>
@@ -3617,25 +3643,27 @@
       <c r="CO18" s="10">
         <v>376386.64812021976</v>
       </c>
-      <c r="CP18" s="10">
+      <c r="CP18" s="9">
         <v>473256.29873259738</v>
       </c>
-      <c r="CQ18" s="10">
+      <c r="CQ18" s="9">
         <v>384272.81226293766</v>
       </c>
-      <c r="CR18" s="10">
+      <c r="CR18" s="9">
         <v>523724.33665674197</v>
       </c>
-      <c r="CS18" s="10">
+      <c r="CS18" s="9">
         <v>422352.63781876036</v>
       </c>
-      <c r="CT18" s="10">
+      <c r="CT18" s="9">
         <v>514272.9384144044</v>
       </c>
-      <c r="CU18" s="10">
-        <v>442679.99990414898</v>
-      </c>
-      <c r="CV18" s="11"/>
+      <c r="CU18" s="9">
+        <v>442900.32035515696</v>
+      </c>
+      <c r="CV18" s="9">
+        <v>561213.40666238288</v>
+      </c>
       <c r="CW18" s="11"/>
       <c r="CX18" s="11"/>
       <c r="CY18" s="11"/>
@@ -3970,25 +3998,27 @@
       <c r="CO19" s="10">
         <v>127345.19202086599</v>
       </c>
-      <c r="CP19" s="10">
+      <c r="CP19" s="9">
         <v>127819.65997448107</v>
       </c>
-      <c r="CQ19" s="10">
+      <c r="CQ19" s="9">
         <v>133713.65125885664</v>
       </c>
-      <c r="CR19" s="10">
+      <c r="CR19" s="9">
         <v>102066.60385361208</v>
       </c>
-      <c r="CS19" s="10">
+      <c r="CS19" s="9">
         <v>134255.5713900777</v>
       </c>
-      <c r="CT19" s="10">
+      <c r="CT19" s="9">
         <v>134446.7656140386</v>
       </c>
-      <c r="CU19" s="10">
-        <v>143960.42129203904</v>
-      </c>
-      <c r="CV19" s="11"/>
+      <c r="CU19" s="9">
+        <v>143247.59600452927</v>
+      </c>
+      <c r="CV19" s="9">
+        <v>107032.0798608754</v>
+      </c>
       <c r="CW19" s="11"/>
       <c r="CX19" s="11"/>
       <c r="CY19" s="11"/>
@@ -4323,25 +4353,27 @@
       <c r="CO20" s="10">
         <v>84952.946652067651</v>
       </c>
-      <c r="CP20" s="10">
+      <c r="CP20" s="9">
         <v>75296.922283388674</v>
       </c>
-      <c r="CQ20" s="10">
+      <c r="CQ20" s="9">
         <v>52530.738124887961</v>
       </c>
-      <c r="CR20" s="10">
+      <c r="CR20" s="9">
         <v>63150.053354876218</v>
       </c>
-      <c r="CS20" s="10">
+      <c r="CS20" s="9">
         <v>96006.310526762885</v>
       </c>
-      <c r="CT20" s="10">
+      <c r="CT20" s="9">
         <v>85554.535361773858</v>
       </c>
-      <c r="CU20" s="10">
-        <v>64589.170358400341</v>
-      </c>
-      <c r="CV20" s="11"/>
+      <c r="CU20" s="9">
+        <v>63428.483016369173</v>
+      </c>
+      <c r="CV20" s="9">
+        <v>68241.238679543967</v>
+      </c>
       <c r="CW20" s="11"/>
       <c r="CX20" s="11"/>
       <c r="CY20" s="11"/>
@@ -4676,25 +4708,27 @@
       <c r="CO21" s="10">
         <v>219841.02216222681</v>
       </c>
-      <c r="CP21" s="10">
+      <c r="CP21" s="9">
         <v>227675.85348703075</v>
       </c>
-      <c r="CQ21" s="10">
+      <c r="CQ21" s="9">
         <v>207378.85842708446</v>
       </c>
-      <c r="CR21" s="10">
+      <c r="CR21" s="9">
         <v>242002.10894328996</v>
       </c>
-      <c r="CS21" s="10">
+      <c r="CS21" s="9">
         <v>246553.40202491323</v>
       </c>
-      <c r="CT21" s="10">
+      <c r="CT21" s="9">
         <v>245340.87667876223</v>
       </c>
-      <c r="CU21" s="10">
-        <v>216126.72970709516</v>
-      </c>
-      <c r="CV21" s="11"/>
+      <c r="CU21" s="9">
+        <v>215512.82439309516</v>
+      </c>
+      <c r="CV21" s="9">
+        <v>258545.06390615052</v>
+      </c>
       <c r="CW21" s="11"/>
       <c r="CX21" s="11"/>
       <c r="CY21" s="11"/>
@@ -5029,25 +5063,27 @@
       <c r="CO22" s="10">
         <v>372932.26815940789</v>
       </c>
-      <c r="CP22" s="10">
+      <c r="CP22" s="9">
         <v>424979.12949899468</v>
       </c>
-      <c r="CQ22" s="10">
+      <c r="CQ22" s="9">
         <v>243540.02810056467</v>
       </c>
-      <c r="CR22" s="10">
+      <c r="CR22" s="9">
         <v>353961.58977707929</v>
       </c>
-      <c r="CS22" s="10">
+      <c r="CS22" s="9">
         <v>456518.77217155957</v>
       </c>
-      <c r="CT22" s="10">
+      <c r="CT22" s="9">
         <v>501441.96541300381</v>
       </c>
-      <c r="CU22" s="10">
-        <v>280896.14984389144</v>
-      </c>
-      <c r="CV22" s="11"/>
+      <c r="CU22" s="9">
+        <v>284803.44617448025</v>
+      </c>
+      <c r="CV22" s="9">
+        <v>406173.2759633598</v>
+      </c>
       <c r="CW22" s="11"/>
       <c r="CX22" s="11"/>
       <c r="CY22" s="11"/>
@@ -5382,25 +5418,27 @@
       <c r="CO23" s="10">
         <v>686287.45334351971</v>
       </c>
-      <c r="CP23" s="10">
+      <c r="CP23" s="9">
         <v>622425.13085141755</v>
       </c>
-      <c r="CQ23" s="10">
+      <c r="CQ23" s="9">
         <v>580246.98628394247</v>
       </c>
-      <c r="CR23" s="10">
+      <c r="CR23" s="9">
         <v>602031.33345531474</v>
       </c>
-      <c r="CS23" s="10">
+      <c r="CS23" s="9">
         <v>776220.4753611621</v>
       </c>
-      <c r="CT23" s="10">
+      <c r="CT23" s="9">
         <v>681002.97137572069</v>
       </c>
-      <c r="CU23" s="10">
-        <v>646501.75937911437</v>
-      </c>
-      <c r="CV23" s="11"/>
+      <c r="CU23" s="9">
+        <v>645817.94408080005</v>
+      </c>
+      <c r="CV23" s="9">
+        <v>664037.18579570437</v>
+      </c>
       <c r="CW23" s="11"/>
       <c r="CX23" s="11"/>
       <c r="CY23" s="11"/>
@@ -5548,13 +5586,13 @@
       <c r="CM24" s="11"/>
       <c r="CN24" s="11"/>
       <c r="CO24" s="11"/>
-      <c r="CP24" s="11"/>
-      <c r="CQ24" s="11"/>
-      <c r="CR24" s="11"/>
-      <c r="CS24" s="11"/>
-      <c r="CT24" s="11"/>
-      <c r="CU24" s="11"/>
-      <c r="CV24" s="11"/>
+      <c r="CP24" s="13"/>
+      <c r="CQ24" s="13"/>
+      <c r="CR24" s="13"/>
+      <c r="CS24" s="13"/>
+      <c r="CT24" s="13"/>
+      <c r="CU24" s="13"/>
+      <c r="CV24" s="13"/>
       <c r="CW24" s="11"/>
       <c r="CX24" s="11"/>
       <c r="CY24" s="11"/>
@@ -5889,25 +5927,27 @@
       <c r="CO25" s="30">
         <v>4862505.5482731201</v>
       </c>
-      <c r="CP25" s="30">
+      <c r="CP25" s="36">
         <v>4418197.6125810854</v>
       </c>
-      <c r="CQ25" s="30">
+      <c r="CQ25" s="36">
         <v>4326016.6054504886</v>
       </c>
-      <c r="CR25" s="30">
+      <c r="CR25" s="36">
         <v>4534502.3875175733</v>
       </c>
-      <c r="CS25" s="30">
+      <c r="CS25" s="36">
         <v>5329612.5748336874</v>
       </c>
-      <c r="CT25" s="30">
+      <c r="CT25" s="36">
         <v>4780005.6121547557</v>
       </c>
-      <c r="CU25" s="30">
-        <v>4701289.220075991</v>
-      </c>
-      <c r="CV25" s="11"/>
+      <c r="CU25" s="36">
+        <v>4704636.1444788603</v>
+      </c>
+      <c r="CV25" s="36">
+        <v>4914923.1407818776</v>
+      </c>
       <c r="CW25" s="11"/>
       <c r="CX25" s="11"/>
       <c r="CY25" s="11"/>
@@ -6056,12 +6096,13 @@
       <c r="CM26" s="16"/>
       <c r="CN26" s="16"/>
       <c r="CO26" s="16"/>
-      <c r="CP26" s="16"/>
-      <c r="CQ26" s="16"/>
-      <c r="CR26" s="16"/>
-      <c r="CS26" s="16"/>
-      <c r="CT26" s="16"/>
-      <c r="CU26" s="16"/>
+      <c r="CP26" s="17"/>
+      <c r="CQ26" s="17"/>
+      <c r="CR26" s="17"/>
+      <c r="CS26" s="17"/>
+      <c r="CT26" s="17"/>
+      <c r="CU26" s="17"/>
+      <c r="CV26" s="17"/>
     </row>
     <row r="27" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
@@ -6161,13 +6202,13 @@
       <c r="CM28" s="31"/>
       <c r="CN28" s="31"/>
       <c r="CO28" s="31"/>
-      <c r="CP28" s="31"/>
-      <c r="CQ28" s="31"/>
-      <c r="CR28" s="31"/>
-      <c r="CS28" s="31"/>
-      <c r="CT28" s="31"/>
-      <c r="CU28" s="31"/>
-      <c r="CV28" s="11"/>
+      <c r="CP28" s="37"/>
+      <c r="CQ28" s="37"/>
+      <c r="CR28" s="37"/>
+      <c r="CS28" s="37"/>
+      <c r="CT28" s="37"/>
+      <c r="CU28" s="37"/>
+      <c r="CV28" s="37"/>
       <c r="CW28" s="11"/>
       <c r="CX28" s="11"/>
       <c r="CY28" s="11"/>
@@ -6315,13 +6356,13 @@
       <c r="CM29" s="32"/>
       <c r="CN29" s="32"/>
       <c r="CO29" s="32"/>
-      <c r="CP29" s="32"/>
-      <c r="CQ29" s="32"/>
-      <c r="CR29" s="32"/>
-      <c r="CS29" s="32"/>
-      <c r="CT29" s="32"/>
-      <c r="CU29" s="32"/>
-      <c r="CV29" s="11"/>
+      <c r="CP29" s="38"/>
+      <c r="CQ29" s="38"/>
+      <c r="CR29" s="38"/>
+      <c r="CS29" s="38"/>
+      <c r="CT29" s="38"/>
+      <c r="CU29" s="38"/>
+      <c r="CV29" s="38"/>
       <c r="CW29" s="11"/>
       <c r="CX29" s="11"/>
       <c r="CY29" s="11"/>
@@ -6408,132 +6449,132 @@
     </row>
     <row r="38" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
-      <c r="B38" s="37">
+      <c r="B38" s="42">
         <v>2000</v>
       </c>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37">
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42">
         <v>2001</v>
       </c>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37">
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42">
         <v>2002</v>
       </c>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37">
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42">
         <v>2003</v>
       </c>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="37">
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="42"/>
+      <c r="R38" s="42">
         <v>2004</v>
       </c>
-      <c r="S38" s="37"/>
-      <c r="T38" s="37"/>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37">
+      <c r="S38" s="42"/>
+      <c r="T38" s="42"/>
+      <c r="U38" s="42"/>
+      <c r="V38" s="42">
         <v>2005</v>
       </c>
-      <c r="W38" s="37"/>
-      <c r="X38" s="37"/>
-      <c r="Y38" s="37"/>
-      <c r="Z38" s="37">
+      <c r="W38" s="42"/>
+      <c r="X38" s="42"/>
+      <c r="Y38" s="42"/>
+      <c r="Z38" s="42">
         <v>2006</v>
       </c>
-      <c r="AA38" s="37"/>
-      <c r="AB38" s="37"/>
-      <c r="AC38" s="37"/>
-      <c r="AD38" s="37">
+      <c r="AA38" s="42"/>
+      <c r="AB38" s="42"/>
+      <c r="AC38" s="42"/>
+      <c r="AD38" s="42">
         <v>2007</v>
       </c>
-      <c r="AE38" s="37"/>
-      <c r="AF38" s="37"/>
-      <c r="AG38" s="37"/>
-      <c r="AH38" s="37">
+      <c r="AE38" s="42"/>
+      <c r="AF38" s="42"/>
+      <c r="AG38" s="42"/>
+      <c r="AH38" s="42">
         <v>2008</v>
       </c>
-      <c r="AI38" s="37"/>
-      <c r="AJ38" s="37"/>
-      <c r="AK38" s="37"/>
-      <c r="AL38" s="37">
+      <c r="AI38" s="42"/>
+      <c r="AJ38" s="42"/>
+      <c r="AK38" s="42"/>
+      <c r="AL38" s="42">
         <v>2009</v>
       </c>
-      <c r="AM38" s="37"/>
-      <c r="AN38" s="37"/>
-      <c r="AO38" s="37"/>
-      <c r="AP38" s="37">
+      <c r="AM38" s="42"/>
+      <c r="AN38" s="42"/>
+      <c r="AO38" s="42"/>
+      <c r="AP38" s="42">
         <v>2010</v>
       </c>
-      <c r="AQ38" s="37"/>
-      <c r="AR38" s="37"/>
-      <c r="AS38" s="37"/>
-      <c r="AT38" s="37">
+      <c r="AQ38" s="42"/>
+      <c r="AR38" s="42"/>
+      <c r="AS38" s="42"/>
+      <c r="AT38" s="42">
         <v>2011</v>
       </c>
-      <c r="AU38" s="37"/>
-      <c r="AV38" s="37"/>
-      <c r="AW38" s="37"/>
-      <c r="AX38" s="37">
+      <c r="AU38" s="42"/>
+      <c r="AV38" s="42"/>
+      <c r="AW38" s="42"/>
+      <c r="AX38" s="42">
         <v>2012</v>
       </c>
-      <c r="AY38" s="37"/>
-      <c r="AZ38" s="37"/>
-      <c r="BA38" s="37"/>
-      <c r="BB38" s="37">
+      <c r="AY38" s="42"/>
+      <c r="AZ38" s="42"/>
+      <c r="BA38" s="42"/>
+      <c r="BB38" s="42">
         <v>2013</v>
       </c>
-      <c r="BC38" s="37"/>
-      <c r="BD38" s="37"/>
-      <c r="BE38" s="37"/>
-      <c r="BF38" s="37">
+      <c r="BC38" s="42"/>
+      <c r="BD38" s="42"/>
+      <c r="BE38" s="42"/>
+      <c r="BF38" s="42">
         <v>2014</v>
       </c>
-      <c r="BG38" s="37"/>
-      <c r="BH38" s="37"/>
-      <c r="BI38" s="37"/>
-      <c r="BJ38" s="37">
+      <c r="BG38" s="42"/>
+      <c r="BH38" s="42"/>
+      <c r="BI38" s="42"/>
+      <c r="BJ38" s="42">
         <v>2015</v>
       </c>
-      <c r="BK38" s="37"/>
-      <c r="BL38" s="37"/>
-      <c r="BM38" s="37"/>
-      <c r="BN38" s="37">
+      <c r="BK38" s="42"/>
+      <c r="BL38" s="42"/>
+      <c r="BM38" s="42"/>
+      <c r="BN38" s="42">
         <v>2016</v>
       </c>
-      <c r="BO38" s="37"/>
-      <c r="BP38" s="37"/>
-      <c r="BQ38" s="37"/>
-      <c r="BR38" s="38">
+      <c r="BO38" s="42"/>
+      <c r="BP38" s="42"/>
+      <c r="BQ38" s="42"/>
+      <c r="BR38" s="43">
         <v>2017</v>
       </c>
-      <c r="BS38" s="38"/>
-      <c r="BT38" s="38"/>
-      <c r="BU38" s="38"/>
-      <c r="BV38" s="38">
+      <c r="BS38" s="43"/>
+      <c r="BT38" s="43"/>
+      <c r="BU38" s="43"/>
+      <c r="BV38" s="43">
         <v>2018</v>
       </c>
-      <c r="BW38" s="38"/>
-      <c r="BX38" s="38"/>
-      <c r="BY38" s="38"/>
-      <c r="BZ38" s="38">
+      <c r="BW38" s="43"/>
+      <c r="BX38" s="43"/>
+      <c r="BY38" s="43"/>
+      <c r="BZ38" s="43">
         <v>2019</v>
       </c>
-      <c r="CA38" s="38"/>
-      <c r="CB38" s="38"/>
-      <c r="CC38" s="38"/>
-      <c r="CD38" s="38">
+      <c r="CA38" s="43"/>
+      <c r="CB38" s="43"/>
+      <c r="CC38" s="43"/>
+      <c r="CD38" s="43">
         <v>2020</v>
       </c>
-      <c r="CE38" s="38"/>
-      <c r="CF38" s="38"/>
-      <c r="CG38" s="38"/>
+      <c r="CE38" s="43"/>
+      <c r="CF38" s="43"/>
+      <c r="CG38" s="43"/>
       <c r="CH38" s="33">
         <v>2021</v>
       </c>
@@ -6546,16 +6587,17 @@
       <c r="CM38" s="33"/>
       <c r="CN38" s="33"/>
       <c r="CO38" s="33"/>
-      <c r="CP38" s="33">
+      <c r="CP38" s="35">
         <v>2023</v>
       </c>
-      <c r="CQ38" s="33"/>
-      <c r="CR38" s="33"/>
-      <c r="CS38" s="33"/>
-      <c r="CT38" s="33">
+      <c r="CQ38" s="35"/>
+      <c r="CR38" s="35"/>
+      <c r="CS38" s="35"/>
+      <c r="CT38" s="35">
         <v>2024</v>
       </c>
-      <c r="CU38" s="33"/>
+      <c r="CU38" s="35"/>
+      <c r="CV38" s="35"/>
     </row>
     <row r="39" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
@@ -6837,23 +6879,26 @@
       <c r="CO39" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CP39" s="7" t="s">
+      <c r="CP39" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="CQ39" s="7" t="s">
+      <c r="CQ39" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="CR39" s="7" t="s">
+      <c r="CR39" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="CS39" s="7" t="s">
+      <c r="CS39" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="CT39" s="7" t="s">
+      <c r="CT39" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="CU39" s="7" t="s">
+      <c r="CU39" s="6" t="s">
         <v>20</v>
+      </c>
+      <c r="CV39" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -7139,25 +7184,27 @@
       <c r="CO41" s="10">
         <v>1613837.8543570151</v>
       </c>
-      <c r="CP41" s="10">
+      <c r="CP41" s="9">
         <v>1265574.4326195689</v>
       </c>
-      <c r="CQ41" s="10">
+      <c r="CQ41" s="9">
         <v>1362289.9882985125</v>
       </c>
-      <c r="CR41" s="10">
+      <c r="CR41" s="9">
         <v>1230794.9677908672</v>
       </c>
-      <c r="CS41" s="10">
+      <c r="CS41" s="9">
         <v>1623142.7353204403</v>
       </c>
-      <c r="CT41" s="10">
+      <c r="CT41" s="9">
         <v>1270817.1766024218</v>
       </c>
-      <c r="CU41" s="10">
-        <v>1368775.5190099278</v>
-      </c>
-      <c r="CV41" s="11"/>
+      <c r="CU41" s="9">
+        <v>1369894.6138876297</v>
+      </c>
+      <c r="CV41" s="9">
+        <v>1269850.7254662351</v>
+      </c>
       <c r="CW41" s="11"/>
       <c r="CX41" s="11"/>
       <c r="CY41" s="11"/>
@@ -7492,25 +7539,27 @@
       <c r="CO42" s="10">
         <v>68964.984228597677</v>
       </c>
-      <c r="CP42" s="10">
+      <c r="CP42" s="9">
         <v>50280.938195297516</v>
       </c>
-      <c r="CQ42" s="10">
+      <c r="CQ42" s="9">
         <v>44441.418539635582</v>
       </c>
-      <c r="CR42" s="10">
+      <c r="CR42" s="9">
         <v>44463.997896249566</v>
       </c>
-      <c r="CS42" s="10">
+      <c r="CS42" s="9">
         <v>69402.135638920881</v>
       </c>
-      <c r="CT42" s="10">
+      <c r="CT42" s="9">
         <v>49323.501006078186</v>
       </c>
-      <c r="CU42" s="10">
-        <v>45907.84794662823</v>
-      </c>
-      <c r="CV42" s="11"/>
+      <c r="CU42" s="9">
+        <v>46422.140041581202</v>
+      </c>
+      <c r="CV42" s="9">
+        <v>45015.035702839828</v>
+      </c>
       <c r="CW42" s="11"/>
       <c r="CX42" s="11"/>
       <c r="CY42" s="11"/>
@@ -7845,25 +7894,27 @@
       <c r="CO43" s="10">
         <v>80473.989444633728</v>
       </c>
-      <c r="CP43" s="10">
+      <c r="CP43" s="9">
         <v>53152.927854325702</v>
       </c>
-      <c r="CQ43" s="10">
+      <c r="CQ43" s="9">
         <v>41157.628783037362</v>
       </c>
-      <c r="CR43" s="10">
+      <c r="CR43" s="9">
         <v>58557.81250580652</v>
       </c>
-      <c r="CS43" s="10">
+      <c r="CS43" s="9">
         <v>78902.32969546254</v>
       </c>
-      <c r="CT43" s="10">
+      <c r="CT43" s="9">
         <v>53918.767102582256</v>
       </c>
-      <c r="CU43" s="10">
-        <v>39198.729838236264</v>
-      </c>
-      <c r="CV43" s="11"/>
+      <c r="CU43" s="9">
+        <v>38879.318031933668</v>
+      </c>
+      <c r="CV43" s="9">
+        <v>61527.606073714604</v>
+      </c>
       <c r="CW43" s="11"/>
       <c r="CX43" s="11"/>
       <c r="CY43" s="11"/>
@@ -8198,25 +8249,27 @@
       <c r="CO44" s="10">
         <v>462970.29723854054</v>
       </c>
-      <c r="CP44" s="10">
+      <c r="CP44" s="9">
         <v>440943.52757331496</v>
       </c>
-      <c r="CQ44" s="10">
+      <c r="CQ44" s="9">
         <v>553703.83625442069</v>
       </c>
-      <c r="CR44" s="10">
+      <c r="CR44" s="9">
         <v>459676.28146653716</v>
       </c>
-      <c r="CS44" s="10">
+      <c r="CS44" s="9">
         <v>483503.72320486169</v>
       </c>
-      <c r="CT44" s="10">
+      <c r="CT44" s="9">
         <v>473784.42239651538</v>
       </c>
-      <c r="CU44" s="10">
-        <v>586783.73750213627</v>
-      </c>
-      <c r="CV44" s="11"/>
+      <c r="CU44" s="9">
+        <v>586875.50972749339</v>
+      </c>
+      <c r="CV44" s="9">
+        <v>477873.56257161038</v>
+      </c>
       <c r="CW44" s="11"/>
       <c r="CX44" s="11"/>
       <c r="CY44" s="11"/>
@@ -8551,25 +8604,27 @@
       <c r="CO45" s="10">
         <v>116880.04880855413</v>
       </c>
-      <c r="CP45" s="10">
+      <c r="CP45" s="9">
         <v>93611.753454593345</v>
       </c>
-      <c r="CQ45" s="10">
+      <c r="CQ45" s="9">
         <v>89368.290807064768</v>
       </c>
-      <c r="CR45" s="10">
+      <c r="CR45" s="9">
         <v>107490.02600048439</v>
       </c>
-      <c r="CS45" s="10">
+      <c r="CS45" s="9">
         <v>117556.91553276678</v>
       </c>
-      <c r="CT45" s="10">
+      <c r="CT45" s="9">
         <v>96175.639583942786</v>
       </c>
-      <c r="CU45" s="10">
-        <v>91084.125985765815</v>
-      </c>
-      <c r="CV45" s="11"/>
+      <c r="CU45" s="9">
+        <v>91527.901272317205</v>
+      </c>
+      <c r="CV45" s="9">
+        <v>110603.32627712283</v>
+      </c>
       <c r="CW45" s="11"/>
       <c r="CX45" s="11"/>
       <c r="CY45" s="11"/>
@@ -8904,25 +8959,27 @@
       <c r="CO46" s="10">
         <v>170920.86754634365</v>
       </c>
-      <c r="CP46" s="10">
+      <c r="CP46" s="9">
         <v>163344.01118917143</v>
       </c>
-      <c r="CQ46" s="10">
+      <c r="CQ46" s="9">
         <v>138025.82560327274</v>
       </c>
-      <c r="CR46" s="10">
+      <c r="CR46" s="9">
         <v>202569.3574100199</v>
       </c>
-      <c r="CS46" s="10">
+      <c r="CS46" s="9">
         <v>182546.53050287801</v>
       </c>
-      <c r="CT46" s="10">
+      <c r="CT46" s="9">
         <v>174981.51640761693</v>
       </c>
-      <c r="CU46" s="10">
-        <v>151191.99446324538</v>
-      </c>
-      <c r="CV46" s="11"/>
+      <c r="CU46" s="9">
+        <v>150968.92379594396</v>
+      </c>
+      <c r="CV46" s="9">
+        <v>224493.69469154396</v>
+      </c>
       <c r="CW46" s="11"/>
       <c r="CX46" s="11"/>
       <c r="CY46" s="11"/>
@@ -9257,25 +9314,27 @@
       <c r="CO47" s="10">
         <v>297652.57645724842</v>
       </c>
-      <c r="CP47" s="10">
+      <c r="CP47" s="9">
         <v>357466.39388327656</v>
       </c>
-      <c r="CQ47" s="10">
+      <c r="CQ47" s="9">
         <v>308874.15485199948</v>
       </c>
-      <c r="CR47" s="10">
+      <c r="CR47" s="9">
         <v>372910.80834159057</v>
       </c>
-      <c r="CS47" s="10">
+      <c r="CS47" s="9">
         <v>333317.55347024265</v>
       </c>
-      <c r="CT47" s="10">
+      <c r="CT47" s="9">
         <v>384567.14445178007</v>
       </c>
-      <c r="CU47" s="10">
-        <v>345331.92871154571</v>
-      </c>
-      <c r="CV47" s="11"/>
+      <c r="CU47" s="9">
+        <v>345503.79933207895</v>
+      </c>
+      <c r="CV47" s="9">
+        <v>398371.67923268472</v>
+      </c>
       <c r="CW47" s="11"/>
       <c r="CX47" s="11"/>
       <c r="CY47" s="11"/>
@@ -9610,25 +9669,27 @@
       <c r="CO48" s="10">
         <v>130248.57362617776</v>
       </c>
-      <c r="CP48" s="10">
+      <c r="CP48" s="9">
         <v>120956.17189330241</v>
       </c>
-      <c r="CQ48" s="10">
+      <c r="CQ48" s="9">
         <v>130102.73035963597</v>
       </c>
-      <c r="CR48" s="10">
+      <c r="CR48" s="9">
         <v>101158.72102486502</v>
       </c>
-      <c r="CS48" s="10">
+      <c r="CS48" s="9">
         <v>136472.16385956208</v>
       </c>
-      <c r="CT48" s="10">
+      <c r="CT48" s="9">
         <v>126692.68229216468</v>
       </c>
-      <c r="CU48" s="10">
-        <v>139394.14038676719</v>
-      </c>
-      <c r="CV48" s="11"/>
+      <c r="CU48" s="9">
+        <v>138703.92520604885</v>
+      </c>
+      <c r="CV48" s="9">
+        <v>105600.33905010487</v>
+      </c>
       <c r="CW48" s="11"/>
       <c r="CX48" s="11"/>
       <c r="CY48" s="11"/>
@@ -9963,25 +10024,27 @@
       <c r="CO49" s="10">
         <v>79086.197462698881</v>
       </c>
-      <c r="CP49" s="10">
+      <c r="CP49" s="9">
         <v>69069.451231257248</v>
       </c>
-      <c r="CQ49" s="10">
+      <c r="CQ49" s="9">
         <v>48566.06706573956</v>
       </c>
-      <c r="CR49" s="10">
+      <c r="CR49" s="9">
         <v>59127.541685949276</v>
       </c>
-      <c r="CS49" s="10">
+      <c r="CS49" s="9">
         <v>85381.323258711534</v>
       </c>
-      <c r="CT49" s="10">
+      <c r="CT49" s="9">
         <v>75540.875845433722</v>
       </c>
-      <c r="CU49" s="10">
-        <v>57646.974142899307</v>
-      </c>
-      <c r="CV49" s="11"/>
+      <c r="CU49" s="9">
+        <v>56611.040211207939</v>
+      </c>
+      <c r="CV49" s="9">
+        <v>61936.050487869143</v>
+      </c>
       <c r="CW49" s="11"/>
       <c r="CX49" s="11"/>
       <c r="CY49" s="11"/>
@@ -10316,25 +10379,27 @@
       <c r="CO50" s="10">
         <v>214361.34346559201</v>
       </c>
-      <c r="CP50" s="10">
+      <c r="CP50" s="9">
         <v>210563.07591097074</v>
       </c>
-      <c r="CQ50" s="10">
+      <c r="CQ50" s="9">
         <v>187728.09901346514</v>
       </c>
-      <c r="CR50" s="10">
+      <c r="CR50" s="9">
         <v>215167.25204232341</v>
       </c>
-      <c r="CS50" s="10">
+      <c r="CS50" s="9">
         <v>232053.15118347705</v>
       </c>
-      <c r="CT50" s="10">
+      <c r="CT50" s="9">
         <v>218642.27324647026</v>
       </c>
-      <c r="CU50" s="10">
-        <v>188526.43857060993</v>
-      </c>
-      <c r="CV50" s="11"/>
+      <c r="CU50" s="9">
+        <v>187990.93154366862</v>
+      </c>
+      <c r="CV50" s="9">
+        <v>218263.32883981921</v>
+      </c>
       <c r="CW50" s="11"/>
       <c r="CX50" s="11"/>
       <c r="CY50" s="11"/>
@@ -10669,25 +10734,27 @@
       <c r="CO51" s="10">
         <v>320910.77310411725</v>
       </c>
-      <c r="CP51" s="10">
+      <c r="CP51" s="9">
         <v>351703.33519052441</v>
       </c>
-      <c r="CQ51" s="10">
+      <c r="CQ51" s="9">
         <v>207142.87170968985</v>
       </c>
-      <c r="CR51" s="10">
+      <c r="CR51" s="9">
         <v>282159.16000097245</v>
       </c>
-      <c r="CS51" s="10">
+      <c r="CS51" s="9">
         <v>371130.30858810793</v>
       </c>
-      <c r="CT51" s="10">
+      <c r="CT51" s="9">
         <v>393446.06311913976</v>
       </c>
-      <c r="CU51" s="10">
-        <v>226982.7311501808</v>
-      </c>
-      <c r="CV51" s="11"/>
+      <c r="CU51" s="9">
+        <v>230140.08589862793</v>
+      </c>
+      <c r="CV51" s="9">
+        <v>309687.55276471196</v>
+      </c>
       <c r="CW51" s="11"/>
       <c r="CX51" s="11"/>
       <c r="CY51" s="11"/>
@@ -11022,25 +11089,27 @@
       <c r="CO52" s="10">
         <v>638994.87504169368</v>
       </c>
-      <c r="CP52" s="10">
+      <c r="CP52" s="9">
         <v>517070.84916573938</v>
       </c>
-      <c r="CQ52" s="10">
+      <c r="CQ52" s="9">
         <v>472079.20992477669</v>
       </c>
-      <c r="CR52" s="10">
+      <c r="CR52" s="9">
         <v>551109.48847341456</v>
       </c>
-      <c r="CS52" s="10">
+      <c r="CS52" s="9">
         <v>705460.37334982317</v>
       </c>
-      <c r="CT52" s="10">
+      <c r="CT52" s="9">
         <v>545132.42825790099</v>
       </c>
-      <c r="CU52" s="10">
-        <v>509008.18846069416</v>
-      </c>
-      <c r="CV52" s="11"/>
+      <c r="CU52" s="9">
+        <v>508469.80232146545</v>
+      </c>
+      <c r="CV52" s="9">
+        <v>590204.0748485513</v>
+      </c>
       <c r="CW52" s="11"/>
       <c r="CX52" s="11"/>
       <c r="CY52" s="11"/>
@@ -11188,13 +11257,13 @@
       <c r="CM53" s="11"/>
       <c r="CN53" s="11"/>
       <c r="CO53" s="11"/>
-      <c r="CP53" s="11"/>
-      <c r="CQ53" s="11"/>
-      <c r="CR53" s="11"/>
-      <c r="CS53" s="11"/>
-      <c r="CT53" s="11"/>
-      <c r="CU53" s="11"/>
-      <c r="CV53" s="11"/>
+      <c r="CP53" s="13"/>
+      <c r="CQ53" s="13"/>
+      <c r="CR53" s="13"/>
+      <c r="CS53" s="13"/>
+      <c r="CT53" s="13"/>
+      <c r="CU53" s="13"/>
+      <c r="CV53" s="13"/>
       <c r="CW53" s="11"/>
       <c r="CX53" s="11"/>
       <c r="CY53" s="11"/>
@@ -11529,25 +11598,27 @@
       <c r="CO54" s="30">
         <v>4195302.3807812128</v>
       </c>
-      <c r="CP54" s="30">
+      <c r="CP54" s="36">
         <v>3693736.8681613421</v>
       </c>
-      <c r="CQ54" s="30">
+      <c r="CQ54" s="36">
         <v>3583480.1212112503</v>
       </c>
-      <c r="CR54" s="30">
+      <c r="CR54" s="36">
         <v>3685185.4146390795</v>
       </c>
-      <c r="CS54" s="30">
+      <c r="CS54" s="36">
         <v>4418869.2436052551</v>
       </c>
-      <c r="CT54" s="30">
+      <c r="CT54" s="36">
         <v>3863022.4903120473</v>
       </c>
-      <c r="CU54" s="30">
-        <v>3749832.3561686366</v>
-      </c>
-      <c r="CV54" s="11"/>
+      <c r="CU54" s="36">
+        <v>3751987.9912699973</v>
+      </c>
+      <c r="CV54" s="36">
+        <v>3873426.9760068078</v>
+      </c>
       <c r="CW54" s="11"/>
       <c r="CX54" s="11"/>
       <c r="CY54" s="11"/>
@@ -11696,12 +11767,13 @@
       <c r="CM55" s="16"/>
       <c r="CN55" s="16"/>
       <c r="CO55" s="16"/>
-      <c r="CP55" s="16"/>
-      <c r="CQ55" s="16"/>
-      <c r="CR55" s="16"/>
-      <c r="CS55" s="16"/>
-      <c r="CT55" s="16"/>
-      <c r="CU55" s="16"/>
+      <c r="CP55" s="17"/>
+      <c r="CQ55" s="17"/>
+      <c r="CR55" s="17"/>
+      <c r="CS55" s="17"/>
+      <c r="CT55" s="17"/>
+      <c r="CU55" s="17"/>
+      <c r="CV55" s="17"/>
     </row>
     <row r="56" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A56" s="18" t="s">
@@ -11801,13 +11873,13 @@
       <c r="CM57" s="11"/>
       <c r="CN57" s="11"/>
       <c r="CO57" s="11"/>
-      <c r="CP57" s="11"/>
-      <c r="CQ57" s="11"/>
-      <c r="CR57" s="11"/>
-      <c r="CS57" s="11"/>
-      <c r="CT57" s="11"/>
-      <c r="CU57" s="11"/>
-      <c r="CV57" s="11"/>
+      <c r="CP57" s="13"/>
+      <c r="CQ57" s="13"/>
+      <c r="CR57" s="13"/>
+      <c r="CS57" s="13"/>
+      <c r="CT57" s="13"/>
+      <c r="CU57" s="13"/>
+      <c r="CV57" s="13"/>
       <c r="CW57" s="11"/>
       <c r="CX57" s="11"/>
       <c r="CY57" s="11"/>
@@ -11955,13 +12027,13 @@
       <c r="CM58" s="32"/>
       <c r="CN58" s="32"/>
       <c r="CO58" s="32"/>
-      <c r="CP58" s="32"/>
-      <c r="CQ58" s="32"/>
-      <c r="CR58" s="32"/>
-      <c r="CS58" s="32"/>
-      <c r="CT58" s="32"/>
-      <c r="CU58" s="32"/>
-      <c r="CV58" s="11"/>
+      <c r="CP58" s="38"/>
+      <c r="CQ58" s="38"/>
+      <c r="CR58" s="38"/>
+      <c r="CS58" s="38"/>
+      <c r="CT58" s="38"/>
+      <c r="CU58" s="38"/>
+      <c r="CV58" s="38"/>
       <c r="CW58" s="11"/>
       <c r="CX58" s="11"/>
       <c r="CY58" s="11"/>
@@ -12047,138 +12119,137 @@
       </c>
     </row>
     <row r="66" spans="1:149" x14ac:dyDescent="0.2">
-      <c r="CR66" s="8"/>
-      <c r="CS66" s="8"/>
-      <c r="CU66" s="8"/>
+      <c r="CS66" s="39"/>
+      <c r="CV66" s="39"/>
     </row>
     <row r="67" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
-      <c r="B67" s="37" t="s">
+      <c r="B67" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="C67" s="37"/>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37" t="s">
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="37" t="s">
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="K67" s="37"/>
-      <c r="L67" s="37"/>
-      <c r="M67" s="37"/>
-      <c r="N67" s="37" t="s">
+      <c r="K67" s="42"/>
+      <c r="L67" s="42"/>
+      <c r="M67" s="42"/>
+      <c r="N67" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="O67" s="37"/>
-      <c r="P67" s="37"/>
-      <c r="Q67" s="37"/>
-      <c r="R67" s="37" t="s">
+      <c r="O67" s="42"/>
+      <c r="P67" s="42"/>
+      <c r="Q67" s="42"/>
+      <c r="R67" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="S67" s="37"/>
-      <c r="T67" s="37"/>
-      <c r="U67" s="37"/>
-      <c r="V67" s="37" t="s">
+      <c r="S67" s="42"/>
+      <c r="T67" s="42"/>
+      <c r="U67" s="42"/>
+      <c r="V67" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="W67" s="37"/>
-      <c r="X67" s="37"/>
-      <c r="Y67" s="37"/>
-      <c r="Z67" s="37" t="s">
+      <c r="W67" s="42"/>
+      <c r="X67" s="42"/>
+      <c r="Y67" s="42"/>
+      <c r="Z67" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="AA67" s="37"/>
-      <c r="AB67" s="37"/>
-      <c r="AC67" s="37"/>
-      <c r="AD67" s="37" t="s">
+      <c r="AA67" s="42"/>
+      <c r="AB67" s="42"/>
+      <c r="AC67" s="42"/>
+      <c r="AD67" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="AE67" s="37"/>
-      <c r="AF67" s="37"/>
-      <c r="AG67" s="37"/>
-      <c r="AH67" s="37" t="s">
+      <c r="AE67" s="42"/>
+      <c r="AF67" s="42"/>
+      <c r="AG67" s="42"/>
+      <c r="AH67" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="AI67" s="37"/>
-      <c r="AJ67" s="37"/>
-      <c r="AK67" s="37"/>
-      <c r="AL67" s="37" t="s">
+      <c r="AI67" s="42"/>
+      <c r="AJ67" s="42"/>
+      <c r="AK67" s="42"/>
+      <c r="AL67" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="AM67" s="37"/>
-      <c r="AN67" s="37"/>
-      <c r="AO67" s="37"/>
-      <c r="AP67" s="37" t="s">
+      <c r="AM67" s="42"/>
+      <c r="AN67" s="42"/>
+      <c r="AO67" s="42"/>
+      <c r="AP67" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="AQ67" s="37"/>
-      <c r="AR67" s="37"/>
-      <c r="AS67" s="37"/>
-      <c r="AT67" s="37" t="s">
+      <c r="AQ67" s="42"/>
+      <c r="AR67" s="42"/>
+      <c r="AS67" s="42"/>
+      <c r="AT67" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="AU67" s="37"/>
-      <c r="AV67" s="37"/>
-      <c r="AW67" s="37"/>
-      <c r="AX67" s="37" t="s">
+      <c r="AU67" s="42"/>
+      <c r="AV67" s="42"/>
+      <c r="AW67" s="42"/>
+      <c r="AX67" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="AY67" s="37"/>
-      <c r="AZ67" s="37"/>
-      <c r="BA67" s="37"/>
-      <c r="BB67" s="37" t="s">
+      <c r="AY67" s="42"/>
+      <c r="AZ67" s="42"/>
+      <c r="BA67" s="42"/>
+      <c r="BB67" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="BC67" s="37"/>
-      <c r="BD67" s="37"/>
-      <c r="BE67" s="37"/>
-      <c r="BF67" s="37" t="s">
+      <c r="BC67" s="42"/>
+      <c r="BD67" s="42"/>
+      <c r="BE67" s="42"/>
+      <c r="BF67" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="BG67" s="37"/>
-      <c r="BH67" s="37"/>
-      <c r="BI67" s="37"/>
-      <c r="BJ67" s="37" t="s">
+      <c r="BG67" s="42"/>
+      <c r="BH67" s="42"/>
+      <c r="BI67" s="42"/>
+      <c r="BJ67" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="BK67" s="37"/>
-      <c r="BL67" s="37"/>
-      <c r="BM67" s="37"/>
-      <c r="BN67" s="37" t="s">
+      <c r="BK67" s="42"/>
+      <c r="BL67" s="42"/>
+      <c r="BM67" s="42"/>
+      <c r="BN67" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="BO67" s="37"/>
-      <c r="BP67" s="37"/>
-      <c r="BQ67" s="37"/>
-      <c r="BR67" s="38" t="s">
+      <c r="BO67" s="42"/>
+      <c r="BP67" s="42"/>
+      <c r="BQ67" s="42"/>
+      <c r="BR67" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="BS67" s="38"/>
-      <c r="BT67" s="38"/>
-      <c r="BU67" s="38"/>
-      <c r="BV67" s="38" t="s">
+      <c r="BS67" s="43"/>
+      <c r="BT67" s="43"/>
+      <c r="BU67" s="43"/>
+      <c r="BV67" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="BW67" s="38"/>
-      <c r="BX67" s="38"/>
-      <c r="BY67" s="38"/>
-      <c r="BZ67" s="38" t="s">
+      <c r="BW67" s="43"/>
+      <c r="BX67" s="43"/>
+      <c r="BY67" s="43"/>
+      <c r="BZ67" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="CA67" s="38"/>
-      <c r="CB67" s="38"/>
-      <c r="CC67" s="38"/>
-      <c r="CD67" s="38" t="s">
+      <c r="CA67" s="43"/>
+      <c r="CB67" s="43"/>
+      <c r="CC67" s="43"/>
+      <c r="CD67" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="CE67" s="38"/>
-      <c r="CF67" s="38"/>
-      <c r="CG67" s="38"/>
+      <c r="CE67" s="43"/>
+      <c r="CF67" s="43"/>
+      <c r="CG67" s="43"/>
       <c r="CH67" s="33" t="s">
         <v>57</v>
       </c>
@@ -12191,14 +12262,15 @@
       <c r="CM67" s="33"/>
       <c r="CN67" s="33"/>
       <c r="CO67" s="33"/>
-      <c r="CP67" s="33" t="s">
+      <c r="CP67" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="CQ67" s="33"/>
-      <c r="CR67" s="34"/>
+      <c r="CQ67" s="35"/>
+      <c r="CR67" s="35"/>
       <c r="CS67" s="34"/>
-      <c r="CT67" s="33"/>
-      <c r="CU67" s="34"/>
+      <c r="CT67" s="35"/>
+      <c r="CU67" s="35"/>
+      <c r="CV67" s="34"/>
     </row>
     <row r="68" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
@@ -12480,22 +12552,24 @@
       <c r="CO68" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CP68" s="7" t="s">
+      <c r="CP68" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="CQ68" s="7" t="s">
+      <c r="CQ68" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="CR68" s="7"/>
-      <c r="CS68" s="7"/>
-      <c r="CT68" s="7"/>
-      <c r="CU68" s="7"/>
+      <c r="CR68" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="CS68" s="6"/>
+      <c r="CT68" s="6"/>
+      <c r="CU68" s="6"/>
+      <c r="CV68" s="6"/>
     </row>
     <row r="69" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8"/>
-      <c r="CR69" s="8"/>
-      <c r="CS69" s="8"/>
-      <c r="CU69" s="8"/>
+      <c r="CS69" s="39"/>
+      <c r="CV69" s="39"/>
     </row>
     <row r="70" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
@@ -12777,17 +12851,19 @@
       <c r="CO70" s="26">
         <v>6.6407850669879025</v>
       </c>
-      <c r="CP70" s="26">
+      <c r="CP70" s="25">
         <v>4.96991437125169</v>
       </c>
-      <c r="CQ70" s="26">
-        <v>6.5046401730285481</v>
-      </c>
-      <c r="CR70" s="35"/>
-      <c r="CS70" s="35"/>
-      <c r="CT70" s="26"/>
-      <c r="CU70" s="35"/>
-      <c r="CV70" s="11"/>
+      <c r="CQ70" s="25">
+        <v>6.5917171229109783</v>
+      </c>
+      <c r="CR70" s="25">
+        <v>7.1509103185926506</v>
+      </c>
+      <c r="CS70" s="40"/>
+      <c r="CT70" s="25"/>
+      <c r="CU70" s="25"/>
+      <c r="CV70" s="40"/>
       <c r="CW70" s="11"/>
       <c r="CX70" s="11"/>
       <c r="CY70" s="11"/>
@@ -13118,17 +13194,19 @@
       <c r="CO71" s="26">
         <v>7.1850850768662156</v>
       </c>
-      <c r="CP71" s="26">
+      <c r="CP71" s="25">
         <v>5.8286037095096788</v>
       </c>
-      <c r="CQ71" s="26">
-        <v>7.7706591399698652</v>
-      </c>
-      <c r="CR71" s="35"/>
-      <c r="CS71" s="35"/>
-      <c r="CT71" s="26"/>
-      <c r="CU71" s="35"/>
-      <c r="CV71" s="11"/>
+      <c r="CQ71" s="25">
+        <v>8.9779820823999756</v>
+      </c>
+      <c r="CR71" s="25">
+        <v>4.5424944761713419</v>
+      </c>
+      <c r="CS71" s="40"/>
+      <c r="CT71" s="25"/>
+      <c r="CU71" s="25"/>
+      <c r="CV71" s="40"/>
       <c r="CW71" s="11"/>
       <c r="CX71" s="11"/>
       <c r="CY71" s="11"/>
@@ -13459,17 +13537,19 @@
       <c r="CO72" s="26">
         <v>2.38899405669099</v>
       </c>
-      <c r="CP72" s="26">
+      <c r="CP72" s="25">
         <v>5.1724593976887263</v>
       </c>
-      <c r="CQ72" s="26">
-        <v>-1.5145597930316939</v>
-      </c>
-      <c r="CR72" s="35"/>
-      <c r="CS72" s="35"/>
-      <c r="CT72" s="26"/>
-      <c r="CU72" s="35"/>
-      <c r="CV72" s="11"/>
+      <c r="CQ72" s="25">
+        <v>-2.3170708050168116</v>
+      </c>
+      <c r="CR72" s="25">
+        <v>8.2573837182209786</v>
+      </c>
+      <c r="CS72" s="40"/>
+      <c r="CT72" s="25"/>
+      <c r="CU72" s="25"/>
+      <c r="CV72" s="40"/>
       <c r="CW72" s="11"/>
       <c r="CX72" s="11"/>
       <c r="CY72" s="11"/>
@@ -13800,17 +13880,19 @@
       <c r="CO73" s="26">
         <v>6.7244694414080044</v>
       </c>
-      <c r="CP73" s="26">
+      <c r="CP73" s="25">
         <v>8.2026303168228054</v>
       </c>
-      <c r="CQ73" s="26">
-        <v>6.4807789556927702</v>
-      </c>
-      <c r="CR73" s="35"/>
-      <c r="CS73" s="35"/>
-      <c r="CT73" s="26"/>
-      <c r="CU73" s="35"/>
-      <c r="CV73" s="11"/>
+      <c r="CQ73" s="25">
+        <v>6.4974324132069938</v>
+      </c>
+      <c r="CR73" s="25">
+        <v>7.1861446794244159</v>
+      </c>
+      <c r="CS73" s="40"/>
+      <c r="CT73" s="25"/>
+      <c r="CU73" s="25"/>
+      <c r="CV73" s="40"/>
       <c r="CW73" s="11"/>
       <c r="CX73" s="11"/>
       <c r="CY73" s="11"/>
@@ -14141,17 +14223,19 @@
       <c r="CO74" s="26">
         <v>5.4595953741702203</v>
       </c>
-      <c r="CP74" s="26">
+      <c r="CP74" s="25">
         <v>6.2916945976033958</v>
       </c>
-      <c r="CQ74" s="26">
-        <v>4.9447182675008747</v>
-      </c>
-      <c r="CR74" s="35"/>
-      <c r="CS74" s="35"/>
-      <c r="CT74" s="26"/>
-      <c r="CU74" s="35"/>
-      <c r="CV74" s="11"/>
+      <c r="CQ74" s="25">
+        <v>5.4560244025401659</v>
+      </c>
+      <c r="CR74" s="25">
+        <v>5.6695374029335426</v>
+      </c>
+      <c r="CS74" s="40"/>
+      <c r="CT74" s="25"/>
+      <c r="CU74" s="25"/>
+      <c r="CV74" s="40"/>
       <c r="CW74" s="11"/>
       <c r="CX74" s="11"/>
       <c r="CY74" s="11"/>
@@ -14482,17 +14566,19 @@
       <c r="CO75" s="26">
         <v>10.867217915201081</v>
       </c>
-      <c r="CP75" s="26">
+      <c r="CP75" s="25">
         <v>10.538263525091821</v>
       </c>
-      <c r="CQ75" s="26">
-        <v>12.786784127537317</v>
-      </c>
-      <c r="CR75" s="35"/>
-      <c r="CS75" s="35"/>
-      <c r="CT75" s="26"/>
-      <c r="CU75" s="35"/>
-      <c r="CV75" s="11"/>
+      <c r="CQ75" s="25">
+        <v>12.620377015259749</v>
+      </c>
+      <c r="CR75" s="25">
+        <v>13.745190354017637</v>
+      </c>
+      <c r="CS75" s="40"/>
+      <c r="CT75" s="25"/>
+      <c r="CU75" s="25"/>
+      <c r="CV75" s="40"/>
       <c r="CW75" s="11"/>
       <c r="CX75" s="11"/>
       <c r="CY75" s="11"/>
@@ -14823,17 +14909,19 @@
       <c r="CO76" s="26">
         <v>12.212438971495814</v>
       </c>
-      <c r="CP76" s="26">
+      <c r="CP76" s="25">
         <v>8.6668977870239701</v>
       </c>
-      <c r="CQ76" s="26">
-        <v>15.199406717654114</v>
-      </c>
-      <c r="CR76" s="35"/>
-      <c r="CS76" s="35"/>
-      <c r="CT76" s="26"/>
-      <c r="CU76" s="35"/>
-      <c r="CV76" s="11"/>
+      <c r="CQ76" s="25">
+        <v>15.256741101970945</v>
+      </c>
+      <c r="CR76" s="25">
+        <v>7.1581684068678015</v>
+      </c>
+      <c r="CS76" s="40"/>
+      <c r="CT76" s="25"/>
+      <c r="CU76" s="25"/>
+      <c r="CV76" s="40"/>
       <c r="CW76" s="11"/>
       <c r="CX76" s="11"/>
       <c r="CY76" s="11"/>
@@ -15164,17 +15252,19 @@
       <c r="CO77" s="26">
         <v>5.4264941294991615</v>
       </c>
-      <c r="CP77" s="26">
+      <c r="CP77" s="25">
         <v>5.1847310819639318</v>
       </c>
-      <c r="CQ77" s="26">
-        <v>7.6632190780174341</v>
-      </c>
-      <c r="CR77" s="35"/>
-      <c r="CS77" s="35"/>
-      <c r="CT77" s="26"/>
-      <c r="CU77" s="35"/>
-      <c r="CV77" s="11"/>
+      <c r="CQ77" s="25">
+        <v>7.1301207138647555</v>
+      </c>
+      <c r="CR77" s="25">
+        <v>4.8649370311027553</v>
+      </c>
+      <c r="CS77" s="40"/>
+      <c r="CT77" s="25"/>
+      <c r="CU77" s="25"/>
+      <c r="CV77" s="40"/>
       <c r="CW77" s="11"/>
       <c r="CX77" s="11"/>
       <c r="CY77" s="11"/>
@@ -15505,17 +15595,19 @@
       <c r="CO78" s="26">
         <v>13.011160071898715</v>
       </c>
-      <c r="CP78" s="26">
+      <c r="CP78" s="25">
         <v>13.622884929850755</v>
       </c>
-      <c r="CQ78" s="26">
-        <v>22.955002468924661</v>
-      </c>
-      <c r="CR78" s="35"/>
-      <c r="CS78" s="35"/>
-      <c r="CT78" s="26"/>
-      <c r="CU78" s="35"/>
-      <c r="CV78" s="11"/>
+      <c r="CQ78" s="25">
+        <v>20.745463095478726</v>
+      </c>
+      <c r="CR78" s="25">
+        <v>8.0620443755723699</v>
+      </c>
+      <c r="CS78" s="40"/>
+      <c r="CT78" s="25"/>
+      <c r="CU78" s="25"/>
+      <c r="CV78" s="40"/>
       <c r="CW78" s="11"/>
       <c r="CX78" s="11"/>
       <c r="CY78" s="11"/>
@@ -15846,17 +15938,19 @@
       <c r="CO79" s="26">
         <v>12.150771316453685</v>
       </c>
-      <c r="CP79" s="26">
+      <c r="CP79" s="25">
         <v>7.7588479064327913</v>
       </c>
-      <c r="CQ79" s="26">
-        <v>4.2183042892419422</v>
-      </c>
-      <c r="CR79" s="35"/>
-      <c r="CS79" s="35"/>
-      <c r="CT79" s="26"/>
-      <c r="CU79" s="35"/>
-      <c r="CV79" s="11"/>
+      <c r="CQ79" s="25">
+        <v>3.922273479420582</v>
+      </c>
+      <c r="CR79" s="25">
+        <v>6.8358722306577846</v>
+      </c>
+      <c r="CS79" s="40"/>
+      <c r="CT79" s="25"/>
+      <c r="CU79" s="25"/>
+      <c r="CV79" s="40"/>
       <c r="CW79" s="11"/>
       <c r="CX79" s="11"/>
       <c r="CY79" s="11"/>
@@ -16187,17 +16281,19 @@
       <c r="CO80" s="26">
         <v>22.413320366373625</v>
       </c>
-      <c r="CP80" s="26">
+      <c r="CP80" s="25">
         <v>17.992139050251879</v>
       </c>
-      <c r="CQ80" s="26">
-        <v>15.33880160673273</v>
-      </c>
-      <c r="CR80" s="35"/>
-      <c r="CS80" s="35"/>
-      <c r="CT80" s="26"/>
-      <c r="CU80" s="35"/>
-      <c r="CV80" s="11"/>
+      <c r="CQ80" s="25">
+        <v>16.943177019293415</v>
+      </c>
+      <c r="CR80" s="25">
+        <v>14.750664392473439</v>
+      </c>
+      <c r="CS80" s="40"/>
+      <c r="CT80" s="25"/>
+      <c r="CU80" s="25"/>
+      <c r="CV80" s="40"/>
       <c r="CW80" s="11"/>
       <c r="CX80" s="11"/>
       <c r="CY80" s="11"/>
@@ -16528,17 +16624,19 @@
       <c r="CO81" s="26">
         <v>13.104278911044958</v>
       </c>
-      <c r="CP81" s="26">
+      <c r="CP81" s="25">
         <v>9.4112267678161174</v>
       </c>
-      <c r="CQ81" s="26">
-        <v>11.418374358044531</v>
-      </c>
-      <c r="CR81" s="35"/>
-      <c r="CS81" s="35"/>
-      <c r="CT81" s="26"/>
-      <c r="CU81" s="35"/>
-      <c r="CV81" s="11"/>
+      <c r="CQ81" s="25">
+        <v>11.300525353314043</v>
+      </c>
+      <c r="CR81" s="25">
+        <v>10.299439397034632</v>
+      </c>
+      <c r="CS81" s="40"/>
+      <c r="CT81" s="25"/>
+      <c r="CU81" s="25"/>
+      <c r="CV81" s="40"/>
       <c r="CW81" s="11"/>
       <c r="CX81" s="11"/>
       <c r="CY81" s="11"/>
@@ -16682,13 +16780,13 @@
       <c r="CM82" s="11"/>
       <c r="CN82" s="11"/>
       <c r="CO82" s="11"/>
-      <c r="CP82" s="11"/>
-      <c r="CQ82" s="11"/>
-      <c r="CR82" s="36"/>
-      <c r="CS82" s="36"/>
-      <c r="CT82" s="11"/>
-      <c r="CU82" s="36"/>
-      <c r="CV82" s="11"/>
+      <c r="CP82" s="13"/>
+      <c r="CQ82" s="13"/>
+      <c r="CR82" s="13"/>
+      <c r="CS82" s="41"/>
+      <c r="CT82" s="13"/>
+      <c r="CU82" s="13"/>
+      <c r="CV82" s="41"/>
       <c r="CW82" s="11"/>
       <c r="CX82" s="11"/>
       <c r="CY82" s="11"/>
@@ -17019,17 +17117,19 @@
       <c r="CO83" s="26">
         <v>9.6063032098021353</v>
       </c>
-      <c r="CP83" s="26">
+      <c r="CP83" s="25">
         <v>8.1890406744913378</v>
       </c>
-      <c r="CQ83" s="26">
-        <v>8.6747844229882105</v>
-      </c>
-      <c r="CR83" s="35"/>
-      <c r="CS83" s="35"/>
-      <c r="CT83" s="26"/>
-      <c r="CU83" s="35"/>
-      <c r="CV83" s="11"/>
+      <c r="CQ83" s="25">
+        <v>8.7521517728650622</v>
+      </c>
+      <c r="CR83" s="25">
+        <v>8.3894707898161727</v>
+      </c>
+      <c r="CS83" s="40"/>
+      <c r="CT83" s="25"/>
+      <c r="CU83" s="25"/>
+      <c r="CV83" s="40"/>
       <c r="CW83" s="11"/>
       <c r="CX83" s="11"/>
       <c r="CY83" s="11"/>
@@ -17174,20 +17274,20 @@
       <c r="CM84" s="16"/>
       <c r="CN84" s="16"/>
       <c r="CO84" s="16"/>
-      <c r="CP84" s="16"/>
-      <c r="CQ84" s="16"/>
-      <c r="CR84" s="7"/>
-      <c r="CS84" s="7"/>
-      <c r="CT84" s="16"/>
-      <c r="CU84" s="7"/>
+      <c r="CP84" s="17"/>
+      <c r="CQ84" s="17"/>
+      <c r="CR84" s="17"/>
+      <c r="CS84" s="6"/>
+      <c r="CT84" s="17"/>
+      <c r="CU84" s="17"/>
+      <c r="CV84" s="6"/>
     </row>
     <row r="85" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A85" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="CR85" s="8"/>
-      <c r="CS85" s="8"/>
-      <c r="CU85" s="8"/>
+      <c r="CS85" s="39"/>
+      <c r="CV85" s="39"/>
     </row>
     <row r="86" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="13"/>
@@ -17282,13 +17382,13 @@
       <c r="CM86" s="11"/>
       <c r="CN86" s="11"/>
       <c r="CO86" s="11"/>
-      <c r="CP86" s="11"/>
-      <c r="CQ86" s="11"/>
-      <c r="CR86" s="36"/>
-      <c r="CS86" s="36"/>
-      <c r="CT86" s="11"/>
-      <c r="CU86" s="36"/>
-      <c r="CV86" s="11"/>
+      <c r="CP86" s="13"/>
+      <c r="CQ86" s="13"/>
+      <c r="CR86" s="13"/>
+      <c r="CS86" s="41"/>
+      <c r="CT86" s="13"/>
+      <c r="CU86" s="13"/>
+      <c r="CV86" s="41"/>
       <c r="CW86" s="11"/>
       <c r="CX86" s="11"/>
       <c r="CY86" s="11"/>
@@ -17432,13 +17532,13 @@
       <c r="CM87" s="11"/>
       <c r="CN87" s="11"/>
       <c r="CO87" s="11"/>
-      <c r="CP87" s="11"/>
-      <c r="CQ87" s="11"/>
-      <c r="CR87" s="36"/>
-      <c r="CS87" s="36"/>
-      <c r="CT87" s="11"/>
-      <c r="CU87" s="36"/>
-      <c r="CV87" s="11"/>
+      <c r="CP87" s="13"/>
+      <c r="CQ87" s="13"/>
+      <c r="CR87" s="13"/>
+      <c r="CS87" s="41"/>
+      <c r="CT87" s="13"/>
+      <c r="CU87" s="13"/>
+      <c r="CV87" s="41"/>
       <c r="CW87" s="11"/>
       <c r="CX87" s="11"/>
       <c r="CY87" s="11"/>
@@ -17493,188 +17593,180 @@
       <c r="A88" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="CR88" s="8"/>
-      <c r="CS88" s="8"/>
-      <c r="CU88" s="8"/>
+      <c r="CS88" s="39"/>
+      <c r="CV88" s="39"/>
     </row>
     <row r="89" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="CR89" s="8"/>
-      <c r="CS89" s="8"/>
-      <c r="CU89" s="8"/>
+      <c r="CS89" s="39"/>
+      <c r="CV89" s="39"/>
     </row>
     <row r="90" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="CR90" s="8"/>
-      <c r="CS90" s="8"/>
-      <c r="CU90" s="8"/>
+      <c r="CS90" s="39"/>
+      <c r="CV90" s="39"/>
     </row>
     <row r="91" spans="1:149" x14ac:dyDescent="0.2">
-      <c r="CR91" s="8"/>
-      <c r="CS91" s="8"/>
-      <c r="CU91" s="8"/>
+      <c r="CS91" s="39"/>
+      <c r="CV91" s="39"/>
     </row>
     <row r="92" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="CR92" s="8"/>
-      <c r="CS92" s="8"/>
-      <c r="CU92" s="8"/>
+      <c r="CS92" s="39"/>
+      <c r="CV92" s="39"/>
     </row>
     <row r="93" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="CR93" s="8"/>
-      <c r="CS93" s="8"/>
-      <c r="CU93" s="8"/>
+      <c r="CS93" s="39"/>
+      <c r="CV93" s="39"/>
     </row>
     <row r="94" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="CR94" s="8"/>
-      <c r="CS94" s="8"/>
-      <c r="CU94" s="8"/>
+      <c r="CS94" s="39"/>
+      <c r="CV94" s="39"/>
     </row>
     <row r="95" spans="1:149" x14ac:dyDescent="0.2">
-      <c r="CR95" s="8"/>
-      <c r="CS95" s="8"/>
-      <c r="CU95" s="8"/>
+      <c r="CS95" s="39"/>
+      <c r="CV95" s="39"/>
     </row>
     <row r="96" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
-      <c r="B96" s="37" t="s">
+      <c r="B96" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="C96" s="37"/>
-      <c r="D96" s="37"/>
-      <c r="E96" s="37"/>
-      <c r="F96" s="37" t="s">
+      <c r="C96" s="42"/>
+      <c r="D96" s="42"/>
+      <c r="E96" s="42"/>
+      <c r="F96" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="G96" s="37"/>
-      <c r="H96" s="37"/>
-      <c r="I96" s="37"/>
-      <c r="J96" s="37" t="s">
+      <c r="G96" s="42"/>
+      <c r="H96" s="42"/>
+      <c r="I96" s="42"/>
+      <c r="J96" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="K96" s="37"/>
-      <c r="L96" s="37"/>
-      <c r="M96" s="37"/>
-      <c r="N96" s="37" t="s">
+      <c r="K96" s="42"/>
+      <c r="L96" s="42"/>
+      <c r="M96" s="42"/>
+      <c r="N96" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="O96" s="37"/>
-      <c r="P96" s="37"/>
-      <c r="Q96" s="37"/>
-      <c r="R96" s="37" t="s">
+      <c r="O96" s="42"/>
+      <c r="P96" s="42"/>
+      <c r="Q96" s="42"/>
+      <c r="R96" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="S96" s="37"/>
-      <c r="T96" s="37"/>
-      <c r="U96" s="37"/>
-      <c r="V96" s="37" t="s">
+      <c r="S96" s="42"/>
+      <c r="T96" s="42"/>
+      <c r="U96" s="42"/>
+      <c r="V96" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="W96" s="37"/>
-      <c r="X96" s="37"/>
-      <c r="Y96" s="37"/>
-      <c r="Z96" s="37" t="s">
+      <c r="W96" s="42"/>
+      <c r="X96" s="42"/>
+      <c r="Y96" s="42"/>
+      <c r="Z96" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="AA96" s="37"/>
-      <c r="AB96" s="37"/>
-      <c r="AC96" s="37"/>
-      <c r="AD96" s="37" t="s">
+      <c r="AA96" s="42"/>
+      <c r="AB96" s="42"/>
+      <c r="AC96" s="42"/>
+      <c r="AD96" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="AE96" s="37"/>
-      <c r="AF96" s="37"/>
-      <c r="AG96" s="37"/>
-      <c r="AH96" s="37" t="s">
+      <c r="AE96" s="42"/>
+      <c r="AF96" s="42"/>
+      <c r="AG96" s="42"/>
+      <c r="AH96" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="AI96" s="37"/>
-      <c r="AJ96" s="37"/>
-      <c r="AK96" s="37"/>
-      <c r="AL96" s="37" t="s">
+      <c r="AI96" s="42"/>
+      <c r="AJ96" s="42"/>
+      <c r="AK96" s="42"/>
+      <c r="AL96" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="AM96" s="37"/>
-      <c r="AN96" s="37"/>
-      <c r="AO96" s="37"/>
-      <c r="AP96" s="37" t="s">
+      <c r="AM96" s="42"/>
+      <c r="AN96" s="42"/>
+      <c r="AO96" s="42"/>
+      <c r="AP96" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="AQ96" s="37"/>
-      <c r="AR96" s="37"/>
-      <c r="AS96" s="37"/>
-      <c r="AT96" s="37" t="s">
+      <c r="AQ96" s="42"/>
+      <c r="AR96" s="42"/>
+      <c r="AS96" s="42"/>
+      <c r="AT96" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="AU96" s="37"/>
-      <c r="AV96" s="37"/>
-      <c r="AW96" s="37"/>
-      <c r="AX96" s="37" t="s">
+      <c r="AU96" s="42"/>
+      <c r="AV96" s="42"/>
+      <c r="AW96" s="42"/>
+      <c r="AX96" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="AY96" s="37"/>
-      <c r="AZ96" s="37"/>
-      <c r="BA96" s="37"/>
-      <c r="BB96" s="37" t="s">
+      <c r="AY96" s="42"/>
+      <c r="AZ96" s="42"/>
+      <c r="BA96" s="42"/>
+      <c r="BB96" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="BC96" s="37"/>
-      <c r="BD96" s="37"/>
-      <c r="BE96" s="37"/>
-      <c r="BF96" s="37" t="s">
+      <c r="BC96" s="42"/>
+      <c r="BD96" s="42"/>
+      <c r="BE96" s="42"/>
+      <c r="BF96" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="BG96" s="37"/>
-      <c r="BH96" s="37"/>
-      <c r="BI96" s="37"/>
-      <c r="BJ96" s="37" t="s">
+      <c r="BG96" s="42"/>
+      <c r="BH96" s="42"/>
+      <c r="BI96" s="42"/>
+      <c r="BJ96" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="BK96" s="37"/>
-      <c r="BL96" s="37"/>
-      <c r="BM96" s="37"/>
-      <c r="BN96" s="37" t="s">
+      <c r="BK96" s="42"/>
+      <c r="BL96" s="42"/>
+      <c r="BM96" s="42"/>
+      <c r="BN96" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="BO96" s="37"/>
-      <c r="BP96" s="37"/>
-      <c r="BQ96" s="37"/>
-      <c r="BR96" s="38" t="s">
+      <c r="BO96" s="42"/>
+      <c r="BP96" s="42"/>
+      <c r="BQ96" s="42"/>
+      <c r="BR96" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="BS96" s="38"/>
-      <c r="BT96" s="38"/>
-      <c r="BU96" s="38"/>
-      <c r="BV96" s="38" t="s">
+      <c r="BS96" s="43"/>
+      <c r="BT96" s="43"/>
+      <c r="BU96" s="43"/>
+      <c r="BV96" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="BW96" s="38"/>
-      <c r="BX96" s="38"/>
-      <c r="BY96" s="38"/>
-      <c r="BZ96" s="38" t="s">
+      <c r="BW96" s="43"/>
+      <c r="BX96" s="43"/>
+      <c r="BY96" s="43"/>
+      <c r="BZ96" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="CA96" s="38"/>
-      <c r="CB96" s="38"/>
-      <c r="CC96" s="38"/>
-      <c r="CD96" s="38" t="s">
+      <c r="CA96" s="43"/>
+      <c r="CB96" s="43"/>
+      <c r="CC96" s="43"/>
+      <c r="CD96" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="CE96" s="38"/>
-      <c r="CF96" s="38"/>
-      <c r="CG96" s="38"/>
+      <c r="CE96" s="43"/>
+      <c r="CF96" s="43"/>
+      <c r="CG96" s="43"/>
       <c r="CH96" s="33" t="s">
         <v>57</v>
       </c>
@@ -17687,14 +17779,15 @@
       <c r="CM96" s="33"/>
       <c r="CN96" s="33"/>
       <c r="CO96" s="33"/>
-      <c r="CP96" s="33" t="s">
+      <c r="CP96" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="CQ96" s="33"/>
-      <c r="CR96" s="34"/>
+      <c r="CQ96" s="35"/>
+      <c r="CR96" s="35"/>
       <c r="CS96" s="34"/>
-      <c r="CT96" s="33"/>
-      <c r="CU96" s="34"/>
+      <c r="CT96" s="35"/>
+      <c r="CU96" s="35"/>
+      <c r="CV96" s="34"/>
     </row>
     <row r="97" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
@@ -17976,22 +18069,24 @@
       <c r="CO97" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CP97" s="7" t="s">
+      <c r="CP97" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="CQ97" s="7" t="s">
+      <c r="CQ97" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="CR97" s="7"/>
-      <c r="CS97" s="7"/>
-      <c r="CT97" s="7"/>
-      <c r="CU97" s="7"/>
+      <c r="CR97" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="CS97" s="6"/>
+      <c r="CT97" s="6"/>
+      <c r="CU97" s="6"/>
+      <c r="CV97" s="6"/>
     </row>
     <row r="98" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8"/>
-      <c r="CR98" s="8"/>
-      <c r="CS98" s="8"/>
-      <c r="CU98" s="8"/>
+      <c r="CS98" s="39"/>
+      <c r="CV98" s="39"/>
     </row>
     <row r="99" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
@@ -18273,17 +18368,19 @@
       <c r="CO99" s="26">
         <v>0.57656851574672885</v>
       </c>
-      <c r="CP99" s="26">
+      <c r="CP99" s="25">
         <v>0.41425805134203131</v>
       </c>
-      <c r="CQ99" s="26">
-        <v>0.47607563493259875</v>
-      </c>
-      <c r="CR99" s="35"/>
-      <c r="CS99" s="35"/>
-      <c r="CT99" s="26"/>
-      <c r="CU99" s="35"/>
-      <c r="CV99" s="11"/>
+      <c r="CQ99" s="25">
+        <v>0.55822370085940065</v>
+      </c>
+      <c r="CR99" s="25">
+        <v>3.1732139549992127</v>
+      </c>
+      <c r="CS99" s="40"/>
+      <c r="CT99" s="25"/>
+      <c r="CU99" s="25"/>
+      <c r="CV99" s="40"/>
       <c r="CW99" s="11"/>
       <c r="CX99" s="11"/>
       <c r="CY99" s="11"/>
@@ -18614,17 +18711,19 @@
       <c r="CO100" s="26">
         <v>0.63387444398476589</v>
       </c>
-      <c r="CP100" s="26">
+      <c r="CP100" s="25">
         <v>-1.9041752671768393</v>
       </c>
-      <c r="CQ100" s="26">
-        <v>3.299690818115522</v>
-      </c>
-      <c r="CR100" s="35"/>
-      <c r="CS100" s="35"/>
-      <c r="CT100" s="26"/>
-      <c r="CU100" s="35"/>
-      <c r="CV100" s="11"/>
+      <c r="CQ100" s="25">
+        <v>4.456926819694317</v>
+      </c>
+      <c r="CR100" s="25">
+        <v>1.2392898359612872</v>
+      </c>
+      <c r="CS100" s="40"/>
+      <c r="CT100" s="25"/>
+      <c r="CU100" s="25"/>
+      <c r="CV100" s="40"/>
       <c r="CW100" s="11"/>
       <c r="CX100" s="11"/>
       <c r="CY100" s="11"/>
@@ -18955,17 +19054,19 @@
       <c r="CO101" s="26">
         <v>-1.9530033990081961</v>
       </c>
-      <c r="CP101" s="26">
+      <c r="CP101" s="25">
         <v>1.4408223199961157</v>
       </c>
-      <c r="CQ101" s="26">
-        <v>-4.7595038944722603</v>
-      </c>
-      <c r="CR101" s="35"/>
-      <c r="CS101" s="35"/>
-      <c r="CT101" s="26"/>
-      <c r="CU101" s="35"/>
-      <c r="CV101" s="11"/>
+      <c r="CQ101" s="25">
+        <v>-5.535573400289465</v>
+      </c>
+      <c r="CR101" s="25">
+        <v>5.0715582444504719</v>
+      </c>
+      <c r="CS101" s="40"/>
+      <c r="CT101" s="25"/>
+      <c r="CU101" s="25"/>
+      <c r="CV101" s="40"/>
       <c r="CW101" s="11"/>
       <c r="CX101" s="11"/>
       <c r="CY101" s="11"/>
@@ -19296,17 +19397,19 @@
       <c r="CO102" s="26">
         <v>4.43514974692674</v>
       </c>
-      <c r="CP102" s="26">
+      <c r="CP102" s="25">
         <v>7.4478686656172783</v>
       </c>
-      <c r="CQ102" s="26">
-        <v>5.9742951162281059</v>
-      </c>
-      <c r="CR102" s="35"/>
-      <c r="CS102" s="35"/>
-      <c r="CT102" s="26"/>
-      <c r="CU102" s="35"/>
-      <c r="CV102" s="11"/>
+      <c r="CQ102" s="25">
+        <v>5.9908693603182286</v>
+      </c>
+      <c r="CR102" s="25">
+        <v>3.9587165661489507</v>
+      </c>
+      <c r="CS102" s="40"/>
+      <c r="CT102" s="25"/>
+      <c r="CU102" s="25"/>
+      <c r="CV102" s="40"/>
       <c r="CW102" s="11"/>
       <c r="CX102" s="11"/>
       <c r="CY102" s="11"/>
@@ -19637,17 +19740,19 @@
       <c r="CO103" s="26">
         <v>0.57911228743697052</v>
       </c>
-      <c r="CP103" s="26">
+      <c r="CP103" s="25">
         <v>2.7388506621586401</v>
       </c>
-      <c r="CQ103" s="26">
-        <v>1.9199597118907832</v>
-      </c>
-      <c r="CR103" s="35"/>
-      <c r="CS103" s="35"/>
-      <c r="CT103" s="26"/>
-      <c r="CU103" s="35"/>
-      <c r="CV103" s="11"/>
+      <c r="CQ103" s="25">
+        <v>2.4165287774326742</v>
+      </c>
+      <c r="CR103" s="25">
+        <v>2.8963620090894864</v>
+      </c>
+      <c r="CS103" s="40"/>
+      <c r="CT103" s="25"/>
+      <c r="CU103" s="25"/>
+      <c r="CV103" s="40"/>
       <c r="CW103" s="11"/>
       <c r="CX103" s="11"/>
       <c r="CY103" s="11"/>
@@ -19978,17 +20083,19 @@
       <c r="CO104" s="26">
         <v>6.8017809196891506</v>
       </c>
-      <c r="CP104" s="26">
+      <c r="CP104" s="25">
         <v>7.1245374309853986</v>
       </c>
-      <c r="CQ104" s="26">
-        <v>9.5389169399472564</v>
-      </c>
-      <c r="CR104" s="35"/>
-      <c r="CS104" s="35"/>
-      <c r="CT104" s="26"/>
-      <c r="CU104" s="35"/>
-      <c r="CV104" s="11"/>
+      <c r="CQ104" s="25">
+        <v>9.3773017738532047</v>
+      </c>
+      <c r="CR104" s="25">
+        <v>10.823126242705655</v>
+      </c>
+      <c r="CS104" s="40"/>
+      <c r="CT104" s="25"/>
+      <c r="CU104" s="25"/>
+      <c r="CV104" s="40"/>
       <c r="CW104" s="11"/>
       <c r="CX104" s="11"/>
       <c r="CY104" s="11"/>
@@ -20319,17 +20426,19 @@
       <c r="CO105" s="26">
         <v>11.982082412149637</v>
       </c>
-      <c r="CP105" s="26">
+      <c r="CP105" s="25">
         <v>7.5813421994999288</v>
       </c>
-      <c r="CQ105" s="26">
-        <v>11.803439454821145</v>
-      </c>
-      <c r="CR105" s="35"/>
-      <c r="CS105" s="35"/>
-      <c r="CT105" s="26"/>
-      <c r="CU105" s="35"/>
-      <c r="CV105" s="11"/>
+      <c r="CQ105" s="25">
+        <v>11.859083676855704</v>
+      </c>
+      <c r="CR105" s="25">
+        <v>6.8276033629392003</v>
+      </c>
+      <c r="CS105" s="40"/>
+      <c r="CT105" s="25"/>
+      <c r="CU105" s="25"/>
+      <c r="CV105" s="40"/>
       <c r="CW105" s="11"/>
       <c r="CX105" s="11"/>
       <c r="CY105" s="11"/>
@@ -20660,17 +20769,19 @@
       <c r="CO106" s="26">
         <v>4.7782406057255145</v>
       </c>
-      <c r="CP106" s="26">
+      <c r="CP106" s="25">
         <v>4.7426355423372257</v>
       </c>
-      <c r="CQ106" s="26">
-        <v>7.1415949545774282</v>
-      </c>
-      <c r="CR106" s="35"/>
-      <c r="CS106" s="35"/>
-      <c r="CT106" s="26"/>
-      <c r="CU106" s="35"/>
-      <c r="CV106" s="11"/>
+      <c r="CQ106" s="25">
+        <v>6.6110794313363357</v>
+      </c>
+      <c r="CR106" s="25">
+        <v>4.3907415794117099</v>
+      </c>
+      <c r="CS106" s="40"/>
+      <c r="CT106" s="25"/>
+      <c r="CU106" s="25"/>
+      <c r="CV106" s="40"/>
       <c r="CW106" s="11"/>
       <c r="CX106" s="11"/>
       <c r="CY106" s="11"/>
@@ -21001,17 +21112,19 @@
       <c r="CO107" s="26">
         <v>7.9598286401135283</v>
       </c>
-      <c r="CP107" s="26">
+      <c r="CP107" s="25">
         <v>9.3694455346242052</v>
       </c>
-      <c r="CQ107" s="26">
-        <v>18.698049123203091</v>
-      </c>
-      <c r="CR107" s="35"/>
-      <c r="CS107" s="35"/>
-      <c r="CT107" s="26"/>
-      <c r="CU107" s="35"/>
-      <c r="CV107" s="11"/>
+      <c r="CQ107" s="25">
+        <v>16.565008516293105</v>
+      </c>
+      <c r="CR107" s="25">
+        <v>4.7499164041640825</v>
+      </c>
+      <c r="CS107" s="40"/>
+      <c r="CT107" s="25"/>
+      <c r="CU107" s="25"/>
+      <c r="CV107" s="40"/>
       <c r="CW107" s="11"/>
       <c r="CX107" s="11"/>
       <c r="CY107" s="11"/>
@@ -21342,17 +21455,19 @@
       <c r="CO108" s="26">
         <v>8.2532640595830173</v>
       </c>
-      <c r="CP108" s="26">
+      <c r="CP108" s="25">
         <v>3.8369487625245</v>
       </c>
-      <c r="CQ108" s="26">
-        <v>0.42526375185182985</v>
-      </c>
-      <c r="CR108" s="35"/>
-      <c r="CS108" s="35"/>
-      <c r="CT108" s="26"/>
-      <c r="CU108" s="35"/>
-      <c r="CV108" s="11"/>
+      <c r="CQ108" s="25">
+        <v>0.14000702696330336</v>
+      </c>
+      <c r="CR108" s="25">
+        <v>1.4389163630192314</v>
+      </c>
+      <c r="CS108" s="40"/>
+      <c r="CT108" s="25"/>
+      <c r="CU108" s="25"/>
+      <c r="CV108" s="40"/>
       <c r="CW108" s="11"/>
       <c r="CX108" s="11"/>
       <c r="CY108" s="11"/>
@@ -21683,17 +21798,19 @@
       <c r="CO109" s="26">
         <v>15.6490650027811</v>
       </c>
-      <c r="CP109" s="26">
+      <c r="CP109" s="25">
         <v>11.868732466242477</v>
       </c>
-      <c r="CQ109" s="26">
-        <v>9.5778625046274612</v>
-      </c>
-      <c r="CR109" s="35"/>
-      <c r="CS109" s="35"/>
-      <c r="CT109" s="26"/>
-      <c r="CU109" s="35"/>
-      <c r="CV109" s="11"/>
+      <c r="CQ109" s="25">
+        <v>11.102102620827139</v>
+      </c>
+      <c r="CR109" s="25">
+        <v>9.7563349577751239</v>
+      </c>
+      <c r="CS109" s="40"/>
+      <c r="CT109" s="25"/>
+      <c r="CU109" s="25"/>
+      <c r="CV109" s="40"/>
       <c r="CW109" s="11"/>
       <c r="CX109" s="11"/>
       <c r="CY109" s="11"/>
@@ -22024,17 +22141,19 @@
       <c r="CO110" s="26">
         <v>10.401569856689804</v>
       </c>
-      <c r="CP110" s="26">
+      <c r="CP110" s="25">
         <v>5.4270278700563352</v>
       </c>
-      <c r="CQ110" s="26">
-        <v>7.8226233563223389</v>
-      </c>
-      <c r="CR110" s="35"/>
-      <c r="CS110" s="35"/>
-      <c r="CT110" s="26"/>
-      <c r="CU110" s="35"/>
-      <c r="CV110" s="11"/>
+      <c r="CQ110" s="25">
+        <v>7.7085776351997026</v>
+      </c>
+      <c r="CR110" s="25">
+        <v>7.0937966398346077</v>
+      </c>
+      <c r="CS110" s="40"/>
+      <c r="CT110" s="25"/>
+      <c r="CU110" s="25"/>
+      <c r="CV110" s="40"/>
       <c r="CW110" s="11"/>
       <c r="CX110" s="11"/>
       <c r="CY110" s="11"/>
@@ -22178,13 +22297,13 @@
       <c r="CM111" s="11"/>
       <c r="CN111" s="11"/>
       <c r="CO111" s="11"/>
-      <c r="CP111" s="11"/>
-      <c r="CQ111" s="11"/>
-      <c r="CR111" s="36"/>
-      <c r="CS111" s="36"/>
-      <c r="CT111" s="11"/>
-      <c r="CU111" s="36"/>
-      <c r="CV111" s="11"/>
+      <c r="CP111" s="13"/>
+      <c r="CQ111" s="13"/>
+      <c r="CR111" s="13"/>
+      <c r="CS111" s="41"/>
+      <c r="CT111" s="13"/>
+      <c r="CU111" s="13"/>
+      <c r="CV111" s="41"/>
       <c r="CW111" s="11"/>
       <c r="CX111" s="11"/>
       <c r="CY111" s="11"/>
@@ -22515,17 +22634,19 @@
       <c r="CO112" s="26">
         <v>5.3289809060774331</v>
       </c>
-      <c r="CP112" s="26">
+      <c r="CP112" s="25">
         <v>4.5830449810836598</v>
       </c>
-      <c r="CQ112" s="26">
-        <v>4.6421977890352508</v>
-      </c>
-      <c r="CR112" s="35"/>
-      <c r="CS112" s="35"/>
-      <c r="CT112" s="26"/>
-      <c r="CU112" s="35"/>
-      <c r="CV112" s="11"/>
+      <c r="CQ112" s="25">
+        <v>4.7023525834933224</v>
+      </c>
+      <c r="CR112" s="25">
+        <v>5.1080621512273154</v>
+      </c>
+      <c r="CS112" s="40"/>
+      <c r="CT112" s="25"/>
+      <c r="CU112" s="25"/>
+      <c r="CV112" s="40"/>
       <c r="CW112" s="11"/>
       <c r="CX112" s="11"/>
       <c r="CY112" s="11"/>
@@ -22670,20 +22791,20 @@
       <c r="CM113" s="16"/>
       <c r="CN113" s="16"/>
       <c r="CO113" s="16"/>
-      <c r="CP113" s="16"/>
-      <c r="CQ113" s="16"/>
-      <c r="CR113" s="7"/>
-      <c r="CS113" s="7"/>
-      <c r="CT113" s="16"/>
-      <c r="CU113" s="7"/>
+      <c r="CP113" s="17"/>
+      <c r="CQ113" s="17"/>
+      <c r="CR113" s="17"/>
+      <c r="CS113" s="6"/>
+      <c r="CT113" s="17"/>
+      <c r="CU113" s="17"/>
+      <c r="CV113" s="6"/>
     </row>
     <row r="114" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A114" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="CR114" s="8"/>
-      <c r="CS114" s="8"/>
-      <c r="CU114" s="8"/>
+      <c r="CS114" s="39"/>
+      <c r="CV114" s="39"/>
     </row>
     <row r="115" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="13"/>
@@ -22778,13 +22899,13 @@
       <c r="CM115" s="11"/>
       <c r="CN115" s="11"/>
       <c r="CO115" s="11"/>
-      <c r="CP115" s="11"/>
-      <c r="CQ115" s="11"/>
-      <c r="CR115" s="36"/>
-      <c r="CS115" s="36"/>
-      <c r="CT115" s="11"/>
-      <c r="CU115" s="36"/>
-      <c r="CV115" s="11"/>
+      <c r="CP115" s="13"/>
+      <c r="CQ115" s="13"/>
+      <c r="CR115" s="13"/>
+      <c r="CS115" s="41"/>
+      <c r="CT115" s="13"/>
+      <c r="CU115" s="13"/>
+      <c r="CV115" s="41"/>
       <c r="CW115" s="11"/>
       <c r="CX115" s="11"/>
       <c r="CY115" s="11"/>
@@ -22928,13 +23049,13 @@
       <c r="CM116" s="11"/>
       <c r="CN116" s="11"/>
       <c r="CO116" s="11"/>
-      <c r="CP116" s="11"/>
-      <c r="CQ116" s="11"/>
-      <c r="CR116" s="36"/>
-      <c r="CS116" s="36"/>
-      <c r="CT116" s="11"/>
-      <c r="CU116" s="36"/>
-      <c r="CV116" s="11"/>
+      <c r="CP116" s="13"/>
+      <c r="CQ116" s="13"/>
+      <c r="CR116" s="13"/>
+      <c r="CS116" s="41"/>
+      <c r="CT116" s="13"/>
+      <c r="CU116" s="13"/>
+      <c r="CV116" s="41"/>
       <c r="CW116" s="11"/>
       <c r="CX116" s="11"/>
       <c r="CY116" s="11"/>
@@ -23012,132 +23133,132 @@
     </row>
     <row r="124" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
-      <c r="B124" s="37">
+      <c r="B124" s="42">
         <v>2000</v>
       </c>
-      <c r="C124" s="37"/>
-      <c r="D124" s="37"/>
-      <c r="E124" s="37"/>
-      <c r="F124" s="37">
+      <c r="C124" s="42"/>
+      <c r="D124" s="42"/>
+      <c r="E124" s="42"/>
+      <c r="F124" s="42">
         <v>2001</v>
       </c>
-      <c r="G124" s="37"/>
-      <c r="H124" s="37"/>
-      <c r="I124" s="37"/>
-      <c r="J124" s="37">
+      <c r="G124" s="42"/>
+      <c r="H124" s="42"/>
+      <c r="I124" s="42"/>
+      <c r="J124" s="42">
         <v>2002</v>
       </c>
-      <c r="K124" s="37"/>
-      <c r="L124" s="37"/>
-      <c r="M124" s="37"/>
-      <c r="N124" s="37">
+      <c r="K124" s="42"/>
+      <c r="L124" s="42"/>
+      <c r="M124" s="42"/>
+      <c r="N124" s="42">
         <v>2003</v>
       </c>
-      <c r="O124" s="37"/>
-      <c r="P124" s="37"/>
-      <c r="Q124" s="37"/>
-      <c r="R124" s="37">
+      <c r="O124" s="42"/>
+      <c r="P124" s="42"/>
+      <c r="Q124" s="42"/>
+      <c r="R124" s="42">
         <v>2004</v>
       </c>
-      <c r="S124" s="37"/>
-      <c r="T124" s="37"/>
-      <c r="U124" s="37"/>
-      <c r="V124" s="37">
+      <c r="S124" s="42"/>
+      <c r="T124" s="42"/>
+      <c r="U124" s="42"/>
+      <c r="V124" s="42">
         <v>2005</v>
       </c>
-      <c r="W124" s="37"/>
-      <c r="X124" s="37"/>
-      <c r="Y124" s="37"/>
-      <c r="Z124" s="37">
+      <c r="W124" s="42"/>
+      <c r="X124" s="42"/>
+      <c r="Y124" s="42"/>
+      <c r="Z124" s="42">
         <v>2006</v>
       </c>
-      <c r="AA124" s="37"/>
-      <c r="AB124" s="37"/>
-      <c r="AC124" s="37"/>
-      <c r="AD124" s="37">
+      <c r="AA124" s="42"/>
+      <c r="AB124" s="42"/>
+      <c r="AC124" s="42"/>
+      <c r="AD124" s="42">
         <v>2007</v>
       </c>
-      <c r="AE124" s="37"/>
-      <c r="AF124" s="37"/>
-      <c r="AG124" s="37"/>
-      <c r="AH124" s="37">
+      <c r="AE124" s="42"/>
+      <c r="AF124" s="42"/>
+      <c r="AG124" s="42"/>
+      <c r="AH124" s="42">
         <v>2008</v>
       </c>
-      <c r="AI124" s="37"/>
-      <c r="AJ124" s="37"/>
-      <c r="AK124" s="37"/>
-      <c r="AL124" s="37">
+      <c r="AI124" s="42"/>
+      <c r="AJ124" s="42"/>
+      <c r="AK124" s="42"/>
+      <c r="AL124" s="42">
         <v>2009</v>
       </c>
-      <c r="AM124" s="37"/>
-      <c r="AN124" s="37"/>
-      <c r="AO124" s="37"/>
-      <c r="AP124" s="37">
+      <c r="AM124" s="42"/>
+      <c r="AN124" s="42"/>
+      <c r="AO124" s="42"/>
+      <c r="AP124" s="42">
         <v>2010</v>
       </c>
-      <c r="AQ124" s="37"/>
-      <c r="AR124" s="37"/>
-      <c r="AS124" s="37"/>
-      <c r="AT124" s="37">
+      <c r="AQ124" s="42"/>
+      <c r="AR124" s="42"/>
+      <c r="AS124" s="42"/>
+      <c r="AT124" s="42">
         <v>2011</v>
       </c>
-      <c r="AU124" s="37"/>
-      <c r="AV124" s="37"/>
-      <c r="AW124" s="37"/>
-      <c r="AX124" s="37">
+      <c r="AU124" s="42"/>
+      <c r="AV124" s="42"/>
+      <c r="AW124" s="42"/>
+      <c r="AX124" s="42">
         <v>2012</v>
       </c>
-      <c r="AY124" s="37"/>
-      <c r="AZ124" s="37"/>
-      <c r="BA124" s="37"/>
-      <c r="BB124" s="37">
+      <c r="AY124" s="42"/>
+      <c r="AZ124" s="42"/>
+      <c r="BA124" s="42"/>
+      <c r="BB124" s="42">
         <v>2013</v>
       </c>
-      <c r="BC124" s="37"/>
-      <c r="BD124" s="37"/>
-      <c r="BE124" s="37"/>
-      <c r="BF124" s="37">
+      <c r="BC124" s="42"/>
+      <c r="BD124" s="42"/>
+      <c r="BE124" s="42"/>
+      <c r="BF124" s="42">
         <v>2014</v>
       </c>
-      <c r="BG124" s="37"/>
-      <c r="BH124" s="37"/>
-      <c r="BI124" s="37"/>
-      <c r="BJ124" s="37">
+      <c r="BG124" s="42"/>
+      <c r="BH124" s="42"/>
+      <c r="BI124" s="42"/>
+      <c r="BJ124" s="42">
         <v>2015</v>
       </c>
-      <c r="BK124" s="37"/>
-      <c r="BL124" s="37"/>
-      <c r="BM124" s="37"/>
-      <c r="BN124" s="37">
+      <c r="BK124" s="42"/>
+      <c r="BL124" s="42"/>
+      <c r="BM124" s="42"/>
+      <c r="BN124" s="42">
         <v>2016</v>
       </c>
-      <c r="BO124" s="37"/>
-      <c r="BP124" s="37"/>
-      <c r="BQ124" s="37"/>
-      <c r="BR124" s="38">
+      <c r="BO124" s="42"/>
+      <c r="BP124" s="42"/>
+      <c r="BQ124" s="42"/>
+      <c r="BR124" s="43">
         <v>2017</v>
       </c>
-      <c r="BS124" s="38"/>
-      <c r="BT124" s="38"/>
-      <c r="BU124" s="38"/>
-      <c r="BV124" s="38">
+      <c r="BS124" s="43"/>
+      <c r="BT124" s="43"/>
+      <c r="BU124" s="43"/>
+      <c r="BV124" s="43">
         <v>2018</v>
       </c>
-      <c r="BW124" s="38"/>
-      <c r="BX124" s="38"/>
-      <c r="BY124" s="38"/>
-      <c r="BZ124" s="38">
+      <c r="BW124" s="43"/>
+      <c r="BX124" s="43"/>
+      <c r="BY124" s="43"/>
+      <c r="BZ124" s="43">
         <v>2019</v>
       </c>
-      <c r="CA124" s="38"/>
-      <c r="CB124" s="38"/>
-      <c r="CC124" s="38"/>
-      <c r="CD124" s="38">
+      <c r="CA124" s="43"/>
+      <c r="CB124" s="43"/>
+      <c r="CC124" s="43"/>
+      <c r="CD124" s="43">
         <v>2020</v>
       </c>
-      <c r="CE124" s="38"/>
-      <c r="CF124" s="38"/>
-      <c r="CG124" s="38"/>
+      <c r="CE124" s="43"/>
+      <c r="CF124" s="43"/>
+      <c r="CG124" s="43"/>
       <c r="CH124" s="33">
         <v>2021</v>
       </c>
@@ -23150,16 +23271,17 @@
       <c r="CM124" s="33"/>
       <c r="CN124" s="33"/>
       <c r="CO124" s="33"/>
-      <c r="CP124" s="33">
+      <c r="CP124" s="35">
         <v>2023</v>
       </c>
-      <c r="CQ124" s="33"/>
-      <c r="CR124" s="33"/>
-      <c r="CS124" s="33"/>
-      <c r="CT124" s="33">
+      <c r="CQ124" s="35"/>
+      <c r="CR124" s="35"/>
+      <c r="CS124" s="35"/>
+      <c r="CT124" s="35">
         <v>2024</v>
       </c>
-      <c r="CU124" s="33"/>
+      <c r="CU124" s="35"/>
+      <c r="CV124" s="35"/>
     </row>
     <row r="125" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
@@ -23441,23 +23563,26 @@
       <c r="CO125" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CP125" s="7" t="s">
+      <c r="CP125" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="CQ125" s="7" t="s">
+      <c r="CQ125" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="CR125" s="7" t="s">
+      <c r="CR125" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="CS125" s="7" t="s">
+      <c r="CS125" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="CT125" s="7" t="s">
+      <c r="CT125" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="CU125" s="7" t="s">
+      <c r="CU125" s="6" t="s">
         <v>20</v>
+      </c>
+      <c r="CV125" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="126" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -23743,25 +23868,27 @@
       <c r="CO127" s="26">
         <v>119.63502738941952</v>
       </c>
-      <c r="CP127" s="26">
+      <c r="CP127" s="25">
         <v>121.40993984588135</v>
       </c>
-      <c r="CQ127" s="26">
+      <c r="CQ127" s="25">
         <v>123.69950887022809</v>
       </c>
-      <c r="CR127" s="26">
+      <c r="CR127" s="25">
         <v>127.42154968922502</v>
       </c>
-      <c r="CS127" s="26">
+      <c r="CS127" s="25">
         <v>126.84836468964291</v>
       </c>
-      <c r="CT127" s="26">
+      <c r="CT127" s="25">
         <v>126.91814127556216</v>
       </c>
-      <c r="CU127" s="26">
+      <c r="CU127" s="25">
         <v>131.12147940244179</v>
       </c>
-      <c r="CV127" s="11"/>
+      <c r="CV127" s="25">
+        <v>132.33410611170245</v>
+      </c>
       <c r="CW127" s="11"/>
       <c r="CX127" s="11"/>
       <c r="CY127" s="11"/>
@@ -24096,25 +24223,27 @@
       <c r="CO128" s="26">
         <v>157.85711271445632</v>
       </c>
-      <c r="CP128" s="26">
+      <c r="CP128" s="25">
         <v>155.8613031242264</v>
       </c>
-      <c r="CQ128" s="26">
+      <c r="CQ128" s="25">
         <v>174.33891502019807</v>
       </c>
-      <c r="CR128" s="26">
+      <c r="CR128" s="25">
         <v>183.72355552326766</v>
       </c>
-      <c r="CS128" s="26">
+      <c r="CS128" s="25">
         <v>168.13352511539742</v>
       </c>
-      <c r="CT128" s="26">
+      <c r="CT128" s="25">
         <v>168.14766710924428</v>
       </c>
-      <c r="CU128" s="26">
-        <v>181.88456941808195</v>
-      </c>
-      <c r="CV128" s="11"/>
+      <c r="CU128" s="25">
+        <v>181.88456941808192</v>
+      </c>
+      <c r="CV128" s="25">
+        <v>189.71803160171186</v>
+      </c>
       <c r="CW128" s="11"/>
       <c r="CX128" s="11"/>
       <c r="CY128" s="11"/>
@@ -24449,25 +24578,27 @@
       <c r="CO129" s="26">
         <v>107.88943773035248</v>
       </c>
-      <c r="CP129" s="26">
+      <c r="CP129" s="25">
         <v>110.80516327271272</v>
       </c>
-      <c r="CQ129" s="26">
+      <c r="CQ129" s="25">
         <v>121.9091653254432</v>
       </c>
-      <c r="CR129" s="26">
+      <c r="CR129" s="25">
         <v>111.64012378769115</v>
       </c>
-      <c r="CS129" s="26">
+      <c r="CS129" s="25">
         <v>112.6673063072801</v>
       </c>
-      <c r="CT129" s="26">
+      <c r="CT129" s="25">
         <v>114.8812802265353</v>
       </c>
-      <c r="CU129" s="26">
+      <c r="CU129" s="25">
         <v>126.0627391003637</v>
       </c>
-      <c r="CV129" s="11"/>
+      <c r="CV129" s="25">
+        <v>115.02511165881664</v>
+      </c>
       <c r="CW129" s="11"/>
       <c r="CX129" s="11"/>
       <c r="CY129" s="11"/>
@@ -24802,25 +24933,27 @@
       <c r="CO130" s="26">
         <v>117.1180284754346</v>
       </c>
-      <c r="CP130" s="26">
+      <c r="CP130" s="25">
         <v>112.94682454743001</v>
       </c>
-      <c r="CQ130" s="26">
+      <c r="CQ130" s="25">
         <v>117.12289797159234</v>
       </c>
-      <c r="CR130" s="26">
+      <c r="CR130" s="25">
         <v>122.54913860948859</v>
       </c>
-      <c r="CS130" s="26">
+      <c r="CS130" s="25">
         <v>119.68536916309918</v>
       </c>
-      <c r="CT130" s="26">
+      <c r="CT130" s="25">
         <v>113.74021331216329</v>
       </c>
-      <c r="CU130" s="26">
+      <c r="CU130" s="25">
         <v>117.68266442239836</v>
       </c>
-      <c r="CV130" s="11"/>
+      <c r="CV130" s="25">
+        <v>126.35371169648212</v>
+      </c>
       <c r="CW130" s="11"/>
       <c r="CX130" s="11"/>
       <c r="CY130" s="11"/>
@@ -25155,25 +25288,27 @@
       <c r="CO131" s="26">
         <v>111.84049601763029</v>
       </c>
-      <c r="CP131" s="26">
+      <c r="CP131" s="25">
         <v>118.43763277423901</v>
       </c>
-      <c r="CQ131" s="26">
+      <c r="CQ131" s="25">
         <v>118.89366595869345</v>
       </c>
-      <c r="CR131" s="26">
+      <c r="CR131" s="25">
         <v>118.95780616944631</v>
       </c>
-      <c r="CS131" s="26">
+      <c r="CS131" s="25">
         <v>117.26742450021625</v>
       </c>
-      <c r="CT131" s="26">
+      <c r="CT131" s="25">
         <v>122.53336114396834</v>
       </c>
-      <c r="CU131" s="26">
+      <c r="CU131" s="25">
         <v>122.42216650297347</v>
       </c>
-      <c r="CV131" s="11"/>
+      <c r="CV131" s="25">
+        <v>122.16385597075647</v>
+      </c>
       <c r="CW131" s="11"/>
       <c r="CX131" s="11"/>
       <c r="CY131" s="11"/>
@@ -25508,25 +25643,27 @@
       <c r="CO132" s="26">
         <v>114.33049868938599</v>
       </c>
-      <c r="CP132" s="26">
+      <c r="CP132" s="25">
         <v>112.67232134559868</v>
       </c>
-      <c r="CQ132" s="26">
+      <c r="CQ132" s="25">
         <v>113.5777891047194</v>
       </c>
-      <c r="CR132" s="26">
+      <c r="CR132" s="25">
         <v>118.97475055448687</v>
       </c>
-      <c r="CS132" s="26">
+      <c r="CS132" s="25">
         <v>118.68251824453434</v>
       </c>
-      <c r="CT132" s="26">
+      <c r="CT132" s="25">
         <v>116.26283807206586</v>
       </c>
-      <c r="CU132" s="26">
+      <c r="CU132" s="25">
         <v>116.94541026418801</v>
       </c>
-      <c r="CV132" s="11"/>
+      <c r="CV132" s="25">
+        <v>122.11174786302874</v>
+      </c>
       <c r="CW132" s="11"/>
       <c r="CX132" s="11"/>
       <c r="CY132" s="11"/>
@@ -25861,25 +25998,27 @@
       <c r="CO133" s="26">
         <v>126.45166811592503</v>
       </c>
-      <c r="CP133" s="26">
+      <c r="CP133" s="25">
         <v>132.39182950639261</v>
       </c>
-      <c r="CQ133" s="26">
+      <c r="CQ133" s="25">
         <v>124.41080168946679</v>
       </c>
-      <c r="CR133" s="26">
+      <c r="CR133" s="25">
         <v>140.44225185798436</v>
       </c>
-      <c r="CS133" s="26">
+      <c r="CS133" s="25">
         <v>126.71178982971456</v>
       </c>
-      <c r="CT133" s="26">
+      <c r="CT133" s="25">
         <v>133.72773671227856</v>
       </c>
-      <c r="CU133" s="26">
+      <c r="CU133" s="25">
         <v>128.18971056508292</v>
       </c>
-      <c r="CV133" s="11"/>
+      <c r="CV133" s="25">
+        <v>140.87683334903534</v>
+      </c>
       <c r="CW133" s="11"/>
       <c r="CX133" s="11"/>
       <c r="CY133" s="11"/>
@@ -26214,25 +26353,27 @@
       <c r="CO134" s="26">
         <v>97.770891822858133</v>
       </c>
-      <c r="CP134" s="26">
+      <c r="CP134" s="25">
         <v>105.67435954176283</v>
       </c>
-      <c r="CQ134" s="26">
+      <c r="CQ134" s="25">
         <v>102.77543821658408</v>
       </c>
-      <c r="CR134" s="26">
+      <c r="CR134" s="25">
         <v>100.89748349875232</v>
       </c>
-      <c r="CS134" s="26">
+      <c r="CS134" s="25">
         <v>98.375791511765456</v>
       </c>
-      <c r="CT134" s="26">
+      <c r="CT134" s="25">
         <v>106.12038768268582</v>
       </c>
-      <c r="CU134" s="26">
+      <c r="CU134" s="25">
         <v>103.27580549125099</v>
       </c>
-      <c r="CV134" s="11"/>
+      <c r="CV134" s="25">
+        <v>101.35581080861039</v>
+      </c>
       <c r="CW134" s="11"/>
       <c r="CX134" s="11"/>
       <c r="CY134" s="11"/>
@@ -26567,25 +26708,27 @@
       <c r="CO135" s="26">
         <v>107.41817077769586</v>
       </c>
-      <c r="CP135" s="26">
+      <c r="CP135" s="25">
         <v>109.01624515776258</v>
       </c>
-      <c r="CQ135" s="26">
+      <c r="CQ135" s="25">
         <v>108.16345917774601</v>
       </c>
-      <c r="CR135" s="26">
+      <c r="CR135" s="25">
         <v>106.80310994543314</v>
       </c>
-      <c r="CS135" s="26">
+      <c r="CS135" s="25">
         <v>112.4441585847257</v>
       </c>
-      <c r="CT135" s="26">
+      <c r="CT135" s="25">
         <v>113.25594839121189</v>
       </c>
-      <c r="CU135" s="26">
+      <c r="CU135" s="25">
         <v>112.04260296176558</v>
       </c>
-      <c r="CV135" s="11"/>
+      <c r="CV135" s="25">
+        <v>110.18015863460613</v>
+      </c>
       <c r="CW135" s="11"/>
       <c r="CX135" s="11"/>
       <c r="CY135" s="11"/>
@@ -26920,25 +27063,27 @@
       <c r="CO136" s="26">
         <v>102.55628118766403</v>
       </c>
-      <c r="CP136" s="26">
+      <c r="CP136" s="25">
         <v>108.12715026223094</v>
       </c>
-      <c r="CQ136" s="26">
+      <c r="CQ136" s="25">
         <v>110.46767080521592</v>
       </c>
-      <c r="CR136" s="26">
+      <c r="CR136" s="25">
         <v>112.47162690709465</v>
       </c>
-      <c r="CS136" s="26">
+      <c r="CS136" s="25">
         <v>106.24867654995613</v>
       </c>
-      <c r="CT136" s="26">
+      <c r="CT136" s="25">
         <v>112.21108939084039</v>
       </c>
-      <c r="CU136" s="26">
+      <c r="CU136" s="25">
         <v>114.64001088958562</v>
       </c>
-      <c r="CV136" s="11"/>
+      <c r="CV136" s="25">
+        <v>118.45556708057615</v>
+      </c>
       <c r="CW136" s="11"/>
       <c r="CX136" s="11"/>
       <c r="CY136" s="11"/>
@@ -27273,25 +27418,27 @@
       <c r="CO137" s="26">
         <v>116.21057920620589</v>
       </c>
-      <c r="CP137" s="26">
+      <c r="CP137" s="25">
         <v>120.83454632830689</v>
       </c>
-      <c r="CQ137" s="26">
+      <c r="CQ137" s="25">
         <v>117.57103978064248</v>
       </c>
-      <c r="CR137" s="26">
+      <c r="CR137" s="25">
         <v>125.44749203813173</v>
       </c>
-      <c r="CS137" s="26">
+      <c r="CS137" s="25">
         <v>123.00767725177046</v>
       </c>
-      <c r="CT137" s="26">
+      <c r="CT137" s="25">
         <v>127.44871849465214</v>
       </c>
-      <c r="CU137" s="26">
+      <c r="CU137" s="25">
         <v>123.75221164205632</v>
       </c>
-      <c r="CV137" s="11"/>
+      <c r="CV137" s="25">
+        <v>131.1558286205819</v>
+      </c>
       <c r="CW137" s="11"/>
       <c r="CX137" s="11"/>
       <c r="CY137" s="11"/>
@@ -27626,25 +27773,27 @@
       <c r="CO138" s="26">
         <v>107.40108882700197</v>
       </c>
-      <c r="CP138" s="26">
+      <c r="CP138" s="25">
         <v>120.37521199573725</v>
       </c>
-      <c r="CQ138" s="26">
+      <c r="CQ138" s="25">
         <v>122.91305655599656</v>
       </c>
-      <c r="CR138" s="26">
+      <c r="CR138" s="25">
         <v>109.23987810896793</v>
       </c>
-      <c r="CS138" s="26">
+      <c r="CS138" s="25">
         <v>110.03034396890929</v>
       </c>
-      <c r="CT138" s="26">
+      <c r="CT138" s="25">
         <v>124.92431858292233</v>
       </c>
-      <c r="CU138" s="26">
+      <c r="CU138" s="25">
         <v>127.01205482257924</v>
       </c>
-      <c r="CV138" s="11"/>
+      <c r="CV138" s="25">
+        <v>112.50975960579379</v>
+      </c>
       <c r="CW138" s="11"/>
       <c r="CX138" s="11"/>
       <c r="CY138" s="11"/>
@@ -27792,13 +27941,13 @@
       <c r="CM139" s="11"/>
       <c r="CN139" s="11"/>
       <c r="CO139" s="11"/>
-      <c r="CP139" s="11"/>
-      <c r="CQ139" s="11"/>
-      <c r="CR139" s="11"/>
-      <c r="CS139" s="11"/>
-      <c r="CT139" s="11"/>
-      <c r="CU139" s="11"/>
-      <c r="CV139" s="11"/>
+      <c r="CP139" s="13"/>
+      <c r="CQ139" s="13"/>
+      <c r="CR139" s="13"/>
+      <c r="CS139" s="13"/>
+      <c r="CT139" s="13"/>
+      <c r="CU139" s="13"/>
+      <c r="CV139" s="13"/>
       <c r="CW139" s="11"/>
       <c r="CX139" s="11"/>
       <c r="CY139" s="11"/>
@@ -28133,25 +28282,27 @@
       <c r="CO140" s="26">
         <v>115.90357754779208</v>
       </c>
-      <c r="CP140" s="26">
+      <c r="CP140" s="25">
         <v>119.6132201691011</v>
       </c>
-      <c r="CQ140" s="26">
+      <c r="CQ140" s="25">
         <v>120.72109957702943</v>
       </c>
-      <c r="CR140" s="26">
+      <c r="CR140" s="25">
         <v>123.04679079388126</v>
       </c>
-      <c r="CS140" s="26">
+      <c r="CS140" s="25">
         <v>120.61032542536555</v>
       </c>
-      <c r="CT140" s="26">
+      <c r="CT140" s="25">
         <v>123.73745232243358</v>
       </c>
-      <c r="CU140" s="26">
-        <v>125.37331735223221</v>
-      </c>
-      <c r="CV140" s="11"/>
+      <c r="CU140" s="25">
+        <v>125.39049046599973</v>
+      </c>
+      <c r="CV140" s="25">
+        <v>126.88823543664087</v>
+      </c>
       <c r="CW140" s="11"/>
       <c r="CX140" s="11"/>
       <c r="CY140" s="11"/>
@@ -28300,12 +28451,13 @@
       <c r="CM141" s="16"/>
       <c r="CN141" s="16"/>
       <c r="CO141" s="16"/>
-      <c r="CP141" s="16"/>
-      <c r="CQ141" s="16"/>
-      <c r="CR141" s="16"/>
-      <c r="CS141" s="16"/>
-      <c r="CT141" s="16"/>
-      <c r="CU141" s="16"/>
+      <c r="CP141" s="17"/>
+      <c r="CQ141" s="17"/>
+      <c r="CR141" s="17"/>
+      <c r="CS141" s="17"/>
+      <c r="CT141" s="17"/>
+      <c r="CU141" s="17"/>
+      <c r="CV141" s="17"/>
     </row>
     <row r="142" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A142" s="18" t="s">
@@ -28344,132 +28496,132 @@
     </row>
     <row r="153" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A153" s="4"/>
-      <c r="B153" s="37">
+      <c r="B153" s="42">
         <v>2000</v>
       </c>
-      <c r="C153" s="37"/>
-      <c r="D153" s="37"/>
-      <c r="E153" s="37"/>
-      <c r="F153" s="37">
+      <c r="C153" s="42"/>
+      <c r="D153" s="42"/>
+      <c r="E153" s="42"/>
+      <c r="F153" s="42">
         <v>2001</v>
       </c>
-      <c r="G153" s="37"/>
-      <c r="H153" s="37"/>
-      <c r="I153" s="37"/>
-      <c r="J153" s="37">
+      <c r="G153" s="42"/>
+      <c r="H153" s="42"/>
+      <c r="I153" s="42"/>
+      <c r="J153" s="42">
         <v>2002</v>
       </c>
-      <c r="K153" s="37"/>
-      <c r="L153" s="37"/>
-      <c r="M153" s="37"/>
-      <c r="N153" s="37">
+      <c r="K153" s="42"/>
+      <c r="L153" s="42"/>
+      <c r="M153" s="42"/>
+      <c r="N153" s="42">
         <v>2003</v>
       </c>
-      <c r="O153" s="37"/>
-      <c r="P153" s="37"/>
-      <c r="Q153" s="37"/>
-      <c r="R153" s="37">
+      <c r="O153" s="42"/>
+      <c r="P153" s="42"/>
+      <c r="Q153" s="42"/>
+      <c r="R153" s="42">
         <v>2004</v>
       </c>
-      <c r="S153" s="37"/>
-      <c r="T153" s="37"/>
-      <c r="U153" s="37"/>
-      <c r="V153" s="37">
+      <c r="S153" s="42"/>
+      <c r="T153" s="42"/>
+      <c r="U153" s="42"/>
+      <c r="V153" s="42">
         <v>2005</v>
       </c>
-      <c r="W153" s="37"/>
-      <c r="X153" s="37"/>
-      <c r="Y153" s="37"/>
-      <c r="Z153" s="37">
+      <c r="W153" s="42"/>
+      <c r="X153" s="42"/>
+      <c r="Y153" s="42"/>
+      <c r="Z153" s="42">
         <v>2006</v>
       </c>
-      <c r="AA153" s="37"/>
-      <c r="AB153" s="37"/>
-      <c r="AC153" s="37"/>
-      <c r="AD153" s="37">
+      <c r="AA153" s="42"/>
+      <c r="AB153" s="42"/>
+      <c r="AC153" s="42"/>
+      <c r="AD153" s="42">
         <v>2007</v>
       </c>
-      <c r="AE153" s="37"/>
-      <c r="AF153" s="37"/>
-      <c r="AG153" s="37"/>
-      <c r="AH153" s="37">
+      <c r="AE153" s="42"/>
+      <c r="AF153" s="42"/>
+      <c r="AG153" s="42"/>
+      <c r="AH153" s="42">
         <v>2008</v>
       </c>
-      <c r="AI153" s="37"/>
-      <c r="AJ153" s="37"/>
-      <c r="AK153" s="37"/>
-      <c r="AL153" s="37">
+      <c r="AI153" s="42"/>
+      <c r="AJ153" s="42"/>
+      <c r="AK153" s="42"/>
+      <c r="AL153" s="42">
         <v>2009</v>
       </c>
-      <c r="AM153" s="37"/>
-      <c r="AN153" s="37"/>
-      <c r="AO153" s="37"/>
-      <c r="AP153" s="37">
+      <c r="AM153" s="42"/>
+      <c r="AN153" s="42"/>
+      <c r="AO153" s="42"/>
+      <c r="AP153" s="42">
         <v>2010</v>
       </c>
-      <c r="AQ153" s="37"/>
-      <c r="AR153" s="37"/>
-      <c r="AS153" s="37"/>
-      <c r="AT153" s="37">
+      <c r="AQ153" s="42"/>
+      <c r="AR153" s="42"/>
+      <c r="AS153" s="42"/>
+      <c r="AT153" s="42">
         <v>2011</v>
       </c>
-      <c r="AU153" s="37"/>
-      <c r="AV153" s="37"/>
-      <c r="AW153" s="37"/>
-      <c r="AX153" s="37">
+      <c r="AU153" s="42"/>
+      <c r="AV153" s="42"/>
+      <c r="AW153" s="42"/>
+      <c r="AX153" s="42">
         <v>2012</v>
       </c>
-      <c r="AY153" s="37"/>
-      <c r="AZ153" s="37"/>
-      <c r="BA153" s="37"/>
-      <c r="BB153" s="37">
+      <c r="AY153" s="42"/>
+      <c r="AZ153" s="42"/>
+      <c r="BA153" s="42"/>
+      <c r="BB153" s="42">
         <v>2013</v>
       </c>
-      <c r="BC153" s="37"/>
-      <c r="BD153" s="37"/>
-      <c r="BE153" s="37"/>
-      <c r="BF153" s="37">
+      <c r="BC153" s="42"/>
+      <c r="BD153" s="42"/>
+      <c r="BE153" s="42"/>
+      <c r="BF153" s="42">
         <v>2014</v>
       </c>
-      <c r="BG153" s="37"/>
-      <c r="BH153" s="37"/>
-      <c r="BI153" s="37"/>
-      <c r="BJ153" s="37">
+      <c r="BG153" s="42"/>
+      <c r="BH153" s="42"/>
+      <c r="BI153" s="42"/>
+      <c r="BJ153" s="42">
         <v>2015</v>
       </c>
-      <c r="BK153" s="37"/>
-      <c r="BL153" s="37"/>
-      <c r="BM153" s="37"/>
-      <c r="BN153" s="37">
+      <c r="BK153" s="42"/>
+      <c r="BL153" s="42"/>
+      <c r="BM153" s="42"/>
+      <c r="BN153" s="42">
         <v>2016</v>
       </c>
-      <c r="BO153" s="37"/>
-      <c r="BP153" s="37"/>
-      <c r="BQ153" s="37"/>
-      <c r="BR153" s="38">
+      <c r="BO153" s="42"/>
+      <c r="BP153" s="42"/>
+      <c r="BQ153" s="42"/>
+      <c r="BR153" s="43">
         <v>2017</v>
       </c>
-      <c r="BS153" s="38"/>
-      <c r="BT153" s="38"/>
-      <c r="BU153" s="38"/>
-      <c r="BV153" s="38">
+      <c r="BS153" s="43"/>
+      <c r="BT153" s="43"/>
+      <c r="BU153" s="43"/>
+      <c r="BV153" s="43">
         <v>2018</v>
       </c>
-      <c r="BW153" s="38"/>
-      <c r="BX153" s="38"/>
-      <c r="BY153" s="38"/>
-      <c r="BZ153" s="38">
+      <c r="BW153" s="43"/>
+      <c r="BX153" s="43"/>
+      <c r="BY153" s="43"/>
+      <c r="BZ153" s="43">
         <v>2019</v>
       </c>
-      <c r="CA153" s="38"/>
-      <c r="CB153" s="38"/>
-      <c r="CC153" s="38"/>
-      <c r="CD153" s="38">
+      <c r="CA153" s="43"/>
+      <c r="CB153" s="43"/>
+      <c r="CC153" s="43"/>
+      <c r="CD153" s="43">
         <v>2020</v>
       </c>
-      <c r="CE153" s="38"/>
-      <c r="CF153" s="38"/>
-      <c r="CG153" s="38"/>
+      <c r="CE153" s="43"/>
+      <c r="CF153" s="43"/>
+      <c r="CG153" s="43"/>
       <c r="CH153" s="33">
         <v>2021</v>
       </c>
@@ -28482,16 +28634,17 @@
       <c r="CM153" s="33"/>
       <c r="CN153" s="33"/>
       <c r="CO153" s="33"/>
-      <c r="CP153" s="33">
+      <c r="CP153" s="35">
         <v>2023</v>
       </c>
-      <c r="CQ153" s="33"/>
-      <c r="CR153" s="33"/>
-      <c r="CS153" s="33"/>
-      <c r="CT153" s="33">
+      <c r="CQ153" s="35"/>
+      <c r="CR153" s="35"/>
+      <c r="CS153" s="35"/>
+      <c r="CT153" s="35">
         <v>2024</v>
       </c>
-      <c r="CU153" s="33"/>
+      <c r="CU153" s="35"/>
+      <c r="CV153" s="35"/>
     </row>
     <row r="154" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
@@ -28773,23 +28926,26 @@
       <c r="CO154" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CP154" s="7" t="s">
+      <c r="CP154" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="CQ154" s="7" t="s">
+      <c r="CQ154" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="CR154" s="7" t="s">
+      <c r="CR154" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="CS154" s="7" t="s">
+      <c r="CS154" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="CT154" s="7" t="s">
+      <c r="CT154" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="CU154" s="7" t="s">
+      <c r="CU154" s="6" t="s">
         <v>20</v>
+      </c>
+      <c r="CV154" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="155" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -29075,25 +29231,27 @@
       <c r="CO156" s="26">
         <v>39.706183158320783</v>
       </c>
-      <c r="CP156" s="26">
+      <c r="CP156" s="25">
         <v>34.777375121766887</v>
       </c>
-      <c r="CQ156" s="26">
+      <c r="CQ156" s="25">
         <v>38.953757662196161</v>
       </c>
-      <c r="CR156" s="26">
+      <c r="CR156" s="25">
         <v>34.585890301288167</v>
       </c>
-      <c r="CS156" s="26">
+      <c r="CS156" s="25">
         <v>38.631889043022369</v>
       </c>
-      <c r="CT156" s="26">
+      <c r="CT156" s="25">
         <v>33.74258673364406</v>
       </c>
-      <c r="CU156" s="26">
-        <v>38.175883809914964</v>
-      </c>
-      <c r="CV156" s="11"/>
+      <c r="CU156" s="25">
+        <v>38.179915062970267</v>
+      </c>
+      <c r="CV156" s="25">
+        <v>34.190679251016356</v>
+      </c>
       <c r="CW156" s="11"/>
       <c r="CX156" s="11"/>
       <c r="CY156" s="11"/>
@@ -29428,25 +29586,27 @@
       <c r="CO157" s="26">
         <v>2.2388896384068375</v>
       </c>
-      <c r="CP157" s="26">
+      <c r="CP157" s="25">
         <v>1.7737668698004467</v>
       </c>
-      <c r="CQ157" s="26">
+      <c r="CQ157" s="25">
         <v>1.7909937470875148</v>
       </c>
-      <c r="CR157" s="26">
+      <c r="CR157" s="25">
         <v>1.8015391961785365</v>
       </c>
-      <c r="CS157" s="26">
+      <c r="CS157" s="25">
         <v>2.1894322620388316</v>
       </c>
-      <c r="CT157" s="26">
+      <c r="CT157" s="25">
         <v>1.73506734108077</v>
       </c>
-      <c r="CU157" s="26">
-        <v>1.7760934853840549</v>
-      </c>
-      <c r="CV157" s="11"/>
+      <c r="CU157" s="25">
+        <v>1.7947128520954285</v>
+      </c>
+      <c r="CV157" s="25">
+        <v>1.7375986808747867</v>
+      </c>
       <c r="CW157" s="11"/>
       <c r="CX157" s="11"/>
       <c r="CY157" s="11"/>
@@ -29781,25 +29941,27 @@
       <c r="CO158" s="26">
         <v>1.7855596023295648</v>
       </c>
-      <c r="CP158" s="26">
+      <c r="CP158" s="25">
         <v>1.3330365379199502</v>
       </c>
-      <c r="CQ158" s="26">
+      <c r="CQ158" s="25">
         <v>1.1598411724524635</v>
       </c>
-      <c r="CR158" s="26">
+      <c r="CR158" s="25">
         <v>1.4417020608216216</v>
       </c>
-      <c r="CS158" s="26">
+      <c r="CS158" s="25">
         <v>1.667984834419993</v>
       </c>
-      <c r="CT158" s="26">
+      <c r="CT158" s="25">
         <v>1.2958681423365037</v>
       </c>
-      <c r="CU158" s="26">
-        <v>1.0510945022402485</v>
-      </c>
-      <c r="CV158" s="11"/>
+      <c r="CU158" s="25">
+        <v>1.0417879672185866</v>
+      </c>
+      <c r="CV158" s="25">
+        <v>1.4399451539750519</v>
+      </c>
       <c r="CW158" s="11"/>
       <c r="CX158" s="11"/>
       <c r="CY158" s="11"/>
@@ -30134,25 +30296,27 @@
       <c r="CO159" s="26">
         <v>11.151075904585934</v>
       </c>
-      <c r="CP159" s="26">
+      <c r="CP159" s="25">
         <v>11.272282412703888</v>
       </c>
-      <c r="CQ159" s="26">
+      <c r="CQ159" s="25">
         <v>14.991019183420937</v>
       </c>
-      <c r="CR159" s="26">
+      <c r="CR159" s="25">
         <v>12.423178447983259</v>
       </c>
-      <c r="CS159" s="26">
+      <c r="CS159" s="25">
         <v>10.857885219792472</v>
       </c>
-      <c r="CT159" s="26">
+      <c r="CT159" s="25">
         <v>11.273698325861938</v>
       </c>
-      <c r="CU159" s="26">
-        <v>14.688369601704363</v>
-      </c>
-      <c r="CV159" s="11"/>
+      <c r="CU159" s="25">
+        <v>14.680215759094592</v>
+      </c>
+      <c r="CV159" s="25">
+        <v>12.285257901904545</v>
+      </c>
       <c r="CW159" s="11"/>
       <c r="CX159" s="11"/>
       <c r="CY159" s="11"/>
@@ -30487,25 +30651,27 @@
       <c r="CO160" s="26">
         <v>2.6883100705059184</v>
       </c>
-      <c r="CP160" s="26">
+      <c r="CP160" s="25">
         <v>2.509429285697041</v>
       </c>
-      <c r="CQ160" s="26">
+      <c r="CQ160" s="25">
         <v>2.4561449212024158</v>
       </c>
-      <c r="CR160" s="26">
+      <c r="CR160" s="25">
         <v>2.819885532161893</v>
       </c>
-      <c r="CS160" s="26">
+      <c r="CS160" s="25">
         <v>2.5866039084740065</v>
       </c>
-      <c r="CT160" s="26">
+      <c r="CT160" s="25">
         <v>2.4654206154956828</v>
       </c>
-      <c r="CU160" s="26">
-        <v>2.3718421724811463</v>
-      </c>
-      <c r="CV160" s="11"/>
+      <c r="CU160" s="25">
+        <v>2.3817025642624978</v>
+      </c>
+      <c r="CV160" s="25">
+        <v>2.7491231163089038</v>
+      </c>
       <c r="CW160" s="11"/>
       <c r="CX160" s="11"/>
       <c r="CY160" s="11"/>
@@ -30840,25 +31006,27 @@
       <c r="CO161" s="26">
         <v>4.0188063188814152</v>
       </c>
-      <c r="CP161" s="26">
+      <c r="CP161" s="25">
         <v>4.1655784852578552</v>
       </c>
-      <c r="CQ161" s="26">
+      <c r="CQ161" s="25">
         <v>3.6238113583803049</v>
       </c>
-      <c r="CR161" s="26">
+      <c r="CR161" s="25">
         <v>5.3149467589174169</v>
       </c>
-      <c r="CS161" s="26">
+      <c r="CS161" s="25">
         <v>4.0650388058573528</v>
       </c>
-      <c r="CT161" s="26">
+      <c r="CT161" s="25">
         <v>4.2560300883271545</v>
       </c>
-      <c r="CU161" s="26">
-        <v>3.7609279058307492</v>
-      </c>
-      <c r="CV161" s="11"/>
+      <c r="CU161" s="25">
+        <v>3.7527073695547792</v>
+      </c>
+      <c r="CV161" s="25">
+        <v>5.5775678800650779</v>
+      </c>
       <c r="CW161" s="11"/>
       <c r="CX161" s="11"/>
       <c r="CY161" s="11"/>
@@ -31193,25 +31361,27 @@
       <c r="CO162" s="26">
         <v>7.7405906149328807</v>
       </c>
-      <c r="CP162" s="26">
+      <c r="CP162" s="25">
         <v>10.711524024750984</v>
       </c>
-      <c r="CQ162" s="26">
+      <c r="CQ162" s="25">
         <v>8.8828325757876172</v>
       </c>
-      <c r="CR162" s="26">
+      <c r="CR162" s="25">
         <v>11.549764271784989</v>
       </c>
-      <c r="CS162" s="26">
+      <c r="CS162" s="25">
         <v>7.9246405228984216</v>
       </c>
-      <c r="CT162" s="26">
+      <c r="CT162" s="25">
         <v>10.758835452131986</v>
       </c>
-      <c r="CU162" s="26">
-        <v>9.4161405346806877</v>
-      </c>
-      <c r="CV162" s="11"/>
+      <c r="CU162" s="25">
+        <v>9.4141248494832901</v>
+      </c>
+      <c r="CV162" s="25">
+        <v>11.418559163330146</v>
+      </c>
       <c r="CW162" s="11"/>
       <c r="CX162" s="11"/>
       <c r="CY162" s="11"/>
@@ -31546,25 +31716,27 @@
       <c r="CO163" s="26">
         <v>2.6189212692228518</v>
       </c>
-      <c r="CP163" s="26">
+      <c r="CP163" s="25">
         <v>2.8930272292598871</v>
       </c>
-      <c r="CQ163" s="26">
+      <c r="CQ163" s="25">
         <v>3.0909185852496841</v>
       </c>
-      <c r="CR163" s="26">
+      <c r="CR163" s="25">
         <v>2.2508887443653709</v>
       </c>
-      <c r="CS163" s="26">
+      <c r="CS163" s="25">
         <v>2.5190493587475671</v>
       </c>
-      <c r="CT163" s="26">
+      <c r="CT163" s="25">
         <v>2.8126905389433627</v>
       </c>
-      <c r="CU163" s="26">
-        <v>3.0621477333766776</v>
-      </c>
-      <c r="CV163" s="11"/>
+      <c r="CU163" s="25">
+        <v>3.0448177415938513</v>
+      </c>
+      <c r="CV163" s="25">
+        <v>2.1776959027653988</v>
+      </c>
       <c r="CW163" s="11"/>
       <c r="CX163" s="11"/>
       <c r="CY163" s="11"/>
@@ -31899,25 +32071,27 @@
       <c r="CO164" s="26">
         <v>1.7471023078264252</v>
       </c>
-      <c r="CP164" s="26">
+      <c r="CP164" s="25">
         <v>1.7042452349568096</v>
       </c>
-      <c r="CQ164" s="26">
+      <c r="CQ164" s="25">
         <v>1.2142981157007762</v>
       </c>
-      <c r="CR164" s="26">
+      <c r="CR164" s="25">
         <v>1.3926567450645428</v>
       </c>
-      <c r="CS164" s="26">
+      <c r="CS164" s="25">
         <v>1.8013750376547548</v>
       </c>
-      <c r="CT164" s="26">
+      <c r="CT164" s="25">
         <v>1.7898417345833855</v>
       </c>
-      <c r="CU164" s="26">
-        <v>1.3738608142333419</v>
-      </c>
-      <c r="CV164" s="11"/>
+      <c r="CU164" s="25">
+        <v>1.348212296732147</v>
+      </c>
+      <c r="CV164" s="25">
+        <v>1.3884497625874979</v>
+      </c>
       <c r="CW164" s="11"/>
       <c r="CX164" s="11"/>
       <c r="CY164" s="11"/>
@@ -32252,25 +32426,27 @@
       <c r="CO165" s="26">
         <v>4.5211469679515659</v>
       </c>
-      <c r="CP165" s="26">
+      <c r="CP165" s="25">
         <v>5.153138755919608</v>
       </c>
-      <c r="CQ165" s="26">
+      <c r="CQ165" s="25">
         <v>4.7937601109945138</v>
       </c>
-      <c r="CR165" s="26">
+      <c r="CR165" s="25">
         <v>5.3369055358635444</v>
       </c>
-      <c r="CS165" s="26">
+      <c r="CS165" s="25">
         <v>4.6261036531835904</v>
       </c>
-      <c r="CT165" s="26">
+      <c r="CT165" s="25">
         <v>5.1326482976275463</v>
       </c>
-      <c r="CU165" s="26">
-        <v>4.5971800412568893</v>
-      </c>
-      <c r="CV165" s="11"/>
+      <c r="CU165" s="25">
+        <v>4.5808606186476473</v>
+      </c>
+      <c r="CV165" s="25">
+        <v>5.2604090949227045</v>
+      </c>
       <c r="CW165" s="11"/>
       <c r="CX165" s="11"/>
       <c r="CY165" s="11"/>
@@ -32605,25 +32781,27 @@
       <c r="CO166" s="26">
         <v>7.6695494628659464</v>
       </c>
-      <c r="CP166" s="26">
+      <c r="CP166" s="25">
         <v>9.6188348001646844</v>
       </c>
-      <c r="CQ166" s="26">
+      <c r="CQ166" s="25">
         <v>5.6296600386073568</v>
       </c>
-      <c r="CR166" s="26">
+      <c r="CR166" s="25">
         <v>7.8059632464072122</v>
       </c>
-      <c r="CS166" s="26">
+      <c r="CS166" s="25">
         <v>8.5657027741046523</v>
       </c>
-      <c r="CT166" s="26">
+      <c r="CT166" s="25">
         <v>10.490405369774477</v>
       </c>
-      <c r="CU166" s="26">
-        <v>5.9748749054701022</v>
-      </c>
-      <c r="CV166" s="11"/>
+      <c r="CU166" s="25">
+        <v>6.0536763615335518</v>
+      </c>
+      <c r="CV166" s="25">
+        <v>8.2640819465336488</v>
+      </c>
       <c r="CW166" s="11"/>
       <c r="CX166" s="11"/>
       <c r="CY166" s="11"/>
@@ -32958,25 +33136,27 @@
       <c r="CO167" s="26">
         <v>14.113864684169855</v>
       </c>
-      <c r="CP167" s="26">
+      <c r="CP167" s="25">
         <v>14.087761241801958</v>
       </c>
-      <c r="CQ167" s="26">
+      <c r="CQ167" s="25">
         <v>13.412962528920266</v>
       </c>
-      <c r="CR167" s="26">
+      <c r="CR167" s="25">
         <v>13.276679159163452</v>
       </c>
-      <c r="CS167" s="26">
+      <c r="CS167" s="25">
         <v>14.564294579806006</v>
       </c>
-      <c r="CT167" s="26">
+      <c r="CT167" s="25">
         <v>14.246907360193131</v>
       </c>
-      <c r="CU167" s="26">
-        <v>13.751584493426773</v>
-      </c>
-      <c r="CV167" s="11"/>
+      <c r="CU167" s="25">
+        <v>13.727266556813362</v>
+      </c>
+      <c r="CV167" s="25">
+        <v>13.510632145715871</v>
+      </c>
       <c r="CW167" s="11"/>
       <c r="CX167" s="11"/>
       <c r="CY167" s="11"/>
@@ -33124,13 +33304,13 @@
       <c r="CM168" s="11"/>
       <c r="CN168" s="11"/>
       <c r="CO168" s="11"/>
-      <c r="CP168" s="11"/>
-      <c r="CQ168" s="11"/>
-      <c r="CR168" s="11"/>
-      <c r="CS168" s="11"/>
-      <c r="CT168" s="11"/>
-      <c r="CU168" s="11"/>
-      <c r="CV168" s="11"/>
+      <c r="CP168" s="13"/>
+      <c r="CQ168" s="13"/>
+      <c r="CR168" s="13"/>
+      <c r="CS168" s="13"/>
+      <c r="CT168" s="13"/>
+      <c r="CU168" s="13"/>
+      <c r="CV168" s="13"/>
       <c r="CW168" s="11"/>
       <c r="CX168" s="11"/>
       <c r="CY168" s="11"/>
@@ -33465,25 +33645,27 @@
       <c r="CO169" s="26">
         <v>100</v>
       </c>
-      <c r="CP169" s="26">
+      <c r="CP169" s="25">
         <v>100</v>
       </c>
-      <c r="CQ169" s="26">
+      <c r="CQ169" s="25">
         <v>100</v>
       </c>
-      <c r="CR169" s="26">
+      <c r="CR169" s="25">
         <v>100</v>
       </c>
-      <c r="CS169" s="26">
+      <c r="CS169" s="25">
         <v>100</v>
       </c>
-      <c r="CT169" s="26">
+      <c r="CT169" s="25">
         <v>100</v>
       </c>
-      <c r="CU169" s="26">
+      <c r="CU169" s="25">
         <v>100</v>
       </c>
-      <c r="CV169" s="11"/>
+      <c r="CV169" s="25">
+        <v>100</v>
+      </c>
       <c r="CW169" s="11"/>
       <c r="CX169" s="11"/>
       <c r="CY169" s="11"/>
@@ -33632,12 +33814,13 @@
       <c r="CM170" s="16"/>
       <c r="CN170" s="16"/>
       <c r="CO170" s="16"/>
-      <c r="CP170" s="16"/>
-      <c r="CQ170" s="16"/>
-      <c r="CR170" s="16"/>
-      <c r="CS170" s="16"/>
-      <c r="CT170" s="16"/>
-      <c r="CU170" s="16"/>
+      <c r="CP170" s="17"/>
+      <c r="CQ170" s="17"/>
+      <c r="CR170" s="17"/>
+      <c r="CS170" s="17"/>
+      <c r="CT170" s="17"/>
+      <c r="CU170" s="17"/>
+      <c r="CV170" s="17"/>
     </row>
     <row r="171" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A171" s="18" t="s">
@@ -33737,13 +33920,13 @@
       <c r="CM172" s="11"/>
       <c r="CN172" s="11"/>
       <c r="CO172" s="11"/>
-      <c r="CP172" s="11"/>
-      <c r="CQ172" s="11"/>
-      <c r="CR172" s="11"/>
-      <c r="CS172" s="11"/>
-      <c r="CT172" s="11"/>
-      <c r="CU172" s="11"/>
-      <c r="CV172" s="11"/>
+      <c r="CP172" s="13"/>
+      <c r="CQ172" s="13"/>
+      <c r="CR172" s="13"/>
+      <c r="CS172" s="13"/>
+      <c r="CT172" s="13"/>
+      <c r="CU172" s="13"/>
+      <c r="CV172" s="13"/>
       <c r="CW172" s="11"/>
       <c r="CX172" s="11"/>
       <c r="CY172" s="11"/>
@@ -33891,13 +34074,13 @@
       <c r="CM173" s="11"/>
       <c r="CN173" s="11"/>
       <c r="CO173" s="11"/>
-      <c r="CP173" s="11"/>
-      <c r="CQ173" s="11"/>
-      <c r="CR173" s="11"/>
-      <c r="CS173" s="11"/>
-      <c r="CT173" s="11"/>
-      <c r="CU173" s="11"/>
-      <c r="CV173" s="11"/>
+      <c r="CP173" s="13"/>
+      <c r="CQ173" s="13"/>
+      <c r="CR173" s="13"/>
+      <c r="CS173" s="13"/>
+      <c r="CT173" s="13"/>
+      <c r="CU173" s="13"/>
+      <c r="CV173" s="13"/>
       <c r="CW173" s="11"/>
       <c r="CX173" s="11"/>
       <c r="CY173" s="11"/>
@@ -33984,132 +34167,132 @@
     </row>
     <row r="182" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A182" s="4"/>
-      <c r="B182" s="37">
+      <c r="B182" s="42">
         <v>2000</v>
       </c>
-      <c r="C182" s="37"/>
-      <c r="D182" s="37"/>
-      <c r="E182" s="37"/>
-      <c r="F182" s="37">
+      <c r="C182" s="42"/>
+      <c r="D182" s="42"/>
+      <c r="E182" s="42"/>
+      <c r="F182" s="42">
         <v>2001</v>
       </c>
-      <c r="G182" s="37"/>
-      <c r="H182" s="37"/>
-      <c r="I182" s="37"/>
-      <c r="J182" s="37">
+      <c r="G182" s="42"/>
+      <c r="H182" s="42"/>
+      <c r="I182" s="42"/>
+      <c r="J182" s="42">
         <v>2002</v>
       </c>
-      <c r="K182" s="37"/>
-      <c r="L182" s="37"/>
-      <c r="M182" s="37"/>
-      <c r="N182" s="37">
+      <c r="K182" s="42"/>
+      <c r="L182" s="42"/>
+      <c r="M182" s="42"/>
+      <c r="N182" s="42">
         <v>2003</v>
       </c>
-      <c r="O182" s="37"/>
-      <c r="P182" s="37"/>
-      <c r="Q182" s="37"/>
-      <c r="R182" s="37">
+      <c r="O182" s="42"/>
+      <c r="P182" s="42"/>
+      <c r="Q182" s="42"/>
+      <c r="R182" s="42">
         <v>2004</v>
       </c>
-      <c r="S182" s="37"/>
-      <c r="T182" s="37"/>
-      <c r="U182" s="37"/>
-      <c r="V182" s="37">
+      <c r="S182" s="42"/>
+      <c r="T182" s="42"/>
+      <c r="U182" s="42"/>
+      <c r="V182" s="42">
         <v>2005</v>
       </c>
-      <c r="W182" s="37"/>
-      <c r="X182" s="37"/>
-      <c r="Y182" s="37"/>
-      <c r="Z182" s="37">
+      <c r="W182" s="42"/>
+      <c r="X182" s="42"/>
+      <c r="Y182" s="42"/>
+      <c r="Z182" s="42">
         <v>2006</v>
       </c>
-      <c r="AA182" s="37"/>
-      <c r="AB182" s="37"/>
-      <c r="AC182" s="37"/>
-      <c r="AD182" s="37">
+      <c r="AA182" s="42"/>
+      <c r="AB182" s="42"/>
+      <c r="AC182" s="42"/>
+      <c r="AD182" s="42">
         <v>2007</v>
       </c>
-      <c r="AE182" s="37"/>
-      <c r="AF182" s="37"/>
-      <c r="AG182" s="37"/>
-      <c r="AH182" s="37">
+      <c r="AE182" s="42"/>
+      <c r="AF182" s="42"/>
+      <c r="AG182" s="42"/>
+      <c r="AH182" s="42">
         <v>2008</v>
       </c>
-      <c r="AI182" s="37"/>
-      <c r="AJ182" s="37"/>
-      <c r="AK182" s="37"/>
-      <c r="AL182" s="37">
+      <c r="AI182" s="42"/>
+      <c r="AJ182" s="42"/>
+      <c r="AK182" s="42"/>
+      <c r="AL182" s="42">
         <v>2009</v>
       </c>
-      <c r="AM182" s="37"/>
-      <c r="AN182" s="37"/>
-      <c r="AO182" s="37"/>
-      <c r="AP182" s="37">
+      <c r="AM182" s="42"/>
+      <c r="AN182" s="42"/>
+      <c r="AO182" s="42"/>
+      <c r="AP182" s="42">
         <v>2010</v>
       </c>
-      <c r="AQ182" s="37"/>
-      <c r="AR182" s="37"/>
-      <c r="AS182" s="37"/>
-      <c r="AT182" s="37">
+      <c r="AQ182" s="42"/>
+      <c r="AR182" s="42"/>
+      <c r="AS182" s="42"/>
+      <c r="AT182" s="42">
         <v>2011</v>
       </c>
-      <c r="AU182" s="37"/>
-      <c r="AV182" s="37"/>
-      <c r="AW182" s="37"/>
-      <c r="AX182" s="37">
+      <c r="AU182" s="42"/>
+      <c r="AV182" s="42"/>
+      <c r="AW182" s="42"/>
+      <c r="AX182" s="42">
         <v>2012</v>
       </c>
-      <c r="AY182" s="37"/>
-      <c r="AZ182" s="37"/>
-      <c r="BA182" s="37"/>
-      <c r="BB182" s="37">
+      <c r="AY182" s="42"/>
+      <c r="AZ182" s="42"/>
+      <c r="BA182" s="42"/>
+      <c r="BB182" s="42">
         <v>2013</v>
       </c>
-      <c r="BC182" s="37"/>
-      <c r="BD182" s="37"/>
-      <c r="BE182" s="37"/>
-      <c r="BF182" s="37">
+      <c r="BC182" s="42"/>
+      <c r="BD182" s="42"/>
+      <c r="BE182" s="42"/>
+      <c r="BF182" s="42">
         <v>2014</v>
       </c>
-      <c r="BG182" s="37"/>
-      <c r="BH182" s="37"/>
-      <c r="BI182" s="37"/>
-      <c r="BJ182" s="37">
+      <c r="BG182" s="42"/>
+      <c r="BH182" s="42"/>
+      <c r="BI182" s="42"/>
+      <c r="BJ182" s="42">
         <v>2015</v>
       </c>
-      <c r="BK182" s="37"/>
-      <c r="BL182" s="37"/>
-      <c r="BM182" s="37"/>
-      <c r="BN182" s="37">
+      <c r="BK182" s="42"/>
+      <c r="BL182" s="42"/>
+      <c r="BM182" s="42"/>
+      <c r="BN182" s="42">
         <v>2016</v>
       </c>
-      <c r="BO182" s="37"/>
-      <c r="BP182" s="37"/>
-      <c r="BQ182" s="37"/>
-      <c r="BR182" s="38">
+      <c r="BO182" s="42"/>
+      <c r="BP182" s="42"/>
+      <c r="BQ182" s="42"/>
+      <c r="BR182" s="43">
         <v>2017</v>
       </c>
-      <c r="BS182" s="38"/>
-      <c r="BT182" s="38"/>
-      <c r="BU182" s="38"/>
-      <c r="BV182" s="38">
+      <c r="BS182" s="43"/>
+      <c r="BT182" s="43"/>
+      <c r="BU182" s="43"/>
+      <c r="BV182" s="43">
         <v>2018</v>
       </c>
-      <c r="BW182" s="38"/>
-      <c r="BX182" s="38"/>
-      <c r="BY182" s="38"/>
-      <c r="BZ182" s="38">
+      <c r="BW182" s="43"/>
+      <c r="BX182" s="43"/>
+      <c r="BY182" s="43"/>
+      <c r="BZ182" s="43">
         <v>2019</v>
       </c>
-      <c r="CA182" s="38"/>
-      <c r="CB182" s="38"/>
-      <c r="CC182" s="38"/>
-      <c r="CD182" s="38">
+      <c r="CA182" s="43"/>
+      <c r="CB182" s="43"/>
+      <c r="CC182" s="43"/>
+      <c r="CD182" s="43">
         <v>2020</v>
       </c>
-      <c r="CE182" s="38"/>
-      <c r="CF182" s="38"/>
-      <c r="CG182" s="38"/>
+      <c r="CE182" s="43"/>
+      <c r="CF182" s="43"/>
+      <c r="CG182" s="43"/>
       <c r="CH182" s="33">
         <v>2021</v>
       </c>
@@ -34122,16 +34305,17 @@
       <c r="CM182" s="33"/>
       <c r="CN182" s="33"/>
       <c r="CO182" s="33"/>
-      <c r="CP182" s="33">
+      <c r="CP182" s="35">
         <v>2023</v>
       </c>
-      <c r="CQ182" s="33"/>
-      <c r="CR182" s="33"/>
-      <c r="CS182" s="33"/>
-      <c r="CT182" s="33">
+      <c r="CQ182" s="35"/>
+      <c r="CR182" s="35"/>
+      <c r="CS182" s="35"/>
+      <c r="CT182" s="35">
         <v>2024</v>
       </c>
-      <c r="CU182" s="33"/>
+      <c r="CU182" s="35"/>
+      <c r="CV182" s="35"/>
     </row>
     <row r="183" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
@@ -34413,23 +34597,26 @@
       <c r="CO183" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CP183" s="7" t="s">
+      <c r="CP183" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="CQ183" s="7" t="s">
+      <c r="CQ183" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="CR183" s="7" t="s">
+      <c r="CR183" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="CS183" s="7" t="s">
+      <c r="CS183" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="CT183" s="7" t="s">
+      <c r="CT183" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="CU183" s="7" t="s">
+      <c r="CU183" s="6" t="s">
         <v>20</v>
+      </c>
+      <c r="CV183" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="184" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -34715,25 +34902,27 @@
       <c r="CO185" s="26">
         <v>38.467736241135981</v>
       </c>
-      <c r="CP185" s="26">
+      <c r="CP185" s="25">
         <v>34.262712201520273</v>
       </c>
-      <c r="CQ185" s="26">
+      <c r="CQ185" s="25">
         <v>38.015837739265748</v>
       </c>
-      <c r="CR185" s="26">
+      <c r="CR185" s="25">
         <v>33.398454332898446</v>
       </c>
-      <c r="CS185" s="26">
+      <c r="CS185" s="25">
         <v>36.732083386928984</v>
       </c>
-      <c r="CT185" s="26">
+      <c r="CT185" s="25">
         <v>32.896965518307603</v>
       </c>
-      <c r="CU185" s="26">
-        <v>36.502312343596714</v>
-      </c>
-      <c r="CV185" s="11"/>
+      <c r="CU185" s="25">
+        <v>36.511167335158198</v>
+      </c>
+      <c r="CV185" s="25">
+        <v>32.783649551987921</v>
+      </c>
       <c r="CW185" s="11"/>
       <c r="CX185" s="11"/>
       <c r="CY185" s="11"/>
@@ -35068,25 +35257,27 @@
       <c r="CO186" s="26">
         <v>1.6438620621132822</v>
       </c>
-      <c r="CP186" s="26">
+      <c r="CP186" s="25">
         <v>1.3612485130898406</v>
       </c>
-      <c r="CQ186" s="26">
+      <c r="CQ186" s="25">
         <v>1.2401748310693561</v>
       </c>
-      <c r="CR186" s="26">
+      <c r="CR186" s="25">
         <v>1.2065606718082675</v>
       </c>
-      <c r="CS186" s="26">
+      <c r="CS186" s="25">
         <v>1.5705858628733096</v>
       </c>
-      <c r="CT186" s="26">
+      <c r="CT186" s="25">
         <v>1.2768111272915197</v>
       </c>
-      <c r="CU186" s="26">
-        <v>1.2242640093258526</v>
-      </c>
-      <c r="CV186" s="11"/>
+      <c r="CU186" s="25">
+        <v>1.2372678204086665</v>
+      </c>
+      <c r="CV186" s="25">
+        <v>1.1621501058797994</v>
+      </c>
       <c r="CW186" s="11"/>
       <c r="CX186" s="11"/>
       <c r="CY186" s="11"/>
@@ -35421,25 +35612,27 @@
       <c r="CO187" s="26">
         <v>1.9181928295153912</v>
       </c>
-      <c r="CP187" s="26">
+      <c r="CP187" s="25">
         <v>1.4390014706376206</v>
       </c>
-      <c r="CQ187" s="26">
+      <c r="CQ187" s="25">
         <v>1.1485379405181599</v>
       </c>
-      <c r="CR187" s="26">
+      <c r="CR187" s="25">
         <v>1.5890058685565911</v>
       </c>
-      <c r="CS187" s="26">
+      <c r="CS187" s="25">
         <v>1.7855773806759649</v>
       </c>
-      <c r="CT187" s="26">
+      <c r="CT187" s="25">
         <v>1.3957663264400721</v>
       </c>
-      <c r="CU187" s="26">
-        <v>1.0453461945772764</v>
-      </c>
-      <c r="CV187" s="11"/>
+      <c r="CU187" s="25">
+        <v>1.0362324752210506</v>
+      </c>
+      <c r="CV187" s="25">
+        <v>1.5884540086810834</v>
+      </c>
       <c r="CW187" s="11"/>
       <c r="CX187" s="11"/>
       <c r="CY187" s="11"/>
@@ -35774,25 +35967,27 @@
       <c r="CO188" s="26">
         <v>11.035445248462167</v>
       </c>
-      <c r="CP188" s="26">
+      <c r="CP188" s="25">
         <v>11.937599870041813</v>
       </c>
-      <c r="CQ188" s="26">
+      <c r="CQ188" s="25">
         <v>15.451567122612181</v>
       </c>
-      <c r="CR188" s="26">
+      <c r="CR188" s="25">
         <v>12.473626961631645</v>
       </c>
-      <c r="CS188" s="26">
+      <c r="CS188" s="25">
         <v>10.941797472386442</v>
       </c>
-      <c r="CT188" s="26">
+      <c r="CT188" s="25">
         <v>12.264604298440004</v>
       </c>
-      <c r="CU188" s="26">
-        <v>15.648265889456409</v>
-      </c>
-      <c r="CV188" s="11"/>
+      <c r="CU188" s="25">
+        <v>15.641721431225688</v>
+      </c>
+      <c r="CV188" s="25">
+        <v>12.337229165070246</v>
+      </c>
       <c r="CW188" s="11"/>
       <c r="CX188" s="11"/>
       <c r="CY188" s="11"/>
@@ -36127,25 +36322,27 @@
       <c r="CO189" s="26">
         <v>2.7859743637070027</v>
       </c>
-      <c r="CP189" s="26">
+      <c r="CP189" s="25">
         <v>2.5343373606683341</v>
       </c>
-      <c r="CQ189" s="26">
+      <c r="CQ189" s="25">
         <v>2.4938966530908906</v>
       </c>
-      <c r="CR189" s="26">
+      <c r="CR189" s="25">
         <v>2.9168145942803743</v>
       </c>
-      <c r="CS189" s="26">
+      <c r="CS189" s="25">
         <v>2.6603393097202117</v>
       </c>
-      <c r="CT189" s="26">
+      <c r="CT189" s="25">
         <v>2.4896474153370489</v>
       </c>
-      <c r="CU189" s="26">
-        <v>2.4290186156170015</v>
-      </c>
-      <c r="CV189" s="11"/>
+      <c r="CU189" s="25">
+        <v>2.4394508054205217</v>
+      </c>
+      <c r="CV189" s="25">
+        <v>2.8554385292980529</v>
+      </c>
       <c r="CW189" s="11"/>
       <c r="CX189" s="11"/>
       <c r="CY189" s="11"/>
@@ -36480,25 +36677,27 @@
       <c r="CO190" s="26">
         <v>4.0741012692991214</v>
       </c>
-      <c r="CP190" s="26">
+      <c r="CP190" s="25">
         <v>4.4221886133020725</v>
       </c>
-      <c r="CQ190" s="26">
+      <c r="CQ190" s="25">
         <v>3.8517257228880259</v>
       </c>
-      <c r="CR190" s="26">
+      <c r="CR190" s="25">
         <v>5.4968565924886903</v>
       </c>
-      <c r="CS190" s="26">
+      <c r="CS190" s="25">
         <v>4.1310688422620627</v>
       </c>
-      <c r="CT190" s="26">
+      <c r="CT190" s="25">
         <v>4.5296530591382158</v>
       </c>
-      <c r="CU190" s="26">
-        <v>4.0319667681817295</v>
-      </c>
-      <c r="CV190" s="11"/>
+      <c r="CU190" s="25">
+        <v>4.0237048771801378</v>
+      </c>
+      <c r="CV190" s="25">
+        <v>5.7957384012174904</v>
+      </c>
       <c r="CW190" s="11"/>
       <c r="CX190" s="11"/>
       <c r="CY190" s="11"/>
@@ -36833,25 +37032,27 @@
       <c r="CO191" s="26">
         <v>7.0949016171230577</v>
       </c>
-      <c r="CP191" s="26">
+      <c r="CP191" s="25">
         <v>9.677635593496273</v>
       </c>
-      <c r="CQ191" s="26">
+      <c r="CQ191" s="25">
         <v>8.619390771103177</v>
       </c>
-      <c r="CR191" s="26">
+      <c r="CR191" s="25">
         <v>10.119187133983401</v>
       </c>
-      <c r="CS191" s="26">
+      <c r="CS191" s="25">
         <v>7.5430508371027623</v>
       </c>
-      <c r="CT191" s="26">
+      <c r="CT191" s="25">
         <v>9.9550842744566967</v>
       </c>
-      <c r="CU191" s="26">
-        <v>9.2092631326160408</v>
-      </c>
-      <c r="CV191" s="11"/>
+      <c r="CU191" s="25">
+        <v>9.2085529094438971</v>
+      </c>
+      <c r="CV191" s="25">
+        <v>10.284734466412322</v>
+      </c>
       <c r="CW191" s="11"/>
       <c r="CX191" s="11"/>
       <c r="CY191" s="11"/>
@@ -37186,25 +37387,27 @@
       <c r="CO192" s="26">
         <v>3.1046289827128981</v>
       </c>
-      <c r="CP192" s="26">
+      <c r="CP192" s="25">
         <v>3.2746288165759792</v>
       </c>
-      <c r="CQ192" s="26">
+      <c r="CQ192" s="25">
         <v>3.6306251453589762</v>
       </c>
-      <c r="CR192" s="26">
+      <c r="CR192" s="25">
         <v>2.7450103493577496</v>
       </c>
-      <c r="CS192" s="26">
+      <c r="CS192" s="25">
         <v>3.0883956129061092</v>
       </c>
-      <c r="CT192" s="26">
+      <c r="CT192" s="25">
         <v>3.2796258010377435</v>
       </c>
-      <c r="CU192" s="26">
-        <v>3.7173432608915915</v>
-      </c>
-      <c r="CV192" s="11"/>
+      <c r="CU192" s="25">
+        <v>3.696811544407407</v>
+      </c>
+      <c r="CV192" s="25">
+        <v>2.7262767493546591</v>
+      </c>
       <c r="CW192" s="11"/>
       <c r="CX192" s="11"/>
       <c r="CY192" s="11"/>
@@ -37539,25 +37742,27 @@
       <c r="CO193" s="26">
         <v>1.8851131643095567</v>
       </c>
-      <c r="CP193" s="26">
+      <c r="CP193" s="25">
         <v>1.8699071887499783</v>
       </c>
-      <c r="CQ193" s="26">
+      <c r="CQ193" s="25">
         <v>1.3552765865301848</v>
       </c>
-      <c r="CR193" s="26">
+      <c r="CR193" s="25">
         <v>1.6044658553968614</v>
       </c>
-      <c r="CS193" s="26">
+      <c r="CS193" s="25">
         <v>1.9321984551199538</v>
       </c>
-      <c r="CT193" s="26">
+      <c r="CT193" s="25">
         <v>1.9554863072860775</v>
       </c>
-      <c r="CU193" s="26">
-        <v>1.5373213697958401</v>
-      </c>
-      <c r="CV193" s="11"/>
+      <c r="CU193" s="25">
+        <v>1.508827862533906</v>
+      </c>
+      <c r="CV193" s="25">
+        <v>1.598998790257826</v>
+      </c>
       <c r="CW193" s="11"/>
       <c r="CX193" s="11"/>
       <c r="CY193" s="11"/>
@@ -37892,25 +38097,27 @@
       <c r="CO194" s="26">
         <v>5.1095564517014749</v>
       </c>
-      <c r="CP194" s="26">
+      <c r="CP194" s="25">
         <v>5.7005434720038473</v>
       </c>
-      <c r="CQ194" s="26">
+      <c r="CQ194" s="25">
         <v>5.2387090946108348</v>
       </c>
-      <c r="CR194" s="26">
+      <c r="CR194" s="25">
         <v>5.8387089883616214</v>
       </c>
-      <c r="CS194" s="26">
+      <c r="CS194" s="25">
         <v>5.2514147486778802</v>
       </c>
-      <c r="CT194" s="26">
+      <c r="CT194" s="25">
         <v>5.6598757525951848</v>
       </c>
-      <c r="CU194" s="26">
-        <v>5.0275964540248257</v>
-      </c>
-      <c r="CV194" s="11"/>
+      <c r="CU194" s="25">
+        <v>5.0104353207174368</v>
+      </c>
+      <c r="CV194" s="25">
+        <v>5.6348894710500304</v>
+      </c>
       <c r="CW194" s="11"/>
       <c r="CX194" s="11"/>
       <c r="CY194" s="11"/>
@@ -38245,25 +38452,27 @@
       <c r="CO195" s="26">
         <v>7.6492882747669801</v>
       </c>
-      <c r="CP195" s="26">
+      <c r="CP195" s="25">
         <v>9.5216131452697201</v>
       </c>
-      <c r="CQ195" s="26">
+      <c r="CQ195" s="25">
         <v>5.7804945110082988</v>
       </c>
-      <c r="CR195" s="26">
+      <c r="CR195" s="25">
         <v>7.6565797444036239</v>
       </c>
-      <c r="CS195" s="26">
+      <c r="CS195" s="25">
         <v>8.3987619485502396</v>
       </c>
-      <c r="CT195" s="26">
+      <c r="CT195" s="25">
         <v>10.184928099845413</v>
       </c>
-      <c r="CU195" s="26">
-        <v>6.0531434365801555</v>
-      </c>
-      <c r="CV195" s="11"/>
+      <c r="CU195" s="25">
+        <v>6.1338172306017595</v>
+      </c>
+      <c r="CV195" s="25">
+        <v>7.9951824232910917</v>
+      </c>
       <c r="CW195" s="11"/>
       <c r="CX195" s="11"/>
       <c r="CY195" s="11"/>
@@ -38598,25 +38807,27 @@
       <c r="CO196" s="26">
         <v>15.231199495153092</v>
       </c>
-      <c r="CP196" s="26">
+      <c r="CP196" s="25">
         <v>13.998583754644262</v>
       </c>
-      <c r="CQ196" s="26">
+      <c r="CQ196" s="25">
         <v>13.173763881944165</v>
       </c>
-      <c r="CR196" s="26">
+      <c r="CR196" s="25">
         <v>14.954728906832745</v>
       </c>
-      <c r="CS196" s="26">
+      <c r="CS196" s="25">
         <v>15.964726142796071</v>
       </c>
-      <c r="CT196" s="26">
+      <c r="CT196" s="25">
         <v>14.11155201982441</v>
       </c>
-      <c r="CU196" s="26">
-        <v>13.57415852533657</v>
-      </c>
-      <c r="CV196" s="11"/>
+      <c r="CU196" s="25">
+        <v>13.552010387681312</v>
+      </c>
+      <c r="CV196" s="25">
+        <v>15.23725833749948</v>
+      </c>
       <c r="CW196" s="11"/>
       <c r="CX196" s="11"/>
       <c r="CY196" s="11"/>
@@ -38764,13 +38975,13 @@
       <c r="CM197" s="11"/>
       <c r="CN197" s="11"/>
       <c r="CO197" s="11"/>
-      <c r="CP197" s="11"/>
-      <c r="CQ197" s="11"/>
-      <c r="CR197" s="11"/>
-      <c r="CS197" s="11"/>
-      <c r="CT197" s="11"/>
-      <c r="CU197" s="11"/>
-      <c r="CV197" s="11"/>
+      <c r="CP197" s="13"/>
+      <c r="CQ197" s="13"/>
+      <c r="CR197" s="13"/>
+      <c r="CS197" s="13"/>
+      <c r="CT197" s="13"/>
+      <c r="CU197" s="13"/>
+      <c r="CV197" s="13"/>
       <c r="CW197" s="11"/>
       <c r="CX197" s="11"/>
       <c r="CY197" s="11"/>
@@ -39105,25 +39316,27 @@
       <c r="CO198" s="26">
         <v>100</v>
       </c>
-      <c r="CP198" s="26">
+      <c r="CP198" s="25">
         <v>100</v>
       </c>
-      <c r="CQ198" s="26">
+      <c r="CQ198" s="25">
         <v>100</v>
       </c>
-      <c r="CR198" s="26">
+      <c r="CR198" s="25">
         <v>100</v>
       </c>
-      <c r="CS198" s="26">
+      <c r="CS198" s="25">
         <v>100</v>
       </c>
-      <c r="CT198" s="26">
+      <c r="CT198" s="25">
         <v>100</v>
       </c>
-      <c r="CU198" s="26">
+      <c r="CU198" s="25">
         <v>100</v>
       </c>
-      <c r="CV198" s="11"/>
+      <c r="CV198" s="25">
+        <v>100</v>
+      </c>
       <c r="CW198" s="11"/>
       <c r="CX198" s="11"/>
       <c r="CY198" s="11"/>
@@ -39272,12 +39485,13 @@
       <c r="CM199" s="16"/>
       <c r="CN199" s="16"/>
       <c r="CO199" s="16"/>
-      <c r="CP199" s="16"/>
-      <c r="CQ199" s="16"/>
-      <c r="CR199" s="16"/>
-      <c r="CS199" s="16"/>
-      <c r="CT199" s="16"/>
-      <c r="CU199" s="16"/>
+      <c r="CP199" s="17"/>
+      <c r="CQ199" s="17"/>
+      <c r="CR199" s="17"/>
+      <c r="CS199" s="17"/>
+      <c r="CT199" s="17"/>
+      <c r="CU199" s="17"/>
+      <c r="CV199" s="17"/>
     </row>
     <row r="200" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A200" s="18" t="s">
@@ -39378,13 +39592,13 @@
       <c r="CM201" s="1"/>
       <c r="CN201" s="1"/>
       <c r="CO201" s="1"/>
-      <c r="CP201" s="1"/>
-      <c r="CQ201" s="1"/>
-      <c r="CR201" s="1"/>
-      <c r="CS201" s="1"/>
-      <c r="CT201" s="1"/>
-      <c r="CU201" s="1"/>
-      <c r="CV201" s="28"/>
+      <c r="CP201" s="2"/>
+      <c r="CQ201" s="2"/>
+      <c r="CR201" s="2"/>
+      <c r="CS201" s="2"/>
+      <c r="CT201" s="2"/>
+      <c r="CU201" s="2"/>
+      <c r="CV201" s="2"/>
       <c r="CW201" s="28"/>
       <c r="CX201" s="28"/>
       <c r="CY201" s="28"/>
@@ -39533,13 +39747,13 @@
       <c r="CM202" s="1"/>
       <c r="CN202" s="1"/>
       <c r="CO202" s="1"/>
-      <c r="CP202" s="1"/>
-      <c r="CQ202" s="1"/>
-      <c r="CR202" s="1"/>
-      <c r="CS202" s="1"/>
-      <c r="CT202" s="1"/>
-      <c r="CU202" s="1"/>
-      <c r="CV202" s="28"/>
+      <c r="CP202" s="2"/>
+      <c r="CQ202" s="2"/>
+      <c r="CR202" s="2"/>
+      <c r="CS202" s="2"/>
+      <c r="CT202" s="2"/>
+      <c r="CU202" s="2"/>
+      <c r="CV202" s="2"/>
       <c r="CW202" s="28"/>
       <c r="CX202" s="28"/>
       <c r="CY202" s="28"/>

--- a/Data/National Accounts/PSA-02HFCE_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-02HFCE_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB27989D-4937-4110-B9AD-2E3770CC3E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C0CCE8-D374-4637-BC73-398ADFE69867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="975" windowWidth="12660" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HFCE" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="PCE_Per_Anl">#REF!</definedName>
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HFCE!$A$1:$CU$202</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HFCE!$A$1:$CW$202</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="63">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -226,13 +226,13 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>As of November 2024</t>
+    <t>Q1 2000 to Q4 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2024</t>
+    <t>Q1 2001 to Q4 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2024</t>
+    <t>As of January 2025</t>
   </si>
 </sst>
 </file>
@@ -386,10 +386,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -742,8 +742,8 @@
     <col min="2" max="69" width="11.109375" style="2" customWidth="1"/>
     <col min="70" max="92" width="11.109375" style="1" customWidth="1"/>
     <col min="93" max="93" width="11.21875" style="1" customWidth="1"/>
-    <col min="94" max="100" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="101" max="16384" width="7.77734375" style="1"/>
+    <col min="94" max="101" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="102" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:153" x14ac:dyDescent="0.2">
@@ -758,7 +758,7 @@
     </row>
     <row r="3" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:153" x14ac:dyDescent="0.2">
@@ -768,7 +768,7 @@
     </row>
     <row r="6" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:153" x14ac:dyDescent="0.2">
@@ -778,132 +778,132 @@
     </row>
     <row r="9" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="42">
+      <c r="B9" s="43">
         <v>2000</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42">
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43">
         <v>2001</v>
       </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42">
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43">
         <v>2002</v>
       </c>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42">
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43">
         <v>2003</v>
       </c>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42">
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43">
         <v>2004</v>
       </c>
-      <c r="S9" s="42"/>
-      <c r="T9" s="42"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42">
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43">
         <v>2005</v>
       </c>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="42"/>
-      <c r="Z9" s="42">
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="43">
         <v>2006</v>
       </c>
-      <c r="AA9" s="42"/>
-      <c r="AB9" s="42"/>
-      <c r="AC9" s="42"/>
-      <c r="AD9" s="42">
+      <c r="AA9" s="43"/>
+      <c r="AB9" s="43"/>
+      <c r="AC9" s="43"/>
+      <c r="AD9" s="43">
         <v>2007</v>
       </c>
-      <c r="AE9" s="42"/>
-      <c r="AF9" s="42"/>
-      <c r="AG9" s="42"/>
-      <c r="AH9" s="42">
+      <c r="AE9" s="43"/>
+      <c r="AF9" s="43"/>
+      <c r="AG9" s="43"/>
+      <c r="AH9" s="43">
         <v>2008</v>
       </c>
-      <c r="AI9" s="42"/>
-      <c r="AJ9" s="42"/>
-      <c r="AK9" s="42"/>
-      <c r="AL9" s="42">
+      <c r="AI9" s="43"/>
+      <c r="AJ9" s="43"/>
+      <c r="AK9" s="43"/>
+      <c r="AL9" s="43">
         <v>2009</v>
       </c>
-      <c r="AM9" s="42"/>
-      <c r="AN9" s="42"/>
-      <c r="AO9" s="42"/>
-      <c r="AP9" s="42">
+      <c r="AM9" s="43"/>
+      <c r="AN9" s="43"/>
+      <c r="AO9" s="43"/>
+      <c r="AP9" s="43">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="42"/>
-      <c r="AR9" s="42"/>
-      <c r="AS9" s="42"/>
-      <c r="AT9" s="42">
+      <c r="AQ9" s="43"/>
+      <c r="AR9" s="43"/>
+      <c r="AS9" s="43"/>
+      <c r="AT9" s="43">
         <v>2011</v>
       </c>
-      <c r="AU9" s="42"/>
-      <c r="AV9" s="42"/>
-      <c r="AW9" s="42"/>
-      <c r="AX9" s="42">
+      <c r="AU9" s="43"/>
+      <c r="AV9" s="43"/>
+      <c r="AW9" s="43"/>
+      <c r="AX9" s="43">
         <v>2012</v>
       </c>
-      <c r="AY9" s="42"/>
-      <c r="AZ9" s="42"/>
-      <c r="BA9" s="42"/>
-      <c r="BB9" s="42">
+      <c r="AY9" s="43"/>
+      <c r="AZ9" s="43"/>
+      <c r="BA9" s="43"/>
+      <c r="BB9" s="43">
         <v>2013</v>
       </c>
-      <c r="BC9" s="42"/>
-      <c r="BD9" s="42"/>
-      <c r="BE9" s="42"/>
-      <c r="BF9" s="42">
+      <c r="BC9" s="43"/>
+      <c r="BD9" s="43"/>
+      <c r="BE9" s="43"/>
+      <c r="BF9" s="43">
         <v>2014</v>
       </c>
-      <c r="BG9" s="42"/>
-      <c r="BH9" s="42"/>
-      <c r="BI9" s="42"/>
-      <c r="BJ9" s="42">
+      <c r="BG9" s="43"/>
+      <c r="BH9" s="43"/>
+      <c r="BI9" s="43"/>
+      <c r="BJ9" s="43">
         <v>2015</v>
       </c>
-      <c r="BK9" s="42"/>
-      <c r="BL9" s="42"/>
-      <c r="BM9" s="42"/>
-      <c r="BN9" s="42">
+      <c r="BK9" s="43"/>
+      <c r="BL9" s="43"/>
+      <c r="BM9" s="43"/>
+      <c r="BN9" s="43">
         <v>2016</v>
       </c>
-      <c r="BO9" s="42"/>
-      <c r="BP9" s="42"/>
-      <c r="BQ9" s="42"/>
-      <c r="BR9" s="43">
+      <c r="BO9" s="43"/>
+      <c r="BP9" s="43"/>
+      <c r="BQ9" s="43"/>
+      <c r="BR9" s="42">
         <v>2017</v>
       </c>
-      <c r="BS9" s="43"/>
-      <c r="BT9" s="43"/>
-      <c r="BU9" s="43"/>
-      <c r="BV9" s="43">
+      <c r="BS9" s="42"/>
+      <c r="BT9" s="42"/>
+      <c r="BU9" s="42"/>
+      <c r="BV9" s="42">
         <v>2018</v>
       </c>
-      <c r="BW9" s="43"/>
-      <c r="BX9" s="43"/>
-      <c r="BY9" s="43"/>
-      <c r="BZ9" s="43">
+      <c r="BW9" s="42"/>
+      <c r="BX9" s="42"/>
+      <c r="BY9" s="42"/>
+      <c r="BZ9" s="42">
         <v>2019</v>
       </c>
-      <c r="CA9" s="43"/>
-      <c r="CB9" s="43"/>
-      <c r="CC9" s="43"/>
-      <c r="CD9" s="43">
+      <c r="CA9" s="42"/>
+      <c r="CB9" s="42"/>
+      <c r="CC9" s="42"/>
+      <c r="CD9" s="42">
         <v>2020</v>
       </c>
-      <c r="CE9" s="43"/>
-      <c r="CF9" s="43"/>
-      <c r="CG9" s="43"/>
+      <c r="CE9" s="42"/>
+      <c r="CF9" s="42"/>
+      <c r="CG9" s="42"/>
       <c r="CH9" s="33">
         <v>2021</v>
       </c>
@@ -927,6 +927,7 @@
       </c>
       <c r="CU9" s="35"/>
       <c r="CV9" s="35"/>
+      <c r="CW9" s="35"/>
     </row>
     <row r="10" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -1228,6 +1229,9 @@
       </c>
       <c r="CV10" s="6" t="s">
         <v>21</v>
+      </c>
+      <c r="CW10" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1532,9 +1536,11 @@
         <v>1796226.0839838278</v>
       </c>
       <c r="CV12" s="9">
-        <v>1680445.6064987108</v>
-      </c>
-      <c r="CW12" s="11"/>
+        <v>1682389.9283507999</v>
+      </c>
+      <c r="CW12" s="9">
+        <v>2152896.4451178191</v>
+      </c>
       <c r="CX12" s="11"/>
       <c r="CY12" s="11"/>
       <c r="CZ12" s="11"/>
@@ -1887,9 +1893,11 @@
         <v>84434.709529288972</v>
       </c>
       <c r="CV13" s="9">
-        <v>85401.639660235538</v>
-      </c>
-      <c r="CW13" s="11"/>
+        <v>85871.575329048326</v>
+      </c>
+      <c r="CW13" s="9">
+        <v>125915.67769229825</v>
+      </c>
       <c r="CX13" s="11"/>
       <c r="CY13" s="11"/>
       <c r="CZ13" s="11"/>
@@ -2242,9 +2250,11 @@
         <v>49012.333254597201</v>
       </c>
       <c r="CV14" s="9">
-        <v>70772.197587287068</v>
-      </c>
-      <c r="CW14" s="11"/>
+        <v>71770.642188461396</v>
+      </c>
+      <c r="CW14" s="9">
+        <v>92389.829018320263</v>
+      </c>
       <c r="CX14" s="11"/>
       <c r="CY14" s="11"/>
       <c r="CZ14" s="11"/>
@@ -2597,9 +2607,11 @@
         <v>690650.73668984591</v>
       </c>
       <c r="CV15" s="9">
-        <v>603810.98352544068</v>
-      </c>
-      <c r="CW15" s="11"/>
+        <v>602422.12423501338</v>
+      </c>
+      <c r="CW15" s="9">
+        <v>614810.94334570458</v>
+      </c>
       <c r="CX15" s="11"/>
       <c r="CY15" s="11"/>
       <c r="CZ15" s="11"/>
@@ -2952,9 +2964,11 @@
         <v>112050.43969227333</v>
       </c>
       <c r="CV16" s="9">
-        <v>135117.28821205019</v>
-      </c>
-      <c r="CW16" s="11"/>
+        <v>134954.15097581942</v>
+      </c>
+      <c r="CW16" s="9">
+        <v>148259.80592369538</v>
+      </c>
       <c r="CX16" s="11"/>
       <c r="CY16" s="11"/>
       <c r="CZ16" s="11"/>
@@ -3307,9 +3321,11 @@
         <v>176551.22730459602</v>
       </c>
       <c r="CV17" s="9">
-        <v>274133.1744301357</v>
-      </c>
-      <c r="CW17" s="11"/>
+        <v>274911.46204481088</v>
+      </c>
+      <c r="CW17" s="9">
+        <v>247599.39696800575</v>
+      </c>
       <c r="CX17" s="11"/>
       <c r="CY17" s="11"/>
       <c r="CZ17" s="11"/>
@@ -3662,9 +3678,11 @@
         <v>442900.32035515696</v>
       </c>
       <c r="CV18" s="9">
-        <v>561213.40666238288</v>
-      </c>
-      <c r="CW18" s="11"/>
+        <v>559497.11870611587</v>
+      </c>
+      <c r="CW18" s="9">
+        <v>464468.93220555288</v>
+      </c>
       <c r="CX18" s="11"/>
       <c r="CY18" s="11"/>
       <c r="CZ18" s="11"/>
@@ -4017,9 +4035,11 @@
         <v>143247.59600452927</v>
       </c>
       <c r="CV19" s="9">
-        <v>107032.0798608754</v>
-      </c>
-      <c r="CW19" s="11"/>
+        <v>106817.27721319598</v>
+      </c>
+      <c r="CW19" s="9">
+        <v>139483.77857170059</v>
+      </c>
       <c r="CX19" s="11"/>
       <c r="CY19" s="11"/>
       <c r="CZ19" s="11"/>
@@ -4372,9 +4392,11 @@
         <v>63428.483016369173</v>
       </c>
       <c r="CV20" s="9">
-        <v>68241.238679543967</v>
-      </c>
-      <c r="CW20" s="11"/>
+        <v>67446.314236668419</v>
+      </c>
+      <c r="CW20" s="9">
+        <v>108576.3602430797</v>
+      </c>
       <c r="CX20" s="11"/>
       <c r="CY20" s="11"/>
       <c r="CZ20" s="11"/>
@@ -4727,9 +4749,11 @@
         <v>215512.82439309516</v>
       </c>
       <c r="CV21" s="9">
-        <v>258545.06390615052</v>
-      </c>
-      <c r="CW21" s="11"/>
+        <v>261543.7318449638</v>
+      </c>
+      <c r="CW21" s="9">
+        <v>270513.32328232267</v>
+      </c>
       <c r="CX21" s="11"/>
       <c r="CY21" s="11"/>
       <c r="CZ21" s="11"/>
@@ -5082,9 +5106,11 @@
         <v>284803.44617448025</v>
       </c>
       <c r="CV22" s="9">
-        <v>406173.2759633598</v>
-      </c>
-      <c r="CW22" s="11"/>
+        <v>407023.51004079619</v>
+      </c>
+      <c r="CW22" s="9">
+        <v>499079.4965413973</v>
+      </c>
       <c r="CX22" s="11"/>
       <c r="CY22" s="11"/>
       <c r="CZ22" s="11"/>
@@ -5437,9 +5463,11 @@
         <v>645817.94408080005</v>
       </c>
       <c r="CV23" s="9">
-        <v>664037.18579570437</v>
-      </c>
-      <c r="CW23" s="11"/>
+        <v>664390.39588482282</v>
+      </c>
+      <c r="CW23" s="9">
+        <v>859647.4754717662</v>
+      </c>
       <c r="CX23" s="11"/>
       <c r="CY23" s="11"/>
       <c r="CZ23" s="11"/>
@@ -5593,7 +5621,7 @@
       <c r="CT24" s="13"/>
       <c r="CU24" s="13"/>
       <c r="CV24" s="13"/>
-      <c r="CW24" s="11"/>
+      <c r="CW24" s="13"/>
       <c r="CX24" s="11"/>
       <c r="CY24" s="11"/>
       <c r="CZ24" s="11"/>
@@ -5946,9 +5974,11 @@
         <v>4704636.1444788603</v>
       </c>
       <c r="CV25" s="36">
-        <v>4914923.1407818776</v>
-      </c>
-      <c r="CW25" s="11"/>
+        <v>4919038.2310505165</v>
+      </c>
+      <c r="CW25" s="36">
+        <v>5723641.4643816631</v>
+      </c>
       <c r="CX25" s="11"/>
       <c r="CY25" s="11"/>
       <c r="CZ25" s="11"/>
@@ -6103,6 +6133,7 @@
       <c r="CT26" s="17"/>
       <c r="CU26" s="17"/>
       <c r="CV26" s="17"/>
+      <c r="CW26" s="17"/>
     </row>
     <row r="27" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
@@ -6209,7 +6240,7 @@
       <c r="CT28" s="37"/>
       <c r="CU28" s="37"/>
       <c r="CV28" s="37"/>
-      <c r="CW28" s="11"/>
+      <c r="CW28" s="37"/>
       <c r="CX28" s="11"/>
       <c r="CY28" s="11"/>
       <c r="CZ28" s="11"/>
@@ -6363,7 +6394,7 @@
       <c r="CT29" s="38"/>
       <c r="CU29" s="38"/>
       <c r="CV29" s="38"/>
-      <c r="CW29" s="11"/>
+      <c r="CW29" s="38"/>
       <c r="CX29" s="11"/>
       <c r="CY29" s="11"/>
       <c r="CZ29" s="11"/>
@@ -6429,7 +6460,7 @@
     </row>
     <row r="32" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:153" x14ac:dyDescent="0.2">
@@ -6439,7 +6470,7 @@
     </row>
     <row r="35" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:153" x14ac:dyDescent="0.2">
@@ -6449,132 +6480,132 @@
     </row>
     <row r="38" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
-      <c r="B38" s="42">
+      <c r="B38" s="43">
         <v>2000</v>
       </c>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42">
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43">
         <v>2001</v>
       </c>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42">
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43">
         <v>2002</v>
       </c>
-      <c r="K38" s="42"/>
-      <c r="L38" s="42"/>
-      <c r="M38" s="42"/>
-      <c r="N38" s="42">
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43">
         <v>2003</v>
       </c>
-      <c r="O38" s="42"/>
-      <c r="P38" s="42"/>
-      <c r="Q38" s="42"/>
-      <c r="R38" s="42">
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="43"/>
+      <c r="R38" s="43">
         <v>2004</v>
       </c>
-      <c r="S38" s="42"/>
-      <c r="T38" s="42"/>
-      <c r="U38" s="42"/>
-      <c r="V38" s="42">
+      <c r="S38" s="43"/>
+      <c r="T38" s="43"/>
+      <c r="U38" s="43"/>
+      <c r="V38" s="43">
         <v>2005</v>
       </c>
-      <c r="W38" s="42"/>
-      <c r="X38" s="42"/>
-      <c r="Y38" s="42"/>
-      <c r="Z38" s="42">
+      <c r="W38" s="43"/>
+      <c r="X38" s="43"/>
+      <c r="Y38" s="43"/>
+      <c r="Z38" s="43">
         <v>2006</v>
       </c>
-      <c r="AA38" s="42"/>
-      <c r="AB38" s="42"/>
-      <c r="AC38" s="42"/>
-      <c r="AD38" s="42">
+      <c r="AA38" s="43"/>
+      <c r="AB38" s="43"/>
+      <c r="AC38" s="43"/>
+      <c r="AD38" s="43">
         <v>2007</v>
       </c>
-      <c r="AE38" s="42"/>
-      <c r="AF38" s="42"/>
-      <c r="AG38" s="42"/>
-      <c r="AH38" s="42">
+      <c r="AE38" s="43"/>
+      <c r="AF38" s="43"/>
+      <c r="AG38" s="43"/>
+      <c r="AH38" s="43">
         <v>2008</v>
       </c>
-      <c r="AI38" s="42"/>
-      <c r="AJ38" s="42"/>
-      <c r="AK38" s="42"/>
-      <c r="AL38" s="42">
+      <c r="AI38" s="43"/>
+      <c r="AJ38" s="43"/>
+      <c r="AK38" s="43"/>
+      <c r="AL38" s="43">
         <v>2009</v>
       </c>
-      <c r="AM38" s="42"/>
-      <c r="AN38" s="42"/>
-      <c r="AO38" s="42"/>
-      <c r="AP38" s="42">
+      <c r="AM38" s="43"/>
+      <c r="AN38" s="43"/>
+      <c r="AO38" s="43"/>
+      <c r="AP38" s="43">
         <v>2010</v>
       </c>
-      <c r="AQ38" s="42"/>
-      <c r="AR38" s="42"/>
-      <c r="AS38" s="42"/>
-      <c r="AT38" s="42">
+      <c r="AQ38" s="43"/>
+      <c r="AR38" s="43"/>
+      <c r="AS38" s="43"/>
+      <c r="AT38" s="43">
         <v>2011</v>
       </c>
-      <c r="AU38" s="42"/>
-      <c r="AV38" s="42"/>
-      <c r="AW38" s="42"/>
-      <c r="AX38" s="42">
+      <c r="AU38" s="43"/>
+      <c r="AV38" s="43"/>
+      <c r="AW38" s="43"/>
+      <c r="AX38" s="43">
         <v>2012</v>
       </c>
-      <c r="AY38" s="42"/>
-      <c r="AZ38" s="42"/>
-      <c r="BA38" s="42"/>
-      <c r="BB38" s="42">
+      <c r="AY38" s="43"/>
+      <c r="AZ38" s="43"/>
+      <c r="BA38" s="43"/>
+      <c r="BB38" s="43">
         <v>2013</v>
       </c>
-      <c r="BC38" s="42"/>
-      <c r="BD38" s="42"/>
-      <c r="BE38" s="42"/>
-      <c r="BF38" s="42">
+      <c r="BC38" s="43"/>
+      <c r="BD38" s="43"/>
+      <c r="BE38" s="43"/>
+      <c r="BF38" s="43">
         <v>2014</v>
       </c>
-      <c r="BG38" s="42"/>
-      <c r="BH38" s="42"/>
-      <c r="BI38" s="42"/>
-      <c r="BJ38" s="42">
+      <c r="BG38" s="43"/>
+      <c r="BH38" s="43"/>
+      <c r="BI38" s="43"/>
+      <c r="BJ38" s="43">
         <v>2015</v>
       </c>
-      <c r="BK38" s="42"/>
-      <c r="BL38" s="42"/>
-      <c r="BM38" s="42"/>
-      <c r="BN38" s="42">
+      <c r="BK38" s="43"/>
+      <c r="BL38" s="43"/>
+      <c r="BM38" s="43"/>
+      <c r="BN38" s="43">
         <v>2016</v>
       </c>
-      <c r="BO38" s="42"/>
-      <c r="BP38" s="42"/>
-      <c r="BQ38" s="42"/>
-      <c r="BR38" s="43">
+      <c r="BO38" s="43"/>
+      <c r="BP38" s="43"/>
+      <c r="BQ38" s="43"/>
+      <c r="BR38" s="42">
         <v>2017</v>
       </c>
-      <c r="BS38" s="43"/>
-      <c r="BT38" s="43"/>
-      <c r="BU38" s="43"/>
-      <c r="BV38" s="43">
+      <c r="BS38" s="42"/>
+      <c r="BT38" s="42"/>
+      <c r="BU38" s="42"/>
+      <c r="BV38" s="42">
         <v>2018</v>
       </c>
-      <c r="BW38" s="43"/>
-      <c r="BX38" s="43"/>
-      <c r="BY38" s="43"/>
-      <c r="BZ38" s="43">
+      <c r="BW38" s="42"/>
+      <c r="BX38" s="42"/>
+      <c r="BY38" s="42"/>
+      <c r="BZ38" s="42">
         <v>2019</v>
       </c>
-      <c r="CA38" s="43"/>
-      <c r="CB38" s="43"/>
-      <c r="CC38" s="43"/>
-      <c r="CD38" s="43">
+      <c r="CA38" s="42"/>
+      <c r="CB38" s="42"/>
+      <c r="CC38" s="42"/>
+      <c r="CD38" s="42">
         <v>2020</v>
       </c>
-      <c r="CE38" s="43"/>
-      <c r="CF38" s="43"/>
-      <c r="CG38" s="43"/>
+      <c r="CE38" s="42"/>
+      <c r="CF38" s="42"/>
+      <c r="CG38" s="42"/>
       <c r="CH38" s="33">
         <v>2021</v>
       </c>
@@ -6598,6 +6629,7 @@
       </c>
       <c r="CU38" s="35"/>
       <c r="CV38" s="35"/>
+      <c r="CW38" s="35"/>
     </row>
     <row r="39" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
@@ -6899,6 +6931,9 @@
       </c>
       <c r="CV39" s="6" t="s">
         <v>21</v>
+      </c>
+      <c r="CW39" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -7203,9 +7238,11 @@
         <v>1369894.6138876297</v>
       </c>
       <c r="CV41" s="9">
-        <v>1269850.7254662351</v>
-      </c>
-      <c r="CW41" s="11"/>
+        <v>1271319.9777317455</v>
+      </c>
+      <c r="CW41" s="9">
+        <v>1643805.4352881918</v>
+      </c>
       <c r="CX41" s="11"/>
       <c r="CY41" s="11"/>
       <c r="CZ41" s="11"/>
@@ -7558,9 +7595,11 @@
         <v>46422.140041581202</v>
       </c>
       <c r="CV42" s="9">
-        <v>45015.035702839828</v>
-      </c>
-      <c r="CW42" s="11"/>
+        <v>45262.737866332311</v>
+      </c>
+      <c r="CW42" s="9">
+        <v>72668.727068747525</v>
+      </c>
       <c r="CX42" s="11"/>
       <c r="CY42" s="11"/>
       <c r="CZ42" s="11"/>
@@ -7913,9 +7952,11 @@
         <v>38879.318031933668</v>
       </c>
       <c r="CV43" s="9">
-        <v>61527.606073714604</v>
-      </c>
-      <c r="CW43" s="11"/>
+        <v>62395.629226898644</v>
+      </c>
+      <c r="CW43" s="9">
+        <v>79963.16597761224</v>
+      </c>
       <c r="CX43" s="11"/>
       <c r="CY43" s="11"/>
       <c r="CZ43" s="11"/>
@@ -8268,9 +8309,11 @@
         <v>586875.50972749339</v>
       </c>
       <c r="CV44" s="9">
-        <v>477873.56257161038</v>
-      </c>
-      <c r="CW44" s="11"/>
+        <v>476642.70970412693</v>
+      </c>
+      <c r="CW44" s="9">
+        <v>501654.13848916412</v>
+      </c>
       <c r="CX44" s="11"/>
       <c r="CY44" s="11"/>
       <c r="CZ44" s="11"/>
@@ -8623,9 +8666,11 @@
         <v>91527.901272317205</v>
       </c>
       <c r="CV45" s="9">
-        <v>110603.32627712283</v>
-      </c>
-      <c r="CW45" s="11"/>
+        <v>110469.78658575141</v>
+      </c>
+      <c r="CW45" s="9">
+        <v>123233.7312776886</v>
+      </c>
       <c r="CX45" s="11"/>
       <c r="CY45" s="11"/>
       <c r="CZ45" s="11"/>
@@ -8978,9 +9023,11 @@
         <v>150968.92379594396</v>
       </c>
       <c r="CV46" s="9">
-        <v>224493.69469154396</v>
-      </c>
-      <c r="CW46" s="11"/>
+        <v>225131.05156202966</v>
+      </c>
+      <c r="CW46" s="9">
+        <v>203462.42063982144</v>
+      </c>
       <c r="CX46" s="11"/>
       <c r="CY46" s="11"/>
       <c r="CZ46" s="11"/>
@@ -9333,9 +9380,11 @@
         <v>345503.79933207895</v>
       </c>
       <c r="CV47" s="9">
-        <v>398371.67923268472</v>
-      </c>
-      <c r="CW47" s="11"/>
+        <v>397153.38952850411</v>
+      </c>
+      <c r="CW47" s="9">
+        <v>369590.28927995556</v>
+      </c>
       <c r="CX47" s="11"/>
       <c r="CY47" s="11"/>
       <c r="CZ47" s="11"/>
@@ -9688,9 +9737,11 @@
         <v>138703.92520604885</v>
       </c>
       <c r="CV48" s="9">
-        <v>105600.33905010487</v>
-      </c>
-      <c r="CW48" s="11"/>
+        <v>105388.40976261189</v>
+      </c>
+      <c r="CW48" s="9">
+        <v>141511.90961926675</v>
+      </c>
       <c r="CX48" s="11"/>
       <c r="CY48" s="11"/>
       <c r="CZ48" s="11"/>
@@ -10043,9 +10094,11 @@
         <v>56611.040211207939</v>
       </c>
       <c r="CV49" s="9">
-        <v>61936.050487869143</v>
-      </c>
-      <c r="CW49" s="11"/>
+        <v>61214.573542540194</v>
+      </c>
+      <c r="CW49" s="9">
+        <v>94220.56286838364</v>
+      </c>
       <c r="CX49" s="11"/>
       <c r="CY49" s="11"/>
       <c r="CZ49" s="11"/>
@@ -10398,9 +10451,11 @@
         <v>187990.93154366862</v>
       </c>
       <c r="CV50" s="9">
-        <v>218263.32883981921</v>
-      </c>
-      <c r="CW50" s="11"/>
+        <v>220794.79951082068</v>
+      </c>
+      <c r="CW50" s="9">
+        <v>244004.28149636302</v>
+      </c>
       <c r="CX50" s="11"/>
       <c r="CY50" s="11"/>
       <c r="CZ50" s="11"/>
@@ -10753,9 +10808,11 @@
         <v>230140.08589862793</v>
       </c>
       <c r="CV51" s="9">
-        <v>309687.55276471196</v>
-      </c>
-      <c r="CW51" s="11"/>
+        <v>310335.81528295355</v>
+      </c>
+      <c r="CW51" s="9">
+        <v>390641.21813735587</v>
+      </c>
       <c r="CX51" s="11"/>
       <c r="CY51" s="11"/>
       <c r="CZ51" s="11"/>
@@ -11108,9 +11165,11 @@
         <v>508469.80232146545</v>
       </c>
       <c r="CV52" s="9">
-        <v>590204.0748485513</v>
-      </c>
-      <c r="CW52" s="11"/>
+        <v>590518.01213750837</v>
+      </c>
+      <c r="CW52" s="9">
+        <v>759773.92339174589</v>
+      </c>
       <c r="CX52" s="11"/>
       <c r="CY52" s="11"/>
       <c r="CZ52" s="11"/>
@@ -11264,7 +11323,7 @@
       <c r="CT53" s="13"/>
       <c r="CU53" s="13"/>
       <c r="CV53" s="13"/>
-      <c r="CW53" s="11"/>
+      <c r="CW53" s="13"/>
       <c r="CX53" s="11"/>
       <c r="CY53" s="11"/>
       <c r="CZ53" s="11"/>
@@ -11617,9 +11676,11 @@
         <v>3751987.9912699973</v>
       </c>
       <c r="CV54" s="36">
-        <v>3873426.9760068078</v>
-      </c>
-      <c r="CW54" s="11"/>
+        <v>3876626.8924418231</v>
+      </c>
+      <c r="CW54" s="36">
+        <v>4624529.8035342963</v>
+      </c>
       <c r="CX54" s="11"/>
       <c r="CY54" s="11"/>
       <c r="CZ54" s="11"/>
@@ -11774,6 +11835,7 @@
       <c r="CT55" s="17"/>
       <c r="CU55" s="17"/>
       <c r="CV55" s="17"/>
+      <c r="CW55" s="17"/>
     </row>
     <row r="56" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A56" s="18" t="s">
@@ -11880,7 +11942,7 @@
       <c r="CT57" s="13"/>
       <c r="CU57" s="13"/>
       <c r="CV57" s="13"/>
-      <c r="CW57" s="11"/>
+      <c r="CW57" s="13"/>
       <c r="CX57" s="11"/>
       <c r="CY57" s="11"/>
       <c r="CZ57" s="11"/>
@@ -12034,7 +12096,7 @@
       <c r="CT58" s="38"/>
       <c r="CU58" s="38"/>
       <c r="CV58" s="38"/>
-      <c r="CW58" s="11"/>
+      <c r="CW58" s="38"/>
       <c r="CX58" s="11"/>
       <c r="CY58" s="11"/>
       <c r="CZ58" s="11"/>
@@ -12100,156 +12162,175 @@
     </row>
     <row r="61" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>60</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="CT61" s="39"/>
+      <c r="CU61" s="39"/>
+      <c r="CV61" s="39"/>
+    </row>
+    <row r="62" spans="1:153" x14ac:dyDescent="0.2">
+      <c r="CT62" s="39"/>
+      <c r="CU62" s="39"/>
+      <c r="CV62" s="39"/>
     </row>
     <row r="63" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="CT63" s="39"/>
+      <c r="CU63" s="39"/>
+      <c r="CV63" s="39"/>
     </row>
     <row r="64" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="CT64" s="39"/>
+      <c r="CU64" s="39"/>
+      <c r="CV64" s="39"/>
     </row>
     <row r="65" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="CT65" s="39"/>
+      <c r="CU65" s="39"/>
+      <c r="CV65" s="39"/>
     </row>
     <row r="66" spans="1:149" x14ac:dyDescent="0.2">
-      <c r="CS66" s="39"/>
+      <c r="CT66" s="39"/>
+      <c r="CU66" s="39"/>
       <c r="CV66" s="39"/>
+      <c r="CW66" s="39"/>
     </row>
     <row r="67" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
-      <c r="B67" s="42" t="s">
+      <c r="B67" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C67" s="42"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="42" t="s">
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="G67" s="42"/>
-      <c r="H67" s="42"/>
-      <c r="I67" s="42"/>
-      <c r="J67" s="42" t="s">
+      <c r="G67" s="43"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="K67" s="42"/>
-      <c r="L67" s="42"/>
-      <c r="M67" s="42"/>
-      <c r="N67" s="42" t="s">
+      <c r="K67" s="43"/>
+      <c r="L67" s="43"/>
+      <c r="M67" s="43"/>
+      <c r="N67" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="O67" s="42"/>
-      <c r="P67" s="42"/>
-      <c r="Q67" s="42"/>
-      <c r="R67" s="42" t="s">
+      <c r="O67" s="43"/>
+      <c r="P67" s="43"/>
+      <c r="Q67" s="43"/>
+      <c r="R67" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="S67" s="42"/>
-      <c r="T67" s="42"/>
-      <c r="U67" s="42"/>
-      <c r="V67" s="42" t="s">
+      <c r="S67" s="43"/>
+      <c r="T67" s="43"/>
+      <c r="U67" s="43"/>
+      <c r="V67" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="W67" s="42"/>
-      <c r="X67" s="42"/>
-      <c r="Y67" s="42"/>
-      <c r="Z67" s="42" t="s">
+      <c r="W67" s="43"/>
+      <c r="X67" s="43"/>
+      <c r="Y67" s="43"/>
+      <c r="Z67" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="AA67" s="42"/>
-      <c r="AB67" s="42"/>
-      <c r="AC67" s="42"/>
-      <c r="AD67" s="42" t="s">
+      <c r="AA67" s="43"/>
+      <c r="AB67" s="43"/>
+      <c r="AC67" s="43"/>
+      <c r="AD67" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="AE67" s="42"/>
-      <c r="AF67" s="42"/>
-      <c r="AG67" s="42"/>
-      <c r="AH67" s="42" t="s">
+      <c r="AE67" s="43"/>
+      <c r="AF67" s="43"/>
+      <c r="AG67" s="43"/>
+      <c r="AH67" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="AI67" s="42"/>
-      <c r="AJ67" s="42"/>
-      <c r="AK67" s="42"/>
-      <c r="AL67" s="42" t="s">
+      <c r="AI67" s="43"/>
+      <c r="AJ67" s="43"/>
+      <c r="AK67" s="43"/>
+      <c r="AL67" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="AM67" s="42"/>
-      <c r="AN67" s="42"/>
-      <c r="AO67" s="42"/>
-      <c r="AP67" s="42" t="s">
+      <c r="AM67" s="43"/>
+      <c r="AN67" s="43"/>
+      <c r="AO67" s="43"/>
+      <c r="AP67" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="AQ67" s="42"/>
-      <c r="AR67" s="42"/>
-      <c r="AS67" s="42"/>
-      <c r="AT67" s="42" t="s">
+      <c r="AQ67" s="43"/>
+      <c r="AR67" s="43"/>
+      <c r="AS67" s="43"/>
+      <c r="AT67" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="AU67" s="42"/>
-      <c r="AV67" s="42"/>
-      <c r="AW67" s="42"/>
-      <c r="AX67" s="42" t="s">
+      <c r="AU67" s="43"/>
+      <c r="AV67" s="43"/>
+      <c r="AW67" s="43"/>
+      <c r="AX67" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="AY67" s="42"/>
-      <c r="AZ67" s="42"/>
-      <c r="BA67" s="42"/>
-      <c r="BB67" s="42" t="s">
+      <c r="AY67" s="43"/>
+      <c r="AZ67" s="43"/>
+      <c r="BA67" s="43"/>
+      <c r="BB67" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="BC67" s="42"/>
-      <c r="BD67" s="42"/>
-      <c r="BE67" s="42"/>
-      <c r="BF67" s="42" t="s">
+      <c r="BC67" s="43"/>
+      <c r="BD67" s="43"/>
+      <c r="BE67" s="43"/>
+      <c r="BF67" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="BG67" s="42"/>
-      <c r="BH67" s="42"/>
-      <c r="BI67" s="42"/>
-      <c r="BJ67" s="42" t="s">
+      <c r="BG67" s="43"/>
+      <c r="BH67" s="43"/>
+      <c r="BI67" s="43"/>
+      <c r="BJ67" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="BK67" s="42"/>
-      <c r="BL67" s="42"/>
-      <c r="BM67" s="42"/>
-      <c r="BN67" s="42" t="s">
+      <c r="BK67" s="43"/>
+      <c r="BL67" s="43"/>
+      <c r="BM67" s="43"/>
+      <c r="BN67" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="BO67" s="42"/>
-      <c r="BP67" s="42"/>
-      <c r="BQ67" s="42"/>
-      <c r="BR67" s="43" t="s">
+      <c r="BO67" s="43"/>
+      <c r="BP67" s="43"/>
+      <c r="BQ67" s="43"/>
+      <c r="BR67" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="BS67" s="43"/>
-      <c r="BT67" s="43"/>
-      <c r="BU67" s="43"/>
-      <c r="BV67" s="43" t="s">
+      <c r="BS67" s="42"/>
+      <c r="BT67" s="42"/>
+      <c r="BU67" s="42"/>
+      <c r="BV67" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="BW67" s="43"/>
-      <c r="BX67" s="43"/>
-      <c r="BY67" s="43"/>
-      <c r="BZ67" s="43" t="s">
+      <c r="BW67" s="42"/>
+      <c r="BX67" s="42"/>
+      <c r="BY67" s="42"/>
+      <c r="BZ67" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="CA67" s="43"/>
-      <c r="CB67" s="43"/>
-      <c r="CC67" s="43"/>
-      <c r="CD67" s="43" t="s">
+      <c r="CA67" s="42"/>
+      <c r="CB67" s="42"/>
+      <c r="CC67" s="42"/>
+      <c r="CD67" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="CE67" s="43"/>
-      <c r="CF67" s="43"/>
-      <c r="CG67" s="43"/>
+      <c r="CE67" s="42"/>
+      <c r="CF67" s="42"/>
+      <c r="CG67" s="42"/>
       <c r="CH67" s="33" t="s">
         <v>57</v>
       </c>
@@ -12267,10 +12348,11 @@
       </c>
       <c r="CQ67" s="35"/>
       <c r="CR67" s="35"/>
-      <c r="CS67" s="34"/>
-      <c r="CT67" s="35"/>
-      <c r="CU67" s="35"/>
+      <c r="CS67" s="35"/>
+      <c r="CT67" s="34"/>
+      <c r="CU67" s="34"/>
       <c r="CV67" s="34"/>
+      <c r="CW67" s="34"/>
     </row>
     <row r="68" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
@@ -12561,15 +12643,20 @@
       <c r="CR68" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="CS68" s="6"/>
+      <c r="CS68" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="CT68" s="6"/>
       <c r="CU68" s="6"/>
       <c r="CV68" s="6"/>
+      <c r="CW68" s="6"/>
     </row>
     <row r="69" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8"/>
-      <c r="CS69" s="39"/>
+      <c r="CT69" s="39"/>
+      <c r="CU69" s="39"/>
       <c r="CV69" s="39"/>
+      <c r="CW69" s="39"/>
     </row>
     <row r="70" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
@@ -12858,13 +12945,15 @@
         <v>6.5917171229109783</v>
       </c>
       <c r="CR70" s="25">
-        <v>7.1509103185926506</v>
-      </c>
-      <c r="CS70" s="40"/>
-      <c r="CT70" s="25"/>
-      <c r="CU70" s="25"/>
+        <v>7.2748868731434158</v>
+      </c>
+      <c r="CS70" s="25">
+        <v>4.5638476315222647</v>
+      </c>
+      <c r="CT70" s="40"/>
+      <c r="CU70" s="40"/>
       <c r="CV70" s="40"/>
-      <c r="CW70" s="11"/>
+      <c r="CW70" s="40"/>
       <c r="CX70" s="11"/>
       <c r="CY70" s="11"/>
       <c r="CZ70" s="11"/>
@@ -13201,13 +13290,15 @@
         <v>8.9779820823999756</v>
       </c>
       <c r="CR71" s="25">
-        <v>4.5424944761713419</v>
-      </c>
-      <c r="CS71" s="40"/>
-      <c r="CT71" s="25"/>
-      <c r="CU71" s="25"/>
+        <v>5.1177556451192743</v>
+      </c>
+      <c r="CS71" s="25">
+        <v>7.9077541838225613</v>
+      </c>
+      <c r="CT71" s="40"/>
+      <c r="CU71" s="40"/>
       <c r="CV71" s="40"/>
-      <c r="CW71" s="11"/>
+      <c r="CW71" s="40"/>
       <c r="CX71" s="11"/>
       <c r="CY71" s="11"/>
       <c r="CZ71" s="11"/>
@@ -13544,13 +13635,15 @@
         <v>-2.3170708050168116</v>
       </c>
       <c r="CR72" s="25">
-        <v>8.2573837182209786</v>
-      </c>
-      <c r="CS72" s="40"/>
-      <c r="CT72" s="25"/>
-      <c r="CU72" s="25"/>
+        <v>9.7846642605187384</v>
+      </c>
+      <c r="CS72" s="25">
+        <v>3.9289227415129062</v>
+      </c>
+      <c r="CT72" s="40"/>
+      <c r="CU72" s="40"/>
       <c r="CV72" s="40"/>
-      <c r="CW72" s="11"/>
+      <c r="CW72" s="40"/>
       <c r="CX72" s="11"/>
       <c r="CY72" s="11"/>
       <c r="CZ72" s="11"/>
@@ -13887,13 +13980,15 @@
         <v>6.4974324132069938</v>
       </c>
       <c r="CR73" s="25">
-        <v>7.1861446794244159</v>
-      </c>
-      <c r="CS73" s="40"/>
-      <c r="CT73" s="25"/>
-      <c r="CU73" s="25"/>
+        <v>6.9395998551253939</v>
+      </c>
+      <c r="CS73" s="25">
+        <v>6.2430923015481596</v>
+      </c>
+      <c r="CT73" s="40"/>
+      <c r="CU73" s="40"/>
       <c r="CV73" s="40"/>
-      <c r="CW73" s="11"/>
+      <c r="CW73" s="40"/>
       <c r="CX73" s="11"/>
       <c r="CY73" s="11"/>
       <c r="CZ73" s="11"/>
@@ -14230,13 +14325,15 @@
         <v>5.4560244025401659</v>
       </c>
       <c r="CR74" s="25">
-        <v>5.6695374029335426</v>
-      </c>
-      <c r="CS74" s="40"/>
-      <c r="CT74" s="25"/>
-      <c r="CU74" s="25"/>
+        <v>5.5419546449178227</v>
+      </c>
+      <c r="CS74" s="25">
+        <v>7.546890403306918</v>
+      </c>
+      <c r="CT74" s="40"/>
+      <c r="CU74" s="40"/>
       <c r="CV74" s="40"/>
-      <c r="CW74" s="11"/>
+      <c r="CW74" s="40"/>
       <c r="CX74" s="11"/>
       <c r="CY74" s="11"/>
       <c r="CZ74" s="11"/>
@@ -14573,13 +14670,15 @@
         <v>12.620377015259749</v>
       </c>
       <c r="CR75" s="25">
-        <v>13.745190354017637</v>
-      </c>
-      <c r="CS75" s="40"/>
-      <c r="CT75" s="25"/>
-      <c r="CU75" s="25"/>
+        <v>14.068122713683451</v>
+      </c>
+      <c r="CS75" s="25">
+        <v>14.285003716729051</v>
+      </c>
+      <c r="CT75" s="40"/>
+      <c r="CU75" s="40"/>
       <c r="CV75" s="40"/>
-      <c r="CW75" s="11"/>
+      <c r="CW75" s="40"/>
       <c r="CX75" s="11"/>
       <c r="CY75" s="11"/>
       <c r="CZ75" s="11"/>
@@ -14916,13 +15015,15 @@
         <v>15.256741101970945</v>
       </c>
       <c r="CR76" s="25">
-        <v>7.1581684068678015</v>
-      </c>
-      <c r="CS76" s="40"/>
-      <c r="CT76" s="25"/>
-      <c r="CU76" s="25"/>
+        <v>6.8304601381966989</v>
+      </c>
+      <c r="CS76" s="25">
+        <v>9.9718317385922006</v>
+      </c>
+      <c r="CT76" s="40"/>
+      <c r="CU76" s="40"/>
       <c r="CV76" s="40"/>
-      <c r="CW76" s="11"/>
+      <c r="CW76" s="40"/>
       <c r="CX76" s="11"/>
       <c r="CY76" s="11"/>
       <c r="CZ76" s="11"/>
@@ -15259,13 +15360,15 @@
         <v>7.1301207138647555</v>
       </c>
       <c r="CR77" s="25">
-        <v>4.8649370311027553</v>
-      </c>
-      <c r="CS77" s="40"/>
-      <c r="CT77" s="25"/>
-      <c r="CU77" s="25"/>
+        <v>4.6544836216922789</v>
+      </c>
+      <c r="CS77" s="25">
+        <v>3.8942199027498106</v>
+      </c>
+      <c r="CT77" s="40"/>
+      <c r="CU77" s="40"/>
       <c r="CV77" s="40"/>
-      <c r="CW77" s="11"/>
+      <c r="CW77" s="40"/>
       <c r="CX77" s="11"/>
       <c r="CY77" s="11"/>
       <c r="CZ77" s="11"/>
@@ -15602,13 +15705,15 @@
         <v>20.745463095478726</v>
       </c>
       <c r="CR78" s="25">
-        <v>8.0620443755723699</v>
-      </c>
-      <c r="CS78" s="40"/>
-      <c r="CT78" s="25"/>
-      <c r="CU78" s="25"/>
+        <v>6.8032577227592412</v>
+      </c>
+      <c r="CS78" s="25">
+        <v>13.092941127878021</v>
+      </c>
+      <c r="CT78" s="40"/>
+      <c r="CU78" s="40"/>
       <c r="CV78" s="40"/>
-      <c r="CW78" s="11"/>
+      <c r="CW78" s="40"/>
       <c r="CX78" s="11"/>
       <c r="CY78" s="11"/>
       <c r="CZ78" s="11"/>
@@ -15945,13 +16050,15 @@
         <v>3.922273479420582</v>
       </c>
       <c r="CR79" s="25">
-        <v>6.8358722306577846</v>
-      </c>
-      <c r="CS79" s="40"/>
-      <c r="CT79" s="25"/>
-      <c r="CU79" s="25"/>
+        <v>8.074980415254629</v>
+      </c>
+      <c r="CS79" s="25">
+        <v>9.7179438858395599</v>
+      </c>
+      <c r="CT79" s="40"/>
+      <c r="CU79" s="40"/>
       <c r="CV79" s="40"/>
-      <c r="CW79" s="11"/>
+      <c r="CW79" s="40"/>
       <c r="CX79" s="11"/>
       <c r="CY79" s="11"/>
       <c r="CZ79" s="11"/>
@@ -16288,13 +16395,15 @@
         <v>16.943177019293415</v>
       </c>
       <c r="CR80" s="25">
-        <v>14.750664392473439</v>
-      </c>
-      <c r="CS80" s="40"/>
-      <c r="CT80" s="25"/>
-      <c r="CU80" s="25"/>
+        <v>14.990869573485256</v>
+      </c>
+      <c r="CS80" s="25">
+        <v>9.3228859280825986</v>
+      </c>
+      <c r="CT80" s="40"/>
+      <c r="CU80" s="40"/>
       <c r="CV80" s="40"/>
-      <c r="CW80" s="11"/>
+      <c r="CW80" s="40"/>
       <c r="CX80" s="11"/>
       <c r="CY80" s="11"/>
       <c r="CZ80" s="11"/>
@@ -16631,13 +16740,15 @@
         <v>11.300525353314043</v>
       </c>
       <c r="CR81" s="25">
-        <v>10.299439397034632</v>
-      </c>
-      <c r="CS81" s="40"/>
-      <c r="CT81" s="25"/>
-      <c r="CU81" s="25"/>
+        <v>10.358109115617424</v>
+      </c>
+      <c r="CS81" s="25">
+        <v>10.747848421775657</v>
+      </c>
+      <c r="CT81" s="40"/>
+      <c r="CU81" s="40"/>
       <c r="CV81" s="40"/>
-      <c r="CW81" s="11"/>
+      <c r="CW81" s="40"/>
       <c r="CX81" s="11"/>
       <c r="CY81" s="11"/>
       <c r="CZ81" s="11"/>
@@ -16783,11 +16894,11 @@
       <c r="CP82" s="13"/>
       <c r="CQ82" s="13"/>
       <c r="CR82" s="13"/>
-      <c r="CS82" s="41"/>
-      <c r="CT82" s="13"/>
-      <c r="CU82" s="13"/>
+      <c r="CS82" s="13"/>
+      <c r="CT82" s="41"/>
+      <c r="CU82" s="41"/>
       <c r="CV82" s="41"/>
-      <c r="CW82" s="11"/>
+      <c r="CW82" s="41"/>
       <c r="CX82" s="11"/>
       <c r="CY82" s="11"/>
       <c r="CZ82" s="11"/>
@@ -17124,13 +17235,15 @@
         <v>8.7521517728650622</v>
       </c>
       <c r="CR83" s="25">
-        <v>8.3894707898161727</v>
-      </c>
-      <c r="CS83" s="40"/>
-      <c r="CT83" s="25"/>
-      <c r="CU83" s="25"/>
+        <v>8.4802214371191127</v>
+      </c>
+      <c r="CS83" s="25">
+        <v>7.3931994871179256</v>
+      </c>
+      <c r="CT83" s="40"/>
+      <c r="CU83" s="40"/>
       <c r="CV83" s="40"/>
-      <c r="CW83" s="11"/>
+      <c r="CW83" s="40"/>
       <c r="CX83" s="11"/>
       <c r="CY83" s="11"/>
       <c r="CZ83" s="11"/>
@@ -17277,17 +17390,20 @@
       <c r="CP84" s="17"/>
       <c r="CQ84" s="17"/>
       <c r="CR84" s="17"/>
-      <c r="CS84" s="6"/>
-      <c r="CT84" s="17"/>
-      <c r="CU84" s="17"/>
+      <c r="CS84" s="17"/>
+      <c r="CT84" s="6"/>
+      <c r="CU84" s="6"/>
       <c r="CV84" s="6"/>
+      <c r="CW84" s="6"/>
     </row>
     <row r="85" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A85" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="CS85" s="39"/>
+      <c r="CT85" s="39"/>
+      <c r="CU85" s="39"/>
       <c r="CV85" s="39"/>
+      <c r="CW85" s="39"/>
     </row>
     <row r="86" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="13"/>
@@ -17385,11 +17501,11 @@
       <c r="CP86" s="13"/>
       <c r="CQ86" s="13"/>
       <c r="CR86" s="13"/>
-      <c r="CS86" s="41"/>
-      <c r="CT86" s="13"/>
-      <c r="CU86" s="13"/>
+      <c r="CS86" s="13"/>
+      <c r="CT86" s="41"/>
+      <c r="CU86" s="41"/>
       <c r="CV86" s="41"/>
-      <c r="CW86" s="11"/>
+      <c r="CW86" s="41"/>
       <c r="CX86" s="11"/>
       <c r="CY86" s="11"/>
       <c r="CZ86" s="11"/>
@@ -17535,11 +17651,11 @@
       <c r="CP87" s="13"/>
       <c r="CQ87" s="13"/>
       <c r="CR87" s="13"/>
-      <c r="CS87" s="41"/>
-      <c r="CT87" s="13"/>
-      <c r="CU87" s="13"/>
+      <c r="CS87" s="13"/>
+      <c r="CT87" s="41"/>
+      <c r="CU87" s="41"/>
       <c r="CV87" s="41"/>
-      <c r="CW87" s="11"/>
+      <c r="CW87" s="41"/>
       <c r="CX87" s="11"/>
       <c r="CY87" s="11"/>
       <c r="CZ87" s="11"/>
@@ -17593,180 +17709,196 @@
       <c r="A88" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="CS88" s="39"/>
+      <c r="CT88" s="39"/>
+      <c r="CU88" s="39"/>
       <c r="CV88" s="39"/>
+      <c r="CW88" s="39"/>
     </row>
     <row r="89" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="CS89" s="39"/>
+      <c r="CT89" s="39"/>
+      <c r="CU89" s="39"/>
       <c r="CV89" s="39"/>
+      <c r="CW89" s="39"/>
     </row>
     <row r="90" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="CS90" s="39"/>
+        <v>62</v>
+      </c>
+      <c r="CT90" s="39"/>
+      <c r="CU90" s="39"/>
       <c r="CV90" s="39"/>
+      <c r="CW90" s="39"/>
     </row>
     <row r="91" spans="1:149" x14ac:dyDescent="0.2">
-      <c r="CS91" s="39"/>
+      <c r="CT91" s="39"/>
+      <c r="CU91" s="39"/>
       <c r="CV91" s="39"/>
+      <c r="CW91" s="39"/>
     </row>
     <row r="92" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="CS92" s="39"/>
+      <c r="CT92" s="39"/>
+      <c r="CU92" s="39"/>
       <c r="CV92" s="39"/>
+      <c r="CW92" s="39"/>
     </row>
     <row r="93" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="CS93" s="39"/>
+        <v>61</v>
+      </c>
+      <c r="CT93" s="39"/>
+      <c r="CU93" s="39"/>
       <c r="CV93" s="39"/>
+      <c r="CW93" s="39"/>
     </row>
     <row r="94" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="CS94" s="39"/>
+      <c r="CT94" s="39"/>
+      <c r="CU94" s="39"/>
       <c r="CV94" s="39"/>
+      <c r="CW94" s="39"/>
     </row>
     <row r="95" spans="1:149" x14ac:dyDescent="0.2">
-      <c r="CS95" s="39"/>
+      <c r="CT95" s="39"/>
+      <c r="CU95" s="39"/>
       <c r="CV95" s="39"/>
+      <c r="CW95" s="39"/>
     </row>
     <row r="96" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
-      <c r="B96" s="42" t="s">
+      <c r="B96" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C96" s="42"/>
-      <c r="D96" s="42"/>
-      <c r="E96" s="42"/>
-      <c r="F96" s="42" t="s">
+      <c r="C96" s="43"/>
+      <c r="D96" s="43"/>
+      <c r="E96" s="43"/>
+      <c r="F96" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="G96" s="42"/>
-      <c r="H96" s="42"/>
-      <c r="I96" s="42"/>
-      <c r="J96" s="42" t="s">
+      <c r="G96" s="43"/>
+      <c r="H96" s="43"/>
+      <c r="I96" s="43"/>
+      <c r="J96" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="K96" s="42"/>
-      <c r="L96" s="42"/>
-      <c r="M96" s="42"/>
-      <c r="N96" s="42" t="s">
+      <c r="K96" s="43"/>
+      <c r="L96" s="43"/>
+      <c r="M96" s="43"/>
+      <c r="N96" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="O96" s="42"/>
-      <c r="P96" s="42"/>
-      <c r="Q96" s="42"/>
-      <c r="R96" s="42" t="s">
+      <c r="O96" s="43"/>
+      <c r="P96" s="43"/>
+      <c r="Q96" s="43"/>
+      <c r="R96" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="S96" s="42"/>
-      <c r="T96" s="42"/>
-      <c r="U96" s="42"/>
-      <c r="V96" s="42" t="s">
+      <c r="S96" s="43"/>
+      <c r="T96" s="43"/>
+      <c r="U96" s="43"/>
+      <c r="V96" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="W96" s="42"/>
-      <c r="X96" s="42"/>
-      <c r="Y96" s="42"/>
-      <c r="Z96" s="42" t="s">
+      <c r="W96" s="43"/>
+      <c r="X96" s="43"/>
+      <c r="Y96" s="43"/>
+      <c r="Z96" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="AA96" s="42"/>
-      <c r="AB96" s="42"/>
-      <c r="AC96" s="42"/>
-      <c r="AD96" s="42" t="s">
+      <c r="AA96" s="43"/>
+      <c r="AB96" s="43"/>
+      <c r="AC96" s="43"/>
+      <c r="AD96" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="AE96" s="42"/>
-      <c r="AF96" s="42"/>
-      <c r="AG96" s="42"/>
-      <c r="AH96" s="42" t="s">
+      <c r="AE96" s="43"/>
+      <c r="AF96" s="43"/>
+      <c r="AG96" s="43"/>
+      <c r="AH96" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="AI96" s="42"/>
-      <c r="AJ96" s="42"/>
-      <c r="AK96" s="42"/>
-      <c r="AL96" s="42" t="s">
+      <c r="AI96" s="43"/>
+      <c r="AJ96" s="43"/>
+      <c r="AK96" s="43"/>
+      <c r="AL96" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="AM96" s="42"/>
-      <c r="AN96" s="42"/>
-      <c r="AO96" s="42"/>
-      <c r="AP96" s="42" t="s">
+      <c r="AM96" s="43"/>
+      <c r="AN96" s="43"/>
+      <c r="AO96" s="43"/>
+      <c r="AP96" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="AQ96" s="42"/>
-      <c r="AR96" s="42"/>
-      <c r="AS96" s="42"/>
-      <c r="AT96" s="42" t="s">
+      <c r="AQ96" s="43"/>
+      <c r="AR96" s="43"/>
+      <c r="AS96" s="43"/>
+      <c r="AT96" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="AU96" s="42"/>
-      <c r="AV96" s="42"/>
-      <c r="AW96" s="42"/>
-      <c r="AX96" s="42" t="s">
+      <c r="AU96" s="43"/>
+      <c r="AV96" s="43"/>
+      <c r="AW96" s="43"/>
+      <c r="AX96" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="AY96" s="42"/>
-      <c r="AZ96" s="42"/>
-      <c r="BA96" s="42"/>
-      <c r="BB96" s="42" t="s">
+      <c r="AY96" s="43"/>
+      <c r="AZ96" s="43"/>
+      <c r="BA96" s="43"/>
+      <c r="BB96" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="BC96" s="42"/>
-      <c r="BD96" s="42"/>
-      <c r="BE96" s="42"/>
-      <c r="BF96" s="42" t="s">
+      <c r="BC96" s="43"/>
+      <c r="BD96" s="43"/>
+      <c r="BE96" s="43"/>
+      <c r="BF96" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="BG96" s="42"/>
-      <c r="BH96" s="42"/>
-      <c r="BI96" s="42"/>
-      <c r="BJ96" s="42" t="s">
+      <c r="BG96" s="43"/>
+      <c r="BH96" s="43"/>
+      <c r="BI96" s="43"/>
+      <c r="BJ96" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="BK96" s="42"/>
-      <c r="BL96" s="42"/>
-      <c r="BM96" s="42"/>
-      <c r="BN96" s="42" t="s">
+      <c r="BK96" s="43"/>
+      <c r="BL96" s="43"/>
+      <c r="BM96" s="43"/>
+      <c r="BN96" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="BO96" s="42"/>
-      <c r="BP96" s="42"/>
-      <c r="BQ96" s="42"/>
-      <c r="BR96" s="43" t="s">
+      <c r="BO96" s="43"/>
+      <c r="BP96" s="43"/>
+      <c r="BQ96" s="43"/>
+      <c r="BR96" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="BS96" s="43"/>
-      <c r="BT96" s="43"/>
-      <c r="BU96" s="43"/>
-      <c r="BV96" s="43" t="s">
+      <c r="BS96" s="42"/>
+      <c r="BT96" s="42"/>
+      <c r="BU96" s="42"/>
+      <c r="BV96" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="BW96" s="43"/>
-      <c r="BX96" s="43"/>
-      <c r="BY96" s="43"/>
-      <c r="BZ96" s="43" t="s">
+      <c r="BW96" s="42"/>
+      <c r="BX96" s="42"/>
+      <c r="BY96" s="42"/>
+      <c r="BZ96" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="CA96" s="43"/>
-      <c r="CB96" s="43"/>
-      <c r="CC96" s="43"/>
-      <c r="CD96" s="43" t="s">
+      <c r="CA96" s="42"/>
+      <c r="CB96" s="42"/>
+      <c r="CC96" s="42"/>
+      <c r="CD96" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="CE96" s="43"/>
-      <c r="CF96" s="43"/>
-      <c r="CG96" s="43"/>
+      <c r="CE96" s="42"/>
+      <c r="CF96" s="42"/>
+      <c r="CG96" s="42"/>
       <c r="CH96" s="33" t="s">
         <v>57</v>
       </c>
@@ -17784,10 +17916,11 @@
       </c>
       <c r="CQ96" s="35"/>
       <c r="CR96" s="35"/>
-      <c r="CS96" s="34"/>
-      <c r="CT96" s="35"/>
-      <c r="CU96" s="35"/>
+      <c r="CS96" s="35"/>
+      <c r="CT96" s="34"/>
+      <c r="CU96" s="34"/>
       <c r="CV96" s="34"/>
+      <c r="CW96" s="34"/>
     </row>
     <row r="97" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
@@ -18078,15 +18211,20 @@
       <c r="CR97" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="CS97" s="6"/>
+      <c r="CS97" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="CT97" s="6"/>
       <c r="CU97" s="6"/>
       <c r="CV97" s="6"/>
+      <c r="CW97" s="6"/>
     </row>
     <row r="98" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8"/>
-      <c r="CS98" s="39"/>
+      <c r="CT98" s="39"/>
+      <c r="CU98" s="39"/>
       <c r="CV98" s="39"/>
+      <c r="CW98" s="39"/>
     </row>
     <row r="99" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
@@ -18375,13 +18513,15 @@
         <v>0.55822370085940065</v>
       </c>
       <c r="CR99" s="25">
-        <v>3.1732139549992127</v>
-      </c>
-      <c r="CS99" s="40"/>
-      <c r="CT99" s="25"/>
-      <c r="CU99" s="25"/>
+        <v>3.2925882052975908</v>
+      </c>
+      <c r="CS99" s="25">
+        <v>1.2730057263677708</v>
+      </c>
+      <c r="CT99" s="40"/>
+      <c r="CU99" s="40"/>
       <c r="CV99" s="40"/>
-      <c r="CW99" s="11"/>
+      <c r="CW99" s="40"/>
       <c r="CX99" s="11"/>
       <c r="CY99" s="11"/>
       <c r="CZ99" s="11"/>
@@ -18718,13 +18858,15 @@
         <v>4.456926819694317</v>
       </c>
       <c r="CR100" s="25">
-        <v>1.2392898359612872</v>
-      </c>
-      <c r="CS100" s="40"/>
-      <c r="CT100" s="25"/>
-      <c r="CU100" s="25"/>
+        <v>1.7963746128867939</v>
+      </c>
+      <c r="CS100" s="25">
+        <v>4.7067592369516689</v>
+      </c>
+      <c r="CT100" s="40"/>
+      <c r="CU100" s="40"/>
       <c r="CV100" s="40"/>
-      <c r="CW100" s="11"/>
+      <c r="CW100" s="40"/>
       <c r="CX100" s="11"/>
       <c r="CY100" s="11"/>
       <c r="CZ100" s="11"/>
@@ -19061,13 +19203,15 @@
         <v>-5.535573400289465</v>
       </c>
       <c r="CR101" s="25">
-        <v>5.0715582444504719</v>
-      </c>
-      <c r="CS101" s="40"/>
-      <c r="CT101" s="25"/>
-      <c r="CU101" s="25"/>
+        <v>6.5538935914171645</v>
+      </c>
+      <c r="CS101" s="25">
+        <v>1.3444929778932817</v>
+      </c>
+      <c r="CT101" s="40"/>
+      <c r="CU101" s="40"/>
       <c r="CV101" s="40"/>
-      <c r="CW101" s="11"/>
+      <c r="CW101" s="40"/>
       <c r="CX101" s="11"/>
       <c r="CY101" s="11"/>
       <c r="CZ101" s="11"/>
@@ -19404,13 +19548,15 @@
         <v>5.9908693603182286</v>
       </c>
       <c r="CR102" s="25">
-        <v>3.9587165661489507</v>
-      </c>
-      <c r="CS102" s="40"/>
-      <c r="CT102" s="25"/>
-      <c r="CU102" s="25"/>
+        <v>3.6909514198689095</v>
+      </c>
+      <c r="CS102" s="25">
+        <v>3.7539349571072478</v>
+      </c>
+      <c r="CT102" s="40"/>
+      <c r="CU102" s="40"/>
       <c r="CV102" s="40"/>
-      <c r="CW102" s="11"/>
+      <c r="CW102" s="40"/>
       <c r="CX102" s="11"/>
       <c r="CY102" s="11"/>
       <c r="CZ102" s="11"/>
@@ -19747,13 +19893,15 @@
         <v>2.4165287774326742</v>
       </c>
       <c r="CR103" s="25">
-        <v>2.8963620090894864</v>
-      </c>
-      <c r="CS103" s="40"/>
-      <c r="CT103" s="25"/>
-      <c r="CU103" s="25"/>
+        <v>2.7721275137226229</v>
+      </c>
+      <c r="CS103" s="25">
+        <v>4.8289934447450804</v>
+      </c>
+      <c r="CT103" s="40"/>
+      <c r="CU103" s="40"/>
       <c r="CV103" s="40"/>
-      <c r="CW103" s="11"/>
+      <c r="CW103" s="40"/>
       <c r="CX103" s="11"/>
       <c r="CY103" s="11"/>
       <c r="CZ103" s="11"/>
@@ -20090,13 +20238,15 @@
         <v>9.3773017738532047</v>
       </c>
       <c r="CR104" s="25">
-        <v>10.823126242705655</v>
-      </c>
-      <c r="CS104" s="40"/>
-      <c r="CT104" s="25"/>
-      <c r="CU104" s="25"/>
+        <v>11.137762611520131</v>
+      </c>
+      <c r="CS104" s="25">
+        <v>11.457840408866971</v>
+      </c>
+      <c r="CT104" s="40"/>
+      <c r="CU104" s="40"/>
       <c r="CV104" s="40"/>
-      <c r="CW104" s="11"/>
+      <c r="CW104" s="40"/>
       <c r="CX104" s="11"/>
       <c r="CY104" s="11"/>
       <c r="CZ104" s="11"/>
@@ -20433,13 +20583,15 @@
         <v>11.859083676855704</v>
       </c>
       <c r="CR105" s="25">
-        <v>6.8276033629392003</v>
-      </c>
-      <c r="CS105" s="40"/>
-      <c r="CT105" s="25"/>
-      <c r="CU105" s="25"/>
+        <v>6.5009060195184958</v>
+      </c>
+      <c r="CS105" s="25">
+        <v>10.882335908226096</v>
+      </c>
+      <c r="CT105" s="40"/>
+      <c r="CU105" s="40"/>
       <c r="CV105" s="40"/>
-      <c r="CW105" s="11"/>
+      <c r="CW105" s="40"/>
       <c r="CX105" s="11"/>
       <c r="CY105" s="11"/>
       <c r="CZ105" s="11"/>
@@ -20776,13 +20928,15 @@
         <v>6.6110794313363357</v>
       </c>
       <c r="CR106" s="25">
-        <v>4.3907415794117099</v>
-      </c>
-      <c r="CS106" s="40"/>
-      <c r="CT106" s="25"/>
-      <c r="CU106" s="25"/>
+        <v>4.1812398327052875</v>
+      </c>
+      <c r="CS106" s="25">
+        <v>3.6928745153413729</v>
+      </c>
+      <c r="CT106" s="40"/>
+      <c r="CU106" s="40"/>
       <c r="CV106" s="40"/>
-      <c r="CW106" s="11"/>
+      <c r="CW106" s="40"/>
       <c r="CX106" s="11"/>
       <c r="CY106" s="11"/>
       <c r="CZ106" s="11"/>
@@ -21119,13 +21273,15 @@
         <v>16.565008516293105</v>
       </c>
       <c r="CR107" s="25">
-        <v>4.7499164041640825</v>
-      </c>
-      <c r="CS107" s="40"/>
-      <c r="CT107" s="25"/>
-      <c r="CU107" s="25"/>
+        <v>3.5297118687531537</v>
+      </c>
+      <c r="CS107" s="25">
+        <v>10.352661767595905</v>
+      </c>
+      <c r="CT107" s="40"/>
+      <c r="CU107" s="40"/>
       <c r="CV107" s="40"/>
-      <c r="CW107" s="11"/>
+      <c r="CW107" s="40"/>
       <c r="CX107" s="11"/>
       <c r="CY107" s="11"/>
       <c r="CZ107" s="11"/>
@@ -21462,13 +21618,15 @@
         <v>0.14000702696330336</v>
       </c>
       <c r="CR108" s="25">
-        <v>1.4389163630192314</v>
-      </c>
-      <c r="CS108" s="40"/>
-      <c r="CT108" s="25"/>
-      <c r="CU108" s="25"/>
+        <v>2.615429353250434</v>
+      </c>
+      <c r="CS108" s="25">
+        <v>5.1501693693599435</v>
+      </c>
+      <c r="CT108" s="40"/>
+      <c r="CU108" s="40"/>
       <c r="CV108" s="40"/>
-      <c r="CW108" s="11"/>
+      <c r="CW108" s="40"/>
       <c r="CX108" s="11"/>
       <c r="CY108" s="11"/>
       <c r="CZ108" s="11"/>
@@ -21805,13 +21963,15 @@
         <v>11.102102620827139</v>
       </c>
       <c r="CR109" s="25">
-        <v>9.7563349577751239</v>
-      </c>
-      <c r="CS109" s="40"/>
-      <c r="CT109" s="25"/>
-      <c r="CU109" s="25"/>
+        <v>9.986085612774005</v>
+      </c>
+      <c r="CS109" s="25">
+        <v>5.257158765467949</v>
+      </c>
+      <c r="CT109" s="40"/>
+      <c r="CU109" s="40"/>
       <c r="CV109" s="40"/>
-      <c r="CW109" s="11"/>
+      <c r="CW109" s="40"/>
       <c r="CX109" s="11"/>
       <c r="CY109" s="11"/>
       <c r="CZ109" s="11"/>
@@ -22148,13 +22308,15 @@
         <v>7.7085776351997026</v>
       </c>
       <c r="CR110" s="25">
-        <v>7.0937966398346077</v>
-      </c>
-      <c r="CS110" s="40"/>
-      <c r="CT110" s="25"/>
-      <c r="CU110" s="25"/>
+        <v>7.1507612349873284</v>
+      </c>
+      <c r="CS110" s="25">
+        <v>7.6990220987210165</v>
+      </c>
+      <c r="CT110" s="40"/>
+      <c r="CU110" s="40"/>
       <c r="CV110" s="40"/>
-      <c r="CW110" s="11"/>
+      <c r="CW110" s="40"/>
       <c r="CX110" s="11"/>
       <c r="CY110" s="11"/>
       <c r="CZ110" s="11"/>
@@ -22300,11 +22462,11 @@
       <c r="CP111" s="13"/>
       <c r="CQ111" s="13"/>
       <c r="CR111" s="13"/>
-      <c r="CS111" s="41"/>
-      <c r="CT111" s="13"/>
-      <c r="CU111" s="13"/>
+      <c r="CS111" s="13"/>
+      <c r="CT111" s="41"/>
+      <c r="CU111" s="41"/>
       <c r="CV111" s="41"/>
-      <c r="CW111" s="11"/>
+      <c r="CW111" s="41"/>
       <c r="CX111" s="11"/>
       <c r="CY111" s="11"/>
       <c r="CZ111" s="11"/>
@@ -22641,13 +22803,15 @@
         <v>4.7023525834933224</v>
       </c>
       <c r="CR112" s="25">
-        <v>5.1080621512273154</v>
-      </c>
-      <c r="CS112" s="40"/>
-      <c r="CT112" s="25"/>
-      <c r="CU112" s="25"/>
+        <v>5.1948940490825493</v>
+      </c>
+      <c r="CS112" s="25">
+        <v>4.6541445014844527</v>
+      </c>
+      <c r="CT112" s="40"/>
+      <c r="CU112" s="40"/>
       <c r="CV112" s="40"/>
-      <c r="CW112" s="11"/>
+      <c r="CW112" s="40"/>
       <c r="CX112" s="11"/>
       <c r="CY112" s="11"/>
       <c r="CZ112" s="11"/>
@@ -22794,17 +22958,20 @@
       <c r="CP113" s="17"/>
       <c r="CQ113" s="17"/>
       <c r="CR113" s="17"/>
-      <c r="CS113" s="6"/>
-      <c r="CT113" s="17"/>
-      <c r="CU113" s="17"/>
+      <c r="CS113" s="17"/>
+      <c r="CT113" s="6"/>
+      <c r="CU113" s="6"/>
       <c r="CV113" s="6"/>
+      <c r="CW113" s="6"/>
     </row>
     <row r="114" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A114" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="CS114" s="39"/>
+      <c r="CT114" s="39"/>
+      <c r="CU114" s="39"/>
       <c r="CV114" s="39"/>
+      <c r="CW114" s="39"/>
     </row>
     <row r="115" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="13"/>
@@ -22902,11 +23069,11 @@
       <c r="CP115" s="13"/>
       <c r="CQ115" s="13"/>
       <c r="CR115" s="13"/>
-      <c r="CS115" s="41"/>
-      <c r="CT115" s="13"/>
-      <c r="CU115" s="13"/>
+      <c r="CS115" s="13"/>
+      <c r="CT115" s="41"/>
+      <c r="CU115" s="41"/>
       <c r="CV115" s="41"/>
-      <c r="CW115" s="11"/>
+      <c r="CW115" s="41"/>
       <c r="CX115" s="11"/>
       <c r="CY115" s="11"/>
       <c r="CZ115" s="11"/>
@@ -23052,11 +23219,11 @@
       <c r="CP116" s="13"/>
       <c r="CQ116" s="13"/>
       <c r="CR116" s="13"/>
-      <c r="CS116" s="41"/>
-      <c r="CT116" s="13"/>
-      <c r="CU116" s="13"/>
+      <c r="CS116" s="13"/>
+      <c r="CT116" s="41"/>
+      <c r="CU116" s="41"/>
       <c r="CV116" s="41"/>
-      <c r="CW116" s="11"/>
+      <c r="CW116" s="41"/>
       <c r="CX116" s="11"/>
       <c r="CY116" s="11"/>
       <c r="CZ116" s="11"/>
@@ -23113,7 +23280,7 @@
     </row>
     <row r="118" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="120" spans="1:153" x14ac:dyDescent="0.2">
@@ -23123,7 +23290,7 @@
     </row>
     <row r="121" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="122" spans="1:153" x14ac:dyDescent="0.2">
@@ -23133,132 +23300,132 @@
     </row>
     <row r="124" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
-      <c r="B124" s="42">
+      <c r="B124" s="43">
         <v>2000</v>
       </c>
-      <c r="C124" s="42"/>
-      <c r="D124" s="42"/>
-      <c r="E124" s="42"/>
-      <c r="F124" s="42">
+      <c r="C124" s="43"/>
+      <c r="D124" s="43"/>
+      <c r="E124" s="43"/>
+      <c r="F124" s="43">
         <v>2001</v>
       </c>
-      <c r="G124" s="42"/>
-      <c r="H124" s="42"/>
-      <c r="I124" s="42"/>
-      <c r="J124" s="42">
+      <c r="G124" s="43"/>
+      <c r="H124" s="43"/>
+      <c r="I124" s="43"/>
+      <c r="J124" s="43">
         <v>2002</v>
       </c>
-      <c r="K124" s="42"/>
-      <c r="L124" s="42"/>
-      <c r="M124" s="42"/>
-      <c r="N124" s="42">
+      <c r="K124" s="43"/>
+      <c r="L124" s="43"/>
+      <c r="M124" s="43"/>
+      <c r="N124" s="43">
         <v>2003</v>
       </c>
-      <c r="O124" s="42"/>
-      <c r="P124" s="42"/>
-      <c r="Q124" s="42"/>
-      <c r="R124" s="42">
+      <c r="O124" s="43"/>
+      <c r="P124" s="43"/>
+      <c r="Q124" s="43"/>
+      <c r="R124" s="43">
         <v>2004</v>
       </c>
-      <c r="S124" s="42"/>
-      <c r="T124" s="42"/>
-      <c r="U124" s="42"/>
-      <c r="V124" s="42">
+      <c r="S124" s="43"/>
+      <c r="T124" s="43"/>
+      <c r="U124" s="43"/>
+      <c r="V124" s="43">
         <v>2005</v>
       </c>
-      <c r="W124" s="42"/>
-      <c r="X124" s="42"/>
-      <c r="Y124" s="42"/>
-      <c r="Z124" s="42">
+      <c r="W124" s="43"/>
+      <c r="X124" s="43"/>
+      <c r="Y124" s="43"/>
+      <c r="Z124" s="43">
         <v>2006</v>
       </c>
-      <c r="AA124" s="42"/>
-      <c r="AB124" s="42"/>
-      <c r="AC124" s="42"/>
-      <c r="AD124" s="42">
+      <c r="AA124" s="43"/>
+      <c r="AB124" s="43"/>
+      <c r="AC124" s="43"/>
+      <c r="AD124" s="43">
         <v>2007</v>
       </c>
-      <c r="AE124" s="42"/>
-      <c r="AF124" s="42"/>
-      <c r="AG124" s="42"/>
-      <c r="AH124" s="42">
+      <c r="AE124" s="43"/>
+      <c r="AF124" s="43"/>
+      <c r="AG124" s="43"/>
+      <c r="AH124" s="43">
         <v>2008</v>
       </c>
-      <c r="AI124" s="42"/>
-      <c r="AJ124" s="42"/>
-      <c r="AK124" s="42"/>
-      <c r="AL124" s="42">
+      <c r="AI124" s="43"/>
+      <c r="AJ124" s="43"/>
+      <c r="AK124" s="43"/>
+      <c r="AL124" s="43">
         <v>2009</v>
       </c>
-      <c r="AM124" s="42"/>
-      <c r="AN124" s="42"/>
-      <c r="AO124" s="42"/>
-      <c r="AP124" s="42">
+      <c r="AM124" s="43"/>
+      <c r="AN124" s="43"/>
+      <c r="AO124" s="43"/>
+      <c r="AP124" s="43">
         <v>2010</v>
       </c>
-      <c r="AQ124" s="42"/>
-      <c r="AR124" s="42"/>
-      <c r="AS124" s="42"/>
-      <c r="AT124" s="42">
+      <c r="AQ124" s="43"/>
+      <c r="AR124" s="43"/>
+      <c r="AS124" s="43"/>
+      <c r="AT124" s="43">
         <v>2011</v>
       </c>
-      <c r="AU124" s="42"/>
-      <c r="AV124" s="42"/>
-      <c r="AW124" s="42"/>
-      <c r="AX124" s="42">
+      <c r="AU124" s="43"/>
+      <c r="AV124" s="43"/>
+      <c r="AW124" s="43"/>
+      <c r="AX124" s="43">
         <v>2012</v>
       </c>
-      <c r="AY124" s="42"/>
-      <c r="AZ124" s="42"/>
-      <c r="BA124" s="42"/>
-      <c r="BB124" s="42">
+      <c r="AY124" s="43"/>
+      <c r="AZ124" s="43"/>
+      <c r="BA124" s="43"/>
+      <c r="BB124" s="43">
         <v>2013</v>
       </c>
-      <c r="BC124" s="42"/>
-      <c r="BD124" s="42"/>
-      <c r="BE124" s="42"/>
-      <c r="BF124" s="42">
+      <c r="BC124" s="43"/>
+      <c r="BD124" s="43"/>
+      <c r="BE124" s="43"/>
+      <c r="BF124" s="43">
         <v>2014</v>
       </c>
-      <c r="BG124" s="42"/>
-      <c r="BH124" s="42"/>
-      <c r="BI124" s="42"/>
-      <c r="BJ124" s="42">
+      <c r="BG124" s="43"/>
+      <c r="BH124" s="43"/>
+      <c r="BI124" s="43"/>
+      <c r="BJ124" s="43">
         <v>2015</v>
       </c>
-      <c r="BK124" s="42"/>
-      <c r="BL124" s="42"/>
-      <c r="BM124" s="42"/>
-      <c r="BN124" s="42">
+      <c r="BK124" s="43"/>
+      <c r="BL124" s="43"/>
+      <c r="BM124" s="43"/>
+      <c r="BN124" s="43">
         <v>2016</v>
       </c>
-      <c r="BO124" s="42"/>
-      <c r="BP124" s="42"/>
-      <c r="BQ124" s="42"/>
-      <c r="BR124" s="43">
+      <c r="BO124" s="43"/>
+      <c r="BP124" s="43"/>
+      <c r="BQ124" s="43"/>
+      <c r="BR124" s="42">
         <v>2017</v>
       </c>
-      <c r="BS124" s="43"/>
-      <c r="BT124" s="43"/>
-      <c r="BU124" s="43"/>
-      <c r="BV124" s="43">
+      <c r="BS124" s="42"/>
+      <c r="BT124" s="42"/>
+      <c r="BU124" s="42"/>
+      <c r="BV124" s="42">
         <v>2018</v>
       </c>
-      <c r="BW124" s="43"/>
-      <c r="BX124" s="43"/>
-      <c r="BY124" s="43"/>
-      <c r="BZ124" s="43">
+      <c r="BW124" s="42"/>
+      <c r="BX124" s="42"/>
+      <c r="BY124" s="42"/>
+      <c r="BZ124" s="42">
         <v>2019</v>
       </c>
-      <c r="CA124" s="43"/>
-      <c r="CB124" s="43"/>
-      <c r="CC124" s="43"/>
-      <c r="CD124" s="43">
+      <c r="CA124" s="42"/>
+      <c r="CB124" s="42"/>
+      <c r="CC124" s="42"/>
+      <c r="CD124" s="42">
         <v>2020</v>
       </c>
-      <c r="CE124" s="43"/>
-      <c r="CF124" s="43"/>
-      <c r="CG124" s="43"/>
+      <c r="CE124" s="42"/>
+      <c r="CF124" s="42"/>
+      <c r="CG124" s="42"/>
       <c r="CH124" s="33">
         <v>2021</v>
       </c>
@@ -23282,6 +23449,7 @@
       </c>
       <c r="CU124" s="35"/>
       <c r="CV124" s="35"/>
+      <c r="CW124" s="35"/>
     </row>
     <row r="125" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
@@ -23583,6 +23751,9 @@
       </c>
       <c r="CV125" s="6" t="s">
         <v>21</v>
+      </c>
+      <c r="CW125" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="126" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -23889,7 +24060,9 @@
       <c r="CV127" s="25">
         <v>132.33410611170245</v>
       </c>
-      <c r="CW127" s="11"/>
+      <c r="CW127" s="25">
+        <v>130.97027171834199</v>
+      </c>
       <c r="CX127" s="11"/>
       <c r="CY127" s="11"/>
       <c r="CZ127" s="11"/>
@@ -24242,9 +24415,11 @@
         <v>181.88456941808192</v>
       </c>
       <c r="CV128" s="25">
-        <v>189.71803160171186</v>
-      </c>
-      <c r="CW128" s="11"/>
+        <v>189.71803160171183</v>
+      </c>
+      <c r="CW128" s="25">
+        <v>173.27354251461838</v>
+      </c>
       <c r="CX128" s="11"/>
       <c r="CY128" s="11"/>
       <c r="CZ128" s="11"/>
@@ -24599,7 +24774,9 @@
       <c r="CV129" s="25">
         <v>115.02511165881664</v>
       </c>
-      <c r="CW129" s="11"/>
+      <c r="CW129" s="25">
+        <v>115.54048403259469</v>
+      </c>
       <c r="CX129" s="11"/>
       <c r="CY129" s="11"/>
       <c r="CZ129" s="11"/>
@@ -24952,9 +25129,11 @@
         <v>117.68266442239836</v>
       </c>
       <c r="CV130" s="25">
-        <v>126.35371169648212</v>
-      </c>
-      <c r="CW130" s="11"/>
+        <v>126.38861603672976</v>
+      </c>
+      <c r="CW130" s="25">
+        <v>122.55673703746086</v>
+      </c>
       <c r="CX130" s="11"/>
       <c r="CY130" s="11"/>
       <c r="CZ130" s="11"/>
@@ -25309,7 +25488,9 @@
       <c r="CV131" s="25">
         <v>122.16385597075647</v>
       </c>
-      <c r="CW131" s="11"/>
+      <c r="CW131" s="25">
+        <v>120.30781214407466</v>
+      </c>
       <c r="CX131" s="11"/>
       <c r="CY131" s="11"/>
       <c r="CZ131" s="11"/>
@@ -25664,7 +25845,9 @@
       <c r="CV132" s="25">
         <v>122.11174786302874</v>
       </c>
-      <c r="CW132" s="11"/>
+      <c r="CW132" s="25">
+        <v>121.69293778644146</v>
+      </c>
       <c r="CX132" s="11"/>
       <c r="CY132" s="11"/>
       <c r="CZ132" s="11"/>
@@ -26019,7 +26202,9 @@
       <c r="CV133" s="25">
         <v>140.87683334903534</v>
       </c>
-      <c r="CW133" s="11"/>
+      <c r="CW133" s="25">
+        <v>125.67130297455653</v>
+      </c>
       <c r="CX133" s="11"/>
       <c r="CY133" s="11"/>
       <c r="CZ133" s="11"/>
@@ -26374,7 +26559,9 @@
       <c r="CV134" s="25">
         <v>101.35581080861039</v>
       </c>
-      <c r="CW134" s="11"/>
+      <c r="CW134" s="25">
+        <v>98.566812466157245</v>
+      </c>
       <c r="CX134" s="11"/>
       <c r="CY134" s="11"/>
       <c r="CZ134" s="11"/>
@@ -26729,7 +26916,9 @@
       <c r="CV135" s="25">
         <v>110.18015863460613</v>
       </c>
-      <c r="CW135" s="11"/>
+      <c r="CW135" s="25">
+        <v>115.23637403307558</v>
+      </c>
       <c r="CX135" s="11"/>
       <c r="CY135" s="11"/>
       <c r="CZ135" s="11"/>
@@ -27084,7 +27273,9 @@
       <c r="CV136" s="25">
         <v>118.45556708057615</v>
       </c>
-      <c r="CW136" s="11"/>
+      <c r="CW136" s="25">
+        <v>110.86417075282131</v>
+      </c>
       <c r="CX136" s="11"/>
       <c r="CY136" s="11"/>
       <c r="CZ136" s="11"/>
@@ -27439,7 +27630,9 @@
       <c r="CV137" s="25">
         <v>131.1558286205819</v>
       </c>
-      <c r="CW137" s="11"/>
+      <c r="CW137" s="25">
+        <v>127.75904675934959</v>
+      </c>
       <c r="CX137" s="11"/>
       <c r="CY137" s="11"/>
       <c r="CZ137" s="11"/>
@@ -27794,7 +27987,9 @@
       <c r="CV138" s="25">
         <v>112.50975960579379</v>
       </c>
-      <c r="CW138" s="11"/>
+      <c r="CW138" s="25">
+        <v>113.14516713526699</v>
+      </c>
       <c r="CX138" s="11"/>
       <c r="CY138" s="11"/>
       <c r="CZ138" s="11"/>
@@ -27948,7 +28143,7 @@
       <c r="CT139" s="13"/>
       <c r="CU139" s="13"/>
       <c r="CV139" s="13"/>
-      <c r="CW139" s="11"/>
+      <c r="CW139" s="13"/>
       <c r="CX139" s="11"/>
       <c r="CY139" s="11"/>
       <c r="CZ139" s="11"/>
@@ -28301,9 +28496,11 @@
         <v>125.39049046599973</v>
       </c>
       <c r="CV140" s="25">
-        <v>126.88823543664087</v>
-      </c>
-      <c r="CW140" s="11"/>
+        <v>126.88964833425318</v>
+      </c>
+      <c r="CW140" s="25">
+        <v>123.76699270069295</v>
+      </c>
       <c r="CX140" s="11"/>
       <c r="CY140" s="11"/>
       <c r="CZ140" s="11"/>
@@ -28458,6 +28655,7 @@
       <c r="CT141" s="17"/>
       <c r="CU141" s="17"/>
       <c r="CV141" s="17"/>
+      <c r="CW141" s="17"/>
     </row>
     <row r="142" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A142" s="18" t="s">
@@ -28476,7 +28674,7 @@
     </row>
     <row r="147" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="149" spans="1:153" x14ac:dyDescent="0.2">
@@ -28486,7 +28684,7 @@
     </row>
     <row r="150" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="151" spans="1:153" x14ac:dyDescent="0.2">
@@ -28496,132 +28694,132 @@
     </row>
     <row r="153" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A153" s="4"/>
-      <c r="B153" s="42">
+      <c r="B153" s="43">
         <v>2000</v>
       </c>
-      <c r="C153" s="42"/>
-      <c r="D153" s="42"/>
-      <c r="E153" s="42"/>
-      <c r="F153" s="42">
+      <c r="C153" s="43"/>
+      <c r="D153" s="43"/>
+      <c r="E153" s="43"/>
+      <c r="F153" s="43">
         <v>2001</v>
       </c>
-      <c r="G153" s="42"/>
-      <c r="H153" s="42"/>
-      <c r="I153" s="42"/>
-      <c r="J153" s="42">
+      <c r="G153" s="43"/>
+      <c r="H153" s="43"/>
+      <c r="I153" s="43"/>
+      <c r="J153" s="43">
         <v>2002</v>
       </c>
-      <c r="K153" s="42"/>
-      <c r="L153" s="42"/>
-      <c r="M153" s="42"/>
-      <c r="N153" s="42">
+      <c r="K153" s="43"/>
+      <c r="L153" s="43"/>
+      <c r="M153" s="43"/>
+      <c r="N153" s="43">
         <v>2003</v>
       </c>
-      <c r="O153" s="42"/>
-      <c r="P153" s="42"/>
-      <c r="Q153" s="42"/>
-      <c r="R153" s="42">
+      <c r="O153" s="43"/>
+      <c r="P153" s="43"/>
+      <c r="Q153" s="43"/>
+      <c r="R153" s="43">
         <v>2004</v>
       </c>
-      <c r="S153" s="42"/>
-      <c r="T153" s="42"/>
-      <c r="U153" s="42"/>
-      <c r="V153" s="42">
+      <c r="S153" s="43"/>
+      <c r="T153" s="43"/>
+      <c r="U153" s="43"/>
+      <c r="V153" s="43">
         <v>2005</v>
       </c>
-      <c r="W153" s="42"/>
-      <c r="X153" s="42"/>
-      <c r="Y153" s="42"/>
-      <c r="Z153" s="42">
+      <c r="W153" s="43"/>
+      <c r="X153" s="43"/>
+      <c r="Y153" s="43"/>
+      <c r="Z153" s="43">
         <v>2006</v>
       </c>
-      <c r="AA153" s="42"/>
-      <c r="AB153" s="42"/>
-      <c r="AC153" s="42"/>
-      <c r="AD153" s="42">
+      <c r="AA153" s="43"/>
+      <c r="AB153" s="43"/>
+      <c r="AC153" s="43"/>
+      <c r="AD153" s="43">
         <v>2007</v>
       </c>
-      <c r="AE153" s="42"/>
-      <c r="AF153" s="42"/>
-      <c r="AG153" s="42"/>
-      <c r="AH153" s="42">
+      <c r="AE153" s="43"/>
+      <c r="AF153" s="43"/>
+      <c r="AG153" s="43"/>
+      <c r="AH153" s="43">
         <v>2008</v>
       </c>
-      <c r="AI153" s="42"/>
-      <c r="AJ153" s="42"/>
-      <c r="AK153" s="42"/>
-      <c r="AL153" s="42">
+      <c r="AI153" s="43"/>
+      <c r="AJ153" s="43"/>
+      <c r="AK153" s="43"/>
+      <c r="AL153" s="43">
         <v>2009</v>
       </c>
-      <c r="AM153" s="42"/>
-      <c r="AN153" s="42"/>
-      <c r="AO153" s="42"/>
-      <c r="AP153" s="42">
+      <c r="AM153" s="43"/>
+      <c r="AN153" s="43"/>
+      <c r="AO153" s="43"/>
+      <c r="AP153" s="43">
         <v>2010</v>
       </c>
-      <c r="AQ153" s="42"/>
-      <c r="AR153" s="42"/>
-      <c r="AS153" s="42"/>
-      <c r="AT153" s="42">
+      <c r="AQ153" s="43"/>
+      <c r="AR153" s="43"/>
+      <c r="AS153" s="43"/>
+      <c r="AT153" s="43">
         <v>2011</v>
       </c>
-      <c r="AU153" s="42"/>
-      <c r="AV153" s="42"/>
-      <c r="AW153" s="42"/>
-      <c r="AX153" s="42">
+      <c r="AU153" s="43"/>
+      <c r="AV153" s="43"/>
+      <c r="AW153" s="43"/>
+      <c r="AX153" s="43">
         <v>2012</v>
       </c>
-      <c r="AY153" s="42"/>
-      <c r="AZ153" s="42"/>
-      <c r="BA153" s="42"/>
-      <c r="BB153" s="42">
+      <c r="AY153" s="43"/>
+      <c r="AZ153" s="43"/>
+      <c r="BA153" s="43"/>
+      <c r="BB153" s="43">
         <v>2013</v>
       </c>
-      <c r="BC153" s="42"/>
-      <c r="BD153" s="42"/>
-      <c r="BE153" s="42"/>
-      <c r="BF153" s="42">
+      <c r="BC153" s="43"/>
+      <c r="BD153" s="43"/>
+      <c r="BE153" s="43"/>
+      <c r="BF153" s="43">
         <v>2014</v>
       </c>
-      <c r="BG153" s="42"/>
-      <c r="BH153" s="42"/>
-      <c r="BI153" s="42"/>
-      <c r="BJ153" s="42">
+      <c r="BG153" s="43"/>
+      <c r="BH153" s="43"/>
+      <c r="BI153" s="43"/>
+      <c r="BJ153" s="43">
         <v>2015</v>
       </c>
-      <c r="BK153" s="42"/>
-      <c r="BL153" s="42"/>
-      <c r="BM153" s="42"/>
-      <c r="BN153" s="42">
+      <c r="BK153" s="43"/>
+      <c r="BL153" s="43"/>
+      <c r="BM153" s="43"/>
+      <c r="BN153" s="43">
         <v>2016</v>
       </c>
-      <c r="BO153" s="42"/>
-      <c r="BP153" s="42"/>
-      <c r="BQ153" s="42"/>
-      <c r="BR153" s="43">
+      <c r="BO153" s="43"/>
+      <c r="BP153" s="43"/>
+      <c r="BQ153" s="43"/>
+      <c r="BR153" s="42">
         <v>2017</v>
       </c>
-      <c r="BS153" s="43"/>
-      <c r="BT153" s="43"/>
-      <c r="BU153" s="43"/>
-      <c r="BV153" s="43">
+      <c r="BS153" s="42"/>
+      <c r="BT153" s="42"/>
+      <c r="BU153" s="42"/>
+      <c r="BV153" s="42">
         <v>2018</v>
       </c>
-      <c r="BW153" s="43"/>
-      <c r="BX153" s="43"/>
-      <c r="BY153" s="43"/>
-      <c r="BZ153" s="43">
+      <c r="BW153" s="42"/>
+      <c r="BX153" s="42"/>
+      <c r="BY153" s="42"/>
+      <c r="BZ153" s="42">
         <v>2019</v>
       </c>
-      <c r="CA153" s="43"/>
-      <c r="CB153" s="43"/>
-      <c r="CC153" s="43"/>
-      <c r="CD153" s="43">
+      <c r="CA153" s="42"/>
+      <c r="CB153" s="42"/>
+      <c r="CC153" s="42"/>
+      <c r="CD153" s="42">
         <v>2020</v>
       </c>
-      <c r="CE153" s="43"/>
-      <c r="CF153" s="43"/>
-      <c r="CG153" s="43"/>
+      <c r="CE153" s="42"/>
+      <c r="CF153" s="42"/>
+      <c r="CG153" s="42"/>
       <c r="CH153" s="33">
         <v>2021</v>
       </c>
@@ -28645,6 +28843,7 @@
       </c>
       <c r="CU153" s="35"/>
       <c r="CV153" s="35"/>
+      <c r="CW153" s="35"/>
     </row>
     <row r="154" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
@@ -28946,6 +29145,9 @@
       </c>
       <c r="CV154" s="6" t="s">
         <v>21</v>
+      </c>
+      <c r="CW154" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="155" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -29250,9 +29452,11 @@
         <v>38.179915062970267</v>
       </c>
       <c r="CV156" s="25">
-        <v>34.190679251016356</v>
-      </c>
-      <c r="CW156" s="11"/>
+        <v>34.201603023351709</v>
+      </c>
+      <c r="CW156" s="25">
+        <v>37.614103862293561</v>
+      </c>
       <c r="CX156" s="11"/>
       <c r="CY156" s="11"/>
       <c r="CZ156" s="11"/>
@@ -29605,9 +29809,11 @@
         <v>1.7947128520954285</v>
       </c>
       <c r="CV157" s="25">
-        <v>1.7375986808747867</v>
-      </c>
-      <c r="CW157" s="11"/>
+        <v>1.7456984738805228</v>
+      </c>
+      <c r="CW157" s="25">
+        <v>2.1999225226785093</v>
+      </c>
       <c r="CX157" s="11"/>
       <c r="CY157" s="11"/>
       <c r="CZ157" s="11"/>
@@ -29960,9 +30166,11 @@
         <v>1.0417879672185866</v>
       </c>
       <c r="CV158" s="25">
-        <v>1.4399451539750519</v>
-      </c>
-      <c r="CW158" s="11"/>
+        <v>1.4590381049576426</v>
+      </c>
+      <c r="CW158" s="25">
+        <v>1.6141791828377801</v>
+      </c>
       <c r="CX158" s="11"/>
       <c r="CY158" s="11"/>
       <c r="CZ158" s="11"/>
@@ -30315,9 +30523,11 @@
         <v>14.680215759094592</v>
       </c>
       <c r="CV159" s="25">
-        <v>12.285257901904545</v>
-      </c>
-      <c r="CW159" s="11"/>
+        <v>12.246746130825645</v>
+      </c>
+      <c r="CW159" s="25">
+        <v>10.741604748859368</v>
+      </c>
       <c r="CX159" s="11"/>
       <c r="CY159" s="11"/>
       <c r="CZ159" s="11"/>
@@ -30670,9 +30880,11 @@
         <v>2.3817025642624978</v>
       </c>
       <c r="CV160" s="25">
-        <v>2.7491231163089038</v>
-      </c>
-      <c r="CW160" s="11"/>
+        <v>2.7435068531069016</v>
+      </c>
+      <c r="CW160" s="25">
+        <v>2.5903056095724923</v>
+      </c>
       <c r="CX160" s="11"/>
       <c r="CY160" s="11"/>
       <c r="CZ160" s="11"/>
@@ -31025,9 +31237,11 @@
         <v>3.7527073695547792</v>
       </c>
       <c r="CV161" s="25">
-        <v>5.5775678800650779</v>
-      </c>
-      <c r="CW161" s="11"/>
+        <v>5.5887238344577854</v>
+      </c>
+      <c r="CW161" s="25">
+        <v>4.3259068288749711</v>
+      </c>
       <c r="CX161" s="11"/>
       <c r="CY161" s="11"/>
       <c r="CZ161" s="11"/>
@@ -31380,9 +31594,11 @@
         <v>9.4141248494832901</v>
       </c>
       <c r="CV162" s="25">
-        <v>11.418559163330146</v>
-      </c>
-      <c r="CW162" s="11"/>
+        <v>11.374116085831455</v>
+      </c>
+      <c r="CW162" s="25">
+        <v>8.1149201097929087</v>
+      </c>
       <c r="CX162" s="11"/>
       <c r="CY162" s="11"/>
       <c r="CZ162" s="11"/>
@@ -31735,9 +31951,11 @@
         <v>3.0448177415938513</v>
       </c>
       <c r="CV163" s="25">
-        <v>2.1776959027653988</v>
-      </c>
-      <c r="CW163" s="11"/>
+        <v>2.1715073596893744</v>
+      </c>
+      <c r="CW163" s="25">
+        <v>2.436976170497593</v>
+      </c>
       <c r="CX163" s="11"/>
       <c r="CY163" s="11"/>
       <c r="CZ163" s="11"/>
@@ -32090,9 +32308,11 @@
         <v>1.348212296732147</v>
       </c>
       <c r="CV164" s="25">
-        <v>1.3884497625874979</v>
-      </c>
-      <c r="CW164" s="11"/>
+        <v>1.3711280756251509</v>
+      </c>
+      <c r="CW164" s="25">
+        <v>1.8969804611059689</v>
+      </c>
       <c r="CX164" s="11"/>
       <c r="CY164" s="11"/>
       <c r="CZ164" s="11"/>
@@ -32445,9 +32665,11 @@
         <v>4.5808606186476473</v>
       </c>
       <c r="CV165" s="25">
-        <v>5.2604090949227045</v>
-      </c>
-      <c r="CW165" s="11"/>
+        <v>5.3169688780627382</v>
+      </c>
+      <c r="CW165" s="25">
+        <v>4.7262450830600162</v>
+      </c>
       <c r="CX165" s="11"/>
       <c r="CY165" s="11"/>
       <c r="CZ165" s="11"/>
@@ -32800,9 +33022,11 @@
         <v>6.0536763615335518</v>
       </c>
       <c r="CV166" s="25">
-        <v>8.2640819465336488</v>
-      </c>
-      <c r="CW166" s="11"/>
+        <v>8.2744530723818279</v>
+      </c>
+      <c r="CW166" s="25">
+        <v>8.7196149452613181</v>
+      </c>
       <c r="CX166" s="11"/>
       <c r="CY166" s="11"/>
       <c r="CZ166" s="11"/>
@@ -33155,9 +33379,11 @@
         <v>13.727266556813362</v>
       </c>
       <c r="CV167" s="25">
-        <v>13.510632145715871</v>
-      </c>
-      <c r="CW167" s="11"/>
+        <v>13.506510107829243</v>
+      </c>
+      <c r="CW167" s="25">
+        <v>15.019240475165502</v>
+      </c>
       <c r="CX167" s="11"/>
       <c r="CY167" s="11"/>
       <c r="CZ167" s="11"/>
@@ -33311,7 +33537,7 @@
       <c r="CT168" s="13"/>
       <c r="CU168" s="13"/>
       <c r="CV168" s="13"/>
-      <c r="CW168" s="11"/>
+      <c r="CW168" s="13"/>
       <c r="CX168" s="11"/>
       <c r="CY168" s="11"/>
       <c r="CZ168" s="11"/>
@@ -33666,7 +33892,9 @@
       <c r="CV169" s="25">
         <v>100</v>
       </c>
-      <c r="CW169" s="11"/>
+      <c r="CW169" s="25">
+        <v>100</v>
+      </c>
       <c r="CX169" s="11"/>
       <c r="CY169" s="11"/>
       <c r="CZ169" s="11"/>
@@ -33821,6 +34049,7 @@
       <c r="CT170" s="17"/>
       <c r="CU170" s="17"/>
       <c r="CV170" s="17"/>
+      <c r="CW170" s="17"/>
     </row>
     <row r="171" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A171" s="18" t="s">
@@ -33927,7 +34156,7 @@
       <c r="CT172" s="13"/>
       <c r="CU172" s="13"/>
       <c r="CV172" s="13"/>
-      <c r="CW172" s="11"/>
+      <c r="CW172" s="13"/>
       <c r="CX172" s="11"/>
       <c r="CY172" s="11"/>
       <c r="CZ172" s="11"/>
@@ -34081,7 +34310,7 @@
       <c r="CT173" s="13"/>
       <c r="CU173" s="13"/>
       <c r="CV173" s="13"/>
-      <c r="CW173" s="11"/>
+      <c r="CW173" s="13"/>
       <c r="CX173" s="11"/>
       <c r="CY173" s="11"/>
       <c r="CZ173" s="11"/>
@@ -34147,7 +34376,7 @@
     </row>
     <row r="176" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="178" spans="1:153" x14ac:dyDescent="0.2">
@@ -34157,7 +34386,7 @@
     </row>
     <row r="179" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="180" spans="1:153" x14ac:dyDescent="0.2">
@@ -34167,132 +34396,132 @@
     </row>
     <row r="182" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A182" s="4"/>
-      <c r="B182" s="42">
+      <c r="B182" s="43">
         <v>2000</v>
       </c>
-      <c r="C182" s="42"/>
-      <c r="D182" s="42"/>
-      <c r="E182" s="42"/>
-      <c r="F182" s="42">
+      <c r="C182" s="43"/>
+      <c r="D182" s="43"/>
+      <c r="E182" s="43"/>
+      <c r="F182" s="43">
         <v>2001</v>
       </c>
-      <c r="G182" s="42"/>
-      <c r="H182" s="42"/>
-      <c r="I182" s="42"/>
-      <c r="J182" s="42">
+      <c r="G182" s="43"/>
+      <c r="H182" s="43"/>
+      <c r="I182" s="43"/>
+      <c r="J182" s="43">
         <v>2002</v>
       </c>
-      <c r="K182" s="42"/>
-      <c r="L182" s="42"/>
-      <c r="M182" s="42"/>
-      <c r="N182" s="42">
+      <c r="K182" s="43"/>
+      <c r="L182" s="43"/>
+      <c r="M182" s="43"/>
+      <c r="N182" s="43">
         <v>2003</v>
       </c>
-      <c r="O182" s="42"/>
-      <c r="P182" s="42"/>
-      <c r="Q182" s="42"/>
-      <c r="R182" s="42">
+      <c r="O182" s="43"/>
+      <c r="P182" s="43"/>
+      <c r="Q182" s="43"/>
+      <c r="R182" s="43">
         <v>2004</v>
       </c>
-      <c r="S182" s="42"/>
-      <c r="T182" s="42"/>
-      <c r="U182" s="42"/>
-      <c r="V182" s="42">
+      <c r="S182" s="43"/>
+      <c r="T182" s="43"/>
+      <c r="U182" s="43"/>
+      <c r="V182" s="43">
         <v>2005</v>
       </c>
-      <c r="W182" s="42"/>
-      <c r="X182" s="42"/>
-      <c r="Y182" s="42"/>
-      <c r="Z182" s="42">
+      <c r="W182" s="43"/>
+      <c r="X182" s="43"/>
+      <c r="Y182" s="43"/>
+      <c r="Z182" s="43">
         <v>2006</v>
       </c>
-      <c r="AA182" s="42"/>
-      <c r="AB182" s="42"/>
-      <c r="AC182" s="42"/>
-      <c r="AD182" s="42">
+      <c r="AA182" s="43"/>
+      <c r="AB182" s="43"/>
+      <c r="AC182" s="43"/>
+      <c r="AD182" s="43">
         <v>2007</v>
       </c>
-      <c r="AE182" s="42"/>
-      <c r="AF182" s="42"/>
-      <c r="AG182" s="42"/>
-      <c r="AH182" s="42">
+      <c r="AE182" s="43"/>
+      <c r="AF182" s="43"/>
+      <c r="AG182" s="43"/>
+      <c r="AH182" s="43">
         <v>2008</v>
       </c>
-      <c r="AI182" s="42"/>
-      <c r="AJ182" s="42"/>
-      <c r="AK182" s="42"/>
-      <c r="AL182" s="42">
+      <c r="AI182" s="43"/>
+      <c r="AJ182" s="43"/>
+      <c r="AK182" s="43"/>
+      <c r="AL182" s="43">
         <v>2009</v>
       </c>
-      <c r="AM182" s="42"/>
-      <c r="AN182" s="42"/>
-      <c r="AO182" s="42"/>
-      <c r="AP182" s="42">
+      <c r="AM182" s="43"/>
+      <c r="AN182" s="43"/>
+      <c r="AO182" s="43"/>
+      <c r="AP182" s="43">
         <v>2010</v>
       </c>
-      <c r="AQ182" s="42"/>
-      <c r="AR182" s="42"/>
-      <c r="AS182" s="42"/>
-      <c r="AT182" s="42">
+      <c r="AQ182" s="43"/>
+      <c r="AR182" s="43"/>
+      <c r="AS182" s="43"/>
+      <c r="AT182" s="43">
         <v>2011</v>
       </c>
-      <c r="AU182" s="42"/>
-      <c r="AV182" s="42"/>
-      <c r="AW182" s="42"/>
-      <c r="AX182" s="42">
+      <c r="AU182" s="43"/>
+      <c r="AV182" s="43"/>
+      <c r="AW182" s="43"/>
+      <c r="AX182" s="43">
         <v>2012</v>
       </c>
-      <c r="AY182" s="42"/>
-      <c r="AZ182" s="42"/>
-      <c r="BA182" s="42"/>
-      <c r="BB182" s="42">
+      <c r="AY182" s="43"/>
+      <c r="AZ182" s="43"/>
+      <c r="BA182" s="43"/>
+      <c r="BB182" s="43">
         <v>2013</v>
       </c>
-      <c r="BC182" s="42"/>
-      <c r="BD182" s="42"/>
-      <c r="BE182" s="42"/>
-      <c r="BF182" s="42">
+      <c r="BC182" s="43"/>
+      <c r="BD182" s="43"/>
+      <c r="BE182" s="43"/>
+      <c r="BF182" s="43">
         <v>2014</v>
       </c>
-      <c r="BG182" s="42"/>
-      <c r="BH182" s="42"/>
-      <c r="BI182" s="42"/>
-      <c r="BJ182" s="42">
+      <c r="BG182" s="43"/>
+      <c r="BH182" s="43"/>
+      <c r="BI182" s="43"/>
+      <c r="BJ182" s="43">
         <v>2015</v>
       </c>
-      <c r="BK182" s="42"/>
-      <c r="BL182" s="42"/>
-      <c r="BM182" s="42"/>
-      <c r="BN182" s="42">
+      <c r="BK182" s="43"/>
+      <c r="BL182" s="43"/>
+      <c r="BM182" s="43"/>
+      <c r="BN182" s="43">
         <v>2016</v>
       </c>
-      <c r="BO182" s="42"/>
-      <c r="BP182" s="42"/>
-      <c r="BQ182" s="42"/>
-      <c r="BR182" s="43">
+      <c r="BO182" s="43"/>
+      <c r="BP182" s="43"/>
+      <c r="BQ182" s="43"/>
+      <c r="BR182" s="42">
         <v>2017</v>
       </c>
-      <c r="BS182" s="43"/>
-      <c r="BT182" s="43"/>
-      <c r="BU182" s="43"/>
-      <c r="BV182" s="43">
+      <c r="BS182" s="42"/>
+      <c r="BT182" s="42"/>
+      <c r="BU182" s="42"/>
+      <c r="BV182" s="42">
         <v>2018</v>
       </c>
-      <c r="BW182" s="43"/>
-      <c r="BX182" s="43"/>
-      <c r="BY182" s="43"/>
-      <c r="BZ182" s="43">
+      <c r="BW182" s="42"/>
+      <c r="BX182" s="42"/>
+      <c r="BY182" s="42"/>
+      <c r="BZ182" s="42">
         <v>2019</v>
       </c>
-      <c r="CA182" s="43"/>
-      <c r="CB182" s="43"/>
-      <c r="CC182" s="43"/>
-      <c r="CD182" s="43">
+      <c r="CA182" s="42"/>
+      <c r="CB182" s="42"/>
+      <c r="CC182" s="42"/>
+      <c r="CD182" s="42">
         <v>2020</v>
       </c>
-      <c r="CE182" s="43"/>
-      <c r="CF182" s="43"/>
-      <c r="CG182" s="43"/>
+      <c r="CE182" s="42"/>
+      <c r="CF182" s="42"/>
+      <c r="CG182" s="42"/>
       <c r="CH182" s="33">
         <v>2021</v>
       </c>
@@ -34316,6 +34545,7 @@
       </c>
       <c r="CU182" s="35"/>
       <c r="CV182" s="35"/>
+      <c r="CW182" s="35"/>
     </row>
     <row r="183" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
@@ -34617,6 +34847,9 @@
       </c>
       <c r="CV183" s="6" t="s">
         <v>21</v>
+      </c>
+      <c r="CW183" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="184" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -34921,9 +35154,11 @@
         <v>36.511167335158198</v>
       </c>
       <c r="CV185" s="25">
-        <v>32.783649551987921</v>
-      </c>
-      <c r="CW185" s="11"/>
+        <v>32.794488946315958</v>
+      </c>
+      <c r="CW185" s="25">
+        <v>35.545352827695339</v>
+      </c>
       <c r="CX185" s="11"/>
       <c r="CY185" s="11"/>
       <c r="CZ185" s="11"/>
@@ -35276,9 +35511,11 @@
         <v>1.2372678204086665</v>
       </c>
       <c r="CV186" s="25">
-        <v>1.1621501058797994</v>
-      </c>
-      <c r="CW186" s="11"/>
+        <v>1.1675804538884076</v>
+      </c>
+      <c r="CW186" s="25">
+        <v>1.5713754728796527</v>
+      </c>
       <c r="CX186" s="11"/>
       <c r="CY186" s="11"/>
       <c r="CZ186" s="11"/>
@@ -35631,9 +35868,11 @@
         <v>1.0362324752210506</v>
       </c>
       <c r="CV187" s="25">
-        <v>1.5884540086810834</v>
-      </c>
-      <c r="CW187" s="11"/>
+        <v>1.6095340345636582</v>
+      </c>
+      <c r="CW187" s="25">
+        <v>1.7291091067571973</v>
+      </c>
       <c r="CX187" s="11"/>
       <c r="CY187" s="11"/>
       <c r="CZ187" s="11"/>
@@ -35986,9 +36225,11 @@
         <v>15.641721431225688</v>
       </c>
       <c r="CV188" s="25">
-        <v>12.337229165070246</v>
-      </c>
-      <c r="CW188" s="11"/>
+        <v>12.295294928522193</v>
+      </c>
+      <c r="CW188" s="25">
+        <v>10.847678786841746</v>
+      </c>
       <c r="CX188" s="11"/>
       <c r="CY188" s="11"/>
       <c r="CZ188" s="11"/>
@@ -36341,9 +36582,11 @@
         <v>2.4394508054205217</v>
       </c>
       <c r="CV189" s="25">
-        <v>2.8554385292980529</v>
-      </c>
-      <c r="CW189" s="11"/>
+        <v>2.8496368015485833</v>
+      </c>
+      <c r="CW189" s="25">
+        <v>2.6647840215778746</v>
+      </c>
       <c r="CX189" s="11"/>
       <c r="CY189" s="11"/>
       <c r="CZ189" s="11"/>
@@ -36696,9 +36939,11 @@
         <v>4.0237048771801378</v>
       </c>
       <c r="CV190" s="25">
-        <v>5.7957384012174904</v>
-      </c>
-      <c r="CW190" s="11"/>
+        <v>5.807395393169327</v>
+      </c>
+      <c r="CW190" s="25">
+        <v>4.3996347582045052</v>
+      </c>
       <c r="CX190" s="11"/>
       <c r="CY190" s="11"/>
       <c r="CZ190" s="11"/>
@@ -37051,9 +37296,11 @@
         <v>9.2085529094438971</v>
       </c>
       <c r="CV191" s="25">
-        <v>10.284734466412322</v>
-      </c>
-      <c r="CW191" s="11"/>
+        <v>10.244818512269664</v>
+      </c>
+      <c r="CW191" s="25">
+        <v>7.9919538846413367</v>
+      </c>
       <c r="CX191" s="11"/>
       <c r="CY191" s="11"/>
       <c r="CZ191" s="11"/>
@@ -37406,9 +37653,11 @@
         <v>3.696811544407407</v>
       </c>
       <c r="CV192" s="25">
-        <v>2.7262767493546591</v>
-      </c>
-      <c r="CW192" s="11"/>
+        <v>2.718559528338552</v>
+      </c>
+      <c r="CW192" s="25">
+        <v>3.0600280597416907</v>
+      </c>
       <c r="CX192" s="11"/>
       <c r="CY192" s="11"/>
       <c r="CZ192" s="11"/>
@@ -37761,9 +38010,11 @@
         <v>1.508827862533906</v>
       </c>
       <c r="CV193" s="25">
-        <v>1.598998790257826</v>
-      </c>
-      <c r="CW193" s="11"/>
+        <v>1.5790679691638352</v>
+      </c>
+      <c r="CW193" s="25">
+        <v>2.0374084906183456</v>
+      </c>
       <c r="CX193" s="11"/>
       <c r="CY193" s="11"/>
       <c r="CZ193" s="11"/>
@@ -38116,9 +38367,11 @@
         <v>5.0104353207174368</v>
       </c>
       <c r="CV194" s="25">
-        <v>5.6348894710500304</v>
-      </c>
-      <c r="CW194" s="11"/>
+        <v>5.6955390765435698</v>
+      </c>
+      <c r="CW194" s="25">
+        <v>5.2763046593381837</v>
+      </c>
       <c r="CX194" s="11"/>
       <c r="CY194" s="11"/>
       <c r="CZ194" s="11"/>
@@ -38471,9 +38724,11 @@
         <v>6.1338172306017595</v>
       </c>
       <c r="CV195" s="25">
-        <v>7.9951824232910917</v>
-      </c>
-      <c r="CW195" s="11"/>
+        <v>8.0053052278001946</v>
+      </c>
+      <c r="CW195" s="25">
+        <v>8.4471553808304645</v>
+      </c>
       <c r="CX195" s="11"/>
       <c r="CY195" s="11"/>
       <c r="CZ195" s="11"/>
@@ -38826,9 +39081,11 @@
         <v>13.552010387681312</v>
       </c>
       <c r="CV196" s="25">
-        <v>15.23725833749948</v>
-      </c>
-      <c r="CW196" s="11"/>
+        <v>15.232779127876061</v>
+      </c>
+      <c r="CW196" s="25">
+        <v>16.429214550873663</v>
+      </c>
       <c r="CX196" s="11"/>
       <c r="CY196" s="11"/>
       <c r="CZ196" s="11"/>
@@ -38982,7 +39239,7 @@
       <c r="CT197" s="13"/>
       <c r="CU197" s="13"/>
       <c r="CV197" s="13"/>
-      <c r="CW197" s="11"/>
+      <c r="CW197" s="13"/>
       <c r="CX197" s="11"/>
       <c r="CY197" s="11"/>
       <c r="CZ197" s="11"/>
@@ -39337,7 +39594,9 @@
       <c r="CV198" s="25">
         <v>100</v>
       </c>
-      <c r="CW198" s="11"/>
+      <c r="CW198" s="25">
+        <v>100</v>
+      </c>
       <c r="CX198" s="11"/>
       <c r="CY198" s="11"/>
       <c r="CZ198" s="11"/>
@@ -39492,6 +39751,7 @@
       <c r="CT199" s="17"/>
       <c r="CU199" s="17"/>
       <c r="CV199" s="17"/>
+      <c r="CW199" s="17"/>
     </row>
     <row r="200" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A200" s="18" t="s">
@@ -39596,10 +39856,10 @@
       <c r="CQ201" s="2"/>
       <c r="CR201" s="2"/>
       <c r="CS201" s="2"/>
-      <c r="CT201" s="2"/>
-      <c r="CU201" s="2"/>
-      <c r="CV201" s="2"/>
-      <c r="CW201" s="28"/>
+      <c r="CT201" s="39"/>
+      <c r="CU201" s="39"/>
+      <c r="CV201" s="39"/>
+      <c r="CW201" s="2"/>
       <c r="CX201" s="28"/>
       <c r="CY201" s="28"/>
       <c r="CZ201" s="28"/>
@@ -39754,7 +40014,7 @@
       <c r="CT202" s="2"/>
       <c r="CU202" s="2"/>
       <c r="CV202" s="2"/>
-      <c r="CW202" s="28"/>
+      <c r="CW202" s="2"/>
       <c r="CX202" s="28"/>
       <c r="CY202" s="28"/>
       <c r="CZ202" s="28"/>
@@ -39810,24 +40070,111 @@
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="CD182:CG182"/>
-    <mergeCell ref="B182:E182"/>
-    <mergeCell ref="F182:I182"/>
-    <mergeCell ref="J182:M182"/>
-    <mergeCell ref="N182:Q182"/>
-    <mergeCell ref="R182:U182"/>
-    <mergeCell ref="V182:Y182"/>
-    <mergeCell ref="Z182:AC182"/>
-    <mergeCell ref="AD182:AG182"/>
-    <mergeCell ref="AH182:AK182"/>
-    <mergeCell ref="AX182:BA182"/>
-    <mergeCell ref="BB182:BE182"/>
-    <mergeCell ref="BZ182:CC182"/>
-    <mergeCell ref="AL182:AO182"/>
-    <mergeCell ref="AP182:AS182"/>
-    <mergeCell ref="AT182:AW182"/>
-    <mergeCell ref="BF182:BI182"/>
-    <mergeCell ref="BJ182:BM182"/>
+    <mergeCell ref="AH124:AK124"/>
+    <mergeCell ref="BR182:BU182"/>
+    <mergeCell ref="BV182:BY182"/>
+    <mergeCell ref="BZ124:CC124"/>
+    <mergeCell ref="BR124:BU124"/>
+    <mergeCell ref="BV124:BY124"/>
+    <mergeCell ref="BR153:BU153"/>
+    <mergeCell ref="BV153:BY153"/>
+    <mergeCell ref="BZ153:CC153"/>
+    <mergeCell ref="AH153:AK153"/>
+    <mergeCell ref="BN182:BQ182"/>
+    <mergeCell ref="BB153:BE153"/>
+    <mergeCell ref="BF153:BI153"/>
+    <mergeCell ref="BJ153:BM153"/>
+    <mergeCell ref="BN153:BQ153"/>
+    <mergeCell ref="AP153:AS153"/>
+    <mergeCell ref="AT153:AW153"/>
+    <mergeCell ref="AX153:BA153"/>
+    <mergeCell ref="BJ96:BM96"/>
+    <mergeCell ref="BB38:BE38"/>
+    <mergeCell ref="BJ38:BM38"/>
+    <mergeCell ref="BF124:BI124"/>
+    <mergeCell ref="BJ124:BM124"/>
+    <mergeCell ref="BN124:BQ124"/>
+    <mergeCell ref="BN67:BQ67"/>
+    <mergeCell ref="BF38:BI38"/>
+    <mergeCell ref="AX38:BA38"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD38:CG38"/>
+    <mergeCell ref="CD124:CG124"/>
+    <mergeCell ref="CD153:CG153"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BR67:BU67"/>
+    <mergeCell ref="BV67:BY67"/>
+    <mergeCell ref="BR96:BU96"/>
+    <mergeCell ref="BV96:BY96"/>
+    <mergeCell ref="BZ38:CC38"/>
+    <mergeCell ref="CD67:CG67"/>
+    <mergeCell ref="CD96:CG96"/>
+    <mergeCell ref="BR38:BU38"/>
+    <mergeCell ref="BV38:BY38"/>
+    <mergeCell ref="BZ67:CC67"/>
+    <mergeCell ref="BZ96:CC96"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="AL153:AO153"/>
+    <mergeCell ref="AL124:AO124"/>
+    <mergeCell ref="AP124:AS124"/>
+    <mergeCell ref="AT124:AW124"/>
+    <mergeCell ref="AX124:BA124"/>
+    <mergeCell ref="BB124:BE124"/>
+    <mergeCell ref="BN38:BQ38"/>
+    <mergeCell ref="BN96:BQ96"/>
+    <mergeCell ref="AL96:AO96"/>
+    <mergeCell ref="AP96:AS96"/>
+    <mergeCell ref="AT96:AW96"/>
+    <mergeCell ref="AX96:BA96"/>
+    <mergeCell ref="BB96:BE96"/>
+    <mergeCell ref="BF96:BI96"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="AX67:BA67"/>
+    <mergeCell ref="BB67:BE67"/>
+    <mergeCell ref="BF67:BI67"/>
+    <mergeCell ref="BJ67:BM67"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AL67:AO67"/>
+    <mergeCell ref="AP67:AS67"/>
+    <mergeCell ref="AT67:AW67"/>
+    <mergeCell ref="Z38:AC38"/>
+    <mergeCell ref="AD38:AG38"/>
+    <mergeCell ref="AH38:AK38"/>
+    <mergeCell ref="AL38:AO38"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AP38:AS38"/>
+    <mergeCell ref="AT38:AW38"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="N38:Q38"/>
+    <mergeCell ref="R38:U38"/>
+    <mergeCell ref="V38:Y38"/>
+    <mergeCell ref="AH96:AK96"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="N67:Q67"/>
+    <mergeCell ref="R67:U67"/>
+    <mergeCell ref="V67:Y67"/>
+    <mergeCell ref="Z67:AC67"/>
+    <mergeCell ref="AD67:AG67"/>
+    <mergeCell ref="AH67:AK67"/>
     <mergeCell ref="V153:Y153"/>
     <mergeCell ref="Z153:AC153"/>
     <mergeCell ref="AD153:AG153"/>
@@ -39852,119 +40199,32 @@
     <mergeCell ref="J153:M153"/>
     <mergeCell ref="N153:Q153"/>
     <mergeCell ref="R153:U153"/>
-    <mergeCell ref="R38:U38"/>
-    <mergeCell ref="V38:Y38"/>
-    <mergeCell ref="AH96:AK96"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="N67:Q67"/>
-    <mergeCell ref="R67:U67"/>
-    <mergeCell ref="V67:Y67"/>
-    <mergeCell ref="Z67:AC67"/>
-    <mergeCell ref="AD67:AG67"/>
-    <mergeCell ref="AH67:AK67"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AL67:AO67"/>
-    <mergeCell ref="AP67:AS67"/>
-    <mergeCell ref="AT67:AW67"/>
-    <mergeCell ref="Z38:AC38"/>
-    <mergeCell ref="AD38:AG38"/>
-    <mergeCell ref="AH38:AK38"/>
-    <mergeCell ref="AL38:AO38"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AP38:AS38"/>
-    <mergeCell ref="AT38:AW38"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="AL153:AO153"/>
-    <mergeCell ref="AL124:AO124"/>
-    <mergeCell ref="AP124:AS124"/>
-    <mergeCell ref="AT124:AW124"/>
-    <mergeCell ref="AX124:BA124"/>
-    <mergeCell ref="BB124:BE124"/>
-    <mergeCell ref="BN38:BQ38"/>
-    <mergeCell ref="BN96:BQ96"/>
-    <mergeCell ref="AL96:AO96"/>
-    <mergeCell ref="AP96:AS96"/>
-    <mergeCell ref="AT96:AW96"/>
-    <mergeCell ref="AX96:BA96"/>
-    <mergeCell ref="BB96:BE96"/>
-    <mergeCell ref="BF96:BI96"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="AX67:BA67"/>
-    <mergeCell ref="BB67:BE67"/>
-    <mergeCell ref="BF67:BI67"/>
-    <mergeCell ref="BJ67:BM67"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD38:CG38"/>
-    <mergeCell ref="CD124:CG124"/>
-    <mergeCell ref="CD153:CG153"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BR67:BU67"/>
-    <mergeCell ref="BV67:BY67"/>
-    <mergeCell ref="BR96:BU96"/>
-    <mergeCell ref="BV96:BY96"/>
-    <mergeCell ref="BZ38:CC38"/>
-    <mergeCell ref="CD67:CG67"/>
-    <mergeCell ref="CD96:CG96"/>
-    <mergeCell ref="BR38:BU38"/>
-    <mergeCell ref="BV38:BY38"/>
-    <mergeCell ref="BZ67:CC67"/>
-    <mergeCell ref="BZ96:CC96"/>
-    <mergeCell ref="BJ96:BM96"/>
-    <mergeCell ref="BB38:BE38"/>
-    <mergeCell ref="BJ38:BM38"/>
-    <mergeCell ref="BF124:BI124"/>
-    <mergeCell ref="BJ124:BM124"/>
-    <mergeCell ref="BN124:BQ124"/>
-    <mergeCell ref="BN67:BQ67"/>
-    <mergeCell ref="BF38:BI38"/>
-    <mergeCell ref="AX38:BA38"/>
-    <mergeCell ref="AH124:AK124"/>
-    <mergeCell ref="BR182:BU182"/>
-    <mergeCell ref="BV182:BY182"/>
-    <mergeCell ref="BZ124:CC124"/>
-    <mergeCell ref="BR124:BU124"/>
-    <mergeCell ref="BV124:BY124"/>
-    <mergeCell ref="BR153:BU153"/>
-    <mergeCell ref="BV153:BY153"/>
-    <mergeCell ref="BZ153:CC153"/>
-    <mergeCell ref="AH153:AK153"/>
-    <mergeCell ref="BN182:BQ182"/>
-    <mergeCell ref="BB153:BE153"/>
-    <mergeCell ref="BF153:BI153"/>
-    <mergeCell ref="BJ153:BM153"/>
-    <mergeCell ref="BN153:BQ153"/>
-    <mergeCell ref="AP153:AS153"/>
-    <mergeCell ref="AT153:AW153"/>
-    <mergeCell ref="AX153:BA153"/>
+    <mergeCell ref="CD182:CG182"/>
+    <mergeCell ref="B182:E182"/>
+    <mergeCell ref="F182:I182"/>
+    <mergeCell ref="J182:M182"/>
+    <mergeCell ref="N182:Q182"/>
+    <mergeCell ref="R182:U182"/>
+    <mergeCell ref="V182:Y182"/>
+    <mergeCell ref="Z182:AC182"/>
+    <mergeCell ref="AD182:AG182"/>
+    <mergeCell ref="AH182:AK182"/>
+    <mergeCell ref="AX182:BA182"/>
+    <mergeCell ref="BB182:BE182"/>
+    <mergeCell ref="BZ182:CC182"/>
+    <mergeCell ref="AL182:AO182"/>
+    <mergeCell ref="AP182:AS182"/>
+    <mergeCell ref="AT182:AW182"/>
+    <mergeCell ref="BF182:BI182"/>
+    <mergeCell ref="BJ182:BM182"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="44" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="58" max="98" man="1"/>
-    <brk id="116" max="98" man="1"/>
-    <brk id="144" max="98" man="1"/>
+    <brk id="58" max="100" man="1"/>
+    <brk id="116" max="100" man="1"/>
+    <brk id="144" max="100" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-02HFCE_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-02HFCE_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2025\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C0CCE8-D374-4637-BC73-398ADFE69867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF267F3-59E0-46DB-A32D-826935E4C703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
     <definedName name="PCE_Per_Anl">#REF!</definedName>
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HFCE!$A$1:$CW$202</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HFCE!$A$1:$CX$202</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="64">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -226,13 +226,16 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2024</t>
+    <t>2024 - 2025</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2024</t>
+    <t>Q1 2000 to Q1 2025</t>
   </si>
   <si>
-    <t>As of January 2025</t>
+    <t>Q1 2001 to Q1 2025</t>
+  </si>
+  <si>
+    <t>As of May 2025</t>
   </si>
 </sst>
 </file>
@@ -386,10 +389,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -729,21 +732,20 @@
   <dimension ref="A1:EW202"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="CM2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="CL2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="CA66" sqref="CA66"/>
       <selection pane="topRight" activeCell="CA66" sqref="CA66"/>
       <selection pane="bottomLeft" activeCell="CA66" sqref="CA66"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="CX1" sqref="CX1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.88671875" style="1" customWidth="1"/>
     <col min="2" max="69" width="11.109375" style="2" customWidth="1"/>
-    <col min="70" max="92" width="11.109375" style="1" customWidth="1"/>
-    <col min="93" max="93" width="11.21875" style="1" customWidth="1"/>
-    <col min="94" max="101" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="102" max="16384" width="7.77734375" style="1"/>
+    <col min="70" max="89" width="11.109375" style="1" customWidth="1"/>
+    <col min="90" max="102" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="103" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:153" x14ac:dyDescent="0.2">
@@ -758,7 +760,7 @@
     </row>
     <row r="3" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:153" x14ac:dyDescent="0.2">
@@ -768,7 +770,7 @@
     </row>
     <row r="6" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:153" x14ac:dyDescent="0.2">
@@ -778,144 +780,144 @@
     </row>
     <row r="9" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="43">
+      <c r="B9" s="42">
         <v>2000</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43">
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42">
         <v>2001</v>
       </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43">
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42">
         <v>2002</v>
       </c>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43">
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42">
         <v>2003</v>
       </c>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43">
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42">
         <v>2004</v>
       </c>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43">
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42">
         <v>2005</v>
       </c>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="43">
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42">
         <v>2006</v>
       </c>
-      <c r="AA9" s="43"/>
-      <c r="AB9" s="43"/>
-      <c r="AC9" s="43"/>
-      <c r="AD9" s="43">
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="42">
         <v>2007</v>
       </c>
-      <c r="AE9" s="43"/>
-      <c r="AF9" s="43"/>
-      <c r="AG9" s="43"/>
-      <c r="AH9" s="43">
+      <c r="AE9" s="42"/>
+      <c r="AF9" s="42"/>
+      <c r="AG9" s="42"/>
+      <c r="AH9" s="42">
         <v>2008</v>
       </c>
-      <c r="AI9" s="43"/>
-      <c r="AJ9" s="43"/>
-      <c r="AK9" s="43"/>
-      <c r="AL9" s="43">
+      <c r="AI9" s="42"/>
+      <c r="AJ9" s="42"/>
+      <c r="AK9" s="42"/>
+      <c r="AL9" s="42">
         <v>2009</v>
       </c>
-      <c r="AM9" s="43"/>
-      <c r="AN9" s="43"/>
-      <c r="AO9" s="43"/>
-      <c r="AP9" s="43">
+      <c r="AM9" s="42"/>
+      <c r="AN9" s="42"/>
+      <c r="AO9" s="42"/>
+      <c r="AP9" s="42">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="43"/>
-      <c r="AR9" s="43"/>
-      <c r="AS9" s="43"/>
-      <c r="AT9" s="43">
+      <c r="AQ9" s="42"/>
+      <c r="AR9" s="42"/>
+      <c r="AS9" s="42"/>
+      <c r="AT9" s="42">
         <v>2011</v>
       </c>
-      <c r="AU9" s="43"/>
-      <c r="AV9" s="43"/>
-      <c r="AW9" s="43"/>
-      <c r="AX9" s="43">
+      <c r="AU9" s="42"/>
+      <c r="AV9" s="42"/>
+      <c r="AW9" s="42"/>
+      <c r="AX9" s="42">
         <v>2012</v>
       </c>
-      <c r="AY9" s="43"/>
-      <c r="AZ9" s="43"/>
-      <c r="BA9" s="43"/>
-      <c r="BB9" s="43">
+      <c r="AY9" s="42"/>
+      <c r="AZ9" s="42"/>
+      <c r="BA9" s="42"/>
+      <c r="BB9" s="42">
         <v>2013</v>
       </c>
-      <c r="BC9" s="43"/>
-      <c r="BD9" s="43"/>
-      <c r="BE9" s="43"/>
-      <c r="BF9" s="43">
+      <c r="BC9" s="42"/>
+      <c r="BD9" s="42"/>
+      <c r="BE9" s="42"/>
+      <c r="BF9" s="42">
         <v>2014</v>
       </c>
-      <c r="BG9" s="43"/>
-      <c r="BH9" s="43"/>
-      <c r="BI9" s="43"/>
-      <c r="BJ9" s="43">
+      <c r="BG9" s="42"/>
+      <c r="BH9" s="42"/>
+      <c r="BI9" s="42"/>
+      <c r="BJ9" s="42">
         <v>2015</v>
       </c>
-      <c r="BK9" s="43"/>
-      <c r="BL9" s="43"/>
-      <c r="BM9" s="43"/>
-      <c r="BN9" s="43">
+      <c r="BK9" s="42"/>
+      <c r="BL9" s="42"/>
+      <c r="BM9" s="42"/>
+      <c r="BN9" s="42">
         <v>2016</v>
       </c>
-      <c r="BO9" s="43"/>
-      <c r="BP9" s="43"/>
-      <c r="BQ9" s="43"/>
-      <c r="BR9" s="42">
+      <c r="BO9" s="42"/>
+      <c r="BP9" s="42"/>
+      <c r="BQ9" s="42"/>
+      <c r="BR9" s="43">
         <v>2017</v>
       </c>
-      <c r="BS9" s="42"/>
-      <c r="BT9" s="42"/>
-      <c r="BU9" s="42"/>
-      <c r="BV9" s="42">
+      <c r="BS9" s="43"/>
+      <c r="BT9" s="43"/>
+      <c r="BU9" s="43"/>
+      <c r="BV9" s="43">
         <v>2018</v>
       </c>
-      <c r="BW9" s="42"/>
-      <c r="BX9" s="42"/>
-      <c r="BY9" s="42"/>
-      <c r="BZ9" s="42">
+      <c r="BW9" s="43"/>
+      <c r="BX9" s="43"/>
+      <c r="BY9" s="43"/>
+      <c r="BZ9" s="43">
         <v>2019</v>
       </c>
-      <c r="CA9" s="42"/>
-      <c r="CB9" s="42"/>
-      <c r="CC9" s="42"/>
-      <c r="CD9" s="42">
+      <c r="CA9" s="43"/>
+      <c r="CB9" s="43"/>
+      <c r="CC9" s="43"/>
+      <c r="CD9" s="43">
         <v>2020</v>
       </c>
-      <c r="CE9" s="42"/>
-      <c r="CF9" s="42"/>
-      <c r="CG9" s="42"/>
+      <c r="CE9" s="43"/>
+      <c r="CF9" s="43"/>
+      <c r="CG9" s="43"/>
       <c r="CH9" s="33">
         <v>2021</v>
       </c>
       <c r="CI9" s="33"/>
       <c r="CJ9" s="33"/>
       <c r="CK9" s="33"/>
-      <c r="CL9" s="33">
+      <c r="CL9" s="35">
         <v>2022</v>
       </c>
-      <c r="CM9" s="33"/>
-      <c r="CN9" s="33"/>
-      <c r="CO9" s="33"/>
+      <c r="CM9" s="35"/>
+      <c r="CN9" s="35"/>
+      <c r="CO9" s="35"/>
       <c r="CP9" s="35">
         <v>2023</v>
       </c>
@@ -928,6 +930,9 @@
       <c r="CU9" s="35"/>
       <c r="CV9" s="35"/>
       <c r="CW9" s="35"/>
+      <c r="CX9" s="35">
+        <v>2025</v>
+      </c>
     </row>
     <row r="10" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -1197,16 +1202,16 @@
       <c r="CK10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CL10" s="7" t="s">
+      <c r="CL10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="CM10" s="7" t="s">
+      <c r="CM10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="CN10" s="7" t="s">
+      <c r="CN10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="CO10" s="7" t="s">
+      <c r="CO10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="CP10" s="6" t="s">
@@ -1232,6 +1237,9 @@
       </c>
       <c r="CW10" s="6" t="s">
         <v>22</v>
+      </c>
+      <c r="CX10" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1505,43 +1513,45 @@
       <c r="CK12" s="10">
         <v>1690880.3451856137</v>
       </c>
-      <c r="CL12" s="10">
+      <c r="CL12" s="9">
         <v>1383392.0048945465</v>
       </c>
-      <c r="CM12" s="10">
+      <c r="CM12" s="9">
         <v>1564758.8938338954</v>
       </c>
-      <c r="CN12" s="10">
+      <c r="CN12" s="9">
         <v>1453600.2873056903</v>
       </c>
-      <c r="CO12" s="10">
+      <c r="CO12" s="9">
         <v>1930715.3590808352</v>
       </c>
       <c r="CP12" s="9">
-        <v>1536533.1573482729</v>
+        <v>1536533.156851633</v>
       </c>
       <c r="CQ12" s="9">
-        <v>1685146.0249135478</v>
+        <v>1685146.0249313493</v>
       </c>
       <c r="CR12" s="9">
-        <v>1568298.0214561208</v>
+        <v>1568293.0665443409</v>
       </c>
       <c r="CS12" s="9">
-        <v>2058930.0163327174</v>
+        <v>2063576.9033315014</v>
       </c>
       <c r="CT12" s="9">
-        <v>1612897.539554372</v>
+        <v>1613679.3446519671</v>
       </c>
       <c r="CU12" s="9">
-        <v>1796226.0839838278</v>
+        <v>1796715.8690888041</v>
       </c>
       <c r="CV12" s="9">
-        <v>1682389.9283507999</v>
+        <v>1681121.5797413471</v>
       </c>
       <c r="CW12" s="9">
-        <v>2152896.4451178191</v>
-      </c>
-      <c r="CX12" s="11"/>
+        <v>2162044.6171398368</v>
+      </c>
+      <c r="CX12" s="9">
+        <v>1734887.1469660599</v>
+      </c>
       <c r="CY12" s="11"/>
       <c r="CZ12" s="11"/>
       <c r="DA12" s="11"/>
@@ -1862,43 +1872,45 @@
       <c r="CK13" s="10">
         <v>95079.966968849665</v>
       </c>
-      <c r="CL13" s="10">
+      <c r="CL13" s="9">
         <v>70727.397229675451</v>
       </c>
-      <c r="CM13" s="10">
+      <c r="CM13" s="9">
         <v>75224.770213510827</v>
       </c>
-      <c r="CN13" s="10">
+      <c r="CN13" s="9">
         <v>73555.025462956371</v>
       </c>
-      <c r="CO13" s="10">
+      <c r="CO13" s="9">
         <v>108866.13288724447</v>
       </c>
       <c r="CP13" s="9">
         <v>78368.525494277594</v>
       </c>
       <c r="CQ13" s="9">
-        <v>77478.686901585825</v>
+        <v>77478.686902035828</v>
       </c>
       <c r="CR13" s="9">
-        <v>81690.837862780638</v>
+        <v>81690.837862781656</v>
       </c>
       <c r="CS13" s="9">
-        <v>116688.25715508721</v>
+        <v>116684.42199285721</v>
       </c>
       <c r="CT13" s="9">
-        <v>82936.316278325103</v>
+        <v>83199.948119052526</v>
       </c>
       <c r="CU13" s="9">
-        <v>84434.709529288972</v>
+        <v>84674.894468189217</v>
       </c>
       <c r="CV13" s="9">
-        <v>85871.575329048326</v>
+        <v>87247.480556130249</v>
       </c>
       <c r="CW13" s="9">
-        <v>125915.67769229825</v>
-      </c>
-      <c r="CX13" s="11"/>
+        <v>124543.37838654699</v>
+      </c>
+      <c r="CX13" s="9">
+        <v>92342.468078674035</v>
+      </c>
       <c r="CY13" s="11"/>
       <c r="CZ13" s="11"/>
       <c r="DA13" s="11"/>
@@ -2219,43 +2231,45 @@
       <c r="CK14" s="10">
         <v>76081.423775545365</v>
       </c>
-      <c r="CL14" s="10">
+      <c r="CL14" s="9">
         <v>57953.001461360305</v>
       </c>
-      <c r="CM14" s="10">
+      <c r="CM14" s="9">
         <v>65340.089698302145</v>
       </c>
-      <c r="CN14" s="10">
+      <c r="CN14" s="9">
         <v>69879.858725410639</v>
       </c>
-      <c r="CO14" s="10">
+      <c r="CO14" s="9">
         <v>86822.934730998546</v>
       </c>
       <c r="CP14" s="9">
         <v>58896.188493212794</v>
       </c>
       <c r="CQ14" s="9">
-        <v>50174.921717145211</v>
+        <v>50174.921717278543</v>
       </c>
       <c r="CR14" s="9">
-        <v>65374.014368846489</v>
+        <v>66180.667774056245</v>
       </c>
       <c r="CS14" s="9">
-        <v>88897.129481566808</v>
+        <v>88841.118092184814</v>
       </c>
       <c r="CT14" s="9">
-        <v>61942.569929810452</v>
+        <v>61358.648229454702</v>
       </c>
       <c r="CU14" s="9">
-        <v>49012.333254597201</v>
+        <v>49496.130101982024</v>
       </c>
       <c r="CV14" s="9">
-        <v>71770.642188461396</v>
+        <v>71705.208034403724</v>
       </c>
       <c r="CW14" s="9">
-        <v>92389.829018320263</v>
-      </c>
-      <c r="CX14" s="11"/>
+        <v>93902.795225128575</v>
+      </c>
+      <c r="CX14" s="9">
+        <v>65317.153480865432</v>
+      </c>
       <c r="CY14" s="11"/>
       <c r="CZ14" s="11"/>
       <c r="DA14" s="11"/>
@@ -2576,16 +2590,16 @@
       <c r="CK15" s="10">
         <v>485121.81906793592</v>
       </c>
-      <c r="CL15" s="10">
+      <c r="CL15" s="9">
         <v>443879.56640330941</v>
       </c>
-      <c r="CM15" s="10">
+      <c r="CM15" s="9">
         <v>576324.20146415534</v>
       </c>
-      <c r="CN15" s="10">
+      <c r="CN15" s="9">
         <v>523357.35788584198</v>
       </c>
-      <c r="CO15" s="10">
+      <c r="CO15" s="9">
         <v>542221.68455263809</v>
       </c>
       <c r="CP15" s="9">
@@ -2598,21 +2612,23 @@
         <v>563329.32332936954</v>
       </c>
       <c r="CS15" s="9">
-        <v>578683.21603506792</v>
+        <v>578495.71603506792</v>
       </c>
       <c r="CT15" s="9">
-        <v>538883.41267359734</v>
+        <v>538923.91267359734</v>
       </c>
       <c r="CU15" s="9">
-        <v>690650.73668984591</v>
+        <v>691025.73668984591</v>
       </c>
       <c r="CV15" s="9">
-        <v>602422.12423501338</v>
+        <v>602521.12423501338</v>
       </c>
       <c r="CW15" s="9">
-        <v>614810.94334570458</v>
-      </c>
-      <c r="CX15" s="11"/>
+        <v>614054.36448713182</v>
+      </c>
+      <c r="CX15" s="9">
+        <v>561595.47827925475</v>
+      </c>
       <c r="CY15" s="11"/>
       <c r="CZ15" s="11"/>
       <c r="DA15" s="11"/>
@@ -2933,43 +2949,45 @@
       <c r="CK16" s="10">
         <v>115232.79383796283</v>
       </c>
-      <c r="CL16" s="10">
+      <c r="CL16" s="9">
         <v>107424.34184207172</v>
       </c>
-      <c r="CM16" s="10">
+      <c r="CM16" s="9">
         <v>102654.61314200748</v>
       </c>
-      <c r="CN16" s="10">
+      <c r="CN16" s="9">
         <v>123736.23779455178</v>
       </c>
-      <c r="CO16" s="10">
+      <c r="CO16" s="9">
         <v>130719.22633313532</v>
       </c>
       <c r="CP16" s="9">
-        <v>110871.54479007726</v>
+        <v>110871.54479831325</v>
       </c>
       <c r="CQ16" s="9">
-        <v>106253.23714514532</v>
+        <v>106257.09214445465</v>
       </c>
       <c r="CR16" s="9">
-        <v>127867.77678114366</v>
+        <v>127923.16169105971</v>
       </c>
       <c r="CS16" s="9">
-        <v>137855.96716717028</v>
+        <v>137855.60433990852</v>
       </c>
       <c r="CT16" s="9">
-        <v>117847.24378391397</v>
+        <v>118094.06265215231</v>
       </c>
       <c r="CU16" s="9">
-        <v>112050.43969227333</v>
+        <v>111901.91873284035</v>
       </c>
       <c r="CV16" s="9">
-        <v>134954.15097581942</v>
+        <v>135005.70809260488</v>
       </c>
       <c r="CW16" s="9">
-        <v>148259.80592369538</v>
-      </c>
-      <c r="CX16" s="11"/>
+        <v>147767.90231364404</v>
+      </c>
+      <c r="CX16" s="9">
+        <v>121247.09726119338</v>
+      </c>
       <c r="CY16" s="11"/>
       <c r="CZ16" s="11"/>
       <c r="DA16" s="11"/>
@@ -3290,43 +3308,45 @@
       <c r="CK17" s="10">
         <v>180198.24192837239</v>
       </c>
-      <c r="CL17" s="10">
+      <c r="CL17" s="9">
         <v>164645.19463290108</v>
       </c>
-      <c r="CM17" s="10">
+      <c r="CM17" s="9">
         <v>137830.121088741</v>
       </c>
-      <c r="CN17" s="10">
+      <c r="CN17" s="9">
         <v>219423.0202436221</v>
       </c>
-      <c r="CO17" s="10">
+      <c r="CO17" s="9">
         <v>195414.68022995957</v>
       </c>
       <c r="CP17" s="9">
-        <v>184043.48918585389</v>
+        <v>183907.43233084606</v>
       </c>
       <c r="CQ17" s="9">
-        <v>156766.68111373292</v>
+        <v>156775.96107344292</v>
       </c>
       <c r="CR17" s="9">
-        <v>241006.38767839814</v>
+        <v>241078.74400924615</v>
       </c>
       <c r="CS17" s="9">
-        <v>216650.81936884264</v>
+        <v>216430.41763548076</v>
       </c>
       <c r="CT17" s="9">
-        <v>203438.47707703302</v>
+        <v>203800.00187438441</v>
       </c>
       <c r="CU17" s="9">
-        <v>176551.22730459602</v>
+        <v>176633.20283022212</v>
       </c>
       <c r="CV17" s="9">
-        <v>274911.46204481088</v>
+        <v>274946.5909907649</v>
       </c>
       <c r="CW17" s="9">
-        <v>247599.39696800575</v>
-      </c>
-      <c r="CX17" s="11"/>
+        <v>247318.81060222766</v>
+      </c>
+      <c r="CX17" s="9">
+        <v>228972.93731324174</v>
+      </c>
       <c r="CY17" s="11"/>
       <c r="CZ17" s="11"/>
       <c r="DA17" s="11"/>
@@ -3647,43 +3667,45 @@
       <c r="CK18" s="10">
         <v>310709.64314581646</v>
       </c>
-      <c r="CL18" s="10">
+      <c r="CL18" s="9">
         <v>381571.37901575054</v>
       </c>
-      <c r="CM18" s="10">
+      <c r="CM18" s="9">
         <v>297182.27929109044</v>
       </c>
-      <c r="CN18" s="10">
+      <c r="CN18" s="9">
         <v>462866.76992221997</v>
       </c>
-      <c r="CO18" s="10">
+      <c r="CO18" s="9">
         <v>376386.64812021976</v>
       </c>
       <c r="CP18" s="9">
-        <v>473256.29873259738</v>
+        <v>473256.29873179737</v>
       </c>
       <c r="CQ18" s="9">
-        <v>384272.81226293766</v>
+        <v>384272.81226153765</v>
       </c>
       <c r="CR18" s="9">
-        <v>523724.33665674197</v>
+        <v>523724.33665904001</v>
       </c>
       <c r="CS18" s="9">
-        <v>422352.63781876036</v>
+        <v>422726.86825909937</v>
       </c>
       <c r="CT18" s="9">
-        <v>514272.9384144044</v>
+        <v>514110.89886071463</v>
       </c>
       <c r="CU18" s="9">
-        <v>442900.32035515696</v>
+        <v>443152.62805586302</v>
       </c>
       <c r="CV18" s="9">
-        <v>559497.11870611587</v>
+        <v>559286.6211915852</v>
       </c>
       <c r="CW18" s="9">
-        <v>464468.93220555288</v>
-      </c>
-      <c r="CX18" s="11"/>
+        <v>464043.1526550423</v>
+      </c>
+      <c r="CX18" s="9">
+        <v>557498.6238903926</v>
+      </c>
       <c r="CY18" s="11"/>
       <c r="CZ18" s="11"/>
       <c r="DA18" s="11"/>
@@ -4004,43 +4026,45 @@
       <c r="CK19" s="10">
         <v>118999.06344232164</v>
       </c>
-      <c r="CL19" s="10">
+      <c r="CL19" s="9">
         <v>121318.83547741323</v>
       </c>
-      <c r="CM19" s="10">
+      <c r="CM19" s="9">
         <v>126594.6938945959</v>
       </c>
-      <c r="CN19" s="10">
+      <c r="CN19" s="9">
         <v>96655.934150088491</v>
       </c>
-      <c r="CO19" s="10">
+      <c r="CO19" s="9">
         <v>127345.19202086599</v>
       </c>
       <c r="CP19" s="9">
-        <v>127819.65997448107</v>
+        <v>127703.69580911545</v>
       </c>
       <c r="CQ19" s="9">
-        <v>133713.65125885664</v>
+        <v>133589.35869189343</v>
       </c>
       <c r="CR19" s="9">
-        <v>102066.60385361208</v>
+        <v>101838.66306068838</v>
       </c>
       <c r="CS19" s="9">
-        <v>134255.5713900777</v>
+        <v>133865.14827610209</v>
       </c>
       <c r="CT19" s="9">
-        <v>134446.7656140386</v>
+        <v>134459.08881603429</v>
       </c>
       <c r="CU19" s="9">
-        <v>143247.59600452927</v>
+        <v>143844.77852686387</v>
       </c>
       <c r="CV19" s="9">
-        <v>106817.27721319598</v>
+        <v>106701.46684118427</v>
       </c>
       <c r="CW19" s="9">
-        <v>139483.77857170059</v>
-      </c>
-      <c r="CX19" s="11"/>
+        <v>139247.27733421652</v>
+      </c>
+      <c r="CX19" s="9">
+        <v>143437.22210288173</v>
+      </c>
       <c r="CY19" s="11"/>
       <c r="CZ19" s="11"/>
       <c r="DA19" s="11"/>
@@ -4361,43 +4385,45 @@
       <c r="CK20" s="10">
         <v>70945.452398385183</v>
       </c>
-      <c r="CL20" s="10">
+      <c r="CL20" s="9">
         <v>56383.852475695981</v>
       </c>
-      <c r="CM20" s="10">
+      <c r="CM20" s="9">
         <v>41539.852499758985</v>
       </c>
-      <c r="CN20" s="10">
+      <c r="CN20" s="9">
         <v>53223.216597073624</v>
       </c>
-      <c r="CO20" s="10">
+      <c r="CO20" s="9">
         <v>84952.946652067651</v>
       </c>
       <c r="CP20" s="9">
-        <v>75296.922283388674</v>
+        <v>75296.922283463675</v>
       </c>
       <c r="CQ20" s="9">
-        <v>52530.738124887961</v>
+        <v>52574.790000978763</v>
       </c>
       <c r="CR20" s="9">
-        <v>63150.053354876218</v>
+        <v>63228.987878573309</v>
       </c>
       <c r="CS20" s="9">
-        <v>96006.310526762885</v>
+        <v>95553.44899399225</v>
       </c>
       <c r="CT20" s="9">
-        <v>85554.535361773858</v>
+        <v>85758.582585607946</v>
       </c>
       <c r="CU20" s="9">
-        <v>63428.483016369173</v>
+        <v>63556.29798830537</v>
       </c>
       <c r="CV20" s="9">
-        <v>67446.314236668419</v>
+        <v>67281.346426057717</v>
       </c>
       <c r="CW20" s="9">
-        <v>108576.3602430797</v>
-      </c>
-      <c r="CX20" s="11"/>
+        <v>106868.69742001814</v>
+      </c>
+      <c r="CX20" s="9">
+        <v>96321.104570154654</v>
+      </c>
       <c r="CY20" s="11"/>
       <c r="CZ20" s="11"/>
       <c r="DA20" s="11"/>
@@ -4718,43 +4744,45 @@
       <c r="CK21" s="10">
         <v>193235.44467712895</v>
       </c>
-      <c r="CL21" s="10">
+      <c r="CL21" s="9">
         <v>205496.48304643904</v>
       </c>
-      <c r="CM21" s="10">
+      <c r="CM21" s="9">
         <v>186716.43424018819</v>
       </c>
-      <c r="CN21" s="10">
+      <c r="CN21" s="9">
         <v>219408.5717308883</v>
       </c>
-      <c r="CO21" s="10">
+      <c r="CO21" s="9">
         <v>219841.02216222681</v>
       </c>
       <c r="CP21" s="9">
-        <v>227675.85348703075</v>
+        <v>226217.86091342696</v>
       </c>
       <c r="CQ21" s="9">
-        <v>207378.85842708446</v>
+        <v>205562.57931780472</v>
       </c>
       <c r="CR21" s="9">
-        <v>242002.10894328996</v>
+        <v>239730.5590848854</v>
       </c>
       <c r="CS21" s="9">
-        <v>246553.40202491323</v>
+        <v>245349.10421328663</v>
       </c>
       <c r="CT21" s="9">
-        <v>245340.87667876223</v>
+        <v>246831.10313367649</v>
       </c>
       <c r="CU21" s="9">
-        <v>215512.82439309516</v>
+        <v>215427.03914205509</v>
       </c>
       <c r="CV21" s="9">
-        <v>261543.7318449638</v>
+        <v>261559.71512130322</v>
       </c>
       <c r="CW21" s="9">
-        <v>270513.32328232267</v>
-      </c>
-      <c r="CX21" s="11"/>
+        <v>271497.04271244386</v>
+      </c>
+      <c r="CX21" s="9">
+        <v>275940.3223190729</v>
+      </c>
       <c r="CY21" s="11"/>
       <c r="CZ21" s="11"/>
       <c r="DA21" s="11"/>
@@ -5075,16 +5103,16 @@
       <c r="CK22" s="10">
         <v>280374.78925942106</v>
       </c>
-      <c r="CL22" s="10">
+      <c r="CL22" s="9">
         <v>317048.23831029242</v>
       </c>
-      <c r="CM22" s="10">
+      <c r="CM22" s="9">
         <v>182815.97813932429</v>
       </c>
-      <c r="CN22" s="10">
+      <c r="CN22" s="9">
         <v>290523.11893644114</v>
       </c>
-      <c r="CO22" s="10">
+      <c r="CO22" s="9">
         <v>372932.26815940789</v>
       </c>
       <c r="CP22" s="9">
@@ -5094,24 +5122,26 @@
         <v>243540.02810056467</v>
       </c>
       <c r="CR22" s="9">
-        <v>353961.58977707929</v>
+        <v>354024.59660770802</v>
       </c>
       <c r="CS22" s="9">
-        <v>456518.77217155957</v>
+        <v>455337.71215030487</v>
       </c>
       <c r="CT22" s="9">
-        <v>501441.96541300381</v>
+        <v>501360.99492956884</v>
       </c>
       <c r="CU22" s="9">
-        <v>284803.44617448025</v>
+        <v>284918.88654920907</v>
       </c>
       <c r="CV22" s="9">
-        <v>407023.51004079619</v>
+        <v>407007.63858099887</v>
       </c>
       <c r="CW22" s="9">
-        <v>499079.4965413973</v>
-      </c>
-      <c r="CX22" s="11"/>
+        <v>499380.11673069955</v>
+      </c>
+      <c r="CX22" s="9">
+        <v>542012.530055949</v>
+      </c>
       <c r="CY22" s="11"/>
       <c r="CZ22" s="11"/>
       <c r="DA22" s="11"/>
@@ -5432,43 +5462,45 @@
       <c r="CK23" s="10">
         <v>615571.23603674502</v>
       </c>
-      <c r="CL23" s="10">
+      <c r="CL23" s="9">
         <v>543504.45803658396</v>
       </c>
-      <c r="CM23" s="10">
+      <c r="CM23" s="9">
         <v>521029.52051819692</v>
       </c>
-      <c r="CN23" s="10">
+      <c r="CN23" s="9">
         <v>544953.5758471319</v>
       </c>
-      <c r="CO23" s="10">
+      <c r="CO23" s="9">
         <v>686287.45334351971</v>
       </c>
       <c r="CP23" s="9">
         <v>622425.13085141755</v>
       </c>
       <c r="CQ23" s="9">
-        <v>580246.98628394247</v>
+        <v>580192.83876021393</v>
       </c>
       <c r="CR23" s="9">
-        <v>602031.33345531474</v>
+        <v>601969.3988604414</v>
       </c>
       <c r="CS23" s="9">
-        <v>776220.4753611621</v>
+        <v>776162.06674813747</v>
       </c>
       <c r="CT23" s="9">
-        <v>681002.97137572069</v>
+        <v>681032.57527187024</v>
       </c>
       <c r="CU23" s="9">
-        <v>645817.94408080005</v>
+        <v>645757.90468213288</v>
       </c>
       <c r="CV23" s="9">
-        <v>664390.39588482282</v>
+        <v>664227.87068587961</v>
       </c>
       <c r="CW23" s="9">
-        <v>859647.4754717662</v>
-      </c>
-      <c r="CX23" s="11"/>
+        <v>858697.14329350879</v>
+      </c>
+      <c r="CX23" s="9">
+        <v>731820.03261882951</v>
+      </c>
       <c r="CY23" s="11"/>
       <c r="CZ23" s="11"/>
       <c r="DA23" s="11"/>
@@ -5610,10 +5642,10 @@
       <c r="CI24" s="11"/>
       <c r="CJ24" s="11"/>
       <c r="CK24" s="11"/>
-      <c r="CL24" s="11"/>
-      <c r="CM24" s="11"/>
-      <c r="CN24" s="11"/>
-      <c r="CO24" s="11"/>
+      <c r="CL24" s="13"/>
+      <c r="CM24" s="13"/>
+      <c r="CN24" s="13"/>
+      <c r="CO24" s="13"/>
       <c r="CP24" s="13"/>
       <c r="CQ24" s="13"/>
       <c r="CR24" s="13"/>
@@ -5622,7 +5654,7 @@
       <c r="CU24" s="13"/>
       <c r="CV24" s="13"/>
       <c r="CW24" s="13"/>
-      <c r="CX24" s="11"/>
+      <c r="CX24" s="13"/>
       <c r="CY24" s="11"/>
       <c r="CZ24" s="11"/>
       <c r="DA24" s="11"/>
@@ -5943,43 +5975,45 @@
       <c r="CK25" s="30">
         <v>4232430.2197240982</v>
       </c>
-      <c r="CL25" s="30">
+      <c r="CL25" s="36">
         <v>3853344.7528260392</v>
       </c>
-      <c r="CM25" s="30">
+      <c r="CM25" s="36">
         <v>3878011.4480237663</v>
       </c>
-      <c r="CN25" s="30">
+      <c r="CN25" s="36">
         <v>4131182.9746019179</v>
       </c>
-      <c r="CO25" s="30">
+      <c r="CO25" s="36">
         <v>4862505.5482731201</v>
       </c>
       <c r="CP25" s="36">
-        <v>4418197.6125810854</v>
+        <v>4416487.5984979793</v>
       </c>
       <c r="CQ25" s="36">
-        <v>4326016.6054504886</v>
+        <v>4324079.073102612</v>
       </c>
       <c r="CR25" s="36">
-        <v>4534502.3875175733</v>
+        <v>4533012.3433621908</v>
       </c>
       <c r="CS25" s="36">
-        <v>5329612.5748336874</v>
+        <v>5330878.5300679235</v>
       </c>
       <c r="CT25" s="36">
-        <v>4780005.6121547557</v>
+        <v>4782609.1617980804</v>
       </c>
       <c r="CU25" s="36">
-        <v>4704636.1444788603</v>
+        <v>4707105.2868563132</v>
       </c>
       <c r="CV25" s="36">
-        <v>4919038.2310505165</v>
+        <v>4918612.3504972719</v>
       </c>
       <c r="CW25" s="36">
-        <v>5723641.4643816631</v>
-      </c>
-      <c r="CX25" s="11"/>
+        <v>5729365.2983004451</v>
+      </c>
+      <c r="CX25" s="36">
+        <v>5151392.11693657</v>
+      </c>
       <c r="CY25" s="11"/>
       <c r="CZ25" s="11"/>
       <c r="DA25" s="11"/>
@@ -6122,10 +6156,10 @@
       <c r="CI26" s="16"/>
       <c r="CJ26" s="16"/>
       <c r="CK26" s="16"/>
-      <c r="CL26" s="16"/>
-      <c r="CM26" s="16"/>
-      <c r="CN26" s="16"/>
-      <c r="CO26" s="16"/>
+      <c r="CL26" s="17"/>
+      <c r="CM26" s="17"/>
+      <c r="CN26" s="17"/>
+      <c r="CO26" s="17"/>
       <c r="CP26" s="17"/>
       <c r="CQ26" s="17"/>
       <c r="CR26" s="17"/>
@@ -6134,6 +6168,7 @@
       <c r="CU26" s="17"/>
       <c r="CV26" s="17"/>
       <c r="CW26" s="17"/>
+      <c r="CX26" s="17"/>
     </row>
     <row r="27" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
@@ -6229,10 +6264,10 @@
       <c r="CI28" s="31"/>
       <c r="CJ28" s="31"/>
       <c r="CK28" s="31"/>
-      <c r="CL28" s="31"/>
-      <c r="CM28" s="31"/>
-      <c r="CN28" s="31"/>
-      <c r="CO28" s="31"/>
+      <c r="CL28" s="37"/>
+      <c r="CM28" s="37"/>
+      <c r="CN28" s="37"/>
+      <c r="CO28" s="37"/>
       <c r="CP28" s="37"/>
       <c r="CQ28" s="37"/>
       <c r="CR28" s="37"/>
@@ -6241,7 +6276,7 @@
       <c r="CU28" s="37"/>
       <c r="CV28" s="37"/>
       <c r="CW28" s="37"/>
-      <c r="CX28" s="11"/>
+      <c r="CX28" s="37"/>
       <c r="CY28" s="11"/>
       <c r="CZ28" s="11"/>
       <c r="DA28" s="11"/>
@@ -6383,10 +6418,10 @@
       <c r="CI29" s="32"/>
       <c r="CJ29" s="32"/>
       <c r="CK29" s="32"/>
-      <c r="CL29" s="32"/>
-      <c r="CM29" s="32"/>
-      <c r="CN29" s="32"/>
-      <c r="CO29" s="32"/>
+      <c r="CL29" s="38"/>
+      <c r="CM29" s="38"/>
+      <c r="CN29" s="38"/>
+      <c r="CO29" s="38"/>
       <c r="CP29" s="38"/>
       <c r="CQ29" s="38"/>
       <c r="CR29" s="38"/>
@@ -6395,7 +6430,7 @@
       <c r="CU29" s="38"/>
       <c r="CV29" s="38"/>
       <c r="CW29" s="38"/>
-      <c r="CX29" s="11"/>
+      <c r="CX29" s="38"/>
       <c r="CY29" s="11"/>
       <c r="CZ29" s="11"/>
       <c r="DA29" s="11"/>
@@ -6460,7 +6495,7 @@
     </row>
     <row r="32" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:153" x14ac:dyDescent="0.2">
@@ -6470,7 +6505,7 @@
     </row>
     <row r="35" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:153" x14ac:dyDescent="0.2">
@@ -6480,144 +6515,144 @@
     </row>
     <row r="38" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
-      <c r="B38" s="43">
+      <c r="B38" s="42">
         <v>2000</v>
       </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43">
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42">
         <v>2001</v>
       </c>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43">
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42">
         <v>2002</v>
       </c>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43">
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42">
         <v>2003</v>
       </c>
-      <c r="O38" s="43"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="43"/>
-      <c r="R38" s="43">
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="42"/>
+      <c r="R38" s="42">
         <v>2004</v>
       </c>
-      <c r="S38" s="43"/>
-      <c r="T38" s="43"/>
-      <c r="U38" s="43"/>
-      <c r="V38" s="43">
+      <c r="S38" s="42"/>
+      <c r="T38" s="42"/>
+      <c r="U38" s="42"/>
+      <c r="V38" s="42">
         <v>2005</v>
       </c>
-      <c r="W38" s="43"/>
-      <c r="X38" s="43"/>
-      <c r="Y38" s="43"/>
-      <c r="Z38" s="43">
+      <c r="W38" s="42"/>
+      <c r="X38" s="42"/>
+      <c r="Y38" s="42"/>
+      <c r="Z38" s="42">
         <v>2006</v>
       </c>
-      <c r="AA38" s="43"/>
-      <c r="AB38" s="43"/>
-      <c r="AC38" s="43"/>
-      <c r="AD38" s="43">
+      <c r="AA38" s="42"/>
+      <c r="AB38" s="42"/>
+      <c r="AC38" s="42"/>
+      <c r="AD38" s="42">
         <v>2007</v>
       </c>
-      <c r="AE38" s="43"/>
-      <c r="AF38" s="43"/>
-      <c r="AG38" s="43"/>
-      <c r="AH38" s="43">
+      <c r="AE38" s="42"/>
+      <c r="AF38" s="42"/>
+      <c r="AG38" s="42"/>
+      <c r="AH38" s="42">
         <v>2008</v>
       </c>
-      <c r="AI38" s="43"/>
-      <c r="AJ38" s="43"/>
-      <c r="AK38" s="43"/>
-      <c r="AL38" s="43">
+      <c r="AI38" s="42"/>
+      <c r="AJ38" s="42"/>
+      <c r="AK38" s="42"/>
+      <c r="AL38" s="42">
         <v>2009</v>
       </c>
-      <c r="AM38" s="43"/>
-      <c r="AN38" s="43"/>
-      <c r="AO38" s="43"/>
-      <c r="AP38" s="43">
+      <c r="AM38" s="42"/>
+      <c r="AN38" s="42"/>
+      <c r="AO38" s="42"/>
+      <c r="AP38" s="42">
         <v>2010</v>
       </c>
-      <c r="AQ38" s="43"/>
-      <c r="AR38" s="43"/>
-      <c r="AS38" s="43"/>
-      <c r="AT38" s="43">
+      <c r="AQ38" s="42"/>
+      <c r="AR38" s="42"/>
+      <c r="AS38" s="42"/>
+      <c r="AT38" s="42">
         <v>2011</v>
       </c>
-      <c r="AU38" s="43"/>
-      <c r="AV38" s="43"/>
-      <c r="AW38" s="43"/>
-      <c r="AX38" s="43">
+      <c r="AU38" s="42"/>
+      <c r="AV38" s="42"/>
+      <c r="AW38" s="42"/>
+      <c r="AX38" s="42">
         <v>2012</v>
       </c>
-      <c r="AY38" s="43"/>
-      <c r="AZ38" s="43"/>
-      <c r="BA38" s="43"/>
-      <c r="BB38" s="43">
+      <c r="AY38" s="42"/>
+      <c r="AZ38" s="42"/>
+      <c r="BA38" s="42"/>
+      <c r="BB38" s="42">
         <v>2013</v>
       </c>
-      <c r="BC38" s="43"/>
-      <c r="BD38" s="43"/>
-      <c r="BE38" s="43"/>
-      <c r="BF38" s="43">
+      <c r="BC38" s="42"/>
+      <c r="BD38" s="42"/>
+      <c r="BE38" s="42"/>
+      <c r="BF38" s="42">
         <v>2014</v>
       </c>
-      <c r="BG38" s="43"/>
-      <c r="BH38" s="43"/>
-      <c r="BI38" s="43"/>
-      <c r="BJ38" s="43">
+      <c r="BG38" s="42"/>
+      <c r="BH38" s="42"/>
+      <c r="BI38" s="42"/>
+      <c r="BJ38" s="42">
         <v>2015</v>
       </c>
-      <c r="BK38" s="43"/>
-      <c r="BL38" s="43"/>
-      <c r="BM38" s="43"/>
-      <c r="BN38" s="43">
+      <c r="BK38" s="42"/>
+      <c r="BL38" s="42"/>
+      <c r="BM38" s="42"/>
+      <c r="BN38" s="42">
         <v>2016</v>
       </c>
-      <c r="BO38" s="43"/>
-      <c r="BP38" s="43"/>
-      <c r="BQ38" s="43"/>
-      <c r="BR38" s="42">
+      <c r="BO38" s="42"/>
+      <c r="BP38" s="42"/>
+      <c r="BQ38" s="42"/>
+      <c r="BR38" s="43">
         <v>2017</v>
       </c>
-      <c r="BS38" s="42"/>
-      <c r="BT38" s="42"/>
-      <c r="BU38" s="42"/>
-      <c r="BV38" s="42">
+      <c r="BS38" s="43"/>
+      <c r="BT38" s="43"/>
+      <c r="BU38" s="43"/>
+      <c r="BV38" s="43">
         <v>2018</v>
       </c>
-      <c r="BW38" s="42"/>
-      <c r="BX38" s="42"/>
-      <c r="BY38" s="42"/>
-      <c r="BZ38" s="42">
+      <c r="BW38" s="43"/>
+      <c r="BX38" s="43"/>
+      <c r="BY38" s="43"/>
+      <c r="BZ38" s="43">
         <v>2019</v>
       </c>
-      <c r="CA38" s="42"/>
-      <c r="CB38" s="42"/>
-      <c r="CC38" s="42"/>
-      <c r="CD38" s="42">
+      <c r="CA38" s="43"/>
+      <c r="CB38" s="43"/>
+      <c r="CC38" s="43"/>
+      <c r="CD38" s="43">
         <v>2020</v>
       </c>
-      <c r="CE38" s="42"/>
-      <c r="CF38" s="42"/>
-      <c r="CG38" s="42"/>
+      <c r="CE38" s="43"/>
+      <c r="CF38" s="43"/>
+      <c r="CG38" s="43"/>
       <c r="CH38" s="33">
         <v>2021</v>
       </c>
       <c r="CI38" s="33"/>
       <c r="CJ38" s="33"/>
       <c r="CK38" s="33"/>
-      <c r="CL38" s="33">
+      <c r="CL38" s="35">
         <v>2022</v>
       </c>
-      <c r="CM38" s="33"/>
-      <c r="CN38" s="33"/>
-      <c r="CO38" s="33"/>
+      <c r="CM38" s="35"/>
+      <c r="CN38" s="35"/>
+      <c r="CO38" s="35"/>
       <c r="CP38" s="35">
         <v>2023</v>
       </c>
@@ -6630,6 +6665,9 @@
       <c r="CU38" s="35"/>
       <c r="CV38" s="35"/>
       <c r="CW38" s="35"/>
+      <c r="CX38" s="35">
+        <v>2025</v>
+      </c>
     </row>
     <row r="39" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
@@ -6899,16 +6937,16 @@
       <c r="CK39" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CL39" s="7" t="s">
+      <c r="CL39" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="CM39" s="7" t="s">
+      <c r="CM39" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="CN39" s="7" t="s">
+      <c r="CN39" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="CO39" s="7" t="s">
+      <c r="CO39" s="6" t="s">
         <v>22</v>
       </c>
       <c r="CP39" s="6" t="s">
@@ -6934,6 +6972,9 @@
       </c>
       <c r="CW39" s="6" t="s">
         <v>22</v>
+      </c>
+      <c r="CX39" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -7207,43 +7248,45 @@
       <c r="CK41" s="10">
         <v>1552717.6013816134</v>
       </c>
-      <c r="CL41" s="10">
+      <c r="CL41" s="9">
         <v>1256130.3984112311</v>
       </c>
-      <c r="CM41" s="10">
+      <c r="CM41" s="9">
         <v>1357980.084313326</v>
       </c>
-      <c r="CN41" s="10">
+      <c r="CN41" s="9">
         <v>1227509.7883338779</v>
       </c>
-      <c r="CO41" s="10">
+      <c r="CO41" s="9">
         <v>1613837.8543570151</v>
       </c>
       <c r="CP41" s="9">
-        <v>1265574.4326195689</v>
+        <v>1265574.4322105085</v>
       </c>
       <c r="CQ41" s="9">
-        <v>1362289.9882985125</v>
+        <v>1362289.9883129036</v>
       </c>
       <c r="CR41" s="9">
-        <v>1230794.9677908672</v>
+        <v>1230791.0791929087</v>
       </c>
       <c r="CS41" s="9">
-        <v>1623142.7353204403</v>
+        <v>1626806.0754117006</v>
       </c>
       <c r="CT41" s="9">
-        <v>1270817.1766024218</v>
+        <v>1271433.1682090887</v>
       </c>
       <c r="CU41" s="9">
-        <v>1369894.6138876297</v>
+        <v>1370268.1492589575</v>
       </c>
       <c r="CV41" s="9">
-        <v>1271319.9777317455</v>
+        <v>1270361.5334978893</v>
       </c>
       <c r="CW41" s="9">
-        <v>1643805.4352881918</v>
-      </c>
-      <c r="CX41" s="11"/>
+        <v>1650790.3578221325</v>
+      </c>
+      <c r="CX41" s="9">
+        <v>1328830.0540412916</v>
+      </c>
       <c r="CY41" s="11"/>
       <c r="CZ41" s="11"/>
       <c r="DA41" s="11"/>
@@ -7564,43 +7607,45 @@
       <c r="CK42" s="10">
         <v>66587.278763515598</v>
       </c>
-      <c r="CL42" s="10">
+      <c r="CL42" s="9">
         <v>50553.878828842302</v>
       </c>
-      <c r="CM42" s="10">
+      <c r="CM42" s="9">
         <v>48415.947855946812</v>
       </c>
-      <c r="CN42" s="10">
+      <c r="CN42" s="9">
         <v>43867.189344531434</v>
       </c>
-      <c r="CO42" s="10">
+      <c r="CO42" s="9">
         <v>68964.984228597677</v>
       </c>
       <c r="CP42" s="9">
         <v>50280.938195297516</v>
       </c>
       <c r="CQ42" s="9">
-        <v>44441.418539635582</v>
+        <v>44441.418539893697</v>
       </c>
       <c r="CR42" s="9">
-        <v>44463.997896249566</v>
+        <v>44463.997896250119</v>
       </c>
       <c r="CS42" s="9">
-        <v>69402.135638920881</v>
+        <v>69399.854617198784</v>
       </c>
       <c r="CT42" s="9">
-        <v>49323.501006078186</v>
+        <v>49480.286910551149</v>
       </c>
       <c r="CU42" s="9">
-        <v>46422.140041581202</v>
+        <v>46554.193541044449</v>
       </c>
       <c r="CV42" s="9">
-        <v>45262.737866332311</v>
+        <v>45987.974795824841</v>
       </c>
       <c r="CW42" s="9">
-        <v>72668.727068747525</v>
-      </c>
-      <c r="CX42" s="11"/>
+        <v>71876.742738170637</v>
+      </c>
+      <c r="CX42" s="9">
+        <v>53054.679661728303</v>
+      </c>
       <c r="CY42" s="11"/>
       <c r="CZ42" s="11"/>
       <c r="DA42" s="11"/>
@@ -7921,43 +7966,45 @@
       <c r="CK43" s="10">
         <v>73008.364732741946</v>
       </c>
-      <c r="CL43" s="10">
+      <c r="CL43" s="9">
         <v>54767.713375738836</v>
       </c>
-      <c r="CM43" s="10">
+      <c r="CM43" s="9">
         <v>56337.104843664441</v>
       </c>
-      <c r="CN43" s="10">
+      <c r="CN43" s="9">
         <v>65495.654140434563</v>
       </c>
-      <c r="CO43" s="10">
+      <c r="CO43" s="9">
         <v>80473.989444633728</v>
       </c>
       <c r="CP43" s="9">
         <v>53152.927854325702</v>
       </c>
       <c r="CQ43" s="9">
-        <v>41157.628783037362</v>
+        <v>41157.628783146727</v>
       </c>
       <c r="CR43" s="9">
-        <v>58557.81250580652</v>
+        <v>59280.360437358257</v>
       </c>
       <c r="CS43" s="9">
-        <v>78902.32969546254</v>
+        <v>78852.61572677207</v>
       </c>
       <c r="CT43" s="9">
-        <v>53918.767102582256</v>
+        <v>53410.484378709138</v>
       </c>
       <c r="CU43" s="9">
-        <v>38879.318031933668</v>
+        <v>39263.09269115288</v>
       </c>
       <c r="CV43" s="9">
-        <v>62395.629226898644</v>
+        <v>62338.742384439618</v>
       </c>
       <c r="CW43" s="9">
-        <v>79963.16597761224</v>
-      </c>
-      <c r="CX43" s="11"/>
+        <v>81272.634446154829</v>
+      </c>
+      <c r="CX43" s="9">
+        <v>55702.019808985584</v>
+      </c>
       <c r="CY43" s="11"/>
       <c r="CZ43" s="11"/>
       <c r="DA43" s="11"/>
@@ -8278,16 +8325,16 @@
       <c r="CK44" s="10">
         <v>443647.66219302185</v>
       </c>
-      <c r="CL44" s="10">
+      <c r="CL44" s="9">
         <v>425390.02985790599</v>
       </c>
-      <c r="CM44" s="10">
+      <c r="CM44" s="9">
         <v>522473.30504988926</v>
       </c>
-      <c r="CN44" s="10">
+      <c r="CN44" s="9">
         <v>440353.83664145833</v>
       </c>
-      <c r="CO44" s="10">
+      <c r="CO44" s="9">
         <v>462970.29723854054</v>
       </c>
       <c r="CP44" s="9">
@@ -8300,21 +8347,23 @@
         <v>459676.28146653716</v>
       </c>
       <c r="CS44" s="9">
-        <v>483503.72320486169</v>
+        <v>483347.06245233101</v>
       </c>
       <c r="CT44" s="9">
-        <v>473784.42239651538</v>
+        <v>473820.02985567221</v>
       </c>
       <c r="CU44" s="9">
-        <v>586875.50972749339</v>
+        <v>587194.16328776116</v>
       </c>
       <c r="CV44" s="9">
-        <v>476642.70970412693</v>
+        <v>476721.03954355739</v>
       </c>
       <c r="CW44" s="9">
-        <v>501654.13848916412</v>
-      </c>
-      <c r="CX44" s="11"/>
+        <v>501036.80901641428</v>
+      </c>
+      <c r="CX44" s="9">
+        <v>484957.52390025562</v>
+      </c>
       <c r="CY44" s="11"/>
       <c r="CZ44" s="11"/>
       <c r="DA44" s="11"/>
@@ -8635,43 +8684,45 @@
       <c r="CK45" s="10">
         <v>107527.8920243519</v>
       </c>
-      <c r="CL45" s="10">
+      <c r="CL45" s="9">
         <v>95996.207609348479</v>
       </c>
-      <c r="CM45" s="10">
+      <c r="CM45" s="9">
         <v>91624.577597707088</v>
       </c>
-      <c r="CN45" s="10">
+      <c r="CN45" s="9">
         <v>107922.73333323596</v>
       </c>
-      <c r="CO45" s="10">
+      <c r="CO45" s="9">
         <v>116880.04880855413</v>
       </c>
       <c r="CP45" s="9">
-        <v>93611.753454593345</v>
+        <v>93611.75346154721</v>
       </c>
       <c r="CQ45" s="9">
-        <v>89368.290807064768</v>
+        <v>89371.533199565878</v>
       </c>
       <c r="CR45" s="9">
-        <v>107490.02600048439</v>
+        <v>107536.5844498199</v>
       </c>
       <c r="CS45" s="9">
-        <v>117556.91553276678</v>
+        <v>117556.60613118888</v>
       </c>
       <c r="CT45" s="9">
-        <v>96175.639583942786</v>
+        <v>96377.069517745331</v>
       </c>
       <c r="CU45" s="9">
-        <v>91527.901272317205</v>
+        <v>91406.582589863261</v>
       </c>
       <c r="CV45" s="9">
-        <v>110469.78658575141</v>
+        <v>110511.9898351297</v>
       </c>
       <c r="CW45" s="9">
-        <v>123233.7312776886</v>
-      </c>
-      <c r="CX45" s="11"/>
+        <v>122824.86039783062</v>
+      </c>
+      <c r="CX45" s="9">
+        <v>96680.160284199766</v>
+      </c>
       <c r="CY45" s="11"/>
       <c r="CZ45" s="11"/>
       <c r="DA45" s="11"/>
@@ -8992,43 +9043,45 @@
       <c r="CK46" s="10">
         <v>162064.53141225895</v>
       </c>
-      <c r="CL46" s="10">
+      <c r="CL46" s="9">
         <v>151599.75194867514</v>
       </c>
-      <c r="CM46" s="10">
+      <c r="CM46" s="9">
         <v>126262.27732026199</v>
       </c>
-      <c r="CN46" s="10">
+      <c r="CN46" s="9">
         <v>191718.08812954446</v>
       </c>
-      <c r="CO46" s="10">
+      <c r="CO46" s="9">
         <v>170920.86754634365</v>
       </c>
       <c r="CP46" s="9">
-        <v>163344.01118917143</v>
+        <v>163223.25672757611</v>
       </c>
       <c r="CQ46" s="9">
-        <v>138025.82560327274</v>
+        <v>138033.99617938904</v>
       </c>
       <c r="CR46" s="9">
-        <v>202569.3574100199</v>
+        <v>202630.1739534552</v>
       </c>
       <c r="CS46" s="9">
-        <v>182546.53050287801</v>
+        <v>182360.82351197329</v>
       </c>
       <c r="CT46" s="9">
-        <v>174981.51640761693</v>
+        <v>175292.47114031261</v>
       </c>
       <c r="CU46" s="9">
-        <v>150968.92379594396</v>
+        <v>151039.02105366523</v>
       </c>
       <c r="CV46" s="9">
-        <v>225131.05156202966</v>
+        <v>225159.81942963353</v>
       </c>
       <c r="CW46" s="9">
-        <v>203462.42063982144</v>
-      </c>
-      <c r="CX46" s="11"/>
+        <v>203231.85149515138</v>
+      </c>
+      <c r="CX46" s="9">
+        <v>192472.99514204662</v>
+      </c>
       <c r="CY46" s="11"/>
       <c r="CZ46" s="11"/>
       <c r="DA46" s="11"/>
@@ -9349,43 +9402,45 @@
       <c r="CK47" s="10">
         <v>275542.77234665689</v>
       </c>
-      <c r="CL47" s="10">
+      <c r="CL47" s="9">
         <v>312379.67400572699</v>
       </c>
-      <c r="CM47" s="10">
+      <c r="CM47" s="9">
         <v>238061.3974347841</v>
       </c>
-      <c r="CN47" s="10">
+      <c r="CN47" s="9">
         <v>325880.54514664772</v>
       </c>
-      <c r="CO47" s="10">
+      <c r="CO47" s="9">
         <v>297652.57645724842</v>
       </c>
       <c r="CP47" s="9">
-        <v>357466.39388327656</v>
+        <v>357466.3938826723</v>
       </c>
       <c r="CQ47" s="9">
-        <v>308874.15485199948</v>
+        <v>308874.15485087421</v>
       </c>
       <c r="CR47" s="9">
-        <v>372910.80834159057</v>
+        <v>372910.80834322685</v>
       </c>
       <c r="CS47" s="9">
-        <v>333317.55347024265</v>
+        <v>333612.89334417385</v>
       </c>
       <c r="CT47" s="9">
-        <v>384567.14445178007</v>
+        <v>384445.97321410454</v>
       </c>
       <c r="CU47" s="9">
-        <v>345503.79933207895</v>
+        <v>345700.6230081711</v>
       </c>
       <c r="CV47" s="9">
-        <v>397153.38952850411</v>
+        <v>397003.9699898003</v>
       </c>
       <c r="CW47" s="9">
-        <v>369590.28927995556</v>
-      </c>
-      <c r="CX47" s="11"/>
+        <v>369251.48516124854</v>
+      </c>
+      <c r="CX47" s="9">
+        <v>417104.47495431098</v>
+      </c>
       <c r="CY47" s="11"/>
       <c r="CZ47" s="11"/>
       <c r="DA47" s="11"/>
@@ -9706,43 +9761,45 @@
       <c r="CK48" s="10">
         <v>122469.86916808529</v>
       </c>
-      <c r="CL48" s="10">
+      <c r="CL48" s="9">
         <v>115630.35099981661</v>
       </c>
-      <c r="CM48" s="10">
+      <c r="CM48" s="9">
         <v>124021.34519820612</v>
       </c>
-      <c r="CN48" s="10">
+      <c r="CN48" s="9">
         <v>96421.889106823248</v>
       </c>
-      <c r="CO48" s="10">
+      <c r="CO48" s="9">
         <v>130248.57362617776</v>
       </c>
       <c r="CP48" s="9">
-        <v>120956.17189330241</v>
+        <v>120846.43461562363</v>
       </c>
       <c r="CQ48" s="9">
-        <v>130102.73035963597</v>
+        <v>129981.79429833572</v>
       </c>
       <c r="CR48" s="9">
-        <v>101158.72102486502</v>
+        <v>100932.80776615971</v>
       </c>
       <c r="CS48" s="9">
-        <v>136472.16385956208</v>
+        <v>136075.29476404996</v>
       </c>
       <c r="CT48" s="9">
-        <v>126692.68229216468</v>
+        <v>126704.29476575697</v>
       </c>
       <c r="CU48" s="9">
-        <v>138703.92520604885</v>
+        <v>139282.16569470346</v>
       </c>
       <c r="CV48" s="9">
-        <v>105388.40976261189</v>
+        <v>105274.14855638427</v>
       </c>
       <c r="CW48" s="9">
-        <v>141511.90961926675</v>
-      </c>
-      <c r="CX48" s="11"/>
+        <v>141271.96959121188</v>
+      </c>
+      <c r="CX48" s="9">
+        <v>134772.4627405534</v>
+      </c>
       <c r="CY48" s="11"/>
       <c r="CZ48" s="11"/>
       <c r="DA48" s="11"/>
@@ -10063,43 +10120,45 @@
       <c r="CK49" s="10">
         <v>68301.886170279118</v>
       </c>
-      <c r="CL49" s="10">
+      <c r="CL49" s="9">
         <v>53999.754231524312</v>
       </c>
-      <c r="CM49" s="10">
+      <c r="CM49" s="9">
         <v>40244.950743764843</v>
       </c>
-      <c r="CN49" s="10">
+      <c r="CN49" s="9">
         <v>51342.241606537427</v>
       </c>
-      <c r="CO49" s="10">
+      <c r="CO49" s="9">
         <v>79086.197462698881</v>
       </c>
       <c r="CP49" s="9">
-        <v>69069.451231257248</v>
+        <v>69069.451231326049</v>
       </c>
       <c r="CQ49" s="9">
-        <v>48566.06706573956</v>
+        <v>48606.794198937481</v>
       </c>
       <c r="CR49" s="9">
-        <v>59127.541685949276</v>
+        <v>59201.448263892016</v>
       </c>
       <c r="CS49" s="9">
-        <v>85381.323258711534</v>
+        <v>84978.57976498935</v>
       </c>
       <c r="CT49" s="9">
-        <v>75540.875845433722</v>
+        <v>75721.040531467923</v>
       </c>
       <c r="CU49" s="9">
-        <v>56611.040211207939</v>
+        <v>56725.117328802051</v>
       </c>
       <c r="CV49" s="9">
-        <v>61214.573542540194</v>
+        <v>61064.848026934618</v>
       </c>
       <c r="CW49" s="9">
-        <v>94220.56286838364</v>
-      </c>
-      <c r="CX49" s="11"/>
+        <v>92738.684566163356</v>
+      </c>
+      <c r="CX49" s="9">
+        <v>83094.111142448994</v>
+      </c>
       <c r="CY49" s="11"/>
       <c r="CZ49" s="11"/>
       <c r="DA49" s="11"/>
@@ -10420,43 +10479,45 @@
       <c r="CK50" s="10">
         <v>195091.73159078564</v>
       </c>
-      <c r="CL50" s="10">
+      <c r="CL50" s="9">
         <v>196958.48804625196</v>
       </c>
-      <c r="CM50" s="10">
+      <c r="CM50" s="9">
         <v>175167.04884478028</v>
       </c>
-      <c r="CN50" s="10">
+      <c r="CN50" s="9">
         <v>201724.0696786012</v>
       </c>
-      <c r="CO50" s="10">
+      <c r="CO50" s="9">
         <v>214361.34346559201</v>
       </c>
       <c r="CP50" s="9">
-        <v>210563.07591097074</v>
+        <v>209214.67028845332</v>
       </c>
       <c r="CQ50" s="9">
-        <v>187728.09901346514</v>
+        <v>186083.92647317293</v>
       </c>
       <c r="CR50" s="9">
-        <v>215167.25204232341</v>
+        <v>213147.58724252376</v>
       </c>
       <c r="CS50" s="9">
-        <v>232053.15118347705</v>
+        <v>230919.68030107941</v>
       </c>
       <c r="CT50" s="9">
-        <v>218642.27324647026</v>
+        <v>219970.3295580204</v>
       </c>
       <c r="CU50" s="9">
-        <v>187990.93154366862</v>
+        <v>187916.10142949261</v>
       </c>
       <c r="CV50" s="9">
-        <v>220794.79951082068</v>
+        <v>220808.29256710614</v>
       </c>
       <c r="CW50" s="9">
-        <v>244004.28149636302</v>
-      </c>
-      <c r="CX50" s="11"/>
+        <v>244891.60101847848</v>
+      </c>
+      <c r="CX50" s="9">
+        <v>235895.45316415778</v>
+      </c>
       <c r="CY50" s="11"/>
       <c r="CZ50" s="11"/>
       <c r="DA50" s="11"/>
@@ -10777,16 +10838,16 @@
       <c r="CK51" s="10">
         <v>256717.01377768896</v>
       </c>
-      <c r="CL51" s="10">
+      <c r="CL51" s="9">
         <v>283407.33250156185</v>
       </c>
-      <c r="CM51" s="10">
+      <c r="CM51" s="9">
         <v>168505.72450728461</v>
       </c>
-      <c r="CN51" s="10">
+      <c r="CN51" s="9">
         <v>244760.03881162588</v>
       </c>
-      <c r="CO51" s="10">
+      <c r="CO51" s="9">
         <v>320910.77310411725</v>
       </c>
       <c r="CP51" s="9">
@@ -10796,24 +10857,26 @@
         <v>207142.87170968985</v>
       </c>
       <c r="CR51" s="9">
-        <v>282159.16000097245</v>
+        <v>282209.38566081238</v>
       </c>
       <c r="CS51" s="9">
-        <v>371130.30858810793</v>
+        <v>370170.15711818193</v>
       </c>
       <c r="CT51" s="9">
-        <v>393446.06311913976</v>
+        <v>393382.53130462539</v>
       </c>
       <c r="CU51" s="9">
-        <v>230140.08589862793</v>
+        <v>230233.36938277504</v>
       </c>
       <c r="CV51" s="9">
-        <v>310335.81528295355</v>
+        <v>310323.71405957354</v>
       </c>
       <c r="CW51" s="9">
-        <v>390641.21813735587</v>
-      </c>
-      <c r="CX51" s="11"/>
+        <v>390876.52060471731</v>
+      </c>
+      <c r="CX51" s="9">
+        <v>416825.83700790745</v>
+      </c>
       <c r="CY51" s="11"/>
       <c r="CZ51" s="11"/>
       <c r="DA51" s="11"/>
@@ -11134,43 +11197,45 @@
       <c r="CK52" s="10">
         <v>598947.12783746119</v>
       </c>
-      <c r="CL52" s="10">
+      <c r="CL52" s="9">
         <v>475266.60430032125</v>
       </c>
-      <c r="CM52" s="10">
+      <c r="CM52" s="9">
         <v>448083.79866206896</v>
       </c>
-      <c r="CN52" s="10">
+      <c r="CN52" s="9">
         <v>508792.00058871589</v>
       </c>
-      <c r="CO52" s="10">
+      <c r="CO52" s="9">
         <v>638994.87504169368</v>
       </c>
       <c r="CP52" s="9">
         <v>517070.84916573938</v>
       </c>
       <c r="CQ52" s="9">
-        <v>472079.20992477669</v>
+        <v>472035.1564082132</v>
       </c>
       <c r="CR52" s="9">
-        <v>551109.48847341456</v>
+        <v>551052.79251590755</v>
       </c>
       <c r="CS52" s="9">
-        <v>705460.37334982317</v>
+        <v>705407.28925418388</v>
       </c>
       <c r="CT52" s="9">
-        <v>545132.42825790099</v>
+        <v>545156.12572248222</v>
       </c>
       <c r="CU52" s="9">
-        <v>508469.80232146545</v>
+        <v>508422.53169132647</v>
       </c>
       <c r="CV52" s="9">
-        <v>590518.01213750837</v>
+        <v>590373.55782571109</v>
       </c>
       <c r="CW52" s="9">
-        <v>759773.92339174589</v>
-      </c>
-      <c r="CX52" s="11"/>
+        <v>758934.00048357504</v>
+      </c>
+      <c r="CX52" s="9">
+        <v>570725.12599211966</v>
+      </c>
       <c r="CY52" s="11"/>
       <c r="CZ52" s="11"/>
       <c r="DA52" s="11"/>
@@ -11312,10 +11377,10 @@
       <c r="CI53" s="11"/>
       <c r="CJ53" s="11"/>
       <c r="CK53" s="11"/>
-      <c r="CL53" s="11"/>
-      <c r="CM53" s="11"/>
-      <c r="CN53" s="11"/>
-      <c r="CO53" s="11"/>
+      <c r="CL53" s="13"/>
+      <c r="CM53" s="13"/>
+      <c r="CN53" s="13"/>
+      <c r="CO53" s="13"/>
       <c r="CP53" s="13"/>
       <c r="CQ53" s="13"/>
       <c r="CR53" s="13"/>
@@ -11324,7 +11389,7 @@
       <c r="CU53" s="13"/>
       <c r="CV53" s="13"/>
       <c r="CW53" s="13"/>
-      <c r="CX53" s="11"/>
+      <c r="CX53" s="13"/>
       <c r="CY53" s="11"/>
       <c r="CZ53" s="11"/>
       <c r="DA53" s="11"/>
@@ -11645,43 +11710,45 @@
       <c r="CK54" s="30">
         <v>3922623.7313984605</v>
       </c>
-      <c r="CL54" s="30">
+      <c r="CL54" s="36">
         <v>3472080.1841169447</v>
       </c>
-      <c r="CM54" s="30">
+      <c r="CM54" s="36">
         <v>3397177.5623716842</v>
       </c>
-      <c r="CN54" s="30">
+      <c r="CN54" s="36">
         <v>3505788.0748620336</v>
       </c>
-      <c r="CO54" s="30">
+      <c r="CO54" s="36">
         <v>4195302.3807812128</v>
       </c>
       <c r="CP54" s="36">
-        <v>3693736.8681613421</v>
+        <v>3692157.9703969089</v>
       </c>
       <c r="CQ54" s="36">
-        <v>3583480.1212112503</v>
+        <v>3581723.0992085431</v>
       </c>
       <c r="CR54" s="36">
-        <v>3685185.4146390795</v>
+        <v>3683833.3071888513</v>
       </c>
       <c r="CS54" s="36">
-        <v>4418869.2436052551</v>
+        <v>4419486.9323978228</v>
       </c>
       <c r="CT54" s="36">
-        <v>3863022.4903120473</v>
+        <v>3865193.805108537</v>
       </c>
       <c r="CU54" s="36">
-        <v>3751987.9912699973</v>
+        <v>3754005.1109577147</v>
       </c>
       <c r="CV54" s="36">
-        <v>3876626.8924418231</v>
+        <v>3875929.6305119842</v>
       </c>
       <c r="CW54" s="36">
-        <v>4624529.8035342963</v>
-      </c>
-      <c r="CX54" s="11"/>
+        <v>4628997.5173412496</v>
+      </c>
+      <c r="CX54" s="36">
+        <v>4070114.8978400058</v>
+      </c>
       <c r="CY54" s="11"/>
       <c r="CZ54" s="11"/>
       <c r="DA54" s="11"/>
@@ -11824,10 +11891,10 @@
       <c r="CI55" s="16"/>
       <c r="CJ55" s="16"/>
       <c r="CK55" s="16"/>
-      <c r="CL55" s="16"/>
-      <c r="CM55" s="16"/>
-      <c r="CN55" s="16"/>
-      <c r="CO55" s="16"/>
+      <c r="CL55" s="17"/>
+      <c r="CM55" s="17"/>
+      <c r="CN55" s="17"/>
+      <c r="CO55" s="17"/>
       <c r="CP55" s="17"/>
       <c r="CQ55" s="17"/>
       <c r="CR55" s="17"/>
@@ -11836,6 +11903,7 @@
       <c r="CU55" s="17"/>
       <c r="CV55" s="17"/>
       <c r="CW55" s="17"/>
+      <c r="CX55" s="17"/>
     </row>
     <row r="56" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A56" s="18" t="s">
@@ -11931,10 +11999,10 @@
       <c r="CI57" s="11"/>
       <c r="CJ57" s="11"/>
       <c r="CK57" s="11"/>
-      <c r="CL57" s="11"/>
-      <c r="CM57" s="11"/>
-      <c r="CN57" s="11"/>
-      <c r="CO57" s="11"/>
+      <c r="CL57" s="13"/>
+      <c r="CM57" s="13"/>
+      <c r="CN57" s="13"/>
+      <c r="CO57" s="13"/>
       <c r="CP57" s="13"/>
       <c r="CQ57" s="13"/>
       <c r="CR57" s="13"/>
@@ -11943,7 +12011,7 @@
       <c r="CU57" s="13"/>
       <c r="CV57" s="13"/>
       <c r="CW57" s="13"/>
-      <c r="CX57" s="11"/>
+      <c r="CX57" s="13"/>
       <c r="CY57" s="11"/>
       <c r="CZ57" s="11"/>
       <c r="DA57" s="11"/>
@@ -12085,10 +12153,10 @@
       <c r="CI58" s="32"/>
       <c r="CJ58" s="32"/>
       <c r="CK58" s="32"/>
-      <c r="CL58" s="32"/>
-      <c r="CM58" s="32"/>
-      <c r="CN58" s="32"/>
-      <c r="CO58" s="32"/>
+      <c r="CL58" s="38"/>
+      <c r="CM58" s="38"/>
+      <c r="CN58" s="38"/>
+      <c r="CO58" s="38"/>
       <c r="CP58" s="38"/>
       <c r="CQ58" s="38"/>
       <c r="CR58" s="38"/>
@@ -12097,7 +12165,7 @@
       <c r="CU58" s="38"/>
       <c r="CV58" s="38"/>
       <c r="CW58" s="38"/>
-      <c r="CX58" s="11"/>
+      <c r="CX58" s="38"/>
       <c r="CY58" s="11"/>
       <c r="CZ58" s="11"/>
       <c r="DA58" s="11"/>
@@ -12162,16 +12230,18 @@
     </row>
     <row r="61" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CT61" s="39"/>
       <c r="CU61" s="39"/>
       <c r="CV61" s="39"/>
+      <c r="CX61" s="39"/>
     </row>
     <row r="62" spans="1:153" x14ac:dyDescent="0.2">
       <c r="CT62" s="39"/>
       <c r="CU62" s="39"/>
       <c r="CV62" s="39"/>
+      <c r="CX62" s="39"/>
     </row>
     <row r="63" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
@@ -12180,179 +12250,184 @@
       <c r="CT63" s="39"/>
       <c r="CU63" s="39"/>
       <c r="CV63" s="39"/>
+      <c r="CX63" s="39"/>
     </row>
     <row r="64" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CT64" s="39"/>
       <c r="CU64" s="39"/>
       <c r="CV64" s="39"/>
+      <c r="CX64" s="39"/>
     </row>
     <row r="65" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="CT65" s="39"/>
       <c r="CU65" s="39"/>
       <c r="CV65" s="39"/>
+      <c r="CX65" s="39"/>
     </row>
     <row r="66" spans="1:149" x14ac:dyDescent="0.2">
-      <c r="CT66" s="39"/>
       <c r="CU66" s="39"/>
       <c r="CV66" s="39"/>
       <c r="CW66" s="39"/>
+      <c r="CX66" s="39"/>
     </row>
     <row r="67" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
-      <c r="B67" s="43" t="s">
+      <c r="B67" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="C67" s="43"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="43" t="s">
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="G67" s="43"/>
-      <c r="H67" s="43"/>
-      <c r="I67" s="43"/>
-      <c r="J67" s="43" t="s">
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="K67" s="43"/>
-      <c r="L67" s="43"/>
-      <c r="M67" s="43"/>
-      <c r="N67" s="43" t="s">
+      <c r="K67" s="42"/>
+      <c r="L67" s="42"/>
+      <c r="M67" s="42"/>
+      <c r="N67" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="O67" s="43"/>
-      <c r="P67" s="43"/>
-      <c r="Q67" s="43"/>
-      <c r="R67" s="43" t="s">
+      <c r="O67" s="42"/>
+      <c r="P67" s="42"/>
+      <c r="Q67" s="42"/>
+      <c r="R67" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="S67" s="43"/>
-      <c r="T67" s="43"/>
-      <c r="U67" s="43"/>
-      <c r="V67" s="43" t="s">
+      <c r="S67" s="42"/>
+      <c r="T67" s="42"/>
+      <c r="U67" s="42"/>
+      <c r="V67" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="W67" s="43"/>
-      <c r="X67" s="43"/>
-      <c r="Y67" s="43"/>
-      <c r="Z67" s="43" t="s">
+      <c r="W67" s="42"/>
+      <c r="X67" s="42"/>
+      <c r="Y67" s="42"/>
+      <c r="Z67" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="AA67" s="43"/>
-      <c r="AB67" s="43"/>
-      <c r="AC67" s="43"/>
-      <c r="AD67" s="43" t="s">
+      <c r="AA67" s="42"/>
+      <c r="AB67" s="42"/>
+      <c r="AC67" s="42"/>
+      <c r="AD67" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="AE67" s="43"/>
-      <c r="AF67" s="43"/>
-      <c r="AG67" s="43"/>
-      <c r="AH67" s="43" t="s">
+      <c r="AE67" s="42"/>
+      <c r="AF67" s="42"/>
+      <c r="AG67" s="42"/>
+      <c r="AH67" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="AI67" s="43"/>
-      <c r="AJ67" s="43"/>
-      <c r="AK67" s="43"/>
-      <c r="AL67" s="43" t="s">
+      <c r="AI67" s="42"/>
+      <c r="AJ67" s="42"/>
+      <c r="AK67" s="42"/>
+      <c r="AL67" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="AM67" s="43"/>
-      <c r="AN67" s="43"/>
-      <c r="AO67" s="43"/>
-      <c r="AP67" s="43" t="s">
+      <c r="AM67" s="42"/>
+      <c r="AN67" s="42"/>
+      <c r="AO67" s="42"/>
+      <c r="AP67" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="AQ67" s="43"/>
-      <c r="AR67" s="43"/>
-      <c r="AS67" s="43"/>
-      <c r="AT67" s="43" t="s">
+      <c r="AQ67" s="42"/>
+      <c r="AR67" s="42"/>
+      <c r="AS67" s="42"/>
+      <c r="AT67" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="AU67" s="43"/>
-      <c r="AV67" s="43"/>
-      <c r="AW67" s="43"/>
-      <c r="AX67" s="43" t="s">
+      <c r="AU67" s="42"/>
+      <c r="AV67" s="42"/>
+      <c r="AW67" s="42"/>
+      <c r="AX67" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="AY67" s="43"/>
-      <c r="AZ67" s="43"/>
-      <c r="BA67" s="43"/>
-      <c r="BB67" s="43" t="s">
+      <c r="AY67" s="42"/>
+      <c r="AZ67" s="42"/>
+      <c r="BA67" s="42"/>
+      <c r="BB67" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="BC67" s="43"/>
-      <c r="BD67" s="43"/>
-      <c r="BE67" s="43"/>
-      <c r="BF67" s="43" t="s">
+      <c r="BC67" s="42"/>
+      <c r="BD67" s="42"/>
+      <c r="BE67" s="42"/>
+      <c r="BF67" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="BG67" s="43"/>
-      <c r="BH67" s="43"/>
-      <c r="BI67" s="43"/>
-      <c r="BJ67" s="43" t="s">
+      <c r="BG67" s="42"/>
+      <c r="BH67" s="42"/>
+      <c r="BI67" s="42"/>
+      <c r="BJ67" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="BK67" s="43"/>
-      <c r="BL67" s="43"/>
-      <c r="BM67" s="43"/>
-      <c r="BN67" s="43" t="s">
+      <c r="BK67" s="42"/>
+      <c r="BL67" s="42"/>
+      <c r="BM67" s="42"/>
+      <c r="BN67" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="BO67" s="43"/>
-      <c r="BP67" s="43"/>
-      <c r="BQ67" s="43"/>
-      <c r="BR67" s="42" t="s">
+      <c r="BO67" s="42"/>
+      <c r="BP67" s="42"/>
+      <c r="BQ67" s="42"/>
+      <c r="BR67" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="BS67" s="42"/>
-      <c r="BT67" s="42"/>
-      <c r="BU67" s="42"/>
-      <c r="BV67" s="42" t="s">
+      <c r="BS67" s="43"/>
+      <c r="BT67" s="43"/>
+      <c r="BU67" s="43"/>
+      <c r="BV67" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="BW67" s="42"/>
-      <c r="BX67" s="42"/>
-      <c r="BY67" s="42"/>
-      <c r="BZ67" s="42" t="s">
+      <c r="BW67" s="43"/>
+      <c r="BX67" s="43"/>
+      <c r="BY67" s="43"/>
+      <c r="BZ67" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="CA67" s="42"/>
-      <c r="CB67" s="42"/>
-      <c r="CC67" s="42"/>
-      <c r="CD67" s="42" t="s">
+      <c r="CA67" s="43"/>
+      <c r="CB67" s="43"/>
+      <c r="CC67" s="43"/>
+      <c r="CD67" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="CE67" s="42"/>
-      <c r="CF67" s="42"/>
-      <c r="CG67" s="42"/>
+      <c r="CE67" s="43"/>
+      <c r="CF67" s="43"/>
+      <c r="CG67" s="43"/>
       <c r="CH67" s="33" t="s">
         <v>57</v>
       </c>
       <c r="CI67" s="33"/>
       <c r="CJ67" s="33"/>
       <c r="CK67" s="33"/>
-      <c r="CL67" s="33" t="s">
+      <c r="CL67" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="CM67" s="33"/>
-      <c r="CN67" s="33"/>
-      <c r="CO67" s="33"/>
+      <c r="CM67" s="35"/>
+      <c r="CN67" s="35"/>
+      <c r="CO67" s="35"/>
       <c r="CP67" s="35" t="s">
         <v>59</v>
       </c>
       <c r="CQ67" s="35"/>
       <c r="CR67" s="35"/>
       <c r="CS67" s="35"/>
-      <c r="CT67" s="34"/>
+      <c r="CT67" s="35" t="s">
+        <v>60</v>
+      </c>
       <c r="CU67" s="34"/>
       <c r="CV67" s="34"/>
       <c r="CW67" s="34"/>
+      <c r="CX67" s="34"/>
     </row>
     <row r="68" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
@@ -12622,16 +12697,16 @@
       <c r="CK68" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CL68" s="7" t="s">
+      <c r="CL68" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="CM68" s="7" t="s">
+      <c r="CM68" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="CN68" s="7" t="s">
+      <c r="CN68" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="CO68" s="7" t="s">
+      <c r="CO68" s="6" t="s">
         <v>22</v>
       </c>
       <c r="CP68" s="6" t="s">
@@ -12646,17 +12721,20 @@
       <c r="CS68" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="CT68" s="6"/>
+      <c r="CT68" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="CU68" s="6"/>
       <c r="CV68" s="6"/>
       <c r="CW68" s="6"/>
+      <c r="CX68" s="6"/>
     </row>
     <row r="69" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8"/>
-      <c r="CT69" s="39"/>
       <c r="CU69" s="39"/>
       <c r="CV69" s="39"/>
       <c r="CW69" s="39"/>
+      <c r="CX69" s="39"/>
     </row>
     <row r="70" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
@@ -12926,35 +13004,37 @@
       <c r="CK70" s="26">
         <v>14.18403227514564</v>
       </c>
-      <c r="CL70" s="26">
-        <v>11.069975242874136</v>
-      </c>
-      <c r="CM70" s="26">
-        <v>7.6936537350291445</v>
-      </c>
-      <c r="CN70" s="26">
-        <v>7.8905965520292796</v>
-      </c>
-      <c r="CO70" s="26">
-        <v>6.6407850669879025</v>
+      <c r="CL70" s="25">
+        <v>11.069975206973965</v>
+      </c>
+      <c r="CM70" s="25">
+        <v>7.6936537361668229</v>
+      </c>
+      <c r="CN70" s="25">
+        <v>7.8902556803451347</v>
+      </c>
+      <c r="CO70" s="25">
+        <v>6.8814672046695762</v>
       </c>
       <c r="CP70" s="25">
-        <v>4.96991437125169</v>
+        <v>5.0207955133494835</v>
       </c>
       <c r="CQ70" s="25">
-        <v>6.5917171229109783</v>
+        <v>6.6207819682570204</v>
       </c>
       <c r="CR70" s="25">
-        <v>7.2748868731434158</v>
+        <v>7.1943513367446457</v>
       </c>
       <c r="CS70" s="25">
-        <v>4.5638476315222647</v>
-      </c>
-      <c r="CT70" s="40"/>
+        <v>4.7717007129400457</v>
+      </c>
+      <c r="CT70" s="25">
+        <v>7.511269368093366</v>
+      </c>
       <c r="CU70" s="40"/>
       <c r="CV70" s="40"/>
       <c r="CW70" s="40"/>
-      <c r="CX70" s="11"/>
+      <c r="CX70" s="40"/>
       <c r="CY70" s="11"/>
       <c r="CZ70" s="11"/>
       <c r="DA70" s="11"/>
@@ -13271,35 +13351,37 @@
       <c r="CK71" s="26">
         <v>14.499548493650053</v>
       </c>
-      <c r="CL71" s="26">
+      <c r="CL71" s="25">
         <v>10.80363277018219</v>
       </c>
-      <c r="CM71" s="26">
-        <v>2.9962427026067218</v>
-      </c>
-      <c r="CN71" s="26">
-        <v>11.060851856983732</v>
-      </c>
-      <c r="CO71" s="26">
-        <v>7.1850850768662156</v>
+      <c r="CM71" s="25">
+        <v>2.9962427032049277</v>
+      </c>
+      <c r="CN71" s="25">
+        <v>11.06085185698511</v>
+      </c>
+      <c r="CO71" s="25">
+        <v>7.1815622528912115</v>
       </c>
       <c r="CP71" s="25">
-        <v>5.8286037095096788</v>
+        <v>6.1650038638633333</v>
       </c>
       <c r="CQ71" s="25">
-        <v>8.9779820823999756</v>
+        <v>9.2879833847110689</v>
       </c>
       <c r="CR71" s="25">
-        <v>5.1177556451192743</v>
+        <v>6.8020390520198077</v>
       </c>
       <c r="CS71" s="25">
-        <v>7.9077541838225613</v>
-      </c>
-      <c r="CT71" s="40"/>
+        <v>6.7352233138463475</v>
+      </c>
+      <c r="CT71" s="25">
+        <v>10.988612572857974</v>
+      </c>
       <c r="CU71" s="40"/>
       <c r="CV71" s="40"/>
       <c r="CW71" s="40"/>
-      <c r="CX71" s="11"/>
+      <c r="CX71" s="40"/>
       <c r="CY71" s="11"/>
       <c r="CZ71" s="11"/>
       <c r="DA71" s="11"/>
@@ -13616,35 +13698,37 @@
       <c r="CK72" s="26">
         <v>14.118441036464674</v>
       </c>
-      <c r="CL72" s="26">
+      <c r="CL72" s="25">
         <v>1.6275033355802151</v>
       </c>
-      <c r="CM72" s="26">
-        <v>-23.209591616999262</v>
-      </c>
-      <c r="CN72" s="26">
-        <v>-6.4479872151282365</v>
-      </c>
-      <c r="CO72" s="26">
-        <v>2.38899405669099</v>
+      <c r="CM72" s="25">
+        <v>-23.209591616795194</v>
+      </c>
+      <c r="CN72" s="25">
+        <v>-5.2936440039041486</v>
+      </c>
+      <c r="CO72" s="25">
+        <v>2.3244818519889492</v>
       </c>
       <c r="CP72" s="25">
-        <v>5.1724593976887263</v>
+        <v>4.181017140906647</v>
       </c>
       <c r="CQ72" s="25">
-        <v>-2.3170708050168116</v>
+        <v>-1.3528503723858591</v>
       </c>
       <c r="CR72" s="25">
-        <v>9.7846642605187384</v>
+        <v>8.3476647277245632</v>
       </c>
       <c r="CS72" s="25">
-        <v>3.9289227415129062</v>
-      </c>
-      <c r="CT72" s="40"/>
+        <v>5.6974487057801042</v>
+      </c>
+      <c r="CT72" s="25">
+        <v>6.4514218706507904</v>
+      </c>
       <c r="CU72" s="40"/>
       <c r="CV72" s="40"/>
       <c r="CW72" s="40"/>
-      <c r="CX72" s="11"/>
+      <c r="CX72" s="40"/>
       <c r="CY72" s="11"/>
       <c r="CZ72" s="11"/>
       <c r="DA72" s="11"/>
@@ -13961,35 +14045,37 @@
       <c r="CK73" s="26">
         <v>11.770211777818631</v>
       </c>
-      <c r="CL73" s="26">
+      <c r="CL73" s="25">
         <v>12.199738428366544</v>
       </c>
-      <c r="CM73" s="26">
+      <c r="CM73" s="25">
         <v>12.525897325412316</v>
       </c>
-      <c r="CN73" s="26">
+      <c r="CN73" s="25">
         <v>7.637604562396632</v>
       </c>
-      <c r="CO73" s="26">
-        <v>6.7244694414080044</v>
+      <c r="CO73" s="25">
+        <v>6.6898894890856013</v>
       </c>
       <c r="CP73" s="25">
-        <v>8.2026303168228054</v>
+        <v>8.2107623290999925</v>
       </c>
       <c r="CQ73" s="25">
-        <v>6.4974324132069938</v>
+        <v>6.5552569184646785</v>
       </c>
       <c r="CR73" s="25">
-        <v>6.9395998551253939</v>
+        <v>6.9571739447209779</v>
       </c>
       <c r="CS73" s="25">
-        <v>6.2430923015481596</v>
-      </c>
-      <c r="CT73" s="40"/>
+        <v>6.146743608712967</v>
+      </c>
+      <c r="CT73" s="25">
+        <v>4.2068212362639485</v>
+      </c>
       <c r="CU73" s="40"/>
       <c r="CV73" s="40"/>
       <c r="CW73" s="40"/>
-      <c r="CX73" s="11"/>
+      <c r="CX73" s="40"/>
       <c r="CY73" s="11"/>
       <c r="CZ73" s="11"/>
       <c r="DA73" s="11"/>
@@ -14306,35 +14392,37 @@
       <c r="CK74" s="26">
         <v>13.439258026624842</v>
       </c>
-      <c r="CL74" s="26">
-        <v>3.2089588717922055</v>
-      </c>
-      <c r="CM74" s="26">
-        <v>3.5055648187575201</v>
-      </c>
-      <c r="CN74" s="26">
-        <v>3.3389886909700408</v>
-      </c>
-      <c r="CO74" s="26">
-        <v>5.4595953741702203</v>
+      <c r="CL74" s="25">
+        <v>3.2089588794589758</v>
+      </c>
+      <c r="CM74" s="25">
+        <v>3.5093201291048359</v>
+      </c>
+      <c r="CN74" s="25">
+        <v>3.3837491515296989</v>
+      </c>
+      <c r="CO74" s="25">
+        <v>5.4593178118927028</v>
       </c>
       <c r="CP74" s="25">
-        <v>6.2916945976033958</v>
+        <v>6.5143115548516732</v>
       </c>
       <c r="CQ74" s="25">
-        <v>5.4560244025401659</v>
+        <v>5.3124233634322024</v>
       </c>
       <c r="CR74" s="25">
-        <v>5.5419546449178227</v>
+        <v>5.5365629710199471</v>
       </c>
       <c r="CS74" s="25">
-        <v>7.546890403306918</v>
-      </c>
-      <c r="CT74" s="40"/>
+        <v>7.1903482061526489</v>
+      </c>
+      <c r="CT74" s="25">
+        <v>2.6699349130941243</v>
+      </c>
       <c r="CU74" s="40"/>
       <c r="CV74" s="40"/>
       <c r="CW74" s="40"/>
-      <c r="CX74" s="11"/>
+      <c r="CX74" s="40"/>
       <c r="CY74" s="11"/>
       <c r="CZ74" s="11"/>
       <c r="DA74" s="11"/>
@@ -14651,35 +14739,37 @@
       <c r="CK75" s="26">
         <v>8.444276780256061</v>
       </c>
-      <c r="CL75" s="26">
-        <v>11.781877142666659</v>
-      </c>
-      <c r="CM75" s="26">
-        <v>13.739057816541973</v>
-      </c>
-      <c r="CN75" s="26">
-        <v>9.8364189002650591</v>
-      </c>
-      <c r="CO75" s="26">
-        <v>10.867217915201081</v>
+      <c r="CL75" s="25">
+        <v>11.699240746681227</v>
+      </c>
+      <c r="CM75" s="25">
+        <v>13.745790713267809</v>
+      </c>
+      <c r="CN75" s="25">
+        <v>9.8693946248575202</v>
+      </c>
+      <c r="CO75" s="25">
+        <v>10.754431233513429</v>
       </c>
       <c r="CP75" s="25">
-        <v>10.538263525091821</v>
+        <v>10.81662078112862</v>
       </c>
       <c r="CQ75" s="25">
-        <v>12.620377015259749</v>
+        <v>12.665999060581058</v>
       </c>
       <c r="CR75" s="25">
-        <v>14.068122713683451</v>
+        <v>14.048458366043178</v>
       </c>
       <c r="CS75" s="25">
-        <v>14.285003716729051</v>
-      </c>
-      <c r="CT75" s="40"/>
+        <v>14.271742994448289</v>
+      </c>
+      <c r="CT75" s="25">
+        <v>12.351783713119445</v>
+      </c>
       <c r="CU75" s="40"/>
       <c r="CV75" s="40"/>
       <c r="CW75" s="40"/>
-      <c r="CX75" s="11"/>
+      <c r="CX75" s="40"/>
       <c r="CY75" s="11"/>
       <c r="CZ75" s="11"/>
       <c r="DA75" s="11"/>
@@ -14996,35 +15086,37 @@
       <c r="CK76" s="26">
         <v>21.137742720003374</v>
       </c>
-      <c r="CL76" s="26">
-        <v>24.028248647302846</v>
-      </c>
-      <c r="CM76" s="26">
-        <v>29.305426009786373</v>
-      </c>
-      <c r="CN76" s="26">
-        <v>13.147966259221519</v>
-      </c>
-      <c r="CO76" s="26">
-        <v>12.212438971495814</v>
+      <c r="CL76" s="25">
+        <v>24.028248647093164</v>
+      </c>
+      <c r="CM76" s="25">
+        <v>29.305426009315283</v>
+      </c>
+      <c r="CN76" s="25">
+        <v>13.14796625971799</v>
+      </c>
+      <c r="CO76" s="25">
+        <v>12.311866101073349</v>
       </c>
       <c r="CP76" s="25">
-        <v>8.6668977870239701</v>
+        <v>8.6326585062675036</v>
       </c>
       <c r="CQ76" s="25">
-        <v>15.256741101970945</v>
+        <v>15.322399585805584</v>
       </c>
       <c r="CR76" s="25">
-        <v>6.8304601381966989</v>
+        <v>6.7902677120955275</v>
       </c>
       <c r="CS76" s="25">
-        <v>9.9718317385922006</v>
-      </c>
-      <c r="CT76" s="40"/>
+        <v>9.7737540474051912</v>
+      </c>
+      <c r="CT76" s="25">
+        <v>8.4393707905875033</v>
+      </c>
       <c r="CU76" s="40"/>
       <c r="CV76" s="40"/>
       <c r="CW76" s="40"/>
-      <c r="CX76" s="11"/>
+      <c r="CX76" s="40"/>
       <c r="CY76" s="11"/>
       <c r="CZ76" s="11"/>
       <c r="DA76" s="11"/>
@@ -15341,35 +15433,37 @@
       <c r="CK77" s="26">
         <v>7.0136086260793888</v>
       </c>
-      <c r="CL77" s="26">
-        <v>5.3584626587337709</v>
-      </c>
-      <c r="CM77" s="26">
-        <v>5.6234247623269766</v>
-      </c>
-      <c r="CN77" s="26">
-        <v>5.5978660297481895</v>
-      </c>
-      <c r="CO77" s="26">
-        <v>5.4264941294991615</v>
+      <c r="CL77" s="25">
+        <v>5.262876375771782</v>
+      </c>
+      <c r="CM77" s="25">
+        <v>5.5252432642408849</v>
+      </c>
+      <c r="CN77" s="25">
+        <v>5.3620390265455313</v>
+      </c>
+      <c r="CO77" s="25">
+        <v>5.1199076712435101</v>
       </c>
       <c r="CP77" s="25">
-        <v>5.1847310819639318</v>
+        <v>5.2898962431098511</v>
       </c>
       <c r="CQ77" s="25">
-        <v>7.1301207138647555</v>
+        <v>7.6768239142634371</v>
       </c>
       <c r="CR77" s="25">
-        <v>4.6544836216922789</v>
+        <v>4.7750074817832342</v>
       </c>
       <c r="CS77" s="25">
-        <v>3.8942199027498106</v>
-      </c>
-      <c r="CT77" s="40"/>
+        <v>4.0205603380900641</v>
+      </c>
+      <c r="CT77" s="25">
+        <v>6.677223061604451</v>
+      </c>
       <c r="CU77" s="40"/>
       <c r="CV77" s="40"/>
       <c r="CW77" s="40"/>
-      <c r="CX77" s="11"/>
+      <c r="CX77" s="40"/>
       <c r="CY77" s="11"/>
       <c r="CZ77" s="11"/>
       <c r="DA77" s="11"/>
@@ -15686,35 +15780,37 @@
       <c r="CK78" s="26">
         <v>19.744034015070014</v>
       </c>
-      <c r="CL78" s="26">
-        <v>33.54341531708053</v>
-      </c>
-      <c r="CM78" s="26">
-        <v>26.458653470646638</v>
-      </c>
-      <c r="CN78" s="26">
-        <v>18.651328109222916</v>
-      </c>
-      <c r="CO78" s="26">
-        <v>13.011160071898715</v>
+      <c r="CL78" s="25">
+        <v>33.543415317213544</v>
+      </c>
+      <c r="CM78" s="25">
+        <v>26.564700732348072</v>
+      </c>
+      <c r="CN78" s="25">
+        <v>18.799636551936302</v>
+      </c>
+      <c r="CO78" s="25">
+        <v>12.478086705267444</v>
       </c>
       <c r="CP78" s="25">
-        <v>13.622884929850755</v>
+        <v>13.893875054760116</v>
       </c>
       <c r="CQ78" s="25">
-        <v>20.745463095478726</v>
+        <v>20.887402473927466</v>
       </c>
       <c r="CR78" s="25">
-        <v>6.8032577227592412</v>
+        <v>6.4090201084139977</v>
       </c>
       <c r="CS78" s="25">
-        <v>13.092941127878021</v>
-      </c>
-      <c r="CT78" s="40"/>
+        <v>11.841800107850958</v>
+      </c>
+      <c r="CT78" s="25">
+        <v>12.316577147252559</v>
+      </c>
       <c r="CU78" s="40"/>
       <c r="CV78" s="40"/>
       <c r="CW78" s="40"/>
-      <c r="CX78" s="11"/>
+      <c r="CX78" s="40"/>
       <c r="CY78" s="11"/>
       <c r="CZ78" s="11"/>
       <c r="DA78" s="11"/>
@@ -16031,35 +16127,37 @@
       <c r="CK79" s="26">
         <v>13.768476859694289</v>
       </c>
-      <c r="CL79" s="26">
-        <v>10.793065706910184</v>
-      </c>
-      <c r="CM79" s="26">
-        <v>11.066205431235133</v>
-      </c>
-      <c r="CN79" s="26">
-        <v>10.297472443379903</v>
-      </c>
-      <c r="CO79" s="26">
-        <v>12.150771316453685</v>
+      <c r="CL79" s="25">
+        <v>10.083568127200124</v>
+      </c>
+      <c r="CM79" s="25">
+        <v>10.09345811165889</v>
+      </c>
+      <c r="CN79" s="25">
+        <v>9.2621665569760268</v>
+      </c>
+      <c r="CO79" s="25">
+        <v>11.602967362586554</v>
       </c>
       <c r="CP79" s="25">
-        <v>7.7588479064327913</v>
+        <v>9.1121196783565068</v>
       </c>
       <c r="CQ79" s="25">
-        <v>3.922273479420582</v>
+        <v>4.798762428933955</v>
       </c>
       <c r="CR79" s="25">
-        <v>8.074980415254629</v>
+        <v>9.1057043873528016</v>
       </c>
       <c r="CS79" s="25">
-        <v>9.7179438858395599</v>
-      </c>
-      <c r="CT79" s="40"/>
+        <v>10.657442008195119</v>
+      </c>
+      <c r="CT79" s="25">
+        <v>11.79317307091226</v>
+      </c>
       <c r="CU79" s="40"/>
       <c r="CV79" s="40"/>
       <c r="CW79" s="40"/>
-      <c r="CX79" s="11"/>
+      <c r="CX79" s="40"/>
       <c r="CY79" s="11"/>
       <c r="CZ79" s="11"/>
       <c r="DA79" s="11"/>
@@ -16376,35 +16474,37 @@
       <c r="CK80" s="26">
         <v>33.01205473732756</v>
       </c>
-      <c r="CL80" s="26">
+      <c r="CL80" s="25">
         <v>34.042419463965359</v>
       </c>
-      <c r="CM80" s="26">
+      <c r="CM80" s="25">
         <v>33.215942380573807</v>
       </c>
-      <c r="CN80" s="26">
-        <v>21.835945818314315</v>
-      </c>
-      <c r="CO80" s="26">
-        <v>22.413320366373625</v>
+      <c r="CN80" s="25">
+        <v>21.857633190685718</v>
+      </c>
+      <c r="CO80" s="25">
+        <v>22.09662478326311</v>
       </c>
       <c r="CP80" s="25">
-        <v>17.992139050251879</v>
+        <v>17.973086236168882</v>
       </c>
       <c r="CQ80" s="25">
-        <v>16.943177019293415</v>
+        <v>16.990578005336303</v>
       </c>
       <c r="CR80" s="25">
-        <v>14.990869573485256</v>
+        <v>14.965921148128842</v>
       </c>
       <c r="CS80" s="25">
-        <v>9.3228859280825986</v>
-      </c>
-      <c r="CT80" s="40"/>
+        <v>9.6724702139006098</v>
+      </c>
+      <c r="CT80" s="25">
+        <v>8.1082364877808004</v>
+      </c>
       <c r="CU80" s="40"/>
       <c r="CV80" s="40"/>
       <c r="CW80" s="40"/>
-      <c r="CX80" s="11"/>
+      <c r="CX80" s="40"/>
       <c r="CY80" s="11"/>
       <c r="CZ80" s="11"/>
       <c r="DA80" s="11"/>
@@ -16721,35 +16821,37 @@
       <c r="CK81" s="26">
         <v>11.487901507885496</v>
       </c>
-      <c r="CL81" s="26">
+      <c r="CL81" s="25">
         <v>14.520703859529576</v>
       </c>
-      <c r="CM81" s="26">
-        <v>11.365472287798582</v>
-      </c>
-      <c r="CN81" s="26">
-        <v>10.473875232299434</v>
-      </c>
-      <c r="CO81" s="26">
-        <v>13.104278911044958</v>
+      <c r="CM81" s="25">
+        <v>11.355079877849406</v>
+      </c>
+      <c r="CN81" s="25">
+        <v>10.46251011834876</v>
+      </c>
+      <c r="CO81" s="25">
+        <v>13.095768102237358</v>
       </c>
       <c r="CP81" s="25">
-        <v>9.4112267678161174</v>
+        <v>9.4159829858224668</v>
       </c>
       <c r="CQ81" s="25">
-        <v>11.300525353314043</v>
+        <v>11.300564491975081</v>
       </c>
       <c r="CR81" s="25">
-        <v>10.358109115617424</v>
+        <v>10.342464574328304</v>
       </c>
       <c r="CS81" s="25">
-        <v>10.747848421775657</v>
-      </c>
-      <c r="CT81" s="40"/>
+        <v>10.63374262686736</v>
+      </c>
+      <c r="CT81" s="25">
+        <v>7.457419687550896</v>
+      </c>
       <c r="CU81" s="40"/>
       <c r="CV81" s="40"/>
       <c r="CW81" s="40"/>
-      <c r="CX81" s="11"/>
+      <c r="CX81" s="40"/>
       <c r="CY81" s="11"/>
       <c r="CZ81" s="11"/>
       <c r="DA81" s="11"/>
@@ -16887,19 +16989,19 @@
       <c r="CI82" s="11"/>
       <c r="CJ82" s="11"/>
       <c r="CK82" s="11"/>
-      <c r="CL82" s="11"/>
-      <c r="CM82" s="11"/>
-      <c r="CN82" s="11"/>
-      <c r="CO82" s="11"/>
+      <c r="CL82" s="13"/>
+      <c r="CM82" s="13"/>
+      <c r="CN82" s="13"/>
+      <c r="CO82" s="13"/>
       <c r="CP82" s="13"/>
       <c r="CQ82" s="13"/>
       <c r="CR82" s="13"/>
       <c r="CS82" s="13"/>
-      <c r="CT82" s="41"/>
+      <c r="CT82" s="13"/>
       <c r="CU82" s="41"/>
       <c r="CV82" s="41"/>
       <c r="CW82" s="41"/>
-      <c r="CX82" s="11"/>
+      <c r="CX82" s="41"/>
       <c r="CY82" s="11"/>
       <c r="CZ82" s="11"/>
       <c r="DA82" s="11"/>
@@ -17216,35 +17318,37 @@
       <c r="CK83" s="26">
         <v>14.88684504738498</v>
       </c>
-      <c r="CL83" s="26">
-        <v>14.658767797529237</v>
-      </c>
-      <c r="CM83" s="26">
-        <v>11.552445459000026</v>
-      </c>
-      <c r="CN83" s="26">
-        <v>9.7628068133321904</v>
-      </c>
-      <c r="CO83" s="26">
-        <v>9.6063032098021353</v>
+      <c r="CL83" s="25">
+        <v>14.61439040093498</v>
+      </c>
+      <c r="CM83" s="25">
+        <v>11.502483452083709</v>
+      </c>
+      <c r="CN83" s="25">
+        <v>9.7267385935379167</v>
+      </c>
+      <c r="CO83" s="25">
+        <v>9.6323382491798384</v>
       </c>
       <c r="CP83" s="25">
-        <v>8.1890406744913378</v>
+        <v>8.2898809321827684</v>
       </c>
       <c r="CQ83" s="25">
-        <v>8.7521517728650622</v>
+        <v>8.8579835677905976</v>
       </c>
       <c r="CR83" s="25">
-        <v>8.4802214371191127</v>
+        <v>8.5064848256970862</v>
       </c>
       <c r="CS83" s="25">
-        <v>7.3931994871179256</v>
-      </c>
-      <c r="CT83" s="40"/>
+        <v>7.4750674956280534</v>
+      </c>
+      <c r="CT83" s="25">
+        <v>7.7109155831550709</v>
+      </c>
       <c r="CU83" s="40"/>
       <c r="CV83" s="40"/>
       <c r="CW83" s="40"/>
-      <c r="CX83" s="11"/>
+      <c r="CX83" s="40"/>
       <c r="CY83" s="11"/>
       <c r="CZ83" s="11"/>
       <c r="DA83" s="11"/>
@@ -17383,27 +17487,28 @@
       <c r="CI84" s="16"/>
       <c r="CJ84" s="16"/>
       <c r="CK84" s="16"/>
-      <c r="CL84" s="16"/>
-      <c r="CM84" s="16"/>
-      <c r="CN84" s="16"/>
-      <c r="CO84" s="16"/>
+      <c r="CL84" s="17"/>
+      <c r="CM84" s="17"/>
+      <c r="CN84" s="17"/>
+      <c r="CO84" s="17"/>
       <c r="CP84" s="17"/>
       <c r="CQ84" s="17"/>
       <c r="CR84" s="17"/>
       <c r="CS84" s="17"/>
-      <c r="CT84" s="6"/>
+      <c r="CT84" s="17"/>
       <c r="CU84" s="6"/>
       <c r="CV84" s="6"/>
       <c r="CW84" s="6"/>
+      <c r="CX84" s="6"/>
     </row>
     <row r="85" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A85" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="CT85" s="39"/>
       <c r="CU85" s="39"/>
       <c r="CV85" s="39"/>
       <c r="CW85" s="39"/>
+      <c r="CX85" s="39"/>
     </row>
     <row r="86" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="13"/>
@@ -17494,19 +17599,19 @@
       <c r="CI86" s="11"/>
       <c r="CJ86" s="11"/>
       <c r="CK86" s="11"/>
-      <c r="CL86" s="11"/>
-      <c r="CM86" s="11"/>
-      <c r="CN86" s="11"/>
-      <c r="CO86" s="11"/>
+      <c r="CL86" s="13"/>
+      <c r="CM86" s="13"/>
+      <c r="CN86" s="13"/>
+      <c r="CO86" s="13"/>
       <c r="CP86" s="13"/>
       <c r="CQ86" s="13"/>
       <c r="CR86" s="13"/>
       <c r="CS86" s="13"/>
-      <c r="CT86" s="41"/>
+      <c r="CT86" s="13"/>
       <c r="CU86" s="41"/>
       <c r="CV86" s="41"/>
       <c r="CW86" s="41"/>
-      <c r="CX86" s="11"/>
+      <c r="CX86" s="41"/>
       <c r="CY86" s="11"/>
       <c r="CZ86" s="11"/>
       <c r="DA86" s="11"/>
@@ -17644,19 +17749,19 @@
       <c r="CI87" s="11"/>
       <c r="CJ87" s="11"/>
       <c r="CK87" s="11"/>
-      <c r="CL87" s="11"/>
-      <c r="CM87" s="11"/>
-      <c r="CN87" s="11"/>
-      <c r="CO87" s="11"/>
+      <c r="CL87" s="13"/>
+      <c r="CM87" s="13"/>
+      <c r="CN87" s="13"/>
+      <c r="CO87" s="13"/>
       <c r="CP87" s="13"/>
       <c r="CQ87" s="13"/>
       <c r="CR87" s="13"/>
       <c r="CS87" s="13"/>
-      <c r="CT87" s="41"/>
+      <c r="CT87" s="13"/>
       <c r="CU87" s="41"/>
       <c r="CV87" s="41"/>
       <c r="CW87" s="41"/>
-      <c r="CX87" s="11"/>
+      <c r="CX87" s="41"/>
       <c r="CY87" s="11"/>
       <c r="CZ87" s="11"/>
       <c r="DA87" s="11"/>
@@ -17709,218 +17814,221 @@
       <c r="A88" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="CT88" s="39"/>
       <c r="CU88" s="39"/>
       <c r="CV88" s="39"/>
       <c r="CW88" s="39"/>
+      <c r="CX88" s="39"/>
     </row>
     <row r="89" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="CT89" s="39"/>
       <c r="CU89" s="39"/>
       <c r="CV89" s="39"/>
       <c r="CW89" s="39"/>
+      <c r="CX89" s="39"/>
     </row>
     <row r="90" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="CT90" s="39"/>
+        <v>63</v>
+      </c>
       <c r="CU90" s="39"/>
       <c r="CV90" s="39"/>
       <c r="CW90" s="39"/>
+      <c r="CX90" s="39"/>
     </row>
     <row r="91" spans="1:149" x14ac:dyDescent="0.2">
-      <c r="CT91" s="39"/>
       <c r="CU91" s="39"/>
       <c r="CV91" s="39"/>
       <c r="CW91" s="39"/>
+      <c r="CX91" s="39"/>
     </row>
     <row r="92" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="CT92" s="39"/>
       <c r="CU92" s="39"/>
       <c r="CV92" s="39"/>
       <c r="CW92" s="39"/>
+      <c r="CX92" s="39"/>
     </row>
     <row r="93" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="CT93" s="39"/>
+        <v>62</v>
+      </c>
       <c r="CU93" s="39"/>
       <c r="CV93" s="39"/>
       <c r="CW93" s="39"/>
+      <c r="CX93" s="39"/>
     </row>
     <row r="94" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="CT94" s="39"/>
       <c r="CU94" s="39"/>
       <c r="CV94" s="39"/>
       <c r="CW94" s="39"/>
+      <c r="CX94" s="39"/>
     </row>
     <row r="95" spans="1:149" x14ac:dyDescent="0.2">
-      <c r="CT95" s="39"/>
       <c r="CU95" s="39"/>
       <c r="CV95" s="39"/>
       <c r="CW95" s="39"/>
+      <c r="CX95" s="39"/>
     </row>
     <row r="96" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
-      <c r="B96" s="43" t="s">
+      <c r="B96" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="C96" s="43"/>
-      <c r="D96" s="43"/>
-      <c r="E96" s="43"/>
-      <c r="F96" s="43" t="s">
+      <c r="C96" s="42"/>
+      <c r="D96" s="42"/>
+      <c r="E96" s="42"/>
+      <c r="F96" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="G96" s="43"/>
-      <c r="H96" s="43"/>
-      <c r="I96" s="43"/>
-      <c r="J96" s="43" t="s">
+      <c r="G96" s="42"/>
+      <c r="H96" s="42"/>
+      <c r="I96" s="42"/>
+      <c r="J96" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="K96" s="43"/>
-      <c r="L96" s="43"/>
-      <c r="M96" s="43"/>
-      <c r="N96" s="43" t="s">
+      <c r="K96" s="42"/>
+      <c r="L96" s="42"/>
+      <c r="M96" s="42"/>
+      <c r="N96" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="O96" s="43"/>
-      <c r="P96" s="43"/>
-      <c r="Q96" s="43"/>
-      <c r="R96" s="43" t="s">
+      <c r="O96" s="42"/>
+      <c r="P96" s="42"/>
+      <c r="Q96" s="42"/>
+      <c r="R96" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="S96" s="43"/>
-      <c r="T96" s="43"/>
-      <c r="U96" s="43"/>
-      <c r="V96" s="43" t="s">
+      <c r="S96" s="42"/>
+      <c r="T96" s="42"/>
+      <c r="U96" s="42"/>
+      <c r="V96" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="W96" s="43"/>
-      <c r="X96" s="43"/>
-      <c r="Y96" s="43"/>
-      <c r="Z96" s="43" t="s">
+      <c r="W96" s="42"/>
+      <c r="X96" s="42"/>
+      <c r="Y96" s="42"/>
+      <c r="Z96" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="AA96" s="43"/>
-      <c r="AB96" s="43"/>
-      <c r="AC96" s="43"/>
-      <c r="AD96" s="43" t="s">
+      <c r="AA96" s="42"/>
+      <c r="AB96" s="42"/>
+      <c r="AC96" s="42"/>
+      <c r="AD96" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="AE96" s="43"/>
-      <c r="AF96" s="43"/>
-      <c r="AG96" s="43"/>
-      <c r="AH96" s="43" t="s">
+      <c r="AE96" s="42"/>
+      <c r="AF96" s="42"/>
+      <c r="AG96" s="42"/>
+      <c r="AH96" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="AI96" s="43"/>
-      <c r="AJ96" s="43"/>
-      <c r="AK96" s="43"/>
-      <c r="AL96" s="43" t="s">
+      <c r="AI96" s="42"/>
+      <c r="AJ96" s="42"/>
+      <c r="AK96" s="42"/>
+      <c r="AL96" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="AM96" s="43"/>
-      <c r="AN96" s="43"/>
-      <c r="AO96" s="43"/>
-      <c r="AP96" s="43" t="s">
+      <c r="AM96" s="42"/>
+      <c r="AN96" s="42"/>
+      <c r="AO96" s="42"/>
+      <c r="AP96" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="AQ96" s="43"/>
-      <c r="AR96" s="43"/>
-      <c r="AS96" s="43"/>
-      <c r="AT96" s="43" t="s">
+      <c r="AQ96" s="42"/>
+      <c r="AR96" s="42"/>
+      <c r="AS96" s="42"/>
+      <c r="AT96" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="AU96" s="43"/>
-      <c r="AV96" s="43"/>
-      <c r="AW96" s="43"/>
-      <c r="AX96" s="43" t="s">
+      <c r="AU96" s="42"/>
+      <c r="AV96" s="42"/>
+      <c r="AW96" s="42"/>
+      <c r="AX96" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="AY96" s="43"/>
-      <c r="AZ96" s="43"/>
-      <c r="BA96" s="43"/>
-      <c r="BB96" s="43" t="s">
+      <c r="AY96" s="42"/>
+      <c r="AZ96" s="42"/>
+      <c r="BA96" s="42"/>
+      <c r="BB96" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="BC96" s="43"/>
-      <c r="BD96" s="43"/>
-      <c r="BE96" s="43"/>
-      <c r="BF96" s="43" t="s">
+      <c r="BC96" s="42"/>
+      <c r="BD96" s="42"/>
+      <c r="BE96" s="42"/>
+      <c r="BF96" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="BG96" s="43"/>
-      <c r="BH96" s="43"/>
-      <c r="BI96" s="43"/>
-      <c r="BJ96" s="43" t="s">
+      <c r="BG96" s="42"/>
+      <c r="BH96" s="42"/>
+      <c r="BI96" s="42"/>
+      <c r="BJ96" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="BK96" s="43"/>
-      <c r="BL96" s="43"/>
-      <c r="BM96" s="43"/>
-      <c r="BN96" s="43" t="s">
+      <c r="BK96" s="42"/>
+      <c r="BL96" s="42"/>
+      <c r="BM96" s="42"/>
+      <c r="BN96" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="BO96" s="43"/>
-      <c r="BP96" s="43"/>
-      <c r="BQ96" s="43"/>
-      <c r="BR96" s="42" t="s">
+      <c r="BO96" s="42"/>
+      <c r="BP96" s="42"/>
+      <c r="BQ96" s="42"/>
+      <c r="BR96" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="BS96" s="42"/>
-      <c r="BT96" s="42"/>
-      <c r="BU96" s="42"/>
-      <c r="BV96" s="42" t="s">
+      <c r="BS96" s="43"/>
+      <c r="BT96" s="43"/>
+      <c r="BU96" s="43"/>
+      <c r="BV96" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="BW96" s="42"/>
-      <c r="BX96" s="42"/>
-      <c r="BY96" s="42"/>
-      <c r="BZ96" s="42" t="s">
+      <c r="BW96" s="43"/>
+      <c r="BX96" s="43"/>
+      <c r="BY96" s="43"/>
+      <c r="BZ96" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="CA96" s="42"/>
-      <c r="CB96" s="42"/>
-      <c r="CC96" s="42"/>
-      <c r="CD96" s="42" t="s">
+      <c r="CA96" s="43"/>
+      <c r="CB96" s="43"/>
+      <c r="CC96" s="43"/>
+      <c r="CD96" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="CE96" s="42"/>
-      <c r="CF96" s="42"/>
-      <c r="CG96" s="42"/>
+      <c r="CE96" s="43"/>
+      <c r="CF96" s="43"/>
+      <c r="CG96" s="43"/>
       <c r="CH96" s="33" t="s">
         <v>57</v>
       </c>
       <c r="CI96" s="33"/>
       <c r="CJ96" s="33"/>
       <c r="CK96" s="33"/>
-      <c r="CL96" s="33" t="s">
+      <c r="CL96" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="CM96" s="33"/>
-      <c r="CN96" s="33"/>
-      <c r="CO96" s="33"/>
+      <c r="CM96" s="35"/>
+      <c r="CN96" s="35"/>
+      <c r="CO96" s="35"/>
       <c r="CP96" s="35" t="s">
         <v>59</v>
       </c>
       <c r="CQ96" s="35"/>
       <c r="CR96" s="35"/>
       <c r="CS96" s="35"/>
-      <c r="CT96" s="34"/>
+      <c r="CT96" s="35" t="s">
+        <v>60</v>
+      </c>
       <c r="CU96" s="34"/>
       <c r="CV96" s="34"/>
       <c r="CW96" s="34"/>
+      <c r="CX96" s="34"/>
     </row>
     <row r="97" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
@@ -18190,16 +18298,16 @@
       <c r="CK97" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CL97" s="7" t="s">
+      <c r="CL97" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="CM97" s="7" t="s">
+      <c r="CM97" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="CN97" s="7" t="s">
+      <c r="CN97" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="CO97" s="7" t="s">
+      <c r="CO97" s="6" t="s">
         <v>22</v>
       </c>
       <c r="CP97" s="6" t="s">
@@ -18214,17 +18322,20 @@
       <c r="CS97" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="CT97" s="6"/>
+      <c r="CT97" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="CU97" s="6"/>
       <c r="CV97" s="6"/>
       <c r="CW97" s="6"/>
+      <c r="CX97" s="6"/>
     </row>
     <row r="98" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8"/>
-      <c r="CT98" s="39"/>
       <c r="CU98" s="39"/>
       <c r="CV98" s="39"/>
       <c r="CW98" s="39"/>
+      <c r="CX98" s="39"/>
     </row>
     <row r="99" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
@@ -18494,35 +18605,37 @@
       <c r="CK99" s="26">
         <v>3.9363405760981038</v>
       </c>
-      <c r="CL99" s="26">
-        <v>0.75183549576402697</v>
-      </c>
-      <c r="CM99" s="26">
-        <v>0.31737608194495692</v>
-      </c>
-      <c r="CN99" s="26">
-        <v>0.26762959352433313</v>
-      </c>
-      <c r="CO99" s="26">
-        <v>0.57656851574672885</v>
+      <c r="CL99" s="25">
+        <v>0.75183546319890127</v>
+      </c>
+      <c r="CM99" s="25">
+        <v>0.31737608300470299</v>
+      </c>
+      <c r="CN99" s="25">
+        <v>0.26731280599274498</v>
+      </c>
+      <c r="CO99" s="25">
+        <v>0.80356406436210648</v>
       </c>
       <c r="CP99" s="25">
-        <v>0.41425805134203131</v>
+        <v>0.46293097027468377</v>
       </c>
       <c r="CQ99" s="25">
-        <v>0.55822370085940065</v>
+        <v>0.58564336628019475</v>
       </c>
       <c r="CR99" s="25">
-        <v>3.2925882052975908</v>
+        <v>3.215042339348841</v>
       </c>
       <c r="CS99" s="25">
-        <v>1.2730057263677708</v>
-      </c>
-      <c r="CT99" s="40"/>
+        <v>1.4743172387257033</v>
+      </c>
+      <c r="CT99" s="25">
+        <v>4.5143454856577847</v>
+      </c>
       <c r="CU99" s="40"/>
       <c r="CV99" s="40"/>
       <c r="CW99" s="40"/>
-      <c r="CX99" s="11"/>
+      <c r="CX99" s="40"/>
       <c r="CY99" s="11"/>
       <c r="CZ99" s="11"/>
       <c r="DA99" s="11"/>
@@ -18839,35 +18952,37 @@
       <c r="CK100" s="26">
         <v>3.5708103848581771</v>
       </c>
-      <c r="CL100" s="26">
+      <c r="CL100" s="25">
         <v>-0.53990047819844733</v>
       </c>
-      <c r="CM100" s="26">
-        <v>-8.2091325117433342</v>
-      </c>
-      <c r="CN100" s="26">
-        <v>1.3604896065504022</v>
-      </c>
-      <c r="CO100" s="26">
-        <v>0.63387444398476589</v>
+      <c r="CM100" s="25">
+        <v>-8.209132511210214</v>
+      </c>
+      <c r="CN100" s="25">
+        <v>1.360489606551667</v>
+      </c>
+      <c r="CO100" s="25">
+        <v>0.6305669369250495</v>
       </c>
       <c r="CP100" s="25">
-        <v>-1.9041752671768393</v>
+        <v>-1.5923554998845475</v>
       </c>
       <c r="CQ100" s="25">
-        <v>4.456926819694317</v>
+        <v>4.7540674230598086</v>
       </c>
       <c r="CR100" s="25">
-        <v>1.7963746128867939</v>
+        <v>3.4274401126292986</v>
       </c>
       <c r="CS100" s="25">
-        <v>4.7067592369516689</v>
-      </c>
-      <c r="CT100" s="40"/>
+        <v>3.569010532707992</v>
+      </c>
+      <c r="CT100" s="25">
+        <v>7.2238723224035084</v>
+      </c>
       <c r="CU100" s="40"/>
       <c r="CV100" s="40"/>
       <c r="CW100" s="40"/>
-      <c r="CX100" s="11"/>
+      <c r="CX100" s="40"/>
       <c r="CY100" s="11"/>
       <c r="CZ100" s="11"/>
       <c r="DA100" s="11"/>
@@ -19184,35 +19299,37 @@
       <c r="CK101" s="26">
         <v>10.225711449942509</v>
       </c>
-      <c r="CL101" s="26">
+      <c r="CL101" s="25">
         <v>-2.9484260376816422</v>
       </c>
-      <c r="CM101" s="26">
-        <v>-26.944011593691499</v>
-      </c>
-      <c r="CN101" s="26">
-        <v>-10.59282745653941</v>
-      </c>
-      <c r="CO101" s="26">
-        <v>-1.9530033990081961</v>
+      <c r="CM101" s="25">
+        <v>-26.944011593497365</v>
+      </c>
+      <c r="CN101" s="25">
+        <v>-9.4896276472780698</v>
+      </c>
+      <c r="CO101" s="25">
+        <v>-2.0147798425939385</v>
       </c>
       <c r="CP101" s="25">
-        <v>1.4408223199961157</v>
+        <v>0.48455754890738945</v>
       </c>
       <c r="CQ101" s="25">
-        <v>-5.535573400289465</v>
+        <v>-4.6031225510484717</v>
       </c>
       <c r="CR101" s="25">
-        <v>6.5538935914171645</v>
+        <v>5.1591824417349272</v>
       </c>
       <c r="CS101" s="25">
-        <v>1.3444929778932817</v>
-      </c>
-      <c r="CT101" s="40"/>
+        <v>3.0690405094083673</v>
+      </c>
+      <c r="CT101" s="25">
+        <v>4.2904224833989986</v>
+      </c>
       <c r="CU101" s="40"/>
       <c r="CV101" s="40"/>
       <c r="CW101" s="40"/>
-      <c r="CX101" s="11"/>
+      <c r="CX101" s="40"/>
       <c r="CY101" s="11"/>
       <c r="CZ101" s="11"/>
       <c r="DA101" s="11"/>
@@ -19529,35 +19646,37 @@
       <c r="CK102" s="26">
         <v>4.3554010743579283</v>
       </c>
-      <c r="CL102" s="26">
+      <c r="CL102" s="25">
         <v>3.6562910796485539</v>
       </c>
-      <c r="CM102" s="26">
+      <c r="CM102" s="25">
         <v>5.9774405510630402</v>
       </c>
-      <c r="CN102" s="26">
+      <c r="CN102" s="25">
         <v>4.3879360680605117</v>
       </c>
-      <c r="CO102" s="26">
-        <v>4.43514974692674</v>
+      <c r="CO102" s="25">
+        <v>4.4013115604458761</v>
       </c>
       <c r="CP102" s="25">
-        <v>7.4478686656172783</v>
+        <v>7.4559439534784673</v>
       </c>
       <c r="CQ102" s="25">
-        <v>5.9908693603182286</v>
+        <v>6.0484188189644499</v>
       </c>
       <c r="CR102" s="25">
-        <v>3.6909514198689095</v>
+        <v>3.7079916376457618</v>
       </c>
       <c r="CS102" s="25">
-        <v>3.7539349571072478</v>
-      </c>
-      <c r="CT102" s="40"/>
+        <v>3.6598436068550342</v>
+      </c>
+      <c r="CT102" s="25">
+        <v>2.3505747631597416</v>
+      </c>
       <c r="CU102" s="40"/>
       <c r="CV102" s="40"/>
       <c r="CW102" s="40"/>
-      <c r="CX102" s="11"/>
+      <c r="CX102" s="40"/>
       <c r="CY102" s="11"/>
       <c r="CZ102" s="11"/>
       <c r="DA102" s="11"/>
@@ -19874,35 +19993,37 @@
       <c r="CK103" s="26">
         <v>8.6974240898205721</v>
       </c>
-      <c r="CL103" s="26">
-        <v>-2.4839045355401339</v>
-      </c>
-      <c r="CM103" s="26">
-        <v>-2.4625344528723758</v>
-      </c>
-      <c r="CN103" s="26">
-        <v>-0.4009417843555525</v>
-      </c>
-      <c r="CO103" s="26">
-        <v>0.57911228743697052</v>
+      <c r="CL103" s="25">
+        <v>-2.4839045282962502</v>
+      </c>
+      <c r="CM103" s="25">
+        <v>-2.4589956725733231</v>
+      </c>
+      <c r="CN103" s="25">
+        <v>-0.35780124491819265</v>
+      </c>
+      <c r="CO103" s="25">
+        <v>0.57884757024950773</v>
       </c>
       <c r="CP103" s="25">
-        <v>2.7388506621586401</v>
+        <v>2.9540265553662692</v>
       </c>
       <c r="CQ103" s="25">
-        <v>2.4165287774326742</v>
+        <v>2.2770666647881512</v>
       </c>
       <c r="CR103" s="25">
-        <v>2.7721275137226229</v>
+        <v>2.7668773381008975</v>
       </c>
       <c r="CS103" s="25">
-        <v>4.8289934447450804</v>
-      </c>
-      <c r="CT103" s="40"/>
+        <v>4.4814616889862862</v>
+      </c>
+      <c r="CT103" s="25">
+        <v>0.31448431454809622</v>
+      </c>
       <c r="CU103" s="40"/>
       <c r="CV103" s="40"/>
       <c r="CW103" s="40"/>
-      <c r="CX103" s="11"/>
+      <c r="CX103" s="40"/>
       <c r="CY103" s="11"/>
       <c r="CZ103" s="11"/>
       <c r="DA103" s="11"/>
@@ -20219,35 +20340,37 @@
       <c r="CK104" s="26">
         <v>5.4646973380967552</v>
       </c>
-      <c r="CL104" s="26">
-        <v>7.7468855255596907</v>
-      </c>
-      <c r="CM104" s="26">
-        <v>9.3167559881505326</v>
-      </c>
-      <c r="CN104" s="26">
-        <v>5.6600132967856496</v>
-      </c>
-      <c r="CO104" s="26">
-        <v>6.8017809196891506</v>
+      <c r="CL104" s="25">
+        <v>7.667232056445684</v>
+      </c>
+      <c r="CM104" s="25">
+        <v>9.3232271023183699</v>
+      </c>
+      <c r="CN104" s="25">
+        <v>5.6917351567461054</v>
+      </c>
+      <c r="CO104" s="25">
+        <v>6.6931300606275101</v>
       </c>
       <c r="CP104" s="25">
-        <v>7.1245374309853986</v>
+        <v>7.3942982481230359</v>
       </c>
       <c r="CQ104" s="25">
-        <v>9.3773017738532047</v>
+        <v>9.4216100629114834</v>
       </c>
       <c r="CR104" s="25">
-        <v>11.137762611520131</v>
+        <v>11.118603432356267</v>
       </c>
       <c r="CS104" s="25">
-        <v>11.457840408866971</v>
-      </c>
-      <c r="CT104" s="40"/>
+        <v>11.444907728116149</v>
+      </c>
+      <c r="CT104" s="25">
+        <v>9.8010621277521324</v>
+      </c>
       <c r="CU104" s="40"/>
       <c r="CV104" s="40"/>
       <c r="CW104" s="40"/>
-      <c r="CX104" s="11"/>
+      <c r="CX104" s="40"/>
       <c r="CY104" s="11"/>
       <c r="CZ104" s="11"/>
       <c r="DA104" s="11"/>
@@ -20564,35 +20687,37 @@
       <c r="CK105" s="26">
         <v>8.0240914767219778</v>
       </c>
-      <c r="CL105" s="26">
-        <v>14.43330780757617</v>
-      </c>
-      <c r="CM105" s="26">
-        <v>29.745585878371656</v>
-      </c>
-      <c r="CN105" s="26">
-        <v>14.431749269898589</v>
-      </c>
-      <c r="CO105" s="26">
-        <v>11.982082412149637</v>
+      <c r="CL105" s="25">
+        <v>14.433307807382718</v>
+      </c>
+      <c r="CM105" s="25">
+        <v>29.745585877899003</v>
+      </c>
+      <c r="CN105" s="25">
+        <v>14.431749270400701</v>
+      </c>
+      <c r="CO105" s="25">
+        <v>12.081305431633098</v>
       </c>
       <c r="CP105" s="25">
-        <v>7.5813421994999288</v>
+        <v>7.5474449607387299</v>
       </c>
       <c r="CQ105" s="25">
-        <v>11.859083676855704</v>
+        <v>11.922806611992783</v>
       </c>
       <c r="CR105" s="25">
-        <v>6.5009060195184958</v>
+        <v>6.4608375803358626</v>
       </c>
       <c r="CS105" s="25">
-        <v>10.882335908226096</v>
-      </c>
-      <c r="CT105" s="40"/>
+        <v>10.682618246504006</v>
+      </c>
+      <c r="CT105" s="25">
+        <v>8.4949522210285693</v>
+      </c>
       <c r="CU105" s="40"/>
       <c r="CV105" s="40"/>
       <c r="CW105" s="40"/>
-      <c r="CX105" s="11"/>
+      <c r="CX105" s="40"/>
       <c r="CY105" s="11"/>
       <c r="CZ105" s="11"/>
       <c r="DA105" s="11"/>
@@ -20909,35 +21034,37 @@
       <c r="CK106" s="26">
         <v>6.351525081990971</v>
       </c>
-      <c r="CL106" s="26">
-        <v>4.605902211171383</v>
-      </c>
-      <c r="CM106" s="26">
-        <v>4.9034987902371228</v>
-      </c>
-      <c r="CN106" s="26">
-        <v>4.9126105720600037</v>
-      </c>
-      <c r="CO106" s="26">
-        <v>4.7782406057255145</v>
+      <c r="CL106" s="25">
+        <v>4.51099868737343</v>
+      </c>
+      <c r="CM106" s="25">
+        <v>4.8059864941827755</v>
+      </c>
+      <c r="CN106" s="25">
+        <v>4.6783139192999386</v>
+      </c>
+      <c r="CO106" s="25">
+        <v>4.4735393069219072</v>
       </c>
       <c r="CP106" s="25">
-        <v>4.7426355423372257</v>
+        <v>4.8473586901967423</v>
       </c>
       <c r="CQ106" s="25">
-        <v>6.6110794313363357</v>
+        <v>7.1551338759191339</v>
       </c>
       <c r="CR106" s="25">
-        <v>4.1812398327052875</v>
+        <v>4.3012186882609598</v>
       </c>
       <c r="CS106" s="25">
-        <v>3.6928745153413729</v>
-      </c>
-      <c r="CT106" s="40"/>
+        <v>3.818970104876712</v>
+      </c>
+      <c r="CT106" s="25">
+        <v>6.3677146774798246</v>
+      </c>
       <c r="CU106" s="40"/>
       <c r="CV106" s="40"/>
       <c r="CW106" s="40"/>
-      <c r="CX106" s="11"/>
+      <c r="CX106" s="40"/>
       <c r="CY106" s="11"/>
       <c r="CZ106" s="11"/>
       <c r="DA106" s="11"/>
@@ -21254,35 +21381,37 @@
       <c r="CK107" s="26">
         <v>15.789185185214478</v>
       </c>
-      <c r="CL107" s="26">
-        <v>27.906973307918221</v>
-      </c>
-      <c r="CM107" s="26">
-        <v>20.676174695688758</v>
-      </c>
-      <c r="CN107" s="26">
-        <v>15.163537539078817</v>
-      </c>
-      <c r="CO107" s="26">
-        <v>7.9598286401135283</v>
+      <c r="CL107" s="25">
+        <v>27.906973308045636</v>
+      </c>
+      <c r="CM107" s="25">
+        <v>20.777372814819856</v>
+      </c>
+      <c r="CN107" s="25">
+        <v>15.307486411644859</v>
+      </c>
+      <c r="CO107" s="25">
+        <v>7.4505823915350504</v>
       </c>
       <c r="CP107" s="25">
-        <v>9.3694455346242052</v>
+        <v>9.6302912236330087</v>
       </c>
       <c r="CQ107" s="25">
-        <v>16.565008516293105</v>
+        <v>16.702033663520297</v>
       </c>
       <c r="CR107" s="25">
-        <v>3.5297118687531537</v>
+        <v>3.1475577332778215</v>
       </c>
       <c r="CS107" s="25">
-        <v>10.352661767595905</v>
-      </c>
-      <c r="CT107" s="40"/>
+        <v>9.1318363082023524</v>
+      </c>
+      <c r="CT107" s="25">
+        <v>9.7371490925524142</v>
+      </c>
       <c r="CU107" s="40"/>
       <c r="CV107" s="40"/>
       <c r="CW107" s="40"/>
-      <c r="CX107" s="11"/>
+      <c r="CX107" s="40"/>
       <c r="CY107" s="11"/>
       <c r="CZ107" s="11"/>
       <c r="DA107" s="11"/>
@@ -21599,35 +21728,37 @@
       <c r="CK108" s="26">
         <v>9.877205823989172</v>
       </c>
-      <c r="CL108" s="26">
-        <v>6.907337683016749</v>
-      </c>
-      <c r="CM108" s="26">
-        <v>7.1708978666504208</v>
-      </c>
-      <c r="CN108" s="26">
-        <v>6.6641439393626598</v>
-      </c>
-      <c r="CO108" s="26">
-        <v>8.2532640595830173</v>
+      <c r="CL108" s="25">
+        <v>6.2227235615878556</v>
+      </c>
+      <c r="CM108" s="25">
+        <v>6.2322666850809298</v>
+      </c>
+      <c r="CN108" s="25">
+        <v>5.6629422468638353</v>
+      </c>
+      <c r="CO108" s="25">
+        <v>7.724497601940655</v>
       </c>
       <c r="CP108" s="25">
-        <v>3.8369487625245</v>
+        <v>5.1409680089535783</v>
       </c>
       <c r="CQ108" s="25">
-        <v>0.14000702696330336</v>
+        <v>0.98459603204031509</v>
       </c>
       <c r="CR108" s="25">
-        <v>2.615429353250434</v>
+        <v>3.5940849360241174</v>
       </c>
       <c r="CS108" s="25">
-        <v>5.1501693693599435</v>
-      </c>
-      <c r="CT108" s="40"/>
+        <v>6.0505543309180609</v>
+      </c>
+      <c r="CT108" s="25">
+        <v>7.2396689308668272</v>
+      </c>
       <c r="CU108" s="40"/>
       <c r="CV108" s="40"/>
       <c r="CW108" s="40"/>
-      <c r="CX108" s="11"/>
+      <c r="CX108" s="40"/>
       <c r="CY108" s="11"/>
       <c r="CZ108" s="11"/>
       <c r="DA108" s="11"/>
@@ -21944,35 +22075,37 @@
       <c r="CK109" s="26">
         <v>25.005650533944987</v>
       </c>
-      <c r="CL109" s="26">
+      <c r="CL109" s="25">
         <v>24.098177731017657</v>
       </c>
-      <c r="CM109" s="26">
+      <c r="CM109" s="25">
         <v>22.929278702774837</v>
       </c>
-      <c r="CN109" s="26">
-        <v>15.279913081779654</v>
-      </c>
-      <c r="CO109" s="26">
-        <v>15.6490650027811</v>
+      <c r="CN109" s="25">
+        <v>15.300433449435971</v>
+      </c>
+      <c r="CO109" s="25">
+        <v>15.349869229252349</v>
       </c>
       <c r="CP109" s="25">
-        <v>11.868732466242477</v>
+        <v>11.850668430972533</v>
       </c>
       <c r="CQ109" s="25">
-        <v>11.102102620827139</v>
+        <v>11.147136023800257</v>
       </c>
       <c r="CR109" s="25">
-        <v>9.986085612774005</v>
+        <v>9.962223025619636</v>
       </c>
       <c r="CS109" s="25">
-        <v>5.257158765467949</v>
-      </c>
-      <c r="CT109" s="40"/>
+        <v>5.5937419828051134</v>
+      </c>
+      <c r="CT109" s="25">
+        <v>5.9594170655046668</v>
+      </c>
       <c r="CU109" s="40"/>
       <c r="CV109" s="40"/>
       <c r="CW109" s="40"/>
-      <c r="CX109" s="11"/>
+      <c r="CX109" s="40"/>
       <c r="CY109" s="11"/>
       <c r="CZ109" s="11"/>
       <c r="DA109" s="11"/>
@@ -22289,35 +22422,37 @@
       <c r="CK110" s="26">
         <v>6.6863576671329241</v>
       </c>
-      <c r="CL110" s="26">
+      <c r="CL110" s="25">
         <v>8.7959567297941135</v>
       </c>
-      <c r="CM110" s="26">
-        <v>5.3551169076756509</v>
-      </c>
-      <c r="CN110" s="26">
-        <v>8.3172470942415941</v>
-      </c>
-      <c r="CO110" s="26">
-        <v>10.401569856689804</v>
+      <c r="CM110" s="25">
+        <v>5.3452853724371323</v>
+      </c>
+      <c r="CN110" s="25">
+        <v>8.3061038456367982</v>
+      </c>
+      <c r="CO110" s="25">
+        <v>10.393262419852249</v>
       </c>
       <c r="CP110" s="25">
-        <v>5.4270278700563352</v>
+        <v>5.4316108908588774</v>
       </c>
       <c r="CQ110" s="25">
-        <v>7.7085776351997026</v>
+        <v>7.7086155107577952</v>
       </c>
       <c r="CR110" s="25">
-        <v>7.1507612349873284</v>
+        <v>7.1355713724413192</v>
       </c>
       <c r="CS110" s="25">
-        <v>7.6990220987210165</v>
-      </c>
-      <c r="CT110" s="40"/>
+        <v>7.5880575725243915</v>
+      </c>
+      <c r="CT110" s="25">
+        <v>4.6902160799810417</v>
+      </c>
       <c r="CU110" s="40"/>
       <c r="CV110" s="40"/>
       <c r="CW110" s="40"/>
-      <c r="CX110" s="11"/>
+      <c r="CX110" s="40"/>
       <c r="CY110" s="11"/>
       <c r="CZ110" s="11"/>
       <c r="DA110" s="11"/>
@@ -22455,19 +22590,19 @@
       <c r="CI111" s="11"/>
       <c r="CJ111" s="11"/>
       <c r="CK111" s="11"/>
-      <c r="CL111" s="11"/>
-      <c r="CM111" s="11"/>
-      <c r="CN111" s="11"/>
-      <c r="CO111" s="11"/>
+      <c r="CL111" s="13"/>
+      <c r="CM111" s="13"/>
+      <c r="CN111" s="13"/>
+      <c r="CO111" s="13"/>
       <c r="CP111" s="13"/>
       <c r="CQ111" s="13"/>
       <c r="CR111" s="13"/>
       <c r="CS111" s="13"/>
-      <c r="CT111" s="41"/>
+      <c r="CT111" s="13"/>
       <c r="CU111" s="41"/>
       <c r="CV111" s="41"/>
       <c r="CW111" s="41"/>
-      <c r="CX111" s="11"/>
+      <c r="CX111" s="41"/>
       <c r="CY111" s="11"/>
       <c r="CZ111" s="11"/>
       <c r="DA111" s="11"/>
@@ -22784,35 +22919,37 @@
       <c r="CK112" s="26">
         <v>6.951435265129021</v>
       </c>
-      <c r="CL112" s="26">
-        <v>6.3839736495247905</v>
-      </c>
-      <c r="CM112" s="26">
-        <v>5.4840394833381083</v>
-      </c>
-      <c r="CN112" s="26">
-        <v>5.1171758231308928</v>
-      </c>
-      <c r="CO112" s="26">
-        <v>5.3289809060774331</v>
+      <c r="CL112" s="25">
+        <v>6.3384995337006274</v>
+      </c>
+      <c r="CM112" s="25">
+        <v>5.4323194313111287</v>
+      </c>
+      <c r="CN112" s="25">
+        <v>5.0786079627424243</v>
+      </c>
+      <c r="CO112" s="25">
+        <v>5.343704249867784</v>
       </c>
       <c r="CP112" s="25">
-        <v>4.5830449810836598</v>
+        <v>4.6865772293330821</v>
       </c>
       <c r="CQ112" s="25">
-        <v>4.7023525834933224</v>
+        <v>4.8100315679690908</v>
       </c>
       <c r="CR112" s="25">
-        <v>5.1948940490825493</v>
+        <v>5.2145769719890609</v>
       </c>
       <c r="CS112" s="25">
-        <v>4.6541445014844527</v>
-      </c>
-      <c r="CT112" s="40"/>
+        <v>4.740608766315674</v>
+      </c>
+      <c r="CT112" s="25">
+        <v>5.301702917474131</v>
+      </c>
       <c r="CU112" s="40"/>
       <c r="CV112" s="40"/>
       <c r="CW112" s="40"/>
-      <c r="CX112" s="11"/>
+      <c r="CX112" s="40"/>
       <c r="CY112" s="11"/>
       <c r="CZ112" s="11"/>
       <c r="DA112" s="11"/>
@@ -22951,27 +23088,28 @@
       <c r="CI113" s="16"/>
       <c r="CJ113" s="16"/>
       <c r="CK113" s="16"/>
-      <c r="CL113" s="16"/>
-      <c r="CM113" s="16"/>
-      <c r="CN113" s="16"/>
-      <c r="CO113" s="16"/>
+      <c r="CL113" s="17"/>
+      <c r="CM113" s="17"/>
+      <c r="CN113" s="17"/>
+      <c r="CO113" s="17"/>
       <c r="CP113" s="17"/>
       <c r="CQ113" s="17"/>
       <c r="CR113" s="17"/>
       <c r="CS113" s="17"/>
-      <c r="CT113" s="6"/>
+      <c r="CT113" s="17"/>
       <c r="CU113" s="6"/>
       <c r="CV113" s="6"/>
       <c r="CW113" s="6"/>
+      <c r="CX113" s="6"/>
     </row>
     <row r="114" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A114" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="CT114" s="39"/>
       <c r="CU114" s="39"/>
       <c r="CV114" s="39"/>
       <c r="CW114" s="39"/>
+      <c r="CX114" s="39"/>
     </row>
     <row r="115" spans="1:153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="13"/>
@@ -23062,19 +23200,19 @@
       <c r="CI115" s="11"/>
       <c r="CJ115" s="11"/>
       <c r="CK115" s="11"/>
-      <c r="CL115" s="11"/>
-      <c r="CM115" s="11"/>
-      <c r="CN115" s="11"/>
-      <c r="CO115" s="11"/>
+      <c r="CL115" s="13"/>
+      <c r="CM115" s="13"/>
+      <c r="CN115" s="13"/>
+      <c r="CO115" s="13"/>
       <c r="CP115" s="13"/>
       <c r="CQ115" s="13"/>
       <c r="CR115" s="13"/>
       <c r="CS115" s="13"/>
-      <c r="CT115" s="41"/>
+      <c r="CT115" s="13"/>
       <c r="CU115" s="41"/>
       <c r="CV115" s="41"/>
       <c r="CW115" s="41"/>
-      <c r="CX115" s="11"/>
+      <c r="CX115" s="41"/>
       <c r="CY115" s="11"/>
       <c r="CZ115" s="11"/>
       <c r="DA115" s="11"/>
@@ -23212,19 +23350,19 @@
       <c r="CI116" s="11"/>
       <c r="CJ116" s="11"/>
       <c r="CK116" s="11"/>
-      <c r="CL116" s="11"/>
-      <c r="CM116" s="11"/>
-      <c r="CN116" s="11"/>
-      <c r="CO116" s="11"/>
+      <c r="CL116" s="13"/>
+      <c r="CM116" s="13"/>
+      <c r="CN116" s="13"/>
+      <c r="CO116" s="13"/>
       <c r="CP116" s="13"/>
       <c r="CQ116" s="13"/>
       <c r="CR116" s="13"/>
       <c r="CS116" s="13"/>
-      <c r="CT116" s="41"/>
+      <c r="CT116" s="13"/>
       <c r="CU116" s="41"/>
       <c r="CV116" s="41"/>
       <c r="CW116" s="41"/>
-      <c r="CX116" s="11"/>
+      <c r="CX116" s="41"/>
       <c r="CY116" s="11"/>
       <c r="CZ116" s="11"/>
       <c r="DA116" s="11"/>
@@ -23280,7 +23418,7 @@
     </row>
     <row r="118" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="120" spans="1:153" x14ac:dyDescent="0.2">
@@ -23290,7 +23428,7 @@
     </row>
     <row r="121" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="122" spans="1:153" x14ac:dyDescent="0.2">
@@ -23300,144 +23438,144 @@
     </row>
     <row r="124" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
-      <c r="B124" s="43">
+      <c r="B124" s="42">
         <v>2000</v>
       </c>
-      <c r="C124" s="43"/>
-      <c r="D124" s="43"/>
-      <c r="E124" s="43"/>
-      <c r="F124" s="43">
+      <c r="C124" s="42"/>
+      <c r="D124" s="42"/>
+      <c r="E124" s="42"/>
+      <c r="F124" s="42">
         <v>2001</v>
       </c>
-      <c r="G124" s="43"/>
-      <c r="H124" s="43"/>
-      <c r="I124" s="43"/>
-      <c r="J124" s="43">
+      <c r="G124" s="42"/>
+      <c r="H124" s="42"/>
+      <c r="I124" s="42"/>
+      <c r="J124" s="42">
         <v>2002</v>
       </c>
-      <c r="K124" s="43"/>
-      <c r="L124" s="43"/>
-      <c r="M124" s="43"/>
-      <c r="N124" s="43">
+      <c r="K124" s="42"/>
+      <c r="L124" s="42"/>
+      <c r="M124" s="42"/>
+      <c r="N124" s="42">
         <v>2003</v>
       </c>
-      <c r="O124" s="43"/>
-      <c r="P124" s="43"/>
-      <c r="Q124" s="43"/>
-      <c r="R124" s="43">
+      <c r="O124" s="42"/>
+      <c r="P124" s="42"/>
+      <c r="Q124" s="42"/>
+      <c r="R124" s="42">
         <v>2004</v>
       </c>
-      <c r="S124" s="43"/>
-      <c r="T124" s="43"/>
-      <c r="U124" s="43"/>
-      <c r="V124" s="43">
+      <c r="S124" s="42"/>
+      <c r="T124" s="42"/>
+      <c r="U124" s="42"/>
+      <c r="V124" s="42">
         <v>2005</v>
       </c>
-      <c r="W124" s="43"/>
-      <c r="X124" s="43"/>
-      <c r="Y124" s="43"/>
-      <c r="Z124" s="43">
+      <c r="W124" s="42"/>
+      <c r="X124" s="42"/>
+      <c r="Y124" s="42"/>
+      <c r="Z124" s="42">
         <v>2006</v>
       </c>
-      <c r="AA124" s="43"/>
-      <c r="AB124" s="43"/>
-      <c r="AC124" s="43"/>
-      <c r="AD124" s="43">
+      <c r="AA124" s="42"/>
+      <c r="AB124" s="42"/>
+      <c r="AC124" s="42"/>
+      <c r="AD124" s="42">
         <v>2007</v>
       </c>
-      <c r="AE124" s="43"/>
-      <c r="AF124" s="43"/>
-      <c r="AG124" s="43"/>
-      <c r="AH124" s="43">
+      <c r="AE124" s="42"/>
+      <c r="AF124" s="42"/>
+      <c r="AG124" s="42"/>
+      <c r="AH124" s="42">
         <v>2008</v>
       </c>
-      <c r="AI124" s="43"/>
-      <c r="AJ124" s="43"/>
-      <c r="AK124" s="43"/>
-      <c r="AL124" s="43">
+      <c r="AI124" s="42"/>
+      <c r="AJ124" s="42"/>
+      <c r="AK124" s="42"/>
+      <c r="AL124" s="42">
         <v>2009</v>
       </c>
-      <c r="AM124" s="43"/>
-      <c r="AN124" s="43"/>
-      <c r="AO124" s="43"/>
-      <c r="AP124" s="43">
+      <c r="AM124" s="42"/>
+      <c r="AN124" s="42"/>
+      <c r="AO124" s="42"/>
+      <c r="AP124" s="42">
         <v>2010</v>
       </c>
-      <c r="AQ124" s="43"/>
-      <c r="AR124" s="43"/>
-      <c r="AS124" s="43"/>
-      <c r="AT124" s="43">
+      <c r="AQ124" s="42"/>
+      <c r="AR124" s="42"/>
+      <c r="AS124" s="42"/>
+      <c r="AT124" s="42">
         <v>2011</v>
       </c>
-      <c r="AU124" s="43"/>
-      <c r="AV124" s="43"/>
-      <c r="AW124" s="43"/>
-      <c r="AX124" s="43">
+      <c r="AU124" s="42"/>
+      <c r="AV124" s="42"/>
+      <c r="AW124" s="42"/>
+      <c r="AX124" s="42">
         <v>2012</v>
       </c>
-      <c r="AY124" s="43"/>
-      <c r="AZ124" s="43"/>
-      <c r="BA124" s="43"/>
-      <c r="BB124" s="43">
+      <c r="AY124" s="42"/>
+      <c r="AZ124" s="42"/>
+      <c r="BA124" s="42"/>
+      <c r="BB124" s="42">
         <v>2013</v>
       </c>
-      <c r="BC124" s="43"/>
-      <c r="BD124" s="43"/>
-      <c r="BE124" s="43"/>
-      <c r="BF124" s="43">
+      <c r="BC124" s="42"/>
+      <c r="BD124" s="42"/>
+      <c r="BE124" s="42"/>
+      <c r="BF124" s="42">
         <v>2014</v>
       </c>
-      <c r="BG124" s="43"/>
-      <c r="BH124" s="43"/>
-      <c r="BI124" s="43"/>
-      <c r="BJ124" s="43">
+      <c r="BG124" s="42"/>
+      <c r="BH124" s="42"/>
+      <c r="BI124" s="42"/>
+      <c r="BJ124" s="42">
         <v>2015</v>
       </c>
-      <c r="BK124" s="43"/>
-      <c r="BL124" s="43"/>
-      <c r="BM124" s="43"/>
-      <c r="BN124" s="43">
+      <c r="BK124" s="42"/>
+      <c r="BL124" s="42"/>
+      <c r="BM124" s="42"/>
+      <c r="BN124" s="42">
         <v>2016</v>
       </c>
-      <c r="BO124" s="43"/>
-      <c r="BP124" s="43"/>
-      <c r="BQ124" s="43"/>
-      <c r="BR124" s="42">
+      <c r="BO124" s="42"/>
+      <c r="BP124" s="42"/>
+      <c r="BQ124" s="42"/>
+      <c r="BR124" s="43">
         <v>2017</v>
       </c>
-      <c r="BS124" s="42"/>
-      <c r="BT124" s="42"/>
-      <c r="BU124" s="42"/>
-      <c r="BV124" s="42">
+      <c r="BS124" s="43"/>
+      <c r="BT124" s="43"/>
+      <c r="BU124" s="43"/>
+      <c r="BV124" s="43">
         <v>2018</v>
       </c>
-      <c r="BW124" s="42"/>
-      <c r="BX124" s="42"/>
-      <c r="BY124" s="42"/>
-      <c r="BZ124" s="42">
+      <c r="BW124" s="43"/>
+      <c r="BX124" s="43"/>
+      <c r="BY124" s="43"/>
+      <c r="BZ124" s="43">
         <v>2019</v>
       </c>
-      <c r="CA124" s="42"/>
-      <c r="CB124" s="42"/>
-      <c r="CC124" s="42"/>
-      <c r="CD124" s="42">
+      <c r="CA124" s="43"/>
+      <c r="CB124" s="43"/>
+      <c r="CC124" s="43"/>
+      <c r="CD124" s="43">
         <v>2020</v>
       </c>
-      <c r="CE124" s="42"/>
-      <c r="CF124" s="42"/>
-      <c r="CG124" s="42"/>
+      <c r="CE124" s="43"/>
+      <c r="CF124" s="43"/>
+      <c r="CG124" s="43"/>
       <c r="CH124" s="33">
         <v>2021</v>
       </c>
       <c r="CI124" s="33"/>
       <c r="CJ124" s="33"/>
       <c r="CK124" s="33"/>
-      <c r="CL124" s="33">
+      <c r="CL124" s="35">
         <v>2022</v>
       </c>
-      <c r="CM124" s="33"/>
-      <c r="CN124" s="33"/>
-      <c r="CO124" s="33"/>
+      <c r="CM124" s="35"/>
+      <c r="CN124" s="35"/>
+      <c r="CO124" s="35"/>
       <c r="CP124" s="35">
         <v>2023</v>
       </c>
@@ -23450,6 +23588,9 @@
       <c r="CU124" s="35"/>
       <c r="CV124" s="35"/>
       <c r="CW124" s="35"/>
+      <c r="CX124" s="35">
+        <v>2025</v>
+      </c>
     </row>
     <row r="125" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
@@ -23719,16 +23860,16 @@
       <c r="CK125" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CL125" s="7" t="s">
+      <c r="CL125" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="CM125" s="7" t="s">
+      <c r="CM125" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="CN125" s="7" t="s">
+      <c r="CN125" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="CO125" s="7" t="s">
+      <c r="CO125" s="6" t="s">
         <v>22</v>
       </c>
       <c r="CP125" s="6" t="s">
@@ -23754,6 +23895,9 @@
       </c>
       <c r="CW125" s="6" t="s">
         <v>22</v>
+      </c>
+      <c r="CX125" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="126" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24027,16 +24171,16 @@
       <c r="CK127" s="26">
         <v>108.89812440337268</v>
       </c>
-      <c r="CL127" s="26">
+      <c r="CL127" s="25">
         <v>110.13124168034444</v>
       </c>
-      <c r="CM127" s="26">
+      <c r="CM127" s="25">
         <v>115.22693976952753</v>
       </c>
-      <c r="CN127" s="26">
+      <c r="CN127" s="25">
         <v>118.41863104641222</v>
       </c>
-      <c r="CO127" s="26">
+      <c r="CO127" s="25">
         <v>119.63502738941952</v>
       </c>
       <c r="CP127" s="25">
@@ -24061,9 +24205,11 @@
         <v>132.33410611170245</v>
       </c>
       <c r="CW127" s="25">
-        <v>130.97027171834199</v>
-      </c>
-      <c r="CX127" s="11"/>
+        <v>130.97027171834196</v>
+      </c>
+      <c r="CX127" s="25">
+        <v>130.55748864874414</v>
+      </c>
       <c r="CY127" s="11"/>
       <c r="CZ127" s="11"/>
       <c r="DA127" s="11"/>
@@ -24384,23 +24530,23 @@
       <c r="CK128" s="26">
         <v>142.78998741865652</v>
       </c>
-      <c r="CL128" s="26">
+      <c r="CL128" s="25">
         <v>139.90498626056689</v>
       </c>
-      <c r="CM128" s="26">
+      <c r="CM128" s="25">
         <v>155.37188373824463</v>
       </c>
-      <c r="CN128" s="26">
+      <c r="CN128" s="25">
         <v>167.67663158279339</v>
       </c>
-      <c r="CO128" s="26">
+      <c r="CO128" s="25">
         <v>157.85711271445632</v>
       </c>
       <c r="CP128" s="25">
         <v>155.8613031242264</v>
       </c>
       <c r="CQ128" s="25">
-        <v>174.33891502019807</v>
+        <v>174.3389150201981</v>
       </c>
       <c r="CR128" s="25">
         <v>183.72355552326766</v>
@@ -24412,7 +24558,7 @@
         <v>168.14766710924428</v>
       </c>
       <c r="CU128" s="25">
-        <v>181.88456941808192</v>
+        <v>181.88456941808195</v>
       </c>
       <c r="CV128" s="25">
         <v>189.71803160171183</v>
@@ -24420,7 +24566,9 @@
       <c r="CW128" s="25">
         <v>173.27354251461838</v>
       </c>
-      <c r="CX128" s="11"/>
+      <c r="CX128" s="25">
+        <v>174.05150434879829</v>
+      </c>
       <c r="CY128" s="11"/>
       <c r="CZ128" s="11"/>
       <c r="DA128" s="11"/>
@@ -24741,16 +24889,16 @@
       <c r="CK129" s="26">
         <v>104.20918761028659</v>
       </c>
-      <c r="CL129" s="26">
+      <c r="CL129" s="25">
         <v>105.81599612123389</v>
       </c>
-      <c r="CM129" s="26">
+      <c r="CM129" s="25">
         <v>115.98056002277895</v>
       </c>
-      <c r="CN129" s="26">
+      <c r="CN129" s="25">
         <v>106.69388624713258</v>
       </c>
-      <c r="CO129" s="26">
+      <c r="CO129" s="25">
         <v>107.88943773035248</v>
       </c>
       <c r="CP129" s="25">
@@ -24777,7 +24925,9 @@
       <c r="CW129" s="25">
         <v>115.54048403259469</v>
       </c>
-      <c r="CX129" s="11"/>
+      <c r="CX129" s="25">
+        <v>117.26173252756766</v>
+      </c>
       <c r="CY129" s="11"/>
       <c r="CZ129" s="11"/>
       <c r="DA129" s="11"/>
@@ -25098,16 +25248,16 @@
       <c r="CK130" s="26">
         <v>109.34844481539712</v>
       </c>
-      <c r="CL130" s="26">
+      <c r="CL130" s="25">
         <v>104.34649033772125</v>
       </c>
-      <c r="CM130" s="26">
+      <c r="CM130" s="25">
         <v>110.30691824707179</v>
       </c>
-      <c r="CN130" s="26">
+      <c r="CN130" s="25">
         <v>118.84927854323799</v>
       </c>
-      <c r="CO130" s="26">
+      <c r="CO130" s="25">
         <v>117.1180284754346</v>
       </c>
       <c r="CP130" s="25">
@@ -25134,7 +25284,9 @@
       <c r="CW130" s="25">
         <v>122.55673703746086</v>
       </c>
-      <c r="CX130" s="11"/>
+      <c r="CX130" s="25">
+        <v>115.80302410046983</v>
+      </c>
       <c r="CY130" s="11"/>
       <c r="CZ130" s="11"/>
       <c r="DA130" s="11"/>
@@ -25455,16 +25607,16 @@
       <c r="CK131" s="26">
         <v>107.16549136094476</v>
       </c>
-      <c r="CL131" s="26">
+      <c r="CL131" s="25">
         <v>111.90477677954678</v>
       </c>
-      <c r="CM131" s="26">
+      <c r="CM131" s="25">
         <v>112.03829347266363</v>
       </c>
-      <c r="CN131" s="26">
+      <c r="CN131" s="25">
         <v>114.65261671281807</v>
       </c>
-      <c r="CO131" s="26">
+      <c r="CO131" s="25">
         <v>111.84049601763029</v>
       </c>
       <c r="CP131" s="25">
@@ -25489,9 +25641,11 @@
         <v>122.16385597075647</v>
       </c>
       <c r="CW131" s="25">
-        <v>120.30781214407466</v>
-      </c>
-      <c r="CX131" s="11"/>
+        <v>120.30781214407469</v>
+      </c>
+      <c r="CX131" s="25">
+        <v>125.41052570121623</v>
+      </c>
       <c r="CY131" s="11"/>
       <c r="CZ131" s="11"/>
       <c r="DA131" s="11"/>
@@ -25812,16 +25966,16 @@
       <c r="CK132" s="26">
         <v>111.18919134130898</v>
       </c>
-      <c r="CL132" s="26">
+      <c r="CL132" s="25">
         <v>108.60518735455619</v>
       </c>
-      <c r="CM132" s="26">
+      <c r="CM132" s="25">
         <v>109.16175758428417</v>
       </c>
-      <c r="CN132" s="26">
+      <c r="CN132" s="25">
         <v>114.45087022532654</v>
       </c>
-      <c r="CO132" s="26">
+      <c r="CO132" s="25">
         <v>114.33049868938599</v>
       </c>
       <c r="CP132" s="25">
@@ -25848,7 +26002,9 @@
       <c r="CW132" s="25">
         <v>121.69293778644146</v>
       </c>
-      <c r="CX132" s="11"/>
+      <c r="CX132" s="25">
+        <v>118.96366923799251</v>
+      </c>
       <c r="CY132" s="11"/>
       <c r="CZ132" s="11"/>
       <c r="DA132" s="11"/>
@@ -26169,16 +26325,16 @@
       <c r="CK133" s="26">
         <v>112.76276292775214</v>
       </c>
-      <c r="CL133" s="26">
+      <c r="CL133" s="25">
         <v>122.14987426126676</v>
       </c>
-      <c r="CM133" s="26">
+      <c r="CM133" s="25">
         <v>124.83430009794101</v>
       </c>
-      <c r="CN133" s="26">
+      <c r="CN133" s="25">
         <v>142.03571732517136</v>
       </c>
-      <c r="CO133" s="26">
+      <c r="CO133" s="25">
         <v>126.45166811592503</v>
       </c>
       <c r="CP133" s="25">
@@ -26205,7 +26361,9 @@
       <c r="CW133" s="25">
         <v>125.67130297455653</v>
       </c>
-      <c r="CX133" s="11"/>
+      <c r="CX133" s="25">
+        <v>133.65922865043828</v>
+      </c>
       <c r="CY133" s="11"/>
       <c r="CZ133" s="11"/>
       <c r="DA133" s="11"/>
@@ -26526,16 +26684,16 @@
       <c r="CK134" s="26">
         <v>97.165992133950837</v>
       </c>
-      <c r="CL134" s="26">
+      <c r="CL134" s="25">
         <v>104.91954268789311</v>
       </c>
-      <c r="CM134" s="26">
+      <c r="CM134" s="25">
         <v>102.0749240320504</v>
       </c>
-      <c r="CN134" s="26">
+      <c r="CN134" s="25">
         <v>100.24273019895509</v>
       </c>
-      <c r="CO134" s="26">
+      <c r="CO134" s="25">
         <v>97.770891822858133</v>
       </c>
       <c r="CP134" s="25">
@@ -26560,9 +26718,11 @@
         <v>101.35581080861039</v>
       </c>
       <c r="CW134" s="25">
-        <v>98.566812466157245</v>
-      </c>
-      <c r="CX134" s="11"/>
+        <v>98.566812466157259</v>
+      </c>
+      <c r="CX134" s="25">
+        <v>106.42917639563254</v>
+      </c>
       <c r="CY134" s="11"/>
       <c r="CZ134" s="11"/>
       <c r="DA134" s="11"/>
@@ -26883,16 +27043,16 @@
       <c r="CK135" s="26">
         <v>103.870414678616</v>
       </c>
-      <c r="CL135" s="26">
+      <c r="CL135" s="25">
         <v>104.41501684239122</v>
       </c>
-      <c r="CM135" s="26">
+      <c r="CM135" s="25">
         <v>103.21755085312103</v>
       </c>
-      <c r="CN135" s="26">
+      <c r="CN135" s="25">
         <v>103.66360122129279</v>
       </c>
-      <c r="CO135" s="26">
+      <c r="CO135" s="25">
         <v>107.41817077769586</v>
       </c>
       <c r="CP135" s="25">
@@ -26919,7 +27079,9 @@
       <c r="CW135" s="25">
         <v>115.23637403307558</v>
       </c>
-      <c r="CX135" s="11"/>
+      <c r="CX135" s="25">
+        <v>115.91808763081958</v>
+      </c>
       <c r="CY135" s="11"/>
       <c r="CZ135" s="11"/>
       <c r="DA135" s="11"/>
@@ -27240,16 +27402,16 @@
       <c r="CK136" s="26">
         <v>99.048505593486482</v>
       </c>
-      <c r="CL136" s="26">
+      <c r="CL136" s="25">
         <v>104.33492107137931</v>
       </c>
-      <c r="CM136" s="26">
+      <c r="CM136" s="25">
         <v>106.59335501258693</v>
       </c>
-      <c r="CN136" s="26">
+      <c r="CN136" s="25">
         <v>108.76667919721386</v>
       </c>
-      <c r="CO136" s="26">
+      <c r="CO136" s="25">
         <v>102.55628118766403</v>
       </c>
       <c r="CP136" s="25">
@@ -27276,7 +27438,9 @@
       <c r="CW136" s="25">
         <v>110.86417075282131</v>
       </c>
-      <c r="CX136" s="11"/>
+      <c r="CX136" s="25">
+        <v>116.97568504088471</v>
+      </c>
       <c r="CY136" s="11"/>
       <c r="CZ136" s="11"/>
       <c r="DA136" s="11"/>
@@ -27597,16 +27761,16 @@
       <c r="CK137" s="26">
         <v>109.21550743115888</v>
       </c>
-      <c r="CL137" s="26">
+      <c r="CL137" s="25">
         <v>111.870160701839</v>
       </c>
-      <c r="CM137" s="26">
+      <c r="CM137" s="25">
         <v>108.49244360919089</v>
       </c>
-      <c r="CN137" s="26">
+      <c r="CN137" s="25">
         <v>118.69712079921501</v>
       </c>
-      <c r="CO137" s="26">
+      <c r="CO137" s="25">
         <v>116.21057920620589</v>
       </c>
       <c r="CP137" s="25">
@@ -27616,7 +27780,7 @@
         <v>117.57103978064248</v>
       </c>
       <c r="CR137" s="25">
-        <v>125.44749203813173</v>
+        <v>125.4474920381317</v>
       </c>
       <c r="CS137" s="25">
         <v>123.00767725177046</v>
@@ -27633,7 +27797,9 @@
       <c r="CW137" s="25">
         <v>127.75904675934959</v>
       </c>
-      <c r="CX137" s="11"/>
+      <c r="CX137" s="25">
+        <v>130.03333333333333</v>
+      </c>
       <c r="CY137" s="11"/>
       <c r="CZ137" s="11"/>
       <c r="DA137" s="11"/>
@@ -27954,16 +28120,16 @@
       <c r="CK138" s="26">
         <v>102.77555520790396</v>
       </c>
-      <c r="CL138" s="26">
+      <c r="CL138" s="25">
         <v>114.3578053073435</v>
       </c>
-      <c r="CM138" s="26">
+      <c r="CM138" s="25">
         <v>116.27948211337615</v>
       </c>
-      <c r="CN138" s="26">
+      <c r="CN138" s="25">
         <v>107.10733958406853</v>
       </c>
-      <c r="CO138" s="26">
+      <c r="CO138" s="25">
         <v>107.40108882700197</v>
       </c>
       <c r="CP138" s="25">
@@ -27988,9 +28154,11 @@
         <v>112.50975960579379</v>
       </c>
       <c r="CW138" s="25">
-        <v>113.14516713526699</v>
-      </c>
-      <c r="CX138" s="11"/>
+        <v>113.14516713526697</v>
+      </c>
+      <c r="CX138" s="25">
+        <v>128.22635613714581</v>
+      </c>
       <c r="CY138" s="11"/>
       <c r="CZ138" s="11"/>
       <c r="DA138" s="11"/>
@@ -28132,10 +28300,10 @@
       <c r="CI139" s="11"/>
       <c r="CJ139" s="11"/>
       <c r="CK139" s="11"/>
-      <c r="CL139" s="11"/>
-      <c r="CM139" s="11"/>
-      <c r="CN139" s="11"/>
-      <c r="CO139" s="11"/>
+      <c r="CL139" s="13"/>
+      <c r="CM139" s="13"/>
+      <c r="CN139" s="13"/>
+      <c r="CO139" s="13"/>
       <c r="CP139" s="13"/>
       <c r="CQ139" s="13"/>
       <c r="CR139" s="13"/>
@@ -28144,7 +28312,7 @@
       <c r="CU139" s="13"/>
       <c r="CV139" s="13"/>
       <c r="CW139" s="13"/>
-      <c r="CX139" s="11"/>
+      <c r="CX139" s="13"/>
       <c r="CY139" s="11"/>
       <c r="CZ139" s="11"/>
       <c r="DA139" s="11"/>
@@ -28465,43 +28633,45 @@
       <c r="CK140" s="26">
         <v>107.89794049951327</v>
       </c>
-      <c r="CL140" s="26">
+      <c r="CL140" s="25">
         <v>110.98086877293882</v>
       </c>
-      <c r="CM140" s="26">
+      <c r="CM140" s="25">
         <v>114.15392268505376</v>
       </c>
-      <c r="CN140" s="26">
+      <c r="CN140" s="25">
         <v>117.83892484044394</v>
       </c>
-      <c r="CO140" s="26">
+      <c r="CO140" s="25">
         <v>115.90357754779208</v>
       </c>
       <c r="CP140" s="25">
-        <v>119.6132201691011</v>
+        <v>119.61805626705633</v>
       </c>
       <c r="CQ140" s="25">
-        <v>120.72109957702943</v>
+        <v>120.72622459447264</v>
       </c>
       <c r="CR140" s="25">
-        <v>123.04679079388126</v>
+        <v>123.0515054662273</v>
       </c>
       <c r="CS140" s="25">
-        <v>120.61032542536555</v>
+        <v>120.6221131912165</v>
       </c>
       <c r="CT140" s="25">
-        <v>123.73745232243358</v>
+        <v>123.73530029663758</v>
       </c>
       <c r="CU140" s="25">
-        <v>125.39049046599973</v>
+        <v>125.38888860637287</v>
       </c>
       <c r="CV140" s="25">
-        <v>126.88964833425318</v>
+        <v>126.90148736904587</v>
       </c>
       <c r="CW140" s="25">
-        <v>123.76699270069295</v>
-      </c>
-      <c r="CX140" s="11"/>
+        <v>123.77118969792001</v>
+      </c>
+      <c r="CX140" s="25">
+        <v>126.56625786339333</v>
+      </c>
       <c r="CY140" s="11"/>
       <c r="CZ140" s="11"/>
       <c r="DA140" s="11"/>
@@ -28644,10 +28814,10 @@
       <c r="CI141" s="16"/>
       <c r="CJ141" s="16"/>
       <c r="CK141" s="16"/>
-      <c r="CL141" s="16"/>
-      <c r="CM141" s="16"/>
-      <c r="CN141" s="16"/>
-      <c r="CO141" s="16"/>
+      <c r="CL141" s="17"/>
+      <c r="CM141" s="17"/>
+      <c r="CN141" s="17"/>
+      <c r="CO141" s="17"/>
       <c r="CP141" s="17"/>
       <c r="CQ141" s="17"/>
       <c r="CR141" s="17"/>
@@ -28656,6 +28826,7 @@
       <c r="CU141" s="17"/>
       <c r="CV141" s="17"/>
       <c r="CW141" s="17"/>
+      <c r="CX141" s="17"/>
     </row>
     <row r="142" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A142" s="18" t="s">
@@ -28674,7 +28845,7 @@
     </row>
     <row r="147" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="149" spans="1:153" x14ac:dyDescent="0.2">
@@ -28684,7 +28855,7 @@
     </row>
     <row r="150" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="151" spans="1:153" x14ac:dyDescent="0.2">
@@ -28694,144 +28865,144 @@
     </row>
     <row r="153" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A153" s="4"/>
-      <c r="B153" s="43">
+      <c r="B153" s="42">
         <v>2000</v>
       </c>
-      <c r="C153" s="43"/>
-      <c r="D153" s="43"/>
-      <c r="E153" s="43"/>
-      <c r="F153" s="43">
+      <c r="C153" s="42"/>
+      <c r="D153" s="42"/>
+      <c r="E153" s="42"/>
+      <c r="F153" s="42">
         <v>2001</v>
       </c>
-      <c r="G153" s="43"/>
-      <c r="H153" s="43"/>
-      <c r="I153" s="43"/>
-      <c r="J153" s="43">
+      <c r="G153" s="42"/>
+      <c r="H153" s="42"/>
+      <c r="I153" s="42"/>
+      <c r="J153" s="42">
         <v>2002</v>
       </c>
-      <c r="K153" s="43"/>
-      <c r="L153" s="43"/>
-      <c r="M153" s="43"/>
-      <c r="N153" s="43">
+      <c r="K153" s="42"/>
+      <c r="L153" s="42"/>
+      <c r="M153" s="42"/>
+      <c r="N153" s="42">
         <v>2003</v>
       </c>
-      <c r="O153" s="43"/>
-      <c r="P153" s="43"/>
-      <c r="Q153" s="43"/>
-      <c r="R153" s="43">
+      <c r="O153" s="42"/>
+      <c r="P153" s="42"/>
+      <c r="Q153" s="42"/>
+      <c r="R153" s="42">
         <v>2004</v>
       </c>
-      <c r="S153" s="43"/>
-      <c r="T153" s="43"/>
-      <c r="U153" s="43"/>
-      <c r="V153" s="43">
+      <c r="S153" s="42"/>
+      <c r="T153" s="42"/>
+      <c r="U153" s="42"/>
+      <c r="V153" s="42">
         <v>2005</v>
       </c>
-      <c r="W153" s="43"/>
-      <c r="X153" s="43"/>
-      <c r="Y153" s="43"/>
-      <c r="Z153" s="43">
+      <c r="W153" s="42"/>
+      <c r="X153" s="42"/>
+      <c r="Y153" s="42"/>
+      <c r="Z153" s="42">
         <v>2006</v>
       </c>
-      <c r="AA153" s="43"/>
-      <c r="AB153" s="43"/>
-      <c r="AC153" s="43"/>
-      <c r="AD153" s="43">
+      <c r="AA153" s="42"/>
+      <c r="AB153" s="42"/>
+      <c r="AC153" s="42"/>
+      <c r="AD153" s="42">
         <v>2007</v>
       </c>
-      <c r="AE153" s="43"/>
-      <c r="AF153" s="43"/>
-      <c r="AG153" s="43"/>
-      <c r="AH153" s="43">
+      <c r="AE153" s="42"/>
+      <c r="AF153" s="42"/>
+      <c r="AG153" s="42"/>
+      <c r="AH153" s="42">
         <v>2008</v>
       </c>
-      <c r="AI153" s="43"/>
-      <c r="AJ153" s="43"/>
-      <c r="AK153" s="43"/>
-      <c r="AL153" s="43">
+      <c r="AI153" s="42"/>
+      <c r="AJ153" s="42"/>
+      <c r="AK153" s="42"/>
+      <c r="AL153" s="42">
         <v>2009</v>
       </c>
-      <c r="AM153" s="43"/>
-      <c r="AN153" s="43"/>
-      <c r="AO153" s="43"/>
-      <c r="AP153" s="43">
+      <c r="AM153" s="42"/>
+      <c r="AN153" s="42"/>
+      <c r="AO153" s="42"/>
+      <c r="AP153" s="42">
         <v>2010</v>
       </c>
-      <c r="AQ153" s="43"/>
-      <c r="AR153" s="43"/>
-      <c r="AS153" s="43"/>
-      <c r="AT153" s="43">
+      <c r="AQ153" s="42"/>
+      <c r="AR153" s="42"/>
+      <c r="AS153" s="42"/>
+      <c r="AT153" s="42">
         <v>2011</v>
       </c>
-      <c r="AU153" s="43"/>
-      <c r="AV153" s="43"/>
-      <c r="AW153" s="43"/>
-      <c r="AX153" s="43">
+      <c r="AU153" s="42"/>
+      <c r="AV153" s="42"/>
+      <c r="AW153" s="42"/>
+      <c r="AX153" s="42">
         <v>2012</v>
       </c>
-      <c r="AY153" s="43"/>
-      <c r="AZ153" s="43"/>
-      <c r="BA153" s="43"/>
-      <c r="BB153" s="43">
+      <c r="AY153" s="42"/>
+      <c r="AZ153" s="42"/>
+      <c r="BA153" s="42"/>
+      <c r="BB153" s="42">
         <v>2013</v>
       </c>
-      <c r="BC153" s="43"/>
-      <c r="BD153" s="43"/>
-      <c r="BE153" s="43"/>
-      <c r="BF153" s="43">
+      <c r="BC153" s="42"/>
+      <c r="BD153" s="42"/>
+      <c r="BE153" s="42"/>
+      <c r="BF153" s="42">
         <v>2014</v>
       </c>
-      <c r="BG153" s="43"/>
-      <c r="BH153" s="43"/>
-      <c r="BI153" s="43"/>
-      <c r="BJ153" s="43">
+      <c r="BG153" s="42"/>
+      <c r="BH153" s="42"/>
+      <c r="BI153" s="42"/>
+      <c r="BJ153" s="42">
         <v>2015</v>
       </c>
-      <c r="BK153" s="43"/>
-      <c r="BL153" s="43"/>
-      <c r="BM153" s="43"/>
-      <c r="BN153" s="43">
+      <c r="BK153" s="42"/>
+      <c r="BL153" s="42"/>
+      <c r="BM153" s="42"/>
+      <c r="BN153" s="42">
         <v>2016</v>
       </c>
-      <c r="BO153" s="43"/>
-      <c r="BP153" s="43"/>
-      <c r="BQ153" s="43"/>
-      <c r="BR153" s="42">
+      <c r="BO153" s="42"/>
+      <c r="BP153" s="42"/>
+      <c r="BQ153" s="42"/>
+      <c r="BR153" s="43">
         <v>2017</v>
       </c>
-      <c r="BS153" s="42"/>
-      <c r="BT153" s="42"/>
-      <c r="BU153" s="42"/>
-      <c r="BV153" s="42">
+      <c r="BS153" s="43"/>
+      <c r="BT153" s="43"/>
+      <c r="BU153" s="43"/>
+      <c r="BV153" s="43">
         <v>2018</v>
       </c>
-      <c r="BW153" s="42"/>
-      <c r="BX153" s="42"/>
-      <c r="BY153" s="42"/>
-      <c r="BZ153" s="42">
+      <c r="BW153" s="43"/>
+      <c r="BX153" s="43"/>
+      <c r="BY153" s="43"/>
+      <c r="BZ153" s="43">
         <v>2019</v>
       </c>
-      <c r="CA153" s="42"/>
-      <c r="CB153" s="42"/>
-      <c r="CC153" s="42"/>
-      <c r="CD153" s="42">
+      <c r="CA153" s="43"/>
+      <c r="CB153" s="43"/>
+      <c r="CC153" s="43"/>
+      <c r="CD153" s="43">
         <v>2020</v>
       </c>
-      <c r="CE153" s="42"/>
-      <c r="CF153" s="42"/>
-      <c r="CG153" s="42"/>
+      <c r="CE153" s="43"/>
+      <c r="CF153" s="43"/>
+      <c r="CG153" s="43"/>
       <c r="CH153" s="33">
         <v>2021</v>
       </c>
       <c r="CI153" s="33"/>
       <c r="CJ153" s="33"/>
       <c r="CK153" s="33"/>
-      <c r="CL153" s="33">
+      <c r="CL153" s="35">
         <v>2022</v>
       </c>
-      <c r="CM153" s="33"/>
-      <c r="CN153" s="33"/>
-      <c r="CO153" s="33"/>
+      <c r="CM153" s="35"/>
+      <c r="CN153" s="35"/>
+      <c r="CO153" s="35"/>
       <c r="CP153" s="35">
         <v>2023</v>
       </c>
@@ -28844,6 +29015,9 @@
       <c r="CU153" s="35"/>
       <c r="CV153" s="35"/>
       <c r="CW153" s="35"/>
+      <c r="CX153" s="35">
+        <v>2025</v>
+      </c>
     </row>
     <row r="154" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
@@ -29113,16 +29287,16 @@
       <c r="CK154" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CL154" s="7" t="s">
+      <c r="CL154" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="CM154" s="7" t="s">
+      <c r="CM154" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="CN154" s="7" t="s">
+      <c r="CN154" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="CO154" s="7" t="s">
+      <c r="CO154" s="6" t="s">
         <v>22</v>
       </c>
       <c r="CP154" s="6" t="s">
@@ -29148,6 +29322,9 @@
       </c>
       <c r="CW154" s="6" t="s">
         <v>22</v>
+      </c>
+      <c r="CX154" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="155" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -29421,43 +29598,45 @@
       <c r="CK156" s="26">
         <v>39.950578211679009</v>
       </c>
-      <c r="CL156" s="26">
+      <c r="CL156" s="25">
         <v>35.901070203489269</v>
       </c>
-      <c r="CM156" s="26">
+      <c r="CM156" s="25">
         <v>40.349517137998554</v>
       </c>
-      <c r="CN156" s="26">
+      <c r="CN156" s="25">
         <v>35.186054363659835</v>
       </c>
-      <c r="CO156" s="26">
+      <c r="CO156" s="25">
         <v>39.706183158320783</v>
       </c>
       <c r="CP156" s="25">
-        <v>34.777375121766887</v>
+        <v>34.790840517115882</v>
       </c>
       <c r="CQ156" s="25">
-        <v>38.953757662196161</v>
+        <v>38.971212053303731</v>
       </c>
       <c r="CR156" s="25">
-        <v>34.585890301288167</v>
+        <v>34.597149704232194</v>
       </c>
       <c r="CS156" s="25">
-        <v>38.631889043022369</v>
+        <v>38.709884153094897</v>
       </c>
       <c r="CT156" s="25">
-        <v>33.74258673364406</v>
+        <v>33.740564826862929</v>
       </c>
       <c r="CU156" s="25">
-        <v>38.179915062970267</v>
+        <v>38.170292772200945</v>
       </c>
       <c r="CV156" s="25">
-        <v>34.201603023351709</v>
+        <v>34.178777670319668</v>
       </c>
       <c r="CW156" s="25">
-        <v>37.614103862293561</v>
-      </c>
-      <c r="CX156" s="11"/>
+        <v>37.736197721258655</v>
+      </c>
+      <c r="CX156" s="25">
+        <v>33.678025426605707</v>
+      </c>
       <c r="CY156" s="11"/>
       <c r="CZ156" s="11"/>
       <c r="DA156" s="11"/>
@@ -29778,43 +29957,45 @@
       <c r="CK157" s="26">
         <v>2.2464627184106933</v>
       </c>
-      <c r="CL157" s="26">
+      <c r="CL157" s="25">
         <v>1.8354806477620267</v>
       </c>
-      <c r="CM157" s="26">
+      <c r="CM157" s="25">
         <v>1.9397768991075401</v>
       </c>
-      <c r="CN157" s="26">
+      <c r="CN157" s="25">
         <v>1.78048336070237</v>
       </c>
-      <c r="CO157" s="26">
+      <c r="CO157" s="25">
         <v>2.2388896384068375</v>
       </c>
       <c r="CP157" s="25">
-        <v>1.7737668698004467</v>
+        <v>1.7744536522853647</v>
       </c>
       <c r="CQ157" s="25">
-        <v>1.7909937470875148</v>
+        <v>1.791796255160601</v>
       </c>
       <c r="CR157" s="25">
-        <v>1.8015391961785365</v>
+        <v>1.8021313792009348</v>
       </c>
       <c r="CS157" s="25">
-        <v>2.1894322620388316</v>
+        <v>2.1888403822131446</v>
       </c>
       <c r="CT157" s="25">
-        <v>1.73506734108077</v>
+        <v>1.7396351092961251</v>
       </c>
       <c r="CU157" s="25">
-        <v>1.7947128520954285</v>
+        <v>1.7988740278367596</v>
       </c>
       <c r="CV157" s="25">
-        <v>1.7456984738805228</v>
+        <v>1.7738230691692856</v>
       </c>
       <c r="CW157" s="25">
-        <v>2.1999225226785093</v>
-      </c>
-      <c r="CX157" s="11"/>
+        <v>2.1737726938704962</v>
+      </c>
+      <c r="CX157" s="25">
+        <v>1.7925730750542874</v>
+      </c>
       <c r="CY157" s="11"/>
       <c r="CZ157" s="11"/>
       <c r="DA157" s="11"/>
@@ -30135,43 +30316,45 @@
       <c r="CK158" s="26">
         <v>1.7975824721453986</v>
       </c>
-      <c r="CL158" s="26">
+      <c r="CL158" s="25">
         <v>1.5039661691017299</v>
       </c>
-      <c r="CM158" s="26">
+      <c r="CM158" s="25">
         <v>1.6848864572485838</v>
       </c>
-      <c r="CN158" s="26">
+      <c r="CN158" s="25">
         <v>1.6915217543019692</v>
       </c>
-      <c r="CO158" s="26">
+      <c r="CO158" s="25">
         <v>1.7855596023295648</v>
       </c>
       <c r="CP158" s="25">
-        <v>1.3330365379199502</v>
+        <v>1.3335526746014872</v>
       </c>
       <c r="CQ158" s="25">
-        <v>1.1598411724524635</v>
+        <v>1.1603608738190128</v>
       </c>
       <c r="CR158" s="25">
-        <v>1.4417020608216216</v>
+        <v>1.4599710470889482</v>
       </c>
       <c r="CS158" s="25">
-        <v>1.667984834419993</v>
+        <v>1.6665380310410645</v>
       </c>
       <c r="CT158" s="25">
-        <v>1.2958681423365037</v>
+        <v>1.2829534288431415</v>
       </c>
       <c r="CU158" s="25">
-        <v>1.0417879672185866</v>
+        <v>1.0515195026588942</v>
       </c>
       <c r="CV158" s="25">
-        <v>1.4590381049576426</v>
+        <v>1.4578340988216794</v>
       </c>
       <c r="CW158" s="25">
-        <v>1.6141791828377801</v>
-      </c>
-      <c r="CX158" s="11"/>
+        <v>1.6389737839370069</v>
+      </c>
+      <c r="CX158" s="25">
+        <v>1.267951497346085</v>
+      </c>
       <c r="CY158" s="11"/>
       <c r="CZ158" s="11"/>
       <c r="DA158" s="11"/>
@@ -30492,43 +30675,45 @@
       <c r="CK159" s="26">
         <v>11.462015765957739</v>
       </c>
-      <c r="CL159" s="26">
+      <c r="CL159" s="25">
         <v>11.519331772164133</v>
       </c>
-      <c r="CM159" s="26">
+      <c r="CM159" s="25">
         <v>14.861333164909816</v>
       </c>
-      <c r="CN159" s="26">
+      <c r="CN159" s="25">
         <v>12.668462304947237</v>
       </c>
-      <c r="CO159" s="26">
+      <c r="CO159" s="25">
         <v>11.151075904585934</v>
       </c>
       <c r="CP159" s="25">
-        <v>11.272282412703888</v>
+        <v>11.276646913055032</v>
       </c>
       <c r="CQ159" s="25">
-        <v>14.991019183420937</v>
+        <v>14.997736355818683</v>
       </c>
       <c r="CR159" s="25">
-        <v>12.423178447983259</v>
+        <v>12.427262064579804</v>
       </c>
       <c r="CS159" s="25">
-        <v>10.857885219792472</v>
+        <v>10.851789489709063</v>
       </c>
       <c r="CT159" s="25">
-        <v>11.273698325861938</v>
+        <v>11.268407984878746</v>
       </c>
       <c r="CU159" s="25">
-        <v>14.680215759094592</v>
+        <v>14.680481837094286</v>
       </c>
       <c r="CV159" s="25">
-        <v>12.246746130825645</v>
+        <v>12.249819284378011</v>
       </c>
       <c r="CW159" s="25">
-        <v>10.741604748859368</v>
-      </c>
-      <c r="CX159" s="11"/>
+        <v>10.717668232278442</v>
+      </c>
+      <c r="CX159" s="25">
+        <v>10.901819654397118</v>
+      </c>
       <c r="CY159" s="11"/>
       <c r="CZ159" s="11"/>
       <c r="DA159" s="11"/>
@@ -30849,43 +31034,45 @@
       <c r="CK160" s="26">
         <v>2.7226153263189437</v>
       </c>
-      <c r="CL160" s="26">
+      <c r="CL160" s="25">
         <v>2.7878206787307782</v>
       </c>
-      <c r="CM160" s="26">
+      <c r="CM160" s="25">
         <v>2.647094123312097</v>
       </c>
-      <c r="CN160" s="26">
+      <c r="CN160" s="25">
         <v>2.9951768913473278</v>
       </c>
-      <c r="CO160" s="26">
+      <c r="CO160" s="25">
         <v>2.6883100705059184</v>
       </c>
       <c r="CP160" s="25">
-        <v>2.509429285697041</v>
+        <v>2.5104009085414387</v>
       </c>
       <c r="CQ160" s="25">
-        <v>2.4561449212024158</v>
+        <v>2.4573346219640957</v>
       </c>
       <c r="CR160" s="25">
-        <v>2.819885532161893</v>
+        <v>2.8220342677509129</v>
       </c>
       <c r="CS160" s="25">
-        <v>2.5866039084740065</v>
+        <v>2.5859828462111296</v>
       </c>
       <c r="CT160" s="25">
-        <v>2.4654206154956828</v>
+        <v>2.4692392511487053</v>
       </c>
       <c r="CU160" s="25">
-        <v>2.3817025642624978</v>
+        <v>2.377297976429483</v>
       </c>
       <c r="CV160" s="25">
-        <v>2.7435068531069016</v>
+        <v>2.7447926055598955</v>
       </c>
       <c r="CW160" s="25">
-        <v>2.5903056095724923</v>
-      </c>
-      <c r="CX160" s="11"/>
+        <v>2.5791321485030427</v>
+      </c>
+      <c r="CX160" s="25">
+        <v>2.3536763365879554</v>
+      </c>
       <c r="CY160" s="11"/>
       <c r="CZ160" s="11"/>
       <c r="DA160" s="11"/>
@@ -31206,43 +31393,45 @@
       <c r="CK161" s="26">
         <v>4.2575596660426234</v>
       </c>
-      <c r="CL161" s="26">
+      <c r="CL161" s="25">
         <v>4.2727865061165486</v>
       </c>
-      <c r="CM161" s="26">
+      <c r="CM161" s="25">
         <v>3.5541442550144922</v>
       </c>
-      <c r="CN161" s="26">
+      <c r="CN161" s="25">
         <v>5.3113846951977663</v>
       </c>
-      <c r="CO161" s="26">
+      <c r="CO161" s="25">
         <v>4.0188063188814152</v>
       </c>
       <c r="CP161" s="25">
-        <v>4.1655784852578552</v>
+        <v>4.164110692700504</v>
       </c>
       <c r="CQ161" s="25">
-        <v>3.6238113583803049</v>
+        <v>3.6256497261728629</v>
       </c>
       <c r="CR161" s="25">
-        <v>5.3149467589174169</v>
+        <v>5.3182900408878009</v>
       </c>
       <c r="CS161" s="25">
-        <v>4.0650388058573528</v>
+        <v>4.0599390215841797</v>
       </c>
       <c r="CT161" s="25">
-        <v>4.2560300883271545</v>
+        <v>4.2612723511315176</v>
       </c>
       <c r="CU161" s="25">
-        <v>3.7527073695547792</v>
+        <v>3.7524803900910482</v>
       </c>
       <c r="CV161" s="25">
-        <v>5.5887238344577854</v>
+        <v>5.5899219413574608</v>
       </c>
       <c r="CW161" s="25">
-        <v>4.3259068288749711</v>
-      </c>
-      <c r="CX161" s="11"/>
+        <v>4.3166877607820213</v>
+      </c>
+      <c r="CX161" s="25">
+        <v>4.4448749409005845</v>
+      </c>
       <c r="CY161" s="11"/>
       <c r="CZ161" s="11"/>
       <c r="DA161" s="11"/>
@@ -31563,43 +31752,45 @@
       <c r="CK162" s="26">
         <v>7.3411639889025952</v>
       </c>
-      <c r="CL162" s="26">
+      <c r="CL162" s="25">
         <v>9.9023420817954708</v>
       </c>
-      <c r="CM162" s="26">
+      <c r="CM162" s="25">
         <v>7.6632646209060171</v>
       </c>
-      <c r="CN162" s="26">
+      <c r="CN162" s="25">
         <v>11.204218568092399</v>
       </c>
-      <c r="CO162" s="26">
+      <c r="CO162" s="25">
         <v>7.7405906149328807</v>
       </c>
       <c r="CP162" s="25">
-        <v>10.711524024750984</v>
+        <v>10.715671405773877</v>
       </c>
       <c r="CQ162" s="25">
-        <v>8.8828325757876172</v>
+        <v>8.8868127933149541</v>
       </c>
       <c r="CR162" s="25">
-        <v>11.549764271784989</v>
+        <v>11.553560788907697</v>
       </c>
       <c r="CS162" s="25">
-        <v>7.9246405228984216</v>
+        <v>7.9297786635876166</v>
       </c>
       <c r="CT162" s="25">
-        <v>10.758835452131986</v>
+        <v>10.749590473904172</v>
       </c>
       <c r="CU162" s="25">
-        <v>9.4141248494832901</v>
+        <v>9.4145467553759961</v>
       </c>
       <c r="CV162" s="25">
-        <v>11.374116085831455</v>
+        <v>11.370821307660917</v>
       </c>
       <c r="CW162" s="25">
-        <v>8.1149201097929087</v>
-      </c>
-      <c r="CX162" s="11"/>
+        <v>8.0993814933164714</v>
+      </c>
+      <c r="CX162" s="25">
+        <v>10.822290581558871</v>
+      </c>
       <c r="CY162" s="11"/>
       <c r="CZ162" s="11"/>
       <c r="DA162" s="11"/>
@@ -31920,43 +32111,45 @@
       <c r="CK163" s="26">
         <v>2.8116013085758307</v>
       </c>
-      <c r="CL163" s="26">
+      <c r="CL163" s="25">
         <v>3.1484033549927792</v>
       </c>
-      <c r="CM163" s="26">
+      <c r="CM163" s="25">
         <v>3.2644229031120715</v>
       </c>
-      <c r="CN163" s="26">
+      <c r="CN163" s="25">
         <v>2.3396672271433898</v>
       </c>
-      <c r="CO163" s="26">
+      <c r="CO163" s="25">
         <v>2.6189212692228518</v>
       </c>
       <c r="CP163" s="25">
-        <v>2.8930272292598871</v>
+        <v>2.8915216665059065</v>
       </c>
       <c r="CQ163" s="25">
-        <v>3.0909185852496841</v>
+        <v>3.0894291346998988</v>
       </c>
       <c r="CR163" s="25">
-        <v>2.2508887443653709</v>
+        <v>2.2466001710719676</v>
       </c>
       <c r="CS163" s="25">
-        <v>2.5190493587475671</v>
+        <v>2.511127340851198</v>
       </c>
       <c r="CT163" s="25">
-        <v>2.8126905389433627</v>
+        <v>2.811417037587967</v>
       </c>
       <c r="CU163" s="25">
-        <v>3.0448177415938513</v>
+        <v>3.0559073944770847</v>
       </c>
       <c r="CV163" s="25">
-        <v>2.1715073596893744</v>
+        <v>2.169340847330584</v>
       </c>
       <c r="CW163" s="25">
-        <v>2.436976170497593</v>
-      </c>
-      <c r="CX163" s="11"/>
+        <v>2.4304136686051896</v>
+      </c>
+      <c r="CX163" s="25">
+        <v>2.7844361067233412</v>
+      </c>
       <c r="CY163" s="11"/>
       <c r="CZ163" s="11"/>
       <c r="DA163" s="11"/>
@@ -32277,43 +32470,45 @@
       <c r="CK164" s="26">
         <v>1.6762344259750122</v>
       </c>
-      <c r="CL164" s="26">
+      <c r="CL164" s="25">
         <v>1.4632444302925172</v>
       </c>
-      <c r="CM164" s="26">
+      <c r="CM164" s="25">
         <v>1.0711637409148878</v>
       </c>
-      <c r="CN164" s="26">
+      <c r="CN164" s="25">
         <v>1.288328716599686</v>
       </c>
-      <c r="CO164" s="26">
+      <c r="CO164" s="25">
         <v>1.7471023078264252</v>
       </c>
       <c r="CP164" s="25">
-        <v>1.7042452349568096</v>
+        <v>1.7049050994521462</v>
       </c>
       <c r="CQ164" s="25">
-        <v>1.2142981157007762</v>
+        <v>1.2158609755314975</v>
       </c>
       <c r="CR164" s="25">
-        <v>1.3926567450645428</v>
+        <v>1.3948558505727693</v>
       </c>
       <c r="CS164" s="25">
-        <v>1.8013750376547548</v>
+        <v>1.7924521906668685</v>
       </c>
       <c r="CT164" s="25">
-        <v>1.7898417345833855</v>
+        <v>1.7931338247461133</v>
       </c>
       <c r="CU164" s="25">
-        <v>1.348212296732147</v>
+        <v>1.350220445796573</v>
       </c>
       <c r="CV164" s="25">
-        <v>1.3711280756251509</v>
+        <v>1.3678928452097994</v>
       </c>
       <c r="CW164" s="25">
-        <v>1.8969804611059689</v>
-      </c>
-      <c r="CX164" s="11"/>
+        <v>1.865279867068689</v>
+      </c>
+      <c r="CX164" s="25">
+        <v>1.869807275075672</v>
+      </c>
       <c r="CY164" s="11"/>
       <c r="CZ164" s="11"/>
       <c r="DA164" s="11"/>
@@ -32634,43 +32829,45 @@
       <c r="CK165" s="26">
         <v>4.5655907987946813</v>
       </c>
-      <c r="CL165" s="26">
+      <c r="CL165" s="25">
         <v>5.3329379079234505</v>
       </c>
-      <c r="CM165" s="26">
+      <c r="CM165" s="25">
         <v>4.814746855255903</v>
       </c>
-      <c r="CN165" s="26">
+      <c r="CN165" s="25">
         <v>5.311034952452828</v>
       </c>
-      <c r="CO165" s="26">
+      <c r="CO165" s="25">
         <v>4.5211469679515659</v>
       </c>
       <c r="CP165" s="25">
-        <v>5.153138755919608</v>
+        <v>5.1221215019456245</v>
       </c>
       <c r="CQ165" s="25">
-        <v>4.7937601109945138</v>
+        <v>4.7539042612907059</v>
       </c>
       <c r="CR165" s="25">
-        <v>5.3369055358635444</v>
+        <v>5.2885485616629566</v>
       </c>
       <c r="CS165" s="25">
-        <v>4.6261036531835904</v>
+        <v>4.6024140829590525</v>
       </c>
       <c r="CT165" s="25">
-        <v>5.1326482976275463</v>
+        <v>5.1610134715853997</v>
       </c>
       <c r="CU165" s="25">
-        <v>4.5808606186476473</v>
+        <v>4.5766352357486815</v>
       </c>
       <c r="CV165" s="25">
-        <v>5.3169688780627382</v>
+        <v>5.3177542055100062</v>
       </c>
       <c r="CW165" s="25">
-        <v>4.7262450830600162</v>
-      </c>
-      <c r="CX165" s="11"/>
+        <v>4.7386931811274202</v>
+      </c>
+      <c r="CX165" s="25">
+        <v>5.3566165427758019</v>
+      </c>
       <c r="CY165" s="11"/>
       <c r="CZ165" s="11"/>
       <c r="DA165" s="11"/>
@@ -32991,43 +33188,45 @@
       <c r="CK166" s="26">
         <v>6.6244397356584885</v>
       </c>
-      <c r="CL166" s="26">
+      <c r="CL166" s="25">
         <v>8.2278710742860355</v>
       </c>
-      <c r="CM166" s="26">
+      <c r="CM166" s="25">
         <v>4.7141680881960069</v>
       </c>
-      <c r="CN166" s="26">
+      <c r="CN166" s="25">
         <v>7.0324437509194579</v>
       </c>
-      <c r="CO166" s="26">
+      <c r="CO166" s="25">
         <v>7.6695494628659464</v>
       </c>
       <c r="CP166" s="25">
-        <v>9.6188348001646844</v>
+        <v>9.6225591042874772</v>
       </c>
       <c r="CQ166" s="25">
-        <v>5.6296600386073568</v>
+        <v>5.6321825753713579</v>
       </c>
       <c r="CR166" s="25">
-        <v>7.8059632464072122</v>
+        <v>7.8099190955461557</v>
       </c>
       <c r="CS166" s="25">
-        <v>8.5657027741046523</v>
+        <v>8.5415135531985786</v>
       </c>
       <c r="CT166" s="25">
-        <v>10.490405369774477</v>
+        <v>10.483001599509253</v>
       </c>
       <c r="CU166" s="25">
-        <v>6.0536763615335518</v>
+        <v>6.052953337262081</v>
       </c>
       <c r="CV166" s="25">
-        <v>8.2744530723818279</v>
+        <v>8.2748468384553693</v>
       </c>
       <c r="CW166" s="25">
-        <v>8.7196149452613181</v>
-      </c>
-      <c r="CX166" s="11"/>
+        <v>8.7161507554568978</v>
+      </c>
+      <c r="CX166" s="25">
+        <v>10.521670992078798</v>
+      </c>
       <c r="CY166" s="11"/>
       <c r="CZ166" s="11"/>
       <c r="DA166" s="11"/>
@@ -33348,43 +33547,45 @@
       <c r="CK167" s="26">
         <v>14.54415558153898</v>
       </c>
-      <c r="CL167" s="26">
+      <c r="CL167" s="25">
         <v>14.10474517334527</v>
       </c>
-      <c r="CM167" s="26">
+      <c r="CM167" s="25">
         <v>13.435481754024048</v>
       </c>
-      <c r="CN167" s="26">
+      <c r="CN167" s="25">
         <v>13.191223414635703</v>
       </c>
-      <c r="CO167" s="26">
+      <c r="CO167" s="25">
         <v>14.113864684169855</v>
       </c>
       <c r="CP167" s="25">
-        <v>14.087761241801958</v>
+        <v>14.093215863735258</v>
       </c>
       <c r="CQ167" s="25">
-        <v>13.412962528920266</v>
+        <v>13.417720373552608</v>
       </c>
       <c r="CR167" s="25">
-        <v>13.276679159163452</v>
+        <v>13.279677028497861</v>
       </c>
       <c r="CS167" s="25">
-        <v>14.564294579806006</v>
+        <v>14.559740244883201</v>
       </c>
       <c r="CT167" s="25">
-        <v>14.246907360193131</v>
+        <v>14.239770640505938</v>
       </c>
       <c r="CU167" s="25">
-        <v>13.727266556813362</v>
+        <v>13.718790325028159</v>
       </c>
       <c r="CV167" s="25">
-        <v>13.506510107829243</v>
+        <v>13.504375286227347</v>
       </c>
       <c r="CW167" s="25">
-        <v>15.019240475165502</v>
-      </c>
-      <c r="CX167" s="11"/>
+        <v>14.987648693795666</v>
+      </c>
+      <c r="CX167" s="25">
+        <v>14.206257570895772</v>
+      </c>
       <c r="CY167" s="11"/>
       <c r="CZ167" s="11"/>
       <c r="DA167" s="11"/>
@@ -33526,10 +33727,10 @@
       <c r="CI168" s="11"/>
       <c r="CJ168" s="11"/>
       <c r="CK168" s="11"/>
-      <c r="CL168" s="11"/>
-      <c r="CM168" s="11"/>
-      <c r="CN168" s="11"/>
-      <c r="CO168" s="11"/>
+      <c r="CL168" s="13"/>
+      <c r="CM168" s="13"/>
+      <c r="CN168" s="13"/>
+      <c r="CO168" s="13"/>
       <c r="CP168" s="13"/>
       <c r="CQ168" s="13"/>
       <c r="CR168" s="13"/>
@@ -33538,7 +33739,7 @@
       <c r="CU168" s="13"/>
       <c r="CV168" s="13"/>
       <c r="CW168" s="13"/>
-      <c r="CX168" s="11"/>
+      <c r="CX168" s="13"/>
       <c r="CY168" s="11"/>
       <c r="CZ168" s="11"/>
       <c r="DA168" s="11"/>
@@ -33859,16 +34060,16 @@
       <c r="CK169" s="26">
         <v>100</v>
       </c>
-      <c r="CL169" s="26">
+      <c r="CL169" s="25">
         <v>100</v>
       </c>
-      <c r="CM169" s="26">
+      <c r="CM169" s="25">
         <v>100</v>
       </c>
-      <c r="CN169" s="26">
+      <c r="CN169" s="25">
         <v>100</v>
       </c>
-      <c r="CO169" s="26">
+      <c r="CO169" s="25">
         <v>100</v>
       </c>
       <c r="CP169" s="25">
@@ -33895,7 +34096,9 @@
       <c r="CW169" s="25">
         <v>100</v>
       </c>
-      <c r="CX169" s="11"/>
+      <c r="CX169" s="25">
+        <v>100</v>
+      </c>
       <c r="CY169" s="11"/>
       <c r="CZ169" s="11"/>
       <c r="DA169" s="11"/>
@@ -34038,10 +34241,10 @@
       <c r="CI170" s="16"/>
       <c r="CJ170" s="16"/>
       <c r="CK170" s="16"/>
-      <c r="CL170" s="16"/>
-      <c r="CM170" s="16"/>
-      <c r="CN170" s="16"/>
-      <c r="CO170" s="16"/>
+      <c r="CL170" s="17"/>
+      <c r="CM170" s="17"/>
+      <c r="CN170" s="17"/>
+      <c r="CO170" s="17"/>
       <c r="CP170" s="17"/>
       <c r="CQ170" s="17"/>
       <c r="CR170" s="17"/>
@@ -34050,6 +34253,7 @@
       <c r="CU170" s="17"/>
       <c r="CV170" s="17"/>
       <c r="CW170" s="17"/>
+      <c r="CX170" s="17"/>
     </row>
     <row r="171" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A171" s="18" t="s">
@@ -34145,10 +34349,10 @@
       <c r="CI172" s="11"/>
       <c r="CJ172" s="11"/>
       <c r="CK172" s="11"/>
-      <c r="CL172" s="11"/>
-      <c r="CM172" s="11"/>
-      <c r="CN172" s="11"/>
-      <c r="CO172" s="11"/>
+      <c r="CL172" s="13"/>
+      <c r="CM172" s="13"/>
+      <c r="CN172" s="13"/>
+      <c r="CO172" s="13"/>
       <c r="CP172" s="13"/>
       <c r="CQ172" s="13"/>
       <c r="CR172" s="13"/>
@@ -34157,7 +34361,7 @@
       <c r="CU172" s="13"/>
       <c r="CV172" s="13"/>
       <c r="CW172" s="13"/>
-      <c r="CX172" s="11"/>
+      <c r="CX172" s="13"/>
       <c r="CY172" s="11"/>
       <c r="CZ172" s="11"/>
       <c r="DA172" s="11"/>
@@ -34299,10 +34503,10 @@
       <c r="CI173" s="11"/>
       <c r="CJ173" s="11"/>
       <c r="CK173" s="11"/>
-      <c r="CL173" s="11"/>
-      <c r="CM173" s="11"/>
-      <c r="CN173" s="11"/>
-      <c r="CO173" s="11"/>
+      <c r="CL173" s="13"/>
+      <c r="CM173" s="13"/>
+      <c r="CN173" s="13"/>
+      <c r="CO173" s="13"/>
       <c r="CP173" s="13"/>
       <c r="CQ173" s="13"/>
       <c r="CR173" s="13"/>
@@ -34311,7 +34515,7 @@
       <c r="CU173" s="13"/>
       <c r="CV173" s="13"/>
       <c r="CW173" s="13"/>
-      <c r="CX173" s="11"/>
+      <c r="CX173" s="13"/>
       <c r="CY173" s="11"/>
       <c r="CZ173" s="11"/>
       <c r="DA173" s="11"/>
@@ -34376,7 +34580,7 @@
     </row>
     <row r="176" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="178" spans="1:153" x14ac:dyDescent="0.2">
@@ -34386,7 +34590,7 @@
     </row>
     <row r="179" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="180" spans="1:153" x14ac:dyDescent="0.2">
@@ -34396,144 +34600,144 @@
     </row>
     <row r="182" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A182" s="4"/>
-      <c r="B182" s="43">
+      <c r="B182" s="42">
         <v>2000</v>
       </c>
-      <c r="C182" s="43"/>
-      <c r="D182" s="43"/>
-      <c r="E182" s="43"/>
-      <c r="F182" s="43">
+      <c r="C182" s="42"/>
+      <c r="D182" s="42"/>
+      <c r="E182" s="42"/>
+      <c r="F182" s="42">
         <v>2001</v>
       </c>
-      <c r="G182" s="43"/>
-      <c r="H182" s="43"/>
-      <c r="I182" s="43"/>
-      <c r="J182" s="43">
+      <c r="G182" s="42"/>
+      <c r="H182" s="42"/>
+      <c r="I182" s="42"/>
+      <c r="J182" s="42">
         <v>2002</v>
       </c>
-      <c r="K182" s="43"/>
-      <c r="L182" s="43"/>
-      <c r="M182" s="43"/>
-      <c r="N182" s="43">
+      <c r="K182" s="42"/>
+      <c r="L182" s="42"/>
+      <c r="M182" s="42"/>
+      <c r="N182" s="42">
         <v>2003</v>
       </c>
-      <c r="O182" s="43"/>
-      <c r="P182" s="43"/>
-      <c r="Q182" s="43"/>
-      <c r="R182" s="43">
+      <c r="O182" s="42"/>
+      <c r="P182" s="42"/>
+      <c r="Q182" s="42"/>
+      <c r="R182" s="42">
         <v>2004</v>
       </c>
-      <c r="S182" s="43"/>
-      <c r="T182" s="43"/>
-      <c r="U182" s="43"/>
-      <c r="V182" s="43">
+      <c r="S182" s="42"/>
+      <c r="T182" s="42"/>
+      <c r="U182" s="42"/>
+      <c r="V182" s="42">
         <v>2005</v>
       </c>
-      <c r="W182" s="43"/>
-      <c r="X182" s="43"/>
-      <c r="Y182" s="43"/>
-      <c r="Z182" s="43">
+      <c r="W182" s="42"/>
+      <c r="X182" s="42"/>
+      <c r="Y182" s="42"/>
+      <c r="Z182" s="42">
         <v>2006</v>
       </c>
-      <c r="AA182" s="43"/>
-      <c r="AB182" s="43"/>
-      <c r="AC182" s="43"/>
-      <c r="AD182" s="43">
+      <c r="AA182" s="42"/>
+      <c r="AB182" s="42"/>
+      <c r="AC182" s="42"/>
+      <c r="AD182" s="42">
         <v>2007</v>
       </c>
-      <c r="AE182" s="43"/>
-      <c r="AF182" s="43"/>
-      <c r="AG182" s="43"/>
-      <c r="AH182" s="43">
+      <c r="AE182" s="42"/>
+      <c r="AF182" s="42"/>
+      <c r="AG182" s="42"/>
+      <c r="AH182" s="42">
         <v>2008</v>
       </c>
-      <c r="AI182" s="43"/>
-      <c r="AJ182" s="43"/>
-      <c r="AK182" s="43"/>
-      <c r="AL182" s="43">
+      <c r="AI182" s="42"/>
+      <c r="AJ182" s="42"/>
+      <c r="AK182" s="42"/>
+      <c r="AL182" s="42">
         <v>2009</v>
       </c>
-      <c r="AM182" s="43"/>
-      <c r="AN182" s="43"/>
-      <c r="AO182" s="43"/>
-      <c r="AP182" s="43">
+      <c r="AM182" s="42"/>
+      <c r="AN182" s="42"/>
+      <c r="AO182" s="42"/>
+      <c r="AP182" s="42">
         <v>2010</v>
       </c>
-      <c r="AQ182" s="43"/>
-      <c r="AR182" s="43"/>
-      <c r="AS182" s="43"/>
-      <c r="AT182" s="43">
+      <c r="AQ182" s="42"/>
+      <c r="AR182" s="42"/>
+      <c r="AS182" s="42"/>
+      <c r="AT182" s="42">
         <v>2011</v>
       </c>
-      <c r="AU182" s="43"/>
-      <c r="AV182" s="43"/>
-      <c r="AW182" s="43"/>
-      <c r="AX182" s="43">
+      <c r="AU182" s="42"/>
+      <c r="AV182" s="42"/>
+      <c r="AW182" s="42"/>
+      <c r="AX182" s="42">
         <v>2012</v>
       </c>
-      <c r="AY182" s="43"/>
-      <c r="AZ182" s="43"/>
-      <c r="BA182" s="43"/>
-      <c r="BB182" s="43">
+      <c r="AY182" s="42"/>
+      <c r="AZ182" s="42"/>
+      <c r="BA182" s="42"/>
+      <c r="BB182" s="42">
         <v>2013</v>
       </c>
-      <c r="BC182" s="43"/>
-      <c r="BD182" s="43"/>
-      <c r="BE182" s="43"/>
-      <c r="BF182" s="43">
+      <c r="BC182" s="42"/>
+      <c r="BD182" s="42"/>
+      <c r="BE182" s="42"/>
+      <c r="BF182" s="42">
         <v>2014</v>
       </c>
-      <c r="BG182" s="43"/>
-      <c r="BH182" s="43"/>
-      <c r="BI182" s="43"/>
-      <c r="BJ182" s="43">
+      <c r="BG182" s="42"/>
+      <c r="BH182" s="42"/>
+      <c r="BI182" s="42"/>
+      <c r="BJ182" s="42">
         <v>2015</v>
       </c>
-      <c r="BK182" s="43"/>
-      <c r="BL182" s="43"/>
-      <c r="BM182" s="43"/>
-      <c r="BN182" s="43">
+      <c r="BK182" s="42"/>
+      <c r="BL182" s="42"/>
+      <c r="BM182" s="42"/>
+      <c r="BN182" s="42">
         <v>2016</v>
       </c>
-      <c r="BO182" s="43"/>
-      <c r="BP182" s="43"/>
-      <c r="BQ182" s="43"/>
-      <c r="BR182" s="42">
+      <c r="BO182" s="42"/>
+      <c r="BP182" s="42"/>
+      <c r="BQ182" s="42"/>
+      <c r="BR182" s="43">
         <v>2017</v>
       </c>
-      <c r="BS182" s="42"/>
-      <c r="BT182" s="42"/>
-      <c r="BU182" s="42"/>
-      <c r="BV182" s="42">
+      <c r="BS182" s="43"/>
+      <c r="BT182" s="43"/>
+      <c r="BU182" s="43"/>
+      <c r="BV182" s="43">
         <v>2018</v>
       </c>
-      <c r="BW182" s="42"/>
-      <c r="BX182" s="42"/>
-      <c r="BY182" s="42"/>
-      <c r="BZ182" s="42">
+      <c r="BW182" s="43"/>
+      <c r="BX182" s="43"/>
+      <c r="BY182" s="43"/>
+      <c r="BZ182" s="43">
         <v>2019</v>
       </c>
-      <c r="CA182" s="42"/>
-      <c r="CB182" s="42"/>
-      <c r="CC182" s="42"/>
-      <c r="CD182" s="42">
+      <c r="CA182" s="43"/>
+      <c r="CB182" s="43"/>
+      <c r="CC182" s="43"/>
+      <c r="CD182" s="43">
         <v>2020</v>
       </c>
-      <c r="CE182" s="42"/>
-      <c r="CF182" s="42"/>
-      <c r="CG182" s="42"/>
+      <c r="CE182" s="43"/>
+      <c r="CF182" s="43"/>
+      <c r="CG182" s="43"/>
       <c r="CH182" s="33">
         <v>2021</v>
       </c>
       <c r="CI182" s="33"/>
       <c r="CJ182" s="33"/>
       <c r="CK182" s="33"/>
-      <c r="CL182" s="33">
+      <c r="CL182" s="35">
         <v>2022</v>
       </c>
-      <c r="CM182" s="33"/>
-      <c r="CN182" s="33"/>
-      <c r="CO182" s="33"/>
+      <c r="CM182" s="35"/>
+      <c r="CN182" s="35"/>
+      <c r="CO182" s="35"/>
       <c r="CP182" s="35">
         <v>2023</v>
       </c>
@@ -34546,6 +34750,9 @@
       <c r="CU182" s="35"/>
       <c r="CV182" s="35"/>
       <c r="CW182" s="35"/>
+      <c r="CX182" s="35">
+        <v>2025</v>
+      </c>
     </row>
     <row r="183" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
@@ -34815,16 +35022,16 @@
       <c r="CK183" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CL183" s="7" t="s">
+      <c r="CL183" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="CM183" s="7" t="s">
+      <c r="CM183" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="CN183" s="7" t="s">
+      <c r="CN183" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="CO183" s="7" t="s">
+      <c r="CO183" s="6" t="s">
         <v>22</v>
       </c>
       <c r="CP183" s="6" t="s">
@@ -34850,6 +35057,9 @@
       </c>
       <c r="CW183" s="6" t="s">
         <v>22</v>
+      </c>
+      <c r="CX183" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="184" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35123,43 +35333,45 @@
       <c r="CK185" s="26">
         <v>39.58364879488586</v>
       </c>
-      <c r="CL185" s="26">
+      <c r="CL185" s="25">
         <v>36.178035408208849</v>
       </c>
-      <c r="CM185" s="26">
+      <c r="CM185" s="25">
         <v>39.973774092787615</v>
       </c>
-      <c r="CN185" s="26">
+      <c r="CN185" s="25">
         <v>35.013804660231358</v>
       </c>
-      <c r="CO185" s="26">
+      <c r="CO185" s="25">
         <v>38.467736241135981</v>
       </c>
       <c r="CP185" s="25">
-        <v>34.262712201520273</v>
+        <v>34.277364141991427</v>
       </c>
       <c r="CQ185" s="25">
-        <v>38.015837739265748</v>
+        <v>38.034486490983355</v>
       </c>
       <c r="CR185" s="25">
-        <v>33.398454332898446</v>
+        <v>33.410607282122939</v>
       </c>
       <c r="CS185" s="25">
-        <v>36.732083386928984</v>
+        <v>36.80984015330182</v>
       </c>
       <c r="CT185" s="25">
-        <v>32.896965518307603</v>
+        <v>32.894422176933666</v>
       </c>
       <c r="CU185" s="25">
-        <v>36.511167335158198</v>
+        <v>36.501499298954798</v>
       </c>
       <c r="CV185" s="25">
-        <v>32.794488946315958</v>
+        <v>32.775660411824433</v>
       </c>
       <c r="CW185" s="25">
-        <v>35.545352827695339</v>
-      </c>
-      <c r="CX185" s="11"/>
+        <v>35.66194087678609</v>
+      </c>
+      <c r="CX185" s="25">
+        <v>32.648465397045584</v>
+      </c>
       <c r="CY185" s="11"/>
       <c r="CZ185" s="11"/>
       <c r="DA185" s="11"/>
@@ -35480,43 +35692,45 @@
       <c r="CK186" s="26">
         <v>1.6975188884552141</v>
       </c>
-      <c r="CL186" s="26">
+      <c r="CL186" s="25">
         <v>1.4560112712863422</v>
       </c>
-      <c r="CM186" s="26">
+      <c r="CM186" s="25">
         <v>1.4251815504793928</v>
       </c>
-      <c r="CN186" s="26">
+      <c r="CN186" s="25">
         <v>1.2512789822943813</v>
       </c>
-      <c r="CO186" s="26">
+      <c r="CO186" s="25">
         <v>1.6438620621132822</v>
       </c>
       <c r="CP186" s="25">
-        <v>1.3612485130898406</v>
+        <v>1.3618306312579658</v>
       </c>
       <c r="CQ186" s="25">
-        <v>1.2401748310693561</v>
+        <v>1.2407832015186759</v>
       </c>
       <c r="CR186" s="25">
-        <v>1.2065606718082675</v>
+        <v>1.2070035256340299</v>
       </c>
       <c r="CS186" s="25">
-        <v>1.5705858628733096</v>
+        <v>1.57031473740653</v>
       </c>
       <c r="CT186" s="25">
-        <v>1.2768111272915197</v>
+        <v>1.2801502176981192</v>
       </c>
       <c r="CU186" s="25">
-        <v>1.2372678204086665</v>
+        <v>1.2401206755194756</v>
       </c>
       <c r="CV186" s="25">
-        <v>1.1675804538884076</v>
+        <v>1.1865017990471138</v>
       </c>
       <c r="CW186" s="25">
-        <v>1.5713754728796527</v>
-      </c>
-      <c r="CX186" s="11"/>
+        <v>1.5527496497655149</v>
+      </c>
+      <c r="CX186" s="25">
+        <v>1.3035179839734798</v>
+      </c>
       <c r="CY186" s="11"/>
       <c r="CZ186" s="11"/>
       <c r="DA186" s="11"/>
@@ -35837,43 +36051,45 @@
       <c r="CK187" s="26">
         <v>1.8612125386472798</v>
       </c>
-      <c r="CL187" s="26">
+      <c r="CL187" s="25">
         <v>1.5773746708464316</v>
       </c>
-      <c r="CM187" s="26">
+      <c r="CM187" s="25">
         <v>1.6583503160880884</v>
       </c>
-      <c r="CN187" s="26">
+      <c r="CN187" s="25">
         <v>1.8682148704328647</v>
       </c>
-      <c r="CO187" s="26">
+      <c r="CO187" s="25">
         <v>1.9181928295153912</v>
       </c>
       <c r="CP187" s="25">
-        <v>1.4390014706376206</v>
+        <v>1.4396168387294581</v>
       </c>
       <c r="CQ187" s="25">
-        <v>1.1485379405181599</v>
+        <v>1.1491013582887346</v>
       </c>
       <c r="CR187" s="25">
-        <v>1.5890058685565911</v>
+        <v>1.6092031178955639</v>
       </c>
       <c r="CS187" s="25">
-        <v>1.7855773806759649</v>
+        <v>1.7842029387784624</v>
       </c>
       <c r="CT187" s="25">
-        <v>1.3957663264400721</v>
+        <v>1.3818319875220162</v>
       </c>
       <c r="CU187" s="25">
-        <v>1.0362324752210506</v>
+        <v>1.0458987542810285</v>
       </c>
       <c r="CV187" s="25">
-        <v>1.6095340345636582</v>
+        <v>1.6083558868999666</v>
       </c>
       <c r="CW187" s="25">
-        <v>1.7291091067571973</v>
-      </c>
-      <c r="CX187" s="11"/>
+        <v>1.7557286246469035</v>
+      </c>
+      <c r="CX187" s="25">
+        <v>1.3685613602344846</v>
+      </c>
       <c r="CY187" s="11"/>
       <c r="CZ187" s="11"/>
       <c r="DA187" s="11"/>
@@ -36194,43 +36410,45 @@
       <c r="CK188" s="26">
         <v>11.309972420802552</v>
       </c>
-      <c r="CL188" s="26">
+      <c r="CL188" s="25">
         <v>12.251734041277494</v>
       </c>
-      <c r="CM188" s="26">
+      <c r="CM188" s="25">
         <v>15.379628984866278</v>
       </c>
-      <c r="CN188" s="26">
+      <c r="CN188" s="25">
         <v>12.560766002913281</v>
       </c>
-      <c r="CO188" s="26">
+      <c r="CO188" s="25">
         <v>11.035445248462167</v>
       </c>
       <c r="CP188" s="25">
-        <v>11.937599870041813</v>
+        <v>11.942704811352188</v>
       </c>
       <c r="CQ188" s="25">
-        <v>15.451567122612181</v>
+        <v>15.459146922238997</v>
       </c>
       <c r="CR188" s="25">
-        <v>12.473626961631645</v>
+        <v>12.478205258894249</v>
       </c>
       <c r="CS188" s="25">
-        <v>10.941797472386442</v>
+        <v>10.93672342165039</v>
       </c>
       <c r="CT188" s="25">
-        <v>12.264604298440004</v>
+        <v>12.258635756619379</v>
       </c>
       <c r="CU188" s="25">
-        <v>15.641721431225688</v>
+        <v>15.641805110328081</v>
       </c>
       <c r="CV188" s="25">
-        <v>12.295294928522193</v>
+        <v>12.299527725960951</v>
       </c>
       <c r="CW188" s="25">
-        <v>10.847678786841746</v>
-      </c>
-      <c r="CX188" s="11"/>
+        <v>10.823872925820751</v>
+      </c>
+      <c r="CX188" s="25">
+        <v>11.915081909791311</v>
+      </c>
       <c r="CY188" s="11"/>
       <c r="CZ188" s="11"/>
       <c r="DA188" s="11"/>
@@ -36551,43 +36769,45 @@
       <c r="CK189" s="26">
         <v>2.7412237162501683</v>
       </c>
-      <c r="CL189" s="26">
+      <c r="CL189" s="25">
         <v>2.7648038789105103</v>
       </c>
-      <c r="CM189" s="26">
+      <c r="CM189" s="25">
         <v>2.6970794406678253</v>
       </c>
-      <c r="CN189" s="26">
+      <c r="CN189" s="25">
         <v>3.0784157806653254</v>
       </c>
-      <c r="CO189" s="26">
+      <c r="CO189" s="25">
         <v>2.7859743637070027</v>
       </c>
       <c r="CP189" s="25">
-        <v>2.5343373606683341</v>
+        <v>2.535421133443104</v>
       </c>
       <c r="CQ189" s="25">
-        <v>2.4938966530908906</v>
+        <v>2.495210565532394</v>
       </c>
       <c r="CR189" s="25">
-        <v>2.9168145942803743</v>
+        <v>2.9191490353259639</v>
       </c>
       <c r="CS189" s="25">
-        <v>2.6603393097202117</v>
+        <v>2.6599604870289264</v>
       </c>
       <c r="CT189" s="25">
-        <v>2.4896474153370489</v>
+        <v>2.4934602086541169</v>
       </c>
       <c r="CU189" s="25">
-        <v>2.4394508054205217</v>
+        <v>2.434908314936838</v>
       </c>
       <c r="CV189" s="25">
-        <v>2.8496368015485833</v>
+        <v>2.8512382930061557</v>
       </c>
       <c r="CW189" s="25">
-        <v>2.6647840215778746</v>
-      </c>
-      <c r="CX189" s="11"/>
+        <v>2.6533792670594769</v>
+      </c>
+      <c r="CX189" s="25">
+        <v>2.3753668559948404</v>
+      </c>
       <c r="CY189" s="11"/>
       <c r="CZ189" s="11"/>
       <c r="DA189" s="11"/>
@@ -36908,43 +37128,45 @@
       <c r="CK190" s="26">
         <v>4.1315339555772557</v>
       </c>
-      <c r="CL190" s="26">
+      <c r="CL190" s="25">
         <v>4.3662514662584488</v>
       </c>
-      <c r="CM190" s="26">
+      <c r="CM190" s="25">
         <v>3.7166817159864327</v>
       </c>
-      <c r="CN190" s="26">
+      <c r="CN190" s="25">
         <v>5.4686160154472345</v>
       </c>
-      <c r="CO190" s="26">
+      <c r="CO190" s="25">
         <v>4.0741012692991214</v>
       </c>
       <c r="CP190" s="25">
-        <v>4.4221886133020725</v>
+        <v>4.4208091321192713</v>
       </c>
       <c r="CQ190" s="25">
-        <v>3.8517257228880259</v>
+        <v>3.8538433138477552</v>
       </c>
       <c r="CR190" s="25">
-        <v>5.4968565924886903</v>
+        <v>5.5005250524780971</v>
       </c>
       <c r="CS190" s="25">
-        <v>4.1310688422620627</v>
+        <v>4.1262894607775698</v>
       </c>
       <c r="CT190" s="25">
-        <v>4.5296530591382158</v>
+        <v>4.5351534742871786</v>
       </c>
       <c r="CU190" s="25">
-        <v>4.0237048771801378</v>
+        <v>4.0234101070558328</v>
       </c>
       <c r="CV190" s="25">
-        <v>5.807395393169327</v>
+        <v>5.8091823354360388</v>
       </c>
       <c r="CW190" s="25">
-        <v>4.3996347582045052</v>
-      </c>
-      <c r="CX190" s="11"/>
+        <v>4.3904074420822194</v>
+      </c>
+      <c r="CX190" s="25">
+        <v>4.7289327199139093</v>
+      </c>
       <c r="CY190" s="11"/>
       <c r="CZ190" s="11"/>
       <c r="DA190" s="11"/>
@@ -37265,43 +37487,45 @@
       <c r="CK191" s="26">
         <v>7.0244507557808182</v>
       </c>
-      <c r="CL191" s="26">
+      <c r="CL191" s="25">
         <v>8.9969026474304954</v>
       </c>
-      <c r="CM191" s="26">
+      <c r="CM191" s="25">
         <v>7.0076230360059668</v>
       </c>
-      <c r="CN191" s="26">
+      <c r="CN191" s="25">
         <v>9.295500417818964</v>
       </c>
-      <c r="CO191" s="26">
+      <c r="CO191" s="25">
         <v>7.0949016171230577</v>
       </c>
       <c r="CP191" s="25">
-        <v>9.677635593496273</v>
+        <v>9.681774093870759</v>
       </c>
       <c r="CQ191" s="25">
-        <v>8.619390771103177</v>
+        <v>8.6236190318320922</v>
       </c>
       <c r="CR191" s="25">
-        <v>10.119187133983401</v>
+        <v>10.122901261995393</v>
       </c>
       <c r="CS191" s="25">
-        <v>7.5430508371027623</v>
+        <v>7.5486792572813401</v>
       </c>
       <c r="CT191" s="25">
-        <v>9.9550842744566967</v>
+        <v>9.9463569641964966</v>
       </c>
       <c r="CU191" s="25">
-        <v>9.2085529094438971</v>
+        <v>9.2088479581205629</v>
       </c>
       <c r="CV191" s="25">
-        <v>10.244818512269664</v>
+        <v>10.242806444794994</v>
       </c>
       <c r="CW191" s="25">
-        <v>7.9919538846413367</v>
-      </c>
-      <c r="CX191" s="11"/>
+        <v>7.9769212184268996</v>
+      </c>
+      <c r="CX191" s="25">
+        <v>10.247977893097481</v>
+      </c>
       <c r="CY191" s="11"/>
       <c r="CZ191" s="11"/>
       <c r="DA191" s="11"/>
@@ -37622,43 +37846,45 @@
       <c r="CK192" s="26">
         <v>3.1221416468722425</v>
       </c>
-      <c r="CL192" s="26">
+      <c r="CL192" s="25">
         <v>3.3302903408961715</v>
       </c>
-      <c r="CM192" s="26">
+      <c r="CM192" s="25">
         <v>3.6507171886424041</v>
       </c>
-      <c r="CN192" s="26">
+      <c r="CN192" s="25">
         <v>2.7503627443486534</v>
       </c>
-      <c r="CO192" s="26">
+      <c r="CO192" s="25">
         <v>3.1046289827128981</v>
       </c>
       <c r="CP192" s="25">
-        <v>3.2746288165759792</v>
+        <v>3.2730569922671151</v>
       </c>
       <c r="CQ192" s="25">
-        <v>3.6306251453589762</v>
+        <v>3.6290296792361731</v>
       </c>
       <c r="CR192" s="25">
-        <v>2.7450103493577496</v>
+        <v>2.7398853137353805</v>
       </c>
       <c r="CS192" s="25">
-        <v>3.0883956129061092</v>
+        <v>3.078983982654778</v>
       </c>
       <c r="CT192" s="25">
-        <v>3.2796258010377435</v>
+        <v>3.2780838724902965</v>
       </c>
       <c r="CU192" s="25">
-        <v>3.696811544407407</v>
+        <v>3.7102284514250452</v>
       </c>
       <c r="CV192" s="25">
-        <v>2.718559528338552</v>
+        <v>2.7161006156470973</v>
       </c>
       <c r="CW192" s="25">
-        <v>3.0600280597416907</v>
-      </c>
-      <c r="CX192" s="11"/>
+        <v>3.051891236968173</v>
+      </c>
+      <c r="CX192" s="25">
+        <v>3.3112692423517727</v>
+      </c>
       <c r="CY192" s="11"/>
       <c r="CZ192" s="11"/>
       <c r="DA192" s="11"/>
@@ -37979,43 +38205,45 @@
       <c r="CK193" s="26">
         <v>1.7412296168903436</v>
       </c>
-      <c r="CL193" s="26">
+      <c r="CL193" s="25">
         <v>1.5552565427073535</v>
       </c>
-      <c r="CM193" s="26">
+      <c r="CM193" s="25">
         <v>1.1846584408637295</v>
       </c>
-      <c r="CN193" s="26">
+      <c r="CN193" s="25">
         <v>1.464499294029858</v>
       </c>
-      <c r="CO193" s="26">
+      <c r="CO193" s="25">
         <v>1.8851131643095567</v>
       </c>
       <c r="CP193" s="25">
-        <v>1.8699071887499783</v>
+        <v>1.8707068274194414</v>
       </c>
       <c r="CQ193" s="25">
-        <v>1.3552765865301848</v>
+        <v>1.3570785025140042</v>
       </c>
       <c r="CR193" s="25">
-        <v>1.6044658553968614</v>
+        <v>1.6070609967167298</v>
       </c>
       <c r="CS193" s="25">
-        <v>1.9321984551199538</v>
+        <v>1.922815500189377</v>
       </c>
       <c r="CT193" s="25">
-        <v>1.9554863072860775</v>
+        <v>1.9590489985622244</v>
       </c>
       <c r="CU193" s="25">
-        <v>1.508827862533906</v>
+        <v>1.5110559429774044</v>
       </c>
       <c r="CV193" s="25">
-        <v>1.5790679691638352</v>
+        <v>1.5754890787031228</v>
       </c>
       <c r="CW193" s="25">
-        <v>2.0374084906183456</v>
-      </c>
-      <c r="CX193" s="11"/>
+        <v>2.003429127337911</v>
+      </c>
+      <c r="CX193" s="25">
+        <v>2.0415667180930619</v>
+      </c>
       <c r="CY193" s="11"/>
       <c r="CZ193" s="11"/>
       <c r="DA193" s="11"/>
@@ -38336,43 +38564,45 @@
       <c r="CK194" s="26">
         <v>4.973501027620439</v>
       </c>
-      <c r="CL194" s="26">
+      <c r="CL194" s="25">
         <v>5.6726365061279393</v>
       </c>
-      <c r="CM194" s="26">
+      <c r="CM194" s="25">
         <v>5.1562523780031757</v>
       </c>
-      <c r="CN194" s="26">
+      <c r="CN194" s="25">
         <v>5.7540292045901786</v>
       </c>
-      <c r="CO194" s="26">
+      <c r="CO194" s="25">
         <v>5.1095564517014749</v>
       </c>
       <c r="CP194" s="25">
-        <v>5.7005434720038473</v>
+        <v>5.6664604268262826</v>
       </c>
       <c r="CQ194" s="25">
-        <v>5.2387090946108348</v>
+        <v>5.1953744418236036</v>
       </c>
       <c r="CR194" s="25">
-        <v>5.8387089883616214</v>
+        <v>5.7860269308759138</v>
       </c>
       <c r="CS194" s="25">
-        <v>5.2514147486778802</v>
+        <v>5.2250336709513103</v>
       </c>
       <c r="CT194" s="25">
-        <v>5.6598757525951848</v>
+        <v>5.6910556274640287</v>
       </c>
       <c r="CU194" s="25">
-        <v>5.0104353207174368</v>
+        <v>5.0057497492738312</v>
       </c>
       <c r="CV194" s="25">
-        <v>5.6955390765435698</v>
+        <v>5.6969118022387537</v>
       </c>
       <c r="CW194" s="25">
-        <v>5.2763046593381837</v>
-      </c>
-      <c r="CX194" s="11"/>
+        <v>5.2903809107924626</v>
+      </c>
+      <c r="CX194" s="25">
+        <v>5.7957934624731742</v>
+      </c>
       <c r="CY194" s="11"/>
       <c r="CZ194" s="11"/>
       <c r="DA194" s="11"/>
@@ -38693,43 +38923,45 @@
       <c r="CK195" s="26">
         <v>6.5445230375477887</v>
       </c>
-      <c r="CL195" s="26">
+      <c r="CL195" s="25">
         <v>8.1624650777943071</v>
       </c>
-      <c r="CM195" s="26">
+      <c r="CM195" s="25">
         <v>4.9601682989347511</v>
       </c>
-      <c r="CN195" s="26">
+      <c r="CN195" s="25">
         <v>6.9815982479562209</v>
       </c>
-      <c r="CO195" s="26">
+      <c r="CO195" s="25">
         <v>7.6492882747669801</v>
       </c>
       <c r="CP195" s="25">
-        <v>9.5216131452697201</v>
+        <v>9.5256849249252493</v>
       </c>
       <c r="CQ195" s="25">
-        <v>5.7804945110082988</v>
+        <v>5.7833301450763299</v>
       </c>
       <c r="CR195" s="25">
-        <v>7.6565797444036239</v>
+        <v>7.6607534089583318</v>
       </c>
       <c r="CS195" s="25">
-        <v>8.3987619485502396</v>
+        <v>8.3758626913134364</v>
       </c>
       <c r="CT195" s="25">
-        <v>10.184928099845413</v>
+        <v>10.177562915078173</v>
       </c>
       <c r="CU195" s="25">
-        <v>6.1338172306017595</v>
+        <v>6.133006284694118</v>
       </c>
       <c r="CV195" s="25">
-        <v>8.0053052278001946</v>
+        <v>8.0064331306908141</v>
       </c>
       <c r="CW195" s="25">
-        <v>8.4471553808304645</v>
-      </c>
-      <c r="CX195" s="11"/>
+        <v>8.4440857689036832</v>
+      </c>
+      <c r="CX195" s="25">
+        <v>10.241131945172244</v>
+      </c>
       <c r="CY195" s="11"/>
       <c r="CZ195" s="11"/>
       <c r="DA195" s="11"/>
@@ -39050,43 +39282,45 @@
       <c r="CK196" s="26">
         <v>15.269043600670045</v>
       </c>
-      <c r="CL196" s="26">
+      <c r="CL196" s="25">
         <v>13.688238148255669</v>
       </c>
-      <c r="CM196" s="26">
+      <c r="CM196" s="25">
         <v>13.189884556674352</v>
       </c>
-      <c r="CN196" s="26">
+      <c r="CN196" s="25">
         <v>14.512913779271694</v>
       </c>
-      <c r="CO196" s="26">
+      <c r="CO196" s="25">
         <v>15.231199495153092</v>
       </c>
       <c r="CP196" s="25">
-        <v>13.998583754644262</v>
+        <v>14.004570045797744</v>
       </c>
       <c r="CQ196" s="25">
-        <v>13.173763881944165</v>
+        <v>13.178996347107885</v>
       </c>
       <c r="CR196" s="25">
-        <v>14.954728906832745</v>
+        <v>14.958678815367415</v>
       </c>
       <c r="CS196" s="25">
-        <v>15.964726142796071</v>
+        <v>15.961293698666065</v>
       </c>
       <c r="CT196" s="25">
-        <v>14.11155201982441</v>
+        <v>14.104237800494298</v>
       </c>
       <c r="CU196" s="25">
-        <v>13.552010387681312</v>
+        <v>13.543469352432998</v>
       </c>
       <c r="CV196" s="25">
-        <v>15.232779127876061</v>
+        <v>15.231792475750566</v>
       </c>
       <c r="CW196" s="25">
-        <v>16.429214550873663</v>
-      </c>
-      <c r="CX196" s="11"/>
+        <v>16.395212951409896</v>
+      </c>
+      <c r="CX196" s="25">
+        <v>14.022334511858652</v>
+      </c>
       <c r="CY196" s="11"/>
       <c r="CZ196" s="11"/>
       <c r="DA196" s="11"/>
@@ -39228,10 +39462,10 @@
       <c r="CI197" s="11"/>
       <c r="CJ197" s="11"/>
       <c r="CK197" s="11"/>
-      <c r="CL197" s="11"/>
-      <c r="CM197" s="11"/>
-      <c r="CN197" s="11"/>
-      <c r="CO197" s="11"/>
+      <c r="CL197" s="13"/>
+      <c r="CM197" s="13"/>
+      <c r="CN197" s="13"/>
+      <c r="CO197" s="13"/>
       <c r="CP197" s="13"/>
       <c r="CQ197" s="13"/>
       <c r="CR197" s="13"/>
@@ -39240,7 +39474,7 @@
       <c r="CU197" s="13"/>
       <c r="CV197" s="13"/>
       <c r="CW197" s="13"/>
-      <c r="CX197" s="11"/>
+      <c r="CX197" s="13"/>
       <c r="CY197" s="11"/>
       <c r="CZ197" s="11"/>
       <c r="DA197" s="11"/>
@@ -39561,16 +39795,16 @@
       <c r="CK198" s="26">
         <v>100</v>
       </c>
-      <c r="CL198" s="26">
+      <c r="CL198" s="25">
         <v>100</v>
       </c>
-      <c r="CM198" s="26">
+      <c r="CM198" s="25">
         <v>100</v>
       </c>
-      <c r="CN198" s="26">
+      <c r="CN198" s="25">
         <v>100</v>
       </c>
-      <c r="CO198" s="26">
+      <c r="CO198" s="25">
         <v>100</v>
       </c>
       <c r="CP198" s="25">
@@ -39597,7 +39831,9 @@
       <c r="CW198" s="25">
         <v>100</v>
       </c>
-      <c r="CX198" s="11"/>
+      <c r="CX198" s="25">
+        <v>100</v>
+      </c>
       <c r="CY198" s="11"/>
       <c r="CZ198" s="11"/>
       <c r="DA198" s="11"/>
@@ -39740,10 +39976,10 @@
       <c r="CI199" s="16"/>
       <c r="CJ199" s="16"/>
       <c r="CK199" s="16"/>
-      <c r="CL199" s="16"/>
-      <c r="CM199" s="16"/>
-      <c r="CN199" s="16"/>
-      <c r="CO199" s="16"/>
+      <c r="CL199" s="17"/>
+      <c r="CM199" s="17"/>
+      <c r="CN199" s="17"/>
+      <c r="CO199" s="17"/>
       <c r="CP199" s="17"/>
       <c r="CQ199" s="17"/>
       <c r="CR199" s="17"/>
@@ -39752,6 +39988,7 @@
       <c r="CU199" s="17"/>
       <c r="CV199" s="17"/>
       <c r="CW199" s="17"/>
+      <c r="CX199" s="17"/>
     </row>
     <row r="200" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A200" s="18" t="s">
@@ -39848,19 +40085,19 @@
       <c r="CI201" s="1"/>
       <c r="CJ201" s="1"/>
       <c r="CK201" s="1"/>
-      <c r="CL201" s="1"/>
-      <c r="CM201" s="1"/>
-      <c r="CN201" s="1"/>
-      <c r="CO201" s="1"/>
+      <c r="CL201" s="2"/>
+      <c r="CM201" s="2"/>
+      <c r="CN201" s="2"/>
+      <c r="CO201" s="2"/>
       <c r="CP201" s="2"/>
       <c r="CQ201" s="2"/>
       <c r="CR201" s="2"/>
       <c r="CS201" s="2"/>
-      <c r="CT201" s="39"/>
-      <c r="CU201" s="39"/>
-      <c r="CV201" s="39"/>
+      <c r="CT201" s="2"/>
+      <c r="CU201" s="2"/>
+      <c r="CV201" s="2"/>
       <c r="CW201" s="2"/>
-      <c r="CX201" s="28"/>
+      <c r="CX201" s="2"/>
       <c r="CY201" s="28"/>
       <c r="CZ201" s="28"/>
       <c r="DA201" s="28"/>
@@ -40003,10 +40240,10 @@
       <c r="CI202" s="1"/>
       <c r="CJ202" s="1"/>
       <c r="CK202" s="1"/>
-      <c r="CL202" s="1"/>
-      <c r="CM202" s="1"/>
-      <c r="CN202" s="1"/>
-      <c r="CO202" s="1"/>
+      <c r="CL202" s="2"/>
+      <c r="CM202" s="2"/>
+      <c r="CN202" s="2"/>
+      <c r="CO202" s="2"/>
       <c r="CP202" s="2"/>
       <c r="CQ202" s="2"/>
       <c r="CR202" s="2"/>
@@ -40015,7 +40252,7 @@
       <c r="CU202" s="2"/>
       <c r="CV202" s="2"/>
       <c r="CW202" s="2"/>
-      <c r="CX202" s="28"/>
+      <c r="CX202" s="2"/>
       <c r="CY202" s="28"/>
       <c r="CZ202" s="28"/>
       <c r="DA202" s="28"/>
@@ -40070,51 +40307,84 @@
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="AH124:AK124"/>
-    <mergeCell ref="BR182:BU182"/>
-    <mergeCell ref="BV182:BY182"/>
-    <mergeCell ref="BZ124:CC124"/>
-    <mergeCell ref="BR124:BU124"/>
-    <mergeCell ref="BV124:BY124"/>
-    <mergeCell ref="BR153:BU153"/>
-    <mergeCell ref="BV153:BY153"/>
-    <mergeCell ref="BZ153:CC153"/>
-    <mergeCell ref="AH153:AK153"/>
-    <mergeCell ref="BN182:BQ182"/>
-    <mergeCell ref="BB153:BE153"/>
-    <mergeCell ref="BF153:BI153"/>
-    <mergeCell ref="BJ153:BM153"/>
-    <mergeCell ref="BN153:BQ153"/>
-    <mergeCell ref="AP153:AS153"/>
-    <mergeCell ref="AT153:AW153"/>
-    <mergeCell ref="AX153:BA153"/>
-    <mergeCell ref="BJ96:BM96"/>
-    <mergeCell ref="BB38:BE38"/>
-    <mergeCell ref="BJ38:BM38"/>
-    <mergeCell ref="BF124:BI124"/>
-    <mergeCell ref="BJ124:BM124"/>
-    <mergeCell ref="BN124:BQ124"/>
-    <mergeCell ref="BN67:BQ67"/>
-    <mergeCell ref="BF38:BI38"/>
-    <mergeCell ref="AX38:BA38"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD38:CG38"/>
-    <mergeCell ref="CD124:CG124"/>
-    <mergeCell ref="CD153:CG153"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BR67:BU67"/>
-    <mergeCell ref="BV67:BY67"/>
-    <mergeCell ref="BR96:BU96"/>
-    <mergeCell ref="BV96:BY96"/>
-    <mergeCell ref="BZ38:CC38"/>
-    <mergeCell ref="CD67:CG67"/>
-    <mergeCell ref="CD96:CG96"/>
-    <mergeCell ref="BR38:BU38"/>
-    <mergeCell ref="BV38:BY38"/>
-    <mergeCell ref="BZ67:CC67"/>
-    <mergeCell ref="BZ96:CC96"/>
+    <mergeCell ref="CD182:CG182"/>
+    <mergeCell ref="B182:E182"/>
+    <mergeCell ref="F182:I182"/>
+    <mergeCell ref="J182:M182"/>
+    <mergeCell ref="N182:Q182"/>
+    <mergeCell ref="R182:U182"/>
+    <mergeCell ref="V182:Y182"/>
+    <mergeCell ref="Z182:AC182"/>
+    <mergeCell ref="AD182:AG182"/>
+    <mergeCell ref="AH182:AK182"/>
+    <mergeCell ref="AX182:BA182"/>
+    <mergeCell ref="BB182:BE182"/>
+    <mergeCell ref="BZ182:CC182"/>
+    <mergeCell ref="AL182:AO182"/>
+    <mergeCell ref="AP182:AS182"/>
+    <mergeCell ref="AT182:AW182"/>
+    <mergeCell ref="BF182:BI182"/>
+    <mergeCell ref="BJ182:BM182"/>
+    <mergeCell ref="V153:Y153"/>
+    <mergeCell ref="Z153:AC153"/>
+    <mergeCell ref="AD153:AG153"/>
+    <mergeCell ref="B153:E153"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="F96:I96"/>
+    <mergeCell ref="J96:M96"/>
+    <mergeCell ref="N96:Q96"/>
+    <mergeCell ref="R96:U96"/>
+    <mergeCell ref="V96:Y96"/>
+    <mergeCell ref="Z96:AC96"/>
+    <mergeCell ref="AD96:AG96"/>
+    <mergeCell ref="B124:E124"/>
+    <mergeCell ref="F124:I124"/>
+    <mergeCell ref="J124:M124"/>
+    <mergeCell ref="N124:Q124"/>
+    <mergeCell ref="R124:U124"/>
+    <mergeCell ref="V124:Y124"/>
+    <mergeCell ref="Z124:AC124"/>
+    <mergeCell ref="AD124:AG124"/>
+    <mergeCell ref="F153:I153"/>
+    <mergeCell ref="J153:M153"/>
+    <mergeCell ref="N153:Q153"/>
+    <mergeCell ref="R153:U153"/>
+    <mergeCell ref="R38:U38"/>
+    <mergeCell ref="V38:Y38"/>
+    <mergeCell ref="AH96:AK96"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="N67:Q67"/>
+    <mergeCell ref="R67:U67"/>
+    <mergeCell ref="V67:Y67"/>
+    <mergeCell ref="Z67:AC67"/>
+    <mergeCell ref="AD67:AG67"/>
+    <mergeCell ref="AH67:AK67"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AL67:AO67"/>
+    <mergeCell ref="AP67:AS67"/>
+    <mergeCell ref="AT67:AW67"/>
+    <mergeCell ref="Z38:AC38"/>
+    <mergeCell ref="AD38:AG38"/>
+    <mergeCell ref="AH38:AK38"/>
+    <mergeCell ref="AL38:AO38"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AP38:AS38"/>
+    <mergeCell ref="AT38:AW38"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="N38:Q38"/>
     <mergeCell ref="BJ9:BM9"/>
     <mergeCell ref="BN9:BQ9"/>
     <mergeCell ref="AL153:AO153"/>
@@ -40139,92 +40409,59 @@
     <mergeCell ref="BB67:BE67"/>
     <mergeCell ref="BF67:BI67"/>
     <mergeCell ref="BJ67:BM67"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AL67:AO67"/>
-    <mergeCell ref="AP67:AS67"/>
-    <mergeCell ref="AT67:AW67"/>
-    <mergeCell ref="Z38:AC38"/>
-    <mergeCell ref="AD38:AG38"/>
-    <mergeCell ref="AH38:AK38"/>
-    <mergeCell ref="AL38:AO38"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AP38:AS38"/>
-    <mergeCell ref="AT38:AW38"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="R38:U38"/>
-    <mergeCell ref="V38:Y38"/>
-    <mergeCell ref="AH96:AK96"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="N67:Q67"/>
-    <mergeCell ref="R67:U67"/>
-    <mergeCell ref="V67:Y67"/>
-    <mergeCell ref="Z67:AC67"/>
-    <mergeCell ref="AD67:AG67"/>
-    <mergeCell ref="AH67:AK67"/>
-    <mergeCell ref="V153:Y153"/>
-    <mergeCell ref="Z153:AC153"/>
-    <mergeCell ref="AD153:AG153"/>
-    <mergeCell ref="B153:E153"/>
-    <mergeCell ref="B96:E96"/>
-    <mergeCell ref="F96:I96"/>
-    <mergeCell ref="J96:M96"/>
-    <mergeCell ref="N96:Q96"/>
-    <mergeCell ref="R96:U96"/>
-    <mergeCell ref="V96:Y96"/>
-    <mergeCell ref="Z96:AC96"/>
-    <mergeCell ref="AD96:AG96"/>
-    <mergeCell ref="B124:E124"/>
-    <mergeCell ref="F124:I124"/>
-    <mergeCell ref="J124:M124"/>
-    <mergeCell ref="N124:Q124"/>
-    <mergeCell ref="R124:U124"/>
-    <mergeCell ref="V124:Y124"/>
-    <mergeCell ref="Z124:AC124"/>
-    <mergeCell ref="AD124:AG124"/>
-    <mergeCell ref="F153:I153"/>
-    <mergeCell ref="J153:M153"/>
-    <mergeCell ref="N153:Q153"/>
-    <mergeCell ref="R153:U153"/>
-    <mergeCell ref="CD182:CG182"/>
-    <mergeCell ref="B182:E182"/>
-    <mergeCell ref="F182:I182"/>
-    <mergeCell ref="J182:M182"/>
-    <mergeCell ref="N182:Q182"/>
-    <mergeCell ref="R182:U182"/>
-    <mergeCell ref="V182:Y182"/>
-    <mergeCell ref="Z182:AC182"/>
-    <mergeCell ref="AD182:AG182"/>
-    <mergeCell ref="AH182:AK182"/>
-    <mergeCell ref="AX182:BA182"/>
-    <mergeCell ref="BB182:BE182"/>
-    <mergeCell ref="BZ182:CC182"/>
-    <mergeCell ref="AL182:AO182"/>
-    <mergeCell ref="AP182:AS182"/>
-    <mergeCell ref="AT182:AW182"/>
-    <mergeCell ref="BF182:BI182"/>
-    <mergeCell ref="BJ182:BM182"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD38:CG38"/>
+    <mergeCell ref="CD124:CG124"/>
+    <mergeCell ref="CD153:CG153"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BR67:BU67"/>
+    <mergeCell ref="BV67:BY67"/>
+    <mergeCell ref="BR96:BU96"/>
+    <mergeCell ref="BV96:BY96"/>
+    <mergeCell ref="BZ38:CC38"/>
+    <mergeCell ref="CD67:CG67"/>
+    <mergeCell ref="CD96:CG96"/>
+    <mergeCell ref="BR38:BU38"/>
+    <mergeCell ref="BV38:BY38"/>
+    <mergeCell ref="BZ67:CC67"/>
+    <mergeCell ref="BZ96:CC96"/>
+    <mergeCell ref="BJ96:BM96"/>
+    <mergeCell ref="BB38:BE38"/>
+    <mergeCell ref="BJ38:BM38"/>
+    <mergeCell ref="BF124:BI124"/>
+    <mergeCell ref="BJ124:BM124"/>
+    <mergeCell ref="BN124:BQ124"/>
+    <mergeCell ref="BN67:BQ67"/>
+    <mergeCell ref="BF38:BI38"/>
+    <mergeCell ref="AX38:BA38"/>
+    <mergeCell ref="AH124:AK124"/>
+    <mergeCell ref="BR182:BU182"/>
+    <mergeCell ref="BV182:BY182"/>
+    <mergeCell ref="BZ124:CC124"/>
+    <mergeCell ref="BR124:BU124"/>
+    <mergeCell ref="BV124:BY124"/>
+    <mergeCell ref="BR153:BU153"/>
+    <mergeCell ref="BV153:BY153"/>
+    <mergeCell ref="BZ153:CC153"/>
+    <mergeCell ref="AH153:AK153"/>
+    <mergeCell ref="BN182:BQ182"/>
+    <mergeCell ref="BB153:BE153"/>
+    <mergeCell ref="BF153:BI153"/>
+    <mergeCell ref="BJ153:BM153"/>
+    <mergeCell ref="BN153:BQ153"/>
+    <mergeCell ref="AP153:AS153"/>
+    <mergeCell ref="AT153:AW153"/>
+    <mergeCell ref="AX153:BA153"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="44" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="58" max="100" man="1"/>
-    <brk id="116" max="100" man="1"/>
-    <brk id="144" max="100" man="1"/>
+    <brk id="58" max="101" man="1"/>
+    <brk id="116" max="101" man="1"/>
+    <brk id="144" max="101" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-02HFCE_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-02HFCE_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2025\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2025\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF267F3-59E0-46DB-A32D-826935E4C703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC3E591-8FF2-4D3B-AC45-85066F4677B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="64">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -229,13 +229,13 @@
     <t>2024 - 2025</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2025</t>
+    <t>As of August 2025</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2025</t>
+    <t>Q1 2000 to Q2 2025</t>
   </si>
   <si>
-    <t>As of May 2025</t>
+    <t>Q1 2001 to Q2 2025</t>
   </si>
 </sst>
 </file>
@@ -243,10 +243,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -319,10 +319,10 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -342,32 +342,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -377,13 +377,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -732,11 +732,11 @@
   <dimension ref="A1:EW202"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="CL2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="CQ2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="CA66" sqref="CA66"/>
       <selection pane="topRight" activeCell="CA66" sqref="CA66"/>
       <selection pane="bottomLeft" activeCell="CA66" sqref="CA66"/>
-      <selection pane="bottomRight" activeCell="CX1" sqref="CX1"/>
+      <selection pane="bottomRight" activeCell="CY1" sqref="CY1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -744,8 +744,8 @@
     <col min="1" max="1" width="38.88671875" style="1" customWidth="1"/>
     <col min="2" max="69" width="11.109375" style="2" customWidth="1"/>
     <col min="70" max="89" width="11.109375" style="1" customWidth="1"/>
-    <col min="90" max="102" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="103" max="16384" width="7.77734375" style="1"/>
+    <col min="90" max="103" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="104" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:153" x14ac:dyDescent="0.2">
@@ -760,7 +760,7 @@
     </row>
     <row r="3" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:153" x14ac:dyDescent="0.2">
@@ -770,7 +770,7 @@
     </row>
     <row r="6" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:153" x14ac:dyDescent="0.2">
@@ -933,6 +933,7 @@
       <c r="CX9" s="35">
         <v>2025</v>
       </c>
+      <c r="CY9" s="35"/>
     </row>
     <row r="10" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -1240,6 +1241,9 @@
       </c>
       <c r="CX10" s="6" t="s">
         <v>19</v>
+      </c>
+      <c r="CY10" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:153" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1550,9 +1554,11 @@
         <v>2162044.6171398368</v>
       </c>
       <c r="CX12" s="9">
-        <v>1734887.1469660599</v>
-      </c>
-      <c r="CY12" s="11"/>
+        <v>1739032.9216468222</v>
+      </c>
+      <c r="CY12" s="9">
+        <v>1912472.8891737878</v>
+      </c>
       <c r="CZ12" s="11"/>
       <c r="DA12" s="11"/>
       <c r="DB12" s="11"/>
@@ -1909,9 +1915,11 @@
         <v>124543.37838654699</v>
       </c>
       <c r="CX13" s="9">
-        <v>92342.468078674035</v>
-      </c>
-      <c r="CY13" s="11"/>
+        <v>92362.791113174331</v>
+      </c>
+      <c r="CY13" s="9">
+        <v>86552.496906400003</v>
+      </c>
       <c r="CZ13" s="11"/>
       <c r="DA13" s="11"/>
       <c r="DB13" s="11"/>
@@ -2268,9 +2276,11 @@
         <v>93902.795225128575</v>
       </c>
       <c r="CX14" s="9">
-        <v>65317.153480865432</v>
-      </c>
-      <c r="CY14" s="11"/>
+        <v>65079.664639905059</v>
+      </c>
+      <c r="CY14" s="9">
+        <v>52259.712213336432</v>
+      </c>
       <c r="CZ14" s="11"/>
       <c r="DA14" s="11"/>
       <c r="DB14" s="11"/>
@@ -2627,9 +2637,11 @@
         <v>614054.36448713182</v>
       </c>
       <c r="CX15" s="9">
-        <v>561595.47827925475</v>
-      </c>
-      <c r="CY15" s="11"/>
+        <v>560592.39430115058</v>
+      </c>
+      <c r="CY15" s="9">
+        <v>715758.04437039909</v>
+      </c>
       <c r="CZ15" s="11"/>
       <c r="DA15" s="11"/>
       <c r="DB15" s="11"/>
@@ -2986,9 +2998,11 @@
         <v>147767.90231364404</v>
       </c>
       <c r="CX16" s="9">
-        <v>121247.09726119338</v>
-      </c>
-      <c r="CY16" s="11"/>
+        <v>122290.55596765227</v>
+      </c>
+      <c r="CY16" s="9">
+        <v>114693.10285810464</v>
+      </c>
       <c r="CZ16" s="11"/>
       <c r="DA16" s="11"/>
       <c r="DB16" s="11"/>
@@ -3345,9 +3359,11 @@
         <v>247318.81060222766</v>
       </c>
       <c r="CX17" s="9">
-        <v>228972.93731324174</v>
-      </c>
-      <c r="CY17" s="11"/>
+        <v>229434.65337623964</v>
+      </c>
+      <c r="CY17" s="9">
+        <v>199073.01957684947</v>
+      </c>
       <c r="CZ17" s="11"/>
       <c r="DA17" s="11"/>
       <c r="DB17" s="11"/>
@@ -3704,9 +3720,11 @@
         <v>464043.1526550423</v>
       </c>
       <c r="CX18" s="9">
-        <v>557498.6238903926</v>
-      </c>
-      <c r="CY18" s="11"/>
+        <v>557556.77390960406</v>
+      </c>
+      <c r="CY18" s="9">
+        <v>482467.27959665802</v>
+      </c>
       <c r="CZ18" s="11"/>
       <c r="DA18" s="11"/>
       <c r="DB18" s="11"/>
@@ -4063,9 +4081,11 @@
         <v>139247.27733421652</v>
       </c>
       <c r="CX19" s="9">
-        <v>143437.22210288173</v>
-      </c>
-      <c r="CY19" s="11"/>
+        <v>142284.7414504984</v>
+      </c>
+      <c r="CY19" s="9">
+        <v>151091.54245982703</v>
+      </c>
       <c r="CZ19" s="11"/>
       <c r="DA19" s="11"/>
       <c r="DB19" s="11"/>
@@ -4422,9 +4442,11 @@
         <v>106868.69742001814</v>
       </c>
       <c r="CX20" s="9">
-        <v>96321.104570154654</v>
-      </c>
-      <c r="CY20" s="11"/>
+        <v>95832.357670154655</v>
+      </c>
+      <c r="CY20" s="9">
+        <v>69205.522444502625</v>
+      </c>
       <c r="CZ20" s="11"/>
       <c r="DA20" s="11"/>
       <c r="DB20" s="11"/>
@@ -4781,9 +4803,11 @@
         <v>271497.04271244386</v>
       </c>
       <c r="CX21" s="9">
-        <v>275940.3223190729</v>
-      </c>
-      <c r="CY21" s="11"/>
+        <v>274487.10755094176</v>
+      </c>
+      <c r="CY21" s="9">
+        <v>247290.33901176177</v>
+      </c>
       <c r="CZ21" s="11"/>
       <c r="DA21" s="11"/>
       <c r="DB21" s="11"/>
@@ -5140,9 +5164,11 @@
         <v>499380.11673069955</v>
       </c>
       <c r="CX22" s="9">
-        <v>542012.530055949</v>
-      </c>
-      <c r="CY22" s="11"/>
+        <v>543358.73903827975</v>
+      </c>
+      <c r="CY22" s="9">
+        <v>312431.51421393396</v>
+      </c>
       <c r="CZ22" s="11"/>
       <c r="DA22" s="11"/>
       <c r="DB22" s="11"/>
@@ -5499,9 +5525,11 @@
         <v>858697.14329350879</v>
       </c>
       <c r="CX23" s="9">
-        <v>731820.03261882951</v>
-      </c>
-      <c r="CY23" s="11"/>
+        <v>729278.39016381756</v>
+      </c>
+      <c r="CY23" s="9">
+        <v>685188.29995057802</v>
+      </c>
       <c r="CZ23" s="11"/>
       <c r="DA23" s="11"/>
       <c r="DB23" s="11"/>
@@ -5655,7 +5683,7 @@
       <c r="CV24" s="13"/>
       <c r="CW24" s="13"/>
       <c r="CX24" s="13"/>
-      <c r="CY24" s="11"/>
+      <c r="CY24" s="13"/>
       <c r="CZ24" s="11"/>
       <c r="DA24" s="11"/>
       <c r="DB24" s="11"/>
@@ -6012,9 +6040,11 @@
         <v>5729365.2983004451</v>
       </c>
       <c r="CX25" s="36">
-        <v>5151392.11693657</v>
-      </c>
-      <c r="CY25" s="11"/>
+        <v>5151591.0908282408</v>
+      </c>
+      <c r="CY25" s="36">
+        <v>5028483.7627761383</v>
+      </c>
       <c r="CZ25" s="11"/>
       <c r="DA25" s="11"/>
       <c r="DB25" s="11"/>
@@ -6169,6 +6199,7 @@
       <c r="CV26" s="17"/>
       <c r="CW26" s="17"/>
       <c r="CX26" s="17"/>
+      <c r="CY26" s="17"/>
     </row>
     <row r="27" spans="1:153" x14ac:dyDesc